--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="9405"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -663,7 +663,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,54 +844,6 @@
         <bgColor theme="3" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="lightDown">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightDown">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor theme="1" tint="0.249977111117893"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightDown">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightDown">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightDown">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor theme="9" tint="-0.249977111117893"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightDown">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightDown">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor theme="7" tint="0.39997558519241921"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightDown">
-        <fgColor theme="0" tint="-0.24994659260841701"/>
-        <bgColor theme="3" tint="0.39997558519241921"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="120">
     <border>
@@ -2407,7 +2359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3191,15 +3143,72 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="119" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3212,18 +3221,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3236,131 +3236,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="93" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="94" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="95" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="112" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="88" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="83" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="86" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="53" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="82" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="78" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="93" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="94" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="95" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="112" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="88" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="86" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4959,8 +4857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:DL76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4971,8 +4869,7 @@
     <col min="4" max="4" width="41.375" customWidth="1"/>
     <col min="5" max="5" width="9" style="180"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="13" width="2.625" style="188" customWidth="1"/>
-    <col min="14" max="14" width="2.625" style="280" customWidth="1"/>
+    <col min="7" max="14" width="2.625" style="188" customWidth="1"/>
     <col min="15" max="45" width="2.625" customWidth="1"/>
     <col min="46" max="46" width="2.625" style="145" customWidth="1"/>
     <col min="47" max="52" width="2.625" customWidth="1"/>
@@ -5597,7 +5494,7 @@
       <c r="M6" s="191">
         <v>20</v>
       </c>
-      <c r="N6" s="281">
+      <c r="N6" s="191">
         <v>21</v>
       </c>
       <c r="O6" s="110">
@@ -5918,7 +5815,7 @@
       <c r="K7" s="192"/>
       <c r="L7" s="192"/>
       <c r="M7" s="192"/>
-      <c r="N7" s="282"/>
+      <c r="N7" s="292"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
@@ -6035,7 +5932,7 @@
       <c r="K8" s="193"/>
       <c r="L8" s="193"/>
       <c r="M8" s="193"/>
-      <c r="N8" s="283"/>
+      <c r="N8" s="293"/>
       <c r="O8" s="114"/>
       <c r="P8" s="114"/>
       <c r="Q8" s="114"/>
@@ -6152,7 +6049,7 @@
       <c r="K9" s="193"/>
       <c r="L9" s="193"/>
       <c r="M9" s="193"/>
-      <c r="N9" s="283"/>
+      <c r="N9" s="293"/>
       <c r="O9" s="114"/>
       <c r="P9" s="114"/>
       <c r="Q9" s="114"/>
@@ -6269,7 +6166,7 @@
       <c r="K10" s="192"/>
       <c r="L10" s="192"/>
       <c r="M10" s="192"/>
-      <c r="N10" s="284"/>
+      <c r="N10" s="294"/>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
@@ -6386,7 +6283,7 @@
       <c r="K11" s="193"/>
       <c r="L11" s="193"/>
       <c r="M11" s="193"/>
-      <c r="N11" s="283"/>
+      <c r="N11" s="293"/>
       <c r="O11" s="114"/>
       <c r="P11" s="114"/>
       <c r="Q11" s="114"/>
@@ -6503,7 +6400,7 @@
       <c r="K12" s="196"/>
       <c r="L12" s="196"/>
       <c r="M12" s="196"/>
-      <c r="N12" s="285"/>
+      <c r="N12" s="295"/>
       <c r="O12" s="138"/>
       <c r="P12" s="138"/>
       <c r="Q12" s="138"/>
@@ -6663,7 +6560,7 @@
       <c r="M17" s="199">
         <v>20</v>
       </c>
-      <c r="N17" s="286">
+      <c r="N17" s="199">
         <v>21</v>
       </c>
       <c r="O17" s="31">
@@ -6971,7 +6868,7 @@
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="262" t="s">
+      <c r="B18" s="274" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="254" t="s">
@@ -6993,7 +6890,7 @@
       <c r="K18" s="203"/>
       <c r="L18" s="204"/>
       <c r="M18" s="204"/>
-      <c r="N18" s="287"/>
+      <c r="N18" s="296"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -7097,17 +6994,17 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="262"/>
-      <c r="C19" s="306" t="s">
+      <c r="B19" s="274"/>
+      <c r="C19" s="261" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="307" t="s">
+      <c r="D19" s="262" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="308" t="s">
+      <c r="E19" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="309">
+      <c r="F19" s="264">
         <v>40350</v>
       </c>
       <c r="G19" s="205"/>
@@ -7117,7 +7014,7 @@
       <c r="K19" s="208"/>
       <c r="L19" s="209"/>
       <c r="M19" s="210"/>
-      <c r="N19" s="288"/>
+      <c r="N19" s="297"/>
       <c r="O19" s="74"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
@@ -7221,19 +7118,19 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="263" t="s">
+      <c r="B20" s="273" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="310" t="s">
+      <c r="C20" s="276" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="311" t="s">
+      <c r="D20" s="265" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="312" t="s">
+      <c r="E20" s="266" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="313">
+      <c r="F20" s="267">
         <v>40350</v>
       </c>
       <c r="G20" s="211"/>
@@ -7243,7 +7140,7 @@
       <c r="K20" s="215"/>
       <c r="L20" s="216"/>
       <c r="M20" s="217"/>
-      <c r="N20" s="289"/>
+      <c r="N20" s="298"/>
       <c r="O20" s="75"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
@@ -7347,15 +7244,15 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="262"/>
-      <c r="C21" s="314"/>
-      <c r="D21" s="311" t="s">
+      <c r="B21" s="274"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="265" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="315" t="s">
+      <c r="E21" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="313">
+      <c r="F21" s="267">
         <v>40350</v>
       </c>
       <c r="G21" s="218"/>
@@ -7365,7 +7262,7 @@
       <c r="K21" s="222"/>
       <c r="L21" s="223"/>
       <c r="M21" s="224"/>
-      <c r="N21" s="290"/>
+      <c r="N21" s="222"/>
       <c r="O21" s="76"/>
       <c r="P21" s="48"/>
       <c r="Q21" s="48"/>
@@ -7469,15 +7366,15 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="262"/>
-      <c r="C22" s="314"/>
-      <c r="D22" s="311" t="s">
+      <c r="B22" s="274"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="265" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="315" t="s">
+      <c r="E22" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="313">
+      <c r="F22" s="267">
         <v>40350</v>
       </c>
       <c r="G22" s="218"/>
@@ -7487,7 +7384,7 @@
       <c r="K22" s="208"/>
       <c r="L22" s="223"/>
       <c r="M22" s="224"/>
-      <c r="N22" s="291"/>
+      <c r="N22" s="208"/>
       <c r="O22" s="76"/>
       <c r="P22" s="48"/>
       <c r="Q22" s="48"/>
@@ -7591,15 +7488,15 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="262"/>
-      <c r="C23" s="316"/>
-      <c r="D23" s="311" t="s">
+      <c r="B23" s="274"/>
+      <c r="C23" s="278"/>
+      <c r="D23" s="265" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="315" t="s">
+      <c r="E23" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="317">
+      <c r="F23" s="269">
         <v>40350</v>
       </c>
       <c r="G23" s="218"/>
@@ -7609,7 +7506,7 @@
       <c r="K23" s="226"/>
       <c r="L23" s="227"/>
       <c r="M23" s="228"/>
-      <c r="N23" s="292"/>
+      <c r="N23" s="226"/>
       <c r="O23" s="76"/>
       <c r="P23" s="48"/>
       <c r="Q23" s="48"/>
@@ -7713,8 +7610,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="262"/>
-      <c r="C24" s="276" t="s">
+      <c r="B24" s="274"/>
+      <c r="C24" s="279" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8"/>
@@ -7731,7 +7628,7 @@
       <c r="K24" s="230"/>
       <c r="L24" s="232"/>
       <c r="M24" s="232"/>
-      <c r="N24" s="293"/>
+      <c r="N24" s="220"/>
       <c r="O24" s="129"/>
       <c r="P24" s="129"/>
       <c r="Q24" s="129"/>
@@ -7835,8 +7732,8 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="262"/>
-      <c r="C25" s="276"/>
+      <c r="B25" s="274"/>
+      <c r="C25" s="279"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="78"/>
@@ -7847,7 +7744,7 @@
       <c r="K25" s="219"/>
       <c r="L25" s="233"/>
       <c r="M25" s="233"/>
-      <c r="N25" s="294"/>
+      <c r="N25" s="219"/>
       <c r="O25" s="48"/>
       <c r="P25" s="48"/>
       <c r="Q25" s="48"/>
@@ -7951,8 +7848,8 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="262"/>
-      <c r="C26" s="276"/>
+      <c r="B26" s="274"/>
+      <c r="C26" s="279"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="81"/>
@@ -7963,7 +7860,7 @@
       <c r="K26" s="235"/>
       <c r="L26" s="237"/>
       <c r="M26" s="237"/>
-      <c r="N26" s="295"/>
+      <c r="N26" s="235"/>
       <c r="O26" s="57"/>
       <c r="P26" s="57"/>
       <c r="Q26" s="57"/>
@@ -8067,8 +7964,8 @@
       <c r="DK26" s="61"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="262"/>
-      <c r="C27" s="269" t="s">
+      <c r="B27" s="274"/>
+      <c r="C27" s="272" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="8"/>
@@ -8085,7 +7982,7 @@
       <c r="K27" s="230"/>
       <c r="L27" s="232"/>
       <c r="M27" s="232"/>
-      <c r="N27" s="296"/>
+      <c r="N27" s="299"/>
       <c r="O27" s="103"/>
       <c r="P27" s="103"/>
       <c r="Q27" s="103"/>
@@ -8189,8 +8086,8 @@
       <c r="DK27" s="67"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="262"/>
-      <c r="C28" s="269"/>
+      <c r="B28" s="274"/>
+      <c r="C28" s="272"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="78"/>
@@ -8201,7 +8098,7 @@
       <c r="K28" s="239"/>
       <c r="L28" s="233"/>
       <c r="M28" s="233"/>
-      <c r="N28" s="294"/>
+      <c r="N28" s="219"/>
       <c r="O28" s="48"/>
       <c r="P28" s="48"/>
       <c r="Q28" s="48"/>
@@ -8305,8 +8202,8 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="262"/>
-      <c r="C29" s="269"/>
+      <c r="B29" s="274"/>
+      <c r="C29" s="272"/>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
       <c r="F29" s="81"/>
@@ -8317,7 +8214,7 @@
       <c r="K29" s="235"/>
       <c r="L29" s="237"/>
       <c r="M29" s="237"/>
-      <c r="N29" s="295"/>
+      <c r="N29" s="235"/>
       <c r="O29" s="57"/>
       <c r="P29" s="57"/>
       <c r="Q29" s="57"/>
@@ -8421,8 +8318,8 @@
       <c r="DK29" s="61"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="262"/>
-      <c r="C30" s="267" t="s">
+      <c r="B30" s="274"/>
+      <c r="C30" s="286" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="8"/>
@@ -8439,7 +8336,7 @@
       <c r="K30" s="230"/>
       <c r="L30" s="232"/>
       <c r="M30" s="232"/>
-      <c r="N30" s="297"/>
+      <c r="N30" s="230"/>
       <c r="O30" s="62"/>
       <c r="P30" s="62"/>
       <c r="Q30" s="62"/>
@@ -8543,8 +8440,8 @@
       <c r="DK30" s="67"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="262"/>
-      <c r="C31" s="266"/>
+      <c r="B31" s="274"/>
+      <c r="C31" s="285"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="78"/>
@@ -8555,7 +8452,7 @@
       <c r="K31" s="219"/>
       <c r="L31" s="233"/>
       <c r="M31" s="233"/>
-      <c r="N31" s="294"/>
+      <c r="N31" s="219"/>
       <c r="O31" s="48"/>
       <c r="P31" s="48"/>
       <c r="Q31" s="48"/>
@@ -8659,8 +8556,8 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="262"/>
-      <c r="C32" s="268"/>
+      <c r="B32" s="274"/>
+      <c r="C32" s="280"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="81"/>
@@ -8671,7 +8568,7 @@
       <c r="K32" s="235"/>
       <c r="L32" s="237"/>
       <c r="M32" s="237"/>
-      <c r="N32" s="295"/>
+      <c r="N32" s="235"/>
       <c r="O32" s="57"/>
       <c r="P32" s="57"/>
       <c r="Q32" s="57"/>
@@ -8775,8 +8672,8 @@
       <c r="DK32" s="61"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="262"/>
-      <c r="C33" s="268"/>
+      <c r="B33" s="274"/>
+      <c r="C33" s="280"/>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
       <c r="F33" s="178"/>
@@ -8787,7 +8684,7 @@
       <c r="K33" s="219"/>
       <c r="L33" s="233"/>
       <c r="M33" s="233"/>
-      <c r="N33" s="294"/>
+      <c r="N33" s="219"/>
       <c r="O33" s="48"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="48"/>
@@ -8891,8 +8788,8 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="262"/>
-      <c r="C34" s="276"/>
+      <c r="B34" s="274"/>
+      <c r="C34" s="279"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
       <c r="F34" s="78"/>
@@ -8903,7 +8800,7 @@
       <c r="K34" s="219"/>
       <c r="L34" s="233"/>
       <c r="M34" s="233"/>
-      <c r="N34" s="294"/>
+      <c r="N34" s="219"/>
       <c r="O34" s="48"/>
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
@@ -9007,8 +8904,8 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B35" s="271"/>
-      <c r="C35" s="277"/>
+      <c r="B35" s="275"/>
+      <c r="C35" s="281"/>
       <c r="D35" s="17"/>
       <c r="E35" s="13"/>
       <c r="F35" s="82"/>
@@ -9019,7 +8916,7 @@
       <c r="K35" s="206"/>
       <c r="L35" s="240"/>
       <c r="M35" s="240"/>
-      <c r="N35" s="298"/>
+      <c r="N35" s="206"/>
       <c r="O35" s="48"/>
       <c r="P35" s="48"/>
       <c r="Q35" s="48"/>
@@ -9123,10 +9020,10 @@
       <c r="DK35" s="36"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="278" t="s">
+      <c r="B36" s="270" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="269" t="s">
+      <c r="C36" s="272" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -9145,7 +9042,7 @@
       <c r="K36" s="212"/>
       <c r="L36" s="243"/>
       <c r="M36" s="243"/>
-      <c r="N36" s="299"/>
+      <c r="N36" s="213"/>
       <c r="O36" s="106"/>
       <c r="P36" s="106"/>
       <c r="Q36" s="106"/>
@@ -9249,8 +9146,8 @@
       <c r="DK36" s="47"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="279"/>
-      <c r="C37" s="269"/>
+      <c r="B37" s="271"/>
+      <c r="C37" s="272"/>
       <c r="D37" s="5" t="s">
         <v>41</v>
       </c>
@@ -9267,7 +9164,7 @@
       <c r="K37" s="219"/>
       <c r="L37" s="233"/>
       <c r="M37" s="233"/>
-      <c r="N37" s="294"/>
+      <c r="N37" s="219"/>
       <c r="O37" s="48"/>
       <c r="P37" s="48"/>
       <c r="Q37" s="48"/>
@@ -9371,8 +9268,8 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="279"/>
-      <c r="C38" s="269"/>
+      <c r="B38" s="271"/>
+      <c r="C38" s="272"/>
       <c r="D38" s="5" t="s">
         <v>42</v>
       </c>
@@ -9389,7 +9286,7 @@
       <c r="K38" s="219"/>
       <c r="L38" s="233"/>
       <c r="M38" s="233"/>
-      <c r="N38" s="294"/>
+      <c r="N38" s="219"/>
       <c r="O38" s="48"/>
       <c r="P38" s="48"/>
       <c r="Q38" s="48"/>
@@ -9493,8 +9390,8 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="279"/>
-      <c r="C39" s="269"/>
+      <c r="B39" s="271"/>
+      <c r="C39" s="272"/>
       <c r="D39" s="5" t="s">
         <v>43</v>
       </c>
@@ -9511,7 +9408,7 @@
       <c r="K39" s="219"/>
       <c r="L39" s="233"/>
       <c r="M39" s="233"/>
-      <c r="N39" s="294"/>
+      <c r="N39" s="219"/>
       <c r="O39" s="48"/>
       <c r="P39" s="48"/>
       <c r="Q39" s="48"/>
@@ -9615,8 +9512,8 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="279"/>
-      <c r="C40" s="269"/>
+      <c r="B40" s="271"/>
+      <c r="C40" s="272"/>
       <c r="D40" s="5" t="s">
         <v>45</v>
       </c>
@@ -9629,7 +9526,7 @@
       <c r="K40" s="219"/>
       <c r="L40" s="233"/>
       <c r="M40" s="233"/>
-      <c r="N40" s="294"/>
+      <c r="N40" s="219"/>
       <c r="O40" s="48"/>
       <c r="P40" s="48"/>
       <c r="Q40" s="48"/>
@@ -9733,8 +9630,8 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="279"/>
-      <c r="C41" s="269"/>
+      <c r="B41" s="271"/>
+      <c r="C41" s="272"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="78"/>
@@ -9745,7 +9642,7 @@
       <c r="K41" s="235"/>
       <c r="L41" s="237"/>
       <c r="M41" s="237"/>
-      <c r="N41" s="295"/>
+      <c r="N41" s="235"/>
       <c r="O41" s="57"/>
       <c r="P41" s="57"/>
       <c r="Q41" s="57"/>
@@ -9849,8 +9746,8 @@
       <c r="DK41" s="61"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="279"/>
-      <c r="C42" s="261" t="s">
+      <c r="B42" s="271"/>
+      <c r="C42" s="282" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -9869,7 +9766,7 @@
       <c r="K42" s="219"/>
       <c r="L42" s="233"/>
       <c r="M42" s="233"/>
-      <c r="N42" s="293"/>
+      <c r="N42" s="220"/>
       <c r="O42" s="99"/>
       <c r="P42" s="99"/>
       <c r="Q42" s="48"/>
@@ -9973,8 +9870,8 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="279"/>
-      <c r="C43" s="261"/>
+      <c r="B43" s="271"/>
+      <c r="C43" s="282"/>
       <c r="D43" s="5" t="s">
         <v>47</v>
       </c>
@@ -9987,7 +9884,7 @@
       <c r="K43" s="219"/>
       <c r="L43" s="233"/>
       <c r="M43" s="233"/>
-      <c r="N43" s="294"/>
+      <c r="N43" s="219"/>
       <c r="O43" s="48"/>
       <c r="P43" s="48"/>
       <c r="Q43" s="99"/>
@@ -10091,8 +9988,8 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="279"/>
-      <c r="C44" s="261"/>
+      <c r="B44" s="271"/>
+      <c r="C44" s="282"/>
       <c r="D44" s="5" t="s">
         <v>28</v>
       </c>
@@ -10105,7 +10002,7 @@
       <c r="K44" s="219"/>
       <c r="L44" s="233"/>
       <c r="M44" s="233"/>
-      <c r="N44" s="294"/>
+      <c r="N44" s="219"/>
       <c r="O44" s="48"/>
       <c r="P44" s="48"/>
       <c r="Q44" s="48"/>
@@ -10209,8 +10106,8 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B45" s="279"/>
-      <c r="C45" s="261"/>
+      <c r="B45" s="271"/>
+      <c r="C45" s="282"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="81"/>
@@ -10221,7 +10118,7 @@
       <c r="K45" s="206"/>
       <c r="L45" s="240"/>
       <c r="M45" s="240"/>
-      <c r="N45" s="298"/>
+      <c r="N45" s="206"/>
       <c r="O45" s="32"/>
       <c r="P45" s="32"/>
       <c r="Q45" s="32"/>
@@ -10325,10 +10222,10 @@
       <c r="DK45" s="36"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="263" t="s">
+      <c r="B46" s="273" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="272" t="s">
+      <c r="C46" s="288" t="s">
         <v>37</v>
       </c>
       <c r="D46" s="20"/>
@@ -10345,7 +10242,7 @@
       <c r="K46" s="212"/>
       <c r="L46" s="243"/>
       <c r="M46" s="243"/>
-      <c r="N46" s="300"/>
+      <c r="N46" s="242"/>
       <c r="O46" s="43"/>
       <c r="P46" s="43"/>
       <c r="Q46" s="43"/>
@@ -10449,8 +10346,8 @@
       <c r="DK46" s="47"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="262"/>
-      <c r="C47" s="273"/>
+      <c r="B47" s="274"/>
+      <c r="C47" s="289"/>
       <c r="D47" s="15"/>
       <c r="E47" s="22"/>
       <c r="F47" s="84"/>
@@ -10461,7 +10358,7 @@
       <c r="K47" s="235"/>
       <c r="L47" s="237"/>
       <c r="M47" s="237"/>
-      <c r="N47" s="301"/>
+      <c r="N47" s="236"/>
       <c r="O47" s="56"/>
       <c r="P47" s="56"/>
       <c r="Q47" s="56"/>
@@ -10565,8 +10462,8 @@
       <c r="DK47" s="61"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="262"/>
-      <c r="C48" s="273" t="s">
+      <c r="B48" s="274"/>
+      <c r="C48" s="289" t="s">
         <v>48</v>
       </c>
       <c r="D48" s="14" t="s">
@@ -10583,7 +10480,7 @@
       <c r="K48" s="230"/>
       <c r="L48" s="232"/>
       <c r="M48" s="232"/>
-      <c r="N48" s="302"/>
+      <c r="N48" s="231"/>
       <c r="O48" s="63"/>
       <c r="P48" s="63"/>
       <c r="Q48" s="63"/>
@@ -10687,8 +10584,8 @@
       <c r="DK48" s="67"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="262"/>
-      <c r="C49" s="274"/>
+      <c r="B49" s="274"/>
+      <c r="C49" s="290"/>
       <c r="D49" s="16"/>
       <c r="E49" s="24"/>
       <c r="F49" s="86"/>
@@ -10699,7 +10596,7 @@
       <c r="K49" s="235"/>
       <c r="L49" s="237"/>
       <c r="M49" s="237"/>
-      <c r="N49" s="301"/>
+      <c r="N49" s="236"/>
       <c r="O49" s="56"/>
       <c r="P49" s="56"/>
       <c r="Q49" s="56"/>
@@ -10803,8 +10700,8 @@
       <c r="DK49" s="61"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="262"/>
-      <c r="C50" s="261"/>
+      <c r="B50" s="274"/>
+      <c r="C50" s="282"/>
       <c r="D50" s="14"/>
       <c r="E50" s="23"/>
       <c r="F50" s="85"/>
@@ -10815,7 +10712,7 @@
       <c r="K50" s="230"/>
       <c r="L50" s="232"/>
       <c r="M50" s="232"/>
-      <c r="N50" s="297"/>
+      <c r="N50" s="230"/>
       <c r="O50" s="62"/>
       <c r="P50" s="62"/>
       <c r="Q50" s="62"/>
@@ -10919,8 +10816,8 @@
       <c r="DK50" s="67"/>
     </row>
     <row r="51" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B51" s="271"/>
-      <c r="C51" s="261"/>
+      <c r="B51" s="275"/>
+      <c r="C51" s="282"/>
       <c r="D51" s="15"/>
       <c r="E51" s="22"/>
       <c r="F51" s="84"/>
@@ -10931,7 +10828,7 @@
       <c r="K51" s="248"/>
       <c r="L51" s="240"/>
       <c r="M51" s="240"/>
-      <c r="N51" s="298"/>
+      <c r="N51" s="206"/>
       <c r="O51" s="32"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="32"/>
@@ -11035,10 +10932,10 @@
       <c r="DK51" s="36"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="263" t="s">
+      <c r="B52" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="272" t="s">
+      <c r="C52" s="288" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="20"/>
@@ -11053,7 +10950,7 @@
       <c r="K52" s="212"/>
       <c r="L52" s="243"/>
       <c r="M52" s="243"/>
-      <c r="N52" s="300"/>
+      <c r="N52" s="242"/>
       <c r="O52" s="43"/>
       <c r="P52" s="43"/>
       <c r="Q52" s="43"/>
@@ -11157,8 +11054,8 @@
       <c r="DK52" s="47"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="262"/>
-      <c r="C53" s="273"/>
+      <c r="B53" s="274"/>
+      <c r="C53" s="289"/>
       <c r="D53" s="15"/>
       <c r="E53" s="22"/>
       <c r="F53" s="84"/>
@@ -11169,7 +11066,7 @@
       <c r="K53" s="219"/>
       <c r="L53" s="233"/>
       <c r="M53" s="233"/>
-      <c r="N53" s="303"/>
+      <c r="N53" s="239"/>
       <c r="O53" s="54"/>
       <c r="P53" s="54"/>
       <c r="Q53" s="54"/>
@@ -11273,8 +11170,8 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115">
-      <c r="B54" s="262"/>
-      <c r="C54" s="273" t="s">
+      <c r="B54" s="274"/>
+      <c r="C54" s="289" t="s">
         <v>53</v>
       </c>
       <c r="D54" s="14"/>
@@ -11289,7 +11186,7 @@
       <c r="K54" s="230"/>
       <c r="L54" s="232"/>
       <c r="M54" s="232"/>
-      <c r="N54" s="302"/>
+      <c r="N54" s="231"/>
       <c r="O54" s="63"/>
       <c r="P54" s="63"/>
       <c r="Q54" s="63"/>
@@ -11393,8 +11290,8 @@
       <c r="DK54" s="67"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="262"/>
-      <c r="C55" s="274"/>
+      <c r="B55" s="274"/>
+      <c r="C55" s="290"/>
       <c r="D55" s="16"/>
       <c r="E55" s="24"/>
       <c r="F55" s="86"/>
@@ -11405,7 +11302,7 @@
       <c r="K55" s="235"/>
       <c r="L55" s="237"/>
       <c r="M55" s="237"/>
-      <c r="N55" s="301"/>
+      <c r="N55" s="236"/>
       <c r="O55" s="56"/>
       <c r="P55" s="56"/>
       <c r="Q55" s="56"/>
@@ -11509,8 +11406,8 @@
       <c r="DK55" s="61"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="262"/>
-      <c r="C56" s="261"/>
+      <c r="B56" s="274"/>
+      <c r="C56" s="282"/>
       <c r="D56" s="14"/>
       <c r="E56" s="23"/>
       <c r="F56" s="85"/>
@@ -11521,7 +11418,7 @@
       <c r="K56" s="219"/>
       <c r="L56" s="233"/>
       <c r="M56" s="233"/>
-      <c r="N56" s="294"/>
+      <c r="N56" s="219"/>
       <c r="O56" s="48"/>
       <c r="P56" s="48"/>
       <c r="Q56" s="48"/>
@@ -11625,8 +11522,8 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B57" s="271"/>
-      <c r="C57" s="275"/>
+      <c r="B57" s="275"/>
+      <c r="C57" s="291"/>
       <c r="D57" s="25"/>
       <c r="E57" s="26"/>
       <c r="F57" s="87"/>
@@ -11637,7 +11534,7 @@
       <c r="K57" s="248"/>
       <c r="L57" s="240"/>
       <c r="M57" s="240"/>
-      <c r="N57" s="298"/>
+      <c r="N57" s="206"/>
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="32"/>
@@ -11741,10 +11638,10 @@
       <c r="DK57" s="36"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="263" t="s">
+      <c r="B58" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="265" t="s">
+      <c r="C58" s="284" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="3"/>
@@ -11759,7 +11656,7 @@
       <c r="K58" s="212"/>
       <c r="L58" s="243"/>
       <c r="M58" s="243"/>
-      <c r="N58" s="304"/>
+      <c r="N58" s="212"/>
       <c r="O58" s="42"/>
       <c r="P58" s="42"/>
       <c r="Q58" s="42"/>
@@ -11863,8 +11760,8 @@
       <c r="DK58" s="47"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="262"/>
-      <c r="C59" s="266"/>
+      <c r="B59" s="274"/>
+      <c r="C59" s="285"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6" t="s">
         <v>52</v>
@@ -11877,7 +11774,7 @@
       <c r="K59" s="219"/>
       <c r="L59" s="233"/>
       <c r="M59" s="233"/>
-      <c r="N59" s="294"/>
+      <c r="N59" s="219"/>
       <c r="O59" s="48"/>
       <c r="P59" s="48"/>
       <c r="Q59" s="48"/>
@@ -11981,8 +11878,8 @@
       <c r="DK59" s="52"/>
     </row>
     <row r="60" spans="2:115">
-      <c r="B60" s="262"/>
-      <c r="C60" s="266"/>
+      <c r="B60" s="274"/>
+      <c r="C60" s="285"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
       <c r="F60" s="78"/>
@@ -11993,7 +11890,7 @@
       <c r="K60" s="219"/>
       <c r="L60" s="233"/>
       <c r="M60" s="233"/>
-      <c r="N60" s="294"/>
+      <c r="N60" s="219"/>
       <c r="O60" s="48"/>
       <c r="P60" s="48"/>
       <c r="Q60" s="48"/>
@@ -12097,8 +11994,8 @@
       <c r="DK60" s="52"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="262"/>
-      <c r="C61" s="266"/>
+      <c r="B61" s="274"/>
+      <c r="C61" s="285"/>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
       <c r="F61" s="78"/>
@@ -12109,7 +12006,7 @@
       <c r="K61" s="219"/>
       <c r="L61" s="233"/>
       <c r="M61" s="233"/>
-      <c r="N61" s="294"/>
+      <c r="N61" s="219"/>
       <c r="O61" s="48"/>
       <c r="P61" s="48"/>
       <c r="Q61" s="48"/>
@@ -12213,8 +12110,8 @@
       <c r="DK61" s="52"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="262"/>
-      <c r="C62" s="266"/>
+      <c r="B62" s="274"/>
+      <c r="C62" s="285"/>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
       <c r="F62" s="78"/>
@@ -12225,7 +12122,7 @@
       <c r="K62" s="235"/>
       <c r="L62" s="237"/>
       <c r="M62" s="237"/>
-      <c r="N62" s="295"/>
+      <c r="N62" s="235"/>
       <c r="O62" s="57"/>
       <c r="P62" s="57"/>
       <c r="Q62" s="57"/>
@@ -12329,8 +12226,8 @@
       <c r="DK62" s="61"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="262"/>
-      <c r="C63" s="267"/>
+      <c r="B63" s="274"/>
+      <c r="C63" s="286"/>
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
       <c r="F63" s="80"/>
@@ -12341,7 +12238,7 @@
       <c r="K63" s="230"/>
       <c r="L63" s="232"/>
       <c r="M63" s="232"/>
-      <c r="N63" s="297"/>
+      <c r="N63" s="230"/>
       <c r="O63" s="62"/>
       <c r="P63" s="62"/>
       <c r="Q63" s="62"/>
@@ -12445,8 +12342,8 @@
       <c r="DK63" s="67"/>
     </row>
     <row r="64" spans="2:115">
-      <c r="B64" s="262"/>
-      <c r="C64" s="266"/>
+      <c r="B64" s="274"/>
+      <c r="C64" s="285"/>
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
       <c r="F64" s="78"/>
@@ -12457,7 +12354,7 @@
       <c r="K64" s="219"/>
       <c r="L64" s="233"/>
       <c r="M64" s="233"/>
-      <c r="N64" s="294"/>
+      <c r="N64" s="219"/>
       <c r="O64" s="48"/>
       <c r="P64" s="48"/>
       <c r="Q64" s="48"/>
@@ -12561,8 +12458,8 @@
       <c r="DK64" s="52"/>
     </row>
     <row r="65" spans="2:116">
-      <c r="B65" s="262"/>
-      <c r="C65" s="266"/>
+      <c r="B65" s="274"/>
+      <c r="C65" s="285"/>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
       <c r="F65" s="78"/>
@@ -12573,7 +12470,7 @@
       <c r="K65" s="219"/>
       <c r="L65" s="233"/>
       <c r="M65" s="233"/>
-      <c r="N65" s="294"/>
+      <c r="N65" s="219"/>
       <c r="O65" s="48"/>
       <c r="P65" s="48"/>
       <c r="Q65" s="48"/>
@@ -12677,8 +12574,8 @@
       <c r="DK65" s="52"/>
     </row>
     <row r="66" spans="2:116">
-      <c r="B66" s="262"/>
-      <c r="C66" s="266"/>
+      <c r="B66" s="274"/>
+      <c r="C66" s="285"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="F66" s="78"/>
@@ -12689,7 +12586,7 @@
       <c r="K66" s="219"/>
       <c r="L66" s="233"/>
       <c r="M66" s="233"/>
-      <c r="N66" s="294"/>
+      <c r="N66" s="219"/>
       <c r="O66" s="48"/>
       <c r="P66" s="48"/>
       <c r="Q66" s="48"/>
@@ -12793,8 +12690,8 @@
       <c r="DK66" s="52"/>
     </row>
     <row r="67" spans="2:116">
-      <c r="B67" s="262"/>
-      <c r="C67" s="266"/>
+      <c r="B67" s="274"/>
+      <c r="C67" s="285"/>
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
       <c r="F67" s="78"/>
@@ -12805,7 +12702,7 @@
       <c r="K67" s="219"/>
       <c r="L67" s="233"/>
       <c r="M67" s="233"/>
-      <c r="N67" s="294"/>
+      <c r="N67" s="219"/>
       <c r="O67" s="48"/>
       <c r="P67" s="48"/>
       <c r="Q67" s="48"/>
@@ -12909,8 +12806,8 @@
       <c r="DK67" s="52"/>
     </row>
     <row r="68" spans="2:116">
-      <c r="B68" s="262"/>
-      <c r="C68" s="268"/>
+      <c r="B68" s="274"/>
+      <c r="C68" s="280"/>
       <c r="D68" s="10"/>
       <c r="E68" s="11"/>
       <c r="F68" s="81"/>
@@ -12921,7 +12818,7 @@
       <c r="K68" s="235"/>
       <c r="L68" s="237"/>
       <c r="M68" s="237"/>
-      <c r="N68" s="295"/>
+      <c r="N68" s="235"/>
       <c r="O68" s="57"/>
       <c r="P68" s="57"/>
       <c r="Q68" s="57"/>
@@ -13025,8 +12922,8 @@
       <c r="DK68" s="61"/>
     </row>
     <row r="69" spans="2:116">
-      <c r="B69" s="262"/>
-      <c r="C69" s="267"/>
+      <c r="B69" s="274"/>
+      <c r="C69" s="286"/>
       <c r="D69" s="8"/>
       <c r="E69" s="9"/>
       <c r="F69" s="80"/>
@@ -13037,7 +12934,7 @@
       <c r="K69" s="219"/>
       <c r="L69" s="233"/>
       <c r="M69" s="233"/>
-      <c r="N69" s="294"/>
+      <c r="N69" s="219"/>
       <c r="O69" s="48"/>
       <c r="P69" s="48"/>
       <c r="Q69" s="48"/>
@@ -13142,8 +13039,8 @@
       <c r="DL69" s="7"/>
     </row>
     <row r="70" spans="2:116">
-      <c r="B70" s="262"/>
-      <c r="C70" s="266"/>
+      <c r="B70" s="274"/>
+      <c r="C70" s="285"/>
       <c r="D70" s="15"/>
       <c r="E70" s="22"/>
       <c r="F70" s="84"/>
@@ -13154,7 +13051,7 @@
       <c r="K70" s="219"/>
       <c r="L70" s="233"/>
       <c r="M70" s="233"/>
-      <c r="N70" s="294"/>
+      <c r="N70" s="219"/>
       <c r="O70" s="48"/>
       <c r="P70" s="48"/>
       <c r="Q70" s="48"/>
@@ -13259,8 +13156,8 @@
       <c r="DL70" s="7"/>
     </row>
     <row r="71" spans="2:116">
-      <c r="B71" s="262"/>
-      <c r="C71" s="266"/>
+      <c r="B71" s="274"/>
+      <c r="C71" s="285"/>
       <c r="D71" s="15"/>
       <c r="E71" s="22"/>
       <c r="F71" s="84"/>
@@ -13271,7 +13168,7 @@
       <c r="K71" s="219"/>
       <c r="L71" s="233"/>
       <c r="M71" s="233"/>
-      <c r="N71" s="294"/>
+      <c r="N71" s="219"/>
       <c r="O71" s="48"/>
       <c r="P71" s="48"/>
       <c r="Q71" s="48"/>
@@ -13376,8 +13273,8 @@
       <c r="DL71" s="7"/>
     </row>
     <row r="72" spans="2:116">
-      <c r="B72" s="262"/>
-      <c r="C72" s="268"/>
+      <c r="B72" s="274"/>
+      <c r="C72" s="280"/>
       <c r="D72" s="16"/>
       <c r="E72" s="24"/>
       <c r="F72" s="86"/>
@@ -13388,7 +13285,7 @@
       <c r="K72" s="219"/>
       <c r="L72" s="233"/>
       <c r="M72" s="233"/>
-      <c r="N72" s="294"/>
+      <c r="N72" s="219"/>
       <c r="O72" s="48"/>
       <c r="P72" s="48"/>
       <c r="Q72" s="48"/>
@@ -13493,8 +13390,8 @@
       <c r="DL72" s="7"/>
     </row>
     <row r="73" spans="2:116">
-      <c r="B73" s="262"/>
-      <c r="C73" s="269"/>
+      <c r="B73" s="274"/>
+      <c r="C73" s="272"/>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
       <c r="F73" s="78"/>
@@ -13505,7 +13402,7 @@
       <c r="K73" s="230"/>
       <c r="L73" s="232"/>
       <c r="M73" s="232"/>
-      <c r="N73" s="297"/>
+      <c r="N73" s="230"/>
       <c r="O73" s="62"/>
       <c r="P73" s="62"/>
       <c r="Q73" s="62"/>
@@ -13609,8 +13506,8 @@
       <c r="DK73" s="67"/>
     </row>
     <row r="74" spans="2:116">
-      <c r="B74" s="262"/>
-      <c r="C74" s="269"/>
+      <c r="B74" s="274"/>
+      <c r="C74" s="272"/>
       <c r="D74" s="15"/>
       <c r="E74" s="6"/>
       <c r="F74" s="78"/>
@@ -13621,7 +13518,7 @@
       <c r="K74" s="219"/>
       <c r="L74" s="233"/>
       <c r="M74" s="233"/>
-      <c r="N74" s="294"/>
+      <c r="N74" s="219"/>
       <c r="O74" s="48"/>
       <c r="P74" s="48"/>
       <c r="Q74" s="48"/>
@@ -13725,8 +13622,8 @@
       <c r="DK74" s="52"/>
     </row>
     <row r="75" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B75" s="264"/>
-      <c r="C75" s="270"/>
+      <c r="B75" s="283"/>
+      <c r="C75" s="287"/>
       <c r="D75" s="27"/>
       <c r="E75" s="28"/>
       <c r="F75" s="88"/>
@@ -13737,7 +13634,7 @@
       <c r="K75" s="252"/>
       <c r="L75" s="253"/>
       <c r="M75" s="253"/>
-      <c r="N75" s="305"/>
+      <c r="N75" s="252"/>
       <c r="O75" s="89"/>
       <c r="P75" s="89"/>
       <c r="Q75" s="89"/>
@@ -13843,14 +13740,6 @@
     <row r="76" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B36:B45"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="B20:B35"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C42:C45"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B58:B75"/>
     <mergeCell ref="C58:C62"/>
@@ -13866,6 +13755,14 @@
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B36:B45"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C42:C45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="9405"/>
@@ -3170,24 +3170,81 @@
     <xf numFmtId="14" fontId="24" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="93" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="94" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="95" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="112" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="88" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="86" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3200,65 +3257,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="93" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="94" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="95" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="112" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="88" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="86" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4858,7 +4858,7 @@
   <dimension ref="B3:DL76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5801,7 +5801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:115" ht="50.1" customHeight="1" thickTop="1">
+    <row r="7" spans="2:115" ht="50.1" hidden="1" customHeight="1" thickTop="1">
       <c r="C7" s="119"/>
       <c r="D7" s="168" t="s">
         <v>33</v>
@@ -5815,7 +5815,7 @@
       <c r="K7" s="192"/>
       <c r="L7" s="192"/>
       <c r="M7" s="192"/>
-      <c r="N7" s="292"/>
+      <c r="N7" s="270"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
@@ -5918,7 +5918,7 @@
       <c r="DJ7" s="18"/>
       <c r="DK7" s="134"/>
     </row>
-    <row r="8" spans="2:115" ht="50.1" customHeight="1">
+    <row r="8" spans="2:115" ht="50.1" customHeight="1" thickTop="1">
       <c r="C8" s="121"/>
       <c r="D8" s="169" t="s">
         <v>34</v>
@@ -5932,7 +5932,7 @@
       <c r="K8" s="193"/>
       <c r="L8" s="193"/>
       <c r="M8" s="193"/>
-      <c r="N8" s="293"/>
+      <c r="N8" s="271"/>
       <c r="O8" s="114"/>
       <c r="P8" s="114"/>
       <c r="Q8" s="114"/>
@@ -6049,7 +6049,7 @@
       <c r="K9" s="193"/>
       <c r="L9" s="193"/>
       <c r="M9" s="193"/>
-      <c r="N9" s="293"/>
+      <c r="N9" s="271"/>
       <c r="O9" s="114"/>
       <c r="P9" s="114"/>
       <c r="Q9" s="114"/>
@@ -6166,7 +6166,7 @@
       <c r="K10" s="192"/>
       <c r="L10" s="192"/>
       <c r="M10" s="192"/>
-      <c r="N10" s="294"/>
+      <c r="N10" s="272"/>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
@@ -6283,7 +6283,7 @@
       <c r="K11" s="193"/>
       <c r="L11" s="193"/>
       <c r="M11" s="193"/>
-      <c r="N11" s="293"/>
+      <c r="N11" s="271"/>
       <c r="O11" s="114"/>
       <c r="P11" s="114"/>
       <c r="Q11" s="114"/>
@@ -6400,7 +6400,7 @@
       <c r="K12" s="196"/>
       <c r="L12" s="196"/>
       <c r="M12" s="196"/>
-      <c r="N12" s="295"/>
+      <c r="N12" s="273"/>
       <c r="O12" s="138"/>
       <c r="P12" s="138"/>
       <c r="Q12" s="138"/>
@@ -6868,7 +6868,7 @@
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="274" t="s">
+      <c r="B18" s="278" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="254" t="s">
@@ -6890,7 +6890,7 @@
       <c r="K18" s="203"/>
       <c r="L18" s="204"/>
       <c r="M18" s="204"/>
-      <c r="N18" s="296"/>
+      <c r="N18" s="274"/>
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="37"/>
@@ -6994,7 +6994,7 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="274"/>
+      <c r="B19" s="278"/>
       <c r="C19" s="261" t="s">
         <v>10</v>
       </c>
@@ -7014,7 +7014,7 @@
       <c r="K19" s="208"/>
       <c r="L19" s="209"/>
       <c r="M19" s="210"/>
-      <c r="N19" s="297"/>
+      <c r="N19" s="275"/>
       <c r="O19" s="74"/>
       <c r="P19" s="32"/>
       <c r="Q19" s="32"/>
@@ -7118,10 +7118,10 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="273" t="s">
+      <c r="B20" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="276" t="s">
+      <c r="C20" s="295" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="265" t="s">
@@ -7140,7 +7140,7 @@
       <c r="K20" s="215"/>
       <c r="L20" s="216"/>
       <c r="M20" s="217"/>
-      <c r="N20" s="298"/>
+      <c r="N20" s="276"/>
       <c r="O20" s="75"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
@@ -7244,8 +7244,8 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="274"/>
-      <c r="C21" s="277"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="296"/>
       <c r="D21" s="265" t="s">
         <v>58</v>
       </c>
@@ -7366,8 +7366,8 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="274"/>
-      <c r="C22" s="277"/>
+      <c r="B22" s="278"/>
+      <c r="C22" s="296"/>
       <c r="D22" s="265" t="s">
         <v>56</v>
       </c>
@@ -7488,8 +7488,8 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="274"/>
-      <c r="C23" s="278"/>
+      <c r="B23" s="278"/>
+      <c r="C23" s="297"/>
       <c r="D23" s="265" t="s">
         <v>57</v>
       </c>
@@ -7610,8 +7610,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="274"/>
-      <c r="C24" s="279" t="s">
+      <c r="B24" s="278"/>
+      <c r="C24" s="298" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8"/>
@@ -7732,8 +7732,8 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="274"/>
-      <c r="C25" s="279"/>
+      <c r="B25" s="278"/>
+      <c r="C25" s="298"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="78"/>
@@ -7848,8 +7848,8 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="274"/>
-      <c r="C26" s="279"/>
+      <c r="B26" s="278"/>
+      <c r="C26" s="298"/>
       <c r="D26" s="10"/>
       <c r="E26" s="11"/>
       <c r="F26" s="81"/>
@@ -7964,8 +7964,8 @@
       <c r="DK26" s="61"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="274"/>
-      <c r="C27" s="272" t="s">
+      <c r="B27" s="278"/>
+      <c r="C27" s="285" t="s">
         <v>16</v>
       </c>
       <c r="D27" s="8"/>
@@ -7982,7 +7982,7 @@
       <c r="K27" s="230"/>
       <c r="L27" s="232"/>
       <c r="M27" s="232"/>
-      <c r="N27" s="299"/>
+      <c r="N27" s="277"/>
       <c r="O27" s="103"/>
       <c r="P27" s="103"/>
       <c r="Q27" s="103"/>
@@ -8086,8 +8086,8 @@
       <c r="DK27" s="67"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="274"/>
-      <c r="C28" s="272"/>
+      <c r="B28" s="278"/>
+      <c r="C28" s="285"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="78"/>
@@ -8202,8 +8202,8 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="274"/>
-      <c r="C29" s="272"/>
+      <c r="B29" s="278"/>
+      <c r="C29" s="285"/>
       <c r="D29" s="10"/>
       <c r="E29" s="11"/>
       <c r="F29" s="81"/>
@@ -8318,8 +8318,8 @@
       <c r="DK29" s="61"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="274"/>
-      <c r="C30" s="286" t="s">
+      <c r="B30" s="278"/>
+      <c r="C30" s="283" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="8"/>
@@ -8440,8 +8440,8 @@
       <c r="DK30" s="67"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="274"/>
-      <c r="C31" s="285"/>
+      <c r="B31" s="278"/>
+      <c r="C31" s="282"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="78"/>
@@ -8556,8 +8556,8 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="274"/>
-      <c r="C32" s="280"/>
+      <c r="B32" s="278"/>
+      <c r="C32" s="284"/>
       <c r="D32" s="10"/>
       <c r="E32" s="11"/>
       <c r="F32" s="81"/>
@@ -8672,8 +8672,8 @@
       <c r="DK32" s="61"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="274"/>
-      <c r="C33" s="280"/>
+      <c r="B33" s="278"/>
+      <c r="C33" s="284"/>
       <c r="D33" s="8"/>
       <c r="E33" s="9"/>
       <c r="F33" s="178"/>
@@ -8788,8 +8788,8 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="274"/>
-      <c r="C34" s="279"/>
+      <c r="B34" s="278"/>
+      <c r="C34" s="298"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
       <c r="F34" s="78"/>
@@ -8904,8 +8904,8 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B35" s="275"/>
-      <c r="C35" s="281"/>
+      <c r="B35" s="287"/>
+      <c r="C35" s="299"/>
       <c r="D35" s="17"/>
       <c r="E35" s="13"/>
       <c r="F35" s="82"/>
@@ -9020,10 +9020,10 @@
       <c r="DK35" s="36"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="270" t="s">
+      <c r="B36" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="272" t="s">
+      <c r="C36" s="285" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="5" t="s">
@@ -9146,8 +9146,8 @@
       <c r="DK36" s="47"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="271"/>
-      <c r="C37" s="272"/>
+      <c r="B37" s="294"/>
+      <c r="C37" s="285"/>
       <c r="D37" s="5" t="s">
         <v>41</v>
       </c>
@@ -9268,8 +9268,8 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="271"/>
-      <c r="C38" s="272"/>
+      <c r="B38" s="294"/>
+      <c r="C38" s="285"/>
       <c r="D38" s="5" t="s">
         <v>42</v>
       </c>
@@ -9390,8 +9390,8 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="271"/>
-      <c r="C39" s="272"/>
+      <c r="B39" s="294"/>
+      <c r="C39" s="285"/>
       <c r="D39" s="5" t="s">
         <v>43</v>
       </c>
@@ -9512,8 +9512,8 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="271"/>
-      <c r="C40" s="272"/>
+      <c r="B40" s="294"/>
+      <c r="C40" s="285"/>
       <c r="D40" s="5" t="s">
         <v>45</v>
       </c>
@@ -9630,8 +9630,8 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="271"/>
-      <c r="C41" s="272"/>
+      <c r="B41" s="294"/>
+      <c r="C41" s="285"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="78"/>
@@ -9746,8 +9746,8 @@
       <c r="DK41" s="61"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="271"/>
-      <c r="C42" s="282" t="s">
+      <c r="B42" s="294"/>
+      <c r="C42" s="291" t="s">
         <v>14</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -9870,8 +9870,8 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="271"/>
-      <c r="C43" s="282"/>
+      <c r="B43" s="294"/>
+      <c r="C43" s="291"/>
       <c r="D43" s="5" t="s">
         <v>47</v>
       </c>
@@ -9988,8 +9988,8 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="271"/>
-      <c r="C44" s="282"/>
+      <c r="B44" s="294"/>
+      <c r="C44" s="291"/>
       <c r="D44" s="5" t="s">
         <v>28</v>
       </c>
@@ -10106,8 +10106,8 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B45" s="271"/>
-      <c r="C45" s="282"/>
+      <c r="B45" s="294"/>
+      <c r="C45" s="291"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="81"/>
@@ -10222,7 +10222,7 @@
       <c r="DK45" s="36"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="273" t="s">
+      <c r="B46" s="279" t="s">
         <v>22</v>
       </c>
       <c r="C46" s="288" t="s">
@@ -10346,7 +10346,7 @@
       <c r="DK46" s="47"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="274"/>
+      <c r="B47" s="278"/>
       <c r="C47" s="289"/>
       <c r="D47" s="15"/>
       <c r="E47" s="22"/>
@@ -10462,7 +10462,7 @@
       <c r="DK47" s="61"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="274"/>
+      <c r="B48" s="278"/>
       <c r="C48" s="289" t="s">
         <v>48</v>
       </c>
@@ -10584,7 +10584,7 @@
       <c r="DK48" s="67"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="274"/>
+      <c r="B49" s="278"/>
       <c r="C49" s="290"/>
       <c r="D49" s="16"/>
       <c r="E49" s="24"/>
@@ -10700,8 +10700,8 @@
       <c r="DK49" s="61"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="274"/>
-      <c r="C50" s="282"/>
+      <c r="B50" s="278"/>
+      <c r="C50" s="291"/>
       <c r="D50" s="14"/>
       <c r="E50" s="23"/>
       <c r="F50" s="85"/>
@@ -10816,8 +10816,8 @@
       <c r="DK50" s="67"/>
     </row>
     <row r="51" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B51" s="275"/>
-      <c r="C51" s="282"/>
+      <c r="B51" s="287"/>
+      <c r="C51" s="291"/>
       <c r="D51" s="15"/>
       <c r="E51" s="22"/>
       <c r="F51" s="84"/>
@@ -10932,7 +10932,7 @@
       <c r="DK51" s="36"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="273" t="s">
+      <c r="B52" s="279" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="288" t="s">
@@ -11054,7 +11054,7 @@
       <c r="DK52" s="47"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="274"/>
+      <c r="B53" s="278"/>
       <c r="C53" s="289"/>
       <c r="D53" s="15"/>
       <c r="E53" s="22"/>
@@ -11170,7 +11170,7 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115">
-      <c r="B54" s="274"/>
+      <c r="B54" s="278"/>
       <c r="C54" s="289" t="s">
         <v>53</v>
       </c>
@@ -11290,7 +11290,7 @@
       <c r="DK54" s="67"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="274"/>
+      <c r="B55" s="278"/>
       <c r="C55" s="290"/>
       <c r="D55" s="16"/>
       <c r="E55" s="24"/>
@@ -11406,8 +11406,8 @@
       <c r="DK55" s="61"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="274"/>
-      <c r="C56" s="282"/>
+      <c r="B56" s="278"/>
+      <c r="C56" s="291"/>
       <c r="D56" s="14"/>
       <c r="E56" s="23"/>
       <c r="F56" s="85"/>
@@ -11522,8 +11522,8 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B57" s="275"/>
-      <c r="C57" s="291"/>
+      <c r="B57" s="287"/>
+      <c r="C57" s="292"/>
       <c r="D57" s="25"/>
       <c r="E57" s="26"/>
       <c r="F57" s="87"/>
@@ -11638,10 +11638,10 @@
       <c r="DK57" s="36"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="273" t="s">
+      <c r="B58" s="279" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="284" t="s">
+      <c r="C58" s="281" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="3"/>
@@ -11760,8 +11760,8 @@
       <c r="DK58" s="47"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="274"/>
-      <c r="C59" s="285"/>
+      <c r="B59" s="278"/>
+      <c r="C59" s="282"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6" t="s">
         <v>52</v>
@@ -11878,8 +11878,8 @@
       <c r="DK59" s="52"/>
     </row>
     <row r="60" spans="2:115">
-      <c r="B60" s="274"/>
-      <c r="C60" s="285"/>
+      <c r="B60" s="278"/>
+      <c r="C60" s="282"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
       <c r="F60" s="78"/>
@@ -11994,8 +11994,8 @@
       <c r="DK60" s="52"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="274"/>
-      <c r="C61" s="285"/>
+      <c r="B61" s="278"/>
+      <c r="C61" s="282"/>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
       <c r="F61" s="78"/>
@@ -12110,8 +12110,8 @@
       <c r="DK61" s="52"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="274"/>
-      <c r="C62" s="285"/>
+      <c r="B62" s="278"/>
+      <c r="C62" s="282"/>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
       <c r="F62" s="78"/>
@@ -12226,8 +12226,8 @@
       <c r="DK62" s="61"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="274"/>
-      <c r="C63" s="286"/>
+      <c r="B63" s="278"/>
+      <c r="C63" s="283"/>
       <c r="D63" s="8"/>
       <c r="E63" s="9"/>
       <c r="F63" s="80"/>
@@ -12342,8 +12342,8 @@
       <c r="DK63" s="67"/>
     </row>
     <row r="64" spans="2:115">
-      <c r="B64" s="274"/>
-      <c r="C64" s="285"/>
+      <c r="B64" s="278"/>
+      <c r="C64" s="282"/>
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
       <c r="F64" s="78"/>
@@ -12458,8 +12458,8 @@
       <c r="DK64" s="52"/>
     </row>
     <row r="65" spans="2:116">
-      <c r="B65" s="274"/>
-      <c r="C65" s="285"/>
+      <c r="B65" s="278"/>
+      <c r="C65" s="282"/>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
       <c r="F65" s="78"/>
@@ -12574,8 +12574,8 @@
       <c r="DK65" s="52"/>
     </row>
     <row r="66" spans="2:116">
-      <c r="B66" s="274"/>
-      <c r="C66" s="285"/>
+      <c r="B66" s="278"/>
+      <c r="C66" s="282"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="F66" s="78"/>
@@ -12690,8 +12690,8 @@
       <c r="DK66" s="52"/>
     </row>
     <row r="67" spans="2:116">
-      <c r="B67" s="274"/>
-      <c r="C67" s="285"/>
+      <c r="B67" s="278"/>
+      <c r="C67" s="282"/>
       <c r="D67" s="5"/>
       <c r="E67" s="6"/>
       <c r="F67" s="78"/>
@@ -12806,8 +12806,8 @@
       <c r="DK67" s="52"/>
     </row>
     <row r="68" spans="2:116">
-      <c r="B68" s="274"/>
-      <c r="C68" s="280"/>
+      <c r="B68" s="278"/>
+      <c r="C68" s="284"/>
       <c r="D68" s="10"/>
       <c r="E68" s="11"/>
       <c r="F68" s="81"/>
@@ -12922,8 +12922,8 @@
       <c r="DK68" s="61"/>
     </row>
     <row r="69" spans="2:116">
-      <c r="B69" s="274"/>
-      <c r="C69" s="286"/>
+      <c r="B69" s="278"/>
+      <c r="C69" s="283"/>
       <c r="D69" s="8"/>
       <c r="E69" s="9"/>
       <c r="F69" s="80"/>
@@ -13039,8 +13039,8 @@
       <c r="DL69" s="7"/>
     </row>
     <row r="70" spans="2:116">
-      <c r="B70" s="274"/>
-      <c r="C70" s="285"/>
+      <c r="B70" s="278"/>
+      <c r="C70" s="282"/>
       <c r="D70" s="15"/>
       <c r="E70" s="22"/>
       <c r="F70" s="84"/>
@@ -13156,8 +13156,8 @@
       <c r="DL70" s="7"/>
     </row>
     <row r="71" spans="2:116">
-      <c r="B71" s="274"/>
-      <c r="C71" s="285"/>
+      <c r="B71" s="278"/>
+      <c r="C71" s="282"/>
       <c r="D71" s="15"/>
       <c r="E71" s="22"/>
       <c r="F71" s="84"/>
@@ -13273,8 +13273,8 @@
       <c r="DL71" s="7"/>
     </row>
     <row r="72" spans="2:116">
-      <c r="B72" s="274"/>
-      <c r="C72" s="280"/>
+      <c r="B72" s="278"/>
+      <c r="C72" s="284"/>
       <c r="D72" s="16"/>
       <c r="E72" s="24"/>
       <c r="F72" s="86"/>
@@ -13390,8 +13390,8 @@
       <c r="DL72" s="7"/>
     </row>
     <row r="73" spans="2:116">
-      <c r="B73" s="274"/>
-      <c r="C73" s="272"/>
+      <c r="B73" s="278"/>
+      <c r="C73" s="285"/>
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
       <c r="F73" s="78"/>
@@ -13506,8 +13506,8 @@
       <c r="DK73" s="67"/>
     </row>
     <row r="74" spans="2:116">
-      <c r="B74" s="274"/>
-      <c r="C74" s="272"/>
+      <c r="B74" s="278"/>
+      <c r="C74" s="285"/>
       <c r="D74" s="15"/>
       <c r="E74" s="6"/>
       <c r="F74" s="78"/>
@@ -13622,8 +13622,8 @@
       <c r="DK74" s="52"/>
     </row>
     <row r="75" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B75" s="283"/>
-      <c r="C75" s="287"/>
+      <c r="B75" s="280"/>
+      <c r="C75" s="286"/>
       <c r="D75" s="27"/>
       <c r="E75" s="28"/>
       <c r="F75" s="88"/>
@@ -13740,6 +13740,13 @@
     <row r="76" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C36:C41"/>
+    <mergeCell ref="B20:B35"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C33:C35"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B58:B75"/>
     <mergeCell ref="C58:C62"/>
@@ -13756,13 +13763,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="B36:B45"/>
-    <mergeCell ref="C36:C41"/>
-    <mergeCell ref="B20:B35"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C42:C45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -3274,19 +3274,55 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="86" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3301,43 +3337,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4937,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:DL95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6948,7 +6948,7 @@
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="281" t="s">
+      <c r="B18" s="278" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="254" t="s">
@@ -7074,7 +7074,7 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="281"/>
+      <c r="B19" s="278"/>
       <c r="C19" s="261" t="s">
         <v>10</v>
       </c>
@@ -7198,10 +7198,10 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="280" t="s">
+      <c r="B20" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="283" t="s">
+      <c r="C20" s="295" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="265" t="s">
@@ -7324,8 +7324,8 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="281"/>
-      <c r="C21" s="284"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="296"/>
       <c r="D21" s="265" t="s">
         <v>58</v>
       </c>
@@ -7446,8 +7446,8 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="281"/>
-      <c r="C22" s="284"/>
+      <c r="B22" s="278"/>
+      <c r="C22" s="296"/>
       <c r="D22" s="265" t="s">
         <v>56</v>
       </c>
@@ -7568,8 +7568,8 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="281"/>
-      <c r="C23" s="285"/>
+      <c r="B23" s="278"/>
+      <c r="C23" s="297"/>
       <c r="D23" s="265" t="s">
         <v>57</v>
       </c>
@@ -7690,8 +7690,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="281"/>
-      <c r="C24" s="286" t="s">
+      <c r="B24" s="278"/>
+      <c r="C24" s="298" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7701,7 +7701,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="178">
-        <v>40335</v>
+        <v>40352</v>
       </c>
       <c r="G24" s="229"/>
       <c r="H24" s="230"/>
@@ -7814,8 +7814,8 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="281"/>
-      <c r="C25" s="286"/>
+      <c r="B25" s="278"/>
+      <c r="C25" s="298"/>
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
@@ -7936,8 +7936,8 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="281"/>
-      <c r="C26" s="286"/>
+      <c r="B26" s="278"/>
+      <c r="C26" s="298"/>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
@@ -8058,8 +8058,8 @@
       <c r="DK26" s="52"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="281"/>
-      <c r="C27" s="286"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="298"/>
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
@@ -8180,8 +8180,8 @@
       <c r="DK27" s="52"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="281"/>
-      <c r="C28" s="286"/>
+      <c r="B28" s="278"/>
+      <c r="C28" s="298"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
@@ -8302,8 +8302,8 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="281"/>
-      <c r="C29" s="286"/>
+      <c r="B29" s="278"/>
+      <c r="C29" s="298"/>
       <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
@@ -8424,8 +8424,8 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="281"/>
-      <c r="C30" s="286"/>
+      <c r="B30" s="278"/>
+      <c r="C30" s="298"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
@@ -8546,8 +8546,8 @@
       <c r="DK30" s="52"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="281"/>
-      <c r="C31" s="286"/>
+      <c r="B31" s="278"/>
+      <c r="C31" s="298"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
@@ -8668,8 +8668,8 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="281"/>
-      <c r="C32" s="286"/>
+      <c r="B32" s="278"/>
+      <c r="C32" s="298"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
@@ -8790,8 +8790,8 @@
       <c r="DK32" s="52"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="281"/>
-      <c r="C33" s="286"/>
+      <c r="B33" s="278"/>
+      <c r="C33" s="298"/>
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
@@ -8912,8 +8912,8 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="281"/>
-      <c r="C34" s="286"/>
+      <c r="B34" s="278"/>
+      <c r="C34" s="298"/>
       <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
@@ -9034,8 +9034,8 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="281"/>
-      <c r="C35" s="286"/>
+      <c r="B35" s="278"/>
+      <c r="C35" s="298"/>
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
@@ -9156,8 +9156,8 @@
       <c r="DK35" s="52"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="281"/>
-      <c r="C36" s="286"/>
+      <c r="B36" s="278"/>
+      <c r="C36" s="298"/>
       <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
@@ -9278,8 +9278,8 @@
       <c r="DK36" s="52"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="281"/>
-      <c r="C37" s="286"/>
+      <c r="B37" s="278"/>
+      <c r="C37" s="298"/>
       <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
@@ -9400,8 +9400,8 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="281"/>
-      <c r="C38" s="286"/>
+      <c r="B38" s="278"/>
+      <c r="C38" s="298"/>
       <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
@@ -9522,8 +9522,8 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="281"/>
-      <c r="C39" s="286"/>
+      <c r="B39" s="278"/>
+      <c r="C39" s="298"/>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
@@ -9644,8 +9644,8 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="281"/>
-      <c r="C40" s="286"/>
+      <c r="B40" s="278"/>
+      <c r="C40" s="298"/>
       <c r="D40" s="5" t="s">
         <v>76</v>
       </c>
@@ -9766,8 +9766,8 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="281"/>
-      <c r="C41" s="286"/>
+      <c r="B41" s="278"/>
+      <c r="C41" s="298"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
@@ -9888,8 +9888,8 @@
       <c r="DK41" s="52"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="281"/>
-      <c r="C42" s="286"/>
+      <c r="B42" s="278"/>
+      <c r="C42" s="298"/>
       <c r="D42" s="5" t="s">
         <v>78</v>
       </c>
@@ -10010,8 +10010,8 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="281"/>
-      <c r="C43" s="286"/>
+      <c r="B43" s="278"/>
+      <c r="C43" s="298"/>
       <c r="D43" s="5" t="s">
         <v>79</v>
       </c>
@@ -10132,8 +10132,8 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="281"/>
-      <c r="C44" s="286"/>
+      <c r="B44" s="278"/>
+      <c r="C44" s="298"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="78"/>
@@ -10248,8 +10248,8 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="281"/>
-      <c r="C45" s="286"/>
+      <c r="B45" s="278"/>
+      <c r="C45" s="298"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="81"/>
@@ -10364,8 +10364,8 @@
       <c r="DK45" s="61"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="281"/>
-      <c r="C46" s="279" t="s">
+      <c r="B46" s="278"/>
+      <c r="C46" s="285" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="8"/>
@@ -10486,8 +10486,8 @@
       <c r="DK46" s="67"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="281"/>
-      <c r="C47" s="279"/>
+      <c r="B47" s="278"/>
+      <c r="C47" s="285"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="78"/>
@@ -10602,8 +10602,8 @@
       <c r="DK47" s="52"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="281"/>
-      <c r="C48" s="279"/>
+      <c r="B48" s="278"/>
+      <c r="C48" s="285"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="81"/>
@@ -10718,8 +10718,8 @@
       <c r="DK48" s="61"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="281"/>
-      <c r="C49" s="292" t="s">
+      <c r="B49" s="278"/>
+      <c r="C49" s="283" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="8"/>
@@ -10840,8 +10840,8 @@
       <c r="DK49" s="67"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="281"/>
-      <c r="C50" s="291"/>
+      <c r="B50" s="278"/>
+      <c r="C50" s="282"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="78"/>
@@ -10956,8 +10956,8 @@
       <c r="DK50" s="52"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="281"/>
-      <c r="C51" s="287"/>
+      <c r="B51" s="278"/>
+      <c r="C51" s="284"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="81"/>
@@ -11072,8 +11072,8 @@
       <c r="DK51" s="61"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="281"/>
-      <c r="C52" s="287"/>
+      <c r="B52" s="278"/>
+      <c r="C52" s="284"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
       <c r="F52" s="178"/>
@@ -11188,8 +11188,8 @@
       <c r="DK52" s="52"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="281"/>
-      <c r="C53" s="286"/>
+      <c r="B53" s="278"/>
+      <c r="C53" s="298"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="78"/>
@@ -11304,8 +11304,8 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B54" s="282"/>
-      <c r="C54" s="288"/>
+      <c r="B54" s="287"/>
+      <c r="C54" s="299"/>
       <c r="D54" s="17"/>
       <c r="E54" s="13"/>
       <c r="F54" s="82"/>
@@ -11420,10 +11420,10 @@
       <c r="DK54" s="36"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="298" t="s">
+      <c r="B55" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="279" t="s">
+      <c r="C55" s="285" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -11546,8 +11546,8 @@
       <c r="DK55" s="47"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="299"/>
-      <c r="C56" s="279"/>
+      <c r="B56" s="294"/>
+      <c r="C56" s="285"/>
       <c r="D56" s="5" t="s">
         <v>41</v>
       </c>
@@ -11668,8 +11668,8 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="299"/>
-      <c r="C57" s="279"/>
+      <c r="B57" s="294"/>
+      <c r="C57" s="285"/>
       <c r="D57" s="5" t="s">
         <v>42</v>
       </c>
@@ -11790,8 +11790,8 @@
       <c r="DK57" s="52"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="299"/>
-      <c r="C58" s="279"/>
+      <c r="B58" s="294"/>
+      <c r="C58" s="285"/>
       <c r="D58" s="5" t="s">
         <v>43</v>
       </c>
@@ -11912,8 +11912,8 @@
       <c r="DK58" s="52"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="299"/>
-      <c r="C59" s="279"/>
+      <c r="B59" s="294"/>
+      <c r="C59" s="285"/>
       <c r="D59" s="5" t="s">
         <v>45</v>
       </c>
@@ -12030,8 +12030,8 @@
       <c r="DK59" s="52"/>
     </row>
     <row r="60" spans="2:115">
-      <c r="B60" s="299"/>
-      <c r="C60" s="279"/>
+      <c r="B60" s="294"/>
+      <c r="C60" s="285"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
       <c r="F60" s="78"/>
@@ -12146,8 +12146,8 @@
       <c r="DK60" s="61"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="299"/>
-      <c r="C61" s="278" t="s">
+      <c r="B61" s="294"/>
+      <c r="C61" s="291" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -12270,8 +12270,8 @@
       <c r="DK61" s="52"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="299"/>
-      <c r="C62" s="278"/>
+      <c r="B62" s="294"/>
+      <c r="C62" s="291"/>
       <c r="D62" s="5" t="s">
         <v>47</v>
       </c>
@@ -12388,8 +12388,8 @@
       <c r="DK62" s="52"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="299"/>
-      <c r="C63" s="278"/>
+      <c r="B63" s="294"/>
+      <c r="C63" s="291"/>
       <c r="D63" s="5" t="s">
         <v>28</v>
       </c>
@@ -12506,8 +12506,8 @@
       <c r="DK63" s="52"/>
     </row>
     <row r="64" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B64" s="299"/>
-      <c r="C64" s="278"/>
+      <c r="B64" s="294"/>
+      <c r="C64" s="291"/>
       <c r="D64" s="10"/>
       <c r="E64" s="11"/>
       <c r="F64" s="81"/>
@@ -12622,10 +12622,10 @@
       <c r="DK64" s="36"/>
     </row>
     <row r="65" spans="2:115">
-      <c r="B65" s="280" t="s">
+      <c r="B65" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="294" t="s">
+      <c r="C65" s="288" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="20"/>
@@ -12746,8 +12746,8 @@
       <c r="DK65" s="47"/>
     </row>
     <row r="66" spans="2:115">
-      <c r="B66" s="281"/>
-      <c r="C66" s="295"/>
+      <c r="B66" s="278"/>
+      <c r="C66" s="289"/>
       <c r="D66" s="15"/>
       <c r="E66" s="22"/>
       <c r="F66" s="84"/>
@@ -12862,8 +12862,8 @@
       <c r="DK66" s="61"/>
     </row>
     <row r="67" spans="2:115">
-      <c r="B67" s="281"/>
-      <c r="C67" s="295" t="s">
+      <c r="B67" s="278"/>
+      <c r="C67" s="289" t="s">
         <v>48</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -12984,8 +12984,8 @@
       <c r="DK67" s="67"/>
     </row>
     <row r="68" spans="2:115">
-      <c r="B68" s="281"/>
-      <c r="C68" s="296"/>
+      <c r="B68" s="278"/>
+      <c r="C68" s="290"/>
       <c r="D68" s="16"/>
       <c r="E68" s="24"/>
       <c r="F68" s="86"/>
@@ -13100,8 +13100,8 @@
       <c r="DK68" s="61"/>
     </row>
     <row r="69" spans="2:115">
-      <c r="B69" s="281"/>
-      <c r="C69" s="278"/>
+      <c r="B69" s="278"/>
+      <c r="C69" s="291"/>
       <c r="D69" s="14"/>
       <c r="E69" s="23"/>
       <c r="F69" s="85"/>
@@ -13216,8 +13216,8 @@
       <c r="DK69" s="67"/>
     </row>
     <row r="70" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B70" s="282"/>
-      <c r="C70" s="278"/>
+      <c r="B70" s="287"/>
+      <c r="C70" s="291"/>
       <c r="D70" s="15"/>
       <c r="E70" s="22"/>
       <c r="F70" s="84"/>
@@ -13332,10 +13332,10 @@
       <c r="DK70" s="36"/>
     </row>
     <row r="71" spans="2:115">
-      <c r="B71" s="280" t="s">
+      <c r="B71" s="279" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="294" t="s">
+      <c r="C71" s="288" t="s">
         <v>50</v>
       </c>
       <c r="D71" s="20"/>
@@ -13454,8 +13454,8 @@
       <c r="DK71" s="47"/>
     </row>
     <row r="72" spans="2:115">
-      <c r="B72" s="281"/>
-      <c r="C72" s="295"/>
+      <c r="B72" s="278"/>
+      <c r="C72" s="289"/>
       <c r="D72" s="15"/>
       <c r="E72" s="22"/>
       <c r="F72" s="84"/>
@@ -13570,8 +13570,8 @@
       <c r="DK72" s="52"/>
     </row>
     <row r="73" spans="2:115">
-      <c r="B73" s="281"/>
-      <c r="C73" s="295" t="s">
+      <c r="B73" s="278"/>
+      <c r="C73" s="289" t="s">
         <v>53</v>
       </c>
       <c r="D73" s="14"/>
@@ -13690,8 +13690,8 @@
       <c r="DK73" s="67"/>
     </row>
     <row r="74" spans="2:115">
-      <c r="B74" s="281"/>
-      <c r="C74" s="296"/>
+      <c r="B74" s="278"/>
+      <c r="C74" s="290"/>
       <c r="D74" s="16"/>
       <c r="E74" s="24"/>
       <c r="F74" s="86"/>
@@ -13806,8 +13806,8 @@
       <c r="DK74" s="61"/>
     </row>
     <row r="75" spans="2:115">
-      <c r="B75" s="281"/>
-      <c r="C75" s="278"/>
+      <c r="B75" s="278"/>
+      <c r="C75" s="291"/>
       <c r="D75" s="14"/>
       <c r="E75" s="23"/>
       <c r="F75" s="85"/>
@@ -13922,8 +13922,8 @@
       <c r="DK75" s="52"/>
     </row>
     <row r="76" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B76" s="282"/>
-      <c r="C76" s="297"/>
+      <c r="B76" s="287"/>
+      <c r="C76" s="292"/>
       <c r="D76" s="25"/>
       <c r="E76" s="26"/>
       <c r="F76" s="87"/>
@@ -14038,10 +14038,10 @@
       <c r="DK76" s="36"/>
     </row>
     <row r="77" spans="2:115">
-      <c r="B77" s="280" t="s">
+      <c r="B77" s="279" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="290" t="s">
+      <c r="C77" s="281" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="3"/>
@@ -14160,8 +14160,8 @@
       <c r="DK77" s="47"/>
     </row>
     <row r="78" spans="2:115">
-      <c r="B78" s="281"/>
-      <c r="C78" s="291"/>
+      <c r="B78" s="278"/>
+      <c r="C78" s="282"/>
       <c r="D78" s="5"/>
       <c r="E78" s="6" t="s">
         <v>52</v>
@@ -14278,8 +14278,8 @@
       <c r="DK78" s="52"/>
     </row>
     <row r="79" spans="2:115">
-      <c r="B79" s="281"/>
-      <c r="C79" s="291"/>
+      <c r="B79" s="278"/>
+      <c r="C79" s="282"/>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
       <c r="F79" s="78"/>
@@ -14394,8 +14394,8 @@
       <c r="DK79" s="52"/>
     </row>
     <row r="80" spans="2:115">
-      <c r="B80" s="281"/>
-      <c r="C80" s="291"/>
+      <c r="B80" s="278"/>
+      <c r="C80" s="282"/>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
       <c r="F80" s="78"/>
@@ -14510,8 +14510,8 @@
       <c r="DK80" s="52"/>
     </row>
     <row r="81" spans="2:116">
-      <c r="B81" s="281"/>
-      <c r="C81" s="291"/>
+      <c r="B81" s="278"/>
+      <c r="C81" s="282"/>
       <c r="D81" s="5"/>
       <c r="E81" s="6"/>
       <c r="F81" s="78"/>
@@ -14626,8 +14626,8 @@
       <c r="DK81" s="61"/>
     </row>
     <row r="82" spans="2:116">
-      <c r="B82" s="281"/>
-      <c r="C82" s="292"/>
+      <c r="B82" s="278"/>
+      <c r="C82" s="283"/>
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
       <c r="F82" s="80"/>
@@ -14742,8 +14742,8 @@
       <c r="DK82" s="67"/>
     </row>
     <row r="83" spans="2:116">
-      <c r="B83" s="281"/>
-      <c r="C83" s="291"/>
+      <c r="B83" s="278"/>
+      <c r="C83" s="282"/>
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
       <c r="F83" s="78"/>
@@ -14858,8 +14858,8 @@
       <c r="DK83" s="52"/>
     </row>
     <row r="84" spans="2:116">
-      <c r="B84" s="281"/>
-      <c r="C84" s="291"/>
+      <c r="B84" s="278"/>
+      <c r="C84" s="282"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
       <c r="F84" s="78"/>
@@ -14974,8 +14974,8 @@
       <c r="DK84" s="52"/>
     </row>
     <row r="85" spans="2:116">
-      <c r="B85" s="281"/>
-      <c r="C85" s="291"/>
+      <c r="B85" s="278"/>
+      <c r="C85" s="282"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="78"/>
@@ -15090,8 +15090,8 @@
       <c r="DK85" s="52"/>
     </row>
     <row r="86" spans="2:116">
-      <c r="B86" s="281"/>
-      <c r="C86" s="291"/>
+      <c r="B86" s="278"/>
+      <c r="C86" s="282"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="78"/>
@@ -15206,8 +15206,8 @@
       <c r="DK86" s="52"/>
     </row>
     <row r="87" spans="2:116">
-      <c r="B87" s="281"/>
-      <c r="C87" s="287"/>
+      <c r="B87" s="278"/>
+      <c r="C87" s="284"/>
       <c r="D87" s="10"/>
       <c r="E87" s="11"/>
       <c r="F87" s="81"/>
@@ -15322,8 +15322,8 @@
       <c r="DK87" s="61"/>
     </row>
     <row r="88" spans="2:116">
-      <c r="B88" s="281"/>
-      <c r="C88" s="292"/>
+      <c r="B88" s="278"/>
+      <c r="C88" s="283"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="80"/>
@@ -15439,8 +15439,8 @@
       <c r="DL88" s="7"/>
     </row>
     <row r="89" spans="2:116">
-      <c r="B89" s="281"/>
-      <c r="C89" s="291"/>
+      <c r="B89" s="278"/>
+      <c r="C89" s="282"/>
       <c r="D89" s="15"/>
       <c r="E89" s="22"/>
       <c r="F89" s="84"/>
@@ -15556,8 +15556,8 @@
       <c r="DL89" s="7"/>
     </row>
     <row r="90" spans="2:116">
-      <c r="B90" s="281"/>
-      <c r="C90" s="291"/>
+      <c r="B90" s="278"/>
+      <c r="C90" s="282"/>
       <c r="D90" s="15"/>
       <c r="E90" s="22"/>
       <c r="F90" s="84"/>
@@ -15673,8 +15673,8 @@
       <c r="DL90" s="7"/>
     </row>
     <row r="91" spans="2:116">
-      <c r="B91" s="281"/>
-      <c r="C91" s="287"/>
+      <c r="B91" s="278"/>
+      <c r="C91" s="284"/>
       <c r="D91" s="16"/>
       <c r="E91" s="24"/>
       <c r="F91" s="86"/>
@@ -15790,8 +15790,8 @@
       <c r="DL91" s="7"/>
     </row>
     <row r="92" spans="2:116">
-      <c r="B92" s="281"/>
-      <c r="C92" s="279"/>
+      <c r="B92" s="278"/>
+      <c r="C92" s="285"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="78"/>
@@ -15906,8 +15906,8 @@
       <c r="DK92" s="67"/>
     </row>
     <row r="93" spans="2:116">
-      <c r="B93" s="281"/>
-      <c r="C93" s="279"/>
+      <c r="B93" s="278"/>
+      <c r="C93" s="285"/>
       <c r="D93" s="15"/>
       <c r="E93" s="6"/>
       <c r="F93" s="78"/>
@@ -16022,8 +16022,8 @@
       <c r="DK93" s="52"/>
     </row>
     <row r="94" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B94" s="289"/>
-      <c r="C94" s="293"/>
+      <c r="B94" s="280"/>
+      <c r="C94" s="286"/>
       <c r="D94" s="27"/>
       <c r="E94" s="28"/>
       <c r="F94" s="88"/>
@@ -16140,6 +16140,13 @@
     <row r="95" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="B20:B54"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C52:C54"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B77:B94"/>
     <mergeCell ref="C77:C81"/>
@@ -16156,13 +16163,6 @@
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="B55:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="B20:B54"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C52:C54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -3274,10 +3274,37 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="86" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3292,18 +3319,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3313,9 +3331,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3323,21 +3338,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4937,8 +4937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:DL95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="AF30" sqref="AF30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6948,7 +6948,7 @@
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="278" t="s">
+      <c r="B18" s="281" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="254" t="s">
@@ -7074,7 +7074,7 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="278"/>
+      <c r="B19" s="281"/>
       <c r="C19" s="261" t="s">
         <v>10</v>
       </c>
@@ -7198,10 +7198,10 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="279" t="s">
+      <c r="B20" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="295" t="s">
+      <c r="C20" s="283" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="265" t="s">
@@ -7324,8 +7324,8 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="278"/>
-      <c r="C21" s="296"/>
+      <c r="B21" s="281"/>
+      <c r="C21" s="284"/>
       <c r="D21" s="265" t="s">
         <v>58</v>
       </c>
@@ -7446,8 +7446,8 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="278"/>
-      <c r="C22" s="296"/>
+      <c r="B22" s="281"/>
+      <c r="C22" s="284"/>
       <c r="D22" s="265" t="s">
         <v>56</v>
       </c>
@@ -7568,8 +7568,8 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="278"/>
-      <c r="C23" s="297"/>
+      <c r="B23" s="281"/>
+      <c r="C23" s="285"/>
       <c r="D23" s="265" t="s">
         <v>57</v>
       </c>
@@ -7690,8 +7690,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="278"/>
-      <c r="C24" s="298" t="s">
+      <c r="B24" s="281"/>
+      <c r="C24" s="286" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7814,12 +7814,12 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="278"/>
-      <c r="C25" s="298"/>
+      <c r="B25" s="281"/>
+      <c r="C25" s="286"/>
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F25" s="178">
@@ -7936,12 +7936,12 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="278"/>
-      <c r="C26" s="298"/>
+      <c r="B26" s="281"/>
+      <c r="C26" s="286"/>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="178">
@@ -8058,12 +8058,12 @@
       <c r="DK26" s="52"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="278"/>
-      <c r="C27" s="298"/>
+      <c r="B27" s="281"/>
+      <c r="C27" s="286"/>
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="178">
@@ -8180,12 +8180,12 @@
       <c r="DK27" s="52"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="278"/>
-      <c r="C28" s="298"/>
+      <c r="B28" s="281"/>
+      <c r="C28" s="286"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F28" s="178">
@@ -8302,12 +8302,12 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="278"/>
-      <c r="C29" s="298"/>
+      <c r="B29" s="281"/>
+      <c r="C29" s="286"/>
       <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F29" s="178">
@@ -8424,12 +8424,12 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="278"/>
-      <c r="C30" s="298"/>
+      <c r="B30" s="281"/>
+      <c r="C30" s="286"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F30" s="178">
@@ -8546,12 +8546,12 @@
       <c r="DK30" s="52"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="278"/>
-      <c r="C31" s="298"/>
+      <c r="B31" s="281"/>
+      <c r="C31" s="286"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F31" s="178">
@@ -8668,12 +8668,12 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="278"/>
-      <c r="C32" s="298"/>
+      <c r="B32" s="281"/>
+      <c r="C32" s="286"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="178">
@@ -8790,12 +8790,12 @@
       <c r="DK32" s="52"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="278"/>
-      <c r="C33" s="298"/>
+      <c r="B33" s="281"/>
+      <c r="C33" s="286"/>
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F33" s="178">
@@ -8912,12 +8912,12 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="278"/>
-      <c r="C34" s="298"/>
+      <c r="B34" s="281"/>
+      <c r="C34" s="286"/>
       <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F34" s="178">
@@ -9034,12 +9034,12 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="278"/>
-      <c r="C35" s="298"/>
+      <c r="B35" s="281"/>
+      <c r="C35" s="286"/>
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="178">
@@ -9156,12 +9156,12 @@
       <c r="DK35" s="52"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="278"/>
-      <c r="C36" s="298"/>
+      <c r="B36" s="281"/>
+      <c r="C36" s="286"/>
       <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F36" s="178">
@@ -9278,12 +9278,12 @@
       <c r="DK36" s="52"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="278"/>
-      <c r="C37" s="298"/>
+      <c r="B37" s="281"/>
+      <c r="C37" s="286"/>
       <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="178">
@@ -9400,12 +9400,12 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="278"/>
-      <c r="C38" s="298"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="286"/>
       <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F38" s="178">
@@ -9522,12 +9522,12 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="278"/>
-      <c r="C39" s="298"/>
+      <c r="B39" s="281"/>
+      <c r="C39" s="286"/>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F39" s="178">
@@ -9644,12 +9644,12 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="278"/>
-      <c r="C40" s="298"/>
+      <c r="B40" s="281"/>
+      <c r="C40" s="286"/>
       <c r="D40" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F40" s="178">
@@ -9766,12 +9766,12 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="278"/>
-      <c r="C41" s="298"/>
+      <c r="B41" s="281"/>
+      <c r="C41" s="286"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F41" s="178">
@@ -9888,12 +9888,12 @@
       <c r="DK41" s="52"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="278"/>
-      <c r="C42" s="298"/>
+      <c r="B42" s="281"/>
+      <c r="C42" s="286"/>
       <c r="D42" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F42" s="178">
@@ -10010,12 +10010,12 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="278"/>
-      <c r="C43" s="298"/>
+      <c r="B43" s="281"/>
+      <c r="C43" s="286"/>
       <c r="D43" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F43" s="178">
@@ -10132,8 +10132,8 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="278"/>
-      <c r="C44" s="298"/>
+      <c r="B44" s="281"/>
+      <c r="C44" s="286"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="78"/>
@@ -10248,8 +10248,8 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="278"/>
-      <c r="C45" s="298"/>
+      <c r="B45" s="281"/>
+      <c r="C45" s="286"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="81"/>
@@ -10364,8 +10364,8 @@
       <c r="DK45" s="61"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="278"/>
-      <c r="C46" s="285" t="s">
+      <c r="B46" s="281"/>
+      <c r="C46" s="279" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="8"/>
@@ -10486,8 +10486,8 @@
       <c r="DK46" s="67"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="278"/>
-      <c r="C47" s="285"/>
+      <c r="B47" s="281"/>
+      <c r="C47" s="279"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="78"/>
@@ -10602,8 +10602,8 @@
       <c r="DK47" s="52"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="278"/>
-      <c r="C48" s="285"/>
+      <c r="B48" s="281"/>
+      <c r="C48" s="279"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="81"/>
@@ -10718,8 +10718,8 @@
       <c r="DK48" s="61"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="278"/>
-      <c r="C49" s="283" t="s">
+      <c r="B49" s="281"/>
+      <c r="C49" s="292" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="8"/>
@@ -10840,8 +10840,8 @@
       <c r="DK49" s="67"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="278"/>
-      <c r="C50" s="282"/>
+      <c r="B50" s="281"/>
+      <c r="C50" s="291"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="78"/>
@@ -10956,8 +10956,8 @@
       <c r="DK50" s="52"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="278"/>
-      <c r="C51" s="284"/>
+      <c r="B51" s="281"/>
+      <c r="C51" s="287"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="81"/>
@@ -11072,8 +11072,8 @@
       <c r="DK51" s="61"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="278"/>
-      <c r="C52" s="284"/>
+      <c r="B52" s="281"/>
+      <c r="C52" s="287"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
       <c r="F52" s="178"/>
@@ -11188,8 +11188,8 @@
       <c r="DK52" s="52"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="278"/>
-      <c r="C53" s="298"/>
+      <c r="B53" s="281"/>
+      <c r="C53" s="286"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="78"/>
@@ -11304,8 +11304,8 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B54" s="287"/>
-      <c r="C54" s="299"/>
+      <c r="B54" s="282"/>
+      <c r="C54" s="288"/>
       <c r="D54" s="17"/>
       <c r="E54" s="13"/>
       <c r="F54" s="82"/>
@@ -11420,10 +11420,10 @@
       <c r="DK54" s="36"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="293" t="s">
+      <c r="B55" s="298" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="285" t="s">
+      <c r="C55" s="279" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -11546,8 +11546,8 @@
       <c r="DK55" s="47"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="294"/>
-      <c r="C56" s="285"/>
+      <c r="B56" s="299"/>
+      <c r="C56" s="279"/>
       <c r="D56" s="5" t="s">
         <v>41</v>
       </c>
@@ -11668,8 +11668,8 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="294"/>
-      <c r="C57" s="285"/>
+      <c r="B57" s="299"/>
+      <c r="C57" s="279"/>
       <c r="D57" s="5" t="s">
         <v>42</v>
       </c>
@@ -11790,8 +11790,8 @@
       <c r="DK57" s="52"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="294"/>
-      <c r="C58" s="285"/>
+      <c r="B58" s="299"/>
+      <c r="C58" s="279"/>
       <c r="D58" s="5" t="s">
         <v>43</v>
       </c>
@@ -11912,8 +11912,8 @@
       <c r="DK58" s="52"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="294"/>
-      <c r="C59" s="285"/>
+      <c r="B59" s="299"/>
+      <c r="C59" s="279"/>
       <c r="D59" s="5" t="s">
         <v>45</v>
       </c>
@@ -12030,8 +12030,8 @@
       <c r="DK59" s="52"/>
     </row>
     <row r="60" spans="2:115">
-      <c r="B60" s="294"/>
-      <c r="C60" s="285"/>
+      <c r="B60" s="299"/>
+      <c r="C60" s="279"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
       <c r="F60" s="78"/>
@@ -12146,8 +12146,8 @@
       <c r="DK60" s="61"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="294"/>
-      <c r="C61" s="291" t="s">
+      <c r="B61" s="299"/>
+      <c r="C61" s="278" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -12270,8 +12270,8 @@
       <c r="DK61" s="52"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="294"/>
-      <c r="C62" s="291"/>
+      <c r="B62" s="299"/>
+      <c r="C62" s="278"/>
       <c r="D62" s="5" t="s">
         <v>47</v>
       </c>
@@ -12388,8 +12388,8 @@
       <c r="DK62" s="52"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="294"/>
-      <c r="C63" s="291"/>
+      <c r="B63" s="299"/>
+      <c r="C63" s="278"/>
       <c r="D63" s="5" t="s">
         <v>28</v>
       </c>
@@ -12506,8 +12506,8 @@
       <c r="DK63" s="52"/>
     </row>
     <row r="64" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B64" s="294"/>
-      <c r="C64" s="291"/>
+      <c r="B64" s="299"/>
+      <c r="C64" s="278"/>
       <c r="D64" s="10"/>
       <c r="E64" s="11"/>
       <c r="F64" s="81"/>
@@ -12622,10 +12622,10 @@
       <c r="DK64" s="36"/>
     </row>
     <row r="65" spans="2:115">
-      <c r="B65" s="279" t="s">
+      <c r="B65" s="280" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="288" t="s">
+      <c r="C65" s="294" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="20"/>
@@ -12746,8 +12746,8 @@
       <c r="DK65" s="47"/>
     </row>
     <row r="66" spans="2:115">
-      <c r="B66" s="278"/>
-      <c r="C66" s="289"/>
+      <c r="B66" s="281"/>
+      <c r="C66" s="295"/>
       <c r="D66" s="15"/>
       <c r="E66" s="22"/>
       <c r="F66" s="84"/>
@@ -12862,8 +12862,8 @@
       <c r="DK66" s="61"/>
     </row>
     <row r="67" spans="2:115">
-      <c r="B67" s="278"/>
-      <c r="C67" s="289" t="s">
+      <c r="B67" s="281"/>
+      <c r="C67" s="295" t="s">
         <v>48</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -12984,8 +12984,8 @@
       <c r="DK67" s="67"/>
     </row>
     <row r="68" spans="2:115">
-      <c r="B68" s="278"/>
-      <c r="C68" s="290"/>
+      <c r="B68" s="281"/>
+      <c r="C68" s="296"/>
       <c r="D68" s="16"/>
       <c r="E68" s="24"/>
       <c r="F68" s="86"/>
@@ -13100,8 +13100,8 @@
       <c r="DK68" s="61"/>
     </row>
     <row r="69" spans="2:115">
-      <c r="B69" s="278"/>
-      <c r="C69" s="291"/>
+      <c r="B69" s="281"/>
+      <c r="C69" s="278"/>
       <c r="D69" s="14"/>
       <c r="E69" s="23"/>
       <c r="F69" s="85"/>
@@ -13216,8 +13216,8 @@
       <c r="DK69" s="67"/>
     </row>
     <row r="70" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B70" s="287"/>
-      <c r="C70" s="291"/>
+      <c r="B70" s="282"/>
+      <c r="C70" s="278"/>
       <c r="D70" s="15"/>
       <c r="E70" s="22"/>
       <c r="F70" s="84"/>
@@ -13332,10 +13332,10 @@
       <c r="DK70" s="36"/>
     </row>
     <row r="71" spans="2:115">
-      <c r="B71" s="279" t="s">
+      <c r="B71" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="288" t="s">
+      <c r="C71" s="294" t="s">
         <v>50</v>
       </c>
       <c r="D71" s="20"/>
@@ -13454,8 +13454,8 @@
       <c r="DK71" s="47"/>
     </row>
     <row r="72" spans="2:115">
-      <c r="B72" s="278"/>
-      <c r="C72" s="289"/>
+      <c r="B72" s="281"/>
+      <c r="C72" s="295"/>
       <c r="D72" s="15"/>
       <c r="E72" s="22"/>
       <c r="F72" s="84"/>
@@ -13570,8 +13570,8 @@
       <c r="DK72" s="52"/>
     </row>
     <row r="73" spans="2:115">
-      <c r="B73" s="278"/>
-      <c r="C73" s="289" t="s">
+      <c r="B73" s="281"/>
+      <c r="C73" s="295" t="s">
         <v>53</v>
       </c>
       <c r="D73" s="14"/>
@@ -13690,8 +13690,8 @@
       <c r="DK73" s="67"/>
     </row>
     <row r="74" spans="2:115">
-      <c r="B74" s="278"/>
-      <c r="C74" s="290"/>
+      <c r="B74" s="281"/>
+      <c r="C74" s="296"/>
       <c r="D74" s="16"/>
       <c r="E74" s="24"/>
       <c r="F74" s="86"/>
@@ -13806,8 +13806,8 @@
       <c r="DK74" s="61"/>
     </row>
     <row r="75" spans="2:115">
-      <c r="B75" s="278"/>
-      <c r="C75" s="291"/>
+      <c r="B75" s="281"/>
+      <c r="C75" s="278"/>
       <c r="D75" s="14"/>
       <c r="E75" s="23"/>
       <c r="F75" s="85"/>
@@ -13922,8 +13922,8 @@
       <c r="DK75" s="52"/>
     </row>
     <row r="76" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B76" s="287"/>
-      <c r="C76" s="292"/>
+      <c r="B76" s="282"/>
+      <c r="C76" s="297"/>
       <c r="D76" s="25"/>
       <c r="E76" s="26"/>
       <c r="F76" s="87"/>
@@ -14038,10 +14038,10 @@
       <c r="DK76" s="36"/>
     </row>
     <row r="77" spans="2:115">
-      <c r="B77" s="279" t="s">
+      <c r="B77" s="280" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="281" t="s">
+      <c r="C77" s="290" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="3"/>
@@ -14160,8 +14160,8 @@
       <c r="DK77" s="47"/>
     </row>
     <row r="78" spans="2:115">
-      <c r="B78" s="278"/>
-      <c r="C78" s="282"/>
+      <c r="B78" s="281"/>
+      <c r="C78" s="291"/>
       <c r="D78" s="5"/>
       <c r="E78" s="6" t="s">
         <v>52</v>
@@ -14278,8 +14278,8 @@
       <c r="DK78" s="52"/>
     </row>
     <row r="79" spans="2:115">
-      <c r="B79" s="278"/>
-      <c r="C79" s="282"/>
+      <c r="B79" s="281"/>
+      <c r="C79" s="291"/>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
       <c r="F79" s="78"/>
@@ -14394,8 +14394,8 @@
       <c r="DK79" s="52"/>
     </row>
     <row r="80" spans="2:115">
-      <c r="B80" s="278"/>
-      <c r="C80" s="282"/>
+      <c r="B80" s="281"/>
+      <c r="C80" s="291"/>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
       <c r="F80" s="78"/>
@@ -14510,8 +14510,8 @@
       <c r="DK80" s="52"/>
     </row>
     <row r="81" spans="2:116">
-      <c r="B81" s="278"/>
-      <c r="C81" s="282"/>
+      <c r="B81" s="281"/>
+      <c r="C81" s="291"/>
       <c r="D81" s="5"/>
       <c r="E81" s="6"/>
       <c r="F81" s="78"/>
@@ -14626,8 +14626,8 @@
       <c r="DK81" s="61"/>
     </row>
     <row r="82" spans="2:116">
-      <c r="B82" s="278"/>
-      <c r="C82" s="283"/>
+      <c r="B82" s="281"/>
+      <c r="C82" s="292"/>
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
       <c r="F82" s="80"/>
@@ -14742,8 +14742,8 @@
       <c r="DK82" s="67"/>
     </row>
     <row r="83" spans="2:116">
-      <c r="B83" s="278"/>
-      <c r="C83" s="282"/>
+      <c r="B83" s="281"/>
+      <c r="C83" s="291"/>
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
       <c r="F83" s="78"/>
@@ -14858,8 +14858,8 @@
       <c r="DK83" s="52"/>
     </row>
     <row r="84" spans="2:116">
-      <c r="B84" s="278"/>
-      <c r="C84" s="282"/>
+      <c r="B84" s="281"/>
+      <c r="C84" s="291"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
       <c r="F84" s="78"/>
@@ -14974,8 +14974,8 @@
       <c r="DK84" s="52"/>
     </row>
     <row r="85" spans="2:116">
-      <c r="B85" s="278"/>
-      <c r="C85" s="282"/>
+      <c r="B85" s="281"/>
+      <c r="C85" s="291"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="78"/>
@@ -15090,8 +15090,8 @@
       <c r="DK85" s="52"/>
     </row>
     <row r="86" spans="2:116">
-      <c r="B86" s="278"/>
-      <c r="C86" s="282"/>
+      <c r="B86" s="281"/>
+      <c r="C86" s="291"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="78"/>
@@ -15206,8 +15206,8 @@
       <c r="DK86" s="52"/>
     </row>
     <row r="87" spans="2:116">
-      <c r="B87" s="278"/>
-      <c r="C87" s="284"/>
+      <c r="B87" s="281"/>
+      <c r="C87" s="287"/>
       <c r="D87" s="10"/>
       <c r="E87" s="11"/>
       <c r="F87" s="81"/>
@@ -15322,8 +15322,8 @@
       <c r="DK87" s="61"/>
     </row>
     <row r="88" spans="2:116">
-      <c r="B88" s="278"/>
-      <c r="C88" s="283"/>
+      <c r="B88" s="281"/>
+      <c r="C88" s="292"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="80"/>
@@ -15439,8 +15439,8 @@
       <c r="DL88" s="7"/>
     </row>
     <row r="89" spans="2:116">
-      <c r="B89" s="278"/>
-      <c r="C89" s="282"/>
+      <c r="B89" s="281"/>
+      <c r="C89" s="291"/>
       <c r="D89" s="15"/>
       <c r="E89" s="22"/>
       <c r="F89" s="84"/>
@@ -15556,8 +15556,8 @@
       <c r="DL89" s="7"/>
     </row>
     <row r="90" spans="2:116">
-      <c r="B90" s="278"/>
-      <c r="C90" s="282"/>
+      <c r="B90" s="281"/>
+      <c r="C90" s="291"/>
       <c r="D90" s="15"/>
       <c r="E90" s="22"/>
       <c r="F90" s="84"/>
@@ -15673,8 +15673,8 @@
       <c r="DL90" s="7"/>
     </row>
     <row r="91" spans="2:116">
-      <c r="B91" s="278"/>
-      <c r="C91" s="284"/>
+      <c r="B91" s="281"/>
+      <c r="C91" s="287"/>
       <c r="D91" s="16"/>
       <c r="E91" s="24"/>
       <c r="F91" s="86"/>
@@ -15790,8 +15790,8 @@
       <c r="DL91" s="7"/>
     </row>
     <row r="92" spans="2:116">
-      <c r="B92" s="278"/>
-      <c r="C92" s="285"/>
+      <c r="B92" s="281"/>
+      <c r="C92" s="279"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="78"/>
@@ -15906,8 +15906,8 @@
       <c r="DK92" s="67"/>
     </row>
     <row r="93" spans="2:116">
-      <c r="B93" s="278"/>
-      <c r="C93" s="285"/>
+      <c r="B93" s="281"/>
+      <c r="C93" s="279"/>
       <c r="D93" s="15"/>
       <c r="E93" s="6"/>
       <c r="F93" s="78"/>
@@ -16022,8 +16022,8 @@
       <c r="DK93" s="52"/>
     </row>
     <row r="94" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B94" s="280"/>
-      <c r="C94" s="286"/>
+      <c r="B94" s="289"/>
+      <c r="C94" s="293"/>
       <c r="D94" s="27"/>
       <c r="E94" s="28"/>
       <c r="F94" s="88"/>
@@ -16140,13 +16140,6 @@
     <row r="95" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="B20:B54"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C52:C54"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B77:B94"/>
     <mergeCell ref="C77:C81"/>
@@ -16163,6 +16156,13 @@
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="B55:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="B20:B54"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C52:C54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -2439,7 +2439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2662,15 +2662,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="49" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3274,19 +3265,55 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="86" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3301,44 +3328,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4937,8 +4934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:DL95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4947,15 +4944,15 @@
     <col min="2" max="2" width="17.125" style="12" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="9" style="180"/>
+    <col min="5" max="5" width="9" style="177"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="14" width="2.625" style="188" customWidth="1"/>
-    <col min="15" max="45" width="2.625" customWidth="1"/>
-    <col min="46" max="46" width="2.625" style="145" customWidth="1"/>
+    <col min="7" max="16" width="2.625" style="185" customWidth="1"/>
+    <col min="17" max="45" width="2.625" customWidth="1"/>
+    <col min="46" max="46" width="2.625" style="142" customWidth="1"/>
     <col min="47" max="52" width="2.625" customWidth="1"/>
-    <col min="53" max="53" width="2.625" style="145" customWidth="1"/>
+    <col min="53" max="53" width="2.625" style="142" customWidth="1"/>
     <col min="54" max="59" width="2.625" customWidth="1"/>
-    <col min="60" max="60" width="2.625" style="145" customWidth="1"/>
+    <col min="60" max="60" width="2.625" style="142" customWidth="1"/>
     <col min="61" max="120" width="2.625" customWidth="1"/>
     <col min="256" max="256" width="3.25" customWidth="1"/>
     <col min="257" max="257" width="17.125" customWidth="1"/>
@@ -5527,7 +5524,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:115" ht="26.25">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="108" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5535,369 +5532,369 @@
       </c>
     </row>
     <row r="5" spans="2:115" ht="18" thickBot="1">
-      <c r="G5" s="189" t="s">
+      <c r="G5" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="95" t="s">
+      <c r="X5" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="BC5" s="95" t="s">
+      <c r="BC5" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="CH5" s="95" t="s">
+      <c r="CH5" s="92" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:115" ht="18" thickTop="1" thickBot="1">
-      <c r="C6" s="107"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="190">
+      <c r="C6" s="104"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="187">
         <v>14</v>
       </c>
-      <c r="H6" s="191">
+      <c r="H6" s="188">
         <v>15</v>
       </c>
-      <c r="I6" s="191">
+      <c r="I6" s="188">
         <v>16</v>
       </c>
-      <c r="J6" s="191">
+      <c r="J6" s="188">
         <v>17</v>
       </c>
-      <c r="K6" s="191">
+      <c r="K6" s="188">
         <v>18</v>
       </c>
-      <c r="L6" s="191">
+      <c r="L6" s="188">
         <v>19</v>
       </c>
-      <c r="M6" s="191">
+      <c r="M6" s="188">
         <v>20</v>
       </c>
-      <c r="N6" s="191">
+      <c r="N6" s="188">
         <v>21</v>
       </c>
-      <c r="O6" s="110">
+      <c r="O6" s="188">
         <v>22</v>
       </c>
-      <c r="P6" s="110">
+      <c r="P6" s="188">
         <v>23</v>
       </c>
-      <c r="Q6" s="110">
+      <c r="Q6" s="107">
         <v>24</v>
       </c>
-      <c r="R6" s="110">
+      <c r="R6" s="107">
         <v>25</v>
       </c>
-      <c r="S6" s="110">
+      <c r="S6" s="107">
         <v>26</v>
       </c>
-      <c r="T6" s="110">
+      <c r="T6" s="107">
         <v>27</v>
       </c>
-      <c r="U6" s="110">
+      <c r="U6" s="107">
         <v>28</v>
       </c>
-      <c r="V6" s="110">
+      <c r="V6" s="107">
         <v>29</v>
       </c>
-      <c r="W6" s="110">
+      <c r="W6" s="107">
         <v>30</v>
       </c>
-      <c r="X6" s="110">
+      <c r="X6" s="107">
         <v>1</v>
       </c>
-      <c r="Y6" s="110">
+      <c r="Y6" s="107">
         <v>2</v>
       </c>
-      <c r="Z6" s="110">
+      <c r="Z6" s="107">
         <v>3</v>
       </c>
-      <c r="AA6" s="110">
+      <c r="AA6" s="107">
         <v>4</v>
       </c>
-      <c r="AB6" s="110">
+      <c r="AB6" s="107">
         <v>5</v>
       </c>
-      <c r="AC6" s="110">
+      <c r="AC6" s="107">
         <v>6</v>
       </c>
-      <c r="AD6" s="110">
+      <c r="AD6" s="107">
         <v>7</v>
       </c>
-      <c r="AE6" s="110">
+      <c r="AE6" s="107">
         <v>8</v>
       </c>
-      <c r="AF6" s="110">
+      <c r="AF6" s="107">
         <v>9</v>
       </c>
-      <c r="AG6" s="110">
+      <c r="AG6" s="107">
         <v>10</v>
       </c>
-      <c r="AH6" s="110">
+      <c r="AH6" s="107">
         <v>11</v>
       </c>
-      <c r="AI6" s="110">
+      <c r="AI6" s="107">
         <v>12</v>
       </c>
-      <c r="AJ6" s="110">
+      <c r="AJ6" s="107">
         <v>13</v>
       </c>
-      <c r="AK6" s="110">
+      <c r="AK6" s="107">
         <v>14</v>
       </c>
-      <c r="AL6" s="259">
+      <c r="AL6" s="256">
         <v>15</v>
       </c>
-      <c r="AM6" s="258">
+      <c r="AM6" s="255">
         <v>16</v>
       </c>
-      <c r="AN6" s="110">
+      <c r="AN6" s="107">
         <v>17</v>
       </c>
-      <c r="AO6" s="110">
+      <c r="AO6" s="107">
         <v>18</v>
       </c>
-      <c r="AP6" s="110">
+      <c r="AP6" s="107">
         <v>19</v>
       </c>
-      <c r="AQ6" s="110">
+      <c r="AQ6" s="107">
         <v>20</v>
       </c>
-      <c r="AR6" s="110">
+      <c r="AR6" s="107">
         <v>21</v>
       </c>
-      <c r="AS6" s="110">
+      <c r="AS6" s="107">
         <v>22</v>
       </c>
-      <c r="AT6" s="162">
+      <c r="AT6" s="159">
         <v>23</v>
       </c>
-      <c r="AU6" s="110">
+      <c r="AU6" s="107">
         <v>24</v>
       </c>
-      <c r="AV6" s="110">
+      <c r="AV6" s="107">
         <v>25</v>
       </c>
-      <c r="AW6" s="110">
+      <c r="AW6" s="107">
         <v>26</v>
       </c>
-      <c r="AX6" s="110">
+      <c r="AX6" s="107">
         <v>27</v>
       </c>
-      <c r="AY6" s="110">
+      <c r="AY6" s="107">
         <v>28</v>
       </c>
-      <c r="AZ6" s="110">
+      <c r="AZ6" s="107">
         <v>29</v>
       </c>
-      <c r="BA6" s="162">
+      <c r="BA6" s="159">
         <v>23</v>
       </c>
-      <c r="BB6" s="110">
+      <c r="BB6" s="107">
         <v>31</v>
       </c>
-      <c r="BC6" s="110">
+      <c r="BC6" s="107">
         <v>1</v>
       </c>
-      <c r="BD6" s="110">
+      <c r="BD6" s="107">
         <v>2</v>
       </c>
-      <c r="BE6" s="110">
+      <c r="BE6" s="107">
         <v>3</v>
       </c>
-      <c r="BF6" s="110">
+      <c r="BF6" s="107">
         <v>4</v>
       </c>
-      <c r="BG6" s="110">
+      <c r="BG6" s="107">
         <v>5</v>
       </c>
-      <c r="BH6" s="162">
+      <c r="BH6" s="159">
         <v>6</v>
       </c>
-      <c r="BI6" s="110">
+      <c r="BI6" s="107">
         <v>7</v>
       </c>
-      <c r="BJ6" s="110">
+      <c r="BJ6" s="107">
         <v>8</v>
       </c>
-      <c r="BK6" s="110">
+      <c r="BK6" s="107">
         <v>9</v>
       </c>
-      <c r="BL6" s="110">
+      <c r="BL6" s="107">
         <v>10</v>
       </c>
-      <c r="BM6" s="110">
+      <c r="BM6" s="107">
         <v>11</v>
       </c>
-      <c r="BN6" s="110">
+      <c r="BN6" s="107">
         <v>12</v>
       </c>
-      <c r="BO6" s="110">
+      <c r="BO6" s="107">
         <v>13</v>
       </c>
-      <c r="BP6" s="110">
+      <c r="BP6" s="107">
         <v>14</v>
       </c>
-      <c r="BQ6" s="110">
+      <c r="BQ6" s="107">
         <v>15</v>
       </c>
-      <c r="BR6" s="110">
+      <c r="BR6" s="107">
         <v>16</v>
       </c>
-      <c r="BS6" s="110">
+      <c r="BS6" s="107">
         <v>17</v>
       </c>
-      <c r="BT6" s="110">
+      <c r="BT6" s="107">
         <v>18</v>
       </c>
-      <c r="BU6" s="110">
+      <c r="BU6" s="107">
         <v>19</v>
       </c>
-      <c r="BV6" s="110">
+      <c r="BV6" s="107">
         <v>20</v>
       </c>
-      <c r="BW6" s="110">
+      <c r="BW6" s="107">
         <v>21</v>
       </c>
-      <c r="BX6" s="110">
+      <c r="BX6" s="107">
         <v>22</v>
       </c>
-      <c r="BY6" s="110">
+      <c r="BY6" s="107">
         <v>23</v>
       </c>
-      <c r="BZ6" s="110">
+      <c r="BZ6" s="107">
         <v>24</v>
       </c>
-      <c r="CA6" s="110">
+      <c r="CA6" s="107">
         <v>25</v>
       </c>
-      <c r="CB6" s="110">
+      <c r="CB6" s="107">
         <v>26</v>
       </c>
-      <c r="CC6" s="110">
+      <c r="CC6" s="107">
         <v>27</v>
       </c>
-      <c r="CD6" s="110">
+      <c r="CD6" s="107">
         <v>28</v>
       </c>
-      <c r="CE6" s="110">
+      <c r="CE6" s="107">
         <v>29</v>
       </c>
-      <c r="CF6" s="110">
+      <c r="CF6" s="107">
         <v>30</v>
       </c>
-      <c r="CG6" s="110">
+      <c r="CG6" s="107">
         <v>31</v>
       </c>
-      <c r="CH6" s="110">
+      <c r="CH6" s="107">
         <v>1</v>
       </c>
-      <c r="CI6" s="110">
+      <c r="CI6" s="107">
         <v>2</v>
       </c>
-      <c r="CJ6" s="110">
+      <c r="CJ6" s="107">
         <v>3</v>
       </c>
-      <c r="CK6" s="110">
+      <c r="CK6" s="107">
         <v>4</v>
       </c>
-      <c r="CL6" s="110">
+      <c r="CL6" s="107">
         <v>5</v>
       </c>
-      <c r="CM6" s="110">
+      <c r="CM6" s="107">
         <v>6</v>
       </c>
-      <c r="CN6" s="110">
+      <c r="CN6" s="107">
         <v>7</v>
       </c>
-      <c r="CO6" s="110">
+      <c r="CO6" s="107">
         <v>8</v>
       </c>
-      <c r="CP6" s="110">
+      <c r="CP6" s="107">
         <v>9</v>
       </c>
-      <c r="CQ6" s="110">
+      <c r="CQ6" s="107">
         <v>10</v>
       </c>
-      <c r="CR6" s="110">
+      <c r="CR6" s="107">
         <v>11</v>
       </c>
-      <c r="CS6" s="110">
+      <c r="CS6" s="107">
         <v>12</v>
       </c>
-      <c r="CT6" s="110">
+      <c r="CT6" s="107">
         <v>13</v>
       </c>
-      <c r="CU6" s="110">
+      <c r="CU6" s="107">
         <v>14</v>
       </c>
-      <c r="CV6" s="110">
+      <c r="CV6" s="107">
         <v>15</v>
       </c>
-      <c r="CW6" s="110">
+      <c r="CW6" s="107">
         <v>16</v>
       </c>
-      <c r="CX6" s="110">
+      <c r="CX6" s="107">
         <v>17</v>
       </c>
-      <c r="CY6" s="110">
+      <c r="CY6" s="107">
         <v>18</v>
       </c>
-      <c r="CZ6" s="110">
+      <c r="CZ6" s="107">
         <v>19</v>
       </c>
-      <c r="DA6" s="110">
+      <c r="DA6" s="107">
         <v>20</v>
       </c>
-      <c r="DB6" s="110">
+      <c r="DB6" s="107">
         <v>21</v>
       </c>
-      <c r="DC6" s="110">
+      <c r="DC6" s="107">
         <v>22</v>
       </c>
-      <c r="DD6" s="110">
+      <c r="DD6" s="107">
         <v>23</v>
       </c>
-      <c r="DE6" s="110">
+      <c r="DE6" s="107">
         <v>24</v>
       </c>
-      <c r="DF6" s="110">
+      <c r="DF6" s="107">
         <v>25</v>
       </c>
-      <c r="DG6" s="110">
+      <c r="DG6" s="107">
         <v>26</v>
       </c>
-      <c r="DH6" s="110">
+      <c r="DH6" s="107">
         <v>27</v>
       </c>
-      <c r="DI6" s="110">
+      <c r="DI6" s="107">
         <v>28</v>
       </c>
-      <c r="DJ6" s="174">
+      <c r="DJ6" s="171">
         <v>29</v>
       </c>
-      <c r="DK6" s="175">
+      <c r="DK6" s="172">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:115" ht="50.1" hidden="1" customHeight="1" thickTop="1">
-      <c r="C7" s="119"/>
-      <c r="D7" s="168" t="s">
+      <c r="C7" s="116"/>
+      <c r="D7" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="181"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
-      <c r="M7" s="192"/>
-      <c r="N7" s="270"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="267"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="189"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="19"/>
@@ -5913,342 +5910,342 @@
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
       <c r="AE7" s="18"/>
-      <c r="AF7" s="116"/>
+      <c r="AF7" s="113"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18"/>
-      <c r="AL7" s="118"/>
+      <c r="AL7" s="115"/>
       <c r="AM7" s="18"/>
-      <c r="AN7" s="164"/>
+      <c r="AN7" s="161"/>
       <c r="AO7" s="19"/>
-      <c r="AP7" s="260"/>
+      <c r="AP7" s="257"/>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="18"/>
       <c r="AS7" s="18"/>
-      <c r="AT7" s="146"/>
+      <c r="AT7" s="143"/>
       <c r="AU7" s="19"/>
       <c r="AV7" s="19"/>
       <c r="AW7" s="18"/>
       <c r="AX7" s="18"/>
       <c r="AY7" s="18"/>
       <c r="AZ7" s="18"/>
-      <c r="BA7" s="146"/>
+      <c r="BA7" s="143"/>
       <c r="BB7" s="19"/>
       <c r="BC7" s="19"/>
       <c r="BD7" s="18"/>
       <c r="BE7" s="18"/>
       <c r="BF7" s="18"/>
       <c r="BG7" s="18"/>
-      <c r="BH7" s="146"/>
+      <c r="BH7" s="143"/>
       <c r="BI7" s="19"/>
       <c r="BJ7" s="19"/>
       <c r="BK7" s="18"/>
       <c r="BL7" s="18"/>
       <c r="BM7" s="18"/>
       <c r="BN7" s="18"/>
-      <c r="BO7" s="130"/>
+      <c r="BO7" s="127"/>
       <c r="BP7" s="19"/>
       <c r="BQ7" s="19"/>
       <c r="BR7" s="18"/>
       <c r="BS7" s="18"/>
       <c r="BT7" s="18"/>
       <c r="BU7" s="18"/>
-      <c r="BV7" s="130"/>
+      <c r="BV7" s="127"/>
       <c r="BW7" s="19"/>
       <c r="BX7" s="19"/>
       <c r="BY7" s="18"/>
       <c r="BZ7" s="18"/>
       <c r="CA7" s="18"/>
       <c r="CB7" s="18"/>
-      <c r="CC7" s="130"/>
+      <c r="CC7" s="127"/>
       <c r="CD7" s="19"/>
       <c r="CE7" s="19"/>
       <c r="CF7" s="18"/>
       <c r="CG7" s="18"/>
       <c r="CH7" s="18"/>
       <c r="CI7" s="18"/>
-      <c r="CJ7" s="130"/>
+      <c r="CJ7" s="127"/>
       <c r="CK7" s="19"/>
       <c r="CL7" s="19"/>
       <c r="CM7" s="18"/>
       <c r="CN7" s="18"/>
       <c r="CO7" s="18"/>
       <c r="CP7" s="18"/>
-      <c r="CQ7" s="130"/>
+      <c r="CQ7" s="127"/>
       <c r="CR7" s="19"/>
       <c r="CS7" s="19"/>
       <c r="CT7" s="18"/>
       <c r="CU7" s="18"/>
       <c r="CV7" s="18"/>
       <c r="CW7" s="18"/>
-      <c r="CX7" s="130"/>
+      <c r="CX7" s="127"/>
       <c r="CY7" s="19"/>
       <c r="CZ7" s="19"/>
       <c r="DA7" s="18"/>
       <c r="DB7" s="18"/>
       <c r="DC7" s="18"/>
       <c r="DD7" s="18"/>
-      <c r="DE7" s="130"/>
+      <c r="DE7" s="127"/>
       <c r="DF7" s="19"/>
       <c r="DG7" s="19"/>
       <c r="DH7" s="18"/>
       <c r="DI7" s="18"/>
       <c r="DJ7" s="18"/>
-      <c r="DK7" s="134"/>
+      <c r="DK7" s="131"/>
     </row>
     <row r="8" spans="2:115" ht="50.1" customHeight="1" thickTop="1">
-      <c r="C8" s="121"/>
-      <c r="D8" s="169" t="s">
+      <c r="C8" s="118"/>
+      <c r="D8" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="182"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="271"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="114"/>
-      <c r="AC8" s="114"/>
-      <c r="AD8" s="114"/>
-      <c r="AE8" s="114"/>
-      <c r="AF8" s="117"/>
-      <c r="AG8" s="115"/>
-      <c r="AH8" s="115"/>
-      <c r="AI8" s="114"/>
-      <c r="AJ8" s="114"/>
-      <c r="AK8" s="114"/>
-      <c r="AL8" s="117"/>
-      <c r="AM8" s="114"/>
-      <c r="AN8" s="165"/>
-      <c r="AO8" s="115"/>
-      <c r="AP8" s="114"/>
-      <c r="AQ8" s="114"/>
-      <c r="AR8" s="114"/>
-      <c r="AS8" s="114"/>
-      <c r="AT8" s="147"/>
-      <c r="AU8" s="115"/>
-      <c r="AV8" s="115"/>
-      <c r="AW8" s="114"/>
-      <c r="AX8" s="114"/>
-      <c r="AY8" s="114"/>
-      <c r="AZ8" s="114"/>
-      <c r="BA8" s="147"/>
-      <c r="BB8" s="115"/>
-      <c r="BC8" s="115"/>
-      <c r="BD8" s="114"/>
-      <c r="BE8" s="114"/>
-      <c r="BF8" s="114"/>
-      <c r="BG8" s="114"/>
-      <c r="BH8" s="147"/>
-      <c r="BI8" s="115"/>
-      <c r="BJ8" s="115"/>
-      <c r="BK8" s="114"/>
-      <c r="BL8" s="114"/>
-      <c r="BM8" s="114"/>
-      <c r="BN8" s="114"/>
-      <c r="BO8" s="131"/>
-      <c r="BP8" s="115"/>
-      <c r="BQ8" s="115"/>
-      <c r="BR8" s="114"/>
-      <c r="BS8" s="114"/>
-      <c r="BT8" s="114"/>
-      <c r="BU8" s="114"/>
-      <c r="BV8" s="131"/>
-      <c r="BW8" s="115"/>
-      <c r="BX8" s="115"/>
-      <c r="BY8" s="114"/>
-      <c r="BZ8" s="114"/>
-      <c r="CA8" s="114"/>
-      <c r="CB8" s="114"/>
-      <c r="CC8" s="131"/>
-      <c r="CD8" s="115"/>
-      <c r="CE8" s="115"/>
-      <c r="CF8" s="114"/>
-      <c r="CG8" s="114"/>
-      <c r="CH8" s="114"/>
-      <c r="CI8" s="114"/>
-      <c r="CJ8" s="131"/>
-      <c r="CK8" s="115"/>
-      <c r="CL8" s="115"/>
-      <c r="CM8" s="114"/>
-      <c r="CN8" s="114"/>
-      <c r="CO8" s="114"/>
-      <c r="CP8" s="114"/>
-      <c r="CQ8" s="131"/>
-      <c r="CR8" s="115"/>
-      <c r="CS8" s="115"/>
-      <c r="CT8" s="114"/>
-      <c r="CU8" s="114"/>
-      <c r="CV8" s="114"/>
-      <c r="CW8" s="114"/>
-      <c r="CX8" s="131"/>
-      <c r="CY8" s="115"/>
-      <c r="CZ8" s="115"/>
-      <c r="DA8" s="114"/>
-      <c r="DB8" s="114"/>
-      <c r="DC8" s="114"/>
-      <c r="DD8" s="114"/>
-      <c r="DE8" s="131"/>
-      <c r="DF8" s="115"/>
-      <c r="DG8" s="115"/>
-      <c r="DH8" s="114"/>
-      <c r="DI8" s="114"/>
-      <c r="DJ8" s="114"/>
-      <c r="DK8" s="135"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="190"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="190"/>
+      <c r="M8" s="190"/>
+      <c r="N8" s="268"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="190"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+      <c r="W8" s="111"/>
+      <c r="X8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="111"/>
+      <c r="AC8" s="111"/>
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="111"/>
+      <c r="AF8" s="114"/>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="112"/>
+      <c r="AI8" s="111"/>
+      <c r="AJ8" s="111"/>
+      <c r="AK8" s="111"/>
+      <c r="AL8" s="114"/>
+      <c r="AM8" s="111"/>
+      <c r="AN8" s="162"/>
+      <c r="AO8" s="112"/>
+      <c r="AP8" s="111"/>
+      <c r="AQ8" s="111"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="144"/>
+      <c r="AU8" s="112"/>
+      <c r="AV8" s="112"/>
+      <c r="AW8" s="111"/>
+      <c r="AX8" s="111"/>
+      <c r="AY8" s="111"/>
+      <c r="AZ8" s="111"/>
+      <c r="BA8" s="144"/>
+      <c r="BB8" s="112"/>
+      <c r="BC8" s="112"/>
+      <c r="BD8" s="111"/>
+      <c r="BE8" s="111"/>
+      <c r="BF8" s="111"/>
+      <c r="BG8" s="111"/>
+      <c r="BH8" s="144"/>
+      <c r="BI8" s="112"/>
+      <c r="BJ8" s="112"/>
+      <c r="BK8" s="111"/>
+      <c r="BL8" s="111"/>
+      <c r="BM8" s="111"/>
+      <c r="BN8" s="111"/>
+      <c r="BO8" s="128"/>
+      <c r="BP8" s="112"/>
+      <c r="BQ8" s="112"/>
+      <c r="BR8" s="111"/>
+      <c r="BS8" s="111"/>
+      <c r="BT8" s="111"/>
+      <c r="BU8" s="111"/>
+      <c r="BV8" s="128"/>
+      <c r="BW8" s="112"/>
+      <c r="BX8" s="112"/>
+      <c r="BY8" s="111"/>
+      <c r="BZ8" s="111"/>
+      <c r="CA8" s="111"/>
+      <c r="CB8" s="111"/>
+      <c r="CC8" s="128"/>
+      <c r="CD8" s="112"/>
+      <c r="CE8" s="112"/>
+      <c r="CF8" s="111"/>
+      <c r="CG8" s="111"/>
+      <c r="CH8" s="111"/>
+      <c r="CI8" s="111"/>
+      <c r="CJ8" s="128"/>
+      <c r="CK8" s="112"/>
+      <c r="CL8" s="112"/>
+      <c r="CM8" s="111"/>
+      <c r="CN8" s="111"/>
+      <c r="CO8" s="111"/>
+      <c r="CP8" s="111"/>
+      <c r="CQ8" s="128"/>
+      <c r="CR8" s="112"/>
+      <c r="CS8" s="112"/>
+      <c r="CT8" s="111"/>
+      <c r="CU8" s="111"/>
+      <c r="CV8" s="111"/>
+      <c r="CW8" s="111"/>
+      <c r="CX8" s="128"/>
+      <c r="CY8" s="112"/>
+      <c r="CZ8" s="112"/>
+      <c r="DA8" s="111"/>
+      <c r="DB8" s="111"/>
+      <c r="DC8" s="111"/>
+      <c r="DD8" s="111"/>
+      <c r="DE8" s="128"/>
+      <c r="DF8" s="112"/>
+      <c r="DG8" s="112"/>
+      <c r="DH8" s="111"/>
+      <c r="DI8" s="111"/>
+      <c r="DJ8" s="111"/>
+      <c r="DK8" s="132"/>
     </row>
     <row r="9" spans="2:115" ht="50.1" customHeight="1">
-      <c r="C9" s="125"/>
-      <c r="D9" s="170" t="s">
+      <c r="C9" s="122"/>
+      <c r="D9" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="183"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="271"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="114"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114"/>
-      <c r="X9" s="114"/>
-      <c r="Y9" s="114"/>
-      <c r="Z9" s="115"/>
-      <c r="AA9" s="115"/>
-      <c r="AB9" s="114"/>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="117"/>
-      <c r="AG9" s="115"/>
-      <c r="AH9" s="115"/>
-      <c r="AI9" s="114"/>
-      <c r="AJ9" s="114"/>
-      <c r="AK9" s="114"/>
-      <c r="AL9" s="117"/>
-      <c r="AM9" s="114"/>
-      <c r="AN9" s="165"/>
-      <c r="AO9" s="115"/>
-      <c r="AP9" s="114"/>
-      <c r="AQ9" s="114"/>
-      <c r="AR9" s="114"/>
-      <c r="AS9" s="114"/>
-      <c r="AT9" s="147"/>
-      <c r="AU9" s="115"/>
-      <c r="AV9" s="115"/>
-      <c r="AW9" s="114"/>
-      <c r="AX9" s="114"/>
-      <c r="AY9" s="114"/>
-      <c r="AZ9" s="114"/>
-      <c r="BA9" s="147"/>
-      <c r="BB9" s="115"/>
-      <c r="BC9" s="115"/>
-      <c r="BD9" s="114"/>
-      <c r="BE9" s="114"/>
-      <c r="BF9" s="114"/>
-      <c r="BG9" s="114"/>
-      <c r="BH9" s="147"/>
-      <c r="BI9" s="115"/>
-      <c r="BJ9" s="115"/>
-      <c r="BK9" s="114"/>
-      <c r="BL9" s="114"/>
-      <c r="BM9" s="114"/>
-      <c r="BN9" s="114"/>
-      <c r="BO9" s="131"/>
-      <c r="BP9" s="115"/>
-      <c r="BQ9" s="115"/>
-      <c r="BR9" s="114"/>
-      <c r="BS9" s="114"/>
-      <c r="BT9" s="114"/>
-      <c r="BU9" s="114"/>
-      <c r="BV9" s="131"/>
-      <c r="BW9" s="115"/>
-      <c r="BX9" s="115"/>
-      <c r="BY9" s="114"/>
-      <c r="BZ9" s="114"/>
-      <c r="CA9" s="114"/>
-      <c r="CB9" s="114"/>
-      <c r="CC9" s="131"/>
-      <c r="CD9" s="115"/>
-      <c r="CE9" s="115"/>
-      <c r="CF9" s="114"/>
-      <c r="CG9" s="114"/>
-      <c r="CH9" s="114"/>
-      <c r="CI9" s="114"/>
-      <c r="CJ9" s="131"/>
-      <c r="CK9" s="115"/>
-      <c r="CL9" s="115"/>
-      <c r="CM9" s="114"/>
-      <c r="CN9" s="114"/>
-      <c r="CO9" s="114"/>
-      <c r="CP9" s="114"/>
-      <c r="CQ9" s="131"/>
-      <c r="CR9" s="115"/>
-      <c r="CS9" s="115"/>
-      <c r="CT9" s="114"/>
-      <c r="CU9" s="114"/>
-      <c r="CV9" s="114"/>
-      <c r="CW9" s="114"/>
-      <c r="CX9" s="131"/>
-      <c r="CY9" s="115"/>
-      <c r="CZ9" s="115"/>
-      <c r="DA9" s="114"/>
-      <c r="DB9" s="114"/>
-      <c r="DC9" s="114"/>
-      <c r="DD9" s="114"/>
-      <c r="DE9" s="131"/>
-      <c r="DF9" s="115"/>
-      <c r="DG9" s="115"/>
-      <c r="DH9" s="114"/>
-      <c r="DI9" s="114"/>
-      <c r="DJ9" s="114"/>
-      <c r="DK9" s="135"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="190"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="190"/>
+      <c r="M9" s="190"/>
+      <c r="N9" s="268"/>
+      <c r="O9" s="190"/>
+      <c r="P9" s="190"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="112"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="112"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="111"/>
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="111"/>
+      <c r="AF9" s="114"/>
+      <c r="AG9" s="112"/>
+      <c r="AH9" s="112"/>
+      <c r="AI9" s="111"/>
+      <c r="AJ9" s="111"/>
+      <c r="AK9" s="111"/>
+      <c r="AL9" s="114"/>
+      <c r="AM9" s="111"/>
+      <c r="AN9" s="162"/>
+      <c r="AO9" s="112"/>
+      <c r="AP9" s="111"/>
+      <c r="AQ9" s="111"/>
+      <c r="AR9" s="111"/>
+      <c r="AS9" s="111"/>
+      <c r="AT9" s="144"/>
+      <c r="AU9" s="112"/>
+      <c r="AV9" s="112"/>
+      <c r="AW9" s="111"/>
+      <c r="AX9" s="111"/>
+      <c r="AY9" s="111"/>
+      <c r="AZ9" s="111"/>
+      <c r="BA9" s="144"/>
+      <c r="BB9" s="112"/>
+      <c r="BC9" s="112"/>
+      <c r="BD9" s="111"/>
+      <c r="BE9" s="111"/>
+      <c r="BF9" s="111"/>
+      <c r="BG9" s="111"/>
+      <c r="BH9" s="144"/>
+      <c r="BI9" s="112"/>
+      <c r="BJ9" s="112"/>
+      <c r="BK9" s="111"/>
+      <c r="BL9" s="111"/>
+      <c r="BM9" s="111"/>
+      <c r="BN9" s="111"/>
+      <c r="BO9" s="128"/>
+      <c r="BP9" s="112"/>
+      <c r="BQ9" s="112"/>
+      <c r="BR9" s="111"/>
+      <c r="BS9" s="111"/>
+      <c r="BT9" s="111"/>
+      <c r="BU9" s="111"/>
+      <c r="BV9" s="128"/>
+      <c r="BW9" s="112"/>
+      <c r="BX9" s="112"/>
+      <c r="BY9" s="111"/>
+      <c r="BZ9" s="111"/>
+      <c r="CA9" s="111"/>
+      <c r="CB9" s="111"/>
+      <c r="CC9" s="128"/>
+      <c r="CD9" s="112"/>
+      <c r="CE9" s="112"/>
+      <c r="CF9" s="111"/>
+      <c r="CG9" s="111"/>
+      <c r="CH9" s="111"/>
+      <c r="CI9" s="111"/>
+      <c r="CJ9" s="128"/>
+      <c r="CK9" s="112"/>
+      <c r="CL9" s="112"/>
+      <c r="CM9" s="111"/>
+      <c r="CN9" s="111"/>
+      <c r="CO9" s="111"/>
+      <c r="CP9" s="111"/>
+      <c r="CQ9" s="128"/>
+      <c r="CR9" s="112"/>
+      <c r="CS9" s="112"/>
+      <c r="CT9" s="111"/>
+      <c r="CU9" s="111"/>
+      <c r="CV9" s="111"/>
+      <c r="CW9" s="111"/>
+      <c r="CX9" s="128"/>
+      <c r="CY9" s="112"/>
+      <c r="CZ9" s="112"/>
+      <c r="DA9" s="111"/>
+      <c r="DB9" s="111"/>
+      <c r="DC9" s="111"/>
+      <c r="DD9" s="111"/>
+      <c r="DE9" s="128"/>
+      <c r="DF9" s="112"/>
+      <c r="DG9" s="112"/>
+      <c r="DH9" s="111"/>
+      <c r="DI9" s="111"/>
+      <c r="DJ9" s="111"/>
+      <c r="DK9" s="132"/>
     </row>
     <row r="10" spans="2:115" ht="50.1" customHeight="1">
-      <c r="C10" s="127"/>
-      <c r="D10" s="171" t="s">
+      <c r="C10" s="124"/>
+      <c r="D10" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="184"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="194"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="272"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="191"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="269"/>
+      <c r="O10" s="189"/>
+      <c r="P10" s="189"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
       <c r="S10" s="19"/>
@@ -6264,342 +6261,342 @@
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
       <c r="AE10" s="18"/>
-      <c r="AF10" s="118"/>
+      <c r="AF10" s="115"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="18"/>
       <c r="AJ10" s="18"/>
       <c r="AK10" s="18"/>
-      <c r="AL10" s="118"/>
+      <c r="AL10" s="115"/>
       <c r="AM10" s="18"/>
-      <c r="AN10" s="166"/>
+      <c r="AN10" s="163"/>
       <c r="AO10" s="19"/>
       <c r="AP10" s="18"/>
       <c r="AQ10" s="18"/>
       <c r="AR10" s="18"/>
       <c r="AS10" s="18"/>
-      <c r="AT10" s="148"/>
+      <c r="AT10" s="145"/>
       <c r="AU10" s="19"/>
       <c r="AV10" s="19"/>
       <c r="AW10" s="18"/>
       <c r="AX10" s="18"/>
       <c r="AY10" s="18"/>
       <c r="AZ10" s="18"/>
-      <c r="BA10" s="148"/>
+      <c r="BA10" s="145"/>
       <c r="BB10" s="19"/>
       <c r="BC10" s="19"/>
       <c r="BD10" s="18"/>
       <c r="BE10" s="18"/>
       <c r="BF10" s="18"/>
       <c r="BG10" s="18"/>
-      <c r="BH10" s="148"/>
+      <c r="BH10" s="145"/>
       <c r="BI10" s="19"/>
       <c r="BJ10" s="19"/>
       <c r="BK10" s="18"/>
       <c r="BL10" s="18"/>
       <c r="BM10" s="18"/>
       <c r="BN10" s="18"/>
-      <c r="BO10" s="132"/>
+      <c r="BO10" s="129"/>
       <c r="BP10" s="19"/>
       <c r="BQ10" s="19"/>
       <c r="BR10" s="18"/>
       <c r="BS10" s="18"/>
       <c r="BT10" s="18"/>
       <c r="BU10" s="18"/>
-      <c r="BV10" s="132"/>
+      <c r="BV10" s="129"/>
       <c r="BW10" s="19"/>
       <c r="BX10" s="19"/>
       <c r="BY10" s="18"/>
       <c r="BZ10" s="18"/>
       <c r="CA10" s="18"/>
       <c r="CB10" s="18"/>
-      <c r="CC10" s="132"/>
+      <c r="CC10" s="129"/>
       <c r="CD10" s="19"/>
       <c r="CE10" s="19"/>
       <c r="CF10" s="18"/>
       <c r="CG10" s="18"/>
       <c r="CH10" s="18"/>
       <c r="CI10" s="18"/>
-      <c r="CJ10" s="132"/>
+      <c r="CJ10" s="129"/>
       <c r="CK10" s="19"/>
       <c r="CL10" s="19"/>
       <c r="CM10" s="18"/>
       <c r="CN10" s="18"/>
       <c r="CO10" s="18"/>
       <c r="CP10" s="18"/>
-      <c r="CQ10" s="132"/>
+      <c r="CQ10" s="129"/>
       <c r="CR10" s="19"/>
       <c r="CS10" s="19"/>
       <c r="CT10" s="18"/>
       <c r="CU10" s="18"/>
       <c r="CV10" s="18"/>
       <c r="CW10" s="18"/>
-      <c r="CX10" s="132"/>
+      <c r="CX10" s="129"/>
       <c r="CY10" s="19"/>
       <c r="CZ10" s="19"/>
       <c r="DA10" s="18"/>
       <c r="DB10" s="18"/>
       <c r="DC10" s="18"/>
       <c r="DD10" s="18"/>
-      <c r="DE10" s="132"/>
+      <c r="DE10" s="129"/>
       <c r="DF10" s="19"/>
       <c r="DG10" s="19"/>
       <c r="DH10" s="18"/>
       <c r="DI10" s="18"/>
       <c r="DJ10" s="18"/>
-      <c r="DK10" s="136"/>
+      <c r="DK10" s="133"/>
     </row>
     <row r="11" spans="2:115" ht="50.1" customHeight="1" thickBot="1">
-      <c r="C11" s="123"/>
-      <c r="D11" s="172" t="s">
+      <c r="C11" s="120"/>
+      <c r="D11" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="185"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="193"/>
-      <c r="L11" s="193"/>
-      <c r="M11" s="193"/>
-      <c r="N11" s="271"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="114"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="115"/>
-      <c r="AA11" s="115"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114"/>
-      <c r="AD11" s="114"/>
-      <c r="AE11" s="114"/>
-      <c r="AF11" s="117"/>
-      <c r="AG11" s="115"/>
-      <c r="AH11" s="115"/>
-      <c r="AI11" s="114"/>
-      <c r="AJ11" s="114"/>
-      <c r="AK11" s="114"/>
-      <c r="AL11" s="117"/>
-      <c r="AM11" s="114"/>
-      <c r="AN11" s="165"/>
-      <c r="AO11" s="115"/>
-      <c r="AP11" s="114"/>
-      <c r="AQ11" s="114"/>
-      <c r="AR11" s="114"/>
-      <c r="AS11" s="114"/>
-      <c r="AT11" s="149"/>
-      <c r="AU11" s="115"/>
-      <c r="AV11" s="115"/>
-      <c r="AW11" s="114"/>
-      <c r="AX11" s="114"/>
-      <c r="AY11" s="114"/>
-      <c r="AZ11" s="114"/>
-      <c r="BA11" s="149"/>
-      <c r="BB11" s="115"/>
-      <c r="BC11" s="115"/>
-      <c r="BD11" s="114"/>
-      <c r="BE11" s="114"/>
-      <c r="BF11" s="114"/>
-      <c r="BG11" s="114"/>
-      <c r="BH11" s="149"/>
-      <c r="BI11" s="115"/>
-      <c r="BJ11" s="115"/>
-      <c r="BK11" s="114"/>
-      <c r="BL11" s="114"/>
-      <c r="BM11" s="114"/>
-      <c r="BN11" s="114"/>
-      <c r="BO11" s="133"/>
-      <c r="BP11" s="115"/>
-      <c r="BQ11" s="115"/>
-      <c r="BR11" s="114"/>
-      <c r="BS11" s="114"/>
-      <c r="BT11" s="114"/>
-      <c r="BU11" s="114"/>
-      <c r="BV11" s="133"/>
-      <c r="BW11" s="115"/>
-      <c r="BX11" s="115"/>
-      <c r="BY11" s="114"/>
-      <c r="BZ11" s="114"/>
-      <c r="CA11" s="114"/>
-      <c r="CB11" s="114"/>
-      <c r="CC11" s="133"/>
-      <c r="CD11" s="115"/>
-      <c r="CE11" s="115"/>
-      <c r="CF11" s="114"/>
-      <c r="CG11" s="114"/>
-      <c r="CH11" s="114"/>
-      <c r="CI11" s="114"/>
-      <c r="CJ11" s="133"/>
-      <c r="CK11" s="115"/>
-      <c r="CL11" s="115"/>
-      <c r="CM11" s="114"/>
-      <c r="CN11" s="114"/>
-      <c r="CO11" s="114"/>
-      <c r="CP11" s="114"/>
-      <c r="CQ11" s="133"/>
-      <c r="CR11" s="115"/>
-      <c r="CS11" s="115"/>
-      <c r="CT11" s="114"/>
-      <c r="CU11" s="114"/>
-      <c r="CV11" s="114"/>
-      <c r="CW11" s="114"/>
-      <c r="CX11" s="133"/>
-      <c r="CY11" s="115"/>
-      <c r="CZ11" s="115"/>
-      <c r="DA11" s="114"/>
-      <c r="DB11" s="114"/>
-      <c r="DC11" s="114"/>
-      <c r="DD11" s="114"/>
-      <c r="DE11" s="133"/>
-      <c r="DF11" s="115"/>
-      <c r="DG11" s="115"/>
-      <c r="DH11" s="114"/>
-      <c r="DI11" s="114"/>
-      <c r="DJ11" s="114"/>
-      <c r="DK11" s="137"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="190"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="111"/>
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="111"/>
+      <c r="AF11" s="114"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="112"/>
+      <c r="AI11" s="111"/>
+      <c r="AJ11" s="111"/>
+      <c r="AK11" s="111"/>
+      <c r="AL11" s="114"/>
+      <c r="AM11" s="111"/>
+      <c r="AN11" s="162"/>
+      <c r="AO11" s="112"/>
+      <c r="AP11" s="111"/>
+      <c r="AQ11" s="111"/>
+      <c r="AR11" s="111"/>
+      <c r="AS11" s="111"/>
+      <c r="AT11" s="146"/>
+      <c r="AU11" s="112"/>
+      <c r="AV11" s="112"/>
+      <c r="AW11" s="111"/>
+      <c r="AX11" s="111"/>
+      <c r="AY11" s="111"/>
+      <c r="AZ11" s="111"/>
+      <c r="BA11" s="146"/>
+      <c r="BB11" s="112"/>
+      <c r="BC11" s="112"/>
+      <c r="BD11" s="111"/>
+      <c r="BE11" s="111"/>
+      <c r="BF11" s="111"/>
+      <c r="BG11" s="111"/>
+      <c r="BH11" s="146"/>
+      <c r="BI11" s="112"/>
+      <c r="BJ11" s="112"/>
+      <c r="BK11" s="111"/>
+      <c r="BL11" s="111"/>
+      <c r="BM11" s="111"/>
+      <c r="BN11" s="111"/>
+      <c r="BO11" s="130"/>
+      <c r="BP11" s="112"/>
+      <c r="BQ11" s="112"/>
+      <c r="BR11" s="111"/>
+      <c r="BS11" s="111"/>
+      <c r="BT11" s="111"/>
+      <c r="BU11" s="111"/>
+      <c r="BV11" s="130"/>
+      <c r="BW11" s="112"/>
+      <c r="BX11" s="112"/>
+      <c r="BY11" s="111"/>
+      <c r="BZ11" s="111"/>
+      <c r="CA11" s="111"/>
+      <c r="CB11" s="111"/>
+      <c r="CC11" s="130"/>
+      <c r="CD11" s="112"/>
+      <c r="CE11" s="112"/>
+      <c r="CF11" s="111"/>
+      <c r="CG11" s="111"/>
+      <c r="CH11" s="111"/>
+      <c r="CI11" s="111"/>
+      <c r="CJ11" s="130"/>
+      <c r="CK11" s="112"/>
+      <c r="CL11" s="112"/>
+      <c r="CM11" s="111"/>
+      <c r="CN11" s="111"/>
+      <c r="CO11" s="111"/>
+      <c r="CP11" s="111"/>
+      <c r="CQ11" s="130"/>
+      <c r="CR11" s="112"/>
+      <c r="CS11" s="112"/>
+      <c r="CT11" s="111"/>
+      <c r="CU11" s="111"/>
+      <c r="CV11" s="111"/>
+      <c r="CW11" s="111"/>
+      <c r="CX11" s="130"/>
+      <c r="CY11" s="112"/>
+      <c r="CZ11" s="112"/>
+      <c r="DA11" s="111"/>
+      <c r="DB11" s="111"/>
+      <c r="DC11" s="111"/>
+      <c r="DD11" s="111"/>
+      <c r="DE11" s="130"/>
+      <c r="DF11" s="112"/>
+      <c r="DG11" s="112"/>
+      <c r="DH11" s="111"/>
+      <c r="DI11" s="111"/>
+      <c r="DJ11" s="111"/>
+      <c r="DK11" s="134"/>
     </row>
     <row r="12" spans="2:115" ht="50.1" customHeight="1" thickBot="1">
-      <c r="C12" s="143"/>
-      <c r="D12" s="173" t="s">
+      <c r="C12" s="140"/>
+      <c r="D12" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="186"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="197"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="196"/>
-      <c r="N12" s="273"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="138"/>
-      <c r="Q12" s="138"/>
-      <c r="R12" s="138"/>
-      <c r="S12" s="139"/>
-      <c r="T12" s="139"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="139"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="138"/>
-      <c r="AC12" s="138"/>
-      <c r="AD12" s="138"/>
-      <c r="AE12" s="138"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="139"/>
-      <c r="AH12" s="139"/>
-      <c r="AI12" s="138"/>
-      <c r="AJ12" s="138"/>
-      <c r="AK12" s="138"/>
-      <c r="AL12" s="140"/>
-      <c r="AM12" s="138"/>
-      <c r="AN12" s="167"/>
-      <c r="AO12" s="139"/>
-      <c r="AP12" s="138"/>
-      <c r="AQ12" s="138"/>
-      <c r="AR12" s="138"/>
-      <c r="AS12" s="138"/>
-      <c r="AT12" s="161"/>
-      <c r="AU12" s="139"/>
-      <c r="AV12" s="139"/>
-      <c r="AW12" s="138"/>
-      <c r="AX12" s="138"/>
-      <c r="AY12" s="138"/>
-      <c r="AZ12" s="138"/>
-      <c r="BA12" s="161"/>
-      <c r="BB12" s="139"/>
-      <c r="BC12" s="139"/>
-      <c r="BD12" s="138"/>
-      <c r="BE12" s="138"/>
-      <c r="BF12" s="138"/>
-      <c r="BG12" s="138"/>
-      <c r="BH12" s="161"/>
-      <c r="BI12" s="139"/>
-      <c r="BJ12" s="139"/>
-      <c r="BK12" s="138"/>
-      <c r="BL12" s="138"/>
-      <c r="BM12" s="138"/>
-      <c r="BN12" s="138"/>
-      <c r="BO12" s="141"/>
-      <c r="BP12" s="139"/>
-      <c r="BQ12" s="139"/>
-      <c r="BR12" s="138"/>
-      <c r="BS12" s="138"/>
-      <c r="BT12" s="138"/>
-      <c r="BU12" s="138"/>
-      <c r="BV12" s="141"/>
-      <c r="BW12" s="139"/>
-      <c r="BX12" s="139"/>
-      <c r="BY12" s="138"/>
-      <c r="BZ12" s="138"/>
-      <c r="CA12" s="138"/>
-      <c r="CB12" s="138"/>
-      <c r="CC12" s="141"/>
-      <c r="CD12" s="139"/>
-      <c r="CE12" s="139"/>
-      <c r="CF12" s="138"/>
-      <c r="CG12" s="138"/>
-      <c r="CH12" s="138"/>
-      <c r="CI12" s="138"/>
-      <c r="CJ12" s="141"/>
-      <c r="CK12" s="139"/>
-      <c r="CL12" s="139"/>
-      <c r="CM12" s="138"/>
-      <c r="CN12" s="138"/>
-      <c r="CO12" s="138"/>
-      <c r="CP12" s="138"/>
-      <c r="CQ12" s="141"/>
-      <c r="CR12" s="139"/>
-      <c r="CS12" s="139"/>
-      <c r="CT12" s="138"/>
-      <c r="CU12" s="138"/>
-      <c r="CV12" s="138"/>
-      <c r="CW12" s="138"/>
-      <c r="CX12" s="141"/>
-      <c r="CY12" s="139"/>
-      <c r="CZ12" s="139"/>
-      <c r="DA12" s="138"/>
-      <c r="DB12" s="138"/>
-      <c r="DC12" s="138"/>
-      <c r="DD12" s="138"/>
-      <c r="DE12" s="141"/>
-      <c r="DF12" s="139"/>
-      <c r="DG12" s="139"/>
-      <c r="DH12" s="138"/>
-      <c r="DI12" s="138"/>
-      <c r="DJ12" s="138"/>
-      <c r="DK12" s="142"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="193"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="270"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="135"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="136"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="136"/>
+      <c r="AA12" s="136"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="135"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="135"/>
+      <c r="AJ12" s="135"/>
+      <c r="AK12" s="135"/>
+      <c r="AL12" s="137"/>
+      <c r="AM12" s="135"/>
+      <c r="AN12" s="164"/>
+      <c r="AO12" s="136"/>
+      <c r="AP12" s="135"/>
+      <c r="AQ12" s="135"/>
+      <c r="AR12" s="135"/>
+      <c r="AS12" s="135"/>
+      <c r="AT12" s="158"/>
+      <c r="AU12" s="136"/>
+      <c r="AV12" s="136"/>
+      <c r="AW12" s="135"/>
+      <c r="AX12" s="135"/>
+      <c r="AY12" s="135"/>
+      <c r="AZ12" s="135"/>
+      <c r="BA12" s="158"/>
+      <c r="BB12" s="136"/>
+      <c r="BC12" s="136"/>
+      <c r="BD12" s="135"/>
+      <c r="BE12" s="135"/>
+      <c r="BF12" s="135"/>
+      <c r="BG12" s="135"/>
+      <c r="BH12" s="158"/>
+      <c r="BI12" s="136"/>
+      <c r="BJ12" s="136"/>
+      <c r="BK12" s="135"/>
+      <c r="BL12" s="135"/>
+      <c r="BM12" s="135"/>
+      <c r="BN12" s="135"/>
+      <c r="BO12" s="138"/>
+      <c r="BP12" s="136"/>
+      <c r="BQ12" s="136"/>
+      <c r="BR12" s="135"/>
+      <c r="BS12" s="135"/>
+      <c r="BT12" s="135"/>
+      <c r="BU12" s="135"/>
+      <c r="BV12" s="138"/>
+      <c r="BW12" s="136"/>
+      <c r="BX12" s="136"/>
+      <c r="BY12" s="135"/>
+      <c r="BZ12" s="135"/>
+      <c r="CA12" s="135"/>
+      <c r="CB12" s="135"/>
+      <c r="CC12" s="138"/>
+      <c r="CD12" s="136"/>
+      <c r="CE12" s="136"/>
+      <c r="CF12" s="135"/>
+      <c r="CG12" s="135"/>
+      <c r="CH12" s="135"/>
+      <c r="CI12" s="135"/>
+      <c r="CJ12" s="138"/>
+      <c r="CK12" s="136"/>
+      <c r="CL12" s="136"/>
+      <c r="CM12" s="135"/>
+      <c r="CN12" s="135"/>
+      <c r="CO12" s="135"/>
+      <c r="CP12" s="135"/>
+      <c r="CQ12" s="138"/>
+      <c r="CR12" s="136"/>
+      <c r="CS12" s="136"/>
+      <c r="CT12" s="135"/>
+      <c r="CU12" s="135"/>
+      <c r="CV12" s="135"/>
+      <c r="CW12" s="135"/>
+      <c r="CX12" s="138"/>
+      <c r="CY12" s="136"/>
+      <c r="CZ12" s="136"/>
+      <c r="DA12" s="135"/>
+      <c r="DB12" s="135"/>
+      <c r="DC12" s="135"/>
+      <c r="DD12" s="135"/>
+      <c r="DE12" s="138"/>
+      <c r="DF12" s="136"/>
+      <c r="DG12" s="136"/>
+      <c r="DH12" s="135"/>
+      <c r="DI12" s="135"/>
+      <c r="DJ12" s="135"/>
+      <c r="DK12" s="139"/>
     </row>
     <row r="13" spans="2:115" ht="17.25" thickTop="1"/>
     <row r="15" spans="2:115" ht="26.25">
-      <c r="B15" s="112" t="s">
+      <c r="B15" s="109" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:115" ht="18" thickBot="1">
-      <c r="G16" s="189" t="s">
+      <c r="G16" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="X16" s="95" t="s">
+      <c r="X16" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="BC16" s="95" t="s">
+      <c r="BC16" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="CH16" s="95" t="s">
+      <c r="CH16" s="92" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6613,40 +6610,40 @@
       <c r="D17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="187" t="s">
+      <c r="E17" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="77" t="s">
+      <c r="F17" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="195">
         <v>14</v>
       </c>
-      <c r="H17" s="199">
+      <c r="H17" s="196">
         <v>15</v>
       </c>
-      <c r="I17" s="199">
+      <c r="I17" s="196">
         <v>16</v>
       </c>
-      <c r="J17" s="199">
+      <c r="J17" s="196">
         <v>17</v>
       </c>
-      <c r="K17" s="199">
+      <c r="K17" s="196">
         <v>18</v>
       </c>
-      <c r="L17" s="199">
+      <c r="L17" s="196">
         <v>19</v>
       </c>
-      <c r="M17" s="199">
+      <c r="M17" s="196">
         <v>20</v>
       </c>
-      <c r="N17" s="199">
+      <c r="N17" s="196">
         <v>21</v>
       </c>
-      <c r="O17" s="31">
+      <c r="O17" s="196">
         <v>22</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="196">
         <v>23</v>
       </c>
       <c r="Q17" s="31">
@@ -6736,7 +6733,7 @@
       <c r="AS17" s="31">
         <v>22</v>
       </c>
-      <c r="AT17" s="163">
+      <c r="AT17" s="160">
         <v>23</v>
       </c>
       <c r="AU17" s="31">
@@ -6757,7 +6754,7 @@
       <c r="AZ17" s="31">
         <v>29</v>
       </c>
-      <c r="BA17" s="163">
+      <c r="BA17" s="160">
         <v>30</v>
       </c>
       <c r="BB17" s="31">
@@ -6778,7 +6775,7 @@
       <c r="BG17" s="31">
         <v>5</v>
       </c>
-      <c r="BH17" s="163">
+      <c r="BH17" s="160">
         <v>30</v>
       </c>
       <c r="BI17" s="31">
@@ -6940,39 +6937,39 @@
       <c r="DI17" s="31">
         <v>28</v>
       </c>
-      <c r="DJ17" s="176">
+      <c r="DJ17" s="173">
         <v>29</v>
       </c>
-      <c r="DK17" s="177">
+      <c r="DK17" s="174">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="281" t="s">
+      <c r="B18" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="254" t="s">
+      <c r="C18" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="255" t="s">
+      <c r="D18" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="256" t="s">
+      <c r="E18" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="257">
+      <c r="F18" s="254">
         <v>40344</v>
       </c>
-      <c r="G18" s="200"/>
-      <c r="H18" s="201"/>
-      <c r="I18" s="202"/>
-      <c r="J18" s="203"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="204"/>
-      <c r="M18" s="204"/>
-      <c r="N18" s="274"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="198"/>
+      <c r="I18" s="199"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="200"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="271"/>
+      <c r="O18" s="200"/>
+      <c r="P18" s="200"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
       <c r="S18" s="68"/>
@@ -7002,21 +6999,21 @@
       <c r="AQ18" s="37"/>
       <c r="AR18" s="37"/>
       <c r="AS18" s="37"/>
-      <c r="AT18" s="150"/>
+      <c r="AT18" s="147"/>
       <c r="AU18" s="68"/>
       <c r="AV18" s="68"/>
       <c r="AW18" s="37"/>
       <c r="AX18" s="37"/>
       <c r="AY18" s="37"/>
       <c r="AZ18" s="37"/>
-      <c r="BA18" s="150"/>
+      <c r="BA18" s="147"/>
       <c r="BB18" s="68"/>
       <c r="BC18" s="68"/>
       <c r="BD18" s="37"/>
       <c r="BE18" s="37"/>
       <c r="BF18" s="37"/>
       <c r="BG18" s="37"/>
-      <c r="BH18" s="150"/>
+      <c r="BH18" s="147"/>
       <c r="BI18" s="68"/>
       <c r="BJ18" s="68"/>
       <c r="BK18" s="37"/>
@@ -7074,29 +7071,29 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="281"/>
-      <c r="C19" s="261" t="s">
+      <c r="B19" s="275"/>
+      <c r="C19" s="258" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="262" t="s">
+      <c r="D19" s="259" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="263" t="s">
+      <c r="E19" s="260" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="264">
+      <c r="F19" s="261">
         <v>40350</v>
       </c>
-      <c r="G19" s="205"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="206"/>
-      <c r="J19" s="207"/>
-      <c r="K19" s="208"/>
-      <c r="L19" s="209"/>
-      <c r="M19" s="210"/>
-      <c r="N19" s="275"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="32"/>
+      <c r="G19" s="202"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="205"/>
+      <c r="L19" s="206"/>
+      <c r="M19" s="207"/>
+      <c r="N19" s="272"/>
+      <c r="O19" s="202"/>
+      <c r="P19" s="203"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
       <c r="S19" s="69"/>
@@ -7126,21 +7123,21 @@
       <c r="AQ19" s="32"/>
       <c r="AR19" s="32"/>
       <c r="AS19" s="32"/>
-      <c r="AT19" s="151"/>
+      <c r="AT19" s="148"/>
       <c r="AU19" s="69"/>
       <c r="AV19" s="69"/>
       <c r="AW19" s="32"/>
       <c r="AX19" s="32"/>
       <c r="AY19" s="32"/>
       <c r="AZ19" s="32"/>
-      <c r="BA19" s="151"/>
+      <c r="BA19" s="148"/>
       <c r="BB19" s="69"/>
       <c r="BC19" s="69"/>
       <c r="BD19" s="32"/>
       <c r="BE19" s="32"/>
       <c r="BF19" s="32"/>
       <c r="BG19" s="32"/>
-      <c r="BH19" s="151"/>
+      <c r="BH19" s="148"/>
       <c r="BI19" s="69"/>
       <c r="BJ19" s="69"/>
       <c r="BK19" s="32"/>
@@ -7198,31 +7195,31 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="280" t="s">
+      <c r="B20" s="276" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="283" t="s">
+      <c r="C20" s="292" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="265" t="s">
+      <c r="D20" s="262" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="266" t="s">
+      <c r="E20" s="263" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="267">
+      <c r="F20" s="264">
         <v>40350</v>
       </c>
-      <c r="G20" s="211"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="213"/>
-      <c r="J20" s="214"/>
-      <c r="K20" s="215"/>
-      <c r="L20" s="216"/>
-      <c r="M20" s="217"/>
-      <c r="N20" s="276"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="42"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="209"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="211"/>
+      <c r="K20" s="212"/>
+      <c r="L20" s="213"/>
+      <c r="M20" s="214"/>
+      <c r="N20" s="273"/>
+      <c r="O20" s="208"/>
+      <c r="P20" s="209"/>
       <c r="Q20" s="42"/>
       <c r="R20" s="42"/>
       <c r="S20" s="70"/>
@@ -7252,21 +7249,21 @@
       <c r="AQ20" s="42"/>
       <c r="AR20" s="42"/>
       <c r="AS20" s="42"/>
-      <c r="AT20" s="152"/>
+      <c r="AT20" s="149"/>
       <c r="AU20" s="70"/>
       <c r="AV20" s="70"/>
       <c r="AW20" s="42"/>
       <c r="AX20" s="42"/>
       <c r="AY20" s="42"/>
       <c r="AZ20" s="42"/>
-      <c r="BA20" s="152"/>
+      <c r="BA20" s="149"/>
       <c r="BB20" s="70"/>
       <c r="BC20" s="70"/>
       <c r="BD20" s="42"/>
       <c r="BE20" s="42"/>
       <c r="BF20" s="42"/>
       <c r="BG20" s="42"/>
-      <c r="BH20" s="152"/>
+      <c r="BH20" s="149"/>
       <c r="BI20" s="70"/>
       <c r="BJ20" s="70"/>
       <c r="BK20" s="42"/>
@@ -7324,27 +7321,27 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="281"/>
-      <c r="C21" s="284"/>
-      <c r="D21" s="265" t="s">
+      <c r="B21" s="275"/>
+      <c r="C21" s="293"/>
+      <c r="D21" s="262" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="268" t="s">
+      <c r="E21" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="267">
+      <c r="F21" s="264">
         <v>40350</v>
       </c>
-      <c r="G21" s="218"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="220"/>
-      <c r="J21" s="221"/>
-      <c r="K21" s="222"/>
-      <c r="L21" s="223"/>
-      <c r="M21" s="224"/>
-      <c r="N21" s="222"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="48"/>
+      <c r="G21" s="215"/>
+      <c r="H21" s="216"/>
+      <c r="I21" s="217"/>
+      <c r="J21" s="218"/>
+      <c r="K21" s="219"/>
+      <c r="L21" s="220"/>
+      <c r="M21" s="221"/>
+      <c r="N21" s="219"/>
+      <c r="O21" s="215"/>
+      <c r="P21" s="216"/>
       <c r="Q21" s="48"/>
       <c r="R21" s="48"/>
       <c r="S21" s="71"/>
@@ -7374,21 +7371,21 @@
       <c r="AQ21" s="48"/>
       <c r="AR21" s="48"/>
       <c r="AS21" s="48"/>
-      <c r="AT21" s="153"/>
+      <c r="AT21" s="150"/>
       <c r="AU21" s="71"/>
       <c r="AV21" s="71"/>
       <c r="AW21" s="48"/>
       <c r="AX21" s="48"/>
       <c r="AY21" s="48"/>
       <c r="AZ21" s="48"/>
-      <c r="BA21" s="153"/>
+      <c r="BA21" s="150"/>
       <c r="BB21" s="71"/>
       <c r="BC21" s="71"/>
       <c r="BD21" s="48"/>
       <c r="BE21" s="48"/>
       <c r="BF21" s="48"/>
       <c r="BG21" s="48"/>
-      <c r="BH21" s="153"/>
+      <c r="BH21" s="150"/>
       <c r="BI21" s="71"/>
       <c r="BJ21" s="71"/>
       <c r="BK21" s="48"/>
@@ -7446,27 +7443,27 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="281"/>
-      <c r="C22" s="284"/>
-      <c r="D22" s="265" t="s">
+      <c r="B22" s="275"/>
+      <c r="C22" s="293"/>
+      <c r="D22" s="262" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="268" t="s">
+      <c r="E22" s="265" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="267">
+      <c r="F22" s="264">
         <v>40350</v>
       </c>
-      <c r="G22" s="218"/>
-      <c r="H22" s="219"/>
-      <c r="I22" s="220"/>
-      <c r="J22" s="208"/>
-      <c r="K22" s="208"/>
-      <c r="L22" s="223"/>
-      <c r="M22" s="224"/>
-      <c r="N22" s="208"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="48"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="216"/>
+      <c r="I22" s="217"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="205"/>
+      <c r="L22" s="220"/>
+      <c r="M22" s="221"/>
+      <c r="N22" s="205"/>
+      <c r="O22" s="215"/>
+      <c r="P22" s="216"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
       <c r="S22" s="71"/>
@@ -7496,21 +7493,21 @@
       <c r="AQ22" s="48"/>
       <c r="AR22" s="48"/>
       <c r="AS22" s="48"/>
-      <c r="AT22" s="153"/>
+      <c r="AT22" s="150"/>
       <c r="AU22" s="71"/>
       <c r="AV22" s="71"/>
       <c r="AW22" s="48"/>
       <c r="AX22" s="48"/>
       <c r="AY22" s="48"/>
       <c r="AZ22" s="48"/>
-      <c r="BA22" s="153"/>
+      <c r="BA22" s="150"/>
       <c r="BB22" s="71"/>
       <c r="BC22" s="71"/>
       <c r="BD22" s="48"/>
       <c r="BE22" s="48"/>
       <c r="BF22" s="48"/>
       <c r="BG22" s="48"/>
-      <c r="BH22" s="153"/>
+      <c r="BH22" s="150"/>
       <c r="BI22" s="71"/>
       <c r="BJ22" s="71"/>
       <c r="BK22" s="48"/>
@@ -7568,27 +7565,27 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="281"/>
-      <c r="C23" s="285"/>
-      <c r="D23" s="265" t="s">
+      <c r="B23" s="275"/>
+      <c r="C23" s="294"/>
+      <c r="D23" s="262" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="268" t="s">
+      <c r="E23" s="265" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="269">
+      <c r="F23" s="266">
         <v>40350</v>
       </c>
-      <c r="G23" s="218"/>
-      <c r="H23" s="219"/>
-      <c r="I23" s="220"/>
-      <c r="J23" s="225"/>
-      <c r="K23" s="226"/>
-      <c r="L23" s="227"/>
-      <c r="M23" s="228"/>
-      <c r="N23" s="226"/>
-      <c r="O23" s="76"/>
-      <c r="P23" s="48"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="216"/>
+      <c r="I23" s="217"/>
+      <c r="J23" s="222"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="225"/>
+      <c r="N23" s="223"/>
+      <c r="O23" s="215"/>
+      <c r="P23" s="216"/>
       <c r="Q23" s="48"/>
       <c r="R23" s="48"/>
       <c r="S23" s="71"/>
@@ -7618,21 +7615,21 @@
       <c r="AQ23" s="48"/>
       <c r="AR23" s="48"/>
       <c r="AS23" s="48"/>
-      <c r="AT23" s="153"/>
+      <c r="AT23" s="150"/>
       <c r="AU23" s="71"/>
       <c r="AV23" s="71"/>
       <c r="AW23" s="48"/>
       <c r="AX23" s="48"/>
       <c r="AY23" s="48"/>
       <c r="AZ23" s="48"/>
-      <c r="BA23" s="153"/>
+      <c r="BA23" s="150"/>
       <c r="BB23" s="71"/>
       <c r="BC23" s="71"/>
       <c r="BD23" s="48"/>
       <c r="BE23" s="48"/>
       <c r="BF23" s="48"/>
       <c r="BG23" s="48"/>
-      <c r="BH23" s="153"/>
+      <c r="BH23" s="150"/>
       <c r="BI23" s="71"/>
       <c r="BJ23" s="71"/>
       <c r="BK23" s="48"/>
@@ -7690,8 +7687,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="281"/>
-      <c r="C24" s="286" t="s">
+      <c r="B24" s="275"/>
+      <c r="C24" s="295" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7700,19 +7697,19 @@
       <c r="E24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="178">
+      <c r="F24" s="175">
         <v>40352</v>
       </c>
-      <c r="G24" s="229"/>
-      <c r="H24" s="230"/>
-      <c r="I24" s="230"/>
-      <c r="J24" s="231"/>
-      <c r="K24" s="230"/>
-      <c r="L24" s="232"/>
-      <c r="M24" s="232"/>
-      <c r="N24" s="220"/>
-      <c r="O24" s="129"/>
-      <c r="P24" s="129"/>
+      <c r="G24" s="226"/>
+      <c r="H24" s="227"/>
+      <c r="I24" s="227"/>
+      <c r="J24" s="228"/>
+      <c r="K24" s="227"/>
+      <c r="L24" s="229"/>
+      <c r="M24" s="229"/>
+      <c r="N24" s="217"/>
+      <c r="O24" s="205"/>
+      <c r="P24" s="205"/>
       <c r="Q24" s="62"/>
       <c r="R24" s="62"/>
       <c r="S24" s="72"/>
@@ -7742,21 +7739,21 @@
       <c r="AQ24" s="62"/>
       <c r="AR24" s="62"/>
       <c r="AS24" s="62"/>
-      <c r="AT24" s="154"/>
+      <c r="AT24" s="151"/>
       <c r="AU24" s="72"/>
       <c r="AV24" s="72"/>
       <c r="AW24" s="62"/>
       <c r="AX24" s="62"/>
       <c r="AY24" s="62"/>
       <c r="AZ24" s="62"/>
-      <c r="BA24" s="154"/>
+      <c r="BA24" s="151"/>
       <c r="BB24" s="72"/>
       <c r="BC24" s="72"/>
       <c r="BD24" s="62"/>
       <c r="BE24" s="62"/>
       <c r="BF24" s="62"/>
       <c r="BG24" s="62"/>
-      <c r="BH24" s="154"/>
+      <c r="BH24" s="151"/>
       <c r="BI24" s="72"/>
       <c r="BJ24" s="72"/>
       <c r="BK24" s="62"/>
@@ -7814,27 +7811,27 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="281"/>
-      <c r="C25" s="286"/>
+      <c r="B25" s="275"/>
+      <c r="C25" s="295"/>
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="178">
+      <c r="F25" s="175">
         <v>40352</v>
       </c>
-      <c r="G25" s="218"/>
-      <c r="H25" s="219"/>
-      <c r="I25" s="219"/>
-      <c r="J25" s="219"/>
-      <c r="K25" s="219"/>
-      <c r="L25" s="233"/>
-      <c r="M25" s="233"/>
-      <c r="N25" s="219"/>
-      <c r="O25" s="129"/>
-      <c r="P25" s="129"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="216"/>
+      <c r="K25" s="216"/>
+      <c r="L25" s="230"/>
+      <c r="M25" s="230"/>
+      <c r="N25" s="216"/>
+      <c r="O25" s="205"/>
+      <c r="P25" s="205"/>
       <c r="Q25" s="48"/>
       <c r="R25" s="48"/>
       <c r="S25" s="71"/>
@@ -7864,21 +7861,21 @@
       <c r="AQ25" s="48"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
-      <c r="AT25" s="153"/>
+      <c r="AT25" s="150"/>
       <c r="AU25" s="71"/>
       <c r="AV25" s="71"/>
       <c r="AW25" s="48"/>
       <c r="AX25" s="48"/>
       <c r="AY25" s="48"/>
       <c r="AZ25" s="48"/>
-      <c r="BA25" s="153"/>
+      <c r="BA25" s="150"/>
       <c r="BB25" s="71"/>
       <c r="BC25" s="71"/>
       <c r="BD25" s="48"/>
       <c r="BE25" s="48"/>
       <c r="BF25" s="48"/>
       <c r="BG25" s="48"/>
-      <c r="BH25" s="153"/>
+      <c r="BH25" s="150"/>
       <c r="BI25" s="71"/>
       <c r="BJ25" s="71"/>
       <c r="BK25" s="48"/>
@@ -7936,27 +7933,27 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="281"/>
-      <c r="C26" s="286"/>
+      <c r="B26" s="275"/>
+      <c r="C26" s="295"/>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="178">
+      <c r="F26" s="175">
         <v>40352</v>
       </c>
-      <c r="G26" s="218"/>
-      <c r="H26" s="219"/>
-      <c r="I26" s="219"/>
-      <c r="J26" s="219"/>
-      <c r="K26" s="219"/>
-      <c r="L26" s="233"/>
-      <c r="M26" s="233"/>
-      <c r="N26" s="219"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
+      <c r="G26" s="215"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="216"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="216"/>
+      <c r="L26" s="230"/>
+      <c r="M26" s="230"/>
+      <c r="N26" s="216"/>
+      <c r="O26" s="205"/>
+      <c r="P26" s="205"/>
       <c r="Q26" s="48"/>
       <c r="R26" s="48"/>
       <c r="S26" s="71"/>
@@ -7986,21 +7983,21 @@
       <c r="AQ26" s="48"/>
       <c r="AR26" s="48"/>
       <c r="AS26" s="48"/>
-      <c r="AT26" s="153"/>
+      <c r="AT26" s="150"/>
       <c r="AU26" s="71"/>
       <c r="AV26" s="71"/>
       <c r="AW26" s="48"/>
       <c r="AX26" s="48"/>
       <c r="AY26" s="48"/>
       <c r="AZ26" s="48"/>
-      <c r="BA26" s="153"/>
+      <c r="BA26" s="150"/>
       <c r="BB26" s="71"/>
       <c r="BC26" s="71"/>
       <c r="BD26" s="48"/>
       <c r="BE26" s="48"/>
       <c r="BF26" s="48"/>
       <c r="BG26" s="48"/>
-      <c r="BH26" s="153"/>
+      <c r="BH26" s="150"/>
       <c r="BI26" s="71"/>
       <c r="BJ26" s="71"/>
       <c r="BK26" s="48"/>
@@ -8058,28 +8055,28 @@
       <c r="DK26" s="52"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="281"/>
-      <c r="C27" s="286"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="295"/>
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="178">
+      <c r="F27" s="175">
         <v>40353</v>
       </c>
-      <c r="G27" s="218"/>
-      <c r="H27" s="219"/>
-      <c r="I27" s="219"/>
-      <c r="J27" s="219"/>
-      <c r="K27" s="219"/>
-      <c r="L27" s="233"/>
-      <c r="M27" s="233"/>
-      <c r="N27" s="219"/>
-      <c r="O27" s="48"/>
-      <c r="P27" s="129"/>
-      <c r="Q27" s="129"/>
+      <c r="G27" s="215"/>
+      <c r="H27" s="216"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="216"/>
+      <c r="L27" s="230"/>
+      <c r="M27" s="230"/>
+      <c r="N27" s="216"/>
+      <c r="O27" s="216"/>
+      <c r="P27" s="205"/>
+      <c r="Q27" s="126"/>
       <c r="R27" s="48"/>
       <c r="S27" s="71"/>
       <c r="T27" s="71"/>
@@ -8108,21 +8105,21 @@
       <c r="AQ27" s="48"/>
       <c r="AR27" s="48"/>
       <c r="AS27" s="48"/>
-      <c r="AT27" s="153"/>
+      <c r="AT27" s="150"/>
       <c r="AU27" s="71"/>
       <c r="AV27" s="71"/>
       <c r="AW27" s="48"/>
       <c r="AX27" s="48"/>
       <c r="AY27" s="48"/>
       <c r="AZ27" s="48"/>
-      <c r="BA27" s="153"/>
+      <c r="BA27" s="150"/>
       <c r="BB27" s="71"/>
       <c r="BC27" s="71"/>
       <c r="BD27" s="48"/>
       <c r="BE27" s="48"/>
       <c r="BF27" s="48"/>
       <c r="BG27" s="48"/>
-      <c r="BH27" s="153"/>
+      <c r="BH27" s="150"/>
       <c r="BI27" s="71"/>
       <c r="BJ27" s="71"/>
       <c r="BK27" s="48"/>
@@ -8180,28 +8177,28 @@
       <c r="DK27" s="52"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="281"/>
-      <c r="C28" s="286"/>
+      <c r="B28" s="275"/>
+      <c r="C28" s="295"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="178">
+      <c r="F28" s="175">
         <v>40353</v>
       </c>
-      <c r="G28" s="218"/>
-      <c r="H28" s="219"/>
-      <c r="I28" s="219"/>
-      <c r="J28" s="219"/>
-      <c r="K28" s="219"/>
-      <c r="L28" s="233"/>
-      <c r="M28" s="233"/>
-      <c r="N28" s="219"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="129"/>
-      <c r="Q28" s="129"/>
+      <c r="G28" s="215"/>
+      <c r="H28" s="216"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="216"/>
+      <c r="L28" s="230"/>
+      <c r="M28" s="230"/>
+      <c r="N28" s="216"/>
+      <c r="O28" s="216"/>
+      <c r="P28" s="205"/>
+      <c r="Q28" s="126"/>
       <c r="R28" s="48"/>
       <c r="S28" s="71"/>
       <c r="T28" s="71"/>
@@ -8230,21 +8227,21 @@
       <c r="AQ28" s="48"/>
       <c r="AR28" s="48"/>
       <c r="AS28" s="48"/>
-      <c r="AT28" s="153"/>
+      <c r="AT28" s="150"/>
       <c r="AU28" s="71"/>
       <c r="AV28" s="71"/>
       <c r="AW28" s="48"/>
       <c r="AX28" s="48"/>
       <c r="AY28" s="48"/>
       <c r="AZ28" s="48"/>
-      <c r="BA28" s="153"/>
+      <c r="BA28" s="150"/>
       <c r="BB28" s="71"/>
       <c r="BC28" s="71"/>
       <c r="BD28" s="48"/>
       <c r="BE28" s="48"/>
       <c r="BF28" s="48"/>
       <c r="BG28" s="48"/>
-      <c r="BH28" s="153"/>
+      <c r="BH28" s="150"/>
       <c r="BI28" s="71"/>
       <c r="BJ28" s="71"/>
       <c r="BK28" s="48"/>
@@ -8302,29 +8299,29 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="281"/>
-      <c r="C29" s="286"/>
+      <c r="B29" s="275"/>
+      <c r="C29" s="295"/>
       <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="178">
+      <c r="F29" s="175">
         <v>40354</v>
       </c>
-      <c r="G29" s="218"/>
-      <c r="H29" s="219"/>
-      <c r="I29" s="219"/>
-      <c r="J29" s="219"/>
-      <c r="K29" s="219"/>
-      <c r="L29" s="233"/>
-      <c r="M29" s="233"/>
-      <c r="N29" s="219"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="129"/>
+      <c r="G29" s="215"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="216"/>
+      <c r="L29" s="230"/>
+      <c r="M29" s="230"/>
+      <c r="N29" s="216"/>
+      <c r="O29" s="216"/>
+      <c r="P29" s="216"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
       <c r="S29" s="71"/>
       <c r="T29" s="71"/>
       <c r="U29" s="48"/>
@@ -8352,21 +8349,21 @@
       <c r="AQ29" s="48"/>
       <c r="AR29" s="48"/>
       <c r="AS29" s="48"/>
-      <c r="AT29" s="153"/>
+      <c r="AT29" s="150"/>
       <c r="AU29" s="71"/>
       <c r="AV29" s="71"/>
       <c r="AW29" s="48"/>
       <c r="AX29" s="48"/>
       <c r="AY29" s="48"/>
       <c r="AZ29" s="48"/>
-      <c r="BA29" s="153"/>
+      <c r="BA29" s="150"/>
       <c r="BB29" s="71"/>
       <c r="BC29" s="71"/>
       <c r="BD29" s="48"/>
       <c r="BE29" s="48"/>
       <c r="BF29" s="48"/>
       <c r="BG29" s="48"/>
-      <c r="BH29" s="153"/>
+      <c r="BH29" s="150"/>
       <c r="BI29" s="71"/>
       <c r="BJ29" s="71"/>
       <c r="BK29" s="48"/>
@@ -8424,29 +8421,29 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="281"/>
-      <c r="C30" s="286"/>
+      <c r="B30" s="275"/>
+      <c r="C30" s="295"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="178">
+      <c r="F30" s="175">
         <v>40354</v>
       </c>
-      <c r="G30" s="218"/>
-      <c r="H30" s="219"/>
-      <c r="I30" s="219"/>
-      <c r="J30" s="219"/>
-      <c r="K30" s="219"/>
-      <c r="L30" s="233"/>
-      <c r="M30" s="233"/>
-      <c r="N30" s="219"/>
-      <c r="O30" s="48"/>
-      <c r="P30" s="48"/>
-      <c r="Q30" s="129"/>
-      <c r="R30" s="129"/>
+      <c r="G30" s="215"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="216"/>
+      <c r="L30" s="230"/>
+      <c r="M30" s="230"/>
+      <c r="N30" s="216"/>
+      <c r="O30" s="216"/>
+      <c r="P30" s="216"/>
+      <c r="Q30" s="126"/>
+      <c r="R30" s="126"/>
       <c r="S30" s="71"/>
       <c r="T30" s="71"/>
       <c r="U30" s="48"/>
@@ -8474,21 +8471,21 @@
       <c r="AQ30" s="48"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="48"/>
-      <c r="AT30" s="153"/>
+      <c r="AT30" s="150"/>
       <c r="AU30" s="71"/>
       <c r="AV30" s="71"/>
       <c r="AW30" s="48"/>
       <c r="AX30" s="48"/>
       <c r="AY30" s="48"/>
       <c r="AZ30" s="48"/>
-      <c r="BA30" s="153"/>
+      <c r="BA30" s="150"/>
       <c r="BB30" s="71"/>
       <c r="BC30" s="71"/>
       <c r="BD30" s="48"/>
       <c r="BE30" s="48"/>
       <c r="BF30" s="48"/>
       <c r="BG30" s="48"/>
-      <c r="BH30" s="153"/>
+      <c r="BH30" s="150"/>
       <c r="BI30" s="71"/>
       <c r="BJ30" s="71"/>
       <c r="BK30" s="48"/>
@@ -8546,33 +8543,33 @@
       <c r="DK30" s="52"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="281"/>
-      <c r="C31" s="286"/>
+      <c r="B31" s="275"/>
+      <c r="C31" s="295"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="178">
+      <c r="F31" s="175">
         <v>40358</v>
       </c>
-      <c r="G31" s="218"/>
-      <c r="H31" s="219"/>
-      <c r="I31" s="219"/>
-      <c r="J31" s="219"/>
-      <c r="K31" s="219"/>
-      <c r="L31" s="233"/>
-      <c r="M31" s="233"/>
-      <c r="N31" s="219"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
+      <c r="G31" s="215"/>
+      <c r="H31" s="216"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="216"/>
+      <c r="L31" s="230"/>
+      <c r="M31" s="230"/>
+      <c r="N31" s="216"/>
+      <c r="O31" s="216"/>
+      <c r="P31" s="216"/>
       <c r="Q31" s="48"/>
       <c r="R31" s="48"/>
       <c r="S31" s="71"/>
       <c r="T31" s="71"/>
-      <c r="U31" s="129"/>
-      <c r="V31" s="129"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="126"/>
       <c r="W31" s="48"/>
       <c r="X31" s="48"/>
       <c r="Y31" s="48"/>
@@ -8596,21 +8593,21 @@
       <c r="AQ31" s="48"/>
       <c r="AR31" s="48"/>
       <c r="AS31" s="48"/>
-      <c r="AT31" s="153"/>
+      <c r="AT31" s="150"/>
       <c r="AU31" s="71"/>
       <c r="AV31" s="71"/>
       <c r="AW31" s="48"/>
       <c r="AX31" s="48"/>
       <c r="AY31" s="48"/>
       <c r="AZ31" s="48"/>
-      <c r="BA31" s="153"/>
+      <c r="BA31" s="150"/>
       <c r="BB31" s="71"/>
       <c r="BC31" s="71"/>
       <c r="BD31" s="48"/>
       <c r="BE31" s="48"/>
       <c r="BF31" s="48"/>
       <c r="BG31" s="48"/>
-      <c r="BH31" s="153"/>
+      <c r="BH31" s="150"/>
       <c r="BI31" s="71"/>
       <c r="BJ31" s="71"/>
       <c r="BK31" s="48"/>
@@ -8668,34 +8665,34 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="281"/>
-      <c r="C32" s="286"/>
+      <c r="B32" s="275"/>
+      <c r="C32" s="295"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="178">
+      <c r="F32" s="175">
         <v>40359</v>
       </c>
-      <c r="G32" s="218"/>
-      <c r="H32" s="219"/>
-      <c r="I32" s="219"/>
-      <c r="J32" s="219"/>
-      <c r="K32" s="219"/>
-      <c r="L32" s="233"/>
-      <c r="M32" s="233"/>
-      <c r="N32" s="219"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
+      <c r="G32" s="215"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="216"/>
+      <c r="J32" s="216"/>
+      <c r="K32" s="216"/>
+      <c r="L32" s="230"/>
+      <c r="M32" s="230"/>
+      <c r="N32" s="216"/>
+      <c r="O32" s="216"/>
+      <c r="P32" s="216"/>
       <c r="Q32" s="48"/>
       <c r="R32" s="48"/>
       <c r="S32" s="71"/>
       <c r="T32" s="71"/>
       <c r="U32" s="48"/>
       <c r="V32" s="48"/>
-      <c r="W32" s="129"/>
+      <c r="W32" s="126"/>
       <c r="X32" s="48"/>
       <c r="Y32" s="48"/>
       <c r="Z32" s="71"/>
@@ -8718,21 +8715,21 @@
       <c r="AQ32" s="48"/>
       <c r="AR32" s="48"/>
       <c r="AS32" s="48"/>
-      <c r="AT32" s="153"/>
+      <c r="AT32" s="150"/>
       <c r="AU32" s="71"/>
       <c r="AV32" s="71"/>
       <c r="AW32" s="48"/>
       <c r="AX32" s="48"/>
       <c r="AY32" s="48"/>
       <c r="AZ32" s="48"/>
-      <c r="BA32" s="153"/>
+      <c r="BA32" s="150"/>
       <c r="BB32" s="71"/>
       <c r="BC32" s="71"/>
       <c r="BD32" s="48"/>
       <c r="BE32" s="48"/>
       <c r="BF32" s="48"/>
       <c r="BG32" s="48"/>
-      <c r="BH32" s="153"/>
+      <c r="BH32" s="150"/>
       <c r="BI32" s="71"/>
       <c r="BJ32" s="71"/>
       <c r="BK32" s="48"/>
@@ -8790,33 +8787,33 @@
       <c r="DK32" s="52"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="281"/>
-      <c r="C33" s="286"/>
+      <c r="B33" s="275"/>
+      <c r="C33" s="295"/>
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="178">
+      <c r="F33" s="175">
         <v>40357</v>
       </c>
-      <c r="G33" s="218"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="219"/>
-      <c r="K33" s="219"/>
-      <c r="L33" s="233"/>
-      <c r="M33" s="233"/>
-      <c r="N33" s="219"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
+      <c r="G33" s="215"/>
+      <c r="H33" s="216"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="216"/>
+      <c r="L33" s="230"/>
+      <c r="M33" s="230"/>
+      <c r="N33" s="216"/>
+      <c r="O33" s="216"/>
+      <c r="P33" s="216"/>
       <c r="Q33" s="48"/>
       <c r="R33" s="48"/>
       <c r="S33" s="71"/>
       <c r="T33" s="71"/>
-      <c r="U33" s="129"/>
-      <c r="V33" s="129"/>
+      <c r="U33" s="126"/>
+      <c r="V33" s="126"/>
       <c r="W33" s="48"/>
       <c r="X33" s="48"/>
       <c r="Y33" s="48"/>
@@ -8840,21 +8837,21 @@
       <c r="AQ33" s="48"/>
       <c r="AR33" s="48"/>
       <c r="AS33" s="48"/>
-      <c r="AT33" s="153"/>
+      <c r="AT33" s="150"/>
       <c r="AU33" s="71"/>
       <c r="AV33" s="71"/>
       <c r="AW33" s="48"/>
       <c r="AX33" s="48"/>
       <c r="AY33" s="48"/>
       <c r="AZ33" s="48"/>
-      <c r="BA33" s="153"/>
+      <c r="BA33" s="150"/>
       <c r="BB33" s="71"/>
       <c r="BC33" s="71"/>
       <c r="BD33" s="48"/>
       <c r="BE33" s="48"/>
       <c r="BF33" s="48"/>
       <c r="BG33" s="48"/>
-      <c r="BH33" s="153"/>
+      <c r="BH33" s="150"/>
       <c r="BI33" s="71"/>
       <c r="BJ33" s="71"/>
       <c r="BK33" s="48"/>
@@ -8912,33 +8909,33 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="281"/>
-      <c r="C34" s="286"/>
+      <c r="B34" s="275"/>
+      <c r="C34" s="295"/>
       <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="178">
+      <c r="F34" s="175">
         <v>40357</v>
       </c>
-      <c r="G34" s="218"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="219"/>
-      <c r="K34" s="219"/>
-      <c r="L34" s="233"/>
-      <c r="M34" s="233"/>
-      <c r="N34" s="219"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="48"/>
+      <c r="G34" s="215"/>
+      <c r="H34" s="216"/>
+      <c r="I34" s="216"/>
+      <c r="J34" s="216"/>
+      <c r="K34" s="216"/>
+      <c r="L34" s="230"/>
+      <c r="M34" s="230"/>
+      <c r="N34" s="216"/>
+      <c r="O34" s="216"/>
+      <c r="P34" s="216"/>
       <c r="Q34" s="48"/>
       <c r="R34" s="48"/>
       <c r="S34" s="71"/>
       <c r="T34" s="71"/>
-      <c r="U34" s="129"/>
-      <c r="V34" s="129"/>
+      <c r="U34" s="126"/>
+      <c r="V34" s="126"/>
       <c r="W34" s="48"/>
       <c r="X34" s="48"/>
       <c r="Y34" s="48"/>
@@ -8962,21 +8959,21 @@
       <c r="AQ34" s="48"/>
       <c r="AR34" s="48"/>
       <c r="AS34" s="48"/>
-      <c r="AT34" s="153"/>
+      <c r="AT34" s="150"/>
       <c r="AU34" s="71"/>
       <c r="AV34" s="71"/>
       <c r="AW34" s="48"/>
       <c r="AX34" s="48"/>
       <c r="AY34" s="48"/>
       <c r="AZ34" s="48"/>
-      <c r="BA34" s="153"/>
+      <c r="BA34" s="150"/>
       <c r="BB34" s="71"/>
       <c r="BC34" s="71"/>
       <c r="BD34" s="48"/>
       <c r="BE34" s="48"/>
       <c r="BF34" s="48"/>
       <c r="BG34" s="48"/>
-      <c r="BH34" s="153"/>
+      <c r="BH34" s="150"/>
       <c r="BI34" s="71"/>
       <c r="BJ34" s="71"/>
       <c r="BK34" s="48"/>
@@ -9034,27 +9031,27 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="281"/>
-      <c r="C35" s="286"/>
+      <c r="B35" s="275"/>
+      <c r="C35" s="295"/>
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="178">
+      <c r="F35" s="175">
         <v>40360</v>
       </c>
-      <c r="G35" s="218"/>
-      <c r="H35" s="219"/>
-      <c r="I35" s="219"/>
-      <c r="J35" s="219"/>
-      <c r="K35" s="219"/>
-      <c r="L35" s="233"/>
-      <c r="M35" s="233"/>
-      <c r="N35" s="219"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="48"/>
+      <c r="G35" s="215"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="216"/>
+      <c r="J35" s="216"/>
+      <c r="K35" s="216"/>
+      <c r="L35" s="230"/>
+      <c r="M35" s="230"/>
+      <c r="N35" s="216"/>
+      <c r="O35" s="216"/>
+      <c r="P35" s="216"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="48"/>
       <c r="S35" s="71"/>
@@ -9062,7 +9059,7 @@
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
-      <c r="X35" s="129"/>
+      <c r="X35" s="126"/>
       <c r="Y35" s="48"/>
       <c r="Z35" s="71"/>
       <c r="AA35" s="71"/>
@@ -9084,21 +9081,21 @@
       <c r="AQ35" s="48"/>
       <c r="AR35" s="48"/>
       <c r="AS35" s="48"/>
-      <c r="AT35" s="153"/>
+      <c r="AT35" s="150"/>
       <c r="AU35" s="71"/>
       <c r="AV35" s="71"/>
       <c r="AW35" s="48"/>
       <c r="AX35" s="48"/>
       <c r="AY35" s="48"/>
       <c r="AZ35" s="48"/>
-      <c r="BA35" s="153"/>
+      <c r="BA35" s="150"/>
       <c r="BB35" s="71"/>
       <c r="BC35" s="71"/>
       <c r="BD35" s="48"/>
       <c r="BE35" s="48"/>
       <c r="BF35" s="48"/>
       <c r="BG35" s="48"/>
-      <c r="BH35" s="153"/>
+      <c r="BH35" s="150"/>
       <c r="BI35" s="71"/>
       <c r="BJ35" s="71"/>
       <c r="BK35" s="48"/>
@@ -9156,36 +9153,36 @@
       <c r="DK35" s="52"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="281"/>
-      <c r="C36" s="286"/>
+      <c r="B36" s="275"/>
+      <c r="C36" s="295"/>
       <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="178">
+      <c r="F36" s="175">
         <v>40361</v>
       </c>
-      <c r="G36" s="218"/>
-      <c r="H36" s="219"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="219"/>
-      <c r="K36" s="219"/>
-      <c r="L36" s="233"/>
-      <c r="M36" s="233"/>
-      <c r="N36" s="219"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="48"/>
+      <c r="G36" s="215"/>
+      <c r="H36" s="216"/>
+      <c r="I36" s="216"/>
+      <c r="J36" s="216"/>
+      <c r="K36" s="216"/>
+      <c r="L36" s="230"/>
+      <c r="M36" s="230"/>
+      <c r="N36" s="216"/>
+      <c r="O36" s="216"/>
+      <c r="P36" s="216"/>
       <c r="Q36" s="48"/>
       <c r="R36" s="48"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
       <c r="U36" s="48"/>
       <c r="V36" s="48"/>
-      <c r="W36" s="129"/>
-      <c r="X36" s="129"/>
-      <c r="Y36" s="129"/>
+      <c r="W36" s="126"/>
+      <c r="X36" s="126"/>
+      <c r="Y36" s="126"/>
       <c r="Z36" s="71"/>
       <c r="AA36" s="71"/>
       <c r="AB36" s="48"/>
@@ -9206,21 +9203,21 @@
       <c r="AQ36" s="48"/>
       <c r="AR36" s="48"/>
       <c r="AS36" s="48"/>
-      <c r="AT36" s="153"/>
+      <c r="AT36" s="150"/>
       <c r="AU36" s="71"/>
       <c r="AV36" s="71"/>
       <c r="AW36" s="48"/>
       <c r="AX36" s="48"/>
       <c r="AY36" s="48"/>
       <c r="AZ36" s="48"/>
-      <c r="BA36" s="153"/>
+      <c r="BA36" s="150"/>
       <c r="BB36" s="71"/>
       <c r="BC36" s="71"/>
       <c r="BD36" s="48"/>
       <c r="BE36" s="48"/>
       <c r="BF36" s="48"/>
       <c r="BG36" s="48"/>
-      <c r="BH36" s="153"/>
+      <c r="BH36" s="150"/>
       <c r="BI36" s="71"/>
       <c r="BJ36" s="71"/>
       <c r="BK36" s="48"/>
@@ -9278,34 +9275,34 @@
       <c r="DK36" s="52"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="281"/>
-      <c r="C37" s="286"/>
+      <c r="B37" s="275"/>
+      <c r="C37" s="295"/>
       <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="178">
+      <c r="F37" s="175">
         <v>40350</v>
       </c>
-      <c r="G37" s="218"/>
-      <c r="H37" s="219"/>
-      <c r="I37" s="219"/>
-      <c r="J37" s="219"/>
-      <c r="K37" s="219"/>
-      <c r="L37" s="233"/>
-      <c r="M37" s="233"/>
-      <c r="N37" s="219"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
+      <c r="G37" s="215"/>
+      <c r="H37" s="216"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="216"/>
+      <c r="L37" s="230"/>
+      <c r="M37" s="230"/>
+      <c r="N37" s="216"/>
+      <c r="O37" s="216"/>
+      <c r="P37" s="216"/>
       <c r="Q37" s="48"/>
       <c r="R37" s="48"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
-      <c r="U37" s="129"/>
-      <c r="V37" s="129"/>
-      <c r="W37" s="129"/>
+      <c r="U37" s="126"/>
+      <c r="V37" s="126"/>
+      <c r="W37" s="126"/>
       <c r="X37" s="48"/>
       <c r="Y37" s="48"/>
       <c r="Z37" s="71"/>
@@ -9328,21 +9325,21 @@
       <c r="AQ37" s="48"/>
       <c r="AR37" s="48"/>
       <c r="AS37" s="48"/>
-      <c r="AT37" s="153"/>
+      <c r="AT37" s="150"/>
       <c r="AU37" s="71"/>
       <c r="AV37" s="71"/>
       <c r="AW37" s="48"/>
       <c r="AX37" s="48"/>
       <c r="AY37" s="48"/>
       <c r="AZ37" s="48"/>
-      <c r="BA37" s="153"/>
+      <c r="BA37" s="150"/>
       <c r="BB37" s="71"/>
       <c r="BC37" s="71"/>
       <c r="BD37" s="48"/>
       <c r="BE37" s="48"/>
       <c r="BF37" s="48"/>
       <c r="BG37" s="48"/>
-      <c r="BH37" s="153"/>
+      <c r="BH37" s="150"/>
       <c r="BI37" s="71"/>
       <c r="BJ37" s="71"/>
       <c r="BK37" s="48"/>
@@ -9400,28 +9397,28 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="281"/>
-      <c r="C38" s="286"/>
+      <c r="B38" s="275"/>
+      <c r="C38" s="295"/>
       <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="178">
+      <c r="F38" s="175">
         <v>40353</v>
       </c>
-      <c r="G38" s="218"/>
-      <c r="H38" s="219"/>
-      <c r="I38" s="219"/>
-      <c r="J38" s="219"/>
-      <c r="K38" s="219"/>
-      <c r="L38" s="233"/>
-      <c r="M38" s="233"/>
-      <c r="N38" s="219"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="129"/>
-      <c r="Q38" s="129"/>
+      <c r="G38" s="215"/>
+      <c r="H38" s="216"/>
+      <c r="I38" s="216"/>
+      <c r="J38" s="216"/>
+      <c r="K38" s="216"/>
+      <c r="L38" s="230"/>
+      <c r="M38" s="230"/>
+      <c r="N38" s="216"/>
+      <c r="O38" s="216"/>
+      <c r="P38" s="205"/>
+      <c r="Q38" s="126"/>
       <c r="R38" s="48"/>
       <c r="S38" s="71"/>
       <c r="T38" s="71"/>
@@ -9450,21 +9447,21 @@
       <c r="AQ38" s="48"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="48"/>
-      <c r="AT38" s="153"/>
+      <c r="AT38" s="150"/>
       <c r="AU38" s="71"/>
       <c r="AV38" s="71"/>
       <c r="AW38" s="48"/>
       <c r="AX38" s="48"/>
       <c r="AY38" s="48"/>
       <c r="AZ38" s="48"/>
-      <c r="BA38" s="153"/>
+      <c r="BA38" s="150"/>
       <c r="BB38" s="71"/>
       <c r="BC38" s="71"/>
       <c r="BD38" s="48"/>
       <c r="BE38" s="48"/>
       <c r="BF38" s="48"/>
       <c r="BG38" s="48"/>
-      <c r="BH38" s="153"/>
+      <c r="BH38" s="150"/>
       <c r="BI38" s="71"/>
       <c r="BJ38" s="71"/>
       <c r="BK38" s="48"/>
@@ -9522,27 +9519,27 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="281"/>
-      <c r="C39" s="286"/>
+      <c r="B39" s="275"/>
+      <c r="C39" s="295"/>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="178">
+      <c r="F39" s="175">
         <v>40352</v>
       </c>
-      <c r="G39" s="218"/>
-      <c r="H39" s="219"/>
-      <c r="I39" s="219"/>
-      <c r="J39" s="219"/>
-      <c r="K39" s="219"/>
-      <c r="L39" s="233"/>
-      <c r="M39" s="233"/>
-      <c r="N39" s="219"/>
-      <c r="O39" s="129"/>
-      <c r="P39" s="129"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="216"/>
+      <c r="I39" s="216"/>
+      <c r="J39" s="216"/>
+      <c r="K39" s="216"/>
+      <c r="L39" s="230"/>
+      <c r="M39" s="230"/>
+      <c r="N39" s="216"/>
+      <c r="O39" s="205"/>
+      <c r="P39" s="205"/>
       <c r="Q39" s="48"/>
       <c r="R39" s="48"/>
       <c r="S39" s="71"/>
@@ -9572,21 +9569,21 @@
       <c r="AQ39" s="48"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="48"/>
-      <c r="AT39" s="153"/>
+      <c r="AT39" s="150"/>
       <c r="AU39" s="71"/>
       <c r="AV39" s="71"/>
       <c r="AW39" s="48"/>
       <c r="AX39" s="48"/>
       <c r="AY39" s="48"/>
       <c r="AZ39" s="48"/>
-      <c r="BA39" s="153"/>
+      <c r="BA39" s="150"/>
       <c r="BB39" s="71"/>
       <c r="BC39" s="71"/>
       <c r="BD39" s="48"/>
       <c r="BE39" s="48"/>
       <c r="BF39" s="48"/>
       <c r="BG39" s="48"/>
-      <c r="BH39" s="153"/>
+      <c r="BH39" s="150"/>
       <c r="BI39" s="71"/>
       <c r="BJ39" s="71"/>
       <c r="BK39" s="48"/>
@@ -9644,33 +9641,33 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="281"/>
-      <c r="C40" s="286"/>
+      <c r="B40" s="275"/>
+      <c r="C40" s="295"/>
       <c r="D40" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="178">
+      <c r="F40" s="175">
         <v>40358</v>
       </c>
-      <c r="G40" s="218"/>
-      <c r="H40" s="219"/>
-      <c r="I40" s="219"/>
-      <c r="J40" s="219"/>
-      <c r="K40" s="219"/>
-      <c r="L40" s="233"/>
-      <c r="M40" s="233"/>
-      <c r="N40" s="219"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="48"/>
+      <c r="G40" s="215"/>
+      <c r="H40" s="216"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="216"/>
+      <c r="K40" s="216"/>
+      <c r="L40" s="230"/>
+      <c r="M40" s="230"/>
+      <c r="N40" s="216"/>
+      <c r="O40" s="216"/>
+      <c r="P40" s="216"/>
       <c r="Q40" s="48"/>
       <c r="R40" s="48"/>
       <c r="S40" s="71"/>
       <c r="T40" s="71"/>
-      <c r="U40" s="129"/>
-      <c r="V40" s="129"/>
+      <c r="U40" s="126"/>
+      <c r="V40" s="126"/>
       <c r="W40" s="48"/>
       <c r="X40" s="48"/>
       <c r="Y40" s="48"/>
@@ -9694,21 +9691,21 @@
       <c r="AQ40" s="48"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="48"/>
-      <c r="AT40" s="153"/>
+      <c r="AT40" s="150"/>
       <c r="AU40" s="71"/>
       <c r="AV40" s="71"/>
       <c r="AW40" s="48"/>
       <c r="AX40" s="48"/>
       <c r="AY40" s="48"/>
       <c r="AZ40" s="48"/>
-      <c r="BA40" s="153"/>
+      <c r="BA40" s="150"/>
       <c r="BB40" s="71"/>
       <c r="BC40" s="71"/>
       <c r="BD40" s="48"/>
       <c r="BE40" s="48"/>
       <c r="BF40" s="48"/>
       <c r="BG40" s="48"/>
-      <c r="BH40" s="153"/>
+      <c r="BH40" s="150"/>
       <c r="BI40" s="71"/>
       <c r="BJ40" s="71"/>
       <c r="BK40" s="48"/>
@@ -9766,34 +9763,34 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="281"/>
-      <c r="C41" s="286"/>
+      <c r="B41" s="275"/>
+      <c r="C41" s="295"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="178">
+      <c r="F41" s="175">
         <v>40359</v>
       </c>
-      <c r="G41" s="218"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="219"/>
-      <c r="K41" s="219"/>
-      <c r="L41" s="233"/>
-      <c r="M41" s="233"/>
-      <c r="N41" s="219"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="48"/>
+      <c r="G41" s="215"/>
+      <c r="H41" s="216"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="216"/>
+      <c r="L41" s="230"/>
+      <c r="M41" s="230"/>
+      <c r="N41" s="216"/>
+      <c r="O41" s="216"/>
+      <c r="P41" s="216"/>
       <c r="Q41" s="48"/>
       <c r="R41" s="48"/>
       <c r="S41" s="71"/>
       <c r="T41" s="71"/>
       <c r="U41" s="48"/>
-      <c r="V41" s="129"/>
-      <c r="W41" s="129"/>
+      <c r="V41" s="126"/>
+      <c r="W41" s="126"/>
       <c r="X41" s="48"/>
       <c r="Y41" s="48"/>
       <c r="Z41" s="71"/>
@@ -9816,21 +9813,21 @@
       <c r="AQ41" s="48"/>
       <c r="AR41" s="48"/>
       <c r="AS41" s="48"/>
-      <c r="AT41" s="153"/>
+      <c r="AT41" s="150"/>
       <c r="AU41" s="71"/>
       <c r="AV41" s="71"/>
       <c r="AW41" s="48"/>
       <c r="AX41" s="48"/>
       <c r="AY41" s="48"/>
       <c r="AZ41" s="48"/>
-      <c r="BA41" s="153"/>
+      <c r="BA41" s="150"/>
       <c r="BB41" s="71"/>
       <c r="BC41" s="71"/>
       <c r="BD41" s="48"/>
       <c r="BE41" s="48"/>
       <c r="BF41" s="48"/>
       <c r="BG41" s="48"/>
-      <c r="BH41" s="153"/>
+      <c r="BH41" s="150"/>
       <c r="BI41" s="71"/>
       <c r="BJ41" s="71"/>
       <c r="BK41" s="48"/>
@@ -9888,35 +9885,35 @@
       <c r="DK41" s="52"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="281"/>
-      <c r="C42" s="286"/>
+      <c r="B42" s="275"/>
+      <c r="C42" s="295"/>
       <c r="D42" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="178">
+      <c r="F42" s="175">
         <v>40360</v>
       </c>
-      <c r="G42" s="218"/>
-      <c r="H42" s="219"/>
-      <c r="I42" s="219"/>
-      <c r="J42" s="219"/>
-      <c r="K42" s="219"/>
-      <c r="L42" s="233"/>
-      <c r="M42" s="233"/>
-      <c r="N42" s="219"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="48"/>
+      <c r="G42" s="215"/>
+      <c r="H42" s="216"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="216"/>
+      <c r="K42" s="216"/>
+      <c r="L42" s="230"/>
+      <c r="M42" s="230"/>
+      <c r="N42" s="216"/>
+      <c r="O42" s="216"/>
+      <c r="P42" s="216"/>
       <c r="Q42" s="48"/>
       <c r="R42" s="48"/>
       <c r="S42" s="71"/>
       <c r="T42" s="71"/>
       <c r="U42" s="48"/>
       <c r="V42" s="48"/>
-      <c r="W42" s="129"/>
-      <c r="X42" s="129"/>
+      <c r="W42" s="126"/>
+      <c r="X42" s="126"/>
       <c r="Y42" s="48"/>
       <c r="Z42" s="71"/>
       <c r="AA42" s="71"/>
@@ -9938,21 +9935,21 @@
       <c r="AQ42" s="48"/>
       <c r="AR42" s="48"/>
       <c r="AS42" s="48"/>
-      <c r="AT42" s="153"/>
+      <c r="AT42" s="150"/>
       <c r="AU42" s="71"/>
       <c r="AV42" s="71"/>
       <c r="AW42" s="48"/>
       <c r="AX42" s="48"/>
       <c r="AY42" s="48"/>
       <c r="AZ42" s="48"/>
-      <c r="BA42" s="153"/>
+      <c r="BA42" s="150"/>
       <c r="BB42" s="71"/>
       <c r="BC42" s="71"/>
       <c r="BD42" s="48"/>
       <c r="BE42" s="48"/>
       <c r="BF42" s="48"/>
       <c r="BG42" s="48"/>
-      <c r="BH42" s="153"/>
+      <c r="BH42" s="150"/>
       <c r="BI42" s="71"/>
       <c r="BJ42" s="71"/>
       <c r="BK42" s="48"/>
@@ -10010,33 +10007,33 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="281"/>
-      <c r="C43" s="286"/>
+      <c r="B43" s="275"/>
+      <c r="C43" s="295"/>
       <c r="D43" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="178">
+      <c r="F43" s="175">
         <v>40358</v>
       </c>
-      <c r="G43" s="218"/>
-      <c r="H43" s="219"/>
-      <c r="I43" s="219"/>
-      <c r="J43" s="219"/>
-      <c r="K43" s="219"/>
-      <c r="L43" s="233"/>
-      <c r="M43" s="233"/>
-      <c r="N43" s="219"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
+      <c r="G43" s="215"/>
+      <c r="H43" s="216"/>
+      <c r="I43" s="216"/>
+      <c r="J43" s="216"/>
+      <c r="K43" s="216"/>
+      <c r="L43" s="230"/>
+      <c r="M43" s="230"/>
+      <c r="N43" s="216"/>
+      <c r="O43" s="216"/>
+      <c r="P43" s="216"/>
       <c r="Q43" s="48"/>
-      <c r="R43" s="129"/>
+      <c r="R43" s="126"/>
       <c r="S43" s="71"/>
       <c r="T43" s="71"/>
-      <c r="U43" s="129"/>
-      <c r="V43" s="129"/>
+      <c r="U43" s="126"/>
+      <c r="V43" s="126"/>
       <c r="W43" s="48"/>
       <c r="X43" s="48"/>
       <c r="Y43" s="48"/>
@@ -10060,21 +10057,21 @@
       <c r="AQ43" s="48"/>
       <c r="AR43" s="48"/>
       <c r="AS43" s="48"/>
-      <c r="AT43" s="153"/>
+      <c r="AT43" s="150"/>
       <c r="AU43" s="71"/>
       <c r="AV43" s="71"/>
       <c r="AW43" s="48"/>
       <c r="AX43" s="48"/>
       <c r="AY43" s="48"/>
       <c r="AZ43" s="48"/>
-      <c r="BA43" s="153"/>
+      <c r="BA43" s="150"/>
       <c r="BB43" s="71"/>
       <c r="BC43" s="71"/>
       <c r="BD43" s="48"/>
       <c r="BE43" s="48"/>
       <c r="BF43" s="48"/>
       <c r="BG43" s="48"/>
-      <c r="BH43" s="153"/>
+      <c r="BH43" s="150"/>
       <c r="BI43" s="71"/>
       <c r="BJ43" s="71"/>
       <c r="BK43" s="48"/>
@@ -10132,21 +10129,21 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="281"/>
-      <c r="C44" s="286"/>
+      <c r="B44" s="275"/>
+      <c r="C44" s="295"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="218"/>
-      <c r="H44" s="219"/>
-      <c r="I44" s="219"/>
-      <c r="J44" s="219"/>
-      <c r="K44" s="219"/>
-      <c r="L44" s="233"/>
-      <c r="M44" s="233"/>
-      <c r="N44" s="219"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="215"/>
+      <c r="H44" s="216"/>
+      <c r="I44" s="216"/>
+      <c r="J44" s="216"/>
+      <c r="K44" s="216"/>
+      <c r="L44" s="230"/>
+      <c r="M44" s="230"/>
+      <c r="N44" s="216"/>
+      <c r="O44" s="216"/>
+      <c r="P44" s="216"/>
       <c r="Q44" s="48"/>
       <c r="R44" s="48"/>
       <c r="S44" s="71"/>
@@ -10176,21 +10173,21 @@
       <c r="AQ44" s="48"/>
       <c r="AR44" s="48"/>
       <c r="AS44" s="48"/>
-      <c r="AT44" s="153"/>
+      <c r="AT44" s="150"/>
       <c r="AU44" s="71"/>
       <c r="AV44" s="71"/>
       <c r="AW44" s="48"/>
       <c r="AX44" s="48"/>
       <c r="AY44" s="48"/>
       <c r="AZ44" s="48"/>
-      <c r="BA44" s="153"/>
+      <c r="BA44" s="150"/>
       <c r="BB44" s="71"/>
       <c r="BC44" s="71"/>
       <c r="BD44" s="48"/>
       <c r="BE44" s="48"/>
       <c r="BF44" s="48"/>
       <c r="BG44" s="48"/>
-      <c r="BH44" s="153"/>
+      <c r="BH44" s="150"/>
       <c r="BI44" s="71"/>
       <c r="BJ44" s="71"/>
       <c r="BK44" s="48"/>
@@ -10248,21 +10245,21 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="281"/>
-      <c r="C45" s="286"/>
+      <c r="B45" s="275"/>
+      <c r="C45" s="295"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="234"/>
-      <c r="H45" s="235"/>
-      <c r="I45" s="236"/>
-      <c r="J45" s="235"/>
-      <c r="K45" s="235"/>
-      <c r="L45" s="237"/>
-      <c r="M45" s="237"/>
-      <c r="N45" s="235"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="57"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="231"/>
+      <c r="H45" s="232"/>
+      <c r="I45" s="233"/>
+      <c r="J45" s="232"/>
+      <c r="K45" s="232"/>
+      <c r="L45" s="234"/>
+      <c r="M45" s="234"/>
+      <c r="N45" s="232"/>
+      <c r="O45" s="232"/>
+      <c r="P45" s="232"/>
       <c r="Q45" s="57"/>
       <c r="R45" s="57"/>
       <c r="S45" s="73"/>
@@ -10292,21 +10289,21 @@
       <c r="AQ45" s="57"/>
       <c r="AR45" s="57"/>
       <c r="AS45" s="57"/>
-      <c r="AT45" s="155"/>
+      <c r="AT45" s="152"/>
       <c r="AU45" s="73"/>
       <c r="AV45" s="73"/>
       <c r="AW45" s="57"/>
       <c r="AX45" s="57"/>
       <c r="AY45" s="57"/>
       <c r="AZ45" s="57"/>
-      <c r="BA45" s="155"/>
+      <c r="BA45" s="152"/>
       <c r="BB45" s="73"/>
       <c r="BC45" s="73"/>
       <c r="BD45" s="57"/>
       <c r="BE45" s="57"/>
       <c r="BF45" s="57"/>
       <c r="BG45" s="57"/>
-      <c r="BH45" s="155"/>
+      <c r="BH45" s="152"/>
       <c r="BI45" s="73"/>
       <c r="BJ45" s="73"/>
       <c r="BK45" s="57"/>
@@ -10364,43 +10361,43 @@
       <c r="DK45" s="61"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="281"/>
-      <c r="C46" s="279" t="s">
+      <c r="B46" s="275"/>
+      <c r="C46" s="282" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="178">
+      <c r="F46" s="175">
         <v>40368</v>
       </c>
-      <c r="G46" s="238"/>
-      <c r="H46" s="231"/>
-      <c r="I46" s="231"/>
-      <c r="J46" s="230"/>
-      <c r="K46" s="230"/>
-      <c r="L46" s="232"/>
-      <c r="M46" s="232"/>
-      <c r="N46" s="277"/>
-      <c r="O46" s="103"/>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="103"/>
-      <c r="R46" s="103"/>
-      <c r="S46" s="102"/>
+      <c r="G46" s="235"/>
+      <c r="H46" s="228"/>
+      <c r="I46" s="228"/>
+      <c r="J46" s="227"/>
+      <c r="K46" s="227"/>
+      <c r="L46" s="229"/>
+      <c r="M46" s="229"/>
+      <c r="N46" s="274"/>
+      <c r="O46" s="297"/>
+      <c r="P46" s="297"/>
+      <c r="Q46" s="100"/>
+      <c r="R46" s="100"/>
+      <c r="S46" s="99"/>
       <c r="T46" s="72"/>
-      <c r="U46" s="103"/>
-      <c r="V46" s="103"/>
-      <c r="W46" s="103"/>
-      <c r="X46" s="103"/>
-      <c r="Y46" s="103"/>
+      <c r="U46" s="100"/>
+      <c r="V46" s="100"/>
+      <c r="W46" s="100"/>
+      <c r="X46" s="100"/>
+      <c r="Y46" s="100"/>
       <c r="Z46" s="72"/>
       <c r="AA46" s="72"/>
-      <c r="AB46" s="103"/>
-      <c r="AC46" s="103"/>
-      <c r="AD46" s="103"/>
-      <c r="AE46" s="103"/>
-      <c r="AF46" s="103"/>
+      <c r="AB46" s="100"/>
+      <c r="AC46" s="100"/>
+      <c r="AD46" s="100"/>
+      <c r="AE46" s="100"/>
+      <c r="AF46" s="100"/>
       <c r="AG46" s="72"/>
       <c r="AH46" s="72"/>
       <c r="AI46" s="62"/>
@@ -10414,21 +10411,21 @@
       <c r="AQ46" s="62"/>
       <c r="AR46" s="62"/>
       <c r="AS46" s="62"/>
-      <c r="AT46" s="154"/>
+      <c r="AT46" s="151"/>
       <c r="AU46" s="72"/>
       <c r="AV46" s="72"/>
       <c r="AW46" s="62"/>
       <c r="AX46" s="62"/>
       <c r="AY46" s="62"/>
       <c r="AZ46" s="62"/>
-      <c r="BA46" s="154"/>
+      <c r="BA46" s="151"/>
       <c r="BB46" s="72"/>
       <c r="BC46" s="72"/>
       <c r="BD46" s="62"/>
       <c r="BE46" s="62"/>
       <c r="BF46" s="62"/>
       <c r="BG46" s="62"/>
-      <c r="BH46" s="154"/>
+      <c r="BH46" s="151"/>
       <c r="BI46" s="72"/>
       <c r="BJ46" s="72"/>
       <c r="BK46" s="62"/>
@@ -10486,21 +10483,21 @@
       <c r="DK46" s="67"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="281"/>
-      <c r="C47" s="279"/>
+      <c r="B47" s="275"/>
+      <c r="C47" s="282"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="218"/>
-      <c r="H47" s="219"/>
-      <c r="I47" s="219"/>
-      <c r="J47" s="239"/>
-      <c r="K47" s="239"/>
-      <c r="L47" s="233"/>
-      <c r="M47" s="233"/>
-      <c r="N47" s="219"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="215"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="236"/>
+      <c r="K47" s="236"/>
+      <c r="L47" s="230"/>
+      <c r="M47" s="230"/>
+      <c r="N47" s="216"/>
+      <c r="O47" s="216"/>
+      <c r="P47" s="216"/>
       <c r="Q47" s="48"/>
       <c r="R47" s="48"/>
       <c r="S47" s="71"/>
@@ -10530,21 +10527,21 @@
       <c r="AQ47" s="48"/>
       <c r="AR47" s="48"/>
       <c r="AS47" s="48"/>
-      <c r="AT47" s="153"/>
+      <c r="AT47" s="150"/>
       <c r="AU47" s="71"/>
       <c r="AV47" s="71"/>
       <c r="AW47" s="48"/>
       <c r="AX47" s="48"/>
       <c r="AY47" s="48"/>
       <c r="AZ47" s="48"/>
-      <c r="BA47" s="153"/>
+      <c r="BA47" s="150"/>
       <c r="BB47" s="71"/>
       <c r="BC47" s="71"/>
       <c r="BD47" s="48"/>
       <c r="BE47" s="48"/>
       <c r="BF47" s="48"/>
       <c r="BG47" s="48"/>
-      <c r="BH47" s="153"/>
+      <c r="BH47" s="150"/>
       <c r="BI47" s="71"/>
       <c r="BJ47" s="71"/>
       <c r="BK47" s="48"/>
@@ -10602,21 +10599,21 @@
       <c r="DK47" s="52"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="281"/>
-      <c r="C48" s="279"/>
+      <c r="B48" s="275"/>
+      <c r="C48" s="282"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="234"/>
-      <c r="H48" s="235"/>
-      <c r="I48" s="235"/>
-      <c r="J48" s="235"/>
-      <c r="K48" s="235"/>
-      <c r="L48" s="237"/>
-      <c r="M48" s="237"/>
-      <c r="N48" s="235"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="231"/>
+      <c r="H48" s="232"/>
+      <c r="I48" s="232"/>
+      <c r="J48" s="232"/>
+      <c r="K48" s="232"/>
+      <c r="L48" s="234"/>
+      <c r="M48" s="234"/>
+      <c r="N48" s="232"/>
+      <c r="O48" s="232"/>
+      <c r="P48" s="232"/>
       <c r="Q48" s="57"/>
       <c r="R48" s="57"/>
       <c r="S48" s="73"/>
@@ -10646,21 +10643,21 @@
       <c r="AQ48" s="57"/>
       <c r="AR48" s="57"/>
       <c r="AS48" s="57"/>
-      <c r="AT48" s="155"/>
+      <c r="AT48" s="152"/>
       <c r="AU48" s="73"/>
       <c r="AV48" s="73"/>
       <c r="AW48" s="57"/>
       <c r="AX48" s="57"/>
       <c r="AY48" s="57"/>
       <c r="AZ48" s="57"/>
-      <c r="BA48" s="155"/>
+      <c r="BA48" s="152"/>
       <c r="BB48" s="73"/>
       <c r="BC48" s="73"/>
       <c r="BD48" s="57"/>
       <c r="BE48" s="57"/>
       <c r="BF48" s="57"/>
       <c r="BG48" s="57"/>
-      <c r="BH48" s="155"/>
+      <c r="BH48" s="152"/>
       <c r="BI48" s="73"/>
       <c r="BJ48" s="73"/>
       <c r="BK48" s="57"/>
@@ -10718,27 +10715,27 @@
       <c r="DK48" s="61"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="281"/>
-      <c r="C49" s="292" t="s">
+      <c r="B49" s="275"/>
+      <c r="C49" s="280" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="178">
+      <c r="F49" s="175">
         <v>40375</v>
       </c>
-      <c r="G49" s="229"/>
-      <c r="H49" s="230"/>
-      <c r="I49" s="230"/>
-      <c r="J49" s="230"/>
-      <c r="K49" s="230"/>
-      <c r="L49" s="232"/>
-      <c r="M49" s="232"/>
-      <c r="N49" s="230"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="62"/>
+      <c r="G49" s="226"/>
+      <c r="H49" s="227"/>
+      <c r="I49" s="227"/>
+      <c r="J49" s="227"/>
+      <c r="K49" s="227"/>
+      <c r="L49" s="229"/>
+      <c r="M49" s="229"/>
+      <c r="N49" s="227"/>
+      <c r="O49" s="227"/>
+      <c r="P49" s="227"/>
       <c r="Q49" s="62"/>
       <c r="R49" s="62"/>
       <c r="S49" s="72"/>
@@ -10750,39 +10747,39 @@
       <c r="Y49" s="62"/>
       <c r="Z49" s="72"/>
       <c r="AA49" s="72"/>
-      <c r="AB49" s="129"/>
-      <c r="AC49" s="129"/>
-      <c r="AD49" s="129"/>
-      <c r="AE49" s="129"/>
-      <c r="AF49" s="129"/>
+      <c r="AB49" s="126"/>
+      <c r="AC49" s="126"/>
+      <c r="AD49" s="126"/>
+      <c r="AE49" s="126"/>
+      <c r="AF49" s="126"/>
       <c r="AG49" s="72"/>
       <c r="AH49" s="72"/>
-      <c r="AI49" s="129"/>
-      <c r="AJ49" s="129"/>
-      <c r="AK49" s="129"/>
-      <c r="AL49" s="129"/>
-      <c r="AM49" s="129"/>
+      <c r="AI49" s="126"/>
+      <c r="AJ49" s="126"/>
+      <c r="AK49" s="126"/>
+      <c r="AL49" s="126"/>
+      <c r="AM49" s="126"/>
       <c r="AN49" s="72"/>
       <c r="AO49" s="72"/>
       <c r="AP49" s="62"/>
       <c r="AQ49" s="62"/>
       <c r="AR49" s="62"/>
       <c r="AS49" s="62"/>
-      <c r="AT49" s="154"/>
+      <c r="AT49" s="151"/>
       <c r="AU49" s="72"/>
       <c r="AV49" s="72"/>
       <c r="AW49" s="62"/>
       <c r="AX49" s="62"/>
       <c r="AY49" s="62"/>
       <c r="AZ49" s="62"/>
-      <c r="BA49" s="154"/>
+      <c r="BA49" s="151"/>
       <c r="BB49" s="72"/>
       <c r="BC49" s="72"/>
       <c r="BD49" s="62"/>
       <c r="BE49" s="62"/>
       <c r="BF49" s="62"/>
       <c r="BG49" s="62"/>
-      <c r="BH49" s="154"/>
+      <c r="BH49" s="151"/>
       <c r="BI49" s="72"/>
       <c r="BJ49" s="72"/>
       <c r="BK49" s="62"/>
@@ -10840,21 +10837,21 @@
       <c r="DK49" s="67"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="281"/>
-      <c r="C50" s="291"/>
+      <c r="B50" s="275"/>
+      <c r="C50" s="279"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="218"/>
-      <c r="H50" s="219"/>
-      <c r="I50" s="219"/>
-      <c r="J50" s="219"/>
-      <c r="K50" s="219"/>
-      <c r="L50" s="233"/>
-      <c r="M50" s="233"/>
-      <c r="N50" s="219"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="215"/>
+      <c r="H50" s="216"/>
+      <c r="I50" s="216"/>
+      <c r="J50" s="216"/>
+      <c r="K50" s="216"/>
+      <c r="L50" s="230"/>
+      <c r="M50" s="230"/>
+      <c r="N50" s="216"/>
+      <c r="O50" s="216"/>
+      <c r="P50" s="216"/>
       <c r="Q50" s="48"/>
       <c r="R50" s="48"/>
       <c r="S50" s="71"/>
@@ -10884,21 +10881,21 @@
       <c r="AQ50" s="48"/>
       <c r="AR50" s="48"/>
       <c r="AS50" s="48"/>
-      <c r="AT50" s="153"/>
+      <c r="AT50" s="150"/>
       <c r="AU50" s="71"/>
       <c r="AV50" s="71"/>
       <c r="AW50" s="48"/>
       <c r="AX50" s="48"/>
       <c r="AY50" s="48"/>
       <c r="AZ50" s="48"/>
-      <c r="BA50" s="153"/>
+      <c r="BA50" s="150"/>
       <c r="BB50" s="71"/>
       <c r="BC50" s="71"/>
       <c r="BD50" s="48"/>
       <c r="BE50" s="48"/>
       <c r="BF50" s="48"/>
       <c r="BG50" s="48"/>
-      <c r="BH50" s="153"/>
+      <c r="BH50" s="150"/>
       <c r="BI50" s="71"/>
       <c r="BJ50" s="71"/>
       <c r="BK50" s="48"/>
@@ -10956,21 +10953,21 @@
       <c r="DK50" s="52"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="281"/>
-      <c r="C51" s="287"/>
+      <c r="B51" s="275"/>
+      <c r="C51" s="281"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="234"/>
-      <c r="H51" s="235"/>
-      <c r="I51" s="235"/>
-      <c r="J51" s="235"/>
-      <c r="K51" s="235"/>
-      <c r="L51" s="237"/>
-      <c r="M51" s="237"/>
-      <c r="N51" s="235"/>
-      <c r="O51" s="57"/>
-      <c r="P51" s="57"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="231"/>
+      <c r="H51" s="232"/>
+      <c r="I51" s="232"/>
+      <c r="J51" s="232"/>
+      <c r="K51" s="232"/>
+      <c r="L51" s="234"/>
+      <c r="M51" s="234"/>
+      <c r="N51" s="232"/>
+      <c r="O51" s="232"/>
+      <c r="P51" s="232"/>
       <c r="Q51" s="57"/>
       <c r="R51" s="57"/>
       <c r="S51" s="73"/>
@@ -11000,21 +10997,21 @@
       <c r="AQ51" s="57"/>
       <c r="AR51" s="57"/>
       <c r="AS51" s="57"/>
-      <c r="AT51" s="155"/>
+      <c r="AT51" s="152"/>
       <c r="AU51" s="73"/>
       <c r="AV51" s="73"/>
       <c r="AW51" s="57"/>
       <c r="AX51" s="57"/>
       <c r="AY51" s="57"/>
       <c r="AZ51" s="57"/>
-      <c r="BA51" s="155"/>
+      <c r="BA51" s="152"/>
       <c r="BB51" s="73"/>
       <c r="BC51" s="73"/>
       <c r="BD51" s="57"/>
       <c r="BE51" s="57"/>
       <c r="BF51" s="57"/>
       <c r="BG51" s="57"/>
-      <c r="BH51" s="155"/>
+      <c r="BH51" s="152"/>
       <c r="BI51" s="73"/>
       <c r="BJ51" s="73"/>
       <c r="BK51" s="57"/>
@@ -11072,21 +11069,21 @@
       <c r="DK51" s="61"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="281"/>
-      <c r="C52" s="287"/>
+      <c r="B52" s="275"/>
+      <c r="C52" s="281"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="178"/>
-      <c r="G52" s="218"/>
-      <c r="H52" s="219"/>
-      <c r="I52" s="219"/>
-      <c r="J52" s="219"/>
-      <c r="K52" s="219"/>
-      <c r="L52" s="233"/>
-      <c r="M52" s="233"/>
-      <c r="N52" s="219"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="48"/>
+      <c r="F52" s="175"/>
+      <c r="G52" s="215"/>
+      <c r="H52" s="216"/>
+      <c r="I52" s="216"/>
+      <c r="J52" s="216"/>
+      <c r="K52" s="216"/>
+      <c r="L52" s="230"/>
+      <c r="M52" s="230"/>
+      <c r="N52" s="216"/>
+      <c r="O52" s="216"/>
+      <c r="P52" s="216"/>
       <c r="Q52" s="48"/>
       <c r="R52" s="48"/>
       <c r="S52" s="71"/>
@@ -11097,13 +11094,13 @@
       <c r="X52" s="48"/>
       <c r="Y52" s="48"/>
       <c r="Z52" s="71"/>
-      <c r="AA52" s="101"/>
+      <c r="AA52" s="98"/>
       <c r="AB52" s="62"/>
       <c r="AC52" s="62"/>
       <c r="AD52" s="62"/>
       <c r="AE52" s="62"/>
       <c r="AF52" s="62"/>
-      <c r="AG52" s="98"/>
+      <c r="AG52" s="95"/>
       <c r="AH52" s="71"/>
       <c r="AI52" s="62"/>
       <c r="AJ52" s="62"/>
@@ -11116,21 +11113,21 @@
       <c r="AQ52" s="48"/>
       <c r="AR52" s="48"/>
       <c r="AS52" s="48"/>
-      <c r="AT52" s="153"/>
+      <c r="AT52" s="150"/>
       <c r="AU52" s="71"/>
       <c r="AV52" s="71"/>
       <c r="AW52" s="48"/>
       <c r="AX52" s="48"/>
       <c r="AY52" s="48"/>
       <c r="AZ52" s="48"/>
-      <c r="BA52" s="153"/>
+      <c r="BA52" s="150"/>
       <c r="BB52" s="71"/>
       <c r="BC52" s="71"/>
       <c r="BD52" s="48"/>
       <c r="BE52" s="48"/>
       <c r="BF52" s="48"/>
       <c r="BG52" s="48"/>
-      <c r="BH52" s="153"/>
+      <c r="BH52" s="150"/>
       <c r="BI52" s="71"/>
       <c r="BJ52" s="71"/>
       <c r="BK52" s="48"/>
@@ -11188,21 +11185,21 @@
       <c r="DK52" s="52"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="281"/>
-      <c r="C53" s="286"/>
+      <c r="B53" s="275"/>
+      <c r="C53" s="295"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="218"/>
-      <c r="H53" s="219"/>
-      <c r="I53" s="219"/>
-      <c r="J53" s="219"/>
-      <c r="K53" s="219"/>
-      <c r="L53" s="233"/>
-      <c r="M53" s="233"/>
-      <c r="N53" s="219"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="48"/>
+      <c r="F53" s="75"/>
+      <c r="G53" s="215"/>
+      <c r="H53" s="216"/>
+      <c r="I53" s="216"/>
+      <c r="J53" s="216"/>
+      <c r="K53" s="216"/>
+      <c r="L53" s="230"/>
+      <c r="M53" s="230"/>
+      <c r="N53" s="216"/>
+      <c r="O53" s="216"/>
+      <c r="P53" s="216"/>
       <c r="Q53" s="48"/>
       <c r="R53" s="48"/>
       <c r="S53" s="71"/>
@@ -11232,21 +11229,21 @@
       <c r="AQ53" s="48"/>
       <c r="AR53" s="48"/>
       <c r="AS53" s="48"/>
-      <c r="AT53" s="153"/>
+      <c r="AT53" s="150"/>
       <c r="AU53" s="71"/>
       <c r="AV53" s="71"/>
       <c r="AW53" s="48"/>
       <c r="AX53" s="48"/>
       <c r="AY53" s="48"/>
       <c r="AZ53" s="48"/>
-      <c r="BA53" s="153"/>
+      <c r="BA53" s="150"/>
       <c r="BB53" s="71"/>
       <c r="BC53" s="71"/>
       <c r="BD53" s="48"/>
       <c r="BE53" s="48"/>
       <c r="BF53" s="48"/>
       <c r="BG53" s="48"/>
-      <c r="BH53" s="153"/>
+      <c r="BH53" s="150"/>
       <c r="BI53" s="71"/>
       <c r="BJ53" s="71"/>
       <c r="BK53" s="48"/>
@@ -11304,21 +11301,21 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B54" s="282"/>
-      <c r="C54" s="288"/>
+      <c r="B54" s="284"/>
+      <c r="C54" s="296"/>
       <c r="D54" s="17"/>
       <c r="E54" s="13"/>
-      <c r="F54" s="82"/>
-      <c r="G54" s="205"/>
-      <c r="H54" s="206"/>
-      <c r="I54" s="206"/>
-      <c r="J54" s="206"/>
-      <c r="K54" s="206"/>
-      <c r="L54" s="240"/>
-      <c r="M54" s="240"/>
-      <c r="N54" s="206"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="203"/>
+      <c r="I54" s="203"/>
+      <c r="J54" s="203"/>
+      <c r="K54" s="203"/>
+      <c r="L54" s="237"/>
+      <c r="M54" s="237"/>
+      <c r="N54" s="203"/>
+      <c r="O54" s="216"/>
+      <c r="P54" s="216"/>
       <c r="Q54" s="48"/>
       <c r="R54" s="48"/>
       <c r="S54" s="71"/>
@@ -11348,21 +11345,21 @@
       <c r="AQ54" s="32"/>
       <c r="AR54" s="32"/>
       <c r="AS54" s="32"/>
-      <c r="AT54" s="151"/>
+      <c r="AT54" s="148"/>
       <c r="AU54" s="69"/>
       <c r="AV54" s="69"/>
       <c r="AW54" s="32"/>
       <c r="AX54" s="32"/>
       <c r="AY54" s="32"/>
       <c r="AZ54" s="32"/>
-      <c r="BA54" s="151"/>
+      <c r="BA54" s="148"/>
       <c r="BB54" s="69"/>
       <c r="BC54" s="69"/>
       <c r="BD54" s="32"/>
       <c r="BE54" s="32"/>
       <c r="BF54" s="32"/>
       <c r="BG54" s="32"/>
-      <c r="BH54" s="151"/>
+      <c r="BH54" s="148"/>
       <c r="BI54" s="69"/>
       <c r="BJ54" s="69"/>
       <c r="BK54" s="32"/>
@@ -11420,10 +11417,10 @@
       <c r="DK54" s="36"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="298" t="s">
+      <c r="B55" s="290" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="279" t="s">
+      <c r="C55" s="282" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -11432,29 +11429,29 @@
       <c r="E55" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="178">
+      <c r="F55" s="175">
         <v>40353</v>
       </c>
-      <c r="G55" s="241"/>
-      <c r="H55" s="242"/>
-      <c r="I55" s="242"/>
-      <c r="J55" s="212"/>
-      <c r="K55" s="212"/>
-      <c r="L55" s="243"/>
-      <c r="M55" s="243"/>
-      <c r="N55" s="213"/>
-      <c r="O55" s="106"/>
-      <c r="P55" s="106"/>
-      <c r="Q55" s="106"/>
-      <c r="R55" s="106"/>
-      <c r="S55" s="104"/>
-      <c r="T55" s="105"/>
+      <c r="G55" s="238"/>
+      <c r="H55" s="239"/>
+      <c r="I55" s="239"/>
+      <c r="J55" s="209"/>
+      <c r="K55" s="209"/>
+      <c r="L55" s="240"/>
+      <c r="M55" s="240"/>
+      <c r="N55" s="210"/>
+      <c r="O55" s="298"/>
+      <c r="P55" s="298"/>
+      <c r="Q55" s="103"/>
+      <c r="R55" s="103"/>
+      <c r="S55" s="101"/>
+      <c r="T55" s="102"/>
       <c r="U55" s="42"/>
       <c r="V55" s="42"/>
       <c r="W55" s="42"/>
       <c r="X55" s="42"/>
       <c r="Y55" s="42"/>
-      <c r="Z55" s="97"/>
+      <c r="Z55" s="94"/>
       <c r="AA55" s="70"/>
       <c r="AB55" s="42"/>
       <c r="AC55" s="42"/>
@@ -11474,21 +11471,21 @@
       <c r="AQ55" s="42"/>
       <c r="AR55" s="42"/>
       <c r="AS55" s="42"/>
-      <c r="AT55" s="152"/>
+      <c r="AT55" s="149"/>
       <c r="AU55" s="70"/>
       <c r="AV55" s="70"/>
       <c r="AW55" s="42"/>
       <c r="AX55" s="42"/>
       <c r="AY55" s="42"/>
       <c r="AZ55" s="42"/>
-      <c r="BA55" s="152"/>
+      <c r="BA55" s="149"/>
       <c r="BB55" s="70"/>
       <c r="BC55" s="70"/>
       <c r="BD55" s="42"/>
       <c r="BE55" s="42"/>
       <c r="BF55" s="42"/>
       <c r="BG55" s="42"/>
-      <c r="BH55" s="152"/>
+      <c r="BH55" s="149"/>
       <c r="BI55" s="70"/>
       <c r="BJ55" s="70"/>
       <c r="BK55" s="42"/>
@@ -11546,32 +11543,32 @@
       <c r="DK55" s="47"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="299"/>
-      <c r="C56" s="279"/>
+      <c r="B56" s="291"/>
+      <c r="C56" s="282"/>
       <c r="D56" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F56" s="178">
+      <c r="F56" s="175">
         <v>40357</v>
       </c>
-      <c r="G56" s="244"/>
-      <c r="H56" s="239"/>
-      <c r="I56" s="239"/>
-      <c r="J56" s="219"/>
-      <c r="K56" s="219"/>
-      <c r="L56" s="233"/>
-      <c r="M56" s="233"/>
-      <c r="N56" s="219"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
+      <c r="G56" s="241"/>
+      <c r="H56" s="236"/>
+      <c r="I56" s="236"/>
+      <c r="J56" s="216"/>
+      <c r="K56" s="216"/>
+      <c r="L56" s="230"/>
+      <c r="M56" s="230"/>
+      <c r="N56" s="216"/>
+      <c r="O56" s="216"/>
+      <c r="P56" s="216"/>
       <c r="Q56" s="48"/>
       <c r="R56" s="48"/>
       <c r="S56" s="71"/>
       <c r="T56" s="71"/>
-      <c r="U56" s="100"/>
+      <c r="U56" s="97"/>
       <c r="V56" s="48"/>
       <c r="W56" s="48"/>
       <c r="X56" s="48"/>
@@ -11596,21 +11593,21 @@
       <c r="AQ56" s="48"/>
       <c r="AR56" s="48"/>
       <c r="AS56" s="48"/>
-      <c r="AT56" s="153"/>
+      <c r="AT56" s="150"/>
       <c r="AU56" s="71"/>
       <c r="AV56" s="71"/>
       <c r="AW56" s="48"/>
       <c r="AX56" s="48"/>
       <c r="AY56" s="48"/>
       <c r="AZ56" s="48"/>
-      <c r="BA56" s="153"/>
+      <c r="BA56" s="150"/>
       <c r="BB56" s="71"/>
       <c r="BC56" s="71"/>
       <c r="BD56" s="48"/>
       <c r="BE56" s="48"/>
       <c r="BF56" s="48"/>
       <c r="BG56" s="48"/>
-      <c r="BH56" s="153"/>
+      <c r="BH56" s="150"/>
       <c r="BI56" s="71"/>
       <c r="BJ56" s="71"/>
       <c r="BK56" s="48"/>
@@ -11668,33 +11665,33 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="299"/>
-      <c r="C57" s="279"/>
+      <c r="B57" s="291"/>
+      <c r="C57" s="282"/>
       <c r="D57" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="178">
+      <c r="F57" s="175">
         <v>40358</v>
       </c>
-      <c r="G57" s="244"/>
-      <c r="H57" s="239"/>
-      <c r="I57" s="239"/>
-      <c r="J57" s="219"/>
-      <c r="K57" s="219"/>
-      <c r="L57" s="233"/>
-      <c r="M57" s="233"/>
-      <c r="N57" s="219"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="48"/>
+      <c r="G57" s="241"/>
+      <c r="H57" s="236"/>
+      <c r="I57" s="236"/>
+      <c r="J57" s="216"/>
+      <c r="K57" s="216"/>
+      <c r="L57" s="230"/>
+      <c r="M57" s="230"/>
+      <c r="N57" s="216"/>
+      <c r="O57" s="216"/>
+      <c r="P57" s="216"/>
       <c r="Q57" s="48"/>
       <c r="R57" s="48"/>
       <c r="S57" s="71"/>
       <c r="T57" s="71"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="100"/>
+      <c r="V57" s="97"/>
       <c r="W57" s="48"/>
       <c r="X57" s="48"/>
       <c r="Y57" s="48"/>
@@ -11718,21 +11715,21 @@
       <c r="AQ57" s="48"/>
       <c r="AR57" s="48"/>
       <c r="AS57" s="48"/>
-      <c r="AT57" s="153"/>
+      <c r="AT57" s="150"/>
       <c r="AU57" s="71"/>
       <c r="AV57" s="71"/>
       <c r="AW57" s="48"/>
       <c r="AX57" s="48"/>
       <c r="AY57" s="48"/>
       <c r="AZ57" s="48"/>
-      <c r="BA57" s="153"/>
+      <c r="BA57" s="150"/>
       <c r="BB57" s="71"/>
       <c r="BC57" s="71"/>
       <c r="BD57" s="48"/>
       <c r="BE57" s="48"/>
       <c r="BF57" s="48"/>
       <c r="BG57" s="48"/>
-      <c r="BH57" s="153"/>
+      <c r="BH57" s="150"/>
       <c r="BI57" s="71"/>
       <c r="BJ57" s="71"/>
       <c r="BK57" s="48"/>
@@ -11790,34 +11787,34 @@
       <c r="DK57" s="52"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="299"/>
-      <c r="C58" s="279"/>
+      <c r="B58" s="291"/>
+      <c r="C58" s="282"/>
       <c r="D58" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="178">
+      <c r="F58" s="175">
         <v>40361</v>
       </c>
-      <c r="G58" s="244"/>
-      <c r="H58" s="239"/>
-      <c r="I58" s="239"/>
-      <c r="J58" s="219"/>
-      <c r="K58" s="219"/>
-      <c r="L58" s="233"/>
-      <c r="M58" s="233"/>
-      <c r="N58" s="219"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="48"/>
+      <c r="G58" s="241"/>
+      <c r="H58" s="236"/>
+      <c r="I58" s="236"/>
+      <c r="J58" s="216"/>
+      <c r="K58" s="216"/>
+      <c r="L58" s="230"/>
+      <c r="M58" s="230"/>
+      <c r="N58" s="216"/>
+      <c r="O58" s="216"/>
+      <c r="P58" s="216"/>
       <c r="Q58" s="48"/>
       <c r="R58" s="48"/>
       <c r="S58" s="71"/>
       <c r="T58" s="71"/>
       <c r="U58" s="48"/>
       <c r="V58" s="48"/>
-      <c r="W58" s="100"/>
+      <c r="W58" s="97"/>
       <c r="X58" s="48"/>
       <c r="Y58" s="48"/>
       <c r="Z58" s="71"/>
@@ -11840,21 +11837,21 @@
       <c r="AQ58" s="48"/>
       <c r="AR58" s="48"/>
       <c r="AS58" s="48"/>
-      <c r="AT58" s="153"/>
+      <c r="AT58" s="150"/>
       <c r="AU58" s="71"/>
       <c r="AV58" s="71"/>
       <c r="AW58" s="48"/>
       <c r="AX58" s="48"/>
       <c r="AY58" s="48"/>
       <c r="AZ58" s="48"/>
-      <c r="BA58" s="153"/>
+      <c r="BA58" s="150"/>
       <c r="BB58" s="71"/>
       <c r="BC58" s="71"/>
       <c r="BD58" s="48"/>
       <c r="BE58" s="48"/>
       <c r="BF58" s="48"/>
       <c r="BG58" s="48"/>
-      <c r="BH58" s="153"/>
+      <c r="BH58" s="150"/>
       <c r="BI58" s="71"/>
       <c r="BJ58" s="71"/>
       <c r="BK58" s="48"/>
@@ -11912,33 +11909,33 @@
       <c r="DK58" s="52"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="299"/>
-      <c r="C59" s="279"/>
+      <c r="B59" s="291"/>
+      <c r="C59" s="282"/>
       <c r="D59" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E59" s="6"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="244"/>
-      <c r="H59" s="239"/>
-      <c r="I59" s="239"/>
-      <c r="J59" s="219"/>
-      <c r="K59" s="219"/>
-      <c r="L59" s="233"/>
-      <c r="M59" s="233"/>
-      <c r="N59" s="219"/>
-      <c r="O59" s="48"/>
-      <c r="P59" s="48"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="241"/>
+      <c r="H59" s="236"/>
+      <c r="I59" s="236"/>
+      <c r="J59" s="216"/>
+      <c r="K59" s="216"/>
+      <c r="L59" s="230"/>
+      <c r="M59" s="230"/>
+      <c r="N59" s="216"/>
+      <c r="O59" s="216"/>
+      <c r="P59" s="216"/>
       <c r="Q59" s="48"/>
       <c r="R59" s="48"/>
       <c r="S59" s="71"/>
       <c r="T59" s="71"/>
       <c r="U59" s="48"/>
       <c r="V59" s="48"/>
-      <c r="W59" s="96"/>
-      <c r="X59" s="100"/>
-      <c r="Y59" s="100"/>
-      <c r="Z59" s="98"/>
+      <c r="W59" s="93"/>
+      <c r="X59" s="97"/>
+      <c r="Y59" s="97"/>
+      <c r="Z59" s="95"/>
       <c r="AA59" s="71"/>
       <c r="AB59" s="48"/>
       <c r="AC59" s="48"/>
@@ -11958,21 +11955,21 @@
       <c r="AQ59" s="48"/>
       <c r="AR59" s="48"/>
       <c r="AS59" s="48"/>
-      <c r="AT59" s="153"/>
+      <c r="AT59" s="150"/>
       <c r="AU59" s="71"/>
       <c r="AV59" s="71"/>
       <c r="AW59" s="48"/>
       <c r="AX59" s="48"/>
       <c r="AY59" s="48"/>
       <c r="AZ59" s="48"/>
-      <c r="BA59" s="153"/>
+      <c r="BA59" s="150"/>
       <c r="BB59" s="71"/>
       <c r="BC59" s="71"/>
       <c r="BD59" s="48"/>
       <c r="BE59" s="48"/>
       <c r="BF59" s="48"/>
       <c r="BG59" s="48"/>
-      <c r="BH59" s="153"/>
+      <c r="BH59" s="150"/>
       <c r="BI59" s="71"/>
       <c r="BJ59" s="71"/>
       <c r="BK59" s="48"/>
@@ -12030,21 +12027,21 @@
       <c r="DK59" s="52"/>
     </row>
     <row r="60" spans="2:115">
-      <c r="B60" s="299"/>
-      <c r="C60" s="279"/>
+      <c r="B60" s="291"/>
+      <c r="C60" s="282"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="245"/>
-      <c r="H60" s="235"/>
-      <c r="I60" s="235"/>
-      <c r="J60" s="235"/>
-      <c r="K60" s="235"/>
-      <c r="L60" s="237"/>
-      <c r="M60" s="237"/>
-      <c r="N60" s="235"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="242"/>
+      <c r="H60" s="232"/>
+      <c r="I60" s="232"/>
+      <c r="J60" s="232"/>
+      <c r="K60" s="232"/>
+      <c r="L60" s="234"/>
+      <c r="M60" s="234"/>
+      <c r="N60" s="232"/>
+      <c r="O60" s="232"/>
+      <c r="P60" s="232"/>
       <c r="Q60" s="57"/>
       <c r="R60" s="57"/>
       <c r="S60" s="73"/>
@@ -12074,21 +12071,21 @@
       <c r="AQ60" s="57"/>
       <c r="AR60" s="57"/>
       <c r="AS60" s="57"/>
-      <c r="AT60" s="155"/>
+      <c r="AT60" s="152"/>
       <c r="AU60" s="73"/>
       <c r="AV60" s="73"/>
       <c r="AW60" s="57"/>
       <c r="AX60" s="57"/>
       <c r="AY60" s="57"/>
       <c r="AZ60" s="57"/>
-      <c r="BA60" s="155"/>
+      <c r="BA60" s="152"/>
       <c r="BB60" s="73"/>
       <c r="BC60" s="73"/>
       <c r="BD60" s="57"/>
       <c r="BE60" s="57"/>
       <c r="BF60" s="57"/>
       <c r="BG60" s="57"/>
-      <c r="BH60" s="155"/>
+      <c r="BH60" s="152"/>
       <c r="BI60" s="73"/>
       <c r="BJ60" s="73"/>
       <c r="BK60" s="57"/>
@@ -12146,8 +12143,8 @@
       <c r="DK60" s="61"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="299"/>
-      <c r="C61" s="278" t="s">
+      <c r="B61" s="291"/>
+      <c r="C61" s="288" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -12156,29 +12153,29 @@
       <c r="E61" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F61" s="178">
+      <c r="F61" s="175">
         <v>40361</v>
       </c>
-      <c r="G61" s="246"/>
-      <c r="H61" s="239"/>
-      <c r="I61" s="239"/>
-      <c r="J61" s="239"/>
-      <c r="K61" s="219"/>
-      <c r="L61" s="233"/>
-      <c r="M61" s="233"/>
-      <c r="N61" s="220"/>
-      <c r="O61" s="99"/>
-      <c r="P61" s="99"/>
+      <c r="G61" s="243"/>
+      <c r="H61" s="236"/>
+      <c r="I61" s="236"/>
+      <c r="J61" s="236"/>
+      <c r="K61" s="216"/>
+      <c r="L61" s="230"/>
+      <c r="M61" s="230"/>
+      <c r="N61" s="217"/>
+      <c r="O61" s="212"/>
+      <c r="P61" s="212"/>
       <c r="Q61" s="48"/>
       <c r="R61" s="48"/>
-      <c r="S61" s="98"/>
-      <c r="T61" s="101"/>
+      <c r="S61" s="95"/>
+      <c r="T61" s="98"/>
       <c r="U61" s="48"/>
       <c r="V61" s="48"/>
       <c r="W61" s="48"/>
       <c r="X61" s="48"/>
       <c r="Y61" s="48"/>
-      <c r="Z61" s="98"/>
+      <c r="Z61" s="95"/>
       <c r="AA61" s="71"/>
       <c r="AB61" s="48"/>
       <c r="AC61" s="48"/>
@@ -12198,21 +12195,21 @@
       <c r="AQ61" s="48"/>
       <c r="AR61" s="48"/>
       <c r="AS61" s="48"/>
-      <c r="AT61" s="153"/>
+      <c r="AT61" s="150"/>
       <c r="AU61" s="71"/>
       <c r="AV61" s="71"/>
       <c r="AW61" s="48"/>
       <c r="AX61" s="48"/>
       <c r="AY61" s="48"/>
       <c r="AZ61" s="48"/>
-      <c r="BA61" s="153"/>
+      <c r="BA61" s="150"/>
       <c r="BB61" s="71"/>
       <c r="BC61" s="71"/>
       <c r="BD61" s="48"/>
       <c r="BE61" s="48"/>
       <c r="BF61" s="48"/>
       <c r="BG61" s="48"/>
-      <c r="BH61" s="153"/>
+      <c r="BH61" s="150"/>
       <c r="BI61" s="71"/>
       <c r="BJ61" s="71"/>
       <c r="BK61" s="48"/>
@@ -12270,25 +12267,25 @@
       <c r="DK61" s="52"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="299"/>
-      <c r="C62" s="278"/>
+      <c r="B62" s="291"/>
+      <c r="C62" s="288"/>
       <c r="D62" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="246"/>
-      <c r="H62" s="239"/>
-      <c r="I62" s="219"/>
-      <c r="J62" s="219"/>
-      <c r="K62" s="219"/>
-      <c r="L62" s="233"/>
-      <c r="M62" s="233"/>
-      <c r="N62" s="219"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
-      <c r="Q62" s="99"/>
-      <c r="R62" s="99"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="243"/>
+      <c r="H62" s="236"/>
+      <c r="I62" s="216"/>
+      <c r="J62" s="216"/>
+      <c r="K62" s="216"/>
+      <c r="L62" s="230"/>
+      <c r="M62" s="230"/>
+      <c r="N62" s="216"/>
+      <c r="O62" s="216"/>
+      <c r="P62" s="216"/>
+      <c r="Q62" s="96"/>
+      <c r="R62" s="96"/>
       <c r="S62" s="71"/>
       <c r="T62" s="71"/>
       <c r="U62" s="48"/>
@@ -12316,21 +12313,21 @@
       <c r="AQ62" s="48"/>
       <c r="AR62" s="48"/>
       <c r="AS62" s="48"/>
-      <c r="AT62" s="153"/>
+      <c r="AT62" s="150"/>
       <c r="AU62" s="71"/>
       <c r="AV62" s="71"/>
       <c r="AW62" s="48"/>
       <c r="AX62" s="48"/>
       <c r="AY62" s="48"/>
       <c r="AZ62" s="48"/>
-      <c r="BA62" s="153"/>
+      <c r="BA62" s="150"/>
       <c r="BB62" s="71"/>
       <c r="BC62" s="71"/>
       <c r="BD62" s="48"/>
       <c r="BE62" s="48"/>
       <c r="BF62" s="48"/>
       <c r="BG62" s="48"/>
-      <c r="BH62" s="153"/>
+      <c r="BH62" s="150"/>
       <c r="BI62" s="71"/>
       <c r="BJ62" s="71"/>
       <c r="BK62" s="48"/>
@@ -12388,32 +12385,32 @@
       <c r="DK62" s="52"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="299"/>
-      <c r="C63" s="278"/>
+      <c r="B63" s="291"/>
+      <c r="C63" s="288"/>
       <c r="D63" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="246"/>
-      <c r="H63" s="239"/>
-      <c r="I63" s="219"/>
-      <c r="J63" s="219"/>
-      <c r="K63" s="219"/>
-      <c r="L63" s="233"/>
-      <c r="M63" s="233"/>
-      <c r="N63" s="219"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="243"/>
+      <c r="H63" s="236"/>
+      <c r="I63" s="216"/>
+      <c r="J63" s="216"/>
+      <c r="K63" s="216"/>
+      <c r="L63" s="230"/>
+      <c r="M63" s="230"/>
+      <c r="N63" s="216"/>
+      <c r="O63" s="216"/>
+      <c r="P63" s="216"/>
       <c r="Q63" s="48"/>
       <c r="R63" s="48"/>
       <c r="S63" s="71"/>
       <c r="T63" s="71"/>
-      <c r="U63" s="99"/>
-      <c r="V63" s="99"/>
-      <c r="W63" s="99"/>
-      <c r="X63" s="99"/>
-      <c r="Y63" s="99"/>
+      <c r="U63" s="96"/>
+      <c r="V63" s="96"/>
+      <c r="W63" s="96"/>
+      <c r="X63" s="96"/>
+      <c r="Y63" s="96"/>
       <c r="Z63" s="71"/>
       <c r="AA63" s="71"/>
       <c r="AB63" s="48"/>
@@ -12434,21 +12431,21 @@
       <c r="AQ63" s="48"/>
       <c r="AR63" s="48"/>
       <c r="AS63" s="48"/>
-      <c r="AT63" s="153"/>
+      <c r="AT63" s="150"/>
       <c r="AU63" s="71"/>
       <c r="AV63" s="71"/>
       <c r="AW63" s="48"/>
       <c r="AX63" s="48"/>
       <c r="AY63" s="48"/>
       <c r="AZ63" s="48"/>
-      <c r="BA63" s="153"/>
+      <c r="BA63" s="150"/>
       <c r="BB63" s="71"/>
       <c r="BC63" s="71"/>
       <c r="BD63" s="48"/>
       <c r="BE63" s="48"/>
       <c r="BF63" s="48"/>
       <c r="BG63" s="48"/>
-      <c r="BH63" s="153"/>
+      <c r="BH63" s="150"/>
       <c r="BI63" s="71"/>
       <c r="BJ63" s="71"/>
       <c r="BK63" s="48"/>
@@ -12506,21 +12503,21 @@
       <c r="DK63" s="52"/>
     </row>
     <row r="64" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B64" s="299"/>
-      <c r="C64" s="278"/>
+      <c r="B64" s="291"/>
+      <c r="C64" s="288"/>
       <c r="D64" s="10"/>
       <c r="E64" s="11"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="247"/>
-      <c r="H64" s="206"/>
-      <c r="I64" s="206"/>
-      <c r="J64" s="248"/>
-      <c r="K64" s="206"/>
-      <c r="L64" s="240"/>
-      <c r="M64" s="240"/>
-      <c r="N64" s="206"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="244"/>
+      <c r="H64" s="203"/>
+      <c r="I64" s="203"/>
+      <c r="J64" s="245"/>
+      <c r="K64" s="203"/>
+      <c r="L64" s="237"/>
+      <c r="M64" s="237"/>
+      <c r="N64" s="203"/>
+      <c r="O64" s="203"/>
+      <c r="P64" s="203"/>
       <c r="Q64" s="32"/>
       <c r="R64" s="32"/>
       <c r="S64" s="69"/>
@@ -12550,21 +12547,21 @@
       <c r="AQ64" s="32"/>
       <c r="AR64" s="32"/>
       <c r="AS64" s="32"/>
-      <c r="AT64" s="151"/>
+      <c r="AT64" s="148"/>
       <c r="AU64" s="69"/>
       <c r="AV64" s="69"/>
       <c r="AW64" s="32"/>
       <c r="AX64" s="32"/>
       <c r="AY64" s="32"/>
       <c r="AZ64" s="32"/>
-      <c r="BA64" s="151"/>
+      <c r="BA64" s="148"/>
       <c r="BB64" s="69"/>
       <c r="BC64" s="69"/>
       <c r="BD64" s="32"/>
       <c r="BE64" s="32"/>
       <c r="BF64" s="32"/>
       <c r="BG64" s="32"/>
-      <c r="BH64" s="151"/>
+      <c r="BH64" s="148"/>
       <c r="BI64" s="69"/>
       <c r="BJ64" s="69"/>
       <c r="BK64" s="32"/>
@@ -12622,29 +12619,29 @@
       <c r="DK64" s="36"/>
     </row>
     <row r="65" spans="2:115">
-      <c r="B65" s="280" t="s">
+      <c r="B65" s="276" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="294" t="s">
+      <c r="C65" s="285" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="179">
+      <c r="F65" s="176">
         <v>40375</v>
       </c>
-      <c r="G65" s="249"/>
-      <c r="H65" s="212"/>
-      <c r="I65" s="212"/>
-      <c r="J65" s="212"/>
-      <c r="K65" s="212"/>
-      <c r="L65" s="243"/>
-      <c r="M65" s="243"/>
-      <c r="N65" s="242"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
+      <c r="G65" s="246"/>
+      <c r="H65" s="209"/>
+      <c r="I65" s="209"/>
+      <c r="J65" s="209"/>
+      <c r="K65" s="209"/>
+      <c r="L65" s="240"/>
+      <c r="M65" s="240"/>
+      <c r="N65" s="239"/>
+      <c r="O65" s="239"/>
+      <c r="P65" s="239"/>
       <c r="Q65" s="43"/>
       <c r="R65" s="43"/>
       <c r="S65" s="70"/>
@@ -12656,39 +12653,39 @@
       <c r="Y65" s="43"/>
       <c r="Z65" s="70"/>
       <c r="AA65" s="70"/>
-      <c r="AB65" s="106"/>
-      <c r="AC65" s="106"/>
-      <c r="AD65" s="106"/>
-      <c r="AE65" s="106"/>
-      <c r="AF65" s="106"/>
+      <c r="AB65" s="103"/>
+      <c r="AC65" s="103"/>
+      <c r="AD65" s="103"/>
+      <c r="AE65" s="103"/>
+      <c r="AF65" s="103"/>
       <c r="AG65" s="70"/>
       <c r="AH65" s="70"/>
-      <c r="AI65" s="106"/>
-      <c r="AJ65" s="106"/>
-      <c r="AK65" s="106"/>
-      <c r="AL65" s="106"/>
-      <c r="AM65" s="106"/>
+      <c r="AI65" s="103"/>
+      <c r="AJ65" s="103"/>
+      <c r="AK65" s="103"/>
+      <c r="AL65" s="103"/>
+      <c r="AM65" s="103"/>
       <c r="AN65" s="70"/>
       <c r="AO65" s="70"/>
       <c r="AP65" s="43"/>
       <c r="AQ65" s="43"/>
       <c r="AR65" s="43"/>
       <c r="AS65" s="43"/>
-      <c r="AT65" s="156"/>
+      <c r="AT65" s="153"/>
       <c r="AU65" s="70"/>
       <c r="AV65" s="70"/>
       <c r="AW65" s="43"/>
       <c r="AX65" s="43"/>
       <c r="AY65" s="43"/>
       <c r="AZ65" s="43"/>
-      <c r="BA65" s="156"/>
+      <c r="BA65" s="153"/>
       <c r="BB65" s="70"/>
       <c r="BC65" s="70"/>
       <c r="BD65" s="43"/>
       <c r="BE65" s="43"/>
       <c r="BF65" s="43"/>
       <c r="BG65" s="43"/>
-      <c r="BH65" s="156"/>
+      <c r="BH65" s="153"/>
       <c r="BI65" s="70"/>
       <c r="BJ65" s="70"/>
       <c r="BK65" s="43"/>
@@ -12746,21 +12743,21 @@
       <c r="DK65" s="47"/>
     </row>
     <row r="66" spans="2:115">
-      <c r="B66" s="281"/>
-      <c r="C66" s="295"/>
+      <c r="B66" s="275"/>
+      <c r="C66" s="286"/>
       <c r="D66" s="15"/>
       <c r="E66" s="22"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="245"/>
-      <c r="H66" s="235"/>
-      <c r="I66" s="235"/>
-      <c r="J66" s="235"/>
-      <c r="K66" s="235"/>
-      <c r="L66" s="237"/>
-      <c r="M66" s="237"/>
-      <c r="N66" s="236"/>
-      <c r="O66" s="56"/>
-      <c r="P66" s="56"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="242"/>
+      <c r="H66" s="232"/>
+      <c r="I66" s="232"/>
+      <c r="J66" s="232"/>
+      <c r="K66" s="232"/>
+      <c r="L66" s="234"/>
+      <c r="M66" s="234"/>
+      <c r="N66" s="233"/>
+      <c r="O66" s="233"/>
+      <c r="P66" s="233"/>
       <c r="Q66" s="56"/>
       <c r="R66" s="56"/>
       <c r="S66" s="73"/>
@@ -12790,21 +12787,21 @@
       <c r="AQ66" s="56"/>
       <c r="AR66" s="56"/>
       <c r="AS66" s="56"/>
-      <c r="AT66" s="157"/>
+      <c r="AT66" s="154"/>
       <c r="AU66" s="73"/>
       <c r="AV66" s="73"/>
       <c r="AW66" s="56"/>
       <c r="AX66" s="56"/>
       <c r="AY66" s="56"/>
       <c r="AZ66" s="56"/>
-      <c r="BA66" s="157"/>
+      <c r="BA66" s="154"/>
       <c r="BB66" s="73"/>
       <c r="BC66" s="73"/>
       <c r="BD66" s="56"/>
       <c r="BE66" s="56"/>
       <c r="BF66" s="56"/>
       <c r="BG66" s="56"/>
-      <c r="BH66" s="157"/>
+      <c r="BH66" s="154"/>
       <c r="BI66" s="73"/>
       <c r="BJ66" s="73"/>
       <c r="BK66" s="56"/>
@@ -12862,8 +12859,8 @@
       <c r="DK66" s="61"/>
     </row>
     <row r="67" spans="2:115">
-      <c r="B67" s="281"/>
-      <c r="C67" s="295" t="s">
+      <c r="B67" s="275"/>
+      <c r="C67" s="286" t="s">
         <v>48</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -12872,17 +12869,17 @@
       <c r="E67" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F67" s="85"/>
-      <c r="G67" s="250"/>
-      <c r="H67" s="230"/>
-      <c r="I67" s="230"/>
-      <c r="J67" s="230"/>
-      <c r="K67" s="230"/>
-      <c r="L67" s="232"/>
-      <c r="M67" s="232"/>
-      <c r="N67" s="231"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="63"/>
+      <c r="F67" s="82"/>
+      <c r="G67" s="247"/>
+      <c r="H67" s="227"/>
+      <c r="I67" s="227"/>
+      <c r="J67" s="227"/>
+      <c r="K67" s="227"/>
+      <c r="L67" s="229"/>
+      <c r="M67" s="229"/>
+      <c r="N67" s="228"/>
+      <c r="O67" s="228"/>
+      <c r="P67" s="228"/>
       <c r="Q67" s="63"/>
       <c r="R67" s="63"/>
       <c r="S67" s="72"/>
@@ -12912,21 +12909,21 @@
       <c r="AQ67" s="63"/>
       <c r="AR67" s="63"/>
       <c r="AS67" s="63"/>
-      <c r="AT67" s="158"/>
+      <c r="AT67" s="155"/>
       <c r="AU67" s="72"/>
       <c r="AV67" s="72"/>
       <c r="AW67" s="63"/>
       <c r="AX67" s="63"/>
       <c r="AY67" s="63"/>
       <c r="AZ67" s="63"/>
-      <c r="BA67" s="158"/>
+      <c r="BA67" s="155"/>
       <c r="BB67" s="72"/>
       <c r="BC67" s="72"/>
       <c r="BD67" s="63"/>
       <c r="BE67" s="63"/>
       <c r="BF67" s="63"/>
       <c r="BG67" s="63"/>
-      <c r="BH67" s="158"/>
+      <c r="BH67" s="155"/>
       <c r="BI67" s="72"/>
       <c r="BJ67" s="72"/>
       <c r="BK67" s="63"/>
@@ -12984,21 +12981,21 @@
       <c r="DK67" s="67"/>
     </row>
     <row r="68" spans="2:115">
-      <c r="B68" s="281"/>
-      <c r="C68" s="296"/>
+      <c r="B68" s="275"/>
+      <c r="C68" s="287"/>
       <c r="D68" s="16"/>
       <c r="E68" s="24"/>
-      <c r="F68" s="86"/>
-      <c r="G68" s="245"/>
-      <c r="H68" s="235"/>
-      <c r="I68" s="235"/>
-      <c r="J68" s="235"/>
-      <c r="K68" s="235"/>
-      <c r="L68" s="237"/>
-      <c r="M68" s="237"/>
-      <c r="N68" s="236"/>
-      <c r="O68" s="56"/>
-      <c r="P68" s="56"/>
+      <c r="F68" s="83"/>
+      <c r="G68" s="242"/>
+      <c r="H68" s="232"/>
+      <c r="I68" s="232"/>
+      <c r="J68" s="232"/>
+      <c r="K68" s="232"/>
+      <c r="L68" s="234"/>
+      <c r="M68" s="234"/>
+      <c r="N68" s="233"/>
+      <c r="O68" s="233"/>
+      <c r="P68" s="233"/>
       <c r="Q68" s="56"/>
       <c r="R68" s="56"/>
       <c r="S68" s="73"/>
@@ -13028,21 +13025,21 @@
       <c r="AQ68" s="56"/>
       <c r="AR68" s="56"/>
       <c r="AS68" s="56"/>
-      <c r="AT68" s="157"/>
+      <c r="AT68" s="154"/>
       <c r="AU68" s="73"/>
       <c r="AV68" s="73"/>
       <c r="AW68" s="56"/>
       <c r="AX68" s="56"/>
       <c r="AY68" s="56"/>
       <c r="AZ68" s="56"/>
-      <c r="BA68" s="157"/>
+      <c r="BA68" s="154"/>
       <c r="BB68" s="73"/>
       <c r="BC68" s="73"/>
       <c r="BD68" s="56"/>
       <c r="BE68" s="56"/>
       <c r="BF68" s="56"/>
       <c r="BG68" s="56"/>
-      <c r="BH68" s="157"/>
+      <c r="BH68" s="154"/>
       <c r="BI68" s="73"/>
       <c r="BJ68" s="73"/>
       <c r="BK68" s="56"/>
@@ -13100,21 +13097,21 @@
       <c r="DK68" s="61"/>
     </row>
     <row r="69" spans="2:115">
-      <c r="B69" s="281"/>
-      <c r="C69" s="278"/>
+      <c r="B69" s="275"/>
+      <c r="C69" s="288"/>
       <c r="D69" s="14"/>
       <c r="E69" s="23"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="250"/>
-      <c r="H69" s="230"/>
-      <c r="I69" s="230"/>
-      <c r="J69" s="231"/>
-      <c r="K69" s="230"/>
-      <c r="L69" s="232"/>
-      <c r="M69" s="232"/>
-      <c r="N69" s="230"/>
-      <c r="O69" s="62"/>
-      <c r="P69" s="62"/>
+      <c r="F69" s="82"/>
+      <c r="G69" s="247"/>
+      <c r="H69" s="227"/>
+      <c r="I69" s="227"/>
+      <c r="J69" s="228"/>
+      <c r="K69" s="227"/>
+      <c r="L69" s="229"/>
+      <c r="M69" s="229"/>
+      <c r="N69" s="227"/>
+      <c r="O69" s="227"/>
+      <c r="P69" s="227"/>
       <c r="Q69" s="62"/>
       <c r="R69" s="62"/>
       <c r="S69" s="72"/>
@@ -13144,21 +13141,21 @@
       <c r="AQ69" s="62"/>
       <c r="AR69" s="62"/>
       <c r="AS69" s="62"/>
-      <c r="AT69" s="154"/>
+      <c r="AT69" s="151"/>
       <c r="AU69" s="72"/>
       <c r="AV69" s="72"/>
       <c r="AW69" s="62"/>
       <c r="AX69" s="62"/>
       <c r="AY69" s="62"/>
       <c r="AZ69" s="62"/>
-      <c r="BA69" s="154"/>
+      <c r="BA69" s="151"/>
       <c r="BB69" s="72"/>
       <c r="BC69" s="72"/>
       <c r="BD69" s="62"/>
       <c r="BE69" s="62"/>
       <c r="BF69" s="62"/>
       <c r="BG69" s="62"/>
-      <c r="BH69" s="154"/>
+      <c r="BH69" s="151"/>
       <c r="BI69" s="72"/>
       <c r="BJ69" s="72"/>
       <c r="BK69" s="62"/>
@@ -13216,21 +13213,21 @@
       <c r="DK69" s="67"/>
     </row>
     <row r="70" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B70" s="282"/>
-      <c r="C70" s="278"/>
+      <c r="B70" s="284"/>
+      <c r="C70" s="288"/>
       <c r="D70" s="15"/>
       <c r="E70" s="22"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="247"/>
-      <c r="H70" s="206"/>
-      <c r="I70" s="206"/>
-      <c r="J70" s="248"/>
-      <c r="K70" s="248"/>
-      <c r="L70" s="240"/>
-      <c r="M70" s="240"/>
-      <c r="N70" s="206"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="244"/>
+      <c r="H70" s="203"/>
+      <c r="I70" s="203"/>
+      <c r="J70" s="245"/>
+      <c r="K70" s="245"/>
+      <c r="L70" s="237"/>
+      <c r="M70" s="237"/>
+      <c r="N70" s="203"/>
+      <c r="O70" s="203"/>
+      <c r="P70" s="203"/>
       <c r="Q70" s="32"/>
       <c r="R70" s="32"/>
       <c r="S70" s="69"/>
@@ -13260,21 +13257,21 @@
       <c r="AQ70" s="32"/>
       <c r="AR70" s="32"/>
       <c r="AS70" s="32"/>
-      <c r="AT70" s="151"/>
+      <c r="AT70" s="148"/>
       <c r="AU70" s="69"/>
       <c r="AV70" s="69"/>
       <c r="AW70" s="32"/>
       <c r="AX70" s="32"/>
       <c r="AY70" s="32"/>
       <c r="AZ70" s="32"/>
-      <c r="BA70" s="151"/>
+      <c r="BA70" s="148"/>
       <c r="BB70" s="69"/>
       <c r="BC70" s="69"/>
       <c r="BD70" s="32"/>
       <c r="BE70" s="32"/>
       <c r="BF70" s="32"/>
       <c r="BG70" s="32"/>
-      <c r="BH70" s="151"/>
+      <c r="BH70" s="148"/>
       <c r="BI70" s="69"/>
       <c r="BJ70" s="69"/>
       <c r="BK70" s="32"/>
@@ -13332,27 +13329,27 @@
       <c r="DK70" s="36"/>
     </row>
     <row r="71" spans="2:115">
-      <c r="B71" s="280" t="s">
+      <c r="B71" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="294" t="s">
+      <c r="C71" s="285" t="s">
         <v>50</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F71" s="83"/>
-      <c r="G71" s="249"/>
-      <c r="H71" s="212"/>
-      <c r="I71" s="212"/>
-      <c r="J71" s="212"/>
-      <c r="K71" s="212"/>
-      <c r="L71" s="243"/>
-      <c r="M71" s="243"/>
-      <c r="N71" s="242"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="246"/>
+      <c r="H71" s="209"/>
+      <c r="I71" s="209"/>
+      <c r="J71" s="209"/>
+      <c r="K71" s="209"/>
+      <c r="L71" s="240"/>
+      <c r="M71" s="240"/>
+      <c r="N71" s="239"/>
+      <c r="O71" s="239"/>
+      <c r="P71" s="239"/>
       <c r="Q71" s="43"/>
       <c r="R71" s="43"/>
       <c r="S71" s="70"/>
@@ -13382,21 +13379,21 @@
       <c r="AQ71" s="43"/>
       <c r="AR71" s="43"/>
       <c r="AS71" s="43"/>
-      <c r="AT71" s="156"/>
+      <c r="AT71" s="153"/>
       <c r="AU71" s="70"/>
       <c r="AV71" s="70"/>
       <c r="AW71" s="43"/>
       <c r="AX71" s="43"/>
       <c r="AY71" s="43"/>
       <c r="AZ71" s="43"/>
-      <c r="BA71" s="156"/>
+      <c r="BA71" s="153"/>
       <c r="BB71" s="70"/>
       <c r="BC71" s="70"/>
       <c r="BD71" s="43"/>
       <c r="BE71" s="43"/>
       <c r="BF71" s="43"/>
       <c r="BG71" s="43"/>
-      <c r="BH71" s="156"/>
+      <c r="BH71" s="153"/>
       <c r="BI71" s="70"/>
       <c r="BJ71" s="70"/>
       <c r="BK71" s="43"/>
@@ -13454,21 +13451,21 @@
       <c r="DK71" s="47"/>
     </row>
     <row r="72" spans="2:115">
-      <c r="B72" s="281"/>
-      <c r="C72" s="295"/>
+      <c r="B72" s="275"/>
+      <c r="C72" s="286"/>
       <c r="D72" s="15"/>
       <c r="E72" s="22"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="246"/>
-      <c r="H72" s="219"/>
-      <c r="I72" s="219"/>
-      <c r="J72" s="219"/>
-      <c r="K72" s="219"/>
-      <c r="L72" s="233"/>
-      <c r="M72" s="233"/>
-      <c r="N72" s="239"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="54"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="243"/>
+      <c r="H72" s="216"/>
+      <c r="I72" s="216"/>
+      <c r="J72" s="216"/>
+      <c r="K72" s="216"/>
+      <c r="L72" s="230"/>
+      <c r="M72" s="230"/>
+      <c r="N72" s="236"/>
+      <c r="O72" s="236"/>
+      <c r="P72" s="236"/>
       <c r="Q72" s="54"/>
       <c r="R72" s="54"/>
       <c r="S72" s="71"/>
@@ -13498,21 +13495,21 @@
       <c r="AQ72" s="54"/>
       <c r="AR72" s="54"/>
       <c r="AS72" s="54"/>
-      <c r="AT72" s="159"/>
+      <c r="AT72" s="156"/>
       <c r="AU72" s="71"/>
       <c r="AV72" s="71"/>
       <c r="AW72" s="54"/>
       <c r="AX72" s="54"/>
       <c r="AY72" s="54"/>
       <c r="AZ72" s="54"/>
-      <c r="BA72" s="159"/>
+      <c r="BA72" s="156"/>
       <c r="BB72" s="71"/>
       <c r="BC72" s="71"/>
       <c r="BD72" s="54"/>
       <c r="BE72" s="54"/>
       <c r="BF72" s="54"/>
       <c r="BG72" s="54"/>
-      <c r="BH72" s="159"/>
+      <c r="BH72" s="156"/>
       <c r="BI72" s="71"/>
       <c r="BJ72" s="71"/>
       <c r="BK72" s="54"/>
@@ -13570,25 +13567,25 @@
       <c r="DK72" s="52"/>
     </row>
     <row r="73" spans="2:115">
-      <c r="B73" s="281"/>
-      <c r="C73" s="295" t="s">
+      <c r="B73" s="275"/>
+      <c r="C73" s="286" t="s">
         <v>53</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F73" s="85"/>
-      <c r="G73" s="250"/>
-      <c r="H73" s="230"/>
-      <c r="I73" s="230"/>
-      <c r="J73" s="230"/>
-      <c r="K73" s="230"/>
-      <c r="L73" s="232"/>
-      <c r="M73" s="232"/>
-      <c r="N73" s="231"/>
-      <c r="O73" s="63"/>
-      <c r="P73" s="63"/>
+      <c r="F73" s="82"/>
+      <c r="G73" s="247"/>
+      <c r="H73" s="227"/>
+      <c r="I73" s="227"/>
+      <c r="J73" s="227"/>
+      <c r="K73" s="227"/>
+      <c r="L73" s="229"/>
+      <c r="M73" s="229"/>
+      <c r="N73" s="228"/>
+      <c r="O73" s="228"/>
+      <c r="P73" s="228"/>
       <c r="Q73" s="63"/>
       <c r="R73" s="63"/>
       <c r="S73" s="72"/>
@@ -13600,11 +13597,11 @@
       <c r="Y73" s="63"/>
       <c r="Z73" s="72"/>
       <c r="AA73" s="72"/>
-      <c r="AB73" s="99"/>
-      <c r="AC73" s="99"/>
-      <c r="AD73" s="99"/>
-      <c r="AE73" s="99"/>
-      <c r="AF73" s="99"/>
+      <c r="AB73" s="96"/>
+      <c r="AC73" s="96"/>
+      <c r="AD73" s="96"/>
+      <c r="AE73" s="96"/>
+      <c r="AF73" s="96"/>
       <c r="AG73" s="72"/>
       <c r="AH73" s="72"/>
       <c r="AI73" s="63"/>
@@ -13618,21 +13615,21 @@
       <c r="AQ73" s="63"/>
       <c r="AR73" s="63"/>
       <c r="AS73" s="63"/>
-      <c r="AT73" s="158"/>
+      <c r="AT73" s="155"/>
       <c r="AU73" s="72"/>
       <c r="AV73" s="72"/>
       <c r="AW73" s="63"/>
       <c r="AX73" s="63"/>
       <c r="AY73" s="63"/>
       <c r="AZ73" s="63"/>
-      <c r="BA73" s="158"/>
+      <c r="BA73" s="155"/>
       <c r="BB73" s="72"/>
       <c r="BC73" s="72"/>
       <c r="BD73" s="63"/>
       <c r="BE73" s="63"/>
       <c r="BF73" s="63"/>
       <c r="BG73" s="63"/>
-      <c r="BH73" s="158"/>
+      <c r="BH73" s="155"/>
       <c r="BI73" s="72"/>
       <c r="BJ73" s="72"/>
       <c r="BK73" s="63"/>
@@ -13690,21 +13687,21 @@
       <c r="DK73" s="67"/>
     </row>
     <row r="74" spans="2:115">
-      <c r="B74" s="281"/>
-      <c r="C74" s="296"/>
+      <c r="B74" s="275"/>
+      <c r="C74" s="287"/>
       <c r="D74" s="16"/>
       <c r="E74" s="24"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="245"/>
-      <c r="H74" s="235"/>
-      <c r="I74" s="235"/>
-      <c r="J74" s="235"/>
-      <c r="K74" s="235"/>
-      <c r="L74" s="237"/>
-      <c r="M74" s="237"/>
-      <c r="N74" s="236"/>
-      <c r="O74" s="56"/>
-      <c r="P74" s="56"/>
+      <c r="F74" s="83"/>
+      <c r="G74" s="242"/>
+      <c r="H74" s="232"/>
+      <c r="I74" s="232"/>
+      <c r="J74" s="232"/>
+      <c r="K74" s="232"/>
+      <c r="L74" s="234"/>
+      <c r="M74" s="234"/>
+      <c r="N74" s="233"/>
+      <c r="O74" s="233"/>
+      <c r="P74" s="233"/>
       <c r="Q74" s="56"/>
       <c r="R74" s="56"/>
       <c r="S74" s="73"/>
@@ -13734,21 +13731,21 @@
       <c r="AQ74" s="56"/>
       <c r="AR74" s="56"/>
       <c r="AS74" s="56"/>
-      <c r="AT74" s="157"/>
+      <c r="AT74" s="154"/>
       <c r="AU74" s="73"/>
       <c r="AV74" s="73"/>
       <c r="AW74" s="56"/>
       <c r="AX74" s="56"/>
       <c r="AY74" s="56"/>
       <c r="AZ74" s="56"/>
-      <c r="BA74" s="157"/>
+      <c r="BA74" s="154"/>
       <c r="BB74" s="73"/>
       <c r="BC74" s="73"/>
       <c r="BD74" s="56"/>
       <c r="BE74" s="56"/>
       <c r="BF74" s="56"/>
       <c r="BG74" s="56"/>
-      <c r="BH74" s="157"/>
+      <c r="BH74" s="154"/>
       <c r="BI74" s="73"/>
       <c r="BJ74" s="73"/>
       <c r="BK74" s="56"/>
@@ -13806,21 +13803,21 @@
       <c r="DK74" s="61"/>
     </row>
     <row r="75" spans="2:115">
-      <c r="B75" s="281"/>
-      <c r="C75" s="278"/>
+      <c r="B75" s="275"/>
+      <c r="C75" s="288"/>
       <c r="D75" s="14"/>
       <c r="E75" s="23"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="246"/>
-      <c r="H75" s="219"/>
-      <c r="I75" s="219"/>
-      <c r="J75" s="239"/>
-      <c r="K75" s="219"/>
-      <c r="L75" s="233"/>
-      <c r="M75" s="233"/>
-      <c r="N75" s="219"/>
-      <c r="O75" s="48"/>
-      <c r="P75" s="48"/>
+      <c r="F75" s="82"/>
+      <c r="G75" s="243"/>
+      <c r="H75" s="216"/>
+      <c r="I75" s="216"/>
+      <c r="J75" s="236"/>
+      <c r="K75" s="216"/>
+      <c r="L75" s="230"/>
+      <c r="M75" s="230"/>
+      <c r="N75" s="216"/>
+      <c r="O75" s="216"/>
+      <c r="P75" s="216"/>
       <c r="Q75" s="48"/>
       <c r="R75" s="48"/>
       <c r="S75" s="71"/>
@@ -13850,21 +13847,21 @@
       <c r="AQ75" s="48"/>
       <c r="AR75" s="48"/>
       <c r="AS75" s="48"/>
-      <c r="AT75" s="153"/>
+      <c r="AT75" s="150"/>
       <c r="AU75" s="71"/>
       <c r="AV75" s="71"/>
       <c r="AW75" s="48"/>
       <c r="AX75" s="48"/>
       <c r="AY75" s="48"/>
       <c r="AZ75" s="48"/>
-      <c r="BA75" s="153"/>
+      <c r="BA75" s="150"/>
       <c r="BB75" s="71"/>
       <c r="BC75" s="71"/>
       <c r="BD75" s="48"/>
       <c r="BE75" s="48"/>
       <c r="BF75" s="48"/>
       <c r="BG75" s="48"/>
-      <c r="BH75" s="153"/>
+      <c r="BH75" s="150"/>
       <c r="BI75" s="71"/>
       <c r="BJ75" s="71"/>
       <c r="BK75" s="48"/>
@@ -13922,21 +13919,21 @@
       <c r="DK75" s="52"/>
     </row>
     <row r="76" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B76" s="282"/>
-      <c r="C76" s="297"/>
+      <c r="B76" s="284"/>
+      <c r="C76" s="289"/>
       <c r="D76" s="25"/>
       <c r="E76" s="26"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="247"/>
-      <c r="H76" s="206"/>
-      <c r="I76" s="206"/>
-      <c r="J76" s="248"/>
-      <c r="K76" s="248"/>
-      <c r="L76" s="240"/>
-      <c r="M76" s="240"/>
-      <c r="N76" s="206"/>
-      <c r="O76" s="32"/>
-      <c r="P76" s="32"/>
+      <c r="F76" s="84"/>
+      <c r="G76" s="244"/>
+      <c r="H76" s="203"/>
+      <c r="I76" s="203"/>
+      <c r="J76" s="245"/>
+      <c r="K76" s="245"/>
+      <c r="L76" s="237"/>
+      <c r="M76" s="237"/>
+      <c r="N76" s="203"/>
+      <c r="O76" s="203"/>
+      <c r="P76" s="203"/>
       <c r="Q76" s="32"/>
       <c r="R76" s="32"/>
       <c r="S76" s="69"/>
@@ -13966,21 +13963,21 @@
       <c r="AQ76" s="32"/>
       <c r="AR76" s="32"/>
       <c r="AS76" s="32"/>
-      <c r="AT76" s="151"/>
+      <c r="AT76" s="148"/>
       <c r="AU76" s="69"/>
       <c r="AV76" s="69"/>
       <c r="AW76" s="32"/>
       <c r="AX76" s="32"/>
       <c r="AY76" s="32"/>
       <c r="AZ76" s="32"/>
-      <c r="BA76" s="151"/>
+      <c r="BA76" s="148"/>
       <c r="BB76" s="69"/>
       <c r="BC76" s="69"/>
       <c r="BD76" s="32"/>
       <c r="BE76" s="32"/>
       <c r="BF76" s="32"/>
       <c r="BG76" s="32"/>
-      <c r="BH76" s="151"/>
+      <c r="BH76" s="148"/>
       <c r="BI76" s="69"/>
       <c r="BJ76" s="69"/>
       <c r="BK76" s="32"/>
@@ -14038,27 +14035,27 @@
       <c r="DK76" s="36"/>
     </row>
     <row r="77" spans="2:115">
-      <c r="B77" s="280" t="s">
+      <c r="B77" s="276" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="290" t="s">
+      <c r="C77" s="278" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="79"/>
-      <c r="G77" s="249"/>
-      <c r="H77" s="212"/>
-      <c r="I77" s="212"/>
-      <c r="J77" s="212"/>
-      <c r="K77" s="212"/>
-      <c r="L77" s="243"/>
-      <c r="M77" s="243"/>
-      <c r="N77" s="212"/>
-      <c r="O77" s="42"/>
-      <c r="P77" s="42"/>
+      <c r="F77" s="76"/>
+      <c r="G77" s="246"/>
+      <c r="H77" s="209"/>
+      <c r="I77" s="209"/>
+      <c r="J77" s="209"/>
+      <c r="K77" s="209"/>
+      <c r="L77" s="240"/>
+      <c r="M77" s="240"/>
+      <c r="N77" s="209"/>
+      <c r="O77" s="209"/>
+      <c r="P77" s="209"/>
       <c r="Q77" s="42"/>
       <c r="R77" s="42"/>
       <c r="S77" s="70"/>
@@ -14077,32 +14074,32 @@
       <c r="AF77" s="42"/>
       <c r="AG77" s="70"/>
       <c r="AH77" s="70"/>
-      <c r="AI77" s="129"/>
-      <c r="AJ77" s="129"/>
-      <c r="AK77" s="129"/>
-      <c r="AL77" s="129"/>
-      <c r="AM77" s="129"/>
+      <c r="AI77" s="126"/>
+      <c r="AJ77" s="126"/>
+      <c r="AK77" s="126"/>
+      <c r="AL77" s="126"/>
+      <c r="AM77" s="126"/>
       <c r="AN77" s="70"/>
       <c r="AO77" s="70"/>
       <c r="AP77" s="42"/>
       <c r="AQ77" s="42"/>
       <c r="AR77" s="42"/>
       <c r="AS77" s="42"/>
-      <c r="AT77" s="152"/>
+      <c r="AT77" s="149"/>
       <c r="AU77" s="70"/>
       <c r="AV77" s="70"/>
       <c r="AW77" s="42"/>
       <c r="AX77" s="42"/>
       <c r="AY77" s="42"/>
       <c r="AZ77" s="42"/>
-      <c r="BA77" s="152"/>
+      <c r="BA77" s="149"/>
       <c r="BB77" s="70"/>
       <c r="BC77" s="70"/>
       <c r="BD77" s="42"/>
       <c r="BE77" s="42"/>
       <c r="BF77" s="42"/>
       <c r="BG77" s="42"/>
-      <c r="BH77" s="152"/>
+      <c r="BH77" s="149"/>
       <c r="BI77" s="70"/>
       <c r="BJ77" s="70"/>
       <c r="BK77" s="42"/>
@@ -14160,23 +14157,23 @@
       <c r="DK77" s="47"/>
     </row>
     <row r="78" spans="2:115">
-      <c r="B78" s="281"/>
-      <c r="C78" s="291"/>
+      <c r="B78" s="275"/>
+      <c r="C78" s="279"/>
       <c r="D78" s="5"/>
       <c r="E78" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F78" s="78"/>
-      <c r="G78" s="246"/>
-      <c r="H78" s="219"/>
-      <c r="I78" s="219"/>
-      <c r="J78" s="219"/>
-      <c r="K78" s="219"/>
-      <c r="L78" s="233"/>
-      <c r="M78" s="233"/>
-      <c r="N78" s="219"/>
-      <c r="O78" s="48"/>
-      <c r="P78" s="48"/>
+      <c r="F78" s="75"/>
+      <c r="G78" s="243"/>
+      <c r="H78" s="216"/>
+      <c r="I78" s="216"/>
+      <c r="J78" s="216"/>
+      <c r="K78" s="216"/>
+      <c r="L78" s="230"/>
+      <c r="M78" s="230"/>
+      <c r="N78" s="216"/>
+      <c r="O78" s="216"/>
+      <c r="P78" s="216"/>
       <c r="Q78" s="48"/>
       <c r="R78" s="48"/>
       <c r="S78" s="71"/>
@@ -14195,32 +14192,32 @@
       <c r="AF78" s="48"/>
       <c r="AG78" s="71"/>
       <c r="AH78" s="71"/>
-      <c r="AI78" s="103"/>
-      <c r="AJ78" s="103"/>
-      <c r="AK78" s="103"/>
-      <c r="AL78" s="103"/>
-      <c r="AM78" s="103"/>
+      <c r="AI78" s="100"/>
+      <c r="AJ78" s="100"/>
+      <c r="AK78" s="100"/>
+      <c r="AL78" s="100"/>
+      <c r="AM78" s="100"/>
       <c r="AN78" s="71"/>
       <c r="AO78" s="71"/>
       <c r="AP78" s="48"/>
       <c r="AQ78" s="48"/>
       <c r="AR78" s="48"/>
       <c r="AS78" s="48"/>
-      <c r="AT78" s="153"/>
+      <c r="AT78" s="150"/>
       <c r="AU78" s="71"/>
       <c r="AV78" s="71"/>
       <c r="AW78" s="48"/>
       <c r="AX78" s="48"/>
       <c r="AY78" s="48"/>
       <c r="AZ78" s="48"/>
-      <c r="BA78" s="153"/>
+      <c r="BA78" s="150"/>
       <c r="BB78" s="71"/>
       <c r="BC78" s="71"/>
       <c r="BD78" s="48"/>
       <c r="BE78" s="48"/>
       <c r="BF78" s="48"/>
       <c r="BG78" s="48"/>
-      <c r="BH78" s="153"/>
+      <c r="BH78" s="150"/>
       <c r="BI78" s="71"/>
       <c r="BJ78" s="71"/>
       <c r="BK78" s="48"/>
@@ -14278,21 +14275,21 @@
       <c r="DK78" s="52"/>
     </row>
     <row r="79" spans="2:115">
-      <c r="B79" s="281"/>
-      <c r="C79" s="291"/>
+      <c r="B79" s="275"/>
+      <c r="C79" s="279"/>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
-      <c r="F79" s="78"/>
-      <c r="G79" s="246"/>
-      <c r="H79" s="219"/>
-      <c r="I79" s="219"/>
-      <c r="J79" s="219"/>
-      <c r="K79" s="219"/>
-      <c r="L79" s="233"/>
-      <c r="M79" s="233"/>
-      <c r="N79" s="219"/>
-      <c r="O79" s="48"/>
-      <c r="P79" s="48"/>
+      <c r="F79" s="75"/>
+      <c r="G79" s="243"/>
+      <c r="H79" s="216"/>
+      <c r="I79" s="216"/>
+      <c r="J79" s="216"/>
+      <c r="K79" s="216"/>
+      <c r="L79" s="230"/>
+      <c r="M79" s="230"/>
+      <c r="N79" s="216"/>
+      <c r="O79" s="216"/>
+      <c r="P79" s="216"/>
       <c r="Q79" s="48"/>
       <c r="R79" s="48"/>
       <c r="S79" s="71"/>
@@ -14322,21 +14319,21 @@
       <c r="AQ79" s="48"/>
       <c r="AR79" s="48"/>
       <c r="AS79" s="48"/>
-      <c r="AT79" s="153"/>
+      <c r="AT79" s="150"/>
       <c r="AU79" s="71"/>
       <c r="AV79" s="71"/>
       <c r="AW79" s="48"/>
       <c r="AX79" s="48"/>
       <c r="AY79" s="48"/>
       <c r="AZ79" s="48"/>
-      <c r="BA79" s="153"/>
+      <c r="BA79" s="150"/>
       <c r="BB79" s="71"/>
       <c r="BC79" s="71"/>
       <c r="BD79" s="48"/>
       <c r="BE79" s="48"/>
       <c r="BF79" s="48"/>
       <c r="BG79" s="48"/>
-      <c r="BH79" s="153"/>
+      <c r="BH79" s="150"/>
       <c r="BI79" s="71"/>
       <c r="BJ79" s="71"/>
       <c r="BK79" s="48"/>
@@ -14394,21 +14391,21 @@
       <c r="DK79" s="52"/>
     </row>
     <row r="80" spans="2:115">
-      <c r="B80" s="281"/>
-      <c r="C80" s="291"/>
+      <c r="B80" s="275"/>
+      <c r="C80" s="279"/>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="246"/>
-      <c r="H80" s="219"/>
-      <c r="I80" s="219"/>
-      <c r="J80" s="219"/>
-      <c r="K80" s="219"/>
-      <c r="L80" s="233"/>
-      <c r="M80" s="233"/>
-      <c r="N80" s="219"/>
-      <c r="O80" s="48"/>
-      <c r="P80" s="48"/>
+      <c r="F80" s="75"/>
+      <c r="G80" s="243"/>
+      <c r="H80" s="216"/>
+      <c r="I80" s="216"/>
+      <c r="J80" s="216"/>
+      <c r="K80" s="216"/>
+      <c r="L80" s="230"/>
+      <c r="M80" s="230"/>
+      <c r="N80" s="216"/>
+      <c r="O80" s="216"/>
+      <c r="P80" s="216"/>
       <c r="Q80" s="48"/>
       <c r="R80" s="48"/>
       <c r="S80" s="71"/>
@@ -14438,21 +14435,21 @@
       <c r="AQ80" s="48"/>
       <c r="AR80" s="48"/>
       <c r="AS80" s="48"/>
-      <c r="AT80" s="153"/>
+      <c r="AT80" s="150"/>
       <c r="AU80" s="71"/>
       <c r="AV80" s="71"/>
       <c r="AW80" s="48"/>
       <c r="AX80" s="48"/>
       <c r="AY80" s="48"/>
       <c r="AZ80" s="48"/>
-      <c r="BA80" s="153"/>
+      <c r="BA80" s="150"/>
       <c r="BB80" s="71"/>
       <c r="BC80" s="71"/>
       <c r="BD80" s="48"/>
       <c r="BE80" s="48"/>
       <c r="BF80" s="48"/>
       <c r="BG80" s="48"/>
-      <c r="BH80" s="153"/>
+      <c r="BH80" s="150"/>
       <c r="BI80" s="71"/>
       <c r="BJ80" s="71"/>
       <c r="BK80" s="48"/>
@@ -14510,21 +14507,21 @@
       <c r="DK80" s="52"/>
     </row>
     <row r="81" spans="2:116">
-      <c r="B81" s="281"/>
-      <c r="C81" s="291"/>
+      <c r="B81" s="275"/>
+      <c r="C81" s="279"/>
       <c r="D81" s="5"/>
       <c r="E81" s="6"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="245"/>
-      <c r="H81" s="235"/>
-      <c r="I81" s="235"/>
-      <c r="J81" s="235"/>
-      <c r="K81" s="235"/>
-      <c r="L81" s="237"/>
-      <c r="M81" s="237"/>
-      <c r="N81" s="235"/>
-      <c r="O81" s="57"/>
-      <c r="P81" s="57"/>
+      <c r="F81" s="75"/>
+      <c r="G81" s="242"/>
+      <c r="H81" s="232"/>
+      <c r="I81" s="232"/>
+      <c r="J81" s="232"/>
+      <c r="K81" s="232"/>
+      <c r="L81" s="234"/>
+      <c r="M81" s="234"/>
+      <c r="N81" s="232"/>
+      <c r="O81" s="232"/>
+      <c r="P81" s="232"/>
       <c r="Q81" s="57"/>
       <c r="R81" s="57"/>
       <c r="S81" s="73"/>
@@ -14554,21 +14551,21 @@
       <c r="AQ81" s="57"/>
       <c r="AR81" s="57"/>
       <c r="AS81" s="57"/>
-      <c r="AT81" s="155"/>
+      <c r="AT81" s="152"/>
       <c r="AU81" s="73"/>
       <c r="AV81" s="73"/>
       <c r="AW81" s="57"/>
       <c r="AX81" s="57"/>
       <c r="AY81" s="57"/>
       <c r="AZ81" s="57"/>
-      <c r="BA81" s="155"/>
+      <c r="BA81" s="152"/>
       <c r="BB81" s="73"/>
       <c r="BC81" s="73"/>
       <c r="BD81" s="57"/>
       <c r="BE81" s="57"/>
       <c r="BF81" s="57"/>
       <c r="BG81" s="57"/>
-      <c r="BH81" s="155"/>
+      <c r="BH81" s="152"/>
       <c r="BI81" s="73"/>
       <c r="BJ81" s="73"/>
       <c r="BK81" s="57"/>
@@ -14626,21 +14623,21 @@
       <c r="DK81" s="61"/>
     </row>
     <row r="82" spans="2:116">
-      <c r="B82" s="281"/>
-      <c r="C82" s="292"/>
+      <c r="B82" s="275"/>
+      <c r="C82" s="280"/>
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="250"/>
-      <c r="H82" s="230"/>
-      <c r="I82" s="230"/>
-      <c r="J82" s="230"/>
-      <c r="K82" s="230"/>
-      <c r="L82" s="232"/>
-      <c r="M82" s="232"/>
-      <c r="N82" s="230"/>
-      <c r="O82" s="62"/>
-      <c r="P82" s="62"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="247"/>
+      <c r="H82" s="227"/>
+      <c r="I82" s="227"/>
+      <c r="J82" s="227"/>
+      <c r="K82" s="227"/>
+      <c r="L82" s="229"/>
+      <c r="M82" s="229"/>
+      <c r="N82" s="227"/>
+      <c r="O82" s="227"/>
+      <c r="P82" s="227"/>
       <c r="Q82" s="62"/>
       <c r="R82" s="62"/>
       <c r="S82" s="72"/>
@@ -14670,21 +14667,21 @@
       <c r="AQ82" s="62"/>
       <c r="AR82" s="62"/>
       <c r="AS82" s="62"/>
-      <c r="AT82" s="154"/>
+      <c r="AT82" s="151"/>
       <c r="AU82" s="72"/>
       <c r="AV82" s="72"/>
       <c r="AW82" s="62"/>
       <c r="AX82" s="62"/>
       <c r="AY82" s="62"/>
       <c r="AZ82" s="62"/>
-      <c r="BA82" s="154"/>
+      <c r="BA82" s="151"/>
       <c r="BB82" s="72"/>
       <c r="BC82" s="72"/>
       <c r="BD82" s="62"/>
       <c r="BE82" s="62"/>
       <c r="BF82" s="62"/>
       <c r="BG82" s="62"/>
-      <c r="BH82" s="154"/>
+      <c r="BH82" s="151"/>
       <c r="BI82" s="72"/>
       <c r="BJ82" s="72"/>
       <c r="BK82" s="62"/>
@@ -14742,21 +14739,21 @@
       <c r="DK82" s="67"/>
     </row>
     <row r="83" spans="2:116">
-      <c r="B83" s="281"/>
-      <c r="C83" s="291"/>
+      <c r="B83" s="275"/>
+      <c r="C83" s="279"/>
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="246"/>
-      <c r="H83" s="219"/>
-      <c r="I83" s="219"/>
-      <c r="J83" s="219"/>
-      <c r="K83" s="219"/>
-      <c r="L83" s="233"/>
-      <c r="M83" s="233"/>
-      <c r="N83" s="219"/>
-      <c r="O83" s="48"/>
-      <c r="P83" s="48"/>
+      <c r="F83" s="75"/>
+      <c r="G83" s="243"/>
+      <c r="H83" s="216"/>
+      <c r="I83" s="216"/>
+      <c r="J83" s="216"/>
+      <c r="K83" s="216"/>
+      <c r="L83" s="230"/>
+      <c r="M83" s="230"/>
+      <c r="N83" s="216"/>
+      <c r="O83" s="216"/>
+      <c r="P83" s="216"/>
       <c r="Q83" s="48"/>
       <c r="R83" s="48"/>
       <c r="S83" s="71"/>
@@ -14786,21 +14783,21 @@
       <c r="AQ83" s="48"/>
       <c r="AR83" s="48"/>
       <c r="AS83" s="48"/>
-      <c r="AT83" s="153"/>
+      <c r="AT83" s="150"/>
       <c r="AU83" s="71"/>
       <c r="AV83" s="71"/>
       <c r="AW83" s="48"/>
       <c r="AX83" s="48"/>
       <c r="AY83" s="48"/>
       <c r="AZ83" s="48"/>
-      <c r="BA83" s="153"/>
+      <c r="BA83" s="150"/>
       <c r="BB83" s="71"/>
       <c r="BC83" s="71"/>
       <c r="BD83" s="48"/>
       <c r="BE83" s="48"/>
       <c r="BF83" s="48"/>
       <c r="BG83" s="48"/>
-      <c r="BH83" s="153"/>
+      <c r="BH83" s="150"/>
       <c r="BI83" s="71"/>
       <c r="BJ83" s="71"/>
       <c r="BK83" s="48"/>
@@ -14858,21 +14855,21 @@
       <c r="DK83" s="52"/>
     </row>
     <row r="84" spans="2:116">
-      <c r="B84" s="281"/>
-      <c r="C84" s="291"/>
+      <c r="B84" s="275"/>
+      <c r="C84" s="279"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="246"/>
-      <c r="H84" s="219"/>
-      <c r="I84" s="219"/>
-      <c r="J84" s="219"/>
-      <c r="K84" s="219"/>
-      <c r="L84" s="233"/>
-      <c r="M84" s="233"/>
-      <c r="N84" s="219"/>
-      <c r="O84" s="48"/>
-      <c r="P84" s="48"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="243"/>
+      <c r="H84" s="216"/>
+      <c r="I84" s="216"/>
+      <c r="J84" s="216"/>
+      <c r="K84" s="216"/>
+      <c r="L84" s="230"/>
+      <c r="M84" s="230"/>
+      <c r="N84" s="216"/>
+      <c r="O84" s="216"/>
+      <c r="P84" s="216"/>
       <c r="Q84" s="48"/>
       <c r="R84" s="48"/>
       <c r="S84" s="71"/>
@@ -14902,21 +14899,21 @@
       <c r="AQ84" s="48"/>
       <c r="AR84" s="48"/>
       <c r="AS84" s="48"/>
-      <c r="AT84" s="153"/>
+      <c r="AT84" s="150"/>
       <c r="AU84" s="71"/>
       <c r="AV84" s="71"/>
       <c r="AW84" s="48"/>
       <c r="AX84" s="48"/>
       <c r="AY84" s="48"/>
       <c r="AZ84" s="48"/>
-      <c r="BA84" s="153"/>
+      <c r="BA84" s="150"/>
       <c r="BB84" s="71"/>
       <c r="BC84" s="71"/>
       <c r="BD84" s="48"/>
       <c r="BE84" s="48"/>
       <c r="BF84" s="48"/>
       <c r="BG84" s="48"/>
-      <c r="BH84" s="153"/>
+      <c r="BH84" s="150"/>
       <c r="BI84" s="71"/>
       <c r="BJ84" s="71"/>
       <c r="BK84" s="48"/>
@@ -14974,21 +14971,21 @@
       <c r="DK84" s="52"/>
     </row>
     <row r="85" spans="2:116">
-      <c r="B85" s="281"/>
-      <c r="C85" s="291"/>
+      <c r="B85" s="275"/>
+      <c r="C85" s="279"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="246"/>
-      <c r="H85" s="219"/>
-      <c r="I85" s="219"/>
-      <c r="J85" s="219"/>
-      <c r="K85" s="219"/>
-      <c r="L85" s="233"/>
-      <c r="M85" s="233"/>
-      <c r="N85" s="219"/>
-      <c r="O85" s="48"/>
-      <c r="P85" s="48"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="243"/>
+      <c r="H85" s="216"/>
+      <c r="I85" s="216"/>
+      <c r="J85" s="216"/>
+      <c r="K85" s="216"/>
+      <c r="L85" s="230"/>
+      <c r="M85" s="230"/>
+      <c r="N85" s="216"/>
+      <c r="O85" s="216"/>
+      <c r="P85" s="216"/>
       <c r="Q85" s="48"/>
       <c r="R85" s="48"/>
       <c r="S85" s="71"/>
@@ -15018,21 +15015,21 @@
       <c r="AQ85" s="48"/>
       <c r="AR85" s="48"/>
       <c r="AS85" s="48"/>
-      <c r="AT85" s="153"/>
+      <c r="AT85" s="150"/>
       <c r="AU85" s="71"/>
       <c r="AV85" s="71"/>
       <c r="AW85" s="48"/>
       <c r="AX85" s="48"/>
       <c r="AY85" s="48"/>
       <c r="AZ85" s="48"/>
-      <c r="BA85" s="153"/>
+      <c r="BA85" s="150"/>
       <c r="BB85" s="71"/>
       <c r="BC85" s="71"/>
       <c r="BD85" s="48"/>
       <c r="BE85" s="48"/>
       <c r="BF85" s="48"/>
       <c r="BG85" s="48"/>
-      <c r="BH85" s="153"/>
+      <c r="BH85" s="150"/>
       <c r="BI85" s="71"/>
       <c r="BJ85" s="71"/>
       <c r="BK85" s="48"/>
@@ -15090,21 +15087,21 @@
       <c r="DK85" s="52"/>
     </row>
     <row r="86" spans="2:116">
-      <c r="B86" s="281"/>
-      <c r="C86" s="291"/>
+      <c r="B86" s="275"/>
+      <c r="C86" s="279"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="246"/>
-      <c r="H86" s="219"/>
-      <c r="I86" s="219"/>
-      <c r="J86" s="219"/>
-      <c r="K86" s="219"/>
-      <c r="L86" s="233"/>
-      <c r="M86" s="233"/>
-      <c r="N86" s="219"/>
-      <c r="O86" s="48"/>
-      <c r="P86" s="48"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="243"/>
+      <c r="H86" s="216"/>
+      <c r="I86" s="216"/>
+      <c r="J86" s="216"/>
+      <c r="K86" s="216"/>
+      <c r="L86" s="230"/>
+      <c r="M86" s="230"/>
+      <c r="N86" s="216"/>
+      <c r="O86" s="216"/>
+      <c r="P86" s="216"/>
       <c r="Q86" s="48"/>
       <c r="R86" s="48"/>
       <c r="S86" s="71"/>
@@ -15134,21 +15131,21 @@
       <c r="AQ86" s="48"/>
       <c r="AR86" s="48"/>
       <c r="AS86" s="48"/>
-      <c r="AT86" s="153"/>
+      <c r="AT86" s="150"/>
       <c r="AU86" s="71"/>
       <c r="AV86" s="71"/>
       <c r="AW86" s="48"/>
       <c r="AX86" s="48"/>
       <c r="AY86" s="48"/>
       <c r="AZ86" s="48"/>
-      <c r="BA86" s="153"/>
+      <c r="BA86" s="150"/>
       <c r="BB86" s="71"/>
       <c r="BC86" s="71"/>
       <c r="BD86" s="48"/>
       <c r="BE86" s="48"/>
       <c r="BF86" s="48"/>
       <c r="BG86" s="48"/>
-      <c r="BH86" s="153"/>
+      <c r="BH86" s="150"/>
       <c r="BI86" s="71"/>
       <c r="BJ86" s="71"/>
       <c r="BK86" s="48"/>
@@ -15206,21 +15203,21 @@
       <c r="DK86" s="52"/>
     </row>
     <row r="87" spans="2:116">
-      <c r="B87" s="281"/>
-      <c r="C87" s="287"/>
+      <c r="B87" s="275"/>
+      <c r="C87" s="281"/>
       <c r="D87" s="10"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="81"/>
-      <c r="G87" s="245"/>
-      <c r="H87" s="235"/>
-      <c r="I87" s="235"/>
-      <c r="J87" s="235"/>
-      <c r="K87" s="235"/>
-      <c r="L87" s="237"/>
-      <c r="M87" s="237"/>
-      <c r="N87" s="235"/>
-      <c r="O87" s="57"/>
-      <c r="P87" s="57"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="242"/>
+      <c r="H87" s="232"/>
+      <c r="I87" s="232"/>
+      <c r="J87" s="232"/>
+      <c r="K87" s="232"/>
+      <c r="L87" s="234"/>
+      <c r="M87" s="234"/>
+      <c r="N87" s="232"/>
+      <c r="O87" s="232"/>
+      <c r="P87" s="232"/>
       <c r="Q87" s="57"/>
       <c r="R87" s="57"/>
       <c r="S87" s="73"/>
@@ -15250,21 +15247,21 @@
       <c r="AQ87" s="57"/>
       <c r="AR87" s="57"/>
       <c r="AS87" s="57"/>
-      <c r="AT87" s="155"/>
+      <c r="AT87" s="152"/>
       <c r="AU87" s="73"/>
       <c r="AV87" s="73"/>
       <c r="AW87" s="57"/>
       <c r="AX87" s="57"/>
       <c r="AY87" s="57"/>
       <c r="AZ87" s="57"/>
-      <c r="BA87" s="155"/>
+      <c r="BA87" s="152"/>
       <c r="BB87" s="73"/>
       <c r="BC87" s="73"/>
       <c r="BD87" s="57"/>
       <c r="BE87" s="57"/>
       <c r="BF87" s="57"/>
       <c r="BG87" s="57"/>
-      <c r="BH87" s="155"/>
+      <c r="BH87" s="152"/>
       <c r="BI87" s="73"/>
       <c r="BJ87" s="73"/>
       <c r="BK87" s="57"/>
@@ -15322,21 +15319,21 @@
       <c r="DK87" s="61"/>
     </row>
     <row r="88" spans="2:116">
-      <c r="B88" s="281"/>
-      <c r="C88" s="292"/>
+      <c r="B88" s="275"/>
+      <c r="C88" s="280"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="80"/>
-      <c r="G88" s="246"/>
-      <c r="H88" s="219"/>
-      <c r="I88" s="219"/>
-      <c r="J88" s="219"/>
-      <c r="K88" s="219"/>
-      <c r="L88" s="233"/>
-      <c r="M88" s="233"/>
-      <c r="N88" s="219"/>
-      <c r="O88" s="48"/>
-      <c r="P88" s="48"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="243"/>
+      <c r="H88" s="216"/>
+      <c r="I88" s="216"/>
+      <c r="J88" s="216"/>
+      <c r="K88" s="216"/>
+      <c r="L88" s="230"/>
+      <c r="M88" s="230"/>
+      <c r="N88" s="216"/>
+      <c r="O88" s="216"/>
+      <c r="P88" s="216"/>
       <c r="Q88" s="48"/>
       <c r="R88" s="48"/>
       <c r="S88" s="71"/>
@@ -15366,21 +15363,21 @@
       <c r="AQ88" s="48"/>
       <c r="AR88" s="48"/>
       <c r="AS88" s="48"/>
-      <c r="AT88" s="153"/>
+      <c r="AT88" s="150"/>
       <c r="AU88" s="71"/>
       <c r="AV88" s="71"/>
       <c r="AW88" s="48"/>
       <c r="AX88" s="48"/>
       <c r="AY88" s="48"/>
       <c r="AZ88" s="48"/>
-      <c r="BA88" s="153"/>
+      <c r="BA88" s="150"/>
       <c r="BB88" s="71"/>
       <c r="BC88" s="71"/>
       <c r="BD88" s="48"/>
       <c r="BE88" s="48"/>
       <c r="BF88" s="48"/>
       <c r="BG88" s="48"/>
-      <c r="BH88" s="153"/>
+      <c r="BH88" s="150"/>
       <c r="BI88" s="71"/>
       <c r="BJ88" s="71"/>
       <c r="BK88" s="48"/>
@@ -15439,21 +15436,21 @@
       <c r="DL88" s="7"/>
     </row>
     <row r="89" spans="2:116">
-      <c r="B89" s="281"/>
-      <c r="C89" s="291"/>
+      <c r="B89" s="275"/>
+      <c r="C89" s="279"/>
       <c r="D89" s="15"/>
       <c r="E89" s="22"/>
-      <c r="F89" s="84"/>
-      <c r="G89" s="246"/>
-      <c r="H89" s="219"/>
-      <c r="I89" s="219"/>
-      <c r="J89" s="219"/>
-      <c r="K89" s="219"/>
-      <c r="L89" s="233"/>
-      <c r="M89" s="233"/>
-      <c r="N89" s="219"/>
-      <c r="O89" s="48"/>
-      <c r="P89" s="48"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="243"/>
+      <c r="H89" s="216"/>
+      <c r="I89" s="216"/>
+      <c r="J89" s="216"/>
+      <c r="K89" s="216"/>
+      <c r="L89" s="230"/>
+      <c r="M89" s="230"/>
+      <c r="N89" s="216"/>
+      <c r="O89" s="216"/>
+      <c r="P89" s="216"/>
       <c r="Q89" s="48"/>
       <c r="R89" s="48"/>
       <c r="S89" s="71"/>
@@ -15483,21 +15480,21 @@
       <c r="AQ89" s="48"/>
       <c r="AR89" s="48"/>
       <c r="AS89" s="48"/>
-      <c r="AT89" s="153"/>
+      <c r="AT89" s="150"/>
       <c r="AU89" s="71"/>
       <c r="AV89" s="71"/>
       <c r="AW89" s="48"/>
       <c r="AX89" s="48"/>
       <c r="AY89" s="48"/>
       <c r="AZ89" s="48"/>
-      <c r="BA89" s="153"/>
+      <c r="BA89" s="150"/>
       <c r="BB89" s="71"/>
       <c r="BC89" s="71"/>
       <c r="BD89" s="48"/>
       <c r="BE89" s="48"/>
       <c r="BF89" s="48"/>
       <c r="BG89" s="48"/>
-      <c r="BH89" s="153"/>
+      <c r="BH89" s="150"/>
       <c r="BI89" s="71"/>
       <c r="BJ89" s="71"/>
       <c r="BK89" s="48"/>
@@ -15556,21 +15553,21 @@
       <c r="DL89" s="7"/>
     </row>
     <row r="90" spans="2:116">
-      <c r="B90" s="281"/>
-      <c r="C90" s="291"/>
+      <c r="B90" s="275"/>
+      <c r="C90" s="279"/>
       <c r="D90" s="15"/>
       <c r="E90" s="22"/>
-      <c r="F90" s="84"/>
-      <c r="G90" s="246"/>
-      <c r="H90" s="219"/>
-      <c r="I90" s="219"/>
-      <c r="J90" s="219"/>
-      <c r="K90" s="219"/>
-      <c r="L90" s="233"/>
-      <c r="M90" s="233"/>
-      <c r="N90" s="219"/>
-      <c r="O90" s="48"/>
-      <c r="P90" s="48"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="243"/>
+      <c r="H90" s="216"/>
+      <c r="I90" s="216"/>
+      <c r="J90" s="216"/>
+      <c r="K90" s="216"/>
+      <c r="L90" s="230"/>
+      <c r="M90" s="230"/>
+      <c r="N90" s="216"/>
+      <c r="O90" s="216"/>
+      <c r="P90" s="216"/>
       <c r="Q90" s="48"/>
       <c r="R90" s="48"/>
       <c r="S90" s="71"/>
@@ -15600,21 +15597,21 @@
       <c r="AQ90" s="48"/>
       <c r="AR90" s="48"/>
       <c r="AS90" s="48"/>
-      <c r="AT90" s="153"/>
+      <c r="AT90" s="150"/>
       <c r="AU90" s="71"/>
       <c r="AV90" s="71"/>
       <c r="AW90" s="48"/>
       <c r="AX90" s="48"/>
       <c r="AY90" s="48"/>
       <c r="AZ90" s="48"/>
-      <c r="BA90" s="153"/>
+      <c r="BA90" s="150"/>
       <c r="BB90" s="71"/>
       <c r="BC90" s="71"/>
       <c r="BD90" s="48"/>
       <c r="BE90" s="48"/>
       <c r="BF90" s="48"/>
       <c r="BG90" s="48"/>
-      <c r="BH90" s="153"/>
+      <c r="BH90" s="150"/>
       <c r="BI90" s="71"/>
       <c r="BJ90" s="71"/>
       <c r="BK90" s="48"/>
@@ -15673,21 +15670,21 @@
       <c r="DL90" s="7"/>
     </row>
     <row r="91" spans="2:116">
-      <c r="B91" s="281"/>
-      <c r="C91" s="287"/>
+      <c r="B91" s="275"/>
+      <c r="C91" s="281"/>
       <c r="D91" s="16"/>
       <c r="E91" s="24"/>
-      <c r="F91" s="86"/>
-      <c r="G91" s="246"/>
-      <c r="H91" s="219"/>
-      <c r="I91" s="219"/>
-      <c r="J91" s="219"/>
-      <c r="K91" s="219"/>
-      <c r="L91" s="233"/>
-      <c r="M91" s="233"/>
-      <c r="N91" s="219"/>
-      <c r="O91" s="48"/>
-      <c r="P91" s="48"/>
+      <c r="F91" s="83"/>
+      <c r="G91" s="243"/>
+      <c r="H91" s="216"/>
+      <c r="I91" s="216"/>
+      <c r="J91" s="216"/>
+      <c r="K91" s="216"/>
+      <c r="L91" s="230"/>
+      <c r="M91" s="230"/>
+      <c r="N91" s="216"/>
+      <c r="O91" s="216"/>
+      <c r="P91" s="216"/>
       <c r="Q91" s="48"/>
       <c r="R91" s="48"/>
       <c r="S91" s="71"/>
@@ -15717,21 +15714,21 @@
       <c r="AQ91" s="48"/>
       <c r="AR91" s="48"/>
       <c r="AS91" s="48"/>
-      <c r="AT91" s="153"/>
+      <c r="AT91" s="150"/>
       <c r="AU91" s="71"/>
       <c r="AV91" s="71"/>
       <c r="AW91" s="48"/>
       <c r="AX91" s="48"/>
       <c r="AY91" s="48"/>
       <c r="AZ91" s="48"/>
-      <c r="BA91" s="153"/>
+      <c r="BA91" s="150"/>
       <c r="BB91" s="71"/>
       <c r="BC91" s="71"/>
       <c r="BD91" s="48"/>
       <c r="BE91" s="48"/>
       <c r="BF91" s="48"/>
       <c r="BG91" s="48"/>
-      <c r="BH91" s="153"/>
+      <c r="BH91" s="150"/>
       <c r="BI91" s="71"/>
       <c r="BJ91" s="71"/>
       <c r="BK91" s="48"/>
@@ -15790,21 +15787,21 @@
       <c r="DL91" s="7"/>
     </row>
     <row r="92" spans="2:116">
-      <c r="B92" s="281"/>
-      <c r="C92" s="279"/>
+      <c r="B92" s="275"/>
+      <c r="C92" s="282"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
-      <c r="F92" s="78"/>
-      <c r="G92" s="250"/>
-      <c r="H92" s="230"/>
-      <c r="I92" s="230"/>
-      <c r="J92" s="230"/>
-      <c r="K92" s="230"/>
-      <c r="L92" s="232"/>
-      <c r="M92" s="232"/>
-      <c r="N92" s="230"/>
-      <c r="O92" s="62"/>
-      <c r="P92" s="62"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="247"/>
+      <c r="H92" s="227"/>
+      <c r="I92" s="227"/>
+      <c r="J92" s="227"/>
+      <c r="K92" s="227"/>
+      <c r="L92" s="229"/>
+      <c r="M92" s="229"/>
+      <c r="N92" s="227"/>
+      <c r="O92" s="227"/>
+      <c r="P92" s="227"/>
       <c r="Q92" s="62"/>
       <c r="R92" s="62"/>
       <c r="S92" s="72"/>
@@ -15834,21 +15831,21 @@
       <c r="AQ92" s="62"/>
       <c r="AR92" s="62"/>
       <c r="AS92" s="62"/>
-      <c r="AT92" s="154"/>
+      <c r="AT92" s="151"/>
       <c r="AU92" s="72"/>
       <c r="AV92" s="72"/>
       <c r="AW92" s="62"/>
       <c r="AX92" s="62"/>
       <c r="AY92" s="62"/>
       <c r="AZ92" s="62"/>
-      <c r="BA92" s="154"/>
+      <c r="BA92" s="151"/>
       <c r="BB92" s="72"/>
       <c r="BC92" s="72"/>
       <c r="BD92" s="62"/>
       <c r="BE92" s="62"/>
       <c r="BF92" s="62"/>
       <c r="BG92" s="62"/>
-      <c r="BH92" s="154"/>
+      <c r="BH92" s="151"/>
       <c r="BI92" s="72"/>
       <c r="BJ92" s="72"/>
       <c r="BK92" s="62"/>
@@ -15906,21 +15903,21 @@
       <c r="DK92" s="67"/>
     </row>
     <row r="93" spans="2:116">
-      <c r="B93" s="281"/>
-      <c r="C93" s="279"/>
+      <c r="B93" s="275"/>
+      <c r="C93" s="282"/>
       <c r="D93" s="15"/>
       <c r="E93" s="6"/>
-      <c r="F93" s="78"/>
-      <c r="G93" s="246"/>
-      <c r="H93" s="219"/>
-      <c r="I93" s="219"/>
-      <c r="J93" s="219"/>
-      <c r="K93" s="219"/>
-      <c r="L93" s="233"/>
-      <c r="M93" s="233"/>
-      <c r="N93" s="219"/>
-      <c r="O93" s="48"/>
-      <c r="P93" s="48"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="243"/>
+      <c r="H93" s="216"/>
+      <c r="I93" s="216"/>
+      <c r="J93" s="216"/>
+      <c r="K93" s="216"/>
+      <c r="L93" s="230"/>
+      <c r="M93" s="230"/>
+      <c r="N93" s="216"/>
+      <c r="O93" s="216"/>
+      <c r="P93" s="216"/>
       <c r="Q93" s="48"/>
       <c r="R93" s="48"/>
       <c r="S93" s="71"/>
@@ -15950,21 +15947,21 @@
       <c r="AQ93" s="48"/>
       <c r="AR93" s="48"/>
       <c r="AS93" s="48"/>
-      <c r="AT93" s="153"/>
+      <c r="AT93" s="150"/>
       <c r="AU93" s="71"/>
       <c r="AV93" s="71"/>
       <c r="AW93" s="48"/>
       <c r="AX93" s="48"/>
       <c r="AY93" s="48"/>
       <c r="AZ93" s="48"/>
-      <c r="BA93" s="153"/>
+      <c r="BA93" s="150"/>
       <c r="BB93" s="71"/>
       <c r="BC93" s="71"/>
       <c r="BD93" s="48"/>
       <c r="BE93" s="48"/>
       <c r="BF93" s="48"/>
       <c r="BG93" s="48"/>
-      <c r="BH93" s="153"/>
+      <c r="BH93" s="150"/>
       <c r="BI93" s="71"/>
       <c r="BJ93" s="71"/>
       <c r="BK93" s="48"/>
@@ -16022,124 +16019,131 @@
       <c r="DK93" s="52"/>
     </row>
     <row r="94" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B94" s="289"/>
-      <c r="C94" s="293"/>
+      <c r="B94" s="277"/>
+      <c r="C94" s="283"/>
       <c r="D94" s="27"/>
       <c r="E94" s="28"/>
-      <c r="F94" s="88"/>
-      <c r="G94" s="251"/>
-      <c r="H94" s="252"/>
-      <c r="I94" s="252"/>
-      <c r="J94" s="252"/>
-      <c r="K94" s="252"/>
-      <c r="L94" s="253"/>
-      <c r="M94" s="253"/>
-      <c r="N94" s="252"/>
-      <c r="O94" s="89"/>
-      <c r="P94" s="89"/>
-      <c r="Q94" s="89"/>
-      <c r="R94" s="89"/>
-      <c r="S94" s="90"/>
-      <c r="T94" s="90"/>
-      <c r="U94" s="89"/>
-      <c r="V94" s="89"/>
-      <c r="W94" s="89"/>
-      <c r="X94" s="89"/>
-      <c r="Y94" s="89"/>
-      <c r="Z94" s="90"/>
-      <c r="AA94" s="90"/>
-      <c r="AB94" s="89"/>
-      <c r="AC94" s="89"/>
-      <c r="AD94" s="89"/>
-      <c r="AE94" s="89"/>
-      <c r="AF94" s="89"/>
-      <c r="AG94" s="90"/>
-      <c r="AH94" s="90"/>
-      <c r="AI94" s="89"/>
-      <c r="AJ94" s="89"/>
-      <c r="AK94" s="89"/>
-      <c r="AL94" s="89"/>
-      <c r="AM94" s="89"/>
-      <c r="AN94" s="90"/>
-      <c r="AO94" s="90"/>
-      <c r="AP94" s="89"/>
-      <c r="AQ94" s="89"/>
-      <c r="AR94" s="89"/>
-      <c r="AS94" s="89"/>
-      <c r="AT94" s="160"/>
-      <c r="AU94" s="90"/>
-      <c r="AV94" s="90"/>
-      <c r="AW94" s="89"/>
-      <c r="AX94" s="89"/>
-      <c r="AY94" s="89"/>
-      <c r="AZ94" s="89"/>
-      <c r="BA94" s="160"/>
-      <c r="BB94" s="90"/>
-      <c r="BC94" s="90"/>
-      <c r="BD94" s="89"/>
-      <c r="BE94" s="89"/>
-      <c r="BF94" s="89"/>
-      <c r="BG94" s="89"/>
-      <c r="BH94" s="160"/>
-      <c r="BI94" s="90"/>
-      <c r="BJ94" s="90"/>
-      <c r="BK94" s="89"/>
-      <c r="BL94" s="89"/>
-      <c r="BM94" s="89"/>
-      <c r="BN94" s="89"/>
-      <c r="BO94" s="89"/>
-      <c r="BP94" s="90"/>
-      <c r="BQ94" s="90"/>
-      <c r="BR94" s="89"/>
-      <c r="BS94" s="89"/>
-      <c r="BT94" s="89"/>
-      <c r="BU94" s="89"/>
-      <c r="BV94" s="89"/>
-      <c r="BW94" s="90"/>
-      <c r="BX94" s="90"/>
-      <c r="BY94" s="89"/>
-      <c r="BZ94" s="89"/>
-      <c r="CA94" s="89"/>
-      <c r="CB94" s="89"/>
-      <c r="CC94" s="89"/>
-      <c r="CD94" s="90"/>
-      <c r="CE94" s="90"/>
-      <c r="CF94" s="89"/>
-      <c r="CG94" s="89"/>
-      <c r="CH94" s="89"/>
-      <c r="CI94" s="89"/>
-      <c r="CJ94" s="89"/>
-      <c r="CK94" s="90"/>
-      <c r="CL94" s="90"/>
-      <c r="CM94" s="89"/>
-      <c r="CN94" s="89"/>
-      <c r="CO94" s="89"/>
-      <c r="CP94" s="89"/>
-      <c r="CQ94" s="89"/>
-      <c r="CR94" s="90"/>
-      <c r="CS94" s="90"/>
-      <c r="CT94" s="89"/>
-      <c r="CU94" s="89"/>
-      <c r="CV94" s="89"/>
-      <c r="CW94" s="89"/>
-      <c r="CX94" s="89"/>
-      <c r="CY94" s="90"/>
-      <c r="CZ94" s="90"/>
-      <c r="DA94" s="89"/>
-      <c r="DB94" s="89"/>
-      <c r="DC94" s="89"/>
-      <c r="DD94" s="89"/>
-      <c r="DE94" s="89"/>
-      <c r="DF94" s="90"/>
-      <c r="DG94" s="90"/>
-      <c r="DH94" s="91"/>
-      <c r="DI94" s="92"/>
-      <c r="DJ94" s="93"/>
-      <c r="DK94" s="94"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="248"/>
+      <c r="H94" s="249"/>
+      <c r="I94" s="249"/>
+      <c r="J94" s="249"/>
+      <c r="K94" s="249"/>
+      <c r="L94" s="250"/>
+      <c r="M94" s="250"/>
+      <c r="N94" s="249"/>
+      <c r="O94" s="249"/>
+      <c r="P94" s="249"/>
+      <c r="Q94" s="86"/>
+      <c r="R94" s="86"/>
+      <c r="S94" s="87"/>
+      <c r="T94" s="87"/>
+      <c r="U94" s="86"/>
+      <c r="V94" s="86"/>
+      <c r="W94" s="86"/>
+      <c r="X94" s="86"/>
+      <c r="Y94" s="86"/>
+      <c r="Z94" s="87"/>
+      <c r="AA94" s="87"/>
+      <c r="AB94" s="86"/>
+      <c r="AC94" s="86"/>
+      <c r="AD94" s="86"/>
+      <c r="AE94" s="86"/>
+      <c r="AF94" s="86"/>
+      <c r="AG94" s="87"/>
+      <c r="AH94" s="87"/>
+      <c r="AI94" s="86"/>
+      <c r="AJ94" s="86"/>
+      <c r="AK94" s="86"/>
+      <c r="AL94" s="86"/>
+      <c r="AM94" s="86"/>
+      <c r="AN94" s="87"/>
+      <c r="AO94" s="87"/>
+      <c r="AP94" s="86"/>
+      <c r="AQ94" s="86"/>
+      <c r="AR94" s="86"/>
+      <c r="AS94" s="86"/>
+      <c r="AT94" s="157"/>
+      <c r="AU94" s="87"/>
+      <c r="AV94" s="87"/>
+      <c r="AW94" s="86"/>
+      <c r="AX94" s="86"/>
+      <c r="AY94" s="86"/>
+      <c r="AZ94" s="86"/>
+      <c r="BA94" s="157"/>
+      <c r="BB94" s="87"/>
+      <c r="BC94" s="87"/>
+      <c r="BD94" s="86"/>
+      <c r="BE94" s="86"/>
+      <c r="BF94" s="86"/>
+      <c r="BG94" s="86"/>
+      <c r="BH94" s="157"/>
+      <c r="BI94" s="87"/>
+      <c r="BJ94" s="87"/>
+      <c r="BK94" s="86"/>
+      <c r="BL94" s="86"/>
+      <c r="BM94" s="86"/>
+      <c r="BN94" s="86"/>
+      <c r="BO94" s="86"/>
+      <c r="BP94" s="87"/>
+      <c r="BQ94" s="87"/>
+      <c r="BR94" s="86"/>
+      <c r="BS94" s="86"/>
+      <c r="BT94" s="86"/>
+      <c r="BU94" s="86"/>
+      <c r="BV94" s="86"/>
+      <c r="BW94" s="87"/>
+      <c r="BX94" s="87"/>
+      <c r="BY94" s="86"/>
+      <c r="BZ94" s="86"/>
+      <c r="CA94" s="86"/>
+      <c r="CB94" s="86"/>
+      <c r="CC94" s="86"/>
+      <c r="CD94" s="87"/>
+      <c r="CE94" s="87"/>
+      <c r="CF94" s="86"/>
+      <c r="CG94" s="86"/>
+      <c r="CH94" s="86"/>
+      <c r="CI94" s="86"/>
+      <c r="CJ94" s="86"/>
+      <c r="CK94" s="87"/>
+      <c r="CL94" s="87"/>
+      <c r="CM94" s="86"/>
+      <c r="CN94" s="86"/>
+      <c r="CO94" s="86"/>
+      <c r="CP94" s="86"/>
+      <c r="CQ94" s="86"/>
+      <c r="CR94" s="87"/>
+      <c r="CS94" s="87"/>
+      <c r="CT94" s="86"/>
+      <c r="CU94" s="86"/>
+      <c r="CV94" s="86"/>
+      <c r="CW94" s="86"/>
+      <c r="CX94" s="86"/>
+      <c r="CY94" s="87"/>
+      <c r="CZ94" s="87"/>
+      <c r="DA94" s="86"/>
+      <c r="DB94" s="86"/>
+      <c r="DC94" s="86"/>
+      <c r="DD94" s="86"/>
+      <c r="DE94" s="86"/>
+      <c r="DF94" s="87"/>
+      <c r="DG94" s="87"/>
+      <c r="DH94" s="88"/>
+      <c r="DI94" s="89"/>
+      <c r="DJ94" s="90"/>
+      <c r="DK94" s="91"/>
     </row>
     <row r="95" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="B20:B54"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C52:C54"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B77:B94"/>
     <mergeCell ref="C77:C81"/>
@@ -16156,13 +16160,6 @@
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="B55:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="B20:B54"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C52:C54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -3265,10 +3265,43 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="86" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3283,18 +3316,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3304,9 +3328,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3315,27 +3336,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4934,8 +4934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:DL95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6945,7 +6945,7 @@
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="275" t="s">
+      <c r="B18" s="280" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="251" t="s">
@@ -7071,7 +7071,7 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="275"/>
+      <c r="B19" s="280"/>
       <c r="C19" s="258" t="s">
         <v>10</v>
       </c>
@@ -7195,10 +7195,10 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="276" t="s">
+      <c r="B20" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="292" t="s">
+      <c r="C20" s="282" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="262" t="s">
@@ -7321,8 +7321,8 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="275"/>
-      <c r="C21" s="293"/>
+      <c r="B21" s="280"/>
+      <c r="C21" s="283"/>
       <c r="D21" s="262" t="s">
         <v>58</v>
       </c>
@@ -7443,8 +7443,8 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="275"/>
-      <c r="C22" s="293"/>
+      <c r="B22" s="280"/>
+      <c r="C22" s="283"/>
       <c r="D22" s="262" t="s">
         <v>56</v>
       </c>
@@ -7565,8 +7565,8 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="275"/>
-      <c r="C23" s="294"/>
+      <c r="B23" s="280"/>
+      <c r="C23" s="284"/>
       <c r="D23" s="262" t="s">
         <v>57</v>
       </c>
@@ -7687,8 +7687,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="275"/>
-      <c r="C24" s="295" t="s">
+      <c r="B24" s="280"/>
+      <c r="C24" s="285" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7811,8 +7811,8 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="275"/>
-      <c r="C25" s="295"/>
+      <c r="B25" s="280"/>
+      <c r="C25" s="285"/>
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
@@ -7933,8 +7933,8 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="275"/>
-      <c r="C26" s="295"/>
+      <c r="B26" s="280"/>
+      <c r="C26" s="285"/>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
@@ -8055,8 +8055,8 @@
       <c r="DK26" s="52"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="275"/>
-      <c r="C27" s="295"/>
+      <c r="B27" s="280"/>
+      <c r="C27" s="285"/>
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
@@ -8075,9 +8075,9 @@
       <c r="M27" s="230"/>
       <c r="N27" s="216"/>
       <c r="O27" s="216"/>
-      <c r="P27" s="205"/>
+      <c r="P27" s="216"/>
       <c r="Q27" s="126"/>
-      <c r="R27" s="48"/>
+      <c r="R27" s="126"/>
       <c r="S27" s="71"/>
       <c r="T27" s="71"/>
       <c r="U27" s="48"/>
@@ -8177,8 +8177,8 @@
       <c r="DK27" s="52"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="275"/>
-      <c r="C28" s="295"/>
+      <c r="B28" s="280"/>
+      <c r="C28" s="285"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
@@ -8197,9 +8197,9 @@
       <c r="M28" s="230"/>
       <c r="N28" s="216"/>
       <c r="O28" s="216"/>
-      <c r="P28" s="205"/>
+      <c r="P28" s="216"/>
       <c r="Q28" s="126"/>
-      <c r="R28" s="48"/>
+      <c r="R28" s="126"/>
       <c r="S28" s="71"/>
       <c r="T28" s="71"/>
       <c r="U28" s="48"/>
@@ -8299,8 +8299,8 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="275"/>
-      <c r="C29" s="295"/>
+      <c r="B29" s="280"/>
+      <c r="C29" s="285"/>
       <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
@@ -8319,9 +8319,9 @@
       <c r="M29" s="230"/>
       <c r="N29" s="216"/>
       <c r="O29" s="216"/>
-      <c r="P29" s="216"/>
+      <c r="P29" s="205"/>
       <c r="Q29" s="126"/>
-      <c r="R29" s="126"/>
+      <c r="R29" s="48"/>
       <c r="S29" s="71"/>
       <c r="T29" s="71"/>
       <c r="U29" s="48"/>
@@ -8421,8 +8421,8 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="275"/>
-      <c r="C30" s="295"/>
+      <c r="B30" s="280"/>
+      <c r="C30" s="285"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
@@ -8441,9 +8441,9 @@
       <c r="M30" s="230"/>
       <c r="N30" s="216"/>
       <c r="O30" s="216"/>
-      <c r="P30" s="216"/>
+      <c r="P30" s="205"/>
       <c r="Q30" s="126"/>
-      <c r="R30" s="126"/>
+      <c r="R30" s="48"/>
       <c r="S30" s="71"/>
       <c r="T30" s="71"/>
       <c r="U30" s="48"/>
@@ -8543,8 +8543,8 @@
       <c r="DK30" s="52"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="275"/>
-      <c r="C31" s="295"/>
+      <c r="B31" s="280"/>
+      <c r="C31" s="285"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
@@ -8665,8 +8665,8 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="275"/>
-      <c r="C32" s="295"/>
+      <c r="B32" s="280"/>
+      <c r="C32" s="285"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
@@ -8787,8 +8787,8 @@
       <c r="DK32" s="52"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="275"/>
-      <c r="C33" s="295"/>
+      <c r="B33" s="280"/>
+      <c r="C33" s="285"/>
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
@@ -8808,12 +8808,12 @@
       <c r="N33" s="216"/>
       <c r="O33" s="216"/>
       <c r="P33" s="216"/>
-      <c r="Q33" s="48"/>
+      <c r="Q33" s="126"/>
       <c r="R33" s="48"/>
       <c r="S33" s="71"/>
       <c r="T33" s="71"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="126"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
       <c r="W33" s="48"/>
       <c r="X33" s="48"/>
       <c r="Y33" s="48"/>
@@ -8909,8 +8909,8 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="275"/>
-      <c r="C34" s="295"/>
+      <c r="B34" s="280"/>
+      <c r="C34" s="285"/>
       <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
@@ -9031,8 +9031,8 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="275"/>
-      <c r="C35" s="295"/>
+      <c r="B35" s="280"/>
+      <c r="C35" s="285"/>
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
@@ -9153,8 +9153,8 @@
       <c r="DK35" s="52"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="275"/>
-      <c r="C36" s="295"/>
+      <c r="B36" s="280"/>
+      <c r="C36" s="285"/>
       <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
@@ -9275,8 +9275,8 @@
       <c r="DK36" s="52"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="275"/>
-      <c r="C37" s="295"/>
+      <c r="B37" s="280"/>
+      <c r="C37" s="285"/>
       <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
@@ -9397,8 +9397,8 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="275"/>
-      <c r="C38" s="295"/>
+      <c r="B38" s="280"/>
+      <c r="C38" s="285"/>
       <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
@@ -9519,8 +9519,8 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="275"/>
-      <c r="C39" s="295"/>
+      <c r="B39" s="280"/>
+      <c r="C39" s="285"/>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
@@ -9641,8 +9641,8 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="275"/>
-      <c r="C40" s="295"/>
+      <c r="B40" s="280"/>
+      <c r="C40" s="285"/>
       <c r="D40" s="5" t="s">
         <v>76</v>
       </c>
@@ -9763,8 +9763,8 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="275"/>
-      <c r="C41" s="295"/>
+      <c r="B41" s="280"/>
+      <c r="C41" s="285"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
@@ -9885,8 +9885,8 @@
       <c r="DK41" s="52"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="275"/>
-      <c r="C42" s="295"/>
+      <c r="B42" s="280"/>
+      <c r="C42" s="285"/>
       <c r="D42" s="5" t="s">
         <v>78</v>
       </c>
@@ -10007,8 +10007,8 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="275"/>
-      <c r="C43" s="295"/>
+      <c r="B43" s="280"/>
+      <c r="C43" s="285"/>
       <c r="D43" s="5" t="s">
         <v>79</v>
       </c>
@@ -10129,8 +10129,8 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="275"/>
-      <c r="C44" s="295"/>
+      <c r="B44" s="280"/>
+      <c r="C44" s="285"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="75"/>
@@ -10245,8 +10245,8 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="275"/>
-      <c r="C45" s="295"/>
+      <c r="B45" s="280"/>
+      <c r="C45" s="285"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="78"/>
@@ -10361,8 +10361,8 @@
       <c r="DK45" s="61"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="275"/>
-      <c r="C46" s="282" t="s">
+      <c r="B46" s="280"/>
+      <c r="C46" s="278" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="8"/>
@@ -10380,8 +10380,8 @@
       <c r="L46" s="229"/>
       <c r="M46" s="229"/>
       <c r="N46" s="274"/>
-      <c r="O46" s="297"/>
-      <c r="P46" s="297"/>
+      <c r="O46" s="275"/>
+      <c r="P46" s="275"/>
       <c r="Q46" s="100"/>
       <c r="R46" s="100"/>
       <c r="S46" s="99"/>
@@ -10483,8 +10483,8 @@
       <c r="DK46" s="67"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="275"/>
-      <c r="C47" s="282"/>
+      <c r="B47" s="280"/>
+      <c r="C47" s="278"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="75"/>
@@ -10599,8 +10599,8 @@
       <c r="DK47" s="52"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="275"/>
-      <c r="C48" s="282"/>
+      <c r="B48" s="280"/>
+      <c r="C48" s="278"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="78"/>
@@ -10715,8 +10715,8 @@
       <c r="DK48" s="61"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="275"/>
-      <c r="C49" s="280" t="s">
+      <c r="B49" s="280"/>
+      <c r="C49" s="291" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="8"/>
@@ -10837,8 +10837,8 @@
       <c r="DK49" s="67"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="275"/>
-      <c r="C50" s="279"/>
+      <c r="B50" s="280"/>
+      <c r="C50" s="290"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="75"/>
@@ -10953,8 +10953,8 @@
       <c r="DK50" s="52"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="275"/>
-      <c r="C51" s="281"/>
+      <c r="B51" s="280"/>
+      <c r="C51" s="286"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="78"/>
@@ -11069,8 +11069,8 @@
       <c r="DK51" s="61"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="275"/>
-      <c r="C52" s="281"/>
+      <c r="B52" s="280"/>
+      <c r="C52" s="286"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
       <c r="F52" s="175"/>
@@ -11185,8 +11185,8 @@
       <c r="DK52" s="52"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="275"/>
-      <c r="C53" s="295"/>
+      <c r="B53" s="280"/>
+      <c r="C53" s="285"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="75"/>
@@ -11301,8 +11301,8 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B54" s="284"/>
-      <c r="C54" s="296"/>
+      <c r="B54" s="281"/>
+      <c r="C54" s="287"/>
       <c r="D54" s="17"/>
       <c r="E54" s="13"/>
       <c r="F54" s="79"/>
@@ -11417,10 +11417,10 @@
       <c r="DK54" s="36"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="290" t="s">
+      <c r="B55" s="297" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="282" t="s">
+      <c r="C55" s="278" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -11440,8 +11440,8 @@
       <c r="L55" s="240"/>
       <c r="M55" s="240"/>
       <c r="N55" s="210"/>
-      <c r="O55" s="298"/>
-      <c r="P55" s="298"/>
+      <c r="O55" s="276"/>
+      <c r="P55" s="276"/>
       <c r="Q55" s="103"/>
       <c r="R55" s="103"/>
       <c r="S55" s="101"/>
@@ -11543,8 +11543,8 @@
       <c r="DK55" s="47"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="291"/>
-      <c r="C56" s="282"/>
+      <c r="B56" s="298"/>
+      <c r="C56" s="278"/>
       <c r="D56" s="5" t="s">
         <v>41</v>
       </c>
@@ -11665,8 +11665,8 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="291"/>
-      <c r="C57" s="282"/>
+      <c r="B57" s="298"/>
+      <c r="C57" s="278"/>
       <c r="D57" s="5" t="s">
         <v>42</v>
       </c>
@@ -11787,8 +11787,8 @@
       <c r="DK57" s="52"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="291"/>
-      <c r="C58" s="282"/>
+      <c r="B58" s="298"/>
+      <c r="C58" s="278"/>
       <c r="D58" s="5" t="s">
         <v>43</v>
       </c>
@@ -11909,8 +11909,8 @@
       <c r="DK58" s="52"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="291"/>
-      <c r="C59" s="282"/>
+      <c r="B59" s="298"/>
+      <c r="C59" s="278"/>
       <c r="D59" s="5" t="s">
         <v>45</v>
       </c>
@@ -12027,8 +12027,8 @@
       <c r="DK59" s="52"/>
     </row>
     <row r="60" spans="2:115">
-      <c r="B60" s="291"/>
-      <c r="C60" s="282"/>
+      <c r="B60" s="298"/>
+      <c r="C60" s="278"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
       <c r="F60" s="75"/>
@@ -12143,8 +12143,8 @@
       <c r="DK60" s="61"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="291"/>
-      <c r="C61" s="288" t="s">
+      <c r="B61" s="298"/>
+      <c r="C61" s="277" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -12267,8 +12267,8 @@
       <c r="DK61" s="52"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="291"/>
-      <c r="C62" s="288"/>
+      <c r="B62" s="298"/>
+      <c r="C62" s="277"/>
       <c r="D62" s="5" t="s">
         <v>47</v>
       </c>
@@ -12385,8 +12385,8 @@
       <c r="DK62" s="52"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="291"/>
-      <c r="C63" s="288"/>
+      <c r="B63" s="298"/>
+      <c r="C63" s="277"/>
       <c r="D63" s="5" t="s">
         <v>28</v>
       </c>
@@ -12503,8 +12503,8 @@
       <c r="DK63" s="52"/>
     </row>
     <row r="64" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B64" s="291"/>
-      <c r="C64" s="288"/>
+      <c r="B64" s="298"/>
+      <c r="C64" s="277"/>
       <c r="D64" s="10"/>
       <c r="E64" s="11"/>
       <c r="F64" s="78"/>
@@ -12619,10 +12619,10 @@
       <c r="DK64" s="36"/>
     </row>
     <row r="65" spans="2:115">
-      <c r="B65" s="276" t="s">
+      <c r="B65" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="285" t="s">
+      <c r="C65" s="293" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="20"/>
@@ -12743,8 +12743,8 @@
       <c r="DK65" s="47"/>
     </row>
     <row r="66" spans="2:115">
-      <c r="B66" s="275"/>
-      <c r="C66" s="286"/>
+      <c r="B66" s="280"/>
+      <c r="C66" s="294"/>
       <c r="D66" s="15"/>
       <c r="E66" s="22"/>
       <c r="F66" s="81"/>
@@ -12859,8 +12859,8 @@
       <c r="DK66" s="61"/>
     </row>
     <row r="67" spans="2:115">
-      <c r="B67" s="275"/>
-      <c r="C67" s="286" t="s">
+      <c r="B67" s="280"/>
+      <c r="C67" s="294" t="s">
         <v>48</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -12981,8 +12981,8 @@
       <c r="DK67" s="67"/>
     </row>
     <row r="68" spans="2:115">
-      <c r="B68" s="275"/>
-      <c r="C68" s="287"/>
+      <c r="B68" s="280"/>
+      <c r="C68" s="295"/>
       <c r="D68" s="16"/>
       <c r="E68" s="24"/>
       <c r="F68" s="83"/>
@@ -13097,8 +13097,8 @@
       <c r="DK68" s="61"/>
     </row>
     <row r="69" spans="2:115">
-      <c r="B69" s="275"/>
-      <c r="C69" s="288"/>
+      <c r="B69" s="280"/>
+      <c r="C69" s="277"/>
       <c r="D69" s="14"/>
       <c r="E69" s="23"/>
       <c r="F69" s="82"/>
@@ -13213,8 +13213,8 @@
       <c r="DK69" s="67"/>
     </row>
     <row r="70" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B70" s="284"/>
-      <c r="C70" s="288"/>
+      <c r="B70" s="281"/>
+      <c r="C70" s="277"/>
       <c r="D70" s="15"/>
       <c r="E70" s="22"/>
       <c r="F70" s="81"/>
@@ -13329,10 +13329,10 @@
       <c r="DK70" s="36"/>
     </row>
     <row r="71" spans="2:115">
-      <c r="B71" s="276" t="s">
+      <c r="B71" s="279" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="285" t="s">
+      <c r="C71" s="293" t="s">
         <v>50</v>
       </c>
       <c r="D71" s="20"/>
@@ -13451,8 +13451,8 @@
       <c r="DK71" s="47"/>
     </row>
     <row r="72" spans="2:115">
-      <c r="B72" s="275"/>
-      <c r="C72" s="286"/>
+      <c r="B72" s="280"/>
+      <c r="C72" s="294"/>
       <c r="D72" s="15"/>
       <c r="E72" s="22"/>
       <c r="F72" s="81"/>
@@ -13567,8 +13567,8 @@
       <c r="DK72" s="52"/>
     </row>
     <row r="73" spans="2:115">
-      <c r="B73" s="275"/>
-      <c r="C73" s="286" t="s">
+      <c r="B73" s="280"/>
+      <c r="C73" s="294" t="s">
         <v>53</v>
       </c>
       <c r="D73" s="14"/>
@@ -13687,8 +13687,8 @@
       <c r="DK73" s="67"/>
     </row>
     <row r="74" spans="2:115">
-      <c r="B74" s="275"/>
-      <c r="C74" s="287"/>
+      <c r="B74" s="280"/>
+      <c r="C74" s="295"/>
       <c r="D74" s="16"/>
       <c r="E74" s="24"/>
       <c r="F74" s="83"/>
@@ -13803,8 +13803,8 @@
       <c r="DK74" s="61"/>
     </row>
     <row r="75" spans="2:115">
-      <c r="B75" s="275"/>
-      <c r="C75" s="288"/>
+      <c r="B75" s="280"/>
+      <c r="C75" s="277"/>
       <c r="D75" s="14"/>
       <c r="E75" s="23"/>
       <c r="F75" s="82"/>
@@ -13919,8 +13919,8 @@
       <c r="DK75" s="52"/>
     </row>
     <row r="76" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B76" s="284"/>
-      <c r="C76" s="289"/>
+      <c r="B76" s="281"/>
+      <c r="C76" s="296"/>
       <c r="D76" s="25"/>
       <c r="E76" s="26"/>
       <c r="F76" s="84"/>
@@ -14035,10 +14035,10 @@
       <c r="DK76" s="36"/>
     </row>
     <row r="77" spans="2:115">
-      <c r="B77" s="276" t="s">
+      <c r="B77" s="279" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="278" t="s">
+      <c r="C77" s="289" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="3"/>
@@ -14157,8 +14157,8 @@
       <c r="DK77" s="47"/>
     </row>
     <row r="78" spans="2:115">
-      <c r="B78" s="275"/>
-      <c r="C78" s="279"/>
+      <c r="B78" s="280"/>
+      <c r="C78" s="290"/>
       <c r="D78" s="5"/>
       <c r="E78" s="6" t="s">
         <v>52</v>
@@ -14275,8 +14275,8 @@
       <c r="DK78" s="52"/>
     </row>
     <row r="79" spans="2:115">
-      <c r="B79" s="275"/>
-      <c r="C79" s="279"/>
+      <c r="B79" s="280"/>
+      <c r="C79" s="290"/>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
       <c r="F79" s="75"/>
@@ -14391,8 +14391,8 @@
       <c r="DK79" s="52"/>
     </row>
     <row r="80" spans="2:115">
-      <c r="B80" s="275"/>
-      <c r="C80" s="279"/>
+      <c r="B80" s="280"/>
+      <c r="C80" s="290"/>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
       <c r="F80" s="75"/>
@@ -14507,8 +14507,8 @@
       <c r="DK80" s="52"/>
     </row>
     <row r="81" spans="2:116">
-      <c r="B81" s="275"/>
-      <c r="C81" s="279"/>
+      <c r="B81" s="280"/>
+      <c r="C81" s="290"/>
       <c r="D81" s="5"/>
       <c r="E81" s="6"/>
       <c r="F81" s="75"/>
@@ -14623,8 +14623,8 @@
       <c r="DK81" s="61"/>
     </row>
     <row r="82" spans="2:116">
-      <c r="B82" s="275"/>
-      <c r="C82" s="280"/>
+      <c r="B82" s="280"/>
+      <c r="C82" s="291"/>
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
       <c r="F82" s="77"/>
@@ -14739,8 +14739,8 @@
       <c r="DK82" s="67"/>
     </row>
     <row r="83" spans="2:116">
-      <c r="B83" s="275"/>
-      <c r="C83" s="279"/>
+      <c r="B83" s="280"/>
+      <c r="C83" s="290"/>
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
       <c r="F83" s="75"/>
@@ -14855,8 +14855,8 @@
       <c r="DK83" s="52"/>
     </row>
     <row r="84" spans="2:116">
-      <c r="B84" s="275"/>
-      <c r="C84" s="279"/>
+      <c r="B84" s="280"/>
+      <c r="C84" s="290"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
       <c r="F84" s="75"/>
@@ -14971,8 +14971,8 @@
       <c r="DK84" s="52"/>
     </row>
     <row r="85" spans="2:116">
-      <c r="B85" s="275"/>
-      <c r="C85" s="279"/>
+      <c r="B85" s="280"/>
+      <c r="C85" s="290"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="75"/>
@@ -15087,8 +15087,8 @@
       <c r="DK85" s="52"/>
     </row>
     <row r="86" spans="2:116">
-      <c r="B86" s="275"/>
-      <c r="C86" s="279"/>
+      <c r="B86" s="280"/>
+      <c r="C86" s="290"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="75"/>
@@ -15203,8 +15203,8 @@
       <c r="DK86" s="52"/>
     </row>
     <row r="87" spans="2:116">
-      <c r="B87" s="275"/>
-      <c r="C87" s="281"/>
+      <c r="B87" s="280"/>
+      <c r="C87" s="286"/>
       <c r="D87" s="10"/>
       <c r="E87" s="11"/>
       <c r="F87" s="78"/>
@@ -15319,8 +15319,8 @@
       <c r="DK87" s="61"/>
     </row>
     <row r="88" spans="2:116">
-      <c r="B88" s="275"/>
-      <c r="C88" s="280"/>
+      <c r="B88" s="280"/>
+      <c r="C88" s="291"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="77"/>
@@ -15436,8 +15436,8 @@
       <c r="DL88" s="7"/>
     </row>
     <row r="89" spans="2:116">
-      <c r="B89" s="275"/>
-      <c r="C89" s="279"/>
+      <c r="B89" s="280"/>
+      <c r="C89" s="290"/>
       <c r="D89" s="15"/>
       <c r="E89" s="22"/>
       <c r="F89" s="81"/>
@@ -15553,8 +15553,8 @@
       <c r="DL89" s="7"/>
     </row>
     <row r="90" spans="2:116">
-      <c r="B90" s="275"/>
-      <c r="C90" s="279"/>
+      <c r="B90" s="280"/>
+      <c r="C90" s="290"/>
       <c r="D90" s="15"/>
       <c r="E90" s="22"/>
       <c r="F90" s="81"/>
@@ -15670,8 +15670,8 @@
       <c r="DL90" s="7"/>
     </row>
     <row r="91" spans="2:116">
-      <c r="B91" s="275"/>
-      <c r="C91" s="281"/>
+      <c r="B91" s="280"/>
+      <c r="C91" s="286"/>
       <c r="D91" s="16"/>
       <c r="E91" s="24"/>
       <c r="F91" s="83"/>
@@ -15787,8 +15787,8 @@
       <c r="DL91" s="7"/>
     </row>
     <row r="92" spans="2:116">
-      <c r="B92" s="275"/>
-      <c r="C92" s="282"/>
+      <c r="B92" s="280"/>
+      <c r="C92" s="278"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="75"/>
@@ -15903,8 +15903,8 @@
       <c r="DK92" s="67"/>
     </row>
     <row r="93" spans="2:116">
-      <c r="B93" s="275"/>
-      <c r="C93" s="282"/>
+      <c r="B93" s="280"/>
+      <c r="C93" s="278"/>
       <c r="D93" s="15"/>
       <c r="E93" s="6"/>
       <c r="F93" s="75"/>
@@ -16019,8 +16019,8 @@
       <c r="DK93" s="52"/>
     </row>
     <row r="94" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B94" s="277"/>
-      <c r="C94" s="283"/>
+      <c r="B94" s="288"/>
+      <c r="C94" s="292"/>
       <c r="D94" s="27"/>
       <c r="E94" s="28"/>
       <c r="F94" s="85"/>
@@ -16137,13 +16137,6 @@
     <row r="95" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="B20:B54"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C52:C54"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B77:B94"/>
     <mergeCell ref="C77:C81"/>
@@ -16160,6 +16153,13 @@
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="B55:B64"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="B20:B54"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C52:C54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="9405"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3271,19 +3271,55 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3298,43 +3334,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4934,8 +4934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:DL95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="AD29" sqref="AD29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U62" sqref="U62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6945,7 +6945,7 @@
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="280" t="s">
+      <c r="B18" s="277" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="251" t="s">
@@ -7071,7 +7071,7 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="280"/>
+      <c r="B19" s="277"/>
       <c r="C19" s="258" t="s">
         <v>10</v>
       </c>
@@ -7195,10 +7195,10 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="279" t="s">
+      <c r="B20" s="278" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="282" t="s">
+      <c r="C20" s="294" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="262" t="s">
@@ -7321,8 +7321,8 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="280"/>
-      <c r="C21" s="283"/>
+      <c r="B21" s="277"/>
+      <c r="C21" s="295"/>
       <c r="D21" s="262" t="s">
         <v>58</v>
       </c>
@@ -7443,8 +7443,8 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="280"/>
-      <c r="C22" s="283"/>
+      <c r="B22" s="277"/>
+      <c r="C22" s="295"/>
       <c r="D22" s="262" t="s">
         <v>56</v>
       </c>
@@ -7565,8 +7565,8 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="280"/>
-      <c r="C23" s="284"/>
+      <c r="B23" s="277"/>
+      <c r="C23" s="296"/>
       <c r="D23" s="262" t="s">
         <v>57</v>
       </c>
@@ -7687,8 +7687,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="280"/>
-      <c r="C24" s="285" t="s">
+      <c r="B24" s="277"/>
+      <c r="C24" s="297" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7811,8 +7811,8 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="280"/>
-      <c r="C25" s="285"/>
+      <c r="B25" s="277"/>
+      <c r="C25" s="297"/>
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
@@ -7933,8 +7933,8 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="280"/>
-      <c r="C26" s="285"/>
+      <c r="B26" s="277"/>
+      <c r="C26" s="297"/>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
@@ -8055,8 +8055,8 @@
       <c r="DK26" s="52"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="280"/>
-      <c r="C27" s="285"/>
+      <c r="B27" s="277"/>
+      <c r="C27" s="297"/>
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
@@ -8177,8 +8177,8 @@
       <c r="DK27" s="52"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="280"/>
-      <c r="C28" s="285"/>
+      <c r="B28" s="277"/>
+      <c r="C28" s="297"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
@@ -8299,8 +8299,8 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="280"/>
-      <c r="C29" s="285"/>
+      <c r="B29" s="277"/>
+      <c r="C29" s="297"/>
       <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
@@ -8421,8 +8421,8 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="280"/>
-      <c r="C30" s="285"/>
+      <c r="B30" s="277"/>
+      <c r="C30" s="297"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
@@ -8543,8 +8543,8 @@
       <c r="DK30" s="52"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="280"/>
-      <c r="C31" s="285"/>
+      <c r="B31" s="277"/>
+      <c r="C31" s="297"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
@@ -8665,8 +8665,8 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="280"/>
-      <c r="C32" s="285"/>
+      <c r="B32" s="277"/>
+      <c r="C32" s="297"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
@@ -8787,8 +8787,8 @@
       <c r="DK32" s="52"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="280"/>
-      <c r="C33" s="285"/>
+      <c r="B33" s="277"/>
+      <c r="C33" s="297"/>
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
@@ -8909,8 +8909,8 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="280"/>
-      <c r="C34" s="285"/>
+      <c r="B34" s="277"/>
+      <c r="C34" s="297"/>
       <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
@@ -9031,8 +9031,8 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="280"/>
-      <c r="C35" s="285"/>
+      <c r="B35" s="277"/>
+      <c r="C35" s="297"/>
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
@@ -9153,8 +9153,8 @@
       <c r="DK35" s="52"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="280"/>
-      <c r="C36" s="285"/>
+      <c r="B36" s="277"/>
+      <c r="C36" s="297"/>
       <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
@@ -9275,8 +9275,8 @@
       <c r="DK36" s="52"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="280"/>
-      <c r="C37" s="285"/>
+      <c r="B37" s="277"/>
+      <c r="C37" s="297"/>
       <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
@@ -9397,8 +9397,8 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="280"/>
-      <c r="C38" s="285"/>
+      <c r="B38" s="277"/>
+      <c r="C38" s="297"/>
       <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
@@ -9519,8 +9519,8 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="280"/>
-      <c r="C39" s="285"/>
+      <c r="B39" s="277"/>
+      <c r="C39" s="297"/>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
@@ -9641,8 +9641,8 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="280"/>
-      <c r="C40" s="285"/>
+      <c r="B40" s="277"/>
+      <c r="C40" s="297"/>
       <c r="D40" s="5" t="s">
         <v>76</v>
       </c>
@@ -9763,8 +9763,8 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="280"/>
-      <c r="C41" s="285"/>
+      <c r="B41" s="277"/>
+      <c r="C41" s="297"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
@@ -9885,8 +9885,8 @@
       <c r="DK41" s="52"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="280"/>
-      <c r="C42" s="285"/>
+      <c r="B42" s="277"/>
+      <c r="C42" s="297"/>
       <c r="D42" s="5" t="s">
         <v>78</v>
       </c>
@@ -10007,8 +10007,8 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="280"/>
-      <c r="C43" s="285"/>
+      <c r="B43" s="277"/>
+      <c r="C43" s="297"/>
       <c r="D43" s="5" t="s">
         <v>79</v>
       </c>
@@ -10129,8 +10129,8 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="280"/>
-      <c r="C44" s="285"/>
+      <c r="B44" s="277"/>
+      <c r="C44" s="297"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="75"/>
@@ -10245,8 +10245,8 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="280"/>
-      <c r="C45" s="285"/>
+      <c r="B45" s="277"/>
+      <c r="C45" s="297"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="78"/>
@@ -10361,8 +10361,8 @@
       <c r="DK45" s="61"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="280"/>
-      <c r="C46" s="278" t="s">
+      <c r="B46" s="277"/>
+      <c r="C46" s="284" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="8"/>
@@ -10483,8 +10483,8 @@
       <c r="DK46" s="67"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="280"/>
-      <c r="C47" s="278"/>
+      <c r="B47" s="277"/>
+      <c r="C47" s="284"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="75"/>
@@ -10599,8 +10599,8 @@
       <c r="DK47" s="52"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="280"/>
-      <c r="C48" s="278"/>
+      <c r="B48" s="277"/>
+      <c r="C48" s="284"/>
       <c r="D48" s="10"/>
       <c r="E48" s="11"/>
       <c r="F48" s="78"/>
@@ -10715,8 +10715,8 @@
       <c r="DK48" s="61"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="280"/>
-      <c r="C49" s="291" t="s">
+      <c r="B49" s="277"/>
+      <c r="C49" s="282" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="8"/>
@@ -10837,8 +10837,8 @@
       <c r="DK49" s="67"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="280"/>
-      <c r="C50" s="290"/>
+      <c r="B50" s="277"/>
+      <c r="C50" s="281"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="75"/>
@@ -10953,8 +10953,8 @@
       <c r="DK50" s="52"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="280"/>
-      <c r="C51" s="286"/>
+      <c r="B51" s="277"/>
+      <c r="C51" s="283"/>
       <c r="D51" s="10"/>
       <c r="E51" s="11"/>
       <c r="F51" s="78"/>
@@ -11069,8 +11069,8 @@
       <c r="DK51" s="61"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="280"/>
-      <c r="C52" s="286"/>
+      <c r="B52" s="277"/>
+      <c r="C52" s="283"/>
       <c r="D52" s="8"/>
       <c r="E52" s="9"/>
       <c r="F52" s="175"/>
@@ -11185,8 +11185,8 @@
       <c r="DK52" s="52"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="280"/>
-      <c r="C53" s="285"/>
+      <c r="B53" s="277"/>
+      <c r="C53" s="297"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="75"/>
@@ -11301,8 +11301,8 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B54" s="281"/>
-      <c r="C54" s="287"/>
+      <c r="B54" s="286"/>
+      <c r="C54" s="298"/>
       <c r="D54" s="17"/>
       <c r="E54" s="13"/>
       <c r="F54" s="79"/>
@@ -11417,10 +11417,10 @@
       <c r="DK54" s="36"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="297" t="s">
+      <c r="B55" s="292" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="278" t="s">
+      <c r="C55" s="284" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="5" t="s">
@@ -11543,8 +11543,8 @@
       <c r="DK55" s="47"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="298"/>
-      <c r="C56" s="278"/>
+      <c r="B56" s="293"/>
+      <c r="C56" s="284"/>
       <c r="D56" s="5" t="s">
         <v>41</v>
       </c>
@@ -11665,8 +11665,8 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="298"/>
-      <c r="C57" s="278"/>
+      <c r="B57" s="293"/>
+      <c r="C57" s="284"/>
       <c r="D57" s="5" t="s">
         <v>42</v>
       </c>
@@ -11787,8 +11787,8 @@
       <c r="DK57" s="52"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="298"/>
-      <c r="C58" s="278"/>
+      <c r="B58" s="293"/>
+      <c r="C58" s="284"/>
       <c r="D58" s="5" t="s">
         <v>43</v>
       </c>
@@ -11909,8 +11909,8 @@
       <c r="DK58" s="52"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="298"/>
-      <c r="C59" s="278"/>
+      <c r="B59" s="293"/>
+      <c r="C59" s="284"/>
       <c r="D59" s="5" t="s">
         <v>45</v>
       </c>
@@ -12027,8 +12027,8 @@
       <c r="DK59" s="52"/>
     </row>
     <row r="60" spans="2:115">
-      <c r="B60" s="298"/>
-      <c r="C60" s="278"/>
+      <c r="B60" s="293"/>
+      <c r="C60" s="284"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
       <c r="F60" s="75"/>
@@ -12143,8 +12143,8 @@
       <c r="DK60" s="61"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="298"/>
-      <c r="C61" s="277" t="s">
+      <c r="B61" s="293"/>
+      <c r="C61" s="290" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -12165,7 +12165,7 @@
       <c r="M61" s="230"/>
       <c r="N61" s="217"/>
       <c r="O61" s="212"/>
-      <c r="P61" s="212"/>
+      <c r="P61" s="216"/>
       <c r="Q61" s="48"/>
       <c r="R61" s="48"/>
       <c r="S61" s="95"/>
@@ -12267,8 +12267,8 @@
       <c r="DK61" s="52"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="298"/>
-      <c r="C62" s="277"/>
+      <c r="B62" s="293"/>
+      <c r="C62" s="290"/>
       <c r="D62" s="5" t="s">
         <v>47</v>
       </c>
@@ -12385,8 +12385,8 @@
       <c r="DK62" s="52"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="298"/>
-      <c r="C63" s="277"/>
+      <c r="B63" s="293"/>
+      <c r="C63" s="290"/>
       <c r="D63" s="5" t="s">
         <v>28</v>
       </c>
@@ -12503,8 +12503,8 @@
       <c r="DK63" s="52"/>
     </row>
     <row r="64" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B64" s="298"/>
-      <c r="C64" s="277"/>
+      <c r="B64" s="293"/>
+      <c r="C64" s="290"/>
       <c r="D64" s="10"/>
       <c r="E64" s="11"/>
       <c r="F64" s="78"/>
@@ -12619,10 +12619,10 @@
       <c r="DK64" s="36"/>
     </row>
     <row r="65" spans="2:115">
-      <c r="B65" s="279" t="s">
+      <c r="B65" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="293" t="s">
+      <c r="C65" s="287" t="s">
         <v>37</v>
       </c>
       <c r="D65" s="20"/>
@@ -12743,8 +12743,8 @@
       <c r="DK65" s="47"/>
     </row>
     <row r="66" spans="2:115">
-      <c r="B66" s="280"/>
-      <c r="C66" s="294"/>
+      <c r="B66" s="277"/>
+      <c r="C66" s="288"/>
       <c r="D66" s="15"/>
       <c r="E66" s="22"/>
       <c r="F66" s="81"/>
@@ -12859,8 +12859,8 @@
       <c r="DK66" s="61"/>
     </row>
     <row r="67" spans="2:115">
-      <c r="B67" s="280"/>
-      <c r="C67" s="294" t="s">
+      <c r="B67" s="277"/>
+      <c r="C67" s="288" t="s">
         <v>48</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -12981,8 +12981,8 @@
       <c r="DK67" s="67"/>
     </row>
     <row r="68" spans="2:115">
-      <c r="B68" s="280"/>
-      <c r="C68" s="295"/>
+      <c r="B68" s="277"/>
+      <c r="C68" s="289"/>
       <c r="D68" s="16"/>
       <c r="E68" s="24"/>
       <c r="F68" s="83"/>
@@ -13097,8 +13097,8 @@
       <c r="DK68" s="61"/>
     </row>
     <row r="69" spans="2:115">
-      <c r="B69" s="280"/>
-      <c r="C69" s="277"/>
+      <c r="B69" s="277"/>
+      <c r="C69" s="290"/>
       <c r="D69" s="14"/>
       <c r="E69" s="23"/>
       <c r="F69" s="82"/>
@@ -13213,8 +13213,8 @@
       <c r="DK69" s="67"/>
     </row>
     <row r="70" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B70" s="281"/>
-      <c r="C70" s="277"/>
+      <c r="B70" s="286"/>
+      <c r="C70" s="290"/>
       <c r="D70" s="15"/>
       <c r="E70" s="22"/>
       <c r="F70" s="81"/>
@@ -13329,10 +13329,10 @@
       <c r="DK70" s="36"/>
     </row>
     <row r="71" spans="2:115">
-      <c r="B71" s="279" t="s">
+      <c r="B71" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="C71" s="293" t="s">
+      <c r="C71" s="287" t="s">
         <v>50</v>
       </c>
       <c r="D71" s="20"/>
@@ -13451,8 +13451,8 @@
       <c r="DK71" s="47"/>
     </row>
     <row r="72" spans="2:115">
-      <c r="B72" s="280"/>
-      <c r="C72" s="294"/>
+      <c r="B72" s="277"/>
+      <c r="C72" s="288"/>
       <c r="D72" s="15"/>
       <c r="E72" s="22"/>
       <c r="F72" s="81"/>
@@ -13567,8 +13567,8 @@
       <c r="DK72" s="52"/>
     </row>
     <row r="73" spans="2:115">
-      <c r="B73" s="280"/>
-      <c r="C73" s="294" t="s">
+      <c r="B73" s="277"/>
+      <c r="C73" s="288" t="s">
         <v>53</v>
       </c>
       <c r="D73" s="14"/>
@@ -13687,8 +13687,8 @@
       <c r="DK73" s="67"/>
     </row>
     <row r="74" spans="2:115">
-      <c r="B74" s="280"/>
-      <c r="C74" s="295"/>
+      <c r="B74" s="277"/>
+      <c r="C74" s="289"/>
       <c r="D74" s="16"/>
       <c r="E74" s="24"/>
       <c r="F74" s="83"/>
@@ -13803,8 +13803,8 @@
       <c r="DK74" s="61"/>
     </row>
     <row r="75" spans="2:115">
-      <c r="B75" s="280"/>
-      <c r="C75" s="277"/>
+      <c r="B75" s="277"/>
+      <c r="C75" s="290"/>
       <c r="D75" s="14"/>
       <c r="E75" s="23"/>
       <c r="F75" s="82"/>
@@ -13919,8 +13919,8 @@
       <c r="DK75" s="52"/>
     </row>
     <row r="76" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B76" s="281"/>
-      <c r="C76" s="296"/>
+      <c r="B76" s="286"/>
+      <c r="C76" s="291"/>
       <c r="D76" s="25"/>
       <c r="E76" s="26"/>
       <c r="F76" s="84"/>
@@ -14035,10 +14035,10 @@
       <c r="DK76" s="36"/>
     </row>
     <row r="77" spans="2:115">
-      <c r="B77" s="279" t="s">
+      <c r="B77" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="C77" s="289" t="s">
+      <c r="C77" s="280" t="s">
         <v>39</v>
       </c>
       <c r="D77" s="3"/>
@@ -14157,8 +14157,8 @@
       <c r="DK77" s="47"/>
     </row>
     <row r="78" spans="2:115">
-      <c r="B78" s="280"/>
-      <c r="C78" s="290"/>
+      <c r="B78" s="277"/>
+      <c r="C78" s="281"/>
       <c r="D78" s="5"/>
       <c r="E78" s="6" t="s">
         <v>52</v>
@@ -14275,8 +14275,8 @@
       <c r="DK78" s="52"/>
     </row>
     <row r="79" spans="2:115">
-      <c r="B79" s="280"/>
-      <c r="C79" s="290"/>
+      <c r="B79" s="277"/>
+      <c r="C79" s="281"/>
       <c r="D79" s="5"/>
       <c r="E79" s="6"/>
       <c r="F79" s="75"/>
@@ -14391,8 +14391,8 @@
       <c r="DK79" s="52"/>
     </row>
     <row r="80" spans="2:115">
-      <c r="B80" s="280"/>
-      <c r="C80" s="290"/>
+      <c r="B80" s="277"/>
+      <c r="C80" s="281"/>
       <c r="D80" s="5"/>
       <c r="E80" s="6"/>
       <c r="F80" s="75"/>
@@ -14507,8 +14507,8 @@
       <c r="DK80" s="52"/>
     </row>
     <row r="81" spans="2:116">
-      <c r="B81" s="280"/>
-      <c r="C81" s="290"/>
+      <c r="B81" s="277"/>
+      <c r="C81" s="281"/>
       <c r="D81" s="5"/>
       <c r="E81" s="6"/>
       <c r="F81" s="75"/>
@@ -14623,8 +14623,8 @@
       <c r="DK81" s="61"/>
     </row>
     <row r="82" spans="2:116">
-      <c r="B82" s="280"/>
-      <c r="C82" s="291"/>
+      <c r="B82" s="277"/>
+      <c r="C82" s="282"/>
       <c r="D82" s="8"/>
       <c r="E82" s="9"/>
       <c r="F82" s="77"/>
@@ -14739,8 +14739,8 @@
       <c r="DK82" s="67"/>
     </row>
     <row r="83" spans="2:116">
-      <c r="B83" s="280"/>
-      <c r="C83" s="290"/>
+      <c r="B83" s="277"/>
+      <c r="C83" s="281"/>
       <c r="D83" s="5"/>
       <c r="E83" s="6"/>
       <c r="F83" s="75"/>
@@ -14855,8 +14855,8 @@
       <c r="DK83" s="52"/>
     </row>
     <row r="84" spans="2:116">
-      <c r="B84" s="280"/>
-      <c r="C84" s="290"/>
+      <c r="B84" s="277"/>
+      <c r="C84" s="281"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6"/>
       <c r="F84" s="75"/>
@@ -14971,8 +14971,8 @@
       <c r="DK84" s="52"/>
     </row>
     <row r="85" spans="2:116">
-      <c r="B85" s="280"/>
-      <c r="C85" s="290"/>
+      <c r="B85" s="277"/>
+      <c r="C85" s="281"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="75"/>
@@ -15087,8 +15087,8 @@
       <c r="DK85" s="52"/>
     </row>
     <row r="86" spans="2:116">
-      <c r="B86" s="280"/>
-      <c r="C86" s="290"/>
+      <c r="B86" s="277"/>
+      <c r="C86" s="281"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="75"/>
@@ -15203,8 +15203,8 @@
       <c r="DK86" s="52"/>
     </row>
     <row r="87" spans="2:116">
-      <c r="B87" s="280"/>
-      <c r="C87" s="286"/>
+      <c r="B87" s="277"/>
+      <c r="C87" s="283"/>
       <c r="D87" s="10"/>
       <c r="E87" s="11"/>
       <c r="F87" s="78"/>
@@ -15319,8 +15319,8 @@
       <c r="DK87" s="61"/>
     </row>
     <row r="88" spans="2:116">
-      <c r="B88" s="280"/>
-      <c r="C88" s="291"/>
+      <c r="B88" s="277"/>
+      <c r="C88" s="282"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="77"/>
@@ -15436,8 +15436,8 @@
       <c r="DL88" s="7"/>
     </row>
     <row r="89" spans="2:116">
-      <c r="B89" s="280"/>
-      <c r="C89" s="290"/>
+      <c r="B89" s="277"/>
+      <c r="C89" s="281"/>
       <c r="D89" s="15"/>
       <c r="E89" s="22"/>
       <c r="F89" s="81"/>
@@ -15553,8 +15553,8 @@
       <c r="DL89" s="7"/>
     </row>
     <row r="90" spans="2:116">
-      <c r="B90" s="280"/>
-      <c r="C90" s="290"/>
+      <c r="B90" s="277"/>
+      <c r="C90" s="281"/>
       <c r="D90" s="15"/>
       <c r="E90" s="22"/>
       <c r="F90" s="81"/>
@@ -15670,8 +15670,8 @@
       <c r="DL90" s="7"/>
     </row>
     <row r="91" spans="2:116">
-      <c r="B91" s="280"/>
-      <c r="C91" s="286"/>
+      <c r="B91" s="277"/>
+      <c r="C91" s="283"/>
       <c r="D91" s="16"/>
       <c r="E91" s="24"/>
       <c r="F91" s="83"/>
@@ -15787,8 +15787,8 @@
       <c r="DL91" s="7"/>
     </row>
     <row r="92" spans="2:116">
-      <c r="B92" s="280"/>
-      <c r="C92" s="278"/>
+      <c r="B92" s="277"/>
+      <c r="C92" s="284"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="75"/>
@@ -15903,8 +15903,8 @@
       <c r="DK92" s="67"/>
     </row>
     <row r="93" spans="2:116">
-      <c r="B93" s="280"/>
-      <c r="C93" s="278"/>
+      <c r="B93" s="277"/>
+      <c r="C93" s="284"/>
       <c r="D93" s="15"/>
       <c r="E93" s="6"/>
       <c r="F93" s="75"/>
@@ -16019,8 +16019,8 @@
       <c r="DK93" s="52"/>
     </row>
     <row r="94" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B94" s="288"/>
-      <c r="C94" s="292"/>
+      <c r="B94" s="279"/>
+      <c r="C94" s="285"/>
       <c r="D94" s="27"/>
       <c r="E94" s="28"/>
       <c r="F94" s="85"/>
@@ -16137,6 +16137,13 @@
     <row r="95" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="B20:B54"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C52:C54"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B77:B94"/>
     <mergeCell ref="C77:C81"/>
@@ -16153,13 +16160,6 @@
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="B55:B64"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="B20:B54"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C52:C54"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>모듈</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -543,6 +543,30 @@
     <t>설정에 관한 기능 명세</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>수입/지출 화면 GUI 구상/설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반적인 Main 화면 GUI 구상/설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김우석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산/부채 화면 GUI 구상/설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 화면 GUI 구상/설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI 구상 /설계 마무리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2439,7 +2463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3271,10 +3295,37 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3289,18 +3340,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3310,9 +3352,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3322,20 +3361,14 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4932,10 +4965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:DL95"/>
+  <dimension ref="B3:DL101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U62" sqref="U62"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6945,7 +6978,7 @@
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="277" t="s">
+      <c r="B18" s="280" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="251" t="s">
@@ -7071,7 +7104,7 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="277"/>
+      <c r="B19" s="280"/>
       <c r="C19" s="258" t="s">
         <v>10</v>
       </c>
@@ -7195,10 +7228,10 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="278" t="s">
+      <c r="B20" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="294" t="s">
+      <c r="C20" s="282" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="262" t="s">
@@ -7321,8 +7354,8 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="277"/>
-      <c r="C21" s="295"/>
+      <c r="B21" s="280"/>
+      <c r="C21" s="283"/>
       <c r="D21" s="262" t="s">
         <v>58</v>
       </c>
@@ -7443,8 +7476,8 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="277"/>
-      <c r="C22" s="295"/>
+      <c r="B22" s="280"/>
+      <c r="C22" s="283"/>
       <c r="D22" s="262" t="s">
         <v>56</v>
       </c>
@@ -7565,8 +7598,8 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="277"/>
-      <c r="C23" s="296"/>
+      <c r="B23" s="280"/>
+      <c r="C23" s="284"/>
       <c r="D23" s="262" t="s">
         <v>57</v>
       </c>
@@ -7687,8 +7720,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="277"/>
-      <c r="C24" s="297" t="s">
+      <c r="B24" s="280"/>
+      <c r="C24" s="285" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7811,8 +7844,8 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="277"/>
-      <c r="C25" s="297"/>
+      <c r="B25" s="280"/>
+      <c r="C25" s="285"/>
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
@@ -7933,8 +7966,8 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="277"/>
-      <c r="C26" s="297"/>
+      <c r="B26" s="280"/>
+      <c r="C26" s="285"/>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
@@ -8055,8 +8088,8 @@
       <c r="DK26" s="52"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="277"/>
-      <c r="C27" s="297"/>
+      <c r="B27" s="280"/>
+      <c r="C27" s="285"/>
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
@@ -8177,8 +8210,8 @@
       <c r="DK27" s="52"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="277"/>
-      <c r="C28" s="297"/>
+      <c r="B28" s="280"/>
+      <c r="C28" s="285"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
@@ -8299,8 +8332,8 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="277"/>
-      <c r="C29" s="297"/>
+      <c r="B29" s="280"/>
+      <c r="C29" s="285"/>
       <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
@@ -8421,8 +8454,8 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="277"/>
-      <c r="C30" s="297"/>
+      <c r="B30" s="280"/>
+      <c r="C30" s="285"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
@@ -8543,8 +8576,8 @@
       <c r="DK30" s="52"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="277"/>
-      <c r="C31" s="297"/>
+      <c r="B31" s="280"/>
+      <c r="C31" s="285"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
@@ -8665,8 +8698,8 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="277"/>
-      <c r="C32" s="297"/>
+      <c r="B32" s="280"/>
+      <c r="C32" s="285"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
@@ -8787,8 +8820,8 @@
       <c r="DK32" s="52"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="277"/>
-      <c r="C33" s="297"/>
+      <c r="B33" s="280"/>
+      <c r="C33" s="285"/>
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
@@ -8909,8 +8942,8 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="277"/>
-      <c r="C34" s="297"/>
+      <c r="B34" s="280"/>
+      <c r="C34" s="285"/>
       <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
@@ -9031,8 +9064,8 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="277"/>
-      <c r="C35" s="297"/>
+      <c r="B35" s="280"/>
+      <c r="C35" s="285"/>
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
@@ -9153,8 +9186,8 @@
       <c r="DK35" s="52"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="277"/>
-      <c r="C36" s="297"/>
+      <c r="B36" s="280"/>
+      <c r="C36" s="285"/>
       <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
@@ -9275,8 +9308,8 @@
       <c r="DK36" s="52"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="277"/>
-      <c r="C37" s="297"/>
+      <c r="B37" s="280"/>
+      <c r="C37" s="285"/>
       <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
@@ -9397,8 +9430,8 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="277"/>
-      <c r="C38" s="297"/>
+      <c r="B38" s="280"/>
+      <c r="C38" s="285"/>
       <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
@@ -9519,8 +9552,8 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="277"/>
-      <c r="C39" s="297"/>
+      <c r="B39" s="280"/>
+      <c r="C39" s="285"/>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
@@ -9641,8 +9674,8 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="277"/>
-      <c r="C40" s="297"/>
+      <c r="B40" s="280"/>
+      <c r="C40" s="285"/>
       <c r="D40" s="5" t="s">
         <v>76</v>
       </c>
@@ -9763,8 +9796,8 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="277"/>
-      <c r="C41" s="297"/>
+      <c r="B41" s="280"/>
+      <c r="C41" s="285"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
@@ -9885,8 +9918,8 @@
       <c r="DK41" s="52"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="277"/>
-      <c r="C42" s="297"/>
+      <c r="B42" s="280"/>
+      <c r="C42" s="285"/>
       <c r="D42" s="5" t="s">
         <v>78</v>
       </c>
@@ -10007,8 +10040,8 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="277"/>
-      <c r="C43" s="297"/>
+      <c r="B43" s="280"/>
+      <c r="C43" s="285"/>
       <c r="D43" s="5" t="s">
         <v>79</v>
       </c>
@@ -10129,8 +10162,8 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="277"/>
-      <c r="C44" s="297"/>
+      <c r="B44" s="280"/>
+      <c r="C44" s="285"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="75"/>
@@ -10245,8 +10278,8 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="277"/>
-      <c r="C45" s="297"/>
+      <c r="B45" s="280"/>
+      <c r="C45" s="285"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="78"/>
@@ -10361,16 +10394,18 @@
       <c r="DK45" s="61"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="277"/>
-      <c r="C46" s="284" t="s">
+      <c r="B46" s="280"/>
+      <c r="C46" s="278" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="E46" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F46" s="175">
-        <v>40368</v>
+        <v>40354</v>
       </c>
       <c r="G46" s="235"/>
       <c r="H46" s="228"/>
@@ -10386,18 +10421,18 @@
       <c r="R46" s="100"/>
       <c r="S46" s="99"/>
       <c r="T46" s="72"/>
-      <c r="U46" s="100"/>
-      <c r="V46" s="100"/>
-      <c r="W46" s="100"/>
-      <c r="X46" s="100"/>
-      <c r="Y46" s="100"/>
+      <c r="U46" s="300"/>
+      <c r="V46" s="300"/>
+      <c r="W46" s="62"/>
+      <c r="X46" s="62"/>
+      <c r="Y46" s="62"/>
       <c r="Z46" s="72"/>
       <c r="AA46" s="72"/>
-      <c r="AB46" s="100"/>
-      <c r="AC46" s="100"/>
-      <c r="AD46" s="100"/>
-      <c r="AE46" s="100"/>
-      <c r="AF46" s="100"/>
+      <c r="AB46" s="62"/>
+      <c r="AC46" s="62"/>
+      <c r="AD46" s="62"/>
+      <c r="AE46" s="62"/>
+      <c r="AF46" s="62"/>
       <c r="AG46" s="72"/>
       <c r="AH46" s="72"/>
       <c r="AI46" s="62"/>
@@ -10483,11 +10518,17 @@
       <c r="DK46" s="67"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="277"/>
-      <c r="C47" s="284"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="75"/>
+      <c r="B47" s="280"/>
+      <c r="C47" s="278"/>
+      <c r="D47" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="175">
+        <v>40358</v>
+      </c>
       <c r="G47" s="215"/>
       <c r="H47" s="216"/>
       <c r="I47" s="216"/>
@@ -10502,8 +10543,8 @@
       <c r="R47" s="48"/>
       <c r="S47" s="71"/>
       <c r="T47" s="71"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="48"/>
+      <c r="U47" s="100"/>
+      <c r="V47" s="100"/>
       <c r="W47" s="48"/>
       <c r="X47" s="48"/>
       <c r="Y47" s="48"/>
@@ -10599,254 +10640,266 @@
       <c r="DK47" s="52"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="277"/>
-      <c r="C48" s="284"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="231"/>
-      <c r="H48" s="232"/>
-      <c r="I48" s="232"/>
-      <c r="J48" s="232"/>
-      <c r="K48" s="232"/>
-      <c r="L48" s="234"/>
-      <c r="M48" s="234"/>
-      <c r="N48" s="232"/>
-      <c r="O48" s="232"/>
-      <c r="P48" s="232"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="73"/>
-      <c r="T48" s="73"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57"/>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="73"/>
-      <c r="AA48" s="73"/>
-      <c r="AB48" s="57"/>
-      <c r="AC48" s="57"/>
-      <c r="AD48" s="57"/>
-      <c r="AE48" s="57"/>
-      <c r="AF48" s="57"/>
-      <c r="AG48" s="73"/>
-      <c r="AH48" s="73"/>
-      <c r="AI48" s="57"/>
-      <c r="AJ48" s="57"/>
-      <c r="AK48" s="57"/>
-      <c r="AL48" s="57"/>
-      <c r="AM48" s="57"/>
-      <c r="AN48" s="73"/>
-      <c r="AO48" s="73"/>
-      <c r="AP48" s="57"/>
-      <c r="AQ48" s="57"/>
-      <c r="AR48" s="57"/>
-      <c r="AS48" s="57"/>
-      <c r="AT48" s="152"/>
-      <c r="AU48" s="73"/>
-      <c r="AV48" s="73"/>
-      <c r="AW48" s="57"/>
-      <c r="AX48" s="57"/>
-      <c r="AY48" s="57"/>
-      <c r="AZ48" s="57"/>
-      <c r="BA48" s="152"/>
-      <c r="BB48" s="73"/>
-      <c r="BC48" s="73"/>
-      <c r="BD48" s="57"/>
-      <c r="BE48" s="57"/>
-      <c r="BF48" s="57"/>
-      <c r="BG48" s="57"/>
-      <c r="BH48" s="152"/>
-      <c r="BI48" s="73"/>
-      <c r="BJ48" s="73"/>
-      <c r="BK48" s="57"/>
-      <c r="BL48" s="57"/>
-      <c r="BM48" s="57"/>
-      <c r="BN48" s="57"/>
-      <c r="BO48" s="57"/>
-      <c r="BP48" s="73"/>
-      <c r="BQ48" s="73"/>
-      <c r="BR48" s="57"/>
-      <c r="BS48" s="57"/>
-      <c r="BT48" s="57"/>
-      <c r="BU48" s="57"/>
-      <c r="BV48" s="57"/>
-      <c r="BW48" s="73"/>
-      <c r="BX48" s="73"/>
-      <c r="BY48" s="57"/>
-      <c r="BZ48" s="57"/>
-      <c r="CA48" s="57"/>
-      <c r="CB48" s="57"/>
-      <c r="CC48" s="57"/>
-      <c r="CD48" s="73"/>
-      <c r="CE48" s="73"/>
-      <c r="CF48" s="57"/>
-      <c r="CG48" s="57"/>
-      <c r="CH48" s="57"/>
-      <c r="CI48" s="57"/>
-      <c r="CJ48" s="57"/>
-      <c r="CK48" s="73"/>
-      <c r="CL48" s="73"/>
-      <c r="CM48" s="57"/>
-      <c r="CN48" s="57"/>
-      <c r="CO48" s="57"/>
-      <c r="CP48" s="57"/>
-      <c r="CQ48" s="57"/>
-      <c r="CR48" s="73"/>
-      <c r="CS48" s="73"/>
-      <c r="CT48" s="57"/>
-      <c r="CU48" s="57"/>
-      <c r="CV48" s="57"/>
-      <c r="CW48" s="57"/>
-      <c r="CX48" s="57"/>
-      <c r="CY48" s="73"/>
-      <c r="CZ48" s="73"/>
-      <c r="DA48" s="57"/>
-      <c r="DB48" s="57"/>
-      <c r="DC48" s="57"/>
-      <c r="DD48" s="57"/>
-      <c r="DE48" s="57"/>
-      <c r="DF48" s="73"/>
-      <c r="DG48" s="73"/>
-      <c r="DH48" s="58"/>
-      <c r="DI48" s="59"/>
-      <c r="DJ48" s="60"/>
-      <c r="DK48" s="61"/>
+      <c r="B48" s="280"/>
+      <c r="C48" s="278"/>
+      <c r="D48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="175">
+        <v>40360</v>
+      </c>
+      <c r="G48" s="215"/>
+      <c r="H48" s="216"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="236"/>
+      <c r="K48" s="236"/>
+      <c r="L48" s="230"/>
+      <c r="M48" s="230"/>
+      <c r="N48" s="216"/>
+      <c r="O48" s="216"/>
+      <c r="P48" s="216"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="301"/>
+      <c r="X48" s="301"/>
+      <c r="Y48" s="48"/>
+      <c r="Z48" s="71"/>
+      <c r="AA48" s="71"/>
+      <c r="AB48" s="48"/>
+      <c r="AC48" s="48"/>
+      <c r="AD48" s="48"/>
+      <c r="AE48" s="48"/>
+      <c r="AF48" s="48"/>
+      <c r="AG48" s="71"/>
+      <c r="AH48" s="71"/>
+      <c r="AI48" s="48"/>
+      <c r="AJ48" s="48"/>
+      <c r="AK48" s="48"/>
+      <c r="AL48" s="48"/>
+      <c r="AM48" s="48"/>
+      <c r="AN48" s="71"/>
+      <c r="AO48" s="71"/>
+      <c r="AP48" s="48"/>
+      <c r="AQ48" s="48"/>
+      <c r="AR48" s="48"/>
+      <c r="AS48" s="48"/>
+      <c r="AT48" s="150"/>
+      <c r="AU48" s="71"/>
+      <c r="AV48" s="71"/>
+      <c r="AW48" s="48"/>
+      <c r="AX48" s="48"/>
+      <c r="AY48" s="48"/>
+      <c r="AZ48" s="48"/>
+      <c r="BA48" s="150"/>
+      <c r="BB48" s="71"/>
+      <c r="BC48" s="71"/>
+      <c r="BD48" s="48"/>
+      <c r="BE48" s="48"/>
+      <c r="BF48" s="48"/>
+      <c r="BG48" s="48"/>
+      <c r="BH48" s="150"/>
+      <c r="BI48" s="71"/>
+      <c r="BJ48" s="71"/>
+      <c r="BK48" s="48"/>
+      <c r="BL48" s="48"/>
+      <c r="BM48" s="48"/>
+      <c r="BN48" s="48"/>
+      <c r="BO48" s="48"/>
+      <c r="BP48" s="71"/>
+      <c r="BQ48" s="71"/>
+      <c r="BR48" s="48"/>
+      <c r="BS48" s="48"/>
+      <c r="BT48" s="48"/>
+      <c r="BU48" s="48"/>
+      <c r="BV48" s="48"/>
+      <c r="BW48" s="71"/>
+      <c r="BX48" s="71"/>
+      <c r="BY48" s="48"/>
+      <c r="BZ48" s="48"/>
+      <c r="CA48" s="48"/>
+      <c r="CB48" s="48"/>
+      <c r="CC48" s="48"/>
+      <c r="CD48" s="71"/>
+      <c r="CE48" s="71"/>
+      <c r="CF48" s="48"/>
+      <c r="CG48" s="48"/>
+      <c r="CH48" s="48"/>
+      <c r="CI48" s="48"/>
+      <c r="CJ48" s="48"/>
+      <c r="CK48" s="71"/>
+      <c r="CL48" s="71"/>
+      <c r="CM48" s="48"/>
+      <c r="CN48" s="48"/>
+      <c r="CO48" s="48"/>
+      <c r="CP48" s="48"/>
+      <c r="CQ48" s="48"/>
+      <c r="CR48" s="71"/>
+      <c r="CS48" s="71"/>
+      <c r="CT48" s="48"/>
+      <c r="CU48" s="48"/>
+      <c r="CV48" s="48"/>
+      <c r="CW48" s="48"/>
+      <c r="CX48" s="48"/>
+      <c r="CY48" s="71"/>
+      <c r="CZ48" s="71"/>
+      <c r="DA48" s="48"/>
+      <c r="DB48" s="48"/>
+      <c r="DC48" s="48"/>
+      <c r="DD48" s="48"/>
+      <c r="DE48" s="48"/>
+      <c r="DF48" s="71"/>
+      <c r="DG48" s="71"/>
+      <c r="DH48" s="49"/>
+      <c r="DI48" s="50"/>
+      <c r="DJ48" s="51"/>
+      <c r="DK48" s="52"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="277"/>
-      <c r="C49" s="282" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="9" t="s">
-        <v>20</v>
+      <c r="B49" s="280"/>
+      <c r="C49" s="278"/>
+      <c r="D49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="F49" s="175">
-        <v>40375</v>
-      </c>
-      <c r="G49" s="226"/>
-      <c r="H49" s="227"/>
-      <c r="I49" s="227"/>
-      <c r="J49" s="227"/>
-      <c r="K49" s="227"/>
-      <c r="L49" s="229"/>
-      <c r="M49" s="229"/>
-      <c r="N49" s="227"/>
-      <c r="O49" s="227"/>
-      <c r="P49" s="227"/>
-      <c r="Q49" s="62"/>
-      <c r="R49" s="62"/>
-      <c r="S49" s="72"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="62"/>
-      <c r="V49" s="62"/>
-      <c r="W49" s="62"/>
-      <c r="X49" s="62"/>
-      <c r="Y49" s="62"/>
-      <c r="Z49" s="72"/>
-      <c r="AA49" s="72"/>
-      <c r="AB49" s="126"/>
-      <c r="AC49" s="126"/>
-      <c r="AD49" s="126"/>
-      <c r="AE49" s="126"/>
-      <c r="AF49" s="126"/>
-      <c r="AG49" s="72"/>
-      <c r="AH49" s="72"/>
-      <c r="AI49" s="126"/>
-      <c r="AJ49" s="126"/>
-      <c r="AK49" s="126"/>
-      <c r="AL49" s="126"/>
-      <c r="AM49" s="126"/>
-      <c r="AN49" s="72"/>
-      <c r="AO49" s="72"/>
-      <c r="AP49" s="62"/>
-      <c r="AQ49" s="62"/>
-      <c r="AR49" s="62"/>
-      <c r="AS49" s="62"/>
-      <c r="AT49" s="151"/>
-      <c r="AU49" s="72"/>
-      <c r="AV49" s="72"/>
-      <c r="AW49" s="62"/>
-      <c r="AX49" s="62"/>
-      <c r="AY49" s="62"/>
-      <c r="AZ49" s="62"/>
-      <c r="BA49" s="151"/>
-      <c r="BB49" s="72"/>
-      <c r="BC49" s="72"/>
-      <c r="BD49" s="62"/>
-      <c r="BE49" s="62"/>
-      <c r="BF49" s="62"/>
-      <c r="BG49" s="62"/>
-      <c r="BH49" s="151"/>
-      <c r="BI49" s="72"/>
-      <c r="BJ49" s="72"/>
-      <c r="BK49" s="62"/>
-      <c r="BL49" s="62"/>
-      <c r="BM49" s="62"/>
-      <c r="BN49" s="62"/>
-      <c r="BO49" s="62"/>
-      <c r="BP49" s="72"/>
-      <c r="BQ49" s="72"/>
-      <c r="BR49" s="62"/>
-      <c r="BS49" s="62"/>
-      <c r="BT49" s="62"/>
-      <c r="BU49" s="62"/>
-      <c r="BV49" s="62"/>
-      <c r="BW49" s="72"/>
-      <c r="BX49" s="72"/>
-      <c r="BY49" s="62"/>
-      <c r="BZ49" s="62"/>
-      <c r="CA49" s="62"/>
-      <c r="CB49" s="62"/>
-      <c r="CC49" s="62"/>
-      <c r="CD49" s="72"/>
-      <c r="CE49" s="72"/>
-      <c r="CF49" s="62"/>
-      <c r="CG49" s="62"/>
-      <c r="CH49" s="62"/>
-      <c r="CI49" s="62"/>
-      <c r="CJ49" s="62"/>
-      <c r="CK49" s="72"/>
-      <c r="CL49" s="72"/>
-      <c r="CM49" s="62"/>
-      <c r="CN49" s="62"/>
-      <c r="CO49" s="62"/>
-      <c r="CP49" s="62"/>
-      <c r="CQ49" s="62"/>
-      <c r="CR49" s="72"/>
-      <c r="CS49" s="72"/>
-      <c r="CT49" s="62"/>
-      <c r="CU49" s="62"/>
-      <c r="CV49" s="62"/>
-      <c r="CW49" s="62"/>
-      <c r="CX49" s="62"/>
-      <c r="CY49" s="72"/>
-      <c r="CZ49" s="72"/>
-      <c r="DA49" s="62"/>
-      <c r="DB49" s="62"/>
-      <c r="DC49" s="62"/>
-      <c r="DD49" s="62"/>
-      <c r="DE49" s="62"/>
-      <c r="DF49" s="72"/>
-      <c r="DG49" s="72"/>
-      <c r="DH49" s="64"/>
-      <c r="DI49" s="65"/>
-      <c r="DJ49" s="66"/>
-      <c r="DK49" s="67"/>
+        <v>40361</v>
+      </c>
+      <c r="G49" s="215"/>
+      <c r="H49" s="216"/>
+      <c r="I49" s="216"/>
+      <c r="J49" s="236"/>
+      <c r="K49" s="236"/>
+      <c r="L49" s="230"/>
+      <c r="M49" s="230"/>
+      <c r="N49" s="216"/>
+      <c r="O49" s="216"/>
+      <c r="P49" s="216"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="48"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="48"/>
+      <c r="V49" s="48"/>
+      <c r="W49" s="48"/>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="301"/>
+      <c r="Z49" s="71"/>
+      <c r="AA49" s="71"/>
+      <c r="AB49" s="48"/>
+      <c r="AC49" s="48"/>
+      <c r="AD49" s="48"/>
+      <c r="AE49" s="48"/>
+      <c r="AF49" s="48"/>
+      <c r="AG49" s="71"/>
+      <c r="AH49" s="71"/>
+      <c r="AI49" s="48"/>
+      <c r="AJ49" s="48"/>
+      <c r="AK49" s="48"/>
+      <c r="AL49" s="48"/>
+      <c r="AM49" s="48"/>
+      <c r="AN49" s="71"/>
+      <c r="AO49" s="71"/>
+      <c r="AP49" s="48"/>
+      <c r="AQ49" s="48"/>
+      <c r="AR49" s="48"/>
+      <c r="AS49" s="48"/>
+      <c r="AT49" s="150"/>
+      <c r="AU49" s="71"/>
+      <c r="AV49" s="71"/>
+      <c r="AW49" s="48"/>
+      <c r="AX49" s="48"/>
+      <c r="AY49" s="48"/>
+      <c r="AZ49" s="48"/>
+      <c r="BA49" s="150"/>
+      <c r="BB49" s="71"/>
+      <c r="BC49" s="71"/>
+      <c r="BD49" s="48"/>
+      <c r="BE49" s="48"/>
+      <c r="BF49" s="48"/>
+      <c r="BG49" s="48"/>
+      <c r="BH49" s="150"/>
+      <c r="BI49" s="71"/>
+      <c r="BJ49" s="71"/>
+      <c r="BK49" s="48"/>
+      <c r="BL49" s="48"/>
+      <c r="BM49" s="48"/>
+      <c r="BN49" s="48"/>
+      <c r="BO49" s="48"/>
+      <c r="BP49" s="71"/>
+      <c r="BQ49" s="71"/>
+      <c r="BR49" s="48"/>
+      <c r="BS49" s="48"/>
+      <c r="BT49" s="48"/>
+      <c r="BU49" s="48"/>
+      <c r="BV49" s="48"/>
+      <c r="BW49" s="71"/>
+      <c r="BX49" s="71"/>
+      <c r="BY49" s="48"/>
+      <c r="BZ49" s="48"/>
+      <c r="CA49" s="48"/>
+      <c r="CB49" s="48"/>
+      <c r="CC49" s="48"/>
+      <c r="CD49" s="71"/>
+      <c r="CE49" s="71"/>
+      <c r="CF49" s="48"/>
+      <c r="CG49" s="48"/>
+      <c r="CH49" s="48"/>
+      <c r="CI49" s="48"/>
+      <c r="CJ49" s="48"/>
+      <c r="CK49" s="71"/>
+      <c r="CL49" s="71"/>
+      <c r="CM49" s="48"/>
+      <c r="CN49" s="48"/>
+      <c r="CO49" s="48"/>
+      <c r="CP49" s="48"/>
+      <c r="CQ49" s="48"/>
+      <c r="CR49" s="71"/>
+      <c r="CS49" s="71"/>
+      <c r="CT49" s="48"/>
+      <c r="CU49" s="48"/>
+      <c r="CV49" s="48"/>
+      <c r="CW49" s="48"/>
+      <c r="CX49" s="48"/>
+      <c r="CY49" s="71"/>
+      <c r="CZ49" s="71"/>
+      <c r="DA49" s="48"/>
+      <c r="DB49" s="48"/>
+      <c r="DC49" s="48"/>
+      <c r="DD49" s="48"/>
+      <c r="DE49" s="48"/>
+      <c r="DF49" s="71"/>
+      <c r="DG49" s="71"/>
+      <c r="DH49" s="49"/>
+      <c r="DI49" s="50"/>
+      <c r="DJ49" s="51"/>
+      <c r="DK49" s="52"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="277"/>
-      <c r="C50" s="281"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="75"/>
+      <c r="B50" s="280"/>
+      <c r="C50" s="278"/>
+      <c r="D50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="175">
+        <v>40368</v>
+      </c>
       <c r="G50" s="215"/>
       <c r="H50" s="216"/>
       <c r="I50" s="216"/>
-      <c r="J50" s="216"/>
-      <c r="K50" s="216"/>
+      <c r="J50" s="236"/>
+      <c r="K50" s="236"/>
       <c r="L50" s="230"/>
       <c r="M50" s="230"/>
       <c r="N50" s="216"/>
@@ -10863,11 +10916,11 @@
       <c r="Y50" s="48"/>
       <c r="Z50" s="71"/>
       <c r="AA50" s="71"/>
-      <c r="AB50" s="48"/>
-      <c r="AC50" s="48"/>
-      <c r="AD50" s="48"/>
-      <c r="AE50" s="48"/>
-      <c r="AF50" s="48"/>
+      <c r="AB50" s="299"/>
+      <c r="AC50" s="299"/>
+      <c r="AD50" s="299"/>
+      <c r="AE50" s="299"/>
+      <c r="AF50" s="299"/>
       <c r="AG50" s="71"/>
       <c r="AH50" s="71"/>
       <c r="AI50" s="48"/>
@@ -10953,132 +11006,132 @@
       <c r="DK50" s="52"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="277"/>
-      <c r="C51" s="283"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="231"/>
-      <c r="H51" s="232"/>
-      <c r="I51" s="232"/>
-      <c r="J51" s="232"/>
-      <c r="K51" s="232"/>
-      <c r="L51" s="234"/>
-      <c r="M51" s="234"/>
-      <c r="N51" s="232"/>
-      <c r="O51" s="232"/>
-      <c r="P51" s="232"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="73"/>
-      <c r="T51" s="73"/>
-      <c r="U51" s="57"/>
-      <c r="V51" s="57"/>
-      <c r="W51" s="57"/>
-      <c r="X51" s="57"/>
-      <c r="Y51" s="57"/>
-      <c r="Z51" s="73"/>
-      <c r="AA51" s="73"/>
-      <c r="AB51" s="57"/>
-      <c r="AC51" s="57"/>
-      <c r="AD51" s="57"/>
-      <c r="AE51" s="57"/>
-      <c r="AF51" s="57"/>
-      <c r="AG51" s="73"/>
-      <c r="AH51" s="73"/>
-      <c r="AI51" s="57"/>
-      <c r="AJ51" s="57"/>
-      <c r="AK51" s="57"/>
-      <c r="AL51" s="57"/>
-      <c r="AM51" s="57"/>
-      <c r="AN51" s="73"/>
-      <c r="AO51" s="73"/>
-      <c r="AP51" s="57"/>
-      <c r="AQ51" s="57"/>
-      <c r="AR51" s="57"/>
-      <c r="AS51" s="57"/>
-      <c r="AT51" s="152"/>
-      <c r="AU51" s="73"/>
-      <c r="AV51" s="73"/>
-      <c r="AW51" s="57"/>
-      <c r="AX51" s="57"/>
-      <c r="AY51" s="57"/>
-      <c r="AZ51" s="57"/>
-      <c r="BA51" s="152"/>
-      <c r="BB51" s="73"/>
-      <c r="BC51" s="73"/>
-      <c r="BD51" s="57"/>
-      <c r="BE51" s="57"/>
-      <c r="BF51" s="57"/>
-      <c r="BG51" s="57"/>
-      <c r="BH51" s="152"/>
-      <c r="BI51" s="73"/>
-      <c r="BJ51" s="73"/>
-      <c r="BK51" s="57"/>
-      <c r="BL51" s="57"/>
-      <c r="BM51" s="57"/>
-      <c r="BN51" s="57"/>
-      <c r="BO51" s="57"/>
-      <c r="BP51" s="73"/>
-      <c r="BQ51" s="73"/>
-      <c r="BR51" s="57"/>
-      <c r="BS51" s="57"/>
-      <c r="BT51" s="57"/>
-      <c r="BU51" s="57"/>
-      <c r="BV51" s="57"/>
-      <c r="BW51" s="73"/>
-      <c r="BX51" s="73"/>
-      <c r="BY51" s="57"/>
-      <c r="BZ51" s="57"/>
-      <c r="CA51" s="57"/>
-      <c r="CB51" s="57"/>
-      <c r="CC51" s="57"/>
-      <c r="CD51" s="73"/>
-      <c r="CE51" s="73"/>
-      <c r="CF51" s="57"/>
-      <c r="CG51" s="57"/>
-      <c r="CH51" s="57"/>
-      <c r="CI51" s="57"/>
-      <c r="CJ51" s="57"/>
-      <c r="CK51" s="73"/>
-      <c r="CL51" s="73"/>
-      <c r="CM51" s="57"/>
-      <c r="CN51" s="57"/>
-      <c r="CO51" s="57"/>
-      <c r="CP51" s="57"/>
-      <c r="CQ51" s="57"/>
-      <c r="CR51" s="73"/>
-      <c r="CS51" s="73"/>
-      <c r="CT51" s="57"/>
-      <c r="CU51" s="57"/>
-      <c r="CV51" s="57"/>
-      <c r="CW51" s="57"/>
-      <c r="CX51" s="57"/>
-      <c r="CY51" s="73"/>
-      <c r="CZ51" s="73"/>
-      <c r="DA51" s="57"/>
-      <c r="DB51" s="57"/>
-      <c r="DC51" s="57"/>
-      <c r="DD51" s="57"/>
-      <c r="DE51" s="57"/>
-      <c r="DF51" s="73"/>
-      <c r="DG51" s="73"/>
-      <c r="DH51" s="58"/>
-      <c r="DI51" s="59"/>
-      <c r="DJ51" s="60"/>
-      <c r="DK51" s="61"/>
+      <c r="B51" s="280"/>
+      <c r="C51" s="278"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="175"/>
+      <c r="G51" s="215"/>
+      <c r="H51" s="216"/>
+      <c r="I51" s="216"/>
+      <c r="J51" s="236"/>
+      <c r="K51" s="236"/>
+      <c r="L51" s="230"/>
+      <c r="M51" s="230"/>
+      <c r="N51" s="216"/>
+      <c r="O51" s="216"/>
+      <c r="P51" s="216"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="48"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="48"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="48"/>
+      <c r="X51" s="48"/>
+      <c r="Y51" s="48"/>
+      <c r="Z51" s="71"/>
+      <c r="AA51" s="71"/>
+      <c r="AB51" s="48"/>
+      <c r="AC51" s="48"/>
+      <c r="AD51" s="48"/>
+      <c r="AE51" s="48"/>
+      <c r="AF51" s="48"/>
+      <c r="AG51" s="71"/>
+      <c r="AH51" s="71"/>
+      <c r="AI51" s="48"/>
+      <c r="AJ51" s="48"/>
+      <c r="AK51" s="48"/>
+      <c r="AL51" s="48"/>
+      <c r="AM51" s="48"/>
+      <c r="AN51" s="71"/>
+      <c r="AO51" s="71"/>
+      <c r="AP51" s="48"/>
+      <c r="AQ51" s="48"/>
+      <c r="AR51" s="48"/>
+      <c r="AS51" s="48"/>
+      <c r="AT51" s="150"/>
+      <c r="AU51" s="71"/>
+      <c r="AV51" s="71"/>
+      <c r="AW51" s="48"/>
+      <c r="AX51" s="48"/>
+      <c r="AY51" s="48"/>
+      <c r="AZ51" s="48"/>
+      <c r="BA51" s="150"/>
+      <c r="BB51" s="71"/>
+      <c r="BC51" s="71"/>
+      <c r="BD51" s="48"/>
+      <c r="BE51" s="48"/>
+      <c r="BF51" s="48"/>
+      <c r="BG51" s="48"/>
+      <c r="BH51" s="150"/>
+      <c r="BI51" s="71"/>
+      <c r="BJ51" s="71"/>
+      <c r="BK51" s="48"/>
+      <c r="BL51" s="48"/>
+      <c r="BM51" s="48"/>
+      <c r="BN51" s="48"/>
+      <c r="BO51" s="48"/>
+      <c r="BP51" s="71"/>
+      <c r="BQ51" s="71"/>
+      <c r="BR51" s="48"/>
+      <c r="BS51" s="48"/>
+      <c r="BT51" s="48"/>
+      <c r="BU51" s="48"/>
+      <c r="BV51" s="48"/>
+      <c r="BW51" s="71"/>
+      <c r="BX51" s="71"/>
+      <c r="BY51" s="48"/>
+      <c r="BZ51" s="48"/>
+      <c r="CA51" s="48"/>
+      <c r="CB51" s="48"/>
+      <c r="CC51" s="48"/>
+      <c r="CD51" s="71"/>
+      <c r="CE51" s="71"/>
+      <c r="CF51" s="48"/>
+      <c r="CG51" s="48"/>
+      <c r="CH51" s="48"/>
+      <c r="CI51" s="48"/>
+      <c r="CJ51" s="48"/>
+      <c r="CK51" s="71"/>
+      <c r="CL51" s="71"/>
+      <c r="CM51" s="48"/>
+      <c r="CN51" s="48"/>
+      <c r="CO51" s="48"/>
+      <c r="CP51" s="48"/>
+      <c r="CQ51" s="48"/>
+      <c r="CR51" s="71"/>
+      <c r="CS51" s="71"/>
+      <c r="CT51" s="48"/>
+      <c r="CU51" s="48"/>
+      <c r="CV51" s="48"/>
+      <c r="CW51" s="48"/>
+      <c r="CX51" s="48"/>
+      <c r="CY51" s="71"/>
+      <c r="CZ51" s="71"/>
+      <c r="DA51" s="48"/>
+      <c r="DB51" s="48"/>
+      <c r="DC51" s="48"/>
+      <c r="DD51" s="48"/>
+      <c r="DE51" s="48"/>
+      <c r="DF51" s="71"/>
+      <c r="DG51" s="71"/>
+      <c r="DH51" s="49"/>
+      <c r="DI51" s="50"/>
+      <c r="DJ51" s="51"/>
+      <c r="DK51" s="52"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="277"/>
-      <c r="C52" s="283"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="9"/>
+      <c r="B52" s="280"/>
+      <c r="C52" s="278"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
       <c r="F52" s="175"/>
       <c r="G52" s="215"/>
       <c r="H52" s="216"/>
       <c r="I52" s="216"/>
-      <c r="J52" s="216"/>
-      <c r="K52" s="216"/>
+      <c r="J52" s="236"/>
+      <c r="K52" s="236"/>
       <c r="L52" s="230"/>
       <c r="M52" s="230"/>
       <c r="N52" s="216"/>
@@ -11094,19 +11147,19 @@
       <c r="X52" s="48"/>
       <c r="Y52" s="48"/>
       <c r="Z52" s="71"/>
-      <c r="AA52" s="98"/>
-      <c r="AB52" s="62"/>
-      <c r="AC52" s="62"/>
-      <c r="AD52" s="62"/>
-      <c r="AE52" s="62"/>
-      <c r="AF52" s="62"/>
-      <c r="AG52" s="95"/>
+      <c r="AA52" s="71"/>
+      <c r="AB52" s="48"/>
+      <c r="AC52" s="48"/>
+      <c r="AD52" s="48"/>
+      <c r="AE52" s="48"/>
+      <c r="AF52" s="48"/>
+      <c r="AG52" s="71"/>
       <c r="AH52" s="71"/>
-      <c r="AI52" s="62"/>
-      <c r="AJ52" s="62"/>
-      <c r="AK52" s="62"/>
-      <c r="AL52" s="62"/>
-      <c r="AM52" s="62"/>
+      <c r="AI52" s="48"/>
+      <c r="AJ52" s="48"/>
+      <c r="AK52" s="48"/>
+      <c r="AL52" s="48"/>
+      <c r="AM52" s="48"/>
       <c r="AN52" s="71"/>
       <c r="AO52" s="71"/>
       <c r="AP52" s="48"/>
@@ -11185,16 +11238,16 @@
       <c r="DK52" s="52"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="277"/>
-      <c r="C53" s="297"/>
+      <c r="B53" s="280"/>
+      <c r="C53" s="278"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="75"/>
+      <c r="F53" s="175"/>
       <c r="G53" s="215"/>
       <c r="H53" s="216"/>
       <c r="I53" s="216"/>
-      <c r="J53" s="216"/>
-      <c r="K53" s="216"/>
+      <c r="J53" s="236"/>
+      <c r="K53" s="236"/>
       <c r="L53" s="230"/>
       <c r="M53" s="230"/>
       <c r="N53" s="216"/>
@@ -11300,263 +11353,253 @@
       <c r="DJ53" s="51"/>
       <c r="DK53" s="52"/>
     </row>
-    <row r="54" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B54" s="286"/>
-      <c r="C54" s="298"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="202"/>
-      <c r="H54" s="203"/>
-      <c r="I54" s="203"/>
-      <c r="J54" s="203"/>
-      <c r="K54" s="203"/>
-      <c r="L54" s="237"/>
-      <c r="M54" s="237"/>
-      <c r="N54" s="203"/>
-      <c r="O54" s="216"/>
-      <c r="P54" s="216"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="71"/>
-      <c r="T54" s="71"/>
-      <c r="U54" s="48"/>
-      <c r="V54" s="48"/>
-      <c r="W54" s="48"/>
-      <c r="X54" s="48"/>
-      <c r="Y54" s="48"/>
-      <c r="Z54" s="69"/>
-      <c r="AA54" s="69"/>
-      <c r="AB54" s="32"/>
-      <c r="AC54" s="32"/>
-      <c r="AD54" s="32"/>
-      <c r="AE54" s="32"/>
-      <c r="AF54" s="32"/>
-      <c r="AG54" s="69"/>
-      <c r="AH54" s="69"/>
-      <c r="AI54" s="32"/>
-      <c r="AJ54" s="32"/>
-      <c r="AK54" s="32"/>
-      <c r="AL54" s="32"/>
-      <c r="AM54" s="32"/>
-      <c r="AN54" s="69"/>
-      <c r="AO54" s="69"/>
-      <c r="AP54" s="32"/>
-      <c r="AQ54" s="32"/>
-      <c r="AR54" s="32"/>
-      <c r="AS54" s="32"/>
-      <c r="AT54" s="148"/>
-      <c r="AU54" s="69"/>
-      <c r="AV54" s="69"/>
-      <c r="AW54" s="32"/>
-      <c r="AX54" s="32"/>
-      <c r="AY54" s="32"/>
-      <c r="AZ54" s="32"/>
-      <c r="BA54" s="148"/>
-      <c r="BB54" s="69"/>
-      <c r="BC54" s="69"/>
-      <c r="BD54" s="32"/>
-      <c r="BE54" s="32"/>
-      <c r="BF54" s="32"/>
-      <c r="BG54" s="32"/>
-      <c r="BH54" s="148"/>
-      <c r="BI54" s="69"/>
-      <c r="BJ54" s="69"/>
-      <c r="BK54" s="32"/>
-      <c r="BL54" s="32"/>
-      <c r="BM54" s="32"/>
-      <c r="BN54" s="32"/>
-      <c r="BO54" s="32"/>
-      <c r="BP54" s="69"/>
-      <c r="BQ54" s="69"/>
-      <c r="BR54" s="32"/>
-      <c r="BS54" s="32"/>
-      <c r="BT54" s="32"/>
-      <c r="BU54" s="32"/>
-      <c r="BV54" s="32"/>
-      <c r="BW54" s="69"/>
-      <c r="BX54" s="69"/>
-      <c r="BY54" s="32"/>
-      <c r="BZ54" s="32"/>
-      <c r="CA54" s="32"/>
-      <c r="CB54" s="32"/>
-      <c r="CC54" s="32"/>
-      <c r="CD54" s="69"/>
-      <c r="CE54" s="69"/>
-      <c r="CF54" s="32"/>
-      <c r="CG54" s="32"/>
-      <c r="CH54" s="32"/>
-      <c r="CI54" s="32"/>
-      <c r="CJ54" s="32"/>
-      <c r="CK54" s="69"/>
-      <c r="CL54" s="69"/>
-      <c r="CM54" s="32"/>
-      <c r="CN54" s="32"/>
-      <c r="CO54" s="32"/>
-      <c r="CP54" s="32"/>
-      <c r="CQ54" s="32"/>
-      <c r="CR54" s="69"/>
-      <c r="CS54" s="69"/>
-      <c r="CT54" s="32"/>
-      <c r="CU54" s="32"/>
-      <c r="CV54" s="32"/>
-      <c r="CW54" s="32"/>
-      <c r="CX54" s="32"/>
-      <c r="CY54" s="69"/>
-      <c r="CZ54" s="69"/>
-      <c r="DA54" s="32"/>
-      <c r="DB54" s="32"/>
-      <c r="DC54" s="32"/>
-      <c r="DD54" s="32"/>
-      <c r="DE54" s="32"/>
-      <c r="DF54" s="69"/>
-      <c r="DG54" s="69"/>
-      <c r="DH54" s="33"/>
-      <c r="DI54" s="34"/>
-      <c r="DJ54" s="35"/>
-      <c r="DK54" s="36"/>
+    <row r="54" spans="2:115">
+      <c r="B54" s="280"/>
+      <c r="C54" s="278"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="231"/>
+      <c r="H54" s="232"/>
+      <c r="I54" s="232"/>
+      <c r="J54" s="232"/>
+      <c r="K54" s="232"/>
+      <c r="L54" s="234"/>
+      <c r="M54" s="234"/>
+      <c r="N54" s="232"/>
+      <c r="O54" s="232"/>
+      <c r="P54" s="232"/>
+      <c r="Q54" s="57"/>
+      <c r="R54" s="57"/>
+      <c r="S54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="U54" s="57"/>
+      <c r="V54" s="57"/>
+      <c r="W54" s="57"/>
+      <c r="X54" s="57"/>
+      <c r="Y54" s="57"/>
+      <c r="Z54" s="73"/>
+      <c r="AA54" s="73"/>
+      <c r="AB54" s="57"/>
+      <c r="AC54" s="57"/>
+      <c r="AD54" s="57"/>
+      <c r="AE54" s="57"/>
+      <c r="AF54" s="57"/>
+      <c r="AG54" s="73"/>
+      <c r="AH54" s="73"/>
+      <c r="AI54" s="57"/>
+      <c r="AJ54" s="57"/>
+      <c r="AK54" s="57"/>
+      <c r="AL54" s="57"/>
+      <c r="AM54" s="57"/>
+      <c r="AN54" s="73"/>
+      <c r="AO54" s="73"/>
+      <c r="AP54" s="57"/>
+      <c r="AQ54" s="57"/>
+      <c r="AR54" s="57"/>
+      <c r="AS54" s="57"/>
+      <c r="AT54" s="152"/>
+      <c r="AU54" s="73"/>
+      <c r="AV54" s="73"/>
+      <c r="AW54" s="57"/>
+      <c r="AX54" s="57"/>
+      <c r="AY54" s="57"/>
+      <c r="AZ54" s="57"/>
+      <c r="BA54" s="152"/>
+      <c r="BB54" s="73"/>
+      <c r="BC54" s="73"/>
+      <c r="BD54" s="57"/>
+      <c r="BE54" s="57"/>
+      <c r="BF54" s="57"/>
+      <c r="BG54" s="57"/>
+      <c r="BH54" s="152"/>
+      <c r="BI54" s="73"/>
+      <c r="BJ54" s="73"/>
+      <c r="BK54" s="57"/>
+      <c r="BL54" s="57"/>
+      <c r="BM54" s="57"/>
+      <c r="BN54" s="57"/>
+      <c r="BO54" s="57"/>
+      <c r="BP54" s="73"/>
+      <c r="BQ54" s="73"/>
+      <c r="BR54" s="57"/>
+      <c r="BS54" s="57"/>
+      <c r="BT54" s="57"/>
+      <c r="BU54" s="57"/>
+      <c r="BV54" s="57"/>
+      <c r="BW54" s="73"/>
+      <c r="BX54" s="73"/>
+      <c r="BY54" s="57"/>
+      <c r="BZ54" s="57"/>
+      <c r="CA54" s="57"/>
+      <c r="CB54" s="57"/>
+      <c r="CC54" s="57"/>
+      <c r="CD54" s="73"/>
+      <c r="CE54" s="73"/>
+      <c r="CF54" s="57"/>
+      <c r="CG54" s="57"/>
+      <c r="CH54" s="57"/>
+      <c r="CI54" s="57"/>
+      <c r="CJ54" s="57"/>
+      <c r="CK54" s="73"/>
+      <c r="CL54" s="73"/>
+      <c r="CM54" s="57"/>
+      <c r="CN54" s="57"/>
+      <c r="CO54" s="57"/>
+      <c r="CP54" s="57"/>
+      <c r="CQ54" s="57"/>
+      <c r="CR54" s="73"/>
+      <c r="CS54" s="73"/>
+      <c r="CT54" s="57"/>
+      <c r="CU54" s="57"/>
+      <c r="CV54" s="57"/>
+      <c r="CW54" s="57"/>
+      <c r="CX54" s="57"/>
+      <c r="CY54" s="73"/>
+      <c r="CZ54" s="73"/>
+      <c r="DA54" s="57"/>
+      <c r="DB54" s="57"/>
+      <c r="DC54" s="57"/>
+      <c r="DD54" s="57"/>
+      <c r="DE54" s="57"/>
+      <c r="DF54" s="73"/>
+      <c r="DG54" s="73"/>
+      <c r="DH54" s="58"/>
+      <c r="DI54" s="59"/>
+      <c r="DJ54" s="60"/>
+      <c r="DK54" s="61"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="292" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="284" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>19</v>
+      <c r="B55" s="280"/>
+      <c r="C55" s="291" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F55" s="175">
-        <v>40353</v>
-      </c>
-      <c r="G55" s="238"/>
-      <c r="H55" s="239"/>
-      <c r="I55" s="239"/>
-      <c r="J55" s="209"/>
-      <c r="K55" s="209"/>
-      <c r="L55" s="240"/>
-      <c r="M55" s="240"/>
-      <c r="N55" s="210"/>
-      <c r="O55" s="276"/>
-      <c r="P55" s="276"/>
-      <c r="Q55" s="103"/>
-      <c r="R55" s="103"/>
-      <c r="S55" s="101"/>
-      <c r="T55" s="102"/>
-      <c r="U55" s="42"/>
-      <c r="V55" s="42"/>
-      <c r="W55" s="42"/>
-      <c r="X55" s="42"/>
-      <c r="Y55" s="42"/>
-      <c r="Z55" s="94"/>
-      <c r="AA55" s="70"/>
-      <c r="AB55" s="42"/>
-      <c r="AC55" s="42"/>
-      <c r="AD55" s="42"/>
-      <c r="AE55" s="42"/>
-      <c r="AF55" s="42"/>
-      <c r="AG55" s="70"/>
-      <c r="AH55" s="70"/>
-      <c r="AI55" s="42"/>
-      <c r="AJ55" s="42"/>
-      <c r="AK55" s="42"/>
-      <c r="AL55" s="42"/>
-      <c r="AM55" s="42"/>
-      <c r="AN55" s="70"/>
-      <c r="AO55" s="70"/>
-      <c r="AP55" s="42"/>
-      <c r="AQ55" s="42"/>
-      <c r="AR55" s="42"/>
-      <c r="AS55" s="42"/>
-      <c r="AT55" s="149"/>
-      <c r="AU55" s="70"/>
-      <c r="AV55" s="70"/>
-      <c r="AW55" s="42"/>
-      <c r="AX55" s="42"/>
-      <c r="AY55" s="42"/>
-      <c r="AZ55" s="42"/>
-      <c r="BA55" s="149"/>
-      <c r="BB55" s="70"/>
-      <c r="BC55" s="70"/>
-      <c r="BD55" s="42"/>
-      <c r="BE55" s="42"/>
-      <c r="BF55" s="42"/>
-      <c r="BG55" s="42"/>
-      <c r="BH55" s="149"/>
-      <c r="BI55" s="70"/>
-      <c r="BJ55" s="70"/>
-      <c r="BK55" s="42"/>
-      <c r="BL55" s="42"/>
-      <c r="BM55" s="42"/>
-      <c r="BN55" s="42"/>
-      <c r="BO55" s="42"/>
-      <c r="BP55" s="70"/>
-      <c r="BQ55" s="70"/>
-      <c r="BR55" s="42"/>
-      <c r="BS55" s="42"/>
-      <c r="BT55" s="42"/>
-      <c r="BU55" s="42"/>
-      <c r="BV55" s="42"/>
-      <c r="BW55" s="70"/>
-      <c r="BX55" s="70"/>
-      <c r="BY55" s="42"/>
-      <c r="BZ55" s="42"/>
-      <c r="CA55" s="42"/>
-      <c r="CB55" s="42"/>
-      <c r="CC55" s="42"/>
-      <c r="CD55" s="70"/>
-      <c r="CE55" s="70"/>
-      <c r="CF55" s="42"/>
-      <c r="CG55" s="42"/>
-      <c r="CH55" s="42"/>
-      <c r="CI55" s="42"/>
-      <c r="CJ55" s="42"/>
-      <c r="CK55" s="70"/>
-      <c r="CL55" s="70"/>
-      <c r="CM55" s="42"/>
-      <c r="CN55" s="42"/>
-      <c r="CO55" s="42"/>
-      <c r="CP55" s="42"/>
-      <c r="CQ55" s="42"/>
-      <c r="CR55" s="70"/>
-      <c r="CS55" s="70"/>
-      <c r="CT55" s="42"/>
-      <c r="CU55" s="42"/>
-      <c r="CV55" s="42"/>
-      <c r="CW55" s="42"/>
-      <c r="CX55" s="42"/>
-      <c r="CY55" s="70"/>
-      <c r="CZ55" s="70"/>
-      <c r="DA55" s="42"/>
-      <c r="DB55" s="42"/>
-      <c r="DC55" s="42"/>
-      <c r="DD55" s="42"/>
-      <c r="DE55" s="42"/>
-      <c r="DF55" s="70"/>
-      <c r="DG55" s="70"/>
-      <c r="DH55" s="44"/>
-      <c r="DI55" s="45"/>
-      <c r="DJ55" s="46"/>
-      <c r="DK55" s="47"/>
+        <v>40375</v>
+      </c>
+      <c r="G55" s="226"/>
+      <c r="H55" s="227"/>
+      <c r="I55" s="227"/>
+      <c r="J55" s="227"/>
+      <c r="K55" s="227"/>
+      <c r="L55" s="229"/>
+      <c r="M55" s="229"/>
+      <c r="N55" s="227"/>
+      <c r="O55" s="227"/>
+      <c r="P55" s="227"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="72"/>
+      <c r="T55" s="72"/>
+      <c r="U55" s="62"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="62"/>
+      <c r="Z55" s="72"/>
+      <c r="AA55" s="72"/>
+      <c r="AB55" s="126"/>
+      <c r="AC55" s="126"/>
+      <c r="AD55" s="126"/>
+      <c r="AE55" s="126"/>
+      <c r="AF55" s="126"/>
+      <c r="AG55" s="72"/>
+      <c r="AH55" s="72"/>
+      <c r="AI55" s="126"/>
+      <c r="AJ55" s="126"/>
+      <c r="AK55" s="126"/>
+      <c r="AL55" s="126"/>
+      <c r="AM55" s="126"/>
+      <c r="AN55" s="72"/>
+      <c r="AO55" s="72"/>
+      <c r="AP55" s="62"/>
+      <c r="AQ55" s="62"/>
+      <c r="AR55" s="62"/>
+      <c r="AS55" s="62"/>
+      <c r="AT55" s="151"/>
+      <c r="AU55" s="72"/>
+      <c r="AV55" s="72"/>
+      <c r="AW55" s="62"/>
+      <c r="AX55" s="62"/>
+      <c r="AY55" s="62"/>
+      <c r="AZ55" s="62"/>
+      <c r="BA55" s="151"/>
+      <c r="BB55" s="72"/>
+      <c r="BC55" s="72"/>
+      <c r="BD55" s="62"/>
+      <c r="BE55" s="62"/>
+      <c r="BF55" s="62"/>
+      <c r="BG55" s="62"/>
+      <c r="BH55" s="151"/>
+      <c r="BI55" s="72"/>
+      <c r="BJ55" s="72"/>
+      <c r="BK55" s="62"/>
+      <c r="BL55" s="62"/>
+      <c r="BM55" s="62"/>
+      <c r="BN55" s="62"/>
+      <c r="BO55" s="62"/>
+      <c r="BP55" s="72"/>
+      <c r="BQ55" s="72"/>
+      <c r="BR55" s="62"/>
+      <c r="BS55" s="62"/>
+      <c r="BT55" s="62"/>
+      <c r="BU55" s="62"/>
+      <c r="BV55" s="62"/>
+      <c r="BW55" s="72"/>
+      <c r="BX55" s="72"/>
+      <c r="BY55" s="62"/>
+      <c r="BZ55" s="62"/>
+      <c r="CA55" s="62"/>
+      <c r="CB55" s="62"/>
+      <c r="CC55" s="62"/>
+      <c r="CD55" s="72"/>
+      <c r="CE55" s="72"/>
+      <c r="CF55" s="62"/>
+      <c r="CG55" s="62"/>
+      <c r="CH55" s="62"/>
+      <c r="CI55" s="62"/>
+      <c r="CJ55" s="62"/>
+      <c r="CK55" s="72"/>
+      <c r="CL55" s="72"/>
+      <c r="CM55" s="62"/>
+      <c r="CN55" s="62"/>
+      <c r="CO55" s="62"/>
+      <c r="CP55" s="62"/>
+      <c r="CQ55" s="62"/>
+      <c r="CR55" s="72"/>
+      <c r="CS55" s="72"/>
+      <c r="CT55" s="62"/>
+      <c r="CU55" s="62"/>
+      <c r="CV55" s="62"/>
+      <c r="CW55" s="62"/>
+      <c r="CX55" s="62"/>
+      <c r="CY55" s="72"/>
+      <c r="CZ55" s="72"/>
+      <c r="DA55" s="62"/>
+      <c r="DB55" s="62"/>
+      <c r="DC55" s="62"/>
+      <c r="DD55" s="62"/>
+      <c r="DE55" s="62"/>
+      <c r="DF55" s="72"/>
+      <c r="DG55" s="72"/>
+      <c r="DH55" s="64"/>
+      <c r="DI55" s="65"/>
+      <c r="DJ55" s="66"/>
+      <c r="DK55" s="67"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="293"/>
-      <c r="C56" s="284"/>
-      <c r="D56" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="175">
-        <v>40357</v>
-      </c>
-      <c r="G56" s="241"/>
-      <c r="H56" s="236"/>
-      <c r="I56" s="236"/>
+      <c r="B56" s="280"/>
+      <c r="C56" s="290"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="75"/>
+      <c r="G56" s="215"/>
+      <c r="H56" s="216"/>
+      <c r="I56" s="216"/>
       <c r="J56" s="216"/>
       <c r="K56" s="216"/>
       <c r="L56" s="230"/>
@@ -11568,7 +11611,7 @@
       <c r="R56" s="48"/>
       <c r="S56" s="71"/>
       <c r="T56" s="71"/>
-      <c r="U56" s="97"/>
+      <c r="U56" s="48"/>
       <c r="V56" s="48"/>
       <c r="W56" s="48"/>
       <c r="X56" s="48"/>
@@ -11665,142 +11708,130 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="293"/>
-      <c r="C57" s="284"/>
-      <c r="D57" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="175">
-        <v>40358</v>
-      </c>
-      <c r="G57" s="241"/>
-      <c r="H57" s="236"/>
-      <c r="I57" s="236"/>
-      <c r="J57" s="216"/>
-      <c r="K57" s="216"/>
-      <c r="L57" s="230"/>
-      <c r="M57" s="230"/>
-      <c r="N57" s="216"/>
-      <c r="O57" s="216"/>
-      <c r="P57" s="216"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="48"/>
-      <c r="S57" s="71"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="48"/>
-      <c r="V57" s="97"/>
-      <c r="W57" s="48"/>
-      <c r="X57" s="48"/>
-      <c r="Y57" s="48"/>
-      <c r="Z57" s="71"/>
-      <c r="AA57" s="71"/>
-      <c r="AB57" s="48"/>
-      <c r="AC57" s="48"/>
-      <c r="AD57" s="48"/>
-      <c r="AE57" s="48"/>
-      <c r="AF57" s="48"/>
-      <c r="AG57" s="71"/>
-      <c r="AH57" s="71"/>
-      <c r="AI57" s="48"/>
-      <c r="AJ57" s="48"/>
-      <c r="AK57" s="48"/>
-      <c r="AL57" s="48"/>
-      <c r="AM57" s="48"/>
-      <c r="AN57" s="71"/>
-      <c r="AO57" s="71"/>
-      <c r="AP57" s="48"/>
-      <c r="AQ57" s="48"/>
-      <c r="AR57" s="48"/>
-      <c r="AS57" s="48"/>
-      <c r="AT57" s="150"/>
-      <c r="AU57" s="71"/>
-      <c r="AV57" s="71"/>
-      <c r="AW57" s="48"/>
-      <c r="AX57" s="48"/>
-      <c r="AY57" s="48"/>
-      <c r="AZ57" s="48"/>
-      <c r="BA57" s="150"/>
-      <c r="BB57" s="71"/>
-      <c r="BC57" s="71"/>
-      <c r="BD57" s="48"/>
-      <c r="BE57" s="48"/>
-      <c r="BF57" s="48"/>
-      <c r="BG57" s="48"/>
-      <c r="BH57" s="150"/>
-      <c r="BI57" s="71"/>
-      <c r="BJ57" s="71"/>
-      <c r="BK57" s="48"/>
-      <c r="BL57" s="48"/>
-      <c r="BM57" s="48"/>
-      <c r="BN57" s="48"/>
-      <c r="BO57" s="48"/>
-      <c r="BP57" s="71"/>
-      <c r="BQ57" s="71"/>
-      <c r="BR57" s="48"/>
-      <c r="BS57" s="48"/>
-      <c r="BT57" s="48"/>
-      <c r="BU57" s="48"/>
-      <c r="BV57" s="48"/>
-      <c r="BW57" s="71"/>
-      <c r="BX57" s="71"/>
-      <c r="BY57" s="48"/>
-      <c r="BZ57" s="48"/>
-      <c r="CA57" s="48"/>
-      <c r="CB57" s="48"/>
-      <c r="CC57" s="48"/>
-      <c r="CD57" s="71"/>
-      <c r="CE57" s="71"/>
-      <c r="CF57" s="48"/>
-      <c r="CG57" s="48"/>
-      <c r="CH57" s="48"/>
-      <c r="CI57" s="48"/>
-      <c r="CJ57" s="48"/>
-      <c r="CK57" s="71"/>
-      <c r="CL57" s="71"/>
-      <c r="CM57" s="48"/>
-      <c r="CN57" s="48"/>
-      <c r="CO57" s="48"/>
-      <c r="CP57" s="48"/>
-      <c r="CQ57" s="48"/>
-      <c r="CR57" s="71"/>
-      <c r="CS57" s="71"/>
-      <c r="CT57" s="48"/>
-      <c r="CU57" s="48"/>
-      <c r="CV57" s="48"/>
-      <c r="CW57" s="48"/>
-      <c r="CX57" s="48"/>
-      <c r="CY57" s="71"/>
-      <c r="CZ57" s="71"/>
-      <c r="DA57" s="48"/>
-      <c r="DB57" s="48"/>
-      <c r="DC57" s="48"/>
-      <c r="DD57" s="48"/>
-      <c r="DE57" s="48"/>
-      <c r="DF57" s="71"/>
-      <c r="DG57" s="71"/>
-      <c r="DH57" s="49"/>
-      <c r="DI57" s="50"/>
-      <c r="DJ57" s="51"/>
-      <c r="DK57" s="52"/>
+      <c r="B57" s="280"/>
+      <c r="C57" s="286"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="231"/>
+      <c r="H57" s="232"/>
+      <c r="I57" s="232"/>
+      <c r="J57" s="232"/>
+      <c r="K57" s="232"/>
+      <c r="L57" s="234"/>
+      <c r="M57" s="234"/>
+      <c r="N57" s="232"/>
+      <c r="O57" s="232"/>
+      <c r="P57" s="232"/>
+      <c r="Q57" s="57"/>
+      <c r="R57" s="57"/>
+      <c r="S57" s="73"/>
+      <c r="T57" s="73"/>
+      <c r="U57" s="57"/>
+      <c r="V57" s="57"/>
+      <c r="W57" s="57"/>
+      <c r="X57" s="57"/>
+      <c r="Y57" s="57"/>
+      <c r="Z57" s="73"/>
+      <c r="AA57" s="73"/>
+      <c r="AB57" s="57"/>
+      <c r="AC57" s="57"/>
+      <c r="AD57" s="57"/>
+      <c r="AE57" s="57"/>
+      <c r="AF57" s="57"/>
+      <c r="AG57" s="73"/>
+      <c r="AH57" s="73"/>
+      <c r="AI57" s="57"/>
+      <c r="AJ57" s="57"/>
+      <c r="AK57" s="57"/>
+      <c r="AL57" s="57"/>
+      <c r="AM57" s="57"/>
+      <c r="AN57" s="73"/>
+      <c r="AO57" s="73"/>
+      <c r="AP57" s="57"/>
+      <c r="AQ57" s="57"/>
+      <c r="AR57" s="57"/>
+      <c r="AS57" s="57"/>
+      <c r="AT57" s="152"/>
+      <c r="AU57" s="73"/>
+      <c r="AV57" s="73"/>
+      <c r="AW57" s="57"/>
+      <c r="AX57" s="57"/>
+      <c r="AY57" s="57"/>
+      <c r="AZ57" s="57"/>
+      <c r="BA57" s="152"/>
+      <c r="BB57" s="73"/>
+      <c r="BC57" s="73"/>
+      <c r="BD57" s="57"/>
+      <c r="BE57" s="57"/>
+      <c r="BF57" s="57"/>
+      <c r="BG57" s="57"/>
+      <c r="BH57" s="152"/>
+      <c r="BI57" s="73"/>
+      <c r="BJ57" s="73"/>
+      <c r="BK57" s="57"/>
+      <c r="BL57" s="57"/>
+      <c r="BM57" s="57"/>
+      <c r="BN57" s="57"/>
+      <c r="BO57" s="57"/>
+      <c r="BP57" s="73"/>
+      <c r="BQ57" s="73"/>
+      <c r="BR57" s="57"/>
+      <c r="BS57" s="57"/>
+      <c r="BT57" s="57"/>
+      <c r="BU57" s="57"/>
+      <c r="BV57" s="57"/>
+      <c r="BW57" s="73"/>
+      <c r="BX57" s="73"/>
+      <c r="BY57" s="57"/>
+      <c r="BZ57" s="57"/>
+      <c r="CA57" s="57"/>
+      <c r="CB57" s="57"/>
+      <c r="CC57" s="57"/>
+      <c r="CD57" s="73"/>
+      <c r="CE57" s="73"/>
+      <c r="CF57" s="57"/>
+      <c r="CG57" s="57"/>
+      <c r="CH57" s="57"/>
+      <c r="CI57" s="57"/>
+      <c r="CJ57" s="57"/>
+      <c r="CK57" s="73"/>
+      <c r="CL57" s="73"/>
+      <c r="CM57" s="57"/>
+      <c r="CN57" s="57"/>
+      <c r="CO57" s="57"/>
+      <c r="CP57" s="57"/>
+      <c r="CQ57" s="57"/>
+      <c r="CR57" s="73"/>
+      <c r="CS57" s="73"/>
+      <c r="CT57" s="57"/>
+      <c r="CU57" s="57"/>
+      <c r="CV57" s="57"/>
+      <c r="CW57" s="57"/>
+      <c r="CX57" s="57"/>
+      <c r="CY57" s="73"/>
+      <c r="CZ57" s="73"/>
+      <c r="DA57" s="57"/>
+      <c r="DB57" s="57"/>
+      <c r="DC57" s="57"/>
+      <c r="DD57" s="57"/>
+      <c r="DE57" s="57"/>
+      <c r="DF57" s="73"/>
+      <c r="DG57" s="73"/>
+      <c r="DH57" s="58"/>
+      <c r="DI57" s="59"/>
+      <c r="DJ57" s="60"/>
+      <c r="DK57" s="61"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="293"/>
-      <c r="C58" s="284"/>
-      <c r="D58" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="175">
-        <v>40361</v>
-      </c>
-      <c r="G58" s="241"/>
-      <c r="H58" s="236"/>
-      <c r="I58" s="236"/>
+      <c r="B58" s="280"/>
+      <c r="C58" s="286"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="175"/>
+      <c r="G58" s="215"/>
+      <c r="H58" s="216"/>
+      <c r="I58" s="216"/>
       <c r="J58" s="216"/>
       <c r="K58" s="216"/>
       <c r="L58" s="230"/>
@@ -11814,23 +11845,23 @@
       <c r="T58" s="71"/>
       <c r="U58" s="48"/>
       <c r="V58" s="48"/>
-      <c r="W58" s="97"/>
+      <c r="W58" s="48"/>
       <c r="X58" s="48"/>
       <c r="Y58" s="48"/>
       <c r="Z58" s="71"/>
-      <c r="AA58" s="71"/>
-      <c r="AB58" s="48"/>
-      <c r="AC58" s="48"/>
-      <c r="AD58" s="48"/>
-      <c r="AE58" s="48"/>
-      <c r="AF58" s="48"/>
-      <c r="AG58" s="71"/>
+      <c r="AA58" s="98"/>
+      <c r="AB58" s="62"/>
+      <c r="AC58" s="62"/>
+      <c r="AD58" s="62"/>
+      <c r="AE58" s="62"/>
+      <c r="AF58" s="62"/>
+      <c r="AG58" s="95"/>
       <c r="AH58" s="71"/>
-      <c r="AI58" s="48"/>
-      <c r="AJ58" s="48"/>
-      <c r="AK58" s="48"/>
-      <c r="AL58" s="48"/>
-      <c r="AM58" s="48"/>
+      <c r="AI58" s="62"/>
+      <c r="AJ58" s="62"/>
+      <c r="AK58" s="62"/>
+      <c r="AL58" s="62"/>
+      <c r="AM58" s="62"/>
       <c r="AN58" s="71"/>
       <c r="AO58" s="71"/>
       <c r="AP58" s="48"/>
@@ -11909,16 +11940,14 @@
       <c r="DK58" s="52"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="293"/>
-      <c r="C59" s="284"/>
-      <c r="D59" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="B59" s="280"/>
+      <c r="C59" s="285"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="6"/>
       <c r="F59" s="75"/>
-      <c r="G59" s="241"/>
-      <c r="H59" s="236"/>
-      <c r="I59" s="236"/>
+      <c r="G59" s="215"/>
+      <c r="H59" s="216"/>
+      <c r="I59" s="216"/>
       <c r="J59" s="216"/>
       <c r="K59" s="216"/>
       <c r="L59" s="230"/>
@@ -11932,10 +11961,10 @@
       <c r="T59" s="71"/>
       <c r="U59" s="48"/>
       <c r="V59" s="48"/>
-      <c r="W59" s="93"/>
-      <c r="X59" s="97"/>
-      <c r="Y59" s="97"/>
-      <c r="Z59" s="95"/>
+      <c r="W59" s="48"/>
+      <c r="X59" s="48"/>
+      <c r="Y59" s="48"/>
+      <c r="Z59" s="71"/>
       <c r="AA59" s="71"/>
       <c r="AB59" s="48"/>
       <c r="AC59" s="48"/>
@@ -12026,257 +12055,263 @@
       <c r="DJ59" s="51"/>
       <c r="DK59" s="52"/>
     </row>
-    <row r="60" spans="2:115">
-      <c r="B60" s="293"/>
-      <c r="C60" s="284"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="242"/>
-      <c r="H60" s="232"/>
-      <c r="I60" s="232"/>
-      <c r="J60" s="232"/>
-      <c r="K60" s="232"/>
-      <c r="L60" s="234"/>
-      <c r="M60" s="234"/>
-      <c r="N60" s="232"/>
-      <c r="O60" s="232"/>
-      <c r="P60" s="232"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="73"/>
-      <c r="AA60" s="73"/>
-      <c r="AB60" s="57"/>
-      <c r="AC60" s="57"/>
-      <c r="AD60" s="57"/>
-      <c r="AE60" s="57"/>
-      <c r="AF60" s="57"/>
-      <c r="AG60" s="73"/>
-      <c r="AH60" s="73"/>
-      <c r="AI60" s="57"/>
-      <c r="AJ60" s="57"/>
-      <c r="AK60" s="57"/>
-      <c r="AL60" s="57"/>
-      <c r="AM60" s="57"/>
-      <c r="AN60" s="73"/>
-      <c r="AO60" s="73"/>
-      <c r="AP60" s="57"/>
-      <c r="AQ60" s="57"/>
-      <c r="AR60" s="57"/>
-      <c r="AS60" s="57"/>
-      <c r="AT60" s="152"/>
-      <c r="AU60" s="73"/>
-      <c r="AV60" s="73"/>
-      <c r="AW60" s="57"/>
-      <c r="AX60" s="57"/>
-      <c r="AY60" s="57"/>
-      <c r="AZ60" s="57"/>
-      <c r="BA60" s="152"/>
-      <c r="BB60" s="73"/>
-      <c r="BC60" s="73"/>
-      <c r="BD60" s="57"/>
-      <c r="BE60" s="57"/>
-      <c r="BF60" s="57"/>
-      <c r="BG60" s="57"/>
-      <c r="BH60" s="152"/>
-      <c r="BI60" s="73"/>
-      <c r="BJ60" s="73"/>
-      <c r="BK60" s="57"/>
-      <c r="BL60" s="57"/>
-      <c r="BM60" s="57"/>
-      <c r="BN60" s="57"/>
-      <c r="BO60" s="57"/>
-      <c r="BP60" s="73"/>
-      <c r="BQ60" s="73"/>
-      <c r="BR60" s="57"/>
-      <c r="BS60" s="57"/>
-      <c r="BT60" s="57"/>
-      <c r="BU60" s="57"/>
-      <c r="BV60" s="57"/>
-      <c r="BW60" s="73"/>
-      <c r="BX60" s="73"/>
-      <c r="BY60" s="57"/>
-      <c r="BZ60" s="57"/>
-      <c r="CA60" s="57"/>
-      <c r="CB60" s="57"/>
-      <c r="CC60" s="57"/>
-      <c r="CD60" s="73"/>
-      <c r="CE60" s="73"/>
-      <c r="CF60" s="57"/>
-      <c r="CG60" s="57"/>
-      <c r="CH60" s="57"/>
-      <c r="CI60" s="57"/>
-      <c r="CJ60" s="57"/>
-      <c r="CK60" s="73"/>
-      <c r="CL60" s="73"/>
-      <c r="CM60" s="57"/>
-      <c r="CN60" s="57"/>
-      <c r="CO60" s="57"/>
-      <c r="CP60" s="57"/>
-      <c r="CQ60" s="57"/>
-      <c r="CR60" s="73"/>
-      <c r="CS60" s="73"/>
-      <c r="CT60" s="57"/>
-      <c r="CU60" s="57"/>
-      <c r="CV60" s="57"/>
-      <c r="CW60" s="57"/>
-      <c r="CX60" s="57"/>
-      <c r="CY60" s="73"/>
-      <c r="CZ60" s="73"/>
-      <c r="DA60" s="57"/>
-      <c r="DB60" s="57"/>
-      <c r="DC60" s="57"/>
-      <c r="DD60" s="57"/>
-      <c r="DE60" s="57"/>
-      <c r="DF60" s="73"/>
-      <c r="DG60" s="73"/>
-      <c r="DH60" s="58"/>
-      <c r="DI60" s="59"/>
-      <c r="DJ60" s="60"/>
-      <c r="DK60" s="61"/>
+    <row r="60" spans="2:115" ht="17.25" thickBot="1">
+      <c r="B60" s="281"/>
+      <c r="C60" s="287"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="202"/>
+      <c r="H60" s="203"/>
+      <c r="I60" s="203"/>
+      <c r="J60" s="203"/>
+      <c r="K60" s="203"/>
+      <c r="L60" s="237"/>
+      <c r="M60" s="237"/>
+      <c r="N60" s="203"/>
+      <c r="O60" s="216"/>
+      <c r="P60" s="216"/>
+      <c r="Q60" s="48"/>
+      <c r="R60" s="48"/>
+      <c r="S60" s="71"/>
+      <c r="T60" s="71"/>
+      <c r="U60" s="48"/>
+      <c r="V60" s="48"/>
+      <c r="W60" s="48"/>
+      <c r="X60" s="48"/>
+      <c r="Y60" s="48"/>
+      <c r="Z60" s="69"/>
+      <c r="AA60" s="69"/>
+      <c r="AB60" s="32"/>
+      <c r="AC60" s="32"/>
+      <c r="AD60" s="32"/>
+      <c r="AE60" s="32"/>
+      <c r="AF60" s="32"/>
+      <c r="AG60" s="69"/>
+      <c r="AH60" s="69"/>
+      <c r="AI60" s="32"/>
+      <c r="AJ60" s="32"/>
+      <c r="AK60" s="32"/>
+      <c r="AL60" s="32"/>
+      <c r="AM60" s="32"/>
+      <c r="AN60" s="69"/>
+      <c r="AO60" s="69"/>
+      <c r="AP60" s="32"/>
+      <c r="AQ60" s="32"/>
+      <c r="AR60" s="32"/>
+      <c r="AS60" s="32"/>
+      <c r="AT60" s="148"/>
+      <c r="AU60" s="69"/>
+      <c r="AV60" s="69"/>
+      <c r="AW60" s="32"/>
+      <c r="AX60" s="32"/>
+      <c r="AY60" s="32"/>
+      <c r="AZ60" s="32"/>
+      <c r="BA60" s="148"/>
+      <c r="BB60" s="69"/>
+      <c r="BC60" s="69"/>
+      <c r="BD60" s="32"/>
+      <c r="BE60" s="32"/>
+      <c r="BF60" s="32"/>
+      <c r="BG60" s="32"/>
+      <c r="BH60" s="148"/>
+      <c r="BI60" s="69"/>
+      <c r="BJ60" s="69"/>
+      <c r="BK60" s="32"/>
+      <c r="BL60" s="32"/>
+      <c r="BM60" s="32"/>
+      <c r="BN60" s="32"/>
+      <c r="BO60" s="32"/>
+      <c r="BP60" s="69"/>
+      <c r="BQ60" s="69"/>
+      <c r="BR60" s="32"/>
+      <c r="BS60" s="32"/>
+      <c r="BT60" s="32"/>
+      <c r="BU60" s="32"/>
+      <c r="BV60" s="32"/>
+      <c r="BW60" s="69"/>
+      <c r="BX60" s="69"/>
+      <c r="BY60" s="32"/>
+      <c r="BZ60" s="32"/>
+      <c r="CA60" s="32"/>
+      <c r="CB60" s="32"/>
+      <c r="CC60" s="32"/>
+      <c r="CD60" s="69"/>
+      <c r="CE60" s="69"/>
+      <c r="CF60" s="32"/>
+      <c r="CG60" s="32"/>
+      <c r="CH60" s="32"/>
+      <c r="CI60" s="32"/>
+      <c r="CJ60" s="32"/>
+      <c r="CK60" s="69"/>
+      <c r="CL60" s="69"/>
+      <c r="CM60" s="32"/>
+      <c r="CN60" s="32"/>
+      <c r="CO60" s="32"/>
+      <c r="CP60" s="32"/>
+      <c r="CQ60" s="32"/>
+      <c r="CR60" s="69"/>
+      <c r="CS60" s="69"/>
+      <c r="CT60" s="32"/>
+      <c r="CU60" s="32"/>
+      <c r="CV60" s="32"/>
+      <c r="CW60" s="32"/>
+      <c r="CX60" s="32"/>
+      <c r="CY60" s="69"/>
+      <c r="CZ60" s="69"/>
+      <c r="DA60" s="32"/>
+      <c r="DB60" s="32"/>
+      <c r="DC60" s="32"/>
+      <c r="DD60" s="32"/>
+      <c r="DE60" s="32"/>
+      <c r="DF60" s="69"/>
+      <c r="DG60" s="69"/>
+      <c r="DH60" s="33"/>
+      <c r="DI60" s="34"/>
+      <c r="DJ60" s="35"/>
+      <c r="DK60" s="36"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="293"/>
-      <c r="C61" s="290" t="s">
-        <v>14</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>51</v>
+      <c r="B61" s="297" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F61" s="175">
-        <v>40361</v>
-      </c>
-      <c r="G61" s="243"/>
-      <c r="H61" s="236"/>
-      <c r="I61" s="236"/>
-      <c r="J61" s="236"/>
-      <c r="K61" s="216"/>
-      <c r="L61" s="230"/>
-      <c r="M61" s="230"/>
-      <c r="N61" s="217"/>
-      <c r="O61" s="212"/>
-      <c r="P61" s="216"/>
-      <c r="Q61" s="48"/>
-      <c r="R61" s="48"/>
-      <c r="S61" s="95"/>
-      <c r="T61" s="98"/>
-      <c r="U61" s="48"/>
-      <c r="V61" s="48"/>
-      <c r="W61" s="48"/>
-      <c r="X61" s="48"/>
-      <c r="Y61" s="48"/>
-      <c r="Z61" s="95"/>
-      <c r="AA61" s="71"/>
-      <c r="AB61" s="48"/>
-      <c r="AC61" s="48"/>
-      <c r="AD61" s="48"/>
-      <c r="AE61" s="48"/>
-      <c r="AF61" s="48"/>
-      <c r="AG61" s="71"/>
-      <c r="AH61" s="71"/>
-      <c r="AI61" s="48"/>
-      <c r="AJ61" s="48"/>
-      <c r="AK61" s="48"/>
-      <c r="AL61" s="48"/>
-      <c r="AM61" s="48"/>
-      <c r="AN61" s="71"/>
-      <c r="AO61" s="71"/>
-      <c r="AP61" s="48"/>
-      <c r="AQ61" s="48"/>
-      <c r="AR61" s="48"/>
-      <c r="AS61" s="48"/>
-      <c r="AT61" s="150"/>
-      <c r="AU61" s="71"/>
-      <c r="AV61" s="71"/>
-      <c r="AW61" s="48"/>
-      <c r="AX61" s="48"/>
-      <c r="AY61" s="48"/>
-      <c r="AZ61" s="48"/>
-      <c r="BA61" s="150"/>
-      <c r="BB61" s="71"/>
-      <c r="BC61" s="71"/>
-      <c r="BD61" s="48"/>
-      <c r="BE61" s="48"/>
-      <c r="BF61" s="48"/>
-      <c r="BG61" s="48"/>
-      <c r="BH61" s="150"/>
-      <c r="BI61" s="71"/>
-      <c r="BJ61" s="71"/>
-      <c r="BK61" s="48"/>
-      <c r="BL61" s="48"/>
-      <c r="BM61" s="48"/>
-      <c r="BN61" s="48"/>
-      <c r="BO61" s="48"/>
-      <c r="BP61" s="71"/>
-      <c r="BQ61" s="71"/>
-      <c r="BR61" s="48"/>
-      <c r="BS61" s="48"/>
-      <c r="BT61" s="48"/>
-      <c r="BU61" s="48"/>
-      <c r="BV61" s="48"/>
-      <c r="BW61" s="71"/>
-      <c r="BX61" s="71"/>
-      <c r="BY61" s="48"/>
-      <c r="BZ61" s="48"/>
-      <c r="CA61" s="48"/>
-      <c r="CB61" s="48"/>
-      <c r="CC61" s="48"/>
-      <c r="CD61" s="71"/>
-      <c r="CE61" s="71"/>
-      <c r="CF61" s="48"/>
-      <c r="CG61" s="48"/>
-      <c r="CH61" s="48"/>
-      <c r="CI61" s="48"/>
-      <c r="CJ61" s="48"/>
-      <c r="CK61" s="71"/>
-      <c r="CL61" s="71"/>
-      <c r="CM61" s="48"/>
-      <c r="CN61" s="48"/>
-      <c r="CO61" s="48"/>
-      <c r="CP61" s="48"/>
-      <c r="CQ61" s="48"/>
-      <c r="CR61" s="71"/>
-      <c r="CS61" s="71"/>
-      <c r="CT61" s="48"/>
-      <c r="CU61" s="48"/>
-      <c r="CV61" s="48"/>
-      <c r="CW61" s="48"/>
-      <c r="CX61" s="48"/>
-      <c r="CY61" s="71"/>
-      <c r="CZ61" s="71"/>
-      <c r="DA61" s="48"/>
-      <c r="DB61" s="48"/>
-      <c r="DC61" s="48"/>
-      <c r="DD61" s="48"/>
-      <c r="DE61" s="48"/>
-      <c r="DF61" s="71"/>
-      <c r="DG61" s="71"/>
-      <c r="DH61" s="49"/>
-      <c r="DI61" s="50"/>
-      <c r="DJ61" s="51"/>
-      <c r="DK61" s="52"/>
+        <v>40353</v>
+      </c>
+      <c r="G61" s="238"/>
+      <c r="H61" s="239"/>
+      <c r="I61" s="239"/>
+      <c r="J61" s="209"/>
+      <c r="K61" s="209"/>
+      <c r="L61" s="240"/>
+      <c r="M61" s="240"/>
+      <c r="N61" s="210"/>
+      <c r="O61" s="276"/>
+      <c r="P61" s="276"/>
+      <c r="Q61" s="103"/>
+      <c r="R61" s="103"/>
+      <c r="S61" s="101"/>
+      <c r="T61" s="102"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="94"/>
+      <c r="AA61" s="70"/>
+      <c r="AB61" s="42"/>
+      <c r="AC61" s="42"/>
+      <c r="AD61" s="42"/>
+      <c r="AE61" s="42"/>
+      <c r="AF61" s="42"/>
+      <c r="AG61" s="70"/>
+      <c r="AH61" s="70"/>
+      <c r="AI61" s="42"/>
+      <c r="AJ61" s="42"/>
+      <c r="AK61" s="42"/>
+      <c r="AL61" s="42"/>
+      <c r="AM61" s="42"/>
+      <c r="AN61" s="70"/>
+      <c r="AO61" s="70"/>
+      <c r="AP61" s="42"/>
+      <c r="AQ61" s="42"/>
+      <c r="AR61" s="42"/>
+      <c r="AS61" s="42"/>
+      <c r="AT61" s="149"/>
+      <c r="AU61" s="70"/>
+      <c r="AV61" s="70"/>
+      <c r="AW61" s="42"/>
+      <c r="AX61" s="42"/>
+      <c r="AY61" s="42"/>
+      <c r="AZ61" s="42"/>
+      <c r="BA61" s="149"/>
+      <c r="BB61" s="70"/>
+      <c r="BC61" s="70"/>
+      <c r="BD61" s="42"/>
+      <c r="BE61" s="42"/>
+      <c r="BF61" s="42"/>
+      <c r="BG61" s="42"/>
+      <c r="BH61" s="149"/>
+      <c r="BI61" s="70"/>
+      <c r="BJ61" s="70"/>
+      <c r="BK61" s="42"/>
+      <c r="BL61" s="42"/>
+      <c r="BM61" s="42"/>
+      <c r="BN61" s="42"/>
+      <c r="BO61" s="42"/>
+      <c r="BP61" s="70"/>
+      <c r="BQ61" s="70"/>
+      <c r="BR61" s="42"/>
+      <c r="BS61" s="42"/>
+      <c r="BT61" s="42"/>
+      <c r="BU61" s="42"/>
+      <c r="BV61" s="42"/>
+      <c r="BW61" s="70"/>
+      <c r="BX61" s="70"/>
+      <c r="BY61" s="42"/>
+      <c r="BZ61" s="42"/>
+      <c r="CA61" s="42"/>
+      <c r="CB61" s="42"/>
+      <c r="CC61" s="42"/>
+      <c r="CD61" s="70"/>
+      <c r="CE61" s="70"/>
+      <c r="CF61" s="42"/>
+      <c r="CG61" s="42"/>
+      <c r="CH61" s="42"/>
+      <c r="CI61" s="42"/>
+      <c r="CJ61" s="42"/>
+      <c r="CK61" s="70"/>
+      <c r="CL61" s="70"/>
+      <c r="CM61" s="42"/>
+      <c r="CN61" s="42"/>
+      <c r="CO61" s="42"/>
+      <c r="CP61" s="42"/>
+      <c r="CQ61" s="42"/>
+      <c r="CR61" s="70"/>
+      <c r="CS61" s="70"/>
+      <c r="CT61" s="42"/>
+      <c r="CU61" s="42"/>
+      <c r="CV61" s="42"/>
+      <c r="CW61" s="42"/>
+      <c r="CX61" s="42"/>
+      <c r="CY61" s="70"/>
+      <c r="CZ61" s="70"/>
+      <c r="DA61" s="42"/>
+      <c r="DB61" s="42"/>
+      <c r="DC61" s="42"/>
+      <c r="DD61" s="42"/>
+      <c r="DE61" s="42"/>
+      <c r="DF61" s="70"/>
+      <c r="DG61" s="70"/>
+      <c r="DH61" s="44"/>
+      <c r="DI61" s="45"/>
+      <c r="DJ61" s="46"/>
+      <c r="DK61" s="47"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="293"/>
-      <c r="C62" s="290"/>
+      <c r="B62" s="298"/>
+      <c r="C62" s="278"/>
       <c r="D62" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="75"/>
-      <c r="G62" s="243"/>
+        <v>41</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="175">
+        <v>40357</v>
+      </c>
+      <c r="G62" s="241"/>
       <c r="H62" s="236"/>
-      <c r="I62" s="216"/>
+      <c r="I62" s="236"/>
       <c r="J62" s="216"/>
       <c r="K62" s="216"/>
       <c r="L62" s="230"/>
@@ -12284,11 +12319,11 @@
       <c r="N62" s="216"/>
       <c r="O62" s="216"/>
       <c r="P62" s="216"/>
-      <c r="Q62" s="96"/>
-      <c r="R62" s="96"/>
+      <c r="Q62" s="48"/>
+      <c r="R62" s="48"/>
       <c r="S62" s="71"/>
       <c r="T62" s="71"/>
-      <c r="U62" s="48"/>
+      <c r="U62" s="97"/>
       <c r="V62" s="48"/>
       <c r="W62" s="48"/>
       <c r="X62" s="48"/>
@@ -12385,16 +12420,20 @@
       <c r="DK62" s="52"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="293"/>
-      <c r="C63" s="290"/>
+      <c r="B63" s="298"/>
+      <c r="C63" s="278"/>
       <c r="D63" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="243"/>
+        <v>42</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="175">
+        <v>40358</v>
+      </c>
+      <c r="G63" s="241"/>
       <c r="H63" s="236"/>
-      <c r="I63" s="216"/>
+      <c r="I63" s="236"/>
       <c r="J63" s="216"/>
       <c r="K63" s="216"/>
       <c r="L63" s="230"/>
@@ -12406,11 +12445,11 @@
       <c r="R63" s="48"/>
       <c r="S63" s="71"/>
       <c r="T63" s="71"/>
-      <c r="U63" s="96"/>
-      <c r="V63" s="96"/>
-      <c r="W63" s="96"/>
-      <c r="X63" s="96"/>
-      <c r="Y63" s="96"/>
+      <c r="U63" s="48"/>
+      <c r="V63" s="97"/>
+      <c r="W63" s="48"/>
+      <c r="X63" s="48"/>
+      <c r="Y63" s="48"/>
       <c r="Z63" s="71"/>
       <c r="AA63" s="71"/>
       <c r="AB63" s="48"/>
@@ -12502,252 +12541,252 @@
       <c r="DJ63" s="51"/>
       <c r="DK63" s="52"/>
     </row>
-    <row r="64" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B64" s="293"/>
-      <c r="C64" s="290"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="244"/>
-      <c r="H64" s="203"/>
-      <c r="I64" s="203"/>
-      <c r="J64" s="245"/>
-      <c r="K64" s="203"/>
-      <c r="L64" s="237"/>
-      <c r="M64" s="237"/>
-      <c r="N64" s="203"/>
-      <c r="O64" s="203"/>
-      <c r="P64" s="203"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="69"/>
-      <c r="T64" s="69"/>
-      <c r="U64" s="32"/>
-      <c r="V64" s="32"/>
-      <c r="W64" s="32"/>
-      <c r="X64" s="32"/>
-      <c r="Y64" s="32"/>
-      <c r="Z64" s="69"/>
-      <c r="AA64" s="69"/>
-      <c r="AB64" s="32"/>
-      <c r="AC64" s="32"/>
-      <c r="AD64" s="32"/>
-      <c r="AE64" s="32"/>
-      <c r="AF64" s="32"/>
-      <c r="AG64" s="69"/>
-      <c r="AH64" s="69"/>
-      <c r="AI64" s="32"/>
-      <c r="AJ64" s="32"/>
-      <c r="AK64" s="32"/>
-      <c r="AL64" s="32"/>
-      <c r="AM64" s="32"/>
-      <c r="AN64" s="69"/>
-      <c r="AO64" s="69"/>
-      <c r="AP64" s="32"/>
-      <c r="AQ64" s="32"/>
-      <c r="AR64" s="32"/>
-      <c r="AS64" s="32"/>
-      <c r="AT64" s="148"/>
-      <c r="AU64" s="69"/>
-      <c r="AV64" s="69"/>
-      <c r="AW64" s="32"/>
-      <c r="AX64" s="32"/>
-      <c r="AY64" s="32"/>
-      <c r="AZ64" s="32"/>
-      <c r="BA64" s="148"/>
-      <c r="BB64" s="69"/>
-      <c r="BC64" s="69"/>
-      <c r="BD64" s="32"/>
-      <c r="BE64" s="32"/>
-      <c r="BF64" s="32"/>
-      <c r="BG64" s="32"/>
-      <c r="BH64" s="148"/>
-      <c r="BI64" s="69"/>
-      <c r="BJ64" s="69"/>
-      <c r="BK64" s="32"/>
-      <c r="BL64" s="32"/>
-      <c r="BM64" s="32"/>
-      <c r="BN64" s="32"/>
-      <c r="BO64" s="32"/>
-      <c r="BP64" s="69"/>
-      <c r="BQ64" s="69"/>
-      <c r="BR64" s="32"/>
-      <c r="BS64" s="32"/>
-      <c r="BT64" s="32"/>
-      <c r="BU64" s="32"/>
-      <c r="BV64" s="32"/>
-      <c r="BW64" s="69"/>
-      <c r="BX64" s="69"/>
-      <c r="BY64" s="32"/>
-      <c r="BZ64" s="32"/>
-      <c r="CA64" s="32"/>
-      <c r="CB64" s="32"/>
-      <c r="CC64" s="32"/>
-      <c r="CD64" s="69"/>
-      <c r="CE64" s="69"/>
-      <c r="CF64" s="32"/>
-      <c r="CG64" s="32"/>
-      <c r="CH64" s="32"/>
-      <c r="CI64" s="32"/>
-      <c r="CJ64" s="32"/>
-      <c r="CK64" s="69"/>
-      <c r="CL64" s="69"/>
-      <c r="CM64" s="32"/>
-      <c r="CN64" s="32"/>
-      <c r="CO64" s="32"/>
-      <c r="CP64" s="32"/>
-      <c r="CQ64" s="32"/>
-      <c r="CR64" s="69"/>
-      <c r="CS64" s="69"/>
-      <c r="CT64" s="32"/>
-      <c r="CU64" s="32"/>
-      <c r="CV64" s="32"/>
-      <c r="CW64" s="32"/>
-      <c r="CX64" s="32"/>
-      <c r="CY64" s="69"/>
-      <c r="CZ64" s="69"/>
-      <c r="DA64" s="32"/>
-      <c r="DB64" s="32"/>
-      <c r="DC64" s="32"/>
-      <c r="DD64" s="32"/>
-      <c r="DE64" s="32"/>
-      <c r="DF64" s="69"/>
-      <c r="DG64" s="69"/>
-      <c r="DH64" s="33"/>
-      <c r="DI64" s="34"/>
-      <c r="DJ64" s="35"/>
-      <c r="DK64" s="36"/>
+    <row r="64" spans="2:115">
+      <c r="B64" s="298"/>
+      <c r="C64" s="278"/>
+      <c r="D64" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="175">
+        <v>40361</v>
+      </c>
+      <c r="G64" s="241"/>
+      <c r="H64" s="236"/>
+      <c r="I64" s="236"/>
+      <c r="J64" s="216"/>
+      <c r="K64" s="216"/>
+      <c r="L64" s="230"/>
+      <c r="M64" s="230"/>
+      <c r="N64" s="216"/>
+      <c r="O64" s="216"/>
+      <c r="P64" s="216"/>
+      <c r="Q64" s="48"/>
+      <c r="R64" s="48"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="71"/>
+      <c r="U64" s="48"/>
+      <c r="V64" s="48"/>
+      <c r="W64" s="97"/>
+      <c r="X64" s="48"/>
+      <c r="Y64" s="48"/>
+      <c r="Z64" s="71"/>
+      <c r="AA64" s="71"/>
+      <c r="AB64" s="48"/>
+      <c r="AC64" s="48"/>
+      <c r="AD64" s="48"/>
+      <c r="AE64" s="48"/>
+      <c r="AF64" s="48"/>
+      <c r="AG64" s="71"/>
+      <c r="AH64" s="71"/>
+      <c r="AI64" s="48"/>
+      <c r="AJ64" s="48"/>
+      <c r="AK64" s="48"/>
+      <c r="AL64" s="48"/>
+      <c r="AM64" s="48"/>
+      <c r="AN64" s="71"/>
+      <c r="AO64" s="71"/>
+      <c r="AP64" s="48"/>
+      <c r="AQ64" s="48"/>
+      <c r="AR64" s="48"/>
+      <c r="AS64" s="48"/>
+      <c r="AT64" s="150"/>
+      <c r="AU64" s="71"/>
+      <c r="AV64" s="71"/>
+      <c r="AW64" s="48"/>
+      <c r="AX64" s="48"/>
+      <c r="AY64" s="48"/>
+      <c r="AZ64" s="48"/>
+      <c r="BA64" s="150"/>
+      <c r="BB64" s="71"/>
+      <c r="BC64" s="71"/>
+      <c r="BD64" s="48"/>
+      <c r="BE64" s="48"/>
+      <c r="BF64" s="48"/>
+      <c r="BG64" s="48"/>
+      <c r="BH64" s="150"/>
+      <c r="BI64" s="71"/>
+      <c r="BJ64" s="71"/>
+      <c r="BK64" s="48"/>
+      <c r="BL64" s="48"/>
+      <c r="BM64" s="48"/>
+      <c r="BN64" s="48"/>
+      <c r="BO64" s="48"/>
+      <c r="BP64" s="71"/>
+      <c r="BQ64" s="71"/>
+      <c r="BR64" s="48"/>
+      <c r="BS64" s="48"/>
+      <c r="BT64" s="48"/>
+      <c r="BU64" s="48"/>
+      <c r="BV64" s="48"/>
+      <c r="BW64" s="71"/>
+      <c r="BX64" s="71"/>
+      <c r="BY64" s="48"/>
+      <c r="BZ64" s="48"/>
+      <c r="CA64" s="48"/>
+      <c r="CB64" s="48"/>
+      <c r="CC64" s="48"/>
+      <c r="CD64" s="71"/>
+      <c r="CE64" s="71"/>
+      <c r="CF64" s="48"/>
+      <c r="CG64" s="48"/>
+      <c r="CH64" s="48"/>
+      <c r="CI64" s="48"/>
+      <c r="CJ64" s="48"/>
+      <c r="CK64" s="71"/>
+      <c r="CL64" s="71"/>
+      <c r="CM64" s="48"/>
+      <c r="CN64" s="48"/>
+      <c r="CO64" s="48"/>
+      <c r="CP64" s="48"/>
+      <c r="CQ64" s="48"/>
+      <c r="CR64" s="71"/>
+      <c r="CS64" s="71"/>
+      <c r="CT64" s="48"/>
+      <c r="CU64" s="48"/>
+      <c r="CV64" s="48"/>
+      <c r="CW64" s="48"/>
+      <c r="CX64" s="48"/>
+      <c r="CY64" s="71"/>
+      <c r="CZ64" s="71"/>
+      <c r="DA64" s="48"/>
+      <c r="DB64" s="48"/>
+      <c r="DC64" s="48"/>
+      <c r="DD64" s="48"/>
+      <c r="DE64" s="48"/>
+      <c r="DF64" s="71"/>
+      <c r="DG64" s="71"/>
+      <c r="DH64" s="49"/>
+      <c r="DI64" s="50"/>
+      <c r="DJ64" s="51"/>
+      <c r="DK64" s="52"/>
     </row>
     <row r="65" spans="2:115">
-      <c r="B65" s="278" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="287" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65" s="20"/>
-      <c r="E65" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="176">
-        <v>40375</v>
-      </c>
-      <c r="G65" s="246"/>
-      <c r="H65" s="209"/>
-      <c r="I65" s="209"/>
-      <c r="J65" s="209"/>
-      <c r="K65" s="209"/>
-      <c r="L65" s="240"/>
-      <c r="M65" s="240"/>
-      <c r="N65" s="239"/>
-      <c r="O65" s="239"/>
-      <c r="P65" s="239"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="70"/>
-      <c r="T65" s="70"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43"/>
-      <c r="W65" s="43"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="43"/>
-      <c r="Z65" s="70"/>
-      <c r="AA65" s="70"/>
-      <c r="AB65" s="103"/>
-      <c r="AC65" s="103"/>
-      <c r="AD65" s="103"/>
-      <c r="AE65" s="103"/>
-      <c r="AF65" s="103"/>
-      <c r="AG65" s="70"/>
-      <c r="AH65" s="70"/>
-      <c r="AI65" s="103"/>
-      <c r="AJ65" s="103"/>
-      <c r="AK65" s="103"/>
-      <c r="AL65" s="103"/>
-      <c r="AM65" s="103"/>
-      <c r="AN65" s="70"/>
-      <c r="AO65" s="70"/>
-      <c r="AP65" s="43"/>
-      <c r="AQ65" s="43"/>
-      <c r="AR65" s="43"/>
-      <c r="AS65" s="43"/>
-      <c r="AT65" s="153"/>
-      <c r="AU65" s="70"/>
-      <c r="AV65" s="70"/>
-      <c r="AW65" s="43"/>
-      <c r="AX65" s="43"/>
-      <c r="AY65" s="43"/>
-      <c r="AZ65" s="43"/>
-      <c r="BA65" s="153"/>
-      <c r="BB65" s="70"/>
-      <c r="BC65" s="70"/>
-      <c r="BD65" s="43"/>
-      <c r="BE65" s="43"/>
-      <c r="BF65" s="43"/>
-      <c r="BG65" s="43"/>
-      <c r="BH65" s="153"/>
-      <c r="BI65" s="70"/>
-      <c r="BJ65" s="70"/>
-      <c r="BK65" s="43"/>
-      <c r="BL65" s="43"/>
-      <c r="BM65" s="43"/>
-      <c r="BN65" s="43"/>
-      <c r="BO65" s="43"/>
-      <c r="BP65" s="70"/>
-      <c r="BQ65" s="70"/>
-      <c r="BR65" s="43"/>
-      <c r="BS65" s="43"/>
-      <c r="BT65" s="43"/>
-      <c r="BU65" s="43"/>
-      <c r="BV65" s="43"/>
-      <c r="BW65" s="70"/>
-      <c r="BX65" s="70"/>
-      <c r="BY65" s="43"/>
-      <c r="BZ65" s="43"/>
-      <c r="CA65" s="43"/>
-      <c r="CB65" s="43"/>
-      <c r="CC65" s="43"/>
-      <c r="CD65" s="70"/>
-      <c r="CE65" s="70"/>
-      <c r="CF65" s="43"/>
-      <c r="CG65" s="43"/>
-      <c r="CH65" s="43"/>
-      <c r="CI65" s="43"/>
-      <c r="CJ65" s="43"/>
-      <c r="CK65" s="70"/>
-      <c r="CL65" s="70"/>
-      <c r="CM65" s="43"/>
-      <c r="CN65" s="43"/>
-      <c r="CO65" s="43"/>
-      <c r="CP65" s="43"/>
-      <c r="CQ65" s="43"/>
-      <c r="CR65" s="70"/>
-      <c r="CS65" s="70"/>
-      <c r="CT65" s="43"/>
-      <c r="CU65" s="43"/>
-      <c r="CV65" s="43"/>
-      <c r="CW65" s="43"/>
-      <c r="CX65" s="43"/>
-      <c r="CY65" s="70"/>
-      <c r="CZ65" s="70"/>
-      <c r="DA65" s="43"/>
-      <c r="DB65" s="43"/>
-      <c r="DC65" s="43"/>
-      <c r="DD65" s="43"/>
-      <c r="DE65" s="43"/>
-      <c r="DF65" s="70"/>
-      <c r="DG65" s="70"/>
-      <c r="DH65" s="44"/>
-      <c r="DI65" s="45"/>
-      <c r="DJ65" s="46"/>
-      <c r="DK65" s="47"/>
+      <c r="B65" s="298"/>
+      <c r="C65" s="278"/>
+      <c r="D65" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="75"/>
+      <c r="G65" s="241"/>
+      <c r="H65" s="236"/>
+      <c r="I65" s="236"/>
+      <c r="J65" s="216"/>
+      <c r="K65" s="216"/>
+      <c r="L65" s="230"/>
+      <c r="M65" s="230"/>
+      <c r="N65" s="216"/>
+      <c r="O65" s="216"/>
+      <c r="P65" s="216"/>
+      <c r="Q65" s="48"/>
+      <c r="R65" s="48"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="71"/>
+      <c r="U65" s="48"/>
+      <c r="V65" s="48"/>
+      <c r="W65" s="93"/>
+      <c r="X65" s="97"/>
+      <c r="Y65" s="97"/>
+      <c r="Z65" s="95"/>
+      <c r="AA65" s="71"/>
+      <c r="AB65" s="48"/>
+      <c r="AC65" s="48"/>
+      <c r="AD65" s="48"/>
+      <c r="AE65" s="48"/>
+      <c r="AF65" s="48"/>
+      <c r="AG65" s="71"/>
+      <c r="AH65" s="71"/>
+      <c r="AI65" s="48"/>
+      <c r="AJ65" s="48"/>
+      <c r="AK65" s="48"/>
+      <c r="AL65" s="48"/>
+      <c r="AM65" s="48"/>
+      <c r="AN65" s="71"/>
+      <c r="AO65" s="71"/>
+      <c r="AP65" s="48"/>
+      <c r="AQ65" s="48"/>
+      <c r="AR65" s="48"/>
+      <c r="AS65" s="48"/>
+      <c r="AT65" s="150"/>
+      <c r="AU65" s="71"/>
+      <c r="AV65" s="71"/>
+      <c r="AW65" s="48"/>
+      <c r="AX65" s="48"/>
+      <c r="AY65" s="48"/>
+      <c r="AZ65" s="48"/>
+      <c r="BA65" s="150"/>
+      <c r="BB65" s="71"/>
+      <c r="BC65" s="71"/>
+      <c r="BD65" s="48"/>
+      <c r="BE65" s="48"/>
+      <c r="BF65" s="48"/>
+      <c r="BG65" s="48"/>
+      <c r="BH65" s="150"/>
+      <c r="BI65" s="71"/>
+      <c r="BJ65" s="71"/>
+      <c r="BK65" s="48"/>
+      <c r="BL65" s="48"/>
+      <c r="BM65" s="48"/>
+      <c r="BN65" s="48"/>
+      <c r="BO65" s="48"/>
+      <c r="BP65" s="71"/>
+      <c r="BQ65" s="71"/>
+      <c r="BR65" s="48"/>
+      <c r="BS65" s="48"/>
+      <c r="BT65" s="48"/>
+      <c r="BU65" s="48"/>
+      <c r="BV65" s="48"/>
+      <c r="BW65" s="71"/>
+      <c r="BX65" s="71"/>
+      <c r="BY65" s="48"/>
+      <c r="BZ65" s="48"/>
+      <c r="CA65" s="48"/>
+      <c r="CB65" s="48"/>
+      <c r="CC65" s="48"/>
+      <c r="CD65" s="71"/>
+      <c r="CE65" s="71"/>
+      <c r="CF65" s="48"/>
+      <c r="CG65" s="48"/>
+      <c r="CH65" s="48"/>
+      <c r="CI65" s="48"/>
+      <c r="CJ65" s="48"/>
+      <c r="CK65" s="71"/>
+      <c r="CL65" s="71"/>
+      <c r="CM65" s="48"/>
+      <c r="CN65" s="48"/>
+      <c r="CO65" s="48"/>
+      <c r="CP65" s="48"/>
+      <c r="CQ65" s="48"/>
+      <c r="CR65" s="71"/>
+      <c r="CS65" s="71"/>
+      <c r="CT65" s="48"/>
+      <c r="CU65" s="48"/>
+      <c r="CV65" s="48"/>
+      <c r="CW65" s="48"/>
+      <c r="CX65" s="48"/>
+      <c r="CY65" s="71"/>
+      <c r="CZ65" s="71"/>
+      <c r="DA65" s="48"/>
+      <c r="DB65" s="48"/>
+      <c r="DC65" s="48"/>
+      <c r="DD65" s="48"/>
+      <c r="DE65" s="48"/>
+      <c r="DF65" s="71"/>
+      <c r="DG65" s="71"/>
+      <c r="DH65" s="49"/>
+      <c r="DI65" s="50"/>
+      <c r="DJ65" s="51"/>
+      <c r="DK65" s="52"/>
     </row>
     <row r="66" spans="2:115">
-      <c r="B66" s="277"/>
-      <c r="C66" s="288"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="81"/>
+      <c r="B66" s="298"/>
+      <c r="C66" s="278"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="75"/>
       <c r="G66" s="242"/>
       <c r="H66" s="232"/>
       <c r="I66" s="232"/>
@@ -12755,102 +12794,102 @@
       <c r="K66" s="232"/>
       <c r="L66" s="234"/>
       <c r="M66" s="234"/>
-      <c r="N66" s="233"/>
-      <c r="O66" s="233"/>
-      <c r="P66" s="233"/>
-      <c r="Q66" s="56"/>
-      <c r="R66" s="56"/>
+      <c r="N66" s="232"/>
+      <c r="O66" s="232"/>
+      <c r="P66" s="232"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
       <c r="S66" s="73"/>
       <c r="T66" s="73"/>
-      <c r="U66" s="56"/>
-      <c r="V66" s="56"/>
-      <c r="W66" s="56"/>
-      <c r="X66" s="56"/>
-      <c r="Y66" s="56"/>
+      <c r="U66" s="57"/>
+      <c r="V66" s="57"/>
+      <c r="W66" s="57"/>
+      <c r="X66" s="57"/>
+      <c r="Y66" s="57"/>
       <c r="Z66" s="73"/>
       <c r="AA66" s="73"/>
-      <c r="AB66" s="56"/>
-      <c r="AC66" s="56"/>
-      <c r="AD66" s="56"/>
-      <c r="AE66" s="56"/>
-      <c r="AF66" s="56"/>
+      <c r="AB66" s="57"/>
+      <c r="AC66" s="57"/>
+      <c r="AD66" s="57"/>
+      <c r="AE66" s="57"/>
+      <c r="AF66" s="57"/>
       <c r="AG66" s="73"/>
       <c r="AH66" s="73"/>
-      <c r="AI66" s="56"/>
-      <c r="AJ66" s="56"/>
-      <c r="AK66" s="56"/>
-      <c r="AL66" s="56"/>
-      <c r="AM66" s="56"/>
+      <c r="AI66" s="57"/>
+      <c r="AJ66" s="57"/>
+      <c r="AK66" s="57"/>
+      <c r="AL66" s="57"/>
+      <c r="AM66" s="57"/>
       <c r="AN66" s="73"/>
       <c r="AO66" s="73"/>
-      <c r="AP66" s="56"/>
-      <c r="AQ66" s="56"/>
-      <c r="AR66" s="56"/>
-      <c r="AS66" s="56"/>
-      <c r="AT66" s="154"/>
+      <c r="AP66" s="57"/>
+      <c r="AQ66" s="57"/>
+      <c r="AR66" s="57"/>
+      <c r="AS66" s="57"/>
+      <c r="AT66" s="152"/>
       <c r="AU66" s="73"/>
       <c r="AV66" s="73"/>
-      <c r="AW66" s="56"/>
-      <c r="AX66" s="56"/>
-      <c r="AY66" s="56"/>
-      <c r="AZ66" s="56"/>
-      <c r="BA66" s="154"/>
+      <c r="AW66" s="57"/>
+      <c r="AX66" s="57"/>
+      <c r="AY66" s="57"/>
+      <c r="AZ66" s="57"/>
+      <c r="BA66" s="152"/>
       <c r="BB66" s="73"/>
       <c r="BC66" s="73"/>
-      <c r="BD66" s="56"/>
-      <c r="BE66" s="56"/>
-      <c r="BF66" s="56"/>
-      <c r="BG66" s="56"/>
-      <c r="BH66" s="154"/>
+      <c r="BD66" s="57"/>
+      <c r="BE66" s="57"/>
+      <c r="BF66" s="57"/>
+      <c r="BG66" s="57"/>
+      <c r="BH66" s="152"/>
       <c r="BI66" s="73"/>
       <c r="BJ66" s="73"/>
-      <c r="BK66" s="56"/>
-      <c r="BL66" s="56"/>
-      <c r="BM66" s="56"/>
-      <c r="BN66" s="56"/>
-      <c r="BO66" s="56"/>
+      <c r="BK66" s="57"/>
+      <c r="BL66" s="57"/>
+      <c r="BM66" s="57"/>
+      <c r="BN66" s="57"/>
+      <c r="BO66" s="57"/>
       <c r="BP66" s="73"/>
       <c r="BQ66" s="73"/>
-      <c r="BR66" s="56"/>
-      <c r="BS66" s="56"/>
-      <c r="BT66" s="56"/>
-      <c r="BU66" s="56"/>
-      <c r="BV66" s="56"/>
+      <c r="BR66" s="57"/>
+      <c r="BS66" s="57"/>
+      <c r="BT66" s="57"/>
+      <c r="BU66" s="57"/>
+      <c r="BV66" s="57"/>
       <c r="BW66" s="73"/>
       <c r="BX66" s="73"/>
-      <c r="BY66" s="56"/>
-      <c r="BZ66" s="56"/>
-      <c r="CA66" s="56"/>
-      <c r="CB66" s="56"/>
-      <c r="CC66" s="56"/>
+      <c r="BY66" s="57"/>
+      <c r="BZ66" s="57"/>
+      <c r="CA66" s="57"/>
+      <c r="CB66" s="57"/>
+      <c r="CC66" s="57"/>
       <c r="CD66" s="73"/>
       <c r="CE66" s="73"/>
-      <c r="CF66" s="56"/>
-      <c r="CG66" s="56"/>
-      <c r="CH66" s="56"/>
-      <c r="CI66" s="56"/>
-      <c r="CJ66" s="56"/>
+      <c r="CF66" s="57"/>
+      <c r="CG66" s="57"/>
+      <c r="CH66" s="57"/>
+      <c r="CI66" s="57"/>
+      <c r="CJ66" s="57"/>
       <c r="CK66" s="73"/>
       <c r="CL66" s="73"/>
-      <c r="CM66" s="56"/>
-      <c r="CN66" s="56"/>
-      <c r="CO66" s="56"/>
-      <c r="CP66" s="56"/>
-      <c r="CQ66" s="56"/>
+      <c r="CM66" s="57"/>
+      <c r="CN66" s="57"/>
+      <c r="CO66" s="57"/>
+      <c r="CP66" s="57"/>
+      <c r="CQ66" s="57"/>
       <c r="CR66" s="73"/>
       <c r="CS66" s="73"/>
-      <c r="CT66" s="56"/>
-      <c r="CU66" s="56"/>
-      <c r="CV66" s="56"/>
-      <c r="CW66" s="56"/>
-      <c r="CX66" s="56"/>
+      <c r="CT66" s="57"/>
+      <c r="CU66" s="57"/>
+      <c r="CV66" s="57"/>
+      <c r="CW66" s="57"/>
+      <c r="CX66" s="57"/>
       <c r="CY66" s="73"/>
       <c r="CZ66" s="73"/>
-      <c r="DA66" s="56"/>
-      <c r="DB66" s="56"/>
-      <c r="DC66" s="56"/>
-      <c r="DD66" s="56"/>
-      <c r="DE66" s="56"/>
+      <c r="DA66" s="57"/>
+      <c r="DB66" s="57"/>
+      <c r="DC66" s="57"/>
+      <c r="DD66" s="57"/>
+      <c r="DE66" s="57"/>
       <c r="DF66" s="73"/>
       <c r="DG66" s="73"/>
       <c r="DH66" s="58"/>
@@ -12859,370 +12898,376 @@
       <c r="DK66" s="61"/>
     </row>
     <row r="67" spans="2:115">
-      <c r="B67" s="277"/>
-      <c r="C67" s="288" t="s">
-        <v>48</v>
+      <c r="B67" s="298"/>
+      <c r="C67" s="277" t="s">
+        <v>14</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E67" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="82"/>
-      <c r="G67" s="247"/>
-      <c r="H67" s="227"/>
-      <c r="I67" s="227"/>
-      <c r="J67" s="227"/>
-      <c r="K67" s="227"/>
-      <c r="L67" s="229"/>
-      <c r="M67" s="229"/>
-      <c r="N67" s="228"/>
-      <c r="O67" s="228"/>
-      <c r="P67" s="228"/>
-      <c r="Q67" s="63"/>
-      <c r="R67" s="63"/>
-      <c r="S67" s="72"/>
-      <c r="T67" s="72"/>
-      <c r="U67" s="63"/>
-      <c r="V67" s="63"/>
-      <c r="W67" s="63"/>
-      <c r="X67" s="63"/>
-      <c r="Y67" s="63"/>
-      <c r="Z67" s="72"/>
-      <c r="AA67" s="72"/>
-      <c r="AB67" s="63"/>
-      <c r="AC67" s="63"/>
-      <c r="AD67" s="63"/>
-      <c r="AE67" s="63"/>
-      <c r="AF67" s="63"/>
-      <c r="AG67" s="72"/>
-      <c r="AH67" s="72"/>
-      <c r="AI67" s="63"/>
-      <c r="AJ67" s="63"/>
-      <c r="AK67" s="63"/>
-      <c r="AL67" s="63"/>
-      <c r="AM67" s="63"/>
-      <c r="AN67" s="72"/>
-      <c r="AO67" s="72"/>
-      <c r="AP67" s="63"/>
-      <c r="AQ67" s="63"/>
-      <c r="AR67" s="63"/>
-      <c r="AS67" s="63"/>
-      <c r="AT67" s="155"/>
-      <c r="AU67" s="72"/>
-      <c r="AV67" s="72"/>
-      <c r="AW67" s="63"/>
-      <c r="AX67" s="63"/>
-      <c r="AY67" s="63"/>
-      <c r="AZ67" s="63"/>
-      <c r="BA67" s="155"/>
-      <c r="BB67" s="72"/>
-      <c r="BC67" s="72"/>
-      <c r="BD67" s="63"/>
-      <c r="BE67" s="63"/>
-      <c r="BF67" s="63"/>
-      <c r="BG67" s="63"/>
-      <c r="BH67" s="155"/>
-      <c r="BI67" s="72"/>
-      <c r="BJ67" s="72"/>
-      <c r="BK67" s="63"/>
-      <c r="BL67" s="63"/>
-      <c r="BM67" s="63"/>
-      <c r="BN67" s="63"/>
-      <c r="BO67" s="63"/>
-      <c r="BP67" s="72"/>
-      <c r="BQ67" s="72"/>
-      <c r="BR67" s="63"/>
-      <c r="BS67" s="63"/>
-      <c r="BT67" s="63"/>
-      <c r="BU67" s="63"/>
-      <c r="BV67" s="63"/>
-      <c r="BW67" s="72"/>
-      <c r="BX67" s="72"/>
-      <c r="BY67" s="63"/>
-      <c r="BZ67" s="63"/>
-      <c r="CA67" s="63"/>
-      <c r="CB67" s="63"/>
-      <c r="CC67" s="63"/>
-      <c r="CD67" s="72"/>
-      <c r="CE67" s="72"/>
-      <c r="CF67" s="63"/>
-      <c r="CG67" s="63"/>
-      <c r="CH67" s="63"/>
-      <c r="CI67" s="63"/>
-      <c r="CJ67" s="63"/>
-      <c r="CK67" s="72"/>
-      <c r="CL67" s="72"/>
-      <c r="CM67" s="63"/>
-      <c r="CN67" s="63"/>
-      <c r="CO67" s="63"/>
-      <c r="CP67" s="63"/>
-      <c r="CQ67" s="63"/>
-      <c r="CR67" s="72"/>
-      <c r="CS67" s="72"/>
-      <c r="CT67" s="63"/>
-      <c r="CU67" s="63"/>
-      <c r="CV67" s="63"/>
-      <c r="CW67" s="63"/>
-      <c r="CX67" s="63"/>
-      <c r="CY67" s="72"/>
-      <c r="CZ67" s="72"/>
-      <c r="DA67" s="63"/>
-      <c r="DB67" s="63"/>
-      <c r="DC67" s="63"/>
-      <c r="DD67" s="63"/>
-      <c r="DE67" s="63"/>
-      <c r="DF67" s="72"/>
-      <c r="DG67" s="72"/>
-      <c r="DH67" s="64"/>
-      <c r="DI67" s="65"/>
-      <c r="DJ67" s="66"/>
-      <c r="DK67" s="67"/>
+        <v>46</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F67" s="175">
+        <v>40361</v>
+      </c>
+      <c r="G67" s="243"/>
+      <c r="H67" s="236"/>
+      <c r="I67" s="236"/>
+      <c r="J67" s="236"/>
+      <c r="K67" s="216"/>
+      <c r="L67" s="230"/>
+      <c r="M67" s="230"/>
+      <c r="N67" s="217"/>
+      <c r="O67" s="212"/>
+      <c r="P67" s="216"/>
+      <c r="Q67" s="48"/>
+      <c r="R67" s="48"/>
+      <c r="S67" s="95"/>
+      <c r="T67" s="98"/>
+      <c r="U67" s="48"/>
+      <c r="V67" s="48"/>
+      <c r="W67" s="48"/>
+      <c r="X67" s="48"/>
+      <c r="Y67" s="48"/>
+      <c r="Z67" s="95"/>
+      <c r="AA67" s="71"/>
+      <c r="AB67" s="48"/>
+      <c r="AC67" s="48"/>
+      <c r="AD67" s="48"/>
+      <c r="AE67" s="48"/>
+      <c r="AF67" s="48"/>
+      <c r="AG67" s="71"/>
+      <c r="AH67" s="71"/>
+      <c r="AI67" s="48"/>
+      <c r="AJ67" s="48"/>
+      <c r="AK67" s="48"/>
+      <c r="AL67" s="48"/>
+      <c r="AM67" s="48"/>
+      <c r="AN67" s="71"/>
+      <c r="AO67" s="71"/>
+      <c r="AP67" s="48"/>
+      <c r="AQ67" s="48"/>
+      <c r="AR67" s="48"/>
+      <c r="AS67" s="48"/>
+      <c r="AT67" s="150"/>
+      <c r="AU67" s="71"/>
+      <c r="AV67" s="71"/>
+      <c r="AW67" s="48"/>
+      <c r="AX67" s="48"/>
+      <c r="AY67" s="48"/>
+      <c r="AZ67" s="48"/>
+      <c r="BA67" s="150"/>
+      <c r="BB67" s="71"/>
+      <c r="BC67" s="71"/>
+      <c r="BD67" s="48"/>
+      <c r="BE67" s="48"/>
+      <c r="BF67" s="48"/>
+      <c r="BG67" s="48"/>
+      <c r="BH67" s="150"/>
+      <c r="BI67" s="71"/>
+      <c r="BJ67" s="71"/>
+      <c r="BK67" s="48"/>
+      <c r="BL67" s="48"/>
+      <c r="BM67" s="48"/>
+      <c r="BN67" s="48"/>
+      <c r="BO67" s="48"/>
+      <c r="BP67" s="71"/>
+      <c r="BQ67" s="71"/>
+      <c r="BR67" s="48"/>
+      <c r="BS67" s="48"/>
+      <c r="BT67" s="48"/>
+      <c r="BU67" s="48"/>
+      <c r="BV67" s="48"/>
+      <c r="BW67" s="71"/>
+      <c r="BX67" s="71"/>
+      <c r="BY67" s="48"/>
+      <c r="BZ67" s="48"/>
+      <c r="CA67" s="48"/>
+      <c r="CB67" s="48"/>
+      <c r="CC67" s="48"/>
+      <c r="CD67" s="71"/>
+      <c r="CE67" s="71"/>
+      <c r="CF67" s="48"/>
+      <c r="CG67" s="48"/>
+      <c r="CH67" s="48"/>
+      <c r="CI67" s="48"/>
+      <c r="CJ67" s="48"/>
+      <c r="CK67" s="71"/>
+      <c r="CL67" s="71"/>
+      <c r="CM67" s="48"/>
+      <c r="CN67" s="48"/>
+      <c r="CO67" s="48"/>
+      <c r="CP67" s="48"/>
+      <c r="CQ67" s="48"/>
+      <c r="CR67" s="71"/>
+      <c r="CS67" s="71"/>
+      <c r="CT67" s="48"/>
+      <c r="CU67" s="48"/>
+      <c r="CV67" s="48"/>
+      <c r="CW67" s="48"/>
+      <c r="CX67" s="48"/>
+      <c r="CY67" s="71"/>
+      <c r="CZ67" s="71"/>
+      <c r="DA67" s="48"/>
+      <c r="DB67" s="48"/>
+      <c r="DC67" s="48"/>
+      <c r="DD67" s="48"/>
+      <c r="DE67" s="48"/>
+      <c r="DF67" s="71"/>
+      <c r="DG67" s="71"/>
+      <c r="DH67" s="49"/>
+      <c r="DI67" s="50"/>
+      <c r="DJ67" s="51"/>
+      <c r="DK67" s="52"/>
     </row>
     <row r="68" spans="2:115">
-      <c r="B68" s="277"/>
-      <c r="C68" s="289"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="242"/>
-      <c r="H68" s="232"/>
-      <c r="I68" s="232"/>
-      <c r="J68" s="232"/>
-      <c r="K68" s="232"/>
-      <c r="L68" s="234"/>
-      <c r="M68" s="234"/>
-      <c r="N68" s="233"/>
-      <c r="O68" s="233"/>
-      <c r="P68" s="233"/>
-      <c r="Q68" s="56"/>
-      <c r="R68" s="56"/>
-      <c r="S68" s="73"/>
-      <c r="T68" s="73"/>
-      <c r="U68" s="56"/>
-      <c r="V68" s="56"/>
-      <c r="W68" s="56"/>
-      <c r="X68" s="56"/>
-      <c r="Y68" s="56"/>
-      <c r="Z68" s="73"/>
-      <c r="AA68" s="73"/>
-      <c r="AB68" s="56"/>
-      <c r="AC68" s="56"/>
-      <c r="AD68" s="56"/>
-      <c r="AE68" s="56"/>
-      <c r="AF68" s="56"/>
-      <c r="AG68" s="73"/>
-      <c r="AH68" s="73"/>
-      <c r="AI68" s="56"/>
-      <c r="AJ68" s="56"/>
-      <c r="AK68" s="56"/>
-      <c r="AL68" s="56"/>
-      <c r="AM68" s="56"/>
-      <c r="AN68" s="73"/>
-      <c r="AO68" s="73"/>
-      <c r="AP68" s="56"/>
-      <c r="AQ68" s="56"/>
-      <c r="AR68" s="56"/>
-      <c r="AS68" s="56"/>
-      <c r="AT68" s="154"/>
-      <c r="AU68" s="73"/>
-      <c r="AV68" s="73"/>
-      <c r="AW68" s="56"/>
-      <c r="AX68" s="56"/>
-      <c r="AY68" s="56"/>
-      <c r="AZ68" s="56"/>
-      <c r="BA68" s="154"/>
-      <c r="BB68" s="73"/>
-      <c r="BC68" s="73"/>
-      <c r="BD68" s="56"/>
-      <c r="BE68" s="56"/>
-      <c r="BF68" s="56"/>
-      <c r="BG68" s="56"/>
-      <c r="BH68" s="154"/>
-      <c r="BI68" s="73"/>
-      <c r="BJ68" s="73"/>
-      <c r="BK68" s="56"/>
-      <c r="BL68" s="56"/>
-      <c r="BM68" s="56"/>
-      <c r="BN68" s="56"/>
-      <c r="BO68" s="56"/>
-      <c r="BP68" s="73"/>
-      <c r="BQ68" s="73"/>
-      <c r="BR68" s="56"/>
-      <c r="BS68" s="56"/>
-      <c r="BT68" s="56"/>
-      <c r="BU68" s="56"/>
-      <c r="BV68" s="56"/>
-      <c r="BW68" s="73"/>
-      <c r="BX68" s="73"/>
-      <c r="BY68" s="56"/>
-      <c r="BZ68" s="56"/>
-      <c r="CA68" s="56"/>
-      <c r="CB68" s="56"/>
-      <c r="CC68" s="56"/>
-      <c r="CD68" s="73"/>
-      <c r="CE68" s="73"/>
-      <c r="CF68" s="56"/>
-      <c r="CG68" s="56"/>
-      <c r="CH68" s="56"/>
-      <c r="CI68" s="56"/>
-      <c r="CJ68" s="56"/>
-      <c r="CK68" s="73"/>
-      <c r="CL68" s="73"/>
-      <c r="CM68" s="56"/>
-      <c r="CN68" s="56"/>
-      <c r="CO68" s="56"/>
-      <c r="CP68" s="56"/>
-      <c r="CQ68" s="56"/>
-      <c r="CR68" s="73"/>
-      <c r="CS68" s="73"/>
-      <c r="CT68" s="56"/>
-      <c r="CU68" s="56"/>
-      <c r="CV68" s="56"/>
-      <c r="CW68" s="56"/>
-      <c r="CX68" s="56"/>
-      <c r="CY68" s="73"/>
-      <c r="CZ68" s="73"/>
-      <c r="DA68" s="56"/>
-      <c r="DB68" s="56"/>
-      <c r="DC68" s="56"/>
-      <c r="DD68" s="56"/>
-      <c r="DE68" s="56"/>
-      <c r="DF68" s="73"/>
-      <c r="DG68" s="73"/>
-      <c r="DH68" s="58"/>
-      <c r="DI68" s="59"/>
-      <c r="DJ68" s="60"/>
-      <c r="DK68" s="61"/>
+      <c r="B68" s="298"/>
+      <c r="C68" s="277"/>
+      <c r="D68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="75"/>
+      <c r="G68" s="243"/>
+      <c r="H68" s="236"/>
+      <c r="I68" s="216"/>
+      <c r="J68" s="216"/>
+      <c r="K68" s="216"/>
+      <c r="L68" s="230"/>
+      <c r="M68" s="230"/>
+      <c r="N68" s="216"/>
+      <c r="O68" s="216"/>
+      <c r="P68" s="216"/>
+      <c r="Q68" s="96"/>
+      <c r="R68" s="96"/>
+      <c r="S68" s="71"/>
+      <c r="T68" s="71"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="48"/>
+      <c r="W68" s="48"/>
+      <c r="X68" s="48"/>
+      <c r="Y68" s="48"/>
+      <c r="Z68" s="71"/>
+      <c r="AA68" s="71"/>
+      <c r="AB68" s="48"/>
+      <c r="AC68" s="48"/>
+      <c r="AD68" s="48"/>
+      <c r="AE68" s="48"/>
+      <c r="AF68" s="48"/>
+      <c r="AG68" s="71"/>
+      <c r="AH68" s="71"/>
+      <c r="AI68" s="48"/>
+      <c r="AJ68" s="48"/>
+      <c r="AK68" s="48"/>
+      <c r="AL68" s="48"/>
+      <c r="AM68" s="48"/>
+      <c r="AN68" s="71"/>
+      <c r="AO68" s="71"/>
+      <c r="AP68" s="48"/>
+      <c r="AQ68" s="48"/>
+      <c r="AR68" s="48"/>
+      <c r="AS68" s="48"/>
+      <c r="AT68" s="150"/>
+      <c r="AU68" s="71"/>
+      <c r="AV68" s="71"/>
+      <c r="AW68" s="48"/>
+      <c r="AX68" s="48"/>
+      <c r="AY68" s="48"/>
+      <c r="AZ68" s="48"/>
+      <c r="BA68" s="150"/>
+      <c r="BB68" s="71"/>
+      <c r="BC68" s="71"/>
+      <c r="BD68" s="48"/>
+      <c r="BE68" s="48"/>
+      <c r="BF68" s="48"/>
+      <c r="BG68" s="48"/>
+      <c r="BH68" s="150"/>
+      <c r="BI68" s="71"/>
+      <c r="BJ68" s="71"/>
+      <c r="BK68" s="48"/>
+      <c r="BL68" s="48"/>
+      <c r="BM68" s="48"/>
+      <c r="BN68" s="48"/>
+      <c r="BO68" s="48"/>
+      <c r="BP68" s="71"/>
+      <c r="BQ68" s="71"/>
+      <c r="BR68" s="48"/>
+      <c r="BS68" s="48"/>
+      <c r="BT68" s="48"/>
+      <c r="BU68" s="48"/>
+      <c r="BV68" s="48"/>
+      <c r="BW68" s="71"/>
+      <c r="BX68" s="71"/>
+      <c r="BY68" s="48"/>
+      <c r="BZ68" s="48"/>
+      <c r="CA68" s="48"/>
+      <c r="CB68" s="48"/>
+      <c r="CC68" s="48"/>
+      <c r="CD68" s="71"/>
+      <c r="CE68" s="71"/>
+      <c r="CF68" s="48"/>
+      <c r="CG68" s="48"/>
+      <c r="CH68" s="48"/>
+      <c r="CI68" s="48"/>
+      <c r="CJ68" s="48"/>
+      <c r="CK68" s="71"/>
+      <c r="CL68" s="71"/>
+      <c r="CM68" s="48"/>
+      <c r="CN68" s="48"/>
+      <c r="CO68" s="48"/>
+      <c r="CP68" s="48"/>
+      <c r="CQ68" s="48"/>
+      <c r="CR68" s="71"/>
+      <c r="CS68" s="71"/>
+      <c r="CT68" s="48"/>
+      <c r="CU68" s="48"/>
+      <c r="CV68" s="48"/>
+      <c r="CW68" s="48"/>
+      <c r="CX68" s="48"/>
+      <c r="CY68" s="71"/>
+      <c r="CZ68" s="71"/>
+      <c r="DA68" s="48"/>
+      <c r="DB68" s="48"/>
+      <c r="DC68" s="48"/>
+      <c r="DD68" s="48"/>
+      <c r="DE68" s="48"/>
+      <c r="DF68" s="71"/>
+      <c r="DG68" s="71"/>
+      <c r="DH68" s="49"/>
+      <c r="DI68" s="50"/>
+      <c r="DJ68" s="51"/>
+      <c r="DK68" s="52"/>
     </row>
     <row r="69" spans="2:115">
-      <c r="B69" s="277"/>
-      <c r="C69" s="290"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="82"/>
-      <c r="G69" s="247"/>
-      <c r="H69" s="227"/>
-      <c r="I69" s="227"/>
-      <c r="J69" s="228"/>
-      <c r="K69" s="227"/>
-      <c r="L69" s="229"/>
-      <c r="M69" s="229"/>
-      <c r="N69" s="227"/>
-      <c r="O69" s="227"/>
-      <c r="P69" s="227"/>
-      <c r="Q69" s="62"/>
-      <c r="R69" s="62"/>
-      <c r="S69" s="72"/>
-      <c r="T69" s="72"/>
-      <c r="U69" s="62"/>
-      <c r="V69" s="62"/>
-      <c r="W69" s="62"/>
-      <c r="X69" s="62"/>
-      <c r="Y69" s="62"/>
-      <c r="Z69" s="72"/>
-      <c r="AA69" s="72"/>
-      <c r="AB69" s="62"/>
-      <c r="AC69" s="62"/>
-      <c r="AD69" s="62"/>
-      <c r="AE69" s="62"/>
-      <c r="AF69" s="62"/>
-      <c r="AG69" s="72"/>
-      <c r="AH69" s="72"/>
-      <c r="AI69" s="62"/>
-      <c r="AJ69" s="62"/>
-      <c r="AK69" s="62"/>
-      <c r="AL69" s="62"/>
-      <c r="AM69" s="62"/>
-      <c r="AN69" s="72"/>
-      <c r="AO69" s="72"/>
-      <c r="AP69" s="62"/>
-      <c r="AQ69" s="62"/>
-      <c r="AR69" s="62"/>
-      <c r="AS69" s="62"/>
-      <c r="AT69" s="151"/>
-      <c r="AU69" s="72"/>
-      <c r="AV69" s="72"/>
-      <c r="AW69" s="62"/>
-      <c r="AX69" s="62"/>
-      <c r="AY69" s="62"/>
-      <c r="AZ69" s="62"/>
-      <c r="BA69" s="151"/>
-      <c r="BB69" s="72"/>
-      <c r="BC69" s="72"/>
-      <c r="BD69" s="62"/>
-      <c r="BE69" s="62"/>
-      <c r="BF69" s="62"/>
-      <c r="BG69" s="62"/>
-      <c r="BH69" s="151"/>
-      <c r="BI69" s="72"/>
-      <c r="BJ69" s="72"/>
-      <c r="BK69" s="62"/>
-      <c r="BL69" s="62"/>
-      <c r="BM69" s="62"/>
-      <c r="BN69" s="62"/>
-      <c r="BO69" s="62"/>
-      <c r="BP69" s="72"/>
-      <c r="BQ69" s="72"/>
-      <c r="BR69" s="62"/>
-      <c r="BS69" s="62"/>
-      <c r="BT69" s="62"/>
-      <c r="BU69" s="62"/>
-      <c r="BV69" s="62"/>
-      <c r="BW69" s="72"/>
-      <c r="BX69" s="72"/>
-      <c r="BY69" s="62"/>
-      <c r="BZ69" s="62"/>
-      <c r="CA69" s="62"/>
-      <c r="CB69" s="62"/>
-      <c r="CC69" s="62"/>
-      <c r="CD69" s="72"/>
-      <c r="CE69" s="72"/>
-      <c r="CF69" s="62"/>
-      <c r="CG69" s="62"/>
-      <c r="CH69" s="62"/>
-      <c r="CI69" s="62"/>
-      <c r="CJ69" s="62"/>
-      <c r="CK69" s="72"/>
-      <c r="CL69" s="72"/>
-      <c r="CM69" s="62"/>
-      <c r="CN69" s="62"/>
-      <c r="CO69" s="62"/>
-      <c r="CP69" s="62"/>
-      <c r="CQ69" s="62"/>
-      <c r="CR69" s="72"/>
-      <c r="CS69" s="72"/>
-      <c r="CT69" s="62"/>
-      <c r="CU69" s="62"/>
-      <c r="CV69" s="62"/>
-      <c r="CW69" s="62"/>
-      <c r="CX69" s="62"/>
-      <c r="CY69" s="72"/>
-      <c r="CZ69" s="72"/>
-      <c r="DA69" s="62"/>
-      <c r="DB69" s="62"/>
-      <c r="DC69" s="62"/>
-      <c r="DD69" s="62"/>
-      <c r="DE69" s="62"/>
-      <c r="DF69" s="72"/>
-      <c r="DG69" s="72"/>
-      <c r="DH69" s="64"/>
-      <c r="DI69" s="65"/>
-      <c r="DJ69" s="66"/>
-      <c r="DK69" s="67"/>
+      <c r="B69" s="298"/>
+      <c r="C69" s="277"/>
+      <c r="D69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="243"/>
+      <c r="H69" s="236"/>
+      <c r="I69" s="216"/>
+      <c r="J69" s="216"/>
+      <c r="K69" s="216"/>
+      <c r="L69" s="230"/>
+      <c r="M69" s="230"/>
+      <c r="N69" s="216"/>
+      <c r="O69" s="216"/>
+      <c r="P69" s="216"/>
+      <c r="Q69" s="48"/>
+      <c r="R69" s="48"/>
+      <c r="S69" s="71"/>
+      <c r="T69" s="71"/>
+      <c r="U69" s="96"/>
+      <c r="V69" s="96"/>
+      <c r="W69" s="96"/>
+      <c r="X69" s="96"/>
+      <c r="Y69" s="96"/>
+      <c r="Z69" s="71"/>
+      <c r="AA69" s="71"/>
+      <c r="AB69" s="48"/>
+      <c r="AC69" s="48"/>
+      <c r="AD69" s="48"/>
+      <c r="AE69" s="48"/>
+      <c r="AF69" s="48"/>
+      <c r="AG69" s="71"/>
+      <c r="AH69" s="71"/>
+      <c r="AI69" s="48"/>
+      <c r="AJ69" s="48"/>
+      <c r="AK69" s="48"/>
+      <c r="AL69" s="48"/>
+      <c r="AM69" s="48"/>
+      <c r="AN69" s="71"/>
+      <c r="AO69" s="71"/>
+      <c r="AP69" s="48"/>
+      <c r="AQ69" s="48"/>
+      <c r="AR69" s="48"/>
+      <c r="AS69" s="48"/>
+      <c r="AT69" s="150"/>
+      <c r="AU69" s="71"/>
+      <c r="AV69" s="71"/>
+      <c r="AW69" s="48"/>
+      <c r="AX69" s="48"/>
+      <c r="AY69" s="48"/>
+      <c r="AZ69" s="48"/>
+      <c r="BA69" s="150"/>
+      <c r="BB69" s="71"/>
+      <c r="BC69" s="71"/>
+      <c r="BD69" s="48"/>
+      <c r="BE69" s="48"/>
+      <c r="BF69" s="48"/>
+      <c r="BG69" s="48"/>
+      <c r="BH69" s="150"/>
+      <c r="BI69" s="71"/>
+      <c r="BJ69" s="71"/>
+      <c r="BK69" s="48"/>
+      <c r="BL69" s="48"/>
+      <c r="BM69" s="48"/>
+      <c r="BN69" s="48"/>
+      <c r="BO69" s="48"/>
+      <c r="BP69" s="71"/>
+      <c r="BQ69" s="71"/>
+      <c r="BR69" s="48"/>
+      <c r="BS69" s="48"/>
+      <c r="BT69" s="48"/>
+      <c r="BU69" s="48"/>
+      <c r="BV69" s="48"/>
+      <c r="BW69" s="71"/>
+      <c r="BX69" s="71"/>
+      <c r="BY69" s="48"/>
+      <c r="BZ69" s="48"/>
+      <c r="CA69" s="48"/>
+      <c r="CB69" s="48"/>
+      <c r="CC69" s="48"/>
+      <c r="CD69" s="71"/>
+      <c r="CE69" s="71"/>
+      <c r="CF69" s="48"/>
+      <c r="CG69" s="48"/>
+      <c r="CH69" s="48"/>
+      <c r="CI69" s="48"/>
+      <c r="CJ69" s="48"/>
+      <c r="CK69" s="71"/>
+      <c r="CL69" s="71"/>
+      <c r="CM69" s="48"/>
+      <c r="CN69" s="48"/>
+      <c r="CO69" s="48"/>
+      <c r="CP69" s="48"/>
+      <c r="CQ69" s="48"/>
+      <c r="CR69" s="71"/>
+      <c r="CS69" s="71"/>
+      <c r="CT69" s="48"/>
+      <c r="CU69" s="48"/>
+      <c r="CV69" s="48"/>
+      <c r="CW69" s="48"/>
+      <c r="CX69" s="48"/>
+      <c r="CY69" s="71"/>
+      <c r="CZ69" s="71"/>
+      <c r="DA69" s="48"/>
+      <c r="DB69" s="48"/>
+      <c r="DC69" s="48"/>
+      <c r="DD69" s="48"/>
+      <c r="DE69" s="48"/>
+      <c r="DF69" s="71"/>
+      <c r="DG69" s="71"/>
+      <c r="DH69" s="49"/>
+      <c r="DI69" s="50"/>
+      <c r="DJ69" s="51"/>
+      <c r="DK69" s="52"/>
     </row>
     <row r="70" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B70" s="286"/>
-      <c r="C70" s="290"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="81"/>
+      <c r="B70" s="298"/>
+      <c r="C70" s="277"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="78"/>
       <c r="G70" s="244"/>
       <c r="H70" s="203"/>
       <c r="I70" s="203"/>
       <c r="J70" s="245"/>
-      <c r="K70" s="245"/>
+      <c r="K70" s="203"/>
       <c r="L70" s="237"/>
       <c r="M70" s="237"/>
       <c r="N70" s="203"/>
@@ -13329,17 +13374,19 @@
       <c r="DK70" s="36"/>
     </row>
     <row r="71" spans="2:115">
-      <c r="B71" s="278" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="287" t="s">
-        <v>50</v>
+      <c r="B71" s="279" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="293" t="s">
+        <v>37</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F71" s="80"/>
+        <v>19</v>
+      </c>
+      <c r="F71" s="176">
+        <v>40375</v>
+      </c>
       <c r="G71" s="246"/>
       <c r="H71" s="209"/>
       <c r="I71" s="209"/>
@@ -13361,18 +13408,18 @@
       <c r="Y71" s="43"/>
       <c r="Z71" s="70"/>
       <c r="AA71" s="70"/>
-      <c r="AB71" s="43"/>
-      <c r="AC71" s="43"/>
-      <c r="AD71" s="43"/>
-      <c r="AE71" s="43"/>
-      <c r="AF71" s="43"/>
+      <c r="AB71" s="103"/>
+      <c r="AC71" s="103"/>
+      <c r="AD71" s="103"/>
+      <c r="AE71" s="103"/>
+      <c r="AF71" s="103"/>
       <c r="AG71" s="70"/>
       <c r="AH71" s="70"/>
-      <c r="AI71" s="43"/>
-      <c r="AJ71" s="43"/>
-      <c r="AK71" s="43"/>
-      <c r="AL71" s="43"/>
-      <c r="AM71" s="43"/>
+      <c r="AI71" s="103"/>
+      <c r="AJ71" s="103"/>
+      <c r="AK71" s="103"/>
+      <c r="AL71" s="103"/>
+      <c r="AM71" s="103"/>
       <c r="AN71" s="70"/>
       <c r="AO71" s="70"/>
       <c r="AP71" s="43"/>
@@ -13451,129 +13498,131 @@
       <c r="DK71" s="47"/>
     </row>
     <row r="72" spans="2:115">
-      <c r="B72" s="277"/>
-      <c r="C72" s="288"/>
+      <c r="B72" s="280"/>
+      <c r="C72" s="294"/>
       <c r="D72" s="15"/>
       <c r="E72" s="22"/>
       <c r="F72" s="81"/>
-      <c r="G72" s="243"/>
-      <c r="H72" s="216"/>
-      <c r="I72" s="216"/>
-      <c r="J72" s="216"/>
-      <c r="K72" s="216"/>
-      <c r="L72" s="230"/>
-      <c r="M72" s="230"/>
-      <c r="N72" s="236"/>
-      <c r="O72" s="236"/>
-      <c r="P72" s="236"/>
-      <c r="Q72" s="54"/>
-      <c r="R72" s="54"/>
-      <c r="S72" s="71"/>
-      <c r="T72" s="71"/>
-      <c r="U72" s="54"/>
-      <c r="V72" s="54"/>
-      <c r="W72" s="54"/>
-      <c r="X72" s="54"/>
-      <c r="Y72" s="54"/>
-      <c r="Z72" s="71"/>
-      <c r="AA72" s="71"/>
-      <c r="AB72" s="54"/>
-      <c r="AC72" s="54"/>
-      <c r="AD72" s="54"/>
-      <c r="AE72" s="54"/>
-      <c r="AF72" s="54"/>
-      <c r="AG72" s="71"/>
-      <c r="AH72" s="71"/>
-      <c r="AI72" s="54"/>
-      <c r="AJ72" s="54"/>
-      <c r="AK72" s="54"/>
-      <c r="AL72" s="54"/>
-      <c r="AM72" s="54"/>
-      <c r="AN72" s="71"/>
-      <c r="AO72" s="71"/>
-      <c r="AP72" s="54"/>
-      <c r="AQ72" s="54"/>
-      <c r="AR72" s="54"/>
-      <c r="AS72" s="54"/>
-      <c r="AT72" s="156"/>
-      <c r="AU72" s="71"/>
-      <c r="AV72" s="71"/>
-      <c r="AW72" s="54"/>
-      <c r="AX72" s="54"/>
-      <c r="AY72" s="54"/>
-      <c r="AZ72" s="54"/>
-      <c r="BA72" s="156"/>
-      <c r="BB72" s="71"/>
-      <c r="BC72" s="71"/>
-      <c r="BD72" s="54"/>
-      <c r="BE72" s="54"/>
-      <c r="BF72" s="54"/>
-      <c r="BG72" s="54"/>
-      <c r="BH72" s="156"/>
-      <c r="BI72" s="71"/>
-      <c r="BJ72" s="71"/>
-      <c r="BK72" s="54"/>
-      <c r="BL72" s="54"/>
-      <c r="BM72" s="54"/>
-      <c r="BN72" s="54"/>
-      <c r="BO72" s="54"/>
-      <c r="BP72" s="71"/>
-      <c r="BQ72" s="71"/>
-      <c r="BR72" s="54"/>
-      <c r="BS72" s="54"/>
-      <c r="BT72" s="54"/>
-      <c r="BU72" s="54"/>
-      <c r="BV72" s="54"/>
-      <c r="BW72" s="71"/>
-      <c r="BX72" s="71"/>
-      <c r="BY72" s="54"/>
-      <c r="BZ72" s="54"/>
-      <c r="CA72" s="54"/>
-      <c r="CB72" s="54"/>
-      <c r="CC72" s="54"/>
-      <c r="CD72" s="71"/>
-      <c r="CE72" s="71"/>
-      <c r="CF72" s="54"/>
-      <c r="CG72" s="54"/>
-      <c r="CH72" s="54"/>
-      <c r="CI72" s="54"/>
-      <c r="CJ72" s="54"/>
-      <c r="CK72" s="71"/>
-      <c r="CL72" s="71"/>
-      <c r="CM72" s="54"/>
-      <c r="CN72" s="54"/>
-      <c r="CO72" s="54"/>
-      <c r="CP72" s="54"/>
-      <c r="CQ72" s="54"/>
-      <c r="CR72" s="71"/>
-      <c r="CS72" s="71"/>
-      <c r="CT72" s="54"/>
-      <c r="CU72" s="54"/>
-      <c r="CV72" s="54"/>
-      <c r="CW72" s="54"/>
-      <c r="CX72" s="54"/>
-      <c r="CY72" s="71"/>
-      <c r="CZ72" s="71"/>
-      <c r="DA72" s="54"/>
-      <c r="DB72" s="54"/>
-      <c r="DC72" s="54"/>
-      <c r="DD72" s="54"/>
-      <c r="DE72" s="54"/>
-      <c r="DF72" s="71"/>
-      <c r="DG72" s="71"/>
-      <c r="DH72" s="49"/>
-      <c r="DI72" s="50"/>
-      <c r="DJ72" s="51"/>
-      <c r="DK72" s="52"/>
+      <c r="G72" s="242"/>
+      <c r="H72" s="232"/>
+      <c r="I72" s="232"/>
+      <c r="J72" s="232"/>
+      <c r="K72" s="232"/>
+      <c r="L72" s="234"/>
+      <c r="M72" s="234"/>
+      <c r="N72" s="233"/>
+      <c r="O72" s="233"/>
+      <c r="P72" s="233"/>
+      <c r="Q72" s="56"/>
+      <c r="R72" s="56"/>
+      <c r="S72" s="73"/>
+      <c r="T72" s="73"/>
+      <c r="U72" s="56"/>
+      <c r="V72" s="56"/>
+      <c r="W72" s="56"/>
+      <c r="X72" s="56"/>
+      <c r="Y72" s="56"/>
+      <c r="Z72" s="73"/>
+      <c r="AA72" s="73"/>
+      <c r="AB72" s="56"/>
+      <c r="AC72" s="56"/>
+      <c r="AD72" s="56"/>
+      <c r="AE72" s="56"/>
+      <c r="AF72" s="56"/>
+      <c r="AG72" s="73"/>
+      <c r="AH72" s="73"/>
+      <c r="AI72" s="56"/>
+      <c r="AJ72" s="56"/>
+      <c r="AK72" s="56"/>
+      <c r="AL72" s="56"/>
+      <c r="AM72" s="56"/>
+      <c r="AN72" s="73"/>
+      <c r="AO72" s="73"/>
+      <c r="AP72" s="56"/>
+      <c r="AQ72" s="56"/>
+      <c r="AR72" s="56"/>
+      <c r="AS72" s="56"/>
+      <c r="AT72" s="154"/>
+      <c r="AU72" s="73"/>
+      <c r="AV72" s="73"/>
+      <c r="AW72" s="56"/>
+      <c r="AX72" s="56"/>
+      <c r="AY72" s="56"/>
+      <c r="AZ72" s="56"/>
+      <c r="BA72" s="154"/>
+      <c r="BB72" s="73"/>
+      <c r="BC72" s="73"/>
+      <c r="BD72" s="56"/>
+      <c r="BE72" s="56"/>
+      <c r="BF72" s="56"/>
+      <c r="BG72" s="56"/>
+      <c r="BH72" s="154"/>
+      <c r="BI72" s="73"/>
+      <c r="BJ72" s="73"/>
+      <c r="BK72" s="56"/>
+      <c r="BL72" s="56"/>
+      <c r="BM72" s="56"/>
+      <c r="BN72" s="56"/>
+      <c r="BO72" s="56"/>
+      <c r="BP72" s="73"/>
+      <c r="BQ72" s="73"/>
+      <c r="BR72" s="56"/>
+      <c r="BS72" s="56"/>
+      <c r="BT72" s="56"/>
+      <c r="BU72" s="56"/>
+      <c r="BV72" s="56"/>
+      <c r="BW72" s="73"/>
+      <c r="BX72" s="73"/>
+      <c r="BY72" s="56"/>
+      <c r="BZ72" s="56"/>
+      <c r="CA72" s="56"/>
+      <c r="CB72" s="56"/>
+      <c r="CC72" s="56"/>
+      <c r="CD72" s="73"/>
+      <c r="CE72" s="73"/>
+      <c r="CF72" s="56"/>
+      <c r="CG72" s="56"/>
+      <c r="CH72" s="56"/>
+      <c r="CI72" s="56"/>
+      <c r="CJ72" s="56"/>
+      <c r="CK72" s="73"/>
+      <c r="CL72" s="73"/>
+      <c r="CM72" s="56"/>
+      <c r="CN72" s="56"/>
+      <c r="CO72" s="56"/>
+      <c r="CP72" s="56"/>
+      <c r="CQ72" s="56"/>
+      <c r="CR72" s="73"/>
+      <c r="CS72" s="73"/>
+      <c r="CT72" s="56"/>
+      <c r="CU72" s="56"/>
+      <c r="CV72" s="56"/>
+      <c r="CW72" s="56"/>
+      <c r="CX72" s="56"/>
+      <c r="CY72" s="73"/>
+      <c r="CZ72" s="73"/>
+      <c r="DA72" s="56"/>
+      <c r="DB72" s="56"/>
+      <c r="DC72" s="56"/>
+      <c r="DD72" s="56"/>
+      <c r="DE72" s="56"/>
+      <c r="DF72" s="73"/>
+      <c r="DG72" s="73"/>
+      <c r="DH72" s="58"/>
+      <c r="DI72" s="59"/>
+      <c r="DJ72" s="60"/>
+      <c r="DK72" s="61"/>
     </row>
     <row r="73" spans="2:115">
-      <c r="B73" s="277"/>
-      <c r="C73" s="288" t="s">
-        <v>53</v>
-      </c>
-      <c r="D73" s="14"/>
+      <c r="B73" s="280"/>
+      <c r="C73" s="294" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="E73" s="23" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F73" s="82"/>
       <c r="G73" s="247"/>
@@ -13597,11 +13646,11 @@
       <c r="Y73" s="63"/>
       <c r="Z73" s="72"/>
       <c r="AA73" s="72"/>
-      <c r="AB73" s="96"/>
-      <c r="AC73" s="96"/>
-      <c r="AD73" s="96"/>
-      <c r="AE73" s="96"/>
-      <c r="AF73" s="96"/>
+      <c r="AB73" s="63"/>
+      <c r="AC73" s="63"/>
+      <c r="AD73" s="63"/>
+      <c r="AE73" s="63"/>
+      <c r="AF73" s="63"/>
       <c r="AG73" s="72"/>
       <c r="AH73" s="72"/>
       <c r="AI73" s="63"/>
@@ -13687,8 +13736,8 @@
       <c r="DK73" s="67"/>
     </row>
     <row r="74" spans="2:115">
-      <c r="B74" s="277"/>
-      <c r="C74" s="289"/>
+      <c r="B74" s="280"/>
+      <c r="C74" s="295"/>
       <c r="D74" s="16"/>
       <c r="E74" s="24"/>
       <c r="F74" s="83"/>
@@ -13803,127 +13852,127 @@
       <c r="DK74" s="61"/>
     </row>
     <row r="75" spans="2:115">
-      <c r="B75" s="277"/>
-      <c r="C75" s="290"/>
+      <c r="B75" s="280"/>
+      <c r="C75" s="277"/>
       <c r="D75" s="14"/>
       <c r="E75" s="23"/>
       <c r="F75" s="82"/>
-      <c r="G75" s="243"/>
-      <c r="H75" s="216"/>
-      <c r="I75" s="216"/>
-      <c r="J75" s="236"/>
-      <c r="K75" s="216"/>
-      <c r="L75" s="230"/>
-      <c r="M75" s="230"/>
-      <c r="N75" s="216"/>
-      <c r="O75" s="216"/>
-      <c r="P75" s="216"/>
-      <c r="Q75" s="48"/>
-      <c r="R75" s="48"/>
-      <c r="S75" s="71"/>
-      <c r="T75" s="71"/>
-      <c r="U75" s="48"/>
-      <c r="V75" s="48"/>
-      <c r="W75" s="48"/>
-      <c r="X75" s="48"/>
-      <c r="Y75" s="48"/>
-      <c r="Z75" s="71"/>
-      <c r="AA75" s="71"/>
-      <c r="AB75" s="48"/>
-      <c r="AC75" s="48"/>
-      <c r="AD75" s="48"/>
-      <c r="AE75" s="48"/>
-      <c r="AF75" s="48"/>
-      <c r="AG75" s="71"/>
-      <c r="AH75" s="71"/>
-      <c r="AI75" s="48"/>
-      <c r="AJ75" s="48"/>
-      <c r="AK75" s="48"/>
-      <c r="AL75" s="48"/>
-      <c r="AM75" s="48"/>
-      <c r="AN75" s="71"/>
-      <c r="AO75" s="71"/>
-      <c r="AP75" s="48"/>
-      <c r="AQ75" s="48"/>
-      <c r="AR75" s="48"/>
-      <c r="AS75" s="48"/>
-      <c r="AT75" s="150"/>
-      <c r="AU75" s="71"/>
-      <c r="AV75" s="71"/>
-      <c r="AW75" s="48"/>
-      <c r="AX75" s="48"/>
-      <c r="AY75" s="48"/>
-      <c r="AZ75" s="48"/>
-      <c r="BA75" s="150"/>
-      <c r="BB75" s="71"/>
-      <c r="BC75" s="71"/>
-      <c r="BD75" s="48"/>
-      <c r="BE75" s="48"/>
-      <c r="BF75" s="48"/>
-      <c r="BG75" s="48"/>
-      <c r="BH75" s="150"/>
-      <c r="BI75" s="71"/>
-      <c r="BJ75" s="71"/>
-      <c r="BK75" s="48"/>
-      <c r="BL75" s="48"/>
-      <c r="BM75" s="48"/>
-      <c r="BN75" s="48"/>
-      <c r="BO75" s="48"/>
-      <c r="BP75" s="71"/>
-      <c r="BQ75" s="71"/>
-      <c r="BR75" s="48"/>
-      <c r="BS75" s="48"/>
-      <c r="BT75" s="48"/>
-      <c r="BU75" s="48"/>
-      <c r="BV75" s="48"/>
-      <c r="BW75" s="71"/>
-      <c r="BX75" s="71"/>
-      <c r="BY75" s="48"/>
-      <c r="BZ75" s="48"/>
-      <c r="CA75" s="48"/>
-      <c r="CB75" s="48"/>
-      <c r="CC75" s="48"/>
-      <c r="CD75" s="71"/>
-      <c r="CE75" s="71"/>
-      <c r="CF75" s="48"/>
-      <c r="CG75" s="48"/>
-      <c r="CH75" s="48"/>
-      <c r="CI75" s="48"/>
-      <c r="CJ75" s="48"/>
-      <c r="CK75" s="71"/>
-      <c r="CL75" s="71"/>
-      <c r="CM75" s="48"/>
-      <c r="CN75" s="48"/>
-      <c r="CO75" s="48"/>
-      <c r="CP75" s="48"/>
-      <c r="CQ75" s="48"/>
-      <c r="CR75" s="71"/>
-      <c r="CS75" s="71"/>
-      <c r="CT75" s="48"/>
-      <c r="CU75" s="48"/>
-      <c r="CV75" s="48"/>
-      <c r="CW75" s="48"/>
-      <c r="CX75" s="48"/>
-      <c r="CY75" s="71"/>
-      <c r="CZ75" s="71"/>
-      <c r="DA75" s="48"/>
-      <c r="DB75" s="48"/>
-      <c r="DC75" s="48"/>
-      <c r="DD75" s="48"/>
-      <c r="DE75" s="48"/>
-      <c r="DF75" s="71"/>
-      <c r="DG75" s="71"/>
-      <c r="DH75" s="49"/>
-      <c r="DI75" s="50"/>
-      <c r="DJ75" s="51"/>
-      <c r="DK75" s="52"/>
+      <c r="G75" s="247"/>
+      <c r="H75" s="227"/>
+      <c r="I75" s="227"/>
+      <c r="J75" s="228"/>
+      <c r="K75" s="227"/>
+      <c r="L75" s="229"/>
+      <c r="M75" s="229"/>
+      <c r="N75" s="227"/>
+      <c r="O75" s="227"/>
+      <c r="P75" s="227"/>
+      <c r="Q75" s="62"/>
+      <c r="R75" s="62"/>
+      <c r="S75" s="72"/>
+      <c r="T75" s="72"/>
+      <c r="U75" s="62"/>
+      <c r="V75" s="62"/>
+      <c r="W75" s="62"/>
+      <c r="X75" s="62"/>
+      <c r="Y75" s="62"/>
+      <c r="Z75" s="72"/>
+      <c r="AA75" s="72"/>
+      <c r="AB75" s="62"/>
+      <c r="AC75" s="62"/>
+      <c r="AD75" s="62"/>
+      <c r="AE75" s="62"/>
+      <c r="AF75" s="62"/>
+      <c r="AG75" s="72"/>
+      <c r="AH75" s="72"/>
+      <c r="AI75" s="62"/>
+      <c r="AJ75" s="62"/>
+      <c r="AK75" s="62"/>
+      <c r="AL75" s="62"/>
+      <c r="AM75" s="62"/>
+      <c r="AN75" s="72"/>
+      <c r="AO75" s="72"/>
+      <c r="AP75" s="62"/>
+      <c r="AQ75" s="62"/>
+      <c r="AR75" s="62"/>
+      <c r="AS75" s="62"/>
+      <c r="AT75" s="151"/>
+      <c r="AU75" s="72"/>
+      <c r="AV75" s="72"/>
+      <c r="AW75" s="62"/>
+      <c r="AX75" s="62"/>
+      <c r="AY75" s="62"/>
+      <c r="AZ75" s="62"/>
+      <c r="BA75" s="151"/>
+      <c r="BB75" s="72"/>
+      <c r="BC75" s="72"/>
+      <c r="BD75" s="62"/>
+      <c r="BE75" s="62"/>
+      <c r="BF75" s="62"/>
+      <c r="BG75" s="62"/>
+      <c r="BH75" s="151"/>
+      <c r="BI75" s="72"/>
+      <c r="BJ75" s="72"/>
+      <c r="BK75" s="62"/>
+      <c r="BL75" s="62"/>
+      <c r="BM75" s="62"/>
+      <c r="BN75" s="62"/>
+      <c r="BO75" s="62"/>
+      <c r="BP75" s="72"/>
+      <c r="BQ75" s="72"/>
+      <c r="BR75" s="62"/>
+      <c r="BS75" s="62"/>
+      <c r="BT75" s="62"/>
+      <c r="BU75" s="62"/>
+      <c r="BV75" s="62"/>
+      <c r="BW75" s="72"/>
+      <c r="BX75" s="72"/>
+      <c r="BY75" s="62"/>
+      <c r="BZ75" s="62"/>
+      <c r="CA75" s="62"/>
+      <c r="CB75" s="62"/>
+      <c r="CC75" s="62"/>
+      <c r="CD75" s="72"/>
+      <c r="CE75" s="72"/>
+      <c r="CF75" s="62"/>
+      <c r="CG75" s="62"/>
+      <c r="CH75" s="62"/>
+      <c r="CI75" s="62"/>
+      <c r="CJ75" s="62"/>
+      <c r="CK75" s="72"/>
+      <c r="CL75" s="72"/>
+      <c r="CM75" s="62"/>
+      <c r="CN75" s="62"/>
+      <c r="CO75" s="62"/>
+      <c r="CP75" s="62"/>
+      <c r="CQ75" s="62"/>
+      <c r="CR75" s="72"/>
+      <c r="CS75" s="72"/>
+      <c r="CT75" s="62"/>
+      <c r="CU75" s="62"/>
+      <c r="CV75" s="62"/>
+      <c r="CW75" s="62"/>
+      <c r="CX75" s="62"/>
+      <c r="CY75" s="72"/>
+      <c r="CZ75" s="72"/>
+      <c r="DA75" s="62"/>
+      <c r="DB75" s="62"/>
+      <c r="DC75" s="62"/>
+      <c r="DD75" s="62"/>
+      <c r="DE75" s="62"/>
+      <c r="DF75" s="72"/>
+      <c r="DG75" s="72"/>
+      <c r="DH75" s="64"/>
+      <c r="DI75" s="65"/>
+      <c r="DJ75" s="66"/>
+      <c r="DK75" s="67"/>
     </row>
     <row r="76" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B76" s="286"/>
-      <c r="C76" s="291"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="84"/>
+      <c r="B76" s="281"/>
+      <c r="C76" s="277"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="81"/>
       <c r="G76" s="244"/>
       <c r="H76" s="203"/>
       <c r="I76" s="203"/>
@@ -14035,17 +14084,17 @@
       <c r="DK76" s="36"/>
     </row>
     <row r="77" spans="2:115">
-      <c r="B77" s="278" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="280" t="s">
-        <v>39</v>
-      </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="76"/>
+      <c r="B77" s="279" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="293" t="s">
+        <v>50</v>
+      </c>
+      <c r="D77" s="20"/>
+      <c r="E77" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F77" s="80"/>
       <c r="G77" s="246"/>
       <c r="H77" s="209"/>
       <c r="I77" s="209"/>
@@ -14053,102 +14102,102 @@
       <c r="K77" s="209"/>
       <c r="L77" s="240"/>
       <c r="M77" s="240"/>
-      <c r="N77" s="209"/>
-      <c r="O77" s="209"/>
-      <c r="P77" s="209"/>
-      <c r="Q77" s="42"/>
-      <c r="R77" s="42"/>
+      <c r="N77" s="239"/>
+      <c r="O77" s="239"/>
+      <c r="P77" s="239"/>
+      <c r="Q77" s="43"/>
+      <c r="R77" s="43"/>
       <c r="S77" s="70"/>
       <c r="T77" s="70"/>
-      <c r="U77" s="42"/>
-      <c r="V77" s="42"/>
-      <c r="W77" s="42"/>
-      <c r="X77" s="42"/>
-      <c r="Y77" s="42"/>
+      <c r="U77" s="43"/>
+      <c r="V77" s="43"/>
+      <c r="W77" s="43"/>
+      <c r="X77" s="43"/>
+      <c r="Y77" s="43"/>
       <c r="Z77" s="70"/>
       <c r="AA77" s="70"/>
-      <c r="AB77" s="42"/>
-      <c r="AC77" s="42"/>
-      <c r="AD77" s="42"/>
-      <c r="AE77" s="42"/>
-      <c r="AF77" s="42"/>
+      <c r="AB77" s="43"/>
+      <c r="AC77" s="43"/>
+      <c r="AD77" s="43"/>
+      <c r="AE77" s="43"/>
+      <c r="AF77" s="43"/>
       <c r="AG77" s="70"/>
       <c r="AH77" s="70"/>
-      <c r="AI77" s="126"/>
-      <c r="AJ77" s="126"/>
-      <c r="AK77" s="126"/>
-      <c r="AL77" s="126"/>
-      <c r="AM77" s="126"/>
+      <c r="AI77" s="43"/>
+      <c r="AJ77" s="43"/>
+      <c r="AK77" s="43"/>
+      <c r="AL77" s="43"/>
+      <c r="AM77" s="43"/>
       <c r="AN77" s="70"/>
       <c r="AO77" s="70"/>
-      <c r="AP77" s="42"/>
-      <c r="AQ77" s="42"/>
-      <c r="AR77" s="42"/>
-      <c r="AS77" s="42"/>
-      <c r="AT77" s="149"/>
+      <c r="AP77" s="43"/>
+      <c r="AQ77" s="43"/>
+      <c r="AR77" s="43"/>
+      <c r="AS77" s="43"/>
+      <c r="AT77" s="153"/>
       <c r="AU77" s="70"/>
       <c r="AV77" s="70"/>
-      <c r="AW77" s="42"/>
-      <c r="AX77" s="42"/>
-      <c r="AY77" s="42"/>
-      <c r="AZ77" s="42"/>
-      <c r="BA77" s="149"/>
+      <c r="AW77" s="43"/>
+      <c r="AX77" s="43"/>
+      <c r="AY77" s="43"/>
+      <c r="AZ77" s="43"/>
+      <c r="BA77" s="153"/>
       <c r="BB77" s="70"/>
       <c r="BC77" s="70"/>
-      <c r="BD77" s="42"/>
-      <c r="BE77" s="42"/>
-      <c r="BF77" s="42"/>
-      <c r="BG77" s="42"/>
-      <c r="BH77" s="149"/>
+      <c r="BD77" s="43"/>
+      <c r="BE77" s="43"/>
+      <c r="BF77" s="43"/>
+      <c r="BG77" s="43"/>
+      <c r="BH77" s="153"/>
       <c r="BI77" s="70"/>
       <c r="BJ77" s="70"/>
-      <c r="BK77" s="42"/>
-      <c r="BL77" s="42"/>
-      <c r="BM77" s="42"/>
-      <c r="BN77" s="42"/>
-      <c r="BO77" s="42"/>
+      <c r="BK77" s="43"/>
+      <c r="BL77" s="43"/>
+      <c r="BM77" s="43"/>
+      <c r="BN77" s="43"/>
+      <c r="BO77" s="43"/>
       <c r="BP77" s="70"/>
       <c r="BQ77" s="70"/>
-      <c r="BR77" s="42"/>
-      <c r="BS77" s="42"/>
-      <c r="BT77" s="42"/>
-      <c r="BU77" s="42"/>
-      <c r="BV77" s="42"/>
+      <c r="BR77" s="43"/>
+      <c r="BS77" s="43"/>
+      <c r="BT77" s="43"/>
+      <c r="BU77" s="43"/>
+      <c r="BV77" s="43"/>
       <c r="BW77" s="70"/>
       <c r="BX77" s="70"/>
-      <c r="BY77" s="42"/>
-      <c r="BZ77" s="42"/>
-      <c r="CA77" s="42"/>
-      <c r="CB77" s="42"/>
-      <c r="CC77" s="42"/>
+      <c r="BY77" s="43"/>
+      <c r="BZ77" s="43"/>
+      <c r="CA77" s="43"/>
+      <c r="CB77" s="43"/>
+      <c r="CC77" s="43"/>
       <c r="CD77" s="70"/>
       <c r="CE77" s="70"/>
-      <c r="CF77" s="42"/>
-      <c r="CG77" s="42"/>
-      <c r="CH77" s="42"/>
-      <c r="CI77" s="42"/>
-      <c r="CJ77" s="42"/>
+      <c r="CF77" s="43"/>
+      <c r="CG77" s="43"/>
+      <c r="CH77" s="43"/>
+      <c r="CI77" s="43"/>
+      <c r="CJ77" s="43"/>
       <c r="CK77" s="70"/>
       <c r="CL77" s="70"/>
-      <c r="CM77" s="42"/>
-      <c r="CN77" s="42"/>
-      <c r="CO77" s="42"/>
-      <c r="CP77" s="42"/>
-      <c r="CQ77" s="42"/>
+      <c r="CM77" s="43"/>
+      <c r="CN77" s="43"/>
+      <c r="CO77" s="43"/>
+      <c r="CP77" s="43"/>
+      <c r="CQ77" s="43"/>
       <c r="CR77" s="70"/>
       <c r="CS77" s="70"/>
-      <c r="CT77" s="42"/>
-      <c r="CU77" s="42"/>
-      <c r="CV77" s="42"/>
-      <c r="CW77" s="42"/>
-      <c r="CX77" s="42"/>
+      <c r="CT77" s="43"/>
+      <c r="CU77" s="43"/>
+      <c r="CV77" s="43"/>
+      <c r="CW77" s="43"/>
+      <c r="CX77" s="43"/>
       <c r="CY77" s="70"/>
       <c r="CZ77" s="70"/>
-      <c r="DA77" s="42"/>
-      <c r="DB77" s="42"/>
-      <c r="DC77" s="42"/>
-      <c r="DD77" s="42"/>
-      <c r="DE77" s="42"/>
+      <c r="DA77" s="43"/>
+      <c r="DB77" s="43"/>
+      <c r="DC77" s="43"/>
+      <c r="DD77" s="43"/>
+      <c r="DE77" s="43"/>
       <c r="DF77" s="70"/>
       <c r="DG77" s="70"/>
       <c r="DH77" s="44"/>
@@ -14157,13 +14206,11 @@
       <c r="DK77" s="47"/>
     </row>
     <row r="78" spans="2:115">
-      <c r="B78" s="277"/>
-      <c r="C78" s="281"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F78" s="75"/>
+      <c r="B78" s="280"/>
+      <c r="C78" s="294"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="81"/>
       <c r="G78" s="243"/>
       <c r="H78" s="216"/>
       <c r="I78" s="216"/>
@@ -14171,102 +14218,102 @@
       <c r="K78" s="216"/>
       <c r="L78" s="230"/>
       <c r="M78" s="230"/>
-      <c r="N78" s="216"/>
-      <c r="O78" s="216"/>
-      <c r="P78" s="216"/>
-      <c r="Q78" s="48"/>
-      <c r="R78" s="48"/>
+      <c r="N78" s="236"/>
+      <c r="O78" s="236"/>
+      <c r="P78" s="236"/>
+      <c r="Q78" s="54"/>
+      <c r="R78" s="54"/>
       <c r="S78" s="71"/>
       <c r="T78" s="71"/>
-      <c r="U78" s="48"/>
-      <c r="V78" s="48"/>
-      <c r="W78" s="48"/>
-      <c r="X78" s="48"/>
-      <c r="Y78" s="48"/>
+      <c r="U78" s="54"/>
+      <c r="V78" s="54"/>
+      <c r="W78" s="54"/>
+      <c r="X78" s="54"/>
+      <c r="Y78" s="54"/>
       <c r="Z78" s="71"/>
       <c r="AA78" s="71"/>
-      <c r="AB78" s="48"/>
-      <c r="AC78" s="48"/>
-      <c r="AD78" s="48"/>
-      <c r="AE78" s="48"/>
-      <c r="AF78" s="48"/>
+      <c r="AB78" s="54"/>
+      <c r="AC78" s="54"/>
+      <c r="AD78" s="54"/>
+      <c r="AE78" s="54"/>
+      <c r="AF78" s="54"/>
       <c r="AG78" s="71"/>
       <c r="AH78" s="71"/>
-      <c r="AI78" s="100"/>
-      <c r="AJ78" s="100"/>
-      <c r="AK78" s="100"/>
-      <c r="AL78" s="100"/>
-      <c r="AM78" s="100"/>
+      <c r="AI78" s="54"/>
+      <c r="AJ78" s="54"/>
+      <c r="AK78" s="54"/>
+      <c r="AL78" s="54"/>
+      <c r="AM78" s="54"/>
       <c r="AN78" s="71"/>
       <c r="AO78" s="71"/>
-      <c r="AP78" s="48"/>
-      <c r="AQ78" s="48"/>
-      <c r="AR78" s="48"/>
-      <c r="AS78" s="48"/>
-      <c r="AT78" s="150"/>
+      <c r="AP78" s="54"/>
+      <c r="AQ78" s="54"/>
+      <c r="AR78" s="54"/>
+      <c r="AS78" s="54"/>
+      <c r="AT78" s="156"/>
       <c r="AU78" s="71"/>
       <c r="AV78" s="71"/>
-      <c r="AW78" s="48"/>
-      <c r="AX78" s="48"/>
-      <c r="AY78" s="48"/>
-      <c r="AZ78" s="48"/>
-      <c r="BA78" s="150"/>
+      <c r="AW78" s="54"/>
+      <c r="AX78" s="54"/>
+      <c r="AY78" s="54"/>
+      <c r="AZ78" s="54"/>
+      <c r="BA78" s="156"/>
       <c r="BB78" s="71"/>
       <c r="BC78" s="71"/>
-      <c r="BD78" s="48"/>
-      <c r="BE78" s="48"/>
-      <c r="BF78" s="48"/>
-      <c r="BG78" s="48"/>
-      <c r="BH78" s="150"/>
+      <c r="BD78" s="54"/>
+      <c r="BE78" s="54"/>
+      <c r="BF78" s="54"/>
+      <c r="BG78" s="54"/>
+      <c r="BH78" s="156"/>
       <c r="BI78" s="71"/>
       <c r="BJ78" s="71"/>
-      <c r="BK78" s="48"/>
-      <c r="BL78" s="48"/>
-      <c r="BM78" s="48"/>
-      <c r="BN78" s="48"/>
-      <c r="BO78" s="48"/>
+      <c r="BK78" s="54"/>
+      <c r="BL78" s="54"/>
+      <c r="BM78" s="54"/>
+      <c r="BN78" s="54"/>
+      <c r="BO78" s="54"/>
       <c r="BP78" s="71"/>
       <c r="BQ78" s="71"/>
-      <c r="BR78" s="48"/>
-      <c r="BS78" s="48"/>
-      <c r="BT78" s="48"/>
-      <c r="BU78" s="48"/>
-      <c r="BV78" s="48"/>
+      <c r="BR78" s="54"/>
+      <c r="BS78" s="54"/>
+      <c r="BT78" s="54"/>
+      <c r="BU78" s="54"/>
+      <c r="BV78" s="54"/>
       <c r="BW78" s="71"/>
       <c r="BX78" s="71"/>
-      <c r="BY78" s="48"/>
-      <c r="BZ78" s="48"/>
-      <c r="CA78" s="48"/>
-      <c r="CB78" s="48"/>
-      <c r="CC78" s="48"/>
+      <c r="BY78" s="54"/>
+      <c r="BZ78" s="54"/>
+      <c r="CA78" s="54"/>
+      <c r="CB78" s="54"/>
+      <c r="CC78" s="54"/>
       <c r="CD78" s="71"/>
       <c r="CE78" s="71"/>
-      <c r="CF78" s="48"/>
-      <c r="CG78" s="48"/>
-      <c r="CH78" s="48"/>
-      <c r="CI78" s="48"/>
-      <c r="CJ78" s="48"/>
+      <c r="CF78" s="54"/>
+      <c r="CG78" s="54"/>
+      <c r="CH78" s="54"/>
+      <c r="CI78" s="54"/>
+      <c r="CJ78" s="54"/>
       <c r="CK78" s="71"/>
       <c r="CL78" s="71"/>
-      <c r="CM78" s="48"/>
-      <c r="CN78" s="48"/>
-      <c r="CO78" s="48"/>
-      <c r="CP78" s="48"/>
-      <c r="CQ78" s="48"/>
+      <c r="CM78" s="54"/>
+      <c r="CN78" s="54"/>
+      <c r="CO78" s="54"/>
+      <c r="CP78" s="54"/>
+      <c r="CQ78" s="54"/>
       <c r="CR78" s="71"/>
       <c r="CS78" s="71"/>
-      <c r="CT78" s="48"/>
-      <c r="CU78" s="48"/>
-      <c r="CV78" s="48"/>
-      <c r="CW78" s="48"/>
-      <c r="CX78" s="48"/>
+      <c r="CT78" s="54"/>
+      <c r="CU78" s="54"/>
+      <c r="CV78" s="54"/>
+      <c r="CW78" s="54"/>
+      <c r="CX78" s="54"/>
       <c r="CY78" s="71"/>
       <c r="CZ78" s="71"/>
-      <c r="DA78" s="48"/>
-      <c r="DB78" s="48"/>
-      <c r="DC78" s="48"/>
-      <c r="DD78" s="48"/>
-      <c r="DE78" s="48"/>
+      <c r="DA78" s="54"/>
+      <c r="DB78" s="54"/>
+      <c r="DC78" s="54"/>
+      <c r="DD78" s="54"/>
+      <c r="DE78" s="54"/>
       <c r="DF78" s="71"/>
       <c r="DG78" s="71"/>
       <c r="DH78" s="49"/>
@@ -14275,590 +14322,602 @@
       <c r="DK78" s="52"/>
     </row>
     <row r="79" spans="2:115">
-      <c r="B79" s="277"/>
-      <c r="C79" s="281"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="75"/>
-      <c r="G79" s="243"/>
-      <c r="H79" s="216"/>
-      <c r="I79" s="216"/>
-      <c r="J79" s="216"/>
-      <c r="K79" s="216"/>
-      <c r="L79" s="230"/>
-      <c r="M79" s="230"/>
-      <c r="N79" s="216"/>
-      <c r="O79" s="216"/>
-      <c r="P79" s="216"/>
-      <c r="Q79" s="48"/>
-      <c r="R79" s="48"/>
-      <c r="S79" s="71"/>
-      <c r="T79" s="71"/>
-      <c r="U79" s="48"/>
-      <c r="V79" s="48"/>
-      <c r="W79" s="48"/>
-      <c r="X79" s="48"/>
-      <c r="Y79" s="48"/>
-      <c r="Z79" s="71"/>
-      <c r="AA79" s="71"/>
-      <c r="AB79" s="48"/>
-      <c r="AC79" s="48"/>
-      <c r="AD79" s="48"/>
-      <c r="AE79" s="48"/>
-      <c r="AF79" s="48"/>
-      <c r="AG79" s="71"/>
-      <c r="AH79" s="71"/>
-      <c r="AI79" s="48"/>
-      <c r="AJ79" s="48"/>
-      <c r="AK79" s="48"/>
-      <c r="AL79" s="48"/>
-      <c r="AM79" s="48"/>
-      <c r="AN79" s="71"/>
-      <c r="AO79" s="71"/>
-      <c r="AP79" s="48"/>
-      <c r="AQ79" s="48"/>
-      <c r="AR79" s="48"/>
-      <c r="AS79" s="48"/>
-      <c r="AT79" s="150"/>
-      <c r="AU79" s="71"/>
-      <c r="AV79" s="71"/>
-      <c r="AW79" s="48"/>
-      <c r="AX79" s="48"/>
-      <c r="AY79" s="48"/>
-      <c r="AZ79" s="48"/>
-      <c r="BA79" s="150"/>
-      <c r="BB79" s="71"/>
-      <c r="BC79" s="71"/>
-      <c r="BD79" s="48"/>
-      <c r="BE79" s="48"/>
-      <c r="BF79" s="48"/>
-      <c r="BG79" s="48"/>
-      <c r="BH79" s="150"/>
-      <c r="BI79" s="71"/>
-      <c r="BJ79" s="71"/>
-      <c r="BK79" s="48"/>
-      <c r="BL79" s="48"/>
-      <c r="BM79" s="48"/>
-      <c r="BN79" s="48"/>
-      <c r="BO79" s="48"/>
-      <c r="BP79" s="71"/>
-      <c r="BQ79" s="71"/>
-      <c r="BR79" s="48"/>
-      <c r="BS79" s="48"/>
-      <c r="BT79" s="48"/>
-      <c r="BU79" s="48"/>
-      <c r="BV79" s="48"/>
-      <c r="BW79" s="71"/>
-      <c r="BX79" s="71"/>
-      <c r="BY79" s="48"/>
-      <c r="BZ79" s="48"/>
-      <c r="CA79" s="48"/>
-      <c r="CB79" s="48"/>
-      <c r="CC79" s="48"/>
-      <c r="CD79" s="71"/>
-      <c r="CE79" s="71"/>
-      <c r="CF79" s="48"/>
-      <c r="CG79" s="48"/>
-      <c r="CH79" s="48"/>
-      <c r="CI79" s="48"/>
-      <c r="CJ79" s="48"/>
-      <c r="CK79" s="71"/>
-      <c r="CL79" s="71"/>
-      <c r="CM79" s="48"/>
-      <c r="CN79" s="48"/>
-      <c r="CO79" s="48"/>
-      <c r="CP79" s="48"/>
-      <c r="CQ79" s="48"/>
-      <c r="CR79" s="71"/>
-      <c r="CS79" s="71"/>
-      <c r="CT79" s="48"/>
-      <c r="CU79" s="48"/>
-      <c r="CV79" s="48"/>
-      <c r="CW79" s="48"/>
-      <c r="CX79" s="48"/>
-      <c r="CY79" s="71"/>
-      <c r="CZ79" s="71"/>
-      <c r="DA79" s="48"/>
-      <c r="DB79" s="48"/>
-      <c r="DC79" s="48"/>
-      <c r="DD79" s="48"/>
-      <c r="DE79" s="48"/>
-      <c r="DF79" s="71"/>
-      <c r="DG79" s="71"/>
-      <c r="DH79" s="49"/>
-      <c r="DI79" s="50"/>
-      <c r="DJ79" s="51"/>
-      <c r="DK79" s="52"/>
+      <c r="B79" s="280"/>
+      <c r="C79" s="294" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="14"/>
+      <c r="E79" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79" s="82"/>
+      <c r="G79" s="247"/>
+      <c r="H79" s="227"/>
+      <c r="I79" s="227"/>
+      <c r="J79" s="227"/>
+      <c r="K79" s="227"/>
+      <c r="L79" s="229"/>
+      <c r="M79" s="229"/>
+      <c r="N79" s="228"/>
+      <c r="O79" s="228"/>
+      <c r="P79" s="228"/>
+      <c r="Q79" s="63"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="72"/>
+      <c r="T79" s="72"/>
+      <c r="U79" s="63"/>
+      <c r="V79" s="63"/>
+      <c r="W79" s="63"/>
+      <c r="X79" s="63"/>
+      <c r="Y79" s="63"/>
+      <c r="Z79" s="72"/>
+      <c r="AA79" s="72"/>
+      <c r="AB79" s="96"/>
+      <c r="AC79" s="96"/>
+      <c r="AD79" s="96"/>
+      <c r="AE79" s="96"/>
+      <c r="AF79" s="96"/>
+      <c r="AG79" s="72"/>
+      <c r="AH79" s="72"/>
+      <c r="AI79" s="63"/>
+      <c r="AJ79" s="63"/>
+      <c r="AK79" s="63"/>
+      <c r="AL79" s="63"/>
+      <c r="AM79" s="63"/>
+      <c r="AN79" s="72"/>
+      <c r="AO79" s="72"/>
+      <c r="AP79" s="63"/>
+      <c r="AQ79" s="63"/>
+      <c r="AR79" s="63"/>
+      <c r="AS79" s="63"/>
+      <c r="AT79" s="155"/>
+      <c r="AU79" s="72"/>
+      <c r="AV79" s="72"/>
+      <c r="AW79" s="63"/>
+      <c r="AX79" s="63"/>
+      <c r="AY79" s="63"/>
+      <c r="AZ79" s="63"/>
+      <c r="BA79" s="155"/>
+      <c r="BB79" s="72"/>
+      <c r="BC79" s="72"/>
+      <c r="BD79" s="63"/>
+      <c r="BE79" s="63"/>
+      <c r="BF79" s="63"/>
+      <c r="BG79" s="63"/>
+      <c r="BH79" s="155"/>
+      <c r="BI79" s="72"/>
+      <c r="BJ79" s="72"/>
+      <c r="BK79" s="63"/>
+      <c r="BL79" s="63"/>
+      <c r="BM79" s="63"/>
+      <c r="BN79" s="63"/>
+      <c r="BO79" s="63"/>
+      <c r="BP79" s="72"/>
+      <c r="BQ79" s="72"/>
+      <c r="BR79" s="63"/>
+      <c r="BS79" s="63"/>
+      <c r="BT79" s="63"/>
+      <c r="BU79" s="63"/>
+      <c r="BV79" s="63"/>
+      <c r="BW79" s="72"/>
+      <c r="BX79" s="72"/>
+      <c r="BY79" s="63"/>
+      <c r="BZ79" s="63"/>
+      <c r="CA79" s="63"/>
+      <c r="CB79" s="63"/>
+      <c r="CC79" s="63"/>
+      <c r="CD79" s="72"/>
+      <c r="CE79" s="72"/>
+      <c r="CF79" s="63"/>
+      <c r="CG79" s="63"/>
+      <c r="CH79" s="63"/>
+      <c r="CI79" s="63"/>
+      <c r="CJ79" s="63"/>
+      <c r="CK79" s="72"/>
+      <c r="CL79" s="72"/>
+      <c r="CM79" s="63"/>
+      <c r="CN79" s="63"/>
+      <c r="CO79" s="63"/>
+      <c r="CP79" s="63"/>
+      <c r="CQ79" s="63"/>
+      <c r="CR79" s="72"/>
+      <c r="CS79" s="72"/>
+      <c r="CT79" s="63"/>
+      <c r="CU79" s="63"/>
+      <c r="CV79" s="63"/>
+      <c r="CW79" s="63"/>
+      <c r="CX79" s="63"/>
+      <c r="CY79" s="72"/>
+      <c r="CZ79" s="72"/>
+      <c r="DA79" s="63"/>
+      <c r="DB79" s="63"/>
+      <c r="DC79" s="63"/>
+      <c r="DD79" s="63"/>
+      <c r="DE79" s="63"/>
+      <c r="DF79" s="72"/>
+      <c r="DG79" s="72"/>
+      <c r="DH79" s="64"/>
+      <c r="DI79" s="65"/>
+      <c r="DJ79" s="66"/>
+      <c r="DK79" s="67"/>
     </row>
     <row r="80" spans="2:115">
-      <c r="B80" s="277"/>
-      <c r="C80" s="281"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="75"/>
-      <c r="G80" s="243"/>
-      <c r="H80" s="216"/>
-      <c r="I80" s="216"/>
-      <c r="J80" s="216"/>
-      <c r="K80" s="216"/>
-      <c r="L80" s="230"/>
-      <c r="M80" s="230"/>
-      <c r="N80" s="216"/>
-      <c r="O80" s="216"/>
-      <c r="P80" s="216"/>
-      <c r="Q80" s="48"/>
-      <c r="R80" s="48"/>
-      <c r="S80" s="71"/>
-      <c r="T80" s="71"/>
-      <c r="U80" s="48"/>
-      <c r="V80" s="48"/>
-      <c r="W80" s="48"/>
-      <c r="X80" s="48"/>
-      <c r="Y80" s="48"/>
-      <c r="Z80" s="71"/>
-      <c r="AA80" s="71"/>
-      <c r="AB80" s="48"/>
-      <c r="AC80" s="48"/>
-      <c r="AD80" s="48"/>
-      <c r="AE80" s="48"/>
-      <c r="AF80" s="48"/>
-      <c r="AG80" s="71"/>
-      <c r="AH80" s="71"/>
-      <c r="AI80" s="48"/>
-      <c r="AJ80" s="48"/>
-      <c r="AK80" s="48"/>
-      <c r="AL80" s="48"/>
-      <c r="AM80" s="48"/>
-      <c r="AN80" s="71"/>
-      <c r="AO80" s="71"/>
-      <c r="AP80" s="48"/>
-      <c r="AQ80" s="48"/>
-      <c r="AR80" s="48"/>
-      <c r="AS80" s="48"/>
-      <c r="AT80" s="150"/>
-      <c r="AU80" s="71"/>
-      <c r="AV80" s="71"/>
-      <c r="AW80" s="48"/>
-      <c r="AX80" s="48"/>
-      <c r="AY80" s="48"/>
-      <c r="AZ80" s="48"/>
-      <c r="BA80" s="150"/>
-      <c r="BB80" s="71"/>
-      <c r="BC80" s="71"/>
-      <c r="BD80" s="48"/>
-      <c r="BE80" s="48"/>
-      <c r="BF80" s="48"/>
-      <c r="BG80" s="48"/>
-      <c r="BH80" s="150"/>
-      <c r="BI80" s="71"/>
-      <c r="BJ80" s="71"/>
-      <c r="BK80" s="48"/>
-      <c r="BL80" s="48"/>
-      <c r="BM80" s="48"/>
-      <c r="BN80" s="48"/>
-      <c r="BO80" s="48"/>
-      <c r="BP80" s="71"/>
-      <c r="BQ80" s="71"/>
-      <c r="BR80" s="48"/>
-      <c r="BS80" s="48"/>
-      <c r="BT80" s="48"/>
-      <c r="BU80" s="48"/>
-      <c r="BV80" s="48"/>
-      <c r="BW80" s="71"/>
-      <c r="BX80" s="71"/>
-      <c r="BY80" s="48"/>
-      <c r="BZ80" s="48"/>
-      <c r="CA80" s="48"/>
-      <c r="CB80" s="48"/>
-      <c r="CC80" s="48"/>
-      <c r="CD80" s="71"/>
-      <c r="CE80" s="71"/>
-      <c r="CF80" s="48"/>
-      <c r="CG80" s="48"/>
-      <c r="CH80" s="48"/>
-      <c r="CI80" s="48"/>
-      <c r="CJ80" s="48"/>
-      <c r="CK80" s="71"/>
-      <c r="CL80" s="71"/>
-      <c r="CM80" s="48"/>
-      <c r="CN80" s="48"/>
-      <c r="CO80" s="48"/>
-      <c r="CP80" s="48"/>
-      <c r="CQ80" s="48"/>
-      <c r="CR80" s="71"/>
-      <c r="CS80" s="71"/>
-      <c r="CT80" s="48"/>
-      <c r="CU80" s="48"/>
-      <c r="CV80" s="48"/>
-      <c r="CW80" s="48"/>
-      <c r="CX80" s="48"/>
-      <c r="CY80" s="71"/>
-      <c r="CZ80" s="71"/>
-      <c r="DA80" s="48"/>
-      <c r="DB80" s="48"/>
-      <c r="DC80" s="48"/>
-      <c r="DD80" s="48"/>
-      <c r="DE80" s="48"/>
-      <c r="DF80" s="71"/>
-      <c r="DG80" s="71"/>
-      <c r="DH80" s="49"/>
-      <c r="DI80" s="50"/>
-      <c r="DJ80" s="51"/>
-      <c r="DK80" s="52"/>
+      <c r="B80" s="280"/>
+      <c r="C80" s="295"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="83"/>
+      <c r="G80" s="242"/>
+      <c r="H80" s="232"/>
+      <c r="I80" s="232"/>
+      <c r="J80" s="232"/>
+      <c r="K80" s="232"/>
+      <c r="L80" s="234"/>
+      <c r="M80" s="234"/>
+      <c r="N80" s="233"/>
+      <c r="O80" s="233"/>
+      <c r="P80" s="233"/>
+      <c r="Q80" s="56"/>
+      <c r="R80" s="56"/>
+      <c r="S80" s="73"/>
+      <c r="T80" s="73"/>
+      <c r="U80" s="56"/>
+      <c r="V80" s="56"/>
+      <c r="W80" s="56"/>
+      <c r="X80" s="56"/>
+      <c r="Y80" s="56"/>
+      <c r="Z80" s="73"/>
+      <c r="AA80" s="73"/>
+      <c r="AB80" s="56"/>
+      <c r="AC80" s="56"/>
+      <c r="AD80" s="56"/>
+      <c r="AE80" s="56"/>
+      <c r="AF80" s="56"/>
+      <c r="AG80" s="73"/>
+      <c r="AH80" s="73"/>
+      <c r="AI80" s="56"/>
+      <c r="AJ80" s="56"/>
+      <c r="AK80" s="56"/>
+      <c r="AL80" s="56"/>
+      <c r="AM80" s="56"/>
+      <c r="AN80" s="73"/>
+      <c r="AO80" s="73"/>
+      <c r="AP80" s="56"/>
+      <c r="AQ80" s="56"/>
+      <c r="AR80" s="56"/>
+      <c r="AS80" s="56"/>
+      <c r="AT80" s="154"/>
+      <c r="AU80" s="73"/>
+      <c r="AV80" s="73"/>
+      <c r="AW80" s="56"/>
+      <c r="AX80" s="56"/>
+      <c r="AY80" s="56"/>
+      <c r="AZ80" s="56"/>
+      <c r="BA80" s="154"/>
+      <c r="BB80" s="73"/>
+      <c r="BC80" s="73"/>
+      <c r="BD80" s="56"/>
+      <c r="BE80" s="56"/>
+      <c r="BF80" s="56"/>
+      <c r="BG80" s="56"/>
+      <c r="BH80" s="154"/>
+      <c r="BI80" s="73"/>
+      <c r="BJ80" s="73"/>
+      <c r="BK80" s="56"/>
+      <c r="BL80" s="56"/>
+      <c r="BM80" s="56"/>
+      <c r="BN80" s="56"/>
+      <c r="BO80" s="56"/>
+      <c r="BP80" s="73"/>
+      <c r="BQ80" s="73"/>
+      <c r="BR80" s="56"/>
+      <c r="BS80" s="56"/>
+      <c r="BT80" s="56"/>
+      <c r="BU80" s="56"/>
+      <c r="BV80" s="56"/>
+      <c r="BW80" s="73"/>
+      <c r="BX80" s="73"/>
+      <c r="BY80" s="56"/>
+      <c r="BZ80" s="56"/>
+      <c r="CA80" s="56"/>
+      <c r="CB80" s="56"/>
+      <c r="CC80" s="56"/>
+      <c r="CD80" s="73"/>
+      <c r="CE80" s="73"/>
+      <c r="CF80" s="56"/>
+      <c r="CG80" s="56"/>
+      <c r="CH80" s="56"/>
+      <c r="CI80" s="56"/>
+      <c r="CJ80" s="56"/>
+      <c r="CK80" s="73"/>
+      <c r="CL80" s="73"/>
+      <c r="CM80" s="56"/>
+      <c r="CN80" s="56"/>
+      <c r="CO80" s="56"/>
+      <c r="CP80" s="56"/>
+      <c r="CQ80" s="56"/>
+      <c r="CR80" s="73"/>
+      <c r="CS80" s="73"/>
+      <c r="CT80" s="56"/>
+      <c r="CU80" s="56"/>
+      <c r="CV80" s="56"/>
+      <c r="CW80" s="56"/>
+      <c r="CX80" s="56"/>
+      <c r="CY80" s="73"/>
+      <c r="CZ80" s="73"/>
+      <c r="DA80" s="56"/>
+      <c r="DB80" s="56"/>
+      <c r="DC80" s="56"/>
+      <c r="DD80" s="56"/>
+      <c r="DE80" s="56"/>
+      <c r="DF80" s="73"/>
+      <c r="DG80" s="73"/>
+      <c r="DH80" s="58"/>
+      <c r="DI80" s="59"/>
+      <c r="DJ80" s="60"/>
+      <c r="DK80" s="61"/>
     </row>
     <row r="81" spans="2:116">
-      <c r="B81" s="277"/>
-      <c r="C81" s="281"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="242"/>
-      <c r="H81" s="232"/>
-      <c r="I81" s="232"/>
-      <c r="J81" s="232"/>
-      <c r="K81" s="232"/>
-      <c r="L81" s="234"/>
-      <c r="M81" s="234"/>
-      <c r="N81" s="232"/>
-      <c r="O81" s="232"/>
-      <c r="P81" s="232"/>
-      <c r="Q81" s="57"/>
-      <c r="R81" s="57"/>
-      <c r="S81" s="73"/>
-      <c r="T81" s="73"/>
-      <c r="U81" s="57"/>
-      <c r="V81" s="57"/>
-      <c r="W81" s="57"/>
-      <c r="X81" s="57"/>
-      <c r="Y81" s="57"/>
-      <c r="Z81" s="73"/>
-      <c r="AA81" s="73"/>
-      <c r="AB81" s="57"/>
-      <c r="AC81" s="57"/>
-      <c r="AD81" s="57"/>
-      <c r="AE81" s="57"/>
-      <c r="AF81" s="57"/>
-      <c r="AG81" s="73"/>
-      <c r="AH81" s="73"/>
-      <c r="AI81" s="57"/>
-      <c r="AJ81" s="57"/>
-      <c r="AK81" s="57"/>
-      <c r="AL81" s="57"/>
-      <c r="AM81" s="57"/>
-      <c r="AN81" s="73"/>
-      <c r="AO81" s="73"/>
-      <c r="AP81" s="57"/>
-      <c r="AQ81" s="57"/>
-      <c r="AR81" s="57"/>
-      <c r="AS81" s="57"/>
-      <c r="AT81" s="152"/>
-      <c r="AU81" s="73"/>
-      <c r="AV81" s="73"/>
-      <c r="AW81" s="57"/>
-      <c r="AX81" s="57"/>
-      <c r="AY81" s="57"/>
-      <c r="AZ81" s="57"/>
-      <c r="BA81" s="152"/>
-      <c r="BB81" s="73"/>
-      <c r="BC81" s="73"/>
-      <c r="BD81" s="57"/>
-      <c r="BE81" s="57"/>
-      <c r="BF81" s="57"/>
-      <c r="BG81" s="57"/>
-      <c r="BH81" s="152"/>
-      <c r="BI81" s="73"/>
-      <c r="BJ81" s="73"/>
-      <c r="BK81" s="57"/>
-      <c r="BL81" s="57"/>
-      <c r="BM81" s="57"/>
-      <c r="BN81" s="57"/>
-      <c r="BO81" s="57"/>
-      <c r="BP81" s="73"/>
-      <c r="BQ81" s="73"/>
-      <c r="BR81" s="57"/>
-      <c r="BS81" s="57"/>
-      <c r="BT81" s="57"/>
-      <c r="BU81" s="57"/>
-      <c r="BV81" s="57"/>
-      <c r="BW81" s="73"/>
-      <c r="BX81" s="73"/>
-      <c r="BY81" s="57"/>
-      <c r="BZ81" s="57"/>
-      <c r="CA81" s="57"/>
-      <c r="CB81" s="57"/>
-      <c r="CC81" s="57"/>
-      <c r="CD81" s="73"/>
-      <c r="CE81" s="73"/>
-      <c r="CF81" s="57"/>
-      <c r="CG81" s="57"/>
-      <c r="CH81" s="57"/>
-      <c r="CI81" s="57"/>
-      <c r="CJ81" s="57"/>
-      <c r="CK81" s="73"/>
-      <c r="CL81" s="73"/>
-      <c r="CM81" s="57"/>
-      <c r="CN81" s="57"/>
-      <c r="CO81" s="57"/>
-      <c r="CP81" s="57"/>
-      <c r="CQ81" s="57"/>
-      <c r="CR81" s="73"/>
-      <c r="CS81" s="73"/>
-      <c r="CT81" s="57"/>
-      <c r="CU81" s="57"/>
-      <c r="CV81" s="57"/>
-      <c r="CW81" s="57"/>
-      <c r="CX81" s="57"/>
-      <c r="CY81" s="73"/>
-      <c r="CZ81" s="73"/>
-      <c r="DA81" s="57"/>
-      <c r="DB81" s="57"/>
-      <c r="DC81" s="57"/>
-      <c r="DD81" s="57"/>
-      <c r="DE81" s="57"/>
-      <c r="DF81" s="73"/>
-      <c r="DG81" s="73"/>
-      <c r="DH81" s="58"/>
-      <c r="DI81" s="59"/>
-      <c r="DJ81" s="60"/>
-      <c r="DK81" s="61"/>
+      <c r="B81" s="280"/>
+      <c r="C81" s="277"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="82"/>
+      <c r="G81" s="243"/>
+      <c r="H81" s="216"/>
+      <c r="I81" s="216"/>
+      <c r="J81" s="236"/>
+      <c r="K81" s="216"/>
+      <c r="L81" s="230"/>
+      <c r="M81" s="230"/>
+      <c r="N81" s="216"/>
+      <c r="O81" s="216"/>
+      <c r="P81" s="216"/>
+      <c r="Q81" s="48"/>
+      <c r="R81" s="48"/>
+      <c r="S81" s="71"/>
+      <c r="T81" s="71"/>
+      <c r="U81" s="48"/>
+      <c r="V81" s="48"/>
+      <c r="W81" s="48"/>
+      <c r="X81" s="48"/>
+      <c r="Y81" s="48"/>
+      <c r="Z81" s="71"/>
+      <c r="AA81" s="71"/>
+      <c r="AB81" s="48"/>
+      <c r="AC81" s="48"/>
+      <c r="AD81" s="48"/>
+      <c r="AE81" s="48"/>
+      <c r="AF81" s="48"/>
+      <c r="AG81" s="71"/>
+      <c r="AH81" s="71"/>
+      <c r="AI81" s="48"/>
+      <c r="AJ81" s="48"/>
+      <c r="AK81" s="48"/>
+      <c r="AL81" s="48"/>
+      <c r="AM81" s="48"/>
+      <c r="AN81" s="71"/>
+      <c r="AO81" s="71"/>
+      <c r="AP81" s="48"/>
+      <c r="AQ81" s="48"/>
+      <c r="AR81" s="48"/>
+      <c r="AS81" s="48"/>
+      <c r="AT81" s="150"/>
+      <c r="AU81" s="71"/>
+      <c r="AV81" s="71"/>
+      <c r="AW81" s="48"/>
+      <c r="AX81" s="48"/>
+      <c r="AY81" s="48"/>
+      <c r="AZ81" s="48"/>
+      <c r="BA81" s="150"/>
+      <c r="BB81" s="71"/>
+      <c r="BC81" s="71"/>
+      <c r="BD81" s="48"/>
+      <c r="BE81" s="48"/>
+      <c r="BF81" s="48"/>
+      <c r="BG81" s="48"/>
+      <c r="BH81" s="150"/>
+      <c r="BI81" s="71"/>
+      <c r="BJ81" s="71"/>
+      <c r="BK81" s="48"/>
+      <c r="BL81" s="48"/>
+      <c r="BM81" s="48"/>
+      <c r="BN81" s="48"/>
+      <c r="BO81" s="48"/>
+      <c r="BP81" s="71"/>
+      <c r="BQ81" s="71"/>
+      <c r="BR81" s="48"/>
+      <c r="BS81" s="48"/>
+      <c r="BT81" s="48"/>
+      <c r="BU81" s="48"/>
+      <c r="BV81" s="48"/>
+      <c r="BW81" s="71"/>
+      <c r="BX81" s="71"/>
+      <c r="BY81" s="48"/>
+      <c r="BZ81" s="48"/>
+      <c r="CA81" s="48"/>
+      <c r="CB81" s="48"/>
+      <c r="CC81" s="48"/>
+      <c r="CD81" s="71"/>
+      <c r="CE81" s="71"/>
+      <c r="CF81" s="48"/>
+      <c r="CG81" s="48"/>
+      <c r="CH81" s="48"/>
+      <c r="CI81" s="48"/>
+      <c r="CJ81" s="48"/>
+      <c r="CK81" s="71"/>
+      <c r="CL81" s="71"/>
+      <c r="CM81" s="48"/>
+      <c r="CN81" s="48"/>
+      <c r="CO81" s="48"/>
+      <c r="CP81" s="48"/>
+      <c r="CQ81" s="48"/>
+      <c r="CR81" s="71"/>
+      <c r="CS81" s="71"/>
+      <c r="CT81" s="48"/>
+      <c r="CU81" s="48"/>
+      <c r="CV81" s="48"/>
+      <c r="CW81" s="48"/>
+      <c r="CX81" s="48"/>
+      <c r="CY81" s="71"/>
+      <c r="CZ81" s="71"/>
+      <c r="DA81" s="48"/>
+      <c r="DB81" s="48"/>
+      <c r="DC81" s="48"/>
+      <c r="DD81" s="48"/>
+      <c r="DE81" s="48"/>
+      <c r="DF81" s="71"/>
+      <c r="DG81" s="71"/>
+      <c r="DH81" s="49"/>
+      <c r="DI81" s="50"/>
+      <c r="DJ81" s="51"/>
+      <c r="DK81" s="52"/>
     </row>
-    <row r="82" spans="2:116">
-      <c r="B82" s="277"/>
-      <c r="C82" s="282"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="247"/>
-      <c r="H82" s="227"/>
-      <c r="I82" s="227"/>
-      <c r="J82" s="227"/>
-      <c r="K82" s="227"/>
-      <c r="L82" s="229"/>
-      <c r="M82" s="229"/>
-      <c r="N82" s="227"/>
-      <c r="O82" s="227"/>
-      <c r="P82" s="227"/>
-      <c r="Q82" s="62"/>
-      <c r="R82" s="62"/>
-      <c r="S82" s="72"/>
-      <c r="T82" s="72"/>
-      <c r="U82" s="62"/>
-      <c r="V82" s="62"/>
-      <c r="W82" s="62"/>
-      <c r="X82" s="62"/>
-      <c r="Y82" s="62"/>
-      <c r="Z82" s="72"/>
-      <c r="AA82" s="72"/>
-      <c r="AB82" s="62"/>
-      <c r="AC82" s="62"/>
-      <c r="AD82" s="62"/>
-      <c r="AE82" s="62"/>
-      <c r="AF82" s="62"/>
-      <c r="AG82" s="72"/>
-      <c r="AH82" s="72"/>
-      <c r="AI82" s="62"/>
-      <c r="AJ82" s="62"/>
-      <c r="AK82" s="62"/>
-      <c r="AL82" s="62"/>
-      <c r="AM82" s="62"/>
-      <c r="AN82" s="72"/>
-      <c r="AO82" s="72"/>
-      <c r="AP82" s="62"/>
-      <c r="AQ82" s="62"/>
-      <c r="AR82" s="62"/>
-      <c r="AS82" s="62"/>
-      <c r="AT82" s="151"/>
-      <c r="AU82" s="72"/>
-      <c r="AV82" s="72"/>
-      <c r="AW82" s="62"/>
-      <c r="AX82" s="62"/>
-      <c r="AY82" s="62"/>
-      <c r="AZ82" s="62"/>
-      <c r="BA82" s="151"/>
-      <c r="BB82" s="72"/>
-      <c r="BC82" s="72"/>
-      <c r="BD82" s="62"/>
-      <c r="BE82" s="62"/>
-      <c r="BF82" s="62"/>
-      <c r="BG82" s="62"/>
-      <c r="BH82" s="151"/>
-      <c r="BI82" s="72"/>
-      <c r="BJ82" s="72"/>
-      <c r="BK82" s="62"/>
-      <c r="BL82" s="62"/>
-      <c r="BM82" s="62"/>
-      <c r="BN82" s="62"/>
-      <c r="BO82" s="62"/>
-      <c r="BP82" s="72"/>
-      <c r="BQ82" s="72"/>
-      <c r="BR82" s="62"/>
-      <c r="BS82" s="62"/>
-      <c r="BT82" s="62"/>
-      <c r="BU82" s="62"/>
-      <c r="BV82" s="62"/>
-      <c r="BW82" s="72"/>
-      <c r="BX82" s="72"/>
-      <c r="BY82" s="62"/>
-      <c r="BZ82" s="62"/>
-      <c r="CA82" s="62"/>
-      <c r="CB82" s="62"/>
-      <c r="CC82" s="62"/>
-      <c r="CD82" s="72"/>
-      <c r="CE82" s="72"/>
-      <c r="CF82" s="62"/>
-      <c r="CG82" s="62"/>
-      <c r="CH82" s="62"/>
-      <c r="CI82" s="62"/>
-      <c r="CJ82" s="62"/>
-      <c r="CK82" s="72"/>
-      <c r="CL82" s="72"/>
-      <c r="CM82" s="62"/>
-      <c r="CN82" s="62"/>
-      <c r="CO82" s="62"/>
-      <c r="CP82" s="62"/>
-      <c r="CQ82" s="62"/>
-      <c r="CR82" s="72"/>
-      <c r="CS82" s="72"/>
-      <c r="CT82" s="62"/>
-      <c r="CU82" s="62"/>
-      <c r="CV82" s="62"/>
-      <c r="CW82" s="62"/>
-      <c r="CX82" s="62"/>
-      <c r="CY82" s="72"/>
-      <c r="CZ82" s="72"/>
-      <c r="DA82" s="62"/>
-      <c r="DB82" s="62"/>
-      <c r="DC82" s="62"/>
-      <c r="DD82" s="62"/>
-      <c r="DE82" s="62"/>
-      <c r="DF82" s="72"/>
-      <c r="DG82" s="72"/>
-      <c r="DH82" s="64"/>
-      <c r="DI82" s="65"/>
-      <c r="DJ82" s="66"/>
-      <c r="DK82" s="67"/>
+    <row r="82" spans="2:116" ht="17.25" thickBot="1">
+      <c r="B82" s="281"/>
+      <c r="C82" s="296"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="244"/>
+      <c r="H82" s="203"/>
+      <c r="I82" s="203"/>
+      <c r="J82" s="245"/>
+      <c r="K82" s="245"/>
+      <c r="L82" s="237"/>
+      <c r="M82" s="237"/>
+      <c r="N82" s="203"/>
+      <c r="O82" s="203"/>
+      <c r="P82" s="203"/>
+      <c r="Q82" s="32"/>
+      <c r="R82" s="32"/>
+      <c r="S82" s="69"/>
+      <c r="T82" s="69"/>
+      <c r="U82" s="32"/>
+      <c r="V82" s="32"/>
+      <c r="W82" s="32"/>
+      <c r="X82" s="32"/>
+      <c r="Y82" s="32"/>
+      <c r="Z82" s="69"/>
+      <c r="AA82" s="69"/>
+      <c r="AB82" s="32"/>
+      <c r="AC82" s="32"/>
+      <c r="AD82" s="32"/>
+      <c r="AE82" s="32"/>
+      <c r="AF82" s="32"/>
+      <c r="AG82" s="69"/>
+      <c r="AH82" s="69"/>
+      <c r="AI82" s="32"/>
+      <c r="AJ82" s="32"/>
+      <c r="AK82" s="32"/>
+      <c r="AL82" s="32"/>
+      <c r="AM82" s="32"/>
+      <c r="AN82" s="69"/>
+      <c r="AO82" s="69"/>
+      <c r="AP82" s="32"/>
+      <c r="AQ82" s="32"/>
+      <c r="AR82" s="32"/>
+      <c r="AS82" s="32"/>
+      <c r="AT82" s="148"/>
+      <c r="AU82" s="69"/>
+      <c r="AV82" s="69"/>
+      <c r="AW82" s="32"/>
+      <c r="AX82" s="32"/>
+      <c r="AY82" s="32"/>
+      <c r="AZ82" s="32"/>
+      <c r="BA82" s="148"/>
+      <c r="BB82" s="69"/>
+      <c r="BC82" s="69"/>
+      <c r="BD82" s="32"/>
+      <c r="BE82" s="32"/>
+      <c r="BF82" s="32"/>
+      <c r="BG82" s="32"/>
+      <c r="BH82" s="148"/>
+      <c r="BI82" s="69"/>
+      <c r="BJ82" s="69"/>
+      <c r="BK82" s="32"/>
+      <c r="BL82" s="32"/>
+      <c r="BM82" s="32"/>
+      <c r="BN82" s="32"/>
+      <c r="BO82" s="32"/>
+      <c r="BP82" s="69"/>
+      <c r="BQ82" s="69"/>
+      <c r="BR82" s="32"/>
+      <c r="BS82" s="32"/>
+      <c r="BT82" s="32"/>
+      <c r="BU82" s="32"/>
+      <c r="BV82" s="32"/>
+      <c r="BW82" s="69"/>
+      <c r="BX82" s="69"/>
+      <c r="BY82" s="32"/>
+      <c r="BZ82" s="32"/>
+      <c r="CA82" s="32"/>
+      <c r="CB82" s="32"/>
+      <c r="CC82" s="32"/>
+      <c r="CD82" s="69"/>
+      <c r="CE82" s="69"/>
+      <c r="CF82" s="32"/>
+      <c r="CG82" s="32"/>
+      <c r="CH82" s="32"/>
+      <c r="CI82" s="32"/>
+      <c r="CJ82" s="32"/>
+      <c r="CK82" s="69"/>
+      <c r="CL82" s="69"/>
+      <c r="CM82" s="32"/>
+      <c r="CN82" s="32"/>
+      <c r="CO82" s="32"/>
+      <c r="CP82" s="32"/>
+      <c r="CQ82" s="32"/>
+      <c r="CR82" s="69"/>
+      <c r="CS82" s="69"/>
+      <c r="CT82" s="32"/>
+      <c r="CU82" s="32"/>
+      <c r="CV82" s="32"/>
+      <c r="CW82" s="32"/>
+      <c r="CX82" s="32"/>
+      <c r="CY82" s="69"/>
+      <c r="CZ82" s="69"/>
+      <c r="DA82" s="32"/>
+      <c r="DB82" s="32"/>
+      <c r="DC82" s="32"/>
+      <c r="DD82" s="32"/>
+      <c r="DE82" s="32"/>
+      <c r="DF82" s="69"/>
+      <c r="DG82" s="69"/>
+      <c r="DH82" s="33"/>
+      <c r="DI82" s="34"/>
+      <c r="DJ82" s="35"/>
+      <c r="DK82" s="36"/>
     </row>
     <row r="83" spans="2:116">
-      <c r="B83" s="277"/>
-      <c r="C83" s="281"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="75"/>
-      <c r="G83" s="243"/>
-      <c r="H83" s="216"/>
-      <c r="I83" s="216"/>
-      <c r="J83" s="216"/>
-      <c r="K83" s="216"/>
-      <c r="L83" s="230"/>
-      <c r="M83" s="230"/>
-      <c r="N83" s="216"/>
-      <c r="O83" s="216"/>
-      <c r="P83" s="216"/>
-      <c r="Q83" s="48"/>
-      <c r="R83" s="48"/>
-      <c r="S83" s="71"/>
-      <c r="T83" s="71"/>
-      <c r="U83" s="48"/>
-      <c r="V83" s="48"/>
-      <c r="W83" s="48"/>
-      <c r="X83" s="48"/>
-      <c r="Y83" s="48"/>
-      <c r="Z83" s="71"/>
-      <c r="AA83" s="71"/>
-      <c r="AB83" s="48"/>
-      <c r="AC83" s="48"/>
-      <c r="AD83" s="48"/>
-      <c r="AE83" s="48"/>
-      <c r="AF83" s="48"/>
-      <c r="AG83" s="71"/>
-      <c r="AH83" s="71"/>
-      <c r="AI83" s="48"/>
-      <c r="AJ83" s="48"/>
-      <c r="AK83" s="48"/>
-      <c r="AL83" s="48"/>
-      <c r="AM83" s="48"/>
-      <c r="AN83" s="71"/>
-      <c r="AO83" s="71"/>
-      <c r="AP83" s="48"/>
-      <c r="AQ83" s="48"/>
-      <c r="AR83" s="48"/>
-      <c r="AS83" s="48"/>
-      <c r="AT83" s="150"/>
-      <c r="AU83" s="71"/>
-      <c r="AV83" s="71"/>
-      <c r="AW83" s="48"/>
-      <c r="AX83" s="48"/>
-      <c r="AY83" s="48"/>
-      <c r="AZ83" s="48"/>
-      <c r="BA83" s="150"/>
-      <c r="BB83" s="71"/>
-      <c r="BC83" s="71"/>
-      <c r="BD83" s="48"/>
-      <c r="BE83" s="48"/>
-      <c r="BF83" s="48"/>
-      <c r="BG83" s="48"/>
-      <c r="BH83" s="150"/>
-      <c r="BI83" s="71"/>
-      <c r="BJ83" s="71"/>
-      <c r="BK83" s="48"/>
-      <c r="BL83" s="48"/>
-      <c r="BM83" s="48"/>
-      <c r="BN83" s="48"/>
-      <c r="BO83" s="48"/>
-      <c r="BP83" s="71"/>
-      <c r="BQ83" s="71"/>
-      <c r="BR83" s="48"/>
-      <c r="BS83" s="48"/>
-      <c r="BT83" s="48"/>
-      <c r="BU83" s="48"/>
-      <c r="BV83" s="48"/>
-      <c r="BW83" s="71"/>
-      <c r="BX83" s="71"/>
-      <c r="BY83" s="48"/>
-      <c r="BZ83" s="48"/>
-      <c r="CA83" s="48"/>
-      <c r="CB83" s="48"/>
-      <c r="CC83" s="48"/>
-      <c r="CD83" s="71"/>
-      <c r="CE83" s="71"/>
-      <c r="CF83" s="48"/>
-      <c r="CG83" s="48"/>
-      <c r="CH83" s="48"/>
-      <c r="CI83" s="48"/>
-      <c r="CJ83" s="48"/>
-      <c r="CK83" s="71"/>
-      <c r="CL83" s="71"/>
-      <c r="CM83" s="48"/>
-      <c r="CN83" s="48"/>
-      <c r="CO83" s="48"/>
-      <c r="CP83" s="48"/>
-      <c r="CQ83" s="48"/>
-      <c r="CR83" s="71"/>
-      <c r="CS83" s="71"/>
-      <c r="CT83" s="48"/>
-      <c r="CU83" s="48"/>
-      <c r="CV83" s="48"/>
-      <c r="CW83" s="48"/>
-      <c r="CX83" s="48"/>
-      <c r="CY83" s="71"/>
-      <c r="CZ83" s="71"/>
-      <c r="DA83" s="48"/>
-      <c r="DB83" s="48"/>
-      <c r="DC83" s="48"/>
-      <c r="DD83" s="48"/>
-      <c r="DE83" s="48"/>
-      <c r="DF83" s="71"/>
-      <c r="DG83" s="71"/>
-      <c r="DH83" s="49"/>
-      <c r="DI83" s="50"/>
-      <c r="DJ83" s="51"/>
-      <c r="DK83" s="52"/>
+      <c r="B83" s="279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="289" t="s">
+        <v>39</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="76"/>
+      <c r="G83" s="246"/>
+      <c r="H83" s="209"/>
+      <c r="I83" s="209"/>
+      <c r="J83" s="209"/>
+      <c r="K83" s="209"/>
+      <c r="L83" s="240"/>
+      <c r="M83" s="240"/>
+      <c r="N83" s="209"/>
+      <c r="O83" s="209"/>
+      <c r="P83" s="209"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="70"/>
+      <c r="T83" s="70"/>
+      <c r="U83" s="42"/>
+      <c r="V83" s="42"/>
+      <c r="W83" s="42"/>
+      <c r="X83" s="42"/>
+      <c r="Y83" s="42"/>
+      <c r="Z83" s="70"/>
+      <c r="AA83" s="70"/>
+      <c r="AB83" s="42"/>
+      <c r="AC83" s="42"/>
+      <c r="AD83" s="42"/>
+      <c r="AE83" s="42"/>
+      <c r="AF83" s="42"/>
+      <c r="AG83" s="70"/>
+      <c r="AH83" s="70"/>
+      <c r="AI83" s="126"/>
+      <c r="AJ83" s="126"/>
+      <c r="AK83" s="126"/>
+      <c r="AL83" s="126"/>
+      <c r="AM83" s="126"/>
+      <c r="AN83" s="70"/>
+      <c r="AO83" s="70"/>
+      <c r="AP83" s="42"/>
+      <c r="AQ83" s="42"/>
+      <c r="AR83" s="42"/>
+      <c r="AS83" s="42"/>
+      <c r="AT83" s="149"/>
+      <c r="AU83" s="70"/>
+      <c r="AV83" s="70"/>
+      <c r="AW83" s="42"/>
+      <c r="AX83" s="42"/>
+      <c r="AY83" s="42"/>
+      <c r="AZ83" s="42"/>
+      <c r="BA83" s="149"/>
+      <c r="BB83" s="70"/>
+      <c r="BC83" s="70"/>
+      <c r="BD83" s="42"/>
+      <c r="BE83" s="42"/>
+      <c r="BF83" s="42"/>
+      <c r="BG83" s="42"/>
+      <c r="BH83" s="149"/>
+      <c r="BI83" s="70"/>
+      <c r="BJ83" s="70"/>
+      <c r="BK83" s="42"/>
+      <c r="BL83" s="42"/>
+      <c r="BM83" s="42"/>
+      <c r="BN83" s="42"/>
+      <c r="BO83" s="42"/>
+      <c r="BP83" s="70"/>
+      <c r="BQ83" s="70"/>
+      <c r="BR83" s="42"/>
+      <c r="BS83" s="42"/>
+      <c r="BT83" s="42"/>
+      <c r="BU83" s="42"/>
+      <c r="BV83" s="42"/>
+      <c r="BW83" s="70"/>
+      <c r="BX83" s="70"/>
+      <c r="BY83" s="42"/>
+      <c r="BZ83" s="42"/>
+      <c r="CA83" s="42"/>
+      <c r="CB83" s="42"/>
+      <c r="CC83" s="42"/>
+      <c r="CD83" s="70"/>
+      <c r="CE83" s="70"/>
+      <c r="CF83" s="42"/>
+      <c r="CG83" s="42"/>
+      <c r="CH83" s="42"/>
+      <c r="CI83" s="42"/>
+      <c r="CJ83" s="42"/>
+      <c r="CK83" s="70"/>
+      <c r="CL83" s="70"/>
+      <c r="CM83" s="42"/>
+      <c r="CN83" s="42"/>
+      <c r="CO83" s="42"/>
+      <c r="CP83" s="42"/>
+      <c r="CQ83" s="42"/>
+      <c r="CR83" s="70"/>
+      <c r="CS83" s="70"/>
+      <c r="CT83" s="42"/>
+      <c r="CU83" s="42"/>
+      <c r="CV83" s="42"/>
+      <c r="CW83" s="42"/>
+      <c r="CX83" s="42"/>
+      <c r="CY83" s="70"/>
+      <c r="CZ83" s="70"/>
+      <c r="DA83" s="42"/>
+      <c r="DB83" s="42"/>
+      <c r="DC83" s="42"/>
+      <c r="DD83" s="42"/>
+      <c r="DE83" s="42"/>
+      <c r="DF83" s="70"/>
+      <c r="DG83" s="70"/>
+      <c r="DH83" s="44"/>
+      <c r="DI83" s="45"/>
+      <c r="DJ83" s="46"/>
+      <c r="DK83" s="47"/>
     </row>
     <row r="84" spans="2:116">
-      <c r="B84" s="277"/>
-      <c r="C84" s="281"/>
+      <c r="B84" s="280"/>
+      <c r="C84" s="290"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="6"/>
+      <c r="E84" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F84" s="75"/>
       <c r="G84" s="243"/>
       <c r="H84" s="216"/>
@@ -14888,11 +14947,11 @@
       <c r="AF84" s="48"/>
       <c r="AG84" s="71"/>
       <c r="AH84" s="71"/>
-      <c r="AI84" s="48"/>
-      <c r="AJ84" s="48"/>
-      <c r="AK84" s="48"/>
-      <c r="AL84" s="48"/>
-      <c r="AM84" s="48"/>
+      <c r="AI84" s="100"/>
+      <c r="AJ84" s="100"/>
+      <c r="AK84" s="100"/>
+      <c r="AL84" s="100"/>
+      <c r="AM84" s="100"/>
       <c r="AN84" s="71"/>
       <c r="AO84" s="71"/>
       <c r="AP84" s="48"/>
@@ -14971,8 +15030,8 @@
       <c r="DK84" s="52"/>
     </row>
     <row r="85" spans="2:116">
-      <c r="B85" s="277"/>
-      <c r="C85" s="281"/>
+      <c r="B85" s="280"/>
+      <c r="C85" s="290"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="75"/>
@@ -15087,8 +15146,8 @@
       <c r="DK85" s="52"/>
     </row>
     <row r="86" spans="2:116">
-      <c r="B86" s="277"/>
-      <c r="C86" s="281"/>
+      <c r="B86" s="280"/>
+      <c r="C86" s="290"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="75"/>
@@ -15203,11 +15262,11 @@
       <c r="DK86" s="52"/>
     </row>
     <row r="87" spans="2:116">
-      <c r="B87" s="277"/>
-      <c r="C87" s="283"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="78"/>
+      <c r="B87" s="280"/>
+      <c r="C87" s="290"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="75"/>
       <c r="G87" s="242"/>
       <c r="H87" s="232"/>
       <c r="I87" s="232"/>
@@ -15319,128 +15378,127 @@
       <c r="DK87" s="61"/>
     </row>
     <row r="88" spans="2:116">
-      <c r="B88" s="277"/>
-      <c r="C88" s="282"/>
+      <c r="B88" s="280"/>
+      <c r="C88" s="291"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="77"/>
-      <c r="G88" s="243"/>
-      <c r="H88" s="216"/>
-      <c r="I88" s="216"/>
-      <c r="J88" s="216"/>
-      <c r="K88" s="216"/>
-      <c r="L88" s="230"/>
-      <c r="M88" s="230"/>
-      <c r="N88" s="216"/>
-      <c r="O88" s="216"/>
-      <c r="P88" s="216"/>
-      <c r="Q88" s="48"/>
-      <c r="R88" s="48"/>
-      <c r="S88" s="71"/>
-      <c r="T88" s="71"/>
-      <c r="U88" s="48"/>
-      <c r="V88" s="48"/>
-      <c r="W88" s="48"/>
-      <c r="X88" s="48"/>
-      <c r="Y88" s="48"/>
-      <c r="Z88" s="71"/>
-      <c r="AA88" s="71"/>
-      <c r="AB88" s="48"/>
-      <c r="AC88" s="48"/>
-      <c r="AD88" s="48"/>
-      <c r="AE88" s="48"/>
-      <c r="AF88" s="48"/>
-      <c r="AG88" s="71"/>
-      <c r="AH88" s="71"/>
-      <c r="AI88" s="48"/>
-      <c r="AJ88" s="48"/>
-      <c r="AK88" s="48"/>
-      <c r="AL88" s="48"/>
-      <c r="AM88" s="48"/>
-      <c r="AN88" s="71"/>
-      <c r="AO88" s="71"/>
-      <c r="AP88" s="48"/>
-      <c r="AQ88" s="48"/>
-      <c r="AR88" s="48"/>
-      <c r="AS88" s="48"/>
-      <c r="AT88" s="150"/>
-      <c r="AU88" s="71"/>
-      <c r="AV88" s="71"/>
-      <c r="AW88" s="48"/>
-      <c r="AX88" s="48"/>
-      <c r="AY88" s="48"/>
-      <c r="AZ88" s="48"/>
-      <c r="BA88" s="150"/>
-      <c r="BB88" s="71"/>
-      <c r="BC88" s="71"/>
-      <c r="BD88" s="48"/>
-      <c r="BE88" s="48"/>
-      <c r="BF88" s="48"/>
-      <c r="BG88" s="48"/>
-      <c r="BH88" s="150"/>
-      <c r="BI88" s="71"/>
-      <c r="BJ88" s="71"/>
-      <c r="BK88" s="48"/>
-      <c r="BL88" s="48"/>
-      <c r="BM88" s="48"/>
-      <c r="BN88" s="48"/>
-      <c r="BO88" s="48"/>
-      <c r="BP88" s="71"/>
-      <c r="BQ88" s="71"/>
-      <c r="BR88" s="48"/>
-      <c r="BS88" s="48"/>
-      <c r="BT88" s="48"/>
-      <c r="BU88" s="48"/>
-      <c r="BV88" s="48"/>
-      <c r="BW88" s="71"/>
-      <c r="BX88" s="71"/>
-      <c r="BY88" s="48"/>
-      <c r="BZ88" s="48"/>
-      <c r="CA88" s="48"/>
-      <c r="CB88" s="48"/>
-      <c r="CC88" s="48"/>
-      <c r="CD88" s="71"/>
-      <c r="CE88" s="71"/>
-      <c r="CF88" s="48"/>
-      <c r="CG88" s="48"/>
-      <c r="CH88" s="48"/>
-      <c r="CI88" s="48"/>
-      <c r="CJ88" s="48"/>
-      <c r="CK88" s="71"/>
-      <c r="CL88" s="71"/>
-      <c r="CM88" s="48"/>
-      <c r="CN88" s="48"/>
-      <c r="CO88" s="48"/>
-      <c r="CP88" s="48"/>
-      <c r="CQ88" s="48"/>
-      <c r="CR88" s="71"/>
-      <c r="CS88" s="71"/>
-      <c r="CT88" s="48"/>
-      <c r="CU88" s="48"/>
-      <c r="CV88" s="48"/>
-      <c r="CW88" s="48"/>
-      <c r="CX88" s="48"/>
-      <c r="CY88" s="71"/>
-      <c r="CZ88" s="71"/>
-      <c r="DA88" s="48"/>
-      <c r="DB88" s="48"/>
-      <c r="DC88" s="48"/>
-      <c r="DD88" s="48"/>
-      <c r="DE88" s="48"/>
-      <c r="DF88" s="71"/>
-      <c r="DG88" s="71"/>
-      <c r="DH88" s="49"/>
-      <c r="DI88" s="50"/>
-      <c r="DJ88" s="51"/>
-      <c r="DK88" s="52"/>
-      <c r="DL88" s="7"/>
+      <c r="G88" s="247"/>
+      <c r="H88" s="227"/>
+      <c r="I88" s="227"/>
+      <c r="J88" s="227"/>
+      <c r="K88" s="227"/>
+      <c r="L88" s="229"/>
+      <c r="M88" s="229"/>
+      <c r="N88" s="227"/>
+      <c r="O88" s="227"/>
+      <c r="P88" s="227"/>
+      <c r="Q88" s="62"/>
+      <c r="R88" s="62"/>
+      <c r="S88" s="72"/>
+      <c r="T88" s="72"/>
+      <c r="U88" s="62"/>
+      <c r="V88" s="62"/>
+      <c r="W88" s="62"/>
+      <c r="X88" s="62"/>
+      <c r="Y88" s="62"/>
+      <c r="Z88" s="72"/>
+      <c r="AA88" s="72"/>
+      <c r="AB88" s="62"/>
+      <c r="AC88" s="62"/>
+      <c r="AD88" s="62"/>
+      <c r="AE88" s="62"/>
+      <c r="AF88" s="62"/>
+      <c r="AG88" s="72"/>
+      <c r="AH88" s="72"/>
+      <c r="AI88" s="62"/>
+      <c r="AJ88" s="62"/>
+      <c r="AK88" s="62"/>
+      <c r="AL88" s="62"/>
+      <c r="AM88" s="62"/>
+      <c r="AN88" s="72"/>
+      <c r="AO88" s="72"/>
+      <c r="AP88" s="62"/>
+      <c r="AQ88" s="62"/>
+      <c r="AR88" s="62"/>
+      <c r="AS88" s="62"/>
+      <c r="AT88" s="151"/>
+      <c r="AU88" s="72"/>
+      <c r="AV88" s="72"/>
+      <c r="AW88" s="62"/>
+      <c r="AX88" s="62"/>
+      <c r="AY88" s="62"/>
+      <c r="AZ88" s="62"/>
+      <c r="BA88" s="151"/>
+      <c r="BB88" s="72"/>
+      <c r="BC88" s="72"/>
+      <c r="BD88" s="62"/>
+      <c r="BE88" s="62"/>
+      <c r="BF88" s="62"/>
+      <c r="BG88" s="62"/>
+      <c r="BH88" s="151"/>
+      <c r="BI88" s="72"/>
+      <c r="BJ88" s="72"/>
+      <c r="BK88" s="62"/>
+      <c r="BL88" s="62"/>
+      <c r="BM88" s="62"/>
+      <c r="BN88" s="62"/>
+      <c r="BO88" s="62"/>
+      <c r="BP88" s="72"/>
+      <c r="BQ88" s="72"/>
+      <c r="BR88" s="62"/>
+      <c r="BS88" s="62"/>
+      <c r="BT88" s="62"/>
+      <c r="BU88" s="62"/>
+      <c r="BV88" s="62"/>
+      <c r="BW88" s="72"/>
+      <c r="BX88" s="72"/>
+      <c r="BY88" s="62"/>
+      <c r="BZ88" s="62"/>
+      <c r="CA88" s="62"/>
+      <c r="CB88" s="62"/>
+      <c r="CC88" s="62"/>
+      <c r="CD88" s="72"/>
+      <c r="CE88" s="72"/>
+      <c r="CF88" s="62"/>
+      <c r="CG88" s="62"/>
+      <c r="CH88" s="62"/>
+      <c r="CI88" s="62"/>
+      <c r="CJ88" s="62"/>
+      <c r="CK88" s="72"/>
+      <c r="CL88" s="72"/>
+      <c r="CM88" s="62"/>
+      <c r="CN88" s="62"/>
+      <c r="CO88" s="62"/>
+      <c r="CP88" s="62"/>
+      <c r="CQ88" s="62"/>
+      <c r="CR88" s="72"/>
+      <c r="CS88" s="72"/>
+      <c r="CT88" s="62"/>
+      <c r="CU88" s="62"/>
+      <c r="CV88" s="62"/>
+      <c r="CW88" s="62"/>
+      <c r="CX88" s="62"/>
+      <c r="CY88" s="72"/>
+      <c r="CZ88" s="72"/>
+      <c r="DA88" s="62"/>
+      <c r="DB88" s="62"/>
+      <c r="DC88" s="62"/>
+      <c r="DD88" s="62"/>
+      <c r="DE88" s="62"/>
+      <c r="DF88" s="72"/>
+      <c r="DG88" s="72"/>
+      <c r="DH88" s="64"/>
+      <c r="DI88" s="65"/>
+      <c r="DJ88" s="66"/>
+      <c r="DK88" s="67"/>
     </row>
     <row r="89" spans="2:116">
-      <c r="B89" s="277"/>
-      <c r="C89" s="281"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="81"/>
+      <c r="B89" s="280"/>
+      <c r="C89" s="290"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="75"/>
       <c r="G89" s="243"/>
       <c r="H89" s="216"/>
       <c r="I89" s="216"/>
@@ -15550,14 +15608,13 @@
       <c r="DI89" s="50"/>
       <c r="DJ89" s="51"/>
       <c r="DK89" s="52"/>
-      <c r="DL89" s="7"/>
     </row>
     <row r="90" spans="2:116">
-      <c r="B90" s="277"/>
-      <c r="C90" s="281"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="81"/>
+      <c r="B90" s="280"/>
+      <c r="C90" s="290"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="75"/>
       <c r="G90" s="243"/>
       <c r="H90" s="216"/>
       <c r="I90" s="216"/>
@@ -15667,14 +15724,13 @@
       <c r="DI90" s="50"/>
       <c r="DJ90" s="51"/>
       <c r="DK90" s="52"/>
-      <c r="DL90" s="7"/>
     </row>
     <row r="91" spans="2:116">
-      <c r="B91" s="277"/>
-      <c r="C91" s="283"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="83"/>
+      <c r="B91" s="280"/>
+      <c r="C91" s="290"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="75"/>
       <c r="G91" s="243"/>
       <c r="H91" s="216"/>
       <c r="I91" s="216"/>
@@ -15784,382 +15840,1081 @@
       <c r="DI91" s="50"/>
       <c r="DJ91" s="51"/>
       <c r="DK91" s="52"/>
-      <c r="DL91" s="7"/>
     </row>
     <row r="92" spans="2:116">
-      <c r="B92" s="277"/>
-      <c r="C92" s="284"/>
+      <c r="B92" s="280"/>
+      <c r="C92" s="290"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="75"/>
-      <c r="G92" s="247"/>
-      <c r="H92" s="227"/>
-      <c r="I92" s="227"/>
-      <c r="J92" s="227"/>
-      <c r="K92" s="227"/>
-      <c r="L92" s="229"/>
-      <c r="M92" s="229"/>
-      <c r="N92" s="227"/>
-      <c r="O92" s="227"/>
-      <c r="P92" s="227"/>
-      <c r="Q92" s="62"/>
-      <c r="R92" s="62"/>
-      <c r="S92" s="72"/>
-      <c r="T92" s="72"/>
-      <c r="U92" s="62"/>
-      <c r="V92" s="62"/>
-      <c r="W92" s="62"/>
-      <c r="X92" s="62"/>
-      <c r="Y92" s="62"/>
-      <c r="Z92" s="72"/>
-      <c r="AA92" s="72"/>
-      <c r="AB92" s="62"/>
-      <c r="AC92" s="62"/>
-      <c r="AD92" s="62"/>
-      <c r="AE92" s="62"/>
-      <c r="AF92" s="62"/>
-      <c r="AG92" s="72"/>
-      <c r="AH92" s="72"/>
-      <c r="AI92" s="62"/>
-      <c r="AJ92" s="62"/>
-      <c r="AK92" s="62"/>
-      <c r="AL92" s="62"/>
-      <c r="AM92" s="62"/>
-      <c r="AN92" s="72"/>
-      <c r="AO92" s="72"/>
-      <c r="AP92" s="62"/>
-      <c r="AQ92" s="62"/>
-      <c r="AR92" s="62"/>
-      <c r="AS92" s="62"/>
-      <c r="AT92" s="151"/>
-      <c r="AU92" s="72"/>
-      <c r="AV92" s="72"/>
-      <c r="AW92" s="62"/>
-      <c r="AX92" s="62"/>
-      <c r="AY92" s="62"/>
-      <c r="AZ92" s="62"/>
-      <c r="BA92" s="151"/>
-      <c r="BB92" s="72"/>
-      <c r="BC92" s="72"/>
-      <c r="BD92" s="62"/>
-      <c r="BE92" s="62"/>
-      <c r="BF92" s="62"/>
-      <c r="BG92" s="62"/>
-      <c r="BH92" s="151"/>
-      <c r="BI92" s="72"/>
-      <c r="BJ92" s="72"/>
-      <c r="BK92" s="62"/>
-      <c r="BL92" s="62"/>
-      <c r="BM92" s="62"/>
-      <c r="BN92" s="62"/>
-      <c r="BO92" s="62"/>
-      <c r="BP92" s="72"/>
-      <c r="BQ92" s="72"/>
-      <c r="BR92" s="62"/>
-      <c r="BS92" s="62"/>
-      <c r="BT92" s="62"/>
-      <c r="BU92" s="62"/>
-      <c r="BV92" s="62"/>
-      <c r="BW92" s="72"/>
-      <c r="BX92" s="72"/>
-      <c r="BY92" s="62"/>
-      <c r="BZ92" s="62"/>
-      <c r="CA92" s="62"/>
-      <c r="CB92" s="62"/>
-      <c r="CC92" s="62"/>
-      <c r="CD92" s="72"/>
-      <c r="CE92" s="72"/>
-      <c r="CF92" s="62"/>
-      <c r="CG92" s="62"/>
-      <c r="CH92" s="62"/>
-      <c r="CI92" s="62"/>
-      <c r="CJ92" s="62"/>
-      <c r="CK92" s="72"/>
-      <c r="CL92" s="72"/>
-      <c r="CM92" s="62"/>
-      <c r="CN92" s="62"/>
-      <c r="CO92" s="62"/>
-      <c r="CP92" s="62"/>
-      <c r="CQ92" s="62"/>
-      <c r="CR92" s="72"/>
-      <c r="CS92" s="72"/>
-      <c r="CT92" s="62"/>
-      <c r="CU92" s="62"/>
-      <c r="CV92" s="62"/>
-      <c r="CW92" s="62"/>
-      <c r="CX92" s="62"/>
-      <c r="CY92" s="72"/>
-      <c r="CZ92" s="72"/>
-      <c r="DA92" s="62"/>
-      <c r="DB92" s="62"/>
-      <c r="DC92" s="62"/>
-      <c r="DD92" s="62"/>
-      <c r="DE92" s="62"/>
-      <c r="DF92" s="72"/>
-      <c r="DG92" s="72"/>
-      <c r="DH92" s="64"/>
-      <c r="DI92" s="65"/>
-      <c r="DJ92" s="66"/>
-      <c r="DK92" s="67"/>
+      <c r="G92" s="243"/>
+      <c r="H92" s="216"/>
+      <c r="I92" s="216"/>
+      <c r="J92" s="216"/>
+      <c r="K92" s="216"/>
+      <c r="L92" s="230"/>
+      <c r="M92" s="230"/>
+      <c r="N92" s="216"/>
+      <c r="O92" s="216"/>
+      <c r="P92" s="216"/>
+      <c r="Q92" s="48"/>
+      <c r="R92" s="48"/>
+      <c r="S92" s="71"/>
+      <c r="T92" s="71"/>
+      <c r="U92" s="48"/>
+      <c r="V92" s="48"/>
+      <c r="W92" s="48"/>
+      <c r="X92" s="48"/>
+      <c r="Y92" s="48"/>
+      <c r="Z92" s="71"/>
+      <c r="AA92" s="71"/>
+      <c r="AB92" s="48"/>
+      <c r="AC92" s="48"/>
+      <c r="AD92" s="48"/>
+      <c r="AE92" s="48"/>
+      <c r="AF92" s="48"/>
+      <c r="AG92" s="71"/>
+      <c r="AH92" s="71"/>
+      <c r="AI92" s="48"/>
+      <c r="AJ92" s="48"/>
+      <c r="AK92" s="48"/>
+      <c r="AL92" s="48"/>
+      <c r="AM92" s="48"/>
+      <c r="AN92" s="71"/>
+      <c r="AO92" s="71"/>
+      <c r="AP92" s="48"/>
+      <c r="AQ92" s="48"/>
+      <c r="AR92" s="48"/>
+      <c r="AS92" s="48"/>
+      <c r="AT92" s="150"/>
+      <c r="AU92" s="71"/>
+      <c r="AV92" s="71"/>
+      <c r="AW92" s="48"/>
+      <c r="AX92" s="48"/>
+      <c r="AY92" s="48"/>
+      <c r="AZ92" s="48"/>
+      <c r="BA92" s="150"/>
+      <c r="BB92" s="71"/>
+      <c r="BC92" s="71"/>
+      <c r="BD92" s="48"/>
+      <c r="BE92" s="48"/>
+      <c r="BF92" s="48"/>
+      <c r="BG92" s="48"/>
+      <c r="BH92" s="150"/>
+      <c r="BI92" s="71"/>
+      <c r="BJ92" s="71"/>
+      <c r="BK92" s="48"/>
+      <c r="BL92" s="48"/>
+      <c r="BM92" s="48"/>
+      <c r="BN92" s="48"/>
+      <c r="BO92" s="48"/>
+      <c r="BP92" s="71"/>
+      <c r="BQ92" s="71"/>
+      <c r="BR92" s="48"/>
+      <c r="BS92" s="48"/>
+      <c r="BT92" s="48"/>
+      <c r="BU92" s="48"/>
+      <c r="BV92" s="48"/>
+      <c r="BW92" s="71"/>
+      <c r="BX92" s="71"/>
+      <c r="BY92" s="48"/>
+      <c r="BZ92" s="48"/>
+      <c r="CA92" s="48"/>
+      <c r="CB92" s="48"/>
+      <c r="CC92" s="48"/>
+      <c r="CD92" s="71"/>
+      <c r="CE92" s="71"/>
+      <c r="CF92" s="48"/>
+      <c r="CG92" s="48"/>
+      <c r="CH92" s="48"/>
+      <c r="CI92" s="48"/>
+      <c r="CJ92" s="48"/>
+      <c r="CK92" s="71"/>
+      <c r="CL92" s="71"/>
+      <c r="CM92" s="48"/>
+      <c r="CN92" s="48"/>
+      <c r="CO92" s="48"/>
+      <c r="CP92" s="48"/>
+      <c r="CQ92" s="48"/>
+      <c r="CR92" s="71"/>
+      <c r="CS92" s="71"/>
+      <c r="CT92" s="48"/>
+      <c r="CU92" s="48"/>
+      <c r="CV92" s="48"/>
+      <c r="CW92" s="48"/>
+      <c r="CX92" s="48"/>
+      <c r="CY92" s="71"/>
+      <c r="CZ92" s="71"/>
+      <c r="DA92" s="48"/>
+      <c r="DB92" s="48"/>
+      <c r="DC92" s="48"/>
+      <c r="DD92" s="48"/>
+      <c r="DE92" s="48"/>
+      <c r="DF92" s="71"/>
+      <c r="DG92" s="71"/>
+      <c r="DH92" s="49"/>
+      <c r="DI92" s="50"/>
+      <c r="DJ92" s="51"/>
+      <c r="DK92" s="52"/>
     </row>
     <row r="93" spans="2:116">
-      <c r="B93" s="277"/>
-      <c r="C93" s="284"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="75"/>
-      <c r="G93" s="243"/>
-      <c r="H93" s="216"/>
-      <c r="I93" s="216"/>
-      <c r="J93" s="216"/>
-      <c r="K93" s="216"/>
-      <c r="L93" s="230"/>
-      <c r="M93" s="230"/>
-      <c r="N93" s="216"/>
-      <c r="O93" s="216"/>
-      <c r="P93" s="216"/>
-      <c r="Q93" s="48"/>
-      <c r="R93" s="48"/>
-      <c r="S93" s="71"/>
-      <c r="T93" s="71"/>
-      <c r="U93" s="48"/>
-      <c r="V93" s="48"/>
-      <c r="W93" s="48"/>
-      <c r="X93" s="48"/>
-      <c r="Y93" s="48"/>
-      <c r="Z93" s="71"/>
-      <c r="AA93" s="71"/>
-      <c r="AB93" s="48"/>
-      <c r="AC93" s="48"/>
-      <c r="AD93" s="48"/>
-      <c r="AE93" s="48"/>
-      <c r="AF93" s="48"/>
-      <c r="AG93" s="71"/>
-      <c r="AH93" s="71"/>
-      <c r="AI93" s="48"/>
-      <c r="AJ93" s="48"/>
-      <c r="AK93" s="48"/>
-      <c r="AL93" s="48"/>
-      <c r="AM93" s="48"/>
-      <c r="AN93" s="71"/>
-      <c r="AO93" s="71"/>
-      <c r="AP93" s="48"/>
-      <c r="AQ93" s="48"/>
-      <c r="AR93" s="48"/>
-      <c r="AS93" s="48"/>
-      <c r="AT93" s="150"/>
-      <c r="AU93" s="71"/>
-      <c r="AV93" s="71"/>
-      <c r="AW93" s="48"/>
-      <c r="AX93" s="48"/>
-      <c r="AY93" s="48"/>
-      <c r="AZ93" s="48"/>
-      <c r="BA93" s="150"/>
-      <c r="BB93" s="71"/>
-      <c r="BC93" s="71"/>
-      <c r="BD93" s="48"/>
-      <c r="BE93" s="48"/>
-      <c r="BF93" s="48"/>
-      <c r="BG93" s="48"/>
-      <c r="BH93" s="150"/>
-      <c r="BI93" s="71"/>
-      <c r="BJ93" s="71"/>
-      <c r="BK93" s="48"/>
-      <c r="BL93" s="48"/>
-      <c r="BM93" s="48"/>
-      <c r="BN93" s="48"/>
-      <c r="BO93" s="48"/>
-      <c r="BP93" s="71"/>
-      <c r="BQ93" s="71"/>
-      <c r="BR93" s="48"/>
-      <c r="BS93" s="48"/>
-      <c r="BT93" s="48"/>
-      <c r="BU93" s="48"/>
-      <c r="BV93" s="48"/>
-      <c r="BW93" s="71"/>
-      <c r="BX93" s="71"/>
-      <c r="BY93" s="48"/>
-      <c r="BZ93" s="48"/>
-      <c r="CA93" s="48"/>
-      <c r="CB93" s="48"/>
-      <c r="CC93" s="48"/>
-      <c r="CD93" s="71"/>
-      <c r="CE93" s="71"/>
-      <c r="CF93" s="48"/>
-      <c r="CG93" s="48"/>
-      <c r="CH93" s="48"/>
-      <c r="CI93" s="48"/>
-      <c r="CJ93" s="48"/>
-      <c r="CK93" s="71"/>
-      <c r="CL93" s="71"/>
-      <c r="CM93" s="48"/>
-      <c r="CN93" s="48"/>
-      <c r="CO93" s="48"/>
-      <c r="CP93" s="48"/>
-      <c r="CQ93" s="48"/>
-      <c r="CR93" s="71"/>
-      <c r="CS93" s="71"/>
-      <c r="CT93" s="48"/>
-      <c r="CU93" s="48"/>
-      <c r="CV93" s="48"/>
-      <c r="CW93" s="48"/>
-      <c r="CX93" s="48"/>
-      <c r="CY93" s="71"/>
-      <c r="CZ93" s="71"/>
-      <c r="DA93" s="48"/>
-      <c r="DB93" s="48"/>
-      <c r="DC93" s="48"/>
-      <c r="DD93" s="48"/>
-      <c r="DE93" s="48"/>
-      <c r="DF93" s="71"/>
-      <c r="DG93" s="71"/>
-      <c r="DH93" s="49"/>
-      <c r="DI93" s="50"/>
-      <c r="DJ93" s="51"/>
-      <c r="DK93" s="52"/>
+      <c r="B93" s="280"/>
+      <c r="C93" s="286"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="242"/>
+      <c r="H93" s="232"/>
+      <c r="I93" s="232"/>
+      <c r="J93" s="232"/>
+      <c r="K93" s="232"/>
+      <c r="L93" s="234"/>
+      <c r="M93" s="234"/>
+      <c r="N93" s="232"/>
+      <c r="O93" s="232"/>
+      <c r="P93" s="232"/>
+      <c r="Q93" s="57"/>
+      <c r="R93" s="57"/>
+      <c r="S93" s="73"/>
+      <c r="T93" s="73"/>
+      <c r="U93" s="57"/>
+      <c r="V93" s="57"/>
+      <c r="W93" s="57"/>
+      <c r="X93" s="57"/>
+      <c r="Y93" s="57"/>
+      <c r="Z93" s="73"/>
+      <c r="AA93" s="73"/>
+      <c r="AB93" s="57"/>
+      <c r="AC93" s="57"/>
+      <c r="AD93" s="57"/>
+      <c r="AE93" s="57"/>
+      <c r="AF93" s="57"/>
+      <c r="AG93" s="73"/>
+      <c r="AH93" s="73"/>
+      <c r="AI93" s="57"/>
+      <c r="AJ93" s="57"/>
+      <c r="AK93" s="57"/>
+      <c r="AL93" s="57"/>
+      <c r="AM93" s="57"/>
+      <c r="AN93" s="73"/>
+      <c r="AO93" s="73"/>
+      <c r="AP93" s="57"/>
+      <c r="AQ93" s="57"/>
+      <c r="AR93" s="57"/>
+      <c r="AS93" s="57"/>
+      <c r="AT93" s="152"/>
+      <c r="AU93" s="73"/>
+      <c r="AV93" s="73"/>
+      <c r="AW93" s="57"/>
+      <c r="AX93" s="57"/>
+      <c r="AY93" s="57"/>
+      <c r="AZ93" s="57"/>
+      <c r="BA93" s="152"/>
+      <c r="BB93" s="73"/>
+      <c r="BC93" s="73"/>
+      <c r="BD93" s="57"/>
+      <c r="BE93" s="57"/>
+      <c r="BF93" s="57"/>
+      <c r="BG93" s="57"/>
+      <c r="BH93" s="152"/>
+      <c r="BI93" s="73"/>
+      <c r="BJ93" s="73"/>
+      <c r="BK93" s="57"/>
+      <c r="BL93" s="57"/>
+      <c r="BM93" s="57"/>
+      <c r="BN93" s="57"/>
+      <c r="BO93" s="57"/>
+      <c r="BP93" s="73"/>
+      <c r="BQ93" s="73"/>
+      <c r="BR93" s="57"/>
+      <c r="BS93" s="57"/>
+      <c r="BT93" s="57"/>
+      <c r="BU93" s="57"/>
+      <c r="BV93" s="57"/>
+      <c r="BW93" s="73"/>
+      <c r="BX93" s="73"/>
+      <c r="BY93" s="57"/>
+      <c r="BZ93" s="57"/>
+      <c r="CA93" s="57"/>
+      <c r="CB93" s="57"/>
+      <c r="CC93" s="57"/>
+      <c r="CD93" s="73"/>
+      <c r="CE93" s="73"/>
+      <c r="CF93" s="57"/>
+      <c r="CG93" s="57"/>
+      <c r="CH93" s="57"/>
+      <c r="CI93" s="57"/>
+      <c r="CJ93" s="57"/>
+      <c r="CK93" s="73"/>
+      <c r="CL93" s="73"/>
+      <c r="CM93" s="57"/>
+      <c r="CN93" s="57"/>
+      <c r="CO93" s="57"/>
+      <c r="CP93" s="57"/>
+      <c r="CQ93" s="57"/>
+      <c r="CR93" s="73"/>
+      <c r="CS93" s="73"/>
+      <c r="CT93" s="57"/>
+      <c r="CU93" s="57"/>
+      <c r="CV93" s="57"/>
+      <c r="CW93" s="57"/>
+      <c r="CX93" s="57"/>
+      <c r="CY93" s="73"/>
+      <c r="CZ93" s="73"/>
+      <c r="DA93" s="57"/>
+      <c r="DB93" s="57"/>
+      <c r="DC93" s="57"/>
+      <c r="DD93" s="57"/>
+      <c r="DE93" s="57"/>
+      <c r="DF93" s="73"/>
+      <c r="DG93" s="73"/>
+      <c r="DH93" s="58"/>
+      <c r="DI93" s="59"/>
+      <c r="DJ93" s="60"/>
+      <c r="DK93" s="61"/>
     </row>
-    <row r="94" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B94" s="279"/>
-      <c r="C94" s="285"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="248"/>
-      <c r="H94" s="249"/>
-      <c r="I94" s="249"/>
-      <c r="J94" s="249"/>
-      <c r="K94" s="249"/>
-      <c r="L94" s="250"/>
-      <c r="M94" s="250"/>
-      <c r="N94" s="249"/>
-      <c r="O94" s="249"/>
-      <c r="P94" s="249"/>
-      <c r="Q94" s="86"/>
-      <c r="R94" s="86"/>
-      <c r="S94" s="87"/>
-      <c r="T94" s="87"/>
-      <c r="U94" s="86"/>
-      <c r="V94" s="86"/>
-      <c r="W94" s="86"/>
-      <c r="X94" s="86"/>
-      <c r="Y94" s="86"/>
-      <c r="Z94" s="87"/>
-      <c r="AA94" s="87"/>
-      <c r="AB94" s="86"/>
-      <c r="AC94" s="86"/>
-      <c r="AD94" s="86"/>
-      <c r="AE94" s="86"/>
-      <c r="AF94" s="86"/>
-      <c r="AG94" s="87"/>
-      <c r="AH94" s="87"/>
-      <c r="AI94" s="86"/>
-      <c r="AJ94" s="86"/>
-      <c r="AK94" s="86"/>
-      <c r="AL94" s="86"/>
-      <c r="AM94" s="86"/>
-      <c r="AN94" s="87"/>
-      <c r="AO94" s="87"/>
-      <c r="AP94" s="86"/>
-      <c r="AQ94" s="86"/>
-      <c r="AR94" s="86"/>
-      <c r="AS94" s="86"/>
-      <c r="AT94" s="157"/>
-      <c r="AU94" s="87"/>
-      <c r="AV94" s="87"/>
-      <c r="AW94" s="86"/>
-      <c r="AX94" s="86"/>
-      <c r="AY94" s="86"/>
-      <c r="AZ94" s="86"/>
-      <c r="BA94" s="157"/>
-      <c r="BB94" s="87"/>
-      <c r="BC94" s="87"/>
-      <c r="BD94" s="86"/>
-      <c r="BE94" s="86"/>
-      <c r="BF94" s="86"/>
-      <c r="BG94" s="86"/>
-      <c r="BH94" s="157"/>
-      <c r="BI94" s="87"/>
-      <c r="BJ94" s="87"/>
-      <c r="BK94" s="86"/>
-      <c r="BL94" s="86"/>
-      <c r="BM94" s="86"/>
-      <c r="BN94" s="86"/>
-      <c r="BO94" s="86"/>
-      <c r="BP94" s="87"/>
-      <c r="BQ94" s="87"/>
-      <c r="BR94" s="86"/>
-      <c r="BS94" s="86"/>
-      <c r="BT94" s="86"/>
-      <c r="BU94" s="86"/>
-      <c r="BV94" s="86"/>
-      <c r="BW94" s="87"/>
-      <c r="BX94" s="87"/>
-      <c r="BY94" s="86"/>
-      <c r="BZ94" s="86"/>
-      <c r="CA94" s="86"/>
-      <c r="CB94" s="86"/>
-      <c r="CC94" s="86"/>
-      <c r="CD94" s="87"/>
-      <c r="CE94" s="87"/>
-      <c r="CF94" s="86"/>
-      <c r="CG94" s="86"/>
-      <c r="CH94" s="86"/>
-      <c r="CI94" s="86"/>
-      <c r="CJ94" s="86"/>
-      <c r="CK94" s="87"/>
-      <c r="CL94" s="87"/>
-      <c r="CM94" s="86"/>
-      <c r="CN94" s="86"/>
-      <c r="CO94" s="86"/>
-      <c r="CP94" s="86"/>
-      <c r="CQ94" s="86"/>
-      <c r="CR94" s="87"/>
-      <c r="CS94" s="87"/>
-      <c r="CT94" s="86"/>
-      <c r="CU94" s="86"/>
-      <c r="CV94" s="86"/>
-      <c r="CW94" s="86"/>
-      <c r="CX94" s="86"/>
-      <c r="CY94" s="87"/>
-      <c r="CZ94" s="87"/>
-      <c r="DA94" s="86"/>
-      <c r="DB94" s="86"/>
-      <c r="DC94" s="86"/>
-      <c r="DD94" s="86"/>
-      <c r="DE94" s="86"/>
-      <c r="DF94" s="87"/>
-      <c r="DG94" s="87"/>
-      <c r="DH94" s="88"/>
-      <c r="DI94" s="89"/>
-      <c r="DJ94" s="90"/>
-      <c r="DK94" s="91"/>
+    <row r="94" spans="2:116">
+      <c r="B94" s="280"/>
+      <c r="C94" s="291"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="243"/>
+      <c r="H94" s="216"/>
+      <c r="I94" s="216"/>
+      <c r="J94" s="216"/>
+      <c r="K94" s="216"/>
+      <c r="L94" s="230"/>
+      <c r="M94" s="230"/>
+      <c r="N94" s="216"/>
+      <c r="O94" s="216"/>
+      <c r="P94" s="216"/>
+      <c r="Q94" s="48"/>
+      <c r="R94" s="48"/>
+      <c r="S94" s="71"/>
+      <c r="T94" s="71"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="48"/>
+      <c r="W94" s="48"/>
+      <c r="X94" s="48"/>
+      <c r="Y94" s="48"/>
+      <c r="Z94" s="71"/>
+      <c r="AA94" s="71"/>
+      <c r="AB94" s="48"/>
+      <c r="AC94" s="48"/>
+      <c r="AD94" s="48"/>
+      <c r="AE94" s="48"/>
+      <c r="AF94" s="48"/>
+      <c r="AG94" s="71"/>
+      <c r="AH94" s="71"/>
+      <c r="AI94" s="48"/>
+      <c r="AJ94" s="48"/>
+      <c r="AK94" s="48"/>
+      <c r="AL94" s="48"/>
+      <c r="AM94" s="48"/>
+      <c r="AN94" s="71"/>
+      <c r="AO94" s="71"/>
+      <c r="AP94" s="48"/>
+      <c r="AQ94" s="48"/>
+      <c r="AR94" s="48"/>
+      <c r="AS94" s="48"/>
+      <c r="AT94" s="150"/>
+      <c r="AU94" s="71"/>
+      <c r="AV94" s="71"/>
+      <c r="AW94" s="48"/>
+      <c r="AX94" s="48"/>
+      <c r="AY94" s="48"/>
+      <c r="AZ94" s="48"/>
+      <c r="BA94" s="150"/>
+      <c r="BB94" s="71"/>
+      <c r="BC94" s="71"/>
+      <c r="BD94" s="48"/>
+      <c r="BE94" s="48"/>
+      <c r="BF94" s="48"/>
+      <c r="BG94" s="48"/>
+      <c r="BH94" s="150"/>
+      <c r="BI94" s="71"/>
+      <c r="BJ94" s="71"/>
+      <c r="BK94" s="48"/>
+      <c r="BL94" s="48"/>
+      <c r="BM94" s="48"/>
+      <c r="BN94" s="48"/>
+      <c r="BO94" s="48"/>
+      <c r="BP94" s="71"/>
+      <c r="BQ94" s="71"/>
+      <c r="BR94" s="48"/>
+      <c r="BS94" s="48"/>
+      <c r="BT94" s="48"/>
+      <c r="BU94" s="48"/>
+      <c r="BV94" s="48"/>
+      <c r="BW94" s="71"/>
+      <c r="BX94" s="71"/>
+      <c r="BY94" s="48"/>
+      <c r="BZ94" s="48"/>
+      <c r="CA94" s="48"/>
+      <c r="CB94" s="48"/>
+      <c r="CC94" s="48"/>
+      <c r="CD94" s="71"/>
+      <c r="CE94" s="71"/>
+      <c r="CF94" s="48"/>
+      <c r="CG94" s="48"/>
+      <c r="CH94" s="48"/>
+      <c r="CI94" s="48"/>
+      <c r="CJ94" s="48"/>
+      <c r="CK94" s="71"/>
+      <c r="CL94" s="71"/>
+      <c r="CM94" s="48"/>
+      <c r="CN94" s="48"/>
+      <c r="CO94" s="48"/>
+      <c r="CP94" s="48"/>
+      <c r="CQ94" s="48"/>
+      <c r="CR94" s="71"/>
+      <c r="CS94" s="71"/>
+      <c r="CT94" s="48"/>
+      <c r="CU94" s="48"/>
+      <c r="CV94" s="48"/>
+      <c r="CW94" s="48"/>
+      <c r="CX94" s="48"/>
+      <c r="CY94" s="71"/>
+      <c r="CZ94" s="71"/>
+      <c r="DA94" s="48"/>
+      <c r="DB94" s="48"/>
+      <c r="DC94" s="48"/>
+      <c r="DD94" s="48"/>
+      <c r="DE94" s="48"/>
+      <c r="DF94" s="71"/>
+      <c r="DG94" s="71"/>
+      <c r="DH94" s="49"/>
+      <c r="DI94" s="50"/>
+      <c r="DJ94" s="51"/>
+      <c r="DK94" s="52"/>
+      <c r="DL94" s="7"/>
     </row>
-    <row r="95" spans="2:116" ht="17.25" thickTop="1"/>
+    <row r="95" spans="2:116">
+      <c r="B95" s="280"/>
+      <c r="C95" s="290"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="243"/>
+      <c r="H95" s="216"/>
+      <c r="I95" s="216"/>
+      <c r="J95" s="216"/>
+      <c r="K95" s="216"/>
+      <c r="L95" s="230"/>
+      <c r="M95" s="230"/>
+      <c r="N95" s="216"/>
+      <c r="O95" s="216"/>
+      <c r="P95" s="216"/>
+      <c r="Q95" s="48"/>
+      <c r="R95" s="48"/>
+      <c r="S95" s="71"/>
+      <c r="T95" s="71"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="48"/>
+      <c r="W95" s="48"/>
+      <c r="X95" s="48"/>
+      <c r="Y95" s="48"/>
+      <c r="Z95" s="71"/>
+      <c r="AA95" s="71"/>
+      <c r="AB95" s="48"/>
+      <c r="AC95" s="48"/>
+      <c r="AD95" s="48"/>
+      <c r="AE95" s="48"/>
+      <c r="AF95" s="48"/>
+      <c r="AG95" s="71"/>
+      <c r="AH95" s="71"/>
+      <c r="AI95" s="48"/>
+      <c r="AJ95" s="48"/>
+      <c r="AK95" s="48"/>
+      <c r="AL95" s="48"/>
+      <c r="AM95" s="48"/>
+      <c r="AN95" s="71"/>
+      <c r="AO95" s="71"/>
+      <c r="AP95" s="48"/>
+      <c r="AQ95" s="48"/>
+      <c r="AR95" s="48"/>
+      <c r="AS95" s="48"/>
+      <c r="AT95" s="150"/>
+      <c r="AU95" s="71"/>
+      <c r="AV95" s="71"/>
+      <c r="AW95" s="48"/>
+      <c r="AX95" s="48"/>
+      <c r="AY95" s="48"/>
+      <c r="AZ95" s="48"/>
+      <c r="BA95" s="150"/>
+      <c r="BB95" s="71"/>
+      <c r="BC95" s="71"/>
+      <c r="BD95" s="48"/>
+      <c r="BE95" s="48"/>
+      <c r="BF95" s="48"/>
+      <c r="BG95" s="48"/>
+      <c r="BH95" s="150"/>
+      <c r="BI95" s="71"/>
+      <c r="BJ95" s="71"/>
+      <c r="BK95" s="48"/>
+      <c r="BL95" s="48"/>
+      <c r="BM95" s="48"/>
+      <c r="BN95" s="48"/>
+      <c r="BO95" s="48"/>
+      <c r="BP95" s="71"/>
+      <c r="BQ95" s="71"/>
+      <c r="BR95" s="48"/>
+      <c r="BS95" s="48"/>
+      <c r="BT95" s="48"/>
+      <c r="BU95" s="48"/>
+      <c r="BV95" s="48"/>
+      <c r="BW95" s="71"/>
+      <c r="BX95" s="71"/>
+      <c r="BY95" s="48"/>
+      <c r="BZ95" s="48"/>
+      <c r="CA95" s="48"/>
+      <c r="CB95" s="48"/>
+      <c r="CC95" s="48"/>
+      <c r="CD95" s="71"/>
+      <c r="CE95" s="71"/>
+      <c r="CF95" s="48"/>
+      <c r="CG95" s="48"/>
+      <c r="CH95" s="48"/>
+      <c r="CI95" s="48"/>
+      <c r="CJ95" s="48"/>
+      <c r="CK95" s="71"/>
+      <c r="CL95" s="71"/>
+      <c r="CM95" s="48"/>
+      <c r="CN95" s="48"/>
+      <c r="CO95" s="48"/>
+      <c r="CP95" s="48"/>
+      <c r="CQ95" s="48"/>
+      <c r="CR95" s="71"/>
+      <c r="CS95" s="71"/>
+      <c r="CT95" s="48"/>
+      <c r="CU95" s="48"/>
+      <c r="CV95" s="48"/>
+      <c r="CW95" s="48"/>
+      <c r="CX95" s="48"/>
+      <c r="CY95" s="71"/>
+      <c r="CZ95" s="71"/>
+      <c r="DA95" s="48"/>
+      <c r="DB95" s="48"/>
+      <c r="DC95" s="48"/>
+      <c r="DD95" s="48"/>
+      <c r="DE95" s="48"/>
+      <c r="DF95" s="71"/>
+      <c r="DG95" s="71"/>
+      <c r="DH95" s="49"/>
+      <c r="DI95" s="50"/>
+      <c r="DJ95" s="51"/>
+      <c r="DK95" s="52"/>
+      <c r="DL95" s="7"/>
+    </row>
+    <row r="96" spans="2:116">
+      <c r="B96" s="280"/>
+      <c r="C96" s="290"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="81"/>
+      <c r="G96" s="243"/>
+      <c r="H96" s="216"/>
+      <c r="I96" s="216"/>
+      <c r="J96" s="216"/>
+      <c r="K96" s="216"/>
+      <c r="L96" s="230"/>
+      <c r="M96" s="230"/>
+      <c r="N96" s="216"/>
+      <c r="O96" s="216"/>
+      <c r="P96" s="216"/>
+      <c r="Q96" s="48"/>
+      <c r="R96" s="48"/>
+      <c r="S96" s="71"/>
+      <c r="T96" s="71"/>
+      <c r="U96" s="48"/>
+      <c r="V96" s="48"/>
+      <c r="W96" s="48"/>
+      <c r="X96" s="48"/>
+      <c r="Y96" s="48"/>
+      <c r="Z96" s="71"/>
+      <c r="AA96" s="71"/>
+      <c r="AB96" s="48"/>
+      <c r="AC96" s="48"/>
+      <c r="AD96" s="48"/>
+      <c r="AE96" s="48"/>
+      <c r="AF96" s="48"/>
+      <c r="AG96" s="71"/>
+      <c r="AH96" s="71"/>
+      <c r="AI96" s="48"/>
+      <c r="AJ96" s="48"/>
+      <c r="AK96" s="48"/>
+      <c r="AL96" s="48"/>
+      <c r="AM96" s="48"/>
+      <c r="AN96" s="71"/>
+      <c r="AO96" s="71"/>
+      <c r="AP96" s="48"/>
+      <c r="AQ96" s="48"/>
+      <c r="AR96" s="48"/>
+      <c r="AS96" s="48"/>
+      <c r="AT96" s="150"/>
+      <c r="AU96" s="71"/>
+      <c r="AV96" s="71"/>
+      <c r="AW96" s="48"/>
+      <c r="AX96" s="48"/>
+      <c r="AY96" s="48"/>
+      <c r="AZ96" s="48"/>
+      <c r="BA96" s="150"/>
+      <c r="BB96" s="71"/>
+      <c r="BC96" s="71"/>
+      <c r="BD96" s="48"/>
+      <c r="BE96" s="48"/>
+      <c r="BF96" s="48"/>
+      <c r="BG96" s="48"/>
+      <c r="BH96" s="150"/>
+      <c r="BI96" s="71"/>
+      <c r="BJ96" s="71"/>
+      <c r="BK96" s="48"/>
+      <c r="BL96" s="48"/>
+      <c r="BM96" s="48"/>
+      <c r="BN96" s="48"/>
+      <c r="BO96" s="48"/>
+      <c r="BP96" s="71"/>
+      <c r="BQ96" s="71"/>
+      <c r="BR96" s="48"/>
+      <c r="BS96" s="48"/>
+      <c r="BT96" s="48"/>
+      <c r="BU96" s="48"/>
+      <c r="BV96" s="48"/>
+      <c r="BW96" s="71"/>
+      <c r="BX96" s="71"/>
+      <c r="BY96" s="48"/>
+      <c r="BZ96" s="48"/>
+      <c r="CA96" s="48"/>
+      <c r="CB96" s="48"/>
+      <c r="CC96" s="48"/>
+      <c r="CD96" s="71"/>
+      <c r="CE96" s="71"/>
+      <c r="CF96" s="48"/>
+      <c r="CG96" s="48"/>
+      <c r="CH96" s="48"/>
+      <c r="CI96" s="48"/>
+      <c r="CJ96" s="48"/>
+      <c r="CK96" s="71"/>
+      <c r="CL96" s="71"/>
+      <c r="CM96" s="48"/>
+      <c r="CN96" s="48"/>
+      <c r="CO96" s="48"/>
+      <c r="CP96" s="48"/>
+      <c r="CQ96" s="48"/>
+      <c r="CR96" s="71"/>
+      <c r="CS96" s="71"/>
+      <c r="CT96" s="48"/>
+      <c r="CU96" s="48"/>
+      <c r="CV96" s="48"/>
+      <c r="CW96" s="48"/>
+      <c r="CX96" s="48"/>
+      <c r="CY96" s="71"/>
+      <c r="CZ96" s="71"/>
+      <c r="DA96" s="48"/>
+      <c r="DB96" s="48"/>
+      <c r="DC96" s="48"/>
+      <c r="DD96" s="48"/>
+      <c r="DE96" s="48"/>
+      <c r="DF96" s="71"/>
+      <c r="DG96" s="71"/>
+      <c r="DH96" s="49"/>
+      <c r="DI96" s="50"/>
+      <c r="DJ96" s="51"/>
+      <c r="DK96" s="52"/>
+      <c r="DL96" s="7"/>
+    </row>
+    <row r="97" spans="2:116">
+      <c r="B97" s="280"/>
+      <c r="C97" s="286"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="243"/>
+      <c r="H97" s="216"/>
+      <c r="I97" s="216"/>
+      <c r="J97" s="216"/>
+      <c r="K97" s="216"/>
+      <c r="L97" s="230"/>
+      <c r="M97" s="230"/>
+      <c r="N97" s="216"/>
+      <c r="O97" s="216"/>
+      <c r="P97" s="216"/>
+      <c r="Q97" s="48"/>
+      <c r="R97" s="48"/>
+      <c r="S97" s="71"/>
+      <c r="T97" s="71"/>
+      <c r="U97" s="48"/>
+      <c r="V97" s="48"/>
+      <c r="W97" s="48"/>
+      <c r="X97" s="48"/>
+      <c r="Y97" s="48"/>
+      <c r="Z97" s="71"/>
+      <c r="AA97" s="71"/>
+      <c r="AB97" s="48"/>
+      <c r="AC97" s="48"/>
+      <c r="AD97" s="48"/>
+      <c r="AE97" s="48"/>
+      <c r="AF97" s="48"/>
+      <c r="AG97" s="71"/>
+      <c r="AH97" s="71"/>
+      <c r="AI97" s="48"/>
+      <c r="AJ97" s="48"/>
+      <c r="AK97" s="48"/>
+      <c r="AL97" s="48"/>
+      <c r="AM97" s="48"/>
+      <c r="AN97" s="71"/>
+      <c r="AO97" s="71"/>
+      <c r="AP97" s="48"/>
+      <c r="AQ97" s="48"/>
+      <c r="AR97" s="48"/>
+      <c r="AS97" s="48"/>
+      <c r="AT97" s="150"/>
+      <c r="AU97" s="71"/>
+      <c r="AV97" s="71"/>
+      <c r="AW97" s="48"/>
+      <c r="AX97" s="48"/>
+      <c r="AY97" s="48"/>
+      <c r="AZ97" s="48"/>
+      <c r="BA97" s="150"/>
+      <c r="BB97" s="71"/>
+      <c r="BC97" s="71"/>
+      <c r="BD97" s="48"/>
+      <c r="BE97" s="48"/>
+      <c r="BF97" s="48"/>
+      <c r="BG97" s="48"/>
+      <c r="BH97" s="150"/>
+      <c r="BI97" s="71"/>
+      <c r="BJ97" s="71"/>
+      <c r="BK97" s="48"/>
+      <c r="BL97" s="48"/>
+      <c r="BM97" s="48"/>
+      <c r="BN97" s="48"/>
+      <c r="BO97" s="48"/>
+      <c r="BP97" s="71"/>
+      <c r="BQ97" s="71"/>
+      <c r="BR97" s="48"/>
+      <c r="BS97" s="48"/>
+      <c r="BT97" s="48"/>
+      <c r="BU97" s="48"/>
+      <c r="BV97" s="48"/>
+      <c r="BW97" s="71"/>
+      <c r="BX97" s="71"/>
+      <c r="BY97" s="48"/>
+      <c r="BZ97" s="48"/>
+      <c r="CA97" s="48"/>
+      <c r="CB97" s="48"/>
+      <c r="CC97" s="48"/>
+      <c r="CD97" s="71"/>
+      <c r="CE97" s="71"/>
+      <c r="CF97" s="48"/>
+      <c r="CG97" s="48"/>
+      <c r="CH97" s="48"/>
+      <c r="CI97" s="48"/>
+      <c r="CJ97" s="48"/>
+      <c r="CK97" s="71"/>
+      <c r="CL97" s="71"/>
+      <c r="CM97" s="48"/>
+      <c r="CN97" s="48"/>
+      <c r="CO97" s="48"/>
+      <c r="CP97" s="48"/>
+      <c r="CQ97" s="48"/>
+      <c r="CR97" s="71"/>
+      <c r="CS97" s="71"/>
+      <c r="CT97" s="48"/>
+      <c r="CU97" s="48"/>
+      <c r="CV97" s="48"/>
+      <c r="CW97" s="48"/>
+      <c r="CX97" s="48"/>
+      <c r="CY97" s="71"/>
+      <c r="CZ97" s="71"/>
+      <c r="DA97" s="48"/>
+      <c r="DB97" s="48"/>
+      <c r="DC97" s="48"/>
+      <c r="DD97" s="48"/>
+      <c r="DE97" s="48"/>
+      <c r="DF97" s="71"/>
+      <c r="DG97" s="71"/>
+      <c r="DH97" s="49"/>
+      <c r="DI97" s="50"/>
+      <c r="DJ97" s="51"/>
+      <c r="DK97" s="52"/>
+      <c r="DL97" s="7"/>
+    </row>
+    <row r="98" spans="2:116">
+      <c r="B98" s="280"/>
+      <c r="C98" s="278"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="75"/>
+      <c r="G98" s="247"/>
+      <c r="H98" s="227"/>
+      <c r="I98" s="227"/>
+      <c r="J98" s="227"/>
+      <c r="K98" s="227"/>
+      <c r="L98" s="229"/>
+      <c r="M98" s="229"/>
+      <c r="N98" s="227"/>
+      <c r="O98" s="227"/>
+      <c r="P98" s="227"/>
+      <c r="Q98" s="62"/>
+      <c r="R98" s="62"/>
+      <c r="S98" s="72"/>
+      <c r="T98" s="72"/>
+      <c r="U98" s="62"/>
+      <c r="V98" s="62"/>
+      <c r="W98" s="62"/>
+      <c r="X98" s="62"/>
+      <c r="Y98" s="62"/>
+      <c r="Z98" s="72"/>
+      <c r="AA98" s="72"/>
+      <c r="AB98" s="62"/>
+      <c r="AC98" s="62"/>
+      <c r="AD98" s="62"/>
+      <c r="AE98" s="62"/>
+      <c r="AF98" s="62"/>
+      <c r="AG98" s="72"/>
+      <c r="AH98" s="72"/>
+      <c r="AI98" s="62"/>
+      <c r="AJ98" s="62"/>
+      <c r="AK98" s="62"/>
+      <c r="AL98" s="62"/>
+      <c r="AM98" s="62"/>
+      <c r="AN98" s="72"/>
+      <c r="AO98" s="72"/>
+      <c r="AP98" s="62"/>
+      <c r="AQ98" s="62"/>
+      <c r="AR98" s="62"/>
+      <c r="AS98" s="62"/>
+      <c r="AT98" s="151"/>
+      <c r="AU98" s="72"/>
+      <c r="AV98" s="72"/>
+      <c r="AW98" s="62"/>
+      <c r="AX98" s="62"/>
+      <c r="AY98" s="62"/>
+      <c r="AZ98" s="62"/>
+      <c r="BA98" s="151"/>
+      <c r="BB98" s="72"/>
+      <c r="BC98" s="72"/>
+      <c r="BD98" s="62"/>
+      <c r="BE98" s="62"/>
+      <c r="BF98" s="62"/>
+      <c r="BG98" s="62"/>
+      <c r="BH98" s="151"/>
+      <c r="BI98" s="72"/>
+      <c r="BJ98" s="72"/>
+      <c r="BK98" s="62"/>
+      <c r="BL98" s="62"/>
+      <c r="BM98" s="62"/>
+      <c r="BN98" s="62"/>
+      <c r="BO98" s="62"/>
+      <c r="BP98" s="72"/>
+      <c r="BQ98" s="72"/>
+      <c r="BR98" s="62"/>
+      <c r="BS98" s="62"/>
+      <c r="BT98" s="62"/>
+      <c r="BU98" s="62"/>
+      <c r="BV98" s="62"/>
+      <c r="BW98" s="72"/>
+      <c r="BX98" s="72"/>
+      <c r="BY98" s="62"/>
+      <c r="BZ98" s="62"/>
+      <c r="CA98" s="62"/>
+      <c r="CB98" s="62"/>
+      <c r="CC98" s="62"/>
+      <c r="CD98" s="72"/>
+      <c r="CE98" s="72"/>
+      <c r="CF98" s="62"/>
+      <c r="CG98" s="62"/>
+      <c r="CH98" s="62"/>
+      <c r="CI98" s="62"/>
+      <c r="CJ98" s="62"/>
+      <c r="CK98" s="72"/>
+      <c r="CL98" s="72"/>
+      <c r="CM98" s="62"/>
+      <c r="CN98" s="62"/>
+      <c r="CO98" s="62"/>
+      <c r="CP98" s="62"/>
+      <c r="CQ98" s="62"/>
+      <c r="CR98" s="72"/>
+      <c r="CS98" s="72"/>
+      <c r="CT98" s="62"/>
+      <c r="CU98" s="62"/>
+      <c r="CV98" s="62"/>
+      <c r="CW98" s="62"/>
+      <c r="CX98" s="62"/>
+      <c r="CY98" s="72"/>
+      <c r="CZ98" s="72"/>
+      <c r="DA98" s="62"/>
+      <c r="DB98" s="62"/>
+      <c r="DC98" s="62"/>
+      <c r="DD98" s="62"/>
+      <c r="DE98" s="62"/>
+      <c r="DF98" s="72"/>
+      <c r="DG98" s="72"/>
+      <c r="DH98" s="64"/>
+      <c r="DI98" s="65"/>
+      <c r="DJ98" s="66"/>
+      <c r="DK98" s="67"/>
+    </row>
+    <row r="99" spans="2:116">
+      <c r="B99" s="280"/>
+      <c r="C99" s="278"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="75"/>
+      <c r="G99" s="243"/>
+      <c r="H99" s="216"/>
+      <c r="I99" s="216"/>
+      <c r="J99" s="216"/>
+      <c r="K99" s="216"/>
+      <c r="L99" s="230"/>
+      <c r="M99" s="230"/>
+      <c r="N99" s="216"/>
+      <c r="O99" s="216"/>
+      <c r="P99" s="216"/>
+      <c r="Q99" s="48"/>
+      <c r="R99" s="48"/>
+      <c r="S99" s="71"/>
+      <c r="T99" s="71"/>
+      <c r="U99" s="48"/>
+      <c r="V99" s="48"/>
+      <c r="W99" s="48"/>
+      <c r="X99" s="48"/>
+      <c r="Y99" s="48"/>
+      <c r="Z99" s="71"/>
+      <c r="AA99" s="71"/>
+      <c r="AB99" s="48"/>
+      <c r="AC99" s="48"/>
+      <c r="AD99" s="48"/>
+      <c r="AE99" s="48"/>
+      <c r="AF99" s="48"/>
+      <c r="AG99" s="71"/>
+      <c r="AH99" s="71"/>
+      <c r="AI99" s="48"/>
+      <c r="AJ99" s="48"/>
+      <c r="AK99" s="48"/>
+      <c r="AL99" s="48"/>
+      <c r="AM99" s="48"/>
+      <c r="AN99" s="71"/>
+      <c r="AO99" s="71"/>
+      <c r="AP99" s="48"/>
+      <c r="AQ99" s="48"/>
+      <c r="AR99" s="48"/>
+      <c r="AS99" s="48"/>
+      <c r="AT99" s="150"/>
+      <c r="AU99" s="71"/>
+      <c r="AV99" s="71"/>
+      <c r="AW99" s="48"/>
+      <c r="AX99" s="48"/>
+      <c r="AY99" s="48"/>
+      <c r="AZ99" s="48"/>
+      <c r="BA99" s="150"/>
+      <c r="BB99" s="71"/>
+      <c r="BC99" s="71"/>
+      <c r="BD99" s="48"/>
+      <c r="BE99" s="48"/>
+      <c r="BF99" s="48"/>
+      <c r="BG99" s="48"/>
+      <c r="BH99" s="150"/>
+      <c r="BI99" s="71"/>
+      <c r="BJ99" s="71"/>
+      <c r="BK99" s="48"/>
+      <c r="BL99" s="48"/>
+      <c r="BM99" s="48"/>
+      <c r="BN99" s="48"/>
+      <c r="BO99" s="48"/>
+      <c r="BP99" s="71"/>
+      <c r="BQ99" s="71"/>
+      <c r="BR99" s="48"/>
+      <c r="BS99" s="48"/>
+      <c r="BT99" s="48"/>
+      <c r="BU99" s="48"/>
+      <c r="BV99" s="48"/>
+      <c r="BW99" s="71"/>
+      <c r="BX99" s="71"/>
+      <c r="BY99" s="48"/>
+      <c r="BZ99" s="48"/>
+      <c r="CA99" s="48"/>
+      <c r="CB99" s="48"/>
+      <c r="CC99" s="48"/>
+      <c r="CD99" s="71"/>
+      <c r="CE99" s="71"/>
+      <c r="CF99" s="48"/>
+      <c r="CG99" s="48"/>
+      <c r="CH99" s="48"/>
+      <c r="CI99" s="48"/>
+      <c r="CJ99" s="48"/>
+      <c r="CK99" s="71"/>
+      <c r="CL99" s="71"/>
+      <c r="CM99" s="48"/>
+      <c r="CN99" s="48"/>
+      <c r="CO99" s="48"/>
+      <c r="CP99" s="48"/>
+      <c r="CQ99" s="48"/>
+      <c r="CR99" s="71"/>
+      <c r="CS99" s="71"/>
+      <c r="CT99" s="48"/>
+      <c r="CU99" s="48"/>
+      <c r="CV99" s="48"/>
+      <c r="CW99" s="48"/>
+      <c r="CX99" s="48"/>
+      <c r="CY99" s="71"/>
+      <c r="CZ99" s="71"/>
+      <c r="DA99" s="48"/>
+      <c r="DB99" s="48"/>
+      <c r="DC99" s="48"/>
+      <c r="DD99" s="48"/>
+      <c r="DE99" s="48"/>
+      <c r="DF99" s="71"/>
+      <c r="DG99" s="71"/>
+      <c r="DH99" s="49"/>
+      <c r="DI99" s="50"/>
+      <c r="DJ99" s="51"/>
+      <c r="DK99" s="52"/>
+    </row>
+    <row r="100" spans="2:116" ht="17.25" thickBot="1">
+      <c r="B100" s="288"/>
+      <c r="C100" s="292"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="28"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="248"/>
+      <c r="H100" s="249"/>
+      <c r="I100" s="249"/>
+      <c r="J100" s="249"/>
+      <c r="K100" s="249"/>
+      <c r="L100" s="250"/>
+      <c r="M100" s="250"/>
+      <c r="N100" s="249"/>
+      <c r="O100" s="249"/>
+      <c r="P100" s="249"/>
+      <c r="Q100" s="86"/>
+      <c r="R100" s="86"/>
+      <c r="S100" s="87"/>
+      <c r="T100" s="87"/>
+      <c r="U100" s="86"/>
+      <c r="V100" s="86"/>
+      <c r="W100" s="86"/>
+      <c r="X100" s="86"/>
+      <c r="Y100" s="86"/>
+      <c r="Z100" s="87"/>
+      <c r="AA100" s="87"/>
+      <c r="AB100" s="86"/>
+      <c r="AC100" s="86"/>
+      <c r="AD100" s="86"/>
+      <c r="AE100" s="86"/>
+      <c r="AF100" s="86"/>
+      <c r="AG100" s="87"/>
+      <c r="AH100" s="87"/>
+      <c r="AI100" s="86"/>
+      <c r="AJ100" s="86"/>
+      <c r="AK100" s="86"/>
+      <c r="AL100" s="86"/>
+      <c r="AM100" s="86"/>
+      <c r="AN100" s="87"/>
+      <c r="AO100" s="87"/>
+      <c r="AP100" s="86"/>
+      <c r="AQ100" s="86"/>
+      <c r="AR100" s="86"/>
+      <c r="AS100" s="86"/>
+      <c r="AT100" s="157"/>
+      <c r="AU100" s="87"/>
+      <c r="AV100" s="87"/>
+      <c r="AW100" s="86"/>
+      <c r="AX100" s="86"/>
+      <c r="AY100" s="86"/>
+      <c r="AZ100" s="86"/>
+      <c r="BA100" s="157"/>
+      <c r="BB100" s="87"/>
+      <c r="BC100" s="87"/>
+      <c r="BD100" s="86"/>
+      <c r="BE100" s="86"/>
+      <c r="BF100" s="86"/>
+      <c r="BG100" s="86"/>
+      <c r="BH100" s="157"/>
+      <c r="BI100" s="87"/>
+      <c r="BJ100" s="87"/>
+      <c r="BK100" s="86"/>
+      <c r="BL100" s="86"/>
+      <c r="BM100" s="86"/>
+      <c r="BN100" s="86"/>
+      <c r="BO100" s="86"/>
+      <c r="BP100" s="87"/>
+      <c r="BQ100" s="87"/>
+      <c r="BR100" s="86"/>
+      <c r="BS100" s="86"/>
+      <c r="BT100" s="86"/>
+      <c r="BU100" s="86"/>
+      <c r="BV100" s="86"/>
+      <c r="BW100" s="87"/>
+      <c r="BX100" s="87"/>
+      <c r="BY100" s="86"/>
+      <c r="BZ100" s="86"/>
+      <c r="CA100" s="86"/>
+      <c r="CB100" s="86"/>
+      <c r="CC100" s="86"/>
+      <c r="CD100" s="87"/>
+      <c r="CE100" s="87"/>
+      <c r="CF100" s="86"/>
+      <c r="CG100" s="86"/>
+      <c r="CH100" s="86"/>
+      <c r="CI100" s="86"/>
+      <c r="CJ100" s="86"/>
+      <c r="CK100" s="87"/>
+      <c r="CL100" s="87"/>
+      <c r="CM100" s="86"/>
+      <c r="CN100" s="86"/>
+      <c r="CO100" s="86"/>
+      <c r="CP100" s="86"/>
+      <c r="CQ100" s="86"/>
+      <c r="CR100" s="87"/>
+      <c r="CS100" s="87"/>
+      <c r="CT100" s="86"/>
+      <c r="CU100" s="86"/>
+      <c r="CV100" s="86"/>
+      <c r="CW100" s="86"/>
+      <c r="CX100" s="86"/>
+      <c r="CY100" s="87"/>
+      <c r="CZ100" s="87"/>
+      <c r="DA100" s="86"/>
+      <c r="DB100" s="86"/>
+      <c r="DC100" s="86"/>
+      <c r="DD100" s="86"/>
+      <c r="DE100" s="86"/>
+      <c r="DF100" s="87"/>
+      <c r="DG100" s="87"/>
+      <c r="DH100" s="88"/>
+      <c r="DI100" s="89"/>
+      <c r="DJ100" s="90"/>
+      <c r="DK100" s="91"/>
+    </row>
+    <row r="101" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="B20:B54"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C52:C54"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B77:B94"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="C82:C87"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="B83:B100"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="C88:C93"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
     <mergeCell ref="B71:B76"/>
     <mergeCell ref="C71:C72"/>
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="B20:B60"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C45"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="C58:C60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="9405"/>
@@ -11,12 +11,47 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>snoopy</author>
+  </authors>
+  <commentList>
+    <comment ref="D58" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">snoopy:Android </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이해 부족으로 기본적인 책 한권 읽고 시작 예정</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
   <si>
     <t>모듈</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -567,12 +602,20 @@
     <t>GUI 구상 /설계 마무리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Android 공부하기(Hello Android 이해)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이윤영</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,8 +809,23 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,6 +1006,12 @@
         <bgColor theme="3" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="9" tint="0.59996337778862885"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="120">
     <border>
@@ -2463,7 +2527,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2752,9 +2816,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="61" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3295,19 +3356,64 @@
     <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3322,52 +3428,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="43" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4967,8 +5034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:DL101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4977,15 +5044,15 @@
     <col min="2" max="2" width="17.125" style="12" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="9" style="177"/>
+    <col min="5" max="5" width="9" style="176"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="16" width="2.625" style="185" customWidth="1"/>
+    <col min="7" max="16" width="2.625" style="184" customWidth="1"/>
     <col min="17" max="45" width="2.625" customWidth="1"/>
-    <col min="46" max="46" width="2.625" style="142" customWidth="1"/>
+    <col min="46" max="46" width="2.625" style="141" customWidth="1"/>
     <col min="47" max="52" width="2.625" customWidth="1"/>
-    <col min="53" max="53" width="2.625" style="142" customWidth="1"/>
+    <col min="53" max="53" width="2.625" style="141" customWidth="1"/>
     <col min="54" max="59" width="2.625" customWidth="1"/>
-    <col min="60" max="60" width="2.625" style="142" customWidth="1"/>
+    <col min="60" max="60" width="2.625" style="141" customWidth="1"/>
     <col min="61" max="120" width="2.625" customWidth="1"/>
     <col min="256" max="256" width="3.25" customWidth="1"/>
     <col min="257" max="257" width="17.125" customWidth="1"/>
@@ -5557,7 +5624,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:115" ht="26.25">
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="107" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5565,7 +5632,7 @@
       </c>
     </row>
     <row r="5" spans="2:115" ht="18" thickBot="1">
-      <c r="G5" s="186" t="s">
+      <c r="G5" s="185" t="s">
         <v>24</v>
       </c>
       <c r="X5" s="92" t="s">
@@ -5579,355 +5646,355 @@
       </c>
     </row>
     <row r="6" spans="2:115" ht="18" thickTop="1" thickBot="1">
-      <c r="C6" s="104"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="187">
+      <c r="C6" s="103"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="186">
         <v>14</v>
       </c>
-      <c r="H6" s="188">
+      <c r="H6" s="187">
         <v>15</v>
       </c>
-      <c r="I6" s="188">
+      <c r="I6" s="187">
         <v>16</v>
       </c>
-      <c r="J6" s="188">
+      <c r="J6" s="187">
         <v>17</v>
       </c>
-      <c r="K6" s="188">
+      <c r="K6" s="187">
         <v>18</v>
       </c>
-      <c r="L6" s="188">
+      <c r="L6" s="187">
         <v>19</v>
       </c>
-      <c r="M6" s="188">
+      <c r="M6" s="187">
         <v>20</v>
       </c>
-      <c r="N6" s="188">
+      <c r="N6" s="187">
         <v>21</v>
       </c>
-      <c r="O6" s="188">
+      <c r="O6" s="187">
         <v>22</v>
       </c>
-      <c r="P6" s="188">
+      <c r="P6" s="187">
         <v>23</v>
       </c>
-      <c r="Q6" s="107">
+      <c r="Q6" s="106">
         <v>24</v>
       </c>
-      <c r="R6" s="107">
+      <c r="R6" s="106">
         <v>25</v>
       </c>
-      <c r="S6" s="107">
+      <c r="S6" s="106">
         <v>26</v>
       </c>
-      <c r="T6" s="107">
+      <c r="T6" s="106">
         <v>27</v>
       </c>
-      <c r="U6" s="107">
+      <c r="U6" s="106">
         <v>28</v>
       </c>
-      <c r="V6" s="107">
+      <c r="V6" s="106">
         <v>29</v>
       </c>
-      <c r="W6" s="107">
+      <c r="W6" s="106">
         <v>30</v>
       </c>
-      <c r="X6" s="107">
+      <c r="X6" s="106">
         <v>1</v>
       </c>
-      <c r="Y6" s="107">
+      <c r="Y6" s="106">
         <v>2</v>
       </c>
-      <c r="Z6" s="107">
+      <c r="Z6" s="106">
         <v>3</v>
       </c>
-      <c r="AA6" s="107">
+      <c r="AA6" s="106">
         <v>4</v>
       </c>
-      <c r="AB6" s="107">
+      <c r="AB6" s="106">
         <v>5</v>
       </c>
-      <c r="AC6" s="107">
+      <c r="AC6" s="106">
         <v>6</v>
       </c>
-      <c r="AD6" s="107">
+      <c r="AD6" s="106">
         <v>7</v>
       </c>
-      <c r="AE6" s="107">
+      <c r="AE6" s="106">
         <v>8</v>
       </c>
-      <c r="AF6" s="107">
+      <c r="AF6" s="106">
         <v>9</v>
       </c>
-      <c r="AG6" s="107">
+      <c r="AG6" s="106">
         <v>10</v>
       </c>
-      <c r="AH6" s="107">
+      <c r="AH6" s="106">
         <v>11</v>
       </c>
-      <c r="AI6" s="107">
+      <c r="AI6" s="106">
         <v>12</v>
       </c>
-      <c r="AJ6" s="107">
+      <c r="AJ6" s="106">
         <v>13</v>
       </c>
-      <c r="AK6" s="107">
+      <c r="AK6" s="106">
         <v>14</v>
       </c>
-      <c r="AL6" s="256">
+      <c r="AL6" s="255">
         <v>15</v>
       </c>
-      <c r="AM6" s="255">
+      <c r="AM6" s="254">
         <v>16</v>
       </c>
-      <c r="AN6" s="107">
+      <c r="AN6" s="106">
         <v>17</v>
       </c>
-      <c r="AO6" s="107">
+      <c r="AO6" s="106">
         <v>18</v>
       </c>
-      <c r="AP6" s="107">
+      <c r="AP6" s="106">
         <v>19</v>
       </c>
-      <c r="AQ6" s="107">
+      <c r="AQ6" s="106">
         <v>20</v>
       </c>
-      <c r="AR6" s="107">
+      <c r="AR6" s="106">
         <v>21</v>
       </c>
-      <c r="AS6" s="107">
+      <c r="AS6" s="106">
         <v>22</v>
       </c>
-      <c r="AT6" s="159">
+      <c r="AT6" s="158">
         <v>23</v>
       </c>
-      <c r="AU6" s="107">
+      <c r="AU6" s="106">
         <v>24</v>
       </c>
-      <c r="AV6" s="107">
+      <c r="AV6" s="106">
         <v>25</v>
       </c>
-      <c r="AW6" s="107">
+      <c r="AW6" s="106">
         <v>26</v>
       </c>
-      <c r="AX6" s="107">
+      <c r="AX6" s="106">
         <v>27</v>
       </c>
-      <c r="AY6" s="107">
+      <c r="AY6" s="106">
         <v>28</v>
       </c>
-      <c r="AZ6" s="107">
+      <c r="AZ6" s="106">
         <v>29</v>
       </c>
-      <c r="BA6" s="159">
+      <c r="BA6" s="158">
         <v>23</v>
       </c>
-      <c r="BB6" s="107">
+      <c r="BB6" s="106">
         <v>31</v>
       </c>
-      <c r="BC6" s="107">
+      <c r="BC6" s="106">
         <v>1</v>
       </c>
-      <c r="BD6" s="107">
+      <c r="BD6" s="106">
         <v>2</v>
       </c>
-      <c r="BE6" s="107">
+      <c r="BE6" s="106">
         <v>3</v>
       </c>
-      <c r="BF6" s="107">
+      <c r="BF6" s="106">
         <v>4</v>
       </c>
-      <c r="BG6" s="107">
+      <c r="BG6" s="106">
         <v>5</v>
       </c>
-      <c r="BH6" s="159">
+      <c r="BH6" s="158">
         <v>6</v>
       </c>
-      <c r="BI6" s="107">
+      <c r="BI6" s="106">
         <v>7</v>
       </c>
-      <c r="BJ6" s="107">
+      <c r="BJ6" s="106">
         <v>8</v>
       </c>
-      <c r="BK6" s="107">
+      <c r="BK6" s="106">
         <v>9</v>
       </c>
-      <c r="BL6" s="107">
+      <c r="BL6" s="106">
         <v>10</v>
       </c>
-      <c r="BM6" s="107">
+      <c r="BM6" s="106">
         <v>11</v>
       </c>
-      <c r="BN6" s="107">
+      <c r="BN6" s="106">
         <v>12</v>
       </c>
-      <c r="BO6" s="107">
+      <c r="BO6" s="106">
         <v>13</v>
       </c>
-      <c r="BP6" s="107">
+      <c r="BP6" s="106">
         <v>14</v>
       </c>
-      <c r="BQ6" s="107">
+      <c r="BQ6" s="106">
         <v>15</v>
       </c>
-      <c r="BR6" s="107">
+      <c r="BR6" s="106">
         <v>16</v>
       </c>
-      <c r="BS6" s="107">
+      <c r="BS6" s="106">
         <v>17</v>
       </c>
-      <c r="BT6" s="107">
+      <c r="BT6" s="106">
         <v>18</v>
       </c>
-      <c r="BU6" s="107">
+      <c r="BU6" s="106">
         <v>19</v>
       </c>
-      <c r="BV6" s="107">
+      <c r="BV6" s="106">
         <v>20</v>
       </c>
-      <c r="BW6" s="107">
+      <c r="BW6" s="106">
         <v>21</v>
       </c>
-      <c r="BX6" s="107">
+      <c r="BX6" s="106">
         <v>22</v>
       </c>
-      <c r="BY6" s="107">
+      <c r="BY6" s="106">
         <v>23</v>
       </c>
-      <c r="BZ6" s="107">
+      <c r="BZ6" s="106">
         <v>24</v>
       </c>
-      <c r="CA6" s="107">
+      <c r="CA6" s="106">
         <v>25</v>
       </c>
-      <c r="CB6" s="107">
+      <c r="CB6" s="106">
         <v>26</v>
       </c>
-      <c r="CC6" s="107">
+      <c r="CC6" s="106">
         <v>27</v>
       </c>
-      <c r="CD6" s="107">
+      <c r="CD6" s="106">
         <v>28</v>
       </c>
-      <c r="CE6" s="107">
+      <c r="CE6" s="106">
         <v>29</v>
       </c>
-      <c r="CF6" s="107">
+      <c r="CF6" s="106">
         <v>30</v>
       </c>
-      <c r="CG6" s="107">
+      <c r="CG6" s="106">
         <v>31</v>
       </c>
-      <c r="CH6" s="107">
+      <c r="CH6" s="106">
         <v>1</v>
       </c>
-      <c r="CI6" s="107">
+      <c r="CI6" s="106">
         <v>2</v>
       </c>
-      <c r="CJ6" s="107">
+      <c r="CJ6" s="106">
         <v>3</v>
       </c>
-      <c r="CK6" s="107">
+      <c r="CK6" s="106">
         <v>4</v>
       </c>
-      <c r="CL6" s="107">
+      <c r="CL6" s="106">
         <v>5</v>
       </c>
-      <c r="CM6" s="107">
+      <c r="CM6" s="106">
         <v>6</v>
       </c>
-      <c r="CN6" s="107">
+      <c r="CN6" s="106">
         <v>7</v>
       </c>
-      <c r="CO6" s="107">
+      <c r="CO6" s="106">
         <v>8</v>
       </c>
-      <c r="CP6" s="107">
+      <c r="CP6" s="106">
         <v>9</v>
       </c>
-      <c r="CQ6" s="107">
+      <c r="CQ6" s="106">
         <v>10</v>
       </c>
-      <c r="CR6" s="107">
+      <c r="CR6" s="106">
         <v>11</v>
       </c>
-      <c r="CS6" s="107">
+      <c r="CS6" s="106">
         <v>12</v>
       </c>
-      <c r="CT6" s="107">
+      <c r="CT6" s="106">
         <v>13</v>
       </c>
-      <c r="CU6" s="107">
+      <c r="CU6" s="106">
         <v>14</v>
       </c>
-      <c r="CV6" s="107">
+      <c r="CV6" s="106">
         <v>15</v>
       </c>
-      <c r="CW6" s="107">
+      <c r="CW6" s="106">
         <v>16</v>
       </c>
-      <c r="CX6" s="107">
+      <c r="CX6" s="106">
         <v>17</v>
       </c>
-      <c r="CY6" s="107">
+      <c r="CY6" s="106">
         <v>18</v>
       </c>
-      <c r="CZ6" s="107">
+      <c r="CZ6" s="106">
         <v>19</v>
       </c>
-      <c r="DA6" s="107">
+      <c r="DA6" s="106">
         <v>20</v>
       </c>
-      <c r="DB6" s="107">
+      <c r="DB6" s="106">
         <v>21</v>
       </c>
-      <c r="DC6" s="107">
+      <c r="DC6" s="106">
         <v>22</v>
       </c>
-      <c r="DD6" s="107">
+      <c r="DD6" s="106">
         <v>23</v>
       </c>
-      <c r="DE6" s="107">
+      <c r="DE6" s="106">
         <v>24</v>
       </c>
-      <c r="DF6" s="107">
+      <c r="DF6" s="106">
         <v>25</v>
       </c>
-      <c r="DG6" s="107">
+      <c r="DG6" s="106">
         <v>26</v>
       </c>
-      <c r="DH6" s="107">
+      <c r="DH6" s="106">
         <v>27</v>
       </c>
-      <c r="DI6" s="107">
+      <c r="DI6" s="106">
         <v>28</v>
       </c>
-      <c r="DJ6" s="171">
+      <c r="DJ6" s="170">
         <v>29</v>
       </c>
-      <c r="DK6" s="172">
+      <c r="DK6" s="171">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:115" ht="50.1" hidden="1" customHeight="1" thickTop="1">
-      <c r="C7" s="116"/>
-      <c r="D7" s="165" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="178"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="267"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="189"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="266"/>
+      <c r="O7" s="188"/>
+      <c r="P7" s="188"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
       <c r="S7" s="19"/>
@@ -5943,342 +6010,342 @@
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
       <c r="AE7" s="18"/>
-      <c r="AF7" s="113"/>
+      <c r="AF7" s="112"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18"/>
-      <c r="AL7" s="115"/>
+      <c r="AL7" s="114"/>
       <c r="AM7" s="18"/>
-      <c r="AN7" s="161"/>
+      <c r="AN7" s="160"/>
       <c r="AO7" s="19"/>
-      <c r="AP7" s="257"/>
+      <c r="AP7" s="256"/>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="18"/>
       <c r="AS7" s="18"/>
-      <c r="AT7" s="143"/>
+      <c r="AT7" s="142"/>
       <c r="AU7" s="19"/>
       <c r="AV7" s="19"/>
       <c r="AW7" s="18"/>
       <c r="AX7" s="18"/>
       <c r="AY7" s="18"/>
       <c r="AZ7" s="18"/>
-      <c r="BA7" s="143"/>
+      <c r="BA7" s="142"/>
       <c r="BB7" s="19"/>
       <c r="BC7" s="19"/>
       <c r="BD7" s="18"/>
       <c r="BE7" s="18"/>
       <c r="BF7" s="18"/>
       <c r="BG7" s="18"/>
-      <c r="BH7" s="143"/>
+      <c r="BH7" s="142"/>
       <c r="BI7" s="19"/>
       <c r="BJ7" s="19"/>
       <c r="BK7" s="18"/>
       <c r="BL7" s="18"/>
       <c r="BM7" s="18"/>
       <c r="BN7" s="18"/>
-      <c r="BO7" s="127"/>
+      <c r="BO7" s="126"/>
       <c r="BP7" s="19"/>
       <c r="BQ7" s="19"/>
       <c r="BR7" s="18"/>
       <c r="BS7" s="18"/>
       <c r="BT7" s="18"/>
       <c r="BU7" s="18"/>
-      <c r="BV7" s="127"/>
+      <c r="BV7" s="126"/>
       <c r="BW7" s="19"/>
       <c r="BX7" s="19"/>
       <c r="BY7" s="18"/>
       <c r="BZ7" s="18"/>
       <c r="CA7" s="18"/>
       <c r="CB7" s="18"/>
-      <c r="CC7" s="127"/>
+      <c r="CC7" s="126"/>
       <c r="CD7" s="19"/>
       <c r="CE7" s="19"/>
       <c r="CF7" s="18"/>
       <c r="CG7" s="18"/>
       <c r="CH7" s="18"/>
       <c r="CI7" s="18"/>
-      <c r="CJ7" s="127"/>
+      <c r="CJ7" s="126"/>
       <c r="CK7" s="19"/>
       <c r="CL7" s="19"/>
       <c r="CM7" s="18"/>
       <c r="CN7" s="18"/>
       <c r="CO7" s="18"/>
       <c r="CP7" s="18"/>
-      <c r="CQ7" s="127"/>
+      <c r="CQ7" s="126"/>
       <c r="CR7" s="19"/>
       <c r="CS7" s="19"/>
       <c r="CT7" s="18"/>
       <c r="CU7" s="18"/>
       <c r="CV7" s="18"/>
       <c r="CW7" s="18"/>
-      <c r="CX7" s="127"/>
+      <c r="CX7" s="126"/>
       <c r="CY7" s="19"/>
       <c r="CZ7" s="19"/>
       <c r="DA7" s="18"/>
       <c r="DB7" s="18"/>
       <c r="DC7" s="18"/>
       <c r="DD7" s="18"/>
-      <c r="DE7" s="127"/>
+      <c r="DE7" s="126"/>
       <c r="DF7" s="19"/>
       <c r="DG7" s="19"/>
       <c r="DH7" s="18"/>
       <c r="DI7" s="18"/>
       <c r="DJ7" s="18"/>
-      <c r="DK7" s="131"/>
+      <c r="DK7" s="130"/>
     </row>
     <row r="8" spans="2:115" ht="50.1" customHeight="1" thickTop="1">
-      <c r="C8" s="118"/>
-      <c r="D8" s="166" t="s">
+      <c r="C8" s="117"/>
+      <c r="D8" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="179"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="190"/>
-      <c r="J8" s="190"/>
-      <c r="K8" s="190"/>
-      <c r="L8" s="190"/>
-      <c r="M8" s="190"/>
-      <c r="N8" s="268"/>
-      <c r="O8" s="190"/>
-      <c r="P8" s="190"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-      <c r="W8" s="111"/>
-      <c r="X8" s="111"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="111"/>
-      <c r="AC8" s="111"/>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="114"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="111"/>
-      <c r="AJ8" s="111"/>
-      <c r="AK8" s="111"/>
-      <c r="AL8" s="114"/>
-      <c r="AM8" s="111"/>
-      <c r="AN8" s="162"/>
-      <c r="AO8" s="112"/>
-      <c r="AP8" s="111"/>
-      <c r="AQ8" s="111"/>
-      <c r="AR8" s="111"/>
-      <c r="AS8" s="111"/>
-      <c r="AT8" s="144"/>
-      <c r="AU8" s="112"/>
-      <c r="AV8" s="112"/>
-      <c r="AW8" s="111"/>
-      <c r="AX8" s="111"/>
-      <c r="AY8" s="111"/>
-      <c r="AZ8" s="111"/>
-      <c r="BA8" s="144"/>
-      <c r="BB8" s="112"/>
-      <c r="BC8" s="112"/>
-      <c r="BD8" s="111"/>
-      <c r="BE8" s="111"/>
-      <c r="BF8" s="111"/>
-      <c r="BG8" s="111"/>
-      <c r="BH8" s="144"/>
-      <c r="BI8" s="112"/>
-      <c r="BJ8" s="112"/>
-      <c r="BK8" s="111"/>
-      <c r="BL8" s="111"/>
-      <c r="BM8" s="111"/>
-      <c r="BN8" s="111"/>
-      <c r="BO8" s="128"/>
-      <c r="BP8" s="112"/>
-      <c r="BQ8" s="112"/>
-      <c r="BR8" s="111"/>
-      <c r="BS8" s="111"/>
-      <c r="BT8" s="111"/>
-      <c r="BU8" s="111"/>
-      <c r="BV8" s="128"/>
-      <c r="BW8" s="112"/>
-      <c r="BX8" s="112"/>
-      <c r="BY8" s="111"/>
-      <c r="BZ8" s="111"/>
-      <c r="CA8" s="111"/>
-      <c r="CB8" s="111"/>
-      <c r="CC8" s="128"/>
-      <c r="CD8" s="112"/>
-      <c r="CE8" s="112"/>
-      <c r="CF8" s="111"/>
-      <c r="CG8" s="111"/>
-      <c r="CH8" s="111"/>
-      <c r="CI8" s="111"/>
-      <c r="CJ8" s="128"/>
-      <c r="CK8" s="112"/>
-      <c r="CL8" s="112"/>
-      <c r="CM8" s="111"/>
-      <c r="CN8" s="111"/>
-      <c r="CO8" s="111"/>
-      <c r="CP8" s="111"/>
-      <c r="CQ8" s="128"/>
-      <c r="CR8" s="112"/>
-      <c r="CS8" s="112"/>
-      <c r="CT8" s="111"/>
-      <c r="CU8" s="111"/>
-      <c r="CV8" s="111"/>
-      <c r="CW8" s="111"/>
-      <c r="CX8" s="128"/>
-      <c r="CY8" s="112"/>
-      <c r="CZ8" s="112"/>
-      <c r="DA8" s="111"/>
-      <c r="DB8" s="111"/>
-      <c r="DC8" s="111"/>
-      <c r="DD8" s="111"/>
-      <c r="DE8" s="128"/>
-      <c r="DF8" s="112"/>
-      <c r="DG8" s="112"/>
-      <c r="DH8" s="111"/>
-      <c r="DI8" s="111"/>
-      <c r="DJ8" s="111"/>
-      <c r="DK8" s="132"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="189"/>
+      <c r="K8" s="189"/>
+      <c r="L8" s="189"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="267"/>
+      <c r="O8" s="189"/>
+      <c r="P8" s="189"/>
+      <c r="Q8" s="110"/>
+      <c r="R8" s="110"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="110"/>
+      <c r="V8" s="110"/>
+      <c r="W8" s="110"/>
+      <c r="X8" s="110"/>
+      <c r="Y8" s="110"/>
+      <c r="Z8" s="111"/>
+      <c r="AA8" s="111"/>
+      <c r="AB8" s="110"/>
+      <c r="AC8" s="110"/>
+      <c r="AD8" s="110"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="111"/>
+      <c r="AH8" s="111"/>
+      <c r="AI8" s="110"/>
+      <c r="AJ8" s="110"/>
+      <c r="AK8" s="110"/>
+      <c r="AL8" s="113"/>
+      <c r="AM8" s="110"/>
+      <c r="AN8" s="161"/>
+      <c r="AO8" s="111"/>
+      <c r="AP8" s="110"/>
+      <c r="AQ8" s="110"/>
+      <c r="AR8" s="110"/>
+      <c r="AS8" s="110"/>
+      <c r="AT8" s="143"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="110"/>
+      <c r="AX8" s="110"/>
+      <c r="AY8" s="110"/>
+      <c r="AZ8" s="110"/>
+      <c r="BA8" s="143"/>
+      <c r="BB8" s="111"/>
+      <c r="BC8" s="111"/>
+      <c r="BD8" s="110"/>
+      <c r="BE8" s="110"/>
+      <c r="BF8" s="110"/>
+      <c r="BG8" s="110"/>
+      <c r="BH8" s="143"/>
+      <c r="BI8" s="111"/>
+      <c r="BJ8" s="111"/>
+      <c r="BK8" s="110"/>
+      <c r="BL8" s="110"/>
+      <c r="BM8" s="110"/>
+      <c r="BN8" s="110"/>
+      <c r="BO8" s="127"/>
+      <c r="BP8" s="111"/>
+      <c r="BQ8" s="111"/>
+      <c r="BR8" s="110"/>
+      <c r="BS8" s="110"/>
+      <c r="BT8" s="110"/>
+      <c r="BU8" s="110"/>
+      <c r="BV8" s="127"/>
+      <c r="BW8" s="111"/>
+      <c r="BX8" s="111"/>
+      <c r="BY8" s="110"/>
+      <c r="BZ8" s="110"/>
+      <c r="CA8" s="110"/>
+      <c r="CB8" s="110"/>
+      <c r="CC8" s="127"/>
+      <c r="CD8" s="111"/>
+      <c r="CE8" s="111"/>
+      <c r="CF8" s="110"/>
+      <c r="CG8" s="110"/>
+      <c r="CH8" s="110"/>
+      <c r="CI8" s="110"/>
+      <c r="CJ8" s="127"/>
+      <c r="CK8" s="111"/>
+      <c r="CL8" s="111"/>
+      <c r="CM8" s="110"/>
+      <c r="CN8" s="110"/>
+      <c r="CO8" s="110"/>
+      <c r="CP8" s="110"/>
+      <c r="CQ8" s="127"/>
+      <c r="CR8" s="111"/>
+      <c r="CS8" s="111"/>
+      <c r="CT8" s="110"/>
+      <c r="CU8" s="110"/>
+      <c r="CV8" s="110"/>
+      <c r="CW8" s="110"/>
+      <c r="CX8" s="127"/>
+      <c r="CY8" s="111"/>
+      <c r="CZ8" s="111"/>
+      <c r="DA8" s="110"/>
+      <c r="DB8" s="110"/>
+      <c r="DC8" s="110"/>
+      <c r="DD8" s="110"/>
+      <c r="DE8" s="127"/>
+      <c r="DF8" s="111"/>
+      <c r="DG8" s="111"/>
+      <c r="DH8" s="110"/>
+      <c r="DI8" s="110"/>
+      <c r="DJ8" s="110"/>
+      <c r="DK8" s="131"/>
     </row>
     <row r="9" spans="2:115" ht="50.1" customHeight="1">
-      <c r="C9" s="122"/>
-      <c r="D9" s="167" t="s">
+      <c r="C9" s="121"/>
+      <c r="D9" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="180"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
-      <c r="J9" s="190"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="190"/>
-      <c r="M9" s="190"/>
-      <c r="N9" s="268"/>
-      <c r="O9" s="190"/>
-      <c r="P9" s="190"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="112"/>
-      <c r="T9" s="112"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-      <c r="W9" s="111"/>
-      <c r="X9" s="111"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="112"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="111"/>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="112"/>
-      <c r="AH9" s="112"/>
-      <c r="AI9" s="111"/>
-      <c r="AJ9" s="111"/>
-      <c r="AK9" s="111"/>
-      <c r="AL9" s="114"/>
-      <c r="AM9" s="111"/>
-      <c r="AN9" s="162"/>
-      <c r="AO9" s="112"/>
-      <c r="AP9" s="111"/>
-      <c r="AQ9" s="111"/>
-      <c r="AR9" s="111"/>
-      <c r="AS9" s="111"/>
-      <c r="AT9" s="144"/>
-      <c r="AU9" s="112"/>
-      <c r="AV9" s="112"/>
-      <c r="AW9" s="111"/>
-      <c r="AX9" s="111"/>
-      <c r="AY9" s="111"/>
-      <c r="AZ9" s="111"/>
-      <c r="BA9" s="144"/>
-      <c r="BB9" s="112"/>
-      <c r="BC9" s="112"/>
-      <c r="BD9" s="111"/>
-      <c r="BE9" s="111"/>
-      <c r="BF9" s="111"/>
-      <c r="BG9" s="111"/>
-      <c r="BH9" s="144"/>
-      <c r="BI9" s="112"/>
-      <c r="BJ9" s="112"/>
-      <c r="BK9" s="111"/>
-      <c r="BL9" s="111"/>
-      <c r="BM9" s="111"/>
-      <c r="BN9" s="111"/>
-      <c r="BO9" s="128"/>
-      <c r="BP9" s="112"/>
-      <c r="BQ9" s="112"/>
-      <c r="BR9" s="111"/>
-      <c r="BS9" s="111"/>
-      <c r="BT9" s="111"/>
-      <c r="BU9" s="111"/>
-      <c r="BV9" s="128"/>
-      <c r="BW9" s="112"/>
-      <c r="BX9" s="112"/>
-      <c r="BY9" s="111"/>
-      <c r="BZ9" s="111"/>
-      <c r="CA9" s="111"/>
-      <c r="CB9" s="111"/>
-      <c r="CC9" s="128"/>
-      <c r="CD9" s="112"/>
-      <c r="CE9" s="112"/>
-      <c r="CF9" s="111"/>
-      <c r="CG9" s="111"/>
-      <c r="CH9" s="111"/>
-      <c r="CI9" s="111"/>
-      <c r="CJ9" s="128"/>
-      <c r="CK9" s="112"/>
-      <c r="CL9" s="112"/>
-      <c r="CM9" s="111"/>
-      <c r="CN9" s="111"/>
-      <c r="CO9" s="111"/>
-      <c r="CP9" s="111"/>
-      <c r="CQ9" s="128"/>
-      <c r="CR9" s="112"/>
-      <c r="CS9" s="112"/>
-      <c r="CT9" s="111"/>
-      <c r="CU9" s="111"/>
-      <c r="CV9" s="111"/>
-      <c r="CW9" s="111"/>
-      <c r="CX9" s="128"/>
-      <c r="CY9" s="112"/>
-      <c r="CZ9" s="112"/>
-      <c r="DA9" s="111"/>
-      <c r="DB9" s="111"/>
-      <c r="DC9" s="111"/>
-      <c r="DD9" s="111"/>
-      <c r="DE9" s="128"/>
-      <c r="DF9" s="112"/>
-      <c r="DG9" s="112"/>
-      <c r="DH9" s="111"/>
-      <c r="DI9" s="111"/>
-      <c r="DJ9" s="111"/>
-      <c r="DK9" s="132"/>
+      <c r="E9" s="179"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="267"/>
+      <c r="O9" s="189"/>
+      <c r="P9" s="189"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="110"/>
+      <c r="V9" s="110"/>
+      <c r="W9" s="110"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="111"/>
+      <c r="AA9" s="111"/>
+      <c r="AB9" s="110"/>
+      <c r="AC9" s="110"/>
+      <c r="AD9" s="110"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="111"/>
+      <c r="AH9" s="111"/>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="113"/>
+      <c r="AM9" s="110"/>
+      <c r="AN9" s="161"/>
+      <c r="AO9" s="111"/>
+      <c r="AP9" s="110"/>
+      <c r="AQ9" s="110"/>
+      <c r="AR9" s="110"/>
+      <c r="AS9" s="110"/>
+      <c r="AT9" s="143"/>
+      <c r="AU9" s="111"/>
+      <c r="AV9" s="111"/>
+      <c r="AW9" s="110"/>
+      <c r="AX9" s="110"/>
+      <c r="AY9" s="110"/>
+      <c r="AZ9" s="110"/>
+      <c r="BA9" s="143"/>
+      <c r="BB9" s="111"/>
+      <c r="BC9" s="111"/>
+      <c r="BD9" s="110"/>
+      <c r="BE9" s="110"/>
+      <c r="BF9" s="110"/>
+      <c r="BG9" s="110"/>
+      <c r="BH9" s="143"/>
+      <c r="BI9" s="111"/>
+      <c r="BJ9" s="111"/>
+      <c r="BK9" s="110"/>
+      <c r="BL9" s="110"/>
+      <c r="BM9" s="110"/>
+      <c r="BN9" s="110"/>
+      <c r="BO9" s="127"/>
+      <c r="BP9" s="111"/>
+      <c r="BQ9" s="111"/>
+      <c r="BR9" s="110"/>
+      <c r="BS9" s="110"/>
+      <c r="BT9" s="110"/>
+      <c r="BU9" s="110"/>
+      <c r="BV9" s="127"/>
+      <c r="BW9" s="111"/>
+      <c r="BX9" s="111"/>
+      <c r="BY9" s="110"/>
+      <c r="BZ9" s="110"/>
+      <c r="CA9" s="110"/>
+      <c r="CB9" s="110"/>
+      <c r="CC9" s="127"/>
+      <c r="CD9" s="111"/>
+      <c r="CE9" s="111"/>
+      <c r="CF9" s="110"/>
+      <c r="CG9" s="110"/>
+      <c r="CH9" s="110"/>
+      <c r="CI9" s="110"/>
+      <c r="CJ9" s="127"/>
+      <c r="CK9" s="111"/>
+      <c r="CL9" s="111"/>
+      <c r="CM9" s="110"/>
+      <c r="CN9" s="110"/>
+      <c r="CO9" s="110"/>
+      <c r="CP9" s="110"/>
+      <c r="CQ9" s="127"/>
+      <c r="CR9" s="111"/>
+      <c r="CS9" s="111"/>
+      <c r="CT9" s="110"/>
+      <c r="CU9" s="110"/>
+      <c r="CV9" s="110"/>
+      <c r="CW9" s="110"/>
+      <c r="CX9" s="127"/>
+      <c r="CY9" s="111"/>
+      <c r="CZ9" s="111"/>
+      <c r="DA9" s="110"/>
+      <c r="DB9" s="110"/>
+      <c r="DC9" s="110"/>
+      <c r="DD9" s="110"/>
+      <c r="DE9" s="127"/>
+      <c r="DF9" s="111"/>
+      <c r="DG9" s="111"/>
+      <c r="DH9" s="110"/>
+      <c r="DI9" s="110"/>
+      <c r="DJ9" s="110"/>
+      <c r="DK9" s="131"/>
     </row>
     <row r="10" spans="2:115" ht="50.1" customHeight="1">
-      <c r="C10" s="124"/>
-      <c r="D10" s="168" t="s">
+      <c r="C10" s="123"/>
+      <c r="D10" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="181"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="191"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
-      <c r="M10" s="189"/>
-      <c r="N10" s="269"/>
-      <c r="O10" s="189"/>
-      <c r="P10" s="189"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="188"/>
+      <c r="N10" s="268"/>
+      <c r="O10" s="188"/>
+      <c r="P10" s="188"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
       <c r="S10" s="19"/>
@@ -6294,333 +6361,333 @@
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
       <c r="AE10" s="18"/>
-      <c r="AF10" s="115"/>
+      <c r="AF10" s="114"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="18"/>
       <c r="AJ10" s="18"/>
       <c r="AK10" s="18"/>
-      <c r="AL10" s="115"/>
+      <c r="AL10" s="114"/>
       <c r="AM10" s="18"/>
-      <c r="AN10" s="163"/>
+      <c r="AN10" s="162"/>
       <c r="AO10" s="19"/>
       <c r="AP10" s="18"/>
       <c r="AQ10" s="18"/>
       <c r="AR10" s="18"/>
       <c r="AS10" s="18"/>
-      <c r="AT10" s="145"/>
+      <c r="AT10" s="144"/>
       <c r="AU10" s="19"/>
       <c r="AV10" s="19"/>
       <c r="AW10" s="18"/>
       <c r="AX10" s="18"/>
       <c r="AY10" s="18"/>
       <c r="AZ10" s="18"/>
-      <c r="BA10" s="145"/>
+      <c r="BA10" s="144"/>
       <c r="BB10" s="19"/>
       <c r="BC10" s="19"/>
       <c r="BD10" s="18"/>
       <c r="BE10" s="18"/>
       <c r="BF10" s="18"/>
       <c r="BG10" s="18"/>
-      <c r="BH10" s="145"/>
+      <c r="BH10" s="144"/>
       <c r="BI10" s="19"/>
       <c r="BJ10" s="19"/>
       <c r="BK10" s="18"/>
       <c r="BL10" s="18"/>
       <c r="BM10" s="18"/>
       <c r="BN10" s="18"/>
-      <c r="BO10" s="129"/>
+      <c r="BO10" s="128"/>
       <c r="BP10" s="19"/>
       <c r="BQ10" s="19"/>
       <c r="BR10" s="18"/>
       <c r="BS10" s="18"/>
       <c r="BT10" s="18"/>
       <c r="BU10" s="18"/>
-      <c r="BV10" s="129"/>
+      <c r="BV10" s="128"/>
       <c r="BW10" s="19"/>
       <c r="BX10" s="19"/>
       <c r="BY10" s="18"/>
       <c r="BZ10" s="18"/>
       <c r="CA10" s="18"/>
       <c r="CB10" s="18"/>
-      <c r="CC10" s="129"/>
+      <c r="CC10" s="128"/>
       <c r="CD10" s="19"/>
       <c r="CE10" s="19"/>
       <c r="CF10" s="18"/>
       <c r="CG10" s="18"/>
       <c r="CH10" s="18"/>
       <c r="CI10" s="18"/>
-      <c r="CJ10" s="129"/>
+      <c r="CJ10" s="128"/>
       <c r="CK10" s="19"/>
       <c r="CL10" s="19"/>
       <c r="CM10" s="18"/>
       <c r="CN10" s="18"/>
       <c r="CO10" s="18"/>
       <c r="CP10" s="18"/>
-      <c r="CQ10" s="129"/>
+      <c r="CQ10" s="128"/>
       <c r="CR10" s="19"/>
       <c r="CS10" s="19"/>
       <c r="CT10" s="18"/>
       <c r="CU10" s="18"/>
       <c r="CV10" s="18"/>
       <c r="CW10" s="18"/>
-      <c r="CX10" s="129"/>
+      <c r="CX10" s="128"/>
       <c r="CY10" s="19"/>
       <c r="CZ10" s="19"/>
       <c r="DA10" s="18"/>
       <c r="DB10" s="18"/>
       <c r="DC10" s="18"/>
       <c r="DD10" s="18"/>
-      <c r="DE10" s="129"/>
+      <c r="DE10" s="128"/>
       <c r="DF10" s="19"/>
       <c r="DG10" s="19"/>
       <c r="DH10" s="18"/>
       <c r="DI10" s="18"/>
       <c r="DJ10" s="18"/>
-      <c r="DK10" s="133"/>
+      <c r="DK10" s="132"/>
     </row>
     <row r="11" spans="2:115" ht="50.1" customHeight="1" thickBot="1">
-      <c r="C11" s="120"/>
-      <c r="D11" s="169" t="s">
+      <c r="C11" s="119"/>
+      <c r="D11" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="190"/>
-      <c r="L11" s="190"/>
-      <c r="M11" s="190"/>
-      <c r="N11" s="268"/>
-      <c r="O11" s="190"/>
-      <c r="P11" s="190"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-      <c r="W11" s="111"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112"/>
-      <c r="AB11" s="111"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="111"/>
-      <c r="AF11" s="114"/>
-      <c r="AG11" s="112"/>
-      <c r="AH11" s="112"/>
-      <c r="AI11" s="111"/>
-      <c r="AJ11" s="111"/>
-      <c r="AK11" s="111"/>
-      <c r="AL11" s="114"/>
-      <c r="AM11" s="111"/>
-      <c r="AN11" s="162"/>
-      <c r="AO11" s="112"/>
-      <c r="AP11" s="111"/>
-      <c r="AQ11" s="111"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="146"/>
-      <c r="AU11" s="112"/>
-      <c r="AV11" s="112"/>
-      <c r="AW11" s="111"/>
-      <c r="AX11" s="111"/>
-      <c r="AY11" s="111"/>
-      <c r="AZ11" s="111"/>
-      <c r="BA11" s="146"/>
-      <c r="BB11" s="112"/>
-      <c r="BC11" s="112"/>
-      <c r="BD11" s="111"/>
-      <c r="BE11" s="111"/>
-      <c r="BF11" s="111"/>
-      <c r="BG11" s="111"/>
-      <c r="BH11" s="146"/>
-      <c r="BI11" s="112"/>
-      <c r="BJ11" s="112"/>
-      <c r="BK11" s="111"/>
-      <c r="BL11" s="111"/>
-      <c r="BM11" s="111"/>
-      <c r="BN11" s="111"/>
-      <c r="BO11" s="130"/>
-      <c r="BP11" s="112"/>
-      <c r="BQ11" s="112"/>
-      <c r="BR11" s="111"/>
-      <c r="BS11" s="111"/>
-      <c r="BT11" s="111"/>
-      <c r="BU11" s="111"/>
-      <c r="BV11" s="130"/>
-      <c r="BW11" s="112"/>
-      <c r="BX11" s="112"/>
-      <c r="BY11" s="111"/>
-      <c r="BZ11" s="111"/>
-      <c r="CA11" s="111"/>
-      <c r="CB11" s="111"/>
-      <c r="CC11" s="130"/>
-      <c r="CD11" s="112"/>
-      <c r="CE11" s="112"/>
-      <c r="CF11" s="111"/>
-      <c r="CG11" s="111"/>
-      <c r="CH11" s="111"/>
-      <c r="CI11" s="111"/>
-      <c r="CJ11" s="130"/>
-      <c r="CK11" s="112"/>
-      <c r="CL11" s="112"/>
-      <c r="CM11" s="111"/>
-      <c r="CN11" s="111"/>
-      <c r="CO11" s="111"/>
-      <c r="CP11" s="111"/>
-      <c r="CQ11" s="130"/>
-      <c r="CR11" s="112"/>
-      <c r="CS11" s="112"/>
-      <c r="CT11" s="111"/>
-      <c r="CU11" s="111"/>
-      <c r="CV11" s="111"/>
-      <c r="CW11" s="111"/>
-      <c r="CX11" s="130"/>
-      <c r="CY11" s="112"/>
-      <c r="CZ11" s="112"/>
-      <c r="DA11" s="111"/>
-      <c r="DB11" s="111"/>
-      <c r="DC11" s="111"/>
-      <c r="DD11" s="111"/>
-      <c r="DE11" s="130"/>
-      <c r="DF11" s="112"/>
-      <c r="DG11" s="112"/>
-      <c r="DH11" s="111"/>
-      <c r="DI11" s="111"/>
-      <c r="DJ11" s="111"/>
-      <c r="DK11" s="134"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="191"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="189"/>
+      <c r="N11" s="267"/>
+      <c r="O11" s="189"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="110"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="110"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="111"/>
+      <c r="AA11" s="111"/>
+      <c r="AB11" s="110"/>
+      <c r="AC11" s="110"/>
+      <c r="AD11" s="110"/>
+      <c r="AE11" s="110"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="111"/>
+      <c r="AH11" s="111"/>
+      <c r="AI11" s="110"/>
+      <c r="AJ11" s="110"/>
+      <c r="AK11" s="110"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="110"/>
+      <c r="AN11" s="161"/>
+      <c r="AO11" s="111"/>
+      <c r="AP11" s="110"/>
+      <c r="AQ11" s="110"/>
+      <c r="AR11" s="110"/>
+      <c r="AS11" s="110"/>
+      <c r="AT11" s="145"/>
+      <c r="AU11" s="111"/>
+      <c r="AV11" s="111"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="110"/>
+      <c r="AZ11" s="110"/>
+      <c r="BA11" s="145"/>
+      <c r="BB11" s="111"/>
+      <c r="BC11" s="111"/>
+      <c r="BD11" s="110"/>
+      <c r="BE11" s="110"/>
+      <c r="BF11" s="110"/>
+      <c r="BG11" s="110"/>
+      <c r="BH11" s="145"/>
+      <c r="BI11" s="111"/>
+      <c r="BJ11" s="111"/>
+      <c r="BK11" s="110"/>
+      <c r="BL11" s="110"/>
+      <c r="BM11" s="110"/>
+      <c r="BN11" s="110"/>
+      <c r="BO11" s="129"/>
+      <c r="BP11" s="111"/>
+      <c r="BQ11" s="111"/>
+      <c r="BR11" s="110"/>
+      <c r="BS11" s="110"/>
+      <c r="BT11" s="110"/>
+      <c r="BU11" s="110"/>
+      <c r="BV11" s="129"/>
+      <c r="BW11" s="111"/>
+      <c r="BX11" s="111"/>
+      <c r="BY11" s="110"/>
+      <c r="BZ11" s="110"/>
+      <c r="CA11" s="110"/>
+      <c r="CB11" s="110"/>
+      <c r="CC11" s="129"/>
+      <c r="CD11" s="111"/>
+      <c r="CE11" s="111"/>
+      <c r="CF11" s="110"/>
+      <c r="CG11" s="110"/>
+      <c r="CH11" s="110"/>
+      <c r="CI11" s="110"/>
+      <c r="CJ11" s="129"/>
+      <c r="CK11" s="111"/>
+      <c r="CL11" s="111"/>
+      <c r="CM11" s="110"/>
+      <c r="CN11" s="110"/>
+      <c r="CO11" s="110"/>
+      <c r="CP11" s="110"/>
+      <c r="CQ11" s="129"/>
+      <c r="CR11" s="111"/>
+      <c r="CS11" s="111"/>
+      <c r="CT11" s="110"/>
+      <c r="CU11" s="110"/>
+      <c r="CV11" s="110"/>
+      <c r="CW11" s="110"/>
+      <c r="CX11" s="129"/>
+      <c r="CY11" s="111"/>
+      <c r="CZ11" s="111"/>
+      <c r="DA11" s="110"/>
+      <c r="DB11" s="110"/>
+      <c r="DC11" s="110"/>
+      <c r="DD11" s="110"/>
+      <c r="DE11" s="129"/>
+      <c r="DF11" s="111"/>
+      <c r="DG11" s="111"/>
+      <c r="DH11" s="110"/>
+      <c r="DI11" s="110"/>
+      <c r="DJ11" s="110"/>
+      <c r="DK11" s="133"/>
     </row>
     <row r="12" spans="2:115" ht="50.1" customHeight="1" thickBot="1">
-      <c r="C12" s="140"/>
-      <c r="D12" s="170" t="s">
+      <c r="C12" s="139"/>
+      <c r="D12" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="183"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="194"/>
-      <c r="K12" s="193"/>
-      <c r="L12" s="193"/>
-      <c r="M12" s="193"/>
-      <c r="N12" s="270"/>
-      <c r="O12" s="193"/>
-      <c r="P12" s="193"/>
-      <c r="Q12" s="135"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="136"/>
-      <c r="U12" s="135"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="136"/>
-      <c r="AA12" s="136"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="135"/>
-      <c r="AF12" s="137"/>
-      <c r="AG12" s="136"/>
-      <c r="AH12" s="136"/>
-      <c r="AI12" s="135"/>
-      <c r="AJ12" s="135"/>
-      <c r="AK12" s="135"/>
-      <c r="AL12" s="137"/>
-      <c r="AM12" s="135"/>
-      <c r="AN12" s="164"/>
-      <c r="AO12" s="136"/>
-      <c r="AP12" s="135"/>
-      <c r="AQ12" s="135"/>
-      <c r="AR12" s="135"/>
-      <c r="AS12" s="135"/>
-      <c r="AT12" s="158"/>
-      <c r="AU12" s="136"/>
-      <c r="AV12" s="136"/>
-      <c r="AW12" s="135"/>
-      <c r="AX12" s="135"/>
-      <c r="AY12" s="135"/>
-      <c r="AZ12" s="135"/>
-      <c r="BA12" s="158"/>
-      <c r="BB12" s="136"/>
-      <c r="BC12" s="136"/>
-      <c r="BD12" s="135"/>
-      <c r="BE12" s="135"/>
-      <c r="BF12" s="135"/>
-      <c r="BG12" s="135"/>
-      <c r="BH12" s="158"/>
-      <c r="BI12" s="136"/>
-      <c r="BJ12" s="136"/>
-      <c r="BK12" s="135"/>
-      <c r="BL12" s="135"/>
-      <c r="BM12" s="135"/>
-      <c r="BN12" s="135"/>
-      <c r="BO12" s="138"/>
-      <c r="BP12" s="136"/>
-      <c r="BQ12" s="136"/>
-      <c r="BR12" s="135"/>
-      <c r="BS12" s="135"/>
-      <c r="BT12" s="135"/>
-      <c r="BU12" s="135"/>
-      <c r="BV12" s="138"/>
-      <c r="BW12" s="136"/>
-      <c r="BX12" s="136"/>
-      <c r="BY12" s="135"/>
-      <c r="BZ12" s="135"/>
-      <c r="CA12" s="135"/>
-      <c r="CB12" s="135"/>
-      <c r="CC12" s="138"/>
-      <c r="CD12" s="136"/>
-      <c r="CE12" s="136"/>
-      <c r="CF12" s="135"/>
-      <c r="CG12" s="135"/>
-      <c r="CH12" s="135"/>
-      <c r="CI12" s="135"/>
-      <c r="CJ12" s="138"/>
-      <c r="CK12" s="136"/>
-      <c r="CL12" s="136"/>
-      <c r="CM12" s="135"/>
-      <c r="CN12" s="135"/>
-      <c r="CO12" s="135"/>
-      <c r="CP12" s="135"/>
-      <c r="CQ12" s="138"/>
-      <c r="CR12" s="136"/>
-      <c r="CS12" s="136"/>
-      <c r="CT12" s="135"/>
-      <c r="CU12" s="135"/>
-      <c r="CV12" s="135"/>
-      <c r="CW12" s="135"/>
-      <c r="CX12" s="138"/>
-      <c r="CY12" s="136"/>
-      <c r="CZ12" s="136"/>
-      <c r="DA12" s="135"/>
-      <c r="DB12" s="135"/>
-      <c r="DC12" s="135"/>
-      <c r="DD12" s="135"/>
-      <c r="DE12" s="138"/>
-      <c r="DF12" s="136"/>
-      <c r="DG12" s="136"/>
-      <c r="DH12" s="135"/>
-      <c r="DI12" s="135"/>
-      <c r="DJ12" s="135"/>
-      <c r="DK12" s="139"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="192"/>
+      <c r="N12" s="269"/>
+      <c r="O12" s="192"/>
+      <c r="P12" s="192"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="134"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="134"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="134"/>
+      <c r="X12" s="134"/>
+      <c r="Y12" s="134"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="134"/>
+      <c r="AC12" s="134"/>
+      <c r="AD12" s="134"/>
+      <c r="AE12" s="134"/>
+      <c r="AF12" s="136"/>
+      <c r="AG12" s="135"/>
+      <c r="AH12" s="135"/>
+      <c r="AI12" s="134"/>
+      <c r="AJ12" s="134"/>
+      <c r="AK12" s="134"/>
+      <c r="AL12" s="136"/>
+      <c r="AM12" s="134"/>
+      <c r="AN12" s="163"/>
+      <c r="AO12" s="135"/>
+      <c r="AP12" s="134"/>
+      <c r="AQ12" s="134"/>
+      <c r="AR12" s="134"/>
+      <c r="AS12" s="134"/>
+      <c r="AT12" s="157"/>
+      <c r="AU12" s="135"/>
+      <c r="AV12" s="135"/>
+      <c r="AW12" s="134"/>
+      <c r="AX12" s="134"/>
+      <c r="AY12" s="134"/>
+      <c r="AZ12" s="134"/>
+      <c r="BA12" s="157"/>
+      <c r="BB12" s="135"/>
+      <c r="BC12" s="135"/>
+      <c r="BD12" s="134"/>
+      <c r="BE12" s="134"/>
+      <c r="BF12" s="134"/>
+      <c r="BG12" s="134"/>
+      <c r="BH12" s="157"/>
+      <c r="BI12" s="135"/>
+      <c r="BJ12" s="135"/>
+      <c r="BK12" s="134"/>
+      <c r="BL12" s="134"/>
+      <c r="BM12" s="134"/>
+      <c r="BN12" s="134"/>
+      <c r="BO12" s="137"/>
+      <c r="BP12" s="135"/>
+      <c r="BQ12" s="135"/>
+      <c r="BR12" s="134"/>
+      <c r="BS12" s="134"/>
+      <c r="BT12" s="134"/>
+      <c r="BU12" s="134"/>
+      <c r="BV12" s="137"/>
+      <c r="BW12" s="135"/>
+      <c r="BX12" s="135"/>
+      <c r="BY12" s="134"/>
+      <c r="BZ12" s="134"/>
+      <c r="CA12" s="134"/>
+      <c r="CB12" s="134"/>
+      <c r="CC12" s="137"/>
+      <c r="CD12" s="135"/>
+      <c r="CE12" s="135"/>
+      <c r="CF12" s="134"/>
+      <c r="CG12" s="134"/>
+      <c r="CH12" s="134"/>
+      <c r="CI12" s="134"/>
+      <c r="CJ12" s="137"/>
+      <c r="CK12" s="135"/>
+      <c r="CL12" s="135"/>
+      <c r="CM12" s="134"/>
+      <c r="CN12" s="134"/>
+      <c r="CO12" s="134"/>
+      <c r="CP12" s="134"/>
+      <c r="CQ12" s="137"/>
+      <c r="CR12" s="135"/>
+      <c r="CS12" s="135"/>
+      <c r="CT12" s="134"/>
+      <c r="CU12" s="134"/>
+      <c r="CV12" s="134"/>
+      <c r="CW12" s="134"/>
+      <c r="CX12" s="137"/>
+      <c r="CY12" s="135"/>
+      <c r="CZ12" s="135"/>
+      <c r="DA12" s="134"/>
+      <c r="DB12" s="134"/>
+      <c r="DC12" s="134"/>
+      <c r="DD12" s="134"/>
+      <c r="DE12" s="137"/>
+      <c r="DF12" s="135"/>
+      <c r="DG12" s="135"/>
+      <c r="DH12" s="134"/>
+      <c r="DI12" s="134"/>
+      <c r="DJ12" s="134"/>
+      <c r="DK12" s="138"/>
     </row>
     <row r="13" spans="2:115" ht="17.25" thickTop="1"/>
     <row r="15" spans="2:115" ht="26.25">
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="108" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:115" ht="18" thickBot="1">
-      <c r="G16" s="186" t="s">
+      <c r="G16" s="185" t="s">
         <v>24</v>
       </c>
       <c r="X16" s="92" t="s">
@@ -6643,40 +6710,40 @@
       <c r="D17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="184" t="s">
+      <c r="E17" s="183" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="195">
+      <c r="G17" s="194">
         <v>14</v>
       </c>
-      <c r="H17" s="196">
+      <c r="H17" s="195">
         <v>15</v>
       </c>
-      <c r="I17" s="196">
+      <c r="I17" s="195">
         <v>16</v>
       </c>
-      <c r="J17" s="196">
+      <c r="J17" s="195">
         <v>17</v>
       </c>
-      <c r="K17" s="196">
+      <c r="K17" s="195">
         <v>18</v>
       </c>
-      <c r="L17" s="196">
+      <c r="L17" s="195">
         <v>19</v>
       </c>
-      <c r="M17" s="196">
+      <c r="M17" s="195">
         <v>20</v>
       </c>
-      <c r="N17" s="196">
+      <c r="N17" s="195">
         <v>21</v>
       </c>
-      <c r="O17" s="196">
+      <c r="O17" s="195">
         <v>22</v>
       </c>
-      <c r="P17" s="196">
+      <c r="P17" s="195">
         <v>23</v>
       </c>
       <c r="Q17" s="31">
@@ -6766,7 +6833,7 @@
       <c r="AS17" s="31">
         <v>22</v>
       </c>
-      <c r="AT17" s="160">
+      <c r="AT17" s="159">
         <v>23</v>
       </c>
       <c r="AU17" s="31">
@@ -6787,7 +6854,7 @@
       <c r="AZ17" s="31">
         <v>29</v>
       </c>
-      <c r="BA17" s="160">
+      <c r="BA17" s="159">
         <v>30</v>
       </c>
       <c r="BB17" s="31">
@@ -6808,7 +6875,7 @@
       <c r="BG17" s="31">
         <v>5</v>
       </c>
-      <c r="BH17" s="160">
+      <c r="BH17" s="159">
         <v>30</v>
       </c>
       <c r="BI17" s="31">
@@ -6970,39 +7037,39 @@
       <c r="DI17" s="31">
         <v>28</v>
       </c>
-      <c r="DJ17" s="173">
+      <c r="DJ17" s="172">
         <v>29</v>
       </c>
-      <c r="DK17" s="174">
+      <c r="DK17" s="173">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="280" t="s">
+      <c r="B18" s="279" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="251" t="s">
+      <c r="C18" s="250" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="252" t="s">
+      <c r="D18" s="251" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="253" t="s">
+      <c r="E18" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="254">
+      <c r="F18" s="253">
         <v>40344</v>
       </c>
-      <c r="G18" s="197"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="271"/>
-      <c r="O18" s="200"/>
-      <c r="P18" s="200"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="197"/>
+      <c r="I18" s="198"/>
+      <c r="J18" s="199"/>
+      <c r="K18" s="199"/>
+      <c r="L18" s="200"/>
+      <c r="M18" s="200"/>
+      <c r="N18" s="270"/>
+      <c r="O18" s="199"/>
+      <c r="P18" s="199"/>
       <c r="Q18" s="37"/>
       <c r="R18" s="37"/>
       <c r="S18" s="68"/>
@@ -7032,21 +7099,21 @@
       <c r="AQ18" s="37"/>
       <c r="AR18" s="37"/>
       <c r="AS18" s="37"/>
-      <c r="AT18" s="147"/>
+      <c r="AT18" s="146"/>
       <c r="AU18" s="68"/>
       <c r="AV18" s="68"/>
       <c r="AW18" s="37"/>
       <c r="AX18" s="37"/>
       <c r="AY18" s="37"/>
       <c r="AZ18" s="37"/>
-      <c r="BA18" s="147"/>
+      <c r="BA18" s="146"/>
       <c r="BB18" s="68"/>
       <c r="BC18" s="68"/>
       <c r="BD18" s="37"/>
       <c r="BE18" s="37"/>
       <c r="BF18" s="37"/>
       <c r="BG18" s="37"/>
-      <c r="BH18" s="147"/>
+      <c r="BH18" s="146"/>
       <c r="BI18" s="68"/>
       <c r="BJ18" s="68"/>
       <c r="BK18" s="37"/>
@@ -7104,29 +7171,29 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="280"/>
-      <c r="C19" s="258" t="s">
+      <c r="B19" s="279"/>
+      <c r="C19" s="257" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="259" t="s">
+      <c r="D19" s="258" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="260" t="s">
+      <c r="E19" s="259" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="261">
+      <c r="F19" s="260">
         <v>40350</v>
       </c>
-      <c r="G19" s="202"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="203"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="205"/>
-      <c r="L19" s="206"/>
-      <c r="M19" s="207"/>
-      <c r="N19" s="272"/>
-      <c r="O19" s="202"/>
-      <c r="P19" s="203"/>
+      <c r="G19" s="201"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="203"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="205"/>
+      <c r="M19" s="206"/>
+      <c r="N19" s="271"/>
+      <c r="O19" s="201"/>
+      <c r="P19" s="202"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="32"/>
       <c r="S19" s="69"/>
@@ -7156,21 +7223,21 @@
       <c r="AQ19" s="32"/>
       <c r="AR19" s="32"/>
       <c r="AS19" s="32"/>
-      <c r="AT19" s="148"/>
+      <c r="AT19" s="147"/>
       <c r="AU19" s="69"/>
       <c r="AV19" s="69"/>
       <c r="AW19" s="32"/>
       <c r="AX19" s="32"/>
       <c r="AY19" s="32"/>
       <c r="AZ19" s="32"/>
-      <c r="BA19" s="148"/>
+      <c r="BA19" s="147"/>
       <c r="BB19" s="69"/>
       <c r="BC19" s="69"/>
       <c r="BD19" s="32"/>
       <c r="BE19" s="32"/>
       <c r="BF19" s="32"/>
       <c r="BG19" s="32"/>
-      <c r="BH19" s="148"/>
+      <c r="BH19" s="147"/>
       <c r="BI19" s="69"/>
       <c r="BJ19" s="69"/>
       <c r="BK19" s="32"/>
@@ -7228,31 +7295,31 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="279" t="s">
+      <c r="B20" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="282" t="s">
+      <c r="C20" s="296" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="262" t="s">
+      <c r="D20" s="261" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="263" t="s">
+      <c r="E20" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="264">
+      <c r="F20" s="263">
         <v>40350</v>
       </c>
-      <c r="G20" s="208"/>
-      <c r="H20" s="209"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="211"/>
-      <c r="K20" s="212"/>
-      <c r="L20" s="213"/>
-      <c r="M20" s="214"/>
-      <c r="N20" s="273"/>
-      <c r="O20" s="208"/>
-      <c r="P20" s="209"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="210"/>
+      <c r="K20" s="211"/>
+      <c r="L20" s="212"/>
+      <c r="M20" s="213"/>
+      <c r="N20" s="272"/>
+      <c r="O20" s="207"/>
+      <c r="P20" s="208"/>
       <c r="Q20" s="42"/>
       <c r="R20" s="42"/>
       <c r="S20" s="70"/>
@@ -7282,21 +7349,21 @@
       <c r="AQ20" s="42"/>
       <c r="AR20" s="42"/>
       <c r="AS20" s="42"/>
-      <c r="AT20" s="149"/>
+      <c r="AT20" s="148"/>
       <c r="AU20" s="70"/>
       <c r="AV20" s="70"/>
       <c r="AW20" s="42"/>
       <c r="AX20" s="42"/>
       <c r="AY20" s="42"/>
       <c r="AZ20" s="42"/>
-      <c r="BA20" s="149"/>
+      <c r="BA20" s="148"/>
       <c r="BB20" s="70"/>
       <c r="BC20" s="70"/>
       <c r="BD20" s="42"/>
       <c r="BE20" s="42"/>
       <c r="BF20" s="42"/>
       <c r="BG20" s="42"/>
-      <c r="BH20" s="149"/>
+      <c r="BH20" s="148"/>
       <c r="BI20" s="70"/>
       <c r="BJ20" s="70"/>
       <c r="BK20" s="42"/>
@@ -7354,27 +7421,27 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="280"/>
-      <c r="C21" s="283"/>
-      <c r="D21" s="262" t="s">
+      <c r="B21" s="279"/>
+      <c r="C21" s="297"/>
+      <c r="D21" s="261" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="265" t="s">
+      <c r="E21" s="264" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="264">
+      <c r="F21" s="263">
         <v>40350</v>
       </c>
-      <c r="G21" s="215"/>
-      <c r="H21" s="216"/>
-      <c r="I21" s="217"/>
-      <c r="J21" s="218"/>
-      <c r="K21" s="219"/>
-      <c r="L21" s="220"/>
-      <c r="M21" s="221"/>
-      <c r="N21" s="219"/>
-      <c r="O21" s="215"/>
-      <c r="P21" s="216"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="216"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="218"/>
+      <c r="L21" s="219"/>
+      <c r="M21" s="220"/>
+      <c r="N21" s="218"/>
+      <c r="O21" s="214"/>
+      <c r="P21" s="215"/>
       <c r="Q21" s="48"/>
       <c r="R21" s="48"/>
       <c r="S21" s="71"/>
@@ -7404,21 +7471,21 @@
       <c r="AQ21" s="48"/>
       <c r="AR21" s="48"/>
       <c r="AS21" s="48"/>
-      <c r="AT21" s="150"/>
+      <c r="AT21" s="149"/>
       <c r="AU21" s="71"/>
       <c r="AV21" s="71"/>
       <c r="AW21" s="48"/>
       <c r="AX21" s="48"/>
       <c r="AY21" s="48"/>
       <c r="AZ21" s="48"/>
-      <c r="BA21" s="150"/>
+      <c r="BA21" s="149"/>
       <c r="BB21" s="71"/>
       <c r="BC21" s="71"/>
       <c r="BD21" s="48"/>
       <c r="BE21" s="48"/>
       <c r="BF21" s="48"/>
       <c r="BG21" s="48"/>
-      <c r="BH21" s="150"/>
+      <c r="BH21" s="149"/>
       <c r="BI21" s="71"/>
       <c r="BJ21" s="71"/>
       <c r="BK21" s="48"/>
@@ -7476,27 +7543,27 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="280"/>
-      <c r="C22" s="283"/>
-      <c r="D22" s="262" t="s">
+      <c r="B22" s="279"/>
+      <c r="C22" s="297"/>
+      <c r="D22" s="261" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="265" t="s">
+      <c r="E22" s="264" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="264">
+      <c r="F22" s="263">
         <v>40350</v>
       </c>
-      <c r="G22" s="215"/>
-      <c r="H22" s="216"/>
-      <c r="I22" s="217"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="220"/>
-      <c r="M22" s="221"/>
-      <c r="N22" s="205"/>
-      <c r="O22" s="215"/>
-      <c r="P22" s="216"/>
+      <c r="G22" s="214"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="204"/>
+      <c r="K22" s="204"/>
+      <c r="L22" s="219"/>
+      <c r="M22" s="220"/>
+      <c r="N22" s="204"/>
+      <c r="O22" s="214"/>
+      <c r="P22" s="215"/>
       <c r="Q22" s="48"/>
       <c r="R22" s="48"/>
       <c r="S22" s="71"/>
@@ -7526,21 +7593,21 @@
       <c r="AQ22" s="48"/>
       <c r="AR22" s="48"/>
       <c r="AS22" s="48"/>
-      <c r="AT22" s="150"/>
+      <c r="AT22" s="149"/>
       <c r="AU22" s="71"/>
       <c r="AV22" s="71"/>
       <c r="AW22" s="48"/>
       <c r="AX22" s="48"/>
       <c r="AY22" s="48"/>
       <c r="AZ22" s="48"/>
-      <c r="BA22" s="150"/>
+      <c r="BA22" s="149"/>
       <c r="BB22" s="71"/>
       <c r="BC22" s="71"/>
       <c r="BD22" s="48"/>
       <c r="BE22" s="48"/>
       <c r="BF22" s="48"/>
       <c r="BG22" s="48"/>
-      <c r="BH22" s="150"/>
+      <c r="BH22" s="149"/>
       <c r="BI22" s="71"/>
       <c r="BJ22" s="71"/>
       <c r="BK22" s="48"/>
@@ -7598,27 +7665,27 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="280"/>
-      <c r="C23" s="284"/>
-      <c r="D23" s="262" t="s">
+      <c r="B23" s="279"/>
+      <c r="C23" s="298"/>
+      <c r="D23" s="261" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="265" t="s">
+      <c r="E23" s="264" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="266">
+      <c r="F23" s="265">
         <v>40350</v>
       </c>
-      <c r="G23" s="215"/>
-      <c r="H23" s="216"/>
-      <c r="I23" s="217"/>
-      <c r="J23" s="222"/>
-      <c r="K23" s="223"/>
-      <c r="L23" s="224"/>
-      <c r="M23" s="225"/>
-      <c r="N23" s="223"/>
-      <c r="O23" s="215"/>
-      <c r="P23" s="216"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="221"/>
+      <c r="K23" s="222"/>
+      <c r="L23" s="223"/>
+      <c r="M23" s="224"/>
+      <c r="N23" s="222"/>
+      <c r="O23" s="214"/>
+      <c r="P23" s="215"/>
       <c r="Q23" s="48"/>
       <c r="R23" s="48"/>
       <c r="S23" s="71"/>
@@ -7648,21 +7715,21 @@
       <c r="AQ23" s="48"/>
       <c r="AR23" s="48"/>
       <c r="AS23" s="48"/>
-      <c r="AT23" s="150"/>
+      <c r="AT23" s="149"/>
       <c r="AU23" s="71"/>
       <c r="AV23" s="71"/>
       <c r="AW23" s="48"/>
       <c r="AX23" s="48"/>
       <c r="AY23" s="48"/>
       <c r="AZ23" s="48"/>
-      <c r="BA23" s="150"/>
+      <c r="BA23" s="149"/>
       <c r="BB23" s="71"/>
       <c r="BC23" s="71"/>
       <c r="BD23" s="48"/>
       <c r="BE23" s="48"/>
       <c r="BF23" s="48"/>
       <c r="BG23" s="48"/>
-      <c r="BH23" s="150"/>
+      <c r="BH23" s="149"/>
       <c r="BI23" s="71"/>
       <c r="BJ23" s="71"/>
       <c r="BK23" s="48"/>
@@ -7720,8 +7787,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="280"/>
-      <c r="C24" s="285" t="s">
+      <c r="B24" s="279"/>
+      <c r="C24" s="299" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7730,19 +7797,19 @@
       <c r="E24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="175">
+      <c r="F24" s="174">
         <v>40352</v>
       </c>
-      <c r="G24" s="226"/>
-      <c r="H24" s="227"/>
-      <c r="I24" s="227"/>
-      <c r="J24" s="228"/>
-      <c r="K24" s="227"/>
-      <c r="L24" s="229"/>
-      <c r="M24" s="229"/>
-      <c r="N24" s="217"/>
-      <c r="O24" s="205"/>
-      <c r="P24" s="205"/>
+      <c r="G24" s="225"/>
+      <c r="H24" s="226"/>
+      <c r="I24" s="226"/>
+      <c r="J24" s="227"/>
+      <c r="K24" s="226"/>
+      <c r="L24" s="228"/>
+      <c r="M24" s="228"/>
+      <c r="N24" s="216"/>
+      <c r="O24" s="204"/>
+      <c r="P24" s="204"/>
       <c r="Q24" s="62"/>
       <c r="R24" s="62"/>
       <c r="S24" s="72"/>
@@ -7772,21 +7839,21 @@
       <c r="AQ24" s="62"/>
       <c r="AR24" s="62"/>
       <c r="AS24" s="62"/>
-      <c r="AT24" s="151"/>
+      <c r="AT24" s="150"/>
       <c r="AU24" s="72"/>
       <c r="AV24" s="72"/>
       <c r="AW24" s="62"/>
       <c r="AX24" s="62"/>
       <c r="AY24" s="62"/>
       <c r="AZ24" s="62"/>
-      <c r="BA24" s="151"/>
+      <c r="BA24" s="150"/>
       <c r="BB24" s="72"/>
       <c r="BC24" s="72"/>
       <c r="BD24" s="62"/>
       <c r="BE24" s="62"/>
       <c r="BF24" s="62"/>
       <c r="BG24" s="62"/>
-      <c r="BH24" s="151"/>
+      <c r="BH24" s="150"/>
       <c r="BI24" s="72"/>
       <c r="BJ24" s="72"/>
       <c r="BK24" s="62"/>
@@ -7844,27 +7911,27 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="280"/>
-      <c r="C25" s="285"/>
+      <c r="B25" s="279"/>
+      <c r="C25" s="299"/>
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="175">
+      <c r="F25" s="174">
         <v>40352</v>
       </c>
-      <c r="G25" s="215"/>
-      <c r="H25" s="216"/>
-      <c r="I25" s="216"/>
-      <c r="J25" s="216"/>
-      <c r="K25" s="216"/>
-      <c r="L25" s="230"/>
-      <c r="M25" s="230"/>
-      <c r="N25" s="216"/>
-      <c r="O25" s="205"/>
-      <c r="P25" s="205"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="215"/>
+      <c r="J25" s="215"/>
+      <c r="K25" s="215"/>
+      <c r="L25" s="229"/>
+      <c r="M25" s="229"/>
+      <c r="N25" s="215"/>
+      <c r="O25" s="204"/>
+      <c r="P25" s="204"/>
       <c r="Q25" s="48"/>
       <c r="R25" s="48"/>
       <c r="S25" s="71"/>
@@ -7894,21 +7961,21 @@
       <c r="AQ25" s="48"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
-      <c r="AT25" s="150"/>
+      <c r="AT25" s="149"/>
       <c r="AU25" s="71"/>
       <c r="AV25" s="71"/>
       <c r="AW25" s="48"/>
       <c r="AX25" s="48"/>
       <c r="AY25" s="48"/>
       <c r="AZ25" s="48"/>
-      <c r="BA25" s="150"/>
+      <c r="BA25" s="149"/>
       <c r="BB25" s="71"/>
       <c r="BC25" s="71"/>
       <c r="BD25" s="48"/>
       <c r="BE25" s="48"/>
       <c r="BF25" s="48"/>
       <c r="BG25" s="48"/>
-      <c r="BH25" s="150"/>
+      <c r="BH25" s="149"/>
       <c r="BI25" s="71"/>
       <c r="BJ25" s="71"/>
       <c r="BK25" s="48"/>
@@ -7966,27 +8033,27 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="280"/>
-      <c r="C26" s="285"/>
+      <c r="B26" s="279"/>
+      <c r="C26" s="299"/>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="175">
+      <c r="F26" s="174">
         <v>40352</v>
       </c>
-      <c r="G26" s="215"/>
-      <c r="H26" s="216"/>
-      <c r="I26" s="216"/>
-      <c r="J26" s="216"/>
-      <c r="K26" s="216"/>
-      <c r="L26" s="230"/>
-      <c r="M26" s="230"/>
-      <c r="N26" s="216"/>
-      <c r="O26" s="205"/>
-      <c r="P26" s="205"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="229"/>
+      <c r="M26" s="229"/>
+      <c r="N26" s="215"/>
+      <c r="O26" s="204"/>
+      <c r="P26" s="204"/>
       <c r="Q26" s="48"/>
       <c r="R26" s="48"/>
       <c r="S26" s="71"/>
@@ -8016,21 +8083,21 @@
       <c r="AQ26" s="48"/>
       <c r="AR26" s="48"/>
       <c r="AS26" s="48"/>
-      <c r="AT26" s="150"/>
+      <c r="AT26" s="149"/>
       <c r="AU26" s="71"/>
       <c r="AV26" s="71"/>
       <c r="AW26" s="48"/>
       <c r="AX26" s="48"/>
       <c r="AY26" s="48"/>
       <c r="AZ26" s="48"/>
-      <c r="BA26" s="150"/>
+      <c r="BA26" s="149"/>
       <c r="BB26" s="71"/>
       <c r="BC26" s="71"/>
       <c r="BD26" s="48"/>
       <c r="BE26" s="48"/>
       <c r="BF26" s="48"/>
       <c r="BG26" s="48"/>
-      <c r="BH26" s="150"/>
+      <c r="BH26" s="149"/>
       <c r="BI26" s="71"/>
       <c r="BJ26" s="71"/>
       <c r="BK26" s="48"/>
@@ -8088,29 +8155,29 @@
       <c r="DK26" s="52"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="280"/>
-      <c r="C27" s="285"/>
+      <c r="B27" s="279"/>
+      <c r="C27" s="299"/>
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="175">
+      <c r="F27" s="174">
         <v>40353</v>
       </c>
-      <c r="G27" s="215"/>
-      <c r="H27" s="216"/>
-      <c r="I27" s="216"/>
-      <c r="J27" s="216"/>
-      <c r="K27" s="216"/>
-      <c r="L27" s="230"/>
-      <c r="M27" s="230"/>
-      <c r="N27" s="216"/>
-      <c r="O27" s="216"/>
-      <c r="P27" s="216"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="126"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="215"/>
+      <c r="J27" s="215"/>
+      <c r="K27" s="215"/>
+      <c r="L27" s="229"/>
+      <c r="M27" s="229"/>
+      <c r="N27" s="215"/>
+      <c r="O27" s="215"/>
+      <c r="P27" s="215"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
       <c r="S27" s="71"/>
       <c r="T27" s="71"/>
       <c r="U27" s="48"/>
@@ -8138,21 +8205,21 @@
       <c r="AQ27" s="48"/>
       <c r="AR27" s="48"/>
       <c r="AS27" s="48"/>
-      <c r="AT27" s="150"/>
+      <c r="AT27" s="149"/>
       <c r="AU27" s="71"/>
       <c r="AV27" s="71"/>
       <c r="AW27" s="48"/>
       <c r="AX27" s="48"/>
       <c r="AY27" s="48"/>
       <c r="AZ27" s="48"/>
-      <c r="BA27" s="150"/>
+      <c r="BA27" s="149"/>
       <c r="BB27" s="71"/>
       <c r="BC27" s="71"/>
       <c r="BD27" s="48"/>
       <c r="BE27" s="48"/>
       <c r="BF27" s="48"/>
       <c r="BG27" s="48"/>
-      <c r="BH27" s="150"/>
+      <c r="BH27" s="149"/>
       <c r="BI27" s="71"/>
       <c r="BJ27" s="71"/>
       <c r="BK27" s="48"/>
@@ -8210,29 +8277,29 @@
       <c r="DK27" s="52"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="280"/>
-      <c r="C28" s="285"/>
+      <c r="B28" s="279"/>
+      <c r="C28" s="299"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="175">
+      <c r="F28" s="174">
         <v>40353</v>
       </c>
-      <c r="G28" s="215"/>
-      <c r="H28" s="216"/>
-      <c r="I28" s="216"/>
-      <c r="J28" s="216"/>
-      <c r="K28" s="216"/>
-      <c r="L28" s="230"/>
-      <c r="M28" s="230"/>
-      <c r="N28" s="216"/>
-      <c r="O28" s="216"/>
-      <c r="P28" s="216"/>
-      <c r="Q28" s="126"/>
-      <c r="R28" s="126"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="215"/>
+      <c r="J28" s="215"/>
+      <c r="K28" s="215"/>
+      <c r="L28" s="229"/>
+      <c r="M28" s="229"/>
+      <c r="N28" s="215"/>
+      <c r="O28" s="215"/>
+      <c r="P28" s="215"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="125"/>
       <c r="S28" s="71"/>
       <c r="T28" s="71"/>
       <c r="U28" s="48"/>
@@ -8260,21 +8327,21 @@
       <c r="AQ28" s="48"/>
       <c r="AR28" s="48"/>
       <c r="AS28" s="48"/>
-      <c r="AT28" s="150"/>
+      <c r="AT28" s="149"/>
       <c r="AU28" s="71"/>
       <c r="AV28" s="71"/>
       <c r="AW28" s="48"/>
       <c r="AX28" s="48"/>
       <c r="AY28" s="48"/>
       <c r="AZ28" s="48"/>
-      <c r="BA28" s="150"/>
+      <c r="BA28" s="149"/>
       <c r="BB28" s="71"/>
       <c r="BC28" s="71"/>
       <c r="BD28" s="48"/>
       <c r="BE28" s="48"/>
       <c r="BF28" s="48"/>
       <c r="BG28" s="48"/>
-      <c r="BH28" s="150"/>
+      <c r="BH28" s="149"/>
       <c r="BI28" s="71"/>
       <c r="BJ28" s="71"/>
       <c r="BK28" s="48"/>
@@ -8332,28 +8399,28 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="280"/>
-      <c r="C29" s="285"/>
+      <c r="B29" s="279"/>
+      <c r="C29" s="299"/>
       <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="175">
+      <c r="F29" s="174">
         <v>40354</v>
       </c>
-      <c r="G29" s="215"/>
-      <c r="H29" s="216"/>
-      <c r="I29" s="216"/>
-      <c r="J29" s="216"/>
-      <c r="K29" s="216"/>
-      <c r="L29" s="230"/>
-      <c r="M29" s="230"/>
-      <c r="N29" s="216"/>
-      <c r="O29" s="216"/>
-      <c r="P29" s="205"/>
-      <c r="Q29" s="126"/>
+      <c r="G29" s="214"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="215"/>
+      <c r="J29" s="215"/>
+      <c r="K29" s="215"/>
+      <c r="L29" s="229"/>
+      <c r="M29" s="229"/>
+      <c r="N29" s="215"/>
+      <c r="O29" s="215"/>
+      <c r="P29" s="204"/>
+      <c r="Q29" s="125"/>
       <c r="R29" s="48"/>
       <c r="S29" s="71"/>
       <c r="T29" s="71"/>
@@ -8382,21 +8449,21 @@
       <c r="AQ29" s="48"/>
       <c r="AR29" s="48"/>
       <c r="AS29" s="48"/>
-      <c r="AT29" s="150"/>
+      <c r="AT29" s="149"/>
       <c r="AU29" s="71"/>
       <c r="AV29" s="71"/>
       <c r="AW29" s="48"/>
       <c r="AX29" s="48"/>
       <c r="AY29" s="48"/>
       <c r="AZ29" s="48"/>
-      <c r="BA29" s="150"/>
+      <c r="BA29" s="149"/>
       <c r="BB29" s="71"/>
       <c r="BC29" s="71"/>
       <c r="BD29" s="48"/>
       <c r="BE29" s="48"/>
       <c r="BF29" s="48"/>
       <c r="BG29" s="48"/>
-      <c r="BH29" s="150"/>
+      <c r="BH29" s="149"/>
       <c r="BI29" s="71"/>
       <c r="BJ29" s="71"/>
       <c r="BK29" s="48"/>
@@ -8454,28 +8521,28 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="280"/>
-      <c r="C30" s="285"/>
+      <c r="B30" s="279"/>
+      <c r="C30" s="299"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="175">
+      <c r="F30" s="174">
         <v>40354</v>
       </c>
-      <c r="G30" s="215"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="216"/>
-      <c r="K30" s="216"/>
-      <c r="L30" s="230"/>
-      <c r="M30" s="230"/>
-      <c r="N30" s="216"/>
-      <c r="O30" s="216"/>
-      <c r="P30" s="205"/>
-      <c r="Q30" s="126"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="215"/>
+      <c r="J30" s="215"/>
+      <c r="K30" s="215"/>
+      <c r="L30" s="229"/>
+      <c r="M30" s="229"/>
+      <c r="N30" s="215"/>
+      <c r="O30" s="215"/>
+      <c r="P30" s="204"/>
+      <c r="Q30" s="125"/>
       <c r="R30" s="48"/>
       <c r="S30" s="71"/>
       <c r="T30" s="71"/>
@@ -8504,21 +8571,21 @@
       <c r="AQ30" s="48"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="48"/>
-      <c r="AT30" s="150"/>
+      <c r="AT30" s="149"/>
       <c r="AU30" s="71"/>
       <c r="AV30" s="71"/>
       <c r="AW30" s="48"/>
       <c r="AX30" s="48"/>
       <c r="AY30" s="48"/>
       <c r="AZ30" s="48"/>
-      <c r="BA30" s="150"/>
+      <c r="BA30" s="149"/>
       <c r="BB30" s="71"/>
       <c r="BC30" s="71"/>
       <c r="BD30" s="48"/>
       <c r="BE30" s="48"/>
       <c r="BF30" s="48"/>
       <c r="BG30" s="48"/>
-      <c r="BH30" s="150"/>
+      <c r="BH30" s="149"/>
       <c r="BI30" s="71"/>
       <c r="BJ30" s="71"/>
       <c r="BK30" s="48"/>
@@ -8576,33 +8643,33 @@
       <c r="DK30" s="52"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="280"/>
-      <c r="C31" s="285"/>
+      <c r="B31" s="279"/>
+      <c r="C31" s="299"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="175">
+      <c r="F31" s="174">
         <v>40358</v>
       </c>
-      <c r="G31" s="215"/>
-      <c r="H31" s="216"/>
-      <c r="I31" s="216"/>
-      <c r="J31" s="216"/>
-      <c r="K31" s="216"/>
-      <c r="L31" s="230"/>
-      <c r="M31" s="230"/>
-      <c r="N31" s="216"/>
-      <c r="O31" s="216"/>
-      <c r="P31" s="216"/>
+      <c r="G31" s="214"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="215"/>
+      <c r="J31" s="215"/>
+      <c r="K31" s="215"/>
+      <c r="L31" s="229"/>
+      <c r="M31" s="229"/>
+      <c r="N31" s="215"/>
+      <c r="O31" s="215"/>
+      <c r="P31" s="215"/>
       <c r="Q31" s="48"/>
       <c r="R31" s="48"/>
       <c r="S31" s="71"/>
       <c r="T31" s="71"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126"/>
+      <c r="U31" s="125"/>
+      <c r="V31" s="125"/>
       <c r="W31" s="48"/>
       <c r="X31" s="48"/>
       <c r="Y31" s="48"/>
@@ -8626,21 +8693,21 @@
       <c r="AQ31" s="48"/>
       <c r="AR31" s="48"/>
       <c r="AS31" s="48"/>
-      <c r="AT31" s="150"/>
+      <c r="AT31" s="149"/>
       <c r="AU31" s="71"/>
       <c r="AV31" s="71"/>
       <c r="AW31" s="48"/>
       <c r="AX31" s="48"/>
       <c r="AY31" s="48"/>
       <c r="AZ31" s="48"/>
-      <c r="BA31" s="150"/>
+      <c r="BA31" s="149"/>
       <c r="BB31" s="71"/>
       <c r="BC31" s="71"/>
       <c r="BD31" s="48"/>
       <c r="BE31" s="48"/>
       <c r="BF31" s="48"/>
       <c r="BG31" s="48"/>
-      <c r="BH31" s="150"/>
+      <c r="BH31" s="149"/>
       <c r="BI31" s="71"/>
       <c r="BJ31" s="71"/>
       <c r="BK31" s="48"/>
@@ -8698,34 +8765,34 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="280"/>
-      <c r="C32" s="285"/>
+      <c r="B32" s="279"/>
+      <c r="C32" s="299"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="175">
+      <c r="F32" s="174">
         <v>40359</v>
       </c>
-      <c r="G32" s="215"/>
-      <c r="H32" s="216"/>
-      <c r="I32" s="216"/>
-      <c r="J32" s="216"/>
-      <c r="K32" s="216"/>
-      <c r="L32" s="230"/>
-      <c r="M32" s="230"/>
-      <c r="N32" s="216"/>
-      <c r="O32" s="216"/>
-      <c r="P32" s="216"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="215"/>
+      <c r="J32" s="215"/>
+      <c r="K32" s="215"/>
+      <c r="L32" s="229"/>
+      <c r="M32" s="229"/>
+      <c r="N32" s="215"/>
+      <c r="O32" s="215"/>
+      <c r="P32" s="215"/>
       <c r="Q32" s="48"/>
       <c r="R32" s="48"/>
       <c r="S32" s="71"/>
       <c r="T32" s="71"/>
       <c r="U32" s="48"/>
       <c r="V32" s="48"/>
-      <c r="W32" s="126"/>
+      <c r="W32" s="125"/>
       <c r="X32" s="48"/>
       <c r="Y32" s="48"/>
       <c r="Z32" s="71"/>
@@ -8748,21 +8815,21 @@
       <c r="AQ32" s="48"/>
       <c r="AR32" s="48"/>
       <c r="AS32" s="48"/>
-      <c r="AT32" s="150"/>
+      <c r="AT32" s="149"/>
       <c r="AU32" s="71"/>
       <c r="AV32" s="71"/>
       <c r="AW32" s="48"/>
       <c r="AX32" s="48"/>
       <c r="AY32" s="48"/>
       <c r="AZ32" s="48"/>
-      <c r="BA32" s="150"/>
+      <c r="BA32" s="149"/>
       <c r="BB32" s="71"/>
       <c r="BC32" s="71"/>
       <c r="BD32" s="48"/>
       <c r="BE32" s="48"/>
       <c r="BF32" s="48"/>
       <c r="BG32" s="48"/>
-      <c r="BH32" s="150"/>
+      <c r="BH32" s="149"/>
       <c r="BI32" s="71"/>
       <c r="BJ32" s="71"/>
       <c r="BK32" s="48"/>
@@ -8820,28 +8887,28 @@
       <c r="DK32" s="52"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="280"/>
-      <c r="C33" s="285"/>
+      <c r="B33" s="279"/>
+      <c r="C33" s="299"/>
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="175">
+      <c r="F33" s="174">
         <v>40357</v>
       </c>
-      <c r="G33" s="215"/>
-      <c r="H33" s="216"/>
-      <c r="I33" s="216"/>
-      <c r="J33" s="216"/>
-      <c r="K33" s="216"/>
-      <c r="L33" s="230"/>
-      <c r="M33" s="230"/>
-      <c r="N33" s="216"/>
-      <c r="O33" s="216"/>
-      <c r="P33" s="216"/>
-      <c r="Q33" s="126"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="215"/>
+      <c r="K33" s="215"/>
+      <c r="L33" s="229"/>
+      <c r="M33" s="229"/>
+      <c r="N33" s="215"/>
+      <c r="O33" s="215"/>
+      <c r="P33" s="215"/>
+      <c r="Q33" s="125"/>
       <c r="R33" s="48"/>
       <c r="S33" s="71"/>
       <c r="T33" s="71"/>
@@ -8870,21 +8937,21 @@
       <c r="AQ33" s="48"/>
       <c r="AR33" s="48"/>
       <c r="AS33" s="48"/>
-      <c r="AT33" s="150"/>
+      <c r="AT33" s="149"/>
       <c r="AU33" s="71"/>
       <c r="AV33" s="71"/>
       <c r="AW33" s="48"/>
       <c r="AX33" s="48"/>
       <c r="AY33" s="48"/>
       <c r="AZ33" s="48"/>
-      <c r="BA33" s="150"/>
+      <c r="BA33" s="149"/>
       <c r="BB33" s="71"/>
       <c r="BC33" s="71"/>
       <c r="BD33" s="48"/>
       <c r="BE33" s="48"/>
       <c r="BF33" s="48"/>
       <c r="BG33" s="48"/>
-      <c r="BH33" s="150"/>
+      <c r="BH33" s="149"/>
       <c r="BI33" s="71"/>
       <c r="BJ33" s="71"/>
       <c r="BK33" s="48"/>
@@ -8942,33 +9009,33 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="280"/>
-      <c r="C34" s="285"/>
+      <c r="B34" s="279"/>
+      <c r="C34" s="299"/>
       <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="175">
+      <c r="F34" s="174">
         <v>40357</v>
       </c>
-      <c r="G34" s="215"/>
-      <c r="H34" s="216"/>
-      <c r="I34" s="216"/>
-      <c r="J34" s="216"/>
-      <c r="K34" s="216"/>
-      <c r="L34" s="230"/>
-      <c r="M34" s="230"/>
-      <c r="N34" s="216"/>
-      <c r="O34" s="216"/>
-      <c r="P34" s="216"/>
+      <c r="G34" s="214"/>
+      <c r="H34" s="215"/>
+      <c r="I34" s="215"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="215"/>
+      <c r="L34" s="229"/>
+      <c r="M34" s="229"/>
+      <c r="N34" s="215"/>
+      <c r="O34" s="215"/>
+      <c r="P34" s="215"/>
       <c r="Q34" s="48"/>
       <c r="R34" s="48"/>
       <c r="S34" s="71"/>
       <c r="T34" s="71"/>
-      <c r="U34" s="126"/>
-      <c r="V34" s="126"/>
+      <c r="U34" s="125"/>
+      <c r="V34" s="125"/>
       <c r="W34" s="48"/>
       <c r="X34" s="48"/>
       <c r="Y34" s="48"/>
@@ -8992,21 +9059,21 @@
       <c r="AQ34" s="48"/>
       <c r="AR34" s="48"/>
       <c r="AS34" s="48"/>
-      <c r="AT34" s="150"/>
+      <c r="AT34" s="149"/>
       <c r="AU34" s="71"/>
       <c r="AV34" s="71"/>
       <c r="AW34" s="48"/>
       <c r="AX34" s="48"/>
       <c r="AY34" s="48"/>
       <c r="AZ34" s="48"/>
-      <c r="BA34" s="150"/>
+      <c r="BA34" s="149"/>
       <c r="BB34" s="71"/>
       <c r="BC34" s="71"/>
       <c r="BD34" s="48"/>
       <c r="BE34" s="48"/>
       <c r="BF34" s="48"/>
       <c r="BG34" s="48"/>
-      <c r="BH34" s="150"/>
+      <c r="BH34" s="149"/>
       <c r="BI34" s="71"/>
       <c r="BJ34" s="71"/>
       <c r="BK34" s="48"/>
@@ -9064,27 +9131,27 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="280"/>
-      <c r="C35" s="285"/>
+      <c r="B35" s="279"/>
+      <c r="C35" s="299"/>
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="175">
+      <c r="F35" s="174">
         <v>40360</v>
       </c>
-      <c r="G35" s="215"/>
-      <c r="H35" s="216"/>
-      <c r="I35" s="216"/>
-      <c r="J35" s="216"/>
-      <c r="K35" s="216"/>
-      <c r="L35" s="230"/>
-      <c r="M35" s="230"/>
-      <c r="N35" s="216"/>
-      <c r="O35" s="216"/>
-      <c r="P35" s="216"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="215"/>
+      <c r="I35" s="215"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="215"/>
+      <c r="L35" s="229"/>
+      <c r="M35" s="229"/>
+      <c r="N35" s="215"/>
+      <c r="O35" s="215"/>
+      <c r="P35" s="215"/>
       <c r="Q35" s="48"/>
       <c r="R35" s="48"/>
       <c r="S35" s="71"/>
@@ -9092,7 +9159,7 @@
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
-      <c r="X35" s="126"/>
+      <c r="X35" s="125"/>
       <c r="Y35" s="48"/>
       <c r="Z35" s="71"/>
       <c r="AA35" s="71"/>
@@ -9114,21 +9181,21 @@
       <c r="AQ35" s="48"/>
       <c r="AR35" s="48"/>
       <c r="AS35" s="48"/>
-      <c r="AT35" s="150"/>
+      <c r="AT35" s="149"/>
       <c r="AU35" s="71"/>
       <c r="AV35" s="71"/>
       <c r="AW35" s="48"/>
       <c r="AX35" s="48"/>
       <c r="AY35" s="48"/>
       <c r="AZ35" s="48"/>
-      <c r="BA35" s="150"/>
+      <c r="BA35" s="149"/>
       <c r="BB35" s="71"/>
       <c r="BC35" s="71"/>
       <c r="BD35" s="48"/>
       <c r="BE35" s="48"/>
       <c r="BF35" s="48"/>
       <c r="BG35" s="48"/>
-      <c r="BH35" s="150"/>
+      <c r="BH35" s="149"/>
       <c r="BI35" s="71"/>
       <c r="BJ35" s="71"/>
       <c r="BK35" s="48"/>
@@ -9186,36 +9253,36 @@
       <c r="DK35" s="52"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="280"/>
-      <c r="C36" s="285"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="299"/>
       <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="175">
+      <c r="F36" s="174">
         <v>40361</v>
       </c>
-      <c r="G36" s="215"/>
-      <c r="H36" s="216"/>
-      <c r="I36" s="216"/>
-      <c r="J36" s="216"/>
-      <c r="K36" s="216"/>
-      <c r="L36" s="230"/>
-      <c r="M36" s="230"/>
-      <c r="N36" s="216"/>
-      <c r="O36" s="216"/>
-      <c r="P36" s="216"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="215"/>
+      <c r="I36" s="215"/>
+      <c r="J36" s="215"/>
+      <c r="K36" s="215"/>
+      <c r="L36" s="229"/>
+      <c r="M36" s="229"/>
+      <c r="N36" s="215"/>
+      <c r="O36" s="215"/>
+      <c r="P36" s="215"/>
       <c r="Q36" s="48"/>
       <c r="R36" s="48"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
       <c r="U36" s="48"/>
       <c r="V36" s="48"/>
-      <c r="W36" s="126"/>
-      <c r="X36" s="126"/>
-      <c r="Y36" s="126"/>
+      <c r="W36" s="125"/>
+      <c r="X36" s="125"/>
+      <c r="Y36" s="125"/>
       <c r="Z36" s="71"/>
       <c r="AA36" s="71"/>
       <c r="AB36" s="48"/>
@@ -9236,21 +9303,21 @@
       <c r="AQ36" s="48"/>
       <c r="AR36" s="48"/>
       <c r="AS36" s="48"/>
-      <c r="AT36" s="150"/>
+      <c r="AT36" s="149"/>
       <c r="AU36" s="71"/>
       <c r="AV36" s="71"/>
       <c r="AW36" s="48"/>
       <c r="AX36" s="48"/>
       <c r="AY36" s="48"/>
       <c r="AZ36" s="48"/>
-      <c r="BA36" s="150"/>
+      <c r="BA36" s="149"/>
       <c r="BB36" s="71"/>
       <c r="BC36" s="71"/>
       <c r="BD36" s="48"/>
       <c r="BE36" s="48"/>
       <c r="BF36" s="48"/>
       <c r="BG36" s="48"/>
-      <c r="BH36" s="150"/>
+      <c r="BH36" s="149"/>
       <c r="BI36" s="71"/>
       <c r="BJ36" s="71"/>
       <c r="BK36" s="48"/>
@@ -9308,34 +9375,34 @@
       <c r="DK36" s="52"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="280"/>
-      <c r="C37" s="285"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="299"/>
       <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="175">
+      <c r="F37" s="174">
         <v>40350</v>
       </c>
-      <c r="G37" s="215"/>
-      <c r="H37" s="216"/>
-      <c r="I37" s="216"/>
-      <c r="J37" s="216"/>
-      <c r="K37" s="216"/>
-      <c r="L37" s="230"/>
-      <c r="M37" s="230"/>
-      <c r="N37" s="216"/>
-      <c r="O37" s="216"/>
-      <c r="P37" s="216"/>
+      <c r="G37" s="214"/>
+      <c r="H37" s="215"/>
+      <c r="I37" s="215"/>
+      <c r="J37" s="215"/>
+      <c r="K37" s="215"/>
+      <c r="L37" s="229"/>
+      <c r="M37" s="229"/>
+      <c r="N37" s="215"/>
+      <c r="O37" s="215"/>
+      <c r="P37" s="215"/>
       <c r="Q37" s="48"/>
       <c r="R37" s="48"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
-      <c r="U37" s="126"/>
-      <c r="V37" s="126"/>
-      <c r="W37" s="126"/>
+      <c r="U37" s="125"/>
+      <c r="V37" s="125"/>
+      <c r="W37" s="125"/>
       <c r="X37" s="48"/>
       <c r="Y37" s="48"/>
       <c r="Z37" s="71"/>
@@ -9358,21 +9425,21 @@
       <c r="AQ37" s="48"/>
       <c r="AR37" s="48"/>
       <c r="AS37" s="48"/>
-      <c r="AT37" s="150"/>
+      <c r="AT37" s="149"/>
       <c r="AU37" s="71"/>
       <c r="AV37" s="71"/>
       <c r="AW37" s="48"/>
       <c r="AX37" s="48"/>
       <c r="AY37" s="48"/>
       <c r="AZ37" s="48"/>
-      <c r="BA37" s="150"/>
+      <c r="BA37" s="149"/>
       <c r="BB37" s="71"/>
       <c r="BC37" s="71"/>
       <c r="BD37" s="48"/>
       <c r="BE37" s="48"/>
       <c r="BF37" s="48"/>
       <c r="BG37" s="48"/>
-      <c r="BH37" s="150"/>
+      <c r="BH37" s="149"/>
       <c r="BI37" s="71"/>
       <c r="BJ37" s="71"/>
       <c r="BK37" s="48"/>
@@ -9430,28 +9497,28 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="280"/>
-      <c r="C38" s="285"/>
+      <c r="B38" s="279"/>
+      <c r="C38" s="299"/>
       <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="175">
+      <c r="F38" s="174">
         <v>40353</v>
       </c>
-      <c r="G38" s="215"/>
-      <c r="H38" s="216"/>
-      <c r="I38" s="216"/>
-      <c r="J38" s="216"/>
-      <c r="K38" s="216"/>
-      <c r="L38" s="230"/>
-      <c r="M38" s="230"/>
-      <c r="N38" s="216"/>
-      <c r="O38" s="216"/>
-      <c r="P38" s="205"/>
-      <c r="Q38" s="126"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="215"/>
+      <c r="I38" s="215"/>
+      <c r="J38" s="215"/>
+      <c r="K38" s="215"/>
+      <c r="L38" s="229"/>
+      <c r="M38" s="229"/>
+      <c r="N38" s="215"/>
+      <c r="O38" s="215"/>
+      <c r="P38" s="204"/>
+      <c r="Q38" s="125"/>
       <c r="R38" s="48"/>
       <c r="S38" s="71"/>
       <c r="T38" s="71"/>
@@ -9480,21 +9547,21 @@
       <c r="AQ38" s="48"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="48"/>
-      <c r="AT38" s="150"/>
+      <c r="AT38" s="149"/>
       <c r="AU38" s="71"/>
       <c r="AV38" s="71"/>
       <c r="AW38" s="48"/>
       <c r="AX38" s="48"/>
       <c r="AY38" s="48"/>
       <c r="AZ38" s="48"/>
-      <c r="BA38" s="150"/>
+      <c r="BA38" s="149"/>
       <c r="BB38" s="71"/>
       <c r="BC38" s="71"/>
       <c r="BD38" s="48"/>
       <c r="BE38" s="48"/>
       <c r="BF38" s="48"/>
       <c r="BG38" s="48"/>
-      <c r="BH38" s="150"/>
+      <c r="BH38" s="149"/>
       <c r="BI38" s="71"/>
       <c r="BJ38" s="71"/>
       <c r="BK38" s="48"/>
@@ -9552,27 +9619,27 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="280"/>
-      <c r="C39" s="285"/>
+      <c r="B39" s="279"/>
+      <c r="C39" s="299"/>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="175">
+      <c r="F39" s="174">
         <v>40352</v>
       </c>
-      <c r="G39" s="215"/>
-      <c r="H39" s="216"/>
-      <c r="I39" s="216"/>
-      <c r="J39" s="216"/>
-      <c r="K39" s="216"/>
-      <c r="L39" s="230"/>
-      <c r="M39" s="230"/>
-      <c r="N39" s="216"/>
-      <c r="O39" s="205"/>
-      <c r="P39" s="205"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="215"/>
+      <c r="I39" s="215"/>
+      <c r="J39" s="215"/>
+      <c r="K39" s="215"/>
+      <c r="L39" s="229"/>
+      <c r="M39" s="229"/>
+      <c r="N39" s="215"/>
+      <c r="O39" s="204"/>
+      <c r="P39" s="204"/>
       <c r="Q39" s="48"/>
       <c r="R39" s="48"/>
       <c r="S39" s="71"/>
@@ -9602,21 +9669,21 @@
       <c r="AQ39" s="48"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="48"/>
-      <c r="AT39" s="150"/>
+      <c r="AT39" s="149"/>
       <c r="AU39" s="71"/>
       <c r="AV39" s="71"/>
       <c r="AW39" s="48"/>
       <c r="AX39" s="48"/>
       <c r="AY39" s="48"/>
       <c r="AZ39" s="48"/>
-      <c r="BA39" s="150"/>
+      <c r="BA39" s="149"/>
       <c r="BB39" s="71"/>
       <c r="BC39" s="71"/>
       <c r="BD39" s="48"/>
       <c r="BE39" s="48"/>
       <c r="BF39" s="48"/>
       <c r="BG39" s="48"/>
-      <c r="BH39" s="150"/>
+      <c r="BH39" s="149"/>
       <c r="BI39" s="71"/>
       <c r="BJ39" s="71"/>
       <c r="BK39" s="48"/>
@@ -9674,33 +9741,33 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="280"/>
-      <c r="C40" s="285"/>
+      <c r="B40" s="279"/>
+      <c r="C40" s="299"/>
       <c r="D40" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="175">
+      <c r="F40" s="174">
         <v>40358</v>
       </c>
-      <c r="G40" s="215"/>
-      <c r="H40" s="216"/>
-      <c r="I40" s="216"/>
-      <c r="J40" s="216"/>
-      <c r="K40" s="216"/>
-      <c r="L40" s="230"/>
-      <c r="M40" s="230"/>
-      <c r="N40" s="216"/>
-      <c r="O40" s="216"/>
-      <c r="P40" s="216"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="215"/>
+      <c r="I40" s="215"/>
+      <c r="J40" s="215"/>
+      <c r="K40" s="215"/>
+      <c r="L40" s="229"/>
+      <c r="M40" s="229"/>
+      <c r="N40" s="215"/>
+      <c r="O40" s="215"/>
+      <c r="P40" s="215"/>
       <c r="Q40" s="48"/>
       <c r="R40" s="48"/>
       <c r="S40" s="71"/>
       <c r="T40" s="71"/>
-      <c r="U40" s="126"/>
-      <c r="V40" s="126"/>
+      <c r="U40" s="125"/>
+      <c r="V40" s="125"/>
       <c r="W40" s="48"/>
       <c r="X40" s="48"/>
       <c r="Y40" s="48"/>
@@ -9724,21 +9791,21 @@
       <c r="AQ40" s="48"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="48"/>
-      <c r="AT40" s="150"/>
+      <c r="AT40" s="149"/>
       <c r="AU40" s="71"/>
       <c r="AV40" s="71"/>
       <c r="AW40" s="48"/>
       <c r="AX40" s="48"/>
       <c r="AY40" s="48"/>
       <c r="AZ40" s="48"/>
-      <c r="BA40" s="150"/>
+      <c r="BA40" s="149"/>
       <c r="BB40" s="71"/>
       <c r="BC40" s="71"/>
       <c r="BD40" s="48"/>
       <c r="BE40" s="48"/>
       <c r="BF40" s="48"/>
       <c r="BG40" s="48"/>
-      <c r="BH40" s="150"/>
+      <c r="BH40" s="149"/>
       <c r="BI40" s="71"/>
       <c r="BJ40" s="71"/>
       <c r="BK40" s="48"/>
@@ -9796,34 +9863,34 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="280"/>
-      <c r="C41" s="285"/>
+      <c r="B41" s="279"/>
+      <c r="C41" s="299"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="175">
+      <c r="F41" s="174">
         <v>40359</v>
       </c>
-      <c r="G41" s="215"/>
-      <c r="H41" s="216"/>
-      <c r="I41" s="216"/>
-      <c r="J41" s="216"/>
-      <c r="K41" s="216"/>
-      <c r="L41" s="230"/>
-      <c r="M41" s="230"/>
-      <c r="N41" s="216"/>
-      <c r="O41" s="216"/>
-      <c r="P41" s="216"/>
+      <c r="G41" s="214"/>
+      <c r="H41" s="215"/>
+      <c r="I41" s="215"/>
+      <c r="J41" s="215"/>
+      <c r="K41" s="215"/>
+      <c r="L41" s="229"/>
+      <c r="M41" s="229"/>
+      <c r="N41" s="215"/>
+      <c r="O41" s="215"/>
+      <c r="P41" s="215"/>
       <c r="Q41" s="48"/>
       <c r="R41" s="48"/>
       <c r="S41" s="71"/>
       <c r="T41" s="71"/>
       <c r="U41" s="48"/>
-      <c r="V41" s="126"/>
-      <c r="W41" s="126"/>
+      <c r="V41" s="125"/>
+      <c r="W41" s="125"/>
       <c r="X41" s="48"/>
       <c r="Y41" s="48"/>
       <c r="Z41" s="71"/>
@@ -9846,21 +9913,21 @@
       <c r="AQ41" s="48"/>
       <c r="AR41" s="48"/>
       <c r="AS41" s="48"/>
-      <c r="AT41" s="150"/>
+      <c r="AT41" s="149"/>
       <c r="AU41" s="71"/>
       <c r="AV41" s="71"/>
       <c r="AW41" s="48"/>
       <c r="AX41" s="48"/>
       <c r="AY41" s="48"/>
       <c r="AZ41" s="48"/>
-      <c r="BA41" s="150"/>
+      <c r="BA41" s="149"/>
       <c r="BB41" s="71"/>
       <c r="BC41" s="71"/>
       <c r="BD41" s="48"/>
       <c r="BE41" s="48"/>
       <c r="BF41" s="48"/>
       <c r="BG41" s="48"/>
-      <c r="BH41" s="150"/>
+      <c r="BH41" s="149"/>
       <c r="BI41" s="71"/>
       <c r="BJ41" s="71"/>
       <c r="BK41" s="48"/>
@@ -9918,35 +9985,35 @@
       <c r="DK41" s="52"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="280"/>
-      <c r="C42" s="285"/>
+      <c r="B42" s="279"/>
+      <c r="C42" s="299"/>
       <c r="D42" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="175">
+      <c r="F42" s="174">
         <v>40360</v>
       </c>
-      <c r="G42" s="215"/>
-      <c r="H42" s="216"/>
-      <c r="I42" s="216"/>
-      <c r="J42" s="216"/>
-      <c r="K42" s="216"/>
-      <c r="L42" s="230"/>
-      <c r="M42" s="230"/>
-      <c r="N42" s="216"/>
-      <c r="O42" s="216"/>
-      <c r="P42" s="216"/>
+      <c r="G42" s="214"/>
+      <c r="H42" s="215"/>
+      <c r="I42" s="215"/>
+      <c r="J42" s="215"/>
+      <c r="K42" s="215"/>
+      <c r="L42" s="229"/>
+      <c r="M42" s="229"/>
+      <c r="N42" s="215"/>
+      <c r="O42" s="215"/>
+      <c r="P42" s="215"/>
       <c r="Q42" s="48"/>
       <c r="R42" s="48"/>
       <c r="S42" s="71"/>
       <c r="T42" s="71"/>
       <c r="U42" s="48"/>
       <c r="V42" s="48"/>
-      <c r="W42" s="126"/>
-      <c r="X42" s="126"/>
+      <c r="W42" s="125"/>
+      <c r="X42" s="125"/>
       <c r="Y42" s="48"/>
       <c r="Z42" s="71"/>
       <c r="AA42" s="71"/>
@@ -9968,21 +10035,21 @@
       <c r="AQ42" s="48"/>
       <c r="AR42" s="48"/>
       <c r="AS42" s="48"/>
-      <c r="AT42" s="150"/>
+      <c r="AT42" s="149"/>
       <c r="AU42" s="71"/>
       <c r="AV42" s="71"/>
       <c r="AW42" s="48"/>
       <c r="AX42" s="48"/>
       <c r="AY42" s="48"/>
       <c r="AZ42" s="48"/>
-      <c r="BA42" s="150"/>
+      <c r="BA42" s="149"/>
       <c r="BB42" s="71"/>
       <c r="BC42" s="71"/>
       <c r="BD42" s="48"/>
       <c r="BE42" s="48"/>
       <c r="BF42" s="48"/>
       <c r="BG42" s="48"/>
-      <c r="BH42" s="150"/>
+      <c r="BH42" s="149"/>
       <c r="BI42" s="71"/>
       <c r="BJ42" s="71"/>
       <c r="BK42" s="48"/>
@@ -10040,33 +10107,33 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="280"/>
-      <c r="C43" s="285"/>
+      <c r="B43" s="279"/>
+      <c r="C43" s="299"/>
       <c r="D43" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="175">
+      <c r="F43" s="174">
         <v>40358</v>
       </c>
-      <c r="G43" s="215"/>
-      <c r="H43" s="216"/>
-      <c r="I43" s="216"/>
-      <c r="J43" s="216"/>
-      <c r="K43" s="216"/>
-      <c r="L43" s="230"/>
-      <c r="M43" s="230"/>
-      <c r="N43" s="216"/>
-      <c r="O43" s="216"/>
-      <c r="P43" s="216"/>
+      <c r="G43" s="214"/>
+      <c r="H43" s="215"/>
+      <c r="I43" s="215"/>
+      <c r="J43" s="215"/>
+      <c r="K43" s="215"/>
+      <c r="L43" s="229"/>
+      <c r="M43" s="229"/>
+      <c r="N43" s="215"/>
+      <c r="O43" s="215"/>
+      <c r="P43" s="215"/>
       <c r="Q43" s="48"/>
-      <c r="R43" s="126"/>
+      <c r="R43" s="125"/>
       <c r="S43" s="71"/>
       <c r="T43" s="71"/>
-      <c r="U43" s="126"/>
-      <c r="V43" s="126"/>
+      <c r="U43" s="125"/>
+      <c r="V43" s="125"/>
       <c r="W43" s="48"/>
       <c r="X43" s="48"/>
       <c r="Y43" s="48"/>
@@ -10090,21 +10157,21 @@
       <c r="AQ43" s="48"/>
       <c r="AR43" s="48"/>
       <c r="AS43" s="48"/>
-      <c r="AT43" s="150"/>
+      <c r="AT43" s="149"/>
       <c r="AU43" s="71"/>
       <c r="AV43" s="71"/>
       <c r="AW43" s="48"/>
       <c r="AX43" s="48"/>
       <c r="AY43" s="48"/>
       <c r="AZ43" s="48"/>
-      <c r="BA43" s="150"/>
+      <c r="BA43" s="149"/>
       <c r="BB43" s="71"/>
       <c r="BC43" s="71"/>
       <c r="BD43" s="48"/>
       <c r="BE43" s="48"/>
       <c r="BF43" s="48"/>
       <c r="BG43" s="48"/>
-      <c r="BH43" s="150"/>
+      <c r="BH43" s="149"/>
       <c r="BI43" s="71"/>
       <c r="BJ43" s="71"/>
       <c r="BK43" s="48"/>
@@ -10162,21 +10229,21 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="280"/>
-      <c r="C44" s="285"/>
+      <c r="B44" s="279"/>
+      <c r="C44" s="299"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="75"/>
-      <c r="G44" s="215"/>
-      <c r="H44" s="216"/>
-      <c r="I44" s="216"/>
-      <c r="J44" s="216"/>
-      <c r="K44" s="216"/>
-      <c r="L44" s="230"/>
-      <c r="M44" s="230"/>
-      <c r="N44" s="216"/>
-      <c r="O44" s="216"/>
-      <c r="P44" s="216"/>
+      <c r="G44" s="214"/>
+      <c r="H44" s="215"/>
+      <c r="I44" s="215"/>
+      <c r="J44" s="215"/>
+      <c r="K44" s="215"/>
+      <c r="L44" s="229"/>
+      <c r="M44" s="229"/>
+      <c r="N44" s="215"/>
+      <c r="O44" s="215"/>
+      <c r="P44" s="215"/>
       <c r="Q44" s="48"/>
       <c r="R44" s="48"/>
       <c r="S44" s="71"/>
@@ -10206,21 +10273,21 @@
       <c r="AQ44" s="48"/>
       <c r="AR44" s="48"/>
       <c r="AS44" s="48"/>
-      <c r="AT44" s="150"/>
+      <c r="AT44" s="149"/>
       <c r="AU44" s="71"/>
       <c r="AV44" s="71"/>
       <c r="AW44" s="48"/>
       <c r="AX44" s="48"/>
       <c r="AY44" s="48"/>
       <c r="AZ44" s="48"/>
-      <c r="BA44" s="150"/>
+      <c r="BA44" s="149"/>
       <c r="BB44" s="71"/>
       <c r="BC44" s="71"/>
       <c r="BD44" s="48"/>
       <c r="BE44" s="48"/>
       <c r="BF44" s="48"/>
       <c r="BG44" s="48"/>
-      <c r="BH44" s="150"/>
+      <c r="BH44" s="149"/>
       <c r="BI44" s="71"/>
       <c r="BJ44" s="71"/>
       <c r="BK44" s="48"/>
@@ -10278,21 +10345,21 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="280"/>
-      <c r="C45" s="285"/>
+      <c r="B45" s="279"/>
+      <c r="C45" s="299"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="78"/>
-      <c r="G45" s="231"/>
-      <c r="H45" s="232"/>
-      <c r="I45" s="233"/>
-      <c r="J45" s="232"/>
-      <c r="K45" s="232"/>
-      <c r="L45" s="234"/>
-      <c r="M45" s="234"/>
-      <c r="N45" s="232"/>
-      <c r="O45" s="232"/>
-      <c r="P45" s="232"/>
+      <c r="G45" s="230"/>
+      <c r="H45" s="231"/>
+      <c r="I45" s="232"/>
+      <c r="J45" s="231"/>
+      <c r="K45" s="231"/>
+      <c r="L45" s="233"/>
+      <c r="M45" s="233"/>
+      <c r="N45" s="231"/>
+      <c r="O45" s="231"/>
+      <c r="P45" s="231"/>
       <c r="Q45" s="57"/>
       <c r="R45" s="57"/>
       <c r="S45" s="73"/>
@@ -10322,21 +10389,21 @@
       <c r="AQ45" s="57"/>
       <c r="AR45" s="57"/>
       <c r="AS45" s="57"/>
-      <c r="AT45" s="152"/>
+      <c r="AT45" s="151"/>
       <c r="AU45" s="73"/>
       <c r="AV45" s="73"/>
       <c r="AW45" s="57"/>
       <c r="AX45" s="57"/>
       <c r="AY45" s="57"/>
       <c r="AZ45" s="57"/>
-      <c r="BA45" s="152"/>
+      <c r="BA45" s="151"/>
       <c r="BB45" s="73"/>
       <c r="BC45" s="73"/>
       <c r="BD45" s="57"/>
       <c r="BE45" s="57"/>
       <c r="BF45" s="57"/>
       <c r="BG45" s="57"/>
-      <c r="BH45" s="152"/>
+      <c r="BH45" s="151"/>
       <c r="BI45" s="73"/>
       <c r="BJ45" s="73"/>
       <c r="BK45" s="57"/>
@@ -10394,8 +10461,8 @@
       <c r="DK45" s="61"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="280"/>
-      <c r="C46" s="278" t="s">
+      <c r="B46" s="279"/>
+      <c r="C46" s="286" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -10404,25 +10471,25 @@
       <c r="E46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="175">
+      <c r="F46" s="174">
         <v>40354</v>
       </c>
-      <c r="G46" s="235"/>
-      <c r="H46" s="228"/>
-      <c r="I46" s="228"/>
-      <c r="J46" s="227"/>
-      <c r="K46" s="227"/>
-      <c r="L46" s="229"/>
-      <c r="M46" s="229"/>
-      <c r="N46" s="274"/>
-      <c r="O46" s="275"/>
-      <c r="P46" s="275"/>
-      <c r="Q46" s="100"/>
-      <c r="R46" s="100"/>
-      <c r="S46" s="99"/>
+      <c r="G46" s="234"/>
+      <c r="H46" s="227"/>
+      <c r="I46" s="227"/>
+      <c r="J46" s="226"/>
+      <c r="K46" s="226"/>
+      <c r="L46" s="228"/>
+      <c r="M46" s="228"/>
+      <c r="N46" s="273"/>
+      <c r="O46" s="274"/>
+      <c r="P46" s="274"/>
+      <c r="Q46" s="99"/>
+      <c r="R46" s="99"/>
+      <c r="S46" s="98"/>
       <c r="T46" s="72"/>
-      <c r="U46" s="300"/>
-      <c r="V46" s="300"/>
+      <c r="U46" s="277"/>
+      <c r="V46" s="277"/>
       <c r="W46" s="62"/>
       <c r="X46" s="62"/>
       <c r="Y46" s="62"/>
@@ -10446,21 +10513,21 @@
       <c r="AQ46" s="62"/>
       <c r="AR46" s="62"/>
       <c r="AS46" s="62"/>
-      <c r="AT46" s="151"/>
+      <c r="AT46" s="150"/>
       <c r="AU46" s="72"/>
       <c r="AV46" s="72"/>
       <c r="AW46" s="62"/>
       <c r="AX46" s="62"/>
       <c r="AY46" s="62"/>
       <c r="AZ46" s="62"/>
-      <c r="BA46" s="151"/>
+      <c r="BA46" s="150"/>
       <c r="BB46" s="72"/>
       <c r="BC46" s="72"/>
       <c r="BD46" s="62"/>
       <c r="BE46" s="62"/>
       <c r="BF46" s="62"/>
       <c r="BG46" s="62"/>
-      <c r="BH46" s="151"/>
+      <c r="BH46" s="150"/>
       <c r="BI46" s="72"/>
       <c r="BJ46" s="72"/>
       <c r="BK46" s="62"/>
@@ -10518,33 +10585,33 @@
       <c r="DK46" s="67"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="280"/>
-      <c r="C47" s="278"/>
+      <c r="B47" s="279"/>
+      <c r="C47" s="286"/>
       <c r="D47" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="175">
+      <c r="F47" s="174">
         <v>40358</v>
       </c>
-      <c r="G47" s="215"/>
-      <c r="H47" s="216"/>
-      <c r="I47" s="216"/>
-      <c r="J47" s="236"/>
-      <c r="K47" s="236"/>
-      <c r="L47" s="230"/>
-      <c r="M47" s="230"/>
-      <c r="N47" s="216"/>
-      <c r="O47" s="216"/>
-      <c r="P47" s="216"/>
+      <c r="G47" s="214"/>
+      <c r="H47" s="215"/>
+      <c r="I47" s="215"/>
+      <c r="J47" s="235"/>
+      <c r="K47" s="235"/>
+      <c r="L47" s="229"/>
+      <c r="M47" s="229"/>
+      <c r="N47" s="215"/>
+      <c r="O47" s="215"/>
+      <c r="P47" s="215"/>
       <c r="Q47" s="48"/>
       <c r="R47" s="48"/>
       <c r="S47" s="71"/>
       <c r="T47" s="71"/>
-      <c r="U47" s="100"/>
-      <c r="V47" s="100"/>
+      <c r="U47" s="99"/>
+      <c r="V47" s="99"/>
       <c r="W47" s="48"/>
       <c r="X47" s="48"/>
       <c r="Y47" s="48"/>
@@ -10568,21 +10635,21 @@
       <c r="AQ47" s="48"/>
       <c r="AR47" s="48"/>
       <c r="AS47" s="48"/>
-      <c r="AT47" s="150"/>
+      <c r="AT47" s="149"/>
       <c r="AU47" s="71"/>
       <c r="AV47" s="71"/>
       <c r="AW47" s="48"/>
       <c r="AX47" s="48"/>
       <c r="AY47" s="48"/>
       <c r="AZ47" s="48"/>
-      <c r="BA47" s="150"/>
+      <c r="BA47" s="149"/>
       <c r="BB47" s="71"/>
       <c r="BC47" s="71"/>
       <c r="BD47" s="48"/>
       <c r="BE47" s="48"/>
       <c r="BF47" s="48"/>
       <c r="BG47" s="48"/>
-      <c r="BH47" s="150"/>
+      <c r="BH47" s="149"/>
       <c r="BI47" s="71"/>
       <c r="BJ47" s="71"/>
       <c r="BK47" s="48"/>
@@ -10640,35 +10707,35 @@
       <c r="DK47" s="52"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="280"/>
-      <c r="C48" s="278"/>
+      <c r="B48" s="279"/>
+      <c r="C48" s="286"/>
       <c r="D48" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="175">
+      <c r="F48" s="174">
         <v>40360</v>
       </c>
-      <c r="G48" s="215"/>
-      <c r="H48" s="216"/>
-      <c r="I48" s="216"/>
-      <c r="J48" s="236"/>
-      <c r="K48" s="236"/>
-      <c r="L48" s="230"/>
-      <c r="M48" s="230"/>
-      <c r="N48" s="216"/>
-      <c r="O48" s="216"/>
-      <c r="P48" s="216"/>
+      <c r="G48" s="214"/>
+      <c r="H48" s="215"/>
+      <c r="I48" s="215"/>
+      <c r="J48" s="235"/>
+      <c r="K48" s="235"/>
+      <c r="L48" s="229"/>
+      <c r="M48" s="229"/>
+      <c r="N48" s="215"/>
+      <c r="O48" s="215"/>
+      <c r="P48" s="215"/>
       <c r="Q48" s="48"/>
       <c r="R48" s="48"/>
       <c r="S48" s="71"/>
       <c r="T48" s="71"/>
       <c r="U48" s="48"/>
       <c r="V48" s="48"/>
-      <c r="W48" s="301"/>
-      <c r="X48" s="301"/>
+      <c r="W48" s="278"/>
+      <c r="X48" s="278"/>
       <c r="Y48" s="48"/>
       <c r="Z48" s="71"/>
       <c r="AA48" s="71"/>
@@ -10690,21 +10757,21 @@
       <c r="AQ48" s="48"/>
       <c r="AR48" s="48"/>
       <c r="AS48" s="48"/>
-      <c r="AT48" s="150"/>
+      <c r="AT48" s="149"/>
       <c r="AU48" s="71"/>
       <c r="AV48" s="71"/>
       <c r="AW48" s="48"/>
       <c r="AX48" s="48"/>
       <c r="AY48" s="48"/>
       <c r="AZ48" s="48"/>
-      <c r="BA48" s="150"/>
+      <c r="BA48" s="149"/>
       <c r="BB48" s="71"/>
       <c r="BC48" s="71"/>
       <c r="BD48" s="48"/>
       <c r="BE48" s="48"/>
       <c r="BF48" s="48"/>
       <c r="BG48" s="48"/>
-      <c r="BH48" s="150"/>
+      <c r="BH48" s="149"/>
       <c r="BI48" s="71"/>
       <c r="BJ48" s="71"/>
       <c r="BK48" s="48"/>
@@ -10762,27 +10829,27 @@
       <c r="DK48" s="52"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="280"/>
-      <c r="C49" s="278"/>
+      <c r="B49" s="279"/>
+      <c r="C49" s="286"/>
       <c r="D49" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="175">
+      <c r="F49" s="174">
         <v>40361</v>
       </c>
-      <c r="G49" s="215"/>
-      <c r="H49" s="216"/>
-      <c r="I49" s="216"/>
-      <c r="J49" s="236"/>
-      <c r="K49" s="236"/>
-      <c r="L49" s="230"/>
-      <c r="M49" s="230"/>
-      <c r="N49" s="216"/>
-      <c r="O49" s="216"/>
-      <c r="P49" s="216"/>
+      <c r="G49" s="214"/>
+      <c r="H49" s="215"/>
+      <c r="I49" s="215"/>
+      <c r="J49" s="235"/>
+      <c r="K49" s="235"/>
+      <c r="L49" s="229"/>
+      <c r="M49" s="229"/>
+      <c r="N49" s="215"/>
+      <c r="O49" s="215"/>
+      <c r="P49" s="215"/>
       <c r="Q49" s="48"/>
       <c r="R49" s="48"/>
       <c r="S49" s="71"/>
@@ -10791,7 +10858,7 @@
       <c r="V49" s="48"/>
       <c r="W49" s="48"/>
       <c r="X49" s="48"/>
-      <c r="Y49" s="301"/>
+      <c r="Y49" s="278"/>
       <c r="Z49" s="71"/>
       <c r="AA49" s="71"/>
       <c r="AB49" s="48"/>
@@ -10812,21 +10879,21 @@
       <c r="AQ49" s="48"/>
       <c r="AR49" s="48"/>
       <c r="AS49" s="48"/>
-      <c r="AT49" s="150"/>
+      <c r="AT49" s="149"/>
       <c r="AU49" s="71"/>
       <c r="AV49" s="71"/>
       <c r="AW49" s="48"/>
       <c r="AX49" s="48"/>
       <c r="AY49" s="48"/>
       <c r="AZ49" s="48"/>
-      <c r="BA49" s="150"/>
+      <c r="BA49" s="149"/>
       <c r="BB49" s="71"/>
       <c r="BC49" s="71"/>
       <c r="BD49" s="48"/>
       <c r="BE49" s="48"/>
       <c r="BF49" s="48"/>
       <c r="BG49" s="48"/>
-      <c r="BH49" s="150"/>
+      <c r="BH49" s="149"/>
       <c r="BI49" s="71"/>
       <c r="BJ49" s="71"/>
       <c r="BK49" s="48"/>
@@ -10884,27 +10951,27 @@
       <c r="DK49" s="52"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="280"/>
-      <c r="C50" s="278"/>
+      <c r="B50" s="279"/>
+      <c r="C50" s="286"/>
       <c r="D50" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="175">
+      <c r="F50" s="174">
         <v>40368</v>
       </c>
-      <c r="G50" s="215"/>
-      <c r="H50" s="216"/>
-      <c r="I50" s="216"/>
-      <c r="J50" s="236"/>
-      <c r="K50" s="236"/>
-      <c r="L50" s="230"/>
-      <c r="M50" s="230"/>
-      <c r="N50" s="216"/>
-      <c r="O50" s="216"/>
-      <c r="P50" s="216"/>
+      <c r="G50" s="214"/>
+      <c r="H50" s="215"/>
+      <c r="I50" s="215"/>
+      <c r="J50" s="235"/>
+      <c r="K50" s="235"/>
+      <c r="L50" s="229"/>
+      <c r="M50" s="229"/>
+      <c r="N50" s="215"/>
+      <c r="O50" s="215"/>
+      <c r="P50" s="215"/>
       <c r="Q50" s="48"/>
       <c r="R50" s="48"/>
       <c r="S50" s="71"/>
@@ -10916,11 +10983,11 @@
       <c r="Y50" s="48"/>
       <c r="Z50" s="71"/>
       <c r="AA50" s="71"/>
-      <c r="AB50" s="299"/>
-      <c r="AC50" s="299"/>
-      <c r="AD50" s="299"/>
-      <c r="AE50" s="299"/>
-      <c r="AF50" s="299"/>
+      <c r="AB50" s="276"/>
+      <c r="AC50" s="276"/>
+      <c r="AD50" s="276"/>
+      <c r="AE50" s="276"/>
+      <c r="AF50" s="276"/>
       <c r="AG50" s="71"/>
       <c r="AH50" s="71"/>
       <c r="AI50" s="48"/>
@@ -10934,21 +11001,21 @@
       <c r="AQ50" s="48"/>
       <c r="AR50" s="48"/>
       <c r="AS50" s="48"/>
-      <c r="AT50" s="150"/>
+      <c r="AT50" s="149"/>
       <c r="AU50" s="71"/>
       <c r="AV50" s="71"/>
       <c r="AW50" s="48"/>
       <c r="AX50" s="48"/>
       <c r="AY50" s="48"/>
       <c r="AZ50" s="48"/>
-      <c r="BA50" s="150"/>
+      <c r="BA50" s="149"/>
       <c r="BB50" s="71"/>
       <c r="BC50" s="71"/>
       <c r="BD50" s="48"/>
       <c r="BE50" s="48"/>
       <c r="BF50" s="48"/>
       <c r="BG50" s="48"/>
-      <c r="BH50" s="150"/>
+      <c r="BH50" s="149"/>
       <c r="BI50" s="71"/>
       <c r="BJ50" s="71"/>
       <c r="BK50" s="48"/>
@@ -11006,21 +11073,21 @@
       <c r="DK50" s="52"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="280"/>
-      <c r="C51" s="278"/>
+      <c r="B51" s="279"/>
+      <c r="C51" s="286"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="175"/>
-      <c r="G51" s="215"/>
-      <c r="H51" s="216"/>
-      <c r="I51" s="216"/>
-      <c r="J51" s="236"/>
-      <c r="K51" s="236"/>
-      <c r="L51" s="230"/>
-      <c r="M51" s="230"/>
-      <c r="N51" s="216"/>
-      <c r="O51" s="216"/>
-      <c r="P51" s="216"/>
+      <c r="F51" s="174"/>
+      <c r="G51" s="214"/>
+      <c r="H51" s="215"/>
+      <c r="I51" s="215"/>
+      <c r="J51" s="235"/>
+      <c r="K51" s="235"/>
+      <c r="L51" s="229"/>
+      <c r="M51" s="229"/>
+      <c r="N51" s="215"/>
+      <c r="O51" s="215"/>
+      <c r="P51" s="215"/>
       <c r="Q51" s="48"/>
       <c r="R51" s="48"/>
       <c r="S51" s="71"/>
@@ -11050,21 +11117,21 @@
       <c r="AQ51" s="48"/>
       <c r="AR51" s="48"/>
       <c r="AS51" s="48"/>
-      <c r="AT51" s="150"/>
+      <c r="AT51" s="149"/>
       <c r="AU51" s="71"/>
       <c r="AV51" s="71"/>
       <c r="AW51" s="48"/>
       <c r="AX51" s="48"/>
       <c r="AY51" s="48"/>
       <c r="AZ51" s="48"/>
-      <c r="BA51" s="150"/>
+      <c r="BA51" s="149"/>
       <c r="BB51" s="71"/>
       <c r="BC51" s="71"/>
       <c r="BD51" s="48"/>
       <c r="BE51" s="48"/>
       <c r="BF51" s="48"/>
       <c r="BG51" s="48"/>
-      <c r="BH51" s="150"/>
+      <c r="BH51" s="149"/>
       <c r="BI51" s="71"/>
       <c r="BJ51" s="71"/>
       <c r="BK51" s="48"/>
@@ -11122,21 +11189,21 @@
       <c r="DK51" s="52"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="280"/>
-      <c r="C52" s="278"/>
+      <c r="B52" s="279"/>
+      <c r="C52" s="286"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="175"/>
-      <c r="G52" s="215"/>
-      <c r="H52" s="216"/>
-      <c r="I52" s="216"/>
-      <c r="J52" s="236"/>
-      <c r="K52" s="236"/>
-      <c r="L52" s="230"/>
-      <c r="M52" s="230"/>
-      <c r="N52" s="216"/>
-      <c r="O52" s="216"/>
-      <c r="P52" s="216"/>
+      <c r="F52" s="174"/>
+      <c r="G52" s="214"/>
+      <c r="H52" s="215"/>
+      <c r="I52" s="215"/>
+      <c r="J52" s="235"/>
+      <c r="K52" s="235"/>
+      <c r="L52" s="229"/>
+      <c r="M52" s="229"/>
+      <c r="N52" s="215"/>
+      <c r="O52" s="215"/>
+      <c r="P52" s="215"/>
       <c r="Q52" s="48"/>
       <c r="R52" s="48"/>
       <c r="S52" s="71"/>
@@ -11166,21 +11233,21 @@
       <c r="AQ52" s="48"/>
       <c r="AR52" s="48"/>
       <c r="AS52" s="48"/>
-      <c r="AT52" s="150"/>
+      <c r="AT52" s="149"/>
       <c r="AU52" s="71"/>
       <c r="AV52" s="71"/>
       <c r="AW52" s="48"/>
       <c r="AX52" s="48"/>
       <c r="AY52" s="48"/>
       <c r="AZ52" s="48"/>
-      <c r="BA52" s="150"/>
+      <c r="BA52" s="149"/>
       <c r="BB52" s="71"/>
       <c r="BC52" s="71"/>
       <c r="BD52" s="48"/>
       <c r="BE52" s="48"/>
       <c r="BF52" s="48"/>
       <c r="BG52" s="48"/>
-      <c r="BH52" s="150"/>
+      <c r="BH52" s="149"/>
       <c r="BI52" s="71"/>
       <c r="BJ52" s="71"/>
       <c r="BK52" s="48"/>
@@ -11238,21 +11305,21 @@
       <c r="DK52" s="52"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="280"/>
-      <c r="C53" s="278"/>
+      <c r="B53" s="279"/>
+      <c r="C53" s="286"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="175"/>
-      <c r="G53" s="215"/>
-      <c r="H53" s="216"/>
-      <c r="I53" s="216"/>
-      <c r="J53" s="236"/>
-      <c r="K53" s="236"/>
-      <c r="L53" s="230"/>
-      <c r="M53" s="230"/>
-      <c r="N53" s="216"/>
-      <c r="O53" s="216"/>
-      <c r="P53" s="216"/>
+      <c r="F53" s="174"/>
+      <c r="G53" s="214"/>
+      <c r="H53" s="215"/>
+      <c r="I53" s="215"/>
+      <c r="J53" s="235"/>
+      <c r="K53" s="235"/>
+      <c r="L53" s="229"/>
+      <c r="M53" s="229"/>
+      <c r="N53" s="215"/>
+      <c r="O53" s="215"/>
+      <c r="P53" s="215"/>
       <c r="Q53" s="48"/>
       <c r="R53" s="48"/>
       <c r="S53" s="71"/>
@@ -11282,21 +11349,21 @@
       <c r="AQ53" s="48"/>
       <c r="AR53" s="48"/>
       <c r="AS53" s="48"/>
-      <c r="AT53" s="150"/>
+      <c r="AT53" s="149"/>
       <c r="AU53" s="71"/>
       <c r="AV53" s="71"/>
       <c r="AW53" s="48"/>
       <c r="AX53" s="48"/>
       <c r="AY53" s="48"/>
       <c r="AZ53" s="48"/>
-      <c r="BA53" s="150"/>
+      <c r="BA53" s="149"/>
       <c r="BB53" s="71"/>
       <c r="BC53" s="71"/>
       <c r="BD53" s="48"/>
       <c r="BE53" s="48"/>
       <c r="BF53" s="48"/>
       <c r="BG53" s="48"/>
-      <c r="BH53" s="150"/>
+      <c r="BH53" s="149"/>
       <c r="BI53" s="71"/>
       <c r="BJ53" s="71"/>
       <c r="BK53" s="48"/>
@@ -11354,21 +11421,21 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115">
-      <c r="B54" s="280"/>
-      <c r="C54" s="278"/>
+      <c r="B54" s="279"/>
+      <c r="C54" s="286"/>
       <c r="D54" s="10"/>
       <c r="E54" s="11"/>
       <c r="F54" s="78"/>
-      <c r="G54" s="231"/>
-      <c r="H54" s="232"/>
-      <c r="I54" s="232"/>
-      <c r="J54" s="232"/>
-      <c r="K54" s="232"/>
-      <c r="L54" s="234"/>
-      <c r="M54" s="234"/>
-      <c r="N54" s="232"/>
-      <c r="O54" s="232"/>
-      <c r="P54" s="232"/>
+      <c r="G54" s="230"/>
+      <c r="H54" s="231"/>
+      <c r="I54" s="231"/>
+      <c r="J54" s="231"/>
+      <c r="K54" s="231"/>
+      <c r="L54" s="233"/>
+      <c r="M54" s="233"/>
+      <c r="N54" s="231"/>
+      <c r="O54" s="231"/>
+      <c r="P54" s="231"/>
       <c r="Q54" s="57"/>
       <c r="R54" s="57"/>
       <c r="S54" s="73"/>
@@ -11398,21 +11465,21 @@
       <c r="AQ54" s="57"/>
       <c r="AR54" s="57"/>
       <c r="AS54" s="57"/>
-      <c r="AT54" s="152"/>
+      <c r="AT54" s="151"/>
       <c r="AU54" s="73"/>
       <c r="AV54" s="73"/>
       <c r="AW54" s="57"/>
       <c r="AX54" s="57"/>
       <c r="AY54" s="57"/>
       <c r="AZ54" s="57"/>
-      <c r="BA54" s="152"/>
+      <c r="BA54" s="151"/>
       <c r="BB54" s="73"/>
       <c r="BC54" s="73"/>
       <c r="BD54" s="57"/>
       <c r="BE54" s="57"/>
       <c r="BF54" s="57"/>
       <c r="BG54" s="57"/>
-      <c r="BH54" s="152"/>
+      <c r="BH54" s="151"/>
       <c r="BI54" s="73"/>
       <c r="BJ54" s="73"/>
       <c r="BK54" s="57"/>
@@ -11470,27 +11537,27 @@
       <c r="DK54" s="61"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="280"/>
-      <c r="C55" s="291" t="s">
+      <c r="B55" s="279"/>
+      <c r="C55" s="284" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="175">
+      <c r="F55" s="174">
         <v>40375</v>
       </c>
-      <c r="G55" s="226"/>
-      <c r="H55" s="227"/>
-      <c r="I55" s="227"/>
-      <c r="J55" s="227"/>
-      <c r="K55" s="227"/>
-      <c r="L55" s="229"/>
-      <c r="M55" s="229"/>
-      <c r="N55" s="227"/>
-      <c r="O55" s="227"/>
-      <c r="P55" s="227"/>
+      <c r="G55" s="225"/>
+      <c r="H55" s="226"/>
+      <c r="I55" s="226"/>
+      <c r="J55" s="226"/>
+      <c r="K55" s="226"/>
+      <c r="L55" s="228"/>
+      <c r="M55" s="228"/>
+      <c r="N55" s="226"/>
+      <c r="O55" s="226"/>
+      <c r="P55" s="226"/>
       <c r="Q55" s="62"/>
       <c r="R55" s="62"/>
       <c r="S55" s="72"/>
@@ -11502,39 +11569,39 @@
       <c r="Y55" s="62"/>
       <c r="Z55" s="72"/>
       <c r="AA55" s="72"/>
-      <c r="AB55" s="126"/>
-      <c r="AC55" s="126"/>
-      <c r="AD55" s="126"/>
-      <c r="AE55" s="126"/>
-      <c r="AF55" s="126"/>
+      <c r="AB55" s="125"/>
+      <c r="AC55" s="125"/>
+      <c r="AD55" s="125"/>
+      <c r="AE55" s="125"/>
+      <c r="AF55" s="125"/>
       <c r="AG55" s="72"/>
       <c r="AH55" s="72"/>
-      <c r="AI55" s="126"/>
-      <c r="AJ55" s="126"/>
-      <c r="AK55" s="126"/>
-      <c r="AL55" s="126"/>
-      <c r="AM55" s="126"/>
+      <c r="AI55" s="125"/>
+      <c r="AJ55" s="125"/>
+      <c r="AK55" s="125"/>
+      <c r="AL55" s="125"/>
+      <c r="AM55" s="125"/>
       <c r="AN55" s="72"/>
       <c r="AO55" s="72"/>
       <c r="AP55" s="62"/>
       <c r="AQ55" s="62"/>
       <c r="AR55" s="62"/>
       <c r="AS55" s="62"/>
-      <c r="AT55" s="151"/>
+      <c r="AT55" s="150"/>
       <c r="AU55" s="72"/>
       <c r="AV55" s="72"/>
       <c r="AW55" s="62"/>
       <c r="AX55" s="62"/>
       <c r="AY55" s="62"/>
       <c r="AZ55" s="62"/>
-      <c r="BA55" s="151"/>
+      <c r="BA55" s="150"/>
       <c r="BB55" s="72"/>
       <c r="BC55" s="72"/>
       <c r="BD55" s="62"/>
       <c r="BE55" s="62"/>
       <c r="BF55" s="62"/>
       <c r="BG55" s="62"/>
-      <c r="BH55" s="151"/>
+      <c r="BH55" s="150"/>
       <c r="BI55" s="72"/>
       <c r="BJ55" s="72"/>
       <c r="BK55" s="62"/>
@@ -11592,21 +11659,21 @@
       <c r="DK55" s="67"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="280"/>
-      <c r="C56" s="290"/>
+      <c r="B56" s="279"/>
+      <c r="C56" s="283"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
       <c r="F56" s="75"/>
-      <c r="G56" s="215"/>
-      <c r="H56" s="216"/>
-      <c r="I56" s="216"/>
-      <c r="J56" s="216"/>
-      <c r="K56" s="216"/>
-      <c r="L56" s="230"/>
-      <c r="M56" s="230"/>
-      <c r="N56" s="216"/>
-      <c r="O56" s="216"/>
-      <c r="P56" s="216"/>
+      <c r="G56" s="214"/>
+      <c r="H56" s="215"/>
+      <c r="I56" s="215"/>
+      <c r="J56" s="215"/>
+      <c r="K56" s="215"/>
+      <c r="L56" s="229"/>
+      <c r="M56" s="229"/>
+      <c r="N56" s="215"/>
+      <c r="O56" s="215"/>
+      <c r="P56" s="215"/>
       <c r="Q56" s="48"/>
       <c r="R56" s="48"/>
       <c r="S56" s="71"/>
@@ -11636,21 +11703,21 @@
       <c r="AQ56" s="48"/>
       <c r="AR56" s="48"/>
       <c r="AS56" s="48"/>
-      <c r="AT56" s="150"/>
+      <c r="AT56" s="149"/>
       <c r="AU56" s="71"/>
       <c r="AV56" s="71"/>
       <c r="AW56" s="48"/>
       <c r="AX56" s="48"/>
       <c r="AY56" s="48"/>
       <c r="AZ56" s="48"/>
-      <c r="BA56" s="150"/>
+      <c r="BA56" s="149"/>
       <c r="BB56" s="71"/>
       <c r="BC56" s="71"/>
       <c r="BD56" s="48"/>
       <c r="BE56" s="48"/>
       <c r="BF56" s="48"/>
       <c r="BG56" s="48"/>
-      <c r="BH56" s="150"/>
+      <c r="BH56" s="149"/>
       <c r="BI56" s="71"/>
       <c r="BJ56" s="71"/>
       <c r="BK56" s="48"/>
@@ -11708,21 +11775,21 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="280"/>
-      <c r="C57" s="286"/>
+      <c r="B57" s="279"/>
+      <c r="C57" s="285"/>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
       <c r="F57" s="78"/>
-      <c r="G57" s="231"/>
-      <c r="H57" s="232"/>
-      <c r="I57" s="232"/>
-      <c r="J57" s="232"/>
-      <c r="K57" s="232"/>
-      <c r="L57" s="234"/>
-      <c r="M57" s="234"/>
-      <c r="N57" s="232"/>
-      <c r="O57" s="232"/>
-      <c r="P57" s="232"/>
+      <c r="G57" s="230"/>
+      <c r="H57" s="231"/>
+      <c r="I57" s="231"/>
+      <c r="J57" s="231"/>
+      <c r="K57" s="231"/>
+      <c r="L57" s="233"/>
+      <c r="M57" s="233"/>
+      <c r="N57" s="231"/>
+      <c r="O57" s="231"/>
+      <c r="P57" s="231"/>
       <c r="Q57" s="57"/>
       <c r="R57" s="57"/>
       <c r="S57" s="73"/>
@@ -11752,21 +11819,21 @@
       <c r="AQ57" s="57"/>
       <c r="AR57" s="57"/>
       <c r="AS57" s="57"/>
-      <c r="AT57" s="152"/>
+      <c r="AT57" s="151"/>
       <c r="AU57" s="73"/>
       <c r="AV57" s="73"/>
       <c r="AW57" s="57"/>
       <c r="AX57" s="57"/>
       <c r="AY57" s="57"/>
       <c r="AZ57" s="57"/>
-      <c r="BA57" s="152"/>
+      <c r="BA57" s="151"/>
       <c r="BB57" s="73"/>
       <c r="BC57" s="73"/>
       <c r="BD57" s="57"/>
       <c r="BE57" s="57"/>
       <c r="BF57" s="57"/>
       <c r="BG57" s="57"/>
-      <c r="BH57" s="152"/>
+      <c r="BH57" s="151"/>
       <c r="BI57" s="73"/>
       <c r="BJ57" s="73"/>
       <c r="BK57" s="57"/>
@@ -11824,32 +11891,38 @@
       <c r="DK57" s="61"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="280"/>
-      <c r="C58" s="286"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="175"/>
-      <c r="G58" s="215"/>
-      <c r="H58" s="216"/>
-      <c r="I58" s="216"/>
-      <c r="J58" s="216"/>
-      <c r="K58" s="216"/>
-      <c r="L58" s="230"/>
-      <c r="M58" s="230"/>
-      <c r="N58" s="216"/>
-      <c r="O58" s="216"/>
-      <c r="P58" s="216"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="48"/>
-      <c r="S58" s="71"/>
-      <c r="T58" s="71"/>
-      <c r="U58" s="48"/>
+      <c r="B58" s="279"/>
+      <c r="C58" s="285"/>
+      <c r="D58" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F58" s="174">
+        <v>40356</v>
+      </c>
+      <c r="G58" s="214"/>
+      <c r="H58" s="215"/>
+      <c r="I58" s="215"/>
+      <c r="J58" s="215"/>
+      <c r="K58" s="215"/>
+      <c r="L58" s="229"/>
+      <c r="M58" s="229"/>
+      <c r="N58" s="215"/>
+      <c r="O58" s="215"/>
+      <c r="P58" s="215"/>
+      <c r="Q58" s="301"/>
+      <c r="R58" s="301"/>
+      <c r="S58" s="302"/>
+      <c r="T58" s="302"/>
+      <c r="U58" s="301"/>
       <c r="V58" s="48"/>
       <c r="W58" s="48"/>
       <c r="X58" s="48"/>
       <c r="Y58" s="48"/>
       <c r="Z58" s="71"/>
-      <c r="AA58" s="98"/>
+      <c r="AA58" s="97"/>
       <c r="AB58" s="62"/>
       <c r="AC58" s="62"/>
       <c r="AD58" s="62"/>
@@ -11868,21 +11941,21 @@
       <c r="AQ58" s="48"/>
       <c r="AR58" s="48"/>
       <c r="AS58" s="48"/>
-      <c r="AT58" s="150"/>
+      <c r="AT58" s="149"/>
       <c r="AU58" s="71"/>
       <c r="AV58" s="71"/>
       <c r="AW58" s="48"/>
       <c r="AX58" s="48"/>
       <c r="AY58" s="48"/>
       <c r="AZ58" s="48"/>
-      <c r="BA58" s="150"/>
+      <c r="BA58" s="149"/>
       <c r="BB58" s="71"/>
       <c r="BC58" s="71"/>
       <c r="BD58" s="48"/>
       <c r="BE58" s="48"/>
       <c r="BF58" s="48"/>
       <c r="BG58" s="48"/>
-      <c r="BH58" s="150"/>
+      <c r="BH58" s="149"/>
       <c r="BI58" s="71"/>
       <c r="BJ58" s="71"/>
       <c r="BK58" s="48"/>
@@ -11940,21 +12013,21 @@
       <c r="DK58" s="52"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="280"/>
-      <c r="C59" s="285"/>
+      <c r="B59" s="279"/>
+      <c r="C59" s="299"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
       <c r="F59" s="75"/>
-      <c r="G59" s="215"/>
-      <c r="H59" s="216"/>
-      <c r="I59" s="216"/>
-      <c r="J59" s="216"/>
-      <c r="K59" s="216"/>
-      <c r="L59" s="230"/>
-      <c r="M59" s="230"/>
-      <c r="N59" s="216"/>
-      <c r="O59" s="216"/>
-      <c r="P59" s="216"/>
+      <c r="G59" s="214"/>
+      <c r="H59" s="215"/>
+      <c r="I59" s="215"/>
+      <c r="J59" s="215"/>
+      <c r="K59" s="215"/>
+      <c r="L59" s="229"/>
+      <c r="M59" s="229"/>
+      <c r="N59" s="215"/>
+      <c r="O59" s="215"/>
+      <c r="P59" s="215"/>
       <c r="Q59" s="48"/>
       <c r="R59" s="48"/>
       <c r="S59" s="71"/>
@@ -11984,21 +12057,21 @@
       <c r="AQ59" s="48"/>
       <c r="AR59" s="48"/>
       <c r="AS59" s="48"/>
-      <c r="AT59" s="150"/>
+      <c r="AT59" s="149"/>
       <c r="AU59" s="71"/>
       <c r="AV59" s="71"/>
       <c r="AW59" s="48"/>
       <c r="AX59" s="48"/>
       <c r="AY59" s="48"/>
       <c r="AZ59" s="48"/>
-      <c r="BA59" s="150"/>
+      <c r="BA59" s="149"/>
       <c r="BB59" s="71"/>
       <c r="BC59" s="71"/>
       <c r="BD59" s="48"/>
       <c r="BE59" s="48"/>
       <c r="BF59" s="48"/>
       <c r="BG59" s="48"/>
-      <c r="BH59" s="150"/>
+      <c r="BH59" s="149"/>
       <c r="BI59" s="71"/>
       <c r="BJ59" s="71"/>
       <c r="BK59" s="48"/>
@@ -12056,21 +12129,21 @@
       <c r="DK59" s="52"/>
     </row>
     <row r="60" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B60" s="281"/>
-      <c r="C60" s="287"/>
+      <c r="B60" s="288"/>
+      <c r="C60" s="300"/>
       <c r="D60" s="17"/>
       <c r="E60" s="13"/>
       <c r="F60" s="79"/>
-      <c r="G60" s="202"/>
-      <c r="H60" s="203"/>
-      <c r="I60" s="203"/>
-      <c r="J60" s="203"/>
-      <c r="K60" s="203"/>
-      <c r="L60" s="237"/>
-      <c r="M60" s="237"/>
-      <c r="N60" s="203"/>
-      <c r="O60" s="216"/>
-      <c r="P60" s="216"/>
+      <c r="G60" s="201"/>
+      <c r="H60" s="202"/>
+      <c r="I60" s="202"/>
+      <c r="J60" s="202"/>
+      <c r="K60" s="202"/>
+      <c r="L60" s="236"/>
+      <c r="M60" s="236"/>
+      <c r="N60" s="202"/>
+      <c r="O60" s="215"/>
+      <c r="P60" s="215"/>
       <c r="Q60" s="48"/>
       <c r="R60" s="48"/>
       <c r="S60" s="71"/>
@@ -12100,21 +12173,21 @@
       <c r="AQ60" s="32"/>
       <c r="AR60" s="32"/>
       <c r="AS60" s="32"/>
-      <c r="AT60" s="148"/>
+      <c r="AT60" s="147"/>
       <c r="AU60" s="69"/>
       <c r="AV60" s="69"/>
       <c r="AW60" s="32"/>
       <c r="AX60" s="32"/>
       <c r="AY60" s="32"/>
       <c r="AZ60" s="32"/>
-      <c r="BA60" s="148"/>
+      <c r="BA60" s="147"/>
       <c r="BB60" s="69"/>
       <c r="BC60" s="69"/>
       <c r="BD60" s="32"/>
       <c r="BE60" s="32"/>
       <c r="BF60" s="32"/>
       <c r="BG60" s="32"/>
-      <c r="BH60" s="148"/>
+      <c r="BH60" s="147"/>
       <c r="BI60" s="69"/>
       <c r="BJ60" s="69"/>
       <c r="BK60" s="32"/>
@@ -12172,10 +12245,10 @@
       <c r="DK60" s="36"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="297" t="s">
+      <c r="B61" s="294" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="278" t="s">
+      <c r="C61" s="286" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -12184,23 +12257,23 @@
       <c r="E61" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="175">
+      <c r="F61" s="174">
         <v>40353</v>
       </c>
-      <c r="G61" s="238"/>
-      <c r="H61" s="239"/>
-      <c r="I61" s="239"/>
-      <c r="J61" s="209"/>
-      <c r="K61" s="209"/>
-      <c r="L61" s="240"/>
-      <c r="M61" s="240"/>
-      <c r="N61" s="210"/>
-      <c r="O61" s="276"/>
-      <c r="P61" s="276"/>
-      <c r="Q61" s="103"/>
-      <c r="R61" s="103"/>
-      <c r="S61" s="101"/>
-      <c r="T61" s="102"/>
+      <c r="G61" s="237"/>
+      <c r="H61" s="238"/>
+      <c r="I61" s="238"/>
+      <c r="J61" s="208"/>
+      <c r="K61" s="208"/>
+      <c r="L61" s="239"/>
+      <c r="M61" s="239"/>
+      <c r="N61" s="209"/>
+      <c r="O61" s="275"/>
+      <c r="P61" s="275"/>
+      <c r="Q61" s="102"/>
+      <c r="R61" s="102"/>
+      <c r="S61" s="100"/>
+      <c r="T61" s="101"/>
       <c r="U61" s="42"/>
       <c r="V61" s="42"/>
       <c r="W61" s="42"/>
@@ -12226,21 +12299,21 @@
       <c r="AQ61" s="42"/>
       <c r="AR61" s="42"/>
       <c r="AS61" s="42"/>
-      <c r="AT61" s="149"/>
+      <c r="AT61" s="148"/>
       <c r="AU61" s="70"/>
       <c r="AV61" s="70"/>
       <c r="AW61" s="42"/>
       <c r="AX61" s="42"/>
       <c r="AY61" s="42"/>
       <c r="AZ61" s="42"/>
-      <c r="BA61" s="149"/>
+      <c r="BA61" s="148"/>
       <c r="BB61" s="70"/>
       <c r="BC61" s="70"/>
       <c r="BD61" s="42"/>
       <c r="BE61" s="42"/>
       <c r="BF61" s="42"/>
       <c r="BG61" s="42"/>
-      <c r="BH61" s="149"/>
+      <c r="BH61" s="148"/>
       <c r="BI61" s="70"/>
       <c r="BJ61" s="70"/>
       <c r="BK61" s="42"/>
@@ -12298,32 +12371,32 @@
       <c r="DK61" s="47"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="298"/>
-      <c r="C62" s="278"/>
+      <c r="B62" s="295"/>
+      <c r="C62" s="286"/>
       <c r="D62" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="175">
+      <c r="F62" s="174">
         <v>40357</v>
       </c>
-      <c r="G62" s="241"/>
-      <c r="H62" s="236"/>
-      <c r="I62" s="236"/>
-      <c r="J62" s="216"/>
-      <c r="K62" s="216"/>
-      <c r="L62" s="230"/>
-      <c r="M62" s="230"/>
-      <c r="N62" s="216"/>
-      <c r="O62" s="216"/>
-      <c r="P62" s="216"/>
+      <c r="G62" s="240"/>
+      <c r="H62" s="235"/>
+      <c r="I62" s="235"/>
+      <c r="J62" s="215"/>
+      <c r="K62" s="215"/>
+      <c r="L62" s="229"/>
+      <c r="M62" s="229"/>
+      <c r="N62" s="215"/>
+      <c r="O62" s="215"/>
+      <c r="P62" s="215"/>
       <c r="Q62" s="48"/>
       <c r="R62" s="48"/>
       <c r="S62" s="71"/>
       <c r="T62" s="71"/>
-      <c r="U62" s="97"/>
+      <c r="U62" s="96"/>
       <c r="V62" s="48"/>
       <c r="W62" s="48"/>
       <c r="X62" s="48"/>
@@ -12348,21 +12421,21 @@
       <c r="AQ62" s="48"/>
       <c r="AR62" s="48"/>
       <c r="AS62" s="48"/>
-      <c r="AT62" s="150"/>
+      <c r="AT62" s="149"/>
       <c r="AU62" s="71"/>
       <c r="AV62" s="71"/>
       <c r="AW62" s="48"/>
       <c r="AX62" s="48"/>
       <c r="AY62" s="48"/>
       <c r="AZ62" s="48"/>
-      <c r="BA62" s="150"/>
+      <c r="BA62" s="149"/>
       <c r="BB62" s="71"/>
       <c r="BC62" s="71"/>
       <c r="BD62" s="48"/>
       <c r="BE62" s="48"/>
       <c r="BF62" s="48"/>
       <c r="BG62" s="48"/>
-      <c r="BH62" s="150"/>
+      <c r="BH62" s="149"/>
       <c r="BI62" s="71"/>
       <c r="BJ62" s="71"/>
       <c r="BK62" s="48"/>
@@ -12420,33 +12493,33 @@
       <c r="DK62" s="52"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="298"/>
-      <c r="C63" s="278"/>
+      <c r="B63" s="295"/>
+      <c r="C63" s="286"/>
       <c r="D63" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="175">
+      <c r="F63" s="174">
         <v>40358</v>
       </c>
-      <c r="G63" s="241"/>
-      <c r="H63" s="236"/>
-      <c r="I63" s="236"/>
-      <c r="J63" s="216"/>
-      <c r="K63" s="216"/>
-      <c r="L63" s="230"/>
-      <c r="M63" s="230"/>
-      <c r="N63" s="216"/>
-      <c r="O63" s="216"/>
-      <c r="P63" s="216"/>
+      <c r="G63" s="240"/>
+      <c r="H63" s="235"/>
+      <c r="I63" s="235"/>
+      <c r="J63" s="215"/>
+      <c r="K63" s="215"/>
+      <c r="L63" s="229"/>
+      <c r="M63" s="229"/>
+      <c r="N63" s="215"/>
+      <c r="O63" s="215"/>
+      <c r="P63" s="215"/>
       <c r="Q63" s="48"/>
       <c r="R63" s="48"/>
       <c r="S63" s="71"/>
       <c r="T63" s="71"/>
       <c r="U63" s="48"/>
-      <c r="V63" s="97"/>
+      <c r="V63" s="96"/>
       <c r="W63" s="48"/>
       <c r="X63" s="48"/>
       <c r="Y63" s="48"/>
@@ -12470,21 +12543,21 @@
       <c r="AQ63" s="48"/>
       <c r="AR63" s="48"/>
       <c r="AS63" s="48"/>
-      <c r="AT63" s="150"/>
+      <c r="AT63" s="149"/>
       <c r="AU63" s="71"/>
       <c r="AV63" s="71"/>
       <c r="AW63" s="48"/>
       <c r="AX63" s="48"/>
       <c r="AY63" s="48"/>
       <c r="AZ63" s="48"/>
-      <c r="BA63" s="150"/>
+      <c r="BA63" s="149"/>
       <c r="BB63" s="71"/>
       <c r="BC63" s="71"/>
       <c r="BD63" s="48"/>
       <c r="BE63" s="48"/>
       <c r="BF63" s="48"/>
       <c r="BG63" s="48"/>
-      <c r="BH63" s="150"/>
+      <c r="BH63" s="149"/>
       <c r="BI63" s="71"/>
       <c r="BJ63" s="71"/>
       <c r="BK63" s="48"/>
@@ -12542,34 +12615,34 @@
       <c r="DK63" s="52"/>
     </row>
     <row r="64" spans="2:115">
-      <c r="B64" s="298"/>
-      <c r="C64" s="278"/>
+      <c r="B64" s="295"/>
+      <c r="C64" s="286"/>
       <c r="D64" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F64" s="175">
+      <c r="F64" s="174">
         <v>40361</v>
       </c>
-      <c r="G64" s="241"/>
-      <c r="H64" s="236"/>
-      <c r="I64" s="236"/>
-      <c r="J64" s="216"/>
-      <c r="K64" s="216"/>
-      <c r="L64" s="230"/>
-      <c r="M64" s="230"/>
-      <c r="N64" s="216"/>
-      <c r="O64" s="216"/>
-      <c r="P64" s="216"/>
+      <c r="G64" s="240"/>
+      <c r="H64" s="235"/>
+      <c r="I64" s="235"/>
+      <c r="J64" s="215"/>
+      <c r="K64" s="215"/>
+      <c r="L64" s="229"/>
+      <c r="M64" s="229"/>
+      <c r="N64" s="215"/>
+      <c r="O64" s="215"/>
+      <c r="P64" s="215"/>
       <c r="Q64" s="48"/>
       <c r="R64" s="48"/>
       <c r="S64" s="71"/>
       <c r="T64" s="71"/>
       <c r="U64" s="48"/>
       <c r="V64" s="48"/>
-      <c r="W64" s="97"/>
+      <c r="W64" s="96"/>
       <c r="X64" s="48"/>
       <c r="Y64" s="48"/>
       <c r="Z64" s="71"/>
@@ -12592,21 +12665,21 @@
       <c r="AQ64" s="48"/>
       <c r="AR64" s="48"/>
       <c r="AS64" s="48"/>
-      <c r="AT64" s="150"/>
+      <c r="AT64" s="149"/>
       <c r="AU64" s="71"/>
       <c r="AV64" s="71"/>
       <c r="AW64" s="48"/>
       <c r="AX64" s="48"/>
       <c r="AY64" s="48"/>
       <c r="AZ64" s="48"/>
-      <c r="BA64" s="150"/>
+      <c r="BA64" s="149"/>
       <c r="BB64" s="71"/>
       <c r="BC64" s="71"/>
       <c r="BD64" s="48"/>
       <c r="BE64" s="48"/>
       <c r="BF64" s="48"/>
       <c r="BG64" s="48"/>
-      <c r="BH64" s="150"/>
+      <c r="BH64" s="149"/>
       <c r="BI64" s="71"/>
       <c r="BJ64" s="71"/>
       <c r="BK64" s="48"/>
@@ -12664,23 +12737,23 @@
       <c r="DK64" s="52"/>
     </row>
     <row r="65" spans="2:115">
-      <c r="B65" s="298"/>
-      <c r="C65" s="278"/>
+      <c r="B65" s="295"/>
+      <c r="C65" s="286"/>
       <c r="D65" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="75"/>
-      <c r="G65" s="241"/>
-      <c r="H65" s="236"/>
-      <c r="I65" s="236"/>
-      <c r="J65" s="216"/>
-      <c r="K65" s="216"/>
-      <c r="L65" s="230"/>
-      <c r="M65" s="230"/>
-      <c r="N65" s="216"/>
-      <c r="O65" s="216"/>
-      <c r="P65" s="216"/>
+      <c r="G65" s="240"/>
+      <c r="H65" s="235"/>
+      <c r="I65" s="235"/>
+      <c r="J65" s="215"/>
+      <c r="K65" s="215"/>
+      <c r="L65" s="229"/>
+      <c r="M65" s="229"/>
+      <c r="N65" s="215"/>
+      <c r="O65" s="215"/>
+      <c r="P65" s="215"/>
       <c r="Q65" s="48"/>
       <c r="R65" s="48"/>
       <c r="S65" s="71"/>
@@ -12688,8 +12761,8 @@
       <c r="U65" s="48"/>
       <c r="V65" s="48"/>
       <c r="W65" s="93"/>
-      <c r="X65" s="97"/>
-      <c r="Y65" s="97"/>
+      <c r="X65" s="96"/>
+      <c r="Y65" s="96"/>
       <c r="Z65" s="95"/>
       <c r="AA65" s="71"/>
       <c r="AB65" s="48"/>
@@ -12710,21 +12783,21 @@
       <c r="AQ65" s="48"/>
       <c r="AR65" s="48"/>
       <c r="AS65" s="48"/>
-      <c r="AT65" s="150"/>
+      <c r="AT65" s="149"/>
       <c r="AU65" s="71"/>
       <c r="AV65" s="71"/>
       <c r="AW65" s="48"/>
       <c r="AX65" s="48"/>
       <c r="AY65" s="48"/>
       <c r="AZ65" s="48"/>
-      <c r="BA65" s="150"/>
+      <c r="BA65" s="149"/>
       <c r="BB65" s="71"/>
       <c r="BC65" s="71"/>
       <c r="BD65" s="48"/>
       <c r="BE65" s="48"/>
       <c r="BF65" s="48"/>
       <c r="BG65" s="48"/>
-      <c r="BH65" s="150"/>
+      <c r="BH65" s="149"/>
       <c r="BI65" s="71"/>
       <c r="BJ65" s="71"/>
       <c r="BK65" s="48"/>
@@ -12782,21 +12855,21 @@
       <c r="DK65" s="52"/>
     </row>
     <row r="66" spans="2:115">
-      <c r="B66" s="298"/>
-      <c r="C66" s="278"/>
+      <c r="B66" s="295"/>
+      <c r="C66" s="286"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="F66" s="75"/>
-      <c r="G66" s="242"/>
-      <c r="H66" s="232"/>
-      <c r="I66" s="232"/>
-      <c r="J66" s="232"/>
-      <c r="K66" s="232"/>
-      <c r="L66" s="234"/>
-      <c r="M66" s="234"/>
-      <c r="N66" s="232"/>
-      <c r="O66" s="232"/>
-      <c r="P66" s="232"/>
+      <c r="G66" s="241"/>
+      <c r="H66" s="231"/>
+      <c r="I66" s="231"/>
+      <c r="J66" s="231"/>
+      <c r="K66" s="231"/>
+      <c r="L66" s="233"/>
+      <c r="M66" s="233"/>
+      <c r="N66" s="231"/>
+      <c r="O66" s="231"/>
+      <c r="P66" s="231"/>
       <c r="Q66" s="57"/>
       <c r="R66" s="57"/>
       <c r="S66" s="73"/>
@@ -12826,21 +12899,21 @@
       <c r="AQ66" s="57"/>
       <c r="AR66" s="57"/>
       <c r="AS66" s="57"/>
-      <c r="AT66" s="152"/>
+      <c r="AT66" s="151"/>
       <c r="AU66" s="73"/>
       <c r="AV66" s="73"/>
       <c r="AW66" s="57"/>
       <c r="AX66" s="57"/>
       <c r="AY66" s="57"/>
       <c r="AZ66" s="57"/>
-      <c r="BA66" s="152"/>
+      <c r="BA66" s="151"/>
       <c r="BB66" s="73"/>
       <c r="BC66" s="73"/>
       <c r="BD66" s="57"/>
       <c r="BE66" s="57"/>
       <c r="BF66" s="57"/>
       <c r="BG66" s="57"/>
-      <c r="BH66" s="152"/>
+      <c r="BH66" s="151"/>
       <c r="BI66" s="73"/>
       <c r="BJ66" s="73"/>
       <c r="BK66" s="57"/>
@@ -12898,8 +12971,8 @@
       <c r="DK66" s="61"/>
     </row>
     <row r="67" spans="2:115">
-      <c r="B67" s="298"/>
-      <c r="C67" s="277" t="s">
+      <c r="B67" s="295"/>
+      <c r="C67" s="292" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -12908,23 +12981,23 @@
       <c r="E67" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="175">
+      <c r="F67" s="174">
         <v>40361</v>
       </c>
-      <c r="G67" s="243"/>
-      <c r="H67" s="236"/>
-      <c r="I67" s="236"/>
-      <c r="J67" s="236"/>
-      <c r="K67" s="216"/>
-      <c r="L67" s="230"/>
-      <c r="M67" s="230"/>
-      <c r="N67" s="217"/>
-      <c r="O67" s="212"/>
-      <c r="P67" s="216"/>
+      <c r="G67" s="242"/>
+      <c r="H67" s="235"/>
+      <c r="I67" s="235"/>
+      <c r="J67" s="235"/>
+      <c r="K67" s="215"/>
+      <c r="L67" s="229"/>
+      <c r="M67" s="229"/>
+      <c r="N67" s="216"/>
+      <c r="O67" s="211"/>
+      <c r="P67" s="215"/>
       <c r="Q67" s="48"/>
       <c r="R67" s="48"/>
       <c r="S67" s="95"/>
-      <c r="T67" s="98"/>
+      <c r="T67" s="97"/>
       <c r="U67" s="48"/>
       <c r="V67" s="48"/>
       <c r="W67" s="48"/>
@@ -12950,21 +13023,21 @@
       <c r="AQ67" s="48"/>
       <c r="AR67" s="48"/>
       <c r="AS67" s="48"/>
-      <c r="AT67" s="150"/>
+      <c r="AT67" s="149"/>
       <c r="AU67" s="71"/>
       <c r="AV67" s="71"/>
       <c r="AW67" s="48"/>
       <c r="AX67" s="48"/>
       <c r="AY67" s="48"/>
       <c r="AZ67" s="48"/>
-      <c r="BA67" s="150"/>
+      <c r="BA67" s="149"/>
       <c r="BB67" s="71"/>
       <c r="BC67" s="71"/>
       <c r="BD67" s="48"/>
       <c r="BE67" s="48"/>
       <c r="BF67" s="48"/>
       <c r="BG67" s="48"/>
-      <c r="BH67" s="150"/>
+      <c r="BH67" s="149"/>
       <c r="BI67" s="71"/>
       <c r="BJ67" s="71"/>
       <c r="BK67" s="48"/>
@@ -13022,25 +13095,25 @@
       <c r="DK67" s="52"/>
     </row>
     <row r="68" spans="2:115">
-      <c r="B68" s="298"/>
-      <c r="C68" s="277"/>
+      <c r="B68" s="295"/>
+      <c r="C68" s="292"/>
       <c r="D68" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="75"/>
-      <c r="G68" s="243"/>
-      <c r="H68" s="236"/>
-      <c r="I68" s="216"/>
-      <c r="J68" s="216"/>
-      <c r="K68" s="216"/>
-      <c r="L68" s="230"/>
-      <c r="M68" s="230"/>
-      <c r="N68" s="216"/>
-      <c r="O68" s="216"/>
-      <c r="P68" s="216"/>
-      <c r="Q68" s="96"/>
-      <c r="R68" s="96"/>
+      <c r="G68" s="242"/>
+      <c r="H68" s="235"/>
+      <c r="I68" s="215"/>
+      <c r="J68" s="215"/>
+      <c r="K68" s="215"/>
+      <c r="L68" s="229"/>
+      <c r="M68" s="229"/>
+      <c r="N68" s="215"/>
+      <c r="O68" s="215"/>
+      <c r="P68" s="215"/>
+      <c r="Q68" s="48"/>
+      <c r="R68" s="48"/>
       <c r="S68" s="71"/>
       <c r="T68" s="71"/>
       <c r="U68" s="48"/>
@@ -13068,21 +13141,21 @@
       <c r="AQ68" s="48"/>
       <c r="AR68" s="48"/>
       <c r="AS68" s="48"/>
-      <c r="AT68" s="150"/>
+      <c r="AT68" s="149"/>
       <c r="AU68" s="71"/>
       <c r="AV68" s="71"/>
       <c r="AW68" s="48"/>
       <c r="AX68" s="48"/>
       <c r="AY68" s="48"/>
       <c r="AZ68" s="48"/>
-      <c r="BA68" s="150"/>
+      <c r="BA68" s="149"/>
       <c r="BB68" s="71"/>
       <c r="BC68" s="71"/>
       <c r="BD68" s="48"/>
       <c r="BE68" s="48"/>
       <c r="BF68" s="48"/>
       <c r="BG68" s="48"/>
-      <c r="BH68" s="150"/>
+      <c r="BH68" s="149"/>
       <c r="BI68" s="71"/>
       <c r="BJ68" s="71"/>
       <c r="BK68" s="48"/>
@@ -13140,32 +13213,32 @@
       <c r="DK68" s="52"/>
     </row>
     <row r="69" spans="2:115">
-      <c r="B69" s="298"/>
-      <c r="C69" s="277"/>
+      <c r="B69" s="295"/>
+      <c r="C69" s="292"/>
       <c r="D69" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="75"/>
-      <c r="G69" s="243"/>
-      <c r="H69" s="236"/>
-      <c r="I69" s="216"/>
-      <c r="J69" s="216"/>
-      <c r="K69" s="216"/>
-      <c r="L69" s="230"/>
-      <c r="M69" s="230"/>
-      <c r="N69" s="216"/>
-      <c r="O69" s="216"/>
-      <c r="P69" s="216"/>
+      <c r="G69" s="242"/>
+      <c r="H69" s="235"/>
+      <c r="I69" s="215"/>
+      <c r="J69" s="215"/>
+      <c r="K69" s="215"/>
+      <c r="L69" s="229"/>
+      <c r="M69" s="229"/>
+      <c r="N69" s="215"/>
+      <c r="O69" s="215"/>
+      <c r="P69" s="215"/>
       <c r="Q69" s="48"/>
       <c r="R69" s="48"/>
       <c r="S69" s="71"/>
       <c r="T69" s="71"/>
-      <c r="U69" s="96"/>
-      <c r="V69" s="96"/>
-      <c r="W69" s="96"/>
-      <c r="X69" s="96"/>
-      <c r="Y69" s="96"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="48"/>
+      <c r="W69" s="48"/>
+      <c r="X69" s="48"/>
+      <c r="Y69" s="48"/>
       <c r="Z69" s="71"/>
       <c r="AA69" s="71"/>
       <c r="AB69" s="48"/>
@@ -13186,21 +13259,21 @@
       <c r="AQ69" s="48"/>
       <c r="AR69" s="48"/>
       <c r="AS69" s="48"/>
-      <c r="AT69" s="150"/>
+      <c r="AT69" s="149"/>
       <c r="AU69" s="71"/>
       <c r="AV69" s="71"/>
       <c r="AW69" s="48"/>
       <c r="AX69" s="48"/>
       <c r="AY69" s="48"/>
       <c r="AZ69" s="48"/>
-      <c r="BA69" s="150"/>
+      <c r="BA69" s="149"/>
       <c r="BB69" s="71"/>
       <c r="BC69" s="71"/>
       <c r="BD69" s="48"/>
       <c r="BE69" s="48"/>
       <c r="BF69" s="48"/>
       <c r="BG69" s="48"/>
-      <c r="BH69" s="150"/>
+      <c r="BH69" s="149"/>
       <c r="BI69" s="71"/>
       <c r="BJ69" s="71"/>
       <c r="BK69" s="48"/>
@@ -13258,21 +13331,21 @@
       <c r="DK69" s="52"/>
     </row>
     <row r="70" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B70" s="298"/>
-      <c r="C70" s="277"/>
+      <c r="B70" s="295"/>
+      <c r="C70" s="292"/>
       <c r="D70" s="10"/>
       <c r="E70" s="11"/>
       <c r="F70" s="78"/>
-      <c r="G70" s="244"/>
-      <c r="H70" s="203"/>
-      <c r="I70" s="203"/>
-      <c r="J70" s="245"/>
-      <c r="K70" s="203"/>
-      <c r="L70" s="237"/>
-      <c r="M70" s="237"/>
-      <c r="N70" s="203"/>
-      <c r="O70" s="203"/>
-      <c r="P70" s="203"/>
+      <c r="G70" s="243"/>
+      <c r="H70" s="202"/>
+      <c r="I70" s="202"/>
+      <c r="J70" s="244"/>
+      <c r="K70" s="202"/>
+      <c r="L70" s="236"/>
+      <c r="M70" s="236"/>
+      <c r="N70" s="202"/>
+      <c r="O70" s="202"/>
+      <c r="P70" s="202"/>
       <c r="Q70" s="32"/>
       <c r="R70" s="32"/>
       <c r="S70" s="69"/>
@@ -13302,21 +13375,21 @@
       <c r="AQ70" s="32"/>
       <c r="AR70" s="32"/>
       <c r="AS70" s="32"/>
-      <c r="AT70" s="148"/>
+      <c r="AT70" s="147"/>
       <c r="AU70" s="69"/>
       <c r="AV70" s="69"/>
       <c r="AW70" s="32"/>
       <c r="AX70" s="32"/>
       <c r="AY70" s="32"/>
       <c r="AZ70" s="32"/>
-      <c r="BA70" s="148"/>
+      <c r="BA70" s="147"/>
       <c r="BB70" s="69"/>
       <c r="BC70" s="69"/>
       <c r="BD70" s="32"/>
       <c r="BE70" s="32"/>
       <c r="BF70" s="32"/>
       <c r="BG70" s="32"/>
-      <c r="BH70" s="148"/>
+      <c r="BH70" s="147"/>
       <c r="BI70" s="69"/>
       <c r="BJ70" s="69"/>
       <c r="BK70" s="32"/>
@@ -13374,29 +13447,29 @@
       <c r="DK70" s="36"/>
     </row>
     <row r="71" spans="2:115">
-      <c r="B71" s="279" t="s">
+      <c r="B71" s="280" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="293" t="s">
+      <c r="C71" s="289" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F71" s="176">
+      <c r="F71" s="175">
         <v>40375</v>
       </c>
-      <c r="G71" s="246"/>
-      <c r="H71" s="209"/>
-      <c r="I71" s="209"/>
-      <c r="J71" s="209"/>
-      <c r="K71" s="209"/>
-      <c r="L71" s="240"/>
-      <c r="M71" s="240"/>
-      <c r="N71" s="239"/>
-      <c r="O71" s="239"/>
-      <c r="P71" s="239"/>
+      <c r="G71" s="245"/>
+      <c r="H71" s="208"/>
+      <c r="I71" s="208"/>
+      <c r="J71" s="208"/>
+      <c r="K71" s="208"/>
+      <c r="L71" s="239"/>
+      <c r="M71" s="239"/>
+      <c r="N71" s="238"/>
+      <c r="O71" s="238"/>
+      <c r="P71" s="238"/>
       <c r="Q71" s="43"/>
       <c r="R71" s="43"/>
       <c r="S71" s="70"/>
@@ -13408,39 +13481,39 @@
       <c r="Y71" s="43"/>
       <c r="Z71" s="70"/>
       <c r="AA71" s="70"/>
-      <c r="AB71" s="103"/>
-      <c r="AC71" s="103"/>
-      <c r="AD71" s="103"/>
-      <c r="AE71" s="103"/>
-      <c r="AF71" s="103"/>
+      <c r="AB71" s="102"/>
+      <c r="AC71" s="102"/>
+      <c r="AD71" s="102"/>
+      <c r="AE71" s="102"/>
+      <c r="AF71" s="102"/>
       <c r="AG71" s="70"/>
       <c r="AH71" s="70"/>
-      <c r="AI71" s="103"/>
-      <c r="AJ71" s="103"/>
-      <c r="AK71" s="103"/>
-      <c r="AL71" s="103"/>
-      <c r="AM71" s="103"/>
+      <c r="AI71" s="102"/>
+      <c r="AJ71" s="102"/>
+      <c r="AK71" s="102"/>
+      <c r="AL71" s="102"/>
+      <c r="AM71" s="102"/>
       <c r="AN71" s="70"/>
       <c r="AO71" s="70"/>
       <c r="AP71" s="43"/>
       <c r="AQ71" s="43"/>
       <c r="AR71" s="43"/>
       <c r="AS71" s="43"/>
-      <c r="AT71" s="153"/>
+      <c r="AT71" s="152"/>
       <c r="AU71" s="70"/>
       <c r="AV71" s="70"/>
       <c r="AW71" s="43"/>
       <c r="AX71" s="43"/>
       <c r="AY71" s="43"/>
       <c r="AZ71" s="43"/>
-      <c r="BA71" s="153"/>
+      <c r="BA71" s="152"/>
       <c r="BB71" s="70"/>
       <c r="BC71" s="70"/>
       <c r="BD71" s="43"/>
       <c r="BE71" s="43"/>
       <c r="BF71" s="43"/>
       <c r="BG71" s="43"/>
-      <c r="BH71" s="153"/>
+      <c r="BH71" s="152"/>
       <c r="BI71" s="70"/>
       <c r="BJ71" s="70"/>
       <c r="BK71" s="43"/>
@@ -13498,21 +13571,21 @@
       <c r="DK71" s="47"/>
     </row>
     <row r="72" spans="2:115">
-      <c r="B72" s="280"/>
-      <c r="C72" s="294"/>
+      <c r="B72" s="279"/>
+      <c r="C72" s="290"/>
       <c r="D72" s="15"/>
       <c r="E72" s="22"/>
       <c r="F72" s="81"/>
-      <c r="G72" s="242"/>
-      <c r="H72" s="232"/>
-      <c r="I72" s="232"/>
-      <c r="J72" s="232"/>
-      <c r="K72" s="232"/>
-      <c r="L72" s="234"/>
-      <c r="M72" s="234"/>
-      <c r="N72" s="233"/>
-      <c r="O72" s="233"/>
-      <c r="P72" s="233"/>
+      <c r="G72" s="241"/>
+      <c r="H72" s="231"/>
+      <c r="I72" s="231"/>
+      <c r="J72" s="231"/>
+      <c r="K72" s="231"/>
+      <c r="L72" s="233"/>
+      <c r="M72" s="233"/>
+      <c r="N72" s="232"/>
+      <c r="O72" s="232"/>
+      <c r="P72" s="232"/>
       <c r="Q72" s="56"/>
       <c r="R72" s="56"/>
       <c r="S72" s="73"/>
@@ -13542,21 +13615,21 @@
       <c r="AQ72" s="56"/>
       <c r="AR72" s="56"/>
       <c r="AS72" s="56"/>
-      <c r="AT72" s="154"/>
+      <c r="AT72" s="153"/>
       <c r="AU72" s="73"/>
       <c r="AV72" s="73"/>
       <c r="AW72" s="56"/>
       <c r="AX72" s="56"/>
       <c r="AY72" s="56"/>
       <c r="AZ72" s="56"/>
-      <c r="BA72" s="154"/>
+      <c r="BA72" s="153"/>
       <c r="BB72" s="73"/>
       <c r="BC72" s="73"/>
       <c r="BD72" s="56"/>
       <c r="BE72" s="56"/>
       <c r="BF72" s="56"/>
       <c r="BG72" s="56"/>
-      <c r="BH72" s="154"/>
+      <c r="BH72" s="153"/>
       <c r="BI72" s="73"/>
       <c r="BJ72" s="73"/>
       <c r="BK72" s="56"/>
@@ -13614,8 +13687,8 @@
       <c r="DK72" s="61"/>
     </row>
     <row r="73" spans="2:115">
-      <c r="B73" s="280"/>
-      <c r="C73" s="294" t="s">
+      <c r="B73" s="279"/>
+      <c r="C73" s="290" t="s">
         <v>48</v>
       </c>
       <c r="D73" s="14" t="s">
@@ -13625,16 +13698,16 @@
         <v>38</v>
       </c>
       <c r="F73" s="82"/>
-      <c r="G73" s="247"/>
-      <c r="H73" s="227"/>
-      <c r="I73" s="227"/>
-      <c r="J73" s="227"/>
-      <c r="K73" s="227"/>
-      <c r="L73" s="229"/>
-      <c r="M73" s="229"/>
-      <c r="N73" s="228"/>
-      <c r="O73" s="228"/>
-      <c r="P73" s="228"/>
+      <c r="G73" s="246"/>
+      <c r="H73" s="226"/>
+      <c r="I73" s="226"/>
+      <c r="J73" s="226"/>
+      <c r="K73" s="226"/>
+      <c r="L73" s="228"/>
+      <c r="M73" s="228"/>
+      <c r="N73" s="227"/>
+      <c r="O73" s="227"/>
+      <c r="P73" s="227"/>
       <c r="Q73" s="63"/>
       <c r="R73" s="63"/>
       <c r="S73" s="72"/>
@@ -13664,21 +13737,21 @@
       <c r="AQ73" s="63"/>
       <c r="AR73" s="63"/>
       <c r="AS73" s="63"/>
-      <c r="AT73" s="155"/>
+      <c r="AT73" s="154"/>
       <c r="AU73" s="72"/>
       <c r="AV73" s="72"/>
       <c r="AW73" s="63"/>
       <c r="AX73" s="63"/>
       <c r="AY73" s="63"/>
       <c r="AZ73" s="63"/>
-      <c r="BA73" s="155"/>
+      <c r="BA73" s="154"/>
       <c r="BB73" s="72"/>
       <c r="BC73" s="72"/>
       <c r="BD73" s="63"/>
       <c r="BE73" s="63"/>
       <c r="BF73" s="63"/>
       <c r="BG73" s="63"/>
-      <c r="BH73" s="155"/>
+      <c r="BH73" s="154"/>
       <c r="BI73" s="72"/>
       <c r="BJ73" s="72"/>
       <c r="BK73" s="63"/>
@@ -13736,21 +13809,21 @@
       <c r="DK73" s="67"/>
     </row>
     <row r="74" spans="2:115">
-      <c r="B74" s="280"/>
-      <c r="C74" s="295"/>
+      <c r="B74" s="279"/>
+      <c r="C74" s="291"/>
       <c r="D74" s="16"/>
       <c r="E74" s="24"/>
       <c r="F74" s="83"/>
-      <c r="G74" s="242"/>
-      <c r="H74" s="232"/>
-      <c r="I74" s="232"/>
-      <c r="J74" s="232"/>
-      <c r="K74" s="232"/>
-      <c r="L74" s="234"/>
-      <c r="M74" s="234"/>
-      <c r="N74" s="233"/>
-      <c r="O74" s="233"/>
-      <c r="P74" s="233"/>
+      <c r="G74" s="241"/>
+      <c r="H74" s="231"/>
+      <c r="I74" s="231"/>
+      <c r="J74" s="231"/>
+      <c r="K74" s="231"/>
+      <c r="L74" s="233"/>
+      <c r="M74" s="233"/>
+      <c r="N74" s="232"/>
+      <c r="O74" s="232"/>
+      <c r="P74" s="232"/>
       <c r="Q74" s="56"/>
       <c r="R74" s="56"/>
       <c r="S74" s="73"/>
@@ -13780,21 +13853,21 @@
       <c r="AQ74" s="56"/>
       <c r="AR74" s="56"/>
       <c r="AS74" s="56"/>
-      <c r="AT74" s="154"/>
+      <c r="AT74" s="153"/>
       <c r="AU74" s="73"/>
       <c r="AV74" s="73"/>
       <c r="AW74" s="56"/>
       <c r="AX74" s="56"/>
       <c r="AY74" s="56"/>
       <c r="AZ74" s="56"/>
-      <c r="BA74" s="154"/>
+      <c r="BA74" s="153"/>
       <c r="BB74" s="73"/>
       <c r="BC74" s="73"/>
       <c r="BD74" s="56"/>
       <c r="BE74" s="56"/>
       <c r="BF74" s="56"/>
       <c r="BG74" s="56"/>
-      <c r="BH74" s="154"/>
+      <c r="BH74" s="153"/>
       <c r="BI74" s="73"/>
       <c r="BJ74" s="73"/>
       <c r="BK74" s="56"/>
@@ -13852,21 +13925,21 @@
       <c r="DK74" s="61"/>
     </row>
     <row r="75" spans="2:115">
-      <c r="B75" s="280"/>
-      <c r="C75" s="277"/>
+      <c r="B75" s="279"/>
+      <c r="C75" s="292"/>
       <c r="D75" s="14"/>
       <c r="E75" s="23"/>
       <c r="F75" s="82"/>
-      <c r="G75" s="247"/>
-      <c r="H75" s="227"/>
-      <c r="I75" s="227"/>
-      <c r="J75" s="228"/>
-      <c r="K75" s="227"/>
-      <c r="L75" s="229"/>
-      <c r="M75" s="229"/>
-      <c r="N75" s="227"/>
-      <c r="O75" s="227"/>
-      <c r="P75" s="227"/>
+      <c r="G75" s="246"/>
+      <c r="H75" s="226"/>
+      <c r="I75" s="226"/>
+      <c r="J75" s="227"/>
+      <c r="K75" s="226"/>
+      <c r="L75" s="228"/>
+      <c r="M75" s="228"/>
+      <c r="N75" s="226"/>
+      <c r="O75" s="226"/>
+      <c r="P75" s="226"/>
       <c r="Q75" s="62"/>
       <c r="R75" s="62"/>
       <c r="S75" s="72"/>
@@ -13896,21 +13969,21 @@
       <c r="AQ75" s="62"/>
       <c r="AR75" s="62"/>
       <c r="AS75" s="62"/>
-      <c r="AT75" s="151"/>
+      <c r="AT75" s="150"/>
       <c r="AU75" s="72"/>
       <c r="AV75" s="72"/>
       <c r="AW75" s="62"/>
       <c r="AX75" s="62"/>
       <c r="AY75" s="62"/>
       <c r="AZ75" s="62"/>
-      <c r="BA75" s="151"/>
+      <c r="BA75" s="150"/>
       <c r="BB75" s="72"/>
       <c r="BC75" s="72"/>
       <c r="BD75" s="62"/>
       <c r="BE75" s="62"/>
       <c r="BF75" s="62"/>
       <c r="BG75" s="62"/>
-      <c r="BH75" s="151"/>
+      <c r="BH75" s="150"/>
       <c r="BI75" s="72"/>
       <c r="BJ75" s="72"/>
       <c r="BK75" s="62"/>
@@ -13968,21 +14041,21 @@
       <c r="DK75" s="67"/>
     </row>
     <row r="76" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B76" s="281"/>
-      <c r="C76" s="277"/>
+      <c r="B76" s="288"/>
+      <c r="C76" s="292"/>
       <c r="D76" s="15"/>
       <c r="E76" s="22"/>
       <c r="F76" s="81"/>
-      <c r="G76" s="244"/>
-      <c r="H76" s="203"/>
-      <c r="I76" s="203"/>
-      <c r="J76" s="245"/>
-      <c r="K76" s="245"/>
-      <c r="L76" s="237"/>
-      <c r="M76" s="237"/>
-      <c r="N76" s="203"/>
-      <c r="O76" s="203"/>
-      <c r="P76" s="203"/>
+      <c r="G76" s="243"/>
+      <c r="H76" s="202"/>
+      <c r="I76" s="202"/>
+      <c r="J76" s="244"/>
+      <c r="K76" s="244"/>
+      <c r="L76" s="236"/>
+      <c r="M76" s="236"/>
+      <c r="N76" s="202"/>
+      <c r="O76" s="202"/>
+      <c r="P76" s="202"/>
       <c r="Q76" s="32"/>
       <c r="R76" s="32"/>
       <c r="S76" s="69"/>
@@ -14012,21 +14085,21 @@
       <c r="AQ76" s="32"/>
       <c r="AR76" s="32"/>
       <c r="AS76" s="32"/>
-      <c r="AT76" s="148"/>
+      <c r="AT76" s="147"/>
       <c r="AU76" s="69"/>
       <c r="AV76" s="69"/>
       <c r="AW76" s="32"/>
       <c r="AX76" s="32"/>
       <c r="AY76" s="32"/>
       <c r="AZ76" s="32"/>
-      <c r="BA76" s="148"/>
+      <c r="BA76" s="147"/>
       <c r="BB76" s="69"/>
       <c r="BC76" s="69"/>
       <c r="BD76" s="32"/>
       <c r="BE76" s="32"/>
       <c r="BF76" s="32"/>
       <c r="BG76" s="32"/>
-      <c r="BH76" s="148"/>
+      <c r="BH76" s="147"/>
       <c r="BI76" s="69"/>
       <c r="BJ76" s="69"/>
       <c r="BK76" s="32"/>
@@ -14084,10 +14157,10 @@
       <c r="DK76" s="36"/>
     </row>
     <row r="77" spans="2:115">
-      <c r="B77" s="279" t="s">
+      <c r="B77" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="293" t="s">
+      <c r="C77" s="289" t="s">
         <v>50</v>
       </c>
       <c r="D77" s="20"/>
@@ -14095,16 +14168,16 @@
         <v>51</v>
       </c>
       <c r="F77" s="80"/>
-      <c r="G77" s="246"/>
-      <c r="H77" s="209"/>
-      <c r="I77" s="209"/>
-      <c r="J77" s="209"/>
-      <c r="K77" s="209"/>
-      <c r="L77" s="240"/>
-      <c r="M77" s="240"/>
-      <c r="N77" s="239"/>
-      <c r="O77" s="239"/>
-      <c r="P77" s="239"/>
+      <c r="G77" s="245"/>
+      <c r="H77" s="208"/>
+      <c r="I77" s="208"/>
+      <c r="J77" s="208"/>
+      <c r="K77" s="208"/>
+      <c r="L77" s="239"/>
+      <c r="M77" s="239"/>
+      <c r="N77" s="238"/>
+      <c r="O77" s="238"/>
+      <c r="P77" s="238"/>
       <c r="Q77" s="43"/>
       <c r="R77" s="43"/>
       <c r="S77" s="70"/>
@@ -14134,21 +14207,21 @@
       <c r="AQ77" s="43"/>
       <c r="AR77" s="43"/>
       <c r="AS77" s="43"/>
-      <c r="AT77" s="153"/>
+      <c r="AT77" s="152"/>
       <c r="AU77" s="70"/>
       <c r="AV77" s="70"/>
       <c r="AW77" s="43"/>
       <c r="AX77" s="43"/>
       <c r="AY77" s="43"/>
       <c r="AZ77" s="43"/>
-      <c r="BA77" s="153"/>
+      <c r="BA77" s="152"/>
       <c r="BB77" s="70"/>
       <c r="BC77" s="70"/>
       <c r="BD77" s="43"/>
       <c r="BE77" s="43"/>
       <c r="BF77" s="43"/>
       <c r="BG77" s="43"/>
-      <c r="BH77" s="153"/>
+      <c r="BH77" s="152"/>
       <c r="BI77" s="70"/>
       <c r="BJ77" s="70"/>
       <c r="BK77" s="43"/>
@@ -14206,21 +14279,21 @@
       <c r="DK77" s="47"/>
     </row>
     <row r="78" spans="2:115">
-      <c r="B78" s="280"/>
-      <c r="C78" s="294"/>
+      <c r="B78" s="279"/>
+      <c r="C78" s="290"/>
       <c r="D78" s="15"/>
       <c r="E78" s="22"/>
       <c r="F78" s="81"/>
-      <c r="G78" s="243"/>
-      <c r="H78" s="216"/>
-      <c r="I78" s="216"/>
-      <c r="J78" s="216"/>
-      <c r="K78" s="216"/>
-      <c r="L78" s="230"/>
-      <c r="M78" s="230"/>
-      <c r="N78" s="236"/>
-      <c r="O78" s="236"/>
-      <c r="P78" s="236"/>
+      <c r="G78" s="242"/>
+      <c r="H78" s="215"/>
+      <c r="I78" s="215"/>
+      <c r="J78" s="215"/>
+      <c r="K78" s="215"/>
+      <c r="L78" s="229"/>
+      <c r="M78" s="229"/>
+      <c r="N78" s="235"/>
+      <c r="O78" s="235"/>
+      <c r="P78" s="235"/>
       <c r="Q78" s="54"/>
       <c r="R78" s="54"/>
       <c r="S78" s="71"/>
@@ -14250,21 +14323,21 @@
       <c r="AQ78" s="54"/>
       <c r="AR78" s="54"/>
       <c r="AS78" s="54"/>
-      <c r="AT78" s="156"/>
+      <c r="AT78" s="155"/>
       <c r="AU78" s="71"/>
       <c r="AV78" s="71"/>
       <c r="AW78" s="54"/>
       <c r="AX78" s="54"/>
       <c r="AY78" s="54"/>
       <c r="AZ78" s="54"/>
-      <c r="BA78" s="156"/>
+      <c r="BA78" s="155"/>
       <c r="BB78" s="71"/>
       <c r="BC78" s="71"/>
       <c r="BD78" s="54"/>
       <c r="BE78" s="54"/>
       <c r="BF78" s="54"/>
       <c r="BG78" s="54"/>
-      <c r="BH78" s="156"/>
+      <c r="BH78" s="155"/>
       <c r="BI78" s="71"/>
       <c r="BJ78" s="71"/>
       <c r="BK78" s="54"/>
@@ -14322,8 +14395,8 @@
       <c r="DK78" s="52"/>
     </row>
     <row r="79" spans="2:115">
-      <c r="B79" s="280"/>
-      <c r="C79" s="294" t="s">
+      <c r="B79" s="279"/>
+      <c r="C79" s="290" t="s">
         <v>53</v>
       </c>
       <c r="D79" s="14"/>
@@ -14331,16 +14404,16 @@
         <v>51</v>
       </c>
       <c r="F79" s="82"/>
-      <c r="G79" s="247"/>
-      <c r="H79" s="227"/>
-      <c r="I79" s="227"/>
-      <c r="J79" s="227"/>
-      <c r="K79" s="227"/>
-      <c r="L79" s="229"/>
-      <c r="M79" s="229"/>
-      <c r="N79" s="228"/>
-      <c r="O79" s="228"/>
-      <c r="P79" s="228"/>
+      <c r="G79" s="246"/>
+      <c r="H79" s="226"/>
+      <c r="I79" s="226"/>
+      <c r="J79" s="226"/>
+      <c r="K79" s="226"/>
+      <c r="L79" s="228"/>
+      <c r="M79" s="228"/>
+      <c r="N79" s="227"/>
+      <c r="O79" s="227"/>
+      <c r="P79" s="227"/>
       <c r="Q79" s="63"/>
       <c r="R79" s="63"/>
       <c r="S79" s="72"/>
@@ -14352,11 +14425,11 @@
       <c r="Y79" s="63"/>
       <c r="Z79" s="72"/>
       <c r="AA79" s="72"/>
-      <c r="AB79" s="96"/>
-      <c r="AC79" s="96"/>
-      <c r="AD79" s="96"/>
-      <c r="AE79" s="96"/>
-      <c r="AF79" s="96"/>
+      <c r="AB79" s="63"/>
+      <c r="AC79" s="63"/>
+      <c r="AD79" s="63"/>
+      <c r="AE79" s="63"/>
+      <c r="AF79" s="63"/>
       <c r="AG79" s="72"/>
       <c r="AH79" s="72"/>
       <c r="AI79" s="63"/>
@@ -14370,21 +14443,21 @@
       <c r="AQ79" s="63"/>
       <c r="AR79" s="63"/>
       <c r="AS79" s="63"/>
-      <c r="AT79" s="155"/>
+      <c r="AT79" s="154"/>
       <c r="AU79" s="72"/>
       <c r="AV79" s="72"/>
       <c r="AW79" s="63"/>
       <c r="AX79" s="63"/>
       <c r="AY79" s="63"/>
       <c r="AZ79" s="63"/>
-      <c r="BA79" s="155"/>
+      <c r="BA79" s="154"/>
       <c r="BB79" s="72"/>
       <c r="BC79" s="72"/>
       <c r="BD79" s="63"/>
       <c r="BE79" s="63"/>
       <c r="BF79" s="63"/>
       <c r="BG79" s="63"/>
-      <c r="BH79" s="155"/>
+      <c r="BH79" s="154"/>
       <c r="BI79" s="72"/>
       <c r="BJ79" s="72"/>
       <c r="BK79" s="63"/>
@@ -14442,21 +14515,21 @@
       <c r="DK79" s="67"/>
     </row>
     <row r="80" spans="2:115">
-      <c r="B80" s="280"/>
-      <c r="C80" s="295"/>
+      <c r="B80" s="279"/>
+      <c r="C80" s="291"/>
       <c r="D80" s="16"/>
       <c r="E80" s="24"/>
       <c r="F80" s="83"/>
-      <c r="G80" s="242"/>
-      <c r="H80" s="232"/>
-      <c r="I80" s="232"/>
-      <c r="J80" s="232"/>
-      <c r="K80" s="232"/>
-      <c r="L80" s="234"/>
-      <c r="M80" s="234"/>
-      <c r="N80" s="233"/>
-      <c r="O80" s="233"/>
-      <c r="P80" s="233"/>
+      <c r="G80" s="241"/>
+      <c r="H80" s="231"/>
+      <c r="I80" s="231"/>
+      <c r="J80" s="231"/>
+      <c r="K80" s="231"/>
+      <c r="L80" s="233"/>
+      <c r="M80" s="233"/>
+      <c r="N80" s="232"/>
+      <c r="O80" s="232"/>
+      <c r="P80" s="232"/>
       <c r="Q80" s="56"/>
       <c r="R80" s="56"/>
       <c r="S80" s="73"/>
@@ -14486,21 +14559,21 @@
       <c r="AQ80" s="56"/>
       <c r="AR80" s="56"/>
       <c r="AS80" s="56"/>
-      <c r="AT80" s="154"/>
+      <c r="AT80" s="153"/>
       <c r="AU80" s="73"/>
       <c r="AV80" s="73"/>
       <c r="AW80" s="56"/>
       <c r="AX80" s="56"/>
       <c r="AY80" s="56"/>
       <c r="AZ80" s="56"/>
-      <c r="BA80" s="154"/>
+      <c r="BA80" s="153"/>
       <c r="BB80" s="73"/>
       <c r="BC80" s="73"/>
       <c r="BD80" s="56"/>
       <c r="BE80" s="56"/>
       <c r="BF80" s="56"/>
       <c r="BG80" s="56"/>
-      <c r="BH80" s="154"/>
+      <c r="BH80" s="153"/>
       <c r="BI80" s="73"/>
       <c r="BJ80" s="73"/>
       <c r="BK80" s="56"/>
@@ -14558,21 +14631,21 @@
       <c r="DK80" s="61"/>
     </row>
     <row r="81" spans="2:116">
-      <c r="B81" s="280"/>
-      <c r="C81" s="277"/>
+      <c r="B81" s="279"/>
+      <c r="C81" s="292"/>
       <c r="D81" s="14"/>
       <c r="E81" s="23"/>
       <c r="F81" s="82"/>
-      <c r="G81" s="243"/>
-      <c r="H81" s="216"/>
-      <c r="I81" s="216"/>
-      <c r="J81" s="236"/>
-      <c r="K81" s="216"/>
-      <c r="L81" s="230"/>
-      <c r="M81" s="230"/>
-      <c r="N81" s="216"/>
-      <c r="O81" s="216"/>
-      <c r="P81" s="216"/>
+      <c r="G81" s="242"/>
+      <c r="H81" s="215"/>
+      <c r="I81" s="215"/>
+      <c r="J81" s="235"/>
+      <c r="K81" s="215"/>
+      <c r="L81" s="229"/>
+      <c r="M81" s="229"/>
+      <c r="N81" s="215"/>
+      <c r="O81" s="215"/>
+      <c r="P81" s="215"/>
       <c r="Q81" s="48"/>
       <c r="R81" s="48"/>
       <c r="S81" s="71"/>
@@ -14602,21 +14675,21 @@
       <c r="AQ81" s="48"/>
       <c r="AR81" s="48"/>
       <c r="AS81" s="48"/>
-      <c r="AT81" s="150"/>
+      <c r="AT81" s="149"/>
       <c r="AU81" s="71"/>
       <c r="AV81" s="71"/>
       <c r="AW81" s="48"/>
       <c r="AX81" s="48"/>
       <c r="AY81" s="48"/>
       <c r="AZ81" s="48"/>
-      <c r="BA81" s="150"/>
+      <c r="BA81" s="149"/>
       <c r="BB81" s="71"/>
       <c r="BC81" s="71"/>
       <c r="BD81" s="48"/>
       <c r="BE81" s="48"/>
       <c r="BF81" s="48"/>
       <c r="BG81" s="48"/>
-      <c r="BH81" s="150"/>
+      <c r="BH81" s="149"/>
       <c r="BI81" s="71"/>
       <c r="BJ81" s="71"/>
       <c r="BK81" s="48"/>
@@ -14674,21 +14747,21 @@
       <c r="DK81" s="52"/>
     </row>
     <row r="82" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B82" s="281"/>
-      <c r="C82" s="296"/>
+      <c r="B82" s="288"/>
+      <c r="C82" s="293"/>
       <c r="D82" s="25"/>
       <c r="E82" s="26"/>
       <c r="F82" s="84"/>
-      <c r="G82" s="244"/>
-      <c r="H82" s="203"/>
-      <c r="I82" s="203"/>
-      <c r="J82" s="245"/>
-      <c r="K82" s="245"/>
-      <c r="L82" s="237"/>
-      <c r="M82" s="237"/>
-      <c r="N82" s="203"/>
-      <c r="O82" s="203"/>
-      <c r="P82" s="203"/>
+      <c r="G82" s="243"/>
+      <c r="H82" s="202"/>
+      <c r="I82" s="202"/>
+      <c r="J82" s="244"/>
+      <c r="K82" s="244"/>
+      <c r="L82" s="236"/>
+      <c r="M82" s="236"/>
+      <c r="N82" s="202"/>
+      <c r="O82" s="202"/>
+      <c r="P82" s="202"/>
       <c r="Q82" s="32"/>
       <c r="R82" s="32"/>
       <c r="S82" s="69"/>
@@ -14718,21 +14791,21 @@
       <c r="AQ82" s="32"/>
       <c r="AR82" s="32"/>
       <c r="AS82" s="32"/>
-      <c r="AT82" s="148"/>
+      <c r="AT82" s="147"/>
       <c r="AU82" s="69"/>
       <c r="AV82" s="69"/>
       <c r="AW82" s="32"/>
       <c r="AX82" s="32"/>
       <c r="AY82" s="32"/>
       <c r="AZ82" s="32"/>
-      <c r="BA82" s="148"/>
+      <c r="BA82" s="147"/>
       <c r="BB82" s="69"/>
       <c r="BC82" s="69"/>
       <c r="BD82" s="32"/>
       <c r="BE82" s="32"/>
       <c r="BF82" s="32"/>
       <c r="BG82" s="32"/>
-      <c r="BH82" s="148"/>
+      <c r="BH82" s="147"/>
       <c r="BI82" s="69"/>
       <c r="BJ82" s="69"/>
       <c r="BK82" s="32"/>
@@ -14790,10 +14863,10 @@
       <c r="DK82" s="36"/>
     </row>
     <row r="83" spans="2:116">
-      <c r="B83" s="279" t="s">
+      <c r="B83" s="280" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="289" t="s">
+      <c r="C83" s="282" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="3"/>
@@ -14801,16 +14874,16 @@
         <v>20</v>
       </c>
       <c r="F83" s="76"/>
-      <c r="G83" s="246"/>
-      <c r="H83" s="209"/>
-      <c r="I83" s="209"/>
-      <c r="J83" s="209"/>
-      <c r="K83" s="209"/>
-      <c r="L83" s="240"/>
-      <c r="M83" s="240"/>
-      <c r="N83" s="209"/>
-      <c r="O83" s="209"/>
-      <c r="P83" s="209"/>
+      <c r="G83" s="245"/>
+      <c r="H83" s="208"/>
+      <c r="I83" s="208"/>
+      <c r="J83" s="208"/>
+      <c r="K83" s="208"/>
+      <c r="L83" s="239"/>
+      <c r="M83" s="239"/>
+      <c r="N83" s="208"/>
+      <c r="O83" s="208"/>
+      <c r="P83" s="208"/>
       <c r="Q83" s="42"/>
       <c r="R83" s="42"/>
       <c r="S83" s="70"/>
@@ -14829,32 +14902,32 @@
       <c r="AF83" s="42"/>
       <c r="AG83" s="70"/>
       <c r="AH83" s="70"/>
-      <c r="AI83" s="126"/>
-      <c r="AJ83" s="126"/>
-      <c r="AK83" s="126"/>
-      <c r="AL83" s="126"/>
-      <c r="AM83" s="126"/>
+      <c r="AI83" s="125"/>
+      <c r="AJ83" s="125"/>
+      <c r="AK83" s="125"/>
+      <c r="AL83" s="125"/>
+      <c r="AM83" s="125"/>
       <c r="AN83" s="70"/>
       <c r="AO83" s="70"/>
       <c r="AP83" s="42"/>
       <c r="AQ83" s="42"/>
       <c r="AR83" s="42"/>
       <c r="AS83" s="42"/>
-      <c r="AT83" s="149"/>
+      <c r="AT83" s="148"/>
       <c r="AU83" s="70"/>
       <c r="AV83" s="70"/>
       <c r="AW83" s="42"/>
       <c r="AX83" s="42"/>
       <c r="AY83" s="42"/>
       <c r="AZ83" s="42"/>
-      <c r="BA83" s="149"/>
+      <c r="BA83" s="148"/>
       <c r="BB83" s="70"/>
       <c r="BC83" s="70"/>
       <c r="BD83" s="42"/>
       <c r="BE83" s="42"/>
       <c r="BF83" s="42"/>
       <c r="BG83" s="42"/>
-      <c r="BH83" s="149"/>
+      <c r="BH83" s="148"/>
       <c r="BI83" s="70"/>
       <c r="BJ83" s="70"/>
       <c r="BK83" s="42"/>
@@ -14912,23 +14985,23 @@
       <c r="DK83" s="47"/>
     </row>
     <row r="84" spans="2:116">
-      <c r="B84" s="280"/>
-      <c r="C84" s="290"/>
+      <c r="B84" s="279"/>
+      <c r="C84" s="283"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F84" s="75"/>
-      <c r="G84" s="243"/>
-      <c r="H84" s="216"/>
-      <c r="I84" s="216"/>
-      <c r="J84" s="216"/>
-      <c r="K84" s="216"/>
-      <c r="L84" s="230"/>
-      <c r="M84" s="230"/>
-      <c r="N84" s="216"/>
-      <c r="O84" s="216"/>
-      <c r="P84" s="216"/>
+      <c r="G84" s="242"/>
+      <c r="H84" s="215"/>
+      <c r="I84" s="215"/>
+      <c r="J84" s="215"/>
+      <c r="K84" s="215"/>
+      <c r="L84" s="229"/>
+      <c r="M84" s="229"/>
+      <c r="N84" s="215"/>
+      <c r="O84" s="215"/>
+      <c r="P84" s="215"/>
       <c r="Q84" s="48"/>
       <c r="R84" s="48"/>
       <c r="S84" s="71"/>
@@ -14947,32 +15020,32 @@
       <c r="AF84" s="48"/>
       <c r="AG84" s="71"/>
       <c r="AH84" s="71"/>
-      <c r="AI84" s="100"/>
-      <c r="AJ84" s="100"/>
-      <c r="AK84" s="100"/>
-      <c r="AL84" s="100"/>
-      <c r="AM84" s="100"/>
+      <c r="AI84" s="99"/>
+      <c r="AJ84" s="99"/>
+      <c r="AK84" s="99"/>
+      <c r="AL84" s="99"/>
+      <c r="AM84" s="99"/>
       <c r="AN84" s="71"/>
       <c r="AO84" s="71"/>
       <c r="AP84" s="48"/>
       <c r="AQ84" s="48"/>
       <c r="AR84" s="48"/>
       <c r="AS84" s="48"/>
-      <c r="AT84" s="150"/>
+      <c r="AT84" s="149"/>
       <c r="AU84" s="71"/>
       <c r="AV84" s="71"/>
       <c r="AW84" s="48"/>
       <c r="AX84" s="48"/>
       <c r="AY84" s="48"/>
       <c r="AZ84" s="48"/>
-      <c r="BA84" s="150"/>
+      <c r="BA84" s="149"/>
       <c r="BB84" s="71"/>
       <c r="BC84" s="71"/>
       <c r="BD84" s="48"/>
       <c r="BE84" s="48"/>
       <c r="BF84" s="48"/>
       <c r="BG84" s="48"/>
-      <c r="BH84" s="150"/>
+      <c r="BH84" s="149"/>
       <c r="BI84" s="71"/>
       <c r="BJ84" s="71"/>
       <c r="BK84" s="48"/>
@@ -15030,21 +15103,21 @@
       <c r="DK84" s="52"/>
     </row>
     <row r="85" spans="2:116">
-      <c r="B85" s="280"/>
-      <c r="C85" s="290"/>
+      <c r="B85" s="279"/>
+      <c r="C85" s="283"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="75"/>
-      <c r="G85" s="243"/>
-      <c r="H85" s="216"/>
-      <c r="I85" s="216"/>
-      <c r="J85" s="216"/>
-      <c r="K85" s="216"/>
-      <c r="L85" s="230"/>
-      <c r="M85" s="230"/>
-      <c r="N85" s="216"/>
-      <c r="O85" s="216"/>
-      <c r="P85" s="216"/>
+      <c r="G85" s="242"/>
+      <c r="H85" s="215"/>
+      <c r="I85" s="215"/>
+      <c r="J85" s="215"/>
+      <c r="K85" s="215"/>
+      <c r="L85" s="229"/>
+      <c r="M85" s="229"/>
+      <c r="N85" s="215"/>
+      <c r="O85" s="215"/>
+      <c r="P85" s="215"/>
       <c r="Q85" s="48"/>
       <c r="R85" s="48"/>
       <c r="S85" s="71"/>
@@ -15074,21 +15147,21 @@
       <c r="AQ85" s="48"/>
       <c r="AR85" s="48"/>
       <c r="AS85" s="48"/>
-      <c r="AT85" s="150"/>
+      <c r="AT85" s="149"/>
       <c r="AU85" s="71"/>
       <c r="AV85" s="71"/>
       <c r="AW85" s="48"/>
       <c r="AX85" s="48"/>
       <c r="AY85" s="48"/>
       <c r="AZ85" s="48"/>
-      <c r="BA85" s="150"/>
+      <c r="BA85" s="149"/>
       <c r="BB85" s="71"/>
       <c r="BC85" s="71"/>
       <c r="BD85" s="48"/>
       <c r="BE85" s="48"/>
       <c r="BF85" s="48"/>
       <c r="BG85" s="48"/>
-      <c r="BH85" s="150"/>
+      <c r="BH85" s="149"/>
       <c r="BI85" s="71"/>
       <c r="BJ85" s="71"/>
       <c r="BK85" s="48"/>
@@ -15146,21 +15219,21 @@
       <c r="DK85" s="52"/>
     </row>
     <row r="86" spans="2:116">
-      <c r="B86" s="280"/>
-      <c r="C86" s="290"/>
+      <c r="B86" s="279"/>
+      <c r="C86" s="283"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="75"/>
-      <c r="G86" s="243"/>
-      <c r="H86" s="216"/>
-      <c r="I86" s="216"/>
-      <c r="J86" s="216"/>
-      <c r="K86" s="216"/>
-      <c r="L86" s="230"/>
-      <c r="M86" s="230"/>
-      <c r="N86" s="216"/>
-      <c r="O86" s="216"/>
-      <c r="P86" s="216"/>
+      <c r="G86" s="242"/>
+      <c r="H86" s="215"/>
+      <c r="I86" s="215"/>
+      <c r="J86" s="215"/>
+      <c r="K86" s="215"/>
+      <c r="L86" s="229"/>
+      <c r="M86" s="229"/>
+      <c r="N86" s="215"/>
+      <c r="O86" s="215"/>
+      <c r="P86" s="215"/>
       <c r="Q86" s="48"/>
       <c r="R86" s="48"/>
       <c r="S86" s="71"/>
@@ -15190,21 +15263,21 @@
       <c r="AQ86" s="48"/>
       <c r="AR86" s="48"/>
       <c r="AS86" s="48"/>
-      <c r="AT86" s="150"/>
+      <c r="AT86" s="149"/>
       <c r="AU86" s="71"/>
       <c r="AV86" s="71"/>
       <c r="AW86" s="48"/>
       <c r="AX86" s="48"/>
       <c r="AY86" s="48"/>
       <c r="AZ86" s="48"/>
-      <c r="BA86" s="150"/>
+      <c r="BA86" s="149"/>
       <c r="BB86" s="71"/>
       <c r="BC86" s="71"/>
       <c r="BD86" s="48"/>
       <c r="BE86" s="48"/>
       <c r="BF86" s="48"/>
       <c r="BG86" s="48"/>
-      <c r="BH86" s="150"/>
+      <c r="BH86" s="149"/>
       <c r="BI86" s="71"/>
       <c r="BJ86" s="71"/>
       <c r="BK86" s="48"/>
@@ -15262,21 +15335,21 @@
       <c r="DK86" s="52"/>
     </row>
     <row r="87" spans="2:116">
-      <c r="B87" s="280"/>
-      <c r="C87" s="290"/>
+      <c r="B87" s="279"/>
+      <c r="C87" s="283"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
       <c r="F87" s="75"/>
-      <c r="G87" s="242"/>
-      <c r="H87" s="232"/>
-      <c r="I87" s="232"/>
-      <c r="J87" s="232"/>
-      <c r="K87" s="232"/>
-      <c r="L87" s="234"/>
-      <c r="M87" s="234"/>
-      <c r="N87" s="232"/>
-      <c r="O87" s="232"/>
-      <c r="P87" s="232"/>
+      <c r="G87" s="241"/>
+      <c r="H87" s="231"/>
+      <c r="I87" s="231"/>
+      <c r="J87" s="231"/>
+      <c r="K87" s="231"/>
+      <c r="L87" s="233"/>
+      <c r="M87" s="233"/>
+      <c r="N87" s="231"/>
+      <c r="O87" s="231"/>
+      <c r="P87" s="231"/>
       <c r="Q87" s="57"/>
       <c r="R87" s="57"/>
       <c r="S87" s="73"/>
@@ -15306,21 +15379,21 @@
       <c r="AQ87" s="57"/>
       <c r="AR87" s="57"/>
       <c r="AS87" s="57"/>
-      <c r="AT87" s="152"/>
+      <c r="AT87" s="151"/>
       <c r="AU87" s="73"/>
       <c r="AV87" s="73"/>
       <c r="AW87" s="57"/>
       <c r="AX87" s="57"/>
       <c r="AY87" s="57"/>
       <c r="AZ87" s="57"/>
-      <c r="BA87" s="152"/>
+      <c r="BA87" s="151"/>
       <c r="BB87" s="73"/>
       <c r="BC87" s="73"/>
       <c r="BD87" s="57"/>
       <c r="BE87" s="57"/>
       <c r="BF87" s="57"/>
       <c r="BG87" s="57"/>
-      <c r="BH87" s="152"/>
+      <c r="BH87" s="151"/>
       <c r="BI87" s="73"/>
       <c r="BJ87" s="73"/>
       <c r="BK87" s="57"/>
@@ -15378,21 +15451,21 @@
       <c r="DK87" s="61"/>
     </row>
     <row r="88" spans="2:116">
-      <c r="B88" s="280"/>
-      <c r="C88" s="291"/>
+      <c r="B88" s="279"/>
+      <c r="C88" s="284"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="77"/>
-      <c r="G88" s="247"/>
-      <c r="H88" s="227"/>
-      <c r="I88" s="227"/>
-      <c r="J88" s="227"/>
-      <c r="K88" s="227"/>
-      <c r="L88" s="229"/>
-      <c r="M88" s="229"/>
-      <c r="N88" s="227"/>
-      <c r="O88" s="227"/>
-      <c r="P88" s="227"/>
+      <c r="G88" s="246"/>
+      <c r="H88" s="226"/>
+      <c r="I88" s="226"/>
+      <c r="J88" s="226"/>
+      <c r="K88" s="226"/>
+      <c r="L88" s="228"/>
+      <c r="M88" s="228"/>
+      <c r="N88" s="226"/>
+      <c r="O88" s="226"/>
+      <c r="P88" s="226"/>
       <c r="Q88" s="62"/>
       <c r="R88" s="62"/>
       <c r="S88" s="72"/>
@@ -15422,21 +15495,21 @@
       <c r="AQ88" s="62"/>
       <c r="AR88" s="62"/>
       <c r="AS88" s="62"/>
-      <c r="AT88" s="151"/>
+      <c r="AT88" s="150"/>
       <c r="AU88" s="72"/>
       <c r="AV88" s="72"/>
       <c r="AW88" s="62"/>
       <c r="AX88" s="62"/>
       <c r="AY88" s="62"/>
       <c r="AZ88" s="62"/>
-      <c r="BA88" s="151"/>
+      <c r="BA88" s="150"/>
       <c r="BB88" s="72"/>
       <c r="BC88" s="72"/>
       <c r="BD88" s="62"/>
       <c r="BE88" s="62"/>
       <c r="BF88" s="62"/>
       <c r="BG88" s="62"/>
-      <c r="BH88" s="151"/>
+      <c r="BH88" s="150"/>
       <c r="BI88" s="72"/>
       <c r="BJ88" s="72"/>
       <c r="BK88" s="62"/>
@@ -15494,21 +15567,21 @@
       <c r="DK88" s="67"/>
     </row>
     <row r="89" spans="2:116">
-      <c r="B89" s="280"/>
-      <c r="C89" s="290"/>
+      <c r="B89" s="279"/>
+      <c r="C89" s="283"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="F89" s="75"/>
-      <c r="G89" s="243"/>
-      <c r="H89" s="216"/>
-      <c r="I89" s="216"/>
-      <c r="J89" s="216"/>
-      <c r="K89" s="216"/>
-      <c r="L89" s="230"/>
-      <c r="M89" s="230"/>
-      <c r="N89" s="216"/>
-      <c r="O89" s="216"/>
-      <c r="P89" s="216"/>
+      <c r="G89" s="242"/>
+      <c r="H89" s="215"/>
+      <c r="I89" s="215"/>
+      <c r="J89" s="215"/>
+      <c r="K89" s="215"/>
+      <c r="L89" s="229"/>
+      <c r="M89" s="229"/>
+      <c r="N89" s="215"/>
+      <c r="O89" s="215"/>
+      <c r="P89" s="215"/>
       <c r="Q89" s="48"/>
       <c r="R89" s="48"/>
       <c r="S89" s="71"/>
@@ -15538,21 +15611,21 @@
       <c r="AQ89" s="48"/>
       <c r="AR89" s="48"/>
       <c r="AS89" s="48"/>
-      <c r="AT89" s="150"/>
+      <c r="AT89" s="149"/>
       <c r="AU89" s="71"/>
       <c r="AV89" s="71"/>
       <c r="AW89" s="48"/>
       <c r="AX89" s="48"/>
       <c r="AY89" s="48"/>
       <c r="AZ89" s="48"/>
-      <c r="BA89" s="150"/>
+      <c r="BA89" s="149"/>
       <c r="BB89" s="71"/>
       <c r="BC89" s="71"/>
       <c r="BD89" s="48"/>
       <c r="BE89" s="48"/>
       <c r="BF89" s="48"/>
       <c r="BG89" s="48"/>
-      <c r="BH89" s="150"/>
+      <c r="BH89" s="149"/>
       <c r="BI89" s="71"/>
       <c r="BJ89" s="71"/>
       <c r="BK89" s="48"/>
@@ -15610,21 +15683,21 @@
       <c r="DK89" s="52"/>
     </row>
     <row r="90" spans="2:116">
-      <c r="B90" s="280"/>
-      <c r="C90" s="290"/>
+      <c r="B90" s="279"/>
+      <c r="C90" s="283"/>
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
       <c r="F90" s="75"/>
-      <c r="G90" s="243"/>
-      <c r="H90" s="216"/>
-      <c r="I90" s="216"/>
-      <c r="J90" s="216"/>
-      <c r="K90" s="216"/>
-      <c r="L90" s="230"/>
-      <c r="M90" s="230"/>
-      <c r="N90" s="216"/>
-      <c r="O90" s="216"/>
-      <c r="P90" s="216"/>
+      <c r="G90" s="242"/>
+      <c r="H90" s="215"/>
+      <c r="I90" s="215"/>
+      <c r="J90" s="215"/>
+      <c r="K90" s="215"/>
+      <c r="L90" s="229"/>
+      <c r="M90" s="229"/>
+      <c r="N90" s="215"/>
+      <c r="O90" s="215"/>
+      <c r="P90" s="215"/>
       <c r="Q90" s="48"/>
       <c r="R90" s="48"/>
       <c r="S90" s="71"/>
@@ -15654,21 +15727,21 @@
       <c r="AQ90" s="48"/>
       <c r="AR90" s="48"/>
       <c r="AS90" s="48"/>
-      <c r="AT90" s="150"/>
+      <c r="AT90" s="149"/>
       <c r="AU90" s="71"/>
       <c r="AV90" s="71"/>
       <c r="AW90" s="48"/>
       <c r="AX90" s="48"/>
       <c r="AY90" s="48"/>
       <c r="AZ90" s="48"/>
-      <c r="BA90" s="150"/>
+      <c r="BA90" s="149"/>
       <c r="BB90" s="71"/>
       <c r="BC90" s="71"/>
       <c r="BD90" s="48"/>
       <c r="BE90" s="48"/>
       <c r="BF90" s="48"/>
       <c r="BG90" s="48"/>
-      <c r="BH90" s="150"/>
+      <c r="BH90" s="149"/>
       <c r="BI90" s="71"/>
       <c r="BJ90" s="71"/>
       <c r="BK90" s="48"/>
@@ -15726,21 +15799,21 @@
       <c r="DK90" s="52"/>
     </row>
     <row r="91" spans="2:116">
-      <c r="B91" s="280"/>
-      <c r="C91" s="290"/>
+      <c r="B91" s="279"/>
+      <c r="C91" s="283"/>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
       <c r="F91" s="75"/>
-      <c r="G91" s="243"/>
-      <c r="H91" s="216"/>
-      <c r="I91" s="216"/>
-      <c r="J91" s="216"/>
-      <c r="K91" s="216"/>
-      <c r="L91" s="230"/>
-      <c r="M91" s="230"/>
-      <c r="N91" s="216"/>
-      <c r="O91" s="216"/>
-      <c r="P91" s="216"/>
+      <c r="G91" s="242"/>
+      <c r="H91" s="215"/>
+      <c r="I91" s="215"/>
+      <c r="J91" s="215"/>
+      <c r="K91" s="215"/>
+      <c r="L91" s="229"/>
+      <c r="M91" s="229"/>
+      <c r="N91" s="215"/>
+      <c r="O91" s="215"/>
+      <c r="P91" s="215"/>
       <c r="Q91" s="48"/>
       <c r="R91" s="48"/>
       <c r="S91" s="71"/>
@@ -15770,21 +15843,21 @@
       <c r="AQ91" s="48"/>
       <c r="AR91" s="48"/>
       <c r="AS91" s="48"/>
-      <c r="AT91" s="150"/>
+      <c r="AT91" s="149"/>
       <c r="AU91" s="71"/>
       <c r="AV91" s="71"/>
       <c r="AW91" s="48"/>
       <c r="AX91" s="48"/>
       <c r="AY91" s="48"/>
       <c r="AZ91" s="48"/>
-      <c r="BA91" s="150"/>
+      <c r="BA91" s="149"/>
       <c r="BB91" s="71"/>
       <c r="BC91" s="71"/>
       <c r="BD91" s="48"/>
       <c r="BE91" s="48"/>
       <c r="BF91" s="48"/>
       <c r="BG91" s="48"/>
-      <c r="BH91" s="150"/>
+      <c r="BH91" s="149"/>
       <c r="BI91" s="71"/>
       <c r="BJ91" s="71"/>
       <c r="BK91" s="48"/>
@@ -15842,21 +15915,21 @@
       <c r="DK91" s="52"/>
     </row>
     <row r="92" spans="2:116">
-      <c r="B92" s="280"/>
-      <c r="C92" s="290"/>
+      <c r="B92" s="279"/>
+      <c r="C92" s="283"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="75"/>
-      <c r="G92" s="243"/>
-      <c r="H92" s="216"/>
-      <c r="I92" s="216"/>
-      <c r="J92" s="216"/>
-      <c r="K92" s="216"/>
-      <c r="L92" s="230"/>
-      <c r="M92" s="230"/>
-      <c r="N92" s="216"/>
-      <c r="O92" s="216"/>
-      <c r="P92" s="216"/>
+      <c r="G92" s="242"/>
+      <c r="H92" s="215"/>
+      <c r="I92" s="215"/>
+      <c r="J92" s="215"/>
+      <c r="K92" s="215"/>
+      <c r="L92" s="229"/>
+      <c r="M92" s="229"/>
+      <c r="N92" s="215"/>
+      <c r="O92" s="215"/>
+      <c r="P92" s="215"/>
       <c r="Q92" s="48"/>
       <c r="R92" s="48"/>
       <c r="S92" s="71"/>
@@ -15886,21 +15959,21 @@
       <c r="AQ92" s="48"/>
       <c r="AR92" s="48"/>
       <c r="AS92" s="48"/>
-      <c r="AT92" s="150"/>
+      <c r="AT92" s="149"/>
       <c r="AU92" s="71"/>
       <c r="AV92" s="71"/>
       <c r="AW92" s="48"/>
       <c r="AX92" s="48"/>
       <c r="AY92" s="48"/>
       <c r="AZ92" s="48"/>
-      <c r="BA92" s="150"/>
+      <c r="BA92" s="149"/>
       <c r="BB92" s="71"/>
       <c r="BC92" s="71"/>
       <c r="BD92" s="48"/>
       <c r="BE92" s="48"/>
       <c r="BF92" s="48"/>
       <c r="BG92" s="48"/>
-      <c r="BH92" s="150"/>
+      <c r="BH92" s="149"/>
       <c r="BI92" s="71"/>
       <c r="BJ92" s="71"/>
       <c r="BK92" s="48"/>
@@ -15958,21 +16031,21 @@
       <c r="DK92" s="52"/>
     </row>
     <row r="93" spans="2:116">
-      <c r="B93" s="280"/>
-      <c r="C93" s="286"/>
+      <c r="B93" s="279"/>
+      <c r="C93" s="285"/>
       <c r="D93" s="10"/>
       <c r="E93" s="11"/>
       <c r="F93" s="78"/>
-      <c r="G93" s="242"/>
-      <c r="H93" s="232"/>
-      <c r="I93" s="232"/>
-      <c r="J93" s="232"/>
-      <c r="K93" s="232"/>
-      <c r="L93" s="234"/>
-      <c r="M93" s="234"/>
-      <c r="N93" s="232"/>
-      <c r="O93" s="232"/>
-      <c r="P93" s="232"/>
+      <c r="G93" s="241"/>
+      <c r="H93" s="231"/>
+      <c r="I93" s="231"/>
+      <c r="J93" s="231"/>
+      <c r="K93" s="231"/>
+      <c r="L93" s="233"/>
+      <c r="M93" s="233"/>
+      <c r="N93" s="231"/>
+      <c r="O93" s="231"/>
+      <c r="P93" s="231"/>
       <c r="Q93" s="57"/>
       <c r="R93" s="57"/>
       <c r="S93" s="73"/>
@@ -16002,21 +16075,21 @@
       <c r="AQ93" s="57"/>
       <c r="AR93" s="57"/>
       <c r="AS93" s="57"/>
-      <c r="AT93" s="152"/>
+      <c r="AT93" s="151"/>
       <c r="AU93" s="73"/>
       <c r="AV93" s="73"/>
       <c r="AW93" s="57"/>
       <c r="AX93" s="57"/>
       <c r="AY93" s="57"/>
       <c r="AZ93" s="57"/>
-      <c r="BA93" s="152"/>
+      <c r="BA93" s="151"/>
       <c r="BB93" s="73"/>
       <c r="BC93" s="73"/>
       <c r="BD93" s="57"/>
       <c r="BE93" s="57"/>
       <c r="BF93" s="57"/>
       <c r="BG93" s="57"/>
-      <c r="BH93" s="152"/>
+      <c r="BH93" s="151"/>
       <c r="BI93" s="73"/>
       <c r="BJ93" s="73"/>
       <c r="BK93" s="57"/>
@@ -16074,21 +16147,21 @@
       <c r="DK93" s="61"/>
     </row>
     <row r="94" spans="2:116">
-      <c r="B94" s="280"/>
-      <c r="C94" s="291"/>
+      <c r="B94" s="279"/>
+      <c r="C94" s="284"/>
       <c r="D94" s="8"/>
       <c r="E94" s="9"/>
       <c r="F94" s="77"/>
-      <c r="G94" s="243"/>
-      <c r="H94" s="216"/>
-      <c r="I94" s="216"/>
-      <c r="J94" s="216"/>
-      <c r="K94" s="216"/>
-      <c r="L94" s="230"/>
-      <c r="M94" s="230"/>
-      <c r="N94" s="216"/>
-      <c r="O94" s="216"/>
-      <c r="P94" s="216"/>
+      <c r="G94" s="242"/>
+      <c r="H94" s="215"/>
+      <c r="I94" s="215"/>
+      <c r="J94" s="215"/>
+      <c r="K94" s="215"/>
+      <c r="L94" s="229"/>
+      <c r="M94" s="229"/>
+      <c r="N94" s="215"/>
+      <c r="O94" s="215"/>
+      <c r="P94" s="215"/>
       <c r="Q94" s="48"/>
       <c r="R94" s="48"/>
       <c r="S94" s="71"/>
@@ -16118,21 +16191,21 @@
       <c r="AQ94" s="48"/>
       <c r="AR94" s="48"/>
       <c r="AS94" s="48"/>
-      <c r="AT94" s="150"/>
+      <c r="AT94" s="149"/>
       <c r="AU94" s="71"/>
       <c r="AV94" s="71"/>
       <c r="AW94" s="48"/>
       <c r="AX94" s="48"/>
       <c r="AY94" s="48"/>
       <c r="AZ94" s="48"/>
-      <c r="BA94" s="150"/>
+      <c r="BA94" s="149"/>
       <c r="BB94" s="71"/>
       <c r="BC94" s="71"/>
       <c r="BD94" s="48"/>
       <c r="BE94" s="48"/>
       <c r="BF94" s="48"/>
       <c r="BG94" s="48"/>
-      <c r="BH94" s="150"/>
+      <c r="BH94" s="149"/>
       <c r="BI94" s="71"/>
       <c r="BJ94" s="71"/>
       <c r="BK94" s="48"/>
@@ -16191,21 +16264,21 @@
       <c r="DL94" s="7"/>
     </row>
     <row r="95" spans="2:116">
-      <c r="B95" s="280"/>
-      <c r="C95" s="290"/>
+      <c r="B95" s="279"/>
+      <c r="C95" s="283"/>
       <c r="D95" s="15"/>
       <c r="E95" s="22"/>
       <c r="F95" s="81"/>
-      <c r="G95" s="243"/>
-      <c r="H95" s="216"/>
-      <c r="I95" s="216"/>
-      <c r="J95" s="216"/>
-      <c r="K95" s="216"/>
-      <c r="L95" s="230"/>
-      <c r="M95" s="230"/>
-      <c r="N95" s="216"/>
-      <c r="O95" s="216"/>
-      <c r="P95" s="216"/>
+      <c r="G95" s="242"/>
+      <c r="H95" s="215"/>
+      <c r="I95" s="215"/>
+      <c r="J95" s="215"/>
+      <c r="K95" s="215"/>
+      <c r="L95" s="229"/>
+      <c r="M95" s="229"/>
+      <c r="N95" s="215"/>
+      <c r="O95" s="215"/>
+      <c r="P95" s="215"/>
       <c r="Q95" s="48"/>
       <c r="R95" s="48"/>
       <c r="S95" s="71"/>
@@ -16235,21 +16308,21 @@
       <c r="AQ95" s="48"/>
       <c r="AR95" s="48"/>
       <c r="AS95" s="48"/>
-      <c r="AT95" s="150"/>
+      <c r="AT95" s="149"/>
       <c r="AU95" s="71"/>
       <c r="AV95" s="71"/>
       <c r="AW95" s="48"/>
       <c r="AX95" s="48"/>
       <c r="AY95" s="48"/>
       <c r="AZ95" s="48"/>
-      <c r="BA95" s="150"/>
+      <c r="BA95" s="149"/>
       <c r="BB95" s="71"/>
       <c r="BC95" s="71"/>
       <c r="BD95" s="48"/>
       <c r="BE95" s="48"/>
       <c r="BF95" s="48"/>
       <c r="BG95" s="48"/>
-      <c r="BH95" s="150"/>
+      <c r="BH95" s="149"/>
       <c r="BI95" s="71"/>
       <c r="BJ95" s="71"/>
       <c r="BK95" s="48"/>
@@ -16308,21 +16381,21 @@
       <c r="DL95" s="7"/>
     </row>
     <row r="96" spans="2:116">
-      <c r="B96" s="280"/>
-      <c r="C96" s="290"/>
+      <c r="B96" s="279"/>
+      <c r="C96" s="283"/>
       <c r="D96" s="15"/>
       <c r="E96" s="22"/>
       <c r="F96" s="81"/>
-      <c r="G96" s="243"/>
-      <c r="H96" s="216"/>
-      <c r="I96" s="216"/>
-      <c r="J96" s="216"/>
-      <c r="K96" s="216"/>
-      <c r="L96" s="230"/>
-      <c r="M96" s="230"/>
-      <c r="N96" s="216"/>
-      <c r="O96" s="216"/>
-      <c r="P96" s="216"/>
+      <c r="G96" s="242"/>
+      <c r="H96" s="215"/>
+      <c r="I96" s="215"/>
+      <c r="J96" s="215"/>
+      <c r="K96" s="215"/>
+      <c r="L96" s="229"/>
+      <c r="M96" s="229"/>
+      <c r="N96" s="215"/>
+      <c r="O96" s="215"/>
+      <c r="P96" s="215"/>
       <c r="Q96" s="48"/>
       <c r="R96" s="48"/>
       <c r="S96" s="71"/>
@@ -16352,21 +16425,21 @@
       <c r="AQ96" s="48"/>
       <c r="AR96" s="48"/>
       <c r="AS96" s="48"/>
-      <c r="AT96" s="150"/>
+      <c r="AT96" s="149"/>
       <c r="AU96" s="71"/>
       <c r="AV96" s="71"/>
       <c r="AW96" s="48"/>
       <c r="AX96" s="48"/>
       <c r="AY96" s="48"/>
       <c r="AZ96" s="48"/>
-      <c r="BA96" s="150"/>
+      <c r="BA96" s="149"/>
       <c r="BB96" s="71"/>
       <c r="BC96" s="71"/>
       <c r="BD96" s="48"/>
       <c r="BE96" s="48"/>
       <c r="BF96" s="48"/>
       <c r="BG96" s="48"/>
-      <c r="BH96" s="150"/>
+      <c r="BH96" s="149"/>
       <c r="BI96" s="71"/>
       <c r="BJ96" s="71"/>
       <c r="BK96" s="48"/>
@@ -16425,21 +16498,21 @@
       <c r="DL96" s="7"/>
     </row>
     <row r="97" spans="2:116">
-      <c r="B97" s="280"/>
-      <c r="C97" s="286"/>
+      <c r="B97" s="279"/>
+      <c r="C97" s="285"/>
       <c r="D97" s="16"/>
       <c r="E97" s="24"/>
       <c r="F97" s="83"/>
-      <c r="G97" s="243"/>
-      <c r="H97" s="216"/>
-      <c r="I97" s="216"/>
-      <c r="J97" s="216"/>
-      <c r="K97" s="216"/>
-      <c r="L97" s="230"/>
-      <c r="M97" s="230"/>
-      <c r="N97" s="216"/>
-      <c r="O97" s="216"/>
-      <c r="P97" s="216"/>
+      <c r="G97" s="242"/>
+      <c r="H97" s="215"/>
+      <c r="I97" s="215"/>
+      <c r="J97" s="215"/>
+      <c r="K97" s="215"/>
+      <c r="L97" s="229"/>
+      <c r="M97" s="229"/>
+      <c r="N97" s="215"/>
+      <c r="O97" s="215"/>
+      <c r="P97" s="215"/>
       <c r="Q97" s="48"/>
       <c r="R97" s="48"/>
       <c r="S97" s="71"/>
@@ -16469,21 +16542,21 @@
       <c r="AQ97" s="48"/>
       <c r="AR97" s="48"/>
       <c r="AS97" s="48"/>
-      <c r="AT97" s="150"/>
+      <c r="AT97" s="149"/>
       <c r="AU97" s="71"/>
       <c r="AV97" s="71"/>
       <c r="AW97" s="48"/>
       <c r="AX97" s="48"/>
       <c r="AY97" s="48"/>
       <c r="AZ97" s="48"/>
-      <c r="BA97" s="150"/>
+      <c r="BA97" s="149"/>
       <c r="BB97" s="71"/>
       <c r="BC97" s="71"/>
       <c r="BD97" s="48"/>
       <c r="BE97" s="48"/>
       <c r="BF97" s="48"/>
       <c r="BG97" s="48"/>
-      <c r="BH97" s="150"/>
+      <c r="BH97" s="149"/>
       <c r="BI97" s="71"/>
       <c r="BJ97" s="71"/>
       <c r="BK97" s="48"/>
@@ -16542,21 +16615,21 @@
       <c r="DL97" s="7"/>
     </row>
     <row r="98" spans="2:116">
-      <c r="B98" s="280"/>
-      <c r="C98" s="278"/>
+      <c r="B98" s="279"/>
+      <c r="C98" s="286"/>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
       <c r="F98" s="75"/>
-      <c r="G98" s="247"/>
-      <c r="H98" s="227"/>
-      <c r="I98" s="227"/>
-      <c r="J98" s="227"/>
-      <c r="K98" s="227"/>
-      <c r="L98" s="229"/>
-      <c r="M98" s="229"/>
-      <c r="N98" s="227"/>
-      <c r="O98" s="227"/>
-      <c r="P98" s="227"/>
+      <c r="G98" s="246"/>
+      <c r="H98" s="226"/>
+      <c r="I98" s="226"/>
+      <c r="J98" s="226"/>
+      <c r="K98" s="226"/>
+      <c r="L98" s="228"/>
+      <c r="M98" s="228"/>
+      <c r="N98" s="226"/>
+      <c r="O98" s="226"/>
+      <c r="P98" s="226"/>
       <c r="Q98" s="62"/>
       <c r="R98" s="62"/>
       <c r="S98" s="72"/>
@@ -16586,21 +16659,21 @@
       <c r="AQ98" s="62"/>
       <c r="AR98" s="62"/>
       <c r="AS98" s="62"/>
-      <c r="AT98" s="151"/>
+      <c r="AT98" s="150"/>
       <c r="AU98" s="72"/>
       <c r="AV98" s="72"/>
       <c r="AW98" s="62"/>
       <c r="AX98" s="62"/>
       <c r="AY98" s="62"/>
       <c r="AZ98" s="62"/>
-      <c r="BA98" s="151"/>
+      <c r="BA98" s="150"/>
       <c r="BB98" s="72"/>
       <c r="BC98" s="72"/>
       <c r="BD98" s="62"/>
       <c r="BE98" s="62"/>
       <c r="BF98" s="62"/>
       <c r="BG98" s="62"/>
-      <c r="BH98" s="151"/>
+      <c r="BH98" s="150"/>
       <c r="BI98" s="72"/>
       <c r="BJ98" s="72"/>
       <c r="BK98" s="62"/>
@@ -16658,21 +16731,21 @@
       <c r="DK98" s="67"/>
     </row>
     <row r="99" spans="2:116">
-      <c r="B99" s="280"/>
-      <c r="C99" s="278"/>
+      <c r="B99" s="279"/>
+      <c r="C99" s="286"/>
       <c r="D99" s="15"/>
       <c r="E99" s="6"/>
       <c r="F99" s="75"/>
-      <c r="G99" s="243"/>
-      <c r="H99" s="216"/>
-      <c r="I99" s="216"/>
-      <c r="J99" s="216"/>
-      <c r="K99" s="216"/>
-      <c r="L99" s="230"/>
-      <c r="M99" s="230"/>
-      <c r="N99" s="216"/>
-      <c r="O99" s="216"/>
-      <c r="P99" s="216"/>
+      <c r="G99" s="242"/>
+      <c r="H99" s="215"/>
+      <c r="I99" s="215"/>
+      <c r="J99" s="215"/>
+      <c r="K99" s="215"/>
+      <c r="L99" s="229"/>
+      <c r="M99" s="229"/>
+      <c r="N99" s="215"/>
+      <c r="O99" s="215"/>
+      <c r="P99" s="215"/>
       <c r="Q99" s="48"/>
       <c r="R99" s="48"/>
       <c r="S99" s="71"/>
@@ -16702,21 +16775,21 @@
       <c r="AQ99" s="48"/>
       <c r="AR99" s="48"/>
       <c r="AS99" s="48"/>
-      <c r="AT99" s="150"/>
+      <c r="AT99" s="149"/>
       <c r="AU99" s="71"/>
       <c r="AV99" s="71"/>
       <c r="AW99" s="48"/>
       <c r="AX99" s="48"/>
       <c r="AY99" s="48"/>
       <c r="AZ99" s="48"/>
-      <c r="BA99" s="150"/>
+      <c r="BA99" s="149"/>
       <c r="BB99" s="71"/>
       <c r="BC99" s="71"/>
       <c r="BD99" s="48"/>
       <c r="BE99" s="48"/>
       <c r="BF99" s="48"/>
       <c r="BG99" s="48"/>
-      <c r="BH99" s="150"/>
+      <c r="BH99" s="149"/>
       <c r="BI99" s="71"/>
       <c r="BJ99" s="71"/>
       <c r="BK99" s="48"/>
@@ -16774,21 +16847,21 @@
       <c r="DK99" s="52"/>
     </row>
     <row r="100" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B100" s="288"/>
-      <c r="C100" s="292"/>
+      <c r="B100" s="281"/>
+      <c r="C100" s="287"/>
       <c r="D100" s="27"/>
       <c r="E100" s="28"/>
       <c r="F100" s="85"/>
-      <c r="G100" s="248"/>
-      <c r="H100" s="249"/>
-      <c r="I100" s="249"/>
-      <c r="J100" s="249"/>
-      <c r="K100" s="249"/>
-      <c r="L100" s="250"/>
-      <c r="M100" s="250"/>
-      <c r="N100" s="249"/>
-      <c r="O100" s="249"/>
-      <c r="P100" s="249"/>
+      <c r="G100" s="247"/>
+      <c r="H100" s="248"/>
+      <c r="I100" s="248"/>
+      <c r="J100" s="248"/>
+      <c r="K100" s="248"/>
+      <c r="L100" s="249"/>
+      <c r="M100" s="249"/>
+      <c r="N100" s="248"/>
+      <c r="O100" s="248"/>
+      <c r="P100" s="248"/>
       <c r="Q100" s="86"/>
       <c r="R100" s="86"/>
       <c r="S100" s="87"/>
@@ -16818,21 +16891,21 @@
       <c r="AQ100" s="86"/>
       <c r="AR100" s="86"/>
       <c r="AS100" s="86"/>
-      <c r="AT100" s="157"/>
+      <c r="AT100" s="156"/>
       <c r="AU100" s="87"/>
       <c r="AV100" s="87"/>
       <c r="AW100" s="86"/>
       <c r="AX100" s="86"/>
       <c r="AY100" s="86"/>
       <c r="AZ100" s="86"/>
-      <c r="BA100" s="157"/>
+      <c r="BA100" s="156"/>
       <c r="BB100" s="87"/>
       <c r="BC100" s="87"/>
       <c r="BD100" s="86"/>
       <c r="BE100" s="86"/>
       <c r="BF100" s="86"/>
       <c r="BG100" s="86"/>
-      <c r="BH100" s="157"/>
+      <c r="BH100" s="156"/>
       <c r="BI100" s="87"/>
       <c r="BJ100" s="87"/>
       <c r="BK100" s="86"/>
@@ -16892,6 +16965,13 @@
     <row r="101" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="B20:B60"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C45"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="C58:C60"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B83:B100"/>
     <mergeCell ref="C83:C87"/>
@@ -16908,18 +16988,12 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="B61:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="B20:B60"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C45"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="C58:C60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -825,7 +825,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1006,12 +1006,6 @@
         <bgColor theme="3" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor theme="9" tint="0.59996337778862885"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="120">
     <border>
@@ -2527,7 +2521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3365,10 +3359,40 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3383,18 +3407,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3404,9 +3419,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3415,27 +3427,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5034,8 +5025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:DL101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="P36" sqref="P35:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7045,7 +7036,7 @@
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="279" t="s">
+      <c r="B18" s="283" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="250" t="s">
@@ -7171,7 +7162,7 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="279"/>
+      <c r="B19" s="283"/>
       <c r="C19" s="257" t="s">
         <v>10</v>
       </c>
@@ -7295,10 +7286,10 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="280" t="s">
+      <c r="B20" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="296" t="s">
+      <c r="C20" s="285" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="261" t="s">
@@ -7421,8 +7412,8 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="279"/>
-      <c r="C21" s="297"/>
+      <c r="B21" s="283"/>
+      <c r="C21" s="286"/>
       <c r="D21" s="261" t="s">
         <v>58</v>
       </c>
@@ -7543,8 +7534,8 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="279"/>
-      <c r="C22" s="297"/>
+      <c r="B22" s="283"/>
+      <c r="C22" s="286"/>
       <c r="D22" s="261" t="s">
         <v>56</v>
       </c>
@@ -7665,8 +7656,8 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="279"/>
-      <c r="C23" s="298"/>
+      <c r="B23" s="283"/>
+      <c r="C23" s="287"/>
       <c r="D23" s="261" t="s">
         <v>57</v>
       </c>
@@ -7787,8 +7778,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="279"/>
-      <c r="C24" s="299" t="s">
+      <c r="B24" s="283"/>
+      <c r="C24" s="288" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7911,8 +7902,8 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="279"/>
-      <c r="C25" s="299"/>
+      <c r="B25" s="283"/>
+      <c r="C25" s="288"/>
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
@@ -8033,8 +8024,8 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="279"/>
-      <c r="C26" s="299"/>
+      <c r="B26" s="283"/>
+      <c r="C26" s="288"/>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
@@ -8155,8 +8146,8 @@
       <c r="DK26" s="52"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="279"/>
-      <c r="C27" s="299"/>
+      <c r="B27" s="283"/>
+      <c r="C27" s="288"/>
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
@@ -8277,8 +8268,8 @@
       <c r="DK27" s="52"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="279"/>
-      <c r="C28" s="299"/>
+      <c r="B28" s="283"/>
+      <c r="C28" s="288"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
@@ -8399,8 +8390,8 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="279"/>
-      <c r="C29" s="299"/>
+      <c r="B29" s="283"/>
+      <c r="C29" s="288"/>
       <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
@@ -8521,8 +8512,8 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="279"/>
-      <c r="C30" s="299"/>
+      <c r="B30" s="283"/>
+      <c r="C30" s="288"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
@@ -8643,8 +8634,8 @@
       <c r="DK30" s="52"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="279"/>
-      <c r="C31" s="299"/>
+      <c r="B31" s="283"/>
+      <c r="C31" s="288"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
@@ -8765,8 +8756,8 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="279"/>
-      <c r="C32" s="299"/>
+      <c r="B32" s="283"/>
+      <c r="C32" s="288"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
@@ -8887,8 +8878,8 @@
       <c r="DK32" s="52"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="279"/>
-      <c r="C33" s="299"/>
+      <c r="B33" s="283"/>
+      <c r="C33" s="288"/>
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
@@ -9009,8 +9000,8 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="279"/>
-      <c r="C34" s="299"/>
+      <c r="B34" s="283"/>
+      <c r="C34" s="288"/>
       <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
@@ -9131,8 +9122,8 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="279"/>
-      <c r="C35" s="299"/>
+      <c r="B35" s="283"/>
+      <c r="C35" s="288"/>
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
@@ -9253,8 +9244,8 @@
       <c r="DK35" s="52"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="279"/>
-      <c r="C36" s="299"/>
+      <c r="B36" s="283"/>
+      <c r="C36" s="288"/>
       <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
@@ -9375,8 +9366,8 @@
       <c r="DK36" s="52"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="279"/>
-      <c r="C37" s="299"/>
+      <c r="B37" s="283"/>
+      <c r="C37" s="288"/>
       <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
@@ -9497,8 +9488,8 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="279"/>
-      <c r="C38" s="299"/>
+      <c r="B38" s="283"/>
+      <c r="C38" s="288"/>
       <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
@@ -9619,8 +9610,8 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="279"/>
-      <c r="C39" s="299"/>
+      <c r="B39" s="283"/>
+      <c r="C39" s="288"/>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
@@ -9741,8 +9732,8 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="279"/>
-      <c r="C40" s="299"/>
+      <c r="B40" s="283"/>
+      <c r="C40" s="288"/>
       <c r="D40" s="5" t="s">
         <v>76</v>
       </c>
@@ -9863,8 +9854,8 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="279"/>
-      <c r="C41" s="299"/>
+      <c r="B41" s="283"/>
+      <c r="C41" s="288"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
@@ -9985,8 +9976,8 @@
       <c r="DK41" s="52"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="279"/>
-      <c r="C42" s="299"/>
+      <c r="B42" s="283"/>
+      <c r="C42" s="288"/>
       <c r="D42" s="5" t="s">
         <v>78</v>
       </c>
@@ -10107,8 +10098,8 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="279"/>
-      <c r="C43" s="299"/>
+      <c r="B43" s="283"/>
+      <c r="C43" s="288"/>
       <c r="D43" s="5" t="s">
         <v>79</v>
       </c>
@@ -10229,8 +10220,8 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="279"/>
-      <c r="C44" s="299"/>
+      <c r="B44" s="283"/>
+      <c r="C44" s="288"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="75"/>
@@ -10345,8 +10336,8 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="279"/>
-      <c r="C45" s="299"/>
+      <c r="B45" s="283"/>
+      <c r="C45" s="288"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="78"/>
@@ -10461,8 +10452,8 @@
       <c r="DK45" s="61"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="279"/>
-      <c r="C46" s="286" t="s">
+      <c r="B46" s="283"/>
+      <c r="C46" s="281" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -10585,8 +10576,8 @@
       <c r="DK46" s="67"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="279"/>
-      <c r="C47" s="286"/>
+      <c r="B47" s="283"/>
+      <c r="C47" s="281"/>
       <c r="D47" s="5" t="s">
         <v>80</v>
       </c>
@@ -10707,8 +10698,8 @@
       <c r="DK47" s="52"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="279"/>
-      <c r="C48" s="286"/>
+      <c r="B48" s="283"/>
+      <c r="C48" s="281"/>
       <c r="D48" s="5" t="s">
         <v>83</v>
       </c>
@@ -10829,8 +10820,8 @@
       <c r="DK48" s="52"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="279"/>
-      <c r="C49" s="286"/>
+      <c r="B49" s="283"/>
+      <c r="C49" s="281"/>
       <c r="D49" s="5" t="s">
         <v>84</v>
       </c>
@@ -10951,8 +10942,8 @@
       <c r="DK49" s="52"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="279"/>
-      <c r="C50" s="286"/>
+      <c r="B50" s="283"/>
+      <c r="C50" s="281"/>
       <c r="D50" s="5" t="s">
         <v>85</v>
       </c>
@@ -11073,8 +11064,8 @@
       <c r="DK50" s="52"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="279"/>
-      <c r="C51" s="286"/>
+      <c r="B51" s="283"/>
+      <c r="C51" s="281"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
       <c r="F51" s="174"/>
@@ -11189,8 +11180,8 @@
       <c r="DK51" s="52"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="279"/>
-      <c r="C52" s="286"/>
+      <c r="B52" s="283"/>
+      <c r="C52" s="281"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
       <c r="F52" s="174"/>
@@ -11305,8 +11296,8 @@
       <c r="DK52" s="52"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="279"/>
-      <c r="C53" s="286"/>
+      <c r="B53" s="283"/>
+      <c r="C53" s="281"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="174"/>
@@ -11421,8 +11412,8 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115">
-      <c r="B54" s="279"/>
-      <c r="C54" s="286"/>
+      <c r="B54" s="283"/>
+      <c r="C54" s="281"/>
       <c r="D54" s="10"/>
       <c r="E54" s="11"/>
       <c r="F54" s="78"/>
@@ -11537,8 +11528,8 @@
       <c r="DK54" s="61"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="279"/>
-      <c r="C55" s="284" t="s">
+      <c r="B55" s="283"/>
+      <c r="C55" s="294" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="8"/>
@@ -11659,8 +11650,8 @@
       <c r="DK55" s="67"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="279"/>
-      <c r="C56" s="283"/>
+      <c r="B56" s="283"/>
+      <c r="C56" s="293"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
       <c r="F56" s="75"/>
@@ -11775,8 +11766,8 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="279"/>
-      <c r="C57" s="285"/>
+      <c r="B57" s="283"/>
+      <c r="C57" s="289"/>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
       <c r="F57" s="78"/>
@@ -11891,8 +11882,8 @@
       <c r="DK57" s="61"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="279"/>
-      <c r="C58" s="285"/>
+      <c r="B58" s="283"/>
+      <c r="C58" s="289"/>
       <c r="D58" s="8" t="s">
         <v>86</v>
       </c>
@@ -11912,11 +11903,11 @@
       <c r="N58" s="215"/>
       <c r="O58" s="215"/>
       <c r="P58" s="215"/>
-      <c r="Q58" s="301"/>
-      <c r="R58" s="301"/>
-      <c r="S58" s="302"/>
-      <c r="T58" s="302"/>
-      <c r="U58" s="301"/>
+      <c r="Q58" s="279"/>
+      <c r="R58" s="279"/>
+      <c r="S58" s="72"/>
+      <c r="T58" s="72"/>
+      <c r="U58" s="279"/>
       <c r="V58" s="48"/>
       <c r="W58" s="48"/>
       <c r="X58" s="48"/>
@@ -12013,8 +12004,8 @@
       <c r="DK58" s="52"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="279"/>
-      <c r="C59" s="299"/>
+      <c r="B59" s="283"/>
+      <c r="C59" s="288"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
       <c r="F59" s="75"/>
@@ -12129,8 +12120,8 @@
       <c r="DK59" s="52"/>
     </row>
     <row r="60" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B60" s="288"/>
-      <c r="C60" s="300"/>
+      <c r="B60" s="284"/>
+      <c r="C60" s="290"/>
       <c r="D60" s="17"/>
       <c r="E60" s="13"/>
       <c r="F60" s="79"/>
@@ -12245,10 +12236,10 @@
       <c r="DK60" s="36"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="294" t="s">
+      <c r="B61" s="300" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="286" t="s">
+      <c r="C61" s="281" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -12371,8 +12362,8 @@
       <c r="DK61" s="47"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="295"/>
-      <c r="C62" s="286"/>
+      <c r="B62" s="301"/>
+      <c r="C62" s="281"/>
       <c r="D62" s="5" t="s">
         <v>41</v>
       </c>
@@ -12493,8 +12484,8 @@
       <c r="DK62" s="52"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="295"/>
-      <c r="C63" s="286"/>
+      <c r="B63" s="301"/>
+      <c r="C63" s="281"/>
       <c r="D63" s="5" t="s">
         <v>42</v>
       </c>
@@ -12615,8 +12606,8 @@
       <c r="DK63" s="52"/>
     </row>
     <row r="64" spans="2:115">
-      <c r="B64" s="295"/>
-      <c r="C64" s="286"/>
+      <c r="B64" s="301"/>
+      <c r="C64" s="281"/>
       <c r="D64" s="5" t="s">
         <v>43</v>
       </c>
@@ -12737,8 +12728,8 @@
       <c r="DK64" s="52"/>
     </row>
     <row r="65" spans="2:115">
-      <c r="B65" s="295"/>
-      <c r="C65" s="286"/>
+      <c r="B65" s="301"/>
+      <c r="C65" s="281"/>
       <c r="D65" s="5" t="s">
         <v>45</v>
       </c>
@@ -12855,8 +12846,8 @@
       <c r="DK65" s="52"/>
     </row>
     <row r="66" spans="2:115">
-      <c r="B66" s="295"/>
-      <c r="C66" s="286"/>
+      <c r="B66" s="301"/>
+      <c r="C66" s="281"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="F66" s="75"/>
@@ -12971,8 +12962,8 @@
       <c r="DK66" s="61"/>
     </row>
     <row r="67" spans="2:115">
-      <c r="B67" s="295"/>
-      <c r="C67" s="292" t="s">
+      <c r="B67" s="301"/>
+      <c r="C67" s="280" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -13095,8 +13086,8 @@
       <c r="DK67" s="52"/>
     </row>
     <row r="68" spans="2:115">
-      <c r="B68" s="295"/>
-      <c r="C68" s="292"/>
+      <c r="B68" s="301"/>
+      <c r="C68" s="280"/>
       <c r="D68" s="5" t="s">
         <v>47</v>
       </c>
@@ -13213,8 +13204,8 @@
       <c r="DK68" s="52"/>
     </row>
     <row r="69" spans="2:115">
-      <c r="B69" s="295"/>
-      <c r="C69" s="292"/>
+      <c r="B69" s="301"/>
+      <c r="C69" s="280"/>
       <c r="D69" s="5" t="s">
         <v>28</v>
       </c>
@@ -13331,8 +13322,8 @@
       <c r="DK69" s="52"/>
     </row>
     <row r="70" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B70" s="295"/>
-      <c r="C70" s="292"/>
+      <c r="B70" s="301"/>
+      <c r="C70" s="280"/>
       <c r="D70" s="10"/>
       <c r="E70" s="11"/>
       <c r="F70" s="78"/>
@@ -13447,10 +13438,10 @@
       <c r="DK70" s="36"/>
     </row>
     <row r="71" spans="2:115">
-      <c r="B71" s="280" t="s">
+      <c r="B71" s="282" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="289" t="s">
+      <c r="C71" s="296" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="20"/>
@@ -13571,8 +13562,8 @@
       <c r="DK71" s="47"/>
     </row>
     <row r="72" spans="2:115">
-      <c r="B72" s="279"/>
-      <c r="C72" s="290"/>
+      <c r="B72" s="283"/>
+      <c r="C72" s="297"/>
       <c r="D72" s="15"/>
       <c r="E72" s="22"/>
       <c r="F72" s="81"/>
@@ -13687,8 +13678,8 @@
       <c r="DK72" s="61"/>
     </row>
     <row r="73" spans="2:115">
-      <c r="B73" s="279"/>
-      <c r="C73" s="290" t="s">
+      <c r="B73" s="283"/>
+      <c r="C73" s="297" t="s">
         <v>48</v>
       </c>
       <c r="D73" s="14" t="s">
@@ -13809,8 +13800,8 @@
       <c r="DK73" s="67"/>
     </row>
     <row r="74" spans="2:115">
-      <c r="B74" s="279"/>
-      <c r="C74" s="291"/>
+      <c r="B74" s="283"/>
+      <c r="C74" s="298"/>
       <c r="D74" s="16"/>
       <c r="E74" s="24"/>
       <c r="F74" s="83"/>
@@ -13925,8 +13916,8 @@
       <c r="DK74" s="61"/>
     </row>
     <row r="75" spans="2:115">
-      <c r="B75" s="279"/>
-      <c r="C75" s="292"/>
+      <c r="B75" s="283"/>
+      <c r="C75" s="280"/>
       <c r="D75" s="14"/>
       <c r="E75" s="23"/>
       <c r="F75" s="82"/>
@@ -14041,8 +14032,8 @@
       <c r="DK75" s="67"/>
     </row>
     <row r="76" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B76" s="288"/>
-      <c r="C76" s="292"/>
+      <c r="B76" s="284"/>
+      <c r="C76" s="280"/>
       <c r="D76" s="15"/>
       <c r="E76" s="22"/>
       <c r="F76" s="81"/>
@@ -14157,10 +14148,10 @@
       <c r="DK76" s="36"/>
     </row>
     <row r="77" spans="2:115">
-      <c r="B77" s="280" t="s">
+      <c r="B77" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="289" t="s">
+      <c r="C77" s="296" t="s">
         <v>50</v>
       </c>
       <c r="D77" s="20"/>
@@ -14279,8 +14270,8 @@
       <c r="DK77" s="47"/>
     </row>
     <row r="78" spans="2:115">
-      <c r="B78" s="279"/>
-      <c r="C78" s="290"/>
+      <c r="B78" s="283"/>
+      <c r="C78" s="297"/>
       <c r="D78" s="15"/>
       <c r="E78" s="22"/>
       <c r="F78" s="81"/>
@@ -14395,8 +14386,8 @@
       <c r="DK78" s="52"/>
     </row>
     <row r="79" spans="2:115">
-      <c r="B79" s="279"/>
-      <c r="C79" s="290" t="s">
+      <c r="B79" s="283"/>
+      <c r="C79" s="297" t="s">
         <v>53</v>
       </c>
       <c r="D79" s="14"/>
@@ -14515,8 +14506,8 @@
       <c r="DK79" s="67"/>
     </row>
     <row r="80" spans="2:115">
-      <c r="B80" s="279"/>
-      <c r="C80" s="291"/>
+      <c r="B80" s="283"/>
+      <c r="C80" s="298"/>
       <c r="D80" s="16"/>
       <c r="E80" s="24"/>
       <c r="F80" s="83"/>
@@ -14631,8 +14622,8 @@
       <c r="DK80" s="61"/>
     </row>
     <row r="81" spans="2:116">
-      <c r="B81" s="279"/>
-      <c r="C81" s="292"/>
+      <c r="B81" s="283"/>
+      <c r="C81" s="280"/>
       <c r="D81" s="14"/>
       <c r="E81" s="23"/>
       <c r="F81" s="82"/>
@@ -14747,8 +14738,8 @@
       <c r="DK81" s="52"/>
     </row>
     <row r="82" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B82" s="288"/>
-      <c r="C82" s="293"/>
+      <c r="B82" s="284"/>
+      <c r="C82" s="299"/>
       <c r="D82" s="25"/>
       <c r="E82" s="26"/>
       <c r="F82" s="84"/>
@@ -14863,10 +14854,10 @@
       <c r="DK82" s="36"/>
     </row>
     <row r="83" spans="2:116">
-      <c r="B83" s="280" t="s">
+      <c r="B83" s="282" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="282" t="s">
+      <c r="C83" s="292" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="3"/>
@@ -14985,8 +14976,8 @@
       <c r="DK83" s="47"/>
     </row>
     <row r="84" spans="2:116">
-      <c r="B84" s="279"/>
-      <c r="C84" s="283"/>
+      <c r="B84" s="283"/>
+      <c r="C84" s="293"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6" t="s">
         <v>52</v>
@@ -15103,8 +15094,8 @@
       <c r="DK84" s="52"/>
     </row>
     <row r="85" spans="2:116">
-      <c r="B85" s="279"/>
-      <c r="C85" s="283"/>
+      <c r="B85" s="283"/>
+      <c r="C85" s="293"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="75"/>
@@ -15219,8 +15210,8 @@
       <c r="DK85" s="52"/>
     </row>
     <row r="86" spans="2:116">
-      <c r="B86" s="279"/>
-      <c r="C86" s="283"/>
+      <c r="B86" s="283"/>
+      <c r="C86" s="293"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="75"/>
@@ -15335,8 +15326,8 @@
       <c r="DK86" s="52"/>
     </row>
     <row r="87" spans="2:116">
-      <c r="B87" s="279"/>
-      <c r="C87" s="283"/>
+      <c r="B87" s="283"/>
+      <c r="C87" s="293"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
       <c r="F87" s="75"/>
@@ -15451,8 +15442,8 @@
       <c r="DK87" s="61"/>
     </row>
     <row r="88" spans="2:116">
-      <c r="B88" s="279"/>
-      <c r="C88" s="284"/>
+      <c r="B88" s="283"/>
+      <c r="C88" s="294"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="77"/>
@@ -15567,8 +15558,8 @@
       <c r="DK88" s="67"/>
     </row>
     <row r="89" spans="2:116">
-      <c r="B89" s="279"/>
-      <c r="C89" s="283"/>
+      <c r="B89" s="283"/>
+      <c r="C89" s="293"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="F89" s="75"/>
@@ -15683,8 +15674,8 @@
       <c r="DK89" s="52"/>
     </row>
     <row r="90" spans="2:116">
-      <c r="B90" s="279"/>
-      <c r="C90" s="283"/>
+      <c r="B90" s="283"/>
+      <c r="C90" s="293"/>
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
       <c r="F90" s="75"/>
@@ -15799,8 +15790,8 @@
       <c r="DK90" s="52"/>
     </row>
     <row r="91" spans="2:116">
-      <c r="B91" s="279"/>
-      <c r="C91" s="283"/>
+      <c r="B91" s="283"/>
+      <c r="C91" s="293"/>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
       <c r="F91" s="75"/>
@@ -15915,8 +15906,8 @@
       <c r="DK91" s="52"/>
     </row>
     <row r="92" spans="2:116">
-      <c r="B92" s="279"/>
-      <c r="C92" s="283"/>
+      <c r="B92" s="283"/>
+      <c r="C92" s="293"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="75"/>
@@ -16031,8 +16022,8 @@
       <c r="DK92" s="52"/>
     </row>
     <row r="93" spans="2:116">
-      <c r="B93" s="279"/>
-      <c r="C93" s="285"/>
+      <c r="B93" s="283"/>
+      <c r="C93" s="289"/>
       <c r="D93" s="10"/>
       <c r="E93" s="11"/>
       <c r="F93" s="78"/>
@@ -16147,8 +16138,8 @@
       <c r="DK93" s="61"/>
     </row>
     <row r="94" spans="2:116">
-      <c r="B94" s="279"/>
-      <c r="C94" s="284"/>
+      <c r="B94" s="283"/>
+      <c r="C94" s="294"/>
       <c r="D94" s="8"/>
       <c r="E94" s="9"/>
       <c r="F94" s="77"/>
@@ -16264,8 +16255,8 @@
       <c r="DL94" s="7"/>
     </row>
     <row r="95" spans="2:116">
-      <c r="B95" s="279"/>
-      <c r="C95" s="283"/>
+      <c r="B95" s="283"/>
+      <c r="C95" s="293"/>
       <c r="D95" s="15"/>
       <c r="E95" s="22"/>
       <c r="F95" s="81"/>
@@ -16381,8 +16372,8 @@
       <c r="DL95" s="7"/>
     </row>
     <row r="96" spans="2:116">
-      <c r="B96" s="279"/>
-      <c r="C96" s="283"/>
+      <c r="B96" s="283"/>
+      <c r="C96" s="293"/>
       <c r="D96" s="15"/>
       <c r="E96" s="22"/>
       <c r="F96" s="81"/>
@@ -16498,8 +16489,8 @@
       <c r="DL96" s="7"/>
     </row>
     <row r="97" spans="2:116">
-      <c r="B97" s="279"/>
-      <c r="C97" s="285"/>
+      <c r="B97" s="283"/>
+      <c r="C97" s="289"/>
       <c r="D97" s="16"/>
       <c r="E97" s="24"/>
       <c r="F97" s="83"/>
@@ -16615,8 +16606,8 @@
       <c r="DL97" s="7"/>
     </row>
     <row r="98" spans="2:116">
-      <c r="B98" s="279"/>
-      <c r="C98" s="286"/>
+      <c r="B98" s="283"/>
+      <c r="C98" s="281"/>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
       <c r="F98" s="75"/>
@@ -16731,8 +16722,8 @@
       <c r="DK98" s="67"/>
     </row>
     <row r="99" spans="2:116">
-      <c r="B99" s="279"/>
-      <c r="C99" s="286"/>
+      <c r="B99" s="283"/>
+      <c r="C99" s="281"/>
       <c r="D99" s="15"/>
       <c r="E99" s="6"/>
       <c r="F99" s="75"/>
@@ -16847,8 +16838,8 @@
       <c r="DK99" s="52"/>
     </row>
     <row r="100" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B100" s="281"/>
-      <c r="C100" s="287"/>
+      <c r="B100" s="291"/>
+      <c r="C100" s="295"/>
       <c r="D100" s="27"/>
       <c r="E100" s="28"/>
       <c r="F100" s="85"/>
@@ -16965,13 +16956,6 @@
     <row r="101" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="B20:B60"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C45"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="C58:C60"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B83:B100"/>
     <mergeCell ref="C83:C87"/>
@@ -16988,6 +16972,13 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="B61:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="B20:B60"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C45"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="C58:C60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="9405"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -912,12 +912,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor theme="9" tint="0.59996337778862885"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1006,6 +1000,12 @@
         <bgColor theme="3" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="0" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="120">
     <border>
@@ -2521,7 +2521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2816,31 +2816,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="83" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="62" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="60" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="82" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2849,7 +2840,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="92" xfId="0" applyFill="1" applyBorder="1">
@@ -2945,97 +2936,97 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="104" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="105" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="106" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="53" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="78" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="113" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="104" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="105" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="106" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="53" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="78" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="113" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="115" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="116" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="115" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="116" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3074,202 +3065,202 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="92" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="111" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="92" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="111" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="87" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="58" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="59" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="90" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="59" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="89" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="60" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="82" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="87" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="58" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="59" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="90" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="59" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="89" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="60" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="82" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="60" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="82" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="61" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="83" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="60" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="82" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="61" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="83" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="61" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="83" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="61" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="83" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="63" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="85" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="62" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="53" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="53" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="63" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="75" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="73" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="74" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="72" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="76" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="77" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="78" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="78" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="63" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="85" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="62" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="53" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="63" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="75" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="73" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="72" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="76" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="77" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="78" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="78" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3284,10 +3275,10 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="119" xfId="0" applyFill="1" applyBorder="1">
@@ -3320,34 +3311,34 @@
     <xf numFmtId="14" fontId="24" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="93" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="94" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="95" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="112" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="88" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="86" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="93" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="94" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="95" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="112" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="88" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="86" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1">
@@ -3361,20 +3352,56 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3389,44 +3416,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="82" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="62" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="60" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5025,8 +5028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:DL101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="P36" sqref="P35:P36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AE21" sqref="AE21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5035,15 +5038,17 @@
     <col min="2" max="2" width="17.125" style="12" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="9" style="176"/>
+    <col min="5" max="5" width="9" style="173"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="16" width="2.625" style="184" customWidth="1"/>
-    <col min="17" max="45" width="2.625" customWidth="1"/>
-    <col min="46" max="46" width="2.625" style="141" customWidth="1"/>
+    <col min="7" max="18" width="2.625" style="181" customWidth="1"/>
+    <col min="19" max="19" width="2.5" style="181" customWidth="1"/>
+    <col min="20" max="20" width="2.625" style="181" customWidth="1"/>
+    <col min="21" max="45" width="2.625" customWidth="1"/>
+    <col min="46" max="46" width="2.625" style="138" customWidth="1"/>
     <col min="47" max="52" width="2.625" customWidth="1"/>
-    <col min="53" max="53" width="2.625" style="141" customWidth="1"/>
+    <col min="53" max="53" width="2.625" style="138" customWidth="1"/>
     <col min="54" max="59" width="2.625" customWidth="1"/>
-    <col min="60" max="60" width="2.625" style="141" customWidth="1"/>
+    <col min="60" max="60" width="2.625" style="138" customWidth="1"/>
     <col min="61" max="120" width="2.625" customWidth="1"/>
     <col min="256" max="256" width="3.25" customWidth="1"/>
     <col min="257" max="257" width="17.125" customWidth="1"/>
@@ -5615,7 +5620,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:115" ht="26.25">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="104" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5623,7 +5628,7 @@
       </c>
     </row>
     <row r="5" spans="2:115" ht="18" thickBot="1">
-      <c r="G5" s="185" t="s">
+      <c r="G5" s="182" t="s">
         <v>24</v>
       </c>
       <c r="X5" s="92" t="s">
@@ -5637,359 +5642,359 @@
       </c>
     </row>
     <row r="6" spans="2:115" ht="18" thickTop="1" thickBot="1">
-      <c r="C6" s="103"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="186">
+      <c r="C6" s="100"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="183">
         <v>14</v>
       </c>
-      <c r="H6" s="187">
+      <c r="H6" s="184">
         <v>15</v>
       </c>
-      <c r="I6" s="187">
+      <c r="I6" s="184">
         <v>16</v>
       </c>
-      <c r="J6" s="187">
+      <c r="J6" s="184">
         <v>17</v>
       </c>
-      <c r="K6" s="187">
+      <c r="K6" s="184">
         <v>18</v>
       </c>
-      <c r="L6" s="187">
+      <c r="L6" s="184">
         <v>19</v>
       </c>
-      <c r="M6" s="187">
+      <c r="M6" s="184">
         <v>20</v>
       </c>
-      <c r="N6" s="187">
+      <c r="N6" s="184">
         <v>21</v>
       </c>
-      <c r="O6" s="187">
+      <c r="O6" s="184">
         <v>22</v>
       </c>
-      <c r="P6" s="187">
+      <c r="P6" s="184">
         <v>23</v>
       </c>
-      <c r="Q6" s="106">
+      <c r="Q6" s="184">
         <v>24</v>
       </c>
-      <c r="R6" s="106">
+      <c r="R6" s="184">
         <v>25</v>
       </c>
-      <c r="S6" s="106">
+      <c r="S6" s="184">
         <v>26</v>
       </c>
-      <c r="T6" s="106">
+      <c r="T6" s="184">
         <v>27</v>
       </c>
-      <c r="U6" s="106">
+      <c r="U6" s="103">
         <v>28</v>
       </c>
-      <c r="V6" s="106">
+      <c r="V6" s="103">
         <v>29</v>
       </c>
-      <c r="W6" s="106">
+      <c r="W6" s="103">
         <v>30</v>
       </c>
-      <c r="X6" s="106">
+      <c r="X6" s="103">
         <v>1</v>
       </c>
-      <c r="Y6" s="106">
+      <c r="Y6" s="103">
         <v>2</v>
       </c>
-      <c r="Z6" s="106">
+      <c r="Z6" s="103">
         <v>3</v>
       </c>
-      <c r="AA6" s="106">
+      <c r="AA6" s="103">
         <v>4</v>
       </c>
-      <c r="AB6" s="106">
+      <c r="AB6" s="103">
         <v>5</v>
       </c>
-      <c r="AC6" s="106">
+      <c r="AC6" s="103">
         <v>6</v>
       </c>
-      <c r="AD6" s="106">
+      <c r="AD6" s="103">
         <v>7</v>
       </c>
-      <c r="AE6" s="106">
+      <c r="AE6" s="103">
         <v>8</v>
       </c>
-      <c r="AF6" s="106">
+      <c r="AF6" s="103">
         <v>9</v>
       </c>
-      <c r="AG6" s="106">
+      <c r="AG6" s="103">
         <v>10</v>
       </c>
-      <c r="AH6" s="106">
+      <c r="AH6" s="103">
         <v>11</v>
       </c>
-      <c r="AI6" s="106">
+      <c r="AI6" s="103">
         <v>12</v>
       </c>
-      <c r="AJ6" s="106">
+      <c r="AJ6" s="103">
         <v>13</v>
       </c>
-      <c r="AK6" s="106">
+      <c r="AK6" s="103">
         <v>14</v>
       </c>
-      <c r="AL6" s="255">
+      <c r="AL6" s="252">
         <v>15</v>
       </c>
-      <c r="AM6" s="254">
+      <c r="AM6" s="251">
         <v>16</v>
       </c>
-      <c r="AN6" s="106">
+      <c r="AN6" s="103">
         <v>17</v>
       </c>
-      <c r="AO6" s="106">
+      <c r="AO6" s="103">
         <v>18</v>
       </c>
-      <c r="AP6" s="106">
+      <c r="AP6" s="103">
         <v>19</v>
       </c>
-      <c r="AQ6" s="106">
+      <c r="AQ6" s="103">
         <v>20</v>
       </c>
-      <c r="AR6" s="106">
+      <c r="AR6" s="103">
         <v>21</v>
       </c>
-      <c r="AS6" s="106">
+      <c r="AS6" s="103">
         <v>22</v>
       </c>
-      <c r="AT6" s="158">
+      <c r="AT6" s="155">
         <v>23</v>
       </c>
-      <c r="AU6" s="106">
+      <c r="AU6" s="103">
         <v>24</v>
       </c>
-      <c r="AV6" s="106">
+      <c r="AV6" s="103">
         <v>25</v>
       </c>
-      <c r="AW6" s="106">
+      <c r="AW6" s="103">
         <v>26</v>
       </c>
-      <c r="AX6" s="106">
+      <c r="AX6" s="103">
         <v>27</v>
       </c>
-      <c r="AY6" s="106">
+      <c r="AY6" s="103">
         <v>28</v>
       </c>
-      <c r="AZ6" s="106">
+      <c r="AZ6" s="103">
         <v>29</v>
       </c>
-      <c r="BA6" s="158">
+      <c r="BA6" s="155">
         <v>23</v>
       </c>
-      <c r="BB6" s="106">
+      <c r="BB6" s="103">
         <v>31</v>
       </c>
-      <c r="BC6" s="106">
+      <c r="BC6" s="103">
         <v>1</v>
       </c>
-      <c r="BD6" s="106">
+      <c r="BD6" s="103">
         <v>2</v>
       </c>
-      <c r="BE6" s="106">
+      <c r="BE6" s="103">
         <v>3</v>
       </c>
-      <c r="BF6" s="106">
+      <c r="BF6" s="103">
         <v>4</v>
       </c>
-      <c r="BG6" s="106">
+      <c r="BG6" s="103">
         <v>5</v>
       </c>
-      <c r="BH6" s="158">
+      <c r="BH6" s="155">
         <v>6</v>
       </c>
-      <c r="BI6" s="106">
+      <c r="BI6" s="103">
         <v>7</v>
       </c>
-      <c r="BJ6" s="106">
+      <c r="BJ6" s="103">
         <v>8</v>
       </c>
-      <c r="BK6" s="106">
+      <c r="BK6" s="103">
         <v>9</v>
       </c>
-      <c r="BL6" s="106">
+      <c r="BL6" s="103">
         <v>10</v>
       </c>
-      <c r="BM6" s="106">
+      <c r="BM6" s="103">
         <v>11</v>
       </c>
-      <c r="BN6" s="106">
+      <c r="BN6" s="103">
         <v>12</v>
       </c>
-      <c r="BO6" s="106">
+      <c r="BO6" s="103">
         <v>13</v>
       </c>
-      <c r="BP6" s="106">
+      <c r="BP6" s="103">
         <v>14</v>
       </c>
-      <c r="BQ6" s="106">
+      <c r="BQ6" s="103">
         <v>15</v>
       </c>
-      <c r="BR6" s="106">
+      <c r="BR6" s="103">
         <v>16</v>
       </c>
-      <c r="BS6" s="106">
+      <c r="BS6" s="103">
         <v>17</v>
       </c>
-      <c r="BT6" s="106">
+      <c r="BT6" s="103">
         <v>18</v>
       </c>
-      <c r="BU6" s="106">
+      <c r="BU6" s="103">
         <v>19</v>
       </c>
-      <c r="BV6" s="106">
+      <c r="BV6" s="103">
         <v>20</v>
       </c>
-      <c r="BW6" s="106">
+      <c r="BW6" s="103">
         <v>21</v>
       </c>
-      <c r="BX6" s="106">
+      <c r="BX6" s="103">
         <v>22</v>
       </c>
-      <c r="BY6" s="106">
+      <c r="BY6" s="103">
         <v>23</v>
       </c>
-      <c r="BZ6" s="106">
+      <c r="BZ6" s="103">
         <v>24</v>
       </c>
-      <c r="CA6" s="106">
+      <c r="CA6" s="103">
         <v>25</v>
       </c>
-      <c r="CB6" s="106">
+      <c r="CB6" s="103">
         <v>26</v>
       </c>
-      <c r="CC6" s="106">
+      <c r="CC6" s="103">
         <v>27</v>
       </c>
-      <c r="CD6" s="106">
+      <c r="CD6" s="103">
         <v>28</v>
       </c>
-      <c r="CE6" s="106">
+      <c r="CE6" s="103">
         <v>29</v>
       </c>
-      <c r="CF6" s="106">
+      <c r="CF6" s="103">
         <v>30</v>
       </c>
-      <c r="CG6" s="106">
+      <c r="CG6" s="103">
         <v>31</v>
       </c>
-      <c r="CH6" s="106">
+      <c r="CH6" s="103">
         <v>1</v>
       </c>
-      <c r="CI6" s="106">
+      <c r="CI6" s="103">
         <v>2</v>
       </c>
-      <c r="CJ6" s="106">
+      <c r="CJ6" s="103">
         <v>3</v>
       </c>
-      <c r="CK6" s="106">
+      <c r="CK6" s="103">
         <v>4</v>
       </c>
-      <c r="CL6" s="106">
+      <c r="CL6" s="103">
         <v>5</v>
       </c>
-      <c r="CM6" s="106">
+      <c r="CM6" s="103">
         <v>6</v>
       </c>
-      <c r="CN6" s="106">
+      <c r="CN6" s="103">
         <v>7</v>
       </c>
-      <c r="CO6" s="106">
+      <c r="CO6" s="103">
         <v>8</v>
       </c>
-      <c r="CP6" s="106">
+      <c r="CP6" s="103">
         <v>9</v>
       </c>
-      <c r="CQ6" s="106">
+      <c r="CQ6" s="103">
         <v>10</v>
       </c>
-      <c r="CR6" s="106">
+      <c r="CR6" s="103">
         <v>11</v>
       </c>
-      <c r="CS6" s="106">
+      <c r="CS6" s="103">
         <v>12</v>
       </c>
-      <c r="CT6" s="106">
+      <c r="CT6" s="103">
         <v>13</v>
       </c>
-      <c r="CU6" s="106">
+      <c r="CU6" s="103">
         <v>14</v>
       </c>
-      <c r="CV6" s="106">
+      <c r="CV6" s="103">
         <v>15</v>
       </c>
-      <c r="CW6" s="106">
+      <c r="CW6" s="103">
         <v>16</v>
       </c>
-      <c r="CX6" s="106">
+      <c r="CX6" s="103">
         <v>17</v>
       </c>
-      <c r="CY6" s="106">
+      <c r="CY6" s="103">
         <v>18</v>
       </c>
-      <c r="CZ6" s="106">
+      <c r="CZ6" s="103">
         <v>19</v>
       </c>
-      <c r="DA6" s="106">
+      <c r="DA6" s="103">
         <v>20</v>
       </c>
-      <c r="DB6" s="106">
+      <c r="DB6" s="103">
         <v>21</v>
       </c>
-      <c r="DC6" s="106">
+      <c r="DC6" s="103">
         <v>22</v>
       </c>
-      <c r="DD6" s="106">
+      <c r="DD6" s="103">
         <v>23</v>
       </c>
-      <c r="DE6" s="106">
+      <c r="DE6" s="103">
         <v>24</v>
       </c>
-      <c r="DF6" s="106">
+      <c r="DF6" s="103">
         <v>25</v>
       </c>
-      <c r="DG6" s="106">
+      <c r="DG6" s="103">
         <v>26</v>
       </c>
-      <c r="DH6" s="106">
+      <c r="DH6" s="103">
         <v>27</v>
       </c>
-      <c r="DI6" s="106">
+      <c r="DI6" s="103">
         <v>28</v>
       </c>
-      <c r="DJ6" s="170">
+      <c r="DJ6" s="167">
         <v>29</v>
       </c>
-      <c r="DK6" s="171">
+      <c r="DK6" s="168">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:115" ht="50.1" hidden="1" customHeight="1" thickTop="1">
-      <c r="C7" s="115"/>
-      <c r="D7" s="164" t="s">
+      <c r="C7" s="112"/>
+      <c r="D7" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="177"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="266"/>
-      <c r="O7" s="188"/>
-      <c r="P7" s="188"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="185"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="263"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
@@ -6001,346 +6006,346 @@
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
       <c r="AE7" s="18"/>
-      <c r="AF7" s="112"/>
+      <c r="AF7" s="109"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18"/>
-      <c r="AL7" s="114"/>
+      <c r="AL7" s="111"/>
       <c r="AM7" s="18"/>
-      <c r="AN7" s="160"/>
+      <c r="AN7" s="157"/>
       <c r="AO7" s="19"/>
-      <c r="AP7" s="256"/>
+      <c r="AP7" s="253"/>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="18"/>
       <c r="AS7" s="18"/>
-      <c r="AT7" s="142"/>
+      <c r="AT7" s="139"/>
       <c r="AU7" s="19"/>
       <c r="AV7" s="19"/>
       <c r="AW7" s="18"/>
       <c r="AX7" s="18"/>
       <c r="AY7" s="18"/>
       <c r="AZ7" s="18"/>
-      <c r="BA7" s="142"/>
+      <c r="BA7" s="139"/>
       <c r="BB7" s="19"/>
       <c r="BC7" s="19"/>
       <c r="BD7" s="18"/>
       <c r="BE7" s="18"/>
       <c r="BF7" s="18"/>
       <c r="BG7" s="18"/>
-      <c r="BH7" s="142"/>
+      <c r="BH7" s="139"/>
       <c r="BI7" s="19"/>
       <c r="BJ7" s="19"/>
       <c r="BK7" s="18"/>
       <c r="BL7" s="18"/>
       <c r="BM7" s="18"/>
       <c r="BN7" s="18"/>
-      <c r="BO7" s="126"/>
+      <c r="BO7" s="123"/>
       <c r="BP7" s="19"/>
       <c r="BQ7" s="19"/>
       <c r="BR7" s="18"/>
       <c r="BS7" s="18"/>
       <c r="BT7" s="18"/>
       <c r="BU7" s="18"/>
-      <c r="BV7" s="126"/>
+      <c r="BV7" s="123"/>
       <c r="BW7" s="19"/>
       <c r="BX7" s="19"/>
       <c r="BY7" s="18"/>
       <c r="BZ7" s="18"/>
       <c r="CA7" s="18"/>
       <c r="CB7" s="18"/>
-      <c r="CC7" s="126"/>
+      <c r="CC7" s="123"/>
       <c r="CD7" s="19"/>
       <c r="CE7" s="19"/>
       <c r="CF7" s="18"/>
       <c r="CG7" s="18"/>
       <c r="CH7" s="18"/>
       <c r="CI7" s="18"/>
-      <c r="CJ7" s="126"/>
+      <c r="CJ7" s="123"/>
       <c r="CK7" s="19"/>
       <c r="CL7" s="19"/>
       <c r="CM7" s="18"/>
       <c r="CN7" s="18"/>
       <c r="CO7" s="18"/>
       <c r="CP7" s="18"/>
-      <c r="CQ7" s="126"/>
+      <c r="CQ7" s="123"/>
       <c r="CR7" s="19"/>
       <c r="CS7" s="19"/>
       <c r="CT7" s="18"/>
       <c r="CU7" s="18"/>
       <c r="CV7" s="18"/>
       <c r="CW7" s="18"/>
-      <c r="CX7" s="126"/>
+      <c r="CX7" s="123"/>
       <c r="CY7" s="19"/>
       <c r="CZ7" s="19"/>
       <c r="DA7" s="18"/>
       <c r="DB7" s="18"/>
       <c r="DC7" s="18"/>
       <c r="DD7" s="18"/>
-      <c r="DE7" s="126"/>
+      <c r="DE7" s="123"/>
       <c r="DF7" s="19"/>
       <c r="DG7" s="19"/>
       <c r="DH7" s="18"/>
       <c r="DI7" s="18"/>
       <c r="DJ7" s="18"/>
-      <c r="DK7" s="130"/>
+      <c r="DK7" s="127"/>
     </row>
     <row r="8" spans="2:115" ht="50.1" customHeight="1" thickTop="1">
-      <c r="C8" s="117"/>
-      <c r="D8" s="165" t="s">
+      <c r="C8" s="114"/>
+      <c r="D8" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="178"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
-      <c r="K8" s="189"/>
-      <c r="L8" s="189"/>
-      <c r="M8" s="189"/>
-      <c r="N8" s="267"/>
-      <c r="O8" s="189"/>
-      <c r="P8" s="189"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="110"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="110"/>
-      <c r="X8" s="110"/>
-      <c r="Y8" s="110"/>
-      <c r="Z8" s="111"/>
-      <c r="AA8" s="111"/>
-      <c r="AB8" s="110"/>
-      <c r="AC8" s="110"/>
-      <c r="AD8" s="110"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="111"/>
-      <c r="AH8" s="111"/>
-      <c r="AI8" s="110"/>
-      <c r="AJ8" s="110"/>
-      <c r="AK8" s="110"/>
-      <c r="AL8" s="113"/>
-      <c r="AM8" s="110"/>
-      <c r="AN8" s="161"/>
-      <c r="AO8" s="111"/>
-      <c r="AP8" s="110"/>
-      <c r="AQ8" s="110"/>
-      <c r="AR8" s="110"/>
-      <c r="AS8" s="110"/>
-      <c r="AT8" s="143"/>
-      <c r="AU8" s="111"/>
-      <c r="AV8" s="111"/>
-      <c r="AW8" s="110"/>
-      <c r="AX8" s="110"/>
-      <c r="AY8" s="110"/>
-      <c r="AZ8" s="110"/>
-      <c r="BA8" s="143"/>
-      <c r="BB8" s="111"/>
-      <c r="BC8" s="111"/>
-      <c r="BD8" s="110"/>
-      <c r="BE8" s="110"/>
-      <c r="BF8" s="110"/>
-      <c r="BG8" s="110"/>
-      <c r="BH8" s="143"/>
-      <c r="BI8" s="111"/>
-      <c r="BJ8" s="111"/>
-      <c r="BK8" s="110"/>
-      <c r="BL8" s="110"/>
-      <c r="BM8" s="110"/>
-      <c r="BN8" s="110"/>
-      <c r="BO8" s="127"/>
-      <c r="BP8" s="111"/>
-      <c r="BQ8" s="111"/>
-      <c r="BR8" s="110"/>
-      <c r="BS8" s="110"/>
-      <c r="BT8" s="110"/>
-      <c r="BU8" s="110"/>
-      <c r="BV8" s="127"/>
-      <c r="BW8" s="111"/>
-      <c r="BX8" s="111"/>
-      <c r="BY8" s="110"/>
-      <c r="BZ8" s="110"/>
-      <c r="CA8" s="110"/>
-      <c r="CB8" s="110"/>
-      <c r="CC8" s="127"/>
-      <c r="CD8" s="111"/>
-      <c r="CE8" s="111"/>
-      <c r="CF8" s="110"/>
-      <c r="CG8" s="110"/>
-      <c r="CH8" s="110"/>
-      <c r="CI8" s="110"/>
-      <c r="CJ8" s="127"/>
-      <c r="CK8" s="111"/>
-      <c r="CL8" s="111"/>
-      <c r="CM8" s="110"/>
-      <c r="CN8" s="110"/>
-      <c r="CO8" s="110"/>
-      <c r="CP8" s="110"/>
-      <c r="CQ8" s="127"/>
-      <c r="CR8" s="111"/>
-      <c r="CS8" s="111"/>
-      <c r="CT8" s="110"/>
-      <c r="CU8" s="110"/>
-      <c r="CV8" s="110"/>
-      <c r="CW8" s="110"/>
-      <c r="CX8" s="127"/>
-      <c r="CY8" s="111"/>
-      <c r="CZ8" s="111"/>
-      <c r="DA8" s="110"/>
-      <c r="DB8" s="110"/>
-      <c r="DC8" s="110"/>
-      <c r="DD8" s="110"/>
-      <c r="DE8" s="127"/>
-      <c r="DF8" s="111"/>
-      <c r="DG8" s="111"/>
-      <c r="DH8" s="110"/>
-      <c r="DI8" s="110"/>
-      <c r="DJ8" s="110"/>
-      <c r="DK8" s="131"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="186"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="186"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="264"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="186"/>
+      <c r="Q8" s="186"/>
+      <c r="R8" s="186"/>
+      <c r="S8" s="186"/>
+      <c r="T8" s="186"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="108"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="108"/>
+      <c r="AH8" s="108"/>
+      <c r="AI8" s="107"/>
+      <c r="AJ8" s="107"/>
+      <c r="AK8" s="107"/>
+      <c r="AL8" s="110"/>
+      <c r="AM8" s="107"/>
+      <c r="AN8" s="158"/>
+      <c r="AO8" s="108"/>
+      <c r="AP8" s="107"/>
+      <c r="AQ8" s="107"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="140"/>
+      <c r="AU8" s="108"/>
+      <c r="AV8" s="108"/>
+      <c r="AW8" s="107"/>
+      <c r="AX8" s="107"/>
+      <c r="AY8" s="107"/>
+      <c r="AZ8" s="107"/>
+      <c r="BA8" s="140"/>
+      <c r="BB8" s="108"/>
+      <c r="BC8" s="108"/>
+      <c r="BD8" s="107"/>
+      <c r="BE8" s="107"/>
+      <c r="BF8" s="107"/>
+      <c r="BG8" s="107"/>
+      <c r="BH8" s="140"/>
+      <c r="BI8" s="108"/>
+      <c r="BJ8" s="108"/>
+      <c r="BK8" s="107"/>
+      <c r="BL8" s="107"/>
+      <c r="BM8" s="107"/>
+      <c r="BN8" s="107"/>
+      <c r="BO8" s="124"/>
+      <c r="BP8" s="108"/>
+      <c r="BQ8" s="108"/>
+      <c r="BR8" s="107"/>
+      <c r="BS8" s="107"/>
+      <c r="BT8" s="107"/>
+      <c r="BU8" s="107"/>
+      <c r="BV8" s="124"/>
+      <c r="BW8" s="108"/>
+      <c r="BX8" s="108"/>
+      <c r="BY8" s="107"/>
+      <c r="BZ8" s="107"/>
+      <c r="CA8" s="107"/>
+      <c r="CB8" s="107"/>
+      <c r="CC8" s="124"/>
+      <c r="CD8" s="108"/>
+      <c r="CE8" s="108"/>
+      <c r="CF8" s="107"/>
+      <c r="CG8" s="107"/>
+      <c r="CH8" s="107"/>
+      <c r="CI8" s="107"/>
+      <c r="CJ8" s="124"/>
+      <c r="CK8" s="108"/>
+      <c r="CL8" s="108"/>
+      <c r="CM8" s="107"/>
+      <c r="CN8" s="107"/>
+      <c r="CO8" s="107"/>
+      <c r="CP8" s="107"/>
+      <c r="CQ8" s="124"/>
+      <c r="CR8" s="108"/>
+      <c r="CS8" s="108"/>
+      <c r="CT8" s="107"/>
+      <c r="CU8" s="107"/>
+      <c r="CV8" s="107"/>
+      <c r="CW8" s="107"/>
+      <c r="CX8" s="124"/>
+      <c r="CY8" s="108"/>
+      <c r="CZ8" s="108"/>
+      <c r="DA8" s="107"/>
+      <c r="DB8" s="107"/>
+      <c r="DC8" s="107"/>
+      <c r="DD8" s="107"/>
+      <c r="DE8" s="124"/>
+      <c r="DF8" s="108"/>
+      <c r="DG8" s="108"/>
+      <c r="DH8" s="107"/>
+      <c r="DI8" s="107"/>
+      <c r="DJ8" s="107"/>
+      <c r="DK8" s="128"/>
     </row>
     <row r="9" spans="2:115" ht="50.1" customHeight="1">
-      <c r="C9" s="121"/>
-      <c r="D9" s="166" t="s">
+      <c r="C9" s="118"/>
+      <c r="D9" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="179"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="189"/>
-      <c r="H9" s="189"/>
-      <c r="I9" s="189"/>
-      <c r="J9" s="189"/>
-      <c r="K9" s="189"/>
-      <c r="L9" s="189"/>
-      <c r="M9" s="189"/>
-      <c r="N9" s="267"/>
-      <c r="O9" s="189"/>
-      <c r="P9" s="189"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="110"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="110"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="111"/>
-      <c r="AA9" s="111"/>
-      <c r="AB9" s="110"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="110"/>
-      <c r="AE9" s="110"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="111"/>
-      <c r="AH9" s="111"/>
-      <c r="AI9" s="110"/>
-      <c r="AJ9" s="110"/>
-      <c r="AK9" s="110"/>
-      <c r="AL9" s="113"/>
-      <c r="AM9" s="110"/>
-      <c r="AN9" s="161"/>
-      <c r="AO9" s="111"/>
-      <c r="AP9" s="110"/>
-      <c r="AQ9" s="110"/>
-      <c r="AR9" s="110"/>
-      <c r="AS9" s="110"/>
-      <c r="AT9" s="143"/>
-      <c r="AU9" s="111"/>
-      <c r="AV9" s="111"/>
-      <c r="AW9" s="110"/>
-      <c r="AX9" s="110"/>
-      <c r="AY9" s="110"/>
-      <c r="AZ9" s="110"/>
-      <c r="BA9" s="143"/>
-      <c r="BB9" s="111"/>
-      <c r="BC9" s="111"/>
-      <c r="BD9" s="110"/>
-      <c r="BE9" s="110"/>
-      <c r="BF9" s="110"/>
-      <c r="BG9" s="110"/>
-      <c r="BH9" s="143"/>
-      <c r="BI9" s="111"/>
-      <c r="BJ9" s="111"/>
-      <c r="BK9" s="110"/>
-      <c r="BL9" s="110"/>
-      <c r="BM9" s="110"/>
-      <c r="BN9" s="110"/>
-      <c r="BO9" s="127"/>
-      <c r="BP9" s="111"/>
-      <c r="BQ9" s="111"/>
-      <c r="BR9" s="110"/>
-      <c r="BS9" s="110"/>
-      <c r="BT9" s="110"/>
-      <c r="BU9" s="110"/>
-      <c r="BV9" s="127"/>
-      <c r="BW9" s="111"/>
-      <c r="BX9" s="111"/>
-      <c r="BY9" s="110"/>
-      <c r="BZ9" s="110"/>
-      <c r="CA9" s="110"/>
-      <c r="CB9" s="110"/>
-      <c r="CC9" s="127"/>
-      <c r="CD9" s="111"/>
-      <c r="CE9" s="111"/>
-      <c r="CF9" s="110"/>
-      <c r="CG9" s="110"/>
-      <c r="CH9" s="110"/>
-      <c r="CI9" s="110"/>
-      <c r="CJ9" s="127"/>
-      <c r="CK9" s="111"/>
-      <c r="CL9" s="111"/>
-      <c r="CM9" s="110"/>
-      <c r="CN9" s="110"/>
-      <c r="CO9" s="110"/>
-      <c r="CP9" s="110"/>
-      <c r="CQ9" s="127"/>
-      <c r="CR9" s="111"/>
-      <c r="CS9" s="111"/>
-      <c r="CT9" s="110"/>
-      <c r="CU9" s="110"/>
-      <c r="CV9" s="110"/>
-      <c r="CW9" s="110"/>
-      <c r="CX9" s="127"/>
-      <c r="CY9" s="111"/>
-      <c r="CZ9" s="111"/>
-      <c r="DA9" s="110"/>
-      <c r="DB9" s="110"/>
-      <c r="DC9" s="110"/>
-      <c r="DD9" s="110"/>
-      <c r="DE9" s="127"/>
-      <c r="DF9" s="111"/>
-      <c r="DG9" s="111"/>
-      <c r="DH9" s="110"/>
-      <c r="DI9" s="110"/>
-      <c r="DJ9" s="110"/>
-      <c r="DK9" s="131"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="186"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="186"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="186"/>
+      <c r="N9" s="264"/>
+      <c r="O9" s="186"/>
+      <c r="P9" s="186"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="186"/>
+      <c r="S9" s="186"/>
+      <c r="T9" s="186"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="107"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="108"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="108"/>
+      <c r="AH9" s="108"/>
+      <c r="AI9" s="107"/>
+      <c r="AJ9" s="107"/>
+      <c r="AK9" s="107"/>
+      <c r="AL9" s="110"/>
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="158"/>
+      <c r="AO9" s="108"/>
+      <c r="AP9" s="107"/>
+      <c r="AQ9" s="107"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="140"/>
+      <c r="AU9" s="108"/>
+      <c r="AV9" s="108"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="107"/>
+      <c r="AZ9" s="107"/>
+      <c r="BA9" s="140"/>
+      <c r="BB9" s="108"/>
+      <c r="BC9" s="108"/>
+      <c r="BD9" s="107"/>
+      <c r="BE9" s="107"/>
+      <c r="BF9" s="107"/>
+      <c r="BG9" s="107"/>
+      <c r="BH9" s="140"/>
+      <c r="BI9" s="108"/>
+      <c r="BJ9" s="108"/>
+      <c r="BK9" s="107"/>
+      <c r="BL9" s="107"/>
+      <c r="BM9" s="107"/>
+      <c r="BN9" s="107"/>
+      <c r="BO9" s="124"/>
+      <c r="BP9" s="108"/>
+      <c r="BQ9" s="108"/>
+      <c r="BR9" s="107"/>
+      <c r="BS9" s="107"/>
+      <c r="BT9" s="107"/>
+      <c r="BU9" s="107"/>
+      <c r="BV9" s="124"/>
+      <c r="BW9" s="108"/>
+      <c r="BX9" s="108"/>
+      <c r="BY9" s="107"/>
+      <c r="BZ9" s="107"/>
+      <c r="CA9" s="107"/>
+      <c r="CB9" s="107"/>
+      <c r="CC9" s="124"/>
+      <c r="CD9" s="108"/>
+      <c r="CE9" s="108"/>
+      <c r="CF9" s="107"/>
+      <c r="CG9" s="107"/>
+      <c r="CH9" s="107"/>
+      <c r="CI9" s="107"/>
+      <c r="CJ9" s="124"/>
+      <c r="CK9" s="108"/>
+      <c r="CL9" s="108"/>
+      <c r="CM9" s="107"/>
+      <c r="CN9" s="107"/>
+      <c r="CO9" s="107"/>
+      <c r="CP9" s="107"/>
+      <c r="CQ9" s="124"/>
+      <c r="CR9" s="108"/>
+      <c r="CS9" s="108"/>
+      <c r="CT9" s="107"/>
+      <c r="CU9" s="107"/>
+      <c r="CV9" s="107"/>
+      <c r="CW9" s="107"/>
+      <c r="CX9" s="124"/>
+      <c r="CY9" s="108"/>
+      <c r="CZ9" s="108"/>
+      <c r="DA9" s="107"/>
+      <c r="DB9" s="107"/>
+      <c r="DC9" s="107"/>
+      <c r="DD9" s="107"/>
+      <c r="DE9" s="124"/>
+      <c r="DF9" s="108"/>
+      <c r="DG9" s="108"/>
+      <c r="DH9" s="107"/>
+      <c r="DI9" s="107"/>
+      <c r="DJ9" s="107"/>
+      <c r="DK9" s="128"/>
     </row>
     <row r="10" spans="2:115" ht="50.1" customHeight="1">
-      <c r="C10" s="123"/>
-      <c r="D10" s="167" t="s">
+      <c r="C10" s="120"/>
+      <c r="D10" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="180"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="188"/>
-      <c r="N10" s="268"/>
-      <c r="O10" s="188"/>
-      <c r="P10" s="188"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="185"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="185"/>
+      <c r="L10" s="185"/>
+      <c r="M10" s="185"/>
+      <c r="N10" s="265"/>
+      <c r="O10" s="185"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="185"/>
+      <c r="S10" s="185"/>
+      <c r="T10" s="185"/>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
@@ -6352,333 +6357,333 @@
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
       <c r="AE10" s="18"/>
-      <c r="AF10" s="114"/>
+      <c r="AF10" s="111"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="18"/>
       <c r="AJ10" s="18"/>
       <c r="AK10" s="18"/>
-      <c r="AL10" s="114"/>
+      <c r="AL10" s="111"/>
       <c r="AM10" s="18"/>
-      <c r="AN10" s="162"/>
+      <c r="AN10" s="159"/>
       <c r="AO10" s="19"/>
       <c r="AP10" s="18"/>
       <c r="AQ10" s="18"/>
       <c r="AR10" s="18"/>
       <c r="AS10" s="18"/>
-      <c r="AT10" s="144"/>
+      <c r="AT10" s="141"/>
       <c r="AU10" s="19"/>
       <c r="AV10" s="19"/>
       <c r="AW10" s="18"/>
       <c r="AX10" s="18"/>
       <c r="AY10" s="18"/>
       <c r="AZ10" s="18"/>
-      <c r="BA10" s="144"/>
+      <c r="BA10" s="141"/>
       <c r="BB10" s="19"/>
       <c r="BC10" s="19"/>
       <c r="BD10" s="18"/>
       <c r="BE10" s="18"/>
       <c r="BF10" s="18"/>
       <c r="BG10" s="18"/>
-      <c r="BH10" s="144"/>
+      <c r="BH10" s="141"/>
       <c r="BI10" s="19"/>
       <c r="BJ10" s="19"/>
       <c r="BK10" s="18"/>
       <c r="BL10" s="18"/>
       <c r="BM10" s="18"/>
       <c r="BN10" s="18"/>
-      <c r="BO10" s="128"/>
+      <c r="BO10" s="125"/>
       <c r="BP10" s="19"/>
       <c r="BQ10" s="19"/>
       <c r="BR10" s="18"/>
       <c r="BS10" s="18"/>
       <c r="BT10" s="18"/>
       <c r="BU10" s="18"/>
-      <c r="BV10" s="128"/>
+      <c r="BV10" s="125"/>
       <c r="BW10" s="19"/>
       <c r="BX10" s="19"/>
       <c r="BY10" s="18"/>
       <c r="BZ10" s="18"/>
       <c r="CA10" s="18"/>
       <c r="CB10" s="18"/>
-      <c r="CC10" s="128"/>
+      <c r="CC10" s="125"/>
       <c r="CD10" s="19"/>
       <c r="CE10" s="19"/>
       <c r="CF10" s="18"/>
       <c r="CG10" s="18"/>
       <c r="CH10" s="18"/>
       <c r="CI10" s="18"/>
-      <c r="CJ10" s="128"/>
+      <c r="CJ10" s="125"/>
       <c r="CK10" s="19"/>
       <c r="CL10" s="19"/>
       <c r="CM10" s="18"/>
       <c r="CN10" s="18"/>
       <c r="CO10" s="18"/>
       <c r="CP10" s="18"/>
-      <c r="CQ10" s="128"/>
+      <c r="CQ10" s="125"/>
       <c r="CR10" s="19"/>
       <c r="CS10" s="19"/>
       <c r="CT10" s="18"/>
       <c r="CU10" s="18"/>
       <c r="CV10" s="18"/>
       <c r="CW10" s="18"/>
-      <c r="CX10" s="128"/>
+      <c r="CX10" s="125"/>
       <c r="CY10" s="19"/>
       <c r="CZ10" s="19"/>
       <c r="DA10" s="18"/>
       <c r="DB10" s="18"/>
       <c r="DC10" s="18"/>
       <c r="DD10" s="18"/>
-      <c r="DE10" s="128"/>
+      <c r="DE10" s="125"/>
       <c r="DF10" s="19"/>
       <c r="DG10" s="19"/>
       <c r="DH10" s="18"/>
       <c r="DI10" s="18"/>
       <c r="DJ10" s="18"/>
-      <c r="DK10" s="132"/>
+      <c r="DK10" s="129"/>
     </row>
     <row r="11" spans="2:115" ht="50.1" customHeight="1" thickBot="1">
-      <c r="C11" s="119"/>
-      <c r="D11" s="168" t="s">
+      <c r="C11" s="116"/>
+      <c r="D11" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="181"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="189"/>
-      <c r="M11" s="189"/>
-      <c r="N11" s="267"/>
-      <c r="O11" s="189"/>
-      <c r="P11" s="189"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="111"/>
-      <c r="AA11" s="111"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="110"/>
-      <c r="AD11" s="110"/>
-      <c r="AE11" s="110"/>
-      <c r="AF11" s="113"/>
-      <c r="AG11" s="111"/>
-      <c r="AH11" s="111"/>
-      <c r="AI11" s="110"/>
-      <c r="AJ11" s="110"/>
-      <c r="AK11" s="110"/>
-      <c r="AL11" s="113"/>
-      <c r="AM11" s="110"/>
-      <c r="AN11" s="161"/>
-      <c r="AO11" s="111"/>
-      <c r="AP11" s="110"/>
-      <c r="AQ11" s="110"/>
-      <c r="AR11" s="110"/>
-      <c r="AS11" s="110"/>
-      <c r="AT11" s="145"/>
-      <c r="AU11" s="111"/>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="110"/>
-      <c r="AZ11" s="110"/>
-      <c r="BA11" s="145"/>
-      <c r="BB11" s="111"/>
-      <c r="BC11" s="111"/>
-      <c r="BD11" s="110"/>
-      <c r="BE11" s="110"/>
-      <c r="BF11" s="110"/>
-      <c r="BG11" s="110"/>
-      <c r="BH11" s="145"/>
-      <c r="BI11" s="111"/>
-      <c r="BJ11" s="111"/>
-      <c r="BK11" s="110"/>
-      <c r="BL11" s="110"/>
-      <c r="BM11" s="110"/>
-      <c r="BN11" s="110"/>
-      <c r="BO11" s="129"/>
-      <c r="BP11" s="111"/>
-      <c r="BQ11" s="111"/>
-      <c r="BR11" s="110"/>
-      <c r="BS11" s="110"/>
-      <c r="BT11" s="110"/>
-      <c r="BU11" s="110"/>
-      <c r="BV11" s="129"/>
-      <c r="BW11" s="111"/>
-      <c r="BX11" s="111"/>
-      <c r="BY11" s="110"/>
-      <c r="BZ11" s="110"/>
-      <c r="CA11" s="110"/>
-      <c r="CB11" s="110"/>
-      <c r="CC11" s="129"/>
-      <c r="CD11" s="111"/>
-      <c r="CE11" s="111"/>
-      <c r="CF11" s="110"/>
-      <c r="CG11" s="110"/>
-      <c r="CH11" s="110"/>
-      <c r="CI11" s="110"/>
-      <c r="CJ11" s="129"/>
-      <c r="CK11" s="111"/>
-      <c r="CL11" s="111"/>
-      <c r="CM11" s="110"/>
-      <c r="CN11" s="110"/>
-      <c r="CO11" s="110"/>
-      <c r="CP11" s="110"/>
-      <c r="CQ11" s="129"/>
-      <c r="CR11" s="111"/>
-      <c r="CS11" s="111"/>
-      <c r="CT11" s="110"/>
-      <c r="CU11" s="110"/>
-      <c r="CV11" s="110"/>
-      <c r="CW11" s="110"/>
-      <c r="CX11" s="129"/>
-      <c r="CY11" s="111"/>
-      <c r="CZ11" s="111"/>
-      <c r="DA11" s="110"/>
-      <c r="DB11" s="110"/>
-      <c r="DC11" s="110"/>
-      <c r="DD11" s="110"/>
-      <c r="DE11" s="129"/>
-      <c r="DF11" s="111"/>
-      <c r="DG11" s="111"/>
-      <c r="DH11" s="110"/>
-      <c r="DI11" s="110"/>
-      <c r="DJ11" s="110"/>
-      <c r="DK11" s="133"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="186"/>
+      <c r="N11" s="264"/>
+      <c r="O11" s="186"/>
+      <c r="P11" s="186"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="186"/>
+      <c r="S11" s="186"/>
+      <c r="T11" s="186"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="107"/>
+      <c r="W11" s="107"/>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="107"/>
+      <c r="Z11" s="108"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="107"/>
+      <c r="AC11" s="107"/>
+      <c r="AD11" s="107"/>
+      <c r="AE11" s="107"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="108"/>
+      <c r="AH11" s="108"/>
+      <c r="AI11" s="107"/>
+      <c r="AJ11" s="107"/>
+      <c r="AK11" s="107"/>
+      <c r="AL11" s="110"/>
+      <c r="AM11" s="107"/>
+      <c r="AN11" s="158"/>
+      <c r="AO11" s="108"/>
+      <c r="AP11" s="107"/>
+      <c r="AQ11" s="107"/>
+      <c r="AR11" s="107"/>
+      <c r="AS11" s="107"/>
+      <c r="AT11" s="142"/>
+      <c r="AU11" s="108"/>
+      <c r="AV11" s="108"/>
+      <c r="AW11" s="107"/>
+      <c r="AX11" s="107"/>
+      <c r="AY11" s="107"/>
+      <c r="AZ11" s="107"/>
+      <c r="BA11" s="142"/>
+      <c r="BB11" s="108"/>
+      <c r="BC11" s="108"/>
+      <c r="BD11" s="107"/>
+      <c r="BE11" s="107"/>
+      <c r="BF11" s="107"/>
+      <c r="BG11" s="107"/>
+      <c r="BH11" s="142"/>
+      <c r="BI11" s="108"/>
+      <c r="BJ11" s="108"/>
+      <c r="BK11" s="107"/>
+      <c r="BL11" s="107"/>
+      <c r="BM11" s="107"/>
+      <c r="BN11" s="107"/>
+      <c r="BO11" s="126"/>
+      <c r="BP11" s="108"/>
+      <c r="BQ11" s="108"/>
+      <c r="BR11" s="107"/>
+      <c r="BS11" s="107"/>
+      <c r="BT11" s="107"/>
+      <c r="BU11" s="107"/>
+      <c r="BV11" s="126"/>
+      <c r="BW11" s="108"/>
+      <c r="BX11" s="108"/>
+      <c r="BY11" s="107"/>
+      <c r="BZ11" s="107"/>
+      <c r="CA11" s="107"/>
+      <c r="CB11" s="107"/>
+      <c r="CC11" s="126"/>
+      <c r="CD11" s="108"/>
+      <c r="CE11" s="108"/>
+      <c r="CF11" s="107"/>
+      <c r="CG11" s="107"/>
+      <c r="CH11" s="107"/>
+      <c r="CI11" s="107"/>
+      <c r="CJ11" s="126"/>
+      <c r="CK11" s="108"/>
+      <c r="CL11" s="108"/>
+      <c r="CM11" s="107"/>
+      <c r="CN11" s="107"/>
+      <c r="CO11" s="107"/>
+      <c r="CP11" s="107"/>
+      <c r="CQ11" s="126"/>
+      <c r="CR11" s="108"/>
+      <c r="CS11" s="108"/>
+      <c r="CT11" s="107"/>
+      <c r="CU11" s="107"/>
+      <c r="CV11" s="107"/>
+      <c r="CW11" s="107"/>
+      <c r="CX11" s="126"/>
+      <c r="CY11" s="108"/>
+      <c r="CZ11" s="108"/>
+      <c r="DA11" s="107"/>
+      <c r="DB11" s="107"/>
+      <c r="DC11" s="107"/>
+      <c r="DD11" s="107"/>
+      <c r="DE11" s="126"/>
+      <c r="DF11" s="108"/>
+      <c r="DG11" s="108"/>
+      <c r="DH11" s="107"/>
+      <c r="DI11" s="107"/>
+      <c r="DJ11" s="107"/>
+      <c r="DK11" s="130"/>
     </row>
     <row r="12" spans="2:115" ht="50.1" customHeight="1" thickBot="1">
-      <c r="C12" s="139"/>
-      <c r="D12" s="169" t="s">
+      <c r="C12" s="136"/>
+      <c r="D12" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="182"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="192"/>
-      <c r="N12" s="269"/>
-      <c r="O12" s="192"/>
-      <c r="P12" s="192"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="134"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="134"/>
-      <c r="V12" s="134"/>
-      <c r="W12" s="134"/>
-      <c r="X12" s="134"/>
-      <c r="Y12" s="134"/>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="134"/>
-      <c r="AC12" s="134"/>
-      <c r="AD12" s="134"/>
-      <c r="AE12" s="134"/>
-      <c r="AF12" s="136"/>
-      <c r="AG12" s="135"/>
-      <c r="AH12" s="135"/>
-      <c r="AI12" s="134"/>
-      <c r="AJ12" s="134"/>
-      <c r="AK12" s="134"/>
-      <c r="AL12" s="136"/>
-      <c r="AM12" s="134"/>
-      <c r="AN12" s="163"/>
-      <c r="AO12" s="135"/>
-      <c r="AP12" s="134"/>
-      <c r="AQ12" s="134"/>
-      <c r="AR12" s="134"/>
-      <c r="AS12" s="134"/>
-      <c r="AT12" s="157"/>
-      <c r="AU12" s="135"/>
-      <c r="AV12" s="135"/>
-      <c r="AW12" s="134"/>
-      <c r="AX12" s="134"/>
-      <c r="AY12" s="134"/>
-      <c r="AZ12" s="134"/>
-      <c r="BA12" s="157"/>
-      <c r="BB12" s="135"/>
-      <c r="BC12" s="135"/>
-      <c r="BD12" s="134"/>
-      <c r="BE12" s="134"/>
-      <c r="BF12" s="134"/>
-      <c r="BG12" s="134"/>
-      <c r="BH12" s="157"/>
-      <c r="BI12" s="135"/>
-      <c r="BJ12" s="135"/>
-      <c r="BK12" s="134"/>
-      <c r="BL12" s="134"/>
-      <c r="BM12" s="134"/>
-      <c r="BN12" s="134"/>
-      <c r="BO12" s="137"/>
-      <c r="BP12" s="135"/>
-      <c r="BQ12" s="135"/>
-      <c r="BR12" s="134"/>
-      <c r="BS12" s="134"/>
-      <c r="BT12" s="134"/>
-      <c r="BU12" s="134"/>
-      <c r="BV12" s="137"/>
-      <c r="BW12" s="135"/>
-      <c r="BX12" s="135"/>
-      <c r="BY12" s="134"/>
-      <c r="BZ12" s="134"/>
-      <c r="CA12" s="134"/>
-      <c r="CB12" s="134"/>
-      <c r="CC12" s="137"/>
-      <c r="CD12" s="135"/>
-      <c r="CE12" s="135"/>
-      <c r="CF12" s="134"/>
-      <c r="CG12" s="134"/>
-      <c r="CH12" s="134"/>
-      <c r="CI12" s="134"/>
-      <c r="CJ12" s="137"/>
-      <c r="CK12" s="135"/>
-      <c r="CL12" s="135"/>
-      <c r="CM12" s="134"/>
-      <c r="CN12" s="134"/>
-      <c r="CO12" s="134"/>
-      <c r="CP12" s="134"/>
-      <c r="CQ12" s="137"/>
-      <c r="CR12" s="135"/>
-      <c r="CS12" s="135"/>
-      <c r="CT12" s="134"/>
-      <c r="CU12" s="134"/>
-      <c r="CV12" s="134"/>
-      <c r="CW12" s="134"/>
-      <c r="CX12" s="137"/>
-      <c r="CY12" s="135"/>
-      <c r="CZ12" s="135"/>
-      <c r="DA12" s="134"/>
-      <c r="DB12" s="134"/>
-      <c r="DC12" s="134"/>
-      <c r="DD12" s="134"/>
-      <c r="DE12" s="137"/>
-      <c r="DF12" s="135"/>
-      <c r="DG12" s="135"/>
-      <c r="DH12" s="134"/>
-      <c r="DI12" s="134"/>
-      <c r="DJ12" s="134"/>
-      <c r="DK12" s="138"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="266"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="189"/>
+      <c r="S12" s="189"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="131"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="131"/>
+      <c r="X12" s="131"/>
+      <c r="Y12" s="131"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+      <c r="AB12" s="131"/>
+      <c r="AC12" s="131"/>
+      <c r="AD12" s="131"/>
+      <c r="AE12" s="131"/>
+      <c r="AF12" s="133"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="131"/>
+      <c r="AJ12" s="131"/>
+      <c r="AK12" s="131"/>
+      <c r="AL12" s="133"/>
+      <c r="AM12" s="131"/>
+      <c r="AN12" s="160"/>
+      <c r="AO12" s="132"/>
+      <c r="AP12" s="131"/>
+      <c r="AQ12" s="131"/>
+      <c r="AR12" s="131"/>
+      <c r="AS12" s="131"/>
+      <c r="AT12" s="154"/>
+      <c r="AU12" s="132"/>
+      <c r="AV12" s="132"/>
+      <c r="AW12" s="131"/>
+      <c r="AX12" s="131"/>
+      <c r="AY12" s="131"/>
+      <c r="AZ12" s="131"/>
+      <c r="BA12" s="154"/>
+      <c r="BB12" s="132"/>
+      <c r="BC12" s="132"/>
+      <c r="BD12" s="131"/>
+      <c r="BE12" s="131"/>
+      <c r="BF12" s="131"/>
+      <c r="BG12" s="131"/>
+      <c r="BH12" s="154"/>
+      <c r="BI12" s="132"/>
+      <c r="BJ12" s="132"/>
+      <c r="BK12" s="131"/>
+      <c r="BL12" s="131"/>
+      <c r="BM12" s="131"/>
+      <c r="BN12" s="131"/>
+      <c r="BO12" s="134"/>
+      <c r="BP12" s="132"/>
+      <c r="BQ12" s="132"/>
+      <c r="BR12" s="131"/>
+      <c r="BS12" s="131"/>
+      <c r="BT12" s="131"/>
+      <c r="BU12" s="131"/>
+      <c r="BV12" s="134"/>
+      <c r="BW12" s="132"/>
+      <c r="BX12" s="132"/>
+      <c r="BY12" s="131"/>
+      <c r="BZ12" s="131"/>
+      <c r="CA12" s="131"/>
+      <c r="CB12" s="131"/>
+      <c r="CC12" s="134"/>
+      <c r="CD12" s="132"/>
+      <c r="CE12" s="132"/>
+      <c r="CF12" s="131"/>
+      <c r="CG12" s="131"/>
+      <c r="CH12" s="131"/>
+      <c r="CI12" s="131"/>
+      <c r="CJ12" s="134"/>
+      <c r="CK12" s="132"/>
+      <c r="CL12" s="132"/>
+      <c r="CM12" s="131"/>
+      <c r="CN12" s="131"/>
+      <c r="CO12" s="131"/>
+      <c r="CP12" s="131"/>
+      <c r="CQ12" s="134"/>
+      <c r="CR12" s="132"/>
+      <c r="CS12" s="132"/>
+      <c r="CT12" s="131"/>
+      <c r="CU12" s="131"/>
+      <c r="CV12" s="131"/>
+      <c r="CW12" s="131"/>
+      <c r="CX12" s="134"/>
+      <c r="CY12" s="132"/>
+      <c r="CZ12" s="132"/>
+      <c r="DA12" s="131"/>
+      <c r="DB12" s="131"/>
+      <c r="DC12" s="131"/>
+      <c r="DD12" s="131"/>
+      <c r="DE12" s="134"/>
+      <c r="DF12" s="132"/>
+      <c r="DG12" s="132"/>
+      <c r="DH12" s="131"/>
+      <c r="DI12" s="131"/>
+      <c r="DJ12" s="131"/>
+      <c r="DK12" s="135"/>
     </row>
     <row r="13" spans="2:115" ht="17.25" thickTop="1"/>
     <row r="15" spans="2:115" ht="26.25">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="105" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:115" ht="18" thickBot="1">
-      <c r="G16" s="185" t="s">
+      <c r="G16" s="182" t="s">
         <v>24</v>
       </c>
       <c r="X16" s="92" t="s">
@@ -6701,52 +6706,52 @@
       <c r="D17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="183" t="s">
+      <c r="E17" s="180" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="194">
+      <c r="G17" s="191">
         <v>14</v>
       </c>
-      <c r="H17" s="195">
+      <c r="H17" s="192">
         <v>15</v>
       </c>
-      <c r="I17" s="195">
+      <c r="I17" s="192">
         <v>16</v>
       </c>
-      <c r="J17" s="195">
+      <c r="J17" s="192">
         <v>17</v>
       </c>
-      <c r="K17" s="195">
+      <c r="K17" s="192">
         <v>18</v>
       </c>
-      <c r="L17" s="195">
+      <c r="L17" s="192">
         <v>19</v>
       </c>
-      <c r="M17" s="195">
+      <c r="M17" s="192">
         <v>20</v>
       </c>
-      <c r="N17" s="195">
+      <c r="N17" s="192">
         <v>21</v>
       </c>
-      <c r="O17" s="195">
+      <c r="O17" s="192">
         <v>22</v>
       </c>
-      <c r="P17" s="195">
+      <c r="P17" s="192">
         <v>23</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="192">
         <v>24</v>
       </c>
-      <c r="R17" s="31">
+      <c r="R17" s="192">
         <v>25</v>
       </c>
-      <c r="S17" s="31">
+      <c r="S17" s="192">
         <v>26</v>
       </c>
-      <c r="T17" s="31">
+      <c r="T17" s="192">
         <v>27</v>
       </c>
       <c r="U17" s="31">
@@ -6824,7 +6829,7 @@
       <c r="AS17" s="31">
         <v>22</v>
       </c>
-      <c r="AT17" s="159">
+      <c r="AT17" s="156">
         <v>23</v>
       </c>
       <c r="AU17" s="31">
@@ -6845,7 +6850,7 @@
       <c r="AZ17" s="31">
         <v>29</v>
       </c>
-      <c r="BA17" s="159">
+      <c r="BA17" s="156">
         <v>30</v>
       </c>
       <c r="BB17" s="31">
@@ -6866,7 +6871,7 @@
       <c r="BG17" s="31">
         <v>5</v>
       </c>
-      <c r="BH17" s="159">
+      <c r="BH17" s="156">
         <v>30</v>
       </c>
       <c r="BI17" s="31">
@@ -7028,43 +7033,43 @@
       <c r="DI17" s="31">
         <v>28</v>
       </c>
-      <c r="DJ17" s="172">
+      <c r="DJ17" s="169">
         <v>29</v>
       </c>
-      <c r="DK17" s="173">
+      <c r="DK17" s="170">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="283" t="s">
+      <c r="B18" s="277" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="250" t="s">
+      <c r="C18" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="251" t="s">
+      <c r="D18" s="248" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="252" t="s">
+      <c r="E18" s="249" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="253">
+      <c r="F18" s="250">
         <v>40344</v>
       </c>
-      <c r="G18" s="196"/>
-      <c r="H18" s="197"/>
-      <c r="I18" s="198"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="199"/>
-      <c r="L18" s="200"/>
-      <c r="M18" s="200"/>
-      <c r="N18" s="270"/>
-      <c r="O18" s="199"/>
-      <c r="P18" s="199"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="196"/>
+      <c r="K18" s="196"/>
+      <c r="L18" s="197"/>
+      <c r="M18" s="197"/>
+      <c r="N18" s="267"/>
+      <c r="O18" s="196"/>
+      <c r="P18" s="196"/>
+      <c r="Q18" s="196"/>
+      <c r="R18" s="196"/>
+      <c r="S18" s="197"/>
+      <c r="T18" s="197"/>
       <c r="U18" s="37"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
@@ -7090,21 +7095,21 @@
       <c r="AQ18" s="37"/>
       <c r="AR18" s="37"/>
       <c r="AS18" s="37"/>
-      <c r="AT18" s="146"/>
+      <c r="AT18" s="143"/>
       <c r="AU18" s="68"/>
       <c r="AV18" s="68"/>
       <c r="AW18" s="37"/>
       <c r="AX18" s="37"/>
       <c r="AY18" s="37"/>
       <c r="AZ18" s="37"/>
-      <c r="BA18" s="146"/>
+      <c r="BA18" s="143"/>
       <c r="BB18" s="68"/>
       <c r="BC18" s="68"/>
       <c r="BD18" s="37"/>
       <c r="BE18" s="37"/>
       <c r="BF18" s="37"/>
       <c r="BG18" s="37"/>
-      <c r="BH18" s="146"/>
+      <c r="BH18" s="143"/>
       <c r="BI18" s="68"/>
       <c r="BJ18" s="68"/>
       <c r="BK18" s="37"/>
@@ -7162,33 +7167,33 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="283"/>
-      <c r="C19" s="257" t="s">
+      <c r="B19" s="277"/>
+      <c r="C19" s="254" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="258" t="s">
+      <c r="D19" s="255" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="259" t="s">
+      <c r="E19" s="256" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="260">
+      <c r="F19" s="257">
         <v>40350</v>
       </c>
-      <c r="G19" s="201"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="205"/>
-      <c r="M19" s="206"/>
-      <c r="N19" s="271"/>
-      <c r="O19" s="201"/>
-      <c r="P19" s="202"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="199"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="202"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="268"/>
+      <c r="O19" s="198"/>
+      <c r="P19" s="199"/>
+      <c r="Q19" s="199"/>
+      <c r="R19" s="199"/>
+      <c r="S19" s="233"/>
+      <c r="T19" s="233"/>
       <c r="U19" s="32"/>
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
@@ -7214,21 +7219,21 @@
       <c r="AQ19" s="32"/>
       <c r="AR19" s="32"/>
       <c r="AS19" s="32"/>
-      <c r="AT19" s="147"/>
+      <c r="AT19" s="144"/>
       <c r="AU19" s="69"/>
       <c r="AV19" s="69"/>
       <c r="AW19" s="32"/>
       <c r="AX19" s="32"/>
       <c r="AY19" s="32"/>
       <c r="AZ19" s="32"/>
-      <c r="BA19" s="147"/>
+      <c r="BA19" s="144"/>
       <c r="BB19" s="69"/>
       <c r="BC19" s="69"/>
       <c r="BD19" s="32"/>
       <c r="BE19" s="32"/>
       <c r="BF19" s="32"/>
       <c r="BG19" s="32"/>
-      <c r="BH19" s="147"/>
+      <c r="BH19" s="144"/>
       <c r="BI19" s="69"/>
       <c r="BJ19" s="69"/>
       <c r="BK19" s="32"/>
@@ -7286,35 +7291,35 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="282" t="s">
+      <c r="B20" s="278" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="285" t="s">
+      <c r="C20" s="294" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="261" t="s">
+      <c r="D20" s="258" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="262" t="s">
+      <c r="E20" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="263">
+      <c r="F20" s="260">
         <v>40350</v>
       </c>
-      <c r="G20" s="207"/>
-      <c r="H20" s="208"/>
-      <c r="I20" s="209"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="211"/>
-      <c r="L20" s="212"/>
-      <c r="M20" s="213"/>
-      <c r="N20" s="272"/>
-      <c r="O20" s="207"/>
-      <c r="P20" s="208"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="207"/>
+      <c r="K20" s="208"/>
+      <c r="L20" s="209"/>
+      <c r="M20" s="210"/>
+      <c r="N20" s="269"/>
+      <c r="O20" s="204"/>
+      <c r="P20" s="205"/>
+      <c r="Q20" s="205"/>
+      <c r="R20" s="205"/>
+      <c r="S20" s="236"/>
+      <c r="T20" s="236"/>
       <c r="U20" s="42"/>
       <c r="V20" s="42"/>
       <c r="W20" s="42"/>
@@ -7340,21 +7345,21 @@
       <c r="AQ20" s="42"/>
       <c r="AR20" s="42"/>
       <c r="AS20" s="42"/>
-      <c r="AT20" s="148"/>
+      <c r="AT20" s="145"/>
       <c r="AU20" s="70"/>
       <c r="AV20" s="70"/>
       <c r="AW20" s="42"/>
       <c r="AX20" s="42"/>
       <c r="AY20" s="42"/>
       <c r="AZ20" s="42"/>
-      <c r="BA20" s="148"/>
+      <c r="BA20" s="145"/>
       <c r="BB20" s="70"/>
       <c r="BC20" s="70"/>
       <c r="BD20" s="42"/>
       <c r="BE20" s="42"/>
       <c r="BF20" s="42"/>
       <c r="BG20" s="42"/>
-      <c r="BH20" s="148"/>
+      <c r="BH20" s="145"/>
       <c r="BI20" s="70"/>
       <c r="BJ20" s="70"/>
       <c r="BK20" s="42"/>
@@ -7412,31 +7417,31 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="283"/>
-      <c r="C21" s="286"/>
-      <c r="D21" s="261" t="s">
+      <c r="B21" s="277"/>
+      <c r="C21" s="295"/>
+      <c r="D21" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="264" t="s">
+      <c r="E21" s="261" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="263">
+      <c r="F21" s="260">
         <v>40350</v>
       </c>
-      <c r="G21" s="214"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="216"/>
-      <c r="J21" s="217"/>
-      <c r="K21" s="218"/>
-      <c r="L21" s="219"/>
-      <c r="M21" s="220"/>
-      <c r="N21" s="218"/>
-      <c r="O21" s="214"/>
-      <c r="P21" s="215"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
+      <c r="G21" s="211"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="213"/>
+      <c r="J21" s="214"/>
+      <c r="K21" s="215"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="217"/>
+      <c r="N21" s="215"/>
+      <c r="O21" s="211"/>
+      <c r="P21" s="212"/>
+      <c r="Q21" s="212"/>
+      <c r="R21" s="212"/>
+      <c r="S21" s="226"/>
+      <c r="T21" s="226"/>
       <c r="U21" s="48"/>
       <c r="V21" s="48"/>
       <c r="W21" s="48"/>
@@ -7462,21 +7467,21 @@
       <c r="AQ21" s="48"/>
       <c r="AR21" s="48"/>
       <c r="AS21" s="48"/>
-      <c r="AT21" s="149"/>
+      <c r="AT21" s="146"/>
       <c r="AU21" s="71"/>
       <c r="AV21" s="71"/>
       <c r="AW21" s="48"/>
       <c r="AX21" s="48"/>
       <c r="AY21" s="48"/>
       <c r="AZ21" s="48"/>
-      <c r="BA21" s="149"/>
+      <c r="BA21" s="146"/>
       <c r="BB21" s="71"/>
       <c r="BC21" s="71"/>
       <c r="BD21" s="48"/>
       <c r="BE21" s="48"/>
       <c r="BF21" s="48"/>
       <c r="BG21" s="48"/>
-      <c r="BH21" s="149"/>
+      <c r="BH21" s="146"/>
       <c r="BI21" s="71"/>
       <c r="BJ21" s="71"/>
       <c r="BK21" s="48"/>
@@ -7534,31 +7539,31 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="283"/>
-      <c r="C22" s="286"/>
-      <c r="D22" s="261" t="s">
+      <c r="B22" s="277"/>
+      <c r="C22" s="295"/>
+      <c r="D22" s="258" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="264" t="s">
+      <c r="E22" s="261" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="263">
+      <c r="F22" s="260">
         <v>40350</v>
       </c>
-      <c r="G22" s="214"/>
-      <c r="H22" s="215"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="204"/>
-      <c r="L22" s="219"/>
-      <c r="M22" s="220"/>
-      <c r="N22" s="204"/>
-      <c r="O22" s="214"/>
-      <c r="P22" s="215"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
+      <c r="G22" s="211"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="216"/>
+      <c r="M22" s="217"/>
+      <c r="N22" s="201"/>
+      <c r="O22" s="211"/>
+      <c r="P22" s="212"/>
+      <c r="Q22" s="212"/>
+      <c r="R22" s="212"/>
+      <c r="S22" s="226"/>
+      <c r="T22" s="226"/>
       <c r="U22" s="48"/>
       <c r="V22" s="48"/>
       <c r="W22" s="48"/>
@@ -7584,21 +7589,21 @@
       <c r="AQ22" s="48"/>
       <c r="AR22" s="48"/>
       <c r="AS22" s="48"/>
-      <c r="AT22" s="149"/>
+      <c r="AT22" s="146"/>
       <c r="AU22" s="71"/>
       <c r="AV22" s="71"/>
       <c r="AW22" s="48"/>
       <c r="AX22" s="48"/>
       <c r="AY22" s="48"/>
       <c r="AZ22" s="48"/>
-      <c r="BA22" s="149"/>
+      <c r="BA22" s="146"/>
       <c r="BB22" s="71"/>
       <c r="BC22" s="71"/>
       <c r="BD22" s="48"/>
       <c r="BE22" s="48"/>
       <c r="BF22" s="48"/>
       <c r="BG22" s="48"/>
-      <c r="BH22" s="149"/>
+      <c r="BH22" s="146"/>
       <c r="BI22" s="71"/>
       <c r="BJ22" s="71"/>
       <c r="BK22" s="48"/>
@@ -7656,31 +7661,31 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="283"/>
-      <c r="C23" s="287"/>
-      <c r="D23" s="261" t="s">
+      <c r="B23" s="277"/>
+      <c r="C23" s="296"/>
+      <c r="D23" s="258" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="264" t="s">
+      <c r="E23" s="261" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="265">
+      <c r="F23" s="262">
         <v>40350</v>
       </c>
-      <c r="G23" s="214"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="221"/>
-      <c r="K23" s="222"/>
-      <c r="L23" s="223"/>
-      <c r="M23" s="224"/>
-      <c r="N23" s="222"/>
-      <c r="O23" s="214"/>
-      <c r="P23" s="215"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="212"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="218"/>
+      <c r="K23" s="219"/>
+      <c r="L23" s="220"/>
+      <c r="M23" s="221"/>
+      <c r="N23" s="219"/>
+      <c r="O23" s="211"/>
+      <c r="P23" s="212"/>
+      <c r="Q23" s="212"/>
+      <c r="R23" s="212"/>
+      <c r="S23" s="226"/>
+      <c r="T23" s="226"/>
       <c r="U23" s="48"/>
       <c r="V23" s="48"/>
       <c r="W23" s="48"/>
@@ -7706,21 +7711,21 @@
       <c r="AQ23" s="48"/>
       <c r="AR23" s="48"/>
       <c r="AS23" s="48"/>
-      <c r="AT23" s="149"/>
+      <c r="AT23" s="146"/>
       <c r="AU23" s="71"/>
       <c r="AV23" s="71"/>
       <c r="AW23" s="48"/>
       <c r="AX23" s="48"/>
       <c r="AY23" s="48"/>
       <c r="AZ23" s="48"/>
-      <c r="BA23" s="149"/>
+      <c r="BA23" s="146"/>
       <c r="BB23" s="71"/>
       <c r="BC23" s="71"/>
       <c r="BD23" s="48"/>
       <c r="BE23" s="48"/>
       <c r="BF23" s="48"/>
       <c r="BG23" s="48"/>
-      <c r="BH23" s="149"/>
+      <c r="BH23" s="146"/>
       <c r="BI23" s="71"/>
       <c r="BJ23" s="71"/>
       <c r="BK23" s="48"/>
@@ -7778,8 +7783,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="283"/>
-      <c r="C24" s="288" t="s">
+      <c r="B24" s="277"/>
+      <c r="C24" s="297" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7788,23 +7793,23 @@
       <c r="E24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="174">
+      <c r="F24" s="171">
         <v>40352</v>
       </c>
-      <c r="G24" s="225"/>
-      <c r="H24" s="226"/>
-      <c r="I24" s="226"/>
-      <c r="J24" s="227"/>
-      <c r="K24" s="226"/>
-      <c r="L24" s="228"/>
-      <c r="M24" s="228"/>
-      <c r="N24" s="216"/>
-      <c r="O24" s="204"/>
-      <c r="P24" s="204"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
+      <c r="G24" s="222"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="224"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="225"/>
+      <c r="M24" s="225"/>
+      <c r="N24" s="213"/>
+      <c r="O24" s="201"/>
+      <c r="P24" s="201"/>
+      <c r="Q24" s="223"/>
+      <c r="R24" s="223"/>
+      <c r="S24" s="225"/>
+      <c r="T24" s="225"/>
       <c r="U24" s="62"/>
       <c r="V24" s="62"/>
       <c r="W24" s="62"/>
@@ -7830,21 +7835,21 @@
       <c r="AQ24" s="62"/>
       <c r="AR24" s="62"/>
       <c r="AS24" s="62"/>
-      <c r="AT24" s="150"/>
+      <c r="AT24" s="147"/>
       <c r="AU24" s="72"/>
       <c r="AV24" s="72"/>
       <c r="AW24" s="62"/>
       <c r="AX24" s="62"/>
       <c r="AY24" s="62"/>
       <c r="AZ24" s="62"/>
-      <c r="BA24" s="150"/>
+      <c r="BA24" s="147"/>
       <c r="BB24" s="72"/>
       <c r="BC24" s="72"/>
       <c r="BD24" s="62"/>
       <c r="BE24" s="62"/>
       <c r="BF24" s="62"/>
       <c r="BG24" s="62"/>
-      <c r="BH24" s="150"/>
+      <c r="BH24" s="147"/>
       <c r="BI24" s="72"/>
       <c r="BJ24" s="72"/>
       <c r="BK24" s="62"/>
@@ -7902,31 +7907,31 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="283"/>
-      <c r="C25" s="288"/>
+      <c r="B25" s="277"/>
+      <c r="C25" s="297"/>
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="174">
+      <c r="F25" s="171">
         <v>40352</v>
       </c>
-      <c r="G25" s="214"/>
-      <c r="H25" s="215"/>
-      <c r="I25" s="215"/>
-      <c r="J25" s="215"/>
-      <c r="K25" s="215"/>
-      <c r="L25" s="229"/>
-      <c r="M25" s="229"/>
-      <c r="N25" s="215"/>
-      <c r="O25" s="204"/>
-      <c r="P25" s="204"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
+      <c r="G25" s="211"/>
+      <c r="H25" s="212"/>
+      <c r="I25" s="212"/>
+      <c r="J25" s="212"/>
+      <c r="K25" s="212"/>
+      <c r="L25" s="226"/>
+      <c r="M25" s="226"/>
+      <c r="N25" s="212"/>
+      <c r="O25" s="201"/>
+      <c r="P25" s="201"/>
+      <c r="Q25" s="212"/>
+      <c r="R25" s="212"/>
+      <c r="S25" s="226"/>
+      <c r="T25" s="226"/>
       <c r="U25" s="48"/>
       <c r="V25" s="48"/>
       <c r="W25" s="48"/>
@@ -7952,21 +7957,21 @@
       <c r="AQ25" s="48"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
-      <c r="AT25" s="149"/>
+      <c r="AT25" s="146"/>
       <c r="AU25" s="71"/>
       <c r="AV25" s="71"/>
       <c r="AW25" s="48"/>
       <c r="AX25" s="48"/>
       <c r="AY25" s="48"/>
       <c r="AZ25" s="48"/>
-      <c r="BA25" s="149"/>
+      <c r="BA25" s="146"/>
       <c r="BB25" s="71"/>
       <c r="BC25" s="71"/>
       <c r="BD25" s="48"/>
       <c r="BE25" s="48"/>
       <c r="BF25" s="48"/>
       <c r="BG25" s="48"/>
-      <c r="BH25" s="149"/>
+      <c r="BH25" s="146"/>
       <c r="BI25" s="71"/>
       <c r="BJ25" s="71"/>
       <c r="BK25" s="48"/>
@@ -8024,31 +8029,31 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="283"/>
-      <c r="C26" s="288"/>
+      <c r="B26" s="277"/>
+      <c r="C26" s="297"/>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="174">
+      <c r="F26" s="171">
         <v>40352</v>
       </c>
-      <c r="G26" s="214"/>
-      <c r="H26" s="215"/>
-      <c r="I26" s="215"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="229"/>
-      <c r="M26" s="229"/>
-      <c r="N26" s="215"/>
-      <c r="O26" s="204"/>
-      <c r="P26" s="204"/>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
+      <c r="G26" s="211"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="212"/>
+      <c r="J26" s="212"/>
+      <c r="K26" s="212"/>
+      <c r="L26" s="226"/>
+      <c r="M26" s="226"/>
+      <c r="N26" s="212"/>
+      <c r="O26" s="201"/>
+      <c r="P26" s="201"/>
+      <c r="Q26" s="212"/>
+      <c r="R26" s="212"/>
+      <c r="S26" s="226"/>
+      <c r="T26" s="226"/>
       <c r="U26" s="48"/>
       <c r="V26" s="48"/>
       <c r="W26" s="48"/>
@@ -8074,21 +8079,21 @@
       <c r="AQ26" s="48"/>
       <c r="AR26" s="48"/>
       <c r="AS26" s="48"/>
-      <c r="AT26" s="149"/>
+      <c r="AT26" s="146"/>
       <c r="AU26" s="71"/>
       <c r="AV26" s="71"/>
       <c r="AW26" s="48"/>
       <c r="AX26" s="48"/>
       <c r="AY26" s="48"/>
       <c r="AZ26" s="48"/>
-      <c r="BA26" s="149"/>
+      <c r="BA26" s="146"/>
       <c r="BB26" s="71"/>
       <c r="BC26" s="71"/>
       <c r="BD26" s="48"/>
       <c r="BE26" s="48"/>
       <c r="BF26" s="48"/>
       <c r="BG26" s="48"/>
-      <c r="BH26" s="149"/>
+      <c r="BH26" s="146"/>
       <c r="BI26" s="71"/>
       <c r="BJ26" s="71"/>
       <c r="BK26" s="48"/>
@@ -8146,31 +8151,31 @@
       <c r="DK26" s="52"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="283"/>
-      <c r="C27" s="288"/>
+      <c r="B27" s="277"/>
+      <c r="C27" s="297"/>
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="174">
+      <c r="F27" s="171">
         <v>40353</v>
       </c>
-      <c r="G27" s="214"/>
-      <c r="H27" s="215"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="215"/>
-      <c r="K27" s="215"/>
-      <c r="L27" s="229"/>
-      <c r="M27" s="229"/>
-      <c r="N27" s="215"/>
-      <c r="O27" s="215"/>
-      <c r="P27" s="215"/>
-      <c r="Q27" s="125"/>
-      <c r="R27" s="125"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="212"/>
+      <c r="K27" s="212"/>
+      <c r="L27" s="226"/>
+      <c r="M27" s="226"/>
+      <c r="N27" s="212"/>
+      <c r="O27" s="212"/>
+      <c r="P27" s="212"/>
+      <c r="Q27" s="201"/>
+      <c r="R27" s="201"/>
+      <c r="S27" s="226"/>
+      <c r="T27" s="226"/>
       <c r="U27" s="48"/>
       <c r="V27" s="48"/>
       <c r="W27" s="48"/>
@@ -8196,21 +8201,21 @@
       <c r="AQ27" s="48"/>
       <c r="AR27" s="48"/>
       <c r="AS27" s="48"/>
-      <c r="AT27" s="149"/>
+      <c r="AT27" s="146"/>
       <c r="AU27" s="71"/>
       <c r="AV27" s="71"/>
       <c r="AW27" s="48"/>
       <c r="AX27" s="48"/>
       <c r="AY27" s="48"/>
       <c r="AZ27" s="48"/>
-      <c r="BA27" s="149"/>
+      <c r="BA27" s="146"/>
       <c r="BB27" s="71"/>
       <c r="BC27" s="71"/>
       <c r="BD27" s="48"/>
       <c r="BE27" s="48"/>
       <c r="BF27" s="48"/>
       <c r="BG27" s="48"/>
-      <c r="BH27" s="149"/>
+      <c r="BH27" s="146"/>
       <c r="BI27" s="71"/>
       <c r="BJ27" s="71"/>
       <c r="BK27" s="48"/>
@@ -8268,31 +8273,31 @@
       <c r="DK27" s="52"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="283"/>
-      <c r="C28" s="288"/>
+      <c r="B28" s="277"/>
+      <c r="C28" s="297"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="174">
+      <c r="F28" s="171">
         <v>40353</v>
       </c>
-      <c r="G28" s="214"/>
-      <c r="H28" s="215"/>
-      <c r="I28" s="215"/>
-      <c r="J28" s="215"/>
-      <c r="K28" s="215"/>
-      <c r="L28" s="229"/>
-      <c r="M28" s="229"/>
-      <c r="N28" s="215"/>
-      <c r="O28" s="215"/>
-      <c r="P28" s="215"/>
-      <c r="Q28" s="125"/>
-      <c r="R28" s="125"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
+      <c r="G28" s="211"/>
+      <c r="H28" s="212"/>
+      <c r="I28" s="212"/>
+      <c r="J28" s="212"/>
+      <c r="K28" s="212"/>
+      <c r="L28" s="226"/>
+      <c r="M28" s="226"/>
+      <c r="N28" s="212"/>
+      <c r="O28" s="212"/>
+      <c r="P28" s="212"/>
+      <c r="Q28" s="201"/>
+      <c r="R28" s="201"/>
+      <c r="S28" s="226"/>
+      <c r="T28" s="226"/>
       <c r="U28" s="48"/>
       <c r="V28" s="48"/>
       <c r="W28" s="48"/>
@@ -8318,21 +8323,21 @@
       <c r="AQ28" s="48"/>
       <c r="AR28" s="48"/>
       <c r="AS28" s="48"/>
-      <c r="AT28" s="149"/>
+      <c r="AT28" s="146"/>
       <c r="AU28" s="71"/>
       <c r="AV28" s="71"/>
       <c r="AW28" s="48"/>
       <c r="AX28" s="48"/>
       <c r="AY28" s="48"/>
       <c r="AZ28" s="48"/>
-      <c r="BA28" s="149"/>
+      <c r="BA28" s="146"/>
       <c r="BB28" s="71"/>
       <c r="BC28" s="71"/>
       <c r="BD28" s="48"/>
       <c r="BE28" s="48"/>
       <c r="BF28" s="48"/>
       <c r="BG28" s="48"/>
-      <c r="BH28" s="149"/>
+      <c r="BH28" s="146"/>
       <c r="BI28" s="71"/>
       <c r="BJ28" s="71"/>
       <c r="BK28" s="48"/>
@@ -8390,31 +8395,31 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="283"/>
-      <c r="C29" s="288"/>
+      <c r="B29" s="277"/>
+      <c r="C29" s="297"/>
       <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="174">
+      <c r="F29" s="171">
         <v>40354</v>
       </c>
-      <c r="G29" s="214"/>
-      <c r="H29" s="215"/>
-      <c r="I29" s="215"/>
-      <c r="J29" s="215"/>
-      <c r="K29" s="215"/>
-      <c r="L29" s="229"/>
-      <c r="M29" s="229"/>
-      <c r="N29" s="215"/>
-      <c r="O29" s="215"/>
-      <c r="P29" s="204"/>
-      <c r="Q29" s="125"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
+      <c r="G29" s="211"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="212"/>
+      <c r="J29" s="212"/>
+      <c r="K29" s="212"/>
+      <c r="L29" s="226"/>
+      <c r="M29" s="226"/>
+      <c r="N29" s="212"/>
+      <c r="O29" s="212"/>
+      <c r="P29" s="201"/>
+      <c r="Q29" s="201"/>
+      <c r="R29" s="212"/>
+      <c r="S29" s="226"/>
+      <c r="T29" s="226"/>
       <c r="U29" s="48"/>
       <c r="V29" s="48"/>
       <c r="W29" s="48"/>
@@ -8440,21 +8445,21 @@
       <c r="AQ29" s="48"/>
       <c r="AR29" s="48"/>
       <c r="AS29" s="48"/>
-      <c r="AT29" s="149"/>
+      <c r="AT29" s="146"/>
       <c r="AU29" s="71"/>
       <c r="AV29" s="71"/>
       <c r="AW29" s="48"/>
       <c r="AX29" s="48"/>
       <c r="AY29" s="48"/>
       <c r="AZ29" s="48"/>
-      <c r="BA29" s="149"/>
+      <c r="BA29" s="146"/>
       <c r="BB29" s="71"/>
       <c r="BC29" s="71"/>
       <c r="BD29" s="48"/>
       <c r="BE29" s="48"/>
       <c r="BF29" s="48"/>
       <c r="BG29" s="48"/>
-      <c r="BH29" s="149"/>
+      <c r="BH29" s="146"/>
       <c r="BI29" s="71"/>
       <c r="BJ29" s="71"/>
       <c r="BK29" s="48"/>
@@ -8512,31 +8517,31 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="283"/>
-      <c r="C30" s="288"/>
+      <c r="B30" s="277"/>
+      <c r="C30" s="297"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="174">
+      <c r="F30" s="171">
         <v>40354</v>
       </c>
-      <c r="G30" s="214"/>
-      <c r="H30" s="215"/>
-      <c r="I30" s="215"/>
-      <c r="J30" s="215"/>
-      <c r="K30" s="215"/>
-      <c r="L30" s="229"/>
-      <c r="M30" s="229"/>
-      <c r="N30" s="215"/>
-      <c r="O30" s="215"/>
-      <c r="P30" s="204"/>
-      <c r="Q30" s="125"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="212"/>
+      <c r="J30" s="212"/>
+      <c r="K30" s="212"/>
+      <c r="L30" s="226"/>
+      <c r="M30" s="226"/>
+      <c r="N30" s="212"/>
+      <c r="O30" s="212"/>
+      <c r="P30" s="201"/>
+      <c r="Q30" s="201"/>
+      <c r="R30" s="212"/>
+      <c r="S30" s="226"/>
+      <c r="T30" s="226"/>
       <c r="U30" s="48"/>
       <c r="V30" s="48"/>
       <c r="W30" s="48"/>
@@ -8562,21 +8567,21 @@
       <c r="AQ30" s="48"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="48"/>
-      <c r="AT30" s="149"/>
+      <c r="AT30" s="146"/>
       <c r="AU30" s="71"/>
       <c r="AV30" s="71"/>
       <c r="AW30" s="48"/>
       <c r="AX30" s="48"/>
       <c r="AY30" s="48"/>
       <c r="AZ30" s="48"/>
-      <c r="BA30" s="149"/>
+      <c r="BA30" s="146"/>
       <c r="BB30" s="71"/>
       <c r="BC30" s="71"/>
       <c r="BD30" s="48"/>
       <c r="BE30" s="48"/>
       <c r="BF30" s="48"/>
       <c r="BG30" s="48"/>
-      <c r="BH30" s="149"/>
+      <c r="BH30" s="146"/>
       <c r="BI30" s="71"/>
       <c r="BJ30" s="71"/>
       <c r="BK30" s="48"/>
@@ -8634,33 +8639,33 @@
       <c r="DK30" s="52"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="283"/>
-      <c r="C31" s="288"/>
+      <c r="B31" s="277"/>
+      <c r="C31" s="297"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="174">
+      <c r="F31" s="171">
         <v>40358</v>
       </c>
-      <c r="G31" s="214"/>
-      <c r="H31" s="215"/>
-      <c r="I31" s="215"/>
-      <c r="J31" s="215"/>
-      <c r="K31" s="215"/>
-      <c r="L31" s="229"/>
-      <c r="M31" s="229"/>
-      <c r="N31" s="215"/>
-      <c r="O31" s="215"/>
-      <c r="P31" s="215"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="125"/>
-      <c r="V31" s="125"/>
+      <c r="G31" s="211"/>
+      <c r="H31" s="212"/>
+      <c r="I31" s="212"/>
+      <c r="J31" s="212"/>
+      <c r="K31" s="212"/>
+      <c r="L31" s="226"/>
+      <c r="M31" s="226"/>
+      <c r="N31" s="212"/>
+      <c r="O31" s="212"/>
+      <c r="P31" s="212"/>
+      <c r="Q31" s="212"/>
+      <c r="R31" s="212"/>
+      <c r="S31" s="226"/>
+      <c r="T31" s="226"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="122"/>
       <c r="W31" s="48"/>
       <c r="X31" s="48"/>
       <c r="Y31" s="48"/>
@@ -8684,21 +8689,21 @@
       <c r="AQ31" s="48"/>
       <c r="AR31" s="48"/>
       <c r="AS31" s="48"/>
-      <c r="AT31" s="149"/>
+      <c r="AT31" s="146"/>
       <c r="AU31" s="71"/>
       <c r="AV31" s="71"/>
       <c r="AW31" s="48"/>
       <c r="AX31" s="48"/>
       <c r="AY31" s="48"/>
       <c r="AZ31" s="48"/>
-      <c r="BA31" s="149"/>
+      <c r="BA31" s="146"/>
       <c r="BB31" s="71"/>
       <c r="BC31" s="71"/>
       <c r="BD31" s="48"/>
       <c r="BE31" s="48"/>
       <c r="BF31" s="48"/>
       <c r="BG31" s="48"/>
-      <c r="BH31" s="149"/>
+      <c r="BH31" s="146"/>
       <c r="BI31" s="71"/>
       <c r="BJ31" s="71"/>
       <c r="BK31" s="48"/>
@@ -8756,34 +8761,34 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="283"/>
-      <c r="C32" s="288"/>
+      <c r="B32" s="277"/>
+      <c r="C32" s="297"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="174">
+      <c r="F32" s="171">
         <v>40359</v>
       </c>
-      <c r="G32" s="214"/>
-      <c r="H32" s="215"/>
-      <c r="I32" s="215"/>
-      <c r="J32" s="215"/>
-      <c r="K32" s="215"/>
-      <c r="L32" s="229"/>
-      <c r="M32" s="229"/>
-      <c r="N32" s="215"/>
-      <c r="O32" s="215"/>
-      <c r="P32" s="215"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
+      <c r="G32" s="211"/>
+      <c r="H32" s="212"/>
+      <c r="I32" s="212"/>
+      <c r="J32" s="212"/>
+      <c r="K32" s="212"/>
+      <c r="L32" s="226"/>
+      <c r="M32" s="226"/>
+      <c r="N32" s="212"/>
+      <c r="O32" s="212"/>
+      <c r="P32" s="212"/>
+      <c r="Q32" s="212"/>
+      <c r="R32" s="212"/>
+      <c r="S32" s="226"/>
+      <c r="T32" s="226"/>
       <c r="U32" s="48"/>
       <c r="V32" s="48"/>
-      <c r="W32" s="125"/>
+      <c r="W32" s="122"/>
       <c r="X32" s="48"/>
       <c r="Y32" s="48"/>
       <c r="Z32" s="71"/>
@@ -8806,21 +8811,21 @@
       <c r="AQ32" s="48"/>
       <c r="AR32" s="48"/>
       <c r="AS32" s="48"/>
-      <c r="AT32" s="149"/>
+      <c r="AT32" s="146"/>
       <c r="AU32" s="71"/>
       <c r="AV32" s="71"/>
       <c r="AW32" s="48"/>
       <c r="AX32" s="48"/>
       <c r="AY32" s="48"/>
       <c r="AZ32" s="48"/>
-      <c r="BA32" s="149"/>
+      <c r="BA32" s="146"/>
       <c r="BB32" s="71"/>
       <c r="BC32" s="71"/>
       <c r="BD32" s="48"/>
       <c r="BE32" s="48"/>
       <c r="BF32" s="48"/>
       <c r="BG32" s="48"/>
-      <c r="BH32" s="149"/>
+      <c r="BH32" s="146"/>
       <c r="BI32" s="71"/>
       <c r="BJ32" s="71"/>
       <c r="BK32" s="48"/>
@@ -8878,31 +8883,31 @@
       <c r="DK32" s="52"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="283"/>
-      <c r="C33" s="288"/>
+      <c r="B33" s="277"/>
+      <c r="C33" s="297"/>
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="174">
+      <c r="F33" s="171">
         <v>40357</v>
       </c>
-      <c r="G33" s="214"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="215"/>
-      <c r="K33" s="215"/>
-      <c r="L33" s="229"/>
-      <c r="M33" s="229"/>
-      <c r="N33" s="215"/>
-      <c r="O33" s="215"/>
-      <c r="P33" s="215"/>
-      <c r="Q33" s="125"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="212"/>
+      <c r="I33" s="212"/>
+      <c r="J33" s="212"/>
+      <c r="K33" s="212"/>
+      <c r="L33" s="226"/>
+      <c r="M33" s="226"/>
+      <c r="N33" s="212"/>
+      <c r="O33" s="212"/>
+      <c r="P33" s="212"/>
+      <c r="Q33" s="201"/>
+      <c r="R33" s="212"/>
+      <c r="S33" s="226"/>
+      <c r="T33" s="226"/>
       <c r="U33" s="48"/>
       <c r="V33" s="48"/>
       <c r="W33" s="48"/>
@@ -8928,21 +8933,21 @@
       <c r="AQ33" s="48"/>
       <c r="AR33" s="48"/>
       <c r="AS33" s="48"/>
-      <c r="AT33" s="149"/>
+      <c r="AT33" s="146"/>
       <c r="AU33" s="71"/>
       <c r="AV33" s="71"/>
       <c r="AW33" s="48"/>
       <c r="AX33" s="48"/>
       <c r="AY33" s="48"/>
       <c r="AZ33" s="48"/>
-      <c r="BA33" s="149"/>
+      <c r="BA33" s="146"/>
       <c r="BB33" s="71"/>
       <c r="BC33" s="71"/>
       <c r="BD33" s="48"/>
       <c r="BE33" s="48"/>
       <c r="BF33" s="48"/>
       <c r="BG33" s="48"/>
-      <c r="BH33" s="149"/>
+      <c r="BH33" s="146"/>
       <c r="BI33" s="71"/>
       <c r="BJ33" s="71"/>
       <c r="BK33" s="48"/>
@@ -9000,33 +9005,33 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="283"/>
-      <c r="C34" s="288"/>
+      <c r="B34" s="277"/>
+      <c r="C34" s="297"/>
       <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="174">
+      <c r="F34" s="171">
         <v>40357</v>
       </c>
-      <c r="G34" s="214"/>
-      <c r="H34" s="215"/>
-      <c r="I34" s="215"/>
-      <c r="J34" s="215"/>
-      <c r="K34" s="215"/>
-      <c r="L34" s="229"/>
-      <c r="M34" s="229"/>
-      <c r="N34" s="215"/>
-      <c r="O34" s="215"/>
-      <c r="P34" s="215"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="125"/>
-      <c r="V34" s="125"/>
+      <c r="G34" s="211"/>
+      <c r="H34" s="212"/>
+      <c r="I34" s="212"/>
+      <c r="J34" s="212"/>
+      <c r="K34" s="212"/>
+      <c r="L34" s="226"/>
+      <c r="M34" s="226"/>
+      <c r="N34" s="212"/>
+      <c r="O34" s="212"/>
+      <c r="P34" s="212"/>
+      <c r="Q34" s="212"/>
+      <c r="R34" s="212"/>
+      <c r="S34" s="226"/>
+      <c r="T34" s="226"/>
+      <c r="U34" s="122"/>
+      <c r="V34" s="122"/>
       <c r="W34" s="48"/>
       <c r="X34" s="48"/>
       <c r="Y34" s="48"/>
@@ -9050,21 +9055,21 @@
       <c r="AQ34" s="48"/>
       <c r="AR34" s="48"/>
       <c r="AS34" s="48"/>
-      <c r="AT34" s="149"/>
+      <c r="AT34" s="146"/>
       <c r="AU34" s="71"/>
       <c r="AV34" s="71"/>
       <c r="AW34" s="48"/>
       <c r="AX34" s="48"/>
       <c r="AY34" s="48"/>
       <c r="AZ34" s="48"/>
-      <c r="BA34" s="149"/>
+      <c r="BA34" s="146"/>
       <c r="BB34" s="71"/>
       <c r="BC34" s="71"/>
       <c r="BD34" s="48"/>
       <c r="BE34" s="48"/>
       <c r="BF34" s="48"/>
       <c r="BG34" s="48"/>
-      <c r="BH34" s="149"/>
+      <c r="BH34" s="146"/>
       <c r="BI34" s="71"/>
       <c r="BJ34" s="71"/>
       <c r="BK34" s="48"/>
@@ -9122,35 +9127,35 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="283"/>
-      <c r="C35" s="288"/>
+      <c r="B35" s="277"/>
+      <c r="C35" s="297"/>
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="174">
+      <c r="F35" s="171">
         <v>40360</v>
       </c>
-      <c r="G35" s="214"/>
-      <c r="H35" s="215"/>
-      <c r="I35" s="215"/>
-      <c r="J35" s="215"/>
-      <c r="K35" s="215"/>
-      <c r="L35" s="229"/>
-      <c r="M35" s="229"/>
-      <c r="N35" s="215"/>
-      <c r="O35" s="215"/>
-      <c r="P35" s="215"/>
-      <c r="Q35" s="48"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
+      <c r="G35" s="211"/>
+      <c r="H35" s="212"/>
+      <c r="I35" s="212"/>
+      <c r="J35" s="212"/>
+      <c r="K35" s="212"/>
+      <c r="L35" s="226"/>
+      <c r="M35" s="226"/>
+      <c r="N35" s="212"/>
+      <c r="O35" s="212"/>
+      <c r="P35" s="212"/>
+      <c r="Q35" s="212"/>
+      <c r="R35" s="212"/>
+      <c r="S35" s="226"/>
+      <c r="T35" s="226"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
-      <c r="X35" s="125"/>
+      <c r="X35" s="122"/>
       <c r="Y35" s="48"/>
       <c r="Z35" s="71"/>
       <c r="AA35" s="71"/>
@@ -9172,21 +9177,21 @@
       <c r="AQ35" s="48"/>
       <c r="AR35" s="48"/>
       <c r="AS35" s="48"/>
-      <c r="AT35" s="149"/>
+      <c r="AT35" s="146"/>
       <c r="AU35" s="71"/>
       <c r="AV35" s="71"/>
       <c r="AW35" s="48"/>
       <c r="AX35" s="48"/>
       <c r="AY35" s="48"/>
       <c r="AZ35" s="48"/>
-      <c r="BA35" s="149"/>
+      <c r="BA35" s="146"/>
       <c r="BB35" s="71"/>
       <c r="BC35" s="71"/>
       <c r="BD35" s="48"/>
       <c r="BE35" s="48"/>
       <c r="BF35" s="48"/>
       <c r="BG35" s="48"/>
-      <c r="BH35" s="149"/>
+      <c r="BH35" s="146"/>
       <c r="BI35" s="71"/>
       <c r="BJ35" s="71"/>
       <c r="BK35" s="48"/>
@@ -9244,36 +9249,36 @@
       <c r="DK35" s="52"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="283"/>
-      <c r="C36" s="288"/>
+      <c r="B36" s="277"/>
+      <c r="C36" s="297"/>
       <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="174">
+      <c r="F36" s="171">
         <v>40361</v>
       </c>
-      <c r="G36" s="214"/>
-      <c r="H36" s="215"/>
-      <c r="I36" s="215"/>
-      <c r="J36" s="215"/>
-      <c r="K36" s="215"/>
-      <c r="L36" s="229"/>
-      <c r="M36" s="229"/>
-      <c r="N36" s="215"/>
-      <c r="O36" s="215"/>
-      <c r="P36" s="215"/>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="212"/>
+      <c r="I36" s="212"/>
+      <c r="J36" s="212"/>
+      <c r="K36" s="212"/>
+      <c r="L36" s="226"/>
+      <c r="M36" s="226"/>
+      <c r="N36" s="212"/>
+      <c r="O36" s="212"/>
+      <c r="P36" s="212"/>
+      <c r="Q36" s="212"/>
+      <c r="R36" s="212"/>
+      <c r="S36" s="226"/>
+      <c r="T36" s="226"/>
       <c r="U36" s="48"/>
       <c r="V36" s="48"/>
-      <c r="W36" s="125"/>
-      <c r="X36" s="125"/>
-      <c r="Y36" s="125"/>
+      <c r="W36" s="122"/>
+      <c r="X36" s="122"/>
+      <c r="Y36" s="122"/>
       <c r="Z36" s="71"/>
       <c r="AA36" s="71"/>
       <c r="AB36" s="48"/>
@@ -9294,21 +9299,21 @@
       <c r="AQ36" s="48"/>
       <c r="AR36" s="48"/>
       <c r="AS36" s="48"/>
-      <c r="AT36" s="149"/>
+      <c r="AT36" s="146"/>
       <c r="AU36" s="71"/>
       <c r="AV36" s="71"/>
       <c r="AW36" s="48"/>
       <c r="AX36" s="48"/>
       <c r="AY36" s="48"/>
       <c r="AZ36" s="48"/>
-      <c r="BA36" s="149"/>
+      <c r="BA36" s="146"/>
       <c r="BB36" s="71"/>
       <c r="BC36" s="71"/>
       <c r="BD36" s="48"/>
       <c r="BE36" s="48"/>
       <c r="BF36" s="48"/>
       <c r="BG36" s="48"/>
-      <c r="BH36" s="149"/>
+      <c r="BH36" s="146"/>
       <c r="BI36" s="71"/>
       <c r="BJ36" s="71"/>
       <c r="BK36" s="48"/>
@@ -9366,34 +9371,34 @@
       <c r="DK36" s="52"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="283"/>
-      <c r="C37" s="288"/>
+      <c r="B37" s="277"/>
+      <c r="C37" s="297"/>
       <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="174">
+      <c r="F37" s="171">
         <v>40350</v>
       </c>
-      <c r="G37" s="214"/>
-      <c r="H37" s="215"/>
-      <c r="I37" s="215"/>
-      <c r="J37" s="215"/>
-      <c r="K37" s="215"/>
-      <c r="L37" s="229"/>
-      <c r="M37" s="229"/>
-      <c r="N37" s="215"/>
-      <c r="O37" s="215"/>
-      <c r="P37" s="215"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="U37" s="125"/>
-      <c r="V37" s="125"/>
-      <c r="W37" s="125"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="212"/>
+      <c r="I37" s="212"/>
+      <c r="J37" s="212"/>
+      <c r="K37" s="212"/>
+      <c r="L37" s="226"/>
+      <c r="M37" s="226"/>
+      <c r="N37" s="212"/>
+      <c r="O37" s="212"/>
+      <c r="P37" s="212"/>
+      <c r="Q37" s="212"/>
+      <c r="R37" s="212"/>
+      <c r="S37" s="226"/>
+      <c r="T37" s="226"/>
+      <c r="U37" s="122"/>
+      <c r="V37" s="122"/>
+      <c r="W37" s="122"/>
       <c r="X37" s="48"/>
       <c r="Y37" s="48"/>
       <c r="Z37" s="71"/>
@@ -9416,21 +9421,21 @@
       <c r="AQ37" s="48"/>
       <c r="AR37" s="48"/>
       <c r="AS37" s="48"/>
-      <c r="AT37" s="149"/>
+      <c r="AT37" s="146"/>
       <c r="AU37" s="71"/>
       <c r="AV37" s="71"/>
       <c r="AW37" s="48"/>
       <c r="AX37" s="48"/>
       <c r="AY37" s="48"/>
       <c r="AZ37" s="48"/>
-      <c r="BA37" s="149"/>
+      <c r="BA37" s="146"/>
       <c r="BB37" s="71"/>
       <c r="BC37" s="71"/>
       <c r="BD37" s="48"/>
       <c r="BE37" s="48"/>
       <c r="BF37" s="48"/>
       <c r="BG37" s="48"/>
-      <c r="BH37" s="149"/>
+      <c r="BH37" s="146"/>
       <c r="BI37" s="71"/>
       <c r="BJ37" s="71"/>
       <c r="BK37" s="48"/>
@@ -9488,31 +9493,31 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="283"/>
-      <c r="C38" s="288"/>
+      <c r="B38" s="277"/>
+      <c r="C38" s="297"/>
       <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="174">
+      <c r="F38" s="171">
         <v>40353</v>
       </c>
-      <c r="G38" s="214"/>
-      <c r="H38" s="215"/>
-      <c r="I38" s="215"/>
-      <c r="J38" s="215"/>
-      <c r="K38" s="215"/>
-      <c r="L38" s="229"/>
-      <c r="M38" s="229"/>
-      <c r="N38" s="215"/>
-      <c r="O38" s="215"/>
-      <c r="P38" s="204"/>
-      <c r="Q38" s="125"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
+      <c r="G38" s="211"/>
+      <c r="H38" s="212"/>
+      <c r="I38" s="212"/>
+      <c r="J38" s="212"/>
+      <c r="K38" s="212"/>
+      <c r="L38" s="226"/>
+      <c r="M38" s="226"/>
+      <c r="N38" s="212"/>
+      <c r="O38" s="212"/>
+      <c r="P38" s="201"/>
+      <c r="Q38" s="201"/>
+      <c r="R38" s="212"/>
+      <c r="S38" s="226"/>
+      <c r="T38" s="226"/>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
       <c r="W38" s="48"/>
@@ -9538,21 +9543,21 @@
       <c r="AQ38" s="48"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="48"/>
-      <c r="AT38" s="149"/>
+      <c r="AT38" s="146"/>
       <c r="AU38" s="71"/>
       <c r="AV38" s="71"/>
       <c r="AW38" s="48"/>
       <c r="AX38" s="48"/>
       <c r="AY38" s="48"/>
       <c r="AZ38" s="48"/>
-      <c r="BA38" s="149"/>
+      <c r="BA38" s="146"/>
       <c r="BB38" s="71"/>
       <c r="BC38" s="71"/>
       <c r="BD38" s="48"/>
       <c r="BE38" s="48"/>
       <c r="BF38" s="48"/>
       <c r="BG38" s="48"/>
-      <c r="BH38" s="149"/>
+      <c r="BH38" s="146"/>
       <c r="BI38" s="71"/>
       <c r="BJ38" s="71"/>
       <c r="BK38" s="48"/>
@@ -9610,31 +9615,31 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="283"/>
-      <c r="C39" s="288"/>
+      <c r="B39" s="277"/>
+      <c r="C39" s="297"/>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="174">
+      <c r="F39" s="171">
         <v>40352</v>
       </c>
-      <c r="G39" s="214"/>
-      <c r="H39" s="215"/>
-      <c r="I39" s="215"/>
-      <c r="J39" s="215"/>
-      <c r="K39" s="215"/>
-      <c r="L39" s="229"/>
-      <c r="M39" s="229"/>
-      <c r="N39" s="215"/>
-      <c r="O39" s="204"/>
-      <c r="P39" s="204"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="48"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="212"/>
+      <c r="I39" s="212"/>
+      <c r="J39" s="212"/>
+      <c r="K39" s="212"/>
+      <c r="L39" s="226"/>
+      <c r="M39" s="226"/>
+      <c r="N39" s="212"/>
+      <c r="O39" s="201"/>
+      <c r="P39" s="201"/>
+      <c r="Q39" s="212"/>
+      <c r="R39" s="212"/>
+      <c r="S39" s="226"/>
+      <c r="T39" s="226"/>
       <c r="U39" s="48"/>
       <c r="V39" s="48"/>
       <c r="W39" s="48"/>
@@ -9660,21 +9665,21 @@
       <c r="AQ39" s="48"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="48"/>
-      <c r="AT39" s="149"/>
+      <c r="AT39" s="146"/>
       <c r="AU39" s="71"/>
       <c r="AV39" s="71"/>
       <c r="AW39" s="48"/>
       <c r="AX39" s="48"/>
       <c r="AY39" s="48"/>
       <c r="AZ39" s="48"/>
-      <c r="BA39" s="149"/>
+      <c r="BA39" s="146"/>
       <c r="BB39" s="71"/>
       <c r="BC39" s="71"/>
       <c r="BD39" s="48"/>
       <c r="BE39" s="48"/>
       <c r="BF39" s="48"/>
       <c r="BG39" s="48"/>
-      <c r="BH39" s="149"/>
+      <c r="BH39" s="146"/>
       <c r="BI39" s="71"/>
       <c r="BJ39" s="71"/>
       <c r="BK39" s="48"/>
@@ -9732,33 +9737,33 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="283"/>
-      <c r="C40" s="288"/>
+      <c r="B40" s="277"/>
+      <c r="C40" s="297"/>
       <c r="D40" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="174">
+      <c r="F40" s="171">
         <v>40358</v>
       </c>
-      <c r="G40" s="214"/>
-      <c r="H40" s="215"/>
-      <c r="I40" s="215"/>
-      <c r="J40" s="215"/>
-      <c r="K40" s="215"/>
-      <c r="L40" s="229"/>
-      <c r="M40" s="229"/>
-      <c r="N40" s="215"/>
-      <c r="O40" s="215"/>
-      <c r="P40" s="215"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="U40" s="125"/>
-      <c r="V40" s="125"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="212"/>
+      <c r="I40" s="212"/>
+      <c r="J40" s="212"/>
+      <c r="K40" s="212"/>
+      <c r="L40" s="226"/>
+      <c r="M40" s="226"/>
+      <c r="N40" s="212"/>
+      <c r="O40" s="212"/>
+      <c r="P40" s="212"/>
+      <c r="Q40" s="212"/>
+      <c r="R40" s="212"/>
+      <c r="S40" s="226"/>
+      <c r="T40" s="226"/>
+      <c r="U40" s="122"/>
+      <c r="V40" s="122"/>
       <c r="W40" s="48"/>
       <c r="X40" s="48"/>
       <c r="Y40" s="48"/>
@@ -9782,21 +9787,21 @@
       <c r="AQ40" s="48"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="48"/>
-      <c r="AT40" s="149"/>
+      <c r="AT40" s="146"/>
       <c r="AU40" s="71"/>
       <c r="AV40" s="71"/>
       <c r="AW40" s="48"/>
       <c r="AX40" s="48"/>
       <c r="AY40" s="48"/>
       <c r="AZ40" s="48"/>
-      <c r="BA40" s="149"/>
+      <c r="BA40" s="146"/>
       <c r="BB40" s="71"/>
       <c r="BC40" s="71"/>
       <c r="BD40" s="48"/>
       <c r="BE40" s="48"/>
       <c r="BF40" s="48"/>
       <c r="BG40" s="48"/>
-      <c r="BH40" s="149"/>
+      <c r="BH40" s="146"/>
       <c r="BI40" s="71"/>
       <c r="BJ40" s="71"/>
       <c r="BK40" s="48"/>
@@ -9854,34 +9859,34 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="283"/>
-      <c r="C41" s="288"/>
+      <c r="B41" s="277"/>
+      <c r="C41" s="297"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="174">
+      <c r="F41" s="171">
         <v>40359</v>
       </c>
-      <c r="G41" s="214"/>
-      <c r="H41" s="215"/>
-      <c r="I41" s="215"/>
-      <c r="J41" s="215"/>
-      <c r="K41" s="215"/>
-      <c r="L41" s="229"/>
-      <c r="M41" s="229"/>
-      <c r="N41" s="215"/>
-      <c r="O41" s="215"/>
-      <c r="P41" s="215"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
+      <c r="G41" s="211"/>
+      <c r="H41" s="212"/>
+      <c r="I41" s="212"/>
+      <c r="J41" s="212"/>
+      <c r="K41" s="212"/>
+      <c r="L41" s="226"/>
+      <c r="M41" s="226"/>
+      <c r="N41" s="212"/>
+      <c r="O41" s="212"/>
+      <c r="P41" s="212"/>
+      <c r="Q41" s="212"/>
+      <c r="R41" s="212"/>
+      <c r="S41" s="226"/>
+      <c r="T41" s="226"/>
       <c r="U41" s="48"/>
-      <c r="V41" s="125"/>
-      <c r="W41" s="125"/>
+      <c r="V41" s="122"/>
+      <c r="W41" s="122"/>
       <c r="X41" s="48"/>
       <c r="Y41" s="48"/>
       <c r="Z41" s="71"/>
@@ -9904,21 +9909,21 @@
       <c r="AQ41" s="48"/>
       <c r="AR41" s="48"/>
       <c r="AS41" s="48"/>
-      <c r="AT41" s="149"/>
+      <c r="AT41" s="146"/>
       <c r="AU41" s="71"/>
       <c r="AV41" s="71"/>
       <c r="AW41" s="48"/>
       <c r="AX41" s="48"/>
       <c r="AY41" s="48"/>
       <c r="AZ41" s="48"/>
-      <c r="BA41" s="149"/>
+      <c r="BA41" s="146"/>
       <c r="BB41" s="71"/>
       <c r="BC41" s="71"/>
       <c r="BD41" s="48"/>
       <c r="BE41" s="48"/>
       <c r="BF41" s="48"/>
       <c r="BG41" s="48"/>
-      <c r="BH41" s="149"/>
+      <c r="BH41" s="146"/>
       <c r="BI41" s="71"/>
       <c r="BJ41" s="71"/>
       <c r="BK41" s="48"/>
@@ -9976,35 +9981,35 @@
       <c r="DK41" s="52"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="283"/>
-      <c r="C42" s="288"/>
+      <c r="B42" s="277"/>
+      <c r="C42" s="297"/>
       <c r="D42" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="174">
+      <c r="F42" s="171">
         <v>40360</v>
       </c>
-      <c r="G42" s="214"/>
-      <c r="H42" s="215"/>
-      <c r="I42" s="215"/>
-      <c r="J42" s="215"/>
-      <c r="K42" s="215"/>
-      <c r="L42" s="229"/>
-      <c r="M42" s="229"/>
-      <c r="N42" s="215"/>
-      <c r="O42" s="215"/>
-      <c r="P42" s="215"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
+      <c r="G42" s="211"/>
+      <c r="H42" s="212"/>
+      <c r="I42" s="212"/>
+      <c r="J42" s="212"/>
+      <c r="K42" s="212"/>
+      <c r="L42" s="226"/>
+      <c r="M42" s="226"/>
+      <c r="N42" s="212"/>
+      <c r="O42" s="212"/>
+      <c r="P42" s="212"/>
+      <c r="Q42" s="212"/>
+      <c r="R42" s="212"/>
+      <c r="S42" s="226"/>
+      <c r="T42" s="226"/>
       <c r="U42" s="48"/>
       <c r="V42" s="48"/>
-      <c r="W42" s="125"/>
-      <c r="X42" s="125"/>
+      <c r="W42" s="122"/>
+      <c r="X42" s="122"/>
       <c r="Y42" s="48"/>
       <c r="Z42" s="71"/>
       <c r="AA42" s="71"/>
@@ -10026,21 +10031,21 @@
       <c r="AQ42" s="48"/>
       <c r="AR42" s="48"/>
       <c r="AS42" s="48"/>
-      <c r="AT42" s="149"/>
+      <c r="AT42" s="146"/>
       <c r="AU42" s="71"/>
       <c r="AV42" s="71"/>
       <c r="AW42" s="48"/>
       <c r="AX42" s="48"/>
       <c r="AY42" s="48"/>
       <c r="AZ42" s="48"/>
-      <c r="BA42" s="149"/>
+      <c r="BA42" s="146"/>
       <c r="BB42" s="71"/>
       <c r="BC42" s="71"/>
       <c r="BD42" s="48"/>
       <c r="BE42" s="48"/>
       <c r="BF42" s="48"/>
       <c r="BG42" s="48"/>
-      <c r="BH42" s="149"/>
+      <c r="BH42" s="146"/>
       <c r="BI42" s="71"/>
       <c r="BJ42" s="71"/>
       <c r="BK42" s="48"/>
@@ -10098,33 +10103,33 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="283"/>
-      <c r="C43" s="288"/>
+      <c r="B43" s="277"/>
+      <c r="C43" s="297"/>
       <c r="D43" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="174">
+      <c r="F43" s="171">
         <v>40358</v>
       </c>
-      <c r="G43" s="214"/>
-      <c r="H43" s="215"/>
-      <c r="I43" s="215"/>
-      <c r="J43" s="215"/>
-      <c r="K43" s="215"/>
-      <c r="L43" s="229"/>
-      <c r="M43" s="229"/>
-      <c r="N43" s="215"/>
-      <c r="O43" s="215"/>
-      <c r="P43" s="215"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="125"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="125"/>
-      <c r="V43" s="125"/>
+      <c r="G43" s="211"/>
+      <c r="H43" s="212"/>
+      <c r="I43" s="212"/>
+      <c r="J43" s="212"/>
+      <c r="K43" s="212"/>
+      <c r="L43" s="226"/>
+      <c r="M43" s="226"/>
+      <c r="N43" s="212"/>
+      <c r="O43" s="212"/>
+      <c r="P43" s="212"/>
+      <c r="Q43" s="212"/>
+      <c r="R43" s="201"/>
+      <c r="S43" s="226"/>
+      <c r="T43" s="226"/>
+      <c r="U43" s="122"/>
+      <c r="V43" s="122"/>
       <c r="W43" s="48"/>
       <c r="X43" s="48"/>
       <c r="Y43" s="48"/>
@@ -10148,21 +10153,21 @@
       <c r="AQ43" s="48"/>
       <c r="AR43" s="48"/>
       <c r="AS43" s="48"/>
-      <c r="AT43" s="149"/>
+      <c r="AT43" s="146"/>
       <c r="AU43" s="71"/>
       <c r="AV43" s="71"/>
       <c r="AW43" s="48"/>
       <c r="AX43" s="48"/>
       <c r="AY43" s="48"/>
       <c r="AZ43" s="48"/>
-      <c r="BA43" s="149"/>
+      <c r="BA43" s="146"/>
       <c r="BB43" s="71"/>
       <c r="BC43" s="71"/>
       <c r="BD43" s="48"/>
       <c r="BE43" s="48"/>
       <c r="BF43" s="48"/>
       <c r="BG43" s="48"/>
-      <c r="BH43" s="149"/>
+      <c r="BH43" s="146"/>
       <c r="BI43" s="71"/>
       <c r="BJ43" s="71"/>
       <c r="BK43" s="48"/>
@@ -10220,25 +10225,25 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="283"/>
-      <c r="C44" s="288"/>
+      <c r="B44" s="277"/>
+      <c r="C44" s="297"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="75"/>
-      <c r="G44" s="214"/>
-      <c r="H44" s="215"/>
-      <c r="I44" s="215"/>
-      <c r="J44" s="215"/>
-      <c r="K44" s="215"/>
-      <c r="L44" s="229"/>
-      <c r="M44" s="229"/>
-      <c r="N44" s="215"/>
-      <c r="O44" s="215"/>
-      <c r="P44" s="215"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
+      <c r="G44" s="211"/>
+      <c r="H44" s="212"/>
+      <c r="I44" s="212"/>
+      <c r="J44" s="212"/>
+      <c r="K44" s="212"/>
+      <c r="L44" s="226"/>
+      <c r="M44" s="226"/>
+      <c r="N44" s="212"/>
+      <c r="O44" s="212"/>
+      <c r="P44" s="212"/>
+      <c r="Q44" s="212"/>
+      <c r="R44" s="212"/>
+      <c r="S44" s="226"/>
+      <c r="T44" s="226"/>
       <c r="U44" s="48"/>
       <c r="V44" s="48"/>
       <c r="W44" s="48"/>
@@ -10264,21 +10269,21 @@
       <c r="AQ44" s="48"/>
       <c r="AR44" s="48"/>
       <c r="AS44" s="48"/>
-      <c r="AT44" s="149"/>
+      <c r="AT44" s="146"/>
       <c r="AU44" s="71"/>
       <c r="AV44" s="71"/>
       <c r="AW44" s="48"/>
       <c r="AX44" s="48"/>
       <c r="AY44" s="48"/>
       <c r="AZ44" s="48"/>
-      <c r="BA44" s="149"/>
+      <c r="BA44" s="146"/>
       <c r="BB44" s="71"/>
       <c r="BC44" s="71"/>
       <c r="BD44" s="48"/>
       <c r="BE44" s="48"/>
       <c r="BF44" s="48"/>
       <c r="BG44" s="48"/>
-      <c r="BH44" s="149"/>
+      <c r="BH44" s="146"/>
       <c r="BI44" s="71"/>
       <c r="BJ44" s="71"/>
       <c r="BK44" s="48"/>
@@ -10336,25 +10341,25 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="283"/>
-      <c r="C45" s="288"/>
+      <c r="B45" s="277"/>
+      <c r="C45" s="297"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="78"/>
-      <c r="G45" s="230"/>
-      <c r="H45" s="231"/>
-      <c r="I45" s="232"/>
-      <c r="J45" s="231"/>
-      <c r="K45" s="231"/>
-      <c r="L45" s="233"/>
-      <c r="M45" s="233"/>
-      <c r="N45" s="231"/>
-      <c r="O45" s="231"/>
-      <c r="P45" s="231"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="57"/>
-      <c r="S45" s="73"/>
-      <c r="T45" s="73"/>
+      <c r="G45" s="227"/>
+      <c r="H45" s="228"/>
+      <c r="I45" s="229"/>
+      <c r="J45" s="228"/>
+      <c r="K45" s="228"/>
+      <c r="L45" s="230"/>
+      <c r="M45" s="230"/>
+      <c r="N45" s="228"/>
+      <c r="O45" s="228"/>
+      <c r="P45" s="228"/>
+      <c r="Q45" s="228"/>
+      <c r="R45" s="228"/>
+      <c r="S45" s="230"/>
+      <c r="T45" s="230"/>
       <c r="U45" s="57"/>
       <c r="V45" s="57"/>
       <c r="W45" s="57"/>
@@ -10380,21 +10385,21 @@
       <c r="AQ45" s="57"/>
       <c r="AR45" s="57"/>
       <c r="AS45" s="57"/>
-      <c r="AT45" s="151"/>
+      <c r="AT45" s="148"/>
       <c r="AU45" s="73"/>
       <c r="AV45" s="73"/>
       <c r="AW45" s="57"/>
       <c r="AX45" s="57"/>
       <c r="AY45" s="57"/>
       <c r="AZ45" s="57"/>
-      <c r="BA45" s="151"/>
+      <c r="BA45" s="148"/>
       <c r="BB45" s="73"/>
       <c r="BC45" s="73"/>
       <c r="BD45" s="57"/>
       <c r="BE45" s="57"/>
       <c r="BF45" s="57"/>
       <c r="BG45" s="57"/>
-      <c r="BH45" s="151"/>
+      <c r="BH45" s="148"/>
       <c r="BI45" s="73"/>
       <c r="BJ45" s="73"/>
       <c r="BK45" s="57"/>
@@ -10452,8 +10457,8 @@
       <c r="DK45" s="61"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="283"/>
-      <c r="C46" s="281" t="s">
+      <c r="B46" s="277"/>
+      <c r="C46" s="284" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -10462,25 +10467,25 @@
       <c r="E46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="174">
+      <c r="F46" s="171">
         <v>40354</v>
       </c>
-      <c r="G46" s="234"/>
-      <c r="H46" s="227"/>
-      <c r="I46" s="227"/>
-      <c r="J46" s="226"/>
-      <c r="K46" s="226"/>
-      <c r="L46" s="228"/>
-      <c r="M46" s="228"/>
-      <c r="N46" s="273"/>
-      <c r="O46" s="274"/>
-      <c r="P46" s="274"/>
-      <c r="Q46" s="99"/>
-      <c r="R46" s="99"/>
-      <c r="S46" s="98"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="277"/>
-      <c r="V46" s="277"/>
+      <c r="G46" s="231"/>
+      <c r="H46" s="224"/>
+      <c r="I46" s="224"/>
+      <c r="J46" s="223"/>
+      <c r="K46" s="223"/>
+      <c r="L46" s="225"/>
+      <c r="M46" s="225"/>
+      <c r="N46" s="270"/>
+      <c r="O46" s="271"/>
+      <c r="P46" s="271"/>
+      <c r="Q46" s="271"/>
+      <c r="R46" s="271"/>
+      <c r="S46" s="301"/>
+      <c r="T46" s="225"/>
+      <c r="U46" s="274"/>
+      <c r="V46" s="274"/>
       <c r="W46" s="62"/>
       <c r="X46" s="62"/>
       <c r="Y46" s="62"/>
@@ -10504,21 +10509,21 @@
       <c r="AQ46" s="62"/>
       <c r="AR46" s="62"/>
       <c r="AS46" s="62"/>
-      <c r="AT46" s="150"/>
+      <c r="AT46" s="147"/>
       <c r="AU46" s="72"/>
       <c r="AV46" s="72"/>
       <c r="AW46" s="62"/>
       <c r="AX46" s="62"/>
       <c r="AY46" s="62"/>
       <c r="AZ46" s="62"/>
-      <c r="BA46" s="150"/>
+      <c r="BA46" s="147"/>
       <c r="BB46" s="72"/>
       <c r="BC46" s="72"/>
       <c r="BD46" s="62"/>
       <c r="BE46" s="62"/>
       <c r="BF46" s="62"/>
       <c r="BG46" s="62"/>
-      <c r="BH46" s="150"/>
+      <c r="BH46" s="147"/>
       <c r="BI46" s="72"/>
       <c r="BJ46" s="72"/>
       <c r="BK46" s="62"/>
@@ -10576,33 +10581,33 @@
       <c r="DK46" s="67"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="283"/>
-      <c r="C47" s="281"/>
+      <c r="B47" s="277"/>
+      <c r="C47" s="284"/>
       <c r="D47" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="174">
+      <c r="F47" s="171">
         <v>40358</v>
       </c>
-      <c r="G47" s="214"/>
-      <c r="H47" s="215"/>
-      <c r="I47" s="215"/>
-      <c r="J47" s="235"/>
-      <c r="K47" s="235"/>
-      <c r="L47" s="229"/>
-      <c r="M47" s="229"/>
-      <c r="N47" s="215"/>
-      <c r="O47" s="215"/>
-      <c r="P47" s="215"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="48"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="99"/>
-      <c r="V47" s="99"/>
+      <c r="G47" s="211"/>
+      <c r="H47" s="212"/>
+      <c r="I47" s="212"/>
+      <c r="J47" s="232"/>
+      <c r="K47" s="232"/>
+      <c r="L47" s="226"/>
+      <c r="M47" s="226"/>
+      <c r="N47" s="212"/>
+      <c r="O47" s="212"/>
+      <c r="P47" s="212"/>
+      <c r="Q47" s="212"/>
+      <c r="R47" s="212"/>
+      <c r="S47" s="226"/>
+      <c r="T47" s="226"/>
+      <c r="U47" s="98"/>
+      <c r="V47" s="98"/>
       <c r="W47" s="48"/>
       <c r="X47" s="48"/>
       <c r="Y47" s="48"/>
@@ -10626,21 +10631,21 @@
       <c r="AQ47" s="48"/>
       <c r="AR47" s="48"/>
       <c r="AS47" s="48"/>
-      <c r="AT47" s="149"/>
+      <c r="AT47" s="146"/>
       <c r="AU47" s="71"/>
       <c r="AV47" s="71"/>
       <c r="AW47" s="48"/>
       <c r="AX47" s="48"/>
       <c r="AY47" s="48"/>
       <c r="AZ47" s="48"/>
-      <c r="BA47" s="149"/>
+      <c r="BA47" s="146"/>
       <c r="BB47" s="71"/>
       <c r="BC47" s="71"/>
       <c r="BD47" s="48"/>
       <c r="BE47" s="48"/>
       <c r="BF47" s="48"/>
       <c r="BG47" s="48"/>
-      <c r="BH47" s="149"/>
+      <c r="BH47" s="146"/>
       <c r="BI47" s="71"/>
       <c r="BJ47" s="71"/>
       <c r="BK47" s="48"/>
@@ -10698,35 +10703,35 @@
       <c r="DK47" s="52"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="283"/>
-      <c r="C48" s="281"/>
+      <c r="B48" s="277"/>
+      <c r="C48" s="284"/>
       <c r="D48" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="174">
+      <c r="F48" s="171">
         <v>40360</v>
       </c>
-      <c r="G48" s="214"/>
-      <c r="H48" s="215"/>
-      <c r="I48" s="215"/>
-      <c r="J48" s="235"/>
-      <c r="K48" s="235"/>
-      <c r="L48" s="229"/>
-      <c r="M48" s="229"/>
-      <c r="N48" s="215"/>
-      <c r="O48" s="215"/>
-      <c r="P48" s="215"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="48"/>
-      <c r="S48" s="71"/>
-      <c r="T48" s="71"/>
+      <c r="G48" s="211"/>
+      <c r="H48" s="212"/>
+      <c r="I48" s="212"/>
+      <c r="J48" s="232"/>
+      <c r="K48" s="232"/>
+      <c r="L48" s="226"/>
+      <c r="M48" s="226"/>
+      <c r="N48" s="212"/>
+      <c r="O48" s="212"/>
+      <c r="P48" s="212"/>
+      <c r="Q48" s="212"/>
+      <c r="R48" s="212"/>
+      <c r="S48" s="226"/>
+      <c r="T48" s="226"/>
       <c r="U48" s="48"/>
       <c r="V48" s="48"/>
-      <c r="W48" s="278"/>
-      <c r="X48" s="278"/>
+      <c r="W48" s="275"/>
+      <c r="X48" s="275"/>
       <c r="Y48" s="48"/>
       <c r="Z48" s="71"/>
       <c r="AA48" s="71"/>
@@ -10748,21 +10753,21 @@
       <c r="AQ48" s="48"/>
       <c r="AR48" s="48"/>
       <c r="AS48" s="48"/>
-      <c r="AT48" s="149"/>
+      <c r="AT48" s="146"/>
       <c r="AU48" s="71"/>
       <c r="AV48" s="71"/>
       <c r="AW48" s="48"/>
       <c r="AX48" s="48"/>
       <c r="AY48" s="48"/>
       <c r="AZ48" s="48"/>
-      <c r="BA48" s="149"/>
+      <c r="BA48" s="146"/>
       <c r="BB48" s="71"/>
       <c r="BC48" s="71"/>
       <c r="BD48" s="48"/>
       <c r="BE48" s="48"/>
       <c r="BF48" s="48"/>
       <c r="BG48" s="48"/>
-      <c r="BH48" s="149"/>
+      <c r="BH48" s="146"/>
       <c r="BI48" s="71"/>
       <c r="BJ48" s="71"/>
       <c r="BK48" s="48"/>
@@ -10820,36 +10825,36 @@
       <c r="DK48" s="52"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="283"/>
-      <c r="C49" s="281"/>
+      <c r="B49" s="277"/>
+      <c r="C49" s="284"/>
       <c r="D49" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="174">
+      <c r="F49" s="171">
         <v>40361</v>
       </c>
-      <c r="G49" s="214"/>
-      <c r="H49" s="215"/>
-      <c r="I49" s="215"/>
-      <c r="J49" s="235"/>
-      <c r="K49" s="235"/>
-      <c r="L49" s="229"/>
-      <c r="M49" s="229"/>
-      <c r="N49" s="215"/>
-      <c r="O49" s="215"/>
-      <c r="P49" s="215"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="71"/>
-      <c r="T49" s="71"/>
+      <c r="G49" s="211"/>
+      <c r="H49" s="212"/>
+      <c r="I49" s="212"/>
+      <c r="J49" s="232"/>
+      <c r="K49" s="232"/>
+      <c r="L49" s="226"/>
+      <c r="M49" s="226"/>
+      <c r="N49" s="212"/>
+      <c r="O49" s="212"/>
+      <c r="P49" s="212"/>
+      <c r="Q49" s="212"/>
+      <c r="R49" s="212"/>
+      <c r="S49" s="226"/>
+      <c r="T49" s="226"/>
       <c r="U49" s="48"/>
       <c r="V49" s="48"/>
       <c r="W49" s="48"/>
       <c r="X49" s="48"/>
-      <c r="Y49" s="278"/>
+      <c r="Y49" s="275"/>
       <c r="Z49" s="71"/>
       <c r="AA49" s="71"/>
       <c r="AB49" s="48"/>
@@ -10870,21 +10875,21 @@
       <c r="AQ49" s="48"/>
       <c r="AR49" s="48"/>
       <c r="AS49" s="48"/>
-      <c r="AT49" s="149"/>
+      <c r="AT49" s="146"/>
       <c r="AU49" s="71"/>
       <c r="AV49" s="71"/>
       <c r="AW49" s="48"/>
       <c r="AX49" s="48"/>
       <c r="AY49" s="48"/>
       <c r="AZ49" s="48"/>
-      <c r="BA49" s="149"/>
+      <c r="BA49" s="146"/>
       <c r="BB49" s="71"/>
       <c r="BC49" s="71"/>
       <c r="BD49" s="48"/>
       <c r="BE49" s="48"/>
       <c r="BF49" s="48"/>
       <c r="BG49" s="48"/>
-      <c r="BH49" s="149"/>
+      <c r="BH49" s="146"/>
       <c r="BI49" s="71"/>
       <c r="BJ49" s="71"/>
       <c r="BK49" s="48"/>
@@ -10942,31 +10947,31 @@
       <c r="DK49" s="52"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="283"/>
-      <c r="C50" s="281"/>
+      <c r="B50" s="277"/>
+      <c r="C50" s="284"/>
       <c r="D50" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="174">
+      <c r="F50" s="171">
         <v>40368</v>
       </c>
-      <c r="G50" s="214"/>
-      <c r="H50" s="215"/>
-      <c r="I50" s="215"/>
-      <c r="J50" s="235"/>
-      <c r="K50" s="235"/>
-      <c r="L50" s="229"/>
-      <c r="M50" s="229"/>
-      <c r="N50" s="215"/>
-      <c r="O50" s="215"/>
-      <c r="P50" s="215"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="71"/>
-      <c r="T50" s="71"/>
+      <c r="G50" s="211"/>
+      <c r="H50" s="212"/>
+      <c r="I50" s="212"/>
+      <c r="J50" s="232"/>
+      <c r="K50" s="232"/>
+      <c r="L50" s="226"/>
+      <c r="M50" s="226"/>
+      <c r="N50" s="212"/>
+      <c r="O50" s="212"/>
+      <c r="P50" s="212"/>
+      <c r="Q50" s="212"/>
+      <c r="R50" s="212"/>
+      <c r="S50" s="226"/>
+      <c r="T50" s="226"/>
       <c r="U50" s="48"/>
       <c r="V50" s="48"/>
       <c r="W50" s="48"/>
@@ -10974,11 +10979,11 @@
       <c r="Y50" s="48"/>
       <c r="Z50" s="71"/>
       <c r="AA50" s="71"/>
-      <c r="AB50" s="276"/>
-      <c r="AC50" s="276"/>
-      <c r="AD50" s="276"/>
-      <c r="AE50" s="276"/>
-      <c r="AF50" s="276"/>
+      <c r="AB50" s="273"/>
+      <c r="AC50" s="273"/>
+      <c r="AD50" s="273"/>
+      <c r="AE50" s="273"/>
+      <c r="AF50" s="273"/>
       <c r="AG50" s="71"/>
       <c r="AH50" s="71"/>
       <c r="AI50" s="48"/>
@@ -10992,21 +10997,21 @@
       <c r="AQ50" s="48"/>
       <c r="AR50" s="48"/>
       <c r="AS50" s="48"/>
-      <c r="AT50" s="149"/>
+      <c r="AT50" s="146"/>
       <c r="AU50" s="71"/>
       <c r="AV50" s="71"/>
       <c r="AW50" s="48"/>
       <c r="AX50" s="48"/>
       <c r="AY50" s="48"/>
       <c r="AZ50" s="48"/>
-      <c r="BA50" s="149"/>
+      <c r="BA50" s="146"/>
       <c r="BB50" s="71"/>
       <c r="BC50" s="71"/>
       <c r="BD50" s="48"/>
       <c r="BE50" s="48"/>
       <c r="BF50" s="48"/>
       <c r="BG50" s="48"/>
-      <c r="BH50" s="149"/>
+      <c r="BH50" s="146"/>
       <c r="BI50" s="71"/>
       <c r="BJ50" s="71"/>
       <c r="BK50" s="48"/>
@@ -11064,25 +11069,25 @@
       <c r="DK50" s="52"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="283"/>
-      <c r="C51" s="281"/>
+      <c r="B51" s="277"/>
+      <c r="C51" s="284"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="174"/>
-      <c r="G51" s="214"/>
-      <c r="H51" s="215"/>
-      <c r="I51" s="215"/>
-      <c r="J51" s="235"/>
-      <c r="K51" s="235"/>
-      <c r="L51" s="229"/>
-      <c r="M51" s="229"/>
-      <c r="N51" s="215"/>
-      <c r="O51" s="215"/>
-      <c r="P51" s="215"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="71"/>
-      <c r="T51" s="71"/>
+      <c r="F51" s="171"/>
+      <c r="G51" s="211"/>
+      <c r="H51" s="212"/>
+      <c r="I51" s="212"/>
+      <c r="J51" s="232"/>
+      <c r="K51" s="232"/>
+      <c r="L51" s="226"/>
+      <c r="M51" s="226"/>
+      <c r="N51" s="212"/>
+      <c r="O51" s="212"/>
+      <c r="P51" s="212"/>
+      <c r="Q51" s="212"/>
+      <c r="R51" s="212"/>
+      <c r="S51" s="226"/>
+      <c r="T51" s="226"/>
       <c r="U51" s="48"/>
       <c r="V51" s="48"/>
       <c r="W51" s="48"/>
@@ -11108,21 +11113,21 @@
       <c r="AQ51" s="48"/>
       <c r="AR51" s="48"/>
       <c r="AS51" s="48"/>
-      <c r="AT51" s="149"/>
+      <c r="AT51" s="146"/>
       <c r="AU51" s="71"/>
       <c r="AV51" s="71"/>
       <c r="AW51" s="48"/>
       <c r="AX51" s="48"/>
       <c r="AY51" s="48"/>
       <c r="AZ51" s="48"/>
-      <c r="BA51" s="149"/>
+      <c r="BA51" s="146"/>
       <c r="BB51" s="71"/>
       <c r="BC51" s="71"/>
       <c r="BD51" s="48"/>
       <c r="BE51" s="48"/>
       <c r="BF51" s="48"/>
       <c r="BG51" s="48"/>
-      <c r="BH51" s="149"/>
+      <c r="BH51" s="146"/>
       <c r="BI51" s="71"/>
       <c r="BJ51" s="71"/>
       <c r="BK51" s="48"/>
@@ -11180,25 +11185,25 @@
       <c r="DK51" s="52"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="283"/>
-      <c r="C52" s="281"/>
+      <c r="B52" s="277"/>
+      <c r="C52" s="284"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="174"/>
-      <c r="G52" s="214"/>
-      <c r="H52" s="215"/>
-      <c r="I52" s="215"/>
-      <c r="J52" s="235"/>
-      <c r="K52" s="235"/>
-      <c r="L52" s="229"/>
-      <c r="M52" s="229"/>
-      <c r="N52" s="215"/>
-      <c r="O52" s="215"/>
-      <c r="P52" s="215"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="48"/>
-      <c r="S52" s="71"/>
-      <c r="T52" s="71"/>
+      <c r="F52" s="171"/>
+      <c r="G52" s="211"/>
+      <c r="H52" s="212"/>
+      <c r="I52" s="212"/>
+      <c r="J52" s="232"/>
+      <c r="K52" s="232"/>
+      <c r="L52" s="226"/>
+      <c r="M52" s="226"/>
+      <c r="N52" s="212"/>
+      <c r="O52" s="212"/>
+      <c r="P52" s="212"/>
+      <c r="Q52" s="212"/>
+      <c r="R52" s="212"/>
+      <c r="S52" s="226"/>
+      <c r="T52" s="226"/>
       <c r="U52" s="48"/>
       <c r="V52" s="48"/>
       <c r="W52" s="48"/>
@@ -11224,21 +11229,21 @@
       <c r="AQ52" s="48"/>
       <c r="AR52" s="48"/>
       <c r="AS52" s="48"/>
-      <c r="AT52" s="149"/>
+      <c r="AT52" s="146"/>
       <c r="AU52" s="71"/>
       <c r="AV52" s="71"/>
       <c r="AW52" s="48"/>
       <c r="AX52" s="48"/>
       <c r="AY52" s="48"/>
       <c r="AZ52" s="48"/>
-      <c r="BA52" s="149"/>
+      <c r="BA52" s="146"/>
       <c r="BB52" s="71"/>
       <c r="BC52" s="71"/>
       <c r="BD52" s="48"/>
       <c r="BE52" s="48"/>
       <c r="BF52" s="48"/>
       <c r="BG52" s="48"/>
-      <c r="BH52" s="149"/>
+      <c r="BH52" s="146"/>
       <c r="BI52" s="71"/>
       <c r="BJ52" s="71"/>
       <c r="BK52" s="48"/>
@@ -11296,25 +11301,25 @@
       <c r="DK52" s="52"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="283"/>
-      <c r="C53" s="281"/>
+      <c r="B53" s="277"/>
+      <c r="C53" s="284"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="174"/>
-      <c r="G53" s="214"/>
-      <c r="H53" s="215"/>
-      <c r="I53" s="215"/>
-      <c r="J53" s="235"/>
-      <c r="K53" s="235"/>
-      <c r="L53" s="229"/>
-      <c r="M53" s="229"/>
-      <c r="N53" s="215"/>
-      <c r="O53" s="215"/>
-      <c r="P53" s="215"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="48"/>
-      <c r="S53" s="71"/>
-      <c r="T53" s="71"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="211"/>
+      <c r="H53" s="212"/>
+      <c r="I53" s="212"/>
+      <c r="J53" s="232"/>
+      <c r="K53" s="232"/>
+      <c r="L53" s="226"/>
+      <c r="M53" s="226"/>
+      <c r="N53" s="212"/>
+      <c r="O53" s="212"/>
+      <c r="P53" s="212"/>
+      <c r="Q53" s="212"/>
+      <c r="R53" s="212"/>
+      <c r="S53" s="226"/>
+      <c r="T53" s="226"/>
       <c r="U53" s="48"/>
       <c r="V53" s="48"/>
       <c r="W53" s="48"/>
@@ -11340,21 +11345,21 @@
       <c r="AQ53" s="48"/>
       <c r="AR53" s="48"/>
       <c r="AS53" s="48"/>
-      <c r="AT53" s="149"/>
+      <c r="AT53" s="146"/>
       <c r="AU53" s="71"/>
       <c r="AV53" s="71"/>
       <c r="AW53" s="48"/>
       <c r="AX53" s="48"/>
       <c r="AY53" s="48"/>
       <c r="AZ53" s="48"/>
-      <c r="BA53" s="149"/>
+      <c r="BA53" s="146"/>
       <c r="BB53" s="71"/>
       <c r="BC53" s="71"/>
       <c r="BD53" s="48"/>
       <c r="BE53" s="48"/>
       <c r="BF53" s="48"/>
       <c r="BG53" s="48"/>
-      <c r="BH53" s="149"/>
+      <c r="BH53" s="146"/>
       <c r="BI53" s="71"/>
       <c r="BJ53" s="71"/>
       <c r="BK53" s="48"/>
@@ -11412,25 +11417,25 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115">
-      <c r="B54" s="283"/>
-      <c r="C54" s="281"/>
+      <c r="B54" s="277"/>
+      <c r="C54" s="284"/>
       <c r="D54" s="10"/>
       <c r="E54" s="11"/>
       <c r="F54" s="78"/>
-      <c r="G54" s="230"/>
-      <c r="H54" s="231"/>
-      <c r="I54" s="231"/>
-      <c r="J54" s="231"/>
-      <c r="K54" s="231"/>
-      <c r="L54" s="233"/>
-      <c r="M54" s="233"/>
-      <c r="N54" s="231"/>
-      <c r="O54" s="231"/>
-      <c r="P54" s="231"/>
-      <c r="Q54" s="57"/>
-      <c r="R54" s="57"/>
-      <c r="S54" s="73"/>
-      <c r="T54" s="73"/>
+      <c r="G54" s="227"/>
+      <c r="H54" s="228"/>
+      <c r="I54" s="228"/>
+      <c r="J54" s="228"/>
+      <c r="K54" s="228"/>
+      <c r="L54" s="230"/>
+      <c r="M54" s="230"/>
+      <c r="N54" s="228"/>
+      <c r="O54" s="228"/>
+      <c r="P54" s="228"/>
+      <c r="Q54" s="228"/>
+      <c r="R54" s="228"/>
+      <c r="S54" s="230"/>
+      <c r="T54" s="230"/>
       <c r="U54" s="57"/>
       <c r="V54" s="57"/>
       <c r="W54" s="57"/>
@@ -11456,21 +11461,21 @@
       <c r="AQ54" s="57"/>
       <c r="AR54" s="57"/>
       <c r="AS54" s="57"/>
-      <c r="AT54" s="151"/>
+      <c r="AT54" s="148"/>
       <c r="AU54" s="73"/>
       <c r="AV54" s="73"/>
       <c r="AW54" s="57"/>
       <c r="AX54" s="57"/>
       <c r="AY54" s="57"/>
       <c r="AZ54" s="57"/>
-      <c r="BA54" s="151"/>
+      <c r="BA54" s="148"/>
       <c r="BB54" s="73"/>
       <c r="BC54" s="73"/>
       <c r="BD54" s="57"/>
       <c r="BE54" s="57"/>
       <c r="BF54" s="57"/>
       <c r="BG54" s="57"/>
-      <c r="BH54" s="151"/>
+      <c r="BH54" s="148"/>
       <c r="BI54" s="73"/>
       <c r="BJ54" s="73"/>
       <c r="BK54" s="57"/>
@@ -11528,31 +11533,31 @@
       <c r="DK54" s="61"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="283"/>
-      <c r="C55" s="294" t="s">
+      <c r="B55" s="277"/>
+      <c r="C55" s="282" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="174">
+      <c r="F55" s="171">
         <v>40375</v>
       </c>
-      <c r="G55" s="225"/>
-      <c r="H55" s="226"/>
-      <c r="I55" s="226"/>
-      <c r="J55" s="226"/>
-      <c r="K55" s="226"/>
-      <c r="L55" s="228"/>
-      <c r="M55" s="228"/>
-      <c r="N55" s="226"/>
-      <c r="O55" s="226"/>
-      <c r="P55" s="226"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="72"/>
-      <c r="T55" s="72"/>
+      <c r="G55" s="222"/>
+      <c r="H55" s="223"/>
+      <c r="I55" s="223"/>
+      <c r="J55" s="223"/>
+      <c r="K55" s="223"/>
+      <c r="L55" s="225"/>
+      <c r="M55" s="225"/>
+      <c r="N55" s="223"/>
+      <c r="O55" s="223"/>
+      <c r="P55" s="223"/>
+      <c r="Q55" s="223"/>
+      <c r="R55" s="223"/>
+      <c r="S55" s="225"/>
+      <c r="T55" s="225"/>
       <c r="U55" s="62"/>
       <c r="V55" s="62"/>
       <c r="W55" s="62"/>
@@ -11560,39 +11565,39 @@
       <c r="Y55" s="62"/>
       <c r="Z55" s="72"/>
       <c r="AA55" s="72"/>
-      <c r="AB55" s="125"/>
-      <c r="AC55" s="125"/>
-      <c r="AD55" s="125"/>
-      <c r="AE55" s="125"/>
-      <c r="AF55" s="125"/>
+      <c r="AB55" s="122"/>
+      <c r="AC55" s="122"/>
+      <c r="AD55" s="122"/>
+      <c r="AE55" s="122"/>
+      <c r="AF55" s="122"/>
       <c r="AG55" s="72"/>
       <c r="AH55" s="72"/>
-      <c r="AI55" s="125"/>
-      <c r="AJ55" s="125"/>
-      <c r="AK55" s="125"/>
-      <c r="AL55" s="125"/>
-      <c r="AM55" s="125"/>
+      <c r="AI55" s="122"/>
+      <c r="AJ55" s="122"/>
+      <c r="AK55" s="122"/>
+      <c r="AL55" s="122"/>
+      <c r="AM55" s="122"/>
       <c r="AN55" s="72"/>
       <c r="AO55" s="72"/>
       <c r="AP55" s="62"/>
       <c r="AQ55" s="62"/>
       <c r="AR55" s="62"/>
       <c r="AS55" s="62"/>
-      <c r="AT55" s="150"/>
+      <c r="AT55" s="147"/>
       <c r="AU55" s="72"/>
       <c r="AV55" s="72"/>
       <c r="AW55" s="62"/>
       <c r="AX55" s="62"/>
       <c r="AY55" s="62"/>
       <c r="AZ55" s="62"/>
-      <c r="BA55" s="150"/>
+      <c r="BA55" s="147"/>
       <c r="BB55" s="72"/>
       <c r="BC55" s="72"/>
       <c r="BD55" s="62"/>
       <c r="BE55" s="62"/>
       <c r="BF55" s="62"/>
       <c r="BG55" s="62"/>
-      <c r="BH55" s="150"/>
+      <c r="BH55" s="147"/>
       <c r="BI55" s="72"/>
       <c r="BJ55" s="72"/>
       <c r="BK55" s="62"/>
@@ -11650,25 +11655,25 @@
       <c r="DK55" s="67"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="283"/>
-      <c r="C56" s="293"/>
+      <c r="B56" s="277"/>
+      <c r="C56" s="281"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
       <c r="F56" s="75"/>
-      <c r="G56" s="214"/>
-      <c r="H56" s="215"/>
-      <c r="I56" s="215"/>
-      <c r="J56" s="215"/>
-      <c r="K56" s="215"/>
-      <c r="L56" s="229"/>
-      <c r="M56" s="229"/>
-      <c r="N56" s="215"/>
-      <c r="O56" s="215"/>
-      <c r="P56" s="215"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="71"/>
-      <c r="T56" s="71"/>
+      <c r="G56" s="211"/>
+      <c r="H56" s="212"/>
+      <c r="I56" s="212"/>
+      <c r="J56" s="212"/>
+      <c r="K56" s="212"/>
+      <c r="L56" s="226"/>
+      <c r="M56" s="226"/>
+      <c r="N56" s="212"/>
+      <c r="O56" s="212"/>
+      <c r="P56" s="212"/>
+      <c r="Q56" s="212"/>
+      <c r="R56" s="212"/>
+      <c r="S56" s="226"/>
+      <c r="T56" s="226"/>
       <c r="U56" s="48"/>
       <c r="V56" s="48"/>
       <c r="W56" s="48"/>
@@ -11694,21 +11699,21 @@
       <c r="AQ56" s="48"/>
       <c r="AR56" s="48"/>
       <c r="AS56" s="48"/>
-      <c r="AT56" s="149"/>
+      <c r="AT56" s="146"/>
       <c r="AU56" s="71"/>
       <c r="AV56" s="71"/>
       <c r="AW56" s="48"/>
       <c r="AX56" s="48"/>
       <c r="AY56" s="48"/>
       <c r="AZ56" s="48"/>
-      <c r="BA56" s="149"/>
+      <c r="BA56" s="146"/>
       <c r="BB56" s="71"/>
       <c r="BC56" s="71"/>
       <c r="BD56" s="48"/>
       <c r="BE56" s="48"/>
       <c r="BF56" s="48"/>
       <c r="BG56" s="48"/>
-      <c r="BH56" s="149"/>
+      <c r="BH56" s="146"/>
       <c r="BI56" s="71"/>
       <c r="BJ56" s="71"/>
       <c r="BK56" s="48"/>
@@ -11766,25 +11771,25 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="283"/>
-      <c r="C57" s="289"/>
+      <c r="B57" s="277"/>
+      <c r="C57" s="283"/>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
       <c r="F57" s="78"/>
-      <c r="G57" s="230"/>
-      <c r="H57" s="231"/>
-      <c r="I57" s="231"/>
-      <c r="J57" s="231"/>
-      <c r="K57" s="231"/>
-      <c r="L57" s="233"/>
-      <c r="M57" s="233"/>
-      <c r="N57" s="231"/>
-      <c r="O57" s="231"/>
-      <c r="P57" s="231"/>
-      <c r="Q57" s="57"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="73"/>
-      <c r="T57" s="73"/>
+      <c r="G57" s="227"/>
+      <c r="H57" s="228"/>
+      <c r="I57" s="228"/>
+      <c r="J57" s="228"/>
+      <c r="K57" s="228"/>
+      <c r="L57" s="230"/>
+      <c r="M57" s="230"/>
+      <c r="N57" s="228"/>
+      <c r="O57" s="228"/>
+      <c r="P57" s="228"/>
+      <c r="Q57" s="228"/>
+      <c r="R57" s="228"/>
+      <c r="S57" s="230"/>
+      <c r="T57" s="230"/>
       <c r="U57" s="57"/>
       <c r="V57" s="57"/>
       <c r="W57" s="57"/>
@@ -11810,21 +11815,21 @@
       <c r="AQ57" s="57"/>
       <c r="AR57" s="57"/>
       <c r="AS57" s="57"/>
-      <c r="AT57" s="151"/>
+      <c r="AT57" s="148"/>
       <c r="AU57" s="73"/>
       <c r="AV57" s="73"/>
       <c r="AW57" s="57"/>
       <c r="AX57" s="57"/>
       <c r="AY57" s="57"/>
       <c r="AZ57" s="57"/>
-      <c r="BA57" s="151"/>
+      <c r="BA57" s="148"/>
       <c r="BB57" s="73"/>
       <c r="BC57" s="73"/>
       <c r="BD57" s="57"/>
       <c r="BE57" s="57"/>
       <c r="BF57" s="57"/>
       <c r="BG57" s="57"/>
-      <c r="BH57" s="151"/>
+      <c r="BH57" s="148"/>
       <c r="BI57" s="73"/>
       <c r="BJ57" s="73"/>
       <c r="BK57" s="57"/>
@@ -11882,32 +11887,32 @@
       <c r="DK57" s="61"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="283"/>
-      <c r="C58" s="289"/>
+      <c r="B58" s="277"/>
+      <c r="C58" s="283"/>
       <c r="D58" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F58" s="174">
+      <c r="F58" s="171">
         <v>40356</v>
       </c>
-      <c r="G58" s="214"/>
-      <c r="H58" s="215"/>
-      <c r="I58" s="215"/>
-      <c r="J58" s="215"/>
-      <c r="K58" s="215"/>
-      <c r="L58" s="229"/>
-      <c r="M58" s="229"/>
-      <c r="N58" s="215"/>
-      <c r="O58" s="215"/>
-      <c r="P58" s="215"/>
-      <c r="Q58" s="279"/>
-      <c r="R58" s="279"/>
-      <c r="S58" s="72"/>
-      <c r="T58" s="72"/>
-      <c r="U58" s="279"/>
+      <c r="G58" s="211"/>
+      <c r="H58" s="212"/>
+      <c r="I58" s="212"/>
+      <c r="J58" s="212"/>
+      <c r="K58" s="212"/>
+      <c r="L58" s="226"/>
+      <c r="M58" s="226"/>
+      <c r="N58" s="212"/>
+      <c r="O58" s="212"/>
+      <c r="P58" s="212"/>
+      <c r="Q58" s="299"/>
+      <c r="R58" s="299"/>
+      <c r="S58" s="225"/>
+      <c r="T58" s="225"/>
+      <c r="U58" s="276"/>
       <c r="V58" s="48"/>
       <c r="W58" s="48"/>
       <c r="X58" s="48"/>
@@ -11932,21 +11937,21 @@
       <c r="AQ58" s="48"/>
       <c r="AR58" s="48"/>
       <c r="AS58" s="48"/>
-      <c r="AT58" s="149"/>
+      <c r="AT58" s="146"/>
       <c r="AU58" s="71"/>
       <c r="AV58" s="71"/>
       <c r="AW58" s="48"/>
       <c r="AX58" s="48"/>
       <c r="AY58" s="48"/>
       <c r="AZ58" s="48"/>
-      <c r="BA58" s="149"/>
+      <c r="BA58" s="146"/>
       <c r="BB58" s="71"/>
       <c r="BC58" s="71"/>
       <c r="BD58" s="48"/>
       <c r="BE58" s="48"/>
       <c r="BF58" s="48"/>
       <c r="BG58" s="48"/>
-      <c r="BH58" s="149"/>
+      <c r="BH58" s="146"/>
       <c r="BI58" s="71"/>
       <c r="BJ58" s="71"/>
       <c r="BK58" s="48"/>
@@ -12004,25 +12009,25 @@
       <c r="DK58" s="52"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="283"/>
-      <c r="C59" s="288"/>
+      <c r="B59" s="277"/>
+      <c r="C59" s="297"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
       <c r="F59" s="75"/>
-      <c r="G59" s="214"/>
-      <c r="H59" s="215"/>
-      <c r="I59" s="215"/>
-      <c r="J59" s="215"/>
-      <c r="K59" s="215"/>
-      <c r="L59" s="229"/>
-      <c r="M59" s="229"/>
-      <c r="N59" s="215"/>
-      <c r="O59" s="215"/>
-      <c r="P59" s="215"/>
-      <c r="Q59" s="48"/>
-      <c r="R59" s="48"/>
-      <c r="S59" s="71"/>
-      <c r="T59" s="71"/>
+      <c r="G59" s="211"/>
+      <c r="H59" s="212"/>
+      <c r="I59" s="212"/>
+      <c r="J59" s="212"/>
+      <c r="K59" s="212"/>
+      <c r="L59" s="226"/>
+      <c r="M59" s="226"/>
+      <c r="N59" s="212"/>
+      <c r="O59" s="212"/>
+      <c r="P59" s="212"/>
+      <c r="Q59" s="212"/>
+      <c r="R59" s="212"/>
+      <c r="S59" s="226"/>
+      <c r="T59" s="226"/>
       <c r="U59" s="48"/>
       <c r="V59" s="48"/>
       <c r="W59" s="48"/>
@@ -12048,21 +12053,21 @@
       <c r="AQ59" s="48"/>
       <c r="AR59" s="48"/>
       <c r="AS59" s="48"/>
-      <c r="AT59" s="149"/>
+      <c r="AT59" s="146"/>
       <c r="AU59" s="71"/>
       <c r="AV59" s="71"/>
       <c r="AW59" s="48"/>
       <c r="AX59" s="48"/>
       <c r="AY59" s="48"/>
       <c r="AZ59" s="48"/>
-      <c r="BA59" s="149"/>
+      <c r="BA59" s="146"/>
       <c r="BB59" s="71"/>
       <c r="BC59" s="71"/>
       <c r="BD59" s="48"/>
       <c r="BE59" s="48"/>
       <c r="BF59" s="48"/>
       <c r="BG59" s="48"/>
-      <c r="BH59" s="149"/>
+      <c r="BH59" s="146"/>
       <c r="BI59" s="71"/>
       <c r="BJ59" s="71"/>
       <c r="BK59" s="48"/>
@@ -12120,25 +12125,25 @@
       <c r="DK59" s="52"/>
     </row>
     <row r="60" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B60" s="284"/>
-      <c r="C60" s="290"/>
+      <c r="B60" s="286"/>
+      <c r="C60" s="298"/>
       <c r="D60" s="17"/>
       <c r="E60" s="13"/>
       <c r="F60" s="79"/>
-      <c r="G60" s="201"/>
-      <c r="H60" s="202"/>
-      <c r="I60" s="202"/>
-      <c r="J60" s="202"/>
-      <c r="K60" s="202"/>
-      <c r="L60" s="236"/>
-      <c r="M60" s="236"/>
-      <c r="N60" s="202"/>
-      <c r="O60" s="215"/>
-      <c r="P60" s="215"/>
-      <c r="Q60" s="48"/>
-      <c r="R60" s="48"/>
-      <c r="S60" s="71"/>
-      <c r="T60" s="71"/>
+      <c r="G60" s="198"/>
+      <c r="H60" s="199"/>
+      <c r="I60" s="199"/>
+      <c r="J60" s="199"/>
+      <c r="K60" s="199"/>
+      <c r="L60" s="233"/>
+      <c r="M60" s="233"/>
+      <c r="N60" s="199"/>
+      <c r="O60" s="212"/>
+      <c r="P60" s="212"/>
+      <c r="Q60" s="212"/>
+      <c r="R60" s="212"/>
+      <c r="S60" s="226"/>
+      <c r="T60" s="226"/>
       <c r="U60" s="48"/>
       <c r="V60" s="48"/>
       <c r="W60" s="48"/>
@@ -12164,21 +12169,21 @@
       <c r="AQ60" s="32"/>
       <c r="AR60" s="32"/>
       <c r="AS60" s="32"/>
-      <c r="AT60" s="147"/>
+      <c r="AT60" s="144"/>
       <c r="AU60" s="69"/>
       <c r="AV60" s="69"/>
       <c r="AW60" s="32"/>
       <c r="AX60" s="32"/>
       <c r="AY60" s="32"/>
       <c r="AZ60" s="32"/>
-      <c r="BA60" s="147"/>
+      <c r="BA60" s="144"/>
       <c r="BB60" s="69"/>
       <c r="BC60" s="69"/>
       <c r="BD60" s="32"/>
       <c r="BE60" s="32"/>
       <c r="BF60" s="32"/>
       <c r="BG60" s="32"/>
-      <c r="BH60" s="147"/>
+      <c r="BH60" s="144"/>
       <c r="BI60" s="69"/>
       <c r="BJ60" s="69"/>
       <c r="BK60" s="32"/>
@@ -12236,10 +12241,10 @@
       <c r="DK60" s="36"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="300" t="s">
+      <c r="B61" s="292" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="281" t="s">
+      <c r="C61" s="284" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -12248,23 +12253,23 @@
       <c r="E61" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="174">
+      <c r="F61" s="171">
         <v>40353</v>
       </c>
-      <c r="G61" s="237"/>
-      <c r="H61" s="238"/>
-      <c r="I61" s="238"/>
-      <c r="J61" s="208"/>
-      <c r="K61" s="208"/>
-      <c r="L61" s="239"/>
-      <c r="M61" s="239"/>
-      <c r="N61" s="209"/>
-      <c r="O61" s="275"/>
-      <c r="P61" s="275"/>
-      <c r="Q61" s="102"/>
-      <c r="R61" s="102"/>
-      <c r="S61" s="100"/>
-      <c r="T61" s="101"/>
+      <c r="G61" s="234"/>
+      <c r="H61" s="235"/>
+      <c r="I61" s="235"/>
+      <c r="J61" s="205"/>
+      <c r="K61" s="205"/>
+      <c r="L61" s="236"/>
+      <c r="M61" s="236"/>
+      <c r="N61" s="206"/>
+      <c r="O61" s="272"/>
+      <c r="P61" s="272"/>
+      <c r="Q61" s="272"/>
+      <c r="R61" s="272"/>
+      <c r="S61" s="302"/>
+      <c r="T61" s="300"/>
       <c r="U61" s="42"/>
       <c r="V61" s="42"/>
       <c r="W61" s="42"/>
@@ -12290,21 +12295,21 @@
       <c r="AQ61" s="42"/>
       <c r="AR61" s="42"/>
       <c r="AS61" s="42"/>
-      <c r="AT61" s="148"/>
+      <c r="AT61" s="145"/>
       <c r="AU61" s="70"/>
       <c r="AV61" s="70"/>
       <c r="AW61" s="42"/>
       <c r="AX61" s="42"/>
       <c r="AY61" s="42"/>
       <c r="AZ61" s="42"/>
-      <c r="BA61" s="148"/>
+      <c r="BA61" s="145"/>
       <c r="BB61" s="70"/>
       <c r="BC61" s="70"/>
       <c r="BD61" s="42"/>
       <c r="BE61" s="42"/>
       <c r="BF61" s="42"/>
       <c r="BG61" s="42"/>
-      <c r="BH61" s="148"/>
+      <c r="BH61" s="145"/>
       <c r="BI61" s="70"/>
       <c r="BJ61" s="70"/>
       <c r="BK61" s="42"/>
@@ -12362,31 +12367,31 @@
       <c r="DK61" s="47"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="301"/>
-      <c r="C62" s="281"/>
+      <c r="B62" s="293"/>
+      <c r="C62" s="284"/>
       <c r="D62" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="174">
+      <c r="F62" s="171">
         <v>40357</v>
       </c>
-      <c r="G62" s="240"/>
-      <c r="H62" s="235"/>
-      <c r="I62" s="235"/>
-      <c r="J62" s="215"/>
-      <c r="K62" s="215"/>
-      <c r="L62" s="229"/>
-      <c r="M62" s="229"/>
-      <c r="N62" s="215"/>
-      <c r="O62" s="215"/>
-      <c r="P62" s="215"/>
-      <c r="Q62" s="48"/>
-      <c r="R62" s="48"/>
-      <c r="S62" s="71"/>
-      <c r="T62" s="71"/>
+      <c r="G62" s="237"/>
+      <c r="H62" s="232"/>
+      <c r="I62" s="232"/>
+      <c r="J62" s="212"/>
+      <c r="K62" s="212"/>
+      <c r="L62" s="226"/>
+      <c r="M62" s="226"/>
+      <c r="N62" s="212"/>
+      <c r="O62" s="212"/>
+      <c r="P62" s="212"/>
+      <c r="Q62" s="212"/>
+      <c r="R62" s="212"/>
+      <c r="S62" s="226"/>
+      <c r="T62" s="226"/>
       <c r="U62" s="96"/>
       <c r="V62" s="48"/>
       <c r="W62" s="48"/>
@@ -12412,21 +12417,21 @@
       <c r="AQ62" s="48"/>
       <c r="AR62" s="48"/>
       <c r="AS62" s="48"/>
-      <c r="AT62" s="149"/>
+      <c r="AT62" s="146"/>
       <c r="AU62" s="71"/>
       <c r="AV62" s="71"/>
       <c r="AW62" s="48"/>
       <c r="AX62" s="48"/>
       <c r="AY62" s="48"/>
       <c r="AZ62" s="48"/>
-      <c r="BA62" s="149"/>
+      <c r="BA62" s="146"/>
       <c r="BB62" s="71"/>
       <c r="BC62" s="71"/>
       <c r="BD62" s="48"/>
       <c r="BE62" s="48"/>
       <c r="BF62" s="48"/>
       <c r="BG62" s="48"/>
-      <c r="BH62" s="149"/>
+      <c r="BH62" s="146"/>
       <c r="BI62" s="71"/>
       <c r="BJ62" s="71"/>
       <c r="BK62" s="48"/>
@@ -12484,31 +12489,31 @@
       <c r="DK62" s="52"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="301"/>
-      <c r="C63" s="281"/>
+      <c r="B63" s="293"/>
+      <c r="C63" s="284"/>
       <c r="D63" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="174">
+      <c r="F63" s="171">
         <v>40358</v>
       </c>
-      <c r="G63" s="240"/>
-      <c r="H63" s="235"/>
-      <c r="I63" s="235"/>
-      <c r="J63" s="215"/>
-      <c r="K63" s="215"/>
-      <c r="L63" s="229"/>
-      <c r="M63" s="229"/>
-      <c r="N63" s="215"/>
-      <c r="O63" s="215"/>
-      <c r="P63" s="215"/>
-      <c r="Q63" s="48"/>
-      <c r="R63" s="48"/>
-      <c r="S63" s="71"/>
-      <c r="T63" s="71"/>
+      <c r="G63" s="237"/>
+      <c r="H63" s="232"/>
+      <c r="I63" s="232"/>
+      <c r="J63" s="212"/>
+      <c r="K63" s="212"/>
+      <c r="L63" s="226"/>
+      <c r="M63" s="226"/>
+      <c r="N63" s="212"/>
+      <c r="O63" s="212"/>
+      <c r="P63" s="212"/>
+      <c r="Q63" s="212"/>
+      <c r="R63" s="212"/>
+      <c r="S63" s="226"/>
+      <c r="T63" s="226"/>
       <c r="U63" s="48"/>
       <c r="V63" s="96"/>
       <c r="W63" s="48"/>
@@ -12534,21 +12539,21 @@
       <c r="AQ63" s="48"/>
       <c r="AR63" s="48"/>
       <c r="AS63" s="48"/>
-      <c r="AT63" s="149"/>
+      <c r="AT63" s="146"/>
       <c r="AU63" s="71"/>
       <c r="AV63" s="71"/>
       <c r="AW63" s="48"/>
       <c r="AX63" s="48"/>
       <c r="AY63" s="48"/>
       <c r="AZ63" s="48"/>
-      <c r="BA63" s="149"/>
+      <c r="BA63" s="146"/>
       <c r="BB63" s="71"/>
       <c r="BC63" s="71"/>
       <c r="BD63" s="48"/>
       <c r="BE63" s="48"/>
       <c r="BF63" s="48"/>
       <c r="BG63" s="48"/>
-      <c r="BH63" s="149"/>
+      <c r="BH63" s="146"/>
       <c r="BI63" s="71"/>
       <c r="BJ63" s="71"/>
       <c r="BK63" s="48"/>
@@ -12606,31 +12611,31 @@
       <c r="DK63" s="52"/>
     </row>
     <row r="64" spans="2:115">
-      <c r="B64" s="301"/>
-      <c r="C64" s="281"/>
+      <c r="B64" s="293"/>
+      <c r="C64" s="284"/>
       <c r="D64" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F64" s="174">
+      <c r="F64" s="171">
         <v>40361</v>
       </c>
-      <c r="G64" s="240"/>
-      <c r="H64" s="235"/>
-      <c r="I64" s="235"/>
-      <c r="J64" s="215"/>
-      <c r="K64" s="215"/>
-      <c r="L64" s="229"/>
-      <c r="M64" s="229"/>
-      <c r="N64" s="215"/>
-      <c r="O64" s="215"/>
-      <c r="P64" s="215"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="48"/>
-      <c r="S64" s="71"/>
-      <c r="T64" s="71"/>
+      <c r="G64" s="237"/>
+      <c r="H64" s="232"/>
+      <c r="I64" s="232"/>
+      <c r="J64" s="212"/>
+      <c r="K64" s="212"/>
+      <c r="L64" s="226"/>
+      <c r="M64" s="226"/>
+      <c r="N64" s="212"/>
+      <c r="O64" s="212"/>
+      <c r="P64" s="212"/>
+      <c r="Q64" s="212"/>
+      <c r="R64" s="212"/>
+      <c r="S64" s="226"/>
+      <c r="T64" s="226"/>
       <c r="U64" s="48"/>
       <c r="V64" s="48"/>
       <c r="W64" s="96"/>
@@ -12656,21 +12661,21 @@
       <c r="AQ64" s="48"/>
       <c r="AR64" s="48"/>
       <c r="AS64" s="48"/>
-      <c r="AT64" s="149"/>
+      <c r="AT64" s="146"/>
       <c r="AU64" s="71"/>
       <c r="AV64" s="71"/>
       <c r="AW64" s="48"/>
       <c r="AX64" s="48"/>
       <c r="AY64" s="48"/>
       <c r="AZ64" s="48"/>
-      <c r="BA64" s="149"/>
+      <c r="BA64" s="146"/>
       <c r="BB64" s="71"/>
       <c r="BC64" s="71"/>
       <c r="BD64" s="48"/>
       <c r="BE64" s="48"/>
       <c r="BF64" s="48"/>
       <c r="BG64" s="48"/>
-      <c r="BH64" s="149"/>
+      <c r="BH64" s="146"/>
       <c r="BI64" s="71"/>
       <c r="BJ64" s="71"/>
       <c r="BK64" s="48"/>
@@ -12728,27 +12733,27 @@
       <c r="DK64" s="52"/>
     </row>
     <row r="65" spans="2:115">
-      <c r="B65" s="301"/>
-      <c r="C65" s="281"/>
+      <c r="B65" s="293"/>
+      <c r="C65" s="284"/>
       <c r="D65" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="75"/>
-      <c r="G65" s="240"/>
-      <c r="H65" s="235"/>
-      <c r="I65" s="235"/>
-      <c r="J65" s="215"/>
-      <c r="K65" s="215"/>
-      <c r="L65" s="229"/>
-      <c r="M65" s="229"/>
-      <c r="N65" s="215"/>
-      <c r="O65" s="215"/>
-      <c r="P65" s="215"/>
-      <c r="Q65" s="48"/>
-      <c r="R65" s="48"/>
-      <c r="S65" s="71"/>
-      <c r="T65" s="71"/>
+      <c r="G65" s="237"/>
+      <c r="H65" s="232"/>
+      <c r="I65" s="232"/>
+      <c r="J65" s="212"/>
+      <c r="K65" s="212"/>
+      <c r="L65" s="226"/>
+      <c r="M65" s="226"/>
+      <c r="N65" s="212"/>
+      <c r="O65" s="212"/>
+      <c r="P65" s="212"/>
+      <c r="Q65" s="212"/>
+      <c r="R65" s="212"/>
+      <c r="S65" s="226"/>
+      <c r="T65" s="226"/>
       <c r="U65" s="48"/>
       <c r="V65" s="48"/>
       <c r="W65" s="93"/>
@@ -12774,21 +12779,21 @@
       <c r="AQ65" s="48"/>
       <c r="AR65" s="48"/>
       <c r="AS65" s="48"/>
-      <c r="AT65" s="149"/>
+      <c r="AT65" s="146"/>
       <c r="AU65" s="71"/>
       <c r="AV65" s="71"/>
       <c r="AW65" s="48"/>
       <c r="AX65" s="48"/>
       <c r="AY65" s="48"/>
       <c r="AZ65" s="48"/>
-      <c r="BA65" s="149"/>
+      <c r="BA65" s="146"/>
       <c r="BB65" s="71"/>
       <c r="BC65" s="71"/>
       <c r="BD65" s="48"/>
       <c r="BE65" s="48"/>
       <c r="BF65" s="48"/>
       <c r="BG65" s="48"/>
-      <c r="BH65" s="149"/>
+      <c r="BH65" s="146"/>
       <c r="BI65" s="71"/>
       <c r="BJ65" s="71"/>
       <c r="BK65" s="48"/>
@@ -12846,25 +12851,25 @@
       <c r="DK65" s="52"/>
     </row>
     <row r="66" spans="2:115">
-      <c r="B66" s="301"/>
-      <c r="C66" s="281"/>
+      <c r="B66" s="293"/>
+      <c r="C66" s="284"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="F66" s="75"/>
-      <c r="G66" s="241"/>
-      <c r="H66" s="231"/>
-      <c r="I66" s="231"/>
-      <c r="J66" s="231"/>
-      <c r="K66" s="231"/>
-      <c r="L66" s="233"/>
-      <c r="M66" s="233"/>
-      <c r="N66" s="231"/>
-      <c r="O66" s="231"/>
-      <c r="P66" s="231"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="73"/>
-      <c r="T66" s="73"/>
+      <c r="G66" s="238"/>
+      <c r="H66" s="228"/>
+      <c r="I66" s="228"/>
+      <c r="J66" s="228"/>
+      <c r="K66" s="228"/>
+      <c r="L66" s="230"/>
+      <c r="M66" s="230"/>
+      <c r="N66" s="228"/>
+      <c r="O66" s="228"/>
+      <c r="P66" s="228"/>
+      <c r="Q66" s="228"/>
+      <c r="R66" s="228"/>
+      <c r="S66" s="230"/>
+      <c r="T66" s="230"/>
       <c r="U66" s="57"/>
       <c r="V66" s="57"/>
       <c r="W66" s="57"/>
@@ -12890,21 +12895,21 @@
       <c r="AQ66" s="57"/>
       <c r="AR66" s="57"/>
       <c r="AS66" s="57"/>
-      <c r="AT66" s="151"/>
+      <c r="AT66" s="148"/>
       <c r="AU66" s="73"/>
       <c r="AV66" s="73"/>
       <c r="AW66" s="57"/>
       <c r="AX66" s="57"/>
       <c r="AY66" s="57"/>
       <c r="AZ66" s="57"/>
-      <c r="BA66" s="151"/>
+      <c r="BA66" s="148"/>
       <c r="BB66" s="73"/>
       <c r="BC66" s="73"/>
       <c r="BD66" s="57"/>
       <c r="BE66" s="57"/>
       <c r="BF66" s="57"/>
       <c r="BG66" s="57"/>
-      <c r="BH66" s="151"/>
+      <c r="BH66" s="148"/>
       <c r="BI66" s="73"/>
       <c r="BJ66" s="73"/>
       <c r="BK66" s="57"/>
@@ -12962,8 +12967,8 @@
       <c r="DK66" s="61"/>
     </row>
     <row r="67" spans="2:115">
-      <c r="B67" s="301"/>
-      <c r="C67" s="280" t="s">
+      <c r="B67" s="293"/>
+      <c r="C67" s="290" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -12972,23 +12977,23 @@
       <c r="E67" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="174">
+      <c r="F67" s="171">
         <v>40361</v>
       </c>
-      <c r="G67" s="242"/>
-      <c r="H67" s="235"/>
-      <c r="I67" s="235"/>
-      <c r="J67" s="235"/>
-      <c r="K67" s="215"/>
-      <c r="L67" s="229"/>
-      <c r="M67" s="229"/>
-      <c r="N67" s="216"/>
-      <c r="O67" s="211"/>
-      <c r="P67" s="215"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="48"/>
-      <c r="S67" s="95"/>
-      <c r="T67" s="97"/>
+      <c r="G67" s="239"/>
+      <c r="H67" s="232"/>
+      <c r="I67" s="232"/>
+      <c r="J67" s="232"/>
+      <c r="K67" s="212"/>
+      <c r="L67" s="226"/>
+      <c r="M67" s="226"/>
+      <c r="N67" s="213"/>
+      <c r="O67" s="208"/>
+      <c r="P67" s="212"/>
+      <c r="Q67" s="212"/>
+      <c r="R67" s="212"/>
+      <c r="S67" s="216"/>
+      <c r="T67" s="217"/>
       <c r="U67" s="48"/>
       <c r="V67" s="48"/>
       <c r="W67" s="48"/>
@@ -13014,21 +13019,21 @@
       <c r="AQ67" s="48"/>
       <c r="AR67" s="48"/>
       <c r="AS67" s="48"/>
-      <c r="AT67" s="149"/>
+      <c r="AT67" s="146"/>
       <c r="AU67" s="71"/>
       <c r="AV67" s="71"/>
       <c r="AW67" s="48"/>
       <c r="AX67" s="48"/>
       <c r="AY67" s="48"/>
       <c r="AZ67" s="48"/>
-      <c r="BA67" s="149"/>
+      <c r="BA67" s="146"/>
       <c r="BB67" s="71"/>
       <c r="BC67" s="71"/>
       <c r="BD67" s="48"/>
       <c r="BE67" s="48"/>
       <c r="BF67" s="48"/>
       <c r="BG67" s="48"/>
-      <c r="BH67" s="149"/>
+      <c r="BH67" s="146"/>
       <c r="BI67" s="71"/>
       <c r="BJ67" s="71"/>
       <c r="BK67" s="48"/>
@@ -13086,27 +13091,27 @@
       <c r="DK67" s="52"/>
     </row>
     <row r="68" spans="2:115">
-      <c r="B68" s="301"/>
-      <c r="C68" s="280"/>
+      <c r="B68" s="293"/>
+      <c r="C68" s="290"/>
       <c r="D68" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="75"/>
-      <c r="G68" s="242"/>
-      <c r="H68" s="235"/>
-      <c r="I68" s="215"/>
-      <c r="J68" s="215"/>
-      <c r="K68" s="215"/>
-      <c r="L68" s="229"/>
-      <c r="M68" s="229"/>
-      <c r="N68" s="215"/>
-      <c r="O68" s="215"/>
-      <c r="P68" s="215"/>
-      <c r="Q68" s="48"/>
-      <c r="R68" s="48"/>
-      <c r="S68" s="71"/>
-      <c r="T68" s="71"/>
+      <c r="G68" s="239"/>
+      <c r="H68" s="232"/>
+      <c r="I68" s="212"/>
+      <c r="J68" s="212"/>
+      <c r="K68" s="212"/>
+      <c r="L68" s="226"/>
+      <c r="M68" s="226"/>
+      <c r="N68" s="212"/>
+      <c r="O68" s="212"/>
+      <c r="P68" s="212"/>
+      <c r="Q68" s="212"/>
+      <c r="R68" s="212"/>
+      <c r="S68" s="226"/>
+      <c r="T68" s="226"/>
       <c r="U68" s="48"/>
       <c r="V68" s="48"/>
       <c r="W68" s="48"/>
@@ -13132,21 +13137,21 @@
       <c r="AQ68" s="48"/>
       <c r="AR68" s="48"/>
       <c r="AS68" s="48"/>
-      <c r="AT68" s="149"/>
+      <c r="AT68" s="146"/>
       <c r="AU68" s="71"/>
       <c r="AV68" s="71"/>
       <c r="AW68" s="48"/>
       <c r="AX68" s="48"/>
       <c r="AY68" s="48"/>
       <c r="AZ68" s="48"/>
-      <c r="BA68" s="149"/>
+      <c r="BA68" s="146"/>
       <c r="BB68" s="71"/>
       <c r="BC68" s="71"/>
       <c r="BD68" s="48"/>
       <c r="BE68" s="48"/>
       <c r="BF68" s="48"/>
       <c r="BG68" s="48"/>
-      <c r="BH68" s="149"/>
+      <c r="BH68" s="146"/>
       <c r="BI68" s="71"/>
       <c r="BJ68" s="71"/>
       <c r="BK68" s="48"/>
@@ -13204,27 +13209,27 @@
       <c r="DK68" s="52"/>
     </row>
     <row r="69" spans="2:115">
-      <c r="B69" s="301"/>
-      <c r="C69" s="280"/>
+      <c r="B69" s="293"/>
+      <c r="C69" s="290"/>
       <c r="D69" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="75"/>
-      <c r="G69" s="242"/>
-      <c r="H69" s="235"/>
-      <c r="I69" s="215"/>
-      <c r="J69" s="215"/>
-      <c r="K69" s="215"/>
-      <c r="L69" s="229"/>
-      <c r="M69" s="229"/>
-      <c r="N69" s="215"/>
-      <c r="O69" s="215"/>
-      <c r="P69" s="215"/>
-      <c r="Q69" s="48"/>
-      <c r="R69" s="48"/>
-      <c r="S69" s="71"/>
-      <c r="T69" s="71"/>
+      <c r="G69" s="239"/>
+      <c r="H69" s="232"/>
+      <c r="I69" s="212"/>
+      <c r="J69" s="212"/>
+      <c r="K69" s="212"/>
+      <c r="L69" s="226"/>
+      <c r="M69" s="226"/>
+      <c r="N69" s="212"/>
+      <c r="O69" s="212"/>
+      <c r="P69" s="212"/>
+      <c r="Q69" s="212"/>
+      <c r="R69" s="212"/>
+      <c r="S69" s="226"/>
+      <c r="T69" s="226"/>
       <c r="U69" s="48"/>
       <c r="V69" s="48"/>
       <c r="W69" s="48"/>
@@ -13250,21 +13255,21 @@
       <c r="AQ69" s="48"/>
       <c r="AR69" s="48"/>
       <c r="AS69" s="48"/>
-      <c r="AT69" s="149"/>
+      <c r="AT69" s="146"/>
       <c r="AU69" s="71"/>
       <c r="AV69" s="71"/>
       <c r="AW69" s="48"/>
       <c r="AX69" s="48"/>
       <c r="AY69" s="48"/>
       <c r="AZ69" s="48"/>
-      <c r="BA69" s="149"/>
+      <c r="BA69" s="146"/>
       <c r="BB69" s="71"/>
       <c r="BC69" s="71"/>
       <c r="BD69" s="48"/>
       <c r="BE69" s="48"/>
       <c r="BF69" s="48"/>
       <c r="BG69" s="48"/>
-      <c r="BH69" s="149"/>
+      <c r="BH69" s="146"/>
       <c r="BI69" s="71"/>
       <c r="BJ69" s="71"/>
       <c r="BK69" s="48"/>
@@ -13322,25 +13327,25 @@
       <c r="DK69" s="52"/>
     </row>
     <row r="70" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B70" s="301"/>
-      <c r="C70" s="280"/>
+      <c r="B70" s="293"/>
+      <c r="C70" s="290"/>
       <c r="D70" s="10"/>
       <c r="E70" s="11"/>
       <c r="F70" s="78"/>
-      <c r="G70" s="243"/>
-      <c r="H70" s="202"/>
-      <c r="I70" s="202"/>
-      <c r="J70" s="244"/>
-      <c r="K70" s="202"/>
-      <c r="L70" s="236"/>
-      <c r="M70" s="236"/>
-      <c r="N70" s="202"/>
-      <c r="O70" s="202"/>
-      <c r="P70" s="202"/>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="69"/>
-      <c r="T70" s="69"/>
+      <c r="G70" s="240"/>
+      <c r="H70" s="199"/>
+      <c r="I70" s="199"/>
+      <c r="J70" s="241"/>
+      <c r="K70" s="199"/>
+      <c r="L70" s="233"/>
+      <c r="M70" s="233"/>
+      <c r="N70" s="199"/>
+      <c r="O70" s="199"/>
+      <c r="P70" s="199"/>
+      <c r="Q70" s="199"/>
+      <c r="R70" s="199"/>
+      <c r="S70" s="233"/>
+      <c r="T70" s="233"/>
       <c r="U70" s="32"/>
       <c r="V70" s="32"/>
       <c r="W70" s="32"/>
@@ -13366,21 +13371,21 @@
       <c r="AQ70" s="32"/>
       <c r="AR70" s="32"/>
       <c r="AS70" s="32"/>
-      <c r="AT70" s="147"/>
+      <c r="AT70" s="144"/>
       <c r="AU70" s="69"/>
       <c r="AV70" s="69"/>
       <c r="AW70" s="32"/>
       <c r="AX70" s="32"/>
       <c r="AY70" s="32"/>
       <c r="AZ70" s="32"/>
-      <c r="BA70" s="147"/>
+      <c r="BA70" s="144"/>
       <c r="BB70" s="69"/>
       <c r="BC70" s="69"/>
       <c r="BD70" s="32"/>
       <c r="BE70" s="32"/>
       <c r="BF70" s="32"/>
       <c r="BG70" s="32"/>
-      <c r="BH70" s="147"/>
+      <c r="BH70" s="144"/>
       <c r="BI70" s="69"/>
       <c r="BJ70" s="69"/>
       <c r="BK70" s="32"/>
@@ -13438,33 +13443,33 @@
       <c r="DK70" s="36"/>
     </row>
     <row r="71" spans="2:115">
-      <c r="B71" s="282" t="s">
+      <c r="B71" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="296" t="s">
+      <c r="C71" s="287" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F71" s="175">
+      <c r="F71" s="172">
         <v>40375</v>
       </c>
-      <c r="G71" s="245"/>
-      <c r="H71" s="208"/>
-      <c r="I71" s="208"/>
-      <c r="J71" s="208"/>
-      <c r="K71" s="208"/>
-      <c r="L71" s="239"/>
-      <c r="M71" s="239"/>
-      <c r="N71" s="238"/>
-      <c r="O71" s="238"/>
-      <c r="P71" s="238"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="43"/>
-      <c r="S71" s="70"/>
-      <c r="T71" s="70"/>
+      <c r="G71" s="242"/>
+      <c r="H71" s="205"/>
+      <c r="I71" s="205"/>
+      <c r="J71" s="205"/>
+      <c r="K71" s="205"/>
+      <c r="L71" s="236"/>
+      <c r="M71" s="236"/>
+      <c r="N71" s="235"/>
+      <c r="O71" s="235"/>
+      <c r="P71" s="235"/>
+      <c r="Q71" s="235"/>
+      <c r="R71" s="235"/>
+      <c r="S71" s="236"/>
+      <c r="T71" s="236"/>
       <c r="U71" s="43"/>
       <c r="V71" s="43"/>
       <c r="W71" s="43"/>
@@ -13472,39 +13477,39 @@
       <c r="Y71" s="43"/>
       <c r="Z71" s="70"/>
       <c r="AA71" s="70"/>
-      <c r="AB71" s="102"/>
-      <c r="AC71" s="102"/>
-      <c r="AD71" s="102"/>
-      <c r="AE71" s="102"/>
-      <c r="AF71" s="102"/>
+      <c r="AB71" s="99"/>
+      <c r="AC71" s="99"/>
+      <c r="AD71" s="99"/>
+      <c r="AE71" s="99"/>
+      <c r="AF71" s="99"/>
       <c r="AG71" s="70"/>
       <c r="AH71" s="70"/>
-      <c r="AI71" s="102"/>
-      <c r="AJ71" s="102"/>
-      <c r="AK71" s="102"/>
-      <c r="AL71" s="102"/>
-      <c r="AM71" s="102"/>
+      <c r="AI71" s="99"/>
+      <c r="AJ71" s="99"/>
+      <c r="AK71" s="99"/>
+      <c r="AL71" s="99"/>
+      <c r="AM71" s="99"/>
       <c r="AN71" s="70"/>
       <c r="AO71" s="70"/>
       <c r="AP71" s="43"/>
       <c r="AQ71" s="43"/>
       <c r="AR71" s="43"/>
       <c r="AS71" s="43"/>
-      <c r="AT71" s="152"/>
+      <c r="AT71" s="149"/>
       <c r="AU71" s="70"/>
       <c r="AV71" s="70"/>
       <c r="AW71" s="43"/>
       <c r="AX71" s="43"/>
       <c r="AY71" s="43"/>
       <c r="AZ71" s="43"/>
-      <c r="BA71" s="152"/>
+      <c r="BA71" s="149"/>
       <c r="BB71" s="70"/>
       <c r="BC71" s="70"/>
       <c r="BD71" s="43"/>
       <c r="BE71" s="43"/>
       <c r="BF71" s="43"/>
       <c r="BG71" s="43"/>
-      <c r="BH71" s="152"/>
+      <c r="BH71" s="149"/>
       <c r="BI71" s="70"/>
       <c r="BJ71" s="70"/>
       <c r="BK71" s="43"/>
@@ -13562,25 +13567,25 @@
       <c r="DK71" s="47"/>
     </row>
     <row r="72" spans="2:115">
-      <c r="B72" s="283"/>
-      <c r="C72" s="297"/>
+      <c r="B72" s="277"/>
+      <c r="C72" s="288"/>
       <c r="D72" s="15"/>
       <c r="E72" s="22"/>
       <c r="F72" s="81"/>
-      <c r="G72" s="241"/>
-      <c r="H72" s="231"/>
-      <c r="I72" s="231"/>
-      <c r="J72" s="231"/>
-      <c r="K72" s="231"/>
-      <c r="L72" s="233"/>
-      <c r="M72" s="233"/>
-      <c r="N72" s="232"/>
-      <c r="O72" s="232"/>
-      <c r="P72" s="232"/>
-      <c r="Q72" s="56"/>
-      <c r="R72" s="56"/>
-      <c r="S72" s="73"/>
-      <c r="T72" s="73"/>
+      <c r="G72" s="238"/>
+      <c r="H72" s="228"/>
+      <c r="I72" s="228"/>
+      <c r="J72" s="228"/>
+      <c r="K72" s="228"/>
+      <c r="L72" s="230"/>
+      <c r="M72" s="230"/>
+      <c r="N72" s="229"/>
+      <c r="O72" s="229"/>
+      <c r="P72" s="229"/>
+      <c r="Q72" s="229"/>
+      <c r="R72" s="229"/>
+      <c r="S72" s="230"/>
+      <c r="T72" s="230"/>
       <c r="U72" s="56"/>
       <c r="V72" s="56"/>
       <c r="W72" s="56"/>
@@ -13606,21 +13611,21 @@
       <c r="AQ72" s="56"/>
       <c r="AR72" s="56"/>
       <c r="AS72" s="56"/>
-      <c r="AT72" s="153"/>
+      <c r="AT72" s="150"/>
       <c r="AU72" s="73"/>
       <c r="AV72" s="73"/>
       <c r="AW72" s="56"/>
       <c r="AX72" s="56"/>
       <c r="AY72" s="56"/>
       <c r="AZ72" s="56"/>
-      <c r="BA72" s="153"/>
+      <c r="BA72" s="150"/>
       <c r="BB72" s="73"/>
       <c r="BC72" s="73"/>
       <c r="BD72" s="56"/>
       <c r="BE72" s="56"/>
       <c r="BF72" s="56"/>
       <c r="BG72" s="56"/>
-      <c r="BH72" s="153"/>
+      <c r="BH72" s="150"/>
       <c r="BI72" s="73"/>
       <c r="BJ72" s="73"/>
       <c r="BK72" s="56"/>
@@ -13678,8 +13683,8 @@
       <c r="DK72" s="61"/>
     </row>
     <row r="73" spans="2:115">
-      <c r="B73" s="283"/>
-      <c r="C73" s="297" t="s">
+      <c r="B73" s="277"/>
+      <c r="C73" s="288" t="s">
         <v>48</v>
       </c>
       <c r="D73" s="14" t="s">
@@ -13689,20 +13694,20 @@
         <v>38</v>
       </c>
       <c r="F73" s="82"/>
-      <c r="G73" s="246"/>
-      <c r="H73" s="226"/>
-      <c r="I73" s="226"/>
-      <c r="J73" s="226"/>
-      <c r="K73" s="226"/>
-      <c r="L73" s="228"/>
-      <c r="M73" s="228"/>
-      <c r="N73" s="227"/>
-      <c r="O73" s="227"/>
-      <c r="P73" s="227"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="72"/>
-      <c r="T73" s="72"/>
+      <c r="G73" s="243"/>
+      <c r="H73" s="223"/>
+      <c r="I73" s="223"/>
+      <c r="J73" s="223"/>
+      <c r="K73" s="223"/>
+      <c r="L73" s="225"/>
+      <c r="M73" s="225"/>
+      <c r="N73" s="224"/>
+      <c r="O73" s="224"/>
+      <c r="P73" s="224"/>
+      <c r="Q73" s="224"/>
+      <c r="R73" s="224"/>
+      <c r="S73" s="225"/>
+      <c r="T73" s="225"/>
       <c r="U73" s="63"/>
       <c r="V73" s="63"/>
       <c r="W73" s="63"/>
@@ -13728,21 +13733,21 @@
       <c r="AQ73" s="63"/>
       <c r="AR73" s="63"/>
       <c r="AS73" s="63"/>
-      <c r="AT73" s="154"/>
+      <c r="AT73" s="151"/>
       <c r="AU73" s="72"/>
       <c r="AV73" s="72"/>
       <c r="AW73" s="63"/>
       <c r="AX73" s="63"/>
       <c r="AY73" s="63"/>
       <c r="AZ73" s="63"/>
-      <c r="BA73" s="154"/>
+      <c r="BA73" s="151"/>
       <c r="BB73" s="72"/>
       <c r="BC73" s="72"/>
       <c r="BD73" s="63"/>
       <c r="BE73" s="63"/>
       <c r="BF73" s="63"/>
       <c r="BG73" s="63"/>
-      <c r="BH73" s="154"/>
+      <c r="BH73" s="151"/>
       <c r="BI73" s="72"/>
       <c r="BJ73" s="72"/>
       <c r="BK73" s="63"/>
@@ -13800,25 +13805,25 @@
       <c r="DK73" s="67"/>
     </row>
     <row r="74" spans="2:115">
-      <c r="B74" s="283"/>
-      <c r="C74" s="298"/>
+      <c r="B74" s="277"/>
+      <c r="C74" s="289"/>
       <c r="D74" s="16"/>
       <c r="E74" s="24"/>
       <c r="F74" s="83"/>
-      <c r="G74" s="241"/>
-      <c r="H74" s="231"/>
-      <c r="I74" s="231"/>
-      <c r="J74" s="231"/>
-      <c r="K74" s="231"/>
-      <c r="L74" s="233"/>
-      <c r="M74" s="233"/>
-      <c r="N74" s="232"/>
-      <c r="O74" s="232"/>
-      <c r="P74" s="232"/>
-      <c r="Q74" s="56"/>
-      <c r="R74" s="56"/>
-      <c r="S74" s="73"/>
-      <c r="T74" s="73"/>
+      <c r="G74" s="238"/>
+      <c r="H74" s="228"/>
+      <c r="I74" s="228"/>
+      <c r="J74" s="228"/>
+      <c r="K74" s="228"/>
+      <c r="L74" s="230"/>
+      <c r="M74" s="230"/>
+      <c r="N74" s="229"/>
+      <c r="O74" s="229"/>
+      <c r="P74" s="229"/>
+      <c r="Q74" s="229"/>
+      <c r="R74" s="229"/>
+      <c r="S74" s="230"/>
+      <c r="T74" s="230"/>
       <c r="U74" s="56"/>
       <c r="V74" s="56"/>
       <c r="W74" s="56"/>
@@ -13844,21 +13849,21 @@
       <c r="AQ74" s="56"/>
       <c r="AR74" s="56"/>
       <c r="AS74" s="56"/>
-      <c r="AT74" s="153"/>
+      <c r="AT74" s="150"/>
       <c r="AU74" s="73"/>
       <c r="AV74" s="73"/>
       <c r="AW74" s="56"/>
       <c r="AX74" s="56"/>
       <c r="AY74" s="56"/>
       <c r="AZ74" s="56"/>
-      <c r="BA74" s="153"/>
+      <c r="BA74" s="150"/>
       <c r="BB74" s="73"/>
       <c r="BC74" s="73"/>
       <c r="BD74" s="56"/>
       <c r="BE74" s="56"/>
       <c r="BF74" s="56"/>
       <c r="BG74" s="56"/>
-      <c r="BH74" s="153"/>
+      <c r="BH74" s="150"/>
       <c r="BI74" s="73"/>
       <c r="BJ74" s="73"/>
       <c r="BK74" s="56"/>
@@ -13916,25 +13921,25 @@
       <c r="DK74" s="61"/>
     </row>
     <row r="75" spans="2:115">
-      <c r="B75" s="283"/>
-      <c r="C75" s="280"/>
+      <c r="B75" s="277"/>
+      <c r="C75" s="290"/>
       <c r="D75" s="14"/>
       <c r="E75" s="23"/>
       <c r="F75" s="82"/>
-      <c r="G75" s="246"/>
-      <c r="H75" s="226"/>
-      <c r="I75" s="226"/>
-      <c r="J75" s="227"/>
-      <c r="K75" s="226"/>
-      <c r="L75" s="228"/>
-      <c r="M75" s="228"/>
-      <c r="N75" s="226"/>
-      <c r="O75" s="226"/>
-      <c r="P75" s="226"/>
-      <c r="Q75" s="62"/>
-      <c r="R75" s="62"/>
-      <c r="S75" s="72"/>
-      <c r="T75" s="72"/>
+      <c r="G75" s="243"/>
+      <c r="H75" s="223"/>
+      <c r="I75" s="223"/>
+      <c r="J75" s="224"/>
+      <c r="K75" s="223"/>
+      <c r="L75" s="225"/>
+      <c r="M75" s="225"/>
+      <c r="N75" s="223"/>
+      <c r="O75" s="223"/>
+      <c r="P75" s="223"/>
+      <c r="Q75" s="223"/>
+      <c r="R75" s="223"/>
+      <c r="S75" s="225"/>
+      <c r="T75" s="225"/>
       <c r="U75" s="62"/>
       <c r="V75" s="62"/>
       <c r="W75" s="62"/>
@@ -13960,21 +13965,21 @@
       <c r="AQ75" s="62"/>
       <c r="AR75" s="62"/>
       <c r="AS75" s="62"/>
-      <c r="AT75" s="150"/>
+      <c r="AT75" s="147"/>
       <c r="AU75" s="72"/>
       <c r="AV75" s="72"/>
       <c r="AW75" s="62"/>
       <c r="AX75" s="62"/>
       <c r="AY75" s="62"/>
       <c r="AZ75" s="62"/>
-      <c r="BA75" s="150"/>
+      <c r="BA75" s="147"/>
       <c r="BB75" s="72"/>
       <c r="BC75" s="72"/>
       <c r="BD75" s="62"/>
       <c r="BE75" s="62"/>
       <c r="BF75" s="62"/>
       <c r="BG75" s="62"/>
-      <c r="BH75" s="150"/>
+      <c r="BH75" s="147"/>
       <c r="BI75" s="72"/>
       <c r="BJ75" s="72"/>
       <c r="BK75" s="62"/>
@@ -14032,25 +14037,25 @@
       <c r="DK75" s="67"/>
     </row>
     <row r="76" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B76" s="284"/>
-      <c r="C76" s="280"/>
+      <c r="B76" s="286"/>
+      <c r="C76" s="290"/>
       <c r="D76" s="15"/>
       <c r="E76" s="22"/>
       <c r="F76" s="81"/>
-      <c r="G76" s="243"/>
-      <c r="H76" s="202"/>
-      <c r="I76" s="202"/>
-      <c r="J76" s="244"/>
-      <c r="K76" s="244"/>
-      <c r="L76" s="236"/>
-      <c r="M76" s="236"/>
-      <c r="N76" s="202"/>
-      <c r="O76" s="202"/>
-      <c r="P76" s="202"/>
-      <c r="Q76" s="32"/>
-      <c r="R76" s="32"/>
-      <c r="S76" s="69"/>
-      <c r="T76" s="69"/>
+      <c r="G76" s="240"/>
+      <c r="H76" s="199"/>
+      <c r="I76" s="199"/>
+      <c r="J76" s="241"/>
+      <c r="K76" s="241"/>
+      <c r="L76" s="233"/>
+      <c r="M76" s="233"/>
+      <c r="N76" s="199"/>
+      <c r="O76" s="199"/>
+      <c r="P76" s="199"/>
+      <c r="Q76" s="199"/>
+      <c r="R76" s="199"/>
+      <c r="S76" s="233"/>
+      <c r="T76" s="233"/>
       <c r="U76" s="32"/>
       <c r="V76" s="32"/>
       <c r="W76" s="32"/>
@@ -14076,21 +14081,21 @@
       <c r="AQ76" s="32"/>
       <c r="AR76" s="32"/>
       <c r="AS76" s="32"/>
-      <c r="AT76" s="147"/>
+      <c r="AT76" s="144"/>
       <c r="AU76" s="69"/>
       <c r="AV76" s="69"/>
       <c r="AW76" s="32"/>
       <c r="AX76" s="32"/>
       <c r="AY76" s="32"/>
       <c r="AZ76" s="32"/>
-      <c r="BA76" s="147"/>
+      <c r="BA76" s="144"/>
       <c r="BB76" s="69"/>
       <c r="BC76" s="69"/>
       <c r="BD76" s="32"/>
       <c r="BE76" s="32"/>
       <c r="BF76" s="32"/>
       <c r="BG76" s="32"/>
-      <c r="BH76" s="147"/>
+      <c r="BH76" s="144"/>
       <c r="BI76" s="69"/>
       <c r="BJ76" s="69"/>
       <c r="BK76" s="32"/>
@@ -14148,10 +14153,10 @@
       <c r="DK76" s="36"/>
     </row>
     <row r="77" spans="2:115">
-      <c r="B77" s="282" t="s">
+      <c r="B77" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="296" t="s">
+      <c r="C77" s="287" t="s">
         <v>50</v>
       </c>
       <c r="D77" s="20"/>
@@ -14159,20 +14164,20 @@
         <v>51</v>
       </c>
       <c r="F77" s="80"/>
-      <c r="G77" s="245"/>
-      <c r="H77" s="208"/>
-      <c r="I77" s="208"/>
-      <c r="J77" s="208"/>
-      <c r="K77" s="208"/>
-      <c r="L77" s="239"/>
-      <c r="M77" s="239"/>
-      <c r="N77" s="238"/>
-      <c r="O77" s="238"/>
-      <c r="P77" s="238"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="70"/>
-      <c r="T77" s="70"/>
+      <c r="G77" s="242"/>
+      <c r="H77" s="205"/>
+      <c r="I77" s="205"/>
+      <c r="J77" s="205"/>
+      <c r="K77" s="205"/>
+      <c r="L77" s="236"/>
+      <c r="M77" s="236"/>
+      <c r="N77" s="235"/>
+      <c r="O77" s="235"/>
+      <c r="P77" s="235"/>
+      <c r="Q77" s="235"/>
+      <c r="R77" s="235"/>
+      <c r="S77" s="236"/>
+      <c r="T77" s="236"/>
       <c r="U77" s="43"/>
       <c r="V77" s="43"/>
       <c r="W77" s="43"/>
@@ -14198,21 +14203,21 @@
       <c r="AQ77" s="43"/>
       <c r="AR77" s="43"/>
       <c r="AS77" s="43"/>
-      <c r="AT77" s="152"/>
+      <c r="AT77" s="149"/>
       <c r="AU77" s="70"/>
       <c r="AV77" s="70"/>
       <c r="AW77" s="43"/>
       <c r="AX77" s="43"/>
       <c r="AY77" s="43"/>
       <c r="AZ77" s="43"/>
-      <c r="BA77" s="152"/>
+      <c r="BA77" s="149"/>
       <c r="BB77" s="70"/>
       <c r="BC77" s="70"/>
       <c r="BD77" s="43"/>
       <c r="BE77" s="43"/>
       <c r="BF77" s="43"/>
       <c r="BG77" s="43"/>
-      <c r="BH77" s="152"/>
+      <c r="BH77" s="149"/>
       <c r="BI77" s="70"/>
       <c r="BJ77" s="70"/>
       <c r="BK77" s="43"/>
@@ -14270,25 +14275,25 @@
       <c r="DK77" s="47"/>
     </row>
     <row r="78" spans="2:115">
-      <c r="B78" s="283"/>
-      <c r="C78" s="297"/>
+      <c r="B78" s="277"/>
+      <c r="C78" s="288"/>
       <c r="D78" s="15"/>
       <c r="E78" s="22"/>
       <c r="F78" s="81"/>
-      <c r="G78" s="242"/>
-      <c r="H78" s="215"/>
-      <c r="I78" s="215"/>
-      <c r="J78" s="215"/>
-      <c r="K78" s="215"/>
-      <c r="L78" s="229"/>
-      <c r="M78" s="229"/>
-      <c r="N78" s="235"/>
-      <c r="O78" s="235"/>
-      <c r="P78" s="235"/>
-      <c r="Q78" s="54"/>
-      <c r="R78" s="54"/>
-      <c r="S78" s="71"/>
-      <c r="T78" s="71"/>
+      <c r="G78" s="239"/>
+      <c r="H78" s="212"/>
+      <c r="I78" s="212"/>
+      <c r="J78" s="212"/>
+      <c r="K78" s="212"/>
+      <c r="L78" s="226"/>
+      <c r="M78" s="226"/>
+      <c r="N78" s="232"/>
+      <c r="O78" s="232"/>
+      <c r="P78" s="232"/>
+      <c r="Q78" s="232"/>
+      <c r="R78" s="232"/>
+      <c r="S78" s="226"/>
+      <c r="T78" s="226"/>
       <c r="U78" s="54"/>
       <c r="V78" s="54"/>
       <c r="W78" s="54"/>
@@ -14314,21 +14319,21 @@
       <c r="AQ78" s="54"/>
       <c r="AR78" s="54"/>
       <c r="AS78" s="54"/>
-      <c r="AT78" s="155"/>
+      <c r="AT78" s="152"/>
       <c r="AU78" s="71"/>
       <c r="AV78" s="71"/>
       <c r="AW78" s="54"/>
       <c r="AX78" s="54"/>
       <c r="AY78" s="54"/>
       <c r="AZ78" s="54"/>
-      <c r="BA78" s="155"/>
+      <c r="BA78" s="152"/>
       <c r="BB78" s="71"/>
       <c r="BC78" s="71"/>
       <c r="BD78" s="54"/>
       <c r="BE78" s="54"/>
       <c r="BF78" s="54"/>
       <c r="BG78" s="54"/>
-      <c r="BH78" s="155"/>
+      <c r="BH78" s="152"/>
       <c r="BI78" s="71"/>
       <c r="BJ78" s="71"/>
       <c r="BK78" s="54"/>
@@ -14386,8 +14391,8 @@
       <c r="DK78" s="52"/>
     </row>
     <row r="79" spans="2:115">
-      <c r="B79" s="283"/>
-      <c r="C79" s="297" t="s">
+      <c r="B79" s="277"/>
+      <c r="C79" s="288" t="s">
         <v>53</v>
       </c>
       <c r="D79" s="14"/>
@@ -14395,20 +14400,20 @@
         <v>51</v>
       </c>
       <c r="F79" s="82"/>
-      <c r="G79" s="246"/>
-      <c r="H79" s="226"/>
-      <c r="I79" s="226"/>
-      <c r="J79" s="226"/>
-      <c r="K79" s="226"/>
-      <c r="L79" s="228"/>
-      <c r="M79" s="228"/>
-      <c r="N79" s="227"/>
-      <c r="O79" s="227"/>
-      <c r="P79" s="227"/>
-      <c r="Q79" s="63"/>
-      <c r="R79" s="63"/>
-      <c r="S79" s="72"/>
-      <c r="T79" s="72"/>
+      <c r="G79" s="243"/>
+      <c r="H79" s="223"/>
+      <c r="I79" s="223"/>
+      <c r="J79" s="223"/>
+      <c r="K79" s="223"/>
+      <c r="L79" s="225"/>
+      <c r="M79" s="225"/>
+      <c r="N79" s="224"/>
+      <c r="O79" s="224"/>
+      <c r="P79" s="224"/>
+      <c r="Q79" s="224"/>
+      <c r="R79" s="224"/>
+      <c r="S79" s="225"/>
+      <c r="T79" s="225"/>
       <c r="U79" s="63"/>
       <c r="V79" s="63"/>
       <c r="W79" s="63"/>
@@ -14434,21 +14439,21 @@
       <c r="AQ79" s="63"/>
       <c r="AR79" s="63"/>
       <c r="AS79" s="63"/>
-      <c r="AT79" s="154"/>
+      <c r="AT79" s="151"/>
       <c r="AU79" s="72"/>
       <c r="AV79" s="72"/>
       <c r="AW79" s="63"/>
       <c r="AX79" s="63"/>
       <c r="AY79" s="63"/>
       <c r="AZ79" s="63"/>
-      <c r="BA79" s="154"/>
+      <c r="BA79" s="151"/>
       <c r="BB79" s="72"/>
       <c r="BC79" s="72"/>
       <c r="BD79" s="63"/>
       <c r="BE79" s="63"/>
       <c r="BF79" s="63"/>
       <c r="BG79" s="63"/>
-      <c r="BH79" s="154"/>
+      <c r="BH79" s="151"/>
       <c r="BI79" s="72"/>
       <c r="BJ79" s="72"/>
       <c r="BK79" s="63"/>
@@ -14506,25 +14511,25 @@
       <c r="DK79" s="67"/>
     </row>
     <row r="80" spans="2:115">
-      <c r="B80" s="283"/>
-      <c r="C80" s="298"/>
+      <c r="B80" s="277"/>
+      <c r="C80" s="289"/>
       <c r="D80" s="16"/>
       <c r="E80" s="24"/>
       <c r="F80" s="83"/>
-      <c r="G80" s="241"/>
-      <c r="H80" s="231"/>
-      <c r="I80" s="231"/>
-      <c r="J80" s="231"/>
-      <c r="K80" s="231"/>
-      <c r="L80" s="233"/>
-      <c r="M80" s="233"/>
-      <c r="N80" s="232"/>
-      <c r="O80" s="232"/>
-      <c r="P80" s="232"/>
-      <c r="Q80" s="56"/>
-      <c r="R80" s="56"/>
-      <c r="S80" s="73"/>
-      <c r="T80" s="73"/>
+      <c r="G80" s="238"/>
+      <c r="H80" s="228"/>
+      <c r="I80" s="228"/>
+      <c r="J80" s="228"/>
+      <c r="K80" s="228"/>
+      <c r="L80" s="230"/>
+      <c r="M80" s="230"/>
+      <c r="N80" s="229"/>
+      <c r="O80" s="229"/>
+      <c r="P80" s="229"/>
+      <c r="Q80" s="229"/>
+      <c r="R80" s="229"/>
+      <c r="S80" s="230"/>
+      <c r="T80" s="230"/>
       <c r="U80" s="56"/>
       <c r="V80" s="56"/>
       <c r="W80" s="56"/>
@@ -14550,21 +14555,21 @@
       <c r="AQ80" s="56"/>
       <c r="AR80" s="56"/>
       <c r="AS80" s="56"/>
-      <c r="AT80" s="153"/>
+      <c r="AT80" s="150"/>
       <c r="AU80" s="73"/>
       <c r="AV80" s="73"/>
       <c r="AW80" s="56"/>
       <c r="AX80" s="56"/>
       <c r="AY80" s="56"/>
       <c r="AZ80" s="56"/>
-      <c r="BA80" s="153"/>
+      <c r="BA80" s="150"/>
       <c r="BB80" s="73"/>
       <c r="BC80" s="73"/>
       <c r="BD80" s="56"/>
       <c r="BE80" s="56"/>
       <c r="BF80" s="56"/>
       <c r="BG80" s="56"/>
-      <c r="BH80" s="153"/>
+      <c r="BH80" s="150"/>
       <c r="BI80" s="73"/>
       <c r="BJ80" s="73"/>
       <c r="BK80" s="56"/>
@@ -14622,25 +14627,25 @@
       <c r="DK80" s="61"/>
     </row>
     <row r="81" spans="2:116">
-      <c r="B81" s="283"/>
-      <c r="C81" s="280"/>
+      <c r="B81" s="277"/>
+      <c r="C81" s="290"/>
       <c r="D81" s="14"/>
       <c r="E81" s="23"/>
       <c r="F81" s="82"/>
-      <c r="G81" s="242"/>
-      <c r="H81" s="215"/>
-      <c r="I81" s="215"/>
-      <c r="J81" s="235"/>
-      <c r="K81" s="215"/>
-      <c r="L81" s="229"/>
-      <c r="M81" s="229"/>
-      <c r="N81" s="215"/>
-      <c r="O81" s="215"/>
-      <c r="P81" s="215"/>
-      <c r="Q81" s="48"/>
-      <c r="R81" s="48"/>
-      <c r="S81" s="71"/>
-      <c r="T81" s="71"/>
+      <c r="G81" s="239"/>
+      <c r="H81" s="212"/>
+      <c r="I81" s="212"/>
+      <c r="J81" s="232"/>
+      <c r="K81" s="212"/>
+      <c r="L81" s="226"/>
+      <c r="M81" s="226"/>
+      <c r="N81" s="212"/>
+      <c r="O81" s="212"/>
+      <c r="P81" s="212"/>
+      <c r="Q81" s="212"/>
+      <c r="R81" s="212"/>
+      <c r="S81" s="226"/>
+      <c r="T81" s="226"/>
       <c r="U81" s="48"/>
       <c r="V81" s="48"/>
       <c r="W81" s="48"/>
@@ -14666,21 +14671,21 @@
       <c r="AQ81" s="48"/>
       <c r="AR81" s="48"/>
       <c r="AS81" s="48"/>
-      <c r="AT81" s="149"/>
+      <c r="AT81" s="146"/>
       <c r="AU81" s="71"/>
       <c r="AV81" s="71"/>
       <c r="AW81" s="48"/>
       <c r="AX81" s="48"/>
       <c r="AY81" s="48"/>
       <c r="AZ81" s="48"/>
-      <c r="BA81" s="149"/>
+      <c r="BA81" s="146"/>
       <c r="BB81" s="71"/>
       <c r="BC81" s="71"/>
       <c r="BD81" s="48"/>
       <c r="BE81" s="48"/>
       <c r="BF81" s="48"/>
       <c r="BG81" s="48"/>
-      <c r="BH81" s="149"/>
+      <c r="BH81" s="146"/>
       <c r="BI81" s="71"/>
       <c r="BJ81" s="71"/>
       <c r="BK81" s="48"/>
@@ -14738,25 +14743,25 @@
       <c r="DK81" s="52"/>
     </row>
     <row r="82" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B82" s="284"/>
-      <c r="C82" s="299"/>
+      <c r="B82" s="286"/>
+      <c r="C82" s="291"/>
       <c r="D82" s="25"/>
       <c r="E82" s="26"/>
       <c r="F82" s="84"/>
-      <c r="G82" s="243"/>
-      <c r="H82" s="202"/>
-      <c r="I82" s="202"/>
-      <c r="J82" s="244"/>
-      <c r="K82" s="244"/>
-      <c r="L82" s="236"/>
-      <c r="M82" s="236"/>
-      <c r="N82" s="202"/>
-      <c r="O82" s="202"/>
-      <c r="P82" s="202"/>
-      <c r="Q82" s="32"/>
-      <c r="R82" s="32"/>
-      <c r="S82" s="69"/>
-      <c r="T82" s="69"/>
+      <c r="G82" s="240"/>
+      <c r="H82" s="199"/>
+      <c r="I82" s="199"/>
+      <c r="J82" s="241"/>
+      <c r="K82" s="241"/>
+      <c r="L82" s="233"/>
+      <c r="M82" s="233"/>
+      <c r="N82" s="199"/>
+      <c r="O82" s="199"/>
+      <c r="P82" s="199"/>
+      <c r="Q82" s="199"/>
+      <c r="R82" s="199"/>
+      <c r="S82" s="233"/>
+      <c r="T82" s="233"/>
       <c r="U82" s="32"/>
       <c r="V82" s="32"/>
       <c r="W82" s="32"/>
@@ -14782,21 +14787,21 @@
       <c r="AQ82" s="32"/>
       <c r="AR82" s="32"/>
       <c r="AS82" s="32"/>
-      <c r="AT82" s="147"/>
+      <c r="AT82" s="144"/>
       <c r="AU82" s="69"/>
       <c r="AV82" s="69"/>
       <c r="AW82" s="32"/>
       <c r="AX82" s="32"/>
       <c r="AY82" s="32"/>
       <c r="AZ82" s="32"/>
-      <c r="BA82" s="147"/>
+      <c r="BA82" s="144"/>
       <c r="BB82" s="69"/>
       <c r="BC82" s="69"/>
       <c r="BD82" s="32"/>
       <c r="BE82" s="32"/>
       <c r="BF82" s="32"/>
       <c r="BG82" s="32"/>
-      <c r="BH82" s="147"/>
+      <c r="BH82" s="144"/>
       <c r="BI82" s="69"/>
       <c r="BJ82" s="69"/>
       <c r="BK82" s="32"/>
@@ -14854,10 +14859,10 @@
       <c r="DK82" s="36"/>
     </row>
     <row r="83" spans="2:116">
-      <c r="B83" s="282" t="s">
+      <c r="B83" s="278" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="292" t="s">
+      <c r="C83" s="280" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="3"/>
@@ -14865,20 +14870,20 @@
         <v>20</v>
       </c>
       <c r="F83" s="76"/>
-      <c r="G83" s="245"/>
-      <c r="H83" s="208"/>
-      <c r="I83" s="208"/>
-      <c r="J83" s="208"/>
-      <c r="K83" s="208"/>
-      <c r="L83" s="239"/>
-      <c r="M83" s="239"/>
-      <c r="N83" s="208"/>
-      <c r="O83" s="208"/>
-      <c r="P83" s="208"/>
-      <c r="Q83" s="42"/>
-      <c r="R83" s="42"/>
-      <c r="S83" s="70"/>
-      <c r="T83" s="70"/>
+      <c r="G83" s="242"/>
+      <c r="H83" s="205"/>
+      <c r="I83" s="205"/>
+      <c r="J83" s="205"/>
+      <c r="K83" s="205"/>
+      <c r="L83" s="236"/>
+      <c r="M83" s="236"/>
+      <c r="N83" s="205"/>
+      <c r="O83" s="205"/>
+      <c r="P83" s="205"/>
+      <c r="Q83" s="205"/>
+      <c r="R83" s="205"/>
+      <c r="S83" s="236"/>
+      <c r="T83" s="236"/>
       <c r="U83" s="42"/>
       <c r="V83" s="42"/>
       <c r="W83" s="42"/>
@@ -14893,32 +14898,32 @@
       <c r="AF83" s="42"/>
       <c r="AG83" s="70"/>
       <c r="AH83" s="70"/>
-      <c r="AI83" s="125"/>
-      <c r="AJ83" s="125"/>
-      <c r="AK83" s="125"/>
-      <c r="AL83" s="125"/>
-      <c r="AM83" s="125"/>
+      <c r="AI83" s="122"/>
+      <c r="AJ83" s="122"/>
+      <c r="AK83" s="122"/>
+      <c r="AL83" s="122"/>
+      <c r="AM83" s="122"/>
       <c r="AN83" s="70"/>
       <c r="AO83" s="70"/>
       <c r="AP83" s="42"/>
       <c r="AQ83" s="42"/>
       <c r="AR83" s="42"/>
       <c r="AS83" s="42"/>
-      <c r="AT83" s="148"/>
+      <c r="AT83" s="145"/>
       <c r="AU83" s="70"/>
       <c r="AV83" s="70"/>
       <c r="AW83" s="42"/>
       <c r="AX83" s="42"/>
       <c r="AY83" s="42"/>
       <c r="AZ83" s="42"/>
-      <c r="BA83" s="148"/>
+      <c r="BA83" s="145"/>
       <c r="BB83" s="70"/>
       <c r="BC83" s="70"/>
       <c r="BD83" s="42"/>
       <c r="BE83" s="42"/>
       <c r="BF83" s="42"/>
       <c r="BG83" s="42"/>
-      <c r="BH83" s="148"/>
+      <c r="BH83" s="145"/>
       <c r="BI83" s="70"/>
       <c r="BJ83" s="70"/>
       <c r="BK83" s="42"/>
@@ -14976,27 +14981,27 @@
       <c r="DK83" s="47"/>
     </row>
     <row r="84" spans="2:116">
-      <c r="B84" s="283"/>
-      <c r="C84" s="293"/>
+      <c r="B84" s="277"/>
+      <c r="C84" s="281"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F84" s="75"/>
-      <c r="G84" s="242"/>
-      <c r="H84" s="215"/>
-      <c r="I84" s="215"/>
-      <c r="J84" s="215"/>
-      <c r="K84" s="215"/>
-      <c r="L84" s="229"/>
-      <c r="M84" s="229"/>
-      <c r="N84" s="215"/>
-      <c r="O84" s="215"/>
-      <c r="P84" s="215"/>
-      <c r="Q84" s="48"/>
-      <c r="R84" s="48"/>
-      <c r="S84" s="71"/>
-      <c r="T84" s="71"/>
+      <c r="G84" s="239"/>
+      <c r="H84" s="212"/>
+      <c r="I84" s="212"/>
+      <c r="J84" s="212"/>
+      <c r="K84" s="212"/>
+      <c r="L84" s="226"/>
+      <c r="M84" s="226"/>
+      <c r="N84" s="212"/>
+      <c r="O84" s="212"/>
+      <c r="P84" s="212"/>
+      <c r="Q84" s="212"/>
+      <c r="R84" s="212"/>
+      <c r="S84" s="226"/>
+      <c r="T84" s="226"/>
       <c r="U84" s="48"/>
       <c r="V84" s="48"/>
       <c r="W84" s="48"/>
@@ -15011,32 +15016,32 @@
       <c r="AF84" s="48"/>
       <c r="AG84" s="71"/>
       <c r="AH84" s="71"/>
-      <c r="AI84" s="99"/>
-      <c r="AJ84" s="99"/>
-      <c r="AK84" s="99"/>
-      <c r="AL84" s="99"/>
-      <c r="AM84" s="99"/>
+      <c r="AI84" s="98"/>
+      <c r="AJ84" s="98"/>
+      <c r="AK84" s="98"/>
+      <c r="AL84" s="98"/>
+      <c r="AM84" s="98"/>
       <c r="AN84" s="71"/>
       <c r="AO84" s="71"/>
       <c r="AP84" s="48"/>
       <c r="AQ84" s="48"/>
       <c r="AR84" s="48"/>
       <c r="AS84" s="48"/>
-      <c r="AT84" s="149"/>
+      <c r="AT84" s="146"/>
       <c r="AU84" s="71"/>
       <c r="AV84" s="71"/>
       <c r="AW84" s="48"/>
       <c r="AX84" s="48"/>
       <c r="AY84" s="48"/>
       <c r="AZ84" s="48"/>
-      <c r="BA84" s="149"/>
+      <c r="BA84" s="146"/>
       <c r="BB84" s="71"/>
       <c r="BC84" s="71"/>
       <c r="BD84" s="48"/>
       <c r="BE84" s="48"/>
       <c r="BF84" s="48"/>
       <c r="BG84" s="48"/>
-      <c r="BH84" s="149"/>
+      <c r="BH84" s="146"/>
       <c r="BI84" s="71"/>
       <c r="BJ84" s="71"/>
       <c r="BK84" s="48"/>
@@ -15094,25 +15099,25 @@
       <c r="DK84" s="52"/>
     </row>
     <row r="85" spans="2:116">
-      <c r="B85" s="283"/>
-      <c r="C85" s="293"/>
+      <c r="B85" s="277"/>
+      <c r="C85" s="281"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="75"/>
-      <c r="G85" s="242"/>
-      <c r="H85" s="215"/>
-      <c r="I85" s="215"/>
-      <c r="J85" s="215"/>
-      <c r="K85" s="215"/>
-      <c r="L85" s="229"/>
-      <c r="M85" s="229"/>
-      <c r="N85" s="215"/>
-      <c r="O85" s="215"/>
-      <c r="P85" s="215"/>
-      <c r="Q85" s="48"/>
-      <c r="R85" s="48"/>
-      <c r="S85" s="71"/>
-      <c r="T85" s="71"/>
+      <c r="G85" s="239"/>
+      <c r="H85" s="212"/>
+      <c r="I85" s="212"/>
+      <c r="J85" s="212"/>
+      <c r="K85" s="212"/>
+      <c r="L85" s="226"/>
+      <c r="M85" s="226"/>
+      <c r="N85" s="212"/>
+      <c r="O85" s="212"/>
+      <c r="P85" s="212"/>
+      <c r="Q85" s="212"/>
+      <c r="R85" s="212"/>
+      <c r="S85" s="226"/>
+      <c r="T85" s="226"/>
       <c r="U85" s="48"/>
       <c r="V85" s="48"/>
       <c r="W85" s="48"/>
@@ -15138,21 +15143,21 @@
       <c r="AQ85" s="48"/>
       <c r="AR85" s="48"/>
       <c r="AS85" s="48"/>
-      <c r="AT85" s="149"/>
+      <c r="AT85" s="146"/>
       <c r="AU85" s="71"/>
       <c r="AV85" s="71"/>
       <c r="AW85" s="48"/>
       <c r="AX85" s="48"/>
       <c r="AY85" s="48"/>
       <c r="AZ85" s="48"/>
-      <c r="BA85" s="149"/>
+      <c r="BA85" s="146"/>
       <c r="BB85" s="71"/>
       <c r="BC85" s="71"/>
       <c r="BD85" s="48"/>
       <c r="BE85" s="48"/>
       <c r="BF85" s="48"/>
       <c r="BG85" s="48"/>
-      <c r="BH85" s="149"/>
+      <c r="BH85" s="146"/>
       <c r="BI85" s="71"/>
       <c r="BJ85" s="71"/>
       <c r="BK85" s="48"/>
@@ -15210,25 +15215,25 @@
       <c r="DK85" s="52"/>
     </row>
     <row r="86" spans="2:116">
-      <c r="B86" s="283"/>
-      <c r="C86" s="293"/>
+      <c r="B86" s="277"/>
+      <c r="C86" s="281"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="75"/>
-      <c r="G86" s="242"/>
-      <c r="H86" s="215"/>
-      <c r="I86" s="215"/>
-      <c r="J86" s="215"/>
-      <c r="K86" s="215"/>
-      <c r="L86" s="229"/>
-      <c r="M86" s="229"/>
-      <c r="N86" s="215"/>
-      <c r="O86" s="215"/>
-      <c r="P86" s="215"/>
-      <c r="Q86" s="48"/>
-      <c r="R86" s="48"/>
-      <c r="S86" s="71"/>
-      <c r="T86" s="71"/>
+      <c r="G86" s="239"/>
+      <c r="H86" s="212"/>
+      <c r="I86" s="212"/>
+      <c r="J86" s="212"/>
+      <c r="K86" s="212"/>
+      <c r="L86" s="226"/>
+      <c r="M86" s="226"/>
+      <c r="N86" s="212"/>
+      <c r="O86" s="212"/>
+      <c r="P86" s="212"/>
+      <c r="Q86" s="212"/>
+      <c r="R86" s="212"/>
+      <c r="S86" s="226"/>
+      <c r="T86" s="226"/>
       <c r="U86" s="48"/>
       <c r="V86" s="48"/>
       <c r="W86" s="48"/>
@@ -15254,21 +15259,21 @@
       <c r="AQ86" s="48"/>
       <c r="AR86" s="48"/>
       <c r="AS86" s="48"/>
-      <c r="AT86" s="149"/>
+      <c r="AT86" s="146"/>
       <c r="AU86" s="71"/>
       <c r="AV86" s="71"/>
       <c r="AW86" s="48"/>
       <c r="AX86" s="48"/>
       <c r="AY86" s="48"/>
       <c r="AZ86" s="48"/>
-      <c r="BA86" s="149"/>
+      <c r="BA86" s="146"/>
       <c r="BB86" s="71"/>
       <c r="BC86" s="71"/>
       <c r="BD86" s="48"/>
       <c r="BE86" s="48"/>
       <c r="BF86" s="48"/>
       <c r="BG86" s="48"/>
-      <c r="BH86" s="149"/>
+      <c r="BH86" s="146"/>
       <c r="BI86" s="71"/>
       <c r="BJ86" s="71"/>
       <c r="BK86" s="48"/>
@@ -15326,25 +15331,25 @@
       <c r="DK86" s="52"/>
     </row>
     <row r="87" spans="2:116">
-      <c r="B87" s="283"/>
-      <c r="C87" s="293"/>
+      <c r="B87" s="277"/>
+      <c r="C87" s="281"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
       <c r="F87" s="75"/>
-      <c r="G87" s="241"/>
-      <c r="H87" s="231"/>
-      <c r="I87" s="231"/>
-      <c r="J87" s="231"/>
-      <c r="K87" s="231"/>
-      <c r="L87" s="233"/>
-      <c r="M87" s="233"/>
-      <c r="N87" s="231"/>
-      <c r="O87" s="231"/>
-      <c r="P87" s="231"/>
-      <c r="Q87" s="57"/>
-      <c r="R87" s="57"/>
-      <c r="S87" s="73"/>
-      <c r="T87" s="73"/>
+      <c r="G87" s="238"/>
+      <c r="H87" s="228"/>
+      <c r="I87" s="228"/>
+      <c r="J87" s="228"/>
+      <c r="K87" s="228"/>
+      <c r="L87" s="230"/>
+      <c r="M87" s="230"/>
+      <c r="N87" s="228"/>
+      <c r="O87" s="228"/>
+      <c r="P87" s="228"/>
+      <c r="Q87" s="228"/>
+      <c r="R87" s="228"/>
+      <c r="S87" s="230"/>
+      <c r="T87" s="230"/>
       <c r="U87" s="57"/>
       <c r="V87" s="57"/>
       <c r="W87" s="57"/>
@@ -15370,21 +15375,21 @@
       <c r="AQ87" s="57"/>
       <c r="AR87" s="57"/>
       <c r="AS87" s="57"/>
-      <c r="AT87" s="151"/>
+      <c r="AT87" s="148"/>
       <c r="AU87" s="73"/>
       <c r="AV87" s="73"/>
       <c r="AW87" s="57"/>
       <c r="AX87" s="57"/>
       <c r="AY87" s="57"/>
       <c r="AZ87" s="57"/>
-      <c r="BA87" s="151"/>
+      <c r="BA87" s="148"/>
       <c r="BB87" s="73"/>
       <c r="BC87" s="73"/>
       <c r="BD87" s="57"/>
       <c r="BE87" s="57"/>
       <c r="BF87" s="57"/>
       <c r="BG87" s="57"/>
-      <c r="BH87" s="151"/>
+      <c r="BH87" s="148"/>
       <c r="BI87" s="73"/>
       <c r="BJ87" s="73"/>
       <c r="BK87" s="57"/>
@@ -15442,25 +15447,25 @@
       <c r="DK87" s="61"/>
     </row>
     <row r="88" spans="2:116">
-      <c r="B88" s="283"/>
-      <c r="C88" s="294"/>
+      <c r="B88" s="277"/>
+      <c r="C88" s="282"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="77"/>
-      <c r="G88" s="246"/>
-      <c r="H88" s="226"/>
-      <c r="I88" s="226"/>
-      <c r="J88" s="226"/>
-      <c r="K88" s="226"/>
-      <c r="L88" s="228"/>
-      <c r="M88" s="228"/>
-      <c r="N88" s="226"/>
-      <c r="O88" s="226"/>
-      <c r="P88" s="226"/>
-      <c r="Q88" s="62"/>
-      <c r="R88" s="62"/>
-      <c r="S88" s="72"/>
-      <c r="T88" s="72"/>
+      <c r="G88" s="243"/>
+      <c r="H88" s="223"/>
+      <c r="I88" s="223"/>
+      <c r="J88" s="223"/>
+      <c r="K88" s="223"/>
+      <c r="L88" s="225"/>
+      <c r="M88" s="225"/>
+      <c r="N88" s="223"/>
+      <c r="O88" s="223"/>
+      <c r="P88" s="223"/>
+      <c r="Q88" s="223"/>
+      <c r="R88" s="223"/>
+      <c r="S88" s="225"/>
+      <c r="T88" s="225"/>
       <c r="U88" s="62"/>
       <c r="V88" s="62"/>
       <c r="W88" s="62"/>
@@ -15486,21 +15491,21 @@
       <c r="AQ88" s="62"/>
       <c r="AR88" s="62"/>
       <c r="AS88" s="62"/>
-      <c r="AT88" s="150"/>
+      <c r="AT88" s="147"/>
       <c r="AU88" s="72"/>
       <c r="AV88" s="72"/>
       <c r="AW88" s="62"/>
       <c r="AX88" s="62"/>
       <c r="AY88" s="62"/>
       <c r="AZ88" s="62"/>
-      <c r="BA88" s="150"/>
+      <c r="BA88" s="147"/>
       <c r="BB88" s="72"/>
       <c r="BC88" s="72"/>
       <c r="BD88" s="62"/>
       <c r="BE88" s="62"/>
       <c r="BF88" s="62"/>
       <c r="BG88" s="62"/>
-      <c r="BH88" s="150"/>
+      <c r="BH88" s="147"/>
       <c r="BI88" s="72"/>
       <c r="BJ88" s="72"/>
       <c r="BK88" s="62"/>
@@ -15558,25 +15563,25 @@
       <c r="DK88" s="67"/>
     </row>
     <row r="89" spans="2:116">
-      <c r="B89" s="283"/>
-      <c r="C89" s="293"/>
+      <c r="B89" s="277"/>
+      <c r="C89" s="281"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="F89" s="75"/>
-      <c r="G89" s="242"/>
-      <c r="H89" s="215"/>
-      <c r="I89" s="215"/>
-      <c r="J89" s="215"/>
-      <c r="K89" s="215"/>
-      <c r="L89" s="229"/>
-      <c r="M89" s="229"/>
-      <c r="N89" s="215"/>
-      <c r="O89" s="215"/>
-      <c r="P89" s="215"/>
-      <c r="Q89" s="48"/>
-      <c r="R89" s="48"/>
-      <c r="S89" s="71"/>
-      <c r="T89" s="71"/>
+      <c r="G89" s="239"/>
+      <c r="H89" s="212"/>
+      <c r="I89" s="212"/>
+      <c r="J89" s="212"/>
+      <c r="K89" s="212"/>
+      <c r="L89" s="226"/>
+      <c r="M89" s="226"/>
+      <c r="N89" s="212"/>
+      <c r="O89" s="212"/>
+      <c r="P89" s="212"/>
+      <c r="Q89" s="212"/>
+      <c r="R89" s="212"/>
+      <c r="S89" s="226"/>
+      <c r="T89" s="226"/>
       <c r="U89" s="48"/>
       <c r="V89" s="48"/>
       <c r="W89" s="48"/>
@@ -15602,21 +15607,21 @@
       <c r="AQ89" s="48"/>
       <c r="AR89" s="48"/>
       <c r="AS89" s="48"/>
-      <c r="AT89" s="149"/>
+      <c r="AT89" s="146"/>
       <c r="AU89" s="71"/>
       <c r="AV89" s="71"/>
       <c r="AW89" s="48"/>
       <c r="AX89" s="48"/>
       <c r="AY89" s="48"/>
       <c r="AZ89" s="48"/>
-      <c r="BA89" s="149"/>
+      <c r="BA89" s="146"/>
       <c r="BB89" s="71"/>
       <c r="BC89" s="71"/>
       <c r="BD89" s="48"/>
       <c r="BE89" s="48"/>
       <c r="BF89" s="48"/>
       <c r="BG89" s="48"/>
-      <c r="BH89" s="149"/>
+      <c r="BH89" s="146"/>
       <c r="BI89" s="71"/>
       <c r="BJ89" s="71"/>
       <c r="BK89" s="48"/>
@@ -15674,25 +15679,25 @@
       <c r="DK89" s="52"/>
     </row>
     <row r="90" spans="2:116">
-      <c r="B90" s="283"/>
-      <c r="C90" s="293"/>
+      <c r="B90" s="277"/>
+      <c r="C90" s="281"/>
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
       <c r="F90" s="75"/>
-      <c r="G90" s="242"/>
-      <c r="H90" s="215"/>
-      <c r="I90" s="215"/>
-      <c r="J90" s="215"/>
-      <c r="K90" s="215"/>
-      <c r="L90" s="229"/>
-      <c r="M90" s="229"/>
-      <c r="N90" s="215"/>
-      <c r="O90" s="215"/>
-      <c r="P90" s="215"/>
-      <c r="Q90" s="48"/>
-      <c r="R90" s="48"/>
-      <c r="S90" s="71"/>
-      <c r="T90" s="71"/>
+      <c r="G90" s="239"/>
+      <c r="H90" s="212"/>
+      <c r="I90" s="212"/>
+      <c r="J90" s="212"/>
+      <c r="K90" s="212"/>
+      <c r="L90" s="226"/>
+      <c r="M90" s="226"/>
+      <c r="N90" s="212"/>
+      <c r="O90" s="212"/>
+      <c r="P90" s="212"/>
+      <c r="Q90" s="212"/>
+      <c r="R90" s="212"/>
+      <c r="S90" s="226"/>
+      <c r="T90" s="226"/>
       <c r="U90" s="48"/>
       <c r="V90" s="48"/>
       <c r="W90" s="48"/>
@@ -15718,21 +15723,21 @@
       <c r="AQ90" s="48"/>
       <c r="AR90" s="48"/>
       <c r="AS90" s="48"/>
-      <c r="AT90" s="149"/>
+      <c r="AT90" s="146"/>
       <c r="AU90" s="71"/>
       <c r="AV90" s="71"/>
       <c r="AW90" s="48"/>
       <c r="AX90" s="48"/>
       <c r="AY90" s="48"/>
       <c r="AZ90" s="48"/>
-      <c r="BA90" s="149"/>
+      <c r="BA90" s="146"/>
       <c r="BB90" s="71"/>
       <c r="BC90" s="71"/>
       <c r="BD90" s="48"/>
       <c r="BE90" s="48"/>
       <c r="BF90" s="48"/>
       <c r="BG90" s="48"/>
-      <c r="BH90" s="149"/>
+      <c r="BH90" s="146"/>
       <c r="BI90" s="71"/>
       <c r="BJ90" s="71"/>
       <c r="BK90" s="48"/>
@@ -15790,25 +15795,25 @@
       <c r="DK90" s="52"/>
     </row>
     <row r="91" spans="2:116">
-      <c r="B91" s="283"/>
-      <c r="C91" s="293"/>
+      <c r="B91" s="277"/>
+      <c r="C91" s="281"/>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
       <c r="F91" s="75"/>
-      <c r="G91" s="242"/>
-      <c r="H91" s="215"/>
-      <c r="I91" s="215"/>
-      <c r="J91" s="215"/>
-      <c r="K91" s="215"/>
-      <c r="L91" s="229"/>
-      <c r="M91" s="229"/>
-      <c r="N91" s="215"/>
-      <c r="O91" s="215"/>
-      <c r="P91" s="215"/>
-      <c r="Q91" s="48"/>
-      <c r="R91" s="48"/>
-      <c r="S91" s="71"/>
-      <c r="T91" s="71"/>
+      <c r="G91" s="239"/>
+      <c r="H91" s="212"/>
+      <c r="I91" s="212"/>
+      <c r="J91" s="212"/>
+      <c r="K91" s="212"/>
+      <c r="L91" s="226"/>
+      <c r="M91" s="226"/>
+      <c r="N91" s="212"/>
+      <c r="O91" s="212"/>
+      <c r="P91" s="212"/>
+      <c r="Q91" s="212"/>
+      <c r="R91" s="212"/>
+      <c r="S91" s="226"/>
+      <c r="T91" s="226"/>
       <c r="U91" s="48"/>
       <c r="V91" s="48"/>
       <c r="W91" s="48"/>
@@ -15834,21 +15839,21 @@
       <c r="AQ91" s="48"/>
       <c r="AR91" s="48"/>
       <c r="AS91" s="48"/>
-      <c r="AT91" s="149"/>
+      <c r="AT91" s="146"/>
       <c r="AU91" s="71"/>
       <c r="AV91" s="71"/>
       <c r="AW91" s="48"/>
       <c r="AX91" s="48"/>
       <c r="AY91" s="48"/>
       <c r="AZ91" s="48"/>
-      <c r="BA91" s="149"/>
+      <c r="BA91" s="146"/>
       <c r="BB91" s="71"/>
       <c r="BC91" s="71"/>
       <c r="BD91" s="48"/>
       <c r="BE91" s="48"/>
       <c r="BF91" s="48"/>
       <c r="BG91" s="48"/>
-      <c r="BH91" s="149"/>
+      <c r="BH91" s="146"/>
       <c r="BI91" s="71"/>
       <c r="BJ91" s="71"/>
       <c r="BK91" s="48"/>
@@ -15906,25 +15911,25 @@
       <c r="DK91" s="52"/>
     </row>
     <row r="92" spans="2:116">
-      <c r="B92" s="283"/>
-      <c r="C92" s="293"/>
+      <c r="B92" s="277"/>
+      <c r="C92" s="281"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="75"/>
-      <c r="G92" s="242"/>
-      <c r="H92" s="215"/>
-      <c r="I92" s="215"/>
-      <c r="J92" s="215"/>
-      <c r="K92" s="215"/>
-      <c r="L92" s="229"/>
-      <c r="M92" s="229"/>
-      <c r="N92" s="215"/>
-      <c r="O92" s="215"/>
-      <c r="P92" s="215"/>
-      <c r="Q92" s="48"/>
-      <c r="R92" s="48"/>
-      <c r="S92" s="71"/>
-      <c r="T92" s="71"/>
+      <c r="G92" s="239"/>
+      <c r="H92" s="212"/>
+      <c r="I92" s="212"/>
+      <c r="J92" s="212"/>
+      <c r="K92" s="212"/>
+      <c r="L92" s="226"/>
+      <c r="M92" s="226"/>
+      <c r="N92" s="212"/>
+      <c r="O92" s="212"/>
+      <c r="P92" s="212"/>
+      <c r="Q92" s="212"/>
+      <c r="R92" s="212"/>
+      <c r="S92" s="226"/>
+      <c r="T92" s="226"/>
       <c r="U92" s="48"/>
       <c r="V92" s="48"/>
       <c r="W92" s="48"/>
@@ -15950,21 +15955,21 @@
       <c r="AQ92" s="48"/>
       <c r="AR92" s="48"/>
       <c r="AS92" s="48"/>
-      <c r="AT92" s="149"/>
+      <c r="AT92" s="146"/>
       <c r="AU92" s="71"/>
       <c r="AV92" s="71"/>
       <c r="AW92" s="48"/>
       <c r="AX92" s="48"/>
       <c r="AY92" s="48"/>
       <c r="AZ92" s="48"/>
-      <c r="BA92" s="149"/>
+      <c r="BA92" s="146"/>
       <c r="BB92" s="71"/>
       <c r="BC92" s="71"/>
       <c r="BD92" s="48"/>
       <c r="BE92" s="48"/>
       <c r="BF92" s="48"/>
       <c r="BG92" s="48"/>
-      <c r="BH92" s="149"/>
+      <c r="BH92" s="146"/>
       <c r="BI92" s="71"/>
       <c r="BJ92" s="71"/>
       <c r="BK92" s="48"/>
@@ -16022,25 +16027,25 @@
       <c r="DK92" s="52"/>
     </row>
     <row r="93" spans="2:116">
-      <c r="B93" s="283"/>
-      <c r="C93" s="289"/>
+      <c r="B93" s="277"/>
+      <c r="C93" s="283"/>
       <c r="D93" s="10"/>
       <c r="E93" s="11"/>
       <c r="F93" s="78"/>
-      <c r="G93" s="241"/>
-      <c r="H93" s="231"/>
-      <c r="I93" s="231"/>
-      <c r="J93" s="231"/>
-      <c r="K93" s="231"/>
-      <c r="L93" s="233"/>
-      <c r="M93" s="233"/>
-      <c r="N93" s="231"/>
-      <c r="O93" s="231"/>
-      <c r="P93" s="231"/>
-      <c r="Q93" s="57"/>
-      <c r="R93" s="57"/>
-      <c r="S93" s="73"/>
-      <c r="T93" s="73"/>
+      <c r="G93" s="238"/>
+      <c r="H93" s="228"/>
+      <c r="I93" s="228"/>
+      <c r="J93" s="228"/>
+      <c r="K93" s="228"/>
+      <c r="L93" s="230"/>
+      <c r="M93" s="230"/>
+      <c r="N93" s="228"/>
+      <c r="O93" s="228"/>
+      <c r="P93" s="228"/>
+      <c r="Q93" s="228"/>
+      <c r="R93" s="228"/>
+      <c r="S93" s="230"/>
+      <c r="T93" s="230"/>
       <c r="U93" s="57"/>
       <c r="V93" s="57"/>
       <c r="W93" s="57"/>
@@ -16066,21 +16071,21 @@
       <c r="AQ93" s="57"/>
       <c r="AR93" s="57"/>
       <c r="AS93" s="57"/>
-      <c r="AT93" s="151"/>
+      <c r="AT93" s="148"/>
       <c r="AU93" s="73"/>
       <c r="AV93" s="73"/>
       <c r="AW93" s="57"/>
       <c r="AX93" s="57"/>
       <c r="AY93" s="57"/>
       <c r="AZ93" s="57"/>
-      <c r="BA93" s="151"/>
+      <c r="BA93" s="148"/>
       <c r="BB93" s="73"/>
       <c r="BC93" s="73"/>
       <c r="BD93" s="57"/>
       <c r="BE93" s="57"/>
       <c r="BF93" s="57"/>
       <c r="BG93" s="57"/>
-      <c r="BH93" s="151"/>
+      <c r="BH93" s="148"/>
       <c r="BI93" s="73"/>
       <c r="BJ93" s="73"/>
       <c r="BK93" s="57"/>
@@ -16138,25 +16143,25 @@
       <c r="DK93" s="61"/>
     </row>
     <row r="94" spans="2:116">
-      <c r="B94" s="283"/>
-      <c r="C94" s="294"/>
+      <c r="B94" s="277"/>
+      <c r="C94" s="282"/>
       <c r="D94" s="8"/>
       <c r="E94" s="9"/>
       <c r="F94" s="77"/>
-      <c r="G94" s="242"/>
-      <c r="H94" s="215"/>
-      <c r="I94" s="215"/>
-      <c r="J94" s="215"/>
-      <c r="K94" s="215"/>
-      <c r="L94" s="229"/>
-      <c r="M94" s="229"/>
-      <c r="N94" s="215"/>
-      <c r="O94" s="215"/>
-      <c r="P94" s="215"/>
-      <c r="Q94" s="48"/>
-      <c r="R94" s="48"/>
-      <c r="S94" s="71"/>
-      <c r="T94" s="71"/>
+      <c r="G94" s="239"/>
+      <c r="H94" s="212"/>
+      <c r="I94" s="212"/>
+      <c r="J94" s="212"/>
+      <c r="K94" s="212"/>
+      <c r="L94" s="226"/>
+      <c r="M94" s="226"/>
+      <c r="N94" s="212"/>
+      <c r="O94" s="212"/>
+      <c r="P94" s="212"/>
+      <c r="Q94" s="212"/>
+      <c r="R94" s="212"/>
+      <c r="S94" s="226"/>
+      <c r="T94" s="226"/>
       <c r="U94" s="48"/>
       <c r="V94" s="48"/>
       <c r="W94" s="48"/>
@@ -16182,21 +16187,21 @@
       <c r="AQ94" s="48"/>
       <c r="AR94" s="48"/>
       <c r="AS94" s="48"/>
-      <c r="AT94" s="149"/>
+      <c r="AT94" s="146"/>
       <c r="AU94" s="71"/>
       <c r="AV94" s="71"/>
       <c r="AW94" s="48"/>
       <c r="AX94" s="48"/>
       <c r="AY94" s="48"/>
       <c r="AZ94" s="48"/>
-      <c r="BA94" s="149"/>
+      <c r="BA94" s="146"/>
       <c r="BB94" s="71"/>
       <c r="BC94" s="71"/>
       <c r="BD94" s="48"/>
       <c r="BE94" s="48"/>
       <c r="BF94" s="48"/>
       <c r="BG94" s="48"/>
-      <c r="BH94" s="149"/>
+      <c r="BH94" s="146"/>
       <c r="BI94" s="71"/>
       <c r="BJ94" s="71"/>
       <c r="BK94" s="48"/>
@@ -16255,25 +16260,25 @@
       <c r="DL94" s="7"/>
     </row>
     <row r="95" spans="2:116">
-      <c r="B95" s="283"/>
-      <c r="C95" s="293"/>
+      <c r="B95" s="277"/>
+      <c r="C95" s="281"/>
       <c r="D95" s="15"/>
       <c r="E95" s="22"/>
       <c r="F95" s="81"/>
-      <c r="G95" s="242"/>
-      <c r="H95" s="215"/>
-      <c r="I95" s="215"/>
-      <c r="J95" s="215"/>
-      <c r="K95" s="215"/>
-      <c r="L95" s="229"/>
-      <c r="M95" s="229"/>
-      <c r="N95" s="215"/>
-      <c r="O95" s="215"/>
-      <c r="P95" s="215"/>
-      <c r="Q95" s="48"/>
-      <c r="R95" s="48"/>
-      <c r="S95" s="71"/>
-      <c r="T95" s="71"/>
+      <c r="G95" s="239"/>
+      <c r="H95" s="212"/>
+      <c r="I95" s="212"/>
+      <c r="J95" s="212"/>
+      <c r="K95" s="212"/>
+      <c r="L95" s="226"/>
+      <c r="M95" s="226"/>
+      <c r="N95" s="212"/>
+      <c r="O95" s="212"/>
+      <c r="P95" s="212"/>
+      <c r="Q95" s="212"/>
+      <c r="R95" s="212"/>
+      <c r="S95" s="226"/>
+      <c r="T95" s="226"/>
       <c r="U95" s="48"/>
       <c r="V95" s="48"/>
       <c r="W95" s="48"/>
@@ -16299,21 +16304,21 @@
       <c r="AQ95" s="48"/>
       <c r="AR95" s="48"/>
       <c r="AS95" s="48"/>
-      <c r="AT95" s="149"/>
+      <c r="AT95" s="146"/>
       <c r="AU95" s="71"/>
       <c r="AV95" s="71"/>
       <c r="AW95" s="48"/>
       <c r="AX95" s="48"/>
       <c r="AY95" s="48"/>
       <c r="AZ95" s="48"/>
-      <c r="BA95" s="149"/>
+      <c r="BA95" s="146"/>
       <c r="BB95" s="71"/>
       <c r="BC95" s="71"/>
       <c r="BD95" s="48"/>
       <c r="BE95" s="48"/>
       <c r="BF95" s="48"/>
       <c r="BG95" s="48"/>
-      <c r="BH95" s="149"/>
+      <c r="BH95" s="146"/>
       <c r="BI95" s="71"/>
       <c r="BJ95" s="71"/>
       <c r="BK95" s="48"/>
@@ -16372,25 +16377,25 @@
       <c r="DL95" s="7"/>
     </row>
     <row r="96" spans="2:116">
-      <c r="B96" s="283"/>
-      <c r="C96" s="293"/>
+      <c r="B96" s="277"/>
+      <c r="C96" s="281"/>
       <c r="D96" s="15"/>
       <c r="E96" s="22"/>
       <c r="F96" s="81"/>
-      <c r="G96" s="242"/>
-      <c r="H96" s="215"/>
-      <c r="I96" s="215"/>
-      <c r="J96" s="215"/>
-      <c r="K96" s="215"/>
-      <c r="L96" s="229"/>
-      <c r="M96" s="229"/>
-      <c r="N96" s="215"/>
-      <c r="O96" s="215"/>
-      <c r="P96" s="215"/>
-      <c r="Q96" s="48"/>
-      <c r="R96" s="48"/>
-      <c r="S96" s="71"/>
-      <c r="T96" s="71"/>
+      <c r="G96" s="239"/>
+      <c r="H96" s="212"/>
+      <c r="I96" s="212"/>
+      <c r="J96" s="212"/>
+      <c r="K96" s="212"/>
+      <c r="L96" s="226"/>
+      <c r="M96" s="226"/>
+      <c r="N96" s="212"/>
+      <c r="O96" s="212"/>
+      <c r="P96" s="212"/>
+      <c r="Q96" s="212"/>
+      <c r="R96" s="212"/>
+      <c r="S96" s="226"/>
+      <c r="T96" s="226"/>
       <c r="U96" s="48"/>
       <c r="V96" s="48"/>
       <c r="W96" s="48"/>
@@ -16416,21 +16421,21 @@
       <c r="AQ96" s="48"/>
       <c r="AR96" s="48"/>
       <c r="AS96" s="48"/>
-      <c r="AT96" s="149"/>
+      <c r="AT96" s="146"/>
       <c r="AU96" s="71"/>
       <c r="AV96" s="71"/>
       <c r="AW96" s="48"/>
       <c r="AX96" s="48"/>
       <c r="AY96" s="48"/>
       <c r="AZ96" s="48"/>
-      <c r="BA96" s="149"/>
+      <c r="BA96" s="146"/>
       <c r="BB96" s="71"/>
       <c r="BC96" s="71"/>
       <c r="BD96" s="48"/>
       <c r="BE96" s="48"/>
       <c r="BF96" s="48"/>
       <c r="BG96" s="48"/>
-      <c r="BH96" s="149"/>
+      <c r="BH96" s="146"/>
       <c r="BI96" s="71"/>
       <c r="BJ96" s="71"/>
       <c r="BK96" s="48"/>
@@ -16489,25 +16494,25 @@
       <c r="DL96" s="7"/>
     </row>
     <row r="97" spans="2:116">
-      <c r="B97" s="283"/>
-      <c r="C97" s="289"/>
+      <c r="B97" s="277"/>
+      <c r="C97" s="283"/>
       <c r="D97" s="16"/>
       <c r="E97" s="24"/>
       <c r="F97" s="83"/>
-      <c r="G97" s="242"/>
-      <c r="H97" s="215"/>
-      <c r="I97" s="215"/>
-      <c r="J97" s="215"/>
-      <c r="K97" s="215"/>
-      <c r="L97" s="229"/>
-      <c r="M97" s="229"/>
-      <c r="N97" s="215"/>
-      <c r="O97" s="215"/>
-      <c r="P97" s="215"/>
-      <c r="Q97" s="48"/>
-      <c r="R97" s="48"/>
-      <c r="S97" s="71"/>
-      <c r="T97" s="71"/>
+      <c r="G97" s="239"/>
+      <c r="H97" s="212"/>
+      <c r="I97" s="212"/>
+      <c r="J97" s="212"/>
+      <c r="K97" s="212"/>
+      <c r="L97" s="226"/>
+      <c r="M97" s="226"/>
+      <c r="N97" s="212"/>
+      <c r="O97" s="212"/>
+      <c r="P97" s="212"/>
+      <c r="Q97" s="212"/>
+      <c r="R97" s="212"/>
+      <c r="S97" s="226"/>
+      <c r="T97" s="226"/>
       <c r="U97" s="48"/>
       <c r="V97" s="48"/>
       <c r="W97" s="48"/>
@@ -16533,21 +16538,21 @@
       <c r="AQ97" s="48"/>
       <c r="AR97" s="48"/>
       <c r="AS97" s="48"/>
-      <c r="AT97" s="149"/>
+      <c r="AT97" s="146"/>
       <c r="AU97" s="71"/>
       <c r="AV97" s="71"/>
       <c r="AW97" s="48"/>
       <c r="AX97" s="48"/>
       <c r="AY97" s="48"/>
       <c r="AZ97" s="48"/>
-      <c r="BA97" s="149"/>
+      <c r="BA97" s="146"/>
       <c r="BB97" s="71"/>
       <c r="BC97" s="71"/>
       <c r="BD97" s="48"/>
       <c r="BE97" s="48"/>
       <c r="BF97" s="48"/>
       <c r="BG97" s="48"/>
-      <c r="BH97" s="149"/>
+      <c r="BH97" s="146"/>
       <c r="BI97" s="71"/>
       <c r="BJ97" s="71"/>
       <c r="BK97" s="48"/>
@@ -16606,25 +16611,25 @@
       <c r="DL97" s="7"/>
     </row>
     <row r="98" spans="2:116">
-      <c r="B98" s="283"/>
-      <c r="C98" s="281"/>
+      <c r="B98" s="277"/>
+      <c r="C98" s="284"/>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
       <c r="F98" s="75"/>
-      <c r="G98" s="246"/>
-      <c r="H98" s="226"/>
-      <c r="I98" s="226"/>
-      <c r="J98" s="226"/>
-      <c r="K98" s="226"/>
-      <c r="L98" s="228"/>
-      <c r="M98" s="228"/>
-      <c r="N98" s="226"/>
-      <c r="O98" s="226"/>
-      <c r="P98" s="226"/>
-      <c r="Q98" s="62"/>
-      <c r="R98" s="62"/>
-      <c r="S98" s="72"/>
-      <c r="T98" s="72"/>
+      <c r="G98" s="243"/>
+      <c r="H98" s="223"/>
+      <c r="I98" s="223"/>
+      <c r="J98" s="223"/>
+      <c r="K98" s="223"/>
+      <c r="L98" s="225"/>
+      <c r="M98" s="225"/>
+      <c r="N98" s="223"/>
+      <c r="O98" s="223"/>
+      <c r="P98" s="223"/>
+      <c r="Q98" s="223"/>
+      <c r="R98" s="223"/>
+      <c r="S98" s="225"/>
+      <c r="T98" s="225"/>
       <c r="U98" s="62"/>
       <c r="V98" s="62"/>
       <c r="W98" s="62"/>
@@ -16650,21 +16655,21 @@
       <c r="AQ98" s="62"/>
       <c r="AR98" s="62"/>
       <c r="AS98" s="62"/>
-      <c r="AT98" s="150"/>
+      <c r="AT98" s="147"/>
       <c r="AU98" s="72"/>
       <c r="AV98" s="72"/>
       <c r="AW98" s="62"/>
       <c r="AX98" s="62"/>
       <c r="AY98" s="62"/>
       <c r="AZ98" s="62"/>
-      <c r="BA98" s="150"/>
+      <c r="BA98" s="147"/>
       <c r="BB98" s="72"/>
       <c r="BC98" s="72"/>
       <c r="BD98" s="62"/>
       <c r="BE98" s="62"/>
       <c r="BF98" s="62"/>
       <c r="BG98" s="62"/>
-      <c r="BH98" s="150"/>
+      <c r="BH98" s="147"/>
       <c r="BI98" s="72"/>
       <c r="BJ98" s="72"/>
       <c r="BK98" s="62"/>
@@ -16722,25 +16727,25 @@
       <c r="DK98" s="67"/>
     </row>
     <row r="99" spans="2:116">
-      <c r="B99" s="283"/>
-      <c r="C99" s="281"/>
+      <c r="B99" s="277"/>
+      <c r="C99" s="284"/>
       <c r="D99" s="15"/>
       <c r="E99" s="6"/>
       <c r="F99" s="75"/>
-      <c r="G99" s="242"/>
-      <c r="H99" s="215"/>
-      <c r="I99" s="215"/>
-      <c r="J99" s="215"/>
-      <c r="K99" s="215"/>
-      <c r="L99" s="229"/>
-      <c r="M99" s="229"/>
-      <c r="N99" s="215"/>
-      <c r="O99" s="215"/>
-      <c r="P99" s="215"/>
-      <c r="Q99" s="48"/>
-      <c r="R99" s="48"/>
-      <c r="S99" s="71"/>
-      <c r="T99" s="71"/>
+      <c r="G99" s="239"/>
+      <c r="H99" s="212"/>
+      <c r="I99" s="212"/>
+      <c r="J99" s="212"/>
+      <c r="K99" s="212"/>
+      <c r="L99" s="226"/>
+      <c r="M99" s="226"/>
+      <c r="N99" s="212"/>
+      <c r="O99" s="212"/>
+      <c r="P99" s="212"/>
+      <c r="Q99" s="212"/>
+      <c r="R99" s="212"/>
+      <c r="S99" s="226"/>
+      <c r="T99" s="226"/>
       <c r="U99" s="48"/>
       <c r="V99" s="48"/>
       <c r="W99" s="48"/>
@@ -16766,21 +16771,21 @@
       <c r="AQ99" s="48"/>
       <c r="AR99" s="48"/>
       <c r="AS99" s="48"/>
-      <c r="AT99" s="149"/>
+      <c r="AT99" s="146"/>
       <c r="AU99" s="71"/>
       <c r="AV99" s="71"/>
       <c r="AW99" s="48"/>
       <c r="AX99" s="48"/>
       <c r="AY99" s="48"/>
       <c r="AZ99" s="48"/>
-      <c r="BA99" s="149"/>
+      <c r="BA99" s="146"/>
       <c r="BB99" s="71"/>
       <c r="BC99" s="71"/>
       <c r="BD99" s="48"/>
       <c r="BE99" s="48"/>
       <c r="BF99" s="48"/>
       <c r="BG99" s="48"/>
-      <c r="BH99" s="149"/>
+      <c r="BH99" s="146"/>
       <c r="BI99" s="71"/>
       <c r="BJ99" s="71"/>
       <c r="BK99" s="48"/>
@@ -16838,25 +16843,25 @@
       <c r="DK99" s="52"/>
     </row>
     <row r="100" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B100" s="291"/>
-      <c r="C100" s="295"/>
+      <c r="B100" s="279"/>
+      <c r="C100" s="285"/>
       <c r="D100" s="27"/>
       <c r="E100" s="28"/>
       <c r="F100" s="85"/>
-      <c r="G100" s="247"/>
-      <c r="H100" s="248"/>
-      <c r="I100" s="248"/>
-      <c r="J100" s="248"/>
-      <c r="K100" s="248"/>
-      <c r="L100" s="249"/>
-      <c r="M100" s="249"/>
-      <c r="N100" s="248"/>
-      <c r="O100" s="248"/>
-      <c r="P100" s="248"/>
-      <c r="Q100" s="86"/>
-      <c r="R100" s="86"/>
-      <c r="S100" s="87"/>
-      <c r="T100" s="87"/>
+      <c r="G100" s="244"/>
+      <c r="H100" s="245"/>
+      <c r="I100" s="245"/>
+      <c r="J100" s="245"/>
+      <c r="K100" s="245"/>
+      <c r="L100" s="246"/>
+      <c r="M100" s="246"/>
+      <c r="N100" s="245"/>
+      <c r="O100" s="245"/>
+      <c r="P100" s="245"/>
+      <c r="Q100" s="245"/>
+      <c r="R100" s="245"/>
+      <c r="S100" s="246"/>
+      <c r="T100" s="246"/>
       <c r="U100" s="86"/>
       <c r="V100" s="86"/>
       <c r="W100" s="86"/>
@@ -16882,21 +16887,21 @@
       <c r="AQ100" s="86"/>
       <c r="AR100" s="86"/>
       <c r="AS100" s="86"/>
-      <c r="AT100" s="156"/>
+      <c r="AT100" s="153"/>
       <c r="AU100" s="87"/>
       <c r="AV100" s="87"/>
       <c r="AW100" s="86"/>
       <c r="AX100" s="86"/>
       <c r="AY100" s="86"/>
       <c r="AZ100" s="86"/>
-      <c r="BA100" s="156"/>
+      <c r="BA100" s="153"/>
       <c r="BB100" s="87"/>
       <c r="BC100" s="87"/>
       <c r="BD100" s="86"/>
       <c r="BE100" s="86"/>
       <c r="BF100" s="86"/>
       <c r="BG100" s="86"/>
-      <c r="BH100" s="156"/>
+      <c r="BH100" s="153"/>
       <c r="BI100" s="87"/>
       <c r="BJ100" s="87"/>
       <c r="BK100" s="86"/>
@@ -16956,6 +16961,13 @@
     <row r="101" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="B20:B60"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C45"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="C58:C60"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B83:B100"/>
     <mergeCell ref="C83:C87"/>
@@ -16972,13 +16984,6 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="B61:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="B20:B60"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C45"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="C58:C60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="9405"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>모듈</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -610,6 +610,10 @@
     <t>이윤영</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>DB table 디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2521,7 +2525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="302">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2819,9 +2823,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3353,10 +3354,49 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="82" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="62" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="60" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3371,18 +3411,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3392,9 +3423,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3403,33 +3431,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="82" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="62" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="60" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5026,10 +5027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:DL101"/>
+  <dimension ref="B3:XFD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="AA71" sqref="AA71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5038,17 +5039,17 @@
     <col min="2" max="2" width="17.125" style="12" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="9" style="173"/>
+    <col min="5" max="5" width="9" style="172"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="18" width="2.625" style="181" customWidth="1"/>
-    <col min="19" max="19" width="2.5" style="181" customWidth="1"/>
-    <col min="20" max="20" width="2.625" style="181" customWidth="1"/>
+    <col min="7" max="18" width="2.625" style="180" customWidth="1"/>
+    <col min="19" max="19" width="2.5" style="180" customWidth="1"/>
+    <col min="20" max="20" width="2.625" style="180" customWidth="1"/>
     <col min="21" max="45" width="2.625" customWidth="1"/>
-    <col min="46" max="46" width="2.625" style="138" customWidth="1"/>
+    <col min="46" max="46" width="2.625" style="137" customWidth="1"/>
     <col min="47" max="52" width="2.625" customWidth="1"/>
-    <col min="53" max="53" width="2.625" style="138" customWidth="1"/>
+    <col min="53" max="53" width="2.625" style="137" customWidth="1"/>
     <col min="54" max="59" width="2.625" customWidth="1"/>
-    <col min="60" max="60" width="2.625" style="138" customWidth="1"/>
+    <col min="60" max="60" width="2.625" style="137" customWidth="1"/>
     <col min="61" max="120" width="2.625" customWidth="1"/>
     <col min="256" max="256" width="3.25" customWidth="1"/>
     <col min="257" max="257" width="17.125" customWidth="1"/>
@@ -5620,7 +5621,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:115" ht="26.25">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="103" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5628,7 +5629,7 @@
       </c>
     </row>
     <row r="5" spans="2:115" ht="18" thickBot="1">
-      <c r="G5" s="182" t="s">
+      <c r="G5" s="181" t="s">
         <v>24</v>
       </c>
       <c r="X5" s="92" t="s">
@@ -5642,359 +5643,359 @@
       </c>
     </row>
     <row r="6" spans="2:115" ht="18" thickTop="1" thickBot="1">
-      <c r="C6" s="100"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="183">
+      <c r="C6" s="99"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="182">
         <v>14</v>
       </c>
-      <c r="H6" s="184">
+      <c r="H6" s="183">
         <v>15</v>
       </c>
-      <c r="I6" s="184">
+      <c r="I6" s="183">
         <v>16</v>
       </c>
-      <c r="J6" s="184">
+      <c r="J6" s="183">
         <v>17</v>
       </c>
-      <c r="K6" s="184">
+      <c r="K6" s="183">
         <v>18</v>
       </c>
-      <c r="L6" s="184">
+      <c r="L6" s="183">
         <v>19</v>
       </c>
-      <c r="M6" s="184">
+      <c r="M6" s="183">
         <v>20</v>
       </c>
-      <c r="N6" s="184">
+      <c r="N6" s="183">
         <v>21</v>
       </c>
-      <c r="O6" s="184">
+      <c r="O6" s="183">
         <v>22</v>
       </c>
-      <c r="P6" s="184">
+      <c r="P6" s="183">
         <v>23</v>
       </c>
-      <c r="Q6" s="184">
+      <c r="Q6" s="183">
         <v>24</v>
       </c>
-      <c r="R6" s="184">
+      <c r="R6" s="183">
         <v>25</v>
       </c>
-      <c r="S6" s="184">
+      <c r="S6" s="183">
         <v>26</v>
       </c>
-      <c r="T6" s="184">
+      <c r="T6" s="183">
         <v>27</v>
       </c>
-      <c r="U6" s="103">
+      <c r="U6" s="102">
         <v>28</v>
       </c>
-      <c r="V6" s="103">
+      <c r="V6" s="102">
         <v>29</v>
       </c>
-      <c r="W6" s="103">
+      <c r="W6" s="102">
         <v>30</v>
       </c>
-      <c r="X6" s="103">
+      <c r="X6" s="102">
         <v>1</v>
       </c>
-      <c r="Y6" s="103">
+      <c r="Y6" s="102">
         <v>2</v>
       </c>
-      <c r="Z6" s="103">
+      <c r="Z6" s="102">
         <v>3</v>
       </c>
-      <c r="AA6" s="103">
+      <c r="AA6" s="102">
         <v>4</v>
       </c>
-      <c r="AB6" s="103">
+      <c r="AB6" s="102">
         <v>5</v>
       </c>
-      <c r="AC6" s="103">
+      <c r="AC6" s="102">
         <v>6</v>
       </c>
-      <c r="AD6" s="103">
+      <c r="AD6" s="102">
         <v>7</v>
       </c>
-      <c r="AE6" s="103">
+      <c r="AE6" s="102">
         <v>8</v>
       </c>
-      <c r="AF6" s="103">
+      <c r="AF6" s="102">
         <v>9</v>
       </c>
-      <c r="AG6" s="103">
+      <c r="AG6" s="102">
         <v>10</v>
       </c>
-      <c r="AH6" s="103">
+      <c r="AH6" s="102">
         <v>11</v>
       </c>
-      <c r="AI6" s="103">
+      <c r="AI6" s="102">
         <v>12</v>
       </c>
-      <c r="AJ6" s="103">
+      <c r="AJ6" s="102">
         <v>13</v>
       </c>
-      <c r="AK6" s="103">
+      <c r="AK6" s="102">
         <v>14</v>
       </c>
-      <c r="AL6" s="252">
+      <c r="AL6" s="251">
         <v>15</v>
       </c>
-      <c r="AM6" s="251">
+      <c r="AM6" s="250">
         <v>16</v>
       </c>
-      <c r="AN6" s="103">
+      <c r="AN6" s="102">
         <v>17</v>
       </c>
-      <c r="AO6" s="103">
+      <c r="AO6" s="102">
         <v>18</v>
       </c>
-      <c r="AP6" s="103">
+      <c r="AP6" s="102">
         <v>19</v>
       </c>
-      <c r="AQ6" s="103">
+      <c r="AQ6" s="102">
         <v>20</v>
       </c>
-      <c r="AR6" s="103">
+      <c r="AR6" s="102">
         <v>21</v>
       </c>
-      <c r="AS6" s="103">
+      <c r="AS6" s="102">
         <v>22</v>
       </c>
-      <c r="AT6" s="155">
+      <c r="AT6" s="154">
         <v>23</v>
       </c>
-      <c r="AU6" s="103">
+      <c r="AU6" s="102">
         <v>24</v>
       </c>
-      <c r="AV6" s="103">
+      <c r="AV6" s="102">
         <v>25</v>
       </c>
-      <c r="AW6" s="103">
+      <c r="AW6" s="102">
         <v>26</v>
       </c>
-      <c r="AX6" s="103">
+      <c r="AX6" s="102">
         <v>27</v>
       </c>
-      <c r="AY6" s="103">
+      <c r="AY6" s="102">
         <v>28</v>
       </c>
-      <c r="AZ6" s="103">
+      <c r="AZ6" s="102">
         <v>29</v>
       </c>
-      <c r="BA6" s="155">
+      <c r="BA6" s="154">
         <v>23</v>
       </c>
-      <c r="BB6" s="103">
+      <c r="BB6" s="102">
         <v>31</v>
       </c>
-      <c r="BC6" s="103">
+      <c r="BC6" s="102">
         <v>1</v>
       </c>
-      <c r="BD6" s="103">
+      <c r="BD6" s="102">
         <v>2</v>
       </c>
-      <c r="BE6" s="103">
+      <c r="BE6" s="102">
         <v>3</v>
       </c>
-      <c r="BF6" s="103">
+      <c r="BF6" s="102">
         <v>4</v>
       </c>
-      <c r="BG6" s="103">
+      <c r="BG6" s="102">
         <v>5</v>
       </c>
-      <c r="BH6" s="155">
+      <c r="BH6" s="154">
         <v>6</v>
       </c>
-      <c r="BI6" s="103">
+      <c r="BI6" s="102">
         <v>7</v>
       </c>
-      <c r="BJ6" s="103">
+      <c r="BJ6" s="102">
         <v>8</v>
       </c>
-      <c r="BK6" s="103">
+      <c r="BK6" s="102">
         <v>9</v>
       </c>
-      <c r="BL6" s="103">
+      <c r="BL6" s="102">
         <v>10</v>
       </c>
-      <c r="BM6" s="103">
+      <c r="BM6" s="102">
         <v>11</v>
       </c>
-      <c r="BN6" s="103">
+      <c r="BN6" s="102">
         <v>12</v>
       </c>
-      <c r="BO6" s="103">
+      <c r="BO6" s="102">
         <v>13</v>
       </c>
-      <c r="BP6" s="103">
+      <c r="BP6" s="102">
         <v>14</v>
       </c>
-      <c r="BQ6" s="103">
+      <c r="BQ6" s="102">
         <v>15</v>
       </c>
-      <c r="BR6" s="103">
+      <c r="BR6" s="102">
         <v>16</v>
       </c>
-      <c r="BS6" s="103">
+      <c r="BS6" s="102">
         <v>17</v>
       </c>
-      <c r="BT6" s="103">
+      <c r="BT6" s="102">
         <v>18</v>
       </c>
-      <c r="BU6" s="103">
+      <c r="BU6" s="102">
         <v>19</v>
       </c>
-      <c r="BV6" s="103">
+      <c r="BV6" s="102">
         <v>20</v>
       </c>
-      <c r="BW6" s="103">
+      <c r="BW6" s="102">
         <v>21</v>
       </c>
-      <c r="BX6" s="103">
+      <c r="BX6" s="102">
         <v>22</v>
       </c>
-      <c r="BY6" s="103">
+      <c r="BY6" s="102">
         <v>23</v>
       </c>
-      <c r="BZ6" s="103">
+      <c r="BZ6" s="102">
         <v>24</v>
       </c>
-      <c r="CA6" s="103">
+      <c r="CA6" s="102">
         <v>25</v>
       </c>
-      <c r="CB6" s="103">
+      <c r="CB6" s="102">
         <v>26</v>
       </c>
-      <c r="CC6" s="103">
+      <c r="CC6" s="102">
         <v>27</v>
       </c>
-      <c r="CD6" s="103">
+      <c r="CD6" s="102">
         <v>28</v>
       </c>
-      <c r="CE6" s="103">
+      <c r="CE6" s="102">
         <v>29</v>
       </c>
-      <c r="CF6" s="103">
+      <c r="CF6" s="102">
         <v>30</v>
       </c>
-      <c r="CG6" s="103">
+      <c r="CG6" s="102">
         <v>31</v>
       </c>
-      <c r="CH6" s="103">
+      <c r="CH6" s="102">
         <v>1</v>
       </c>
-      <c r="CI6" s="103">
+      <c r="CI6" s="102">
         <v>2</v>
       </c>
-      <c r="CJ6" s="103">
+      <c r="CJ6" s="102">
         <v>3</v>
       </c>
-      <c r="CK6" s="103">
+      <c r="CK6" s="102">
         <v>4</v>
       </c>
-      <c r="CL6" s="103">
+      <c r="CL6" s="102">
         <v>5</v>
       </c>
-      <c r="CM6" s="103">
+      <c r="CM6" s="102">
         <v>6</v>
       </c>
-      <c r="CN6" s="103">
+      <c r="CN6" s="102">
         <v>7</v>
       </c>
-      <c r="CO6" s="103">
+      <c r="CO6" s="102">
         <v>8</v>
       </c>
-      <c r="CP6" s="103">
+      <c r="CP6" s="102">
         <v>9</v>
       </c>
-      <c r="CQ6" s="103">
+      <c r="CQ6" s="102">
         <v>10</v>
       </c>
-      <c r="CR6" s="103">
+      <c r="CR6" s="102">
         <v>11</v>
       </c>
-      <c r="CS6" s="103">
+      <c r="CS6" s="102">
         <v>12</v>
       </c>
-      <c r="CT6" s="103">
+      <c r="CT6" s="102">
         <v>13</v>
       </c>
-      <c r="CU6" s="103">
+      <c r="CU6" s="102">
         <v>14</v>
       </c>
-      <c r="CV6" s="103">
+      <c r="CV6" s="102">
         <v>15</v>
       </c>
-      <c r="CW6" s="103">
+      <c r="CW6" s="102">
         <v>16</v>
       </c>
-      <c r="CX6" s="103">
+      <c r="CX6" s="102">
         <v>17</v>
       </c>
-      <c r="CY6" s="103">
+      <c r="CY6" s="102">
         <v>18</v>
       </c>
-      <c r="CZ6" s="103">
+      <c r="CZ6" s="102">
         <v>19</v>
       </c>
-      <c r="DA6" s="103">
+      <c r="DA6" s="102">
         <v>20</v>
       </c>
-      <c r="DB6" s="103">
+      <c r="DB6" s="102">
         <v>21</v>
       </c>
-      <c r="DC6" s="103">
+      <c r="DC6" s="102">
         <v>22</v>
       </c>
-      <c r="DD6" s="103">
+      <c r="DD6" s="102">
         <v>23</v>
       </c>
-      <c r="DE6" s="103">
+      <c r="DE6" s="102">
         <v>24</v>
       </c>
-      <c r="DF6" s="103">
+      <c r="DF6" s="102">
         <v>25</v>
       </c>
-      <c r="DG6" s="103">
+      <c r="DG6" s="102">
         <v>26</v>
       </c>
-      <c r="DH6" s="103">
+      <c r="DH6" s="102">
         <v>27</v>
       </c>
-      <c r="DI6" s="103">
+      <c r="DI6" s="102">
         <v>28</v>
       </c>
-      <c r="DJ6" s="167">
+      <c r="DJ6" s="166">
         <v>29</v>
       </c>
-      <c r="DK6" s="168">
+      <c r="DK6" s="167">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:115" ht="50.1" hidden="1" customHeight="1" thickTop="1">
-      <c r="C7" s="112"/>
-      <c r="D7" s="161" t="s">
+      <c r="C7" s="111"/>
+      <c r="D7" s="160" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="174"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="185"/>
-      <c r="H7" s="185"/>
-      <c r="I7" s="185"/>
-      <c r="J7" s="185"/>
-      <c r="K7" s="185"/>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="263"/>
-      <c r="O7" s="185"/>
-      <c r="P7" s="185"/>
-      <c r="Q7" s="185"/>
-      <c r="R7" s="185"/>
-      <c r="S7" s="185"/>
-      <c r="T7" s="185"/>
+      <c r="E7" s="173"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="262"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
@@ -6006,346 +6007,346 @@
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
       <c r="AE7" s="18"/>
-      <c r="AF7" s="109"/>
+      <c r="AF7" s="108"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18"/>
-      <c r="AL7" s="111"/>
+      <c r="AL7" s="110"/>
       <c r="AM7" s="18"/>
-      <c r="AN7" s="157"/>
+      <c r="AN7" s="156"/>
       <c r="AO7" s="19"/>
-      <c r="AP7" s="253"/>
+      <c r="AP7" s="252"/>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="18"/>
       <c r="AS7" s="18"/>
-      <c r="AT7" s="139"/>
+      <c r="AT7" s="138"/>
       <c r="AU7" s="19"/>
       <c r="AV7" s="19"/>
       <c r="AW7" s="18"/>
       <c r="AX7" s="18"/>
       <c r="AY7" s="18"/>
       <c r="AZ7" s="18"/>
-      <c r="BA7" s="139"/>
+      <c r="BA7" s="138"/>
       <c r="BB7" s="19"/>
       <c r="BC7" s="19"/>
       <c r="BD7" s="18"/>
       <c r="BE7" s="18"/>
       <c r="BF7" s="18"/>
       <c r="BG7" s="18"/>
-      <c r="BH7" s="139"/>
+      <c r="BH7" s="138"/>
       <c r="BI7" s="19"/>
       <c r="BJ7" s="19"/>
       <c r="BK7" s="18"/>
       <c r="BL7" s="18"/>
       <c r="BM7" s="18"/>
       <c r="BN7" s="18"/>
-      <c r="BO7" s="123"/>
+      <c r="BO7" s="122"/>
       <c r="BP7" s="19"/>
       <c r="BQ7" s="19"/>
       <c r="BR7" s="18"/>
       <c r="BS7" s="18"/>
       <c r="BT7" s="18"/>
       <c r="BU7" s="18"/>
-      <c r="BV7" s="123"/>
+      <c r="BV7" s="122"/>
       <c r="BW7" s="19"/>
       <c r="BX7" s="19"/>
       <c r="BY7" s="18"/>
       <c r="BZ7" s="18"/>
       <c r="CA7" s="18"/>
       <c r="CB7" s="18"/>
-      <c r="CC7" s="123"/>
+      <c r="CC7" s="122"/>
       <c r="CD7" s="19"/>
       <c r="CE7" s="19"/>
       <c r="CF7" s="18"/>
       <c r="CG7" s="18"/>
       <c r="CH7" s="18"/>
       <c r="CI7" s="18"/>
-      <c r="CJ7" s="123"/>
+      <c r="CJ7" s="122"/>
       <c r="CK7" s="19"/>
       <c r="CL7" s="19"/>
       <c r="CM7" s="18"/>
       <c r="CN7" s="18"/>
       <c r="CO7" s="18"/>
       <c r="CP7" s="18"/>
-      <c r="CQ7" s="123"/>
+      <c r="CQ7" s="122"/>
       <c r="CR7" s="19"/>
       <c r="CS7" s="19"/>
       <c r="CT7" s="18"/>
       <c r="CU7" s="18"/>
       <c r="CV7" s="18"/>
       <c r="CW7" s="18"/>
-      <c r="CX7" s="123"/>
+      <c r="CX7" s="122"/>
       <c r="CY7" s="19"/>
       <c r="CZ7" s="19"/>
       <c r="DA7" s="18"/>
       <c r="DB7" s="18"/>
       <c r="DC7" s="18"/>
       <c r="DD7" s="18"/>
-      <c r="DE7" s="123"/>
+      <c r="DE7" s="122"/>
       <c r="DF7" s="19"/>
       <c r="DG7" s="19"/>
       <c r="DH7" s="18"/>
       <c r="DI7" s="18"/>
       <c r="DJ7" s="18"/>
-      <c r="DK7" s="127"/>
+      <c r="DK7" s="126"/>
     </row>
     <row r="8" spans="2:115" ht="50.1" customHeight="1" thickTop="1">
-      <c r="C8" s="114"/>
-      <c r="D8" s="162" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="175"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="186"/>
-      <c r="K8" s="186"/>
-      <c r="L8" s="186"/>
-      <c r="M8" s="186"/>
-      <c r="N8" s="264"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="186"/>
-      <c r="Q8" s="186"/>
-      <c r="R8" s="186"/>
-      <c r="S8" s="186"/>
-      <c r="T8" s="186"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="108"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="110"/>
-      <c r="AG8" s="108"/>
-      <c r="AH8" s="108"/>
-      <c r="AI8" s="107"/>
-      <c r="AJ8" s="107"/>
-      <c r="AK8" s="107"/>
-      <c r="AL8" s="110"/>
-      <c r="AM8" s="107"/>
-      <c r="AN8" s="158"/>
-      <c r="AO8" s="108"/>
-      <c r="AP8" s="107"/>
-      <c r="AQ8" s="107"/>
-      <c r="AR8" s="107"/>
-      <c r="AS8" s="107"/>
-      <c r="AT8" s="140"/>
-      <c r="AU8" s="108"/>
-      <c r="AV8" s="108"/>
-      <c r="AW8" s="107"/>
-      <c r="AX8" s="107"/>
-      <c r="AY8" s="107"/>
-      <c r="AZ8" s="107"/>
-      <c r="BA8" s="140"/>
-      <c r="BB8" s="108"/>
-      <c r="BC8" s="108"/>
-      <c r="BD8" s="107"/>
-      <c r="BE8" s="107"/>
-      <c r="BF8" s="107"/>
-      <c r="BG8" s="107"/>
-      <c r="BH8" s="140"/>
-      <c r="BI8" s="108"/>
-      <c r="BJ8" s="108"/>
-      <c r="BK8" s="107"/>
-      <c r="BL8" s="107"/>
-      <c r="BM8" s="107"/>
-      <c r="BN8" s="107"/>
-      <c r="BO8" s="124"/>
-      <c r="BP8" s="108"/>
-      <c r="BQ8" s="108"/>
-      <c r="BR8" s="107"/>
-      <c r="BS8" s="107"/>
-      <c r="BT8" s="107"/>
-      <c r="BU8" s="107"/>
-      <c r="BV8" s="124"/>
-      <c r="BW8" s="108"/>
-      <c r="BX8" s="108"/>
-      <c r="BY8" s="107"/>
-      <c r="BZ8" s="107"/>
-      <c r="CA8" s="107"/>
-      <c r="CB8" s="107"/>
-      <c r="CC8" s="124"/>
-      <c r="CD8" s="108"/>
-      <c r="CE8" s="108"/>
-      <c r="CF8" s="107"/>
-      <c r="CG8" s="107"/>
-      <c r="CH8" s="107"/>
-      <c r="CI8" s="107"/>
-      <c r="CJ8" s="124"/>
-      <c r="CK8" s="108"/>
-      <c r="CL8" s="108"/>
-      <c r="CM8" s="107"/>
-      <c r="CN8" s="107"/>
-      <c r="CO8" s="107"/>
-      <c r="CP8" s="107"/>
-      <c r="CQ8" s="124"/>
-      <c r="CR8" s="108"/>
-      <c r="CS8" s="108"/>
-      <c r="CT8" s="107"/>
-      <c r="CU8" s="107"/>
-      <c r="CV8" s="107"/>
-      <c r="CW8" s="107"/>
-      <c r="CX8" s="124"/>
-      <c r="CY8" s="108"/>
-      <c r="CZ8" s="108"/>
-      <c r="DA8" s="107"/>
-      <c r="DB8" s="107"/>
-      <c r="DC8" s="107"/>
-      <c r="DD8" s="107"/>
-      <c r="DE8" s="124"/>
-      <c r="DF8" s="108"/>
-      <c r="DG8" s="108"/>
-      <c r="DH8" s="107"/>
-      <c r="DI8" s="107"/>
-      <c r="DJ8" s="107"/>
-      <c r="DK8" s="128"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="185"/>
+      <c r="H8" s="185"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="185"/>
+      <c r="N8" s="263"/>
+      <c r="O8" s="185"/>
+      <c r="P8" s="185"/>
+      <c r="Q8" s="185"/>
+      <c r="R8" s="185"/>
+      <c r="S8" s="185"/>
+      <c r="T8" s="185"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="106"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="106"/>
+      <c r="AD8" s="106"/>
+      <c r="AE8" s="106"/>
+      <c r="AF8" s="109"/>
+      <c r="AG8" s="107"/>
+      <c r="AH8" s="107"/>
+      <c r="AI8" s="106"/>
+      <c r="AJ8" s="106"/>
+      <c r="AK8" s="106"/>
+      <c r="AL8" s="109"/>
+      <c r="AM8" s="106"/>
+      <c r="AN8" s="157"/>
+      <c r="AO8" s="107"/>
+      <c r="AP8" s="106"/>
+      <c r="AQ8" s="106"/>
+      <c r="AR8" s="106"/>
+      <c r="AS8" s="106"/>
+      <c r="AT8" s="139"/>
+      <c r="AU8" s="107"/>
+      <c r="AV8" s="107"/>
+      <c r="AW8" s="106"/>
+      <c r="AX8" s="106"/>
+      <c r="AY8" s="106"/>
+      <c r="AZ8" s="106"/>
+      <c r="BA8" s="139"/>
+      <c r="BB8" s="107"/>
+      <c r="BC8" s="107"/>
+      <c r="BD8" s="106"/>
+      <c r="BE8" s="106"/>
+      <c r="BF8" s="106"/>
+      <c r="BG8" s="106"/>
+      <c r="BH8" s="139"/>
+      <c r="BI8" s="107"/>
+      <c r="BJ8" s="107"/>
+      <c r="BK8" s="106"/>
+      <c r="BL8" s="106"/>
+      <c r="BM8" s="106"/>
+      <c r="BN8" s="106"/>
+      <c r="BO8" s="123"/>
+      <c r="BP8" s="107"/>
+      <c r="BQ8" s="107"/>
+      <c r="BR8" s="106"/>
+      <c r="BS8" s="106"/>
+      <c r="BT8" s="106"/>
+      <c r="BU8" s="106"/>
+      <c r="BV8" s="123"/>
+      <c r="BW8" s="107"/>
+      <c r="BX8" s="107"/>
+      <c r="BY8" s="106"/>
+      <c r="BZ8" s="106"/>
+      <c r="CA8" s="106"/>
+      <c r="CB8" s="106"/>
+      <c r="CC8" s="123"/>
+      <c r="CD8" s="107"/>
+      <c r="CE8" s="107"/>
+      <c r="CF8" s="106"/>
+      <c r="CG8" s="106"/>
+      <c r="CH8" s="106"/>
+      <c r="CI8" s="106"/>
+      <c r="CJ8" s="123"/>
+      <c r="CK8" s="107"/>
+      <c r="CL8" s="107"/>
+      <c r="CM8" s="106"/>
+      <c r="CN8" s="106"/>
+      <c r="CO8" s="106"/>
+      <c r="CP8" s="106"/>
+      <c r="CQ8" s="123"/>
+      <c r="CR8" s="107"/>
+      <c r="CS8" s="107"/>
+      <c r="CT8" s="106"/>
+      <c r="CU8" s="106"/>
+      <c r="CV8" s="106"/>
+      <c r="CW8" s="106"/>
+      <c r="CX8" s="123"/>
+      <c r="CY8" s="107"/>
+      <c r="CZ8" s="107"/>
+      <c r="DA8" s="106"/>
+      <c r="DB8" s="106"/>
+      <c r="DC8" s="106"/>
+      <c r="DD8" s="106"/>
+      <c r="DE8" s="123"/>
+      <c r="DF8" s="107"/>
+      <c r="DG8" s="107"/>
+      <c r="DH8" s="106"/>
+      <c r="DI8" s="106"/>
+      <c r="DJ8" s="106"/>
+      <c r="DK8" s="127"/>
     </row>
     <row r="9" spans="2:115" ht="50.1" customHeight="1">
-      <c r="C9" s="118"/>
-      <c r="D9" s="163" t="s">
+      <c r="C9" s="117"/>
+      <c r="D9" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="176"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="186"/>
-      <c r="L9" s="186"/>
-      <c r="M9" s="186"/>
-      <c r="N9" s="264"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="186"/>
-      <c r="Q9" s="186"/>
-      <c r="R9" s="186"/>
-      <c r="S9" s="186"/>
-      <c r="T9" s="186"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="107"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="108"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="110"/>
-      <c r="AG9" s="108"/>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="107"/>
-      <c r="AJ9" s="107"/>
-      <c r="AK9" s="107"/>
-      <c r="AL9" s="110"/>
-      <c r="AM9" s="107"/>
-      <c r="AN9" s="158"/>
-      <c r="AO9" s="108"/>
-      <c r="AP9" s="107"/>
-      <c r="AQ9" s="107"/>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="140"/>
-      <c r="AU9" s="108"/>
-      <c r="AV9" s="108"/>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="107"/>
-      <c r="AY9" s="107"/>
-      <c r="AZ9" s="107"/>
-      <c r="BA9" s="140"/>
-      <c r="BB9" s="108"/>
-      <c r="BC9" s="108"/>
-      <c r="BD9" s="107"/>
-      <c r="BE9" s="107"/>
-      <c r="BF9" s="107"/>
-      <c r="BG9" s="107"/>
-      <c r="BH9" s="140"/>
-      <c r="BI9" s="108"/>
-      <c r="BJ9" s="108"/>
-      <c r="BK9" s="107"/>
-      <c r="BL9" s="107"/>
-      <c r="BM9" s="107"/>
-      <c r="BN9" s="107"/>
-      <c r="BO9" s="124"/>
-      <c r="BP9" s="108"/>
-      <c r="BQ9" s="108"/>
-      <c r="BR9" s="107"/>
-      <c r="BS9" s="107"/>
-      <c r="BT9" s="107"/>
-      <c r="BU9" s="107"/>
-      <c r="BV9" s="124"/>
-      <c r="BW9" s="108"/>
-      <c r="BX9" s="108"/>
-      <c r="BY9" s="107"/>
-      <c r="BZ9" s="107"/>
-      <c r="CA9" s="107"/>
-      <c r="CB9" s="107"/>
-      <c r="CC9" s="124"/>
-      <c r="CD9" s="108"/>
-      <c r="CE9" s="108"/>
-      <c r="CF9" s="107"/>
-      <c r="CG9" s="107"/>
-      <c r="CH9" s="107"/>
-      <c r="CI9" s="107"/>
-      <c r="CJ9" s="124"/>
-      <c r="CK9" s="108"/>
-      <c r="CL9" s="108"/>
-      <c r="CM9" s="107"/>
-      <c r="CN9" s="107"/>
-      <c r="CO9" s="107"/>
-      <c r="CP9" s="107"/>
-      <c r="CQ9" s="124"/>
-      <c r="CR9" s="108"/>
-      <c r="CS9" s="108"/>
-      <c r="CT9" s="107"/>
-      <c r="CU9" s="107"/>
-      <c r="CV9" s="107"/>
-      <c r="CW9" s="107"/>
-      <c r="CX9" s="124"/>
-      <c r="CY9" s="108"/>
-      <c r="CZ9" s="108"/>
-      <c r="DA9" s="107"/>
-      <c r="DB9" s="107"/>
-      <c r="DC9" s="107"/>
-      <c r="DD9" s="107"/>
-      <c r="DE9" s="124"/>
-      <c r="DF9" s="108"/>
-      <c r="DG9" s="108"/>
-      <c r="DH9" s="107"/>
-      <c r="DI9" s="107"/>
-      <c r="DJ9" s="107"/>
-      <c r="DK9" s="128"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="185"/>
+      <c r="K9" s="185"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="185"/>
+      <c r="N9" s="263"/>
+      <c r="O9" s="185"/>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="185"/>
+      <c r="R9" s="185"/>
+      <c r="S9" s="185"/>
+      <c r="T9" s="185"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="106"/>
+      <c r="AE9" s="106"/>
+      <c r="AF9" s="109"/>
+      <c r="AG9" s="107"/>
+      <c r="AH9" s="107"/>
+      <c r="AI9" s="106"/>
+      <c r="AJ9" s="106"/>
+      <c r="AK9" s="106"/>
+      <c r="AL9" s="109"/>
+      <c r="AM9" s="106"/>
+      <c r="AN9" s="157"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="106"/>
+      <c r="AQ9" s="106"/>
+      <c r="AR9" s="106"/>
+      <c r="AS9" s="106"/>
+      <c r="AT9" s="139"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="106"/>
+      <c r="AX9" s="106"/>
+      <c r="AY9" s="106"/>
+      <c r="AZ9" s="106"/>
+      <c r="BA9" s="139"/>
+      <c r="BB9" s="107"/>
+      <c r="BC9" s="107"/>
+      <c r="BD9" s="106"/>
+      <c r="BE9" s="106"/>
+      <c r="BF9" s="106"/>
+      <c r="BG9" s="106"/>
+      <c r="BH9" s="139"/>
+      <c r="BI9" s="107"/>
+      <c r="BJ9" s="107"/>
+      <c r="BK9" s="106"/>
+      <c r="BL9" s="106"/>
+      <c r="BM9" s="106"/>
+      <c r="BN9" s="106"/>
+      <c r="BO9" s="123"/>
+      <c r="BP9" s="107"/>
+      <c r="BQ9" s="107"/>
+      <c r="BR9" s="106"/>
+      <c r="BS9" s="106"/>
+      <c r="BT9" s="106"/>
+      <c r="BU9" s="106"/>
+      <c r="BV9" s="123"/>
+      <c r="BW9" s="107"/>
+      <c r="BX9" s="107"/>
+      <c r="BY9" s="106"/>
+      <c r="BZ9" s="106"/>
+      <c r="CA9" s="106"/>
+      <c r="CB9" s="106"/>
+      <c r="CC9" s="123"/>
+      <c r="CD9" s="107"/>
+      <c r="CE9" s="107"/>
+      <c r="CF9" s="106"/>
+      <c r="CG9" s="106"/>
+      <c r="CH9" s="106"/>
+      <c r="CI9" s="106"/>
+      <c r="CJ9" s="123"/>
+      <c r="CK9" s="107"/>
+      <c r="CL9" s="107"/>
+      <c r="CM9" s="106"/>
+      <c r="CN9" s="106"/>
+      <c r="CO9" s="106"/>
+      <c r="CP9" s="106"/>
+      <c r="CQ9" s="123"/>
+      <c r="CR9" s="107"/>
+      <c r="CS9" s="107"/>
+      <c r="CT9" s="106"/>
+      <c r="CU9" s="106"/>
+      <c r="CV9" s="106"/>
+      <c r="CW9" s="106"/>
+      <c r="CX9" s="123"/>
+      <c r="CY9" s="107"/>
+      <c r="CZ9" s="107"/>
+      <c r="DA9" s="106"/>
+      <c r="DB9" s="106"/>
+      <c r="DC9" s="106"/>
+      <c r="DD9" s="106"/>
+      <c r="DE9" s="123"/>
+      <c r="DF9" s="107"/>
+      <c r="DG9" s="107"/>
+      <c r="DH9" s="106"/>
+      <c r="DI9" s="106"/>
+      <c r="DJ9" s="106"/>
+      <c r="DK9" s="127"/>
     </row>
     <row r="10" spans="2:115" ht="50.1" customHeight="1">
-      <c r="C10" s="120"/>
-      <c r="D10" s="164" t="s">
+      <c r="C10" s="119"/>
+      <c r="D10" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="177"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="265"/>
-      <c r="O10" s="185"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="264"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="184"/>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
@@ -6357,333 +6358,333 @@
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
       <c r="AE10" s="18"/>
-      <c r="AF10" s="111"/>
+      <c r="AF10" s="110"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="18"/>
       <c r="AJ10" s="18"/>
       <c r="AK10" s="18"/>
-      <c r="AL10" s="111"/>
+      <c r="AL10" s="110"/>
       <c r="AM10" s="18"/>
-      <c r="AN10" s="159"/>
+      <c r="AN10" s="158"/>
       <c r="AO10" s="19"/>
       <c r="AP10" s="18"/>
       <c r="AQ10" s="18"/>
       <c r="AR10" s="18"/>
       <c r="AS10" s="18"/>
-      <c r="AT10" s="141"/>
+      <c r="AT10" s="140"/>
       <c r="AU10" s="19"/>
       <c r="AV10" s="19"/>
       <c r="AW10" s="18"/>
       <c r="AX10" s="18"/>
       <c r="AY10" s="18"/>
       <c r="AZ10" s="18"/>
-      <c r="BA10" s="141"/>
+      <c r="BA10" s="140"/>
       <c r="BB10" s="19"/>
       <c r="BC10" s="19"/>
       <c r="BD10" s="18"/>
       <c r="BE10" s="18"/>
       <c r="BF10" s="18"/>
       <c r="BG10" s="18"/>
-      <c r="BH10" s="141"/>
+      <c r="BH10" s="140"/>
       <c r="BI10" s="19"/>
       <c r="BJ10" s="19"/>
       <c r="BK10" s="18"/>
       <c r="BL10" s="18"/>
       <c r="BM10" s="18"/>
       <c r="BN10" s="18"/>
-      <c r="BO10" s="125"/>
+      <c r="BO10" s="124"/>
       <c r="BP10" s="19"/>
       <c r="BQ10" s="19"/>
       <c r="BR10" s="18"/>
       <c r="BS10" s="18"/>
       <c r="BT10" s="18"/>
       <c r="BU10" s="18"/>
-      <c r="BV10" s="125"/>
+      <c r="BV10" s="124"/>
       <c r="BW10" s="19"/>
       <c r="BX10" s="19"/>
       <c r="BY10" s="18"/>
       <c r="BZ10" s="18"/>
       <c r="CA10" s="18"/>
       <c r="CB10" s="18"/>
-      <c r="CC10" s="125"/>
+      <c r="CC10" s="124"/>
       <c r="CD10" s="19"/>
       <c r="CE10" s="19"/>
       <c r="CF10" s="18"/>
       <c r="CG10" s="18"/>
       <c r="CH10" s="18"/>
       <c r="CI10" s="18"/>
-      <c r="CJ10" s="125"/>
+      <c r="CJ10" s="124"/>
       <c r="CK10" s="19"/>
       <c r="CL10" s="19"/>
       <c r="CM10" s="18"/>
       <c r="CN10" s="18"/>
       <c r="CO10" s="18"/>
       <c r="CP10" s="18"/>
-      <c r="CQ10" s="125"/>
+      <c r="CQ10" s="124"/>
       <c r="CR10" s="19"/>
       <c r="CS10" s="19"/>
       <c r="CT10" s="18"/>
       <c r="CU10" s="18"/>
       <c r="CV10" s="18"/>
       <c r="CW10" s="18"/>
-      <c r="CX10" s="125"/>
+      <c r="CX10" s="124"/>
       <c r="CY10" s="19"/>
       <c r="CZ10" s="19"/>
       <c r="DA10" s="18"/>
       <c r="DB10" s="18"/>
       <c r="DC10" s="18"/>
       <c r="DD10" s="18"/>
-      <c r="DE10" s="125"/>
+      <c r="DE10" s="124"/>
       <c r="DF10" s="19"/>
       <c r="DG10" s="19"/>
       <c r="DH10" s="18"/>
       <c r="DI10" s="18"/>
       <c r="DJ10" s="18"/>
-      <c r="DK10" s="129"/>
+      <c r="DK10" s="128"/>
     </row>
     <row r="11" spans="2:115" ht="50.1" customHeight="1" thickBot="1">
-      <c r="C11" s="116"/>
-      <c r="D11" s="165" t="s">
+      <c r="C11" s="115"/>
+      <c r="D11" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="178"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="186"/>
-      <c r="N11" s="264"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="186"/>
-      <c r="Q11" s="186"/>
-      <c r="R11" s="186"/>
-      <c r="S11" s="186"/>
-      <c r="T11" s="186"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="108"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="110"/>
-      <c r="AG11" s="108"/>
-      <c r="AH11" s="108"/>
-      <c r="AI11" s="107"/>
-      <c r="AJ11" s="107"/>
-      <c r="AK11" s="107"/>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="107"/>
-      <c r="AN11" s="158"/>
-      <c r="AO11" s="108"/>
-      <c r="AP11" s="107"/>
-      <c r="AQ11" s="107"/>
-      <c r="AR11" s="107"/>
-      <c r="AS11" s="107"/>
-      <c r="AT11" s="142"/>
-      <c r="AU11" s="108"/>
-      <c r="AV11" s="108"/>
-      <c r="AW11" s="107"/>
-      <c r="AX11" s="107"/>
-      <c r="AY11" s="107"/>
-      <c r="AZ11" s="107"/>
-      <c r="BA11" s="142"/>
-      <c r="BB11" s="108"/>
-      <c r="BC11" s="108"/>
-      <c r="BD11" s="107"/>
-      <c r="BE11" s="107"/>
-      <c r="BF11" s="107"/>
-      <c r="BG11" s="107"/>
-      <c r="BH11" s="142"/>
-      <c r="BI11" s="108"/>
-      <c r="BJ11" s="108"/>
-      <c r="BK11" s="107"/>
-      <c r="BL11" s="107"/>
-      <c r="BM11" s="107"/>
-      <c r="BN11" s="107"/>
-      <c r="BO11" s="126"/>
-      <c r="BP11" s="108"/>
-      <c r="BQ11" s="108"/>
-      <c r="BR11" s="107"/>
-      <c r="BS11" s="107"/>
-      <c r="BT11" s="107"/>
-      <c r="BU11" s="107"/>
-      <c r="BV11" s="126"/>
-      <c r="BW11" s="108"/>
-      <c r="BX11" s="108"/>
-      <c r="BY11" s="107"/>
-      <c r="BZ11" s="107"/>
-      <c r="CA11" s="107"/>
-      <c r="CB11" s="107"/>
-      <c r="CC11" s="126"/>
-      <c r="CD11" s="108"/>
-      <c r="CE11" s="108"/>
-      <c r="CF11" s="107"/>
-      <c r="CG11" s="107"/>
-      <c r="CH11" s="107"/>
-      <c r="CI11" s="107"/>
-      <c r="CJ11" s="126"/>
-      <c r="CK11" s="108"/>
-      <c r="CL11" s="108"/>
-      <c r="CM11" s="107"/>
-      <c r="CN11" s="107"/>
-      <c r="CO11" s="107"/>
-      <c r="CP11" s="107"/>
-      <c r="CQ11" s="126"/>
-      <c r="CR11" s="108"/>
-      <c r="CS11" s="108"/>
-      <c r="CT11" s="107"/>
-      <c r="CU11" s="107"/>
-      <c r="CV11" s="107"/>
-      <c r="CW11" s="107"/>
-      <c r="CX11" s="126"/>
-      <c r="CY11" s="108"/>
-      <c r="CZ11" s="108"/>
-      <c r="DA11" s="107"/>
-      <c r="DB11" s="107"/>
-      <c r="DC11" s="107"/>
-      <c r="DD11" s="107"/>
-      <c r="DE11" s="126"/>
-      <c r="DF11" s="108"/>
-      <c r="DG11" s="108"/>
-      <c r="DH11" s="107"/>
-      <c r="DI11" s="107"/>
-      <c r="DJ11" s="107"/>
-      <c r="DK11" s="130"/>
+      <c r="E11" s="177"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="185"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="187"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
+      <c r="M11" s="185"/>
+      <c r="N11" s="263"/>
+      <c r="O11" s="185"/>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="185"/>
+      <c r="R11" s="185"/>
+      <c r="S11" s="185"/>
+      <c r="T11" s="185"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="107"/>
+      <c r="AA11" s="107"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
+      <c r="AD11" s="106"/>
+      <c r="AE11" s="106"/>
+      <c r="AF11" s="109"/>
+      <c r="AG11" s="107"/>
+      <c r="AH11" s="107"/>
+      <c r="AI11" s="106"/>
+      <c r="AJ11" s="106"/>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="109"/>
+      <c r="AM11" s="106"/>
+      <c r="AN11" s="157"/>
+      <c r="AO11" s="107"/>
+      <c r="AP11" s="106"/>
+      <c r="AQ11" s="106"/>
+      <c r="AR11" s="106"/>
+      <c r="AS11" s="106"/>
+      <c r="AT11" s="141"/>
+      <c r="AU11" s="107"/>
+      <c r="AV11" s="107"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="106"/>
+      <c r="AY11" s="106"/>
+      <c r="AZ11" s="106"/>
+      <c r="BA11" s="141"/>
+      <c r="BB11" s="107"/>
+      <c r="BC11" s="107"/>
+      <c r="BD11" s="106"/>
+      <c r="BE11" s="106"/>
+      <c r="BF11" s="106"/>
+      <c r="BG11" s="106"/>
+      <c r="BH11" s="141"/>
+      <c r="BI11" s="107"/>
+      <c r="BJ11" s="107"/>
+      <c r="BK11" s="106"/>
+      <c r="BL11" s="106"/>
+      <c r="BM11" s="106"/>
+      <c r="BN11" s="106"/>
+      <c r="BO11" s="125"/>
+      <c r="BP11" s="107"/>
+      <c r="BQ11" s="107"/>
+      <c r="BR11" s="106"/>
+      <c r="BS11" s="106"/>
+      <c r="BT11" s="106"/>
+      <c r="BU11" s="106"/>
+      <c r="BV11" s="125"/>
+      <c r="BW11" s="107"/>
+      <c r="BX11" s="107"/>
+      <c r="BY11" s="106"/>
+      <c r="BZ11" s="106"/>
+      <c r="CA11" s="106"/>
+      <c r="CB11" s="106"/>
+      <c r="CC11" s="125"/>
+      <c r="CD11" s="107"/>
+      <c r="CE11" s="107"/>
+      <c r="CF11" s="106"/>
+      <c r="CG11" s="106"/>
+      <c r="CH11" s="106"/>
+      <c r="CI11" s="106"/>
+      <c r="CJ11" s="125"/>
+      <c r="CK11" s="107"/>
+      <c r="CL11" s="107"/>
+      <c r="CM11" s="106"/>
+      <c r="CN11" s="106"/>
+      <c r="CO11" s="106"/>
+      <c r="CP11" s="106"/>
+      <c r="CQ11" s="125"/>
+      <c r="CR11" s="107"/>
+      <c r="CS11" s="107"/>
+      <c r="CT11" s="106"/>
+      <c r="CU11" s="106"/>
+      <c r="CV11" s="106"/>
+      <c r="CW11" s="106"/>
+      <c r="CX11" s="125"/>
+      <c r="CY11" s="107"/>
+      <c r="CZ11" s="107"/>
+      <c r="DA11" s="106"/>
+      <c r="DB11" s="106"/>
+      <c r="DC11" s="106"/>
+      <c r="DD11" s="106"/>
+      <c r="DE11" s="125"/>
+      <c r="DF11" s="107"/>
+      <c r="DG11" s="107"/>
+      <c r="DH11" s="106"/>
+      <c r="DI11" s="106"/>
+      <c r="DJ11" s="106"/>
+      <c r="DK11" s="129"/>
     </row>
     <row r="12" spans="2:115" ht="50.1" customHeight="1" thickBot="1">
-      <c r="C12" s="136"/>
-      <c r="D12" s="166" t="s">
+      <c r="C12" s="135"/>
+      <c r="D12" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="179"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="266"/>
-      <c r="O12" s="189"/>
-      <c r="P12" s="189"/>
-      <c r="Q12" s="189"/>
-      <c r="R12" s="189"/>
-      <c r="S12" s="189"/>
-      <c r="T12" s="189"/>
-      <c r="U12" s="131"/>
-      <c r="V12" s="131"/>
-      <c r="W12" s="131"/>
-      <c r="X12" s="131"/>
-      <c r="Y12" s="131"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-      <c r="AB12" s="131"/>
-      <c r="AC12" s="131"/>
-      <c r="AD12" s="131"/>
-      <c r="AE12" s="131"/>
-      <c r="AF12" s="133"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="131"/>
-      <c r="AJ12" s="131"/>
-      <c r="AK12" s="131"/>
-      <c r="AL12" s="133"/>
-      <c r="AM12" s="131"/>
-      <c r="AN12" s="160"/>
-      <c r="AO12" s="132"/>
-      <c r="AP12" s="131"/>
-      <c r="AQ12" s="131"/>
-      <c r="AR12" s="131"/>
-      <c r="AS12" s="131"/>
-      <c r="AT12" s="154"/>
-      <c r="AU12" s="132"/>
-      <c r="AV12" s="132"/>
-      <c r="AW12" s="131"/>
-      <c r="AX12" s="131"/>
-      <c r="AY12" s="131"/>
-      <c r="AZ12" s="131"/>
-      <c r="BA12" s="154"/>
-      <c r="BB12" s="132"/>
-      <c r="BC12" s="132"/>
-      <c r="BD12" s="131"/>
-      <c r="BE12" s="131"/>
-      <c r="BF12" s="131"/>
-      <c r="BG12" s="131"/>
-      <c r="BH12" s="154"/>
-      <c r="BI12" s="132"/>
-      <c r="BJ12" s="132"/>
-      <c r="BK12" s="131"/>
-      <c r="BL12" s="131"/>
-      <c r="BM12" s="131"/>
-      <c r="BN12" s="131"/>
-      <c r="BO12" s="134"/>
-      <c r="BP12" s="132"/>
-      <c r="BQ12" s="132"/>
-      <c r="BR12" s="131"/>
-      <c r="BS12" s="131"/>
-      <c r="BT12" s="131"/>
-      <c r="BU12" s="131"/>
-      <c r="BV12" s="134"/>
-      <c r="BW12" s="132"/>
-      <c r="BX12" s="132"/>
-      <c r="BY12" s="131"/>
-      <c r="BZ12" s="131"/>
-      <c r="CA12" s="131"/>
-      <c r="CB12" s="131"/>
-      <c r="CC12" s="134"/>
-      <c r="CD12" s="132"/>
-      <c r="CE12" s="132"/>
-      <c r="CF12" s="131"/>
-      <c r="CG12" s="131"/>
-      <c r="CH12" s="131"/>
-      <c r="CI12" s="131"/>
-      <c r="CJ12" s="134"/>
-      <c r="CK12" s="132"/>
-      <c r="CL12" s="132"/>
-      <c r="CM12" s="131"/>
-      <c r="CN12" s="131"/>
-      <c r="CO12" s="131"/>
-      <c r="CP12" s="131"/>
-      <c r="CQ12" s="134"/>
-      <c r="CR12" s="132"/>
-      <c r="CS12" s="132"/>
-      <c r="CT12" s="131"/>
-      <c r="CU12" s="131"/>
-      <c r="CV12" s="131"/>
-      <c r="CW12" s="131"/>
-      <c r="CX12" s="134"/>
-      <c r="CY12" s="132"/>
-      <c r="CZ12" s="132"/>
-      <c r="DA12" s="131"/>
-      <c r="DB12" s="131"/>
-      <c r="DC12" s="131"/>
-      <c r="DD12" s="131"/>
-      <c r="DE12" s="134"/>
-      <c r="DF12" s="132"/>
-      <c r="DG12" s="132"/>
-      <c r="DH12" s="131"/>
-      <c r="DI12" s="131"/>
-      <c r="DJ12" s="131"/>
-      <c r="DK12" s="135"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="188"/>
+      <c r="I12" s="188"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="188"/>
+      <c r="L12" s="188"/>
+      <c r="M12" s="188"/>
+      <c r="N12" s="265"/>
+      <c r="O12" s="188"/>
+      <c r="P12" s="188"/>
+      <c r="Q12" s="188"/>
+      <c r="R12" s="188"/>
+      <c r="S12" s="188"/>
+      <c r="T12" s="188"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="131"/>
+      <c r="AA12" s="131"/>
+      <c r="AB12" s="130"/>
+      <c r="AC12" s="130"/>
+      <c r="AD12" s="130"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="132"/>
+      <c r="AG12" s="131"/>
+      <c r="AH12" s="131"/>
+      <c r="AI12" s="130"/>
+      <c r="AJ12" s="130"/>
+      <c r="AK12" s="130"/>
+      <c r="AL12" s="132"/>
+      <c r="AM12" s="130"/>
+      <c r="AN12" s="159"/>
+      <c r="AO12" s="131"/>
+      <c r="AP12" s="130"/>
+      <c r="AQ12" s="130"/>
+      <c r="AR12" s="130"/>
+      <c r="AS12" s="130"/>
+      <c r="AT12" s="153"/>
+      <c r="AU12" s="131"/>
+      <c r="AV12" s="131"/>
+      <c r="AW12" s="130"/>
+      <c r="AX12" s="130"/>
+      <c r="AY12" s="130"/>
+      <c r="AZ12" s="130"/>
+      <c r="BA12" s="153"/>
+      <c r="BB12" s="131"/>
+      <c r="BC12" s="131"/>
+      <c r="BD12" s="130"/>
+      <c r="BE12" s="130"/>
+      <c r="BF12" s="130"/>
+      <c r="BG12" s="130"/>
+      <c r="BH12" s="153"/>
+      <c r="BI12" s="131"/>
+      <c r="BJ12" s="131"/>
+      <c r="BK12" s="130"/>
+      <c r="BL12" s="130"/>
+      <c r="BM12" s="130"/>
+      <c r="BN12" s="130"/>
+      <c r="BO12" s="133"/>
+      <c r="BP12" s="131"/>
+      <c r="BQ12" s="131"/>
+      <c r="BR12" s="130"/>
+      <c r="BS12" s="130"/>
+      <c r="BT12" s="130"/>
+      <c r="BU12" s="130"/>
+      <c r="BV12" s="133"/>
+      <c r="BW12" s="131"/>
+      <c r="BX12" s="131"/>
+      <c r="BY12" s="130"/>
+      <c r="BZ12" s="130"/>
+      <c r="CA12" s="130"/>
+      <c r="CB12" s="130"/>
+      <c r="CC12" s="133"/>
+      <c r="CD12" s="131"/>
+      <c r="CE12" s="131"/>
+      <c r="CF12" s="130"/>
+      <c r="CG12" s="130"/>
+      <c r="CH12" s="130"/>
+      <c r="CI12" s="130"/>
+      <c r="CJ12" s="133"/>
+      <c r="CK12" s="131"/>
+      <c r="CL12" s="131"/>
+      <c r="CM12" s="130"/>
+      <c r="CN12" s="130"/>
+      <c r="CO12" s="130"/>
+      <c r="CP12" s="130"/>
+      <c r="CQ12" s="133"/>
+      <c r="CR12" s="131"/>
+      <c r="CS12" s="131"/>
+      <c r="CT12" s="130"/>
+      <c r="CU12" s="130"/>
+      <c r="CV12" s="130"/>
+      <c r="CW12" s="130"/>
+      <c r="CX12" s="133"/>
+      <c r="CY12" s="131"/>
+      <c r="CZ12" s="131"/>
+      <c r="DA12" s="130"/>
+      <c r="DB12" s="130"/>
+      <c r="DC12" s="130"/>
+      <c r="DD12" s="130"/>
+      <c r="DE12" s="133"/>
+      <c r="DF12" s="131"/>
+      <c r="DG12" s="131"/>
+      <c r="DH12" s="130"/>
+      <c r="DI12" s="130"/>
+      <c r="DJ12" s="130"/>
+      <c r="DK12" s="134"/>
     </row>
     <row r="13" spans="2:115" ht="17.25" thickTop="1"/>
     <row r="15" spans="2:115" ht="26.25">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="104" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:115" ht="18" thickBot="1">
-      <c r="G16" s="182" t="s">
+      <c r="G16" s="181" t="s">
         <v>24</v>
       </c>
       <c r="X16" s="92" t="s">
@@ -6706,52 +6707,52 @@
       <c r="D17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="180" t="s">
+      <c r="E17" s="179" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="191">
+      <c r="G17" s="190">
         <v>14</v>
       </c>
-      <c r="H17" s="192">
+      <c r="H17" s="191">
         <v>15</v>
       </c>
-      <c r="I17" s="192">
+      <c r="I17" s="191">
         <v>16</v>
       </c>
-      <c r="J17" s="192">
+      <c r="J17" s="191">
         <v>17</v>
       </c>
-      <c r="K17" s="192">
+      <c r="K17" s="191">
         <v>18</v>
       </c>
-      <c r="L17" s="192">
+      <c r="L17" s="191">
         <v>19</v>
       </c>
-      <c r="M17" s="192">
+      <c r="M17" s="191">
         <v>20</v>
       </c>
-      <c r="N17" s="192">
+      <c r="N17" s="191">
         <v>21</v>
       </c>
-      <c r="O17" s="192">
+      <c r="O17" s="191">
         <v>22</v>
       </c>
-      <c r="P17" s="192">
+      <c r="P17" s="191">
         <v>23</v>
       </c>
-      <c r="Q17" s="192">
+      <c r="Q17" s="191">
         <v>24</v>
       </c>
-      <c r="R17" s="192">
+      <c r="R17" s="191">
         <v>25</v>
       </c>
-      <c r="S17" s="192">
+      <c r="S17" s="191">
         <v>26</v>
       </c>
-      <c r="T17" s="192">
+      <c r="T17" s="191">
         <v>27</v>
       </c>
       <c r="U17" s="31">
@@ -6829,7 +6830,7 @@
       <c r="AS17" s="31">
         <v>22</v>
       </c>
-      <c r="AT17" s="156">
+      <c r="AT17" s="155">
         <v>23</v>
       </c>
       <c r="AU17" s="31">
@@ -6850,7 +6851,7 @@
       <c r="AZ17" s="31">
         <v>29</v>
       </c>
-      <c r="BA17" s="156">
+      <c r="BA17" s="155">
         <v>30</v>
       </c>
       <c r="BB17" s="31">
@@ -6871,7 +6872,7 @@
       <c r="BG17" s="31">
         <v>5</v>
       </c>
-      <c r="BH17" s="156">
+      <c r="BH17" s="155">
         <v>30</v>
       </c>
       <c r="BI17" s="31">
@@ -7033,43 +7034,43 @@
       <c r="DI17" s="31">
         <v>28</v>
       </c>
-      <c r="DJ17" s="169">
+      <c r="DJ17" s="168">
         <v>29</v>
       </c>
-      <c r="DK17" s="170">
+      <c r="DK17" s="169">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="277" t="s">
+      <c r="B18" s="283" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="247" t="s">
+      <c r="C18" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="248" t="s">
+      <c r="D18" s="247" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="249" t="s">
+      <c r="E18" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="250">
+      <c r="F18" s="249">
         <v>40344</v>
       </c>
-      <c r="G18" s="193"/>
-      <c r="H18" s="194"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="196"/>
-      <c r="K18" s="196"/>
-      <c r="L18" s="197"/>
-      <c r="M18" s="197"/>
-      <c r="N18" s="267"/>
-      <c r="O18" s="196"/>
-      <c r="P18" s="196"/>
-      <c r="Q18" s="196"/>
-      <c r="R18" s="196"/>
-      <c r="S18" s="197"/>
-      <c r="T18" s="197"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="195"/>
+      <c r="L18" s="196"/>
+      <c r="M18" s="196"/>
+      <c r="N18" s="266"/>
+      <c r="O18" s="195"/>
+      <c r="P18" s="195"/>
+      <c r="Q18" s="195"/>
+      <c r="R18" s="195"/>
+      <c r="S18" s="196"/>
+      <c r="T18" s="196"/>
       <c r="U18" s="37"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
@@ -7095,21 +7096,21 @@
       <c r="AQ18" s="37"/>
       <c r="AR18" s="37"/>
       <c r="AS18" s="37"/>
-      <c r="AT18" s="143"/>
+      <c r="AT18" s="142"/>
       <c r="AU18" s="68"/>
       <c r="AV18" s="68"/>
       <c r="AW18" s="37"/>
       <c r="AX18" s="37"/>
       <c r="AY18" s="37"/>
       <c r="AZ18" s="37"/>
-      <c r="BA18" s="143"/>
+      <c r="BA18" s="142"/>
       <c r="BB18" s="68"/>
       <c r="BC18" s="68"/>
       <c r="BD18" s="37"/>
       <c r="BE18" s="37"/>
       <c r="BF18" s="37"/>
       <c r="BG18" s="37"/>
-      <c r="BH18" s="143"/>
+      <c r="BH18" s="142"/>
       <c r="BI18" s="68"/>
       <c r="BJ18" s="68"/>
       <c r="BK18" s="37"/>
@@ -7167,33 +7168,33 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="277"/>
-      <c r="C19" s="254" t="s">
+      <c r="B19" s="283"/>
+      <c r="C19" s="253" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="255" t="s">
+      <c r="D19" s="254" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="256" t="s">
+      <c r="E19" s="255" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="257">
+      <c r="F19" s="256">
         <v>40350</v>
       </c>
-      <c r="G19" s="198"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="202"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="268"/>
-      <c r="O19" s="198"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="199"/>
-      <c r="R19" s="199"/>
-      <c r="S19" s="233"/>
-      <c r="T19" s="233"/>
+      <c r="G19" s="197"/>
+      <c r="H19" s="198"/>
+      <c r="I19" s="198"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="200"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="202"/>
+      <c r="N19" s="267"/>
+      <c r="O19" s="197"/>
+      <c r="P19" s="198"/>
+      <c r="Q19" s="198"/>
+      <c r="R19" s="198"/>
+      <c r="S19" s="232"/>
+      <c r="T19" s="232"/>
       <c r="U19" s="32"/>
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
@@ -7219,21 +7220,21 @@
       <c r="AQ19" s="32"/>
       <c r="AR19" s="32"/>
       <c r="AS19" s="32"/>
-      <c r="AT19" s="144"/>
+      <c r="AT19" s="143"/>
       <c r="AU19" s="69"/>
       <c r="AV19" s="69"/>
       <c r="AW19" s="32"/>
       <c r="AX19" s="32"/>
       <c r="AY19" s="32"/>
       <c r="AZ19" s="32"/>
-      <c r="BA19" s="144"/>
+      <c r="BA19" s="143"/>
       <c r="BB19" s="69"/>
       <c r="BC19" s="69"/>
       <c r="BD19" s="32"/>
       <c r="BE19" s="32"/>
       <c r="BF19" s="32"/>
       <c r="BG19" s="32"/>
-      <c r="BH19" s="144"/>
+      <c r="BH19" s="143"/>
       <c r="BI19" s="69"/>
       <c r="BJ19" s="69"/>
       <c r="BK19" s="32"/>
@@ -7291,35 +7292,35 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="278" t="s">
+      <c r="B20" s="282" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="294" t="s">
+      <c r="C20" s="285" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="258" t="s">
+      <c r="D20" s="257" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="259" t="s">
+      <c r="E20" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="260">
+      <c r="F20" s="259">
         <v>40350</v>
       </c>
-      <c r="G20" s="204"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="206"/>
-      <c r="J20" s="207"/>
-      <c r="K20" s="208"/>
-      <c r="L20" s="209"/>
-      <c r="M20" s="210"/>
-      <c r="N20" s="269"/>
-      <c r="O20" s="204"/>
-      <c r="P20" s="205"/>
-      <c r="Q20" s="205"/>
-      <c r="R20" s="205"/>
-      <c r="S20" s="236"/>
-      <c r="T20" s="236"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="204"/>
+      <c r="I20" s="205"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="207"/>
+      <c r="L20" s="208"/>
+      <c r="M20" s="209"/>
+      <c r="N20" s="268"/>
+      <c r="O20" s="203"/>
+      <c r="P20" s="204"/>
+      <c r="Q20" s="204"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="235"/>
       <c r="U20" s="42"/>
       <c r="V20" s="42"/>
       <c r="W20" s="42"/>
@@ -7345,21 +7346,21 @@
       <c r="AQ20" s="42"/>
       <c r="AR20" s="42"/>
       <c r="AS20" s="42"/>
-      <c r="AT20" s="145"/>
+      <c r="AT20" s="144"/>
       <c r="AU20" s="70"/>
       <c r="AV20" s="70"/>
       <c r="AW20" s="42"/>
       <c r="AX20" s="42"/>
       <c r="AY20" s="42"/>
       <c r="AZ20" s="42"/>
-      <c r="BA20" s="145"/>
+      <c r="BA20" s="144"/>
       <c r="BB20" s="70"/>
       <c r="BC20" s="70"/>
       <c r="BD20" s="42"/>
       <c r="BE20" s="42"/>
       <c r="BF20" s="42"/>
       <c r="BG20" s="42"/>
-      <c r="BH20" s="145"/>
+      <c r="BH20" s="144"/>
       <c r="BI20" s="70"/>
       <c r="BJ20" s="70"/>
       <c r="BK20" s="42"/>
@@ -7417,31 +7418,31 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="277"/>
-      <c r="C21" s="295"/>
-      <c r="D21" s="258" t="s">
+      <c r="B21" s="283"/>
+      <c r="C21" s="286"/>
+      <c r="D21" s="257" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="261" t="s">
+      <c r="E21" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="260">
+      <c r="F21" s="259">
         <v>40350</v>
       </c>
-      <c r="G21" s="211"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="214"/>
-      <c r="K21" s="215"/>
-      <c r="L21" s="216"/>
-      <c r="M21" s="217"/>
-      <c r="N21" s="215"/>
-      <c r="O21" s="211"/>
-      <c r="P21" s="212"/>
-      <c r="Q21" s="212"/>
-      <c r="R21" s="212"/>
-      <c r="S21" s="226"/>
-      <c r="T21" s="226"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="211"/>
+      <c r="I21" s="212"/>
+      <c r="J21" s="213"/>
+      <c r="K21" s="214"/>
+      <c r="L21" s="215"/>
+      <c r="M21" s="216"/>
+      <c r="N21" s="214"/>
+      <c r="O21" s="210"/>
+      <c r="P21" s="211"/>
+      <c r="Q21" s="211"/>
+      <c r="R21" s="211"/>
+      <c r="S21" s="225"/>
+      <c r="T21" s="225"/>
       <c r="U21" s="48"/>
       <c r="V21" s="48"/>
       <c r="W21" s="48"/>
@@ -7467,21 +7468,21 @@
       <c r="AQ21" s="48"/>
       <c r="AR21" s="48"/>
       <c r="AS21" s="48"/>
-      <c r="AT21" s="146"/>
+      <c r="AT21" s="145"/>
       <c r="AU21" s="71"/>
       <c r="AV21" s="71"/>
       <c r="AW21" s="48"/>
       <c r="AX21" s="48"/>
       <c r="AY21" s="48"/>
       <c r="AZ21" s="48"/>
-      <c r="BA21" s="146"/>
+      <c r="BA21" s="145"/>
       <c r="BB21" s="71"/>
       <c r="BC21" s="71"/>
       <c r="BD21" s="48"/>
       <c r="BE21" s="48"/>
       <c r="BF21" s="48"/>
       <c r="BG21" s="48"/>
-      <c r="BH21" s="146"/>
+      <c r="BH21" s="145"/>
       <c r="BI21" s="71"/>
       <c r="BJ21" s="71"/>
       <c r="BK21" s="48"/>
@@ -7539,31 +7540,31 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="277"/>
-      <c r="C22" s="295"/>
-      <c r="D22" s="258" t="s">
+      <c r="B22" s="283"/>
+      <c r="C22" s="286"/>
+      <c r="D22" s="257" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="261" t="s">
+      <c r="E22" s="260" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="260">
+      <c r="F22" s="259">
         <v>40350</v>
       </c>
-      <c r="G22" s="211"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="213"/>
-      <c r="J22" s="201"/>
-      <c r="K22" s="201"/>
-      <c r="L22" s="216"/>
-      <c r="M22" s="217"/>
-      <c r="N22" s="201"/>
-      <c r="O22" s="211"/>
-      <c r="P22" s="212"/>
-      <c r="Q22" s="212"/>
-      <c r="R22" s="212"/>
-      <c r="S22" s="226"/>
-      <c r="T22" s="226"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="211"/>
+      <c r="I22" s="212"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="200"/>
+      <c r="L22" s="215"/>
+      <c r="M22" s="216"/>
+      <c r="N22" s="200"/>
+      <c r="O22" s="210"/>
+      <c r="P22" s="211"/>
+      <c r="Q22" s="211"/>
+      <c r="R22" s="211"/>
+      <c r="S22" s="225"/>
+      <c r="T22" s="225"/>
       <c r="U22" s="48"/>
       <c r="V22" s="48"/>
       <c r="W22" s="48"/>
@@ -7589,21 +7590,21 @@
       <c r="AQ22" s="48"/>
       <c r="AR22" s="48"/>
       <c r="AS22" s="48"/>
-      <c r="AT22" s="146"/>
+      <c r="AT22" s="145"/>
       <c r="AU22" s="71"/>
       <c r="AV22" s="71"/>
       <c r="AW22" s="48"/>
       <c r="AX22" s="48"/>
       <c r="AY22" s="48"/>
       <c r="AZ22" s="48"/>
-      <c r="BA22" s="146"/>
+      <c r="BA22" s="145"/>
       <c r="BB22" s="71"/>
       <c r="BC22" s="71"/>
       <c r="BD22" s="48"/>
       <c r="BE22" s="48"/>
       <c r="BF22" s="48"/>
       <c r="BG22" s="48"/>
-      <c r="BH22" s="146"/>
+      <c r="BH22" s="145"/>
       <c r="BI22" s="71"/>
       <c r="BJ22" s="71"/>
       <c r="BK22" s="48"/>
@@ -7661,31 +7662,31 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="277"/>
-      <c r="C23" s="296"/>
-      <c r="D23" s="258" t="s">
+      <c r="B23" s="283"/>
+      <c r="C23" s="287"/>
+      <c r="D23" s="257" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="261" t="s">
+      <c r="E23" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="262">
+      <c r="F23" s="261">
         <v>40350</v>
       </c>
-      <c r="G23" s="211"/>
-      <c r="H23" s="212"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="218"/>
-      <c r="K23" s="219"/>
-      <c r="L23" s="220"/>
-      <c r="M23" s="221"/>
-      <c r="N23" s="219"/>
-      <c r="O23" s="211"/>
-      <c r="P23" s="212"/>
-      <c r="Q23" s="212"/>
-      <c r="R23" s="212"/>
-      <c r="S23" s="226"/>
-      <c r="T23" s="226"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="212"/>
+      <c r="J23" s="217"/>
+      <c r="K23" s="218"/>
+      <c r="L23" s="219"/>
+      <c r="M23" s="220"/>
+      <c r="N23" s="218"/>
+      <c r="O23" s="210"/>
+      <c r="P23" s="211"/>
+      <c r="Q23" s="211"/>
+      <c r="R23" s="211"/>
+      <c r="S23" s="225"/>
+      <c r="T23" s="225"/>
       <c r="U23" s="48"/>
       <c r="V23" s="48"/>
       <c r="W23" s="48"/>
@@ -7711,21 +7712,21 @@
       <c r="AQ23" s="48"/>
       <c r="AR23" s="48"/>
       <c r="AS23" s="48"/>
-      <c r="AT23" s="146"/>
+      <c r="AT23" s="145"/>
       <c r="AU23" s="71"/>
       <c r="AV23" s="71"/>
       <c r="AW23" s="48"/>
       <c r="AX23" s="48"/>
       <c r="AY23" s="48"/>
       <c r="AZ23" s="48"/>
-      <c r="BA23" s="146"/>
+      <c r="BA23" s="145"/>
       <c r="BB23" s="71"/>
       <c r="BC23" s="71"/>
       <c r="BD23" s="48"/>
       <c r="BE23" s="48"/>
       <c r="BF23" s="48"/>
       <c r="BG23" s="48"/>
-      <c r="BH23" s="146"/>
+      <c r="BH23" s="145"/>
       <c r="BI23" s="71"/>
       <c r="BJ23" s="71"/>
       <c r="BK23" s="48"/>
@@ -7783,8 +7784,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="277"/>
-      <c r="C24" s="297" t="s">
+      <c r="B24" s="283"/>
+      <c r="C24" s="288" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7793,23 +7794,23 @@
       <c r="E24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="171">
+      <c r="F24" s="170">
         <v>40352</v>
       </c>
-      <c r="G24" s="222"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="224"/>
-      <c r="K24" s="223"/>
-      <c r="L24" s="225"/>
-      <c r="M24" s="225"/>
-      <c r="N24" s="213"/>
-      <c r="O24" s="201"/>
-      <c r="P24" s="201"/>
-      <c r="Q24" s="223"/>
-      <c r="R24" s="223"/>
-      <c r="S24" s="225"/>
-      <c r="T24" s="225"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="222"/>
+      <c r="I24" s="222"/>
+      <c r="J24" s="223"/>
+      <c r="K24" s="222"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="224"/>
+      <c r="N24" s="212"/>
+      <c r="O24" s="200"/>
+      <c r="P24" s="200"/>
+      <c r="Q24" s="222"/>
+      <c r="R24" s="222"/>
+      <c r="S24" s="224"/>
+      <c r="T24" s="224"/>
       <c r="U24" s="62"/>
       <c r="V24" s="62"/>
       <c r="W24" s="62"/>
@@ -7835,21 +7836,21 @@
       <c r="AQ24" s="62"/>
       <c r="AR24" s="62"/>
       <c r="AS24" s="62"/>
-      <c r="AT24" s="147"/>
+      <c r="AT24" s="146"/>
       <c r="AU24" s="72"/>
       <c r="AV24" s="72"/>
       <c r="AW24" s="62"/>
       <c r="AX24" s="62"/>
       <c r="AY24" s="62"/>
       <c r="AZ24" s="62"/>
-      <c r="BA24" s="147"/>
+      <c r="BA24" s="146"/>
       <c r="BB24" s="72"/>
       <c r="BC24" s="72"/>
       <c r="BD24" s="62"/>
       <c r="BE24" s="62"/>
       <c r="BF24" s="62"/>
       <c r="BG24" s="62"/>
-      <c r="BH24" s="147"/>
+      <c r="BH24" s="146"/>
       <c r="BI24" s="72"/>
       <c r="BJ24" s="72"/>
       <c r="BK24" s="62"/>
@@ -7907,31 +7908,31 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="277"/>
-      <c r="C25" s="297"/>
+      <c r="B25" s="283"/>
+      <c r="C25" s="288"/>
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="171">
+      <c r="F25" s="170">
         <v>40352</v>
       </c>
-      <c r="G25" s="211"/>
-      <c r="H25" s="212"/>
-      <c r="I25" s="212"/>
-      <c r="J25" s="212"/>
-      <c r="K25" s="212"/>
-      <c r="L25" s="226"/>
-      <c r="M25" s="226"/>
-      <c r="N25" s="212"/>
-      <c r="O25" s="201"/>
-      <c r="P25" s="201"/>
-      <c r="Q25" s="212"/>
-      <c r="R25" s="212"/>
-      <c r="S25" s="226"/>
-      <c r="T25" s="226"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="211"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="211"/>
+      <c r="K25" s="211"/>
+      <c r="L25" s="225"/>
+      <c r="M25" s="225"/>
+      <c r="N25" s="211"/>
+      <c r="O25" s="200"/>
+      <c r="P25" s="200"/>
+      <c r="Q25" s="211"/>
+      <c r="R25" s="211"/>
+      <c r="S25" s="225"/>
+      <c r="T25" s="225"/>
       <c r="U25" s="48"/>
       <c r="V25" s="48"/>
       <c r="W25" s="48"/>
@@ -7957,21 +7958,21 @@
       <c r="AQ25" s="48"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
-      <c r="AT25" s="146"/>
+      <c r="AT25" s="145"/>
       <c r="AU25" s="71"/>
       <c r="AV25" s="71"/>
       <c r="AW25" s="48"/>
       <c r="AX25" s="48"/>
       <c r="AY25" s="48"/>
       <c r="AZ25" s="48"/>
-      <c r="BA25" s="146"/>
+      <c r="BA25" s="145"/>
       <c r="BB25" s="71"/>
       <c r="BC25" s="71"/>
       <c r="BD25" s="48"/>
       <c r="BE25" s="48"/>
       <c r="BF25" s="48"/>
       <c r="BG25" s="48"/>
-      <c r="BH25" s="146"/>
+      <c r="BH25" s="145"/>
       <c r="BI25" s="71"/>
       <c r="BJ25" s="71"/>
       <c r="BK25" s="48"/>
@@ -8029,31 +8030,31 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="277"/>
-      <c r="C26" s="297"/>
+      <c r="B26" s="283"/>
+      <c r="C26" s="288"/>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="171">
+      <c r="F26" s="170">
         <v>40352</v>
       </c>
-      <c r="G26" s="211"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="212"/>
-      <c r="J26" s="212"/>
-      <c r="K26" s="212"/>
-      <c r="L26" s="226"/>
-      <c r="M26" s="226"/>
-      <c r="N26" s="212"/>
-      <c r="O26" s="201"/>
-      <c r="P26" s="201"/>
-      <c r="Q26" s="212"/>
-      <c r="R26" s="212"/>
-      <c r="S26" s="226"/>
-      <c r="T26" s="226"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="211"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="211"/>
+      <c r="K26" s="211"/>
+      <c r="L26" s="225"/>
+      <c r="M26" s="225"/>
+      <c r="N26" s="211"/>
+      <c r="O26" s="200"/>
+      <c r="P26" s="200"/>
+      <c r="Q26" s="211"/>
+      <c r="R26" s="211"/>
+      <c r="S26" s="225"/>
+      <c r="T26" s="225"/>
       <c r="U26" s="48"/>
       <c r="V26" s="48"/>
       <c r="W26" s="48"/>
@@ -8079,21 +8080,21 @@
       <c r="AQ26" s="48"/>
       <c r="AR26" s="48"/>
       <c r="AS26" s="48"/>
-      <c r="AT26" s="146"/>
+      <c r="AT26" s="145"/>
       <c r="AU26" s="71"/>
       <c r="AV26" s="71"/>
       <c r="AW26" s="48"/>
       <c r="AX26" s="48"/>
       <c r="AY26" s="48"/>
       <c r="AZ26" s="48"/>
-      <c r="BA26" s="146"/>
+      <c r="BA26" s="145"/>
       <c r="BB26" s="71"/>
       <c r="BC26" s="71"/>
       <c r="BD26" s="48"/>
       <c r="BE26" s="48"/>
       <c r="BF26" s="48"/>
       <c r="BG26" s="48"/>
-      <c r="BH26" s="146"/>
+      <c r="BH26" s="145"/>
       <c r="BI26" s="71"/>
       <c r="BJ26" s="71"/>
       <c r="BK26" s="48"/>
@@ -8151,31 +8152,31 @@
       <c r="DK26" s="52"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="277"/>
-      <c r="C27" s="297"/>
+      <c r="B27" s="283"/>
+      <c r="C27" s="288"/>
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="171">
+      <c r="F27" s="170">
         <v>40353</v>
       </c>
-      <c r="G27" s="211"/>
-      <c r="H27" s="212"/>
-      <c r="I27" s="212"/>
-      <c r="J27" s="212"/>
-      <c r="K27" s="212"/>
-      <c r="L27" s="226"/>
-      <c r="M27" s="226"/>
-      <c r="N27" s="212"/>
-      <c r="O27" s="212"/>
-      <c r="P27" s="212"/>
-      <c r="Q27" s="201"/>
-      <c r="R27" s="201"/>
-      <c r="S27" s="226"/>
-      <c r="T27" s="226"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="211"/>
+      <c r="J27" s="211"/>
+      <c r="K27" s="211"/>
+      <c r="L27" s="225"/>
+      <c r="M27" s="225"/>
+      <c r="N27" s="211"/>
+      <c r="O27" s="211"/>
+      <c r="P27" s="211"/>
+      <c r="Q27" s="200"/>
+      <c r="R27" s="200"/>
+      <c r="S27" s="225"/>
+      <c r="T27" s="225"/>
       <c r="U27" s="48"/>
       <c r="V27" s="48"/>
       <c r="W27" s="48"/>
@@ -8201,21 +8202,21 @@
       <c r="AQ27" s="48"/>
       <c r="AR27" s="48"/>
       <c r="AS27" s="48"/>
-      <c r="AT27" s="146"/>
+      <c r="AT27" s="145"/>
       <c r="AU27" s="71"/>
       <c r="AV27" s="71"/>
       <c r="AW27" s="48"/>
       <c r="AX27" s="48"/>
       <c r="AY27" s="48"/>
       <c r="AZ27" s="48"/>
-      <c r="BA27" s="146"/>
+      <c r="BA27" s="145"/>
       <c r="BB27" s="71"/>
       <c r="BC27" s="71"/>
       <c r="BD27" s="48"/>
       <c r="BE27" s="48"/>
       <c r="BF27" s="48"/>
       <c r="BG27" s="48"/>
-      <c r="BH27" s="146"/>
+      <c r="BH27" s="145"/>
       <c r="BI27" s="71"/>
       <c r="BJ27" s="71"/>
       <c r="BK27" s="48"/>
@@ -8273,31 +8274,31 @@
       <c r="DK27" s="52"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="277"/>
-      <c r="C28" s="297"/>
+      <c r="B28" s="283"/>
+      <c r="C28" s="288"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="171">
+      <c r="F28" s="170">
         <v>40353</v>
       </c>
-      <c r="G28" s="211"/>
-      <c r="H28" s="212"/>
-      <c r="I28" s="212"/>
-      <c r="J28" s="212"/>
-      <c r="K28" s="212"/>
-      <c r="L28" s="226"/>
-      <c r="M28" s="226"/>
-      <c r="N28" s="212"/>
-      <c r="O28" s="212"/>
-      <c r="P28" s="212"/>
-      <c r="Q28" s="201"/>
-      <c r="R28" s="201"/>
-      <c r="S28" s="226"/>
-      <c r="T28" s="226"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="211"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="211"/>
+      <c r="K28" s="211"/>
+      <c r="L28" s="225"/>
+      <c r="M28" s="225"/>
+      <c r="N28" s="211"/>
+      <c r="O28" s="211"/>
+      <c r="P28" s="211"/>
+      <c r="Q28" s="200"/>
+      <c r="R28" s="200"/>
+      <c r="S28" s="225"/>
+      <c r="T28" s="225"/>
       <c r="U28" s="48"/>
       <c r="V28" s="48"/>
       <c r="W28" s="48"/>
@@ -8323,21 +8324,21 @@
       <c r="AQ28" s="48"/>
       <c r="AR28" s="48"/>
       <c r="AS28" s="48"/>
-      <c r="AT28" s="146"/>
+      <c r="AT28" s="145"/>
       <c r="AU28" s="71"/>
       <c r="AV28" s="71"/>
       <c r="AW28" s="48"/>
       <c r="AX28" s="48"/>
       <c r="AY28" s="48"/>
       <c r="AZ28" s="48"/>
-      <c r="BA28" s="146"/>
+      <c r="BA28" s="145"/>
       <c r="BB28" s="71"/>
       <c r="BC28" s="71"/>
       <c r="BD28" s="48"/>
       <c r="BE28" s="48"/>
       <c r="BF28" s="48"/>
       <c r="BG28" s="48"/>
-      <c r="BH28" s="146"/>
+      <c r="BH28" s="145"/>
       <c r="BI28" s="71"/>
       <c r="BJ28" s="71"/>
       <c r="BK28" s="48"/>
@@ -8395,31 +8396,31 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="277"/>
-      <c r="C29" s="297"/>
+      <c r="B29" s="283"/>
+      <c r="C29" s="288"/>
       <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="171">
+      <c r="F29" s="170">
         <v>40354</v>
       </c>
-      <c r="G29" s="211"/>
-      <c r="H29" s="212"/>
-      <c r="I29" s="212"/>
-      <c r="J29" s="212"/>
-      <c r="K29" s="212"/>
-      <c r="L29" s="226"/>
-      <c r="M29" s="226"/>
-      <c r="N29" s="212"/>
-      <c r="O29" s="212"/>
-      <c r="P29" s="201"/>
-      <c r="Q29" s="201"/>
-      <c r="R29" s="212"/>
-      <c r="S29" s="226"/>
-      <c r="T29" s="226"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="211"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="211"/>
+      <c r="K29" s="211"/>
+      <c r="L29" s="225"/>
+      <c r="M29" s="225"/>
+      <c r="N29" s="211"/>
+      <c r="O29" s="211"/>
+      <c r="P29" s="200"/>
+      <c r="Q29" s="200"/>
+      <c r="R29" s="211"/>
+      <c r="S29" s="225"/>
+      <c r="T29" s="225"/>
       <c r="U29" s="48"/>
       <c r="V29" s="48"/>
       <c r="W29" s="48"/>
@@ -8445,21 +8446,21 @@
       <c r="AQ29" s="48"/>
       <c r="AR29" s="48"/>
       <c r="AS29" s="48"/>
-      <c r="AT29" s="146"/>
+      <c r="AT29" s="145"/>
       <c r="AU29" s="71"/>
       <c r="AV29" s="71"/>
       <c r="AW29" s="48"/>
       <c r="AX29" s="48"/>
       <c r="AY29" s="48"/>
       <c r="AZ29" s="48"/>
-      <c r="BA29" s="146"/>
+      <c r="BA29" s="145"/>
       <c r="BB29" s="71"/>
       <c r="BC29" s="71"/>
       <c r="BD29" s="48"/>
       <c r="BE29" s="48"/>
       <c r="BF29" s="48"/>
       <c r="BG29" s="48"/>
-      <c r="BH29" s="146"/>
+      <c r="BH29" s="145"/>
       <c r="BI29" s="71"/>
       <c r="BJ29" s="71"/>
       <c r="BK29" s="48"/>
@@ -8517,31 +8518,31 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="277"/>
-      <c r="C30" s="297"/>
+      <c r="B30" s="283"/>
+      <c r="C30" s="288"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="171">
+      <c r="F30" s="170">
         <v>40354</v>
       </c>
-      <c r="G30" s="211"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="212"/>
-      <c r="J30" s="212"/>
-      <c r="K30" s="212"/>
-      <c r="L30" s="226"/>
-      <c r="M30" s="226"/>
-      <c r="N30" s="212"/>
-      <c r="O30" s="212"/>
-      <c r="P30" s="201"/>
-      <c r="Q30" s="201"/>
-      <c r="R30" s="212"/>
-      <c r="S30" s="226"/>
-      <c r="T30" s="226"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="211"/>
+      <c r="J30" s="211"/>
+      <c r="K30" s="211"/>
+      <c r="L30" s="225"/>
+      <c r="M30" s="225"/>
+      <c r="N30" s="211"/>
+      <c r="O30" s="211"/>
+      <c r="P30" s="200"/>
+      <c r="Q30" s="200"/>
+      <c r="R30" s="211"/>
+      <c r="S30" s="225"/>
+      <c r="T30" s="225"/>
       <c r="U30" s="48"/>
       <c r="V30" s="48"/>
       <c r="W30" s="48"/>
@@ -8567,21 +8568,21 @@
       <c r="AQ30" s="48"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="48"/>
-      <c r="AT30" s="146"/>
+      <c r="AT30" s="145"/>
       <c r="AU30" s="71"/>
       <c r="AV30" s="71"/>
       <c r="AW30" s="48"/>
       <c r="AX30" s="48"/>
       <c r="AY30" s="48"/>
       <c r="AZ30" s="48"/>
-      <c r="BA30" s="146"/>
+      <c r="BA30" s="145"/>
       <c r="BB30" s="71"/>
       <c r="BC30" s="71"/>
       <c r="BD30" s="48"/>
       <c r="BE30" s="48"/>
       <c r="BF30" s="48"/>
       <c r="BG30" s="48"/>
-      <c r="BH30" s="146"/>
+      <c r="BH30" s="145"/>
       <c r="BI30" s="71"/>
       <c r="BJ30" s="71"/>
       <c r="BK30" s="48"/>
@@ -8639,33 +8640,33 @@
       <c r="DK30" s="52"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="277"/>
-      <c r="C31" s="297"/>
+      <c r="B31" s="283"/>
+      <c r="C31" s="288"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="171">
+      <c r="F31" s="170">
         <v>40358</v>
       </c>
-      <c r="G31" s="211"/>
-      <c r="H31" s="212"/>
-      <c r="I31" s="212"/>
-      <c r="J31" s="212"/>
-      <c r="K31" s="212"/>
-      <c r="L31" s="226"/>
-      <c r="M31" s="226"/>
-      <c r="N31" s="212"/>
-      <c r="O31" s="212"/>
-      <c r="P31" s="212"/>
-      <c r="Q31" s="212"/>
-      <c r="R31" s="212"/>
-      <c r="S31" s="226"/>
-      <c r="T31" s="226"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="211"/>
+      <c r="I31" s="211"/>
+      <c r="J31" s="211"/>
+      <c r="K31" s="211"/>
+      <c r="L31" s="225"/>
+      <c r="M31" s="225"/>
+      <c r="N31" s="211"/>
+      <c r="O31" s="211"/>
+      <c r="P31" s="211"/>
+      <c r="Q31" s="211"/>
+      <c r="R31" s="211"/>
+      <c r="S31" s="225"/>
+      <c r="T31" s="225"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="121"/>
       <c r="W31" s="48"/>
       <c r="X31" s="48"/>
       <c r="Y31" s="48"/>
@@ -8689,21 +8690,21 @@
       <c r="AQ31" s="48"/>
       <c r="AR31" s="48"/>
       <c r="AS31" s="48"/>
-      <c r="AT31" s="146"/>
+      <c r="AT31" s="145"/>
       <c r="AU31" s="71"/>
       <c r="AV31" s="71"/>
       <c r="AW31" s="48"/>
       <c r="AX31" s="48"/>
       <c r="AY31" s="48"/>
       <c r="AZ31" s="48"/>
-      <c r="BA31" s="146"/>
+      <c r="BA31" s="145"/>
       <c r="BB31" s="71"/>
       <c r="BC31" s="71"/>
       <c r="BD31" s="48"/>
       <c r="BE31" s="48"/>
       <c r="BF31" s="48"/>
       <c r="BG31" s="48"/>
-      <c r="BH31" s="146"/>
+      <c r="BH31" s="145"/>
       <c r="BI31" s="71"/>
       <c r="BJ31" s="71"/>
       <c r="BK31" s="48"/>
@@ -8761,34 +8762,34 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="277"/>
-      <c r="C32" s="297"/>
+      <c r="B32" s="283"/>
+      <c r="C32" s="288"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="171">
+      <c r="F32" s="170">
         <v>40359</v>
       </c>
-      <c r="G32" s="211"/>
-      <c r="H32" s="212"/>
-      <c r="I32" s="212"/>
-      <c r="J32" s="212"/>
-      <c r="K32" s="212"/>
-      <c r="L32" s="226"/>
-      <c r="M32" s="226"/>
-      <c r="N32" s="212"/>
-      <c r="O32" s="212"/>
-      <c r="P32" s="212"/>
-      <c r="Q32" s="212"/>
-      <c r="R32" s="212"/>
-      <c r="S32" s="226"/>
-      <c r="T32" s="226"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="211"/>
+      <c r="I32" s="211"/>
+      <c r="J32" s="211"/>
+      <c r="K32" s="211"/>
+      <c r="L32" s="225"/>
+      <c r="M32" s="225"/>
+      <c r="N32" s="211"/>
+      <c r="O32" s="211"/>
+      <c r="P32" s="211"/>
+      <c r="Q32" s="211"/>
+      <c r="R32" s="211"/>
+      <c r="S32" s="225"/>
+      <c r="T32" s="225"/>
       <c r="U32" s="48"/>
       <c r="V32" s="48"/>
-      <c r="W32" s="122"/>
+      <c r="W32" s="121"/>
       <c r="X32" s="48"/>
       <c r="Y32" s="48"/>
       <c r="Z32" s="71"/>
@@ -8811,21 +8812,21 @@
       <c r="AQ32" s="48"/>
       <c r="AR32" s="48"/>
       <c r="AS32" s="48"/>
-      <c r="AT32" s="146"/>
+      <c r="AT32" s="145"/>
       <c r="AU32" s="71"/>
       <c r="AV32" s="71"/>
       <c r="AW32" s="48"/>
       <c r="AX32" s="48"/>
       <c r="AY32" s="48"/>
       <c r="AZ32" s="48"/>
-      <c r="BA32" s="146"/>
+      <c r="BA32" s="145"/>
       <c r="BB32" s="71"/>
       <c r="BC32" s="71"/>
       <c r="BD32" s="48"/>
       <c r="BE32" s="48"/>
       <c r="BF32" s="48"/>
       <c r="BG32" s="48"/>
-      <c r="BH32" s="146"/>
+      <c r="BH32" s="145"/>
       <c r="BI32" s="71"/>
       <c r="BJ32" s="71"/>
       <c r="BK32" s="48"/>
@@ -8883,31 +8884,31 @@
       <c r="DK32" s="52"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="277"/>
-      <c r="C33" s="297"/>
+      <c r="B33" s="283"/>
+      <c r="C33" s="288"/>
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="171">
+      <c r="F33" s="170">
         <v>40357</v>
       </c>
-      <c r="G33" s="211"/>
-      <c r="H33" s="212"/>
-      <c r="I33" s="212"/>
-      <c r="J33" s="212"/>
-      <c r="K33" s="212"/>
-      <c r="L33" s="226"/>
-      <c r="M33" s="226"/>
-      <c r="N33" s="212"/>
-      <c r="O33" s="212"/>
-      <c r="P33" s="212"/>
-      <c r="Q33" s="201"/>
-      <c r="R33" s="212"/>
-      <c r="S33" s="226"/>
-      <c r="T33" s="226"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="211"/>
+      <c r="K33" s="211"/>
+      <c r="L33" s="225"/>
+      <c r="M33" s="225"/>
+      <c r="N33" s="211"/>
+      <c r="O33" s="211"/>
+      <c r="P33" s="211"/>
+      <c r="Q33" s="200"/>
+      <c r="R33" s="211"/>
+      <c r="S33" s="225"/>
+      <c r="T33" s="225"/>
       <c r="U33" s="48"/>
       <c r="V33" s="48"/>
       <c r="W33" s="48"/>
@@ -8933,21 +8934,21 @@
       <c r="AQ33" s="48"/>
       <c r="AR33" s="48"/>
       <c r="AS33" s="48"/>
-      <c r="AT33" s="146"/>
+      <c r="AT33" s="145"/>
       <c r="AU33" s="71"/>
       <c r="AV33" s="71"/>
       <c r="AW33" s="48"/>
       <c r="AX33" s="48"/>
       <c r="AY33" s="48"/>
       <c r="AZ33" s="48"/>
-      <c r="BA33" s="146"/>
+      <c r="BA33" s="145"/>
       <c r="BB33" s="71"/>
       <c r="BC33" s="71"/>
       <c r="BD33" s="48"/>
       <c r="BE33" s="48"/>
       <c r="BF33" s="48"/>
       <c r="BG33" s="48"/>
-      <c r="BH33" s="146"/>
+      <c r="BH33" s="145"/>
       <c r="BI33" s="71"/>
       <c r="BJ33" s="71"/>
       <c r="BK33" s="48"/>
@@ -9005,33 +9006,33 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="277"/>
-      <c r="C34" s="297"/>
+      <c r="B34" s="283"/>
+      <c r="C34" s="288"/>
       <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="171">
+      <c r="F34" s="170">
         <v>40357</v>
       </c>
-      <c r="G34" s="211"/>
-      <c r="H34" s="212"/>
-      <c r="I34" s="212"/>
-      <c r="J34" s="212"/>
-      <c r="K34" s="212"/>
-      <c r="L34" s="226"/>
-      <c r="M34" s="226"/>
-      <c r="N34" s="212"/>
-      <c r="O34" s="212"/>
-      <c r="P34" s="212"/>
-      <c r="Q34" s="212"/>
-      <c r="R34" s="212"/>
-      <c r="S34" s="226"/>
-      <c r="T34" s="226"/>
-      <c r="U34" s="122"/>
-      <c r="V34" s="122"/>
+      <c r="G34" s="210"/>
+      <c r="H34" s="211"/>
+      <c r="I34" s="211"/>
+      <c r="J34" s="211"/>
+      <c r="K34" s="211"/>
+      <c r="L34" s="225"/>
+      <c r="M34" s="225"/>
+      <c r="N34" s="211"/>
+      <c r="O34" s="211"/>
+      <c r="P34" s="211"/>
+      <c r="Q34" s="211"/>
+      <c r="R34" s="211"/>
+      <c r="S34" s="225"/>
+      <c r="T34" s="225"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="121"/>
       <c r="W34" s="48"/>
       <c r="X34" s="48"/>
       <c r="Y34" s="48"/>
@@ -9055,21 +9056,21 @@
       <c r="AQ34" s="48"/>
       <c r="AR34" s="48"/>
       <c r="AS34" s="48"/>
-      <c r="AT34" s="146"/>
+      <c r="AT34" s="145"/>
       <c r="AU34" s="71"/>
       <c r="AV34" s="71"/>
       <c r="AW34" s="48"/>
       <c r="AX34" s="48"/>
       <c r="AY34" s="48"/>
       <c r="AZ34" s="48"/>
-      <c r="BA34" s="146"/>
+      <c r="BA34" s="145"/>
       <c r="BB34" s="71"/>
       <c r="BC34" s="71"/>
       <c r="BD34" s="48"/>
       <c r="BE34" s="48"/>
       <c r="BF34" s="48"/>
       <c r="BG34" s="48"/>
-      <c r="BH34" s="146"/>
+      <c r="BH34" s="145"/>
       <c r="BI34" s="71"/>
       <c r="BJ34" s="71"/>
       <c r="BK34" s="48"/>
@@ -9127,35 +9128,35 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="277"/>
-      <c r="C35" s="297"/>
+      <c r="B35" s="283"/>
+      <c r="C35" s="288"/>
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="171">
+      <c r="F35" s="170">
         <v>40360</v>
       </c>
-      <c r="G35" s="211"/>
-      <c r="H35" s="212"/>
-      <c r="I35" s="212"/>
-      <c r="J35" s="212"/>
-      <c r="K35" s="212"/>
-      <c r="L35" s="226"/>
-      <c r="M35" s="226"/>
-      <c r="N35" s="212"/>
-      <c r="O35" s="212"/>
-      <c r="P35" s="212"/>
-      <c r="Q35" s="212"/>
-      <c r="R35" s="212"/>
-      <c r="S35" s="226"/>
-      <c r="T35" s="226"/>
+      <c r="G35" s="210"/>
+      <c r="H35" s="211"/>
+      <c r="I35" s="211"/>
+      <c r="J35" s="211"/>
+      <c r="K35" s="211"/>
+      <c r="L35" s="225"/>
+      <c r="M35" s="225"/>
+      <c r="N35" s="211"/>
+      <c r="O35" s="211"/>
+      <c r="P35" s="211"/>
+      <c r="Q35" s="211"/>
+      <c r="R35" s="211"/>
+      <c r="S35" s="225"/>
+      <c r="T35" s="225"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
-      <c r="X35" s="122"/>
+      <c r="X35" s="121"/>
       <c r="Y35" s="48"/>
       <c r="Z35" s="71"/>
       <c r="AA35" s="71"/>
@@ -9177,21 +9178,21 @@
       <c r="AQ35" s="48"/>
       <c r="AR35" s="48"/>
       <c r="AS35" s="48"/>
-      <c r="AT35" s="146"/>
+      <c r="AT35" s="145"/>
       <c r="AU35" s="71"/>
       <c r="AV35" s="71"/>
       <c r="AW35" s="48"/>
       <c r="AX35" s="48"/>
       <c r="AY35" s="48"/>
       <c r="AZ35" s="48"/>
-      <c r="BA35" s="146"/>
+      <c r="BA35" s="145"/>
       <c r="BB35" s="71"/>
       <c r="BC35" s="71"/>
       <c r="BD35" s="48"/>
       <c r="BE35" s="48"/>
       <c r="BF35" s="48"/>
       <c r="BG35" s="48"/>
-      <c r="BH35" s="146"/>
+      <c r="BH35" s="145"/>
       <c r="BI35" s="71"/>
       <c r="BJ35" s="71"/>
       <c r="BK35" s="48"/>
@@ -9249,36 +9250,36 @@
       <c r="DK35" s="52"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="277"/>
-      <c r="C36" s="297"/>
+      <c r="B36" s="283"/>
+      <c r="C36" s="288"/>
       <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="171">
+      <c r="F36" s="170">
         <v>40361</v>
       </c>
-      <c r="G36" s="211"/>
-      <c r="H36" s="212"/>
-      <c r="I36" s="212"/>
-      <c r="J36" s="212"/>
-      <c r="K36" s="212"/>
-      <c r="L36" s="226"/>
-      <c r="M36" s="226"/>
-      <c r="N36" s="212"/>
-      <c r="O36" s="212"/>
-      <c r="P36" s="212"/>
-      <c r="Q36" s="212"/>
-      <c r="R36" s="212"/>
-      <c r="S36" s="226"/>
-      <c r="T36" s="226"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="211"/>
+      <c r="J36" s="211"/>
+      <c r="K36" s="211"/>
+      <c r="L36" s="225"/>
+      <c r="M36" s="225"/>
+      <c r="N36" s="211"/>
+      <c r="O36" s="211"/>
+      <c r="P36" s="211"/>
+      <c r="Q36" s="211"/>
+      <c r="R36" s="211"/>
+      <c r="S36" s="225"/>
+      <c r="T36" s="225"/>
       <c r="U36" s="48"/>
       <c r="V36" s="48"/>
-      <c r="W36" s="122"/>
-      <c r="X36" s="122"/>
-      <c r="Y36" s="122"/>
+      <c r="W36" s="121"/>
+      <c r="X36" s="121"/>
+      <c r="Y36" s="121"/>
       <c r="Z36" s="71"/>
       <c r="AA36" s="71"/>
       <c r="AB36" s="48"/>
@@ -9299,21 +9300,21 @@
       <c r="AQ36" s="48"/>
       <c r="AR36" s="48"/>
       <c r="AS36" s="48"/>
-      <c r="AT36" s="146"/>
+      <c r="AT36" s="145"/>
       <c r="AU36" s="71"/>
       <c r="AV36" s="71"/>
       <c r="AW36" s="48"/>
       <c r="AX36" s="48"/>
       <c r="AY36" s="48"/>
       <c r="AZ36" s="48"/>
-      <c r="BA36" s="146"/>
+      <c r="BA36" s="145"/>
       <c r="BB36" s="71"/>
       <c r="BC36" s="71"/>
       <c r="BD36" s="48"/>
       <c r="BE36" s="48"/>
       <c r="BF36" s="48"/>
       <c r="BG36" s="48"/>
-      <c r="BH36" s="146"/>
+      <c r="BH36" s="145"/>
       <c r="BI36" s="71"/>
       <c r="BJ36" s="71"/>
       <c r="BK36" s="48"/>
@@ -9371,34 +9372,34 @@
       <c r="DK36" s="52"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="277"/>
-      <c r="C37" s="297"/>
+      <c r="B37" s="283"/>
+      <c r="C37" s="288"/>
       <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="171">
+      <c r="F37" s="170">
         <v>40350</v>
       </c>
-      <c r="G37" s="211"/>
-      <c r="H37" s="212"/>
-      <c r="I37" s="212"/>
-      <c r="J37" s="212"/>
-      <c r="K37" s="212"/>
-      <c r="L37" s="226"/>
-      <c r="M37" s="226"/>
-      <c r="N37" s="212"/>
-      <c r="O37" s="212"/>
-      <c r="P37" s="212"/>
-      <c r="Q37" s="212"/>
-      <c r="R37" s="212"/>
-      <c r="S37" s="226"/>
-      <c r="T37" s="226"/>
-      <c r="U37" s="122"/>
-      <c r="V37" s="122"/>
-      <c r="W37" s="122"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="211"/>
+      <c r="J37" s="211"/>
+      <c r="K37" s="211"/>
+      <c r="L37" s="225"/>
+      <c r="M37" s="225"/>
+      <c r="N37" s="211"/>
+      <c r="O37" s="211"/>
+      <c r="P37" s="211"/>
+      <c r="Q37" s="211"/>
+      <c r="R37" s="211"/>
+      <c r="S37" s="225"/>
+      <c r="T37" s="225"/>
+      <c r="U37" s="121"/>
+      <c r="V37" s="121"/>
+      <c r="W37" s="121"/>
       <c r="X37" s="48"/>
       <c r="Y37" s="48"/>
       <c r="Z37" s="71"/>
@@ -9421,21 +9422,21 @@
       <c r="AQ37" s="48"/>
       <c r="AR37" s="48"/>
       <c r="AS37" s="48"/>
-      <c r="AT37" s="146"/>
+      <c r="AT37" s="145"/>
       <c r="AU37" s="71"/>
       <c r="AV37" s="71"/>
       <c r="AW37" s="48"/>
       <c r="AX37" s="48"/>
       <c r="AY37" s="48"/>
       <c r="AZ37" s="48"/>
-      <c r="BA37" s="146"/>
+      <c r="BA37" s="145"/>
       <c r="BB37" s="71"/>
       <c r="BC37" s="71"/>
       <c r="BD37" s="48"/>
       <c r="BE37" s="48"/>
       <c r="BF37" s="48"/>
       <c r="BG37" s="48"/>
-      <c r="BH37" s="146"/>
+      <c r="BH37" s="145"/>
       <c r="BI37" s="71"/>
       <c r="BJ37" s="71"/>
       <c r="BK37" s="48"/>
@@ -9493,31 +9494,31 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="277"/>
-      <c r="C38" s="297"/>
+      <c r="B38" s="283"/>
+      <c r="C38" s="288"/>
       <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="171">
+      <c r="F38" s="170">
         <v>40353</v>
       </c>
-      <c r="G38" s="211"/>
-      <c r="H38" s="212"/>
-      <c r="I38" s="212"/>
-      <c r="J38" s="212"/>
-      <c r="K38" s="212"/>
-      <c r="L38" s="226"/>
-      <c r="M38" s="226"/>
-      <c r="N38" s="212"/>
-      <c r="O38" s="212"/>
-      <c r="P38" s="201"/>
-      <c r="Q38" s="201"/>
-      <c r="R38" s="212"/>
-      <c r="S38" s="226"/>
-      <c r="T38" s="226"/>
+      <c r="G38" s="210"/>
+      <c r="H38" s="211"/>
+      <c r="I38" s="211"/>
+      <c r="J38" s="211"/>
+      <c r="K38" s="211"/>
+      <c r="L38" s="225"/>
+      <c r="M38" s="225"/>
+      <c r="N38" s="211"/>
+      <c r="O38" s="211"/>
+      <c r="P38" s="200"/>
+      <c r="Q38" s="200"/>
+      <c r="R38" s="211"/>
+      <c r="S38" s="225"/>
+      <c r="T38" s="225"/>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
       <c r="W38" s="48"/>
@@ -9543,21 +9544,21 @@
       <c r="AQ38" s="48"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="48"/>
-      <c r="AT38" s="146"/>
+      <c r="AT38" s="145"/>
       <c r="AU38" s="71"/>
       <c r="AV38" s="71"/>
       <c r="AW38" s="48"/>
       <c r="AX38" s="48"/>
       <c r="AY38" s="48"/>
       <c r="AZ38" s="48"/>
-      <c r="BA38" s="146"/>
+      <c r="BA38" s="145"/>
       <c r="BB38" s="71"/>
       <c r="BC38" s="71"/>
       <c r="BD38" s="48"/>
       <c r="BE38" s="48"/>
       <c r="BF38" s="48"/>
       <c r="BG38" s="48"/>
-      <c r="BH38" s="146"/>
+      <c r="BH38" s="145"/>
       <c r="BI38" s="71"/>
       <c r="BJ38" s="71"/>
       <c r="BK38" s="48"/>
@@ -9615,31 +9616,31 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="277"/>
-      <c r="C39" s="297"/>
+      <c r="B39" s="283"/>
+      <c r="C39" s="288"/>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="171">
+      <c r="F39" s="170">
         <v>40352</v>
       </c>
-      <c r="G39" s="211"/>
-      <c r="H39" s="212"/>
-      <c r="I39" s="212"/>
-      <c r="J39" s="212"/>
-      <c r="K39" s="212"/>
-      <c r="L39" s="226"/>
-      <c r="M39" s="226"/>
-      <c r="N39" s="212"/>
-      <c r="O39" s="201"/>
-      <c r="P39" s="201"/>
-      <c r="Q39" s="212"/>
-      <c r="R39" s="212"/>
-      <c r="S39" s="226"/>
-      <c r="T39" s="226"/>
+      <c r="G39" s="210"/>
+      <c r="H39" s="211"/>
+      <c r="I39" s="211"/>
+      <c r="J39" s="211"/>
+      <c r="K39" s="211"/>
+      <c r="L39" s="225"/>
+      <c r="M39" s="225"/>
+      <c r="N39" s="211"/>
+      <c r="O39" s="200"/>
+      <c r="P39" s="200"/>
+      <c r="Q39" s="211"/>
+      <c r="R39" s="211"/>
+      <c r="S39" s="225"/>
+      <c r="T39" s="225"/>
       <c r="U39" s="48"/>
       <c r="V39" s="48"/>
       <c r="W39" s="48"/>
@@ -9665,21 +9666,21 @@
       <c r="AQ39" s="48"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="48"/>
-      <c r="AT39" s="146"/>
+      <c r="AT39" s="145"/>
       <c r="AU39" s="71"/>
       <c r="AV39" s="71"/>
       <c r="AW39" s="48"/>
       <c r="AX39" s="48"/>
       <c r="AY39" s="48"/>
       <c r="AZ39" s="48"/>
-      <c r="BA39" s="146"/>
+      <c r="BA39" s="145"/>
       <c r="BB39" s="71"/>
       <c r="BC39" s="71"/>
       <c r="BD39" s="48"/>
       <c r="BE39" s="48"/>
       <c r="BF39" s="48"/>
       <c r="BG39" s="48"/>
-      <c r="BH39" s="146"/>
+      <c r="BH39" s="145"/>
       <c r="BI39" s="71"/>
       <c r="BJ39" s="71"/>
       <c r="BK39" s="48"/>
@@ -9737,33 +9738,33 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="277"/>
-      <c r="C40" s="297"/>
+      <c r="B40" s="283"/>
+      <c r="C40" s="288"/>
       <c r="D40" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="171">
+      <c r="F40" s="170">
         <v>40358</v>
       </c>
-      <c r="G40" s="211"/>
-      <c r="H40" s="212"/>
-      <c r="I40" s="212"/>
-      <c r="J40" s="212"/>
-      <c r="K40" s="212"/>
-      <c r="L40" s="226"/>
-      <c r="M40" s="226"/>
-      <c r="N40" s="212"/>
-      <c r="O40" s="212"/>
-      <c r="P40" s="212"/>
-      <c r="Q40" s="212"/>
-      <c r="R40" s="212"/>
-      <c r="S40" s="226"/>
-      <c r="T40" s="226"/>
-      <c r="U40" s="122"/>
-      <c r="V40" s="122"/>
+      <c r="G40" s="210"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="211"/>
+      <c r="J40" s="211"/>
+      <c r="K40" s="211"/>
+      <c r="L40" s="225"/>
+      <c r="M40" s="225"/>
+      <c r="N40" s="211"/>
+      <c r="O40" s="211"/>
+      <c r="P40" s="211"/>
+      <c r="Q40" s="211"/>
+      <c r="R40" s="211"/>
+      <c r="S40" s="225"/>
+      <c r="T40" s="225"/>
+      <c r="U40" s="121"/>
+      <c r="V40" s="121"/>
       <c r="W40" s="48"/>
       <c r="X40" s="48"/>
       <c r="Y40" s="48"/>
@@ -9787,21 +9788,21 @@
       <c r="AQ40" s="48"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="48"/>
-      <c r="AT40" s="146"/>
+      <c r="AT40" s="145"/>
       <c r="AU40" s="71"/>
       <c r="AV40" s="71"/>
       <c r="AW40" s="48"/>
       <c r="AX40" s="48"/>
       <c r="AY40" s="48"/>
       <c r="AZ40" s="48"/>
-      <c r="BA40" s="146"/>
+      <c r="BA40" s="145"/>
       <c r="BB40" s="71"/>
       <c r="BC40" s="71"/>
       <c r="BD40" s="48"/>
       <c r="BE40" s="48"/>
       <c r="BF40" s="48"/>
       <c r="BG40" s="48"/>
-      <c r="BH40" s="146"/>
+      <c r="BH40" s="145"/>
       <c r="BI40" s="71"/>
       <c r="BJ40" s="71"/>
       <c r="BK40" s="48"/>
@@ -9859,34 +9860,34 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="277"/>
-      <c r="C41" s="297"/>
+      <c r="B41" s="283"/>
+      <c r="C41" s="288"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="171">
+      <c r="F41" s="170">
         <v>40359</v>
       </c>
-      <c r="G41" s="211"/>
-      <c r="H41" s="212"/>
-      <c r="I41" s="212"/>
-      <c r="J41" s="212"/>
-      <c r="K41" s="212"/>
-      <c r="L41" s="226"/>
-      <c r="M41" s="226"/>
-      <c r="N41" s="212"/>
-      <c r="O41" s="212"/>
-      <c r="P41" s="212"/>
-      <c r="Q41" s="212"/>
-      <c r="R41" s="212"/>
-      <c r="S41" s="226"/>
-      <c r="T41" s="226"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="211"/>
+      <c r="I41" s="211"/>
+      <c r="J41" s="211"/>
+      <c r="K41" s="211"/>
+      <c r="L41" s="225"/>
+      <c r="M41" s="225"/>
+      <c r="N41" s="211"/>
+      <c r="O41" s="211"/>
+      <c r="P41" s="211"/>
+      <c r="Q41" s="211"/>
+      <c r="R41" s="211"/>
+      <c r="S41" s="225"/>
+      <c r="T41" s="225"/>
       <c r="U41" s="48"/>
-      <c r="V41" s="122"/>
-      <c r="W41" s="122"/>
+      <c r="V41" s="121"/>
+      <c r="W41" s="121"/>
       <c r="X41" s="48"/>
       <c r="Y41" s="48"/>
       <c r="Z41" s="71"/>
@@ -9909,21 +9910,21 @@
       <c r="AQ41" s="48"/>
       <c r="AR41" s="48"/>
       <c r="AS41" s="48"/>
-      <c r="AT41" s="146"/>
+      <c r="AT41" s="145"/>
       <c r="AU41" s="71"/>
       <c r="AV41" s="71"/>
       <c r="AW41" s="48"/>
       <c r="AX41" s="48"/>
       <c r="AY41" s="48"/>
       <c r="AZ41" s="48"/>
-      <c r="BA41" s="146"/>
+      <c r="BA41" s="145"/>
       <c r="BB41" s="71"/>
       <c r="BC41" s="71"/>
       <c r="BD41" s="48"/>
       <c r="BE41" s="48"/>
       <c r="BF41" s="48"/>
       <c r="BG41" s="48"/>
-      <c r="BH41" s="146"/>
+      <c r="BH41" s="145"/>
       <c r="BI41" s="71"/>
       <c r="BJ41" s="71"/>
       <c r="BK41" s="48"/>
@@ -9981,35 +9982,35 @@
       <c r="DK41" s="52"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="277"/>
-      <c r="C42" s="297"/>
+      <c r="B42" s="283"/>
+      <c r="C42" s="288"/>
       <c r="D42" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="171">
+      <c r="F42" s="170">
         <v>40360</v>
       </c>
-      <c r="G42" s="211"/>
-      <c r="H42" s="212"/>
-      <c r="I42" s="212"/>
-      <c r="J42" s="212"/>
-      <c r="K42" s="212"/>
-      <c r="L42" s="226"/>
-      <c r="M42" s="226"/>
-      <c r="N42" s="212"/>
-      <c r="O42" s="212"/>
-      <c r="P42" s="212"/>
-      <c r="Q42" s="212"/>
-      <c r="R42" s="212"/>
-      <c r="S42" s="226"/>
-      <c r="T42" s="226"/>
+      <c r="G42" s="210"/>
+      <c r="H42" s="211"/>
+      <c r="I42" s="211"/>
+      <c r="J42" s="211"/>
+      <c r="K42" s="211"/>
+      <c r="L42" s="225"/>
+      <c r="M42" s="225"/>
+      <c r="N42" s="211"/>
+      <c r="O42" s="211"/>
+      <c r="P42" s="211"/>
+      <c r="Q42" s="211"/>
+      <c r="R42" s="211"/>
+      <c r="S42" s="225"/>
+      <c r="T42" s="225"/>
       <c r="U42" s="48"/>
       <c r="V42" s="48"/>
-      <c r="W42" s="122"/>
-      <c r="X42" s="122"/>
+      <c r="W42" s="121"/>
+      <c r="X42" s="121"/>
       <c r="Y42" s="48"/>
       <c r="Z42" s="71"/>
       <c r="AA42" s="71"/>
@@ -10031,21 +10032,21 @@
       <c r="AQ42" s="48"/>
       <c r="AR42" s="48"/>
       <c r="AS42" s="48"/>
-      <c r="AT42" s="146"/>
+      <c r="AT42" s="145"/>
       <c r="AU42" s="71"/>
       <c r="AV42" s="71"/>
       <c r="AW42" s="48"/>
       <c r="AX42" s="48"/>
       <c r="AY42" s="48"/>
       <c r="AZ42" s="48"/>
-      <c r="BA42" s="146"/>
+      <c r="BA42" s="145"/>
       <c r="BB42" s="71"/>
       <c r="BC42" s="71"/>
       <c r="BD42" s="48"/>
       <c r="BE42" s="48"/>
       <c r="BF42" s="48"/>
       <c r="BG42" s="48"/>
-      <c r="BH42" s="146"/>
+      <c r="BH42" s="145"/>
       <c r="BI42" s="71"/>
       <c r="BJ42" s="71"/>
       <c r="BK42" s="48"/>
@@ -10103,33 +10104,33 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="277"/>
-      <c r="C43" s="297"/>
+      <c r="B43" s="283"/>
+      <c r="C43" s="288"/>
       <c r="D43" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="171">
+      <c r="F43" s="170">
         <v>40358</v>
       </c>
-      <c r="G43" s="211"/>
-      <c r="H43" s="212"/>
-      <c r="I43" s="212"/>
-      <c r="J43" s="212"/>
-      <c r="K43" s="212"/>
-      <c r="L43" s="226"/>
-      <c r="M43" s="226"/>
-      <c r="N43" s="212"/>
-      <c r="O43" s="212"/>
-      <c r="P43" s="212"/>
-      <c r="Q43" s="212"/>
-      <c r="R43" s="201"/>
-      <c r="S43" s="226"/>
-      <c r="T43" s="226"/>
-      <c r="U43" s="122"/>
-      <c r="V43" s="122"/>
+      <c r="G43" s="210"/>
+      <c r="H43" s="211"/>
+      <c r="I43" s="211"/>
+      <c r="J43" s="211"/>
+      <c r="K43" s="211"/>
+      <c r="L43" s="225"/>
+      <c r="M43" s="225"/>
+      <c r="N43" s="211"/>
+      <c r="O43" s="211"/>
+      <c r="P43" s="211"/>
+      <c r="Q43" s="211"/>
+      <c r="R43" s="200"/>
+      <c r="S43" s="225"/>
+      <c r="T43" s="225"/>
+      <c r="U43" s="121"/>
+      <c r="V43" s="121"/>
       <c r="W43" s="48"/>
       <c r="X43" s="48"/>
       <c r="Y43" s="48"/>
@@ -10153,21 +10154,21 @@
       <c r="AQ43" s="48"/>
       <c r="AR43" s="48"/>
       <c r="AS43" s="48"/>
-      <c r="AT43" s="146"/>
+      <c r="AT43" s="145"/>
       <c r="AU43" s="71"/>
       <c r="AV43" s="71"/>
       <c r="AW43" s="48"/>
       <c r="AX43" s="48"/>
       <c r="AY43" s="48"/>
       <c r="AZ43" s="48"/>
-      <c r="BA43" s="146"/>
+      <c r="BA43" s="145"/>
       <c r="BB43" s="71"/>
       <c r="BC43" s="71"/>
       <c r="BD43" s="48"/>
       <c r="BE43" s="48"/>
       <c r="BF43" s="48"/>
       <c r="BG43" s="48"/>
-      <c r="BH43" s="146"/>
+      <c r="BH43" s="145"/>
       <c r="BI43" s="71"/>
       <c r="BJ43" s="71"/>
       <c r="BK43" s="48"/>
@@ -10225,25 +10226,25 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="277"/>
-      <c r="C44" s="297"/>
+      <c r="B44" s="283"/>
+      <c r="C44" s="288"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="75"/>
-      <c r="G44" s="211"/>
-      <c r="H44" s="212"/>
-      <c r="I44" s="212"/>
-      <c r="J44" s="212"/>
-      <c r="K44" s="212"/>
-      <c r="L44" s="226"/>
-      <c r="M44" s="226"/>
-      <c r="N44" s="212"/>
-      <c r="O44" s="212"/>
-      <c r="P44" s="212"/>
-      <c r="Q44" s="212"/>
-      <c r="R44" s="212"/>
-      <c r="S44" s="226"/>
-      <c r="T44" s="226"/>
+      <c r="G44" s="210"/>
+      <c r="H44" s="211"/>
+      <c r="I44" s="211"/>
+      <c r="J44" s="211"/>
+      <c r="K44" s="211"/>
+      <c r="L44" s="225"/>
+      <c r="M44" s="225"/>
+      <c r="N44" s="211"/>
+      <c r="O44" s="211"/>
+      <c r="P44" s="211"/>
+      <c r="Q44" s="211"/>
+      <c r="R44" s="211"/>
+      <c r="S44" s="225"/>
+      <c r="T44" s="225"/>
       <c r="U44" s="48"/>
       <c r="V44" s="48"/>
       <c r="W44" s="48"/>
@@ -10269,21 +10270,21 @@
       <c r="AQ44" s="48"/>
       <c r="AR44" s="48"/>
       <c r="AS44" s="48"/>
-      <c r="AT44" s="146"/>
+      <c r="AT44" s="145"/>
       <c r="AU44" s="71"/>
       <c r="AV44" s="71"/>
       <c r="AW44" s="48"/>
       <c r="AX44" s="48"/>
       <c r="AY44" s="48"/>
       <c r="AZ44" s="48"/>
-      <c r="BA44" s="146"/>
+      <c r="BA44" s="145"/>
       <c r="BB44" s="71"/>
       <c r="BC44" s="71"/>
       <c r="BD44" s="48"/>
       <c r="BE44" s="48"/>
       <c r="BF44" s="48"/>
       <c r="BG44" s="48"/>
-      <c r="BH44" s="146"/>
+      <c r="BH44" s="145"/>
       <c r="BI44" s="71"/>
       <c r="BJ44" s="71"/>
       <c r="BK44" s="48"/>
@@ -10341,25 +10342,25 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="277"/>
-      <c r="C45" s="297"/>
+      <c r="B45" s="283"/>
+      <c r="C45" s="288"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="78"/>
-      <c r="G45" s="227"/>
-      <c r="H45" s="228"/>
-      <c r="I45" s="229"/>
-      <c r="J45" s="228"/>
-      <c r="K45" s="228"/>
-      <c r="L45" s="230"/>
-      <c r="M45" s="230"/>
-      <c r="N45" s="228"/>
-      <c r="O45" s="228"/>
-      <c r="P45" s="228"/>
-      <c r="Q45" s="228"/>
-      <c r="R45" s="228"/>
-      <c r="S45" s="230"/>
-      <c r="T45" s="230"/>
+      <c r="G45" s="226"/>
+      <c r="H45" s="227"/>
+      <c r="I45" s="228"/>
+      <c r="J45" s="227"/>
+      <c r="K45" s="227"/>
+      <c r="L45" s="229"/>
+      <c r="M45" s="229"/>
+      <c r="N45" s="227"/>
+      <c r="O45" s="227"/>
+      <c r="P45" s="227"/>
+      <c r="Q45" s="227"/>
+      <c r="R45" s="227"/>
+      <c r="S45" s="229"/>
+      <c r="T45" s="229"/>
       <c r="U45" s="57"/>
       <c r="V45" s="57"/>
       <c r="W45" s="57"/>
@@ -10385,21 +10386,21 @@
       <c r="AQ45" s="57"/>
       <c r="AR45" s="57"/>
       <c r="AS45" s="57"/>
-      <c r="AT45" s="148"/>
+      <c r="AT45" s="147"/>
       <c r="AU45" s="73"/>
       <c r="AV45" s="73"/>
       <c r="AW45" s="57"/>
       <c r="AX45" s="57"/>
       <c r="AY45" s="57"/>
       <c r="AZ45" s="57"/>
-      <c r="BA45" s="148"/>
+      <c r="BA45" s="147"/>
       <c r="BB45" s="73"/>
       <c r="BC45" s="73"/>
       <c r="BD45" s="57"/>
       <c r="BE45" s="57"/>
       <c r="BF45" s="57"/>
       <c r="BG45" s="57"/>
-      <c r="BH45" s="148"/>
+      <c r="BH45" s="147"/>
       <c r="BI45" s="73"/>
       <c r="BJ45" s="73"/>
       <c r="BK45" s="57"/>
@@ -10457,8 +10458,8 @@
       <c r="DK45" s="61"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="277"/>
-      <c r="C46" s="284" t="s">
+      <c r="B46" s="283"/>
+      <c r="C46" s="281" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -10467,25 +10468,25 @@
       <c r="E46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="171">
+      <c r="F46" s="170">
         <v>40354</v>
       </c>
-      <c r="G46" s="231"/>
-      <c r="H46" s="224"/>
-      <c r="I46" s="224"/>
-      <c r="J46" s="223"/>
-      <c r="K46" s="223"/>
-      <c r="L46" s="225"/>
-      <c r="M46" s="225"/>
-      <c r="N46" s="270"/>
-      <c r="O46" s="271"/>
-      <c r="P46" s="271"/>
-      <c r="Q46" s="271"/>
-      <c r="R46" s="271"/>
-      <c r="S46" s="301"/>
-      <c r="T46" s="225"/>
-      <c r="U46" s="274"/>
-      <c r="V46" s="274"/>
+      <c r="G46" s="230"/>
+      <c r="H46" s="223"/>
+      <c r="I46" s="223"/>
+      <c r="J46" s="222"/>
+      <c r="K46" s="222"/>
+      <c r="L46" s="224"/>
+      <c r="M46" s="224"/>
+      <c r="N46" s="269"/>
+      <c r="O46" s="270"/>
+      <c r="P46" s="270"/>
+      <c r="Q46" s="270"/>
+      <c r="R46" s="270"/>
+      <c r="S46" s="278"/>
+      <c r="T46" s="224"/>
+      <c r="U46" s="273"/>
+      <c r="V46" s="273"/>
       <c r="W46" s="62"/>
       <c r="X46" s="62"/>
       <c r="Y46" s="62"/>
@@ -10509,21 +10510,21 @@
       <c r="AQ46" s="62"/>
       <c r="AR46" s="62"/>
       <c r="AS46" s="62"/>
-      <c r="AT46" s="147"/>
+      <c r="AT46" s="146"/>
       <c r="AU46" s="72"/>
       <c r="AV46" s="72"/>
       <c r="AW46" s="62"/>
       <c r="AX46" s="62"/>
       <c r="AY46" s="62"/>
       <c r="AZ46" s="62"/>
-      <c r="BA46" s="147"/>
+      <c r="BA46" s="146"/>
       <c r="BB46" s="72"/>
       <c r="BC46" s="72"/>
       <c r="BD46" s="62"/>
       <c r="BE46" s="62"/>
       <c r="BF46" s="62"/>
       <c r="BG46" s="62"/>
-      <c r="BH46" s="147"/>
+      <c r="BH46" s="146"/>
       <c r="BI46" s="72"/>
       <c r="BJ46" s="72"/>
       <c r="BK46" s="62"/>
@@ -10581,31 +10582,31 @@
       <c r="DK46" s="67"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="277"/>
-      <c r="C47" s="284"/>
+      <c r="B47" s="283"/>
+      <c r="C47" s="281"/>
       <c r="D47" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="171">
+      <c r="F47" s="170">
         <v>40358</v>
       </c>
-      <c r="G47" s="211"/>
-      <c r="H47" s="212"/>
-      <c r="I47" s="212"/>
-      <c r="J47" s="232"/>
-      <c r="K47" s="232"/>
-      <c r="L47" s="226"/>
-      <c r="M47" s="226"/>
-      <c r="N47" s="212"/>
-      <c r="O47" s="212"/>
-      <c r="P47" s="212"/>
-      <c r="Q47" s="212"/>
-      <c r="R47" s="212"/>
-      <c r="S47" s="226"/>
-      <c r="T47" s="226"/>
+      <c r="G47" s="210"/>
+      <c r="H47" s="211"/>
+      <c r="I47" s="211"/>
+      <c r="J47" s="231"/>
+      <c r="K47" s="231"/>
+      <c r="L47" s="225"/>
+      <c r="M47" s="225"/>
+      <c r="N47" s="211"/>
+      <c r="O47" s="211"/>
+      <c r="P47" s="211"/>
+      <c r="Q47" s="211"/>
+      <c r="R47" s="211"/>
+      <c r="S47" s="225"/>
+      <c r="T47" s="225"/>
       <c r="U47" s="98"/>
       <c r="V47" s="98"/>
       <c r="W47" s="48"/>
@@ -10631,21 +10632,21 @@
       <c r="AQ47" s="48"/>
       <c r="AR47" s="48"/>
       <c r="AS47" s="48"/>
-      <c r="AT47" s="146"/>
+      <c r="AT47" s="145"/>
       <c r="AU47" s="71"/>
       <c r="AV47" s="71"/>
       <c r="AW47" s="48"/>
       <c r="AX47" s="48"/>
       <c r="AY47" s="48"/>
       <c r="AZ47" s="48"/>
-      <c r="BA47" s="146"/>
+      <c r="BA47" s="145"/>
       <c r="BB47" s="71"/>
       <c r="BC47" s="71"/>
       <c r="BD47" s="48"/>
       <c r="BE47" s="48"/>
       <c r="BF47" s="48"/>
       <c r="BG47" s="48"/>
-      <c r="BH47" s="146"/>
+      <c r="BH47" s="145"/>
       <c r="BI47" s="71"/>
       <c r="BJ47" s="71"/>
       <c r="BK47" s="48"/>
@@ -10703,35 +10704,35 @@
       <c r="DK47" s="52"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="277"/>
-      <c r="C48" s="284"/>
+      <c r="B48" s="283"/>
+      <c r="C48" s="281"/>
       <c r="D48" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="171">
+      <c r="F48" s="170">
         <v>40360</v>
       </c>
-      <c r="G48" s="211"/>
-      <c r="H48" s="212"/>
-      <c r="I48" s="212"/>
-      <c r="J48" s="232"/>
-      <c r="K48" s="232"/>
-      <c r="L48" s="226"/>
-      <c r="M48" s="226"/>
-      <c r="N48" s="212"/>
-      <c r="O48" s="212"/>
-      <c r="P48" s="212"/>
-      <c r="Q48" s="212"/>
-      <c r="R48" s="212"/>
-      <c r="S48" s="226"/>
-      <c r="T48" s="226"/>
+      <c r="G48" s="210"/>
+      <c r="H48" s="211"/>
+      <c r="I48" s="211"/>
+      <c r="J48" s="231"/>
+      <c r="K48" s="231"/>
+      <c r="L48" s="225"/>
+      <c r="M48" s="225"/>
+      <c r="N48" s="211"/>
+      <c r="O48" s="211"/>
+      <c r="P48" s="211"/>
+      <c r="Q48" s="211"/>
+      <c r="R48" s="211"/>
+      <c r="S48" s="225"/>
+      <c r="T48" s="225"/>
       <c r="U48" s="48"/>
       <c r="V48" s="48"/>
-      <c r="W48" s="275"/>
-      <c r="X48" s="275"/>
+      <c r="W48" s="274"/>
+      <c r="X48" s="274"/>
       <c r="Y48" s="48"/>
       <c r="Z48" s="71"/>
       <c r="AA48" s="71"/>
@@ -10753,21 +10754,21 @@
       <c r="AQ48" s="48"/>
       <c r="AR48" s="48"/>
       <c r="AS48" s="48"/>
-      <c r="AT48" s="146"/>
+      <c r="AT48" s="145"/>
       <c r="AU48" s="71"/>
       <c r="AV48" s="71"/>
       <c r="AW48" s="48"/>
       <c r="AX48" s="48"/>
       <c r="AY48" s="48"/>
       <c r="AZ48" s="48"/>
-      <c r="BA48" s="146"/>
+      <c r="BA48" s="145"/>
       <c r="BB48" s="71"/>
       <c r="BC48" s="71"/>
       <c r="BD48" s="48"/>
       <c r="BE48" s="48"/>
       <c r="BF48" s="48"/>
       <c r="BG48" s="48"/>
-      <c r="BH48" s="146"/>
+      <c r="BH48" s="145"/>
       <c r="BI48" s="71"/>
       <c r="BJ48" s="71"/>
       <c r="BK48" s="48"/>
@@ -10825,36 +10826,36 @@
       <c r="DK48" s="52"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="277"/>
-      <c r="C49" s="284"/>
+      <c r="B49" s="283"/>
+      <c r="C49" s="281"/>
       <c r="D49" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="171">
+      <c r="F49" s="170">
         <v>40361</v>
       </c>
-      <c r="G49" s="211"/>
-      <c r="H49" s="212"/>
-      <c r="I49" s="212"/>
-      <c r="J49" s="232"/>
-      <c r="K49" s="232"/>
-      <c r="L49" s="226"/>
-      <c r="M49" s="226"/>
-      <c r="N49" s="212"/>
-      <c r="O49" s="212"/>
-      <c r="P49" s="212"/>
-      <c r="Q49" s="212"/>
-      <c r="R49" s="212"/>
-      <c r="S49" s="226"/>
-      <c r="T49" s="226"/>
+      <c r="G49" s="210"/>
+      <c r="H49" s="211"/>
+      <c r="I49" s="211"/>
+      <c r="J49" s="231"/>
+      <c r="K49" s="231"/>
+      <c r="L49" s="225"/>
+      <c r="M49" s="225"/>
+      <c r="N49" s="211"/>
+      <c r="O49" s="211"/>
+      <c r="P49" s="211"/>
+      <c r="Q49" s="211"/>
+      <c r="R49" s="211"/>
+      <c r="S49" s="225"/>
+      <c r="T49" s="225"/>
       <c r="U49" s="48"/>
       <c r="V49" s="48"/>
       <c r="W49" s="48"/>
       <c r="X49" s="48"/>
-      <c r="Y49" s="275"/>
+      <c r="Y49" s="274"/>
       <c r="Z49" s="71"/>
       <c r="AA49" s="71"/>
       <c r="AB49" s="48"/>
@@ -10875,21 +10876,21 @@
       <c r="AQ49" s="48"/>
       <c r="AR49" s="48"/>
       <c r="AS49" s="48"/>
-      <c r="AT49" s="146"/>
+      <c r="AT49" s="145"/>
       <c r="AU49" s="71"/>
       <c r="AV49" s="71"/>
       <c r="AW49" s="48"/>
       <c r="AX49" s="48"/>
       <c r="AY49" s="48"/>
       <c r="AZ49" s="48"/>
-      <c r="BA49" s="146"/>
+      <c r="BA49" s="145"/>
       <c r="BB49" s="71"/>
       <c r="BC49" s="71"/>
       <c r="BD49" s="48"/>
       <c r="BE49" s="48"/>
       <c r="BF49" s="48"/>
       <c r="BG49" s="48"/>
-      <c r="BH49" s="146"/>
+      <c r="BH49" s="145"/>
       <c r="BI49" s="71"/>
       <c r="BJ49" s="71"/>
       <c r="BK49" s="48"/>
@@ -10947,31 +10948,31 @@
       <c r="DK49" s="52"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="277"/>
-      <c r="C50" s="284"/>
+      <c r="B50" s="283"/>
+      <c r="C50" s="281"/>
       <c r="D50" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="171">
+      <c r="F50" s="170">
         <v>40368</v>
       </c>
-      <c r="G50" s="211"/>
-      <c r="H50" s="212"/>
-      <c r="I50" s="212"/>
-      <c r="J50" s="232"/>
-      <c r="K50" s="232"/>
-      <c r="L50" s="226"/>
-      <c r="M50" s="226"/>
-      <c r="N50" s="212"/>
-      <c r="O50" s="212"/>
-      <c r="P50" s="212"/>
-      <c r="Q50" s="212"/>
-      <c r="R50" s="212"/>
-      <c r="S50" s="226"/>
-      <c r="T50" s="226"/>
+      <c r="G50" s="210"/>
+      <c r="H50" s="211"/>
+      <c r="I50" s="211"/>
+      <c r="J50" s="231"/>
+      <c r="K50" s="231"/>
+      <c r="L50" s="225"/>
+      <c r="M50" s="225"/>
+      <c r="N50" s="211"/>
+      <c r="O50" s="211"/>
+      <c r="P50" s="211"/>
+      <c r="Q50" s="211"/>
+      <c r="R50" s="211"/>
+      <c r="S50" s="225"/>
+      <c r="T50" s="225"/>
       <c r="U50" s="48"/>
       <c r="V50" s="48"/>
       <c r="W50" s="48"/>
@@ -10979,11 +10980,11 @@
       <c r="Y50" s="48"/>
       <c r="Z50" s="71"/>
       <c r="AA50" s="71"/>
-      <c r="AB50" s="273"/>
-      <c r="AC50" s="273"/>
-      <c r="AD50" s="273"/>
-      <c r="AE50" s="273"/>
-      <c r="AF50" s="273"/>
+      <c r="AB50" s="272"/>
+      <c r="AC50" s="272"/>
+      <c r="AD50" s="272"/>
+      <c r="AE50" s="272"/>
+      <c r="AF50" s="272"/>
       <c r="AG50" s="71"/>
       <c r="AH50" s="71"/>
       <c r="AI50" s="48"/>
@@ -10997,21 +10998,21 @@
       <c r="AQ50" s="48"/>
       <c r="AR50" s="48"/>
       <c r="AS50" s="48"/>
-      <c r="AT50" s="146"/>
+      <c r="AT50" s="145"/>
       <c r="AU50" s="71"/>
       <c r="AV50" s="71"/>
       <c r="AW50" s="48"/>
       <c r="AX50" s="48"/>
       <c r="AY50" s="48"/>
       <c r="AZ50" s="48"/>
-      <c r="BA50" s="146"/>
+      <c r="BA50" s="145"/>
       <c r="BB50" s="71"/>
       <c r="BC50" s="71"/>
       <c r="BD50" s="48"/>
       <c r="BE50" s="48"/>
       <c r="BF50" s="48"/>
       <c r="BG50" s="48"/>
-      <c r="BH50" s="146"/>
+      <c r="BH50" s="145"/>
       <c r="BI50" s="71"/>
       <c r="BJ50" s="71"/>
       <c r="BK50" s="48"/>
@@ -11069,25 +11070,25 @@
       <c r="DK50" s="52"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="277"/>
-      <c r="C51" s="284"/>
+      <c r="B51" s="283"/>
+      <c r="C51" s="281"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="211"/>
-      <c r="H51" s="212"/>
-      <c r="I51" s="212"/>
-      <c r="J51" s="232"/>
-      <c r="K51" s="232"/>
-      <c r="L51" s="226"/>
-      <c r="M51" s="226"/>
-      <c r="N51" s="212"/>
-      <c r="O51" s="212"/>
-      <c r="P51" s="212"/>
-      <c r="Q51" s="212"/>
-      <c r="R51" s="212"/>
-      <c r="S51" s="226"/>
-      <c r="T51" s="226"/>
+      <c r="F51" s="170"/>
+      <c r="G51" s="210"/>
+      <c r="H51" s="211"/>
+      <c r="I51" s="211"/>
+      <c r="J51" s="231"/>
+      <c r="K51" s="231"/>
+      <c r="L51" s="225"/>
+      <c r="M51" s="225"/>
+      <c r="N51" s="211"/>
+      <c r="O51" s="211"/>
+      <c r="P51" s="211"/>
+      <c r="Q51" s="211"/>
+      <c r="R51" s="211"/>
+      <c r="S51" s="225"/>
+      <c r="T51" s="225"/>
       <c r="U51" s="48"/>
       <c r="V51" s="48"/>
       <c r="W51" s="48"/>
@@ -11113,21 +11114,21 @@
       <c r="AQ51" s="48"/>
       <c r="AR51" s="48"/>
       <c r="AS51" s="48"/>
-      <c r="AT51" s="146"/>
+      <c r="AT51" s="145"/>
       <c r="AU51" s="71"/>
       <c r="AV51" s="71"/>
       <c r="AW51" s="48"/>
       <c r="AX51" s="48"/>
       <c r="AY51" s="48"/>
       <c r="AZ51" s="48"/>
-      <c r="BA51" s="146"/>
+      <c r="BA51" s="145"/>
       <c r="BB51" s="71"/>
       <c r="BC51" s="71"/>
       <c r="BD51" s="48"/>
       <c r="BE51" s="48"/>
       <c r="BF51" s="48"/>
       <c r="BG51" s="48"/>
-      <c r="BH51" s="146"/>
+      <c r="BH51" s="145"/>
       <c r="BI51" s="71"/>
       <c r="BJ51" s="71"/>
       <c r="BK51" s="48"/>
@@ -11185,25 +11186,25 @@
       <c r="DK51" s="52"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="277"/>
-      <c r="C52" s="284"/>
+      <c r="B52" s="283"/>
+      <c r="C52" s="281"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="171"/>
-      <c r="G52" s="211"/>
-      <c r="H52" s="212"/>
-      <c r="I52" s="212"/>
-      <c r="J52" s="232"/>
-      <c r="K52" s="232"/>
-      <c r="L52" s="226"/>
-      <c r="M52" s="226"/>
-      <c r="N52" s="212"/>
-      <c r="O52" s="212"/>
-      <c r="P52" s="212"/>
-      <c r="Q52" s="212"/>
-      <c r="R52" s="212"/>
-      <c r="S52" s="226"/>
-      <c r="T52" s="226"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="210"/>
+      <c r="H52" s="211"/>
+      <c r="I52" s="211"/>
+      <c r="J52" s="231"/>
+      <c r="K52" s="231"/>
+      <c r="L52" s="225"/>
+      <c r="M52" s="225"/>
+      <c r="N52" s="211"/>
+      <c r="O52" s="211"/>
+      <c r="P52" s="211"/>
+      <c r="Q52" s="211"/>
+      <c r="R52" s="211"/>
+      <c r="S52" s="225"/>
+      <c r="T52" s="225"/>
       <c r="U52" s="48"/>
       <c r="V52" s="48"/>
       <c r="W52" s="48"/>
@@ -11229,21 +11230,21 @@
       <c r="AQ52" s="48"/>
       <c r="AR52" s="48"/>
       <c r="AS52" s="48"/>
-      <c r="AT52" s="146"/>
+      <c r="AT52" s="145"/>
       <c r="AU52" s="71"/>
       <c r="AV52" s="71"/>
       <c r="AW52" s="48"/>
       <c r="AX52" s="48"/>
       <c r="AY52" s="48"/>
       <c r="AZ52" s="48"/>
-      <c r="BA52" s="146"/>
+      <c r="BA52" s="145"/>
       <c r="BB52" s="71"/>
       <c r="BC52" s="71"/>
       <c r="BD52" s="48"/>
       <c r="BE52" s="48"/>
       <c r="BF52" s="48"/>
       <c r="BG52" s="48"/>
-      <c r="BH52" s="146"/>
+      <c r="BH52" s="145"/>
       <c r="BI52" s="71"/>
       <c r="BJ52" s="71"/>
       <c r="BK52" s="48"/>
@@ -11301,25 +11302,25 @@
       <c r="DK52" s="52"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="277"/>
-      <c r="C53" s="284"/>
+      <c r="B53" s="283"/>
+      <c r="C53" s="281"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="211"/>
-      <c r="H53" s="212"/>
-      <c r="I53" s="212"/>
-      <c r="J53" s="232"/>
-      <c r="K53" s="232"/>
-      <c r="L53" s="226"/>
-      <c r="M53" s="226"/>
-      <c r="N53" s="212"/>
-      <c r="O53" s="212"/>
-      <c r="P53" s="212"/>
-      <c r="Q53" s="212"/>
-      <c r="R53" s="212"/>
-      <c r="S53" s="226"/>
-      <c r="T53" s="226"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="210"/>
+      <c r="H53" s="211"/>
+      <c r="I53" s="211"/>
+      <c r="J53" s="231"/>
+      <c r="K53" s="231"/>
+      <c r="L53" s="225"/>
+      <c r="M53" s="225"/>
+      <c r="N53" s="211"/>
+      <c r="O53" s="211"/>
+      <c r="P53" s="211"/>
+      <c r="Q53" s="211"/>
+      <c r="R53" s="211"/>
+      <c r="S53" s="225"/>
+      <c r="T53" s="225"/>
       <c r="U53" s="48"/>
       <c r="V53" s="48"/>
       <c r="W53" s="48"/>
@@ -11345,21 +11346,21 @@
       <c r="AQ53" s="48"/>
       <c r="AR53" s="48"/>
       <c r="AS53" s="48"/>
-      <c r="AT53" s="146"/>
+      <c r="AT53" s="145"/>
       <c r="AU53" s="71"/>
       <c r="AV53" s="71"/>
       <c r="AW53" s="48"/>
       <c r="AX53" s="48"/>
       <c r="AY53" s="48"/>
       <c r="AZ53" s="48"/>
-      <c r="BA53" s="146"/>
+      <c r="BA53" s="145"/>
       <c r="BB53" s="71"/>
       <c r="BC53" s="71"/>
       <c r="BD53" s="48"/>
       <c r="BE53" s="48"/>
       <c r="BF53" s="48"/>
       <c r="BG53" s="48"/>
-      <c r="BH53" s="146"/>
+      <c r="BH53" s="145"/>
       <c r="BI53" s="71"/>
       <c r="BJ53" s="71"/>
       <c r="BK53" s="48"/>
@@ -11417,25 +11418,25 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115">
-      <c r="B54" s="277"/>
-      <c r="C54" s="284"/>
+      <c r="B54" s="283"/>
+      <c r="C54" s="281"/>
       <c r="D54" s="10"/>
       <c r="E54" s="11"/>
       <c r="F54" s="78"/>
-      <c r="G54" s="227"/>
-      <c r="H54" s="228"/>
-      <c r="I54" s="228"/>
-      <c r="J54" s="228"/>
-      <c r="K54" s="228"/>
-      <c r="L54" s="230"/>
-      <c r="M54" s="230"/>
-      <c r="N54" s="228"/>
-      <c r="O54" s="228"/>
-      <c r="P54" s="228"/>
-      <c r="Q54" s="228"/>
-      <c r="R54" s="228"/>
-      <c r="S54" s="230"/>
-      <c r="T54" s="230"/>
+      <c r="G54" s="226"/>
+      <c r="H54" s="227"/>
+      <c r="I54" s="227"/>
+      <c r="J54" s="227"/>
+      <c r="K54" s="227"/>
+      <c r="L54" s="229"/>
+      <c r="M54" s="229"/>
+      <c r="N54" s="227"/>
+      <c r="O54" s="227"/>
+      <c r="P54" s="227"/>
+      <c r="Q54" s="227"/>
+      <c r="R54" s="227"/>
+      <c r="S54" s="229"/>
+      <c r="T54" s="229"/>
       <c r="U54" s="57"/>
       <c r="V54" s="57"/>
       <c r="W54" s="57"/>
@@ -11461,21 +11462,21 @@
       <c r="AQ54" s="57"/>
       <c r="AR54" s="57"/>
       <c r="AS54" s="57"/>
-      <c r="AT54" s="148"/>
+      <c r="AT54" s="147"/>
       <c r="AU54" s="73"/>
       <c r="AV54" s="73"/>
       <c r="AW54" s="57"/>
       <c r="AX54" s="57"/>
       <c r="AY54" s="57"/>
       <c r="AZ54" s="57"/>
-      <c r="BA54" s="148"/>
+      <c r="BA54" s="147"/>
       <c r="BB54" s="73"/>
       <c r="BC54" s="73"/>
       <c r="BD54" s="57"/>
       <c r="BE54" s="57"/>
       <c r="BF54" s="57"/>
       <c r="BG54" s="57"/>
-      <c r="BH54" s="148"/>
+      <c r="BH54" s="147"/>
       <c r="BI54" s="73"/>
       <c r="BJ54" s="73"/>
       <c r="BK54" s="57"/>
@@ -11533,31 +11534,31 @@
       <c r="DK54" s="61"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="277"/>
-      <c r="C55" s="282" t="s">
+      <c r="B55" s="283"/>
+      <c r="C55" s="294" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="171">
+      <c r="F55" s="170">
         <v>40375</v>
       </c>
-      <c r="G55" s="222"/>
-      <c r="H55" s="223"/>
-      <c r="I55" s="223"/>
-      <c r="J55" s="223"/>
-      <c r="K55" s="223"/>
-      <c r="L55" s="225"/>
-      <c r="M55" s="225"/>
-      <c r="N55" s="223"/>
-      <c r="O55" s="223"/>
-      <c r="P55" s="223"/>
-      <c r="Q55" s="223"/>
-      <c r="R55" s="223"/>
-      <c r="S55" s="225"/>
-      <c r="T55" s="225"/>
+      <c r="G55" s="221"/>
+      <c r="H55" s="222"/>
+      <c r="I55" s="222"/>
+      <c r="J55" s="222"/>
+      <c r="K55" s="222"/>
+      <c r="L55" s="224"/>
+      <c r="M55" s="224"/>
+      <c r="N55" s="222"/>
+      <c r="O55" s="222"/>
+      <c r="P55" s="222"/>
+      <c r="Q55" s="222"/>
+      <c r="R55" s="222"/>
+      <c r="S55" s="224"/>
+      <c r="T55" s="224"/>
       <c r="U55" s="62"/>
       <c r="V55" s="62"/>
       <c r="W55" s="62"/>
@@ -11565,39 +11566,39 @@
       <c r="Y55" s="62"/>
       <c r="Z55" s="72"/>
       <c r="AA55" s="72"/>
-      <c r="AB55" s="122"/>
-      <c r="AC55" s="122"/>
-      <c r="AD55" s="122"/>
-      <c r="AE55" s="122"/>
-      <c r="AF55" s="122"/>
+      <c r="AB55" s="121"/>
+      <c r="AC55" s="121"/>
+      <c r="AD55" s="121"/>
+      <c r="AE55" s="121"/>
+      <c r="AF55" s="121"/>
       <c r="AG55" s="72"/>
       <c r="AH55" s="72"/>
-      <c r="AI55" s="122"/>
-      <c r="AJ55" s="122"/>
-      <c r="AK55" s="122"/>
-      <c r="AL55" s="122"/>
-      <c r="AM55" s="122"/>
+      <c r="AI55" s="121"/>
+      <c r="AJ55" s="121"/>
+      <c r="AK55" s="121"/>
+      <c r="AL55" s="121"/>
+      <c r="AM55" s="121"/>
       <c r="AN55" s="72"/>
       <c r="AO55" s="72"/>
       <c r="AP55" s="62"/>
       <c r="AQ55" s="62"/>
       <c r="AR55" s="62"/>
       <c r="AS55" s="62"/>
-      <c r="AT55" s="147"/>
+      <c r="AT55" s="146"/>
       <c r="AU55" s="72"/>
       <c r="AV55" s="72"/>
       <c r="AW55" s="62"/>
       <c r="AX55" s="62"/>
       <c r="AY55" s="62"/>
       <c r="AZ55" s="62"/>
-      <c r="BA55" s="147"/>
+      <c r="BA55" s="146"/>
       <c r="BB55" s="72"/>
       <c r="BC55" s="72"/>
       <c r="BD55" s="62"/>
       <c r="BE55" s="62"/>
       <c r="BF55" s="62"/>
       <c r="BG55" s="62"/>
-      <c r="BH55" s="147"/>
+      <c r="BH55" s="146"/>
       <c r="BI55" s="72"/>
       <c r="BJ55" s="72"/>
       <c r="BK55" s="62"/>
@@ -11655,25 +11656,25 @@
       <c r="DK55" s="67"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="277"/>
-      <c r="C56" s="281"/>
+      <c r="B56" s="283"/>
+      <c r="C56" s="293"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
       <c r="F56" s="75"/>
-      <c r="G56" s="211"/>
-      <c r="H56" s="212"/>
-      <c r="I56" s="212"/>
-      <c r="J56" s="212"/>
-      <c r="K56" s="212"/>
-      <c r="L56" s="226"/>
-      <c r="M56" s="226"/>
-      <c r="N56" s="212"/>
-      <c r="O56" s="212"/>
-      <c r="P56" s="212"/>
-      <c r="Q56" s="212"/>
-      <c r="R56" s="212"/>
-      <c r="S56" s="226"/>
-      <c r="T56" s="226"/>
+      <c r="G56" s="210"/>
+      <c r="H56" s="211"/>
+      <c r="I56" s="211"/>
+      <c r="J56" s="211"/>
+      <c r="K56" s="211"/>
+      <c r="L56" s="225"/>
+      <c r="M56" s="225"/>
+      <c r="N56" s="211"/>
+      <c r="O56" s="211"/>
+      <c r="P56" s="211"/>
+      <c r="Q56" s="211"/>
+      <c r="R56" s="211"/>
+      <c r="S56" s="225"/>
+      <c r="T56" s="225"/>
       <c r="U56" s="48"/>
       <c r="V56" s="48"/>
       <c r="W56" s="48"/>
@@ -11699,21 +11700,21 @@
       <c r="AQ56" s="48"/>
       <c r="AR56" s="48"/>
       <c r="AS56" s="48"/>
-      <c r="AT56" s="146"/>
+      <c r="AT56" s="145"/>
       <c r="AU56" s="71"/>
       <c r="AV56" s="71"/>
       <c r="AW56" s="48"/>
       <c r="AX56" s="48"/>
       <c r="AY56" s="48"/>
       <c r="AZ56" s="48"/>
-      <c r="BA56" s="146"/>
+      <c r="BA56" s="145"/>
       <c r="BB56" s="71"/>
       <c r="BC56" s="71"/>
       <c r="BD56" s="48"/>
       <c r="BE56" s="48"/>
       <c r="BF56" s="48"/>
       <c r="BG56" s="48"/>
-      <c r="BH56" s="146"/>
+      <c r="BH56" s="145"/>
       <c r="BI56" s="71"/>
       <c r="BJ56" s="71"/>
       <c r="BK56" s="48"/>
@@ -11771,25 +11772,25 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="277"/>
-      <c r="C57" s="283"/>
+      <c r="B57" s="283"/>
+      <c r="C57" s="289"/>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
       <c r="F57" s="78"/>
-      <c r="G57" s="227"/>
-      <c r="H57" s="228"/>
-      <c r="I57" s="228"/>
-      <c r="J57" s="228"/>
-      <c r="K57" s="228"/>
-      <c r="L57" s="230"/>
-      <c r="M57" s="230"/>
-      <c r="N57" s="228"/>
-      <c r="O57" s="228"/>
-      <c r="P57" s="228"/>
-      <c r="Q57" s="228"/>
-      <c r="R57" s="228"/>
-      <c r="S57" s="230"/>
-      <c r="T57" s="230"/>
+      <c r="G57" s="226"/>
+      <c r="H57" s="227"/>
+      <c r="I57" s="227"/>
+      <c r="J57" s="227"/>
+      <c r="K57" s="227"/>
+      <c r="L57" s="229"/>
+      <c r="M57" s="229"/>
+      <c r="N57" s="227"/>
+      <c r="O57" s="227"/>
+      <c r="P57" s="227"/>
+      <c r="Q57" s="227"/>
+      <c r="R57" s="227"/>
+      <c r="S57" s="229"/>
+      <c r="T57" s="229"/>
       <c r="U57" s="57"/>
       <c r="V57" s="57"/>
       <c r="W57" s="57"/>
@@ -11815,21 +11816,21 @@
       <c r="AQ57" s="57"/>
       <c r="AR57" s="57"/>
       <c r="AS57" s="57"/>
-      <c r="AT57" s="148"/>
+      <c r="AT57" s="147"/>
       <c r="AU57" s="73"/>
       <c r="AV57" s="73"/>
       <c r="AW57" s="57"/>
       <c r="AX57" s="57"/>
       <c r="AY57" s="57"/>
       <c r="AZ57" s="57"/>
-      <c r="BA57" s="148"/>
+      <c r="BA57" s="147"/>
       <c r="BB57" s="73"/>
       <c r="BC57" s="73"/>
       <c r="BD57" s="57"/>
       <c r="BE57" s="57"/>
       <c r="BF57" s="57"/>
       <c r="BG57" s="57"/>
-      <c r="BH57" s="148"/>
+      <c r="BH57" s="147"/>
       <c r="BI57" s="73"/>
       <c r="BJ57" s="73"/>
       <c r="BK57" s="57"/>
@@ -11887,32 +11888,32 @@
       <c r="DK57" s="61"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="277"/>
-      <c r="C58" s="283"/>
+      <c r="B58" s="283"/>
+      <c r="C58" s="289"/>
       <c r="D58" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F58" s="171">
+      <c r="F58" s="170">
         <v>40356</v>
       </c>
-      <c r="G58" s="211"/>
-      <c r="H58" s="212"/>
-      <c r="I58" s="212"/>
-      <c r="J58" s="212"/>
-      <c r="K58" s="212"/>
-      <c r="L58" s="226"/>
-      <c r="M58" s="226"/>
-      <c r="N58" s="212"/>
-      <c r="O58" s="212"/>
-      <c r="P58" s="212"/>
-      <c r="Q58" s="299"/>
-      <c r="R58" s="299"/>
-      <c r="S58" s="225"/>
-      <c r="T58" s="225"/>
-      <c r="U58" s="276"/>
+      <c r="G58" s="210"/>
+      <c r="H58" s="211"/>
+      <c r="I58" s="211"/>
+      <c r="J58" s="211"/>
+      <c r="K58" s="211"/>
+      <c r="L58" s="225"/>
+      <c r="M58" s="225"/>
+      <c r="N58" s="211"/>
+      <c r="O58" s="211"/>
+      <c r="P58" s="211"/>
+      <c r="Q58" s="276"/>
+      <c r="R58" s="276"/>
+      <c r="S58" s="224"/>
+      <c r="T58" s="224"/>
+      <c r="U58" s="275"/>
       <c r="V58" s="48"/>
       <c r="W58" s="48"/>
       <c r="X58" s="48"/>
@@ -11937,21 +11938,21 @@
       <c r="AQ58" s="48"/>
       <c r="AR58" s="48"/>
       <c r="AS58" s="48"/>
-      <c r="AT58" s="146"/>
+      <c r="AT58" s="145"/>
       <c r="AU58" s="71"/>
       <c r="AV58" s="71"/>
       <c r="AW58" s="48"/>
       <c r="AX58" s="48"/>
       <c r="AY58" s="48"/>
       <c r="AZ58" s="48"/>
-      <c r="BA58" s="146"/>
+      <c r="BA58" s="145"/>
       <c r="BB58" s="71"/>
       <c r="BC58" s="71"/>
       <c r="BD58" s="48"/>
       <c r="BE58" s="48"/>
       <c r="BF58" s="48"/>
       <c r="BG58" s="48"/>
-      <c r="BH58" s="146"/>
+      <c r="BH58" s="145"/>
       <c r="BI58" s="71"/>
       <c r="BJ58" s="71"/>
       <c r="BK58" s="48"/>
@@ -12009,25 +12010,25 @@
       <c r="DK58" s="52"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="277"/>
-      <c r="C59" s="297"/>
+      <c r="B59" s="283"/>
+      <c r="C59" s="288"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
       <c r="F59" s="75"/>
-      <c r="G59" s="211"/>
-      <c r="H59" s="212"/>
-      <c r="I59" s="212"/>
-      <c r="J59" s="212"/>
-      <c r="K59" s="212"/>
-      <c r="L59" s="226"/>
-      <c r="M59" s="226"/>
-      <c r="N59" s="212"/>
-      <c r="O59" s="212"/>
-      <c r="P59" s="212"/>
-      <c r="Q59" s="212"/>
-      <c r="R59" s="212"/>
-      <c r="S59" s="226"/>
-      <c r="T59" s="226"/>
+      <c r="G59" s="210"/>
+      <c r="H59" s="211"/>
+      <c r="I59" s="211"/>
+      <c r="J59" s="211"/>
+      <c r="K59" s="211"/>
+      <c r="L59" s="225"/>
+      <c r="M59" s="225"/>
+      <c r="N59" s="211"/>
+      <c r="O59" s="211"/>
+      <c r="P59" s="211"/>
+      <c r="Q59" s="211"/>
+      <c r="R59" s="211"/>
+      <c r="S59" s="225"/>
+      <c r="T59" s="225"/>
       <c r="U59" s="48"/>
       <c r="V59" s="48"/>
       <c r="W59" s="48"/>
@@ -12053,21 +12054,21 @@
       <c r="AQ59" s="48"/>
       <c r="AR59" s="48"/>
       <c r="AS59" s="48"/>
-      <c r="AT59" s="146"/>
+      <c r="AT59" s="145"/>
       <c r="AU59" s="71"/>
       <c r="AV59" s="71"/>
       <c r="AW59" s="48"/>
       <c r="AX59" s="48"/>
       <c r="AY59" s="48"/>
       <c r="AZ59" s="48"/>
-      <c r="BA59" s="146"/>
+      <c r="BA59" s="145"/>
       <c r="BB59" s="71"/>
       <c r="BC59" s="71"/>
       <c r="BD59" s="48"/>
       <c r="BE59" s="48"/>
       <c r="BF59" s="48"/>
       <c r="BG59" s="48"/>
-      <c r="BH59" s="146"/>
+      <c r="BH59" s="145"/>
       <c r="BI59" s="71"/>
       <c r="BJ59" s="71"/>
       <c r="BK59" s="48"/>
@@ -12125,25 +12126,25 @@
       <c r="DK59" s="52"/>
     </row>
     <row r="60" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B60" s="286"/>
-      <c r="C60" s="298"/>
+      <c r="B60" s="284"/>
+      <c r="C60" s="290"/>
       <c r="D60" s="17"/>
       <c r="E60" s="13"/>
       <c r="F60" s="79"/>
-      <c r="G60" s="198"/>
-      <c r="H60" s="199"/>
-      <c r="I60" s="199"/>
-      <c r="J60" s="199"/>
-      <c r="K60" s="199"/>
-      <c r="L60" s="233"/>
-      <c r="M60" s="233"/>
-      <c r="N60" s="199"/>
-      <c r="O60" s="212"/>
-      <c r="P60" s="212"/>
-      <c r="Q60" s="212"/>
-      <c r="R60" s="212"/>
-      <c r="S60" s="226"/>
-      <c r="T60" s="226"/>
+      <c r="G60" s="197"/>
+      <c r="H60" s="198"/>
+      <c r="I60" s="198"/>
+      <c r="J60" s="198"/>
+      <c r="K60" s="198"/>
+      <c r="L60" s="232"/>
+      <c r="M60" s="232"/>
+      <c r="N60" s="198"/>
+      <c r="O60" s="211"/>
+      <c r="P60" s="211"/>
+      <c r="Q60" s="211"/>
+      <c r="R60" s="211"/>
+      <c r="S60" s="225"/>
+      <c r="T60" s="225"/>
       <c r="U60" s="48"/>
       <c r="V60" s="48"/>
       <c r="W60" s="48"/>
@@ -12169,21 +12170,21 @@
       <c r="AQ60" s="32"/>
       <c r="AR60" s="32"/>
       <c r="AS60" s="32"/>
-      <c r="AT60" s="144"/>
+      <c r="AT60" s="143"/>
       <c r="AU60" s="69"/>
       <c r="AV60" s="69"/>
       <c r="AW60" s="32"/>
       <c r="AX60" s="32"/>
       <c r="AY60" s="32"/>
       <c r="AZ60" s="32"/>
-      <c r="BA60" s="144"/>
+      <c r="BA60" s="143"/>
       <c r="BB60" s="69"/>
       <c r="BC60" s="69"/>
       <c r="BD60" s="32"/>
       <c r="BE60" s="32"/>
       <c r="BF60" s="32"/>
       <c r="BG60" s="32"/>
-      <c r="BH60" s="144"/>
+      <c r="BH60" s="143"/>
       <c r="BI60" s="69"/>
       <c r="BJ60" s="69"/>
       <c r="BK60" s="32"/>
@@ -12241,10 +12242,10 @@
       <c r="DK60" s="36"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="292" t="s">
+      <c r="B61" s="300" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="284" t="s">
+      <c r="C61" s="281" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -12253,23 +12254,23 @@
       <c r="E61" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="171">
+      <c r="F61" s="170">
         <v>40353</v>
       </c>
-      <c r="G61" s="234"/>
-      <c r="H61" s="235"/>
-      <c r="I61" s="235"/>
-      <c r="J61" s="205"/>
-      <c r="K61" s="205"/>
-      <c r="L61" s="236"/>
-      <c r="M61" s="236"/>
-      <c r="N61" s="206"/>
-      <c r="O61" s="272"/>
-      <c r="P61" s="272"/>
-      <c r="Q61" s="272"/>
-      <c r="R61" s="272"/>
-      <c r="S61" s="302"/>
-      <c r="T61" s="300"/>
+      <c r="G61" s="233"/>
+      <c r="H61" s="234"/>
+      <c r="I61" s="234"/>
+      <c r="J61" s="204"/>
+      <c r="K61" s="204"/>
+      <c r="L61" s="235"/>
+      <c r="M61" s="235"/>
+      <c r="N61" s="205"/>
+      <c r="O61" s="271"/>
+      <c r="P61" s="271"/>
+      <c r="Q61" s="271"/>
+      <c r="R61" s="271"/>
+      <c r="S61" s="279"/>
+      <c r="T61" s="277"/>
       <c r="U61" s="42"/>
       <c r="V61" s="42"/>
       <c r="W61" s="42"/>
@@ -12295,21 +12296,21 @@
       <c r="AQ61" s="42"/>
       <c r="AR61" s="42"/>
       <c r="AS61" s="42"/>
-      <c r="AT61" s="145"/>
+      <c r="AT61" s="144"/>
       <c r="AU61" s="70"/>
       <c r="AV61" s="70"/>
       <c r="AW61" s="42"/>
       <c r="AX61" s="42"/>
       <c r="AY61" s="42"/>
       <c r="AZ61" s="42"/>
-      <c r="BA61" s="145"/>
+      <c r="BA61" s="144"/>
       <c r="BB61" s="70"/>
       <c r="BC61" s="70"/>
       <c r="BD61" s="42"/>
       <c r="BE61" s="42"/>
       <c r="BF61" s="42"/>
       <c r="BG61" s="42"/>
-      <c r="BH61" s="145"/>
+      <c r="BH61" s="144"/>
       <c r="BI61" s="70"/>
       <c r="BJ61" s="70"/>
       <c r="BK61" s="42"/>
@@ -12367,31 +12368,31 @@
       <c r="DK61" s="47"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="293"/>
-      <c r="C62" s="284"/>
+      <c r="B62" s="301"/>
+      <c r="C62" s="281"/>
       <c r="D62" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="171">
+      <c r="F62" s="170">
         <v>40357</v>
       </c>
-      <c r="G62" s="237"/>
-      <c r="H62" s="232"/>
-      <c r="I62" s="232"/>
-      <c r="J62" s="212"/>
-      <c r="K62" s="212"/>
-      <c r="L62" s="226"/>
-      <c r="M62" s="226"/>
-      <c r="N62" s="212"/>
-      <c r="O62" s="212"/>
-      <c r="P62" s="212"/>
-      <c r="Q62" s="212"/>
-      <c r="R62" s="212"/>
-      <c r="S62" s="226"/>
-      <c r="T62" s="226"/>
+      <c r="G62" s="236"/>
+      <c r="H62" s="231"/>
+      <c r="I62" s="231"/>
+      <c r="J62" s="211"/>
+      <c r="K62" s="211"/>
+      <c r="L62" s="225"/>
+      <c r="M62" s="225"/>
+      <c r="N62" s="211"/>
+      <c r="O62" s="211"/>
+      <c r="P62" s="211"/>
+      <c r="Q62" s="211"/>
+      <c r="R62" s="211"/>
+      <c r="S62" s="225"/>
+      <c r="T62" s="225"/>
       <c r="U62" s="96"/>
       <c r="V62" s="48"/>
       <c r="W62" s="48"/>
@@ -12417,21 +12418,21 @@
       <c r="AQ62" s="48"/>
       <c r="AR62" s="48"/>
       <c r="AS62" s="48"/>
-      <c r="AT62" s="146"/>
+      <c r="AT62" s="145"/>
       <c r="AU62" s="71"/>
       <c r="AV62" s="71"/>
       <c r="AW62" s="48"/>
       <c r="AX62" s="48"/>
       <c r="AY62" s="48"/>
       <c r="AZ62" s="48"/>
-      <c r="BA62" s="146"/>
+      <c r="BA62" s="145"/>
       <c r="BB62" s="71"/>
       <c r="BC62" s="71"/>
       <c r="BD62" s="48"/>
       <c r="BE62" s="48"/>
       <c r="BF62" s="48"/>
       <c r="BG62" s="48"/>
-      <c r="BH62" s="146"/>
+      <c r="BH62" s="145"/>
       <c r="BI62" s="71"/>
       <c r="BJ62" s="71"/>
       <c r="BK62" s="48"/>
@@ -12489,31 +12490,31 @@
       <c r="DK62" s="52"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="293"/>
-      <c r="C63" s="284"/>
+      <c r="B63" s="301"/>
+      <c r="C63" s="281"/>
       <c r="D63" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="171">
+      <c r="F63" s="170">
         <v>40358</v>
       </c>
-      <c r="G63" s="237"/>
-      <c r="H63" s="232"/>
-      <c r="I63" s="232"/>
-      <c r="J63" s="212"/>
-      <c r="K63" s="212"/>
-      <c r="L63" s="226"/>
-      <c r="M63" s="226"/>
-      <c r="N63" s="212"/>
-      <c r="O63" s="212"/>
-      <c r="P63" s="212"/>
-      <c r="Q63" s="212"/>
-      <c r="R63" s="212"/>
-      <c r="S63" s="226"/>
-      <c r="T63" s="226"/>
+      <c r="G63" s="236"/>
+      <c r="H63" s="231"/>
+      <c r="I63" s="231"/>
+      <c r="J63" s="211"/>
+      <c r="K63" s="211"/>
+      <c r="L63" s="225"/>
+      <c r="M63" s="225"/>
+      <c r="N63" s="211"/>
+      <c r="O63" s="211"/>
+      <c r="P63" s="211"/>
+      <c r="Q63" s="211"/>
+      <c r="R63" s="211"/>
+      <c r="S63" s="225"/>
+      <c r="T63" s="225"/>
       <c r="U63" s="48"/>
       <c r="V63" s="96"/>
       <c r="W63" s="48"/>
@@ -12539,21 +12540,21 @@
       <c r="AQ63" s="48"/>
       <c r="AR63" s="48"/>
       <c r="AS63" s="48"/>
-      <c r="AT63" s="146"/>
+      <c r="AT63" s="145"/>
       <c r="AU63" s="71"/>
       <c r="AV63" s="71"/>
       <c r="AW63" s="48"/>
       <c r="AX63" s="48"/>
       <c r="AY63" s="48"/>
       <c r="AZ63" s="48"/>
-      <c r="BA63" s="146"/>
+      <c r="BA63" s="145"/>
       <c r="BB63" s="71"/>
       <c r="BC63" s="71"/>
       <c r="BD63" s="48"/>
       <c r="BE63" s="48"/>
       <c r="BF63" s="48"/>
       <c r="BG63" s="48"/>
-      <c r="BH63" s="146"/>
+      <c r="BH63" s="145"/>
       <c r="BI63" s="71"/>
       <c r="BJ63" s="71"/>
       <c r="BK63" s="48"/>
@@ -12611,31 +12612,31 @@
       <c r="DK63" s="52"/>
     </row>
     <row r="64" spans="2:115">
-      <c r="B64" s="293"/>
-      <c r="C64" s="284"/>
+      <c r="B64" s="301"/>
+      <c r="C64" s="281"/>
       <c r="D64" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F64" s="171">
+      <c r="F64" s="170">
         <v>40361</v>
       </c>
-      <c r="G64" s="237"/>
-      <c r="H64" s="232"/>
-      <c r="I64" s="232"/>
-      <c r="J64" s="212"/>
-      <c r="K64" s="212"/>
-      <c r="L64" s="226"/>
-      <c r="M64" s="226"/>
-      <c r="N64" s="212"/>
-      <c r="O64" s="212"/>
-      <c r="P64" s="212"/>
-      <c r="Q64" s="212"/>
-      <c r="R64" s="212"/>
-      <c r="S64" s="226"/>
-      <c r="T64" s="226"/>
+      <c r="G64" s="236"/>
+      <c r="H64" s="231"/>
+      <c r="I64" s="231"/>
+      <c r="J64" s="211"/>
+      <c r="K64" s="211"/>
+      <c r="L64" s="225"/>
+      <c r="M64" s="225"/>
+      <c r="N64" s="211"/>
+      <c r="O64" s="211"/>
+      <c r="P64" s="211"/>
+      <c r="Q64" s="211"/>
+      <c r="R64" s="211"/>
+      <c r="S64" s="225"/>
+      <c r="T64" s="225"/>
       <c r="U64" s="48"/>
       <c r="V64" s="48"/>
       <c r="W64" s="96"/>
@@ -12661,21 +12662,21 @@
       <c r="AQ64" s="48"/>
       <c r="AR64" s="48"/>
       <c r="AS64" s="48"/>
-      <c r="AT64" s="146"/>
+      <c r="AT64" s="145"/>
       <c r="AU64" s="71"/>
       <c r="AV64" s="71"/>
       <c r="AW64" s="48"/>
       <c r="AX64" s="48"/>
       <c r="AY64" s="48"/>
       <c r="AZ64" s="48"/>
-      <c r="BA64" s="146"/>
+      <c r="BA64" s="145"/>
       <c r="BB64" s="71"/>
       <c r="BC64" s="71"/>
       <c r="BD64" s="48"/>
       <c r="BE64" s="48"/>
       <c r="BF64" s="48"/>
       <c r="BG64" s="48"/>
-      <c r="BH64" s="146"/>
+      <c r="BH64" s="145"/>
       <c r="BI64" s="71"/>
       <c r="BJ64" s="71"/>
       <c r="BK64" s="48"/>
@@ -12732,28 +12733,28 @@
       <c r="DJ64" s="51"/>
       <c r="DK64" s="52"/>
     </row>
-    <row r="65" spans="2:115">
-      <c r="B65" s="293"/>
-      <c r="C65" s="284"/>
+    <row r="65" spans="2:115 16384:16384">
+      <c r="B65" s="301"/>
+      <c r="C65" s="281"/>
       <c r="D65" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="75"/>
-      <c r="G65" s="237"/>
-      <c r="H65" s="232"/>
-      <c r="I65" s="232"/>
-      <c r="J65" s="212"/>
-      <c r="K65" s="212"/>
-      <c r="L65" s="226"/>
-      <c r="M65" s="226"/>
-      <c r="N65" s="212"/>
-      <c r="O65" s="212"/>
-      <c r="P65" s="212"/>
-      <c r="Q65" s="212"/>
-      <c r="R65" s="212"/>
-      <c r="S65" s="226"/>
-      <c r="T65" s="226"/>
+      <c r="G65" s="236"/>
+      <c r="H65" s="231"/>
+      <c r="I65" s="231"/>
+      <c r="J65" s="211"/>
+      <c r="K65" s="211"/>
+      <c r="L65" s="225"/>
+      <c r="M65" s="225"/>
+      <c r="N65" s="211"/>
+      <c r="O65" s="211"/>
+      <c r="P65" s="211"/>
+      <c r="Q65" s="211"/>
+      <c r="R65" s="211"/>
+      <c r="S65" s="225"/>
+      <c r="T65" s="225"/>
       <c r="U65" s="48"/>
       <c r="V65" s="48"/>
       <c r="W65" s="93"/>
@@ -12779,21 +12780,21 @@
       <c r="AQ65" s="48"/>
       <c r="AR65" s="48"/>
       <c r="AS65" s="48"/>
-      <c r="AT65" s="146"/>
+      <c r="AT65" s="145"/>
       <c r="AU65" s="71"/>
       <c r="AV65" s="71"/>
       <c r="AW65" s="48"/>
       <c r="AX65" s="48"/>
       <c r="AY65" s="48"/>
       <c r="AZ65" s="48"/>
-      <c r="BA65" s="146"/>
+      <c r="BA65" s="145"/>
       <c r="BB65" s="71"/>
       <c r="BC65" s="71"/>
       <c r="BD65" s="48"/>
       <c r="BE65" s="48"/>
       <c r="BF65" s="48"/>
       <c r="BG65" s="48"/>
-      <c r="BH65" s="146"/>
+      <c r="BH65" s="145"/>
       <c r="BI65" s="71"/>
       <c r="BJ65" s="71"/>
       <c r="BK65" s="48"/>
@@ -12850,26 +12851,26 @@
       <c r="DJ65" s="51"/>
       <c r="DK65" s="52"/>
     </row>
-    <row r="66" spans="2:115">
-      <c r="B66" s="293"/>
-      <c r="C66" s="284"/>
+    <row r="66" spans="2:115 16384:16384">
+      <c r="B66" s="301"/>
+      <c r="C66" s="281"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="F66" s="75"/>
-      <c r="G66" s="238"/>
-      <c r="H66" s="228"/>
-      <c r="I66" s="228"/>
-      <c r="J66" s="228"/>
-      <c r="K66" s="228"/>
-      <c r="L66" s="230"/>
-      <c r="M66" s="230"/>
-      <c r="N66" s="228"/>
-      <c r="O66" s="228"/>
-      <c r="P66" s="228"/>
-      <c r="Q66" s="228"/>
-      <c r="R66" s="228"/>
-      <c r="S66" s="230"/>
-      <c r="T66" s="230"/>
+      <c r="G66" s="237"/>
+      <c r="H66" s="227"/>
+      <c r="I66" s="227"/>
+      <c r="J66" s="227"/>
+      <c r="K66" s="227"/>
+      <c r="L66" s="229"/>
+      <c r="M66" s="229"/>
+      <c r="N66" s="227"/>
+      <c r="O66" s="227"/>
+      <c r="P66" s="227"/>
+      <c r="Q66" s="227"/>
+      <c r="R66" s="227"/>
+      <c r="S66" s="229"/>
+      <c r="T66" s="229"/>
       <c r="U66" s="57"/>
       <c r="V66" s="57"/>
       <c r="W66" s="57"/>
@@ -12895,21 +12896,21 @@
       <c r="AQ66" s="57"/>
       <c r="AR66" s="57"/>
       <c r="AS66" s="57"/>
-      <c r="AT66" s="148"/>
+      <c r="AT66" s="147"/>
       <c r="AU66" s="73"/>
       <c r="AV66" s="73"/>
       <c r="AW66" s="57"/>
       <c r="AX66" s="57"/>
       <c r="AY66" s="57"/>
       <c r="AZ66" s="57"/>
-      <c r="BA66" s="148"/>
+      <c r="BA66" s="147"/>
       <c r="BB66" s="73"/>
       <c r="BC66" s="73"/>
       <c r="BD66" s="57"/>
       <c r="BE66" s="57"/>
       <c r="BF66" s="57"/>
       <c r="BG66" s="57"/>
-      <c r="BH66" s="148"/>
+      <c r="BH66" s="147"/>
       <c r="BI66" s="73"/>
       <c r="BJ66" s="73"/>
       <c r="BK66" s="57"/>
@@ -12966,9 +12967,9 @@
       <c r="DJ66" s="60"/>
       <c r="DK66" s="61"/>
     </row>
-    <row r="67" spans="2:115">
-      <c r="B67" s="293"/>
-      <c r="C67" s="290" t="s">
+    <row r="67" spans="2:115 16384:16384">
+      <c r="B67" s="301"/>
+      <c r="C67" s="280" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -12977,23 +12978,23 @@
       <c r="E67" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="171">
+      <c r="F67" s="170">
         <v>40361</v>
       </c>
-      <c r="G67" s="239"/>
-      <c r="H67" s="232"/>
-      <c r="I67" s="232"/>
-      <c r="J67" s="232"/>
-      <c r="K67" s="212"/>
-      <c r="L67" s="226"/>
-      <c r="M67" s="226"/>
-      <c r="N67" s="213"/>
-      <c r="O67" s="208"/>
-      <c r="P67" s="212"/>
-      <c r="Q67" s="212"/>
-      <c r="R67" s="212"/>
-      <c r="S67" s="216"/>
-      <c r="T67" s="217"/>
+      <c r="G67" s="238"/>
+      <c r="H67" s="231"/>
+      <c r="I67" s="231"/>
+      <c r="J67" s="231"/>
+      <c r="K67" s="211"/>
+      <c r="L67" s="225"/>
+      <c r="M67" s="225"/>
+      <c r="N67" s="212"/>
+      <c r="O67" s="207"/>
+      <c r="P67" s="211"/>
+      <c r="Q67" s="211"/>
+      <c r="R67" s="211"/>
+      <c r="S67" s="215"/>
+      <c r="T67" s="216"/>
       <c r="U67" s="48"/>
       <c r="V67" s="48"/>
       <c r="W67" s="48"/>
@@ -13019,21 +13020,21 @@
       <c r="AQ67" s="48"/>
       <c r="AR67" s="48"/>
       <c r="AS67" s="48"/>
-      <c r="AT67" s="146"/>
+      <c r="AT67" s="145"/>
       <c r="AU67" s="71"/>
       <c r="AV67" s="71"/>
       <c r="AW67" s="48"/>
       <c r="AX67" s="48"/>
       <c r="AY67" s="48"/>
       <c r="AZ67" s="48"/>
-      <c r="BA67" s="146"/>
+      <c r="BA67" s="145"/>
       <c r="BB67" s="71"/>
       <c r="BC67" s="71"/>
       <c r="BD67" s="48"/>
       <c r="BE67" s="48"/>
       <c r="BF67" s="48"/>
       <c r="BG67" s="48"/>
-      <c r="BH67" s="146"/>
+      <c r="BH67" s="145"/>
       <c r="BI67" s="71"/>
       <c r="BJ67" s="71"/>
       <c r="BK67" s="48"/>
@@ -13090,28 +13091,28 @@
       <c r="DJ67" s="51"/>
       <c r="DK67" s="52"/>
     </row>
-    <row r="68" spans="2:115">
-      <c r="B68" s="293"/>
-      <c r="C68" s="290"/>
+    <row r="68" spans="2:115 16384:16384">
+      <c r="B68" s="301"/>
+      <c r="C68" s="280"/>
       <c r="D68" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="75"/>
-      <c r="G68" s="239"/>
-      <c r="H68" s="232"/>
-      <c r="I68" s="212"/>
-      <c r="J68" s="212"/>
-      <c r="K68" s="212"/>
-      <c r="L68" s="226"/>
-      <c r="M68" s="226"/>
-      <c r="N68" s="212"/>
-      <c r="O68" s="212"/>
-      <c r="P68" s="212"/>
-      <c r="Q68" s="212"/>
-      <c r="R68" s="212"/>
-      <c r="S68" s="226"/>
-      <c r="T68" s="226"/>
+      <c r="G68" s="238"/>
+      <c r="H68" s="231"/>
+      <c r="I68" s="211"/>
+      <c r="J68" s="211"/>
+      <c r="K68" s="211"/>
+      <c r="L68" s="225"/>
+      <c r="M68" s="225"/>
+      <c r="N68" s="211"/>
+      <c r="O68" s="211"/>
+      <c r="P68" s="211"/>
+      <c r="Q68" s="211"/>
+      <c r="R68" s="211"/>
+      <c r="S68" s="225"/>
+      <c r="T68" s="225"/>
       <c r="U68" s="48"/>
       <c r="V68" s="48"/>
       <c r="W68" s="48"/>
@@ -13137,21 +13138,21 @@
       <c r="AQ68" s="48"/>
       <c r="AR68" s="48"/>
       <c r="AS68" s="48"/>
-      <c r="AT68" s="146"/>
+      <c r="AT68" s="145"/>
       <c r="AU68" s="71"/>
       <c r="AV68" s="71"/>
       <c r="AW68" s="48"/>
       <c r="AX68" s="48"/>
       <c r="AY68" s="48"/>
       <c r="AZ68" s="48"/>
-      <c r="BA68" s="146"/>
+      <c r="BA68" s="145"/>
       <c r="BB68" s="71"/>
       <c r="BC68" s="71"/>
       <c r="BD68" s="48"/>
       <c r="BE68" s="48"/>
       <c r="BF68" s="48"/>
       <c r="BG68" s="48"/>
-      <c r="BH68" s="146"/>
+      <c r="BH68" s="145"/>
       <c r="BI68" s="71"/>
       <c r="BJ68" s="71"/>
       <c r="BK68" s="48"/>
@@ -13208,28 +13209,28 @@
       <c r="DJ68" s="51"/>
       <c r="DK68" s="52"/>
     </row>
-    <row r="69" spans="2:115">
-      <c r="B69" s="293"/>
-      <c r="C69" s="290"/>
+    <row r="69" spans="2:115 16384:16384">
+      <c r="B69" s="301"/>
+      <c r="C69" s="280"/>
       <c r="D69" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="75"/>
-      <c r="G69" s="239"/>
-      <c r="H69" s="232"/>
-      <c r="I69" s="212"/>
-      <c r="J69" s="212"/>
-      <c r="K69" s="212"/>
-      <c r="L69" s="226"/>
-      <c r="M69" s="226"/>
-      <c r="N69" s="212"/>
-      <c r="O69" s="212"/>
-      <c r="P69" s="212"/>
-      <c r="Q69" s="212"/>
-      <c r="R69" s="212"/>
-      <c r="S69" s="226"/>
-      <c r="T69" s="226"/>
+      <c r="G69" s="238"/>
+      <c r="H69" s="231"/>
+      <c r="I69" s="211"/>
+      <c r="J69" s="211"/>
+      <c r="K69" s="211"/>
+      <c r="L69" s="225"/>
+      <c r="M69" s="225"/>
+      <c r="N69" s="211"/>
+      <c r="O69" s="211"/>
+      <c r="P69" s="211"/>
+      <c r="Q69" s="211"/>
+      <c r="R69" s="211"/>
+      <c r="S69" s="225"/>
+      <c r="T69" s="225"/>
       <c r="U69" s="48"/>
       <c r="V69" s="48"/>
       <c r="W69" s="48"/>
@@ -13255,21 +13256,21 @@
       <c r="AQ69" s="48"/>
       <c r="AR69" s="48"/>
       <c r="AS69" s="48"/>
-      <c r="AT69" s="146"/>
+      <c r="AT69" s="145"/>
       <c r="AU69" s="71"/>
       <c r="AV69" s="71"/>
       <c r="AW69" s="48"/>
       <c r="AX69" s="48"/>
       <c r="AY69" s="48"/>
       <c r="AZ69" s="48"/>
-      <c r="BA69" s="146"/>
+      <c r="BA69" s="145"/>
       <c r="BB69" s="71"/>
       <c r="BC69" s="71"/>
       <c r="BD69" s="48"/>
       <c r="BE69" s="48"/>
       <c r="BF69" s="48"/>
       <c r="BG69" s="48"/>
-      <c r="BH69" s="146"/>
+      <c r="BH69" s="145"/>
       <c r="BI69" s="71"/>
       <c r="BJ69" s="71"/>
       <c r="BK69" s="48"/>
@@ -13326,26 +13327,26 @@
       <c r="DJ69" s="51"/>
       <c r="DK69" s="52"/>
     </row>
-    <row r="70" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B70" s="293"/>
-      <c r="C70" s="290"/>
+    <row r="70" spans="2:115 16384:16384" ht="17.25" thickBot="1">
+      <c r="B70" s="301"/>
+      <c r="C70" s="280"/>
       <c r="D70" s="10"/>
       <c r="E70" s="11"/>
       <c r="F70" s="78"/>
-      <c r="G70" s="240"/>
-      <c r="H70" s="199"/>
-      <c r="I70" s="199"/>
-      <c r="J70" s="241"/>
-      <c r="K70" s="199"/>
-      <c r="L70" s="233"/>
-      <c r="M70" s="233"/>
-      <c r="N70" s="199"/>
-      <c r="O70" s="199"/>
-      <c r="P70" s="199"/>
-      <c r="Q70" s="199"/>
-      <c r="R70" s="199"/>
-      <c r="S70" s="233"/>
-      <c r="T70" s="233"/>
+      <c r="G70" s="239"/>
+      <c r="H70" s="198"/>
+      <c r="I70" s="198"/>
+      <c r="J70" s="240"/>
+      <c r="K70" s="198"/>
+      <c r="L70" s="232"/>
+      <c r="M70" s="232"/>
+      <c r="N70" s="198"/>
+      <c r="O70" s="198"/>
+      <c r="P70" s="198"/>
+      <c r="Q70" s="198"/>
+      <c r="R70" s="198"/>
+      <c r="S70" s="232"/>
+      <c r="T70" s="232"/>
       <c r="U70" s="32"/>
       <c r="V70" s="32"/>
       <c r="W70" s="32"/>
@@ -13371,21 +13372,21 @@
       <c r="AQ70" s="32"/>
       <c r="AR70" s="32"/>
       <c r="AS70" s="32"/>
-      <c r="AT70" s="144"/>
+      <c r="AT70" s="143"/>
       <c r="AU70" s="69"/>
       <c r="AV70" s="69"/>
       <c r="AW70" s="32"/>
       <c r="AX70" s="32"/>
       <c r="AY70" s="32"/>
       <c r="AZ70" s="32"/>
-      <c r="BA70" s="144"/>
+      <c r="BA70" s="143"/>
       <c r="BB70" s="69"/>
       <c r="BC70" s="69"/>
       <c r="BD70" s="32"/>
       <c r="BE70" s="32"/>
       <c r="BF70" s="32"/>
       <c r="BG70" s="32"/>
-      <c r="BH70" s="144"/>
+      <c r="BH70" s="143"/>
       <c r="BI70" s="69"/>
       <c r="BJ70" s="69"/>
       <c r="BK70" s="32"/>
@@ -13442,34 +13443,36 @@
       <c r="DJ70" s="35"/>
       <c r="DK70" s="36"/>
     </row>
-    <row r="71" spans="2:115">
-      <c r="B71" s="278" t="s">
+    <row r="71" spans="2:115 16384:16384">
+      <c r="B71" s="282" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="287" t="s">
+      <c r="C71" s="296" t="s">
         <v>37</v>
       </c>
-      <c r="D71" s="20"/>
+      <c r="D71" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="E71" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F71" s="172">
+      <c r="F71" s="171">
         <v>40375</v>
       </c>
-      <c r="G71" s="242"/>
-      <c r="H71" s="205"/>
-      <c r="I71" s="205"/>
-      <c r="J71" s="205"/>
-      <c r="K71" s="205"/>
-      <c r="L71" s="236"/>
-      <c r="M71" s="236"/>
-      <c r="N71" s="235"/>
-      <c r="O71" s="235"/>
-      <c r="P71" s="235"/>
-      <c r="Q71" s="235"/>
-      <c r="R71" s="235"/>
-      <c r="S71" s="236"/>
-      <c r="T71" s="236"/>
+      <c r="G71" s="241"/>
+      <c r="H71" s="204"/>
+      <c r="I71" s="204"/>
+      <c r="J71" s="204"/>
+      <c r="K71" s="204"/>
+      <c r="L71" s="235"/>
+      <c r="M71" s="235"/>
+      <c r="N71" s="234"/>
+      <c r="O71" s="234"/>
+      <c r="P71" s="234"/>
+      <c r="Q71" s="234"/>
+      <c r="R71" s="234"/>
+      <c r="S71" s="235"/>
+      <c r="T71" s="235"/>
       <c r="U71" s="43"/>
       <c r="V71" s="43"/>
       <c r="W71" s="43"/>
@@ -13477,39 +13480,39 @@
       <c r="Y71" s="43"/>
       <c r="Z71" s="70"/>
       <c r="AA71" s="70"/>
-      <c r="AB71" s="99"/>
-      <c r="AC71" s="99"/>
-      <c r="AD71" s="99"/>
-      <c r="AE71" s="99"/>
-      <c r="AF71" s="99"/>
+      <c r="AB71" s="96"/>
+      <c r="AC71" s="96"/>
+      <c r="AD71" s="96"/>
+      <c r="AE71" s="96"/>
+      <c r="AF71" s="96"/>
       <c r="AG71" s="70"/>
       <c r="AH71" s="70"/>
-      <c r="AI71" s="99"/>
-      <c r="AJ71" s="99"/>
-      <c r="AK71" s="99"/>
-      <c r="AL71" s="99"/>
-      <c r="AM71" s="99"/>
+      <c r="AI71" s="56"/>
+      <c r="AJ71" s="56"/>
+      <c r="AK71" s="56"/>
+      <c r="AL71" s="56"/>
+      <c r="AM71" s="56"/>
       <c r="AN71" s="70"/>
       <c r="AO71" s="70"/>
       <c r="AP71" s="43"/>
       <c r="AQ71" s="43"/>
       <c r="AR71" s="43"/>
       <c r="AS71" s="43"/>
-      <c r="AT71" s="149"/>
+      <c r="AT71" s="148"/>
       <c r="AU71" s="70"/>
       <c r="AV71" s="70"/>
       <c r="AW71" s="43"/>
       <c r="AX71" s="43"/>
       <c r="AY71" s="43"/>
       <c r="AZ71" s="43"/>
-      <c r="BA71" s="149"/>
+      <c r="BA71" s="148"/>
       <c r="BB71" s="70"/>
       <c r="BC71" s="70"/>
       <c r="BD71" s="43"/>
       <c r="BE71" s="43"/>
       <c r="BF71" s="43"/>
       <c r="BG71" s="43"/>
-      <c r="BH71" s="149"/>
+      <c r="BH71" s="148"/>
       <c r="BI71" s="70"/>
       <c r="BJ71" s="70"/>
       <c r="BK71" s="43"/>
@@ -13565,27 +13568,28 @@
       <c r="DI71" s="45"/>
       <c r="DJ71" s="46"/>
       <c r="DK71" s="47"/>
+      <c r="XFD71" s="56"/>
     </row>
-    <row r="72" spans="2:115">
-      <c r="B72" s="277"/>
-      <c r="C72" s="288"/>
+    <row r="72" spans="2:115 16384:16384">
+      <c r="B72" s="283"/>
+      <c r="C72" s="297"/>
       <c r="D72" s="15"/>
       <c r="E72" s="22"/>
       <c r="F72" s="81"/>
-      <c r="G72" s="238"/>
-      <c r="H72" s="228"/>
-      <c r="I72" s="228"/>
-      <c r="J72" s="228"/>
-      <c r="K72" s="228"/>
-      <c r="L72" s="230"/>
-      <c r="M72" s="230"/>
-      <c r="N72" s="229"/>
-      <c r="O72" s="229"/>
-      <c r="P72" s="229"/>
-      <c r="Q72" s="229"/>
-      <c r="R72" s="229"/>
-      <c r="S72" s="230"/>
-      <c r="T72" s="230"/>
+      <c r="G72" s="237"/>
+      <c r="H72" s="227"/>
+      <c r="I72" s="227"/>
+      <c r="J72" s="227"/>
+      <c r="K72" s="227"/>
+      <c r="L72" s="229"/>
+      <c r="M72" s="229"/>
+      <c r="N72" s="228"/>
+      <c r="O72" s="228"/>
+      <c r="P72" s="228"/>
+      <c r="Q72" s="228"/>
+      <c r="R72" s="228"/>
+      <c r="S72" s="229"/>
+      <c r="T72" s="229"/>
       <c r="U72" s="56"/>
       <c r="V72" s="56"/>
       <c r="W72" s="56"/>
@@ -13611,21 +13615,21 @@
       <c r="AQ72" s="56"/>
       <c r="AR72" s="56"/>
       <c r="AS72" s="56"/>
-      <c r="AT72" s="150"/>
+      <c r="AT72" s="149"/>
       <c r="AU72" s="73"/>
       <c r="AV72" s="73"/>
       <c r="AW72" s="56"/>
       <c r="AX72" s="56"/>
       <c r="AY72" s="56"/>
       <c r="AZ72" s="56"/>
-      <c r="BA72" s="150"/>
+      <c r="BA72" s="149"/>
       <c r="BB72" s="73"/>
       <c r="BC72" s="73"/>
       <c r="BD72" s="56"/>
       <c r="BE72" s="56"/>
       <c r="BF72" s="56"/>
       <c r="BG72" s="56"/>
-      <c r="BH72" s="150"/>
+      <c r="BH72" s="149"/>
       <c r="BI72" s="73"/>
       <c r="BJ72" s="73"/>
       <c r="BK72" s="56"/>
@@ -13682,9 +13686,9 @@
       <c r="DJ72" s="60"/>
       <c r="DK72" s="61"/>
     </row>
-    <row r="73" spans="2:115">
-      <c r="B73" s="277"/>
-      <c r="C73" s="288" t="s">
+    <row r="73" spans="2:115 16384:16384">
+      <c r="B73" s="283"/>
+      <c r="C73" s="297" t="s">
         <v>48</v>
       </c>
       <c r="D73" s="14" t="s">
@@ -13694,20 +13698,20 @@
         <v>38</v>
       </c>
       <c r="F73" s="82"/>
-      <c r="G73" s="243"/>
-      <c r="H73" s="223"/>
-      <c r="I73" s="223"/>
-      <c r="J73" s="223"/>
-      <c r="K73" s="223"/>
-      <c r="L73" s="225"/>
-      <c r="M73" s="225"/>
-      <c r="N73" s="224"/>
-      <c r="O73" s="224"/>
-      <c r="P73" s="224"/>
-      <c r="Q73" s="224"/>
-      <c r="R73" s="224"/>
-      <c r="S73" s="225"/>
-      <c r="T73" s="225"/>
+      <c r="G73" s="242"/>
+      <c r="H73" s="222"/>
+      <c r="I73" s="222"/>
+      <c r="J73" s="222"/>
+      <c r="K73" s="222"/>
+      <c r="L73" s="224"/>
+      <c r="M73" s="224"/>
+      <c r="N73" s="223"/>
+      <c r="O73" s="223"/>
+      <c r="P73" s="223"/>
+      <c r="Q73" s="223"/>
+      <c r="R73" s="223"/>
+      <c r="S73" s="224"/>
+      <c r="T73" s="224"/>
       <c r="U73" s="63"/>
       <c r="V73" s="63"/>
       <c r="W73" s="63"/>
@@ -13722,9 +13726,9 @@
       <c r="AF73" s="63"/>
       <c r="AG73" s="72"/>
       <c r="AH73" s="72"/>
-      <c r="AI73" s="63"/>
-      <c r="AJ73" s="63"/>
-      <c r="AK73" s="63"/>
+      <c r="AI73" s="96"/>
+      <c r="AJ73" s="96"/>
+      <c r="AK73" s="96"/>
       <c r="AL73" s="63"/>
       <c r="AM73" s="63"/>
       <c r="AN73" s="72"/>
@@ -13733,21 +13737,21 @@
       <c r="AQ73" s="63"/>
       <c r="AR73" s="63"/>
       <c r="AS73" s="63"/>
-      <c r="AT73" s="151"/>
+      <c r="AT73" s="150"/>
       <c r="AU73" s="72"/>
       <c r="AV73" s="72"/>
       <c r="AW73" s="63"/>
       <c r="AX73" s="63"/>
       <c r="AY73" s="63"/>
       <c r="AZ73" s="63"/>
-      <c r="BA73" s="151"/>
+      <c r="BA73" s="150"/>
       <c r="BB73" s="72"/>
       <c r="BC73" s="72"/>
       <c r="BD73" s="63"/>
       <c r="BE73" s="63"/>
       <c r="BF73" s="63"/>
       <c r="BG73" s="63"/>
-      <c r="BH73" s="151"/>
+      <c r="BH73" s="150"/>
       <c r="BI73" s="72"/>
       <c r="BJ73" s="72"/>
       <c r="BK73" s="63"/>
@@ -13804,26 +13808,26 @@
       <c r="DJ73" s="66"/>
       <c r="DK73" s="67"/>
     </row>
-    <row r="74" spans="2:115">
-      <c r="B74" s="277"/>
-      <c r="C74" s="289"/>
+    <row r="74" spans="2:115 16384:16384">
+      <c r="B74" s="283"/>
+      <c r="C74" s="298"/>
       <c r="D74" s="16"/>
       <c r="E74" s="24"/>
       <c r="F74" s="83"/>
-      <c r="G74" s="238"/>
-      <c r="H74" s="228"/>
-      <c r="I74" s="228"/>
-      <c r="J74" s="228"/>
-      <c r="K74" s="228"/>
-      <c r="L74" s="230"/>
-      <c r="M74" s="230"/>
-      <c r="N74" s="229"/>
-      <c r="O74" s="229"/>
-      <c r="P74" s="229"/>
-      <c r="Q74" s="229"/>
-      <c r="R74" s="229"/>
-      <c r="S74" s="230"/>
-      <c r="T74" s="230"/>
+      <c r="G74" s="237"/>
+      <c r="H74" s="227"/>
+      <c r="I74" s="227"/>
+      <c r="J74" s="227"/>
+      <c r="K74" s="227"/>
+      <c r="L74" s="229"/>
+      <c r="M74" s="229"/>
+      <c r="N74" s="228"/>
+      <c r="O74" s="228"/>
+      <c r="P74" s="228"/>
+      <c r="Q74" s="228"/>
+      <c r="R74" s="228"/>
+      <c r="S74" s="229"/>
+      <c r="T74" s="229"/>
       <c r="U74" s="56"/>
       <c r="V74" s="56"/>
       <c r="W74" s="56"/>
@@ -13849,21 +13853,21 @@
       <c r="AQ74" s="56"/>
       <c r="AR74" s="56"/>
       <c r="AS74" s="56"/>
-      <c r="AT74" s="150"/>
+      <c r="AT74" s="149"/>
       <c r="AU74" s="73"/>
       <c r="AV74" s="73"/>
       <c r="AW74" s="56"/>
       <c r="AX74" s="56"/>
       <c r="AY74" s="56"/>
       <c r="AZ74" s="56"/>
-      <c r="BA74" s="150"/>
+      <c r="BA74" s="149"/>
       <c r="BB74" s="73"/>
       <c r="BC74" s="73"/>
       <c r="BD74" s="56"/>
       <c r="BE74" s="56"/>
       <c r="BF74" s="56"/>
       <c r="BG74" s="56"/>
-      <c r="BH74" s="150"/>
+      <c r="BH74" s="149"/>
       <c r="BI74" s="73"/>
       <c r="BJ74" s="73"/>
       <c r="BK74" s="56"/>
@@ -13920,26 +13924,26 @@
       <c r="DJ74" s="60"/>
       <c r="DK74" s="61"/>
     </row>
-    <row r="75" spans="2:115">
-      <c r="B75" s="277"/>
-      <c r="C75" s="290"/>
+    <row r="75" spans="2:115 16384:16384">
+      <c r="B75" s="283"/>
+      <c r="C75" s="280"/>
       <c r="D75" s="14"/>
       <c r="E75" s="23"/>
       <c r="F75" s="82"/>
-      <c r="G75" s="243"/>
-      <c r="H75" s="223"/>
-      <c r="I75" s="223"/>
-      <c r="J75" s="224"/>
-      <c r="K75" s="223"/>
-      <c r="L75" s="225"/>
-      <c r="M75" s="225"/>
-      <c r="N75" s="223"/>
-      <c r="O75" s="223"/>
-      <c r="P75" s="223"/>
-      <c r="Q75" s="223"/>
-      <c r="R75" s="223"/>
-      <c r="S75" s="225"/>
-      <c r="T75" s="225"/>
+      <c r="G75" s="242"/>
+      <c r="H75" s="222"/>
+      <c r="I75" s="222"/>
+      <c r="J75" s="223"/>
+      <c r="K75" s="222"/>
+      <c r="L75" s="224"/>
+      <c r="M75" s="224"/>
+      <c r="N75" s="222"/>
+      <c r="O75" s="222"/>
+      <c r="P75" s="222"/>
+      <c r="Q75" s="222"/>
+      <c r="R75" s="222"/>
+      <c r="S75" s="224"/>
+      <c r="T75" s="224"/>
       <c r="U75" s="62"/>
       <c r="V75" s="62"/>
       <c r="W75" s="62"/>
@@ -13965,21 +13969,21 @@
       <c r="AQ75" s="62"/>
       <c r="AR75" s="62"/>
       <c r="AS75" s="62"/>
-      <c r="AT75" s="147"/>
+      <c r="AT75" s="146"/>
       <c r="AU75" s="72"/>
       <c r="AV75" s="72"/>
       <c r="AW75" s="62"/>
       <c r="AX75" s="62"/>
       <c r="AY75" s="62"/>
       <c r="AZ75" s="62"/>
-      <c r="BA75" s="147"/>
+      <c r="BA75" s="146"/>
       <c r="BB75" s="72"/>
       <c r="BC75" s="72"/>
       <c r="BD75" s="62"/>
       <c r="BE75" s="62"/>
       <c r="BF75" s="62"/>
       <c r="BG75" s="62"/>
-      <c r="BH75" s="147"/>
+      <c r="BH75" s="146"/>
       <c r="BI75" s="72"/>
       <c r="BJ75" s="72"/>
       <c r="BK75" s="62"/>
@@ -14036,26 +14040,26 @@
       <c r="DJ75" s="66"/>
       <c r="DK75" s="67"/>
     </row>
-    <row r="76" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B76" s="286"/>
-      <c r="C76" s="290"/>
+    <row r="76" spans="2:115 16384:16384" ht="17.25" thickBot="1">
+      <c r="B76" s="284"/>
+      <c r="C76" s="280"/>
       <c r="D76" s="15"/>
       <c r="E76" s="22"/>
       <c r="F76" s="81"/>
-      <c r="G76" s="240"/>
-      <c r="H76" s="199"/>
-      <c r="I76" s="199"/>
-      <c r="J76" s="241"/>
-      <c r="K76" s="241"/>
-      <c r="L76" s="233"/>
-      <c r="M76" s="233"/>
-      <c r="N76" s="199"/>
-      <c r="O76" s="199"/>
-      <c r="P76" s="199"/>
-      <c r="Q76" s="199"/>
-      <c r="R76" s="199"/>
-      <c r="S76" s="233"/>
-      <c r="T76" s="233"/>
+      <c r="G76" s="239"/>
+      <c r="H76" s="198"/>
+      <c r="I76" s="198"/>
+      <c r="J76" s="240"/>
+      <c r="K76" s="240"/>
+      <c r="L76" s="232"/>
+      <c r="M76" s="232"/>
+      <c r="N76" s="198"/>
+      <c r="O76" s="198"/>
+      <c r="P76" s="198"/>
+      <c r="Q76" s="198"/>
+      <c r="R76" s="198"/>
+      <c r="S76" s="232"/>
+      <c r="T76" s="232"/>
       <c r="U76" s="32"/>
       <c r="V76" s="32"/>
       <c r="W76" s="32"/>
@@ -14081,21 +14085,21 @@
       <c r="AQ76" s="32"/>
       <c r="AR76" s="32"/>
       <c r="AS76" s="32"/>
-      <c r="AT76" s="144"/>
+      <c r="AT76" s="143"/>
       <c r="AU76" s="69"/>
       <c r="AV76" s="69"/>
       <c r="AW76" s="32"/>
       <c r="AX76" s="32"/>
       <c r="AY76" s="32"/>
       <c r="AZ76" s="32"/>
-      <c r="BA76" s="144"/>
+      <c r="BA76" s="143"/>
       <c r="BB76" s="69"/>
       <c r="BC76" s="69"/>
       <c r="BD76" s="32"/>
       <c r="BE76" s="32"/>
       <c r="BF76" s="32"/>
       <c r="BG76" s="32"/>
-      <c r="BH76" s="144"/>
+      <c r="BH76" s="143"/>
       <c r="BI76" s="69"/>
       <c r="BJ76" s="69"/>
       <c r="BK76" s="32"/>
@@ -14152,11 +14156,11 @@
       <c r="DJ76" s="35"/>
       <c r="DK76" s="36"/>
     </row>
-    <row r="77" spans="2:115">
-      <c r="B77" s="278" t="s">
+    <row r="77" spans="2:115 16384:16384">
+      <c r="B77" s="282" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="287" t="s">
+      <c r="C77" s="296" t="s">
         <v>50</v>
       </c>
       <c r="D77" s="20"/>
@@ -14164,20 +14168,20 @@
         <v>51</v>
       </c>
       <c r="F77" s="80"/>
-      <c r="G77" s="242"/>
-      <c r="H77" s="205"/>
-      <c r="I77" s="205"/>
-      <c r="J77" s="205"/>
-      <c r="K77" s="205"/>
-      <c r="L77" s="236"/>
-      <c r="M77" s="236"/>
-      <c r="N77" s="235"/>
-      <c r="O77" s="235"/>
-      <c r="P77" s="235"/>
-      <c r="Q77" s="235"/>
-      <c r="R77" s="235"/>
-      <c r="S77" s="236"/>
-      <c r="T77" s="236"/>
+      <c r="G77" s="241"/>
+      <c r="H77" s="204"/>
+      <c r="I77" s="204"/>
+      <c r="J77" s="204"/>
+      <c r="K77" s="204"/>
+      <c r="L77" s="235"/>
+      <c r="M77" s="235"/>
+      <c r="N77" s="234"/>
+      <c r="O77" s="234"/>
+      <c r="P77" s="234"/>
+      <c r="Q77" s="234"/>
+      <c r="R77" s="234"/>
+      <c r="S77" s="235"/>
+      <c r="T77" s="235"/>
       <c r="U77" s="43"/>
       <c r="V77" s="43"/>
       <c r="W77" s="43"/>
@@ -14203,21 +14207,21 @@
       <c r="AQ77" s="43"/>
       <c r="AR77" s="43"/>
       <c r="AS77" s="43"/>
-      <c r="AT77" s="149"/>
+      <c r="AT77" s="148"/>
       <c r="AU77" s="70"/>
       <c r="AV77" s="70"/>
       <c r="AW77" s="43"/>
       <c r="AX77" s="43"/>
       <c r="AY77" s="43"/>
       <c r="AZ77" s="43"/>
-      <c r="BA77" s="149"/>
+      <c r="BA77" s="148"/>
       <c r="BB77" s="70"/>
       <c r="BC77" s="70"/>
       <c r="BD77" s="43"/>
       <c r="BE77" s="43"/>
       <c r="BF77" s="43"/>
       <c r="BG77" s="43"/>
-      <c r="BH77" s="149"/>
+      <c r="BH77" s="148"/>
       <c r="BI77" s="70"/>
       <c r="BJ77" s="70"/>
       <c r="BK77" s="43"/>
@@ -14274,26 +14278,26 @@
       <c r="DJ77" s="46"/>
       <c r="DK77" s="47"/>
     </row>
-    <row r="78" spans="2:115">
-      <c r="B78" s="277"/>
-      <c r="C78" s="288"/>
+    <row r="78" spans="2:115 16384:16384">
+      <c r="B78" s="283"/>
+      <c r="C78" s="297"/>
       <c r="D78" s="15"/>
       <c r="E78" s="22"/>
       <c r="F78" s="81"/>
-      <c r="G78" s="239"/>
-      <c r="H78" s="212"/>
-      <c r="I78" s="212"/>
-      <c r="J78" s="212"/>
-      <c r="K78" s="212"/>
-      <c r="L78" s="226"/>
-      <c r="M78" s="226"/>
-      <c r="N78" s="232"/>
-      <c r="O78" s="232"/>
-      <c r="P78" s="232"/>
-      <c r="Q78" s="232"/>
-      <c r="R78" s="232"/>
-      <c r="S78" s="226"/>
-      <c r="T78" s="226"/>
+      <c r="G78" s="238"/>
+      <c r="H78" s="211"/>
+      <c r="I78" s="211"/>
+      <c r="J78" s="211"/>
+      <c r="K78" s="211"/>
+      <c r="L78" s="225"/>
+      <c r="M78" s="225"/>
+      <c r="N78" s="231"/>
+      <c r="O78" s="231"/>
+      <c r="P78" s="231"/>
+      <c r="Q78" s="231"/>
+      <c r="R78" s="231"/>
+      <c r="S78" s="225"/>
+      <c r="T78" s="225"/>
       <c r="U78" s="54"/>
       <c r="V78" s="54"/>
       <c r="W78" s="54"/>
@@ -14319,21 +14323,21 @@
       <c r="AQ78" s="54"/>
       <c r="AR78" s="54"/>
       <c r="AS78" s="54"/>
-      <c r="AT78" s="152"/>
+      <c r="AT78" s="151"/>
       <c r="AU78" s="71"/>
       <c r="AV78" s="71"/>
       <c r="AW78" s="54"/>
       <c r="AX78" s="54"/>
       <c r="AY78" s="54"/>
       <c r="AZ78" s="54"/>
-      <c r="BA78" s="152"/>
+      <c r="BA78" s="151"/>
       <c r="BB78" s="71"/>
       <c r="BC78" s="71"/>
       <c r="BD78" s="54"/>
       <c r="BE78" s="54"/>
       <c r="BF78" s="54"/>
       <c r="BG78" s="54"/>
-      <c r="BH78" s="152"/>
+      <c r="BH78" s="151"/>
       <c r="BI78" s="71"/>
       <c r="BJ78" s="71"/>
       <c r="BK78" s="54"/>
@@ -14390,9 +14394,9 @@
       <c r="DJ78" s="51"/>
       <c r="DK78" s="52"/>
     </row>
-    <row r="79" spans="2:115">
-      <c r="B79" s="277"/>
-      <c r="C79" s="288" t="s">
+    <row r="79" spans="2:115 16384:16384">
+      <c r="B79" s="283"/>
+      <c r="C79" s="297" t="s">
         <v>53</v>
       </c>
       <c r="D79" s="14"/>
@@ -14400,20 +14404,20 @@
         <v>51</v>
       </c>
       <c r="F79" s="82"/>
-      <c r="G79" s="243"/>
-      <c r="H79" s="223"/>
-      <c r="I79" s="223"/>
-      <c r="J79" s="223"/>
-      <c r="K79" s="223"/>
-      <c r="L79" s="225"/>
-      <c r="M79" s="225"/>
-      <c r="N79" s="224"/>
-      <c r="O79" s="224"/>
-      <c r="P79" s="224"/>
-      <c r="Q79" s="224"/>
-      <c r="R79" s="224"/>
-      <c r="S79" s="225"/>
-      <c r="T79" s="225"/>
+      <c r="G79" s="242"/>
+      <c r="H79" s="222"/>
+      <c r="I79" s="222"/>
+      <c r="J79" s="222"/>
+      <c r="K79" s="222"/>
+      <c r="L79" s="224"/>
+      <c r="M79" s="224"/>
+      <c r="N79" s="223"/>
+      <c r="O79" s="223"/>
+      <c r="P79" s="223"/>
+      <c r="Q79" s="223"/>
+      <c r="R79" s="223"/>
+      <c r="S79" s="224"/>
+      <c r="T79" s="224"/>
       <c r="U79" s="63"/>
       <c r="V79" s="63"/>
       <c r="W79" s="63"/>
@@ -14439,21 +14443,21 @@
       <c r="AQ79" s="63"/>
       <c r="AR79" s="63"/>
       <c r="AS79" s="63"/>
-      <c r="AT79" s="151"/>
+      <c r="AT79" s="150"/>
       <c r="AU79" s="72"/>
       <c r="AV79" s="72"/>
       <c r="AW79" s="63"/>
       <c r="AX79" s="63"/>
       <c r="AY79" s="63"/>
       <c r="AZ79" s="63"/>
-      <c r="BA79" s="151"/>
+      <c r="BA79" s="150"/>
       <c r="BB79" s="72"/>
       <c r="BC79" s="72"/>
       <c r="BD79" s="63"/>
       <c r="BE79" s="63"/>
       <c r="BF79" s="63"/>
       <c r="BG79" s="63"/>
-      <c r="BH79" s="151"/>
+      <c r="BH79" s="150"/>
       <c r="BI79" s="72"/>
       <c r="BJ79" s="72"/>
       <c r="BK79" s="63"/>
@@ -14510,26 +14514,26 @@
       <c r="DJ79" s="66"/>
       <c r="DK79" s="67"/>
     </row>
-    <row r="80" spans="2:115">
-      <c r="B80" s="277"/>
-      <c r="C80" s="289"/>
+    <row r="80" spans="2:115 16384:16384">
+      <c r="B80" s="283"/>
+      <c r="C80" s="298"/>
       <c r="D80" s="16"/>
       <c r="E80" s="24"/>
       <c r="F80" s="83"/>
-      <c r="G80" s="238"/>
-      <c r="H80" s="228"/>
-      <c r="I80" s="228"/>
-      <c r="J80" s="228"/>
-      <c r="K80" s="228"/>
-      <c r="L80" s="230"/>
-      <c r="M80" s="230"/>
-      <c r="N80" s="229"/>
-      <c r="O80" s="229"/>
-      <c r="P80" s="229"/>
-      <c r="Q80" s="229"/>
-      <c r="R80" s="229"/>
-      <c r="S80" s="230"/>
-      <c r="T80" s="230"/>
+      <c r="G80" s="237"/>
+      <c r="H80" s="227"/>
+      <c r="I80" s="227"/>
+      <c r="J80" s="227"/>
+      <c r="K80" s="227"/>
+      <c r="L80" s="229"/>
+      <c r="M80" s="229"/>
+      <c r="N80" s="228"/>
+      <c r="O80" s="228"/>
+      <c r="P80" s="228"/>
+      <c r="Q80" s="228"/>
+      <c r="R80" s="228"/>
+      <c r="S80" s="229"/>
+      <c r="T80" s="229"/>
       <c r="U80" s="56"/>
       <c r="V80" s="56"/>
       <c r="W80" s="56"/>
@@ -14555,21 +14559,21 @@
       <c r="AQ80" s="56"/>
       <c r="AR80" s="56"/>
       <c r="AS80" s="56"/>
-      <c r="AT80" s="150"/>
+      <c r="AT80" s="149"/>
       <c r="AU80" s="73"/>
       <c r="AV80" s="73"/>
       <c r="AW80" s="56"/>
       <c r="AX80" s="56"/>
       <c r="AY80" s="56"/>
       <c r="AZ80" s="56"/>
-      <c r="BA80" s="150"/>
+      <c r="BA80" s="149"/>
       <c r="BB80" s="73"/>
       <c r="BC80" s="73"/>
       <c r="BD80" s="56"/>
       <c r="BE80" s="56"/>
       <c r="BF80" s="56"/>
       <c r="BG80" s="56"/>
-      <c r="BH80" s="150"/>
+      <c r="BH80" s="149"/>
       <c r="BI80" s="73"/>
       <c r="BJ80" s="73"/>
       <c r="BK80" s="56"/>
@@ -14627,25 +14631,25 @@
       <c r="DK80" s="61"/>
     </row>
     <row r="81" spans="2:116">
-      <c r="B81" s="277"/>
-      <c r="C81" s="290"/>
+      <c r="B81" s="283"/>
+      <c r="C81" s="280"/>
       <c r="D81" s="14"/>
       <c r="E81" s="23"/>
       <c r="F81" s="82"/>
-      <c r="G81" s="239"/>
-      <c r="H81" s="212"/>
-      <c r="I81" s="212"/>
-      <c r="J81" s="232"/>
-      <c r="K81" s="212"/>
-      <c r="L81" s="226"/>
-      <c r="M81" s="226"/>
-      <c r="N81" s="212"/>
-      <c r="O81" s="212"/>
-      <c r="P81" s="212"/>
-      <c r="Q81" s="212"/>
-      <c r="R81" s="212"/>
-      <c r="S81" s="226"/>
-      <c r="T81" s="226"/>
+      <c r="G81" s="238"/>
+      <c r="H81" s="211"/>
+      <c r="I81" s="211"/>
+      <c r="J81" s="231"/>
+      <c r="K81" s="211"/>
+      <c r="L81" s="225"/>
+      <c r="M81" s="225"/>
+      <c r="N81" s="211"/>
+      <c r="O81" s="211"/>
+      <c r="P81" s="211"/>
+      <c r="Q81" s="211"/>
+      <c r="R81" s="211"/>
+      <c r="S81" s="225"/>
+      <c r="T81" s="225"/>
       <c r="U81" s="48"/>
       <c r="V81" s="48"/>
       <c r="W81" s="48"/>
@@ -14671,21 +14675,21 @@
       <c r="AQ81" s="48"/>
       <c r="AR81" s="48"/>
       <c r="AS81" s="48"/>
-      <c r="AT81" s="146"/>
+      <c r="AT81" s="145"/>
       <c r="AU81" s="71"/>
       <c r="AV81" s="71"/>
       <c r="AW81" s="48"/>
       <c r="AX81" s="48"/>
       <c r="AY81" s="48"/>
       <c r="AZ81" s="48"/>
-      <c r="BA81" s="146"/>
+      <c r="BA81" s="145"/>
       <c r="BB81" s="71"/>
       <c r="BC81" s="71"/>
       <c r="BD81" s="48"/>
       <c r="BE81" s="48"/>
       <c r="BF81" s="48"/>
       <c r="BG81" s="48"/>
-      <c r="BH81" s="146"/>
+      <c r="BH81" s="145"/>
       <c r="BI81" s="71"/>
       <c r="BJ81" s="71"/>
       <c r="BK81" s="48"/>
@@ -14743,25 +14747,25 @@
       <c r="DK81" s="52"/>
     </row>
     <row r="82" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B82" s="286"/>
-      <c r="C82" s="291"/>
+      <c r="B82" s="284"/>
+      <c r="C82" s="299"/>
       <c r="D82" s="25"/>
       <c r="E82" s="26"/>
       <c r="F82" s="84"/>
-      <c r="G82" s="240"/>
-      <c r="H82" s="199"/>
-      <c r="I82" s="199"/>
-      <c r="J82" s="241"/>
-      <c r="K82" s="241"/>
-      <c r="L82" s="233"/>
-      <c r="M82" s="233"/>
-      <c r="N82" s="199"/>
-      <c r="O82" s="199"/>
-      <c r="P82" s="199"/>
-      <c r="Q82" s="199"/>
-      <c r="R82" s="199"/>
-      <c r="S82" s="233"/>
-      <c r="T82" s="233"/>
+      <c r="G82" s="239"/>
+      <c r="H82" s="198"/>
+      <c r="I82" s="198"/>
+      <c r="J82" s="240"/>
+      <c r="K82" s="240"/>
+      <c r="L82" s="232"/>
+      <c r="M82" s="232"/>
+      <c r="N82" s="198"/>
+      <c r="O82" s="198"/>
+      <c r="P82" s="198"/>
+      <c r="Q82" s="198"/>
+      <c r="R82" s="198"/>
+      <c r="S82" s="232"/>
+      <c r="T82" s="232"/>
       <c r="U82" s="32"/>
       <c r="V82" s="32"/>
       <c r="W82" s="32"/>
@@ -14787,21 +14791,21 @@
       <c r="AQ82" s="32"/>
       <c r="AR82" s="32"/>
       <c r="AS82" s="32"/>
-      <c r="AT82" s="144"/>
+      <c r="AT82" s="143"/>
       <c r="AU82" s="69"/>
       <c r="AV82" s="69"/>
       <c r="AW82" s="32"/>
       <c r="AX82" s="32"/>
       <c r="AY82" s="32"/>
       <c r="AZ82" s="32"/>
-      <c r="BA82" s="144"/>
+      <c r="BA82" s="143"/>
       <c r="BB82" s="69"/>
       <c r="BC82" s="69"/>
       <c r="BD82" s="32"/>
       <c r="BE82" s="32"/>
       <c r="BF82" s="32"/>
       <c r="BG82" s="32"/>
-      <c r="BH82" s="144"/>
+      <c r="BH82" s="143"/>
       <c r="BI82" s="69"/>
       <c r="BJ82" s="69"/>
       <c r="BK82" s="32"/>
@@ -14859,10 +14863,10 @@
       <c r="DK82" s="36"/>
     </row>
     <row r="83" spans="2:116">
-      <c r="B83" s="278" t="s">
+      <c r="B83" s="282" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="280" t="s">
+      <c r="C83" s="292" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="3"/>
@@ -14870,20 +14874,20 @@
         <v>20</v>
       </c>
       <c r="F83" s="76"/>
-      <c r="G83" s="242"/>
-      <c r="H83" s="205"/>
-      <c r="I83" s="205"/>
-      <c r="J83" s="205"/>
-      <c r="K83" s="205"/>
-      <c r="L83" s="236"/>
-      <c r="M83" s="236"/>
-      <c r="N83" s="205"/>
-      <c r="O83" s="205"/>
-      <c r="P83" s="205"/>
-      <c r="Q83" s="205"/>
-      <c r="R83" s="205"/>
-      <c r="S83" s="236"/>
-      <c r="T83" s="236"/>
+      <c r="G83" s="241"/>
+      <c r="H83" s="204"/>
+      <c r="I83" s="204"/>
+      <c r="J83" s="204"/>
+      <c r="K83" s="204"/>
+      <c r="L83" s="235"/>
+      <c r="M83" s="235"/>
+      <c r="N83" s="204"/>
+      <c r="O83" s="204"/>
+      <c r="P83" s="204"/>
+      <c r="Q83" s="204"/>
+      <c r="R83" s="204"/>
+      <c r="S83" s="235"/>
+      <c r="T83" s="235"/>
       <c r="U83" s="42"/>
       <c r="V83" s="42"/>
       <c r="W83" s="42"/>
@@ -14898,32 +14902,32 @@
       <c r="AF83" s="42"/>
       <c r="AG83" s="70"/>
       <c r="AH83" s="70"/>
-      <c r="AI83" s="122"/>
-      <c r="AJ83" s="122"/>
-      <c r="AK83" s="122"/>
-      <c r="AL83" s="122"/>
-      <c r="AM83" s="122"/>
+      <c r="AI83" s="121"/>
+      <c r="AJ83" s="121"/>
+      <c r="AK83" s="121"/>
+      <c r="AL83" s="121"/>
+      <c r="AM83" s="121"/>
       <c r="AN83" s="70"/>
       <c r="AO83" s="70"/>
       <c r="AP83" s="42"/>
       <c r="AQ83" s="42"/>
       <c r="AR83" s="42"/>
       <c r="AS83" s="42"/>
-      <c r="AT83" s="145"/>
+      <c r="AT83" s="144"/>
       <c r="AU83" s="70"/>
       <c r="AV83" s="70"/>
       <c r="AW83" s="42"/>
       <c r="AX83" s="42"/>
       <c r="AY83" s="42"/>
       <c r="AZ83" s="42"/>
-      <c r="BA83" s="145"/>
+      <c r="BA83" s="144"/>
       <c r="BB83" s="70"/>
       <c r="BC83" s="70"/>
       <c r="BD83" s="42"/>
       <c r="BE83" s="42"/>
       <c r="BF83" s="42"/>
       <c r="BG83" s="42"/>
-      <c r="BH83" s="145"/>
+      <c r="BH83" s="144"/>
       <c r="BI83" s="70"/>
       <c r="BJ83" s="70"/>
       <c r="BK83" s="42"/>
@@ -14981,27 +14985,27 @@
       <c r="DK83" s="47"/>
     </row>
     <row r="84" spans="2:116">
-      <c r="B84" s="277"/>
-      <c r="C84" s="281"/>
+      <c r="B84" s="283"/>
+      <c r="C84" s="293"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F84" s="75"/>
-      <c r="G84" s="239"/>
-      <c r="H84" s="212"/>
-      <c r="I84" s="212"/>
-      <c r="J84" s="212"/>
-      <c r="K84" s="212"/>
-      <c r="L84" s="226"/>
-      <c r="M84" s="226"/>
-      <c r="N84" s="212"/>
-      <c r="O84" s="212"/>
-      <c r="P84" s="212"/>
-      <c r="Q84" s="212"/>
-      <c r="R84" s="212"/>
-      <c r="S84" s="226"/>
-      <c r="T84" s="226"/>
+      <c r="G84" s="238"/>
+      <c r="H84" s="211"/>
+      <c r="I84" s="211"/>
+      <c r="J84" s="211"/>
+      <c r="K84" s="211"/>
+      <c r="L84" s="225"/>
+      <c r="M84" s="225"/>
+      <c r="N84" s="211"/>
+      <c r="O84" s="211"/>
+      <c r="P84" s="211"/>
+      <c r="Q84" s="211"/>
+      <c r="R84" s="211"/>
+      <c r="S84" s="225"/>
+      <c r="T84" s="225"/>
       <c r="U84" s="48"/>
       <c r="V84" s="48"/>
       <c r="W84" s="48"/>
@@ -15027,21 +15031,21 @@
       <c r="AQ84" s="48"/>
       <c r="AR84" s="48"/>
       <c r="AS84" s="48"/>
-      <c r="AT84" s="146"/>
+      <c r="AT84" s="145"/>
       <c r="AU84" s="71"/>
       <c r="AV84" s="71"/>
       <c r="AW84" s="48"/>
       <c r="AX84" s="48"/>
       <c r="AY84" s="48"/>
       <c r="AZ84" s="48"/>
-      <c r="BA84" s="146"/>
+      <c r="BA84" s="145"/>
       <c r="BB84" s="71"/>
       <c r="BC84" s="71"/>
       <c r="BD84" s="48"/>
       <c r="BE84" s="48"/>
       <c r="BF84" s="48"/>
       <c r="BG84" s="48"/>
-      <c r="BH84" s="146"/>
+      <c r="BH84" s="145"/>
       <c r="BI84" s="71"/>
       <c r="BJ84" s="71"/>
       <c r="BK84" s="48"/>
@@ -15099,25 +15103,25 @@
       <c r="DK84" s="52"/>
     </row>
     <row r="85" spans="2:116">
-      <c r="B85" s="277"/>
-      <c r="C85" s="281"/>
+      <c r="B85" s="283"/>
+      <c r="C85" s="293"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="75"/>
-      <c r="G85" s="239"/>
-      <c r="H85" s="212"/>
-      <c r="I85" s="212"/>
-      <c r="J85" s="212"/>
-      <c r="K85" s="212"/>
-      <c r="L85" s="226"/>
-      <c r="M85" s="226"/>
-      <c r="N85" s="212"/>
-      <c r="O85" s="212"/>
-      <c r="P85" s="212"/>
-      <c r="Q85" s="212"/>
-      <c r="R85" s="212"/>
-      <c r="S85" s="226"/>
-      <c r="T85" s="226"/>
+      <c r="G85" s="238"/>
+      <c r="H85" s="211"/>
+      <c r="I85" s="211"/>
+      <c r="J85" s="211"/>
+      <c r="K85" s="211"/>
+      <c r="L85" s="225"/>
+      <c r="M85" s="225"/>
+      <c r="N85" s="211"/>
+      <c r="O85" s="211"/>
+      <c r="P85" s="211"/>
+      <c r="Q85" s="211"/>
+      <c r="R85" s="211"/>
+      <c r="S85" s="225"/>
+      <c r="T85" s="225"/>
       <c r="U85" s="48"/>
       <c r="V85" s="48"/>
       <c r="W85" s="48"/>
@@ -15143,21 +15147,21 @@
       <c r="AQ85" s="48"/>
       <c r="AR85" s="48"/>
       <c r="AS85" s="48"/>
-      <c r="AT85" s="146"/>
+      <c r="AT85" s="145"/>
       <c r="AU85" s="71"/>
       <c r="AV85" s="71"/>
       <c r="AW85" s="48"/>
       <c r="AX85" s="48"/>
       <c r="AY85" s="48"/>
       <c r="AZ85" s="48"/>
-      <c r="BA85" s="146"/>
+      <c r="BA85" s="145"/>
       <c r="BB85" s="71"/>
       <c r="BC85" s="71"/>
       <c r="BD85" s="48"/>
       <c r="BE85" s="48"/>
       <c r="BF85" s="48"/>
       <c r="BG85" s="48"/>
-      <c r="BH85" s="146"/>
+      <c r="BH85" s="145"/>
       <c r="BI85" s="71"/>
       <c r="BJ85" s="71"/>
       <c r="BK85" s="48"/>
@@ -15215,25 +15219,25 @@
       <c r="DK85" s="52"/>
     </row>
     <row r="86" spans="2:116">
-      <c r="B86" s="277"/>
-      <c r="C86" s="281"/>
+      <c r="B86" s="283"/>
+      <c r="C86" s="293"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="75"/>
-      <c r="G86" s="239"/>
-      <c r="H86" s="212"/>
-      <c r="I86" s="212"/>
-      <c r="J86" s="212"/>
-      <c r="K86" s="212"/>
-      <c r="L86" s="226"/>
-      <c r="M86" s="226"/>
-      <c r="N86" s="212"/>
-      <c r="O86" s="212"/>
-      <c r="P86" s="212"/>
-      <c r="Q86" s="212"/>
-      <c r="R86" s="212"/>
-      <c r="S86" s="226"/>
-      <c r="T86" s="226"/>
+      <c r="G86" s="238"/>
+      <c r="H86" s="211"/>
+      <c r="I86" s="211"/>
+      <c r="J86" s="211"/>
+      <c r="K86" s="211"/>
+      <c r="L86" s="225"/>
+      <c r="M86" s="225"/>
+      <c r="N86" s="211"/>
+      <c r="O86" s="211"/>
+      <c r="P86" s="211"/>
+      <c r="Q86" s="211"/>
+      <c r="R86" s="211"/>
+      <c r="S86" s="225"/>
+      <c r="T86" s="225"/>
       <c r="U86" s="48"/>
       <c r="V86" s="48"/>
       <c r="W86" s="48"/>
@@ -15259,21 +15263,21 @@
       <c r="AQ86" s="48"/>
       <c r="AR86" s="48"/>
       <c r="AS86" s="48"/>
-      <c r="AT86" s="146"/>
+      <c r="AT86" s="145"/>
       <c r="AU86" s="71"/>
       <c r="AV86" s="71"/>
       <c r="AW86" s="48"/>
       <c r="AX86" s="48"/>
       <c r="AY86" s="48"/>
       <c r="AZ86" s="48"/>
-      <c r="BA86" s="146"/>
+      <c r="BA86" s="145"/>
       <c r="BB86" s="71"/>
       <c r="BC86" s="71"/>
       <c r="BD86" s="48"/>
       <c r="BE86" s="48"/>
       <c r="BF86" s="48"/>
       <c r="BG86" s="48"/>
-      <c r="BH86" s="146"/>
+      <c r="BH86" s="145"/>
       <c r="BI86" s="71"/>
       <c r="BJ86" s="71"/>
       <c r="BK86" s="48"/>
@@ -15331,25 +15335,25 @@
       <c r="DK86" s="52"/>
     </row>
     <row r="87" spans="2:116">
-      <c r="B87" s="277"/>
-      <c r="C87" s="281"/>
+      <c r="B87" s="283"/>
+      <c r="C87" s="293"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
       <c r="F87" s="75"/>
-      <c r="G87" s="238"/>
-      <c r="H87" s="228"/>
-      <c r="I87" s="228"/>
-      <c r="J87" s="228"/>
-      <c r="K87" s="228"/>
-      <c r="L87" s="230"/>
-      <c r="M87" s="230"/>
-      <c r="N87" s="228"/>
-      <c r="O87" s="228"/>
-      <c r="P87" s="228"/>
-      <c r="Q87" s="228"/>
-      <c r="R87" s="228"/>
-      <c r="S87" s="230"/>
-      <c r="T87" s="230"/>
+      <c r="G87" s="237"/>
+      <c r="H87" s="227"/>
+      <c r="I87" s="227"/>
+      <c r="J87" s="227"/>
+      <c r="K87" s="227"/>
+      <c r="L87" s="229"/>
+      <c r="M87" s="229"/>
+      <c r="N87" s="227"/>
+      <c r="O87" s="227"/>
+      <c r="P87" s="227"/>
+      <c r="Q87" s="227"/>
+      <c r="R87" s="227"/>
+      <c r="S87" s="229"/>
+      <c r="T87" s="229"/>
       <c r="U87" s="57"/>
       <c r="V87" s="57"/>
       <c r="W87" s="57"/>
@@ -15375,21 +15379,21 @@
       <c r="AQ87" s="57"/>
       <c r="AR87" s="57"/>
       <c r="AS87" s="57"/>
-      <c r="AT87" s="148"/>
+      <c r="AT87" s="147"/>
       <c r="AU87" s="73"/>
       <c r="AV87" s="73"/>
       <c r="AW87" s="57"/>
       <c r="AX87" s="57"/>
       <c r="AY87" s="57"/>
       <c r="AZ87" s="57"/>
-      <c r="BA87" s="148"/>
+      <c r="BA87" s="147"/>
       <c r="BB87" s="73"/>
       <c r="BC87" s="73"/>
       <c r="BD87" s="57"/>
       <c r="BE87" s="57"/>
       <c r="BF87" s="57"/>
       <c r="BG87" s="57"/>
-      <c r="BH87" s="148"/>
+      <c r="BH87" s="147"/>
       <c r="BI87" s="73"/>
       <c r="BJ87" s="73"/>
       <c r="BK87" s="57"/>
@@ -15447,25 +15451,25 @@
       <c r="DK87" s="61"/>
     </row>
     <row r="88" spans="2:116">
-      <c r="B88" s="277"/>
-      <c r="C88" s="282"/>
+      <c r="B88" s="283"/>
+      <c r="C88" s="294"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="77"/>
-      <c r="G88" s="243"/>
-      <c r="H88" s="223"/>
-      <c r="I88" s="223"/>
-      <c r="J88" s="223"/>
-      <c r="K88" s="223"/>
-      <c r="L88" s="225"/>
-      <c r="M88" s="225"/>
-      <c r="N88" s="223"/>
-      <c r="O88" s="223"/>
-      <c r="P88" s="223"/>
-      <c r="Q88" s="223"/>
-      <c r="R88" s="223"/>
-      <c r="S88" s="225"/>
-      <c r="T88" s="225"/>
+      <c r="G88" s="242"/>
+      <c r="H88" s="222"/>
+      <c r="I88" s="222"/>
+      <c r="J88" s="222"/>
+      <c r="K88" s="222"/>
+      <c r="L88" s="224"/>
+      <c r="M88" s="224"/>
+      <c r="N88" s="222"/>
+      <c r="O88" s="222"/>
+      <c r="P88" s="222"/>
+      <c r="Q88" s="222"/>
+      <c r="R88" s="222"/>
+      <c r="S88" s="224"/>
+      <c r="T88" s="224"/>
       <c r="U88" s="62"/>
       <c r="V88" s="62"/>
       <c r="W88" s="62"/>
@@ -15491,21 +15495,21 @@
       <c r="AQ88" s="62"/>
       <c r="AR88" s="62"/>
       <c r="AS88" s="62"/>
-      <c r="AT88" s="147"/>
+      <c r="AT88" s="146"/>
       <c r="AU88" s="72"/>
       <c r="AV88" s="72"/>
       <c r="AW88" s="62"/>
       <c r="AX88" s="62"/>
       <c r="AY88" s="62"/>
       <c r="AZ88" s="62"/>
-      <c r="BA88" s="147"/>
+      <c r="BA88" s="146"/>
       <c r="BB88" s="72"/>
       <c r="BC88" s="72"/>
       <c r="BD88" s="62"/>
       <c r="BE88" s="62"/>
       <c r="BF88" s="62"/>
       <c r="BG88" s="62"/>
-      <c r="BH88" s="147"/>
+      <c r="BH88" s="146"/>
       <c r="BI88" s="72"/>
       <c r="BJ88" s="72"/>
       <c r="BK88" s="62"/>
@@ -15563,25 +15567,25 @@
       <c r="DK88" s="67"/>
     </row>
     <row r="89" spans="2:116">
-      <c r="B89" s="277"/>
-      <c r="C89" s="281"/>
+      <c r="B89" s="283"/>
+      <c r="C89" s="293"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="F89" s="75"/>
-      <c r="G89" s="239"/>
-      <c r="H89" s="212"/>
-      <c r="I89" s="212"/>
-      <c r="J89" s="212"/>
-      <c r="K89" s="212"/>
-      <c r="L89" s="226"/>
-      <c r="M89" s="226"/>
-      <c r="N89" s="212"/>
-      <c r="O89" s="212"/>
-      <c r="P89" s="212"/>
-      <c r="Q89" s="212"/>
-      <c r="R89" s="212"/>
-      <c r="S89" s="226"/>
-      <c r="T89" s="226"/>
+      <c r="G89" s="238"/>
+      <c r="H89" s="211"/>
+      <c r="I89" s="211"/>
+      <c r="J89" s="211"/>
+      <c r="K89" s="211"/>
+      <c r="L89" s="225"/>
+      <c r="M89" s="225"/>
+      <c r="N89" s="211"/>
+      <c r="O89" s="211"/>
+      <c r="P89" s="211"/>
+      <c r="Q89" s="211"/>
+      <c r="R89" s="211"/>
+      <c r="S89" s="225"/>
+      <c r="T89" s="225"/>
       <c r="U89" s="48"/>
       <c r="V89" s="48"/>
       <c r="W89" s="48"/>
@@ -15607,21 +15611,21 @@
       <c r="AQ89" s="48"/>
       <c r="AR89" s="48"/>
       <c r="AS89" s="48"/>
-      <c r="AT89" s="146"/>
+      <c r="AT89" s="145"/>
       <c r="AU89" s="71"/>
       <c r="AV89" s="71"/>
       <c r="AW89" s="48"/>
       <c r="AX89" s="48"/>
       <c r="AY89" s="48"/>
       <c r="AZ89" s="48"/>
-      <c r="BA89" s="146"/>
+      <c r="BA89" s="145"/>
       <c r="BB89" s="71"/>
       <c r="BC89" s="71"/>
       <c r="BD89" s="48"/>
       <c r="BE89" s="48"/>
       <c r="BF89" s="48"/>
       <c r="BG89" s="48"/>
-      <c r="BH89" s="146"/>
+      <c r="BH89" s="145"/>
       <c r="BI89" s="71"/>
       <c r="BJ89" s="71"/>
       <c r="BK89" s="48"/>
@@ -15679,25 +15683,25 @@
       <c r="DK89" s="52"/>
     </row>
     <row r="90" spans="2:116">
-      <c r="B90" s="277"/>
-      <c r="C90" s="281"/>
+      <c r="B90" s="283"/>
+      <c r="C90" s="293"/>
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
       <c r="F90" s="75"/>
-      <c r="G90" s="239"/>
-      <c r="H90" s="212"/>
-      <c r="I90" s="212"/>
-      <c r="J90" s="212"/>
-      <c r="K90" s="212"/>
-      <c r="L90" s="226"/>
-      <c r="M90" s="226"/>
-      <c r="N90" s="212"/>
-      <c r="O90" s="212"/>
-      <c r="P90" s="212"/>
-      <c r="Q90" s="212"/>
-      <c r="R90" s="212"/>
-      <c r="S90" s="226"/>
-      <c r="T90" s="226"/>
+      <c r="G90" s="238"/>
+      <c r="H90" s="211"/>
+      <c r="I90" s="211"/>
+      <c r="J90" s="211"/>
+      <c r="K90" s="211"/>
+      <c r="L90" s="225"/>
+      <c r="M90" s="225"/>
+      <c r="N90" s="211"/>
+      <c r="O90" s="211"/>
+      <c r="P90" s="211"/>
+      <c r="Q90" s="211"/>
+      <c r="R90" s="211"/>
+      <c r="S90" s="225"/>
+      <c r="T90" s="225"/>
       <c r="U90" s="48"/>
       <c r="V90" s="48"/>
       <c r="W90" s="48"/>
@@ -15723,21 +15727,21 @@
       <c r="AQ90" s="48"/>
       <c r="AR90" s="48"/>
       <c r="AS90" s="48"/>
-      <c r="AT90" s="146"/>
+      <c r="AT90" s="145"/>
       <c r="AU90" s="71"/>
       <c r="AV90" s="71"/>
       <c r="AW90" s="48"/>
       <c r="AX90" s="48"/>
       <c r="AY90" s="48"/>
       <c r="AZ90" s="48"/>
-      <c r="BA90" s="146"/>
+      <c r="BA90" s="145"/>
       <c r="BB90" s="71"/>
       <c r="BC90" s="71"/>
       <c r="BD90" s="48"/>
       <c r="BE90" s="48"/>
       <c r="BF90" s="48"/>
       <c r="BG90" s="48"/>
-      <c r="BH90" s="146"/>
+      <c r="BH90" s="145"/>
       <c r="BI90" s="71"/>
       <c r="BJ90" s="71"/>
       <c r="BK90" s="48"/>
@@ -15795,25 +15799,25 @@
       <c r="DK90" s="52"/>
     </row>
     <row r="91" spans="2:116">
-      <c r="B91" s="277"/>
-      <c r="C91" s="281"/>
+      <c r="B91" s="283"/>
+      <c r="C91" s="293"/>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
       <c r="F91" s="75"/>
-      <c r="G91" s="239"/>
-      <c r="H91" s="212"/>
-      <c r="I91" s="212"/>
-      <c r="J91" s="212"/>
-      <c r="K91" s="212"/>
-      <c r="L91" s="226"/>
-      <c r="M91" s="226"/>
-      <c r="N91" s="212"/>
-      <c r="O91" s="212"/>
-      <c r="P91" s="212"/>
-      <c r="Q91" s="212"/>
-      <c r="R91" s="212"/>
-      <c r="S91" s="226"/>
-      <c r="T91" s="226"/>
+      <c r="G91" s="238"/>
+      <c r="H91" s="211"/>
+      <c r="I91" s="211"/>
+      <c r="J91" s="211"/>
+      <c r="K91" s="211"/>
+      <c r="L91" s="225"/>
+      <c r="M91" s="225"/>
+      <c r="N91" s="211"/>
+      <c r="O91" s="211"/>
+      <c r="P91" s="211"/>
+      <c r="Q91" s="211"/>
+      <c r="R91" s="211"/>
+      <c r="S91" s="225"/>
+      <c r="T91" s="225"/>
       <c r="U91" s="48"/>
       <c r="V91" s="48"/>
       <c r="W91" s="48"/>
@@ -15839,21 +15843,21 @@
       <c r="AQ91" s="48"/>
       <c r="AR91" s="48"/>
       <c r="AS91" s="48"/>
-      <c r="AT91" s="146"/>
+      <c r="AT91" s="145"/>
       <c r="AU91" s="71"/>
       <c r="AV91" s="71"/>
       <c r="AW91" s="48"/>
       <c r="AX91" s="48"/>
       <c r="AY91" s="48"/>
       <c r="AZ91" s="48"/>
-      <c r="BA91" s="146"/>
+      <c r="BA91" s="145"/>
       <c r="BB91" s="71"/>
       <c r="BC91" s="71"/>
       <c r="BD91" s="48"/>
       <c r="BE91" s="48"/>
       <c r="BF91" s="48"/>
       <c r="BG91" s="48"/>
-      <c r="BH91" s="146"/>
+      <c r="BH91" s="145"/>
       <c r="BI91" s="71"/>
       <c r="BJ91" s="71"/>
       <c r="BK91" s="48"/>
@@ -15911,25 +15915,25 @@
       <c r="DK91" s="52"/>
     </row>
     <row r="92" spans="2:116">
-      <c r="B92" s="277"/>
-      <c r="C92" s="281"/>
+      <c r="B92" s="283"/>
+      <c r="C92" s="293"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="75"/>
-      <c r="G92" s="239"/>
-      <c r="H92" s="212"/>
-      <c r="I92" s="212"/>
-      <c r="J92" s="212"/>
-      <c r="K92" s="212"/>
-      <c r="L92" s="226"/>
-      <c r="M92" s="226"/>
-      <c r="N92" s="212"/>
-      <c r="O92" s="212"/>
-      <c r="P92" s="212"/>
-      <c r="Q92" s="212"/>
-      <c r="R92" s="212"/>
-      <c r="S92" s="226"/>
-      <c r="T92" s="226"/>
+      <c r="G92" s="238"/>
+      <c r="H92" s="211"/>
+      <c r="I92" s="211"/>
+      <c r="J92" s="211"/>
+      <c r="K92" s="211"/>
+      <c r="L92" s="225"/>
+      <c r="M92" s="225"/>
+      <c r="N92" s="211"/>
+      <c r="O92" s="211"/>
+      <c r="P92" s="211"/>
+      <c r="Q92" s="211"/>
+      <c r="R92" s="211"/>
+      <c r="S92" s="225"/>
+      <c r="T92" s="225"/>
       <c r="U92" s="48"/>
       <c r="V92" s="48"/>
       <c r="W92" s="48"/>
@@ -15955,21 +15959,21 @@
       <c r="AQ92" s="48"/>
       <c r="AR92" s="48"/>
       <c r="AS92" s="48"/>
-      <c r="AT92" s="146"/>
+      <c r="AT92" s="145"/>
       <c r="AU92" s="71"/>
       <c r="AV92" s="71"/>
       <c r="AW92" s="48"/>
       <c r="AX92" s="48"/>
       <c r="AY92" s="48"/>
       <c r="AZ92" s="48"/>
-      <c r="BA92" s="146"/>
+      <c r="BA92" s="145"/>
       <c r="BB92" s="71"/>
       <c r="BC92" s="71"/>
       <c r="BD92" s="48"/>
       <c r="BE92" s="48"/>
       <c r="BF92" s="48"/>
       <c r="BG92" s="48"/>
-      <c r="BH92" s="146"/>
+      <c r="BH92" s="145"/>
       <c r="BI92" s="71"/>
       <c r="BJ92" s="71"/>
       <c r="BK92" s="48"/>
@@ -16027,25 +16031,25 @@
       <c r="DK92" s="52"/>
     </row>
     <row r="93" spans="2:116">
-      <c r="B93" s="277"/>
-      <c r="C93" s="283"/>
+      <c r="B93" s="283"/>
+      <c r="C93" s="289"/>
       <c r="D93" s="10"/>
       <c r="E93" s="11"/>
       <c r="F93" s="78"/>
-      <c r="G93" s="238"/>
-      <c r="H93" s="228"/>
-      <c r="I93" s="228"/>
-      <c r="J93" s="228"/>
-      <c r="K93" s="228"/>
-      <c r="L93" s="230"/>
-      <c r="M93" s="230"/>
-      <c r="N93" s="228"/>
-      <c r="O93" s="228"/>
-      <c r="P93" s="228"/>
-      <c r="Q93" s="228"/>
-      <c r="R93" s="228"/>
-      <c r="S93" s="230"/>
-      <c r="T93" s="230"/>
+      <c r="G93" s="237"/>
+      <c r="H93" s="227"/>
+      <c r="I93" s="227"/>
+      <c r="J93" s="227"/>
+      <c r="K93" s="227"/>
+      <c r="L93" s="229"/>
+      <c r="M93" s="229"/>
+      <c r="N93" s="227"/>
+      <c r="O93" s="227"/>
+      <c r="P93" s="227"/>
+      <c r="Q93" s="227"/>
+      <c r="R93" s="227"/>
+      <c r="S93" s="229"/>
+      <c r="T93" s="229"/>
       <c r="U93" s="57"/>
       <c r="V93" s="57"/>
       <c r="W93" s="57"/>
@@ -16071,21 +16075,21 @@
       <c r="AQ93" s="57"/>
       <c r="AR93" s="57"/>
       <c r="AS93" s="57"/>
-      <c r="AT93" s="148"/>
+      <c r="AT93" s="147"/>
       <c r="AU93" s="73"/>
       <c r="AV93" s="73"/>
       <c r="AW93" s="57"/>
       <c r="AX93" s="57"/>
       <c r="AY93" s="57"/>
       <c r="AZ93" s="57"/>
-      <c r="BA93" s="148"/>
+      <c r="BA93" s="147"/>
       <c r="BB93" s="73"/>
       <c r="BC93" s="73"/>
       <c r="BD93" s="57"/>
       <c r="BE93" s="57"/>
       <c r="BF93" s="57"/>
       <c r="BG93" s="57"/>
-      <c r="BH93" s="148"/>
+      <c r="BH93" s="147"/>
       <c r="BI93" s="73"/>
       <c r="BJ93" s="73"/>
       <c r="BK93" s="57"/>
@@ -16143,25 +16147,25 @@
       <c r="DK93" s="61"/>
     </row>
     <row r="94" spans="2:116">
-      <c r="B94" s="277"/>
-      <c r="C94" s="282"/>
+      <c r="B94" s="283"/>
+      <c r="C94" s="294"/>
       <c r="D94" s="8"/>
       <c r="E94" s="9"/>
       <c r="F94" s="77"/>
-      <c r="G94" s="239"/>
-      <c r="H94" s="212"/>
-      <c r="I94" s="212"/>
-      <c r="J94" s="212"/>
-      <c r="K94" s="212"/>
-      <c r="L94" s="226"/>
-      <c r="M94" s="226"/>
-      <c r="N94" s="212"/>
-      <c r="O94" s="212"/>
-      <c r="P94" s="212"/>
-      <c r="Q94" s="212"/>
-      <c r="R94" s="212"/>
-      <c r="S94" s="226"/>
-      <c r="T94" s="226"/>
+      <c r="G94" s="238"/>
+      <c r="H94" s="211"/>
+      <c r="I94" s="211"/>
+      <c r="J94" s="211"/>
+      <c r="K94" s="211"/>
+      <c r="L94" s="225"/>
+      <c r="M94" s="225"/>
+      <c r="N94" s="211"/>
+      <c r="O94" s="211"/>
+      <c r="P94" s="211"/>
+      <c r="Q94" s="211"/>
+      <c r="R94" s="211"/>
+      <c r="S94" s="225"/>
+      <c r="T94" s="225"/>
       <c r="U94" s="48"/>
       <c r="V94" s="48"/>
       <c r="W94" s="48"/>
@@ -16187,21 +16191,21 @@
       <c r="AQ94" s="48"/>
       <c r="AR94" s="48"/>
       <c r="AS94" s="48"/>
-      <c r="AT94" s="146"/>
+      <c r="AT94" s="145"/>
       <c r="AU94" s="71"/>
       <c r="AV94" s="71"/>
       <c r="AW94" s="48"/>
       <c r="AX94" s="48"/>
       <c r="AY94" s="48"/>
       <c r="AZ94" s="48"/>
-      <c r="BA94" s="146"/>
+      <c r="BA94" s="145"/>
       <c r="BB94" s="71"/>
       <c r="BC94" s="71"/>
       <c r="BD94" s="48"/>
       <c r="BE94" s="48"/>
       <c r="BF94" s="48"/>
       <c r="BG94" s="48"/>
-      <c r="BH94" s="146"/>
+      <c r="BH94" s="145"/>
       <c r="BI94" s="71"/>
       <c r="BJ94" s="71"/>
       <c r="BK94" s="48"/>
@@ -16260,25 +16264,25 @@
       <c r="DL94" s="7"/>
     </row>
     <row r="95" spans="2:116">
-      <c r="B95" s="277"/>
-      <c r="C95" s="281"/>
+      <c r="B95" s="283"/>
+      <c r="C95" s="293"/>
       <c r="D95" s="15"/>
       <c r="E95" s="22"/>
       <c r="F95" s="81"/>
-      <c r="G95" s="239"/>
-      <c r="H95" s="212"/>
-      <c r="I95" s="212"/>
-      <c r="J95" s="212"/>
-      <c r="K95" s="212"/>
-      <c r="L95" s="226"/>
-      <c r="M95" s="226"/>
-      <c r="N95" s="212"/>
-      <c r="O95" s="212"/>
-      <c r="P95" s="212"/>
-      <c r="Q95" s="212"/>
-      <c r="R95" s="212"/>
-      <c r="S95" s="226"/>
-      <c r="T95" s="226"/>
+      <c r="G95" s="238"/>
+      <c r="H95" s="211"/>
+      <c r="I95" s="211"/>
+      <c r="J95" s="211"/>
+      <c r="K95" s="211"/>
+      <c r="L95" s="225"/>
+      <c r="M95" s="225"/>
+      <c r="N95" s="211"/>
+      <c r="O95" s="211"/>
+      <c r="P95" s="211"/>
+      <c r="Q95" s="211"/>
+      <c r="R95" s="211"/>
+      <c r="S95" s="225"/>
+      <c r="T95" s="225"/>
       <c r="U95" s="48"/>
       <c r="V95" s="48"/>
       <c r="W95" s="48"/>
@@ -16304,21 +16308,21 @@
       <c r="AQ95" s="48"/>
       <c r="AR95" s="48"/>
       <c r="AS95" s="48"/>
-      <c r="AT95" s="146"/>
+      <c r="AT95" s="145"/>
       <c r="AU95" s="71"/>
       <c r="AV95" s="71"/>
       <c r="AW95" s="48"/>
       <c r="AX95" s="48"/>
       <c r="AY95" s="48"/>
       <c r="AZ95" s="48"/>
-      <c r="BA95" s="146"/>
+      <c r="BA95" s="145"/>
       <c r="BB95" s="71"/>
       <c r="BC95" s="71"/>
       <c r="BD95" s="48"/>
       <c r="BE95" s="48"/>
       <c r="BF95" s="48"/>
       <c r="BG95" s="48"/>
-      <c r="BH95" s="146"/>
+      <c r="BH95" s="145"/>
       <c r="BI95" s="71"/>
       <c r="BJ95" s="71"/>
       <c r="BK95" s="48"/>
@@ -16377,25 +16381,25 @@
       <c r="DL95" s="7"/>
     </row>
     <row r="96" spans="2:116">
-      <c r="B96" s="277"/>
-      <c r="C96" s="281"/>
+      <c r="B96" s="283"/>
+      <c r="C96" s="293"/>
       <c r="D96" s="15"/>
       <c r="E96" s="22"/>
       <c r="F96" s="81"/>
-      <c r="G96" s="239"/>
-      <c r="H96" s="212"/>
-      <c r="I96" s="212"/>
-      <c r="J96" s="212"/>
-      <c r="K96" s="212"/>
-      <c r="L96" s="226"/>
-      <c r="M96" s="226"/>
-      <c r="N96" s="212"/>
-      <c r="O96" s="212"/>
-      <c r="P96" s="212"/>
-      <c r="Q96" s="212"/>
-      <c r="R96" s="212"/>
-      <c r="S96" s="226"/>
-      <c r="T96" s="226"/>
+      <c r="G96" s="238"/>
+      <c r="H96" s="211"/>
+      <c r="I96" s="211"/>
+      <c r="J96" s="211"/>
+      <c r="K96" s="211"/>
+      <c r="L96" s="225"/>
+      <c r="M96" s="225"/>
+      <c r="N96" s="211"/>
+      <c r="O96" s="211"/>
+      <c r="P96" s="211"/>
+      <c r="Q96" s="211"/>
+      <c r="R96" s="211"/>
+      <c r="S96" s="225"/>
+      <c r="T96" s="225"/>
       <c r="U96" s="48"/>
       <c r="V96" s="48"/>
       <c r="W96" s="48"/>
@@ -16421,21 +16425,21 @@
       <c r="AQ96" s="48"/>
       <c r="AR96" s="48"/>
       <c r="AS96" s="48"/>
-      <c r="AT96" s="146"/>
+      <c r="AT96" s="145"/>
       <c r="AU96" s="71"/>
       <c r="AV96" s="71"/>
       <c r="AW96" s="48"/>
       <c r="AX96" s="48"/>
       <c r="AY96" s="48"/>
       <c r="AZ96" s="48"/>
-      <c r="BA96" s="146"/>
+      <c r="BA96" s="145"/>
       <c r="BB96" s="71"/>
       <c r="BC96" s="71"/>
       <c r="BD96" s="48"/>
       <c r="BE96" s="48"/>
       <c r="BF96" s="48"/>
       <c r="BG96" s="48"/>
-      <c r="BH96" s="146"/>
+      <c r="BH96" s="145"/>
       <c r="BI96" s="71"/>
       <c r="BJ96" s="71"/>
       <c r="BK96" s="48"/>
@@ -16494,25 +16498,25 @@
       <c r="DL96" s="7"/>
     </row>
     <row r="97" spans="2:116">
-      <c r="B97" s="277"/>
-      <c r="C97" s="283"/>
+      <c r="B97" s="283"/>
+      <c r="C97" s="289"/>
       <c r="D97" s="16"/>
       <c r="E97" s="24"/>
       <c r="F97" s="83"/>
-      <c r="G97" s="239"/>
-      <c r="H97" s="212"/>
-      <c r="I97" s="212"/>
-      <c r="J97" s="212"/>
-      <c r="K97" s="212"/>
-      <c r="L97" s="226"/>
-      <c r="M97" s="226"/>
-      <c r="N97" s="212"/>
-      <c r="O97" s="212"/>
-      <c r="P97" s="212"/>
-      <c r="Q97" s="212"/>
-      <c r="R97" s="212"/>
-      <c r="S97" s="226"/>
-      <c r="T97" s="226"/>
+      <c r="G97" s="238"/>
+      <c r="H97" s="211"/>
+      <c r="I97" s="211"/>
+      <c r="J97" s="211"/>
+      <c r="K97" s="211"/>
+      <c r="L97" s="225"/>
+      <c r="M97" s="225"/>
+      <c r="N97" s="211"/>
+      <c r="O97" s="211"/>
+      <c r="P97" s="211"/>
+      <c r="Q97" s="211"/>
+      <c r="R97" s="211"/>
+      <c r="S97" s="225"/>
+      <c r="T97" s="225"/>
       <c r="U97" s="48"/>
       <c r="V97" s="48"/>
       <c r="W97" s="48"/>
@@ -16538,21 +16542,21 @@
       <c r="AQ97" s="48"/>
       <c r="AR97" s="48"/>
       <c r="AS97" s="48"/>
-      <c r="AT97" s="146"/>
+      <c r="AT97" s="145"/>
       <c r="AU97" s="71"/>
       <c r="AV97" s="71"/>
       <c r="AW97" s="48"/>
       <c r="AX97" s="48"/>
       <c r="AY97" s="48"/>
       <c r="AZ97" s="48"/>
-      <c r="BA97" s="146"/>
+      <c r="BA97" s="145"/>
       <c r="BB97" s="71"/>
       <c r="BC97" s="71"/>
       <c r="BD97" s="48"/>
       <c r="BE97" s="48"/>
       <c r="BF97" s="48"/>
       <c r="BG97" s="48"/>
-      <c r="BH97" s="146"/>
+      <c r="BH97" s="145"/>
       <c r="BI97" s="71"/>
       <c r="BJ97" s="71"/>
       <c r="BK97" s="48"/>
@@ -16611,25 +16615,25 @@
       <c r="DL97" s="7"/>
     </row>
     <row r="98" spans="2:116">
-      <c r="B98" s="277"/>
-      <c r="C98" s="284"/>
+      <c r="B98" s="283"/>
+      <c r="C98" s="281"/>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
       <c r="F98" s="75"/>
-      <c r="G98" s="243"/>
-      <c r="H98" s="223"/>
-      <c r="I98" s="223"/>
-      <c r="J98" s="223"/>
-      <c r="K98" s="223"/>
-      <c r="L98" s="225"/>
-      <c r="M98" s="225"/>
-      <c r="N98" s="223"/>
-      <c r="O98" s="223"/>
-      <c r="P98" s="223"/>
-      <c r="Q98" s="223"/>
-      <c r="R98" s="223"/>
-      <c r="S98" s="225"/>
-      <c r="T98" s="225"/>
+      <c r="G98" s="242"/>
+      <c r="H98" s="222"/>
+      <c r="I98" s="222"/>
+      <c r="J98" s="222"/>
+      <c r="K98" s="222"/>
+      <c r="L98" s="224"/>
+      <c r="M98" s="224"/>
+      <c r="N98" s="222"/>
+      <c r="O98" s="222"/>
+      <c r="P98" s="222"/>
+      <c r="Q98" s="222"/>
+      <c r="R98" s="222"/>
+      <c r="S98" s="224"/>
+      <c r="T98" s="224"/>
       <c r="U98" s="62"/>
       <c r="V98" s="62"/>
       <c r="W98" s="62"/>
@@ -16655,21 +16659,21 @@
       <c r="AQ98" s="62"/>
       <c r="AR98" s="62"/>
       <c r="AS98" s="62"/>
-      <c r="AT98" s="147"/>
+      <c r="AT98" s="146"/>
       <c r="AU98" s="72"/>
       <c r="AV98" s="72"/>
       <c r="AW98" s="62"/>
       <c r="AX98" s="62"/>
       <c r="AY98" s="62"/>
       <c r="AZ98" s="62"/>
-      <c r="BA98" s="147"/>
+      <c r="BA98" s="146"/>
       <c r="BB98" s="72"/>
       <c r="BC98" s="72"/>
       <c r="BD98" s="62"/>
       <c r="BE98" s="62"/>
       <c r="BF98" s="62"/>
       <c r="BG98" s="62"/>
-      <c r="BH98" s="147"/>
+      <c r="BH98" s="146"/>
       <c r="BI98" s="72"/>
       <c r="BJ98" s="72"/>
       <c r="BK98" s="62"/>
@@ -16727,25 +16731,25 @@
       <c r="DK98" s="67"/>
     </row>
     <row r="99" spans="2:116">
-      <c r="B99" s="277"/>
-      <c r="C99" s="284"/>
+      <c r="B99" s="283"/>
+      <c r="C99" s="281"/>
       <c r="D99" s="15"/>
       <c r="E99" s="6"/>
       <c r="F99" s="75"/>
-      <c r="G99" s="239"/>
-      <c r="H99" s="212"/>
-      <c r="I99" s="212"/>
-      <c r="J99" s="212"/>
-      <c r="K99" s="212"/>
-      <c r="L99" s="226"/>
-      <c r="M99" s="226"/>
-      <c r="N99" s="212"/>
-      <c r="O99" s="212"/>
-      <c r="P99" s="212"/>
-      <c r="Q99" s="212"/>
-      <c r="R99" s="212"/>
-      <c r="S99" s="226"/>
-      <c r="T99" s="226"/>
+      <c r="G99" s="238"/>
+      <c r="H99" s="211"/>
+      <c r="I99" s="211"/>
+      <c r="J99" s="211"/>
+      <c r="K99" s="211"/>
+      <c r="L99" s="225"/>
+      <c r="M99" s="225"/>
+      <c r="N99" s="211"/>
+      <c r="O99" s="211"/>
+      <c r="P99" s="211"/>
+      <c r="Q99" s="211"/>
+      <c r="R99" s="211"/>
+      <c r="S99" s="225"/>
+      <c r="T99" s="225"/>
       <c r="U99" s="48"/>
       <c r="V99" s="48"/>
       <c r="W99" s="48"/>
@@ -16771,21 +16775,21 @@
       <c r="AQ99" s="48"/>
       <c r="AR99" s="48"/>
       <c r="AS99" s="48"/>
-      <c r="AT99" s="146"/>
+      <c r="AT99" s="145"/>
       <c r="AU99" s="71"/>
       <c r="AV99" s="71"/>
       <c r="AW99" s="48"/>
       <c r="AX99" s="48"/>
       <c r="AY99" s="48"/>
       <c r="AZ99" s="48"/>
-      <c r="BA99" s="146"/>
+      <c r="BA99" s="145"/>
       <c r="BB99" s="71"/>
       <c r="BC99" s="71"/>
       <c r="BD99" s="48"/>
       <c r="BE99" s="48"/>
       <c r="BF99" s="48"/>
       <c r="BG99" s="48"/>
-      <c r="BH99" s="146"/>
+      <c r="BH99" s="145"/>
       <c r="BI99" s="71"/>
       <c r="BJ99" s="71"/>
       <c r="BK99" s="48"/>
@@ -16843,25 +16847,25 @@
       <c r="DK99" s="52"/>
     </row>
     <row r="100" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B100" s="279"/>
-      <c r="C100" s="285"/>
+      <c r="B100" s="291"/>
+      <c r="C100" s="295"/>
       <c r="D100" s="27"/>
       <c r="E100" s="28"/>
       <c r="F100" s="85"/>
-      <c r="G100" s="244"/>
-      <c r="H100" s="245"/>
-      <c r="I100" s="245"/>
-      <c r="J100" s="245"/>
-      <c r="K100" s="245"/>
-      <c r="L100" s="246"/>
-      <c r="M100" s="246"/>
-      <c r="N100" s="245"/>
-      <c r="O100" s="245"/>
-      <c r="P100" s="245"/>
-      <c r="Q100" s="245"/>
-      <c r="R100" s="245"/>
-      <c r="S100" s="246"/>
-      <c r="T100" s="246"/>
+      <c r="G100" s="243"/>
+      <c r="H100" s="244"/>
+      <c r="I100" s="244"/>
+      <c r="J100" s="244"/>
+      <c r="K100" s="244"/>
+      <c r="L100" s="245"/>
+      <c r="M100" s="245"/>
+      <c r="N100" s="244"/>
+      <c r="O100" s="244"/>
+      <c r="P100" s="244"/>
+      <c r="Q100" s="244"/>
+      <c r="R100" s="244"/>
+      <c r="S100" s="245"/>
+      <c r="T100" s="245"/>
       <c r="U100" s="86"/>
       <c r="V100" s="86"/>
       <c r="W100" s="86"/>
@@ -16887,21 +16891,21 @@
       <c r="AQ100" s="86"/>
       <c r="AR100" s="86"/>
       <c r="AS100" s="86"/>
-      <c r="AT100" s="153"/>
+      <c r="AT100" s="152"/>
       <c r="AU100" s="87"/>
       <c r="AV100" s="87"/>
       <c r="AW100" s="86"/>
       <c r="AX100" s="86"/>
       <c r="AY100" s="86"/>
       <c r="AZ100" s="86"/>
-      <c r="BA100" s="153"/>
+      <c r="BA100" s="152"/>
       <c r="BB100" s="87"/>
       <c r="BC100" s="87"/>
       <c r="BD100" s="86"/>
       <c r="BE100" s="86"/>
       <c r="BF100" s="86"/>
       <c r="BG100" s="86"/>
-      <c r="BH100" s="153"/>
+      <c r="BH100" s="152"/>
       <c r="BI100" s="87"/>
       <c r="BJ100" s="87"/>
       <c r="BK100" s="86"/>
@@ -16961,13 +16965,6 @@
     <row r="101" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="B20:B60"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C45"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="C58:C60"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B83:B100"/>
     <mergeCell ref="C83:C87"/>
@@ -16984,6 +16981,13 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="B61:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="B20:B60"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C45"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="C58:C60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -829,7 +829,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,12 +893,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2814,7 +2808,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="61" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="83" xfId="0" applyFill="1" applyBorder="1">
@@ -2823,16 +2817,16 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -2841,7 +2835,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="92" xfId="0" applyFill="1" applyBorder="1">
@@ -2865,10 +2859,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="97" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="98" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="98" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="98" xfId="0" applyFill="1" applyBorder="1">
@@ -2937,97 +2931,97 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="104" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="105" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="106" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="53" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="78" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="113" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="104" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="105" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="106" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="78" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="113" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="115" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="116" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="115" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="116" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3048,7 +3042,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3066,202 +3060,202 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="92" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="111" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="92" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="92" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="111" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="111" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="87" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="58" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="59" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="90" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="59" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="89" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="60" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="82" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="87" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="30" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="58" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="59" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="90" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="59" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="89" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="60" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="82" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="60" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="82" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="61" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="83" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="60" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="82" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="61" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="83" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="61" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="83" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="61" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="83" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="63" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="85" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="62" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="53" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="53" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="63" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="39" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="75" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="73" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="74" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="72" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="76" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="77" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="78" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="78" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="63" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="85" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="62" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="53" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="53" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="63" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="72" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="73" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="75" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="73" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="74" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="72" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="76" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="77" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="78" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="78" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3276,10 +3270,10 @@
     <xf numFmtId="14" fontId="22" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="119" xfId="0" applyFill="1" applyBorder="1">
@@ -3312,34 +3306,34 @@
     <xf numFmtId="14" fontId="24" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="93" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="94" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="95" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="112" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="88" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="86" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="93" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="94" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="95" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="112" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="88" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="86" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1">
@@ -3351,34 +3345,67 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="82" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="62" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="60" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="82" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="62" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="60" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3393,44 +3420,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5029,8 +5023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:XFD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="AA71" sqref="AA71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17:AF32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5043,8 +5037,8 @@
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
     <col min="7" max="18" width="2.625" style="180" customWidth="1"/>
     <col min="19" max="19" width="2.5" style="180" customWidth="1"/>
-    <col min="20" max="20" width="2.625" style="180" customWidth="1"/>
-    <col min="21" max="45" width="2.625" customWidth="1"/>
+    <col min="20" max="21" width="2.625" style="180" customWidth="1"/>
+    <col min="22" max="45" width="2.625" customWidth="1"/>
     <col min="46" max="46" width="2.625" style="137" customWidth="1"/>
     <col min="47" max="52" width="2.625" customWidth="1"/>
     <col min="53" max="53" width="2.625" style="137" customWidth="1"/>
@@ -5689,7 +5683,7 @@
       <c r="T6" s="183">
         <v>27</v>
       </c>
-      <c r="U6" s="102">
+      <c r="U6" s="183">
         <v>28</v>
       </c>
       <c r="V6" s="102">
@@ -5996,7 +5990,7 @@
       <c r="R7" s="184"/>
       <c r="S7" s="184"/>
       <c r="T7" s="184"/>
-      <c r="U7" s="18"/>
+      <c r="U7" s="184"/>
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
       <c r="X7" s="18"/>
@@ -6113,7 +6107,7 @@
       <c r="R8" s="185"/>
       <c r="S8" s="185"/>
       <c r="T8" s="185"/>
-      <c r="U8" s="106"/>
+      <c r="U8" s="185"/>
       <c r="V8" s="106"/>
       <c r="W8" s="106"/>
       <c r="X8" s="106"/>
@@ -6230,7 +6224,7 @@
       <c r="R9" s="185"/>
       <c r="S9" s="185"/>
       <c r="T9" s="185"/>
-      <c r="U9" s="106"/>
+      <c r="U9" s="185"/>
       <c r="V9" s="106"/>
       <c r="W9" s="106"/>
       <c r="X9" s="106"/>
@@ -6347,7 +6341,7 @@
       <c r="R10" s="184"/>
       <c r="S10" s="184"/>
       <c r="T10" s="184"/>
-      <c r="U10" s="18"/>
+      <c r="U10" s="184"/>
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
       <c r="X10" s="18"/>
@@ -6464,7 +6458,7 @@
       <c r="R11" s="185"/>
       <c r="S11" s="185"/>
       <c r="T11" s="185"/>
-      <c r="U11" s="106"/>
+      <c r="U11" s="185"/>
       <c r="V11" s="106"/>
       <c r="W11" s="106"/>
       <c r="X11" s="106"/>
@@ -6581,7 +6575,7 @@
       <c r="R12" s="188"/>
       <c r="S12" s="188"/>
       <c r="T12" s="188"/>
-      <c r="U12" s="130"/>
+      <c r="U12" s="188"/>
       <c r="V12" s="130"/>
       <c r="W12" s="130"/>
       <c r="X12" s="130"/>
@@ -6755,7 +6749,7 @@
       <c r="T17" s="191">
         <v>27</v>
       </c>
-      <c r="U17" s="31">
+      <c r="U17" s="191">
         <v>28</v>
       </c>
       <c r="V17" s="31">
@@ -7042,7 +7036,7 @@
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="283" t="s">
+      <c r="B18" s="279" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="246" t="s">
@@ -7071,7 +7065,7 @@
       <c r="R18" s="195"/>
       <c r="S18" s="196"/>
       <c r="T18" s="196"/>
-      <c r="U18" s="37"/>
+      <c r="U18" s="195"/>
       <c r="V18" s="37"/>
       <c r="W18" s="37"/>
       <c r="X18" s="37"/>
@@ -7168,7 +7162,7 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="283"/>
+      <c r="B19" s="279"/>
       <c r="C19" s="253" t="s">
         <v>10</v>
       </c>
@@ -7195,7 +7189,7 @@
       <c r="R19" s="198"/>
       <c r="S19" s="232"/>
       <c r="T19" s="232"/>
-      <c r="U19" s="32"/>
+      <c r="U19" s="198"/>
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
       <c r="X19" s="32"/>
@@ -7292,10 +7286,10 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="282" t="s">
+      <c r="B20" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="285" t="s">
+      <c r="C20" s="296" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="257" t="s">
@@ -7321,7 +7315,7 @@
       <c r="R20" s="204"/>
       <c r="S20" s="235"/>
       <c r="T20" s="235"/>
-      <c r="U20" s="42"/>
+      <c r="U20" s="204"/>
       <c r="V20" s="42"/>
       <c r="W20" s="42"/>
       <c r="X20" s="42"/>
@@ -7418,8 +7412,8 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="283"/>
-      <c r="C21" s="286"/>
+      <c r="B21" s="279"/>
+      <c r="C21" s="297"/>
       <c r="D21" s="257" t="s">
         <v>58</v>
       </c>
@@ -7443,7 +7437,7 @@
       <c r="R21" s="211"/>
       <c r="S21" s="225"/>
       <c r="T21" s="225"/>
-      <c r="U21" s="48"/>
+      <c r="U21" s="211"/>
       <c r="V21" s="48"/>
       <c r="W21" s="48"/>
       <c r="X21" s="48"/>
@@ -7540,8 +7534,8 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="283"/>
-      <c r="C22" s="286"/>
+      <c r="B22" s="279"/>
+      <c r="C22" s="297"/>
       <c r="D22" s="257" t="s">
         <v>56</v>
       </c>
@@ -7565,7 +7559,7 @@
       <c r="R22" s="211"/>
       <c r="S22" s="225"/>
       <c r="T22" s="225"/>
-      <c r="U22" s="48"/>
+      <c r="U22" s="211"/>
       <c r="V22" s="48"/>
       <c r="W22" s="48"/>
       <c r="X22" s="48"/>
@@ -7662,8 +7656,8 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="283"/>
-      <c r="C23" s="287"/>
+      <c r="B23" s="279"/>
+      <c r="C23" s="298"/>
       <c r="D23" s="257" t="s">
         <v>57</v>
       </c>
@@ -7687,7 +7681,7 @@
       <c r="R23" s="211"/>
       <c r="S23" s="225"/>
       <c r="T23" s="225"/>
-      <c r="U23" s="48"/>
+      <c r="U23" s="211"/>
       <c r="V23" s="48"/>
       <c r="W23" s="48"/>
       <c r="X23" s="48"/>
@@ -7784,8 +7778,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="283"/>
-      <c r="C24" s="288" t="s">
+      <c r="B24" s="279"/>
+      <c r="C24" s="299" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7811,7 +7805,7 @@
       <c r="R24" s="222"/>
       <c r="S24" s="224"/>
       <c r="T24" s="224"/>
-      <c r="U24" s="62"/>
+      <c r="U24" s="222"/>
       <c r="V24" s="62"/>
       <c r="W24" s="62"/>
       <c r="X24" s="62"/>
@@ -7908,8 +7902,8 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="283"/>
-      <c r="C25" s="288"/>
+      <c r="B25" s="279"/>
+      <c r="C25" s="299"/>
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
@@ -7933,7 +7927,7 @@
       <c r="R25" s="211"/>
       <c r="S25" s="225"/>
       <c r="T25" s="225"/>
-      <c r="U25" s="48"/>
+      <c r="U25" s="211"/>
       <c r="V25" s="48"/>
       <c r="W25" s="48"/>
       <c r="X25" s="48"/>
@@ -8030,8 +8024,8 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="283"/>
-      <c r="C26" s="288"/>
+      <c r="B26" s="279"/>
+      <c r="C26" s="299"/>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
@@ -8055,7 +8049,7 @@
       <c r="R26" s="211"/>
       <c r="S26" s="225"/>
       <c r="T26" s="225"/>
-      <c r="U26" s="48"/>
+      <c r="U26" s="211"/>
       <c r="V26" s="48"/>
       <c r="W26" s="48"/>
       <c r="X26" s="48"/>
@@ -8152,8 +8146,8 @@
       <c r="DK26" s="52"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="283"/>
-      <c r="C27" s="288"/>
+      <c r="B27" s="279"/>
+      <c r="C27" s="299"/>
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
@@ -8177,7 +8171,7 @@
       <c r="R27" s="200"/>
       <c r="S27" s="225"/>
       <c r="T27" s="225"/>
-      <c r="U27" s="48"/>
+      <c r="U27" s="211"/>
       <c r="V27" s="48"/>
       <c r="W27" s="48"/>
       <c r="X27" s="48"/>
@@ -8274,8 +8268,8 @@
       <c r="DK27" s="52"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="283"/>
-      <c r="C28" s="288"/>
+      <c r="B28" s="279"/>
+      <c r="C28" s="299"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
@@ -8299,7 +8293,7 @@
       <c r="R28" s="200"/>
       <c r="S28" s="225"/>
       <c r="T28" s="225"/>
-      <c r="U28" s="48"/>
+      <c r="U28" s="211"/>
       <c r="V28" s="48"/>
       <c r="W28" s="48"/>
       <c r="X28" s="48"/>
@@ -8396,8 +8390,8 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="283"/>
-      <c r="C29" s="288"/>
+      <c r="B29" s="279"/>
+      <c r="C29" s="299"/>
       <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
@@ -8421,7 +8415,7 @@
       <c r="R29" s="211"/>
       <c r="S29" s="225"/>
       <c r="T29" s="225"/>
-      <c r="U29" s="48"/>
+      <c r="U29" s="211"/>
       <c r="V29" s="48"/>
       <c r="W29" s="48"/>
       <c r="X29" s="48"/>
@@ -8518,8 +8512,8 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="283"/>
-      <c r="C30" s="288"/>
+      <c r="B30" s="279"/>
+      <c r="C30" s="299"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
@@ -8543,7 +8537,7 @@
       <c r="R30" s="211"/>
       <c r="S30" s="225"/>
       <c r="T30" s="225"/>
-      <c r="U30" s="48"/>
+      <c r="U30" s="211"/>
       <c r="V30" s="48"/>
       <c r="W30" s="48"/>
       <c r="X30" s="48"/>
@@ -8640,8 +8634,8 @@
       <c r="DK30" s="52"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="283"/>
-      <c r="C31" s="288"/>
+      <c r="B31" s="279"/>
+      <c r="C31" s="299"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
@@ -8665,7 +8659,7 @@
       <c r="R31" s="211"/>
       <c r="S31" s="225"/>
       <c r="T31" s="225"/>
-      <c r="U31" s="121"/>
+      <c r="U31" s="200"/>
       <c r="V31" s="121"/>
       <c r="W31" s="48"/>
       <c r="X31" s="48"/>
@@ -8762,8 +8756,8 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="283"/>
-      <c r="C32" s="288"/>
+      <c r="B32" s="279"/>
+      <c r="C32" s="299"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
@@ -8787,7 +8781,7 @@
       <c r="R32" s="211"/>
       <c r="S32" s="225"/>
       <c r="T32" s="225"/>
-      <c r="U32" s="48"/>
+      <c r="U32" s="211"/>
       <c r="V32" s="48"/>
       <c r="W32" s="121"/>
       <c r="X32" s="48"/>
@@ -8884,8 +8878,8 @@
       <c r="DK32" s="52"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="283"/>
-      <c r="C33" s="288"/>
+      <c r="B33" s="279"/>
+      <c r="C33" s="299"/>
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
@@ -8909,7 +8903,7 @@
       <c r="R33" s="211"/>
       <c r="S33" s="225"/>
       <c r="T33" s="225"/>
-      <c r="U33" s="48"/>
+      <c r="U33" s="211"/>
       <c r="V33" s="48"/>
       <c r="W33" s="48"/>
       <c r="X33" s="48"/>
@@ -9006,8 +9000,8 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="283"/>
-      <c r="C34" s="288"/>
+      <c r="B34" s="279"/>
+      <c r="C34" s="299"/>
       <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
@@ -9031,7 +9025,7 @@
       <c r="R34" s="211"/>
       <c r="S34" s="225"/>
       <c r="T34" s="225"/>
-      <c r="U34" s="121"/>
+      <c r="U34" s="200"/>
       <c r="V34" s="121"/>
       <c r="W34" s="48"/>
       <c r="X34" s="48"/>
@@ -9128,8 +9122,8 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="283"/>
-      <c r="C35" s="288"/>
+      <c r="B35" s="279"/>
+      <c r="C35" s="299"/>
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
@@ -9153,7 +9147,7 @@
       <c r="R35" s="211"/>
       <c r="S35" s="225"/>
       <c r="T35" s="225"/>
-      <c r="U35" s="48"/>
+      <c r="U35" s="211"/>
       <c r="V35" s="48"/>
       <c r="W35" s="48"/>
       <c r="X35" s="121"/>
@@ -9250,8 +9244,8 @@
       <c r="DK35" s="52"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="283"/>
-      <c r="C36" s="288"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="299"/>
       <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
@@ -9275,7 +9269,7 @@
       <c r="R36" s="211"/>
       <c r="S36" s="225"/>
       <c r="T36" s="225"/>
-      <c r="U36" s="48"/>
+      <c r="U36" s="211"/>
       <c r="V36" s="48"/>
       <c r="W36" s="121"/>
       <c r="X36" s="121"/>
@@ -9372,8 +9366,8 @@
       <c r="DK36" s="52"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="283"/>
-      <c r="C37" s="288"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="299"/>
       <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
@@ -9397,7 +9391,7 @@
       <c r="R37" s="211"/>
       <c r="S37" s="225"/>
       <c r="T37" s="225"/>
-      <c r="U37" s="121"/>
+      <c r="U37" s="200"/>
       <c r="V37" s="121"/>
       <c r="W37" s="121"/>
       <c r="X37" s="48"/>
@@ -9494,8 +9488,8 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="283"/>
-      <c r="C38" s="288"/>
+      <c r="B38" s="279"/>
+      <c r="C38" s="299"/>
       <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
@@ -9519,7 +9513,7 @@
       <c r="R38" s="211"/>
       <c r="S38" s="225"/>
       <c r="T38" s="225"/>
-      <c r="U38" s="48"/>
+      <c r="U38" s="211"/>
       <c r="V38" s="48"/>
       <c r="W38" s="48"/>
       <c r="X38" s="48"/>
@@ -9616,8 +9610,8 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="283"/>
-      <c r="C39" s="288"/>
+      <c r="B39" s="279"/>
+      <c r="C39" s="299"/>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
@@ -9641,7 +9635,7 @@
       <c r="R39" s="211"/>
       <c r="S39" s="225"/>
       <c r="T39" s="225"/>
-      <c r="U39" s="48"/>
+      <c r="U39" s="211"/>
       <c r="V39" s="48"/>
       <c r="W39" s="48"/>
       <c r="X39" s="48"/>
@@ -9738,8 +9732,8 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="283"/>
-      <c r="C40" s="288"/>
+      <c r="B40" s="279"/>
+      <c r="C40" s="299"/>
       <c r="D40" s="5" t="s">
         <v>76</v>
       </c>
@@ -9763,7 +9757,7 @@
       <c r="R40" s="211"/>
       <c r="S40" s="225"/>
       <c r="T40" s="225"/>
-      <c r="U40" s="121"/>
+      <c r="U40" s="200"/>
       <c r="V40" s="121"/>
       <c r="W40" s="48"/>
       <c r="X40" s="48"/>
@@ -9860,8 +9854,8 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="283"/>
-      <c r="C41" s="288"/>
+      <c r="B41" s="279"/>
+      <c r="C41" s="299"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
@@ -9885,7 +9879,7 @@
       <c r="R41" s="211"/>
       <c r="S41" s="225"/>
       <c r="T41" s="225"/>
-      <c r="U41" s="48"/>
+      <c r="U41" s="211"/>
       <c r="V41" s="121"/>
       <c r="W41" s="121"/>
       <c r="X41" s="48"/>
@@ -9982,8 +9976,8 @@
       <c r="DK41" s="52"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="283"/>
-      <c r="C42" s="288"/>
+      <c r="B42" s="279"/>
+      <c r="C42" s="299"/>
       <c r="D42" s="5" t="s">
         <v>78</v>
       </c>
@@ -10007,7 +10001,7 @@
       <c r="R42" s="211"/>
       <c r="S42" s="225"/>
       <c r="T42" s="225"/>
-      <c r="U42" s="48"/>
+      <c r="U42" s="211"/>
       <c r="V42" s="48"/>
       <c r="W42" s="121"/>
       <c r="X42" s="121"/>
@@ -10104,8 +10098,8 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="283"/>
-      <c r="C43" s="288"/>
+      <c r="B43" s="279"/>
+      <c r="C43" s="299"/>
       <c r="D43" s="5" t="s">
         <v>79</v>
       </c>
@@ -10129,7 +10123,7 @@
       <c r="R43" s="200"/>
       <c r="S43" s="225"/>
       <c r="T43" s="225"/>
-      <c r="U43" s="121"/>
+      <c r="U43" s="200"/>
       <c r="V43" s="121"/>
       <c r="W43" s="48"/>
       <c r="X43" s="48"/>
@@ -10226,8 +10220,8 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="283"/>
-      <c r="C44" s="288"/>
+      <c r="B44" s="279"/>
+      <c r="C44" s="299"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="75"/>
@@ -10245,7 +10239,7 @@
       <c r="R44" s="211"/>
       <c r="S44" s="225"/>
       <c r="T44" s="225"/>
-      <c r="U44" s="48"/>
+      <c r="U44" s="211"/>
       <c r="V44" s="48"/>
       <c r="W44" s="48"/>
       <c r="X44" s="48"/>
@@ -10342,8 +10336,8 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="283"/>
-      <c r="C45" s="288"/>
+      <c r="B45" s="279"/>
+      <c r="C45" s="299"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="78"/>
@@ -10361,7 +10355,7 @@
       <c r="R45" s="227"/>
       <c r="S45" s="229"/>
       <c r="T45" s="229"/>
-      <c r="U45" s="57"/>
+      <c r="U45" s="227"/>
       <c r="V45" s="57"/>
       <c r="W45" s="57"/>
       <c r="X45" s="57"/>
@@ -10458,8 +10452,8 @@
       <c r="DK45" s="61"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="283"/>
-      <c r="C46" s="281" t="s">
+      <c r="B46" s="279"/>
+      <c r="C46" s="286" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -10483,9 +10477,9 @@
       <c r="P46" s="270"/>
       <c r="Q46" s="270"/>
       <c r="R46" s="270"/>
-      <c r="S46" s="278"/>
+      <c r="S46" s="277"/>
       <c r="T46" s="224"/>
-      <c r="U46" s="273"/>
+      <c r="U46" s="301"/>
       <c r="V46" s="273"/>
       <c r="W46" s="62"/>
       <c r="X46" s="62"/>
@@ -10582,8 +10576,8 @@
       <c r="DK46" s="67"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="283"/>
-      <c r="C47" s="281"/>
+      <c r="B47" s="279"/>
+      <c r="C47" s="286"/>
       <c r="D47" s="5" t="s">
         <v>80</v>
       </c>
@@ -10607,7 +10601,7 @@
       <c r="R47" s="211"/>
       <c r="S47" s="225"/>
       <c r="T47" s="225"/>
-      <c r="U47" s="98"/>
+      <c r="U47" s="270"/>
       <c r="V47" s="98"/>
       <c r="W47" s="48"/>
       <c r="X47" s="48"/>
@@ -10704,8 +10698,8 @@
       <c r="DK47" s="52"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="283"/>
-      <c r="C48" s="281"/>
+      <c r="B48" s="279"/>
+      <c r="C48" s="286"/>
       <c r="D48" s="5" t="s">
         <v>83</v>
       </c>
@@ -10729,7 +10723,7 @@
       <c r="R48" s="211"/>
       <c r="S48" s="225"/>
       <c r="T48" s="225"/>
-      <c r="U48" s="48"/>
+      <c r="U48" s="211"/>
       <c r="V48" s="48"/>
       <c r="W48" s="274"/>
       <c r="X48" s="274"/>
@@ -10826,8 +10820,8 @@
       <c r="DK48" s="52"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="283"/>
-      <c r="C49" s="281"/>
+      <c r="B49" s="279"/>
+      <c r="C49" s="286"/>
       <c r="D49" s="5" t="s">
         <v>84</v>
       </c>
@@ -10851,7 +10845,7 @@
       <c r="R49" s="211"/>
       <c r="S49" s="225"/>
       <c r="T49" s="225"/>
-      <c r="U49" s="48"/>
+      <c r="U49" s="211"/>
       <c r="V49" s="48"/>
       <c r="W49" s="48"/>
       <c r="X49" s="48"/>
@@ -10948,8 +10942,8 @@
       <c r="DK49" s="52"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="283"/>
-      <c r="C50" s="281"/>
+      <c r="B50" s="279"/>
+      <c r="C50" s="286"/>
       <c r="D50" s="5" t="s">
         <v>85</v>
       </c>
@@ -10973,7 +10967,7 @@
       <c r="R50" s="211"/>
       <c r="S50" s="225"/>
       <c r="T50" s="225"/>
-      <c r="U50" s="48"/>
+      <c r="U50" s="211"/>
       <c r="V50" s="48"/>
       <c r="W50" s="48"/>
       <c r="X50" s="48"/>
@@ -11070,8 +11064,8 @@
       <c r="DK50" s="52"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="283"/>
-      <c r="C51" s="281"/>
+      <c r="B51" s="279"/>
+      <c r="C51" s="286"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
       <c r="F51" s="170"/>
@@ -11089,7 +11083,7 @@
       <c r="R51" s="211"/>
       <c r="S51" s="225"/>
       <c r="T51" s="225"/>
-      <c r="U51" s="48"/>
+      <c r="U51" s="211"/>
       <c r="V51" s="48"/>
       <c r="W51" s="48"/>
       <c r="X51" s="48"/>
@@ -11186,8 +11180,8 @@
       <c r="DK51" s="52"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="283"/>
-      <c r="C52" s="281"/>
+      <c r="B52" s="279"/>
+      <c r="C52" s="286"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
       <c r="F52" s="170"/>
@@ -11205,7 +11199,7 @@
       <c r="R52" s="211"/>
       <c r="S52" s="225"/>
       <c r="T52" s="225"/>
-      <c r="U52" s="48"/>
+      <c r="U52" s="211"/>
       <c r="V52" s="48"/>
       <c r="W52" s="48"/>
       <c r="X52" s="48"/>
@@ -11302,8 +11296,8 @@
       <c r="DK52" s="52"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="283"/>
-      <c r="C53" s="281"/>
+      <c r="B53" s="279"/>
+      <c r="C53" s="286"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="170"/>
@@ -11321,7 +11315,7 @@
       <c r="R53" s="211"/>
       <c r="S53" s="225"/>
       <c r="T53" s="225"/>
-      <c r="U53" s="48"/>
+      <c r="U53" s="211"/>
       <c r="V53" s="48"/>
       <c r="W53" s="48"/>
       <c r="X53" s="48"/>
@@ -11418,8 +11412,8 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115">
-      <c r="B54" s="283"/>
-      <c r="C54" s="281"/>
+      <c r="B54" s="279"/>
+      <c r="C54" s="286"/>
       <c r="D54" s="10"/>
       <c r="E54" s="11"/>
       <c r="F54" s="78"/>
@@ -11437,7 +11431,7 @@
       <c r="R54" s="227"/>
       <c r="S54" s="229"/>
       <c r="T54" s="229"/>
-      <c r="U54" s="57"/>
+      <c r="U54" s="227"/>
       <c r="V54" s="57"/>
       <c r="W54" s="57"/>
       <c r="X54" s="57"/>
@@ -11534,8 +11528,8 @@
       <c r="DK54" s="61"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="283"/>
-      <c r="C55" s="294" t="s">
+      <c r="B55" s="279"/>
+      <c r="C55" s="284" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="8"/>
@@ -11559,7 +11553,7 @@
       <c r="R55" s="222"/>
       <c r="S55" s="224"/>
       <c r="T55" s="224"/>
-      <c r="U55" s="62"/>
+      <c r="U55" s="222"/>
       <c r="V55" s="62"/>
       <c r="W55" s="62"/>
       <c r="X55" s="62"/>
@@ -11656,8 +11650,8 @@
       <c r="DK55" s="67"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="283"/>
-      <c r="C56" s="293"/>
+      <c r="B56" s="279"/>
+      <c r="C56" s="283"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
       <c r="F56" s="75"/>
@@ -11675,7 +11669,7 @@
       <c r="R56" s="211"/>
       <c r="S56" s="225"/>
       <c r="T56" s="225"/>
-      <c r="U56" s="48"/>
+      <c r="U56" s="211"/>
       <c r="V56" s="48"/>
       <c r="W56" s="48"/>
       <c r="X56" s="48"/>
@@ -11772,8 +11766,8 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="283"/>
-      <c r="C57" s="289"/>
+      <c r="B57" s="279"/>
+      <c r="C57" s="285"/>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
       <c r="F57" s="78"/>
@@ -11791,7 +11785,7 @@
       <c r="R57" s="227"/>
       <c r="S57" s="229"/>
       <c r="T57" s="229"/>
-      <c r="U57" s="57"/>
+      <c r="U57" s="227"/>
       <c r="V57" s="57"/>
       <c r="W57" s="57"/>
       <c r="X57" s="57"/>
@@ -11888,8 +11882,8 @@
       <c r="DK57" s="61"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="283"/>
-      <c r="C58" s="289"/>
+      <c r="B58" s="279"/>
+      <c r="C58" s="285"/>
       <c r="D58" s="8" t="s">
         <v>86</v>
       </c>
@@ -11909,8 +11903,8 @@
       <c r="N58" s="211"/>
       <c r="O58" s="211"/>
       <c r="P58" s="211"/>
-      <c r="Q58" s="276"/>
-      <c r="R58" s="276"/>
+      <c r="Q58" s="275"/>
+      <c r="R58" s="275"/>
       <c r="S58" s="224"/>
       <c r="T58" s="224"/>
       <c r="U58" s="275"/>
@@ -12010,8 +12004,8 @@
       <c r="DK58" s="52"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="283"/>
-      <c r="C59" s="288"/>
+      <c r="B59" s="279"/>
+      <c r="C59" s="299"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
       <c r="F59" s="75"/>
@@ -12029,7 +12023,7 @@
       <c r="R59" s="211"/>
       <c r="S59" s="225"/>
       <c r="T59" s="225"/>
-      <c r="U59" s="48"/>
+      <c r="U59" s="211"/>
       <c r="V59" s="48"/>
       <c r="W59" s="48"/>
       <c r="X59" s="48"/>
@@ -12126,8 +12120,8 @@
       <c r="DK59" s="52"/>
     </row>
     <row r="60" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B60" s="284"/>
-      <c r="C60" s="290"/>
+      <c r="B60" s="288"/>
+      <c r="C60" s="300"/>
       <c r="D60" s="17"/>
       <c r="E60" s="13"/>
       <c r="F60" s="79"/>
@@ -12145,7 +12139,7 @@
       <c r="R60" s="211"/>
       <c r="S60" s="225"/>
       <c r="T60" s="225"/>
-      <c r="U60" s="48"/>
+      <c r="U60" s="211"/>
       <c r="V60" s="48"/>
       <c r="W60" s="48"/>
       <c r="X60" s="48"/>
@@ -12242,10 +12236,10 @@
       <c r="DK60" s="36"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="300" t="s">
+      <c r="B61" s="294" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="281" t="s">
+      <c r="C61" s="286" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -12269,9 +12263,9 @@
       <c r="P61" s="271"/>
       <c r="Q61" s="271"/>
       <c r="R61" s="271"/>
-      <c r="S61" s="279"/>
-      <c r="T61" s="277"/>
-      <c r="U61" s="42"/>
+      <c r="S61" s="278"/>
+      <c r="T61" s="276"/>
+      <c r="U61" s="204"/>
       <c r="V61" s="42"/>
       <c r="W61" s="42"/>
       <c r="X61" s="42"/>
@@ -12368,8 +12362,8 @@
       <c r="DK61" s="47"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="301"/>
-      <c r="C62" s="281"/>
+      <c r="B62" s="295"/>
+      <c r="C62" s="286"/>
       <c r="D62" s="5" t="s">
         <v>41</v>
       </c>
@@ -12393,7 +12387,7 @@
       <c r="R62" s="211"/>
       <c r="S62" s="225"/>
       <c r="T62" s="225"/>
-      <c r="U62" s="96"/>
+      <c r="U62" s="214"/>
       <c r="V62" s="48"/>
       <c r="W62" s="48"/>
       <c r="X62" s="48"/>
@@ -12490,8 +12484,8 @@
       <c r="DK62" s="52"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="301"/>
-      <c r="C63" s="281"/>
+      <c r="B63" s="295"/>
+      <c r="C63" s="286"/>
       <c r="D63" s="5" t="s">
         <v>42</v>
       </c>
@@ -12515,7 +12509,7 @@
       <c r="R63" s="211"/>
       <c r="S63" s="225"/>
       <c r="T63" s="225"/>
-      <c r="U63" s="48"/>
+      <c r="U63" s="211"/>
       <c r="V63" s="96"/>
       <c r="W63" s="48"/>
       <c r="X63" s="48"/>
@@ -12612,8 +12606,8 @@
       <c r="DK63" s="52"/>
     </row>
     <row r="64" spans="2:115">
-      <c r="B64" s="301"/>
-      <c r="C64" s="281"/>
+      <c r="B64" s="295"/>
+      <c r="C64" s="286"/>
       <c r="D64" s="5" t="s">
         <v>43</v>
       </c>
@@ -12637,7 +12631,7 @@
       <c r="R64" s="211"/>
       <c r="S64" s="225"/>
       <c r="T64" s="225"/>
-      <c r="U64" s="48"/>
+      <c r="U64" s="211"/>
       <c r="V64" s="48"/>
       <c r="W64" s="96"/>
       <c r="X64" s="48"/>
@@ -12734,8 +12728,8 @@
       <c r="DK64" s="52"/>
     </row>
     <row r="65" spans="2:115 16384:16384">
-      <c r="B65" s="301"/>
-      <c r="C65" s="281"/>
+      <c r="B65" s="295"/>
+      <c r="C65" s="286"/>
       <c r="D65" s="5" t="s">
         <v>45</v>
       </c>
@@ -12755,7 +12749,7 @@
       <c r="R65" s="211"/>
       <c r="S65" s="225"/>
       <c r="T65" s="225"/>
-      <c r="U65" s="48"/>
+      <c r="U65" s="211"/>
       <c r="V65" s="48"/>
       <c r="W65" s="93"/>
       <c r="X65" s="96"/>
@@ -12852,8 +12846,8 @@
       <c r="DK65" s="52"/>
     </row>
     <row r="66" spans="2:115 16384:16384">
-      <c r="B66" s="301"/>
-      <c r="C66" s="281"/>
+      <c r="B66" s="295"/>
+      <c r="C66" s="286"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="F66" s="75"/>
@@ -12871,7 +12865,7 @@
       <c r="R66" s="227"/>
       <c r="S66" s="229"/>
       <c r="T66" s="229"/>
-      <c r="U66" s="57"/>
+      <c r="U66" s="227"/>
       <c r="V66" s="57"/>
       <c r="W66" s="57"/>
       <c r="X66" s="57"/>
@@ -12968,8 +12962,8 @@
       <c r="DK66" s="61"/>
     </row>
     <row r="67" spans="2:115 16384:16384">
-      <c r="B67" s="301"/>
-      <c r="C67" s="280" t="s">
+      <c r="B67" s="295"/>
+      <c r="C67" s="292" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -12995,7 +12989,7 @@
       <c r="R67" s="211"/>
       <c r="S67" s="215"/>
       <c r="T67" s="216"/>
-      <c r="U67" s="48"/>
+      <c r="U67" s="211"/>
       <c r="V67" s="48"/>
       <c r="W67" s="48"/>
       <c r="X67" s="48"/>
@@ -13092,8 +13086,8 @@
       <c r="DK67" s="52"/>
     </row>
     <row r="68" spans="2:115 16384:16384">
-      <c r="B68" s="301"/>
-      <c r="C68" s="280"/>
+      <c r="B68" s="295"/>
+      <c r="C68" s="292"/>
       <c r="D68" s="5" t="s">
         <v>47</v>
       </c>
@@ -13113,7 +13107,7 @@
       <c r="R68" s="211"/>
       <c r="S68" s="225"/>
       <c r="T68" s="225"/>
-      <c r="U68" s="48"/>
+      <c r="U68" s="211"/>
       <c r="V68" s="48"/>
       <c r="W68" s="48"/>
       <c r="X68" s="48"/>
@@ -13210,8 +13204,8 @@
       <c r="DK68" s="52"/>
     </row>
     <row r="69" spans="2:115 16384:16384">
-      <c r="B69" s="301"/>
-      <c r="C69" s="280"/>
+      <c r="B69" s="295"/>
+      <c r="C69" s="292"/>
       <c r="D69" s="5" t="s">
         <v>28</v>
       </c>
@@ -13231,7 +13225,7 @@
       <c r="R69" s="211"/>
       <c r="S69" s="225"/>
       <c r="T69" s="225"/>
-      <c r="U69" s="48"/>
+      <c r="U69" s="211"/>
       <c r="V69" s="48"/>
       <c r="W69" s="48"/>
       <c r="X69" s="48"/>
@@ -13328,8 +13322,8 @@
       <c r="DK69" s="52"/>
     </row>
     <row r="70" spans="2:115 16384:16384" ht="17.25" thickBot="1">
-      <c r="B70" s="301"/>
-      <c r="C70" s="280"/>
+      <c r="B70" s="295"/>
+      <c r="C70" s="292"/>
       <c r="D70" s="10"/>
       <c r="E70" s="11"/>
       <c r="F70" s="78"/>
@@ -13347,7 +13341,7 @@
       <c r="R70" s="198"/>
       <c r="S70" s="232"/>
       <c r="T70" s="232"/>
-      <c r="U70" s="32"/>
+      <c r="U70" s="198"/>
       <c r="V70" s="32"/>
       <c r="W70" s="32"/>
       <c r="X70" s="32"/>
@@ -13444,10 +13438,10 @@
       <c r="DK70" s="36"/>
     </row>
     <row r="71" spans="2:115 16384:16384">
-      <c r="B71" s="282" t="s">
+      <c r="B71" s="280" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="296" t="s">
+      <c r="C71" s="289" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="20" t="s">
@@ -13473,7 +13467,7 @@
       <c r="R71" s="234"/>
       <c r="S71" s="235"/>
       <c r="T71" s="235"/>
-      <c r="U71" s="43"/>
+      <c r="U71" s="234"/>
       <c r="V71" s="43"/>
       <c r="W71" s="43"/>
       <c r="X71" s="43"/>
@@ -13571,8 +13565,8 @@
       <c r="XFD71" s="56"/>
     </row>
     <row r="72" spans="2:115 16384:16384">
-      <c r="B72" s="283"/>
-      <c r="C72" s="297"/>
+      <c r="B72" s="279"/>
+      <c r="C72" s="290"/>
       <c r="D72" s="15"/>
       <c r="E72" s="22"/>
       <c r="F72" s="81"/>
@@ -13590,7 +13584,7 @@
       <c r="R72" s="228"/>
       <c r="S72" s="229"/>
       <c r="T72" s="229"/>
-      <c r="U72" s="56"/>
+      <c r="U72" s="228"/>
       <c r="V72" s="56"/>
       <c r="W72" s="56"/>
       <c r="X72" s="56"/>
@@ -13687,8 +13681,8 @@
       <c r="DK72" s="61"/>
     </row>
     <row r="73" spans="2:115 16384:16384">
-      <c r="B73" s="283"/>
-      <c r="C73" s="297" t="s">
+      <c r="B73" s="279"/>
+      <c r="C73" s="290" t="s">
         <v>48</v>
       </c>
       <c r="D73" s="14" t="s">
@@ -13712,7 +13706,7 @@
       <c r="R73" s="223"/>
       <c r="S73" s="224"/>
       <c r="T73" s="224"/>
-      <c r="U73" s="63"/>
+      <c r="U73" s="223"/>
       <c r="V73" s="63"/>
       <c r="W73" s="63"/>
       <c r="X73" s="63"/>
@@ -13809,8 +13803,8 @@
       <c r="DK73" s="67"/>
     </row>
     <row r="74" spans="2:115 16384:16384">
-      <c r="B74" s="283"/>
-      <c r="C74" s="298"/>
+      <c r="B74" s="279"/>
+      <c r="C74" s="291"/>
       <c r="D74" s="16"/>
       <c r="E74" s="24"/>
       <c r="F74" s="83"/>
@@ -13828,7 +13822,7 @@
       <c r="R74" s="228"/>
       <c r="S74" s="229"/>
       <c r="T74" s="229"/>
-      <c r="U74" s="56"/>
+      <c r="U74" s="228"/>
       <c r="V74" s="56"/>
       <c r="W74" s="56"/>
       <c r="X74" s="56"/>
@@ -13925,8 +13919,8 @@
       <c r="DK74" s="61"/>
     </row>
     <row r="75" spans="2:115 16384:16384">
-      <c r="B75" s="283"/>
-      <c r="C75" s="280"/>
+      <c r="B75" s="279"/>
+      <c r="C75" s="292"/>
       <c r="D75" s="14"/>
       <c r="E75" s="23"/>
       <c r="F75" s="82"/>
@@ -13944,7 +13938,7 @@
       <c r="R75" s="222"/>
       <c r="S75" s="224"/>
       <c r="T75" s="224"/>
-      <c r="U75" s="62"/>
+      <c r="U75" s="222"/>
       <c r="V75" s="62"/>
       <c r="W75" s="62"/>
       <c r="X75" s="62"/>
@@ -14041,8 +14035,8 @@
       <c r="DK75" s="67"/>
     </row>
     <row r="76" spans="2:115 16384:16384" ht="17.25" thickBot="1">
-      <c r="B76" s="284"/>
-      <c r="C76" s="280"/>
+      <c r="B76" s="288"/>
+      <c r="C76" s="292"/>
       <c r="D76" s="15"/>
       <c r="E76" s="22"/>
       <c r="F76" s="81"/>
@@ -14060,7 +14054,7 @@
       <c r="R76" s="198"/>
       <c r="S76" s="232"/>
       <c r="T76" s="232"/>
-      <c r="U76" s="32"/>
+      <c r="U76" s="198"/>
       <c r="V76" s="32"/>
       <c r="W76" s="32"/>
       <c r="X76" s="32"/>
@@ -14157,10 +14151,10 @@
       <c r="DK76" s="36"/>
     </row>
     <row r="77" spans="2:115 16384:16384">
-      <c r="B77" s="282" t="s">
+      <c r="B77" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="296" t="s">
+      <c r="C77" s="289" t="s">
         <v>50</v>
       </c>
       <c r="D77" s="20"/>
@@ -14182,7 +14176,7 @@
       <c r="R77" s="234"/>
       <c r="S77" s="235"/>
       <c r="T77" s="235"/>
-      <c r="U77" s="43"/>
+      <c r="U77" s="234"/>
       <c r="V77" s="43"/>
       <c r="W77" s="43"/>
       <c r="X77" s="43"/>
@@ -14279,8 +14273,8 @@
       <c r="DK77" s="47"/>
     </row>
     <row r="78" spans="2:115 16384:16384">
-      <c r="B78" s="283"/>
-      <c r="C78" s="297"/>
+      <c r="B78" s="279"/>
+      <c r="C78" s="290"/>
       <c r="D78" s="15"/>
       <c r="E78" s="22"/>
       <c r="F78" s="81"/>
@@ -14298,7 +14292,7 @@
       <c r="R78" s="231"/>
       <c r="S78" s="225"/>
       <c r="T78" s="225"/>
-      <c r="U78" s="54"/>
+      <c r="U78" s="231"/>
       <c r="V78" s="54"/>
       <c r="W78" s="54"/>
       <c r="X78" s="54"/>
@@ -14395,8 +14389,8 @@
       <c r="DK78" s="52"/>
     </row>
     <row r="79" spans="2:115 16384:16384">
-      <c r="B79" s="283"/>
-      <c r="C79" s="297" t="s">
+      <c r="B79" s="279"/>
+      <c r="C79" s="290" t="s">
         <v>53</v>
       </c>
       <c r="D79" s="14"/>
@@ -14418,7 +14412,7 @@
       <c r="R79" s="223"/>
       <c r="S79" s="224"/>
       <c r="T79" s="224"/>
-      <c r="U79" s="63"/>
+      <c r="U79" s="223"/>
       <c r="V79" s="63"/>
       <c r="W79" s="63"/>
       <c r="X79" s="63"/>
@@ -14515,8 +14509,8 @@
       <c r="DK79" s="67"/>
     </row>
     <row r="80" spans="2:115 16384:16384">
-      <c r="B80" s="283"/>
-      <c r="C80" s="298"/>
+      <c r="B80" s="279"/>
+      <c r="C80" s="291"/>
       <c r="D80" s="16"/>
       <c r="E80" s="24"/>
       <c r="F80" s="83"/>
@@ -14534,7 +14528,7 @@
       <c r="R80" s="228"/>
       <c r="S80" s="229"/>
       <c r="T80" s="229"/>
-      <c r="U80" s="56"/>
+      <c r="U80" s="228"/>
       <c r="V80" s="56"/>
       <c r="W80" s="56"/>
       <c r="X80" s="56"/>
@@ -14631,8 +14625,8 @@
       <c r="DK80" s="61"/>
     </row>
     <row r="81" spans="2:116">
-      <c r="B81" s="283"/>
-      <c r="C81" s="280"/>
+      <c r="B81" s="279"/>
+      <c r="C81" s="292"/>
       <c r="D81" s="14"/>
       <c r="E81" s="23"/>
       <c r="F81" s="82"/>
@@ -14650,7 +14644,7 @@
       <c r="R81" s="211"/>
       <c r="S81" s="225"/>
       <c r="T81" s="225"/>
-      <c r="U81" s="48"/>
+      <c r="U81" s="211"/>
       <c r="V81" s="48"/>
       <c r="W81" s="48"/>
       <c r="X81" s="48"/>
@@ -14747,8 +14741,8 @@
       <c r="DK81" s="52"/>
     </row>
     <row r="82" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B82" s="284"/>
-      <c r="C82" s="299"/>
+      <c r="B82" s="288"/>
+      <c r="C82" s="293"/>
       <c r="D82" s="25"/>
       <c r="E82" s="26"/>
       <c r="F82" s="84"/>
@@ -14766,7 +14760,7 @@
       <c r="R82" s="198"/>
       <c r="S82" s="232"/>
       <c r="T82" s="232"/>
-      <c r="U82" s="32"/>
+      <c r="U82" s="198"/>
       <c r="V82" s="32"/>
       <c r="W82" s="32"/>
       <c r="X82" s="32"/>
@@ -14863,10 +14857,10 @@
       <c r="DK82" s="36"/>
     </row>
     <row r="83" spans="2:116">
-      <c r="B83" s="282" t="s">
+      <c r="B83" s="280" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="292" t="s">
+      <c r="C83" s="282" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="3"/>
@@ -14888,7 +14882,7 @@
       <c r="R83" s="204"/>
       <c r="S83" s="235"/>
       <c r="T83" s="235"/>
-      <c r="U83" s="42"/>
+      <c r="U83" s="204"/>
       <c r="V83" s="42"/>
       <c r="W83" s="42"/>
       <c r="X83" s="42"/>
@@ -14985,8 +14979,8 @@
       <c r="DK83" s="47"/>
     </row>
     <row r="84" spans="2:116">
-      <c r="B84" s="283"/>
-      <c r="C84" s="293"/>
+      <c r="B84" s="279"/>
+      <c r="C84" s="283"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6" t="s">
         <v>52</v>
@@ -15006,7 +15000,7 @@
       <c r="R84" s="211"/>
       <c r="S84" s="225"/>
       <c r="T84" s="225"/>
-      <c r="U84" s="48"/>
+      <c r="U84" s="211"/>
       <c r="V84" s="48"/>
       <c r="W84" s="48"/>
       <c r="X84" s="48"/>
@@ -15103,8 +15097,8 @@
       <c r="DK84" s="52"/>
     </row>
     <row r="85" spans="2:116">
-      <c r="B85" s="283"/>
-      <c r="C85" s="293"/>
+      <c r="B85" s="279"/>
+      <c r="C85" s="283"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="75"/>
@@ -15122,7 +15116,7 @@
       <c r="R85" s="211"/>
       <c r="S85" s="225"/>
       <c r="T85" s="225"/>
-      <c r="U85" s="48"/>
+      <c r="U85" s="211"/>
       <c r="V85" s="48"/>
       <c r="W85" s="48"/>
       <c r="X85" s="48"/>
@@ -15219,8 +15213,8 @@
       <c r="DK85" s="52"/>
     </row>
     <row r="86" spans="2:116">
-      <c r="B86" s="283"/>
-      <c r="C86" s="293"/>
+      <c r="B86" s="279"/>
+      <c r="C86" s="283"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="75"/>
@@ -15238,7 +15232,7 @@
       <c r="R86" s="211"/>
       <c r="S86" s="225"/>
       <c r="T86" s="225"/>
-      <c r="U86" s="48"/>
+      <c r="U86" s="211"/>
       <c r="V86" s="48"/>
       <c r="W86" s="48"/>
       <c r="X86" s="48"/>
@@ -15335,8 +15329,8 @@
       <c r="DK86" s="52"/>
     </row>
     <row r="87" spans="2:116">
-      <c r="B87" s="283"/>
-      <c r="C87" s="293"/>
+      <c r="B87" s="279"/>
+      <c r="C87" s="283"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
       <c r="F87" s="75"/>
@@ -15354,7 +15348,7 @@
       <c r="R87" s="227"/>
       <c r="S87" s="229"/>
       <c r="T87" s="229"/>
-      <c r="U87" s="57"/>
+      <c r="U87" s="227"/>
       <c r="V87" s="57"/>
       <c r="W87" s="57"/>
       <c r="X87" s="57"/>
@@ -15451,8 +15445,8 @@
       <c r="DK87" s="61"/>
     </row>
     <row r="88" spans="2:116">
-      <c r="B88" s="283"/>
-      <c r="C88" s="294"/>
+      <c r="B88" s="279"/>
+      <c r="C88" s="284"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="77"/>
@@ -15470,7 +15464,7 @@
       <c r="R88" s="222"/>
       <c r="S88" s="224"/>
       <c r="T88" s="224"/>
-      <c r="U88" s="62"/>
+      <c r="U88" s="222"/>
       <c r="V88" s="62"/>
       <c r="W88" s="62"/>
       <c r="X88" s="62"/>
@@ -15567,8 +15561,8 @@
       <c r="DK88" s="67"/>
     </row>
     <row r="89" spans="2:116">
-      <c r="B89" s="283"/>
-      <c r="C89" s="293"/>
+      <c r="B89" s="279"/>
+      <c r="C89" s="283"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="F89" s="75"/>
@@ -15586,7 +15580,7 @@
       <c r="R89" s="211"/>
       <c r="S89" s="225"/>
       <c r="T89" s="225"/>
-      <c r="U89" s="48"/>
+      <c r="U89" s="211"/>
       <c r="V89" s="48"/>
       <c r="W89" s="48"/>
       <c r="X89" s="48"/>
@@ -15683,8 +15677,8 @@
       <c r="DK89" s="52"/>
     </row>
     <row r="90" spans="2:116">
-      <c r="B90" s="283"/>
-      <c r="C90" s="293"/>
+      <c r="B90" s="279"/>
+      <c r="C90" s="283"/>
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
       <c r="F90" s="75"/>
@@ -15702,7 +15696,7 @@
       <c r="R90" s="211"/>
       <c r="S90" s="225"/>
       <c r="T90" s="225"/>
-      <c r="U90" s="48"/>
+      <c r="U90" s="211"/>
       <c r="V90" s="48"/>
       <c r="W90" s="48"/>
       <c r="X90" s="48"/>
@@ -15799,8 +15793,8 @@
       <c r="DK90" s="52"/>
     </row>
     <row r="91" spans="2:116">
-      <c r="B91" s="283"/>
-      <c r="C91" s="293"/>
+      <c r="B91" s="279"/>
+      <c r="C91" s="283"/>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
       <c r="F91" s="75"/>
@@ -15818,7 +15812,7 @@
       <c r="R91" s="211"/>
       <c r="S91" s="225"/>
       <c r="T91" s="225"/>
-      <c r="U91" s="48"/>
+      <c r="U91" s="211"/>
       <c r="V91" s="48"/>
       <c r="W91" s="48"/>
       <c r="X91" s="48"/>
@@ -15915,8 +15909,8 @@
       <c r="DK91" s="52"/>
     </row>
     <row r="92" spans="2:116">
-      <c r="B92" s="283"/>
-      <c r="C92" s="293"/>
+      <c r="B92" s="279"/>
+      <c r="C92" s="283"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="75"/>
@@ -15934,7 +15928,7 @@
       <c r="R92" s="211"/>
       <c r="S92" s="225"/>
       <c r="T92" s="225"/>
-      <c r="U92" s="48"/>
+      <c r="U92" s="211"/>
       <c r="V92" s="48"/>
       <c r="W92" s="48"/>
       <c r="X92" s="48"/>
@@ -16031,8 +16025,8 @@
       <c r="DK92" s="52"/>
     </row>
     <row r="93" spans="2:116">
-      <c r="B93" s="283"/>
-      <c r="C93" s="289"/>
+      <c r="B93" s="279"/>
+      <c r="C93" s="285"/>
       <c r="D93" s="10"/>
       <c r="E93" s="11"/>
       <c r="F93" s="78"/>
@@ -16050,7 +16044,7 @@
       <c r="R93" s="227"/>
       <c r="S93" s="229"/>
       <c r="T93" s="229"/>
-      <c r="U93" s="57"/>
+      <c r="U93" s="227"/>
       <c r="V93" s="57"/>
       <c r="W93" s="57"/>
       <c r="X93" s="57"/>
@@ -16147,8 +16141,8 @@
       <c r="DK93" s="61"/>
     </row>
     <row r="94" spans="2:116">
-      <c r="B94" s="283"/>
-      <c r="C94" s="294"/>
+      <c r="B94" s="279"/>
+      <c r="C94" s="284"/>
       <c r="D94" s="8"/>
       <c r="E94" s="9"/>
       <c r="F94" s="77"/>
@@ -16166,7 +16160,7 @@
       <c r="R94" s="211"/>
       <c r="S94" s="225"/>
       <c r="T94" s="225"/>
-      <c r="U94" s="48"/>
+      <c r="U94" s="211"/>
       <c r="V94" s="48"/>
       <c r="W94" s="48"/>
       <c r="X94" s="48"/>
@@ -16264,8 +16258,8 @@
       <c r="DL94" s="7"/>
     </row>
     <row r="95" spans="2:116">
-      <c r="B95" s="283"/>
-      <c r="C95" s="293"/>
+      <c r="B95" s="279"/>
+      <c r="C95" s="283"/>
       <c r="D95" s="15"/>
       <c r="E95" s="22"/>
       <c r="F95" s="81"/>
@@ -16283,7 +16277,7 @@
       <c r="R95" s="211"/>
       <c r="S95" s="225"/>
       <c r="T95" s="225"/>
-      <c r="U95" s="48"/>
+      <c r="U95" s="211"/>
       <c r="V95" s="48"/>
       <c r="W95" s="48"/>
       <c r="X95" s="48"/>
@@ -16381,8 +16375,8 @@
       <c r="DL95" s="7"/>
     </row>
     <row r="96" spans="2:116">
-      <c r="B96" s="283"/>
-      <c r="C96" s="293"/>
+      <c r="B96" s="279"/>
+      <c r="C96" s="283"/>
       <c r="D96" s="15"/>
       <c r="E96" s="22"/>
       <c r="F96" s="81"/>
@@ -16400,7 +16394,7 @@
       <c r="R96" s="211"/>
       <c r="S96" s="225"/>
       <c r="T96" s="225"/>
-      <c r="U96" s="48"/>
+      <c r="U96" s="211"/>
       <c r="V96" s="48"/>
       <c r="W96" s="48"/>
       <c r="X96" s="48"/>
@@ -16498,8 +16492,8 @@
       <c r="DL96" s="7"/>
     </row>
     <row r="97" spans="2:116">
-      <c r="B97" s="283"/>
-      <c r="C97" s="289"/>
+      <c r="B97" s="279"/>
+      <c r="C97" s="285"/>
       <c r="D97" s="16"/>
       <c r="E97" s="24"/>
       <c r="F97" s="83"/>
@@ -16517,7 +16511,7 @@
       <c r="R97" s="211"/>
       <c r="S97" s="225"/>
       <c r="T97" s="225"/>
-      <c r="U97" s="48"/>
+      <c r="U97" s="211"/>
       <c r="V97" s="48"/>
       <c r="W97" s="48"/>
       <c r="X97" s="48"/>
@@ -16615,8 +16609,8 @@
       <c r="DL97" s="7"/>
     </row>
     <row r="98" spans="2:116">
-      <c r="B98" s="283"/>
-      <c r="C98" s="281"/>
+      <c r="B98" s="279"/>
+      <c r="C98" s="286"/>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
       <c r="F98" s="75"/>
@@ -16634,7 +16628,7 @@
       <c r="R98" s="222"/>
       <c r="S98" s="224"/>
       <c r="T98" s="224"/>
-      <c r="U98" s="62"/>
+      <c r="U98" s="222"/>
       <c r="V98" s="62"/>
       <c r="W98" s="62"/>
       <c r="X98" s="62"/>
@@ -16731,8 +16725,8 @@
       <c r="DK98" s="67"/>
     </row>
     <row r="99" spans="2:116">
-      <c r="B99" s="283"/>
-      <c r="C99" s="281"/>
+      <c r="B99" s="279"/>
+      <c r="C99" s="286"/>
       <c r="D99" s="15"/>
       <c r="E99" s="6"/>
       <c r="F99" s="75"/>
@@ -16750,7 +16744,7 @@
       <c r="R99" s="211"/>
       <c r="S99" s="225"/>
       <c r="T99" s="225"/>
-      <c r="U99" s="48"/>
+      <c r="U99" s="211"/>
       <c r="V99" s="48"/>
       <c r="W99" s="48"/>
       <c r="X99" s="48"/>
@@ -16847,8 +16841,8 @@
       <c r="DK99" s="52"/>
     </row>
     <row r="100" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B100" s="291"/>
-      <c r="C100" s="295"/>
+      <c r="B100" s="281"/>
+      <c r="C100" s="287"/>
       <c r="D100" s="27"/>
       <c r="E100" s="28"/>
       <c r="F100" s="85"/>
@@ -16866,7 +16860,7 @@
       <c r="R100" s="244"/>
       <c r="S100" s="245"/>
       <c r="T100" s="245"/>
-      <c r="U100" s="86"/>
+      <c r="U100" s="244"/>
       <c r="V100" s="86"/>
       <c r="W100" s="86"/>
       <c r="X100" s="86"/>
@@ -16965,6 +16959,13 @@
     <row r="101" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="B20:B60"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C45"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="C58:C60"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B83:B100"/>
     <mergeCell ref="C83:C87"/>
@@ -16981,13 +16982,6 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="B61:B70"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="B20:B60"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C45"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="C58:C60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -829,7 +829,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1004,6 +1004,48 @@
         <bgColor theme="0" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor theme="1" tint="0.14996795556505021"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor theme="1" tint="0.14996795556505021"/>
+        <bgColor theme="1" tint="0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor theme="1" tint="0.14996795556505021"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor theme="1" tint="0.14996795556505021"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor theme="1" tint="0.14996795556505021"/>
+        <bgColor theme="3" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor theme="1" tint="0.14996795556505021"/>
+        <bgColor theme="9" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor theme="1" tint="0.14996795556505021"/>
+        <bgColor theme="7" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="120">
     <border>
@@ -2519,7 +2561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="323">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2799,9 +2841,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="60" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2844,9 +2883,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="92" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="93" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="94" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3339,9 +3375,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3356,11 +3389,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="60" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3375,18 +3438,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3396,9 +3450,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3408,22 +3459,76 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="93" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="92" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="94" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="95" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="111" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="112" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="39" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="53" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="78" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5023,8 +5128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:XFD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17:AF32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5033,17 +5138,19 @@
     <col min="2" max="2" width="17.125" style="12" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="9" style="172"/>
+    <col min="5" max="5" width="9" style="170"/>
     <col min="6" max="6" width="9" style="2" customWidth="1"/>
-    <col min="7" max="18" width="2.625" style="180" customWidth="1"/>
-    <col min="19" max="19" width="2.5" style="180" customWidth="1"/>
-    <col min="20" max="21" width="2.625" style="180" customWidth="1"/>
-    <col min="22" max="45" width="2.625" customWidth="1"/>
-    <col min="46" max="46" width="2.625" style="137" customWidth="1"/>
+    <col min="7" max="18" width="2.625" style="178" customWidth="1"/>
+    <col min="19" max="19" width="2.5" style="178" customWidth="1"/>
+    <col min="20" max="23" width="2.625" style="178" customWidth="1"/>
+    <col min="24" max="30" width="2.625" customWidth="1"/>
+    <col min="31" max="32" width="2.625" style="299" customWidth="1"/>
+    <col min="33" max="45" width="2.625" customWidth="1"/>
+    <col min="46" max="46" width="2.625" style="135" customWidth="1"/>
     <col min="47" max="52" width="2.625" customWidth="1"/>
-    <col min="53" max="53" width="2.625" style="137" customWidth="1"/>
+    <col min="53" max="53" width="2.625" style="135" customWidth="1"/>
     <col min="54" max="59" width="2.625" customWidth="1"/>
-    <col min="60" max="60" width="2.625" style="137" customWidth="1"/>
+    <col min="60" max="60" width="2.625" style="135" customWidth="1"/>
     <col min="61" max="120" width="2.625" customWidth="1"/>
     <col min="256" max="256" width="3.25" customWidth="1"/>
     <col min="257" max="257" width="17.125" customWidth="1"/>
@@ -5615,7 +5722,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:115" ht="26.25">
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5623,7 +5730,7 @@
       </c>
     </row>
     <row r="5" spans="2:115" ht="18" thickBot="1">
-      <c r="G5" s="181" t="s">
+      <c r="G5" s="179" t="s">
         <v>24</v>
       </c>
       <c r="X5" s="92" t="s">
@@ -5637,362 +5744,362 @@
       </c>
     </row>
     <row r="6" spans="2:115" ht="18" thickTop="1" thickBot="1">
-      <c r="C6" s="99"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="182">
+      <c r="C6" s="98"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="180">
         <v>14</v>
       </c>
-      <c r="H6" s="183">
+      <c r="H6" s="181">
         <v>15</v>
       </c>
-      <c r="I6" s="183">
+      <c r="I6" s="181">
         <v>16</v>
       </c>
-      <c r="J6" s="183">
+      <c r="J6" s="181">
         <v>17</v>
       </c>
-      <c r="K6" s="183">
+      <c r="K6" s="181">
         <v>18</v>
       </c>
-      <c r="L6" s="183">
+      <c r="L6" s="181">
         <v>19</v>
       </c>
-      <c r="M6" s="183">
+      <c r="M6" s="181">
         <v>20</v>
       </c>
-      <c r="N6" s="183">
+      <c r="N6" s="181">
         <v>21</v>
       </c>
-      <c r="O6" s="183">
+      <c r="O6" s="181">
         <v>22</v>
       </c>
-      <c r="P6" s="183">
+      <c r="P6" s="181">
         <v>23</v>
       </c>
-      <c r="Q6" s="183">
+      <c r="Q6" s="181">
         <v>24</v>
       </c>
-      <c r="R6" s="183">
+      <c r="R6" s="181">
         <v>25</v>
       </c>
-      <c r="S6" s="183">
+      <c r="S6" s="181">
         <v>26</v>
       </c>
-      <c r="T6" s="183">
+      <c r="T6" s="181">
         <v>27</v>
       </c>
-      <c r="U6" s="183">
+      <c r="U6" s="181">
         <v>28</v>
       </c>
-      <c r="V6" s="102">
+      <c r="V6" s="181">
         <v>29</v>
       </c>
-      <c r="W6" s="102">
+      <c r="W6" s="181">
         <v>30</v>
       </c>
-      <c r="X6" s="102">
+      <c r="X6" s="101">
         <v>1</v>
       </c>
-      <c r="Y6" s="102">
+      <c r="Y6" s="101">
         <v>2</v>
       </c>
-      <c r="Z6" s="102">
+      <c r="Z6" s="101">
         <v>3</v>
       </c>
-      <c r="AA6" s="102">
+      <c r="AA6" s="101">
         <v>4</v>
       </c>
-      <c r="AB6" s="102">
+      <c r="AB6" s="101">
         <v>5</v>
       </c>
-      <c r="AC6" s="102">
+      <c r="AC6" s="101">
         <v>6</v>
       </c>
-      <c r="AD6" s="102">
+      <c r="AD6" s="101">
         <v>7</v>
       </c>
-      <c r="AE6" s="102">
+      <c r="AE6" s="300">
         <v>8</v>
       </c>
-      <c r="AF6" s="102">
+      <c r="AF6" s="300">
         <v>9</v>
       </c>
-      <c r="AG6" s="102">
+      <c r="AG6" s="101">
         <v>10</v>
       </c>
-      <c r="AH6" s="102">
+      <c r="AH6" s="101">
         <v>11</v>
       </c>
-      <c r="AI6" s="102">
+      <c r="AI6" s="101">
         <v>12</v>
       </c>
-      <c r="AJ6" s="102">
+      <c r="AJ6" s="101">
         <v>13</v>
       </c>
-      <c r="AK6" s="102">
+      <c r="AK6" s="101">
         <v>14</v>
       </c>
-      <c r="AL6" s="251">
+      <c r="AL6" s="249">
         <v>15</v>
       </c>
-      <c r="AM6" s="250">
+      <c r="AM6" s="248">
         <v>16</v>
       </c>
-      <c r="AN6" s="102">
+      <c r="AN6" s="101">
         <v>17</v>
       </c>
-      <c r="AO6" s="102">
+      <c r="AO6" s="101">
         <v>18</v>
       </c>
-      <c r="AP6" s="102">
+      <c r="AP6" s="101">
         <v>19</v>
       </c>
-      <c r="AQ6" s="102">
+      <c r="AQ6" s="101">
         <v>20</v>
       </c>
-      <c r="AR6" s="102">
+      <c r="AR6" s="101">
         <v>21</v>
       </c>
-      <c r="AS6" s="102">
+      <c r="AS6" s="101">
         <v>22</v>
       </c>
-      <c r="AT6" s="154">
+      <c r="AT6" s="152">
         <v>23</v>
       </c>
-      <c r="AU6" s="102">
+      <c r="AU6" s="101">
         <v>24</v>
       </c>
-      <c r="AV6" s="102">
+      <c r="AV6" s="101">
         <v>25</v>
       </c>
-      <c r="AW6" s="102">
+      <c r="AW6" s="101">
         <v>26</v>
       </c>
-      <c r="AX6" s="102">
+      <c r="AX6" s="101">
         <v>27</v>
       </c>
-      <c r="AY6" s="102">
+      <c r="AY6" s="101">
         <v>28</v>
       </c>
-      <c r="AZ6" s="102">
+      <c r="AZ6" s="101">
         <v>29</v>
       </c>
-      <c r="BA6" s="154">
+      <c r="BA6" s="152">
         <v>23</v>
       </c>
-      <c r="BB6" s="102">
+      <c r="BB6" s="101">
         <v>31</v>
       </c>
-      <c r="BC6" s="102">
+      <c r="BC6" s="101">
         <v>1</v>
       </c>
-      <c r="BD6" s="102">
+      <c r="BD6" s="101">
         <v>2</v>
       </c>
-      <c r="BE6" s="102">
+      <c r="BE6" s="101">
         <v>3</v>
       </c>
-      <c r="BF6" s="102">
+      <c r="BF6" s="101">
         <v>4</v>
       </c>
-      <c r="BG6" s="102">
+      <c r="BG6" s="101">
         <v>5</v>
       </c>
-      <c r="BH6" s="154">
+      <c r="BH6" s="152">
         <v>6</v>
       </c>
-      <c r="BI6" s="102">
+      <c r="BI6" s="101">
         <v>7</v>
       </c>
-      <c r="BJ6" s="102">
+      <c r="BJ6" s="101">
         <v>8</v>
       </c>
-      <c r="BK6" s="102">
+      <c r="BK6" s="101">
         <v>9</v>
       </c>
-      <c r="BL6" s="102">
+      <c r="BL6" s="101">
         <v>10</v>
       </c>
-      <c r="BM6" s="102">
+      <c r="BM6" s="101">
         <v>11</v>
       </c>
-      <c r="BN6" s="102">
+      <c r="BN6" s="101">
         <v>12</v>
       </c>
-      <c r="BO6" s="102">
+      <c r="BO6" s="101">
         <v>13</v>
       </c>
-      <c r="BP6" s="102">
+      <c r="BP6" s="101">
         <v>14</v>
       </c>
-      <c r="BQ6" s="102">
+      <c r="BQ6" s="101">
         <v>15</v>
       </c>
-      <c r="BR6" s="102">
+      <c r="BR6" s="101">
         <v>16</v>
       </c>
-      <c r="BS6" s="102">
+      <c r="BS6" s="101">
         <v>17</v>
       </c>
-      <c r="BT6" s="102">
+      <c r="BT6" s="101">
         <v>18</v>
       </c>
-      <c r="BU6" s="102">
+      <c r="BU6" s="101">
         <v>19</v>
       </c>
-      <c r="BV6" s="102">
+      <c r="BV6" s="101">
         <v>20</v>
       </c>
-      <c r="BW6" s="102">
+      <c r="BW6" s="101">
         <v>21</v>
       </c>
-      <c r="BX6" s="102">
+      <c r="BX6" s="101">
         <v>22</v>
       </c>
-      <c r="BY6" s="102">
+      <c r="BY6" s="101">
         <v>23</v>
       </c>
-      <c r="BZ6" s="102">
+      <c r="BZ6" s="101">
         <v>24</v>
       </c>
-      <c r="CA6" s="102">
+      <c r="CA6" s="101">
         <v>25</v>
       </c>
-      <c r="CB6" s="102">
+      <c r="CB6" s="101">
         <v>26</v>
       </c>
-      <c r="CC6" s="102">
+      <c r="CC6" s="101">
         <v>27</v>
       </c>
-      <c r="CD6" s="102">
+      <c r="CD6" s="101">
         <v>28</v>
       </c>
-      <c r="CE6" s="102">
+      <c r="CE6" s="101">
         <v>29</v>
       </c>
-      <c r="CF6" s="102">
+      <c r="CF6" s="101">
         <v>30</v>
       </c>
-      <c r="CG6" s="102">
+      <c r="CG6" s="101">
         <v>31</v>
       </c>
-      <c r="CH6" s="102">
+      <c r="CH6" s="101">
         <v>1</v>
       </c>
-      <c r="CI6" s="102">
+      <c r="CI6" s="101">
         <v>2</v>
       </c>
-      <c r="CJ6" s="102">
+      <c r="CJ6" s="101">
         <v>3</v>
       </c>
-      <c r="CK6" s="102">
+      <c r="CK6" s="101">
         <v>4</v>
       </c>
-      <c r="CL6" s="102">
+      <c r="CL6" s="101">
         <v>5</v>
       </c>
-      <c r="CM6" s="102">
+      <c r="CM6" s="101">
         <v>6</v>
       </c>
-      <c r="CN6" s="102">
+      <c r="CN6" s="101">
         <v>7</v>
       </c>
-      <c r="CO6" s="102">
+      <c r="CO6" s="101">
         <v>8</v>
       </c>
-      <c r="CP6" s="102">
+      <c r="CP6" s="101">
         <v>9</v>
       </c>
-      <c r="CQ6" s="102">
+      <c r="CQ6" s="101">
         <v>10</v>
       </c>
-      <c r="CR6" s="102">
+      <c r="CR6" s="101">
         <v>11</v>
       </c>
-      <c r="CS6" s="102">
+      <c r="CS6" s="101">
         <v>12</v>
       </c>
-      <c r="CT6" s="102">
+      <c r="CT6" s="101">
         <v>13</v>
       </c>
-      <c r="CU6" s="102">
+      <c r="CU6" s="101">
         <v>14</v>
       </c>
-      <c r="CV6" s="102">
+      <c r="CV6" s="101">
         <v>15</v>
       </c>
-      <c r="CW6" s="102">
+      <c r="CW6" s="101">
         <v>16</v>
       </c>
-      <c r="CX6" s="102">
+      <c r="CX6" s="101">
         <v>17</v>
       </c>
-      <c r="CY6" s="102">
+      <c r="CY6" s="101">
         <v>18</v>
       </c>
-      <c r="CZ6" s="102">
+      <c r="CZ6" s="101">
         <v>19</v>
       </c>
-      <c r="DA6" s="102">
+      <c r="DA6" s="101">
         <v>20</v>
       </c>
-      <c r="DB6" s="102">
+      <c r="DB6" s="101">
         <v>21</v>
       </c>
-      <c r="DC6" s="102">
+      <c r="DC6" s="101">
         <v>22</v>
       </c>
-      <c r="DD6" s="102">
+      <c r="DD6" s="101">
         <v>23</v>
       </c>
-      <c r="DE6" s="102">
+      <c r="DE6" s="101">
         <v>24</v>
       </c>
-      <c r="DF6" s="102">
+      <c r="DF6" s="101">
         <v>25</v>
       </c>
-      <c r="DG6" s="102">
+      <c r="DG6" s="101">
         <v>26</v>
       </c>
-      <c r="DH6" s="102">
+      <c r="DH6" s="101">
         <v>27</v>
       </c>
-      <c r="DI6" s="102">
+      <c r="DI6" s="101">
         <v>28</v>
       </c>
-      <c r="DJ6" s="166">
+      <c r="DJ6" s="164">
         <v>29</v>
       </c>
-      <c r="DK6" s="167">
+      <c r="DK6" s="165">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:115" ht="50.1" hidden="1" customHeight="1" thickTop="1">
-      <c r="C7" s="111"/>
-      <c r="D7" s="160" t="s">
+      <c r="C7" s="109"/>
+      <c r="D7" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="173"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="184"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="184"/>
-      <c r="N7" s="262"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="184"/>
-      <c r="R7" s="184"/>
-      <c r="S7" s="184"/>
-      <c r="T7" s="184"/>
-      <c r="U7" s="184"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="182"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="260"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="182"/>
+      <c r="W7" s="182"/>
       <c r="X7" s="18"/>
       <c r="Y7" s="18"/>
       <c r="Z7" s="19"/>
@@ -6000,350 +6107,350 @@
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
-      <c r="AE7" s="18"/>
-      <c r="AF7" s="108"/>
+      <c r="AE7" s="301"/>
+      <c r="AF7" s="302"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="18"/>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18"/>
-      <c r="AL7" s="110"/>
+      <c r="AL7" s="108"/>
       <c r="AM7" s="18"/>
-      <c r="AN7" s="156"/>
+      <c r="AN7" s="154"/>
       <c r="AO7" s="19"/>
-      <c r="AP7" s="252"/>
+      <c r="AP7" s="250"/>
       <c r="AQ7" s="18"/>
       <c r="AR7" s="18"/>
       <c r="AS7" s="18"/>
-      <c r="AT7" s="138"/>
+      <c r="AT7" s="136"/>
       <c r="AU7" s="19"/>
       <c r="AV7" s="19"/>
       <c r="AW7" s="18"/>
       <c r="AX7" s="18"/>
       <c r="AY7" s="18"/>
       <c r="AZ7" s="18"/>
-      <c r="BA7" s="138"/>
+      <c r="BA7" s="136"/>
       <c r="BB7" s="19"/>
       <c r="BC7" s="19"/>
       <c r="BD7" s="18"/>
       <c r="BE7" s="18"/>
       <c r="BF7" s="18"/>
       <c r="BG7" s="18"/>
-      <c r="BH7" s="138"/>
+      <c r="BH7" s="136"/>
       <c r="BI7" s="19"/>
       <c r="BJ7" s="19"/>
       <c r="BK7" s="18"/>
       <c r="BL7" s="18"/>
       <c r="BM7" s="18"/>
       <c r="BN7" s="18"/>
-      <c r="BO7" s="122"/>
+      <c r="BO7" s="120"/>
       <c r="BP7" s="19"/>
       <c r="BQ7" s="19"/>
       <c r="BR7" s="18"/>
       <c r="BS7" s="18"/>
       <c r="BT7" s="18"/>
       <c r="BU7" s="18"/>
-      <c r="BV7" s="122"/>
+      <c r="BV7" s="120"/>
       <c r="BW7" s="19"/>
       <c r="BX7" s="19"/>
       <c r="BY7" s="18"/>
       <c r="BZ7" s="18"/>
       <c r="CA7" s="18"/>
       <c r="CB7" s="18"/>
-      <c r="CC7" s="122"/>
+      <c r="CC7" s="120"/>
       <c r="CD7" s="19"/>
       <c r="CE7" s="19"/>
       <c r="CF7" s="18"/>
       <c r="CG7" s="18"/>
       <c r="CH7" s="18"/>
       <c r="CI7" s="18"/>
-      <c r="CJ7" s="122"/>
+      <c r="CJ7" s="120"/>
       <c r="CK7" s="19"/>
       <c r="CL7" s="19"/>
       <c r="CM7" s="18"/>
       <c r="CN7" s="18"/>
       <c r="CO7" s="18"/>
       <c r="CP7" s="18"/>
-      <c r="CQ7" s="122"/>
+      <c r="CQ7" s="120"/>
       <c r="CR7" s="19"/>
       <c r="CS7" s="19"/>
       <c r="CT7" s="18"/>
       <c r="CU7" s="18"/>
       <c r="CV7" s="18"/>
       <c r="CW7" s="18"/>
-      <c r="CX7" s="122"/>
+      <c r="CX7" s="120"/>
       <c r="CY7" s="19"/>
       <c r="CZ7" s="19"/>
       <c r="DA7" s="18"/>
       <c r="DB7" s="18"/>
       <c r="DC7" s="18"/>
       <c r="DD7" s="18"/>
-      <c r="DE7" s="122"/>
+      <c r="DE7" s="120"/>
       <c r="DF7" s="19"/>
       <c r="DG7" s="19"/>
       <c r="DH7" s="18"/>
       <c r="DI7" s="18"/>
       <c r="DJ7" s="18"/>
-      <c r="DK7" s="126"/>
+      <c r="DK7" s="124"/>
     </row>
     <row r="8" spans="2:115" ht="50.1" customHeight="1" thickTop="1">
-      <c r="C8" s="113"/>
-      <c r="D8" s="161" t="s">
+      <c r="C8" s="111"/>
+      <c r="D8" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="174"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="185"/>
-      <c r="H8" s="185"/>
-      <c r="I8" s="185"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="263"/>
-      <c r="O8" s="185"/>
-      <c r="P8" s="185"/>
-      <c r="Q8" s="185"/>
-      <c r="R8" s="185"/>
-      <c r="S8" s="185"/>
-      <c r="T8" s="185"/>
-      <c r="U8" s="185"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="106"/>
-      <c r="AF8" s="109"/>
-      <c r="AG8" s="107"/>
-      <c r="AH8" s="107"/>
-      <c r="AI8" s="106"/>
-      <c r="AJ8" s="106"/>
-      <c r="AK8" s="106"/>
-      <c r="AL8" s="109"/>
-      <c r="AM8" s="106"/>
-      <c r="AN8" s="157"/>
-      <c r="AO8" s="107"/>
-      <c r="AP8" s="106"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="106"/>
-      <c r="AS8" s="106"/>
-      <c r="AT8" s="139"/>
-      <c r="AU8" s="107"/>
-      <c r="AV8" s="107"/>
-      <c r="AW8" s="106"/>
-      <c r="AX8" s="106"/>
-      <c r="AY8" s="106"/>
-      <c r="AZ8" s="106"/>
-      <c r="BA8" s="139"/>
-      <c r="BB8" s="107"/>
-      <c r="BC8" s="107"/>
-      <c r="BD8" s="106"/>
-      <c r="BE8" s="106"/>
-      <c r="BF8" s="106"/>
-      <c r="BG8" s="106"/>
-      <c r="BH8" s="139"/>
-      <c r="BI8" s="107"/>
-      <c r="BJ8" s="107"/>
-      <c r="BK8" s="106"/>
-      <c r="BL8" s="106"/>
-      <c r="BM8" s="106"/>
-      <c r="BN8" s="106"/>
-      <c r="BO8" s="123"/>
-      <c r="BP8" s="107"/>
-      <c r="BQ8" s="107"/>
-      <c r="BR8" s="106"/>
-      <c r="BS8" s="106"/>
-      <c r="BT8" s="106"/>
-      <c r="BU8" s="106"/>
-      <c r="BV8" s="123"/>
-      <c r="BW8" s="107"/>
-      <c r="BX8" s="107"/>
-      <c r="BY8" s="106"/>
-      <c r="BZ8" s="106"/>
-      <c r="CA8" s="106"/>
-      <c r="CB8" s="106"/>
-      <c r="CC8" s="123"/>
-      <c r="CD8" s="107"/>
-      <c r="CE8" s="107"/>
-      <c r="CF8" s="106"/>
-      <c r="CG8" s="106"/>
-      <c r="CH8" s="106"/>
-      <c r="CI8" s="106"/>
-      <c r="CJ8" s="123"/>
-      <c r="CK8" s="107"/>
-      <c r="CL8" s="107"/>
-      <c r="CM8" s="106"/>
-      <c r="CN8" s="106"/>
-      <c r="CO8" s="106"/>
-      <c r="CP8" s="106"/>
-      <c r="CQ8" s="123"/>
-      <c r="CR8" s="107"/>
-      <c r="CS8" s="107"/>
-      <c r="CT8" s="106"/>
-      <c r="CU8" s="106"/>
-      <c r="CV8" s="106"/>
-      <c r="CW8" s="106"/>
-      <c r="CX8" s="123"/>
-      <c r="CY8" s="107"/>
-      <c r="CZ8" s="107"/>
-      <c r="DA8" s="106"/>
-      <c r="DB8" s="106"/>
-      <c r="DC8" s="106"/>
-      <c r="DD8" s="106"/>
-      <c r="DE8" s="123"/>
-      <c r="DF8" s="107"/>
-      <c r="DG8" s="107"/>
-      <c r="DH8" s="106"/>
-      <c r="DI8" s="106"/>
-      <c r="DJ8" s="106"/>
-      <c r="DK8" s="127"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="183"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="183"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="183"/>
+      <c r="M8" s="183"/>
+      <c r="N8" s="261"/>
+      <c r="O8" s="183"/>
+      <c r="P8" s="183"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="183"/>
+      <c r="S8" s="183"/>
+      <c r="T8" s="183"/>
+      <c r="U8" s="183"/>
+      <c r="V8" s="183"/>
+      <c r="W8" s="183"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="106"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="105"/>
+      <c r="AC8" s="105"/>
+      <c r="AD8" s="105"/>
+      <c r="AE8" s="303"/>
+      <c r="AF8" s="304"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="105"/>
+      <c r="AJ8" s="105"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="107"/>
+      <c r="AM8" s="105"/>
+      <c r="AN8" s="155"/>
+      <c r="AO8" s="106"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="105"/>
+      <c r="AR8" s="105"/>
+      <c r="AS8" s="105"/>
+      <c r="AT8" s="137"/>
+      <c r="AU8" s="106"/>
+      <c r="AV8" s="106"/>
+      <c r="AW8" s="105"/>
+      <c r="AX8" s="105"/>
+      <c r="AY8" s="105"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="137"/>
+      <c r="BB8" s="106"/>
+      <c r="BC8" s="106"/>
+      <c r="BD8" s="105"/>
+      <c r="BE8" s="105"/>
+      <c r="BF8" s="105"/>
+      <c r="BG8" s="105"/>
+      <c r="BH8" s="137"/>
+      <c r="BI8" s="106"/>
+      <c r="BJ8" s="106"/>
+      <c r="BK8" s="105"/>
+      <c r="BL8" s="105"/>
+      <c r="BM8" s="105"/>
+      <c r="BN8" s="105"/>
+      <c r="BO8" s="121"/>
+      <c r="BP8" s="106"/>
+      <c r="BQ8" s="106"/>
+      <c r="BR8" s="105"/>
+      <c r="BS8" s="105"/>
+      <c r="BT8" s="105"/>
+      <c r="BU8" s="105"/>
+      <c r="BV8" s="121"/>
+      <c r="BW8" s="106"/>
+      <c r="BX8" s="106"/>
+      <c r="BY8" s="105"/>
+      <c r="BZ8" s="105"/>
+      <c r="CA8" s="105"/>
+      <c r="CB8" s="105"/>
+      <c r="CC8" s="121"/>
+      <c r="CD8" s="106"/>
+      <c r="CE8" s="106"/>
+      <c r="CF8" s="105"/>
+      <c r="CG8" s="105"/>
+      <c r="CH8" s="105"/>
+      <c r="CI8" s="105"/>
+      <c r="CJ8" s="121"/>
+      <c r="CK8" s="106"/>
+      <c r="CL8" s="106"/>
+      <c r="CM8" s="105"/>
+      <c r="CN8" s="105"/>
+      <c r="CO8" s="105"/>
+      <c r="CP8" s="105"/>
+      <c r="CQ8" s="121"/>
+      <c r="CR8" s="106"/>
+      <c r="CS8" s="106"/>
+      <c r="CT8" s="105"/>
+      <c r="CU8" s="105"/>
+      <c r="CV8" s="105"/>
+      <c r="CW8" s="105"/>
+      <c r="CX8" s="121"/>
+      <c r="CY8" s="106"/>
+      <c r="CZ8" s="106"/>
+      <c r="DA8" s="105"/>
+      <c r="DB8" s="105"/>
+      <c r="DC8" s="105"/>
+      <c r="DD8" s="105"/>
+      <c r="DE8" s="121"/>
+      <c r="DF8" s="106"/>
+      <c r="DG8" s="106"/>
+      <c r="DH8" s="105"/>
+      <c r="DI8" s="105"/>
+      <c r="DJ8" s="105"/>
+      <c r="DK8" s="125"/>
     </row>
     <row r="9" spans="2:115" ht="50.1" customHeight="1">
-      <c r="C9" s="117"/>
-      <c r="D9" s="162" t="s">
+      <c r="C9" s="115"/>
+      <c r="D9" s="160" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="175"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="263"/>
-      <c r="O9" s="185"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="185"/>
-      <c r="U9" s="185"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="106"/>
-      <c r="AE9" s="106"/>
-      <c r="AF9" s="109"/>
-      <c r="AG9" s="107"/>
-      <c r="AH9" s="107"/>
-      <c r="AI9" s="106"/>
-      <c r="AJ9" s="106"/>
-      <c r="AK9" s="106"/>
-      <c r="AL9" s="109"/>
-      <c r="AM9" s="106"/>
-      <c r="AN9" s="157"/>
-      <c r="AO9" s="107"/>
-      <c r="AP9" s="106"/>
-      <c r="AQ9" s="106"/>
-      <c r="AR9" s="106"/>
-      <c r="AS9" s="106"/>
-      <c r="AT9" s="139"/>
-      <c r="AU9" s="107"/>
-      <c r="AV9" s="107"/>
-      <c r="AW9" s="106"/>
-      <c r="AX9" s="106"/>
-      <c r="AY9" s="106"/>
-      <c r="AZ9" s="106"/>
-      <c r="BA9" s="139"/>
-      <c r="BB9" s="107"/>
-      <c r="BC9" s="107"/>
-      <c r="BD9" s="106"/>
-      <c r="BE9" s="106"/>
-      <c r="BF9" s="106"/>
-      <c r="BG9" s="106"/>
-      <c r="BH9" s="139"/>
-      <c r="BI9" s="107"/>
-      <c r="BJ9" s="107"/>
-      <c r="BK9" s="106"/>
-      <c r="BL9" s="106"/>
-      <c r="BM9" s="106"/>
-      <c r="BN9" s="106"/>
-      <c r="BO9" s="123"/>
-      <c r="BP9" s="107"/>
-      <c r="BQ9" s="107"/>
-      <c r="BR9" s="106"/>
-      <c r="BS9" s="106"/>
-      <c r="BT9" s="106"/>
-      <c r="BU9" s="106"/>
-      <c r="BV9" s="123"/>
-      <c r="BW9" s="107"/>
-      <c r="BX9" s="107"/>
-      <c r="BY9" s="106"/>
-      <c r="BZ9" s="106"/>
-      <c r="CA9" s="106"/>
-      <c r="CB9" s="106"/>
-      <c r="CC9" s="123"/>
-      <c r="CD9" s="107"/>
-      <c r="CE9" s="107"/>
-      <c r="CF9" s="106"/>
-      <c r="CG9" s="106"/>
-      <c r="CH9" s="106"/>
-      <c r="CI9" s="106"/>
-      <c r="CJ9" s="123"/>
-      <c r="CK9" s="107"/>
-      <c r="CL9" s="107"/>
-      <c r="CM9" s="106"/>
-      <c r="CN9" s="106"/>
-      <c r="CO9" s="106"/>
-      <c r="CP9" s="106"/>
-      <c r="CQ9" s="123"/>
-      <c r="CR9" s="107"/>
-      <c r="CS9" s="107"/>
-      <c r="CT9" s="106"/>
-      <c r="CU9" s="106"/>
-      <c r="CV9" s="106"/>
-      <c r="CW9" s="106"/>
-      <c r="CX9" s="123"/>
-      <c r="CY9" s="107"/>
-      <c r="CZ9" s="107"/>
-      <c r="DA9" s="106"/>
-      <c r="DB9" s="106"/>
-      <c r="DC9" s="106"/>
-      <c r="DD9" s="106"/>
-      <c r="DE9" s="123"/>
-      <c r="DF9" s="107"/>
-      <c r="DG9" s="107"/>
-      <c r="DH9" s="106"/>
-      <c r="DI9" s="106"/>
-      <c r="DJ9" s="106"/>
-      <c r="DK9" s="127"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="183"/>
+      <c r="M9" s="183"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="183"/>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="183"/>
+      <c r="R9" s="183"/>
+      <c r="S9" s="183"/>
+      <c r="T9" s="183"/>
+      <c r="U9" s="183"/>
+      <c r="V9" s="183"/>
+      <c r="W9" s="183"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="105"/>
+      <c r="AD9" s="105"/>
+      <c r="AE9" s="303"/>
+      <c r="AF9" s="304"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="106"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="105"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="107"/>
+      <c r="AM9" s="105"/>
+      <c r="AN9" s="155"/>
+      <c r="AO9" s="106"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="105"/>
+      <c r="AR9" s="105"/>
+      <c r="AS9" s="105"/>
+      <c r="AT9" s="137"/>
+      <c r="AU9" s="106"/>
+      <c r="AV9" s="106"/>
+      <c r="AW9" s="105"/>
+      <c r="AX9" s="105"/>
+      <c r="AY9" s="105"/>
+      <c r="AZ9" s="105"/>
+      <c r="BA9" s="137"/>
+      <c r="BB9" s="106"/>
+      <c r="BC9" s="106"/>
+      <c r="BD9" s="105"/>
+      <c r="BE9" s="105"/>
+      <c r="BF9" s="105"/>
+      <c r="BG9" s="105"/>
+      <c r="BH9" s="137"/>
+      <c r="BI9" s="106"/>
+      <c r="BJ9" s="106"/>
+      <c r="BK9" s="105"/>
+      <c r="BL9" s="105"/>
+      <c r="BM9" s="105"/>
+      <c r="BN9" s="105"/>
+      <c r="BO9" s="121"/>
+      <c r="BP9" s="106"/>
+      <c r="BQ9" s="106"/>
+      <c r="BR9" s="105"/>
+      <c r="BS9" s="105"/>
+      <c r="BT9" s="105"/>
+      <c r="BU9" s="105"/>
+      <c r="BV9" s="121"/>
+      <c r="BW9" s="106"/>
+      <c r="BX9" s="106"/>
+      <c r="BY9" s="105"/>
+      <c r="BZ9" s="105"/>
+      <c r="CA9" s="105"/>
+      <c r="CB9" s="105"/>
+      <c r="CC9" s="121"/>
+      <c r="CD9" s="106"/>
+      <c r="CE9" s="106"/>
+      <c r="CF9" s="105"/>
+      <c r="CG9" s="105"/>
+      <c r="CH9" s="105"/>
+      <c r="CI9" s="105"/>
+      <c r="CJ9" s="121"/>
+      <c r="CK9" s="106"/>
+      <c r="CL9" s="106"/>
+      <c r="CM9" s="105"/>
+      <c r="CN9" s="105"/>
+      <c r="CO9" s="105"/>
+      <c r="CP9" s="105"/>
+      <c r="CQ9" s="121"/>
+      <c r="CR9" s="106"/>
+      <c r="CS9" s="106"/>
+      <c r="CT9" s="105"/>
+      <c r="CU9" s="105"/>
+      <c r="CV9" s="105"/>
+      <c r="CW9" s="105"/>
+      <c r="CX9" s="121"/>
+      <c r="CY9" s="106"/>
+      <c r="CZ9" s="106"/>
+      <c r="DA9" s="105"/>
+      <c r="DB9" s="105"/>
+      <c r="DC9" s="105"/>
+      <c r="DD9" s="105"/>
+      <c r="DE9" s="121"/>
+      <c r="DF9" s="106"/>
+      <c r="DG9" s="106"/>
+      <c r="DH9" s="105"/>
+      <c r="DI9" s="105"/>
+      <c r="DJ9" s="105"/>
+      <c r="DK9" s="125"/>
     </row>
     <row r="10" spans="2:115" ht="50.1" customHeight="1">
-      <c r="C10" s="119"/>
-      <c r="D10" s="163" t="s">
+      <c r="C10" s="117"/>
+      <c r="D10" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="176"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184"/>
-      <c r="I10" s="184"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="184"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="264"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="184"/>
-      <c r="Q10" s="184"/>
-      <c r="R10" s="184"/>
-      <c r="S10" s="184"/>
-      <c r="T10" s="184"/>
-      <c r="U10" s="184"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="262"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="182"/>
+      <c r="R10" s="182"/>
+      <c r="S10" s="182"/>
+      <c r="T10" s="182"/>
+      <c r="U10" s="182"/>
+      <c r="V10" s="182"/>
+      <c r="W10" s="182"/>
       <c r="X10" s="18"/>
       <c r="Y10" s="18"/>
       <c r="Z10" s="19"/>
@@ -6351,334 +6458,334 @@
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="110"/>
+      <c r="AE10" s="301"/>
+      <c r="AF10" s="305"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="18"/>
       <c r="AJ10" s="18"/>
       <c r="AK10" s="18"/>
-      <c r="AL10" s="110"/>
+      <c r="AL10" s="108"/>
       <c r="AM10" s="18"/>
-      <c r="AN10" s="158"/>
+      <c r="AN10" s="156"/>
       <c r="AO10" s="19"/>
       <c r="AP10" s="18"/>
       <c r="AQ10" s="18"/>
       <c r="AR10" s="18"/>
       <c r="AS10" s="18"/>
-      <c r="AT10" s="140"/>
+      <c r="AT10" s="138"/>
       <c r="AU10" s="19"/>
       <c r="AV10" s="19"/>
       <c r="AW10" s="18"/>
       <c r="AX10" s="18"/>
       <c r="AY10" s="18"/>
       <c r="AZ10" s="18"/>
-      <c r="BA10" s="140"/>
+      <c r="BA10" s="138"/>
       <c r="BB10" s="19"/>
       <c r="BC10" s="19"/>
       <c r="BD10" s="18"/>
       <c r="BE10" s="18"/>
       <c r="BF10" s="18"/>
       <c r="BG10" s="18"/>
-      <c r="BH10" s="140"/>
+      <c r="BH10" s="138"/>
       <c r="BI10" s="19"/>
       <c r="BJ10" s="19"/>
       <c r="BK10" s="18"/>
       <c r="BL10" s="18"/>
       <c r="BM10" s="18"/>
       <c r="BN10" s="18"/>
-      <c r="BO10" s="124"/>
+      <c r="BO10" s="122"/>
       <c r="BP10" s="19"/>
       <c r="BQ10" s="19"/>
       <c r="BR10" s="18"/>
       <c r="BS10" s="18"/>
       <c r="BT10" s="18"/>
       <c r="BU10" s="18"/>
-      <c r="BV10" s="124"/>
+      <c r="BV10" s="122"/>
       <c r="BW10" s="19"/>
       <c r="BX10" s="19"/>
       <c r="BY10" s="18"/>
       <c r="BZ10" s="18"/>
       <c r="CA10" s="18"/>
       <c r="CB10" s="18"/>
-      <c r="CC10" s="124"/>
+      <c r="CC10" s="122"/>
       <c r="CD10" s="19"/>
       <c r="CE10" s="19"/>
       <c r="CF10" s="18"/>
       <c r="CG10" s="18"/>
       <c r="CH10" s="18"/>
       <c r="CI10" s="18"/>
-      <c r="CJ10" s="124"/>
+      <c r="CJ10" s="122"/>
       <c r="CK10" s="19"/>
       <c r="CL10" s="19"/>
       <c r="CM10" s="18"/>
       <c r="CN10" s="18"/>
       <c r="CO10" s="18"/>
       <c r="CP10" s="18"/>
-      <c r="CQ10" s="124"/>
+      <c r="CQ10" s="122"/>
       <c r="CR10" s="19"/>
       <c r="CS10" s="19"/>
       <c r="CT10" s="18"/>
       <c r="CU10" s="18"/>
       <c r="CV10" s="18"/>
       <c r="CW10" s="18"/>
-      <c r="CX10" s="124"/>
+      <c r="CX10" s="122"/>
       <c r="CY10" s="19"/>
       <c r="CZ10" s="19"/>
       <c r="DA10" s="18"/>
       <c r="DB10" s="18"/>
       <c r="DC10" s="18"/>
       <c r="DD10" s="18"/>
-      <c r="DE10" s="124"/>
+      <c r="DE10" s="122"/>
       <c r="DF10" s="19"/>
       <c r="DG10" s="19"/>
       <c r="DH10" s="18"/>
       <c r="DI10" s="18"/>
       <c r="DJ10" s="18"/>
-      <c r="DK10" s="128"/>
+      <c r="DK10" s="126"/>
     </row>
     <row r="11" spans="2:115" ht="50.1" customHeight="1" thickBot="1">
-      <c r="C11" s="115"/>
-      <c r="D11" s="164" t="s">
+      <c r="C11" s="113"/>
+      <c r="D11" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="177"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="185"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="185"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="185"/>
-      <c r="M11" s="185"/>
-      <c r="N11" s="263"/>
-      <c r="O11" s="185"/>
-      <c r="P11" s="185"/>
-      <c r="Q11" s="185"/>
-      <c r="R11" s="185"/>
-      <c r="S11" s="185"/>
-      <c r="T11" s="185"/>
-      <c r="U11" s="185"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
-      <c r="AD11" s="106"/>
-      <c r="AE11" s="106"/>
-      <c r="AF11" s="109"/>
-      <c r="AG11" s="107"/>
-      <c r="AH11" s="107"/>
-      <c r="AI11" s="106"/>
-      <c r="AJ11" s="106"/>
-      <c r="AK11" s="106"/>
-      <c r="AL11" s="109"/>
-      <c r="AM11" s="106"/>
-      <c r="AN11" s="157"/>
-      <c r="AO11" s="107"/>
-      <c r="AP11" s="106"/>
-      <c r="AQ11" s="106"/>
-      <c r="AR11" s="106"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="141"/>
-      <c r="AU11" s="107"/>
-      <c r="AV11" s="107"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="106"/>
-      <c r="AY11" s="106"/>
-      <c r="AZ11" s="106"/>
-      <c r="BA11" s="141"/>
-      <c r="BB11" s="107"/>
-      <c r="BC11" s="107"/>
-      <c r="BD11" s="106"/>
-      <c r="BE11" s="106"/>
-      <c r="BF11" s="106"/>
-      <c r="BG11" s="106"/>
-      <c r="BH11" s="141"/>
-      <c r="BI11" s="107"/>
-      <c r="BJ11" s="107"/>
-      <c r="BK11" s="106"/>
-      <c r="BL11" s="106"/>
-      <c r="BM11" s="106"/>
-      <c r="BN11" s="106"/>
-      <c r="BO11" s="125"/>
-      <c r="BP11" s="107"/>
-      <c r="BQ11" s="107"/>
-      <c r="BR11" s="106"/>
-      <c r="BS11" s="106"/>
-      <c r="BT11" s="106"/>
-      <c r="BU11" s="106"/>
-      <c r="BV11" s="125"/>
-      <c r="BW11" s="107"/>
-      <c r="BX11" s="107"/>
-      <c r="BY11" s="106"/>
-      <c r="BZ11" s="106"/>
-      <c r="CA11" s="106"/>
-      <c r="CB11" s="106"/>
-      <c r="CC11" s="125"/>
-      <c r="CD11" s="107"/>
-      <c r="CE11" s="107"/>
-      <c r="CF11" s="106"/>
-      <c r="CG11" s="106"/>
-      <c r="CH11" s="106"/>
-      <c r="CI11" s="106"/>
-      <c r="CJ11" s="125"/>
-      <c r="CK11" s="107"/>
-      <c r="CL11" s="107"/>
-      <c r="CM11" s="106"/>
-      <c r="CN11" s="106"/>
-      <c r="CO11" s="106"/>
-      <c r="CP11" s="106"/>
-      <c r="CQ11" s="125"/>
-      <c r="CR11" s="107"/>
-      <c r="CS11" s="107"/>
-      <c r="CT11" s="106"/>
-      <c r="CU11" s="106"/>
-      <c r="CV11" s="106"/>
-      <c r="CW11" s="106"/>
-      <c r="CX11" s="125"/>
-      <c r="CY11" s="107"/>
-      <c r="CZ11" s="107"/>
-      <c r="DA11" s="106"/>
-      <c r="DB11" s="106"/>
-      <c r="DC11" s="106"/>
-      <c r="DD11" s="106"/>
-      <c r="DE11" s="125"/>
-      <c r="DF11" s="107"/>
-      <c r="DG11" s="107"/>
-      <c r="DH11" s="106"/>
-      <c r="DI11" s="106"/>
-      <c r="DJ11" s="106"/>
-      <c r="DK11" s="129"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="183"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="183"/>
+      <c r="L11" s="183"/>
+      <c r="M11" s="183"/>
+      <c r="N11" s="261"/>
+      <c r="O11" s="183"/>
+      <c r="P11" s="183"/>
+      <c r="Q11" s="183"/>
+      <c r="R11" s="183"/>
+      <c r="S11" s="183"/>
+      <c r="T11" s="183"/>
+      <c r="U11" s="183"/>
+      <c r="V11" s="183"/>
+      <c r="W11" s="183"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="105"/>
+      <c r="AC11" s="105"/>
+      <c r="AD11" s="105"/>
+      <c r="AE11" s="303"/>
+      <c r="AF11" s="304"/>
+      <c r="AG11" s="106"/>
+      <c r="AH11" s="106"/>
+      <c r="AI11" s="105"/>
+      <c r="AJ11" s="105"/>
+      <c r="AK11" s="105"/>
+      <c r="AL11" s="107"/>
+      <c r="AM11" s="105"/>
+      <c r="AN11" s="155"/>
+      <c r="AO11" s="106"/>
+      <c r="AP11" s="105"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="105"/>
+      <c r="AS11" s="105"/>
+      <c r="AT11" s="139"/>
+      <c r="AU11" s="106"/>
+      <c r="AV11" s="106"/>
+      <c r="AW11" s="105"/>
+      <c r="AX11" s="105"/>
+      <c r="AY11" s="105"/>
+      <c r="AZ11" s="105"/>
+      <c r="BA11" s="139"/>
+      <c r="BB11" s="106"/>
+      <c r="BC11" s="106"/>
+      <c r="BD11" s="105"/>
+      <c r="BE11" s="105"/>
+      <c r="BF11" s="105"/>
+      <c r="BG11" s="105"/>
+      <c r="BH11" s="139"/>
+      <c r="BI11" s="106"/>
+      <c r="BJ11" s="106"/>
+      <c r="BK11" s="105"/>
+      <c r="BL11" s="105"/>
+      <c r="BM11" s="105"/>
+      <c r="BN11" s="105"/>
+      <c r="BO11" s="123"/>
+      <c r="BP11" s="106"/>
+      <c r="BQ11" s="106"/>
+      <c r="BR11" s="105"/>
+      <c r="BS11" s="105"/>
+      <c r="BT11" s="105"/>
+      <c r="BU11" s="105"/>
+      <c r="BV11" s="123"/>
+      <c r="BW11" s="106"/>
+      <c r="BX11" s="106"/>
+      <c r="BY11" s="105"/>
+      <c r="BZ11" s="105"/>
+      <c r="CA11" s="105"/>
+      <c r="CB11" s="105"/>
+      <c r="CC11" s="123"/>
+      <c r="CD11" s="106"/>
+      <c r="CE11" s="106"/>
+      <c r="CF11" s="105"/>
+      <c r="CG11" s="105"/>
+      <c r="CH11" s="105"/>
+      <c r="CI11" s="105"/>
+      <c r="CJ11" s="123"/>
+      <c r="CK11" s="106"/>
+      <c r="CL11" s="106"/>
+      <c r="CM11" s="105"/>
+      <c r="CN11" s="105"/>
+      <c r="CO11" s="105"/>
+      <c r="CP11" s="105"/>
+      <c r="CQ11" s="123"/>
+      <c r="CR11" s="106"/>
+      <c r="CS11" s="106"/>
+      <c r="CT11" s="105"/>
+      <c r="CU11" s="105"/>
+      <c r="CV11" s="105"/>
+      <c r="CW11" s="105"/>
+      <c r="CX11" s="123"/>
+      <c r="CY11" s="106"/>
+      <c r="CZ11" s="106"/>
+      <c r="DA11" s="105"/>
+      <c r="DB11" s="105"/>
+      <c r="DC11" s="105"/>
+      <c r="DD11" s="105"/>
+      <c r="DE11" s="123"/>
+      <c r="DF11" s="106"/>
+      <c r="DG11" s="106"/>
+      <c r="DH11" s="105"/>
+      <c r="DI11" s="105"/>
+      <c r="DJ11" s="105"/>
+      <c r="DK11" s="127"/>
     </row>
     <row r="12" spans="2:115" ht="50.1" customHeight="1" thickBot="1">
-      <c r="C12" s="135"/>
-      <c r="D12" s="165" t="s">
+      <c r="C12" s="133"/>
+      <c r="D12" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="178"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="188"/>
-      <c r="M12" s="188"/>
-      <c r="N12" s="265"/>
-      <c r="O12" s="188"/>
-      <c r="P12" s="188"/>
-      <c r="Q12" s="188"/>
-      <c r="R12" s="188"/>
-      <c r="S12" s="188"/>
-      <c r="T12" s="188"/>
-      <c r="U12" s="188"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="131"/>
-      <c r="AA12" s="131"/>
-      <c r="AB12" s="130"/>
-      <c r="AC12" s="130"/>
-      <c r="AD12" s="130"/>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="132"/>
-      <c r="AG12" s="131"/>
-      <c r="AH12" s="131"/>
-      <c r="AI12" s="130"/>
-      <c r="AJ12" s="130"/>
-      <c r="AK12" s="130"/>
-      <c r="AL12" s="132"/>
-      <c r="AM12" s="130"/>
-      <c r="AN12" s="159"/>
-      <c r="AO12" s="131"/>
-      <c r="AP12" s="130"/>
-      <c r="AQ12" s="130"/>
-      <c r="AR12" s="130"/>
-      <c r="AS12" s="130"/>
-      <c r="AT12" s="153"/>
-      <c r="AU12" s="131"/>
-      <c r="AV12" s="131"/>
-      <c r="AW12" s="130"/>
-      <c r="AX12" s="130"/>
-      <c r="AY12" s="130"/>
-      <c r="AZ12" s="130"/>
-      <c r="BA12" s="153"/>
-      <c r="BB12" s="131"/>
-      <c r="BC12" s="131"/>
-      <c r="BD12" s="130"/>
-      <c r="BE12" s="130"/>
-      <c r="BF12" s="130"/>
-      <c r="BG12" s="130"/>
-      <c r="BH12" s="153"/>
-      <c r="BI12" s="131"/>
-      <c r="BJ12" s="131"/>
-      <c r="BK12" s="130"/>
-      <c r="BL12" s="130"/>
-      <c r="BM12" s="130"/>
-      <c r="BN12" s="130"/>
-      <c r="BO12" s="133"/>
-      <c r="BP12" s="131"/>
-      <c r="BQ12" s="131"/>
-      <c r="BR12" s="130"/>
-      <c r="BS12" s="130"/>
-      <c r="BT12" s="130"/>
-      <c r="BU12" s="130"/>
-      <c r="BV12" s="133"/>
-      <c r="BW12" s="131"/>
-      <c r="BX12" s="131"/>
-      <c r="BY12" s="130"/>
-      <c r="BZ12" s="130"/>
-      <c r="CA12" s="130"/>
-      <c r="CB12" s="130"/>
-      <c r="CC12" s="133"/>
-      <c r="CD12" s="131"/>
-      <c r="CE12" s="131"/>
-      <c r="CF12" s="130"/>
-      <c r="CG12" s="130"/>
-      <c r="CH12" s="130"/>
-      <c r="CI12" s="130"/>
-      <c r="CJ12" s="133"/>
-      <c r="CK12" s="131"/>
-      <c r="CL12" s="131"/>
-      <c r="CM12" s="130"/>
-      <c r="CN12" s="130"/>
-      <c r="CO12" s="130"/>
-      <c r="CP12" s="130"/>
-      <c r="CQ12" s="133"/>
-      <c r="CR12" s="131"/>
-      <c r="CS12" s="131"/>
-      <c r="CT12" s="130"/>
-      <c r="CU12" s="130"/>
-      <c r="CV12" s="130"/>
-      <c r="CW12" s="130"/>
-      <c r="CX12" s="133"/>
-      <c r="CY12" s="131"/>
-      <c r="CZ12" s="131"/>
-      <c r="DA12" s="130"/>
-      <c r="DB12" s="130"/>
-      <c r="DC12" s="130"/>
-      <c r="DD12" s="130"/>
-      <c r="DE12" s="133"/>
-      <c r="DF12" s="131"/>
-      <c r="DG12" s="131"/>
-      <c r="DH12" s="130"/>
-      <c r="DI12" s="130"/>
-      <c r="DJ12" s="130"/>
-      <c r="DK12" s="134"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="186"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="186"/>
+      <c r="J12" s="187"/>
+      <c r="K12" s="186"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="186"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="186"/>
+      <c r="P12" s="186"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="186"/>
+      <c r="S12" s="186"/>
+      <c r="T12" s="186"/>
+      <c r="U12" s="186"/>
+      <c r="V12" s="186"/>
+      <c r="W12" s="186"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="129"/>
+      <c r="AA12" s="129"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="128"/>
+      <c r="AE12" s="306"/>
+      <c r="AF12" s="307"/>
+      <c r="AG12" s="129"/>
+      <c r="AH12" s="129"/>
+      <c r="AI12" s="128"/>
+      <c r="AJ12" s="128"/>
+      <c r="AK12" s="128"/>
+      <c r="AL12" s="130"/>
+      <c r="AM12" s="128"/>
+      <c r="AN12" s="157"/>
+      <c r="AO12" s="129"/>
+      <c r="AP12" s="128"/>
+      <c r="AQ12" s="128"/>
+      <c r="AR12" s="128"/>
+      <c r="AS12" s="128"/>
+      <c r="AT12" s="151"/>
+      <c r="AU12" s="129"/>
+      <c r="AV12" s="129"/>
+      <c r="AW12" s="128"/>
+      <c r="AX12" s="128"/>
+      <c r="AY12" s="128"/>
+      <c r="AZ12" s="128"/>
+      <c r="BA12" s="151"/>
+      <c r="BB12" s="129"/>
+      <c r="BC12" s="129"/>
+      <c r="BD12" s="128"/>
+      <c r="BE12" s="128"/>
+      <c r="BF12" s="128"/>
+      <c r="BG12" s="128"/>
+      <c r="BH12" s="151"/>
+      <c r="BI12" s="129"/>
+      <c r="BJ12" s="129"/>
+      <c r="BK12" s="128"/>
+      <c r="BL12" s="128"/>
+      <c r="BM12" s="128"/>
+      <c r="BN12" s="128"/>
+      <c r="BO12" s="131"/>
+      <c r="BP12" s="129"/>
+      <c r="BQ12" s="129"/>
+      <c r="BR12" s="128"/>
+      <c r="BS12" s="128"/>
+      <c r="BT12" s="128"/>
+      <c r="BU12" s="128"/>
+      <c r="BV12" s="131"/>
+      <c r="BW12" s="129"/>
+      <c r="BX12" s="129"/>
+      <c r="BY12" s="128"/>
+      <c r="BZ12" s="128"/>
+      <c r="CA12" s="128"/>
+      <c r="CB12" s="128"/>
+      <c r="CC12" s="131"/>
+      <c r="CD12" s="129"/>
+      <c r="CE12" s="129"/>
+      <c r="CF12" s="128"/>
+      <c r="CG12" s="128"/>
+      <c r="CH12" s="128"/>
+      <c r="CI12" s="128"/>
+      <c r="CJ12" s="131"/>
+      <c r="CK12" s="129"/>
+      <c r="CL12" s="129"/>
+      <c r="CM12" s="128"/>
+      <c r="CN12" s="128"/>
+      <c r="CO12" s="128"/>
+      <c r="CP12" s="128"/>
+      <c r="CQ12" s="131"/>
+      <c r="CR12" s="129"/>
+      <c r="CS12" s="129"/>
+      <c r="CT12" s="128"/>
+      <c r="CU12" s="128"/>
+      <c r="CV12" s="128"/>
+      <c r="CW12" s="128"/>
+      <c r="CX12" s="131"/>
+      <c r="CY12" s="129"/>
+      <c r="CZ12" s="129"/>
+      <c r="DA12" s="128"/>
+      <c r="DB12" s="128"/>
+      <c r="DC12" s="128"/>
+      <c r="DD12" s="128"/>
+      <c r="DE12" s="131"/>
+      <c r="DF12" s="129"/>
+      <c r="DG12" s="129"/>
+      <c r="DH12" s="128"/>
+      <c r="DI12" s="128"/>
+      <c r="DJ12" s="128"/>
+      <c r="DK12" s="132"/>
     </row>
     <row r="13" spans="2:115" ht="17.25" thickTop="1"/>
     <row r="15" spans="2:115" ht="26.25">
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="103" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:115" ht="18" thickBot="1">
-      <c r="G16" s="181" t="s">
+      <c r="G16" s="179" t="s">
         <v>24</v>
       </c>
       <c r="X16" s="92" t="s">
@@ -6701,61 +6808,61 @@
       <c r="D17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="179" t="s">
+      <c r="E17" s="177" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="190">
+      <c r="G17" s="188">
         <v>14</v>
       </c>
-      <c r="H17" s="191">
+      <c r="H17" s="189">
         <v>15</v>
       </c>
-      <c r="I17" s="191">
+      <c r="I17" s="189">
         <v>16</v>
       </c>
-      <c r="J17" s="191">
+      <c r="J17" s="189">
         <v>17</v>
       </c>
-      <c r="K17" s="191">
+      <c r="K17" s="189">
         <v>18</v>
       </c>
-      <c r="L17" s="191">
+      <c r="L17" s="189">
         <v>19</v>
       </c>
-      <c r="M17" s="191">
+      <c r="M17" s="189">
         <v>20</v>
       </c>
-      <c r="N17" s="191">
+      <c r="N17" s="189">
         <v>21</v>
       </c>
-      <c r="O17" s="191">
+      <c r="O17" s="189">
         <v>22</v>
       </c>
-      <c r="P17" s="191">
+      <c r="P17" s="189">
         <v>23</v>
       </c>
-      <c r="Q17" s="191">
+      <c r="Q17" s="189">
         <v>24</v>
       </c>
-      <c r="R17" s="191">
+      <c r="R17" s="189">
         <v>25</v>
       </c>
-      <c r="S17" s="191">
+      <c r="S17" s="189">
         <v>26</v>
       </c>
-      <c r="T17" s="191">
+      <c r="T17" s="189">
         <v>27</v>
       </c>
-      <c r="U17" s="191">
+      <c r="U17" s="189">
         <v>28</v>
       </c>
-      <c r="V17" s="31">
+      <c r="V17" s="189">
         <v>29</v>
       </c>
-      <c r="W17" s="31">
+      <c r="W17" s="189">
         <v>30</v>
       </c>
       <c r="X17" s="31">
@@ -6779,10 +6886,10 @@
       <c r="AD17" s="31">
         <v>7</v>
       </c>
-      <c r="AE17" s="31">
+      <c r="AE17" s="308">
         <v>8</v>
       </c>
-      <c r="AF17" s="31">
+      <c r="AF17" s="308">
         <v>9</v>
       </c>
       <c r="AG17" s="31">
@@ -6824,7 +6931,7 @@
       <c r="AS17" s="31">
         <v>22</v>
       </c>
-      <c r="AT17" s="155">
+      <c r="AT17" s="153">
         <v>23</v>
       </c>
       <c r="AU17" s="31">
@@ -6845,7 +6952,7 @@
       <c r="AZ17" s="31">
         <v>29</v>
       </c>
-      <c r="BA17" s="155">
+      <c r="BA17" s="153">
         <v>30</v>
       </c>
       <c r="BB17" s="31">
@@ -6866,7 +6973,7 @@
       <c r="BG17" s="31">
         <v>5</v>
       </c>
-      <c r="BH17" s="155">
+      <c r="BH17" s="153">
         <v>30</v>
       </c>
       <c r="BI17" s="31">
@@ -7028,46 +7135,46 @@
       <c r="DI17" s="31">
         <v>28</v>
       </c>
-      <c r="DJ17" s="168">
+      <c r="DJ17" s="166">
         <v>29</v>
       </c>
-      <c r="DK17" s="169">
+      <c r="DK17" s="167">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="279" t="s">
+      <c r="B18" s="280" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="246" t="s">
+      <c r="C18" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="247" t="s">
+      <c r="D18" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="248" t="s">
+      <c r="E18" s="246" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="249">
+      <c r="F18" s="247">
         <v>40344</v>
       </c>
-      <c r="G18" s="192"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="195"/>
-      <c r="L18" s="196"/>
-      <c r="M18" s="196"/>
-      <c r="N18" s="266"/>
-      <c r="O18" s="195"/>
-      <c r="P18" s="195"/>
-      <c r="Q18" s="195"/>
-      <c r="R18" s="195"/>
-      <c r="S18" s="196"/>
-      <c r="T18" s="196"/>
-      <c r="U18" s="195"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="191"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="264"/>
+      <c r="O18" s="193"/>
+      <c r="P18" s="193"/>
+      <c r="Q18" s="193"/>
+      <c r="R18" s="193"/>
+      <c r="S18" s="194"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="193"/>
+      <c r="V18" s="193"/>
+      <c r="W18" s="193"/>
       <c r="X18" s="37"/>
       <c r="Y18" s="37"/>
       <c r="Z18" s="68"/>
@@ -7075,8 +7182,8 @@
       <c r="AB18" s="37"/>
       <c r="AC18" s="37"/>
       <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
+      <c r="AE18" s="309"/>
+      <c r="AF18" s="309"/>
       <c r="AG18" s="68"/>
       <c r="AH18" s="68"/>
       <c r="AI18" s="37"/>
@@ -7090,21 +7197,21 @@
       <c r="AQ18" s="37"/>
       <c r="AR18" s="37"/>
       <c r="AS18" s="37"/>
-      <c r="AT18" s="142"/>
+      <c r="AT18" s="140"/>
       <c r="AU18" s="68"/>
       <c r="AV18" s="68"/>
       <c r="AW18" s="37"/>
       <c r="AX18" s="37"/>
       <c r="AY18" s="37"/>
       <c r="AZ18" s="37"/>
-      <c r="BA18" s="142"/>
+      <c r="BA18" s="140"/>
       <c r="BB18" s="68"/>
       <c r="BC18" s="68"/>
       <c r="BD18" s="37"/>
       <c r="BE18" s="37"/>
       <c r="BF18" s="37"/>
       <c r="BG18" s="37"/>
-      <c r="BH18" s="142"/>
+      <c r="BH18" s="140"/>
       <c r="BI18" s="68"/>
       <c r="BJ18" s="68"/>
       <c r="BK18" s="37"/>
@@ -7162,36 +7269,36 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="279"/>
-      <c r="C19" s="253" t="s">
+      <c r="B19" s="280"/>
+      <c r="C19" s="251" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="254" t="s">
+      <c r="D19" s="252" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="255" t="s">
+      <c r="E19" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="256">
+      <c r="F19" s="254">
         <v>40350</v>
       </c>
-      <c r="G19" s="197"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="198"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="200"/>
-      <c r="L19" s="201"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="267"/>
-      <c r="O19" s="197"/>
-      <c r="P19" s="198"/>
-      <c r="Q19" s="198"/>
-      <c r="R19" s="198"/>
-      <c r="S19" s="232"/>
-      <c r="T19" s="232"/>
-      <c r="U19" s="198"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="197"/>
+      <c r="K19" s="198"/>
+      <c r="L19" s="199"/>
+      <c r="M19" s="200"/>
+      <c r="N19" s="265"/>
+      <c r="O19" s="195"/>
+      <c r="P19" s="196"/>
+      <c r="Q19" s="196"/>
+      <c r="R19" s="196"/>
+      <c r="S19" s="230"/>
+      <c r="T19" s="230"/>
+      <c r="U19" s="196"/>
+      <c r="V19" s="196"/>
+      <c r="W19" s="196"/>
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
       <c r="Z19" s="69"/>
@@ -7199,8 +7306,8 @@
       <c r="AB19" s="32"/>
       <c r="AC19" s="32"/>
       <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
+      <c r="AE19" s="310"/>
+      <c r="AF19" s="310"/>
       <c r="AG19" s="69"/>
       <c r="AH19" s="69"/>
       <c r="AI19" s="32"/>
@@ -7214,21 +7321,21 @@
       <c r="AQ19" s="32"/>
       <c r="AR19" s="32"/>
       <c r="AS19" s="32"/>
-      <c r="AT19" s="143"/>
+      <c r="AT19" s="141"/>
       <c r="AU19" s="69"/>
       <c r="AV19" s="69"/>
       <c r="AW19" s="32"/>
       <c r="AX19" s="32"/>
       <c r="AY19" s="32"/>
       <c r="AZ19" s="32"/>
-      <c r="BA19" s="143"/>
+      <c r="BA19" s="141"/>
       <c r="BB19" s="69"/>
       <c r="BC19" s="69"/>
       <c r="BD19" s="32"/>
       <c r="BE19" s="32"/>
       <c r="BF19" s="32"/>
       <c r="BG19" s="32"/>
-      <c r="BH19" s="143"/>
+      <c r="BH19" s="141"/>
       <c r="BI19" s="69"/>
       <c r="BJ19" s="69"/>
       <c r="BK19" s="32"/>
@@ -7286,38 +7393,38 @@
       <c r="DK19" s="36"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="280" t="s">
+      <c r="B20" s="279" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="296" t="s">
+      <c r="C20" s="282" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="257" t="s">
+      <c r="D20" s="255" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="258" t="s">
+      <c r="E20" s="256" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="259">
+      <c r="F20" s="257">
         <v>40350</v>
       </c>
-      <c r="G20" s="203"/>
-      <c r="H20" s="204"/>
-      <c r="I20" s="205"/>
-      <c r="J20" s="206"/>
-      <c r="K20" s="207"/>
-      <c r="L20" s="208"/>
-      <c r="M20" s="209"/>
-      <c r="N20" s="268"/>
-      <c r="O20" s="203"/>
-      <c r="P20" s="204"/>
-      <c r="Q20" s="204"/>
-      <c r="R20" s="204"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="235"/>
-      <c r="U20" s="204"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="204"/>
+      <c r="K20" s="205"/>
+      <c r="L20" s="206"/>
+      <c r="M20" s="207"/>
+      <c r="N20" s="266"/>
+      <c r="O20" s="201"/>
+      <c r="P20" s="202"/>
+      <c r="Q20" s="202"/>
+      <c r="R20" s="202"/>
+      <c r="S20" s="233"/>
+      <c r="T20" s="233"/>
+      <c r="U20" s="202"/>
+      <c r="V20" s="202"/>
+      <c r="W20" s="202"/>
       <c r="X20" s="42"/>
       <c r="Y20" s="42"/>
       <c r="Z20" s="70"/>
@@ -7325,8 +7432,8 @@
       <c r="AB20" s="42"/>
       <c r="AC20" s="42"/>
       <c r="AD20" s="42"/>
-      <c r="AE20" s="42"/>
-      <c r="AF20" s="42"/>
+      <c r="AE20" s="311"/>
+      <c r="AF20" s="311"/>
       <c r="AG20" s="70"/>
       <c r="AH20" s="70"/>
       <c r="AI20" s="42"/>
@@ -7340,21 +7447,21 @@
       <c r="AQ20" s="42"/>
       <c r="AR20" s="42"/>
       <c r="AS20" s="42"/>
-      <c r="AT20" s="144"/>
+      <c r="AT20" s="142"/>
       <c r="AU20" s="70"/>
       <c r="AV20" s="70"/>
       <c r="AW20" s="42"/>
       <c r="AX20" s="42"/>
       <c r="AY20" s="42"/>
       <c r="AZ20" s="42"/>
-      <c r="BA20" s="144"/>
+      <c r="BA20" s="142"/>
       <c r="BB20" s="70"/>
       <c r="BC20" s="70"/>
       <c r="BD20" s="42"/>
       <c r="BE20" s="42"/>
       <c r="BF20" s="42"/>
       <c r="BG20" s="42"/>
-      <c r="BH20" s="144"/>
+      <c r="BH20" s="142"/>
       <c r="BI20" s="70"/>
       <c r="BJ20" s="70"/>
       <c r="BK20" s="42"/>
@@ -7412,34 +7519,34 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="279"/>
-      <c r="C21" s="297"/>
-      <c r="D21" s="257" t="s">
+      <c r="B21" s="280"/>
+      <c r="C21" s="283"/>
+      <c r="D21" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="260" t="s">
+      <c r="E21" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="259">
+      <c r="F21" s="257">
         <v>40350</v>
       </c>
-      <c r="G21" s="210"/>
-      <c r="H21" s="211"/>
-      <c r="I21" s="212"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="214"/>
-      <c r="L21" s="215"/>
-      <c r="M21" s="216"/>
-      <c r="N21" s="214"/>
-      <c r="O21" s="210"/>
-      <c r="P21" s="211"/>
-      <c r="Q21" s="211"/>
-      <c r="R21" s="211"/>
-      <c r="S21" s="225"/>
-      <c r="T21" s="225"/>
-      <c r="U21" s="211"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="209"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="211"/>
+      <c r="K21" s="212"/>
+      <c r="L21" s="213"/>
+      <c r="M21" s="214"/>
+      <c r="N21" s="212"/>
+      <c r="O21" s="208"/>
+      <c r="P21" s="209"/>
+      <c r="Q21" s="209"/>
+      <c r="R21" s="209"/>
+      <c r="S21" s="223"/>
+      <c r="T21" s="223"/>
+      <c r="U21" s="209"/>
+      <c r="V21" s="209"/>
+      <c r="W21" s="209"/>
       <c r="X21" s="48"/>
       <c r="Y21" s="48"/>
       <c r="Z21" s="71"/>
@@ -7447,8 +7554,8 @@
       <c r="AB21" s="48"/>
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="48"/>
+      <c r="AE21" s="312"/>
+      <c r="AF21" s="312"/>
       <c r="AG21" s="71"/>
       <c r="AH21" s="71"/>
       <c r="AI21" s="48"/>
@@ -7462,21 +7569,21 @@
       <c r="AQ21" s="48"/>
       <c r="AR21" s="48"/>
       <c r="AS21" s="48"/>
-      <c r="AT21" s="145"/>
+      <c r="AT21" s="143"/>
       <c r="AU21" s="71"/>
       <c r="AV21" s="71"/>
       <c r="AW21" s="48"/>
       <c r="AX21" s="48"/>
       <c r="AY21" s="48"/>
       <c r="AZ21" s="48"/>
-      <c r="BA21" s="145"/>
+      <c r="BA21" s="143"/>
       <c r="BB21" s="71"/>
       <c r="BC21" s="71"/>
       <c r="BD21" s="48"/>
       <c r="BE21" s="48"/>
       <c r="BF21" s="48"/>
       <c r="BG21" s="48"/>
-      <c r="BH21" s="145"/>
+      <c r="BH21" s="143"/>
       <c r="BI21" s="71"/>
       <c r="BJ21" s="71"/>
       <c r="BK21" s="48"/>
@@ -7534,34 +7641,34 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="279"/>
-      <c r="C22" s="297"/>
-      <c r="D22" s="257" t="s">
+      <c r="B22" s="280"/>
+      <c r="C22" s="283"/>
+      <c r="D22" s="255" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="260" t="s">
+      <c r="E22" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="259">
+      <c r="F22" s="257">
         <v>40350</v>
       </c>
-      <c r="G22" s="210"/>
-      <c r="H22" s="211"/>
-      <c r="I22" s="212"/>
-      <c r="J22" s="200"/>
-      <c r="K22" s="200"/>
-      <c r="L22" s="215"/>
-      <c r="M22" s="216"/>
-      <c r="N22" s="200"/>
-      <c r="O22" s="210"/>
-      <c r="P22" s="211"/>
-      <c r="Q22" s="211"/>
-      <c r="R22" s="211"/>
-      <c r="S22" s="225"/>
-      <c r="T22" s="225"/>
-      <c r="U22" s="211"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="210"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="198"/>
+      <c r="L22" s="213"/>
+      <c r="M22" s="214"/>
+      <c r="N22" s="198"/>
+      <c r="O22" s="208"/>
+      <c r="P22" s="209"/>
+      <c r="Q22" s="209"/>
+      <c r="R22" s="209"/>
+      <c r="S22" s="223"/>
+      <c r="T22" s="223"/>
+      <c r="U22" s="209"/>
+      <c r="V22" s="209"/>
+      <c r="W22" s="209"/>
       <c r="X22" s="48"/>
       <c r="Y22" s="48"/>
       <c r="Z22" s="71"/>
@@ -7569,8 +7676,8 @@
       <c r="AB22" s="48"/>
       <c r="AC22" s="48"/>
       <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="48"/>
+      <c r="AE22" s="312"/>
+      <c r="AF22" s="312"/>
       <c r="AG22" s="71"/>
       <c r="AH22" s="71"/>
       <c r="AI22" s="48"/>
@@ -7584,21 +7691,21 @@
       <c r="AQ22" s="48"/>
       <c r="AR22" s="48"/>
       <c r="AS22" s="48"/>
-      <c r="AT22" s="145"/>
+      <c r="AT22" s="143"/>
       <c r="AU22" s="71"/>
       <c r="AV22" s="71"/>
       <c r="AW22" s="48"/>
       <c r="AX22" s="48"/>
       <c r="AY22" s="48"/>
       <c r="AZ22" s="48"/>
-      <c r="BA22" s="145"/>
+      <c r="BA22" s="143"/>
       <c r="BB22" s="71"/>
       <c r="BC22" s="71"/>
       <c r="BD22" s="48"/>
       <c r="BE22" s="48"/>
       <c r="BF22" s="48"/>
       <c r="BG22" s="48"/>
-      <c r="BH22" s="145"/>
+      <c r="BH22" s="143"/>
       <c r="BI22" s="71"/>
       <c r="BJ22" s="71"/>
       <c r="BK22" s="48"/>
@@ -7656,34 +7763,34 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="279"/>
-      <c r="C23" s="298"/>
-      <c r="D23" s="257" t="s">
+      <c r="B23" s="280"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="255" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="260" t="s">
+      <c r="E23" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="261">
+      <c r="F23" s="259">
         <v>40350</v>
       </c>
-      <c r="G23" s="210"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="212"/>
-      <c r="J23" s="217"/>
-      <c r="K23" s="218"/>
-      <c r="L23" s="219"/>
-      <c r="M23" s="220"/>
-      <c r="N23" s="218"/>
-      <c r="O23" s="210"/>
-      <c r="P23" s="211"/>
-      <c r="Q23" s="211"/>
-      <c r="R23" s="211"/>
-      <c r="S23" s="225"/>
-      <c r="T23" s="225"/>
-      <c r="U23" s="211"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="209"/>
+      <c r="I23" s="210"/>
+      <c r="J23" s="215"/>
+      <c r="K23" s="216"/>
+      <c r="L23" s="217"/>
+      <c r="M23" s="218"/>
+      <c r="N23" s="216"/>
+      <c r="O23" s="208"/>
+      <c r="P23" s="209"/>
+      <c r="Q23" s="209"/>
+      <c r="R23" s="209"/>
+      <c r="S23" s="223"/>
+      <c r="T23" s="223"/>
+      <c r="U23" s="209"/>
+      <c r="V23" s="209"/>
+      <c r="W23" s="209"/>
       <c r="X23" s="48"/>
       <c r="Y23" s="48"/>
       <c r="Z23" s="71"/>
@@ -7691,8 +7798,8 @@
       <c r="AB23" s="48"/>
       <c r="AC23" s="48"/>
       <c r="AD23" s="48"/>
-      <c r="AE23" s="48"/>
-      <c r="AF23" s="48"/>
+      <c r="AE23" s="312"/>
+      <c r="AF23" s="312"/>
       <c r="AG23" s="71"/>
       <c r="AH23" s="71"/>
       <c r="AI23" s="48"/>
@@ -7706,21 +7813,21 @@
       <c r="AQ23" s="48"/>
       <c r="AR23" s="48"/>
       <c r="AS23" s="48"/>
-      <c r="AT23" s="145"/>
+      <c r="AT23" s="143"/>
       <c r="AU23" s="71"/>
       <c r="AV23" s="71"/>
       <c r="AW23" s="48"/>
       <c r="AX23" s="48"/>
       <c r="AY23" s="48"/>
       <c r="AZ23" s="48"/>
-      <c r="BA23" s="145"/>
+      <c r="BA23" s="143"/>
       <c r="BB23" s="71"/>
       <c r="BC23" s="71"/>
       <c r="BD23" s="48"/>
       <c r="BE23" s="48"/>
       <c r="BF23" s="48"/>
       <c r="BG23" s="48"/>
-      <c r="BH23" s="145"/>
+      <c r="BH23" s="143"/>
       <c r="BI23" s="71"/>
       <c r="BJ23" s="71"/>
       <c r="BK23" s="48"/>
@@ -7778,8 +7885,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="279"/>
-      <c r="C24" s="299" t="s">
+      <c r="B24" s="280"/>
+      <c r="C24" s="285" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7788,26 +7895,26 @@
       <c r="E24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="170">
+      <c r="F24" s="168">
         <v>40352</v>
       </c>
-      <c r="G24" s="221"/>
-      <c r="H24" s="222"/>
-      <c r="I24" s="222"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="222"/>
-      <c r="L24" s="224"/>
-      <c r="M24" s="224"/>
-      <c r="N24" s="212"/>
-      <c r="O24" s="200"/>
-      <c r="P24" s="200"/>
-      <c r="Q24" s="222"/>
-      <c r="R24" s="222"/>
-      <c r="S24" s="224"/>
-      <c r="T24" s="224"/>
-      <c r="U24" s="222"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
+      <c r="G24" s="219"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="221"/>
+      <c r="K24" s="220"/>
+      <c r="L24" s="222"/>
+      <c r="M24" s="222"/>
+      <c r="N24" s="210"/>
+      <c r="O24" s="198"/>
+      <c r="P24" s="198"/>
+      <c r="Q24" s="220"/>
+      <c r="R24" s="220"/>
+      <c r="S24" s="222"/>
+      <c r="T24" s="222"/>
+      <c r="U24" s="220"/>
+      <c r="V24" s="220"/>
+      <c r="W24" s="220"/>
       <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
       <c r="Z24" s="72"/>
@@ -7815,8 +7922,8 @@
       <c r="AB24" s="62"/>
       <c r="AC24" s="62"/>
       <c r="AD24" s="62"/>
-      <c r="AE24" s="62"/>
-      <c r="AF24" s="62"/>
+      <c r="AE24" s="313"/>
+      <c r="AF24" s="313"/>
       <c r="AG24" s="72"/>
       <c r="AH24" s="72"/>
       <c r="AI24" s="62"/>
@@ -7830,21 +7937,21 @@
       <c r="AQ24" s="62"/>
       <c r="AR24" s="62"/>
       <c r="AS24" s="62"/>
-      <c r="AT24" s="146"/>
+      <c r="AT24" s="144"/>
       <c r="AU24" s="72"/>
       <c r="AV24" s="72"/>
       <c r="AW24" s="62"/>
       <c r="AX24" s="62"/>
       <c r="AY24" s="62"/>
       <c r="AZ24" s="62"/>
-      <c r="BA24" s="146"/>
+      <c r="BA24" s="144"/>
       <c r="BB24" s="72"/>
       <c r="BC24" s="72"/>
       <c r="BD24" s="62"/>
       <c r="BE24" s="62"/>
       <c r="BF24" s="62"/>
       <c r="BG24" s="62"/>
-      <c r="BH24" s="146"/>
+      <c r="BH24" s="144"/>
       <c r="BI24" s="72"/>
       <c r="BJ24" s="72"/>
       <c r="BK24" s="62"/>
@@ -7902,34 +8009,34 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="279"/>
-      <c r="C25" s="299"/>
+      <c r="B25" s="280"/>
+      <c r="C25" s="285"/>
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="170">
+      <c r="F25" s="168">
         <v>40352</v>
       </c>
-      <c r="G25" s="210"/>
-      <c r="H25" s="211"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="211"/>
-      <c r="K25" s="211"/>
-      <c r="L25" s="225"/>
-      <c r="M25" s="225"/>
-      <c r="N25" s="211"/>
-      <c r="O25" s="200"/>
-      <c r="P25" s="200"/>
-      <c r="Q25" s="211"/>
-      <c r="R25" s="211"/>
-      <c r="S25" s="225"/>
-      <c r="T25" s="225"/>
-      <c r="U25" s="211"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
+      <c r="G25" s="208"/>
+      <c r="H25" s="209"/>
+      <c r="I25" s="209"/>
+      <c r="J25" s="209"/>
+      <c r="K25" s="209"/>
+      <c r="L25" s="223"/>
+      <c r="M25" s="223"/>
+      <c r="N25" s="209"/>
+      <c r="O25" s="198"/>
+      <c r="P25" s="198"/>
+      <c r="Q25" s="209"/>
+      <c r="R25" s="209"/>
+      <c r="S25" s="223"/>
+      <c r="T25" s="223"/>
+      <c r="U25" s="209"/>
+      <c r="V25" s="209"/>
+      <c r="W25" s="209"/>
       <c r="X25" s="48"/>
       <c r="Y25" s="48"/>
       <c r="Z25" s="71"/>
@@ -7937,8 +8044,8 @@
       <c r="AB25" s="48"/>
       <c r="AC25" s="48"/>
       <c r="AD25" s="48"/>
-      <c r="AE25" s="48"/>
-      <c r="AF25" s="48"/>
+      <c r="AE25" s="312"/>
+      <c r="AF25" s="312"/>
       <c r="AG25" s="71"/>
       <c r="AH25" s="71"/>
       <c r="AI25" s="48"/>
@@ -7952,21 +8059,21 @@
       <c r="AQ25" s="48"/>
       <c r="AR25" s="48"/>
       <c r="AS25" s="48"/>
-      <c r="AT25" s="145"/>
+      <c r="AT25" s="143"/>
       <c r="AU25" s="71"/>
       <c r="AV25" s="71"/>
       <c r="AW25" s="48"/>
       <c r="AX25" s="48"/>
       <c r="AY25" s="48"/>
       <c r="AZ25" s="48"/>
-      <c r="BA25" s="145"/>
+      <c r="BA25" s="143"/>
       <c r="BB25" s="71"/>
       <c r="BC25" s="71"/>
       <c r="BD25" s="48"/>
       <c r="BE25" s="48"/>
       <c r="BF25" s="48"/>
       <c r="BG25" s="48"/>
-      <c r="BH25" s="145"/>
+      <c r="BH25" s="143"/>
       <c r="BI25" s="71"/>
       <c r="BJ25" s="71"/>
       <c r="BK25" s="48"/>
@@ -8024,34 +8131,34 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="279"/>
-      <c r="C26" s="299"/>
+      <c r="B26" s="280"/>
+      <c r="C26" s="285"/>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="170">
+      <c r="F26" s="168">
         <v>40352</v>
       </c>
-      <c r="G26" s="210"/>
-      <c r="H26" s="211"/>
-      <c r="I26" s="211"/>
-      <c r="J26" s="211"/>
-      <c r="K26" s="211"/>
-      <c r="L26" s="225"/>
-      <c r="M26" s="225"/>
-      <c r="N26" s="211"/>
-      <c r="O26" s="200"/>
-      <c r="P26" s="200"/>
-      <c r="Q26" s="211"/>
-      <c r="R26" s="211"/>
-      <c r="S26" s="225"/>
-      <c r="T26" s="225"/>
-      <c r="U26" s="211"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="48"/>
+      <c r="G26" s="208"/>
+      <c r="H26" s="209"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="209"/>
+      <c r="K26" s="209"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="223"/>
+      <c r="N26" s="209"/>
+      <c r="O26" s="198"/>
+      <c r="P26" s="198"/>
+      <c r="Q26" s="209"/>
+      <c r="R26" s="209"/>
+      <c r="S26" s="223"/>
+      <c r="T26" s="223"/>
+      <c r="U26" s="209"/>
+      <c r="V26" s="209"/>
+      <c r="W26" s="209"/>
       <c r="X26" s="48"/>
       <c r="Y26" s="48"/>
       <c r="Z26" s="71"/>
@@ -8059,8 +8166,8 @@
       <c r="AB26" s="48"/>
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
-      <c r="AE26" s="48"/>
-      <c r="AF26" s="48"/>
+      <c r="AE26" s="312"/>
+      <c r="AF26" s="312"/>
       <c r="AG26" s="71"/>
       <c r="AH26" s="71"/>
       <c r="AI26" s="48"/>
@@ -8074,21 +8181,21 @@
       <c r="AQ26" s="48"/>
       <c r="AR26" s="48"/>
       <c r="AS26" s="48"/>
-      <c r="AT26" s="145"/>
+      <c r="AT26" s="143"/>
       <c r="AU26" s="71"/>
       <c r="AV26" s="71"/>
       <c r="AW26" s="48"/>
       <c r="AX26" s="48"/>
       <c r="AY26" s="48"/>
       <c r="AZ26" s="48"/>
-      <c r="BA26" s="145"/>
+      <c r="BA26" s="143"/>
       <c r="BB26" s="71"/>
       <c r="BC26" s="71"/>
       <c r="BD26" s="48"/>
       <c r="BE26" s="48"/>
       <c r="BF26" s="48"/>
       <c r="BG26" s="48"/>
-      <c r="BH26" s="145"/>
+      <c r="BH26" s="143"/>
       <c r="BI26" s="71"/>
       <c r="BJ26" s="71"/>
       <c r="BK26" s="48"/>
@@ -8146,34 +8253,34 @@
       <c r="DK26" s="52"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="279"/>
-      <c r="C27" s="299"/>
+      <c r="B27" s="280"/>
+      <c r="C27" s="285"/>
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="170">
+      <c r="F27" s="168">
         <v>40353</v>
       </c>
-      <c r="G27" s="210"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="211"/>
-      <c r="J27" s="211"/>
-      <c r="K27" s="211"/>
-      <c r="L27" s="225"/>
-      <c r="M27" s="225"/>
-      <c r="N27" s="211"/>
-      <c r="O27" s="211"/>
-      <c r="P27" s="211"/>
-      <c r="Q27" s="200"/>
-      <c r="R27" s="200"/>
-      <c r="S27" s="225"/>
-      <c r="T27" s="225"/>
-      <c r="U27" s="211"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="48"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="209"/>
+      <c r="I27" s="209"/>
+      <c r="J27" s="209"/>
+      <c r="K27" s="209"/>
+      <c r="L27" s="223"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="209"/>
+      <c r="O27" s="209"/>
+      <c r="P27" s="209"/>
+      <c r="Q27" s="198"/>
+      <c r="R27" s="198"/>
+      <c r="S27" s="223"/>
+      <c r="T27" s="223"/>
+      <c r="U27" s="209"/>
+      <c r="V27" s="209"/>
+      <c r="W27" s="209"/>
       <c r="X27" s="48"/>
       <c r="Y27" s="48"/>
       <c r="Z27" s="71"/>
@@ -8181,8 +8288,8 @@
       <c r="AB27" s="48"/>
       <c r="AC27" s="48"/>
       <c r="AD27" s="48"/>
-      <c r="AE27" s="48"/>
-      <c r="AF27" s="48"/>
+      <c r="AE27" s="312"/>
+      <c r="AF27" s="312"/>
       <c r="AG27" s="71"/>
       <c r="AH27" s="71"/>
       <c r="AI27" s="48"/>
@@ -8196,21 +8303,21 @@
       <c r="AQ27" s="48"/>
       <c r="AR27" s="48"/>
       <c r="AS27" s="48"/>
-      <c r="AT27" s="145"/>
+      <c r="AT27" s="143"/>
       <c r="AU27" s="71"/>
       <c r="AV27" s="71"/>
       <c r="AW27" s="48"/>
       <c r="AX27" s="48"/>
       <c r="AY27" s="48"/>
       <c r="AZ27" s="48"/>
-      <c r="BA27" s="145"/>
+      <c r="BA27" s="143"/>
       <c r="BB27" s="71"/>
       <c r="BC27" s="71"/>
       <c r="BD27" s="48"/>
       <c r="BE27" s="48"/>
       <c r="BF27" s="48"/>
       <c r="BG27" s="48"/>
-      <c r="BH27" s="145"/>
+      <c r="BH27" s="143"/>
       <c r="BI27" s="71"/>
       <c r="BJ27" s="71"/>
       <c r="BK27" s="48"/>
@@ -8268,34 +8375,34 @@
       <c r="DK27" s="52"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="279"/>
-      <c r="C28" s="299"/>
+      <c r="B28" s="280"/>
+      <c r="C28" s="285"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="170">
+      <c r="F28" s="168">
         <v>40353</v>
       </c>
-      <c r="G28" s="210"/>
-      <c r="H28" s="211"/>
-      <c r="I28" s="211"/>
-      <c r="J28" s="211"/>
-      <c r="K28" s="211"/>
-      <c r="L28" s="225"/>
-      <c r="M28" s="225"/>
-      <c r="N28" s="211"/>
-      <c r="O28" s="211"/>
-      <c r="P28" s="211"/>
-      <c r="Q28" s="200"/>
-      <c r="R28" s="200"/>
-      <c r="S28" s="225"/>
-      <c r="T28" s="225"/>
-      <c r="U28" s="211"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
+      <c r="G28" s="208"/>
+      <c r="H28" s="209"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="209"/>
+      <c r="K28" s="209"/>
+      <c r="L28" s="223"/>
+      <c r="M28" s="223"/>
+      <c r="N28" s="209"/>
+      <c r="O28" s="209"/>
+      <c r="P28" s="209"/>
+      <c r="Q28" s="198"/>
+      <c r="R28" s="198"/>
+      <c r="S28" s="223"/>
+      <c r="T28" s="223"/>
+      <c r="U28" s="209"/>
+      <c r="V28" s="209"/>
+      <c r="W28" s="209"/>
       <c r="X28" s="48"/>
       <c r="Y28" s="48"/>
       <c r="Z28" s="71"/>
@@ -8303,8 +8410,8 @@
       <c r="AB28" s="48"/>
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
-      <c r="AE28" s="48"/>
-      <c r="AF28" s="48"/>
+      <c r="AE28" s="312"/>
+      <c r="AF28" s="312"/>
       <c r="AG28" s="71"/>
       <c r="AH28" s="71"/>
       <c r="AI28" s="48"/>
@@ -8318,21 +8425,21 @@
       <c r="AQ28" s="48"/>
       <c r="AR28" s="48"/>
       <c r="AS28" s="48"/>
-      <c r="AT28" s="145"/>
+      <c r="AT28" s="143"/>
       <c r="AU28" s="71"/>
       <c r="AV28" s="71"/>
       <c r="AW28" s="48"/>
       <c r="AX28" s="48"/>
       <c r="AY28" s="48"/>
       <c r="AZ28" s="48"/>
-      <c r="BA28" s="145"/>
+      <c r="BA28" s="143"/>
       <c r="BB28" s="71"/>
       <c r="BC28" s="71"/>
       <c r="BD28" s="48"/>
       <c r="BE28" s="48"/>
       <c r="BF28" s="48"/>
       <c r="BG28" s="48"/>
-      <c r="BH28" s="145"/>
+      <c r="BH28" s="143"/>
       <c r="BI28" s="71"/>
       <c r="BJ28" s="71"/>
       <c r="BK28" s="48"/>
@@ -8390,34 +8497,34 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="279"/>
-      <c r="C29" s="299"/>
+      <c r="B29" s="280"/>
+      <c r="C29" s="285"/>
       <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="170">
+      <c r="F29" s="168">
         <v>40354</v>
       </c>
-      <c r="G29" s="210"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="211"/>
-      <c r="J29" s="211"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="225"/>
-      <c r="M29" s="225"/>
-      <c r="N29" s="211"/>
-      <c r="O29" s="211"/>
-      <c r="P29" s="200"/>
-      <c r="Q29" s="200"/>
-      <c r="R29" s="211"/>
-      <c r="S29" s="225"/>
-      <c r="T29" s="225"/>
-      <c r="U29" s="211"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="48"/>
+      <c r="G29" s="208"/>
+      <c r="H29" s="209"/>
+      <c r="I29" s="209"/>
+      <c r="J29" s="209"/>
+      <c r="K29" s="209"/>
+      <c r="L29" s="223"/>
+      <c r="M29" s="223"/>
+      <c r="N29" s="209"/>
+      <c r="O29" s="209"/>
+      <c r="P29" s="198"/>
+      <c r="Q29" s="198"/>
+      <c r="R29" s="209"/>
+      <c r="S29" s="223"/>
+      <c r="T29" s="223"/>
+      <c r="U29" s="209"/>
+      <c r="V29" s="209"/>
+      <c r="W29" s="209"/>
       <c r="X29" s="48"/>
       <c r="Y29" s="48"/>
       <c r="Z29" s="71"/>
@@ -8425,8 +8532,8 @@
       <c r="AB29" s="48"/>
       <c r="AC29" s="48"/>
       <c r="AD29" s="48"/>
-      <c r="AE29" s="48"/>
-      <c r="AF29" s="48"/>
+      <c r="AE29" s="312"/>
+      <c r="AF29" s="312"/>
       <c r="AG29" s="71"/>
       <c r="AH29" s="71"/>
       <c r="AI29" s="48"/>
@@ -8440,21 +8547,21 @@
       <c r="AQ29" s="48"/>
       <c r="AR29" s="48"/>
       <c r="AS29" s="48"/>
-      <c r="AT29" s="145"/>
+      <c r="AT29" s="143"/>
       <c r="AU29" s="71"/>
       <c r="AV29" s="71"/>
       <c r="AW29" s="48"/>
       <c r="AX29" s="48"/>
       <c r="AY29" s="48"/>
       <c r="AZ29" s="48"/>
-      <c r="BA29" s="145"/>
+      <c r="BA29" s="143"/>
       <c r="BB29" s="71"/>
       <c r="BC29" s="71"/>
       <c r="BD29" s="48"/>
       <c r="BE29" s="48"/>
       <c r="BF29" s="48"/>
       <c r="BG29" s="48"/>
-      <c r="BH29" s="145"/>
+      <c r="BH29" s="143"/>
       <c r="BI29" s="71"/>
       <c r="BJ29" s="71"/>
       <c r="BK29" s="48"/>
@@ -8512,34 +8619,34 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="279"/>
-      <c r="C30" s="299"/>
+      <c r="B30" s="280"/>
+      <c r="C30" s="285"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="170">
+      <c r="F30" s="168">
         <v>40354</v>
       </c>
-      <c r="G30" s="210"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="211"/>
-      <c r="K30" s="211"/>
-      <c r="L30" s="225"/>
-      <c r="M30" s="225"/>
-      <c r="N30" s="211"/>
-      <c r="O30" s="211"/>
-      <c r="P30" s="200"/>
-      <c r="Q30" s="200"/>
-      <c r="R30" s="211"/>
-      <c r="S30" s="225"/>
-      <c r="T30" s="225"/>
-      <c r="U30" s="211"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="48"/>
+      <c r="G30" s="208"/>
+      <c r="H30" s="209"/>
+      <c r="I30" s="209"/>
+      <c r="J30" s="209"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="223"/>
+      <c r="M30" s="223"/>
+      <c r="N30" s="209"/>
+      <c r="O30" s="209"/>
+      <c r="P30" s="198"/>
+      <c r="Q30" s="198"/>
+      <c r="R30" s="209"/>
+      <c r="S30" s="223"/>
+      <c r="T30" s="223"/>
+      <c r="U30" s="209"/>
+      <c r="V30" s="209"/>
+      <c r="W30" s="209"/>
       <c r="X30" s="48"/>
       <c r="Y30" s="48"/>
       <c r="Z30" s="71"/>
@@ -8547,8 +8654,8 @@
       <c r="AB30" s="48"/>
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
-      <c r="AE30" s="48"/>
-      <c r="AF30" s="48"/>
+      <c r="AE30" s="312"/>
+      <c r="AF30" s="312"/>
       <c r="AG30" s="71"/>
       <c r="AH30" s="71"/>
       <c r="AI30" s="48"/>
@@ -8562,21 +8669,21 @@
       <c r="AQ30" s="48"/>
       <c r="AR30" s="48"/>
       <c r="AS30" s="48"/>
-      <c r="AT30" s="145"/>
+      <c r="AT30" s="143"/>
       <c r="AU30" s="71"/>
       <c r="AV30" s="71"/>
       <c r="AW30" s="48"/>
       <c r="AX30" s="48"/>
       <c r="AY30" s="48"/>
       <c r="AZ30" s="48"/>
-      <c r="BA30" s="145"/>
+      <c r="BA30" s="143"/>
       <c r="BB30" s="71"/>
       <c r="BC30" s="71"/>
       <c r="BD30" s="48"/>
       <c r="BE30" s="48"/>
       <c r="BF30" s="48"/>
       <c r="BG30" s="48"/>
-      <c r="BH30" s="145"/>
+      <c r="BH30" s="143"/>
       <c r="BI30" s="71"/>
       <c r="BJ30" s="71"/>
       <c r="BK30" s="48"/>
@@ -8634,34 +8741,34 @@
       <c r="DK30" s="52"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="279"/>
-      <c r="C31" s="299"/>
+      <c r="B31" s="280"/>
+      <c r="C31" s="285"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="170">
+      <c r="F31" s="168">
         <v>40358</v>
       </c>
-      <c r="G31" s="210"/>
-      <c r="H31" s="211"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="211"/>
-      <c r="K31" s="211"/>
-      <c r="L31" s="225"/>
-      <c r="M31" s="225"/>
-      <c r="N31" s="211"/>
-      <c r="O31" s="211"/>
-      <c r="P31" s="211"/>
-      <c r="Q31" s="211"/>
-      <c r="R31" s="211"/>
-      <c r="S31" s="225"/>
-      <c r="T31" s="225"/>
-      <c r="U31" s="200"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="48"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="209"/>
+      <c r="I31" s="209"/>
+      <c r="J31" s="209"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="223"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="209"/>
+      <c r="O31" s="209"/>
+      <c r="P31" s="209"/>
+      <c r="Q31" s="209"/>
+      <c r="R31" s="209"/>
+      <c r="S31" s="223"/>
+      <c r="T31" s="223"/>
+      <c r="U31" s="198"/>
+      <c r="V31" s="198"/>
+      <c r="W31" s="209"/>
       <c r="X31" s="48"/>
       <c r="Y31" s="48"/>
       <c r="Z31" s="71"/>
@@ -8669,8 +8776,8 @@
       <c r="AB31" s="48"/>
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
+      <c r="AE31" s="312"/>
+      <c r="AF31" s="312"/>
       <c r="AG31" s="71"/>
       <c r="AH31" s="71"/>
       <c r="AI31" s="48"/>
@@ -8684,21 +8791,21 @@
       <c r="AQ31" s="48"/>
       <c r="AR31" s="48"/>
       <c r="AS31" s="48"/>
-      <c r="AT31" s="145"/>
+      <c r="AT31" s="143"/>
       <c r="AU31" s="71"/>
       <c r="AV31" s="71"/>
       <c r="AW31" s="48"/>
       <c r="AX31" s="48"/>
       <c r="AY31" s="48"/>
       <c r="AZ31" s="48"/>
-      <c r="BA31" s="145"/>
+      <c r="BA31" s="143"/>
       <c r="BB31" s="71"/>
       <c r="BC31" s="71"/>
       <c r="BD31" s="48"/>
       <c r="BE31" s="48"/>
       <c r="BF31" s="48"/>
       <c r="BG31" s="48"/>
-      <c r="BH31" s="145"/>
+      <c r="BH31" s="143"/>
       <c r="BI31" s="71"/>
       <c r="BJ31" s="71"/>
       <c r="BK31" s="48"/>
@@ -8756,34 +8863,34 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="279"/>
-      <c r="C32" s="299"/>
+      <c r="B32" s="280"/>
+      <c r="C32" s="285"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="170">
+      <c r="F32" s="168">
         <v>40359</v>
       </c>
-      <c r="G32" s="210"/>
-      <c r="H32" s="211"/>
-      <c r="I32" s="211"/>
-      <c r="J32" s="211"/>
-      <c r="K32" s="211"/>
-      <c r="L32" s="225"/>
-      <c r="M32" s="225"/>
-      <c r="N32" s="211"/>
-      <c r="O32" s="211"/>
-      <c r="P32" s="211"/>
-      <c r="Q32" s="211"/>
-      <c r="R32" s="211"/>
-      <c r="S32" s="225"/>
-      <c r="T32" s="225"/>
-      <c r="U32" s="211"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="121"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="209"/>
+      <c r="I32" s="209"/>
+      <c r="J32" s="209"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="223"/>
+      <c r="M32" s="223"/>
+      <c r="N32" s="209"/>
+      <c r="O32" s="209"/>
+      <c r="P32" s="209"/>
+      <c r="Q32" s="209"/>
+      <c r="R32" s="209"/>
+      <c r="S32" s="223"/>
+      <c r="T32" s="223"/>
+      <c r="U32" s="209"/>
+      <c r="V32" s="209"/>
+      <c r="W32" s="198"/>
       <c r="X32" s="48"/>
       <c r="Y32" s="48"/>
       <c r="Z32" s="71"/>
@@ -8791,8 +8898,8 @@
       <c r="AB32" s="48"/>
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
-      <c r="AE32" s="48"/>
-      <c r="AF32" s="48"/>
+      <c r="AE32" s="312"/>
+      <c r="AF32" s="312"/>
       <c r="AG32" s="71"/>
       <c r="AH32" s="71"/>
       <c r="AI32" s="48"/>
@@ -8806,21 +8913,21 @@
       <c r="AQ32" s="48"/>
       <c r="AR32" s="48"/>
       <c r="AS32" s="48"/>
-      <c r="AT32" s="145"/>
+      <c r="AT32" s="143"/>
       <c r="AU32" s="71"/>
       <c r="AV32" s="71"/>
       <c r="AW32" s="48"/>
       <c r="AX32" s="48"/>
       <c r="AY32" s="48"/>
       <c r="AZ32" s="48"/>
-      <c r="BA32" s="145"/>
+      <c r="BA32" s="143"/>
       <c r="BB32" s="71"/>
       <c r="BC32" s="71"/>
       <c r="BD32" s="48"/>
       <c r="BE32" s="48"/>
       <c r="BF32" s="48"/>
       <c r="BG32" s="48"/>
-      <c r="BH32" s="145"/>
+      <c r="BH32" s="143"/>
       <c r="BI32" s="71"/>
       <c r="BJ32" s="71"/>
       <c r="BK32" s="48"/>
@@ -8878,34 +8985,34 @@
       <c r="DK32" s="52"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="279"/>
-      <c r="C33" s="299"/>
+      <c r="B33" s="280"/>
+      <c r="C33" s="285"/>
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="170">
+      <c r="F33" s="168">
         <v>40357</v>
       </c>
-      <c r="G33" s="210"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="211"/>
-      <c r="J33" s="211"/>
-      <c r="K33" s="211"/>
-      <c r="L33" s="225"/>
-      <c r="M33" s="225"/>
-      <c r="N33" s="211"/>
-      <c r="O33" s="211"/>
-      <c r="P33" s="211"/>
-      <c r="Q33" s="200"/>
-      <c r="R33" s="211"/>
-      <c r="S33" s="225"/>
-      <c r="T33" s="225"/>
-      <c r="U33" s="211"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="48"/>
+      <c r="G33" s="208"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="209"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="223"/>
+      <c r="M33" s="223"/>
+      <c r="N33" s="209"/>
+      <c r="O33" s="209"/>
+      <c r="P33" s="209"/>
+      <c r="Q33" s="198"/>
+      <c r="R33" s="209"/>
+      <c r="S33" s="223"/>
+      <c r="T33" s="223"/>
+      <c r="U33" s="209"/>
+      <c r="V33" s="209"/>
+      <c r="W33" s="209"/>
       <c r="X33" s="48"/>
       <c r="Y33" s="48"/>
       <c r="Z33" s="71"/>
@@ -8913,8 +9020,8 @@
       <c r="AB33" s="48"/>
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
-      <c r="AE33" s="48"/>
-      <c r="AF33" s="48"/>
+      <c r="AE33" s="312"/>
+      <c r="AF33" s="312"/>
       <c r="AG33" s="71"/>
       <c r="AH33" s="71"/>
       <c r="AI33" s="48"/>
@@ -8928,21 +9035,21 @@
       <c r="AQ33" s="48"/>
       <c r="AR33" s="48"/>
       <c r="AS33" s="48"/>
-      <c r="AT33" s="145"/>
+      <c r="AT33" s="143"/>
       <c r="AU33" s="71"/>
       <c r="AV33" s="71"/>
       <c r="AW33" s="48"/>
       <c r="AX33" s="48"/>
       <c r="AY33" s="48"/>
       <c r="AZ33" s="48"/>
-      <c r="BA33" s="145"/>
+      <c r="BA33" s="143"/>
       <c r="BB33" s="71"/>
       <c r="BC33" s="71"/>
       <c r="BD33" s="48"/>
       <c r="BE33" s="48"/>
       <c r="BF33" s="48"/>
       <c r="BG33" s="48"/>
-      <c r="BH33" s="145"/>
+      <c r="BH33" s="143"/>
       <c r="BI33" s="71"/>
       <c r="BJ33" s="71"/>
       <c r="BK33" s="48"/>
@@ -9000,34 +9107,34 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="279"/>
-      <c r="C34" s="299"/>
+      <c r="B34" s="280"/>
+      <c r="C34" s="285"/>
       <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="170">
+      <c r="F34" s="168">
         <v>40357</v>
       </c>
-      <c r="G34" s="210"/>
-      <c r="H34" s="211"/>
-      <c r="I34" s="211"/>
-      <c r="J34" s="211"/>
-      <c r="K34" s="211"/>
-      <c r="L34" s="225"/>
-      <c r="M34" s="225"/>
-      <c r="N34" s="211"/>
-      <c r="O34" s="211"/>
-      <c r="P34" s="211"/>
-      <c r="Q34" s="211"/>
-      <c r="R34" s="211"/>
-      <c r="S34" s="225"/>
-      <c r="T34" s="225"/>
-      <c r="U34" s="200"/>
-      <c r="V34" s="121"/>
-      <c r="W34" s="48"/>
+      <c r="G34" s="208"/>
+      <c r="H34" s="209"/>
+      <c r="I34" s="209"/>
+      <c r="J34" s="209"/>
+      <c r="K34" s="209"/>
+      <c r="L34" s="223"/>
+      <c r="M34" s="223"/>
+      <c r="N34" s="209"/>
+      <c r="O34" s="209"/>
+      <c r="P34" s="209"/>
+      <c r="Q34" s="209"/>
+      <c r="R34" s="209"/>
+      <c r="S34" s="223"/>
+      <c r="T34" s="223"/>
+      <c r="U34" s="198"/>
+      <c r="V34" s="198"/>
+      <c r="W34" s="209"/>
       <c r="X34" s="48"/>
       <c r="Y34" s="48"/>
       <c r="Z34" s="71"/>
@@ -9035,8 +9142,8 @@
       <c r="AB34" s="48"/>
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
+      <c r="AE34" s="312"/>
+      <c r="AF34" s="312"/>
       <c r="AG34" s="71"/>
       <c r="AH34" s="71"/>
       <c r="AI34" s="48"/>
@@ -9050,21 +9157,21 @@
       <c r="AQ34" s="48"/>
       <c r="AR34" s="48"/>
       <c r="AS34" s="48"/>
-      <c r="AT34" s="145"/>
+      <c r="AT34" s="143"/>
       <c r="AU34" s="71"/>
       <c r="AV34" s="71"/>
       <c r="AW34" s="48"/>
       <c r="AX34" s="48"/>
       <c r="AY34" s="48"/>
       <c r="AZ34" s="48"/>
-      <c r="BA34" s="145"/>
+      <c r="BA34" s="143"/>
       <c r="BB34" s="71"/>
       <c r="BC34" s="71"/>
       <c r="BD34" s="48"/>
       <c r="BE34" s="48"/>
       <c r="BF34" s="48"/>
       <c r="BG34" s="48"/>
-      <c r="BH34" s="145"/>
+      <c r="BH34" s="143"/>
       <c r="BI34" s="71"/>
       <c r="BJ34" s="71"/>
       <c r="BK34" s="48"/>
@@ -9122,43 +9229,43 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="279"/>
-      <c r="C35" s="299"/>
+      <c r="B35" s="280"/>
+      <c r="C35" s="285"/>
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="170">
+      <c r="F35" s="168">
         <v>40360</v>
       </c>
-      <c r="G35" s="210"/>
-      <c r="H35" s="211"/>
-      <c r="I35" s="211"/>
-      <c r="J35" s="211"/>
-      <c r="K35" s="211"/>
-      <c r="L35" s="225"/>
-      <c r="M35" s="225"/>
-      <c r="N35" s="211"/>
-      <c r="O35" s="211"/>
-      <c r="P35" s="211"/>
-      <c r="Q35" s="211"/>
-      <c r="R35" s="211"/>
-      <c r="S35" s="225"/>
-      <c r="T35" s="225"/>
-      <c r="U35" s="211"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="121"/>
+      <c r="G35" s="208"/>
+      <c r="H35" s="209"/>
+      <c r="I35" s="209"/>
+      <c r="J35" s="209"/>
+      <c r="K35" s="209"/>
+      <c r="L35" s="223"/>
+      <c r="M35" s="223"/>
+      <c r="N35" s="209"/>
+      <c r="O35" s="209"/>
+      <c r="P35" s="209"/>
+      <c r="Q35" s="209"/>
+      <c r="R35" s="209"/>
+      <c r="S35" s="223"/>
+      <c r="T35" s="223"/>
+      <c r="U35" s="209"/>
+      <c r="V35" s="209"/>
+      <c r="W35" s="209"/>
+      <c r="X35" s="119"/>
       <c r="Y35" s="48"/>
       <c r="Z35" s="71"/>
       <c r="AA35" s="71"/>
       <c r="AB35" s="48"/>
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
+      <c r="AE35" s="312"/>
+      <c r="AF35" s="312"/>
       <c r="AG35" s="71"/>
       <c r="AH35" s="71"/>
       <c r="AI35" s="48"/>
@@ -9172,21 +9279,21 @@
       <c r="AQ35" s="48"/>
       <c r="AR35" s="48"/>
       <c r="AS35" s="48"/>
-      <c r="AT35" s="145"/>
+      <c r="AT35" s="143"/>
       <c r="AU35" s="71"/>
       <c r="AV35" s="71"/>
       <c r="AW35" s="48"/>
       <c r="AX35" s="48"/>
       <c r="AY35" s="48"/>
       <c r="AZ35" s="48"/>
-      <c r="BA35" s="145"/>
+      <c r="BA35" s="143"/>
       <c r="BB35" s="71"/>
       <c r="BC35" s="71"/>
       <c r="BD35" s="48"/>
       <c r="BE35" s="48"/>
       <c r="BF35" s="48"/>
       <c r="BG35" s="48"/>
-      <c r="BH35" s="145"/>
+      <c r="BH35" s="143"/>
       <c r="BI35" s="71"/>
       <c r="BJ35" s="71"/>
       <c r="BK35" s="48"/>
@@ -9244,43 +9351,43 @@
       <c r="DK35" s="52"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="279"/>
-      <c r="C36" s="299"/>
+      <c r="B36" s="280"/>
+      <c r="C36" s="285"/>
       <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="170">
+      <c r="F36" s="168">
         <v>40361</v>
       </c>
-      <c r="G36" s="210"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="211"/>
-      <c r="J36" s="211"/>
-      <c r="K36" s="211"/>
-      <c r="L36" s="225"/>
-      <c r="M36" s="225"/>
-      <c r="N36" s="211"/>
-      <c r="O36" s="211"/>
-      <c r="P36" s="211"/>
-      <c r="Q36" s="211"/>
-      <c r="R36" s="211"/>
-      <c r="S36" s="225"/>
-      <c r="T36" s="225"/>
-      <c r="U36" s="211"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="121"/>
-      <c r="X36" s="121"/>
-      <c r="Y36" s="121"/>
+      <c r="G36" s="208"/>
+      <c r="H36" s="209"/>
+      <c r="I36" s="209"/>
+      <c r="J36" s="209"/>
+      <c r="K36" s="209"/>
+      <c r="L36" s="223"/>
+      <c r="M36" s="223"/>
+      <c r="N36" s="209"/>
+      <c r="O36" s="209"/>
+      <c r="P36" s="209"/>
+      <c r="Q36" s="209"/>
+      <c r="R36" s="209"/>
+      <c r="S36" s="223"/>
+      <c r="T36" s="223"/>
+      <c r="U36" s="209"/>
+      <c r="V36" s="209"/>
+      <c r="W36" s="198"/>
+      <c r="X36" s="119"/>
+      <c r="Y36" s="119"/>
       <c r="Z36" s="71"/>
       <c r="AA36" s="71"/>
       <c r="AB36" s="48"/>
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="48"/>
+      <c r="AE36" s="312"/>
+      <c r="AF36" s="312"/>
       <c r="AG36" s="71"/>
       <c r="AH36" s="71"/>
       <c r="AI36" s="48"/>
@@ -9294,21 +9401,21 @@
       <c r="AQ36" s="48"/>
       <c r="AR36" s="48"/>
       <c r="AS36" s="48"/>
-      <c r="AT36" s="145"/>
+      <c r="AT36" s="143"/>
       <c r="AU36" s="71"/>
       <c r="AV36" s="71"/>
       <c r="AW36" s="48"/>
       <c r="AX36" s="48"/>
       <c r="AY36" s="48"/>
       <c r="AZ36" s="48"/>
-      <c r="BA36" s="145"/>
+      <c r="BA36" s="143"/>
       <c r="BB36" s="71"/>
       <c r="BC36" s="71"/>
       <c r="BD36" s="48"/>
       <c r="BE36" s="48"/>
       <c r="BF36" s="48"/>
       <c r="BG36" s="48"/>
-      <c r="BH36" s="145"/>
+      <c r="BH36" s="143"/>
       <c r="BI36" s="71"/>
       <c r="BJ36" s="71"/>
       <c r="BK36" s="48"/>
@@ -9366,34 +9473,34 @@
       <c r="DK36" s="52"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="279"/>
-      <c r="C37" s="299"/>
+      <c r="B37" s="280"/>
+      <c r="C37" s="285"/>
       <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F37" s="170">
+      <c r="F37" s="168">
         <v>40350</v>
       </c>
-      <c r="G37" s="210"/>
-      <c r="H37" s="211"/>
-      <c r="I37" s="211"/>
-      <c r="J37" s="211"/>
-      <c r="K37" s="211"/>
-      <c r="L37" s="225"/>
-      <c r="M37" s="225"/>
-      <c r="N37" s="211"/>
-      <c r="O37" s="211"/>
-      <c r="P37" s="211"/>
-      <c r="Q37" s="211"/>
-      <c r="R37" s="211"/>
-      <c r="S37" s="225"/>
-      <c r="T37" s="225"/>
-      <c r="U37" s="200"/>
-      <c r="V37" s="121"/>
-      <c r="W37" s="121"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="209"/>
+      <c r="I37" s="209"/>
+      <c r="J37" s="209"/>
+      <c r="K37" s="209"/>
+      <c r="L37" s="223"/>
+      <c r="M37" s="223"/>
+      <c r="N37" s="209"/>
+      <c r="O37" s="209"/>
+      <c r="P37" s="209"/>
+      <c r="Q37" s="209"/>
+      <c r="R37" s="209"/>
+      <c r="S37" s="223"/>
+      <c r="T37" s="223"/>
+      <c r="U37" s="198"/>
+      <c r="V37" s="198"/>
+      <c r="W37" s="198"/>
       <c r="X37" s="48"/>
       <c r="Y37" s="48"/>
       <c r="Z37" s="71"/>
@@ -9401,8 +9508,8 @@
       <c r="AB37" s="48"/>
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
+      <c r="AE37" s="312"/>
+      <c r="AF37" s="312"/>
       <c r="AG37" s="71"/>
       <c r="AH37" s="71"/>
       <c r="AI37" s="48"/>
@@ -9416,21 +9523,21 @@
       <c r="AQ37" s="48"/>
       <c r="AR37" s="48"/>
       <c r="AS37" s="48"/>
-      <c r="AT37" s="145"/>
+      <c r="AT37" s="143"/>
       <c r="AU37" s="71"/>
       <c r="AV37" s="71"/>
       <c r="AW37" s="48"/>
       <c r="AX37" s="48"/>
       <c r="AY37" s="48"/>
       <c r="AZ37" s="48"/>
-      <c r="BA37" s="145"/>
+      <c r="BA37" s="143"/>
       <c r="BB37" s="71"/>
       <c r="BC37" s="71"/>
       <c r="BD37" s="48"/>
       <c r="BE37" s="48"/>
       <c r="BF37" s="48"/>
       <c r="BG37" s="48"/>
-      <c r="BH37" s="145"/>
+      <c r="BH37" s="143"/>
       <c r="BI37" s="71"/>
       <c r="BJ37" s="71"/>
       <c r="BK37" s="48"/>
@@ -9488,34 +9595,34 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="279"/>
-      <c r="C38" s="299"/>
+      <c r="B38" s="280"/>
+      <c r="C38" s="285"/>
       <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="170">
+      <c r="F38" s="168">
         <v>40353</v>
       </c>
-      <c r="G38" s="210"/>
-      <c r="H38" s="211"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="211"/>
-      <c r="K38" s="211"/>
-      <c r="L38" s="225"/>
-      <c r="M38" s="225"/>
-      <c r="N38" s="211"/>
-      <c r="O38" s="211"/>
-      <c r="P38" s="200"/>
-      <c r="Q38" s="200"/>
-      <c r="R38" s="211"/>
-      <c r="S38" s="225"/>
-      <c r="T38" s="225"/>
-      <c r="U38" s="211"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="48"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="209"/>
+      <c r="I38" s="209"/>
+      <c r="J38" s="209"/>
+      <c r="K38" s="209"/>
+      <c r="L38" s="223"/>
+      <c r="M38" s="223"/>
+      <c r="N38" s="209"/>
+      <c r="O38" s="209"/>
+      <c r="P38" s="198"/>
+      <c r="Q38" s="198"/>
+      <c r="R38" s="209"/>
+      <c r="S38" s="223"/>
+      <c r="T38" s="223"/>
+      <c r="U38" s="209"/>
+      <c r="V38" s="209"/>
+      <c r="W38" s="209"/>
       <c r="X38" s="48"/>
       <c r="Y38" s="48"/>
       <c r="Z38" s="71"/>
@@ -9523,8 +9630,8 @@
       <c r="AB38" s="48"/>
       <c r="AC38" s="48"/>
       <c r="AD38" s="48"/>
-      <c r="AE38" s="48"/>
-      <c r="AF38" s="48"/>
+      <c r="AE38" s="312"/>
+      <c r="AF38" s="312"/>
       <c r="AG38" s="71"/>
       <c r="AH38" s="71"/>
       <c r="AI38" s="48"/>
@@ -9538,21 +9645,21 @@
       <c r="AQ38" s="48"/>
       <c r="AR38" s="48"/>
       <c r="AS38" s="48"/>
-      <c r="AT38" s="145"/>
+      <c r="AT38" s="143"/>
       <c r="AU38" s="71"/>
       <c r="AV38" s="71"/>
       <c r="AW38" s="48"/>
       <c r="AX38" s="48"/>
       <c r="AY38" s="48"/>
       <c r="AZ38" s="48"/>
-      <c r="BA38" s="145"/>
+      <c r="BA38" s="143"/>
       <c r="BB38" s="71"/>
       <c r="BC38" s="71"/>
       <c r="BD38" s="48"/>
       <c r="BE38" s="48"/>
       <c r="BF38" s="48"/>
       <c r="BG38" s="48"/>
-      <c r="BH38" s="145"/>
+      <c r="BH38" s="143"/>
       <c r="BI38" s="71"/>
       <c r="BJ38" s="71"/>
       <c r="BK38" s="48"/>
@@ -9610,34 +9717,34 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="279"/>
-      <c r="C39" s="299"/>
+      <c r="B39" s="280"/>
+      <c r="C39" s="285"/>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="170">
+      <c r="F39" s="168">
         <v>40352</v>
       </c>
-      <c r="G39" s="210"/>
-      <c r="H39" s="211"/>
-      <c r="I39" s="211"/>
-      <c r="J39" s="211"/>
-      <c r="K39" s="211"/>
-      <c r="L39" s="225"/>
-      <c r="M39" s="225"/>
-      <c r="N39" s="211"/>
-      <c r="O39" s="200"/>
-      <c r="P39" s="200"/>
-      <c r="Q39" s="211"/>
-      <c r="R39" s="211"/>
-      <c r="S39" s="225"/>
-      <c r="T39" s="225"/>
-      <c r="U39" s="211"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="48"/>
+      <c r="G39" s="208"/>
+      <c r="H39" s="209"/>
+      <c r="I39" s="209"/>
+      <c r="J39" s="209"/>
+      <c r="K39" s="209"/>
+      <c r="L39" s="223"/>
+      <c r="M39" s="223"/>
+      <c r="N39" s="209"/>
+      <c r="O39" s="198"/>
+      <c r="P39" s="198"/>
+      <c r="Q39" s="209"/>
+      <c r="R39" s="209"/>
+      <c r="S39" s="223"/>
+      <c r="T39" s="223"/>
+      <c r="U39" s="209"/>
+      <c r="V39" s="209"/>
+      <c r="W39" s="209"/>
       <c r="X39" s="48"/>
       <c r="Y39" s="48"/>
       <c r="Z39" s="71"/>
@@ -9645,8 +9752,8 @@
       <c r="AB39" s="48"/>
       <c r="AC39" s="48"/>
       <c r="AD39" s="48"/>
-      <c r="AE39" s="48"/>
-      <c r="AF39" s="48"/>
+      <c r="AE39" s="312"/>
+      <c r="AF39" s="312"/>
       <c r="AG39" s="71"/>
       <c r="AH39" s="71"/>
       <c r="AI39" s="48"/>
@@ -9660,21 +9767,21 @@
       <c r="AQ39" s="48"/>
       <c r="AR39" s="48"/>
       <c r="AS39" s="48"/>
-      <c r="AT39" s="145"/>
+      <c r="AT39" s="143"/>
       <c r="AU39" s="71"/>
       <c r="AV39" s="71"/>
       <c r="AW39" s="48"/>
       <c r="AX39" s="48"/>
       <c r="AY39" s="48"/>
       <c r="AZ39" s="48"/>
-      <c r="BA39" s="145"/>
+      <c r="BA39" s="143"/>
       <c r="BB39" s="71"/>
       <c r="BC39" s="71"/>
       <c r="BD39" s="48"/>
       <c r="BE39" s="48"/>
       <c r="BF39" s="48"/>
       <c r="BG39" s="48"/>
-      <c r="BH39" s="145"/>
+      <c r="BH39" s="143"/>
       <c r="BI39" s="71"/>
       <c r="BJ39" s="71"/>
       <c r="BK39" s="48"/>
@@ -9732,34 +9839,34 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="279"/>
-      <c r="C40" s="299"/>
+      <c r="B40" s="280"/>
+      <c r="C40" s="285"/>
       <c r="D40" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="170">
+      <c r="F40" s="168">
         <v>40358</v>
       </c>
-      <c r="G40" s="210"/>
-      <c r="H40" s="211"/>
-      <c r="I40" s="211"/>
-      <c r="J40" s="211"/>
-      <c r="K40" s="211"/>
-      <c r="L40" s="225"/>
-      <c r="M40" s="225"/>
-      <c r="N40" s="211"/>
-      <c r="O40" s="211"/>
-      <c r="P40" s="211"/>
-      <c r="Q40" s="211"/>
-      <c r="R40" s="211"/>
-      <c r="S40" s="225"/>
-      <c r="T40" s="225"/>
-      <c r="U40" s="200"/>
-      <c r="V40" s="121"/>
-      <c r="W40" s="48"/>
+      <c r="G40" s="208"/>
+      <c r="H40" s="209"/>
+      <c r="I40" s="209"/>
+      <c r="J40" s="209"/>
+      <c r="K40" s="209"/>
+      <c r="L40" s="223"/>
+      <c r="M40" s="223"/>
+      <c r="N40" s="209"/>
+      <c r="O40" s="209"/>
+      <c r="P40" s="209"/>
+      <c r="Q40" s="209"/>
+      <c r="R40" s="209"/>
+      <c r="S40" s="223"/>
+      <c r="T40" s="223"/>
+      <c r="U40" s="198"/>
+      <c r="V40" s="198"/>
+      <c r="W40" s="209"/>
       <c r="X40" s="48"/>
       <c r="Y40" s="48"/>
       <c r="Z40" s="71"/>
@@ -9767,8 +9874,8 @@
       <c r="AB40" s="48"/>
       <c r="AC40" s="48"/>
       <c r="AD40" s="48"/>
-      <c r="AE40" s="48"/>
-      <c r="AF40" s="48"/>
+      <c r="AE40" s="312"/>
+      <c r="AF40" s="312"/>
       <c r="AG40" s="71"/>
       <c r="AH40" s="71"/>
       <c r="AI40" s="48"/>
@@ -9782,21 +9889,21 @@
       <c r="AQ40" s="48"/>
       <c r="AR40" s="48"/>
       <c r="AS40" s="48"/>
-      <c r="AT40" s="145"/>
+      <c r="AT40" s="143"/>
       <c r="AU40" s="71"/>
       <c r="AV40" s="71"/>
       <c r="AW40" s="48"/>
       <c r="AX40" s="48"/>
       <c r="AY40" s="48"/>
       <c r="AZ40" s="48"/>
-      <c r="BA40" s="145"/>
+      <c r="BA40" s="143"/>
       <c r="BB40" s="71"/>
       <c r="BC40" s="71"/>
       <c r="BD40" s="48"/>
       <c r="BE40" s="48"/>
       <c r="BF40" s="48"/>
       <c r="BG40" s="48"/>
-      <c r="BH40" s="145"/>
+      <c r="BH40" s="143"/>
       <c r="BI40" s="71"/>
       <c r="BJ40" s="71"/>
       <c r="BK40" s="48"/>
@@ -9854,34 +9961,34 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="279"/>
-      <c r="C41" s="299"/>
+      <c r="B41" s="280"/>
+      <c r="C41" s="285"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="170">
+      <c r="F41" s="168">
         <v>40359</v>
       </c>
-      <c r="G41" s="210"/>
-      <c r="H41" s="211"/>
-      <c r="I41" s="211"/>
-      <c r="J41" s="211"/>
-      <c r="K41" s="211"/>
-      <c r="L41" s="225"/>
-      <c r="M41" s="225"/>
-      <c r="N41" s="211"/>
-      <c r="O41" s="211"/>
-      <c r="P41" s="211"/>
-      <c r="Q41" s="211"/>
-      <c r="R41" s="211"/>
-      <c r="S41" s="225"/>
-      <c r="T41" s="225"/>
-      <c r="U41" s="211"/>
-      <c r="V41" s="121"/>
-      <c r="W41" s="121"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="209"/>
+      <c r="I41" s="209"/>
+      <c r="J41" s="209"/>
+      <c r="K41" s="209"/>
+      <c r="L41" s="223"/>
+      <c r="M41" s="223"/>
+      <c r="N41" s="209"/>
+      <c r="O41" s="209"/>
+      <c r="P41" s="209"/>
+      <c r="Q41" s="209"/>
+      <c r="R41" s="209"/>
+      <c r="S41" s="223"/>
+      <c r="T41" s="223"/>
+      <c r="U41" s="209"/>
+      <c r="V41" s="198"/>
+      <c r="W41" s="198"/>
       <c r="X41" s="48"/>
       <c r="Y41" s="48"/>
       <c r="Z41" s="71"/>
@@ -9889,8 +9996,8 @@
       <c r="AB41" s="48"/>
       <c r="AC41" s="48"/>
       <c r="AD41" s="48"/>
-      <c r="AE41" s="48"/>
-      <c r="AF41" s="48"/>
+      <c r="AE41" s="312"/>
+      <c r="AF41" s="312"/>
       <c r="AG41" s="71"/>
       <c r="AH41" s="71"/>
       <c r="AI41" s="48"/>
@@ -9904,21 +10011,21 @@
       <c r="AQ41" s="48"/>
       <c r="AR41" s="48"/>
       <c r="AS41" s="48"/>
-      <c r="AT41" s="145"/>
+      <c r="AT41" s="143"/>
       <c r="AU41" s="71"/>
       <c r="AV41" s="71"/>
       <c r="AW41" s="48"/>
       <c r="AX41" s="48"/>
       <c r="AY41" s="48"/>
       <c r="AZ41" s="48"/>
-      <c r="BA41" s="145"/>
+      <c r="BA41" s="143"/>
       <c r="BB41" s="71"/>
       <c r="BC41" s="71"/>
       <c r="BD41" s="48"/>
       <c r="BE41" s="48"/>
       <c r="BF41" s="48"/>
       <c r="BG41" s="48"/>
-      <c r="BH41" s="145"/>
+      <c r="BH41" s="143"/>
       <c r="BI41" s="71"/>
       <c r="BJ41" s="71"/>
       <c r="BK41" s="48"/>
@@ -9976,43 +10083,43 @@
       <c r="DK41" s="52"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="279"/>
-      <c r="C42" s="299"/>
+      <c r="B42" s="280"/>
+      <c r="C42" s="285"/>
       <c r="D42" s="5" t="s">
         <v>78</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="170">
+      <c r="F42" s="168">
         <v>40360</v>
       </c>
-      <c r="G42" s="210"/>
-      <c r="H42" s="211"/>
-      <c r="I42" s="211"/>
-      <c r="J42" s="211"/>
-      <c r="K42" s="211"/>
-      <c r="L42" s="225"/>
-      <c r="M42" s="225"/>
-      <c r="N42" s="211"/>
-      <c r="O42" s="211"/>
-      <c r="P42" s="211"/>
-      <c r="Q42" s="211"/>
-      <c r="R42" s="211"/>
-      <c r="S42" s="225"/>
-      <c r="T42" s="225"/>
-      <c r="U42" s="211"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="121"/>
-      <c r="X42" s="121"/>
+      <c r="G42" s="208"/>
+      <c r="H42" s="209"/>
+      <c r="I42" s="209"/>
+      <c r="J42" s="209"/>
+      <c r="K42" s="209"/>
+      <c r="L42" s="223"/>
+      <c r="M42" s="223"/>
+      <c r="N42" s="209"/>
+      <c r="O42" s="209"/>
+      <c r="P42" s="209"/>
+      <c r="Q42" s="209"/>
+      <c r="R42" s="209"/>
+      <c r="S42" s="223"/>
+      <c r="T42" s="223"/>
+      <c r="U42" s="209"/>
+      <c r="V42" s="209"/>
+      <c r="W42" s="198"/>
+      <c r="X42" s="119"/>
       <c r="Y42" s="48"/>
       <c r="Z42" s="71"/>
       <c r="AA42" s="71"/>
       <c r="AB42" s="48"/>
       <c r="AC42" s="48"/>
       <c r="AD42" s="48"/>
-      <c r="AE42" s="48"/>
-      <c r="AF42" s="48"/>
+      <c r="AE42" s="312"/>
+      <c r="AF42" s="312"/>
       <c r="AG42" s="71"/>
       <c r="AH42" s="71"/>
       <c r="AI42" s="48"/>
@@ -10026,21 +10133,21 @@
       <c r="AQ42" s="48"/>
       <c r="AR42" s="48"/>
       <c r="AS42" s="48"/>
-      <c r="AT42" s="145"/>
+      <c r="AT42" s="143"/>
       <c r="AU42" s="71"/>
       <c r="AV42" s="71"/>
       <c r="AW42" s="48"/>
       <c r="AX42" s="48"/>
       <c r="AY42" s="48"/>
       <c r="AZ42" s="48"/>
-      <c r="BA42" s="145"/>
+      <c r="BA42" s="143"/>
       <c r="BB42" s="71"/>
       <c r="BC42" s="71"/>
       <c r="BD42" s="48"/>
       <c r="BE42" s="48"/>
       <c r="BF42" s="48"/>
       <c r="BG42" s="48"/>
-      <c r="BH42" s="145"/>
+      <c r="BH42" s="143"/>
       <c r="BI42" s="71"/>
       <c r="BJ42" s="71"/>
       <c r="BK42" s="48"/>
@@ -10098,34 +10205,34 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="279"/>
-      <c r="C43" s="299"/>
+      <c r="B43" s="280"/>
+      <c r="C43" s="285"/>
       <c r="D43" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="170">
+      <c r="F43" s="168">
         <v>40358</v>
       </c>
-      <c r="G43" s="210"/>
-      <c r="H43" s="211"/>
-      <c r="I43" s="211"/>
-      <c r="J43" s="211"/>
-      <c r="K43" s="211"/>
-      <c r="L43" s="225"/>
-      <c r="M43" s="225"/>
-      <c r="N43" s="211"/>
-      <c r="O43" s="211"/>
-      <c r="P43" s="211"/>
-      <c r="Q43" s="211"/>
-      <c r="R43" s="200"/>
-      <c r="S43" s="225"/>
-      <c r="T43" s="225"/>
-      <c r="U43" s="200"/>
-      <c r="V43" s="121"/>
-      <c r="W43" s="48"/>
+      <c r="G43" s="208"/>
+      <c r="H43" s="209"/>
+      <c r="I43" s="209"/>
+      <c r="J43" s="209"/>
+      <c r="K43" s="209"/>
+      <c r="L43" s="223"/>
+      <c r="M43" s="223"/>
+      <c r="N43" s="209"/>
+      <c r="O43" s="209"/>
+      <c r="P43" s="209"/>
+      <c r="Q43" s="209"/>
+      <c r="R43" s="198"/>
+      <c r="S43" s="223"/>
+      <c r="T43" s="223"/>
+      <c r="U43" s="198"/>
+      <c r="V43" s="198"/>
+      <c r="W43" s="209"/>
       <c r="X43" s="48"/>
       <c r="Y43" s="48"/>
       <c r="Z43" s="71"/>
@@ -10133,8 +10240,8 @@
       <c r="AB43" s="48"/>
       <c r="AC43" s="48"/>
       <c r="AD43" s="48"/>
-      <c r="AE43" s="48"/>
-      <c r="AF43" s="48"/>
+      <c r="AE43" s="312"/>
+      <c r="AF43" s="312"/>
       <c r="AG43" s="71"/>
       <c r="AH43" s="71"/>
       <c r="AI43" s="48"/>
@@ -10148,21 +10255,21 @@
       <c r="AQ43" s="48"/>
       <c r="AR43" s="48"/>
       <c r="AS43" s="48"/>
-      <c r="AT43" s="145"/>
+      <c r="AT43" s="143"/>
       <c r="AU43" s="71"/>
       <c r="AV43" s="71"/>
       <c r="AW43" s="48"/>
       <c r="AX43" s="48"/>
       <c r="AY43" s="48"/>
       <c r="AZ43" s="48"/>
-      <c r="BA43" s="145"/>
+      <c r="BA43" s="143"/>
       <c r="BB43" s="71"/>
       <c r="BC43" s="71"/>
       <c r="BD43" s="48"/>
       <c r="BE43" s="48"/>
       <c r="BF43" s="48"/>
       <c r="BG43" s="48"/>
-      <c r="BH43" s="145"/>
+      <c r="BH43" s="143"/>
       <c r="BI43" s="71"/>
       <c r="BJ43" s="71"/>
       <c r="BK43" s="48"/>
@@ -10220,28 +10327,28 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="279"/>
-      <c r="C44" s="299"/>
+      <c r="B44" s="280"/>
+      <c r="C44" s="285"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="75"/>
-      <c r="G44" s="210"/>
-      <c r="H44" s="211"/>
-      <c r="I44" s="211"/>
-      <c r="J44" s="211"/>
-      <c r="K44" s="211"/>
-      <c r="L44" s="225"/>
-      <c r="M44" s="225"/>
-      <c r="N44" s="211"/>
-      <c r="O44" s="211"/>
-      <c r="P44" s="211"/>
-      <c r="Q44" s="211"/>
-      <c r="R44" s="211"/>
-      <c r="S44" s="225"/>
-      <c r="T44" s="225"/>
-      <c r="U44" s="211"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
+      <c r="G44" s="208"/>
+      <c r="H44" s="209"/>
+      <c r="I44" s="209"/>
+      <c r="J44" s="209"/>
+      <c r="K44" s="209"/>
+      <c r="L44" s="223"/>
+      <c r="M44" s="223"/>
+      <c r="N44" s="209"/>
+      <c r="O44" s="209"/>
+      <c r="P44" s="209"/>
+      <c r="Q44" s="209"/>
+      <c r="R44" s="209"/>
+      <c r="S44" s="223"/>
+      <c r="T44" s="223"/>
+      <c r="U44" s="209"/>
+      <c r="V44" s="209"/>
+      <c r="W44" s="209"/>
       <c r="X44" s="48"/>
       <c r="Y44" s="48"/>
       <c r="Z44" s="71"/>
@@ -10249,8 +10356,8 @@
       <c r="AB44" s="48"/>
       <c r="AC44" s="48"/>
       <c r="AD44" s="48"/>
-      <c r="AE44" s="48"/>
-      <c r="AF44" s="48"/>
+      <c r="AE44" s="312"/>
+      <c r="AF44" s="312"/>
       <c r="AG44" s="71"/>
       <c r="AH44" s="71"/>
       <c r="AI44" s="48"/>
@@ -10264,21 +10371,21 @@
       <c r="AQ44" s="48"/>
       <c r="AR44" s="48"/>
       <c r="AS44" s="48"/>
-      <c r="AT44" s="145"/>
+      <c r="AT44" s="143"/>
       <c r="AU44" s="71"/>
       <c r="AV44" s="71"/>
       <c r="AW44" s="48"/>
       <c r="AX44" s="48"/>
       <c r="AY44" s="48"/>
       <c r="AZ44" s="48"/>
-      <c r="BA44" s="145"/>
+      <c r="BA44" s="143"/>
       <c r="BB44" s="71"/>
       <c r="BC44" s="71"/>
       <c r="BD44" s="48"/>
       <c r="BE44" s="48"/>
       <c r="BF44" s="48"/>
       <c r="BG44" s="48"/>
-      <c r="BH44" s="145"/>
+      <c r="BH44" s="143"/>
       <c r="BI44" s="71"/>
       <c r="BJ44" s="71"/>
       <c r="BK44" s="48"/>
@@ -10336,28 +10443,28 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="279"/>
-      <c r="C45" s="299"/>
+      <c r="B45" s="280"/>
+      <c r="C45" s="285"/>
       <c r="D45" s="10"/>
       <c r="E45" s="11"/>
       <c r="F45" s="78"/>
-      <c r="G45" s="226"/>
-      <c r="H45" s="227"/>
-      <c r="I45" s="228"/>
-      <c r="J45" s="227"/>
-      <c r="K45" s="227"/>
-      <c r="L45" s="229"/>
-      <c r="M45" s="229"/>
-      <c r="N45" s="227"/>
-      <c r="O45" s="227"/>
-      <c r="P45" s="227"/>
-      <c r="Q45" s="227"/>
-      <c r="R45" s="227"/>
-      <c r="S45" s="229"/>
-      <c r="T45" s="229"/>
-      <c r="U45" s="227"/>
-      <c r="V45" s="57"/>
-      <c r="W45" s="57"/>
+      <c r="G45" s="224"/>
+      <c r="H45" s="225"/>
+      <c r="I45" s="226"/>
+      <c r="J45" s="225"/>
+      <c r="K45" s="225"/>
+      <c r="L45" s="227"/>
+      <c r="M45" s="227"/>
+      <c r="N45" s="225"/>
+      <c r="O45" s="225"/>
+      <c r="P45" s="225"/>
+      <c r="Q45" s="225"/>
+      <c r="R45" s="225"/>
+      <c r="S45" s="227"/>
+      <c r="T45" s="227"/>
+      <c r="U45" s="225"/>
+      <c r="V45" s="225"/>
+      <c r="W45" s="225"/>
       <c r="X45" s="57"/>
       <c r="Y45" s="57"/>
       <c r="Z45" s="73"/>
@@ -10365,8 +10472,8 @@
       <c r="AB45" s="57"/>
       <c r="AC45" s="57"/>
       <c r="AD45" s="57"/>
-      <c r="AE45" s="57"/>
-      <c r="AF45" s="57"/>
+      <c r="AE45" s="314"/>
+      <c r="AF45" s="314"/>
       <c r="AG45" s="73"/>
       <c r="AH45" s="73"/>
       <c r="AI45" s="57"/>
@@ -10380,21 +10487,21 @@
       <c r="AQ45" s="57"/>
       <c r="AR45" s="57"/>
       <c r="AS45" s="57"/>
-      <c r="AT45" s="147"/>
+      <c r="AT45" s="145"/>
       <c r="AU45" s="73"/>
       <c r="AV45" s="73"/>
       <c r="AW45" s="57"/>
       <c r="AX45" s="57"/>
       <c r="AY45" s="57"/>
       <c r="AZ45" s="57"/>
-      <c r="BA45" s="147"/>
+      <c r="BA45" s="145"/>
       <c r="BB45" s="73"/>
       <c r="BC45" s="73"/>
       <c r="BD45" s="57"/>
       <c r="BE45" s="57"/>
       <c r="BF45" s="57"/>
       <c r="BG45" s="57"/>
-      <c r="BH45" s="147"/>
+      <c r="BH45" s="145"/>
       <c r="BI45" s="73"/>
       <c r="BJ45" s="73"/>
       <c r="BK45" s="57"/>
@@ -10452,8 +10559,8 @@
       <c r="DK45" s="61"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="279"/>
-      <c r="C46" s="286" t="s">
+      <c r="B46" s="280"/>
+      <c r="C46" s="278" t="s">
         <v>16</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -10462,26 +10569,26 @@
       <c r="E46" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F46" s="170">
+      <c r="F46" s="168">
         <v>40354</v>
       </c>
-      <c r="G46" s="230"/>
-      <c r="H46" s="223"/>
-      <c r="I46" s="223"/>
-      <c r="J46" s="222"/>
-      <c r="K46" s="222"/>
-      <c r="L46" s="224"/>
-      <c r="M46" s="224"/>
-      <c r="N46" s="269"/>
-      <c r="O46" s="270"/>
-      <c r="P46" s="270"/>
-      <c r="Q46" s="270"/>
-      <c r="R46" s="270"/>
-      <c r="S46" s="277"/>
-      <c r="T46" s="224"/>
-      <c r="U46" s="301"/>
-      <c r="V46" s="273"/>
-      <c r="W46" s="62"/>
+      <c r="G46" s="228"/>
+      <c r="H46" s="221"/>
+      <c r="I46" s="221"/>
+      <c r="J46" s="220"/>
+      <c r="K46" s="220"/>
+      <c r="L46" s="222"/>
+      <c r="M46" s="222"/>
+      <c r="N46" s="267"/>
+      <c r="O46" s="268"/>
+      <c r="P46" s="268"/>
+      <c r="Q46" s="268"/>
+      <c r="R46" s="268"/>
+      <c r="S46" s="274"/>
+      <c r="T46" s="222"/>
+      <c r="U46" s="276"/>
+      <c r="V46" s="276"/>
+      <c r="W46" s="220"/>
       <c r="X46" s="62"/>
       <c r="Y46" s="62"/>
       <c r="Z46" s="72"/>
@@ -10489,8 +10596,8 @@
       <c r="AB46" s="62"/>
       <c r="AC46" s="62"/>
       <c r="AD46" s="62"/>
-      <c r="AE46" s="62"/>
-      <c r="AF46" s="62"/>
+      <c r="AE46" s="313"/>
+      <c r="AF46" s="313"/>
       <c r="AG46" s="72"/>
       <c r="AH46" s="72"/>
       <c r="AI46" s="62"/>
@@ -10504,21 +10611,21 @@
       <c r="AQ46" s="62"/>
       <c r="AR46" s="62"/>
       <c r="AS46" s="62"/>
-      <c r="AT46" s="146"/>
+      <c r="AT46" s="144"/>
       <c r="AU46" s="72"/>
       <c r="AV46" s="72"/>
       <c r="AW46" s="62"/>
       <c r="AX46" s="62"/>
       <c r="AY46" s="62"/>
       <c r="AZ46" s="62"/>
-      <c r="BA46" s="146"/>
+      <c r="BA46" s="144"/>
       <c r="BB46" s="72"/>
       <c r="BC46" s="72"/>
       <c r="BD46" s="62"/>
       <c r="BE46" s="62"/>
       <c r="BF46" s="62"/>
       <c r="BG46" s="62"/>
-      <c r="BH46" s="146"/>
+      <c r="BH46" s="144"/>
       <c r="BI46" s="72"/>
       <c r="BJ46" s="72"/>
       <c r="BK46" s="62"/>
@@ -10576,34 +10683,34 @@
       <c r="DK46" s="67"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="279"/>
-      <c r="C47" s="286"/>
+      <c r="B47" s="280"/>
+      <c r="C47" s="278"/>
       <c r="D47" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="170">
+      <c r="F47" s="168">
         <v>40358</v>
       </c>
-      <c r="G47" s="210"/>
-      <c r="H47" s="211"/>
-      <c r="I47" s="211"/>
-      <c r="J47" s="231"/>
-      <c r="K47" s="231"/>
-      <c r="L47" s="225"/>
-      <c r="M47" s="225"/>
-      <c r="N47" s="211"/>
-      <c r="O47" s="211"/>
-      <c r="P47" s="211"/>
-      <c r="Q47" s="211"/>
-      <c r="R47" s="211"/>
-      <c r="S47" s="225"/>
-      <c r="T47" s="225"/>
-      <c r="U47" s="270"/>
-      <c r="V47" s="98"/>
-      <c r="W47" s="48"/>
+      <c r="G47" s="208"/>
+      <c r="H47" s="209"/>
+      <c r="I47" s="209"/>
+      <c r="J47" s="229"/>
+      <c r="K47" s="229"/>
+      <c r="L47" s="223"/>
+      <c r="M47" s="223"/>
+      <c r="N47" s="209"/>
+      <c r="O47" s="209"/>
+      <c r="P47" s="209"/>
+      <c r="Q47" s="209"/>
+      <c r="R47" s="209"/>
+      <c r="S47" s="223"/>
+      <c r="T47" s="223"/>
+      <c r="U47" s="268"/>
+      <c r="V47" s="268"/>
+      <c r="W47" s="209"/>
       <c r="X47" s="48"/>
       <c r="Y47" s="48"/>
       <c r="Z47" s="71"/>
@@ -10611,8 +10718,8 @@
       <c r="AB47" s="48"/>
       <c r="AC47" s="48"/>
       <c r="AD47" s="48"/>
-      <c r="AE47" s="48"/>
-      <c r="AF47" s="48"/>
+      <c r="AE47" s="312"/>
+      <c r="AF47" s="312"/>
       <c r="AG47" s="71"/>
       <c r="AH47" s="71"/>
       <c r="AI47" s="48"/>
@@ -10626,21 +10733,21 @@
       <c r="AQ47" s="48"/>
       <c r="AR47" s="48"/>
       <c r="AS47" s="48"/>
-      <c r="AT47" s="145"/>
+      <c r="AT47" s="143"/>
       <c r="AU47" s="71"/>
       <c r="AV47" s="71"/>
       <c r="AW47" s="48"/>
       <c r="AX47" s="48"/>
       <c r="AY47" s="48"/>
       <c r="AZ47" s="48"/>
-      <c r="BA47" s="145"/>
+      <c r="BA47" s="143"/>
       <c r="BB47" s="71"/>
       <c r="BC47" s="71"/>
       <c r="BD47" s="48"/>
       <c r="BE47" s="48"/>
       <c r="BF47" s="48"/>
       <c r="BG47" s="48"/>
-      <c r="BH47" s="145"/>
+      <c r="BH47" s="143"/>
       <c r="BI47" s="71"/>
       <c r="BJ47" s="71"/>
       <c r="BK47" s="48"/>
@@ -10698,43 +10805,43 @@
       <c r="DK47" s="52"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="279"/>
-      <c r="C48" s="286"/>
+      <c r="B48" s="280"/>
+      <c r="C48" s="278"/>
       <c r="D48" s="5" t="s">
         <v>83</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="170">
+      <c r="F48" s="168">
         <v>40360</v>
       </c>
-      <c r="G48" s="210"/>
-      <c r="H48" s="211"/>
-      <c r="I48" s="211"/>
-      <c r="J48" s="231"/>
-      <c r="K48" s="231"/>
-      <c r="L48" s="225"/>
-      <c r="M48" s="225"/>
-      <c r="N48" s="211"/>
-      <c r="O48" s="211"/>
-      <c r="P48" s="211"/>
-      <c r="Q48" s="211"/>
-      <c r="R48" s="211"/>
-      <c r="S48" s="225"/>
-      <c r="T48" s="225"/>
-      <c r="U48" s="211"/>
-      <c r="V48" s="48"/>
-      <c r="W48" s="274"/>
-      <c r="X48" s="274"/>
+      <c r="G48" s="208"/>
+      <c r="H48" s="209"/>
+      <c r="I48" s="209"/>
+      <c r="J48" s="229"/>
+      <c r="K48" s="229"/>
+      <c r="L48" s="223"/>
+      <c r="M48" s="223"/>
+      <c r="N48" s="209"/>
+      <c r="O48" s="209"/>
+      <c r="P48" s="209"/>
+      <c r="Q48" s="209"/>
+      <c r="R48" s="209"/>
+      <c r="S48" s="223"/>
+      <c r="T48" s="223"/>
+      <c r="U48" s="209"/>
+      <c r="V48" s="209"/>
+      <c r="W48" s="216"/>
+      <c r="X48" s="271"/>
       <c r="Y48" s="48"/>
       <c r="Z48" s="71"/>
       <c r="AA48" s="71"/>
       <c r="AB48" s="48"/>
       <c r="AC48" s="48"/>
       <c r="AD48" s="48"/>
-      <c r="AE48" s="48"/>
-      <c r="AF48" s="48"/>
+      <c r="AE48" s="312"/>
+      <c r="AF48" s="312"/>
       <c r="AG48" s="71"/>
       <c r="AH48" s="71"/>
       <c r="AI48" s="48"/>
@@ -10748,21 +10855,21 @@
       <c r="AQ48" s="48"/>
       <c r="AR48" s="48"/>
       <c r="AS48" s="48"/>
-      <c r="AT48" s="145"/>
+      <c r="AT48" s="143"/>
       <c r="AU48" s="71"/>
       <c r="AV48" s="71"/>
       <c r="AW48" s="48"/>
       <c r="AX48" s="48"/>
       <c r="AY48" s="48"/>
       <c r="AZ48" s="48"/>
-      <c r="BA48" s="145"/>
+      <c r="BA48" s="143"/>
       <c r="BB48" s="71"/>
       <c r="BC48" s="71"/>
       <c r="BD48" s="48"/>
       <c r="BE48" s="48"/>
       <c r="BF48" s="48"/>
       <c r="BG48" s="48"/>
-      <c r="BH48" s="145"/>
+      <c r="BH48" s="143"/>
       <c r="BI48" s="71"/>
       <c r="BJ48" s="71"/>
       <c r="BK48" s="48"/>
@@ -10820,43 +10927,43 @@
       <c r="DK48" s="52"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="279"/>
-      <c r="C49" s="286"/>
+      <c r="B49" s="280"/>
+      <c r="C49" s="278"/>
       <c r="D49" s="5" t="s">
         <v>84</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F49" s="170">
+      <c r="F49" s="168">
         <v>40361</v>
       </c>
-      <c r="G49" s="210"/>
-      <c r="H49" s="211"/>
-      <c r="I49" s="211"/>
-      <c r="J49" s="231"/>
-      <c r="K49" s="231"/>
-      <c r="L49" s="225"/>
-      <c r="M49" s="225"/>
-      <c r="N49" s="211"/>
-      <c r="O49" s="211"/>
-      <c r="P49" s="211"/>
-      <c r="Q49" s="211"/>
-      <c r="R49" s="211"/>
-      <c r="S49" s="225"/>
-      <c r="T49" s="225"/>
-      <c r="U49" s="211"/>
-      <c r="V49" s="48"/>
-      <c r="W49" s="48"/>
+      <c r="G49" s="208"/>
+      <c r="H49" s="209"/>
+      <c r="I49" s="209"/>
+      <c r="J49" s="229"/>
+      <c r="K49" s="229"/>
+      <c r="L49" s="223"/>
+      <c r="M49" s="223"/>
+      <c r="N49" s="209"/>
+      <c r="O49" s="209"/>
+      <c r="P49" s="209"/>
+      <c r="Q49" s="209"/>
+      <c r="R49" s="209"/>
+      <c r="S49" s="223"/>
+      <c r="T49" s="223"/>
+      <c r="U49" s="209"/>
+      <c r="V49" s="209"/>
+      <c r="W49" s="209"/>
       <c r="X49" s="48"/>
-      <c r="Y49" s="274"/>
+      <c r="Y49" s="271"/>
       <c r="Z49" s="71"/>
       <c r="AA49" s="71"/>
       <c r="AB49" s="48"/>
       <c r="AC49" s="48"/>
       <c r="AD49" s="48"/>
-      <c r="AE49" s="48"/>
-      <c r="AF49" s="48"/>
+      <c r="AE49" s="312"/>
+      <c r="AF49" s="312"/>
       <c r="AG49" s="71"/>
       <c r="AH49" s="71"/>
       <c r="AI49" s="48"/>
@@ -10870,21 +10977,21 @@
       <c r="AQ49" s="48"/>
       <c r="AR49" s="48"/>
       <c r="AS49" s="48"/>
-      <c r="AT49" s="145"/>
+      <c r="AT49" s="143"/>
       <c r="AU49" s="71"/>
       <c r="AV49" s="71"/>
       <c r="AW49" s="48"/>
       <c r="AX49" s="48"/>
       <c r="AY49" s="48"/>
       <c r="AZ49" s="48"/>
-      <c r="BA49" s="145"/>
+      <c r="BA49" s="143"/>
       <c r="BB49" s="71"/>
       <c r="BC49" s="71"/>
       <c r="BD49" s="48"/>
       <c r="BE49" s="48"/>
       <c r="BF49" s="48"/>
       <c r="BG49" s="48"/>
-      <c r="BH49" s="145"/>
+      <c r="BH49" s="143"/>
       <c r="BI49" s="71"/>
       <c r="BJ49" s="71"/>
       <c r="BK49" s="48"/>
@@ -10942,43 +11049,43 @@
       <c r="DK49" s="52"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="279"/>
-      <c r="C50" s="286"/>
+      <c r="B50" s="280"/>
+      <c r="C50" s="278"/>
       <c r="D50" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F50" s="170">
+      <c r="F50" s="168">
         <v>40368</v>
       </c>
-      <c r="G50" s="210"/>
-      <c r="H50" s="211"/>
-      <c r="I50" s="211"/>
-      <c r="J50" s="231"/>
-      <c r="K50" s="231"/>
-      <c r="L50" s="225"/>
-      <c r="M50" s="225"/>
-      <c r="N50" s="211"/>
-      <c r="O50" s="211"/>
-      <c r="P50" s="211"/>
-      <c r="Q50" s="211"/>
-      <c r="R50" s="211"/>
-      <c r="S50" s="225"/>
-      <c r="T50" s="225"/>
-      <c r="U50" s="211"/>
-      <c r="V50" s="48"/>
-      <c r="W50" s="48"/>
+      <c r="G50" s="208"/>
+      <c r="H50" s="209"/>
+      <c r="I50" s="209"/>
+      <c r="J50" s="229"/>
+      <c r="K50" s="229"/>
+      <c r="L50" s="223"/>
+      <c r="M50" s="223"/>
+      <c r="N50" s="209"/>
+      <c r="O50" s="209"/>
+      <c r="P50" s="209"/>
+      <c r="Q50" s="209"/>
+      <c r="R50" s="209"/>
+      <c r="S50" s="223"/>
+      <c r="T50" s="223"/>
+      <c r="U50" s="209"/>
+      <c r="V50" s="209"/>
+      <c r="W50" s="209"/>
       <c r="X50" s="48"/>
       <c r="Y50" s="48"/>
       <c r="Z50" s="71"/>
       <c r="AA50" s="71"/>
-      <c r="AB50" s="272"/>
-      <c r="AC50" s="272"/>
-      <c r="AD50" s="272"/>
-      <c r="AE50" s="272"/>
-      <c r="AF50" s="272"/>
+      <c r="AB50" s="270"/>
+      <c r="AC50" s="270"/>
+      <c r="AD50" s="270"/>
+      <c r="AE50" s="315"/>
+      <c r="AF50" s="315"/>
       <c r="AG50" s="71"/>
       <c r="AH50" s="71"/>
       <c r="AI50" s="48"/>
@@ -10992,21 +11099,21 @@
       <c r="AQ50" s="48"/>
       <c r="AR50" s="48"/>
       <c r="AS50" s="48"/>
-      <c r="AT50" s="145"/>
+      <c r="AT50" s="143"/>
       <c r="AU50" s="71"/>
       <c r="AV50" s="71"/>
       <c r="AW50" s="48"/>
       <c r="AX50" s="48"/>
       <c r="AY50" s="48"/>
       <c r="AZ50" s="48"/>
-      <c r="BA50" s="145"/>
+      <c r="BA50" s="143"/>
       <c r="BB50" s="71"/>
       <c r="BC50" s="71"/>
       <c r="BD50" s="48"/>
       <c r="BE50" s="48"/>
       <c r="BF50" s="48"/>
       <c r="BG50" s="48"/>
-      <c r="BH50" s="145"/>
+      <c r="BH50" s="143"/>
       <c r="BI50" s="71"/>
       <c r="BJ50" s="71"/>
       <c r="BK50" s="48"/>
@@ -11064,28 +11171,28 @@
       <c r="DK50" s="52"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="279"/>
-      <c r="C51" s="286"/>
+      <c r="B51" s="280"/>
+      <c r="C51" s="278"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="210"/>
-      <c r="H51" s="211"/>
-      <c r="I51" s="211"/>
-      <c r="J51" s="231"/>
-      <c r="K51" s="231"/>
-      <c r="L51" s="225"/>
-      <c r="M51" s="225"/>
-      <c r="N51" s="211"/>
-      <c r="O51" s="211"/>
-      <c r="P51" s="211"/>
-      <c r="Q51" s="211"/>
-      <c r="R51" s="211"/>
-      <c r="S51" s="225"/>
-      <c r="T51" s="225"/>
-      <c r="U51" s="211"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="48"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="208"/>
+      <c r="H51" s="209"/>
+      <c r="I51" s="209"/>
+      <c r="J51" s="229"/>
+      <c r="K51" s="229"/>
+      <c r="L51" s="223"/>
+      <c r="M51" s="223"/>
+      <c r="N51" s="209"/>
+      <c r="O51" s="209"/>
+      <c r="P51" s="209"/>
+      <c r="Q51" s="209"/>
+      <c r="R51" s="209"/>
+      <c r="S51" s="223"/>
+      <c r="T51" s="223"/>
+      <c r="U51" s="209"/>
+      <c r="V51" s="209"/>
+      <c r="W51" s="209"/>
       <c r="X51" s="48"/>
       <c r="Y51" s="48"/>
       <c r="Z51" s="71"/>
@@ -11093,8 +11200,8 @@
       <c r="AB51" s="48"/>
       <c r="AC51" s="48"/>
       <c r="AD51" s="48"/>
-      <c r="AE51" s="48"/>
-      <c r="AF51" s="48"/>
+      <c r="AE51" s="312"/>
+      <c r="AF51" s="312"/>
       <c r="AG51" s="71"/>
       <c r="AH51" s="71"/>
       <c r="AI51" s="48"/>
@@ -11108,21 +11215,21 @@
       <c r="AQ51" s="48"/>
       <c r="AR51" s="48"/>
       <c r="AS51" s="48"/>
-      <c r="AT51" s="145"/>
+      <c r="AT51" s="143"/>
       <c r="AU51" s="71"/>
       <c r="AV51" s="71"/>
       <c r="AW51" s="48"/>
       <c r="AX51" s="48"/>
       <c r="AY51" s="48"/>
       <c r="AZ51" s="48"/>
-      <c r="BA51" s="145"/>
+      <c r="BA51" s="143"/>
       <c r="BB51" s="71"/>
       <c r="BC51" s="71"/>
       <c r="BD51" s="48"/>
       <c r="BE51" s="48"/>
       <c r="BF51" s="48"/>
       <c r="BG51" s="48"/>
-      <c r="BH51" s="145"/>
+      <c r="BH51" s="143"/>
       <c r="BI51" s="71"/>
       <c r="BJ51" s="71"/>
       <c r="BK51" s="48"/>
@@ -11180,28 +11287,28 @@
       <c r="DK51" s="52"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="279"/>
-      <c r="C52" s="286"/>
+      <c r="B52" s="280"/>
+      <c r="C52" s="278"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="210"/>
-      <c r="H52" s="211"/>
-      <c r="I52" s="211"/>
-      <c r="J52" s="231"/>
-      <c r="K52" s="231"/>
-      <c r="L52" s="225"/>
-      <c r="M52" s="225"/>
-      <c r="N52" s="211"/>
-      <c r="O52" s="211"/>
-      <c r="P52" s="211"/>
-      <c r="Q52" s="211"/>
-      <c r="R52" s="211"/>
-      <c r="S52" s="225"/>
-      <c r="T52" s="225"/>
-      <c r="U52" s="211"/>
-      <c r="V52" s="48"/>
-      <c r="W52" s="48"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="208"/>
+      <c r="H52" s="209"/>
+      <c r="I52" s="209"/>
+      <c r="J52" s="229"/>
+      <c r="K52" s="229"/>
+      <c r="L52" s="223"/>
+      <c r="M52" s="223"/>
+      <c r="N52" s="209"/>
+      <c r="O52" s="209"/>
+      <c r="P52" s="209"/>
+      <c r="Q52" s="209"/>
+      <c r="R52" s="209"/>
+      <c r="S52" s="223"/>
+      <c r="T52" s="223"/>
+      <c r="U52" s="209"/>
+      <c r="V52" s="209"/>
+      <c r="W52" s="209"/>
       <c r="X52" s="48"/>
       <c r="Y52" s="48"/>
       <c r="Z52" s="71"/>
@@ -11209,8 +11316,8 @@
       <c r="AB52" s="48"/>
       <c r="AC52" s="48"/>
       <c r="AD52" s="48"/>
-      <c r="AE52" s="48"/>
-      <c r="AF52" s="48"/>
+      <c r="AE52" s="312"/>
+      <c r="AF52" s="312"/>
       <c r="AG52" s="71"/>
       <c r="AH52" s="71"/>
       <c r="AI52" s="48"/>
@@ -11224,21 +11331,21 @@
       <c r="AQ52" s="48"/>
       <c r="AR52" s="48"/>
       <c r="AS52" s="48"/>
-      <c r="AT52" s="145"/>
+      <c r="AT52" s="143"/>
       <c r="AU52" s="71"/>
       <c r="AV52" s="71"/>
       <c r="AW52" s="48"/>
       <c r="AX52" s="48"/>
       <c r="AY52" s="48"/>
       <c r="AZ52" s="48"/>
-      <c r="BA52" s="145"/>
+      <c r="BA52" s="143"/>
       <c r="BB52" s="71"/>
       <c r="BC52" s="71"/>
       <c r="BD52" s="48"/>
       <c r="BE52" s="48"/>
       <c r="BF52" s="48"/>
       <c r="BG52" s="48"/>
-      <c r="BH52" s="145"/>
+      <c r="BH52" s="143"/>
       <c r="BI52" s="71"/>
       <c r="BJ52" s="71"/>
       <c r="BK52" s="48"/>
@@ -11296,28 +11403,28 @@
       <c r="DK52" s="52"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="279"/>
-      <c r="C53" s="286"/>
+      <c r="B53" s="280"/>
+      <c r="C53" s="278"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="170"/>
-      <c r="G53" s="210"/>
-      <c r="H53" s="211"/>
-      <c r="I53" s="211"/>
-      <c r="J53" s="231"/>
-      <c r="K53" s="231"/>
-      <c r="L53" s="225"/>
-      <c r="M53" s="225"/>
-      <c r="N53" s="211"/>
-      <c r="O53" s="211"/>
-      <c r="P53" s="211"/>
-      <c r="Q53" s="211"/>
-      <c r="R53" s="211"/>
-      <c r="S53" s="225"/>
-      <c r="T53" s="225"/>
-      <c r="U53" s="211"/>
-      <c r="V53" s="48"/>
-      <c r="W53" s="48"/>
+      <c r="F53" s="168"/>
+      <c r="G53" s="208"/>
+      <c r="H53" s="209"/>
+      <c r="I53" s="209"/>
+      <c r="J53" s="229"/>
+      <c r="K53" s="229"/>
+      <c r="L53" s="223"/>
+      <c r="M53" s="223"/>
+      <c r="N53" s="209"/>
+      <c r="O53" s="209"/>
+      <c r="P53" s="209"/>
+      <c r="Q53" s="209"/>
+      <c r="R53" s="209"/>
+      <c r="S53" s="223"/>
+      <c r="T53" s="223"/>
+      <c r="U53" s="209"/>
+      <c r="V53" s="209"/>
+      <c r="W53" s="209"/>
       <c r="X53" s="48"/>
       <c r="Y53" s="48"/>
       <c r="Z53" s="71"/>
@@ -11325,8 +11432,8 @@
       <c r="AB53" s="48"/>
       <c r="AC53" s="48"/>
       <c r="AD53" s="48"/>
-      <c r="AE53" s="48"/>
-      <c r="AF53" s="48"/>
+      <c r="AE53" s="312"/>
+      <c r="AF53" s="312"/>
       <c r="AG53" s="71"/>
       <c r="AH53" s="71"/>
       <c r="AI53" s="48"/>
@@ -11340,21 +11447,21 @@
       <c r="AQ53" s="48"/>
       <c r="AR53" s="48"/>
       <c r="AS53" s="48"/>
-      <c r="AT53" s="145"/>
+      <c r="AT53" s="143"/>
       <c r="AU53" s="71"/>
       <c r="AV53" s="71"/>
       <c r="AW53" s="48"/>
       <c r="AX53" s="48"/>
       <c r="AY53" s="48"/>
       <c r="AZ53" s="48"/>
-      <c r="BA53" s="145"/>
+      <c r="BA53" s="143"/>
       <c r="BB53" s="71"/>
       <c r="BC53" s="71"/>
       <c r="BD53" s="48"/>
       <c r="BE53" s="48"/>
       <c r="BF53" s="48"/>
       <c r="BG53" s="48"/>
-      <c r="BH53" s="145"/>
+      <c r="BH53" s="143"/>
       <c r="BI53" s="71"/>
       <c r="BJ53" s="71"/>
       <c r="BK53" s="48"/>
@@ -11412,28 +11519,28 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115">
-      <c r="B54" s="279"/>
-      <c r="C54" s="286"/>
+      <c r="B54" s="280"/>
+      <c r="C54" s="278"/>
       <c r="D54" s="10"/>
       <c r="E54" s="11"/>
       <c r="F54" s="78"/>
-      <c r="G54" s="226"/>
-      <c r="H54" s="227"/>
-      <c r="I54" s="227"/>
-      <c r="J54" s="227"/>
-      <c r="K54" s="227"/>
-      <c r="L54" s="229"/>
-      <c r="M54" s="229"/>
-      <c r="N54" s="227"/>
-      <c r="O54" s="227"/>
-      <c r="P54" s="227"/>
-      <c r="Q54" s="227"/>
-      <c r="R54" s="227"/>
-      <c r="S54" s="229"/>
-      <c r="T54" s="229"/>
-      <c r="U54" s="227"/>
-      <c r="V54" s="57"/>
-      <c r="W54" s="57"/>
+      <c r="G54" s="224"/>
+      <c r="H54" s="225"/>
+      <c r="I54" s="225"/>
+      <c r="J54" s="225"/>
+      <c r="K54" s="225"/>
+      <c r="L54" s="227"/>
+      <c r="M54" s="227"/>
+      <c r="N54" s="225"/>
+      <c r="O54" s="225"/>
+      <c r="P54" s="225"/>
+      <c r="Q54" s="225"/>
+      <c r="R54" s="225"/>
+      <c r="S54" s="227"/>
+      <c r="T54" s="227"/>
+      <c r="U54" s="225"/>
+      <c r="V54" s="225"/>
+      <c r="W54" s="225"/>
       <c r="X54" s="57"/>
       <c r="Y54" s="57"/>
       <c r="Z54" s="73"/>
@@ -11441,8 +11548,8 @@
       <c r="AB54" s="57"/>
       <c r="AC54" s="57"/>
       <c r="AD54" s="57"/>
-      <c r="AE54" s="57"/>
-      <c r="AF54" s="57"/>
+      <c r="AE54" s="314"/>
+      <c r="AF54" s="314"/>
       <c r="AG54" s="73"/>
       <c r="AH54" s="73"/>
       <c r="AI54" s="57"/>
@@ -11456,21 +11563,21 @@
       <c r="AQ54" s="57"/>
       <c r="AR54" s="57"/>
       <c r="AS54" s="57"/>
-      <c r="AT54" s="147"/>
+      <c r="AT54" s="145"/>
       <c r="AU54" s="73"/>
       <c r="AV54" s="73"/>
       <c r="AW54" s="57"/>
       <c r="AX54" s="57"/>
       <c r="AY54" s="57"/>
       <c r="AZ54" s="57"/>
-      <c r="BA54" s="147"/>
+      <c r="BA54" s="145"/>
       <c r="BB54" s="73"/>
       <c r="BC54" s="73"/>
       <c r="BD54" s="57"/>
       <c r="BE54" s="57"/>
       <c r="BF54" s="57"/>
       <c r="BG54" s="57"/>
-      <c r="BH54" s="147"/>
+      <c r="BH54" s="145"/>
       <c r="BI54" s="73"/>
       <c r="BJ54" s="73"/>
       <c r="BK54" s="57"/>
@@ -11528,71 +11635,71 @@
       <c r="DK54" s="61"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="279"/>
-      <c r="C55" s="284" t="s">
+      <c r="B55" s="280"/>
+      <c r="C55" s="291" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="170">
+      <c r="F55" s="168">
         <v>40375</v>
       </c>
-      <c r="G55" s="221"/>
-      <c r="H55" s="222"/>
-      <c r="I55" s="222"/>
-      <c r="J55" s="222"/>
-      <c r="K55" s="222"/>
-      <c r="L55" s="224"/>
-      <c r="M55" s="224"/>
-      <c r="N55" s="222"/>
-      <c r="O55" s="222"/>
-      <c r="P55" s="222"/>
-      <c r="Q55" s="222"/>
-      <c r="R55" s="222"/>
-      <c r="S55" s="224"/>
-      <c r="T55" s="224"/>
-      <c r="U55" s="222"/>
-      <c r="V55" s="62"/>
-      <c r="W55" s="62"/>
+      <c r="G55" s="219"/>
+      <c r="H55" s="220"/>
+      <c r="I55" s="220"/>
+      <c r="J55" s="220"/>
+      <c r="K55" s="220"/>
+      <c r="L55" s="222"/>
+      <c r="M55" s="222"/>
+      <c r="N55" s="220"/>
+      <c r="O55" s="220"/>
+      <c r="P55" s="220"/>
+      <c r="Q55" s="220"/>
+      <c r="R55" s="220"/>
+      <c r="S55" s="222"/>
+      <c r="T55" s="222"/>
+      <c r="U55" s="220"/>
+      <c r="V55" s="220"/>
+      <c r="W55" s="220"/>
       <c r="X55" s="62"/>
       <c r="Y55" s="62"/>
       <c r="Z55" s="72"/>
       <c r="AA55" s="72"/>
-      <c r="AB55" s="121"/>
-      <c r="AC55" s="121"/>
-      <c r="AD55" s="121"/>
-      <c r="AE55" s="121"/>
-      <c r="AF55" s="121"/>
+      <c r="AB55" s="119"/>
+      <c r="AC55" s="119"/>
+      <c r="AD55" s="119"/>
+      <c r="AE55" s="316"/>
+      <c r="AF55" s="316"/>
       <c r="AG55" s="72"/>
       <c r="AH55" s="72"/>
-      <c r="AI55" s="121"/>
-      <c r="AJ55" s="121"/>
-      <c r="AK55" s="121"/>
-      <c r="AL55" s="121"/>
-      <c r="AM55" s="121"/>
+      <c r="AI55" s="119"/>
+      <c r="AJ55" s="119"/>
+      <c r="AK55" s="119"/>
+      <c r="AL55" s="119"/>
+      <c r="AM55" s="119"/>
       <c r="AN55" s="72"/>
       <c r="AO55" s="72"/>
       <c r="AP55" s="62"/>
       <c r="AQ55" s="62"/>
       <c r="AR55" s="62"/>
       <c r="AS55" s="62"/>
-      <c r="AT55" s="146"/>
+      <c r="AT55" s="144"/>
       <c r="AU55" s="72"/>
       <c r="AV55" s="72"/>
       <c r="AW55" s="62"/>
       <c r="AX55" s="62"/>
       <c r="AY55" s="62"/>
       <c r="AZ55" s="62"/>
-      <c r="BA55" s="146"/>
+      <c r="BA55" s="144"/>
       <c r="BB55" s="72"/>
       <c r="BC55" s="72"/>
       <c r="BD55" s="62"/>
       <c r="BE55" s="62"/>
       <c r="BF55" s="62"/>
       <c r="BG55" s="62"/>
-      <c r="BH55" s="146"/>
+      <c r="BH55" s="144"/>
       <c r="BI55" s="72"/>
       <c r="BJ55" s="72"/>
       <c r="BK55" s="62"/>
@@ -11650,28 +11757,28 @@
       <c r="DK55" s="67"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="279"/>
-      <c r="C56" s="283"/>
+      <c r="B56" s="280"/>
+      <c r="C56" s="290"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
       <c r="F56" s="75"/>
-      <c r="G56" s="210"/>
-      <c r="H56" s="211"/>
-      <c r="I56" s="211"/>
-      <c r="J56" s="211"/>
-      <c r="K56" s="211"/>
-      <c r="L56" s="225"/>
-      <c r="M56" s="225"/>
-      <c r="N56" s="211"/>
-      <c r="O56" s="211"/>
-      <c r="P56" s="211"/>
-      <c r="Q56" s="211"/>
-      <c r="R56" s="211"/>
-      <c r="S56" s="225"/>
-      <c r="T56" s="225"/>
-      <c r="U56" s="211"/>
-      <c r="V56" s="48"/>
-      <c r="W56" s="48"/>
+      <c r="G56" s="208"/>
+      <c r="H56" s="209"/>
+      <c r="I56" s="209"/>
+      <c r="J56" s="209"/>
+      <c r="K56" s="209"/>
+      <c r="L56" s="223"/>
+      <c r="M56" s="223"/>
+      <c r="N56" s="209"/>
+      <c r="O56" s="209"/>
+      <c r="P56" s="209"/>
+      <c r="Q56" s="209"/>
+      <c r="R56" s="209"/>
+      <c r="S56" s="223"/>
+      <c r="T56" s="223"/>
+      <c r="U56" s="209"/>
+      <c r="V56" s="209"/>
+      <c r="W56" s="209"/>
       <c r="X56" s="48"/>
       <c r="Y56" s="48"/>
       <c r="Z56" s="71"/>
@@ -11679,8 +11786,8 @@
       <c r="AB56" s="48"/>
       <c r="AC56" s="48"/>
       <c r="AD56" s="48"/>
-      <c r="AE56" s="48"/>
-      <c r="AF56" s="48"/>
+      <c r="AE56" s="312"/>
+      <c r="AF56" s="312"/>
       <c r="AG56" s="71"/>
       <c r="AH56" s="71"/>
       <c r="AI56" s="48"/>
@@ -11694,21 +11801,21 @@
       <c r="AQ56" s="48"/>
       <c r="AR56" s="48"/>
       <c r="AS56" s="48"/>
-      <c r="AT56" s="145"/>
+      <c r="AT56" s="143"/>
       <c r="AU56" s="71"/>
       <c r="AV56" s="71"/>
       <c r="AW56" s="48"/>
       <c r="AX56" s="48"/>
       <c r="AY56" s="48"/>
       <c r="AZ56" s="48"/>
-      <c r="BA56" s="145"/>
+      <c r="BA56" s="143"/>
       <c r="BB56" s="71"/>
       <c r="BC56" s="71"/>
       <c r="BD56" s="48"/>
       <c r="BE56" s="48"/>
       <c r="BF56" s="48"/>
       <c r="BG56" s="48"/>
-      <c r="BH56" s="145"/>
+      <c r="BH56" s="143"/>
       <c r="BI56" s="71"/>
       <c r="BJ56" s="71"/>
       <c r="BK56" s="48"/>
@@ -11766,28 +11873,28 @@
       <c r="DK56" s="52"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="279"/>
-      <c r="C57" s="285"/>
+      <c r="B57" s="280"/>
+      <c r="C57" s="286"/>
       <c r="D57" s="10"/>
       <c r="E57" s="11"/>
       <c r="F57" s="78"/>
-      <c r="G57" s="226"/>
-      <c r="H57" s="227"/>
-      <c r="I57" s="227"/>
-      <c r="J57" s="227"/>
-      <c r="K57" s="227"/>
-      <c r="L57" s="229"/>
-      <c r="M57" s="229"/>
-      <c r="N57" s="227"/>
-      <c r="O57" s="227"/>
-      <c r="P57" s="227"/>
-      <c r="Q57" s="227"/>
-      <c r="R57" s="227"/>
-      <c r="S57" s="229"/>
-      <c r="T57" s="229"/>
-      <c r="U57" s="227"/>
-      <c r="V57" s="57"/>
-      <c r="W57" s="57"/>
+      <c r="G57" s="224"/>
+      <c r="H57" s="225"/>
+      <c r="I57" s="225"/>
+      <c r="J57" s="225"/>
+      <c r="K57" s="225"/>
+      <c r="L57" s="227"/>
+      <c r="M57" s="227"/>
+      <c r="N57" s="225"/>
+      <c r="O57" s="225"/>
+      <c r="P57" s="225"/>
+      <c r="Q57" s="225"/>
+      <c r="R57" s="225"/>
+      <c r="S57" s="227"/>
+      <c r="T57" s="227"/>
+      <c r="U57" s="225"/>
+      <c r="V57" s="225"/>
+      <c r="W57" s="225"/>
       <c r="X57" s="57"/>
       <c r="Y57" s="57"/>
       <c r="Z57" s="73"/>
@@ -11795,8 +11902,8 @@
       <c r="AB57" s="57"/>
       <c r="AC57" s="57"/>
       <c r="AD57" s="57"/>
-      <c r="AE57" s="57"/>
-      <c r="AF57" s="57"/>
+      <c r="AE57" s="314"/>
+      <c r="AF57" s="314"/>
       <c r="AG57" s="73"/>
       <c r="AH57" s="73"/>
       <c r="AI57" s="57"/>
@@ -11810,21 +11917,21 @@
       <c r="AQ57" s="57"/>
       <c r="AR57" s="57"/>
       <c r="AS57" s="57"/>
-      <c r="AT57" s="147"/>
+      <c r="AT57" s="145"/>
       <c r="AU57" s="73"/>
       <c r="AV57" s="73"/>
       <c r="AW57" s="57"/>
       <c r="AX57" s="57"/>
       <c r="AY57" s="57"/>
       <c r="AZ57" s="57"/>
-      <c r="BA57" s="147"/>
+      <c r="BA57" s="145"/>
       <c r="BB57" s="73"/>
       <c r="BC57" s="73"/>
       <c r="BD57" s="57"/>
       <c r="BE57" s="57"/>
       <c r="BF57" s="57"/>
       <c r="BG57" s="57"/>
-      <c r="BH57" s="147"/>
+      <c r="BH57" s="145"/>
       <c r="BI57" s="73"/>
       <c r="BJ57" s="73"/>
       <c r="BK57" s="57"/>
@@ -11882,44 +11989,44 @@
       <c r="DK57" s="61"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="279"/>
-      <c r="C58" s="285"/>
+      <c r="B58" s="280"/>
+      <c r="C58" s="286"/>
       <c r="D58" s="8" t="s">
         <v>86</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F58" s="170">
+      <c r="F58" s="168">
         <v>40356</v>
       </c>
-      <c r="G58" s="210"/>
-      <c r="H58" s="211"/>
-      <c r="I58" s="211"/>
-      <c r="J58" s="211"/>
-      <c r="K58" s="211"/>
-      <c r="L58" s="225"/>
-      <c r="M58" s="225"/>
-      <c r="N58" s="211"/>
-      <c r="O58" s="211"/>
-      <c r="P58" s="211"/>
-      <c r="Q58" s="275"/>
-      <c r="R58" s="275"/>
-      <c r="S58" s="224"/>
-      <c r="T58" s="224"/>
-      <c r="U58" s="275"/>
-      <c r="V58" s="48"/>
-      <c r="W58" s="48"/>
+      <c r="G58" s="208"/>
+      <c r="H58" s="209"/>
+      <c r="I58" s="209"/>
+      <c r="J58" s="209"/>
+      <c r="K58" s="209"/>
+      <c r="L58" s="223"/>
+      <c r="M58" s="223"/>
+      <c r="N58" s="209"/>
+      <c r="O58" s="209"/>
+      <c r="P58" s="209"/>
+      <c r="Q58" s="272"/>
+      <c r="R58" s="272"/>
+      <c r="S58" s="222"/>
+      <c r="T58" s="222"/>
+      <c r="U58" s="272"/>
+      <c r="V58" s="209"/>
+      <c r="W58" s="209"/>
       <c r="X58" s="48"/>
       <c r="Y58" s="48"/>
       <c r="Z58" s="71"/>
-      <c r="AA58" s="97"/>
+      <c r="AA58" s="96"/>
       <c r="AB58" s="62"/>
       <c r="AC58" s="62"/>
       <c r="AD58" s="62"/>
-      <c r="AE58" s="62"/>
-      <c r="AF58" s="62"/>
-      <c r="AG58" s="95"/>
+      <c r="AE58" s="313"/>
+      <c r="AF58" s="313"/>
+      <c r="AG58" s="94"/>
       <c r="AH58" s="71"/>
       <c r="AI58" s="62"/>
       <c r="AJ58" s="62"/>
@@ -11932,21 +12039,21 @@
       <c r="AQ58" s="48"/>
       <c r="AR58" s="48"/>
       <c r="AS58" s="48"/>
-      <c r="AT58" s="145"/>
+      <c r="AT58" s="143"/>
       <c r="AU58" s="71"/>
       <c r="AV58" s="71"/>
       <c r="AW58" s="48"/>
       <c r="AX58" s="48"/>
       <c r="AY58" s="48"/>
       <c r="AZ58" s="48"/>
-      <c r="BA58" s="145"/>
+      <c r="BA58" s="143"/>
       <c r="BB58" s="71"/>
       <c r="BC58" s="71"/>
       <c r="BD58" s="48"/>
       <c r="BE58" s="48"/>
       <c r="BF58" s="48"/>
       <c r="BG58" s="48"/>
-      <c r="BH58" s="145"/>
+      <c r="BH58" s="143"/>
       <c r="BI58" s="71"/>
       <c r="BJ58" s="71"/>
       <c r="BK58" s="48"/>
@@ -12004,28 +12111,28 @@
       <c r="DK58" s="52"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="279"/>
-      <c r="C59" s="299"/>
+      <c r="B59" s="280"/>
+      <c r="C59" s="285"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
       <c r="F59" s="75"/>
-      <c r="G59" s="210"/>
-      <c r="H59" s="211"/>
-      <c r="I59" s="211"/>
-      <c r="J59" s="211"/>
-      <c r="K59" s="211"/>
-      <c r="L59" s="225"/>
-      <c r="M59" s="225"/>
-      <c r="N59" s="211"/>
-      <c r="O59" s="211"/>
-      <c r="P59" s="211"/>
-      <c r="Q59" s="211"/>
-      <c r="R59" s="211"/>
-      <c r="S59" s="225"/>
-      <c r="T59" s="225"/>
-      <c r="U59" s="211"/>
-      <c r="V59" s="48"/>
-      <c r="W59" s="48"/>
+      <c r="G59" s="208"/>
+      <c r="H59" s="209"/>
+      <c r="I59" s="209"/>
+      <c r="J59" s="209"/>
+      <c r="K59" s="209"/>
+      <c r="L59" s="223"/>
+      <c r="M59" s="223"/>
+      <c r="N59" s="209"/>
+      <c r="O59" s="209"/>
+      <c r="P59" s="209"/>
+      <c r="Q59" s="209"/>
+      <c r="R59" s="209"/>
+      <c r="S59" s="223"/>
+      <c r="T59" s="223"/>
+      <c r="U59" s="209"/>
+      <c r="V59" s="209"/>
+      <c r="W59" s="209"/>
       <c r="X59" s="48"/>
       <c r="Y59" s="48"/>
       <c r="Z59" s="71"/>
@@ -12033,8 +12140,8 @@
       <c r="AB59" s="48"/>
       <c r="AC59" s="48"/>
       <c r="AD59" s="48"/>
-      <c r="AE59" s="48"/>
-      <c r="AF59" s="48"/>
+      <c r="AE59" s="312"/>
+      <c r="AF59" s="312"/>
       <c r="AG59" s="71"/>
       <c r="AH59" s="71"/>
       <c r="AI59" s="48"/>
@@ -12048,21 +12155,21 @@
       <c r="AQ59" s="48"/>
       <c r="AR59" s="48"/>
       <c r="AS59" s="48"/>
-      <c r="AT59" s="145"/>
+      <c r="AT59" s="143"/>
       <c r="AU59" s="71"/>
       <c r="AV59" s="71"/>
       <c r="AW59" s="48"/>
       <c r="AX59" s="48"/>
       <c r="AY59" s="48"/>
       <c r="AZ59" s="48"/>
-      <c r="BA59" s="145"/>
+      <c r="BA59" s="143"/>
       <c r="BB59" s="71"/>
       <c r="BC59" s="71"/>
       <c r="BD59" s="48"/>
       <c r="BE59" s="48"/>
       <c r="BF59" s="48"/>
       <c r="BG59" s="48"/>
-      <c r="BH59" s="145"/>
+      <c r="BH59" s="143"/>
       <c r="BI59" s="71"/>
       <c r="BJ59" s="71"/>
       <c r="BK59" s="48"/>
@@ -12120,28 +12227,28 @@
       <c r="DK59" s="52"/>
     </row>
     <row r="60" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B60" s="288"/>
-      <c r="C60" s="300"/>
+      <c r="B60" s="281"/>
+      <c r="C60" s="287"/>
       <c r="D60" s="17"/>
       <c r="E60" s="13"/>
       <c r="F60" s="79"/>
-      <c r="G60" s="197"/>
-      <c r="H60" s="198"/>
-      <c r="I60" s="198"/>
-      <c r="J60" s="198"/>
-      <c r="K60" s="198"/>
-      <c r="L60" s="232"/>
-      <c r="M60" s="232"/>
-      <c r="N60" s="198"/>
-      <c r="O60" s="211"/>
-      <c r="P60" s="211"/>
-      <c r="Q60" s="211"/>
-      <c r="R60" s="211"/>
-      <c r="S60" s="225"/>
-      <c r="T60" s="225"/>
-      <c r="U60" s="211"/>
-      <c r="V60" s="48"/>
-      <c r="W60" s="48"/>
+      <c r="G60" s="195"/>
+      <c r="H60" s="196"/>
+      <c r="I60" s="196"/>
+      <c r="J60" s="196"/>
+      <c r="K60" s="196"/>
+      <c r="L60" s="230"/>
+      <c r="M60" s="230"/>
+      <c r="N60" s="196"/>
+      <c r="O60" s="209"/>
+      <c r="P60" s="209"/>
+      <c r="Q60" s="209"/>
+      <c r="R60" s="209"/>
+      <c r="S60" s="223"/>
+      <c r="T60" s="223"/>
+      <c r="U60" s="209"/>
+      <c r="V60" s="209"/>
+      <c r="W60" s="209"/>
       <c r="X60" s="48"/>
       <c r="Y60" s="48"/>
       <c r="Z60" s="69"/>
@@ -12149,8 +12256,8 @@
       <c r="AB60" s="32"/>
       <c r="AC60" s="32"/>
       <c r="AD60" s="32"/>
-      <c r="AE60" s="32"/>
-      <c r="AF60" s="32"/>
+      <c r="AE60" s="310"/>
+      <c r="AF60" s="310"/>
       <c r="AG60" s="69"/>
       <c r="AH60" s="69"/>
       <c r="AI60" s="32"/>
@@ -12164,21 +12271,21 @@
       <c r="AQ60" s="32"/>
       <c r="AR60" s="32"/>
       <c r="AS60" s="32"/>
-      <c r="AT60" s="143"/>
+      <c r="AT60" s="141"/>
       <c r="AU60" s="69"/>
       <c r="AV60" s="69"/>
       <c r="AW60" s="32"/>
       <c r="AX60" s="32"/>
       <c r="AY60" s="32"/>
       <c r="AZ60" s="32"/>
-      <c r="BA60" s="143"/>
+      <c r="BA60" s="141"/>
       <c r="BB60" s="69"/>
       <c r="BC60" s="69"/>
       <c r="BD60" s="32"/>
       <c r="BE60" s="32"/>
       <c r="BF60" s="32"/>
       <c r="BG60" s="32"/>
-      <c r="BH60" s="143"/>
+      <c r="BH60" s="141"/>
       <c r="BI60" s="69"/>
       <c r="BJ60" s="69"/>
       <c r="BK60" s="32"/>
@@ -12236,10 +12343,10 @@
       <c r="DK60" s="36"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="294" t="s">
+      <c r="B61" s="297" t="s">
         <v>44</v>
       </c>
-      <c r="C61" s="286" t="s">
+      <c r="C61" s="278" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="5" t="s">
@@ -12248,35 +12355,35 @@
       <c r="E61" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="170">
+      <c r="F61" s="168">
         <v>40353</v>
       </c>
-      <c r="G61" s="233"/>
-      <c r="H61" s="234"/>
-      <c r="I61" s="234"/>
-      <c r="J61" s="204"/>
-      <c r="K61" s="204"/>
-      <c r="L61" s="235"/>
-      <c r="M61" s="235"/>
-      <c r="N61" s="205"/>
-      <c r="O61" s="271"/>
-      <c r="P61" s="271"/>
-      <c r="Q61" s="271"/>
-      <c r="R61" s="271"/>
-      <c r="S61" s="278"/>
-      <c r="T61" s="276"/>
-      <c r="U61" s="204"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
+      <c r="G61" s="231"/>
+      <c r="H61" s="232"/>
+      <c r="I61" s="232"/>
+      <c r="J61" s="202"/>
+      <c r="K61" s="202"/>
+      <c r="L61" s="233"/>
+      <c r="M61" s="233"/>
+      <c r="N61" s="203"/>
+      <c r="O61" s="269"/>
+      <c r="P61" s="269"/>
+      <c r="Q61" s="269"/>
+      <c r="R61" s="269"/>
+      <c r="S61" s="275"/>
+      <c r="T61" s="273"/>
+      <c r="U61" s="202"/>
+      <c r="V61" s="202"/>
+      <c r="W61" s="202"/>
       <c r="X61" s="42"/>
       <c r="Y61" s="42"/>
-      <c r="Z61" s="94"/>
+      <c r="Z61" s="93"/>
       <c r="AA61" s="70"/>
       <c r="AB61" s="42"/>
       <c r="AC61" s="42"/>
       <c r="AD61" s="42"/>
-      <c r="AE61" s="42"/>
-      <c r="AF61" s="42"/>
+      <c r="AE61" s="311"/>
+      <c r="AF61" s="311"/>
       <c r="AG61" s="70"/>
       <c r="AH61" s="70"/>
       <c r="AI61" s="42"/>
@@ -12290,21 +12397,21 @@
       <c r="AQ61" s="42"/>
       <c r="AR61" s="42"/>
       <c r="AS61" s="42"/>
-      <c r="AT61" s="144"/>
+      <c r="AT61" s="142"/>
       <c r="AU61" s="70"/>
       <c r="AV61" s="70"/>
       <c r="AW61" s="42"/>
       <c r="AX61" s="42"/>
       <c r="AY61" s="42"/>
       <c r="AZ61" s="42"/>
-      <c r="BA61" s="144"/>
+      <c r="BA61" s="142"/>
       <c r="BB61" s="70"/>
       <c r="BC61" s="70"/>
       <c r="BD61" s="42"/>
       <c r="BE61" s="42"/>
       <c r="BF61" s="42"/>
       <c r="BG61" s="42"/>
-      <c r="BH61" s="144"/>
+      <c r="BH61" s="142"/>
       <c r="BI61" s="70"/>
       <c r="BJ61" s="70"/>
       <c r="BK61" s="42"/>
@@ -12362,34 +12469,34 @@
       <c r="DK61" s="47"/>
     </row>
     <row r="62" spans="2:115">
-      <c r="B62" s="295"/>
-      <c r="C62" s="286"/>
+      <c r="B62" s="298"/>
+      <c r="C62" s="278"/>
       <c r="D62" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="170">
+      <c r="F62" s="168">
         <v>40357</v>
       </c>
-      <c r="G62" s="236"/>
-      <c r="H62" s="231"/>
-      <c r="I62" s="231"/>
-      <c r="J62" s="211"/>
-      <c r="K62" s="211"/>
-      <c r="L62" s="225"/>
-      <c r="M62" s="225"/>
-      <c r="N62" s="211"/>
-      <c r="O62" s="211"/>
-      <c r="P62" s="211"/>
-      <c r="Q62" s="211"/>
-      <c r="R62" s="211"/>
-      <c r="S62" s="225"/>
-      <c r="T62" s="225"/>
-      <c r="U62" s="214"/>
-      <c r="V62" s="48"/>
-      <c r="W62" s="48"/>
+      <c r="G62" s="234"/>
+      <c r="H62" s="229"/>
+      <c r="I62" s="229"/>
+      <c r="J62" s="209"/>
+      <c r="K62" s="209"/>
+      <c r="L62" s="223"/>
+      <c r="M62" s="223"/>
+      <c r="N62" s="209"/>
+      <c r="O62" s="209"/>
+      <c r="P62" s="209"/>
+      <c r="Q62" s="209"/>
+      <c r="R62" s="209"/>
+      <c r="S62" s="223"/>
+      <c r="T62" s="223"/>
+      <c r="U62" s="212"/>
+      <c r="V62" s="209"/>
+      <c r="W62" s="209"/>
       <c r="X62" s="48"/>
       <c r="Y62" s="48"/>
       <c r="Z62" s="71"/>
@@ -12397,8 +12504,8 @@
       <c r="AB62" s="48"/>
       <c r="AC62" s="48"/>
       <c r="AD62" s="48"/>
-      <c r="AE62" s="48"/>
-      <c r="AF62" s="48"/>
+      <c r="AE62" s="312"/>
+      <c r="AF62" s="312"/>
       <c r="AG62" s="71"/>
       <c r="AH62" s="71"/>
       <c r="AI62" s="48"/>
@@ -12412,21 +12519,21 @@
       <c r="AQ62" s="48"/>
       <c r="AR62" s="48"/>
       <c r="AS62" s="48"/>
-      <c r="AT62" s="145"/>
+      <c r="AT62" s="143"/>
       <c r="AU62" s="71"/>
       <c r="AV62" s="71"/>
       <c r="AW62" s="48"/>
       <c r="AX62" s="48"/>
       <c r="AY62" s="48"/>
       <c r="AZ62" s="48"/>
-      <c r="BA62" s="145"/>
+      <c r="BA62" s="143"/>
       <c r="BB62" s="71"/>
       <c r="BC62" s="71"/>
       <c r="BD62" s="48"/>
       <c r="BE62" s="48"/>
       <c r="BF62" s="48"/>
       <c r="BG62" s="48"/>
-      <c r="BH62" s="145"/>
+      <c r="BH62" s="143"/>
       <c r="BI62" s="71"/>
       <c r="BJ62" s="71"/>
       <c r="BK62" s="48"/>
@@ -12484,34 +12591,34 @@
       <c r="DK62" s="52"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="295"/>
-      <c r="C63" s="286"/>
+      <c r="B63" s="298"/>
+      <c r="C63" s="278"/>
       <c r="D63" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F63" s="170">
+      <c r="F63" s="168">
         <v>40358</v>
       </c>
-      <c r="G63" s="236"/>
-      <c r="H63" s="231"/>
-      <c r="I63" s="231"/>
-      <c r="J63" s="211"/>
-      <c r="K63" s="211"/>
-      <c r="L63" s="225"/>
-      <c r="M63" s="225"/>
-      <c r="N63" s="211"/>
-      <c r="O63" s="211"/>
-      <c r="P63" s="211"/>
-      <c r="Q63" s="211"/>
-      <c r="R63" s="211"/>
-      <c r="S63" s="225"/>
-      <c r="T63" s="225"/>
-      <c r="U63" s="211"/>
-      <c r="V63" s="96"/>
-      <c r="W63" s="48"/>
+      <c r="G63" s="234"/>
+      <c r="H63" s="229"/>
+      <c r="I63" s="229"/>
+      <c r="J63" s="209"/>
+      <c r="K63" s="209"/>
+      <c r="L63" s="223"/>
+      <c r="M63" s="223"/>
+      <c r="N63" s="209"/>
+      <c r="O63" s="209"/>
+      <c r="P63" s="209"/>
+      <c r="Q63" s="209"/>
+      <c r="R63" s="209"/>
+      <c r="S63" s="223"/>
+      <c r="T63" s="223"/>
+      <c r="U63" s="209"/>
+      <c r="V63" s="212"/>
+      <c r="W63" s="209"/>
       <c r="X63" s="48"/>
       <c r="Y63" s="48"/>
       <c r="Z63" s="71"/>
@@ -12519,8 +12626,8 @@
       <c r="AB63" s="48"/>
       <c r="AC63" s="48"/>
       <c r="AD63" s="48"/>
-      <c r="AE63" s="48"/>
-      <c r="AF63" s="48"/>
+      <c r="AE63" s="312"/>
+      <c r="AF63" s="312"/>
       <c r="AG63" s="71"/>
       <c r="AH63" s="71"/>
       <c r="AI63" s="48"/>
@@ -12534,21 +12641,21 @@
       <c r="AQ63" s="48"/>
       <c r="AR63" s="48"/>
       <c r="AS63" s="48"/>
-      <c r="AT63" s="145"/>
+      <c r="AT63" s="143"/>
       <c r="AU63" s="71"/>
       <c r="AV63" s="71"/>
       <c r="AW63" s="48"/>
       <c r="AX63" s="48"/>
       <c r="AY63" s="48"/>
       <c r="AZ63" s="48"/>
-      <c r="BA63" s="145"/>
+      <c r="BA63" s="143"/>
       <c r="BB63" s="71"/>
       <c r="BC63" s="71"/>
       <c r="BD63" s="48"/>
       <c r="BE63" s="48"/>
       <c r="BF63" s="48"/>
       <c r="BG63" s="48"/>
-      <c r="BH63" s="145"/>
+      <c r="BH63" s="143"/>
       <c r="BI63" s="71"/>
       <c r="BJ63" s="71"/>
       <c r="BK63" s="48"/>
@@ -12606,34 +12713,34 @@
       <c r="DK63" s="52"/>
     </row>
     <row r="64" spans="2:115">
-      <c r="B64" s="295"/>
-      <c r="C64" s="286"/>
+      <c r="B64" s="298"/>
+      <c r="C64" s="278"/>
       <c r="D64" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F64" s="170">
+      <c r="F64" s="168">
         <v>40361</v>
       </c>
-      <c r="G64" s="236"/>
-      <c r="H64" s="231"/>
-      <c r="I64" s="231"/>
-      <c r="J64" s="211"/>
-      <c r="K64" s="211"/>
-      <c r="L64" s="225"/>
-      <c r="M64" s="225"/>
-      <c r="N64" s="211"/>
-      <c r="O64" s="211"/>
-      <c r="P64" s="211"/>
-      <c r="Q64" s="211"/>
-      <c r="R64" s="211"/>
-      <c r="S64" s="225"/>
-      <c r="T64" s="225"/>
-      <c r="U64" s="211"/>
-      <c r="V64" s="48"/>
-      <c r="W64" s="96"/>
+      <c r="G64" s="234"/>
+      <c r="H64" s="229"/>
+      <c r="I64" s="229"/>
+      <c r="J64" s="209"/>
+      <c r="K64" s="209"/>
+      <c r="L64" s="223"/>
+      <c r="M64" s="223"/>
+      <c r="N64" s="209"/>
+      <c r="O64" s="209"/>
+      <c r="P64" s="209"/>
+      <c r="Q64" s="209"/>
+      <c r="R64" s="209"/>
+      <c r="S64" s="223"/>
+      <c r="T64" s="223"/>
+      <c r="U64" s="209"/>
+      <c r="V64" s="209"/>
+      <c r="W64" s="212"/>
       <c r="X64" s="48"/>
       <c r="Y64" s="48"/>
       <c r="Z64" s="71"/>
@@ -12641,8 +12748,8 @@
       <c r="AB64" s="48"/>
       <c r="AC64" s="48"/>
       <c r="AD64" s="48"/>
-      <c r="AE64" s="48"/>
-      <c r="AF64" s="48"/>
+      <c r="AE64" s="312"/>
+      <c r="AF64" s="312"/>
       <c r="AG64" s="71"/>
       <c r="AH64" s="71"/>
       <c r="AI64" s="48"/>
@@ -12656,21 +12763,21 @@
       <c r="AQ64" s="48"/>
       <c r="AR64" s="48"/>
       <c r="AS64" s="48"/>
-      <c r="AT64" s="145"/>
+      <c r="AT64" s="143"/>
       <c r="AU64" s="71"/>
       <c r="AV64" s="71"/>
       <c r="AW64" s="48"/>
       <c r="AX64" s="48"/>
       <c r="AY64" s="48"/>
       <c r="AZ64" s="48"/>
-      <c r="BA64" s="145"/>
+      <c r="BA64" s="143"/>
       <c r="BB64" s="71"/>
       <c r="BC64" s="71"/>
       <c r="BD64" s="48"/>
       <c r="BE64" s="48"/>
       <c r="BF64" s="48"/>
       <c r="BG64" s="48"/>
-      <c r="BH64" s="145"/>
+      <c r="BH64" s="143"/>
       <c r="BI64" s="71"/>
       <c r="BJ64" s="71"/>
       <c r="BK64" s="48"/>
@@ -12728,39 +12835,39 @@
       <c r="DK64" s="52"/>
     </row>
     <row r="65" spans="2:115 16384:16384">
-      <c r="B65" s="295"/>
-      <c r="C65" s="286"/>
+      <c r="B65" s="298"/>
+      <c r="C65" s="278"/>
       <c r="D65" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="75"/>
-      <c r="G65" s="236"/>
-      <c r="H65" s="231"/>
-      <c r="I65" s="231"/>
-      <c r="J65" s="211"/>
-      <c r="K65" s="211"/>
-      <c r="L65" s="225"/>
-      <c r="M65" s="225"/>
-      <c r="N65" s="211"/>
-      <c r="O65" s="211"/>
-      <c r="P65" s="211"/>
-      <c r="Q65" s="211"/>
-      <c r="R65" s="211"/>
-      <c r="S65" s="225"/>
-      <c r="T65" s="225"/>
-      <c r="U65" s="211"/>
-      <c r="V65" s="48"/>
-      <c r="W65" s="93"/>
-      <c r="X65" s="96"/>
-      <c r="Y65" s="96"/>
-      <c r="Z65" s="95"/>
+      <c r="G65" s="234"/>
+      <c r="H65" s="229"/>
+      <c r="I65" s="229"/>
+      <c r="J65" s="209"/>
+      <c r="K65" s="209"/>
+      <c r="L65" s="223"/>
+      <c r="M65" s="223"/>
+      <c r="N65" s="209"/>
+      <c r="O65" s="209"/>
+      <c r="P65" s="209"/>
+      <c r="Q65" s="209"/>
+      <c r="R65" s="209"/>
+      <c r="S65" s="223"/>
+      <c r="T65" s="223"/>
+      <c r="U65" s="209"/>
+      <c r="V65" s="209"/>
+      <c r="W65" s="210"/>
+      <c r="X65" s="95"/>
+      <c r="Y65" s="95"/>
+      <c r="Z65" s="94"/>
       <c r="AA65" s="71"/>
       <c r="AB65" s="48"/>
       <c r="AC65" s="48"/>
       <c r="AD65" s="48"/>
-      <c r="AE65" s="48"/>
-      <c r="AF65" s="48"/>
+      <c r="AE65" s="312"/>
+      <c r="AF65" s="312"/>
       <c r="AG65" s="71"/>
       <c r="AH65" s="71"/>
       <c r="AI65" s="48"/>
@@ -12774,21 +12881,21 @@
       <c r="AQ65" s="48"/>
       <c r="AR65" s="48"/>
       <c r="AS65" s="48"/>
-      <c r="AT65" s="145"/>
+      <c r="AT65" s="143"/>
       <c r="AU65" s="71"/>
       <c r="AV65" s="71"/>
       <c r="AW65" s="48"/>
       <c r="AX65" s="48"/>
       <c r="AY65" s="48"/>
       <c r="AZ65" s="48"/>
-      <c r="BA65" s="145"/>
+      <c r="BA65" s="143"/>
       <c r="BB65" s="71"/>
       <c r="BC65" s="71"/>
       <c r="BD65" s="48"/>
       <c r="BE65" s="48"/>
       <c r="BF65" s="48"/>
       <c r="BG65" s="48"/>
-      <c r="BH65" s="145"/>
+      <c r="BH65" s="143"/>
       <c r="BI65" s="71"/>
       <c r="BJ65" s="71"/>
       <c r="BK65" s="48"/>
@@ -12846,28 +12953,28 @@
       <c r="DK65" s="52"/>
     </row>
     <row r="66" spans="2:115 16384:16384">
-      <c r="B66" s="295"/>
-      <c r="C66" s="286"/>
+      <c r="B66" s="298"/>
+      <c r="C66" s="278"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="F66" s="75"/>
-      <c r="G66" s="237"/>
-      <c r="H66" s="227"/>
-      <c r="I66" s="227"/>
-      <c r="J66" s="227"/>
-      <c r="K66" s="227"/>
-      <c r="L66" s="229"/>
-      <c r="M66" s="229"/>
-      <c r="N66" s="227"/>
-      <c r="O66" s="227"/>
-      <c r="P66" s="227"/>
-      <c r="Q66" s="227"/>
-      <c r="R66" s="227"/>
-      <c r="S66" s="229"/>
-      <c r="T66" s="229"/>
-      <c r="U66" s="227"/>
-      <c r="V66" s="57"/>
-      <c r="W66" s="57"/>
+      <c r="G66" s="235"/>
+      <c r="H66" s="225"/>
+      <c r="I66" s="225"/>
+      <c r="J66" s="225"/>
+      <c r="K66" s="225"/>
+      <c r="L66" s="227"/>
+      <c r="M66" s="227"/>
+      <c r="N66" s="225"/>
+      <c r="O66" s="225"/>
+      <c r="P66" s="225"/>
+      <c r="Q66" s="225"/>
+      <c r="R66" s="225"/>
+      <c r="S66" s="227"/>
+      <c r="T66" s="227"/>
+      <c r="U66" s="225"/>
+      <c r="V66" s="225"/>
+      <c r="W66" s="225"/>
       <c r="X66" s="57"/>
       <c r="Y66" s="57"/>
       <c r="Z66" s="73"/>
@@ -12875,8 +12982,8 @@
       <c r="AB66" s="57"/>
       <c r="AC66" s="57"/>
       <c r="AD66" s="57"/>
-      <c r="AE66" s="57"/>
-      <c r="AF66" s="57"/>
+      <c r="AE66" s="314"/>
+      <c r="AF66" s="314"/>
       <c r="AG66" s="73"/>
       <c r="AH66" s="73"/>
       <c r="AI66" s="57"/>
@@ -12890,21 +12997,21 @@
       <c r="AQ66" s="57"/>
       <c r="AR66" s="57"/>
       <c r="AS66" s="57"/>
-      <c r="AT66" s="147"/>
+      <c r="AT66" s="145"/>
       <c r="AU66" s="73"/>
       <c r="AV66" s="73"/>
       <c r="AW66" s="57"/>
       <c r="AX66" s="57"/>
       <c r="AY66" s="57"/>
       <c r="AZ66" s="57"/>
-      <c r="BA66" s="147"/>
+      <c r="BA66" s="145"/>
       <c r="BB66" s="73"/>
       <c r="BC66" s="73"/>
       <c r="BD66" s="57"/>
       <c r="BE66" s="57"/>
       <c r="BF66" s="57"/>
       <c r="BG66" s="57"/>
-      <c r="BH66" s="147"/>
+      <c r="BH66" s="145"/>
       <c r="BI66" s="73"/>
       <c r="BJ66" s="73"/>
       <c r="BK66" s="57"/>
@@ -12962,8 +13069,8 @@
       <c r="DK66" s="61"/>
     </row>
     <row r="67" spans="2:115 16384:16384">
-      <c r="B67" s="295"/>
-      <c r="C67" s="292" t="s">
+      <c r="B67" s="298"/>
+      <c r="C67" s="277" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="14" t="s">
@@ -12972,35 +13079,35 @@
       <c r="E67" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F67" s="170">
+      <c r="F67" s="168">
         <v>40361</v>
       </c>
-      <c r="G67" s="238"/>
-      <c r="H67" s="231"/>
-      <c r="I67" s="231"/>
-      <c r="J67" s="231"/>
-      <c r="K67" s="211"/>
-      <c r="L67" s="225"/>
-      <c r="M67" s="225"/>
-      <c r="N67" s="212"/>
-      <c r="O67" s="207"/>
-      <c r="P67" s="211"/>
-      <c r="Q67" s="211"/>
-      <c r="R67" s="211"/>
-      <c r="S67" s="215"/>
-      <c r="T67" s="216"/>
-      <c r="U67" s="211"/>
-      <c r="V67" s="48"/>
-      <c r="W67" s="48"/>
+      <c r="G67" s="236"/>
+      <c r="H67" s="229"/>
+      <c r="I67" s="229"/>
+      <c r="J67" s="229"/>
+      <c r="K67" s="209"/>
+      <c r="L67" s="223"/>
+      <c r="M67" s="223"/>
+      <c r="N67" s="210"/>
+      <c r="O67" s="205"/>
+      <c r="P67" s="209"/>
+      <c r="Q67" s="209"/>
+      <c r="R67" s="209"/>
+      <c r="S67" s="213"/>
+      <c r="T67" s="214"/>
+      <c r="U67" s="209"/>
+      <c r="V67" s="209"/>
+      <c r="W67" s="209"/>
       <c r="X67" s="48"/>
       <c r="Y67" s="48"/>
-      <c r="Z67" s="95"/>
+      <c r="Z67" s="94"/>
       <c r="AA67" s="71"/>
       <c r="AB67" s="48"/>
       <c r="AC67" s="48"/>
       <c r="AD67" s="48"/>
-      <c r="AE67" s="48"/>
-      <c r="AF67" s="48"/>
+      <c r="AE67" s="312"/>
+      <c r="AF67" s="312"/>
       <c r="AG67" s="71"/>
       <c r="AH67" s="71"/>
       <c r="AI67" s="48"/>
@@ -13014,21 +13121,21 @@
       <c r="AQ67" s="48"/>
       <c r="AR67" s="48"/>
       <c r="AS67" s="48"/>
-      <c r="AT67" s="145"/>
+      <c r="AT67" s="143"/>
       <c r="AU67" s="71"/>
       <c r="AV67" s="71"/>
       <c r="AW67" s="48"/>
       <c r="AX67" s="48"/>
       <c r="AY67" s="48"/>
       <c r="AZ67" s="48"/>
-      <c r="BA67" s="145"/>
+      <c r="BA67" s="143"/>
       <c r="BB67" s="71"/>
       <c r="BC67" s="71"/>
       <c r="BD67" s="48"/>
       <c r="BE67" s="48"/>
       <c r="BF67" s="48"/>
       <c r="BG67" s="48"/>
-      <c r="BH67" s="145"/>
+      <c r="BH67" s="143"/>
       <c r="BI67" s="71"/>
       <c r="BJ67" s="71"/>
       <c r="BK67" s="48"/>
@@ -13086,30 +13193,30 @@
       <c r="DK67" s="52"/>
     </row>
     <row r="68" spans="2:115 16384:16384">
-      <c r="B68" s="295"/>
-      <c r="C68" s="292"/>
+      <c r="B68" s="298"/>
+      <c r="C68" s="277"/>
       <c r="D68" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="75"/>
-      <c r="G68" s="238"/>
-      <c r="H68" s="231"/>
-      <c r="I68" s="211"/>
-      <c r="J68" s="211"/>
-      <c r="K68" s="211"/>
-      <c r="L68" s="225"/>
-      <c r="M68" s="225"/>
-      <c r="N68" s="211"/>
-      <c r="O68" s="211"/>
-      <c r="P68" s="211"/>
-      <c r="Q68" s="211"/>
-      <c r="R68" s="211"/>
-      <c r="S68" s="225"/>
-      <c r="T68" s="225"/>
-      <c r="U68" s="211"/>
-      <c r="V68" s="48"/>
-      <c r="W68" s="48"/>
+      <c r="G68" s="236"/>
+      <c r="H68" s="229"/>
+      <c r="I68" s="209"/>
+      <c r="J68" s="209"/>
+      <c r="K68" s="209"/>
+      <c r="L68" s="223"/>
+      <c r="M68" s="223"/>
+      <c r="N68" s="209"/>
+      <c r="O68" s="209"/>
+      <c r="P68" s="209"/>
+      <c r="Q68" s="209"/>
+      <c r="R68" s="209"/>
+      <c r="S68" s="223"/>
+      <c r="T68" s="223"/>
+      <c r="U68" s="209"/>
+      <c r="V68" s="209"/>
+      <c r="W68" s="209"/>
       <c r="X68" s="48"/>
       <c r="Y68" s="48"/>
       <c r="Z68" s="71"/>
@@ -13117,8 +13224,8 @@
       <c r="AB68" s="48"/>
       <c r="AC68" s="48"/>
       <c r="AD68" s="48"/>
-      <c r="AE68" s="48"/>
-      <c r="AF68" s="48"/>
+      <c r="AE68" s="312"/>
+      <c r="AF68" s="312"/>
       <c r="AG68" s="71"/>
       <c r="AH68" s="71"/>
       <c r="AI68" s="48"/>
@@ -13132,21 +13239,21 @@
       <c r="AQ68" s="48"/>
       <c r="AR68" s="48"/>
       <c r="AS68" s="48"/>
-      <c r="AT68" s="145"/>
+      <c r="AT68" s="143"/>
       <c r="AU68" s="71"/>
       <c r="AV68" s="71"/>
       <c r="AW68" s="48"/>
       <c r="AX68" s="48"/>
       <c r="AY68" s="48"/>
       <c r="AZ68" s="48"/>
-      <c r="BA68" s="145"/>
+      <c r="BA68" s="143"/>
       <c r="BB68" s="71"/>
       <c r="BC68" s="71"/>
       <c r="BD68" s="48"/>
       <c r="BE68" s="48"/>
       <c r="BF68" s="48"/>
       <c r="BG68" s="48"/>
-      <c r="BH68" s="145"/>
+      <c r="BH68" s="143"/>
       <c r="BI68" s="71"/>
       <c r="BJ68" s="71"/>
       <c r="BK68" s="48"/>
@@ -13204,30 +13311,30 @@
       <c r="DK68" s="52"/>
     </row>
     <row r="69" spans="2:115 16384:16384">
-      <c r="B69" s="295"/>
-      <c r="C69" s="292"/>
+      <c r="B69" s="298"/>
+      <c r="C69" s="277"/>
       <c r="D69" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="75"/>
-      <c r="G69" s="238"/>
-      <c r="H69" s="231"/>
-      <c r="I69" s="211"/>
-      <c r="J69" s="211"/>
-      <c r="K69" s="211"/>
-      <c r="L69" s="225"/>
-      <c r="M69" s="225"/>
-      <c r="N69" s="211"/>
-      <c r="O69" s="211"/>
-      <c r="P69" s="211"/>
-      <c r="Q69" s="211"/>
-      <c r="R69" s="211"/>
-      <c r="S69" s="225"/>
-      <c r="T69" s="225"/>
-      <c r="U69" s="211"/>
-      <c r="V69" s="48"/>
-      <c r="W69" s="48"/>
+      <c r="G69" s="236"/>
+      <c r="H69" s="229"/>
+      <c r="I69" s="209"/>
+      <c r="J69" s="209"/>
+      <c r="K69" s="209"/>
+      <c r="L69" s="223"/>
+      <c r="M69" s="223"/>
+      <c r="N69" s="209"/>
+      <c r="O69" s="209"/>
+      <c r="P69" s="209"/>
+      <c r="Q69" s="209"/>
+      <c r="R69" s="209"/>
+      <c r="S69" s="223"/>
+      <c r="T69" s="223"/>
+      <c r="U69" s="209"/>
+      <c r="V69" s="209"/>
+      <c r="W69" s="209"/>
       <c r="X69" s="48"/>
       <c r="Y69" s="48"/>
       <c r="Z69" s="71"/>
@@ -13235,8 +13342,8 @@
       <c r="AB69" s="48"/>
       <c r="AC69" s="48"/>
       <c r="AD69" s="48"/>
-      <c r="AE69" s="48"/>
-      <c r="AF69" s="48"/>
+      <c r="AE69" s="312"/>
+      <c r="AF69" s="312"/>
       <c r="AG69" s="71"/>
       <c r="AH69" s="71"/>
       <c r="AI69" s="48"/>
@@ -13250,21 +13357,21 @@
       <c r="AQ69" s="48"/>
       <c r="AR69" s="48"/>
       <c r="AS69" s="48"/>
-      <c r="AT69" s="145"/>
+      <c r="AT69" s="143"/>
       <c r="AU69" s="71"/>
       <c r="AV69" s="71"/>
       <c r="AW69" s="48"/>
       <c r="AX69" s="48"/>
       <c r="AY69" s="48"/>
       <c r="AZ69" s="48"/>
-      <c r="BA69" s="145"/>
+      <c r="BA69" s="143"/>
       <c r="BB69" s="71"/>
       <c r="BC69" s="71"/>
       <c r="BD69" s="48"/>
       <c r="BE69" s="48"/>
       <c r="BF69" s="48"/>
       <c r="BG69" s="48"/>
-      <c r="BH69" s="145"/>
+      <c r="BH69" s="143"/>
       <c r="BI69" s="71"/>
       <c r="BJ69" s="71"/>
       <c r="BK69" s="48"/>
@@ -13322,28 +13429,28 @@
       <c r="DK69" s="52"/>
     </row>
     <row r="70" spans="2:115 16384:16384" ht="17.25" thickBot="1">
-      <c r="B70" s="295"/>
-      <c r="C70" s="292"/>
+      <c r="B70" s="298"/>
+      <c r="C70" s="277"/>
       <c r="D70" s="10"/>
       <c r="E70" s="11"/>
       <c r="F70" s="78"/>
-      <c r="G70" s="239"/>
-      <c r="H70" s="198"/>
-      <c r="I70" s="198"/>
-      <c r="J70" s="240"/>
-      <c r="K70" s="198"/>
-      <c r="L70" s="232"/>
-      <c r="M70" s="232"/>
-      <c r="N70" s="198"/>
-      <c r="O70" s="198"/>
-      <c r="P70" s="198"/>
-      <c r="Q70" s="198"/>
-      <c r="R70" s="198"/>
-      <c r="S70" s="232"/>
-      <c r="T70" s="232"/>
-      <c r="U70" s="198"/>
-      <c r="V70" s="32"/>
-      <c r="W70" s="32"/>
+      <c r="G70" s="237"/>
+      <c r="H70" s="196"/>
+      <c r="I70" s="196"/>
+      <c r="J70" s="238"/>
+      <c r="K70" s="196"/>
+      <c r="L70" s="230"/>
+      <c r="M70" s="230"/>
+      <c r="N70" s="196"/>
+      <c r="O70" s="196"/>
+      <c r="P70" s="196"/>
+      <c r="Q70" s="196"/>
+      <c r="R70" s="196"/>
+      <c r="S70" s="230"/>
+      <c r="T70" s="230"/>
+      <c r="U70" s="196"/>
+      <c r="V70" s="196"/>
+      <c r="W70" s="196"/>
       <c r="X70" s="32"/>
       <c r="Y70" s="32"/>
       <c r="Z70" s="69"/>
@@ -13351,8 +13458,8 @@
       <c r="AB70" s="32"/>
       <c r="AC70" s="32"/>
       <c r="AD70" s="32"/>
-      <c r="AE70" s="32"/>
-      <c r="AF70" s="32"/>
+      <c r="AE70" s="310"/>
+      <c r="AF70" s="310"/>
       <c r="AG70" s="69"/>
       <c r="AH70" s="69"/>
       <c r="AI70" s="32"/>
@@ -13366,21 +13473,21 @@
       <c r="AQ70" s="32"/>
       <c r="AR70" s="32"/>
       <c r="AS70" s="32"/>
-      <c r="AT70" s="143"/>
+      <c r="AT70" s="141"/>
       <c r="AU70" s="69"/>
       <c r="AV70" s="69"/>
       <c r="AW70" s="32"/>
       <c r="AX70" s="32"/>
       <c r="AY70" s="32"/>
       <c r="AZ70" s="32"/>
-      <c r="BA70" s="143"/>
+      <c r="BA70" s="141"/>
       <c r="BB70" s="69"/>
       <c r="BC70" s="69"/>
       <c r="BD70" s="32"/>
       <c r="BE70" s="32"/>
       <c r="BF70" s="32"/>
       <c r="BG70" s="32"/>
-      <c r="BH70" s="143"/>
+      <c r="BH70" s="141"/>
       <c r="BI70" s="69"/>
       <c r="BJ70" s="69"/>
       <c r="BK70" s="32"/>
@@ -13438,10 +13545,10 @@
       <c r="DK70" s="36"/>
     </row>
     <row r="71" spans="2:115 16384:16384">
-      <c r="B71" s="280" t="s">
+      <c r="B71" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="289" t="s">
+      <c r="C71" s="293" t="s">
         <v>37</v>
       </c>
       <c r="D71" s="20" t="s">
@@ -13450,35 +13557,35 @@
       <c r="E71" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F71" s="171">
+      <c r="F71" s="169">
         <v>40375</v>
       </c>
-      <c r="G71" s="241"/>
-      <c r="H71" s="204"/>
-      <c r="I71" s="204"/>
-      <c r="J71" s="204"/>
-      <c r="K71" s="204"/>
-      <c r="L71" s="235"/>
-      <c r="M71" s="235"/>
-      <c r="N71" s="234"/>
-      <c r="O71" s="234"/>
-      <c r="P71" s="234"/>
-      <c r="Q71" s="234"/>
-      <c r="R71" s="234"/>
-      <c r="S71" s="235"/>
-      <c r="T71" s="235"/>
-      <c r="U71" s="234"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
+      <c r="G71" s="239"/>
+      <c r="H71" s="202"/>
+      <c r="I71" s="202"/>
+      <c r="J71" s="202"/>
+      <c r="K71" s="202"/>
+      <c r="L71" s="233"/>
+      <c r="M71" s="233"/>
+      <c r="N71" s="232"/>
+      <c r="O71" s="232"/>
+      <c r="P71" s="232"/>
+      <c r="Q71" s="232"/>
+      <c r="R71" s="232"/>
+      <c r="S71" s="233"/>
+      <c r="T71" s="233"/>
+      <c r="U71" s="232"/>
+      <c r="V71" s="232"/>
+      <c r="W71" s="232"/>
       <c r="X71" s="43"/>
       <c r="Y71" s="43"/>
       <c r="Z71" s="70"/>
       <c r="AA71" s="70"/>
-      <c r="AB71" s="96"/>
-      <c r="AC71" s="96"/>
-      <c r="AD71" s="96"/>
-      <c r="AE71" s="96"/>
-      <c r="AF71" s="96"/>
+      <c r="AB71" s="95"/>
+      <c r="AC71" s="95"/>
+      <c r="AD71" s="95"/>
+      <c r="AE71" s="317"/>
+      <c r="AF71" s="317"/>
       <c r="AG71" s="70"/>
       <c r="AH71" s="70"/>
       <c r="AI71" s="56"/>
@@ -13492,21 +13599,21 @@
       <c r="AQ71" s="43"/>
       <c r="AR71" s="43"/>
       <c r="AS71" s="43"/>
-      <c r="AT71" s="148"/>
+      <c r="AT71" s="146"/>
       <c r="AU71" s="70"/>
       <c r="AV71" s="70"/>
       <c r="AW71" s="43"/>
       <c r="AX71" s="43"/>
       <c r="AY71" s="43"/>
       <c r="AZ71" s="43"/>
-      <c r="BA71" s="148"/>
+      <c r="BA71" s="146"/>
       <c r="BB71" s="70"/>
       <c r="BC71" s="70"/>
       <c r="BD71" s="43"/>
       <c r="BE71" s="43"/>
       <c r="BF71" s="43"/>
       <c r="BG71" s="43"/>
-      <c r="BH71" s="148"/>
+      <c r="BH71" s="146"/>
       <c r="BI71" s="70"/>
       <c r="BJ71" s="70"/>
       <c r="BK71" s="43"/>
@@ -13565,28 +13672,28 @@
       <c r="XFD71" s="56"/>
     </row>
     <row r="72" spans="2:115 16384:16384">
-      <c r="B72" s="279"/>
-      <c r="C72" s="290"/>
+      <c r="B72" s="280"/>
+      <c r="C72" s="294"/>
       <c r="D72" s="15"/>
       <c r="E72" s="22"/>
       <c r="F72" s="81"/>
-      <c r="G72" s="237"/>
-      <c r="H72" s="227"/>
-      <c r="I72" s="227"/>
-      <c r="J72" s="227"/>
-      <c r="K72" s="227"/>
-      <c r="L72" s="229"/>
-      <c r="M72" s="229"/>
-      <c r="N72" s="228"/>
-      <c r="O72" s="228"/>
-      <c r="P72" s="228"/>
-      <c r="Q72" s="228"/>
-      <c r="R72" s="228"/>
-      <c r="S72" s="229"/>
-      <c r="T72" s="229"/>
-      <c r="U72" s="228"/>
-      <c r="V72" s="56"/>
-      <c r="W72" s="56"/>
+      <c r="G72" s="235"/>
+      <c r="H72" s="225"/>
+      <c r="I72" s="225"/>
+      <c r="J72" s="225"/>
+      <c r="K72" s="225"/>
+      <c r="L72" s="227"/>
+      <c r="M72" s="227"/>
+      <c r="N72" s="226"/>
+      <c r="O72" s="226"/>
+      <c r="P72" s="226"/>
+      <c r="Q72" s="226"/>
+      <c r="R72" s="226"/>
+      <c r="S72" s="227"/>
+      <c r="T72" s="227"/>
+      <c r="U72" s="226"/>
+      <c r="V72" s="226"/>
+      <c r="W72" s="226"/>
       <c r="X72" s="56"/>
       <c r="Y72" s="56"/>
       <c r="Z72" s="73"/>
@@ -13594,8 +13701,8 @@
       <c r="AB72" s="56"/>
       <c r="AC72" s="56"/>
       <c r="AD72" s="56"/>
-      <c r="AE72" s="56"/>
-      <c r="AF72" s="56"/>
+      <c r="AE72" s="318"/>
+      <c r="AF72" s="318"/>
       <c r="AG72" s="73"/>
       <c r="AH72" s="73"/>
       <c r="AI72" s="56"/>
@@ -13609,21 +13716,21 @@
       <c r="AQ72" s="56"/>
       <c r="AR72" s="56"/>
       <c r="AS72" s="56"/>
-      <c r="AT72" s="149"/>
+      <c r="AT72" s="147"/>
       <c r="AU72" s="73"/>
       <c r="AV72" s="73"/>
       <c r="AW72" s="56"/>
       <c r="AX72" s="56"/>
       <c r="AY72" s="56"/>
       <c r="AZ72" s="56"/>
-      <c r="BA72" s="149"/>
+      <c r="BA72" s="147"/>
       <c r="BB72" s="73"/>
       <c r="BC72" s="73"/>
       <c r="BD72" s="56"/>
       <c r="BE72" s="56"/>
       <c r="BF72" s="56"/>
       <c r="BG72" s="56"/>
-      <c r="BH72" s="149"/>
+      <c r="BH72" s="147"/>
       <c r="BI72" s="73"/>
       <c r="BJ72" s="73"/>
       <c r="BK72" s="56"/>
@@ -13681,8 +13788,8 @@
       <c r="DK72" s="61"/>
     </row>
     <row r="73" spans="2:115 16384:16384">
-      <c r="B73" s="279"/>
-      <c r="C73" s="290" t="s">
+      <c r="B73" s="280"/>
+      <c r="C73" s="294" t="s">
         <v>48</v>
       </c>
       <c r="D73" s="14" t="s">
@@ -13692,23 +13799,23 @@
         <v>38</v>
       </c>
       <c r="F73" s="82"/>
-      <c r="G73" s="242"/>
-      <c r="H73" s="222"/>
-      <c r="I73" s="222"/>
-      <c r="J73" s="222"/>
-      <c r="K73" s="222"/>
-      <c r="L73" s="224"/>
-      <c r="M73" s="224"/>
-      <c r="N73" s="223"/>
-      <c r="O73" s="223"/>
-      <c r="P73" s="223"/>
-      <c r="Q73" s="223"/>
-      <c r="R73" s="223"/>
-      <c r="S73" s="224"/>
-      <c r="T73" s="224"/>
-      <c r="U73" s="223"/>
-      <c r="V73" s="63"/>
-      <c r="W73" s="63"/>
+      <c r="G73" s="240"/>
+      <c r="H73" s="220"/>
+      <c r="I73" s="220"/>
+      <c r="J73" s="220"/>
+      <c r="K73" s="220"/>
+      <c r="L73" s="222"/>
+      <c r="M73" s="222"/>
+      <c r="N73" s="221"/>
+      <c r="O73" s="221"/>
+      <c r="P73" s="221"/>
+      <c r="Q73" s="221"/>
+      <c r="R73" s="221"/>
+      <c r="S73" s="222"/>
+      <c r="T73" s="222"/>
+      <c r="U73" s="221"/>
+      <c r="V73" s="221"/>
+      <c r="W73" s="221"/>
       <c r="X73" s="63"/>
       <c r="Y73" s="63"/>
       <c r="Z73" s="72"/>
@@ -13716,13 +13823,13 @@
       <c r="AB73" s="63"/>
       <c r="AC73" s="63"/>
       <c r="AD73" s="63"/>
-      <c r="AE73" s="63"/>
-      <c r="AF73" s="63"/>
+      <c r="AE73" s="319"/>
+      <c r="AF73" s="319"/>
       <c r="AG73" s="72"/>
       <c r="AH73" s="72"/>
-      <c r="AI73" s="96"/>
-      <c r="AJ73" s="96"/>
-      <c r="AK73" s="96"/>
+      <c r="AI73" s="95"/>
+      <c r="AJ73" s="95"/>
+      <c r="AK73" s="95"/>
       <c r="AL73" s="63"/>
       <c r="AM73" s="63"/>
       <c r="AN73" s="72"/>
@@ -13731,21 +13838,21 @@
       <c r="AQ73" s="63"/>
       <c r="AR73" s="63"/>
       <c r="AS73" s="63"/>
-      <c r="AT73" s="150"/>
+      <c r="AT73" s="148"/>
       <c r="AU73" s="72"/>
       <c r="AV73" s="72"/>
       <c r="AW73" s="63"/>
       <c r="AX73" s="63"/>
       <c r="AY73" s="63"/>
       <c r="AZ73" s="63"/>
-      <c r="BA73" s="150"/>
+      <c r="BA73" s="148"/>
       <c r="BB73" s="72"/>
       <c r="BC73" s="72"/>
       <c r="BD73" s="63"/>
       <c r="BE73" s="63"/>
       <c r="BF73" s="63"/>
       <c r="BG73" s="63"/>
-      <c r="BH73" s="150"/>
+      <c r="BH73" s="148"/>
       <c r="BI73" s="72"/>
       <c r="BJ73" s="72"/>
       <c r="BK73" s="63"/>
@@ -13803,28 +13910,28 @@
       <c r="DK73" s="67"/>
     </row>
     <row r="74" spans="2:115 16384:16384">
-      <c r="B74" s="279"/>
-      <c r="C74" s="291"/>
+      <c r="B74" s="280"/>
+      <c r="C74" s="295"/>
       <c r="D74" s="16"/>
       <c r="E74" s="24"/>
       <c r="F74" s="83"/>
-      <c r="G74" s="237"/>
-      <c r="H74" s="227"/>
-      <c r="I74" s="227"/>
-      <c r="J74" s="227"/>
-      <c r="K74" s="227"/>
-      <c r="L74" s="229"/>
-      <c r="M74" s="229"/>
-      <c r="N74" s="228"/>
-      <c r="O74" s="228"/>
-      <c r="P74" s="228"/>
-      <c r="Q74" s="228"/>
-      <c r="R74" s="228"/>
-      <c r="S74" s="229"/>
-      <c r="T74" s="229"/>
-      <c r="U74" s="228"/>
-      <c r="V74" s="56"/>
-      <c r="W74" s="56"/>
+      <c r="G74" s="235"/>
+      <c r="H74" s="225"/>
+      <c r="I74" s="225"/>
+      <c r="J74" s="225"/>
+      <c r="K74" s="225"/>
+      <c r="L74" s="227"/>
+      <c r="M74" s="227"/>
+      <c r="N74" s="226"/>
+      <c r="O74" s="226"/>
+      <c r="P74" s="226"/>
+      <c r="Q74" s="226"/>
+      <c r="R74" s="226"/>
+      <c r="S74" s="227"/>
+      <c r="T74" s="227"/>
+      <c r="U74" s="226"/>
+      <c r="V74" s="226"/>
+      <c r="W74" s="226"/>
       <c r="X74" s="56"/>
       <c r="Y74" s="56"/>
       <c r="Z74" s="73"/>
@@ -13832,8 +13939,8 @@
       <c r="AB74" s="56"/>
       <c r="AC74" s="56"/>
       <c r="AD74" s="56"/>
-      <c r="AE74" s="56"/>
-      <c r="AF74" s="56"/>
+      <c r="AE74" s="318"/>
+      <c r="AF74" s="318"/>
       <c r="AG74" s="73"/>
       <c r="AH74" s="73"/>
       <c r="AI74" s="56"/>
@@ -13847,21 +13954,21 @@
       <c r="AQ74" s="56"/>
       <c r="AR74" s="56"/>
       <c r="AS74" s="56"/>
-      <c r="AT74" s="149"/>
+      <c r="AT74" s="147"/>
       <c r="AU74" s="73"/>
       <c r="AV74" s="73"/>
       <c r="AW74" s="56"/>
       <c r="AX74" s="56"/>
       <c r="AY74" s="56"/>
       <c r="AZ74" s="56"/>
-      <c r="BA74" s="149"/>
+      <c r="BA74" s="147"/>
       <c r="BB74" s="73"/>
       <c r="BC74" s="73"/>
       <c r="BD74" s="56"/>
       <c r="BE74" s="56"/>
       <c r="BF74" s="56"/>
       <c r="BG74" s="56"/>
-      <c r="BH74" s="149"/>
+      <c r="BH74" s="147"/>
       <c r="BI74" s="73"/>
       <c r="BJ74" s="73"/>
       <c r="BK74" s="56"/>
@@ -13919,28 +14026,28 @@
       <c r="DK74" s="61"/>
     </row>
     <row r="75" spans="2:115 16384:16384">
-      <c r="B75" s="279"/>
-      <c r="C75" s="292"/>
+      <c r="B75" s="280"/>
+      <c r="C75" s="277"/>
       <c r="D75" s="14"/>
       <c r="E75" s="23"/>
       <c r="F75" s="82"/>
-      <c r="G75" s="242"/>
-      <c r="H75" s="222"/>
-      <c r="I75" s="222"/>
-      <c r="J75" s="223"/>
-      <c r="K75" s="222"/>
-      <c r="L75" s="224"/>
-      <c r="M75" s="224"/>
-      <c r="N75" s="222"/>
-      <c r="O75" s="222"/>
-      <c r="P75" s="222"/>
-      <c r="Q75" s="222"/>
-      <c r="R75" s="222"/>
-      <c r="S75" s="224"/>
-      <c r="T75" s="224"/>
-      <c r="U75" s="222"/>
-      <c r="V75" s="62"/>
-      <c r="W75" s="62"/>
+      <c r="G75" s="240"/>
+      <c r="H75" s="220"/>
+      <c r="I75" s="220"/>
+      <c r="J75" s="221"/>
+      <c r="K75" s="220"/>
+      <c r="L75" s="222"/>
+      <c r="M75" s="222"/>
+      <c r="N75" s="220"/>
+      <c r="O75" s="220"/>
+      <c r="P75" s="220"/>
+      <c r="Q75" s="220"/>
+      <c r="R75" s="220"/>
+      <c r="S75" s="222"/>
+      <c r="T75" s="222"/>
+      <c r="U75" s="220"/>
+      <c r="V75" s="220"/>
+      <c r="W75" s="220"/>
       <c r="X75" s="62"/>
       <c r="Y75" s="62"/>
       <c r="Z75" s="72"/>
@@ -13948,8 +14055,8 @@
       <c r="AB75" s="62"/>
       <c r="AC75" s="62"/>
       <c r="AD75" s="62"/>
-      <c r="AE75" s="62"/>
-      <c r="AF75" s="62"/>
+      <c r="AE75" s="313"/>
+      <c r="AF75" s="313"/>
       <c r="AG75" s="72"/>
       <c r="AH75" s="72"/>
       <c r="AI75" s="62"/>
@@ -13963,21 +14070,21 @@
       <c r="AQ75" s="62"/>
       <c r="AR75" s="62"/>
       <c r="AS75" s="62"/>
-      <c r="AT75" s="146"/>
+      <c r="AT75" s="144"/>
       <c r="AU75" s="72"/>
       <c r="AV75" s="72"/>
       <c r="AW75" s="62"/>
       <c r="AX75" s="62"/>
       <c r="AY75" s="62"/>
       <c r="AZ75" s="62"/>
-      <c r="BA75" s="146"/>
+      <c r="BA75" s="144"/>
       <c r="BB75" s="72"/>
       <c r="BC75" s="72"/>
       <c r="BD75" s="62"/>
       <c r="BE75" s="62"/>
       <c r="BF75" s="62"/>
       <c r="BG75" s="62"/>
-      <c r="BH75" s="146"/>
+      <c r="BH75" s="144"/>
       <c r="BI75" s="72"/>
       <c r="BJ75" s="72"/>
       <c r="BK75" s="62"/>
@@ -14035,28 +14142,28 @@
       <c r="DK75" s="67"/>
     </row>
     <row r="76" spans="2:115 16384:16384" ht="17.25" thickBot="1">
-      <c r="B76" s="288"/>
-      <c r="C76" s="292"/>
+      <c r="B76" s="281"/>
+      <c r="C76" s="277"/>
       <c r="D76" s="15"/>
       <c r="E76" s="22"/>
       <c r="F76" s="81"/>
-      <c r="G76" s="239"/>
-      <c r="H76" s="198"/>
-      <c r="I76" s="198"/>
-      <c r="J76" s="240"/>
-      <c r="K76" s="240"/>
-      <c r="L76" s="232"/>
-      <c r="M76" s="232"/>
-      <c r="N76" s="198"/>
-      <c r="O76" s="198"/>
-      <c r="P76" s="198"/>
-      <c r="Q76" s="198"/>
-      <c r="R76" s="198"/>
-      <c r="S76" s="232"/>
-      <c r="T76" s="232"/>
-      <c r="U76" s="198"/>
-      <c r="V76" s="32"/>
-      <c r="W76" s="32"/>
+      <c r="G76" s="237"/>
+      <c r="H76" s="196"/>
+      <c r="I76" s="196"/>
+      <c r="J76" s="238"/>
+      <c r="K76" s="238"/>
+      <c r="L76" s="230"/>
+      <c r="M76" s="230"/>
+      <c r="N76" s="196"/>
+      <c r="O76" s="196"/>
+      <c r="P76" s="196"/>
+      <c r="Q76" s="196"/>
+      <c r="R76" s="196"/>
+      <c r="S76" s="230"/>
+      <c r="T76" s="230"/>
+      <c r="U76" s="196"/>
+      <c r="V76" s="196"/>
+      <c r="W76" s="196"/>
       <c r="X76" s="32"/>
       <c r="Y76" s="32"/>
       <c r="Z76" s="69"/>
@@ -14064,8 +14171,8 @@
       <c r="AB76" s="32"/>
       <c r="AC76" s="32"/>
       <c r="AD76" s="32"/>
-      <c r="AE76" s="32"/>
-      <c r="AF76" s="32"/>
+      <c r="AE76" s="310"/>
+      <c r="AF76" s="310"/>
       <c r="AG76" s="69"/>
       <c r="AH76" s="69"/>
       <c r="AI76" s="32"/>
@@ -14079,21 +14186,21 @@
       <c r="AQ76" s="32"/>
       <c r="AR76" s="32"/>
       <c r="AS76" s="32"/>
-      <c r="AT76" s="143"/>
+      <c r="AT76" s="141"/>
       <c r="AU76" s="69"/>
       <c r="AV76" s="69"/>
       <c r="AW76" s="32"/>
       <c r="AX76" s="32"/>
       <c r="AY76" s="32"/>
       <c r="AZ76" s="32"/>
-      <c r="BA76" s="143"/>
+      <c r="BA76" s="141"/>
       <c r="BB76" s="69"/>
       <c r="BC76" s="69"/>
       <c r="BD76" s="32"/>
       <c r="BE76" s="32"/>
       <c r="BF76" s="32"/>
       <c r="BG76" s="32"/>
-      <c r="BH76" s="143"/>
+      <c r="BH76" s="141"/>
       <c r="BI76" s="69"/>
       <c r="BJ76" s="69"/>
       <c r="BK76" s="32"/>
@@ -14151,10 +14258,10 @@
       <c r="DK76" s="36"/>
     </row>
     <row r="77" spans="2:115 16384:16384">
-      <c r="B77" s="280" t="s">
+      <c r="B77" s="279" t="s">
         <v>12</v>
       </c>
-      <c r="C77" s="289" t="s">
+      <c r="C77" s="293" t="s">
         <v>50</v>
       </c>
       <c r="D77" s="20"/>
@@ -14162,23 +14269,23 @@
         <v>51</v>
       </c>
       <c r="F77" s="80"/>
-      <c r="G77" s="241"/>
-      <c r="H77" s="204"/>
-      <c r="I77" s="204"/>
-      <c r="J77" s="204"/>
-      <c r="K77" s="204"/>
-      <c r="L77" s="235"/>
-      <c r="M77" s="235"/>
-      <c r="N77" s="234"/>
-      <c r="O77" s="234"/>
-      <c r="P77" s="234"/>
-      <c r="Q77" s="234"/>
-      <c r="R77" s="234"/>
-      <c r="S77" s="235"/>
-      <c r="T77" s="235"/>
-      <c r="U77" s="234"/>
-      <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
+      <c r="G77" s="239"/>
+      <c r="H77" s="202"/>
+      <c r="I77" s="202"/>
+      <c r="J77" s="202"/>
+      <c r="K77" s="202"/>
+      <c r="L77" s="233"/>
+      <c r="M77" s="233"/>
+      <c r="N77" s="232"/>
+      <c r="O77" s="232"/>
+      <c r="P77" s="232"/>
+      <c r="Q77" s="232"/>
+      <c r="R77" s="232"/>
+      <c r="S77" s="233"/>
+      <c r="T77" s="233"/>
+      <c r="U77" s="232"/>
+      <c r="V77" s="232"/>
+      <c r="W77" s="232"/>
       <c r="X77" s="43"/>
       <c r="Y77" s="43"/>
       <c r="Z77" s="70"/>
@@ -14186,8 +14293,8 @@
       <c r="AB77" s="43"/>
       <c r="AC77" s="43"/>
       <c r="AD77" s="43"/>
-      <c r="AE77" s="43"/>
-      <c r="AF77" s="43"/>
+      <c r="AE77" s="320"/>
+      <c r="AF77" s="320"/>
       <c r="AG77" s="70"/>
       <c r="AH77" s="70"/>
       <c r="AI77" s="43"/>
@@ -14201,21 +14308,21 @@
       <c r="AQ77" s="43"/>
       <c r="AR77" s="43"/>
       <c r="AS77" s="43"/>
-      <c r="AT77" s="148"/>
+      <c r="AT77" s="146"/>
       <c r="AU77" s="70"/>
       <c r="AV77" s="70"/>
       <c r="AW77" s="43"/>
       <c r="AX77" s="43"/>
       <c r="AY77" s="43"/>
       <c r="AZ77" s="43"/>
-      <c r="BA77" s="148"/>
+      <c r="BA77" s="146"/>
       <c r="BB77" s="70"/>
       <c r="BC77" s="70"/>
       <c r="BD77" s="43"/>
       <c r="BE77" s="43"/>
       <c r="BF77" s="43"/>
       <c r="BG77" s="43"/>
-      <c r="BH77" s="148"/>
+      <c r="BH77" s="146"/>
       <c r="BI77" s="70"/>
       <c r="BJ77" s="70"/>
       <c r="BK77" s="43"/>
@@ -14273,28 +14380,28 @@
       <c r="DK77" s="47"/>
     </row>
     <row r="78" spans="2:115 16384:16384">
-      <c r="B78" s="279"/>
-      <c r="C78" s="290"/>
+      <c r="B78" s="280"/>
+      <c r="C78" s="294"/>
       <c r="D78" s="15"/>
       <c r="E78" s="22"/>
       <c r="F78" s="81"/>
-      <c r="G78" s="238"/>
-      <c r="H78" s="211"/>
-      <c r="I78" s="211"/>
-      <c r="J78" s="211"/>
-      <c r="K78" s="211"/>
-      <c r="L78" s="225"/>
-      <c r="M78" s="225"/>
-      <c r="N78" s="231"/>
-      <c r="O78" s="231"/>
-      <c r="P78" s="231"/>
-      <c r="Q78" s="231"/>
-      <c r="R78" s="231"/>
-      <c r="S78" s="225"/>
-      <c r="T78" s="225"/>
-      <c r="U78" s="231"/>
-      <c r="V78" s="54"/>
-      <c r="W78" s="54"/>
+      <c r="G78" s="236"/>
+      <c r="H78" s="209"/>
+      <c r="I78" s="209"/>
+      <c r="J78" s="209"/>
+      <c r="K78" s="209"/>
+      <c r="L78" s="223"/>
+      <c r="M78" s="223"/>
+      <c r="N78" s="229"/>
+      <c r="O78" s="229"/>
+      <c r="P78" s="229"/>
+      <c r="Q78" s="229"/>
+      <c r="R78" s="229"/>
+      <c r="S78" s="223"/>
+      <c r="T78" s="223"/>
+      <c r="U78" s="229"/>
+      <c r="V78" s="229"/>
+      <c r="W78" s="229"/>
       <c r="X78" s="54"/>
       <c r="Y78" s="54"/>
       <c r="Z78" s="71"/>
@@ -14302,8 +14409,8 @@
       <c r="AB78" s="54"/>
       <c r="AC78" s="54"/>
       <c r="AD78" s="54"/>
-      <c r="AE78" s="54"/>
-      <c r="AF78" s="54"/>
+      <c r="AE78" s="321"/>
+      <c r="AF78" s="321"/>
       <c r="AG78" s="71"/>
       <c r="AH78" s="71"/>
       <c r="AI78" s="54"/>
@@ -14317,21 +14424,21 @@
       <c r="AQ78" s="54"/>
       <c r="AR78" s="54"/>
       <c r="AS78" s="54"/>
-      <c r="AT78" s="151"/>
+      <c r="AT78" s="149"/>
       <c r="AU78" s="71"/>
       <c r="AV78" s="71"/>
       <c r="AW78" s="54"/>
       <c r="AX78" s="54"/>
       <c r="AY78" s="54"/>
       <c r="AZ78" s="54"/>
-      <c r="BA78" s="151"/>
+      <c r="BA78" s="149"/>
       <c r="BB78" s="71"/>
       <c r="BC78" s="71"/>
       <c r="BD78" s="54"/>
       <c r="BE78" s="54"/>
       <c r="BF78" s="54"/>
       <c r="BG78" s="54"/>
-      <c r="BH78" s="151"/>
+      <c r="BH78" s="149"/>
       <c r="BI78" s="71"/>
       <c r="BJ78" s="71"/>
       <c r="BK78" s="54"/>
@@ -14389,8 +14496,8 @@
       <c r="DK78" s="52"/>
     </row>
     <row r="79" spans="2:115 16384:16384">
-      <c r="B79" s="279"/>
-      <c r="C79" s="290" t="s">
+      <c r="B79" s="280"/>
+      <c r="C79" s="294" t="s">
         <v>53</v>
       </c>
       <c r="D79" s="14"/>
@@ -14398,23 +14505,23 @@
         <v>51</v>
       </c>
       <c r="F79" s="82"/>
-      <c r="G79" s="242"/>
-      <c r="H79" s="222"/>
-      <c r="I79" s="222"/>
-      <c r="J79" s="222"/>
-      <c r="K79" s="222"/>
-      <c r="L79" s="224"/>
-      <c r="M79" s="224"/>
-      <c r="N79" s="223"/>
-      <c r="O79" s="223"/>
-      <c r="P79" s="223"/>
-      <c r="Q79" s="223"/>
-      <c r="R79" s="223"/>
-      <c r="S79" s="224"/>
-      <c r="T79" s="224"/>
-      <c r="U79" s="223"/>
-      <c r="V79" s="63"/>
-      <c r="W79" s="63"/>
+      <c r="G79" s="240"/>
+      <c r="H79" s="220"/>
+      <c r="I79" s="220"/>
+      <c r="J79" s="220"/>
+      <c r="K79" s="220"/>
+      <c r="L79" s="222"/>
+      <c r="M79" s="222"/>
+      <c r="N79" s="221"/>
+      <c r="O79" s="221"/>
+      <c r="P79" s="221"/>
+      <c r="Q79" s="221"/>
+      <c r="R79" s="221"/>
+      <c r="S79" s="222"/>
+      <c r="T79" s="222"/>
+      <c r="U79" s="221"/>
+      <c r="V79" s="221"/>
+      <c r="W79" s="221"/>
       <c r="X79" s="63"/>
       <c r="Y79" s="63"/>
       <c r="Z79" s="72"/>
@@ -14422,8 +14529,8 @@
       <c r="AB79" s="63"/>
       <c r="AC79" s="63"/>
       <c r="AD79" s="63"/>
-      <c r="AE79" s="63"/>
-      <c r="AF79" s="63"/>
+      <c r="AE79" s="319"/>
+      <c r="AF79" s="319"/>
       <c r="AG79" s="72"/>
       <c r="AH79" s="72"/>
       <c r="AI79" s="63"/>
@@ -14437,21 +14544,21 @@
       <c r="AQ79" s="63"/>
       <c r="AR79" s="63"/>
       <c r="AS79" s="63"/>
-      <c r="AT79" s="150"/>
+      <c r="AT79" s="148"/>
       <c r="AU79" s="72"/>
       <c r="AV79" s="72"/>
       <c r="AW79" s="63"/>
       <c r="AX79" s="63"/>
       <c r="AY79" s="63"/>
       <c r="AZ79" s="63"/>
-      <c r="BA79" s="150"/>
+      <c r="BA79" s="148"/>
       <c r="BB79" s="72"/>
       <c r="BC79" s="72"/>
       <c r="BD79" s="63"/>
       <c r="BE79" s="63"/>
       <c r="BF79" s="63"/>
       <c r="BG79" s="63"/>
-      <c r="BH79" s="150"/>
+      <c r="BH79" s="148"/>
       <c r="BI79" s="72"/>
       <c r="BJ79" s="72"/>
       <c r="BK79" s="63"/>
@@ -14509,28 +14616,28 @@
       <c r="DK79" s="67"/>
     </row>
     <row r="80" spans="2:115 16384:16384">
-      <c r="B80" s="279"/>
-      <c r="C80" s="291"/>
+      <c r="B80" s="280"/>
+      <c r="C80" s="295"/>
       <c r="D80" s="16"/>
       <c r="E80" s="24"/>
       <c r="F80" s="83"/>
-      <c r="G80" s="237"/>
-      <c r="H80" s="227"/>
-      <c r="I80" s="227"/>
-      <c r="J80" s="227"/>
-      <c r="K80" s="227"/>
-      <c r="L80" s="229"/>
-      <c r="M80" s="229"/>
-      <c r="N80" s="228"/>
-      <c r="O80" s="228"/>
-      <c r="P80" s="228"/>
-      <c r="Q80" s="228"/>
-      <c r="R80" s="228"/>
-      <c r="S80" s="229"/>
-      <c r="T80" s="229"/>
-      <c r="U80" s="228"/>
-      <c r="V80" s="56"/>
-      <c r="W80" s="56"/>
+      <c r="G80" s="235"/>
+      <c r="H80" s="225"/>
+      <c r="I80" s="225"/>
+      <c r="J80" s="225"/>
+      <c r="K80" s="225"/>
+      <c r="L80" s="227"/>
+      <c r="M80" s="227"/>
+      <c r="N80" s="226"/>
+      <c r="O80" s="226"/>
+      <c r="P80" s="226"/>
+      <c r="Q80" s="226"/>
+      <c r="R80" s="226"/>
+      <c r="S80" s="227"/>
+      <c r="T80" s="227"/>
+      <c r="U80" s="226"/>
+      <c r="V80" s="226"/>
+      <c r="W80" s="226"/>
       <c r="X80" s="56"/>
       <c r="Y80" s="56"/>
       <c r="Z80" s="73"/>
@@ -14538,8 +14645,8 @@
       <c r="AB80" s="56"/>
       <c r="AC80" s="56"/>
       <c r="AD80" s="56"/>
-      <c r="AE80" s="56"/>
-      <c r="AF80" s="56"/>
+      <c r="AE80" s="318"/>
+      <c r="AF80" s="318"/>
       <c r="AG80" s="73"/>
       <c r="AH80" s="73"/>
       <c r="AI80" s="56"/>
@@ -14553,21 +14660,21 @@
       <c r="AQ80" s="56"/>
       <c r="AR80" s="56"/>
       <c r="AS80" s="56"/>
-      <c r="AT80" s="149"/>
+      <c r="AT80" s="147"/>
       <c r="AU80" s="73"/>
       <c r="AV80" s="73"/>
       <c r="AW80" s="56"/>
       <c r="AX80" s="56"/>
       <c r="AY80" s="56"/>
       <c r="AZ80" s="56"/>
-      <c r="BA80" s="149"/>
+      <c r="BA80" s="147"/>
       <c r="BB80" s="73"/>
       <c r="BC80" s="73"/>
       <c r="BD80" s="56"/>
       <c r="BE80" s="56"/>
       <c r="BF80" s="56"/>
       <c r="BG80" s="56"/>
-      <c r="BH80" s="149"/>
+      <c r="BH80" s="147"/>
       <c r="BI80" s="73"/>
       <c r="BJ80" s="73"/>
       <c r="BK80" s="56"/>
@@ -14625,28 +14732,28 @@
       <c r="DK80" s="61"/>
     </row>
     <row r="81" spans="2:116">
-      <c r="B81" s="279"/>
-      <c r="C81" s="292"/>
+      <c r="B81" s="280"/>
+      <c r="C81" s="277"/>
       <c r="D81" s="14"/>
       <c r="E81" s="23"/>
       <c r="F81" s="82"/>
-      <c r="G81" s="238"/>
-      <c r="H81" s="211"/>
-      <c r="I81" s="211"/>
-      <c r="J81" s="231"/>
-      <c r="K81" s="211"/>
-      <c r="L81" s="225"/>
-      <c r="M81" s="225"/>
-      <c r="N81" s="211"/>
-      <c r="O81" s="211"/>
-      <c r="P81" s="211"/>
-      <c r="Q81" s="211"/>
-      <c r="R81" s="211"/>
-      <c r="S81" s="225"/>
-      <c r="T81" s="225"/>
-      <c r="U81" s="211"/>
-      <c r="V81" s="48"/>
-      <c r="W81" s="48"/>
+      <c r="G81" s="236"/>
+      <c r="H81" s="209"/>
+      <c r="I81" s="209"/>
+      <c r="J81" s="229"/>
+      <c r="K81" s="209"/>
+      <c r="L81" s="223"/>
+      <c r="M81" s="223"/>
+      <c r="N81" s="209"/>
+      <c r="O81" s="209"/>
+      <c r="P81" s="209"/>
+      <c r="Q81" s="209"/>
+      <c r="R81" s="209"/>
+      <c r="S81" s="223"/>
+      <c r="T81" s="223"/>
+      <c r="U81" s="209"/>
+      <c r="V81" s="209"/>
+      <c r="W81" s="209"/>
       <c r="X81" s="48"/>
       <c r="Y81" s="48"/>
       <c r="Z81" s="71"/>
@@ -14654,8 +14761,8 @@
       <c r="AB81" s="48"/>
       <c r="AC81" s="48"/>
       <c r="AD81" s="48"/>
-      <c r="AE81" s="48"/>
-      <c r="AF81" s="48"/>
+      <c r="AE81" s="312"/>
+      <c r="AF81" s="312"/>
       <c r="AG81" s="71"/>
       <c r="AH81" s="71"/>
       <c r="AI81" s="48"/>
@@ -14669,21 +14776,21 @@
       <c r="AQ81" s="48"/>
       <c r="AR81" s="48"/>
       <c r="AS81" s="48"/>
-      <c r="AT81" s="145"/>
+      <c r="AT81" s="143"/>
       <c r="AU81" s="71"/>
       <c r="AV81" s="71"/>
       <c r="AW81" s="48"/>
       <c r="AX81" s="48"/>
       <c r="AY81" s="48"/>
       <c r="AZ81" s="48"/>
-      <c r="BA81" s="145"/>
+      <c r="BA81" s="143"/>
       <c r="BB81" s="71"/>
       <c r="BC81" s="71"/>
       <c r="BD81" s="48"/>
       <c r="BE81" s="48"/>
       <c r="BF81" s="48"/>
       <c r="BG81" s="48"/>
-      <c r="BH81" s="145"/>
+      <c r="BH81" s="143"/>
       <c r="BI81" s="71"/>
       <c r="BJ81" s="71"/>
       <c r="BK81" s="48"/>
@@ -14741,28 +14848,28 @@
       <c r="DK81" s="52"/>
     </row>
     <row r="82" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B82" s="288"/>
-      <c r="C82" s="293"/>
+      <c r="B82" s="281"/>
+      <c r="C82" s="296"/>
       <c r="D82" s="25"/>
       <c r="E82" s="26"/>
       <c r="F82" s="84"/>
-      <c r="G82" s="239"/>
-      <c r="H82" s="198"/>
-      <c r="I82" s="198"/>
-      <c r="J82" s="240"/>
-      <c r="K82" s="240"/>
-      <c r="L82" s="232"/>
-      <c r="M82" s="232"/>
-      <c r="N82" s="198"/>
-      <c r="O82" s="198"/>
-      <c r="P82" s="198"/>
-      <c r="Q82" s="198"/>
-      <c r="R82" s="198"/>
-      <c r="S82" s="232"/>
-      <c r="T82" s="232"/>
-      <c r="U82" s="198"/>
-      <c r="V82" s="32"/>
-      <c r="W82" s="32"/>
+      <c r="G82" s="237"/>
+      <c r="H82" s="196"/>
+      <c r="I82" s="196"/>
+      <c r="J82" s="238"/>
+      <c r="K82" s="238"/>
+      <c r="L82" s="230"/>
+      <c r="M82" s="230"/>
+      <c r="N82" s="196"/>
+      <c r="O82" s="196"/>
+      <c r="P82" s="196"/>
+      <c r="Q82" s="196"/>
+      <c r="R82" s="196"/>
+      <c r="S82" s="230"/>
+      <c r="T82" s="230"/>
+      <c r="U82" s="196"/>
+      <c r="V82" s="196"/>
+      <c r="W82" s="196"/>
       <c r="X82" s="32"/>
       <c r="Y82" s="32"/>
       <c r="Z82" s="69"/>
@@ -14770,8 +14877,8 @@
       <c r="AB82" s="32"/>
       <c r="AC82" s="32"/>
       <c r="AD82" s="32"/>
-      <c r="AE82" s="32"/>
-      <c r="AF82" s="32"/>
+      <c r="AE82" s="310"/>
+      <c r="AF82" s="310"/>
       <c r="AG82" s="69"/>
       <c r="AH82" s="69"/>
       <c r="AI82" s="32"/>
@@ -14785,21 +14892,21 @@
       <c r="AQ82" s="32"/>
       <c r="AR82" s="32"/>
       <c r="AS82" s="32"/>
-      <c r="AT82" s="143"/>
+      <c r="AT82" s="141"/>
       <c r="AU82" s="69"/>
       <c r="AV82" s="69"/>
       <c r="AW82" s="32"/>
       <c r="AX82" s="32"/>
       <c r="AY82" s="32"/>
       <c r="AZ82" s="32"/>
-      <c r="BA82" s="143"/>
+      <c r="BA82" s="141"/>
       <c r="BB82" s="69"/>
       <c r="BC82" s="69"/>
       <c r="BD82" s="32"/>
       <c r="BE82" s="32"/>
       <c r="BF82" s="32"/>
       <c r="BG82" s="32"/>
-      <c r="BH82" s="143"/>
+      <c r="BH82" s="141"/>
       <c r="BI82" s="69"/>
       <c r="BJ82" s="69"/>
       <c r="BK82" s="32"/>
@@ -14857,10 +14964,10 @@
       <c r="DK82" s="36"/>
     </row>
     <row r="83" spans="2:116">
-      <c r="B83" s="280" t="s">
+      <c r="B83" s="279" t="s">
         <v>5</v>
       </c>
-      <c r="C83" s="282" t="s">
+      <c r="C83" s="289" t="s">
         <v>39</v>
       </c>
       <c r="D83" s="3"/>
@@ -14868,23 +14975,23 @@
         <v>20</v>
       </c>
       <c r="F83" s="76"/>
-      <c r="G83" s="241"/>
-      <c r="H83" s="204"/>
-      <c r="I83" s="204"/>
-      <c r="J83" s="204"/>
-      <c r="K83" s="204"/>
-      <c r="L83" s="235"/>
-      <c r="M83" s="235"/>
-      <c r="N83" s="204"/>
-      <c r="O83" s="204"/>
-      <c r="P83" s="204"/>
-      <c r="Q83" s="204"/>
-      <c r="R83" s="204"/>
-      <c r="S83" s="235"/>
-      <c r="T83" s="235"/>
-      <c r="U83" s="204"/>
-      <c r="V83" s="42"/>
-      <c r="W83" s="42"/>
+      <c r="G83" s="239"/>
+      <c r="H83" s="202"/>
+      <c r="I83" s="202"/>
+      <c r="J83" s="202"/>
+      <c r="K83" s="202"/>
+      <c r="L83" s="233"/>
+      <c r="M83" s="233"/>
+      <c r="N83" s="202"/>
+      <c r="O83" s="202"/>
+      <c r="P83" s="202"/>
+      <c r="Q83" s="202"/>
+      <c r="R83" s="202"/>
+      <c r="S83" s="233"/>
+      <c r="T83" s="233"/>
+      <c r="U83" s="202"/>
+      <c r="V83" s="202"/>
+      <c r="W83" s="202"/>
       <c r="X83" s="42"/>
       <c r="Y83" s="42"/>
       <c r="Z83" s="70"/>
@@ -14892,36 +14999,36 @@
       <c r="AB83" s="42"/>
       <c r="AC83" s="42"/>
       <c r="AD83" s="42"/>
-      <c r="AE83" s="42"/>
-      <c r="AF83" s="42"/>
+      <c r="AE83" s="311"/>
+      <c r="AF83" s="311"/>
       <c r="AG83" s="70"/>
       <c r="AH83" s="70"/>
-      <c r="AI83" s="121"/>
-      <c r="AJ83" s="121"/>
-      <c r="AK83" s="121"/>
-      <c r="AL83" s="121"/>
-      <c r="AM83" s="121"/>
+      <c r="AI83" s="119"/>
+      <c r="AJ83" s="119"/>
+      <c r="AK83" s="119"/>
+      <c r="AL83" s="119"/>
+      <c r="AM83" s="119"/>
       <c r="AN83" s="70"/>
       <c r="AO83" s="70"/>
       <c r="AP83" s="42"/>
       <c r="AQ83" s="42"/>
       <c r="AR83" s="42"/>
       <c r="AS83" s="42"/>
-      <c r="AT83" s="144"/>
+      <c r="AT83" s="142"/>
       <c r="AU83" s="70"/>
       <c r="AV83" s="70"/>
       <c r="AW83" s="42"/>
       <c r="AX83" s="42"/>
       <c r="AY83" s="42"/>
       <c r="AZ83" s="42"/>
-      <c r="BA83" s="144"/>
+      <c r="BA83" s="142"/>
       <c r="BB83" s="70"/>
       <c r="BC83" s="70"/>
       <c r="BD83" s="42"/>
       <c r="BE83" s="42"/>
       <c r="BF83" s="42"/>
       <c r="BG83" s="42"/>
-      <c r="BH83" s="144"/>
+      <c r="BH83" s="142"/>
       <c r="BI83" s="70"/>
       <c r="BJ83" s="70"/>
       <c r="BK83" s="42"/>
@@ -14979,30 +15086,30 @@
       <c r="DK83" s="47"/>
     </row>
     <row r="84" spans="2:116">
-      <c r="B84" s="279"/>
-      <c r="C84" s="283"/>
+      <c r="B84" s="280"/>
+      <c r="C84" s="290"/>
       <c r="D84" s="5"/>
       <c r="E84" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F84" s="75"/>
-      <c r="G84" s="238"/>
-      <c r="H84" s="211"/>
-      <c r="I84" s="211"/>
-      <c r="J84" s="211"/>
-      <c r="K84" s="211"/>
-      <c r="L84" s="225"/>
-      <c r="M84" s="225"/>
-      <c r="N84" s="211"/>
-      <c r="O84" s="211"/>
-      <c r="P84" s="211"/>
-      <c r="Q84" s="211"/>
-      <c r="R84" s="211"/>
-      <c r="S84" s="225"/>
-      <c r="T84" s="225"/>
-      <c r="U84" s="211"/>
-      <c r="V84" s="48"/>
-      <c r="W84" s="48"/>
+      <c r="G84" s="236"/>
+      <c r="H84" s="209"/>
+      <c r="I84" s="209"/>
+      <c r="J84" s="209"/>
+      <c r="K84" s="209"/>
+      <c r="L84" s="223"/>
+      <c r="M84" s="223"/>
+      <c r="N84" s="209"/>
+      <c r="O84" s="209"/>
+      <c r="P84" s="209"/>
+      <c r="Q84" s="209"/>
+      <c r="R84" s="209"/>
+      <c r="S84" s="223"/>
+      <c r="T84" s="223"/>
+      <c r="U84" s="209"/>
+      <c r="V84" s="209"/>
+      <c r="W84" s="209"/>
       <c r="X84" s="48"/>
       <c r="Y84" s="48"/>
       <c r="Z84" s="71"/>
@@ -15010,36 +15117,36 @@
       <c r="AB84" s="48"/>
       <c r="AC84" s="48"/>
       <c r="AD84" s="48"/>
-      <c r="AE84" s="48"/>
-      <c r="AF84" s="48"/>
+      <c r="AE84" s="312"/>
+      <c r="AF84" s="312"/>
       <c r="AG84" s="71"/>
       <c r="AH84" s="71"/>
-      <c r="AI84" s="98"/>
-      <c r="AJ84" s="98"/>
-      <c r="AK84" s="98"/>
-      <c r="AL84" s="98"/>
-      <c r="AM84" s="98"/>
+      <c r="AI84" s="97"/>
+      <c r="AJ84" s="97"/>
+      <c r="AK84" s="97"/>
+      <c r="AL84" s="97"/>
+      <c r="AM84" s="97"/>
       <c r="AN84" s="71"/>
       <c r="AO84" s="71"/>
       <c r="AP84" s="48"/>
       <c r="AQ84" s="48"/>
       <c r="AR84" s="48"/>
       <c r="AS84" s="48"/>
-      <c r="AT84" s="145"/>
+      <c r="AT84" s="143"/>
       <c r="AU84" s="71"/>
       <c r="AV84" s="71"/>
       <c r="AW84" s="48"/>
       <c r="AX84" s="48"/>
       <c r="AY84" s="48"/>
       <c r="AZ84" s="48"/>
-      <c r="BA84" s="145"/>
+      <c r="BA84" s="143"/>
       <c r="BB84" s="71"/>
       <c r="BC84" s="71"/>
       <c r="BD84" s="48"/>
       <c r="BE84" s="48"/>
       <c r="BF84" s="48"/>
       <c r="BG84" s="48"/>
-      <c r="BH84" s="145"/>
+      <c r="BH84" s="143"/>
       <c r="BI84" s="71"/>
       <c r="BJ84" s="71"/>
       <c r="BK84" s="48"/>
@@ -15097,28 +15204,28 @@
       <c r="DK84" s="52"/>
     </row>
     <row r="85" spans="2:116">
-      <c r="B85" s="279"/>
-      <c r="C85" s="283"/>
+      <c r="B85" s="280"/>
+      <c r="C85" s="290"/>
       <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="75"/>
-      <c r="G85" s="238"/>
-      <c r="H85" s="211"/>
-      <c r="I85" s="211"/>
-      <c r="J85" s="211"/>
-      <c r="K85" s="211"/>
-      <c r="L85" s="225"/>
-      <c r="M85" s="225"/>
-      <c r="N85" s="211"/>
-      <c r="O85" s="211"/>
-      <c r="P85" s="211"/>
-      <c r="Q85" s="211"/>
-      <c r="R85" s="211"/>
-      <c r="S85" s="225"/>
-      <c r="T85" s="225"/>
-      <c r="U85" s="211"/>
-      <c r="V85" s="48"/>
-      <c r="W85" s="48"/>
+      <c r="G85" s="236"/>
+      <c r="H85" s="209"/>
+      <c r="I85" s="209"/>
+      <c r="J85" s="209"/>
+      <c r="K85" s="209"/>
+      <c r="L85" s="223"/>
+      <c r="M85" s="223"/>
+      <c r="N85" s="209"/>
+      <c r="O85" s="209"/>
+      <c r="P85" s="209"/>
+      <c r="Q85" s="209"/>
+      <c r="R85" s="209"/>
+      <c r="S85" s="223"/>
+      <c r="T85" s="223"/>
+      <c r="U85" s="209"/>
+      <c r="V85" s="209"/>
+      <c r="W85" s="209"/>
       <c r="X85" s="48"/>
       <c r="Y85" s="48"/>
       <c r="Z85" s="71"/>
@@ -15126,8 +15233,8 @@
       <c r="AB85" s="48"/>
       <c r="AC85" s="48"/>
       <c r="AD85" s="48"/>
-      <c r="AE85" s="48"/>
-      <c r="AF85" s="48"/>
+      <c r="AE85" s="312"/>
+      <c r="AF85" s="312"/>
       <c r="AG85" s="71"/>
       <c r="AH85" s="71"/>
       <c r="AI85" s="48"/>
@@ -15141,21 +15248,21 @@
       <c r="AQ85" s="48"/>
       <c r="AR85" s="48"/>
       <c r="AS85" s="48"/>
-      <c r="AT85" s="145"/>
+      <c r="AT85" s="143"/>
       <c r="AU85" s="71"/>
       <c r="AV85" s="71"/>
       <c r="AW85" s="48"/>
       <c r="AX85" s="48"/>
       <c r="AY85" s="48"/>
       <c r="AZ85" s="48"/>
-      <c r="BA85" s="145"/>
+      <c r="BA85" s="143"/>
       <c r="BB85" s="71"/>
       <c r="BC85" s="71"/>
       <c r="BD85" s="48"/>
       <c r="BE85" s="48"/>
       <c r="BF85" s="48"/>
       <c r="BG85" s="48"/>
-      <c r="BH85" s="145"/>
+      <c r="BH85" s="143"/>
       <c r="BI85" s="71"/>
       <c r="BJ85" s="71"/>
       <c r="BK85" s="48"/>
@@ -15213,28 +15320,28 @@
       <c r="DK85" s="52"/>
     </row>
     <row r="86" spans="2:116">
-      <c r="B86" s="279"/>
-      <c r="C86" s="283"/>
+      <c r="B86" s="280"/>
+      <c r="C86" s="290"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="75"/>
-      <c r="G86" s="238"/>
-      <c r="H86" s="211"/>
-      <c r="I86" s="211"/>
-      <c r="J86" s="211"/>
-      <c r="K86" s="211"/>
-      <c r="L86" s="225"/>
-      <c r="M86" s="225"/>
-      <c r="N86" s="211"/>
-      <c r="O86" s="211"/>
-      <c r="P86" s="211"/>
-      <c r="Q86" s="211"/>
-      <c r="R86" s="211"/>
-      <c r="S86" s="225"/>
-      <c r="T86" s="225"/>
-      <c r="U86" s="211"/>
-      <c r="V86" s="48"/>
-      <c r="W86" s="48"/>
+      <c r="G86" s="236"/>
+      <c r="H86" s="209"/>
+      <c r="I86" s="209"/>
+      <c r="J86" s="209"/>
+      <c r="K86" s="209"/>
+      <c r="L86" s="223"/>
+      <c r="M86" s="223"/>
+      <c r="N86" s="209"/>
+      <c r="O86" s="209"/>
+      <c r="P86" s="209"/>
+      <c r="Q86" s="209"/>
+      <c r="R86" s="209"/>
+      <c r="S86" s="223"/>
+      <c r="T86" s="223"/>
+      <c r="U86" s="209"/>
+      <c r="V86" s="209"/>
+      <c r="W86" s="209"/>
       <c r="X86" s="48"/>
       <c r="Y86" s="48"/>
       <c r="Z86" s="71"/>
@@ -15242,8 +15349,8 @@
       <c r="AB86" s="48"/>
       <c r="AC86" s="48"/>
       <c r="AD86" s="48"/>
-      <c r="AE86" s="48"/>
-      <c r="AF86" s="48"/>
+      <c r="AE86" s="312"/>
+      <c r="AF86" s="312"/>
       <c r="AG86" s="71"/>
       <c r="AH86" s="71"/>
       <c r="AI86" s="48"/>
@@ -15257,21 +15364,21 @@
       <c r="AQ86" s="48"/>
       <c r="AR86" s="48"/>
       <c r="AS86" s="48"/>
-      <c r="AT86" s="145"/>
+      <c r="AT86" s="143"/>
       <c r="AU86" s="71"/>
       <c r="AV86" s="71"/>
       <c r="AW86" s="48"/>
       <c r="AX86" s="48"/>
       <c r="AY86" s="48"/>
       <c r="AZ86" s="48"/>
-      <c r="BA86" s="145"/>
+      <c r="BA86" s="143"/>
       <c r="BB86" s="71"/>
       <c r="BC86" s="71"/>
       <c r="BD86" s="48"/>
       <c r="BE86" s="48"/>
       <c r="BF86" s="48"/>
       <c r="BG86" s="48"/>
-      <c r="BH86" s="145"/>
+      <c r="BH86" s="143"/>
       <c r="BI86" s="71"/>
       <c r="BJ86" s="71"/>
       <c r="BK86" s="48"/>
@@ -15329,28 +15436,28 @@
       <c r="DK86" s="52"/>
     </row>
     <row r="87" spans="2:116">
-      <c r="B87" s="279"/>
-      <c r="C87" s="283"/>
+      <c r="B87" s="280"/>
+      <c r="C87" s="290"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
       <c r="F87" s="75"/>
-      <c r="G87" s="237"/>
-      <c r="H87" s="227"/>
-      <c r="I87" s="227"/>
-      <c r="J87" s="227"/>
-      <c r="K87" s="227"/>
-      <c r="L87" s="229"/>
-      <c r="M87" s="229"/>
-      <c r="N87" s="227"/>
-      <c r="O87" s="227"/>
-      <c r="P87" s="227"/>
-      <c r="Q87" s="227"/>
-      <c r="R87" s="227"/>
-      <c r="S87" s="229"/>
-      <c r="T87" s="229"/>
-      <c r="U87" s="227"/>
-      <c r="V87" s="57"/>
-      <c r="W87" s="57"/>
+      <c r="G87" s="235"/>
+      <c r="H87" s="225"/>
+      <c r="I87" s="225"/>
+      <c r="J87" s="225"/>
+      <c r="K87" s="225"/>
+      <c r="L87" s="227"/>
+      <c r="M87" s="227"/>
+      <c r="N87" s="225"/>
+      <c r="O87" s="225"/>
+      <c r="P87" s="225"/>
+      <c r="Q87" s="225"/>
+      <c r="R87" s="225"/>
+      <c r="S87" s="227"/>
+      <c r="T87" s="227"/>
+      <c r="U87" s="225"/>
+      <c r="V87" s="225"/>
+      <c r="W87" s="225"/>
       <c r="X87" s="57"/>
       <c r="Y87" s="57"/>
       <c r="Z87" s="73"/>
@@ -15358,8 +15465,8 @@
       <c r="AB87" s="57"/>
       <c r="AC87" s="57"/>
       <c r="AD87" s="57"/>
-      <c r="AE87" s="57"/>
-      <c r="AF87" s="57"/>
+      <c r="AE87" s="314"/>
+      <c r="AF87" s="314"/>
       <c r="AG87" s="73"/>
       <c r="AH87" s="73"/>
       <c r="AI87" s="57"/>
@@ -15373,21 +15480,21 @@
       <c r="AQ87" s="57"/>
       <c r="AR87" s="57"/>
       <c r="AS87" s="57"/>
-      <c r="AT87" s="147"/>
+      <c r="AT87" s="145"/>
       <c r="AU87" s="73"/>
       <c r="AV87" s="73"/>
       <c r="AW87" s="57"/>
       <c r="AX87" s="57"/>
       <c r="AY87" s="57"/>
       <c r="AZ87" s="57"/>
-      <c r="BA87" s="147"/>
+      <c r="BA87" s="145"/>
       <c r="BB87" s="73"/>
       <c r="BC87" s="73"/>
       <c r="BD87" s="57"/>
       <c r="BE87" s="57"/>
       <c r="BF87" s="57"/>
       <c r="BG87" s="57"/>
-      <c r="BH87" s="147"/>
+      <c r="BH87" s="145"/>
       <c r="BI87" s="73"/>
       <c r="BJ87" s="73"/>
       <c r="BK87" s="57"/>
@@ -15445,28 +15552,28 @@
       <c r="DK87" s="61"/>
     </row>
     <row r="88" spans="2:116">
-      <c r="B88" s="279"/>
-      <c r="C88" s="284"/>
+      <c r="B88" s="280"/>
+      <c r="C88" s="291"/>
       <c r="D88" s="8"/>
       <c r="E88" s="9"/>
       <c r="F88" s="77"/>
-      <c r="G88" s="242"/>
-      <c r="H88" s="222"/>
-      <c r="I88" s="222"/>
-      <c r="J88" s="222"/>
-      <c r="K88" s="222"/>
-      <c r="L88" s="224"/>
-      <c r="M88" s="224"/>
-      <c r="N88" s="222"/>
-      <c r="O88" s="222"/>
-      <c r="P88" s="222"/>
-      <c r="Q88" s="222"/>
-      <c r="R88" s="222"/>
-      <c r="S88" s="224"/>
-      <c r="T88" s="224"/>
-      <c r="U88" s="222"/>
-      <c r="V88" s="62"/>
-      <c r="W88" s="62"/>
+      <c r="G88" s="240"/>
+      <c r="H88" s="220"/>
+      <c r="I88" s="220"/>
+      <c r="J88" s="220"/>
+      <c r="K88" s="220"/>
+      <c r="L88" s="222"/>
+      <c r="M88" s="222"/>
+      <c r="N88" s="220"/>
+      <c r="O88" s="220"/>
+      <c r="P88" s="220"/>
+      <c r="Q88" s="220"/>
+      <c r="R88" s="220"/>
+      <c r="S88" s="222"/>
+      <c r="T88" s="222"/>
+      <c r="U88" s="220"/>
+      <c r="V88" s="220"/>
+      <c r="W88" s="220"/>
       <c r="X88" s="62"/>
       <c r="Y88" s="62"/>
       <c r="Z88" s="72"/>
@@ -15474,8 +15581,8 @@
       <c r="AB88" s="62"/>
       <c r="AC88" s="62"/>
       <c r="AD88" s="62"/>
-      <c r="AE88" s="62"/>
-      <c r="AF88" s="62"/>
+      <c r="AE88" s="313"/>
+      <c r="AF88" s="313"/>
       <c r="AG88" s="72"/>
       <c r="AH88" s="72"/>
       <c r="AI88" s="62"/>
@@ -15489,21 +15596,21 @@
       <c r="AQ88" s="62"/>
       <c r="AR88" s="62"/>
       <c r="AS88" s="62"/>
-      <c r="AT88" s="146"/>
+      <c r="AT88" s="144"/>
       <c r="AU88" s="72"/>
       <c r="AV88" s="72"/>
       <c r="AW88" s="62"/>
       <c r="AX88" s="62"/>
       <c r="AY88" s="62"/>
       <c r="AZ88" s="62"/>
-      <c r="BA88" s="146"/>
+      <c r="BA88" s="144"/>
       <c r="BB88" s="72"/>
       <c r="BC88" s="72"/>
       <c r="BD88" s="62"/>
       <c r="BE88" s="62"/>
       <c r="BF88" s="62"/>
       <c r="BG88" s="62"/>
-      <c r="BH88" s="146"/>
+      <c r="BH88" s="144"/>
       <c r="BI88" s="72"/>
       <c r="BJ88" s="72"/>
       <c r="BK88" s="62"/>
@@ -15561,28 +15668,28 @@
       <c r="DK88" s="67"/>
     </row>
     <row r="89" spans="2:116">
-      <c r="B89" s="279"/>
-      <c r="C89" s="283"/>
+      <c r="B89" s="280"/>
+      <c r="C89" s="290"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="F89" s="75"/>
-      <c r="G89" s="238"/>
-      <c r="H89" s="211"/>
-      <c r="I89" s="211"/>
-      <c r="J89" s="211"/>
-      <c r="K89" s="211"/>
-      <c r="L89" s="225"/>
-      <c r="M89" s="225"/>
-      <c r="N89" s="211"/>
-      <c r="O89" s="211"/>
-      <c r="P89" s="211"/>
-      <c r="Q89" s="211"/>
-      <c r="R89" s="211"/>
-      <c r="S89" s="225"/>
-      <c r="T89" s="225"/>
-      <c r="U89" s="211"/>
-      <c r="V89" s="48"/>
-      <c r="W89" s="48"/>
+      <c r="G89" s="236"/>
+      <c r="H89" s="209"/>
+      <c r="I89" s="209"/>
+      <c r="J89" s="209"/>
+      <c r="K89" s="209"/>
+      <c r="L89" s="223"/>
+      <c r="M89" s="223"/>
+      <c r="N89" s="209"/>
+      <c r="O89" s="209"/>
+      <c r="P89" s="209"/>
+      <c r="Q89" s="209"/>
+      <c r="R89" s="209"/>
+      <c r="S89" s="223"/>
+      <c r="T89" s="223"/>
+      <c r="U89" s="209"/>
+      <c r="V89" s="209"/>
+      <c r="W89" s="209"/>
       <c r="X89" s="48"/>
       <c r="Y89" s="48"/>
       <c r="Z89" s="71"/>
@@ -15590,8 +15697,8 @@
       <c r="AB89" s="48"/>
       <c r="AC89" s="48"/>
       <c r="AD89" s="48"/>
-      <c r="AE89" s="48"/>
-      <c r="AF89" s="48"/>
+      <c r="AE89" s="312"/>
+      <c r="AF89" s="312"/>
       <c r="AG89" s="71"/>
       <c r="AH89" s="71"/>
       <c r="AI89" s="48"/>
@@ -15605,21 +15712,21 @@
       <c r="AQ89" s="48"/>
       <c r="AR89" s="48"/>
       <c r="AS89" s="48"/>
-      <c r="AT89" s="145"/>
+      <c r="AT89" s="143"/>
       <c r="AU89" s="71"/>
       <c r="AV89" s="71"/>
       <c r="AW89" s="48"/>
       <c r="AX89" s="48"/>
       <c r="AY89" s="48"/>
       <c r="AZ89" s="48"/>
-      <c r="BA89" s="145"/>
+      <c r="BA89" s="143"/>
       <c r="BB89" s="71"/>
       <c r="BC89" s="71"/>
       <c r="BD89" s="48"/>
       <c r="BE89" s="48"/>
       <c r="BF89" s="48"/>
       <c r="BG89" s="48"/>
-      <c r="BH89" s="145"/>
+      <c r="BH89" s="143"/>
       <c r="BI89" s="71"/>
       <c r="BJ89" s="71"/>
       <c r="BK89" s="48"/>
@@ -15677,28 +15784,28 @@
       <c r="DK89" s="52"/>
     </row>
     <row r="90" spans="2:116">
-      <c r="B90" s="279"/>
-      <c r="C90" s="283"/>
+      <c r="B90" s="280"/>
+      <c r="C90" s="290"/>
       <c r="D90" s="5"/>
       <c r="E90" s="6"/>
       <c r="F90" s="75"/>
-      <c r="G90" s="238"/>
-      <c r="H90" s="211"/>
-      <c r="I90" s="211"/>
-      <c r="J90" s="211"/>
-      <c r="K90" s="211"/>
-      <c r="L90" s="225"/>
-      <c r="M90" s="225"/>
-      <c r="N90" s="211"/>
-      <c r="O90" s="211"/>
-      <c r="P90" s="211"/>
-      <c r="Q90" s="211"/>
-      <c r="R90" s="211"/>
-      <c r="S90" s="225"/>
-      <c r="T90" s="225"/>
-      <c r="U90" s="211"/>
-      <c r="V90" s="48"/>
-      <c r="W90" s="48"/>
+      <c r="G90" s="236"/>
+      <c r="H90" s="209"/>
+      <c r="I90" s="209"/>
+      <c r="J90" s="209"/>
+      <c r="K90" s="209"/>
+      <c r="L90" s="223"/>
+      <c r="M90" s="223"/>
+      <c r="N90" s="209"/>
+      <c r="O90" s="209"/>
+      <c r="P90" s="209"/>
+      <c r="Q90" s="209"/>
+      <c r="R90" s="209"/>
+      <c r="S90" s="223"/>
+      <c r="T90" s="223"/>
+      <c r="U90" s="209"/>
+      <c r="V90" s="209"/>
+      <c r="W90" s="209"/>
       <c r="X90" s="48"/>
       <c r="Y90" s="48"/>
       <c r="Z90" s="71"/>
@@ -15706,8 +15813,8 @@
       <c r="AB90" s="48"/>
       <c r="AC90" s="48"/>
       <c r="AD90" s="48"/>
-      <c r="AE90" s="48"/>
-      <c r="AF90" s="48"/>
+      <c r="AE90" s="312"/>
+      <c r="AF90" s="312"/>
       <c r="AG90" s="71"/>
       <c r="AH90" s="71"/>
       <c r="AI90" s="48"/>
@@ -15721,21 +15828,21 @@
       <c r="AQ90" s="48"/>
       <c r="AR90" s="48"/>
       <c r="AS90" s="48"/>
-      <c r="AT90" s="145"/>
+      <c r="AT90" s="143"/>
       <c r="AU90" s="71"/>
       <c r="AV90" s="71"/>
       <c r="AW90" s="48"/>
       <c r="AX90" s="48"/>
       <c r="AY90" s="48"/>
       <c r="AZ90" s="48"/>
-      <c r="BA90" s="145"/>
+      <c r="BA90" s="143"/>
       <c r="BB90" s="71"/>
       <c r="BC90" s="71"/>
       <c r="BD90" s="48"/>
       <c r="BE90" s="48"/>
       <c r="BF90" s="48"/>
       <c r="BG90" s="48"/>
-      <c r="BH90" s="145"/>
+      <c r="BH90" s="143"/>
       <c r="BI90" s="71"/>
       <c r="BJ90" s="71"/>
       <c r="BK90" s="48"/>
@@ -15793,28 +15900,28 @@
       <c r="DK90" s="52"/>
     </row>
     <row r="91" spans="2:116">
-      <c r="B91" s="279"/>
-      <c r="C91" s="283"/>
+      <c r="B91" s="280"/>
+      <c r="C91" s="290"/>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
       <c r="F91" s="75"/>
-      <c r="G91" s="238"/>
-      <c r="H91" s="211"/>
-      <c r="I91" s="211"/>
-      <c r="J91" s="211"/>
-      <c r="K91" s="211"/>
-      <c r="L91" s="225"/>
-      <c r="M91" s="225"/>
-      <c r="N91" s="211"/>
-      <c r="O91" s="211"/>
-      <c r="P91" s="211"/>
-      <c r="Q91" s="211"/>
-      <c r="R91" s="211"/>
-      <c r="S91" s="225"/>
-      <c r="T91" s="225"/>
-      <c r="U91" s="211"/>
-      <c r="V91" s="48"/>
-      <c r="W91" s="48"/>
+      <c r="G91" s="236"/>
+      <c r="H91" s="209"/>
+      <c r="I91" s="209"/>
+      <c r="J91" s="209"/>
+      <c r="K91" s="209"/>
+      <c r="L91" s="223"/>
+      <c r="M91" s="223"/>
+      <c r="N91" s="209"/>
+      <c r="O91" s="209"/>
+      <c r="P91" s="209"/>
+      <c r="Q91" s="209"/>
+      <c r="R91" s="209"/>
+      <c r="S91" s="223"/>
+      <c r="T91" s="223"/>
+      <c r="U91" s="209"/>
+      <c r="V91" s="209"/>
+      <c r="W91" s="209"/>
       <c r="X91" s="48"/>
       <c r="Y91" s="48"/>
       <c r="Z91" s="71"/>
@@ -15822,8 +15929,8 @@
       <c r="AB91" s="48"/>
       <c r="AC91" s="48"/>
       <c r="AD91" s="48"/>
-      <c r="AE91" s="48"/>
-      <c r="AF91" s="48"/>
+      <c r="AE91" s="312"/>
+      <c r="AF91" s="312"/>
       <c r="AG91" s="71"/>
       <c r="AH91" s="71"/>
       <c r="AI91" s="48"/>
@@ -15837,21 +15944,21 @@
       <c r="AQ91" s="48"/>
       <c r="AR91" s="48"/>
       <c r="AS91" s="48"/>
-      <c r="AT91" s="145"/>
+      <c r="AT91" s="143"/>
       <c r="AU91" s="71"/>
       <c r="AV91" s="71"/>
       <c r="AW91" s="48"/>
       <c r="AX91" s="48"/>
       <c r="AY91" s="48"/>
       <c r="AZ91" s="48"/>
-      <c r="BA91" s="145"/>
+      <c r="BA91" s="143"/>
       <c r="BB91" s="71"/>
       <c r="BC91" s="71"/>
       <c r="BD91" s="48"/>
       <c r="BE91" s="48"/>
       <c r="BF91" s="48"/>
       <c r="BG91" s="48"/>
-      <c r="BH91" s="145"/>
+      <c r="BH91" s="143"/>
       <c r="BI91" s="71"/>
       <c r="BJ91" s="71"/>
       <c r="BK91" s="48"/>
@@ -15909,28 +16016,28 @@
       <c r="DK91" s="52"/>
     </row>
     <row r="92" spans="2:116">
-      <c r="B92" s="279"/>
-      <c r="C92" s="283"/>
+      <c r="B92" s="280"/>
+      <c r="C92" s="290"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="75"/>
-      <c r="G92" s="238"/>
-      <c r="H92" s="211"/>
-      <c r="I92" s="211"/>
-      <c r="J92" s="211"/>
-      <c r="K92" s="211"/>
-      <c r="L92" s="225"/>
-      <c r="M92" s="225"/>
-      <c r="N92" s="211"/>
-      <c r="O92" s="211"/>
-      <c r="P92" s="211"/>
-      <c r="Q92" s="211"/>
-      <c r="R92" s="211"/>
-      <c r="S92" s="225"/>
-      <c r="T92" s="225"/>
-      <c r="U92" s="211"/>
-      <c r="V92" s="48"/>
-      <c r="W92" s="48"/>
+      <c r="G92" s="236"/>
+      <c r="H92" s="209"/>
+      <c r="I92" s="209"/>
+      <c r="J92" s="209"/>
+      <c r="K92" s="209"/>
+      <c r="L92" s="223"/>
+      <c r="M92" s="223"/>
+      <c r="N92" s="209"/>
+      <c r="O92" s="209"/>
+      <c r="P92" s="209"/>
+      <c r="Q92" s="209"/>
+      <c r="R92" s="209"/>
+      <c r="S92" s="223"/>
+      <c r="T92" s="223"/>
+      <c r="U92" s="209"/>
+      <c r="V92" s="209"/>
+      <c r="W92" s="209"/>
       <c r="X92" s="48"/>
       <c r="Y92" s="48"/>
       <c r="Z92" s="71"/>
@@ -15938,8 +16045,8 @@
       <c r="AB92" s="48"/>
       <c r="AC92" s="48"/>
       <c r="AD92" s="48"/>
-      <c r="AE92" s="48"/>
-      <c r="AF92" s="48"/>
+      <c r="AE92" s="312"/>
+      <c r="AF92" s="312"/>
       <c r="AG92" s="71"/>
       <c r="AH92" s="71"/>
       <c r="AI92" s="48"/>
@@ -15953,21 +16060,21 @@
       <c r="AQ92" s="48"/>
       <c r="AR92" s="48"/>
       <c r="AS92" s="48"/>
-      <c r="AT92" s="145"/>
+      <c r="AT92" s="143"/>
       <c r="AU92" s="71"/>
       <c r="AV92" s="71"/>
       <c r="AW92" s="48"/>
       <c r="AX92" s="48"/>
       <c r="AY92" s="48"/>
       <c r="AZ92" s="48"/>
-      <c r="BA92" s="145"/>
+      <c r="BA92" s="143"/>
       <c r="BB92" s="71"/>
       <c r="BC92" s="71"/>
       <c r="BD92" s="48"/>
       <c r="BE92" s="48"/>
       <c r="BF92" s="48"/>
       <c r="BG92" s="48"/>
-      <c r="BH92" s="145"/>
+      <c r="BH92" s="143"/>
       <c r="BI92" s="71"/>
       <c r="BJ92" s="71"/>
       <c r="BK92" s="48"/>
@@ -16025,28 +16132,28 @@
       <c r="DK92" s="52"/>
     </row>
     <row r="93" spans="2:116">
-      <c r="B93" s="279"/>
-      <c r="C93" s="285"/>
+      <c r="B93" s="280"/>
+      <c r="C93" s="286"/>
       <c r="D93" s="10"/>
       <c r="E93" s="11"/>
       <c r="F93" s="78"/>
-      <c r="G93" s="237"/>
-      <c r="H93" s="227"/>
-      <c r="I93" s="227"/>
-      <c r="J93" s="227"/>
-      <c r="K93" s="227"/>
-      <c r="L93" s="229"/>
-      <c r="M93" s="229"/>
-      <c r="N93" s="227"/>
-      <c r="O93" s="227"/>
-      <c r="P93" s="227"/>
-      <c r="Q93" s="227"/>
-      <c r="R93" s="227"/>
-      <c r="S93" s="229"/>
-      <c r="T93" s="229"/>
-      <c r="U93" s="227"/>
-      <c r="V93" s="57"/>
-      <c r="W93" s="57"/>
+      <c r="G93" s="235"/>
+      <c r="H93" s="225"/>
+      <c r="I93" s="225"/>
+      <c r="J93" s="225"/>
+      <c r="K93" s="225"/>
+      <c r="L93" s="227"/>
+      <c r="M93" s="227"/>
+      <c r="N93" s="225"/>
+      <c r="O93" s="225"/>
+      <c r="P93" s="225"/>
+      <c r="Q93" s="225"/>
+      <c r="R93" s="225"/>
+      <c r="S93" s="227"/>
+      <c r="T93" s="227"/>
+      <c r="U93" s="225"/>
+      <c r="V93" s="225"/>
+      <c r="W93" s="225"/>
       <c r="X93" s="57"/>
       <c r="Y93" s="57"/>
       <c r="Z93" s="73"/>
@@ -16054,8 +16161,8 @@
       <c r="AB93" s="57"/>
       <c r="AC93" s="57"/>
       <c r="AD93" s="57"/>
-      <c r="AE93" s="57"/>
-      <c r="AF93" s="57"/>
+      <c r="AE93" s="314"/>
+      <c r="AF93" s="314"/>
       <c r="AG93" s="73"/>
       <c r="AH93" s="73"/>
       <c r="AI93" s="57"/>
@@ -16069,21 +16176,21 @@
       <c r="AQ93" s="57"/>
       <c r="AR93" s="57"/>
       <c r="AS93" s="57"/>
-      <c r="AT93" s="147"/>
+      <c r="AT93" s="145"/>
       <c r="AU93" s="73"/>
       <c r="AV93" s="73"/>
       <c r="AW93" s="57"/>
       <c r="AX93" s="57"/>
       <c r="AY93" s="57"/>
       <c r="AZ93" s="57"/>
-      <c r="BA93" s="147"/>
+      <c r="BA93" s="145"/>
       <c r="BB93" s="73"/>
       <c r="BC93" s="73"/>
       <c r="BD93" s="57"/>
       <c r="BE93" s="57"/>
       <c r="BF93" s="57"/>
       <c r="BG93" s="57"/>
-      <c r="BH93" s="147"/>
+      <c r="BH93" s="145"/>
       <c r="BI93" s="73"/>
       <c r="BJ93" s="73"/>
       <c r="BK93" s="57"/>
@@ -16141,28 +16248,28 @@
       <c r="DK93" s="61"/>
     </row>
     <row r="94" spans="2:116">
-      <c r="B94" s="279"/>
-      <c r="C94" s="284"/>
+      <c r="B94" s="280"/>
+      <c r="C94" s="291"/>
       <c r="D94" s="8"/>
       <c r="E94" s="9"/>
       <c r="F94" s="77"/>
-      <c r="G94" s="238"/>
-      <c r="H94" s="211"/>
-      <c r="I94" s="211"/>
-      <c r="J94" s="211"/>
-      <c r="K94" s="211"/>
-      <c r="L94" s="225"/>
-      <c r="M94" s="225"/>
-      <c r="N94" s="211"/>
-      <c r="O94" s="211"/>
-      <c r="P94" s="211"/>
-      <c r="Q94" s="211"/>
-      <c r="R94" s="211"/>
-      <c r="S94" s="225"/>
-      <c r="T94" s="225"/>
-      <c r="U94" s="211"/>
-      <c r="V94" s="48"/>
-      <c r="W94" s="48"/>
+      <c r="G94" s="236"/>
+      <c r="H94" s="209"/>
+      <c r="I94" s="209"/>
+      <c r="J94" s="209"/>
+      <c r="K94" s="209"/>
+      <c r="L94" s="223"/>
+      <c r="M94" s="223"/>
+      <c r="N94" s="209"/>
+      <c r="O94" s="209"/>
+      <c r="P94" s="209"/>
+      <c r="Q94" s="209"/>
+      <c r="R94" s="209"/>
+      <c r="S94" s="223"/>
+      <c r="T94" s="223"/>
+      <c r="U94" s="209"/>
+      <c r="V94" s="209"/>
+      <c r="W94" s="209"/>
       <c r="X94" s="48"/>
       <c r="Y94" s="48"/>
       <c r="Z94" s="71"/>
@@ -16170,8 +16277,8 @@
       <c r="AB94" s="48"/>
       <c r="AC94" s="48"/>
       <c r="AD94" s="48"/>
-      <c r="AE94" s="48"/>
-      <c r="AF94" s="48"/>
+      <c r="AE94" s="312"/>
+      <c r="AF94" s="312"/>
       <c r="AG94" s="71"/>
       <c r="AH94" s="71"/>
       <c r="AI94" s="48"/>
@@ -16185,21 +16292,21 @@
       <c r="AQ94" s="48"/>
       <c r="AR94" s="48"/>
       <c r="AS94" s="48"/>
-      <c r="AT94" s="145"/>
+      <c r="AT94" s="143"/>
       <c r="AU94" s="71"/>
       <c r="AV94" s="71"/>
       <c r="AW94" s="48"/>
       <c r="AX94" s="48"/>
       <c r="AY94" s="48"/>
       <c r="AZ94" s="48"/>
-      <c r="BA94" s="145"/>
+      <c r="BA94" s="143"/>
       <c r="BB94" s="71"/>
       <c r="BC94" s="71"/>
       <c r="BD94" s="48"/>
       <c r="BE94" s="48"/>
       <c r="BF94" s="48"/>
       <c r="BG94" s="48"/>
-      <c r="BH94" s="145"/>
+      <c r="BH94" s="143"/>
       <c r="BI94" s="71"/>
       <c r="BJ94" s="71"/>
       <c r="BK94" s="48"/>
@@ -16258,28 +16365,28 @@
       <c r="DL94" s="7"/>
     </row>
     <row r="95" spans="2:116">
-      <c r="B95" s="279"/>
-      <c r="C95" s="283"/>
+      <c r="B95" s="280"/>
+      <c r="C95" s="290"/>
       <c r="D95" s="15"/>
       <c r="E95" s="22"/>
       <c r="F95" s="81"/>
-      <c r="G95" s="238"/>
-      <c r="H95" s="211"/>
-      <c r="I95" s="211"/>
-      <c r="J95" s="211"/>
-      <c r="K95" s="211"/>
-      <c r="L95" s="225"/>
-      <c r="M95" s="225"/>
-      <c r="N95" s="211"/>
-      <c r="O95" s="211"/>
-      <c r="P95" s="211"/>
-      <c r="Q95" s="211"/>
-      <c r="R95" s="211"/>
-      <c r="S95" s="225"/>
-      <c r="T95" s="225"/>
-      <c r="U95" s="211"/>
-      <c r="V95" s="48"/>
-      <c r="W95" s="48"/>
+      <c r="G95" s="236"/>
+      <c r="H95" s="209"/>
+      <c r="I95" s="209"/>
+      <c r="J95" s="209"/>
+      <c r="K95" s="209"/>
+      <c r="L95" s="223"/>
+      <c r="M95" s="223"/>
+      <c r="N95" s="209"/>
+      <c r="O95" s="209"/>
+      <c r="P95" s="209"/>
+      <c r="Q95" s="209"/>
+      <c r="R95" s="209"/>
+      <c r="S95" s="223"/>
+      <c r="T95" s="223"/>
+      <c r="U95" s="209"/>
+      <c r="V95" s="209"/>
+      <c r="W95" s="209"/>
       <c r="X95" s="48"/>
       <c r="Y95" s="48"/>
       <c r="Z95" s="71"/>
@@ -16287,8 +16394,8 @@
       <c r="AB95" s="48"/>
       <c r="AC95" s="48"/>
       <c r="AD95" s="48"/>
-      <c r="AE95" s="48"/>
-      <c r="AF95" s="48"/>
+      <c r="AE95" s="312"/>
+      <c r="AF95" s="312"/>
       <c r="AG95" s="71"/>
       <c r="AH95" s="71"/>
       <c r="AI95" s="48"/>
@@ -16302,21 +16409,21 @@
       <c r="AQ95" s="48"/>
       <c r="AR95" s="48"/>
       <c r="AS95" s="48"/>
-      <c r="AT95" s="145"/>
+      <c r="AT95" s="143"/>
       <c r="AU95" s="71"/>
       <c r="AV95" s="71"/>
       <c r="AW95" s="48"/>
       <c r="AX95" s="48"/>
       <c r="AY95" s="48"/>
       <c r="AZ95" s="48"/>
-      <c r="BA95" s="145"/>
+      <c r="BA95" s="143"/>
       <c r="BB95" s="71"/>
       <c r="BC95" s="71"/>
       <c r="BD95" s="48"/>
       <c r="BE95" s="48"/>
       <c r="BF95" s="48"/>
       <c r="BG95" s="48"/>
-      <c r="BH95" s="145"/>
+      <c r="BH95" s="143"/>
       <c r="BI95" s="71"/>
       <c r="BJ95" s="71"/>
       <c r="BK95" s="48"/>
@@ -16375,28 +16482,28 @@
       <c r="DL95" s="7"/>
     </row>
     <row r="96" spans="2:116">
-      <c r="B96" s="279"/>
-      <c r="C96" s="283"/>
+      <c r="B96" s="280"/>
+      <c r="C96" s="290"/>
       <c r="D96" s="15"/>
       <c r="E96" s="22"/>
       <c r="F96" s="81"/>
-      <c r="G96" s="238"/>
-      <c r="H96" s="211"/>
-      <c r="I96" s="211"/>
-      <c r="J96" s="211"/>
-      <c r="K96" s="211"/>
-      <c r="L96" s="225"/>
-      <c r="M96" s="225"/>
-      <c r="N96" s="211"/>
-      <c r="O96" s="211"/>
-      <c r="P96" s="211"/>
-      <c r="Q96" s="211"/>
-      <c r="R96" s="211"/>
-      <c r="S96" s="225"/>
-      <c r="T96" s="225"/>
-      <c r="U96" s="211"/>
-      <c r="V96" s="48"/>
-      <c r="W96" s="48"/>
+      <c r="G96" s="236"/>
+      <c r="H96" s="209"/>
+      <c r="I96" s="209"/>
+      <c r="J96" s="209"/>
+      <c r="K96" s="209"/>
+      <c r="L96" s="223"/>
+      <c r="M96" s="223"/>
+      <c r="N96" s="209"/>
+      <c r="O96" s="209"/>
+      <c r="P96" s="209"/>
+      <c r="Q96" s="209"/>
+      <c r="R96" s="209"/>
+      <c r="S96" s="223"/>
+      <c r="T96" s="223"/>
+      <c r="U96" s="209"/>
+      <c r="V96" s="209"/>
+      <c r="W96" s="209"/>
       <c r="X96" s="48"/>
       <c r="Y96" s="48"/>
       <c r="Z96" s="71"/>
@@ -16404,8 +16511,8 @@
       <c r="AB96" s="48"/>
       <c r="AC96" s="48"/>
       <c r="AD96" s="48"/>
-      <c r="AE96" s="48"/>
-      <c r="AF96" s="48"/>
+      <c r="AE96" s="312"/>
+      <c r="AF96" s="312"/>
       <c r="AG96" s="71"/>
       <c r="AH96" s="71"/>
       <c r="AI96" s="48"/>
@@ -16419,21 +16526,21 @@
       <c r="AQ96" s="48"/>
       <c r="AR96" s="48"/>
       <c r="AS96" s="48"/>
-      <c r="AT96" s="145"/>
+      <c r="AT96" s="143"/>
       <c r="AU96" s="71"/>
       <c r="AV96" s="71"/>
       <c r="AW96" s="48"/>
       <c r="AX96" s="48"/>
       <c r="AY96" s="48"/>
       <c r="AZ96" s="48"/>
-      <c r="BA96" s="145"/>
+      <c r="BA96" s="143"/>
       <c r="BB96" s="71"/>
       <c r="BC96" s="71"/>
       <c r="BD96" s="48"/>
       <c r="BE96" s="48"/>
       <c r="BF96" s="48"/>
       <c r="BG96" s="48"/>
-      <c r="BH96" s="145"/>
+      <c r="BH96" s="143"/>
       <c r="BI96" s="71"/>
       <c r="BJ96" s="71"/>
       <c r="BK96" s="48"/>
@@ -16492,28 +16599,28 @@
       <c r="DL96" s="7"/>
     </row>
     <row r="97" spans="2:116">
-      <c r="B97" s="279"/>
-      <c r="C97" s="285"/>
+      <c r="B97" s="280"/>
+      <c r="C97" s="286"/>
       <c r="D97" s="16"/>
       <c r="E97" s="24"/>
       <c r="F97" s="83"/>
-      <c r="G97" s="238"/>
-      <c r="H97" s="211"/>
-      <c r="I97" s="211"/>
-      <c r="J97" s="211"/>
-      <c r="K97" s="211"/>
-      <c r="L97" s="225"/>
-      <c r="M97" s="225"/>
-      <c r="N97" s="211"/>
-      <c r="O97" s="211"/>
-      <c r="P97" s="211"/>
-      <c r="Q97" s="211"/>
-      <c r="R97" s="211"/>
-      <c r="S97" s="225"/>
-      <c r="T97" s="225"/>
-      <c r="U97" s="211"/>
-      <c r="V97" s="48"/>
-      <c r="W97" s="48"/>
+      <c r="G97" s="236"/>
+      <c r="H97" s="209"/>
+      <c r="I97" s="209"/>
+      <c r="J97" s="209"/>
+      <c r="K97" s="209"/>
+      <c r="L97" s="223"/>
+      <c r="M97" s="223"/>
+      <c r="N97" s="209"/>
+      <c r="O97" s="209"/>
+      <c r="P97" s="209"/>
+      <c r="Q97" s="209"/>
+      <c r="R97" s="209"/>
+      <c r="S97" s="223"/>
+      <c r="T97" s="223"/>
+      <c r="U97" s="209"/>
+      <c r="V97" s="209"/>
+      <c r="W97" s="209"/>
       <c r="X97" s="48"/>
       <c r="Y97" s="48"/>
       <c r="Z97" s="71"/>
@@ -16521,8 +16628,8 @@
       <c r="AB97" s="48"/>
       <c r="AC97" s="48"/>
       <c r="AD97" s="48"/>
-      <c r="AE97" s="48"/>
-      <c r="AF97" s="48"/>
+      <c r="AE97" s="312"/>
+      <c r="AF97" s="312"/>
       <c r="AG97" s="71"/>
       <c r="AH97" s="71"/>
       <c r="AI97" s="48"/>
@@ -16536,21 +16643,21 @@
       <c r="AQ97" s="48"/>
       <c r="AR97" s="48"/>
       <c r="AS97" s="48"/>
-      <c r="AT97" s="145"/>
+      <c r="AT97" s="143"/>
       <c r="AU97" s="71"/>
       <c r="AV97" s="71"/>
       <c r="AW97" s="48"/>
       <c r="AX97" s="48"/>
       <c r="AY97" s="48"/>
       <c r="AZ97" s="48"/>
-      <c r="BA97" s="145"/>
+      <c r="BA97" s="143"/>
       <c r="BB97" s="71"/>
       <c r="BC97" s="71"/>
       <c r="BD97" s="48"/>
       <c r="BE97" s="48"/>
       <c r="BF97" s="48"/>
       <c r="BG97" s="48"/>
-      <c r="BH97" s="145"/>
+      <c r="BH97" s="143"/>
       <c r="BI97" s="71"/>
       <c r="BJ97" s="71"/>
       <c r="BK97" s="48"/>
@@ -16609,28 +16716,28 @@
       <c r="DL97" s="7"/>
     </row>
     <row r="98" spans="2:116">
-      <c r="B98" s="279"/>
-      <c r="C98" s="286"/>
+      <c r="B98" s="280"/>
+      <c r="C98" s="278"/>
       <c r="D98" s="5"/>
       <c r="E98" s="6"/>
       <c r="F98" s="75"/>
-      <c r="G98" s="242"/>
-      <c r="H98" s="222"/>
-      <c r="I98" s="222"/>
-      <c r="J98" s="222"/>
-      <c r="K98" s="222"/>
-      <c r="L98" s="224"/>
-      <c r="M98" s="224"/>
-      <c r="N98" s="222"/>
-      <c r="O98" s="222"/>
-      <c r="P98" s="222"/>
-      <c r="Q98" s="222"/>
-      <c r="R98" s="222"/>
-      <c r="S98" s="224"/>
-      <c r="T98" s="224"/>
-      <c r="U98" s="222"/>
-      <c r="V98" s="62"/>
-      <c r="W98" s="62"/>
+      <c r="G98" s="240"/>
+      <c r="H98" s="220"/>
+      <c r="I98" s="220"/>
+      <c r="J98" s="220"/>
+      <c r="K98" s="220"/>
+      <c r="L98" s="222"/>
+      <c r="M98" s="222"/>
+      <c r="N98" s="220"/>
+      <c r="O98" s="220"/>
+      <c r="P98" s="220"/>
+      <c r="Q98" s="220"/>
+      <c r="R98" s="220"/>
+      <c r="S98" s="222"/>
+      <c r="T98" s="222"/>
+      <c r="U98" s="220"/>
+      <c r="V98" s="220"/>
+      <c r="W98" s="220"/>
       <c r="X98" s="62"/>
       <c r="Y98" s="62"/>
       <c r="Z98" s="72"/>
@@ -16638,8 +16745,8 @@
       <c r="AB98" s="62"/>
       <c r="AC98" s="62"/>
       <c r="AD98" s="62"/>
-      <c r="AE98" s="62"/>
-      <c r="AF98" s="62"/>
+      <c r="AE98" s="313"/>
+      <c r="AF98" s="313"/>
       <c r="AG98" s="72"/>
       <c r="AH98" s="72"/>
       <c r="AI98" s="62"/>
@@ -16653,21 +16760,21 @@
       <c r="AQ98" s="62"/>
       <c r="AR98" s="62"/>
       <c r="AS98" s="62"/>
-      <c r="AT98" s="146"/>
+      <c r="AT98" s="144"/>
       <c r="AU98" s="72"/>
       <c r="AV98" s="72"/>
       <c r="AW98" s="62"/>
       <c r="AX98" s="62"/>
       <c r="AY98" s="62"/>
       <c r="AZ98" s="62"/>
-      <c r="BA98" s="146"/>
+      <c r="BA98" s="144"/>
       <c r="BB98" s="72"/>
       <c r="BC98" s="72"/>
       <c r="BD98" s="62"/>
       <c r="BE98" s="62"/>
       <c r="BF98" s="62"/>
       <c r="BG98" s="62"/>
-      <c r="BH98" s="146"/>
+      <c r="BH98" s="144"/>
       <c r="BI98" s="72"/>
       <c r="BJ98" s="72"/>
       <c r="BK98" s="62"/>
@@ -16725,28 +16832,28 @@
       <c r="DK98" s="67"/>
     </row>
     <row r="99" spans="2:116">
-      <c r="B99" s="279"/>
-      <c r="C99" s="286"/>
+      <c r="B99" s="280"/>
+      <c r="C99" s="278"/>
       <c r="D99" s="15"/>
       <c r="E99" s="6"/>
       <c r="F99" s="75"/>
-      <c r="G99" s="238"/>
-      <c r="H99" s="211"/>
-      <c r="I99" s="211"/>
-      <c r="J99" s="211"/>
-      <c r="K99" s="211"/>
-      <c r="L99" s="225"/>
-      <c r="M99" s="225"/>
-      <c r="N99" s="211"/>
-      <c r="O99" s="211"/>
-      <c r="P99" s="211"/>
-      <c r="Q99" s="211"/>
-      <c r="R99" s="211"/>
-      <c r="S99" s="225"/>
-      <c r="T99" s="225"/>
-      <c r="U99" s="211"/>
-      <c r="V99" s="48"/>
-      <c r="W99" s="48"/>
+      <c r="G99" s="236"/>
+      <c r="H99" s="209"/>
+      <c r="I99" s="209"/>
+      <c r="J99" s="209"/>
+      <c r="K99" s="209"/>
+      <c r="L99" s="223"/>
+      <c r="M99" s="223"/>
+      <c r="N99" s="209"/>
+      <c r="O99" s="209"/>
+      <c r="P99" s="209"/>
+      <c r="Q99" s="209"/>
+      <c r="R99" s="209"/>
+      <c r="S99" s="223"/>
+      <c r="T99" s="223"/>
+      <c r="U99" s="209"/>
+      <c r="V99" s="209"/>
+      <c r="W99" s="209"/>
       <c r="X99" s="48"/>
       <c r="Y99" s="48"/>
       <c r="Z99" s="71"/>
@@ -16754,8 +16861,8 @@
       <c r="AB99" s="48"/>
       <c r="AC99" s="48"/>
       <c r="AD99" s="48"/>
-      <c r="AE99" s="48"/>
-      <c r="AF99" s="48"/>
+      <c r="AE99" s="312"/>
+      <c r="AF99" s="312"/>
       <c r="AG99" s="71"/>
       <c r="AH99" s="71"/>
       <c r="AI99" s="48"/>
@@ -16769,21 +16876,21 @@
       <c r="AQ99" s="48"/>
       <c r="AR99" s="48"/>
       <c r="AS99" s="48"/>
-      <c r="AT99" s="145"/>
+      <c r="AT99" s="143"/>
       <c r="AU99" s="71"/>
       <c r="AV99" s="71"/>
       <c r="AW99" s="48"/>
       <c r="AX99" s="48"/>
       <c r="AY99" s="48"/>
       <c r="AZ99" s="48"/>
-      <c r="BA99" s="145"/>
+      <c r="BA99" s="143"/>
       <c r="BB99" s="71"/>
       <c r="BC99" s="71"/>
       <c r="BD99" s="48"/>
       <c r="BE99" s="48"/>
       <c r="BF99" s="48"/>
       <c r="BG99" s="48"/>
-      <c r="BH99" s="145"/>
+      <c r="BH99" s="143"/>
       <c r="BI99" s="71"/>
       <c r="BJ99" s="71"/>
       <c r="BK99" s="48"/>
@@ -16841,28 +16948,28 @@
       <c r="DK99" s="52"/>
     </row>
     <row r="100" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B100" s="281"/>
-      <c r="C100" s="287"/>
+      <c r="B100" s="288"/>
+      <c r="C100" s="292"/>
       <c r="D100" s="27"/>
       <c r="E100" s="28"/>
       <c r="F100" s="85"/>
-      <c r="G100" s="243"/>
-      <c r="H100" s="244"/>
-      <c r="I100" s="244"/>
-      <c r="J100" s="244"/>
-      <c r="K100" s="244"/>
-      <c r="L100" s="245"/>
-      <c r="M100" s="245"/>
-      <c r="N100" s="244"/>
-      <c r="O100" s="244"/>
-      <c r="P100" s="244"/>
-      <c r="Q100" s="244"/>
-      <c r="R100" s="244"/>
-      <c r="S100" s="245"/>
-      <c r="T100" s="245"/>
-      <c r="U100" s="244"/>
-      <c r="V100" s="86"/>
-      <c r="W100" s="86"/>
+      <c r="G100" s="241"/>
+      <c r="H100" s="242"/>
+      <c r="I100" s="242"/>
+      <c r="J100" s="242"/>
+      <c r="K100" s="242"/>
+      <c r="L100" s="243"/>
+      <c r="M100" s="243"/>
+      <c r="N100" s="242"/>
+      <c r="O100" s="242"/>
+      <c r="P100" s="242"/>
+      <c r="Q100" s="242"/>
+      <c r="R100" s="242"/>
+      <c r="S100" s="243"/>
+      <c r="T100" s="243"/>
+      <c r="U100" s="242"/>
+      <c r="V100" s="242"/>
+      <c r="W100" s="242"/>
       <c r="X100" s="86"/>
       <c r="Y100" s="86"/>
       <c r="Z100" s="87"/>
@@ -16870,8 +16977,8 @@
       <c r="AB100" s="86"/>
       <c r="AC100" s="86"/>
       <c r="AD100" s="86"/>
-      <c r="AE100" s="86"/>
-      <c r="AF100" s="86"/>
+      <c r="AE100" s="322"/>
+      <c r="AF100" s="322"/>
       <c r="AG100" s="87"/>
       <c r="AH100" s="87"/>
       <c r="AI100" s="86"/>
@@ -16885,21 +16992,21 @@
       <c r="AQ100" s="86"/>
       <c r="AR100" s="86"/>
       <c r="AS100" s="86"/>
-      <c r="AT100" s="152"/>
+      <c r="AT100" s="150"/>
       <c r="AU100" s="87"/>
       <c r="AV100" s="87"/>
       <c r="AW100" s="86"/>
       <c r="AX100" s="86"/>
       <c r="AY100" s="86"/>
       <c r="AZ100" s="86"/>
-      <c r="BA100" s="152"/>
+      <c r="BA100" s="150"/>
       <c r="BB100" s="87"/>
       <c r="BC100" s="87"/>
       <c r="BD100" s="86"/>
       <c r="BE100" s="86"/>
       <c r="BF100" s="86"/>
       <c r="BG100" s="86"/>
-      <c r="BH100" s="152"/>
+      <c r="BH100" s="150"/>
       <c r="BI100" s="87"/>
       <c r="BJ100" s="87"/>
       <c r="BK100" s="86"/>
@@ -16959,13 +17066,6 @@
     <row r="101" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="B20:B60"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C45"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="C58:C60"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B83:B100"/>
     <mergeCell ref="C83:C87"/>
@@ -16982,6 +17082,13 @@
     <mergeCell ref="C73:C74"/>
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="B61:B70"/>
+    <mergeCell ref="C67:C70"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="B20:B60"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C45"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="C58:C60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="9405"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>모듈</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -599,10 +599,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GUI 구상 /설계 마무리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Android 공부하기(Hello Android 이해)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -616,6 +612,26 @@
   </si>
   <si>
     <t xml:space="preserve">GUI 문서와 비교 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항목 화면 GUI 구상/설계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 메뉴중 누락된 부분 추가/수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능명세서와 메뉴 흐름도 다듬기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUI 메뉴 /설계 마무리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김우석</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -833,7 +849,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1035,12 +1051,6 @@
     <fill>
       <patternFill patternType="mediumGray">
         <fgColor theme="1" tint="0.14996795556505021"/>
-        <bgColor theme="3" tint="0.39997558519241921"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor theme="1" tint="0.14996795556505021"/>
         <bgColor theme="9" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
@@ -2565,7 +2575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3376,9 +3386,6 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="43" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3442,15 +3449,12 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="49" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3465,11 +3469,41 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="78" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="61" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3484,18 +3518,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3505,9 +3530,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3517,22 +3539,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="61" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5132,8 +5154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:XFD103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5148,7 +5170,7 @@
     <col min="19" max="19" width="2.5" style="178" customWidth="1"/>
     <col min="20" max="25" width="2.625" style="178" customWidth="1"/>
     <col min="26" max="30" width="2.625" customWidth="1"/>
-    <col min="31" max="32" width="2.625" style="276" customWidth="1"/>
+    <col min="31" max="32" width="2.625" style="275" customWidth="1"/>
     <col min="33" max="45" width="2.625" customWidth="1"/>
     <col min="46" max="46" width="2.625" style="135" customWidth="1"/>
     <col min="47" max="52" width="2.625" customWidth="1"/>
@@ -5824,10 +5846,10 @@
       <c r="AD6" s="101">
         <v>7</v>
       </c>
-      <c r="AE6" s="277">
+      <c r="AE6" s="276">
         <v>8</v>
       </c>
-      <c r="AF6" s="277">
+      <c r="AF6" s="276">
         <v>9</v>
       </c>
       <c r="AG6" s="101">
@@ -6111,8 +6133,8 @@
       <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
       <c r="AD7" s="18"/>
-      <c r="AE7" s="278"/>
-      <c r="AF7" s="279"/>
+      <c r="AE7" s="277"/>
+      <c r="AF7" s="278"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="18"/>
@@ -6228,8 +6250,8 @@
       <c r="AB8" s="105"/>
       <c r="AC8" s="105"/>
       <c r="AD8" s="105"/>
-      <c r="AE8" s="280"/>
-      <c r="AF8" s="281"/>
+      <c r="AE8" s="279"/>
+      <c r="AF8" s="280"/>
       <c r="AG8" s="106"/>
       <c r="AH8" s="106"/>
       <c r="AI8" s="105"/>
@@ -6345,8 +6367,8 @@
       <c r="AB9" s="105"/>
       <c r="AC9" s="105"/>
       <c r="AD9" s="105"/>
-      <c r="AE9" s="280"/>
-      <c r="AF9" s="281"/>
+      <c r="AE9" s="279"/>
+      <c r="AF9" s="280"/>
       <c r="AG9" s="106"/>
       <c r="AH9" s="106"/>
       <c r="AI9" s="105"/>
@@ -6462,8 +6484,8 @@
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
       <c r="AD10" s="18"/>
-      <c r="AE10" s="278"/>
-      <c r="AF10" s="282"/>
+      <c r="AE10" s="277"/>
+      <c r="AF10" s="281"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="18"/>
@@ -6579,8 +6601,8 @@
       <c r="AB11" s="105"/>
       <c r="AC11" s="105"/>
       <c r="AD11" s="105"/>
-      <c r="AE11" s="280"/>
-      <c r="AF11" s="281"/>
+      <c r="AE11" s="279"/>
+      <c r="AF11" s="280"/>
       <c r="AG11" s="106"/>
       <c r="AH11" s="106"/>
       <c r="AI11" s="105"/>
@@ -6696,8 +6718,8 @@
       <c r="AB12" s="128"/>
       <c r="AC12" s="128"/>
       <c r="AD12" s="128"/>
-      <c r="AE12" s="283"/>
-      <c r="AF12" s="284"/>
+      <c r="AE12" s="282"/>
+      <c r="AF12" s="283"/>
       <c r="AG12" s="129"/>
       <c r="AH12" s="129"/>
       <c r="AI12" s="128"/>
@@ -6890,10 +6912,10 @@
       <c r="AD17" s="31">
         <v>7</v>
       </c>
-      <c r="AE17" s="285">
+      <c r="AE17" s="284">
         <v>8</v>
       </c>
-      <c r="AF17" s="285">
+      <c r="AF17" s="284">
         <v>9</v>
       </c>
       <c r="AG17" s="31">
@@ -7147,7 +7169,7 @@
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="300" t="s">
+      <c r="B18" s="302" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="244" t="s">
@@ -7186,8 +7208,8 @@
       <c r="AB18" s="37"/>
       <c r="AC18" s="37"/>
       <c r="AD18" s="37"/>
-      <c r="AE18" s="286"/>
-      <c r="AF18" s="286"/>
+      <c r="AE18" s="285"/>
+      <c r="AF18" s="285"/>
       <c r="AG18" s="68"/>
       <c r="AH18" s="68"/>
       <c r="AI18" s="37"/>
@@ -7273,7 +7295,7 @@
       <c r="DK18" s="41"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="300"/>
+      <c r="B19" s="302"/>
       <c r="C19" s="251" t="s">
         <v>10</v>
       </c>
@@ -7310,8 +7332,8 @@
       <c r="AB19" s="32"/>
       <c r="AC19" s="32"/>
       <c r="AD19" s="32"/>
-      <c r="AE19" s="287"/>
-      <c r="AF19" s="287"/>
+      <c r="AE19" s="286"/>
+      <c r="AF19" s="286"/>
       <c r="AG19" s="69"/>
       <c r="AH19" s="69"/>
       <c r="AI19" s="32"/>
@@ -7400,7 +7422,7 @@
       <c r="B20" s="301" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="317" t="s">
+      <c r="C20" s="304" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="255" t="s">
@@ -7436,8 +7458,8 @@
       <c r="AB20" s="42"/>
       <c r="AC20" s="42"/>
       <c r="AD20" s="42"/>
-      <c r="AE20" s="288"/>
-      <c r="AF20" s="288"/>
+      <c r="AE20" s="287"/>
+      <c r="AF20" s="287"/>
       <c r="AG20" s="70"/>
       <c r="AH20" s="70"/>
       <c r="AI20" s="42"/>
@@ -7523,8 +7545,8 @@
       <c r="DK20" s="53"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="300"/>
-      <c r="C21" s="318"/>
+      <c r="B21" s="302"/>
+      <c r="C21" s="305"/>
       <c r="D21" s="255" t="s">
         <v>58</v>
       </c>
@@ -7558,8 +7580,8 @@
       <c r="AB21" s="48"/>
       <c r="AC21" s="48"/>
       <c r="AD21" s="48"/>
-      <c r="AE21" s="289"/>
-      <c r="AF21" s="289"/>
+      <c r="AE21" s="288"/>
+      <c r="AF21" s="288"/>
       <c r="AG21" s="71"/>
       <c r="AH21" s="71"/>
       <c r="AI21" s="48"/>
@@ -7645,8 +7667,8 @@
       <c r="DK21" s="55"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="300"/>
-      <c r="C22" s="318"/>
+      <c r="B22" s="302"/>
+      <c r="C22" s="305"/>
       <c r="D22" s="255" t="s">
         <v>56</v>
       </c>
@@ -7680,8 +7702,8 @@
       <c r="AB22" s="48"/>
       <c r="AC22" s="48"/>
       <c r="AD22" s="48"/>
-      <c r="AE22" s="289"/>
-      <c r="AF22" s="289"/>
+      <c r="AE22" s="288"/>
+      <c r="AF22" s="288"/>
       <c r="AG22" s="71"/>
       <c r="AH22" s="71"/>
       <c r="AI22" s="48"/>
@@ -7767,8 +7789,8 @@
       <c r="DK22" s="55"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="300"/>
-      <c r="C23" s="319"/>
+      <c r="B23" s="302"/>
+      <c r="C23" s="306"/>
       <c r="D23" s="255" t="s">
         <v>57</v>
       </c>
@@ -7802,8 +7824,8 @@
       <c r="AB23" s="48"/>
       <c r="AC23" s="48"/>
       <c r="AD23" s="48"/>
-      <c r="AE23" s="289"/>
-      <c r="AF23" s="289"/>
+      <c r="AE23" s="288"/>
+      <c r="AF23" s="288"/>
       <c r="AG23" s="71"/>
       <c r="AH23" s="71"/>
       <c r="AI23" s="48"/>
@@ -7889,8 +7911,8 @@
       <c r="DK23" s="55"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="300"/>
-      <c r="C24" s="320" t="s">
+      <c r="B24" s="302"/>
+      <c r="C24" s="307" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -7926,8 +7948,8 @@
       <c r="AB24" s="62"/>
       <c r="AC24" s="62"/>
       <c r="AD24" s="62"/>
-      <c r="AE24" s="290"/>
-      <c r="AF24" s="290"/>
+      <c r="AE24" s="289"/>
+      <c r="AF24" s="289"/>
       <c r="AG24" s="72"/>
       <c r="AH24" s="72"/>
       <c r="AI24" s="62"/>
@@ -8013,8 +8035,8 @@
       <c r="DK24" s="67"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="300"/>
-      <c r="C25" s="320"/>
+      <c r="B25" s="302"/>
+      <c r="C25" s="307"/>
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
@@ -8048,8 +8070,8 @@
       <c r="AB25" s="48"/>
       <c r="AC25" s="48"/>
       <c r="AD25" s="48"/>
-      <c r="AE25" s="289"/>
-      <c r="AF25" s="289"/>
+      <c r="AE25" s="288"/>
+      <c r="AF25" s="288"/>
       <c r="AG25" s="71"/>
       <c r="AH25" s="71"/>
       <c r="AI25" s="48"/>
@@ -8135,8 +8157,8 @@
       <c r="DK25" s="52"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="300"/>
-      <c r="C26" s="320"/>
+      <c r="B26" s="302"/>
+      <c r="C26" s="307"/>
       <c r="D26" s="5" t="s">
         <v>62</v>
       </c>
@@ -8170,8 +8192,8 @@
       <c r="AB26" s="48"/>
       <c r="AC26" s="48"/>
       <c r="AD26" s="48"/>
-      <c r="AE26" s="289"/>
-      <c r="AF26" s="289"/>
+      <c r="AE26" s="288"/>
+      <c r="AF26" s="288"/>
       <c r="AG26" s="71"/>
       <c r="AH26" s="71"/>
       <c r="AI26" s="48"/>
@@ -8257,8 +8279,8 @@
       <c r="DK26" s="52"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="300"/>
-      <c r="C27" s="320"/>
+      <c r="B27" s="302"/>
+      <c r="C27" s="307"/>
       <c r="D27" s="5" t="s">
         <v>64</v>
       </c>
@@ -8292,8 +8314,8 @@
       <c r="AB27" s="48"/>
       <c r="AC27" s="48"/>
       <c r="AD27" s="48"/>
-      <c r="AE27" s="289"/>
-      <c r="AF27" s="289"/>
+      <c r="AE27" s="288"/>
+      <c r="AF27" s="288"/>
       <c r="AG27" s="71"/>
       <c r="AH27" s="71"/>
       <c r="AI27" s="48"/>
@@ -8379,8 +8401,8 @@
       <c r="DK27" s="52"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="300"/>
-      <c r="C28" s="320"/>
+      <c r="B28" s="302"/>
+      <c r="C28" s="307"/>
       <c r="D28" s="5" t="s">
         <v>63</v>
       </c>
@@ -8414,8 +8436,8 @@
       <c r="AB28" s="48"/>
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
-      <c r="AE28" s="289"/>
-      <c r="AF28" s="289"/>
+      <c r="AE28" s="288"/>
+      <c r="AF28" s="288"/>
       <c r="AG28" s="71"/>
       <c r="AH28" s="71"/>
       <c r="AI28" s="48"/>
@@ -8501,8 +8523,8 @@
       <c r="DK28" s="52"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="300"/>
-      <c r="C29" s="320"/>
+      <c r="B29" s="302"/>
+      <c r="C29" s="307"/>
       <c r="D29" s="5" t="s">
         <v>65</v>
       </c>
@@ -8536,8 +8558,8 @@
       <c r="AB29" s="48"/>
       <c r="AC29" s="48"/>
       <c r="AD29" s="48"/>
-      <c r="AE29" s="289"/>
-      <c r="AF29" s="289"/>
+      <c r="AE29" s="288"/>
+      <c r="AF29" s="288"/>
       <c r="AG29" s="71"/>
       <c r="AH29" s="71"/>
       <c r="AI29" s="48"/>
@@ -8623,8 +8645,8 @@
       <c r="DK29" s="52"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="300"/>
-      <c r="C30" s="320"/>
+      <c r="B30" s="302"/>
+      <c r="C30" s="307"/>
       <c r="D30" s="5" t="s">
         <v>66</v>
       </c>
@@ -8658,8 +8680,8 @@
       <c r="AB30" s="48"/>
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
-      <c r="AE30" s="289"/>
-      <c r="AF30" s="289"/>
+      <c r="AE30" s="288"/>
+      <c r="AF30" s="288"/>
       <c r="AG30" s="71"/>
       <c r="AH30" s="71"/>
       <c r="AI30" s="48"/>
@@ -8745,8 +8767,8 @@
       <c r="DK30" s="52"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="300"/>
-      <c r="C31" s="320"/>
+      <c r="B31" s="302"/>
+      <c r="C31" s="307"/>
       <c r="D31" s="5" t="s">
         <v>67</v>
       </c>
@@ -8780,8 +8802,8 @@
       <c r="AB31" s="48"/>
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
-      <c r="AE31" s="289"/>
-      <c r="AF31" s="289"/>
+      <c r="AE31" s="288"/>
+      <c r="AF31" s="288"/>
       <c r="AG31" s="71"/>
       <c r="AH31" s="71"/>
       <c r="AI31" s="48"/>
@@ -8867,8 +8889,8 @@
       <c r="DK31" s="52"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="300"/>
-      <c r="C32" s="320"/>
+      <c r="B32" s="302"/>
+      <c r="C32" s="307"/>
       <c r="D32" s="5" t="s">
         <v>68</v>
       </c>
@@ -8902,8 +8924,8 @@
       <c r="AB32" s="48"/>
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
-      <c r="AE32" s="289"/>
-      <c r="AF32" s="289"/>
+      <c r="AE32" s="288"/>
+      <c r="AF32" s="288"/>
       <c r="AG32" s="71"/>
       <c r="AH32" s="71"/>
       <c r="AI32" s="48"/>
@@ -8989,8 +9011,8 @@
       <c r="DK32" s="52"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="300"/>
-      <c r="C33" s="320"/>
+      <c r="B33" s="302"/>
+      <c r="C33" s="307"/>
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
@@ -9024,8 +9046,8 @@
       <c r="AB33" s="48"/>
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
-      <c r="AE33" s="289"/>
-      <c r="AF33" s="289"/>
+      <c r="AE33" s="288"/>
+      <c r="AF33" s="288"/>
       <c r="AG33" s="71"/>
       <c r="AH33" s="71"/>
       <c r="AI33" s="48"/>
@@ -9111,8 +9133,8 @@
       <c r="DK33" s="52"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="300"/>
-      <c r="C34" s="320"/>
+      <c r="B34" s="302"/>
+      <c r="C34" s="307"/>
       <c r="D34" s="5" t="s">
         <v>70</v>
       </c>
@@ -9146,8 +9168,8 @@
       <c r="AB34" s="48"/>
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
-      <c r="AE34" s="289"/>
-      <c r="AF34" s="289"/>
+      <c r="AE34" s="288"/>
+      <c r="AF34" s="288"/>
       <c r="AG34" s="71"/>
       <c r="AH34" s="71"/>
       <c r="AI34" s="48"/>
@@ -9233,8 +9255,8 @@
       <c r="DK34" s="52"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="300"/>
-      <c r="C35" s="320"/>
+      <c r="B35" s="302"/>
+      <c r="C35" s="307"/>
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
@@ -9268,8 +9290,8 @@
       <c r="AB35" s="48"/>
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
-      <c r="AE35" s="289"/>
-      <c r="AF35" s="289"/>
+      <c r="AE35" s="288"/>
+      <c r="AF35" s="288"/>
       <c r="AG35" s="71"/>
       <c r="AH35" s="71"/>
       <c r="AI35" s="48"/>
@@ -9355,8 +9377,8 @@
       <c r="DK35" s="52"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="300"/>
-      <c r="C36" s="320"/>
+      <c r="B36" s="302"/>
+      <c r="C36" s="307"/>
       <c r="D36" s="5" t="s">
         <v>72</v>
       </c>
@@ -9390,8 +9412,8 @@
       <c r="AB36" s="48"/>
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
-      <c r="AE36" s="289"/>
-      <c r="AF36" s="289"/>
+      <c r="AE36" s="288"/>
+      <c r="AF36" s="288"/>
       <c r="AG36" s="71"/>
       <c r="AH36" s="71"/>
       <c r="AI36" s="48"/>
@@ -9477,8 +9499,8 @@
       <c r="DK36" s="52"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="300"/>
-      <c r="C37" s="320"/>
+      <c r="B37" s="302"/>
+      <c r="C37" s="307"/>
       <c r="D37" s="5" t="s">
         <v>73</v>
       </c>
@@ -9512,8 +9534,8 @@
       <c r="AB37" s="48"/>
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
-      <c r="AE37" s="289"/>
-      <c r="AF37" s="289"/>
+      <c r="AE37" s="288"/>
+      <c r="AF37" s="288"/>
       <c r="AG37" s="71"/>
       <c r="AH37" s="71"/>
       <c r="AI37" s="48"/>
@@ -9599,8 +9621,8 @@
       <c r="DK37" s="52"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="300"/>
-      <c r="C38" s="320"/>
+      <c r="B38" s="302"/>
+      <c r="C38" s="307"/>
       <c r="D38" s="5" t="s">
         <v>74</v>
       </c>
@@ -9634,8 +9656,8 @@
       <c r="AB38" s="48"/>
       <c r="AC38" s="48"/>
       <c r="AD38" s="48"/>
-      <c r="AE38" s="289"/>
-      <c r="AF38" s="289"/>
+      <c r="AE38" s="288"/>
+      <c r="AF38" s="288"/>
       <c r="AG38" s="71"/>
       <c r="AH38" s="71"/>
       <c r="AI38" s="48"/>
@@ -9721,8 +9743,8 @@
       <c r="DK38" s="52"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="300"/>
-      <c r="C39" s="320"/>
+      <c r="B39" s="302"/>
+      <c r="C39" s="307"/>
       <c r="D39" s="5" t="s">
         <v>75</v>
       </c>
@@ -9756,8 +9778,8 @@
       <c r="AB39" s="48"/>
       <c r="AC39" s="48"/>
       <c r="AD39" s="48"/>
-      <c r="AE39" s="289"/>
-      <c r="AF39" s="289"/>
+      <c r="AE39" s="288"/>
+      <c r="AF39" s="288"/>
       <c r="AG39" s="71"/>
       <c r="AH39" s="71"/>
       <c r="AI39" s="48"/>
@@ -9843,8 +9865,8 @@
       <c r="DK39" s="52"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="300"/>
-      <c r="C40" s="320"/>
+      <c r="B40" s="302"/>
+      <c r="C40" s="307"/>
       <c r="D40" s="5" t="s">
         <v>76</v>
       </c>
@@ -9878,8 +9900,8 @@
       <c r="AB40" s="48"/>
       <c r="AC40" s="48"/>
       <c r="AD40" s="48"/>
-      <c r="AE40" s="289"/>
-      <c r="AF40" s="289"/>
+      <c r="AE40" s="288"/>
+      <c r="AF40" s="288"/>
       <c r="AG40" s="71"/>
       <c r="AH40" s="71"/>
       <c r="AI40" s="48"/>
@@ -9965,8 +9987,8 @@
       <c r="DK40" s="52"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="300"/>
-      <c r="C41" s="320"/>
+      <c r="B41" s="302"/>
+      <c r="C41" s="307"/>
       <c r="D41" s="5" t="s">
         <v>77</v>
       </c>
@@ -10000,8 +10022,8 @@
       <c r="AB41" s="48"/>
       <c r="AC41" s="48"/>
       <c r="AD41" s="48"/>
-      <c r="AE41" s="289"/>
-      <c r="AF41" s="289"/>
+      <c r="AE41" s="288"/>
+      <c r="AF41" s="288"/>
       <c r="AG41" s="71"/>
       <c r="AH41" s="71"/>
       <c r="AI41" s="48"/>
@@ -10087,8 +10109,8 @@
       <c r="DK41" s="52"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="300"/>
-      <c r="C42" s="320"/>
+      <c r="B42" s="302"/>
+      <c r="C42" s="307"/>
       <c r="D42" s="5" t="s">
         <v>78</v>
       </c>
@@ -10122,8 +10144,8 @@
       <c r="AB42" s="48"/>
       <c r="AC42" s="48"/>
       <c r="AD42" s="48"/>
-      <c r="AE42" s="289"/>
-      <c r="AF42" s="289"/>
+      <c r="AE42" s="288"/>
+      <c r="AF42" s="288"/>
       <c r="AG42" s="71"/>
       <c r="AH42" s="71"/>
       <c r="AI42" s="48"/>
@@ -10209,8 +10231,8 @@
       <c r="DK42" s="52"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="300"/>
-      <c r="C43" s="320"/>
+      <c r="B43" s="302"/>
+      <c r="C43" s="307"/>
       <c r="D43" s="5" t="s">
         <v>79</v>
       </c>
@@ -10244,8 +10266,8 @@
       <c r="AB43" s="48"/>
       <c r="AC43" s="48"/>
       <c r="AD43" s="48"/>
-      <c r="AE43" s="289"/>
-      <c r="AF43" s="289"/>
+      <c r="AE43" s="288"/>
+      <c r="AF43" s="288"/>
       <c r="AG43" s="71"/>
       <c r="AH43" s="71"/>
       <c r="AI43" s="48"/>
@@ -10331,10 +10353,10 @@
       <c r="DK43" s="52"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="300"/>
-      <c r="C44" s="320"/>
+      <c r="B44" s="302"/>
+      <c r="C44" s="307"/>
       <c r="D44" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>6</v>
@@ -10366,8 +10388,8 @@
       <c r="AB44" s="119"/>
       <c r="AC44" s="119"/>
       <c r="AD44" s="119"/>
-      <c r="AE44" s="322"/>
-      <c r="AF44" s="289"/>
+      <c r="AE44" s="298"/>
+      <c r="AF44" s="288"/>
       <c r="AG44" s="71"/>
       <c r="AH44" s="71"/>
       <c r="AI44" s="48"/>
@@ -10453,8 +10475,8 @@
       <c r="DK44" s="52"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="300"/>
-      <c r="C45" s="320"/>
+      <c r="B45" s="302"/>
+      <c r="C45" s="307"/>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="75"/>
@@ -10482,8 +10504,8 @@
       <c r="AB45" s="48"/>
       <c r="AC45" s="48"/>
       <c r="AD45" s="48"/>
-      <c r="AE45" s="289"/>
-      <c r="AF45" s="289"/>
+      <c r="AE45" s="288"/>
+      <c r="AF45" s="288"/>
       <c r="AG45" s="71"/>
       <c r="AH45" s="71"/>
       <c r="AI45" s="48"/>
@@ -10569,8 +10591,8 @@
       <c r="DK45" s="52"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="300"/>
-      <c r="C46" s="320"/>
+      <c r="B46" s="302"/>
+      <c r="C46" s="307"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="75"/>
@@ -10598,8 +10620,8 @@
       <c r="AB46" s="48"/>
       <c r="AC46" s="48"/>
       <c r="AD46" s="48"/>
-      <c r="AE46" s="289"/>
-      <c r="AF46" s="289"/>
+      <c r="AE46" s="288"/>
+      <c r="AF46" s="288"/>
       <c r="AG46" s="71"/>
       <c r="AH46" s="71"/>
       <c r="AI46" s="48"/>
@@ -10685,8 +10707,8 @@
       <c r="DK46" s="52"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="300"/>
-      <c r="C47" s="320"/>
+      <c r="B47" s="302"/>
+      <c r="C47" s="307"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="78"/>
@@ -10714,8 +10736,8 @@
       <c r="AB47" s="57"/>
       <c r="AC47" s="57"/>
       <c r="AD47" s="57"/>
-      <c r="AE47" s="291"/>
-      <c r="AF47" s="291"/>
+      <c r="AE47" s="290"/>
+      <c r="AF47" s="290"/>
       <c r="AG47" s="73"/>
       <c r="AH47" s="73"/>
       <c r="AI47" s="57"/>
@@ -10801,8 +10823,8 @@
       <c r="DK47" s="61"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="300"/>
-      <c r="C48" s="307" t="s">
+      <c r="B48" s="302"/>
+      <c r="C48" s="300" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -10826,10 +10848,10 @@
       <c r="P48" s="268"/>
       <c r="Q48" s="268"/>
       <c r="R48" s="268"/>
-      <c r="S48" s="273"/>
+      <c r="S48" s="272"/>
       <c r="T48" s="222"/>
-      <c r="U48" s="275"/>
-      <c r="V48" s="275"/>
+      <c r="U48" s="274"/>
+      <c r="V48" s="274"/>
       <c r="W48" s="220"/>
       <c r="X48" s="220"/>
       <c r="Y48" s="220"/>
@@ -10838,8 +10860,8 @@
       <c r="AB48" s="62"/>
       <c r="AC48" s="62"/>
       <c r="AD48" s="62"/>
-      <c r="AE48" s="290"/>
-      <c r="AF48" s="290"/>
+      <c r="AE48" s="289"/>
+      <c r="AF48" s="289"/>
       <c r="AG48" s="72"/>
       <c r="AH48" s="72"/>
       <c r="AI48" s="62"/>
@@ -10925,8 +10947,8 @@
       <c r="DK48" s="67"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="300"/>
-      <c r="C49" s="307"/>
+      <c r="B49" s="302"/>
+      <c r="C49" s="300"/>
       <c r="D49" s="5" t="s">
         <v>80</v>
       </c>
@@ -10960,8 +10982,8 @@
       <c r="AB49" s="48"/>
       <c r="AC49" s="48"/>
       <c r="AD49" s="48"/>
-      <c r="AE49" s="289"/>
-      <c r="AF49" s="289"/>
+      <c r="AE49" s="288"/>
+      <c r="AF49" s="288"/>
       <c r="AG49" s="71"/>
       <c r="AH49" s="71"/>
       <c r="AI49" s="48"/>
@@ -11047,8 +11069,8 @@
       <c r="DK49" s="52"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="300"/>
-      <c r="C50" s="307"/>
+      <c r="B50" s="302"/>
+      <c r="C50" s="300"/>
       <c r="D50" s="5" t="s">
         <v>83</v>
       </c>
@@ -11082,8 +11104,8 @@
       <c r="AB50" s="48"/>
       <c r="AC50" s="48"/>
       <c r="AD50" s="48"/>
-      <c r="AE50" s="289"/>
-      <c r="AF50" s="289"/>
+      <c r="AE50" s="288"/>
+      <c r="AF50" s="288"/>
       <c r="AG50" s="71"/>
       <c r="AH50" s="71"/>
       <c r="AI50" s="48"/>
@@ -11169,8 +11191,8 @@
       <c r="DK50" s="52"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="300"/>
-      <c r="C51" s="307"/>
+      <c r="B51" s="302"/>
+      <c r="C51" s="300"/>
       <c r="D51" s="5" t="s">
         <v>84</v>
       </c>
@@ -11204,8 +11226,8 @@
       <c r="AB51" s="48"/>
       <c r="AC51" s="48"/>
       <c r="AD51" s="48"/>
-      <c r="AE51" s="289"/>
-      <c r="AF51" s="289"/>
+      <c r="AE51" s="288"/>
+      <c r="AF51" s="288"/>
       <c r="AG51" s="71"/>
       <c r="AH51" s="71"/>
       <c r="AI51" s="48"/>
@@ -11291,16 +11313,16 @@
       <c r="DK51" s="52"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="300"/>
-      <c r="C52" s="307"/>
+      <c r="B52" s="302"/>
+      <c r="C52" s="300"/>
       <c r="D52" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F52" s="168">
-        <v>40368</v>
+        <v>40364</v>
       </c>
       <c r="G52" s="208"/>
       <c r="H52" s="209"/>
@@ -11323,11 +11345,11 @@
       <c r="Y52" s="209"/>
       <c r="Z52" s="71"/>
       <c r="AA52" s="71"/>
-      <c r="AB52" s="270"/>
-      <c r="AC52" s="270"/>
-      <c r="AD52" s="270"/>
-      <c r="AE52" s="292"/>
-      <c r="AF52" s="292"/>
+      <c r="AB52" s="323"/>
+      <c r="AC52" s="324"/>
+      <c r="AD52" s="321"/>
+      <c r="AE52" s="322"/>
+      <c r="AF52" s="322"/>
       <c r="AG52" s="71"/>
       <c r="AH52" s="71"/>
       <c r="AI52" s="48"/>
@@ -11413,11 +11435,17 @@
       <c r="DK52" s="52"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="300"/>
-      <c r="C53" s="307"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="168"/>
+      <c r="B53" s="302"/>
+      <c r="C53" s="300"/>
+      <c r="D53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="168">
+        <v>40365</v>
+      </c>
       <c r="G53" s="208"/>
       <c r="H53" s="209"/>
       <c r="I53" s="209"/>
@@ -11439,11 +11467,11 @@
       <c r="Y53" s="209"/>
       <c r="Z53" s="71"/>
       <c r="AA53" s="71"/>
-      <c r="AB53" s="48"/>
-      <c r="AC53" s="48"/>
-      <c r="AD53" s="48"/>
-      <c r="AE53" s="289"/>
-      <c r="AF53" s="289"/>
+      <c r="AB53" s="325"/>
+      <c r="AC53" s="323"/>
+      <c r="AD53" s="326"/>
+      <c r="AE53" s="288"/>
+      <c r="AF53" s="288"/>
       <c r="AG53" s="71"/>
       <c r="AH53" s="71"/>
       <c r="AI53" s="48"/>
@@ -11529,11 +11557,17 @@
       <c r="DK53" s="52"/>
     </row>
     <row r="54" spans="2:115">
-      <c r="B54" s="300"/>
-      <c r="C54" s="307"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="168"/>
+      <c r="B54" s="302"/>
+      <c r="C54" s="300"/>
+      <c r="D54" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" s="168">
+        <v>40366</v>
+      </c>
       <c r="G54" s="208"/>
       <c r="H54" s="209"/>
       <c r="I54" s="209"/>
@@ -11556,10 +11590,10 @@
       <c r="Z54" s="71"/>
       <c r="AA54" s="71"/>
       <c r="AB54" s="48"/>
-      <c r="AC54" s="48"/>
-      <c r="AD54" s="48"/>
-      <c r="AE54" s="289"/>
-      <c r="AF54" s="289"/>
+      <c r="AC54" s="325"/>
+      <c r="AD54" s="323"/>
+      <c r="AE54" s="288"/>
+      <c r="AF54" s="288"/>
       <c r="AG54" s="71"/>
       <c r="AH54" s="71"/>
       <c r="AI54" s="48"/>
@@ -11645,11 +11679,17 @@
       <c r="DK54" s="52"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="300"/>
-      <c r="C55" s="307"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="168"/>
+      <c r="B55" s="302"/>
+      <c r="C55" s="300"/>
+      <c r="D55" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F55" s="168">
+        <v>40371</v>
+      </c>
       <c r="G55" s="208"/>
       <c r="H55" s="209"/>
       <c r="I55" s="209"/>
@@ -11674,11 +11714,11 @@
       <c r="AB55" s="48"/>
       <c r="AC55" s="48"/>
       <c r="AD55" s="48"/>
-      <c r="AE55" s="289"/>
-      <c r="AF55" s="289"/>
+      <c r="AE55" s="288"/>
+      <c r="AF55" s="288"/>
       <c r="AG55" s="71"/>
       <c r="AH55" s="71"/>
-      <c r="AI55" s="48"/>
+      <c r="AI55" s="323"/>
       <c r="AJ55" s="48"/>
       <c r="AK55" s="48"/>
       <c r="AL55" s="48"/>
@@ -11761,8 +11801,8 @@
       <c r="DK55" s="52"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="300"/>
-      <c r="C56" s="307"/>
+      <c r="B56" s="302"/>
+      <c r="C56" s="300"/>
       <c r="D56" s="10"/>
       <c r="E56" s="11"/>
       <c r="F56" s="78"/>
@@ -11790,8 +11830,8 @@
       <c r="AB56" s="57"/>
       <c r="AC56" s="57"/>
       <c r="AD56" s="57"/>
-      <c r="AE56" s="291"/>
-      <c r="AF56" s="291"/>
+      <c r="AE56" s="290"/>
+      <c r="AF56" s="290"/>
       <c r="AG56" s="73"/>
       <c r="AH56" s="73"/>
       <c r="AI56" s="57"/>
@@ -11877,8 +11917,8 @@
       <c r="DK56" s="61"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="300"/>
-      <c r="C57" s="305" t="s">
+      <c r="B57" s="302"/>
+      <c r="C57" s="313" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="8"/>
@@ -11912,8 +11952,8 @@
       <c r="AB57" s="119"/>
       <c r="AC57" s="119"/>
       <c r="AD57" s="119"/>
-      <c r="AE57" s="293"/>
-      <c r="AF57" s="293"/>
+      <c r="AE57" s="291"/>
+      <c r="AF57" s="291"/>
       <c r="AG57" s="72"/>
       <c r="AH57" s="72"/>
       <c r="AI57" s="119"/>
@@ -11999,8 +12039,8 @@
       <c r="DK57" s="67"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="300"/>
-      <c r="C58" s="304"/>
+      <c r="B58" s="302"/>
+      <c r="C58" s="312"/>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
       <c r="F58" s="75"/>
@@ -12028,8 +12068,8 @@
       <c r="AB58" s="48"/>
       <c r="AC58" s="48"/>
       <c r="AD58" s="48"/>
-      <c r="AE58" s="289"/>
-      <c r="AF58" s="289"/>
+      <c r="AE58" s="288"/>
+      <c r="AF58" s="288"/>
       <c r="AG58" s="71"/>
       <c r="AH58" s="71"/>
       <c r="AI58" s="48"/>
@@ -12115,8 +12155,8 @@
       <c r="DK58" s="52"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="300"/>
-      <c r="C59" s="306"/>
+      <c r="B59" s="302"/>
+      <c r="C59" s="308"/>
       <c r="D59" s="10"/>
       <c r="E59" s="11"/>
       <c r="F59" s="78"/>
@@ -12144,8 +12184,8 @@
       <c r="AB59" s="57"/>
       <c r="AC59" s="57"/>
       <c r="AD59" s="57"/>
-      <c r="AE59" s="291"/>
-      <c r="AF59" s="291"/>
+      <c r="AE59" s="290"/>
+      <c r="AF59" s="290"/>
       <c r="AG59" s="73"/>
       <c r="AH59" s="73"/>
       <c r="AI59" s="57"/>
@@ -12231,13 +12271,13 @@
       <c r="DK59" s="61"/>
     </row>
     <row r="60" spans="2:115">
-      <c r="B60" s="300"/>
-      <c r="C60" s="306"/>
+      <c r="B60" s="302"/>
+      <c r="C60" s="308"/>
       <c r="D60" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="F60" s="168">
         <v>40356</v>
@@ -12252,11 +12292,11 @@
       <c r="N60" s="209"/>
       <c r="O60" s="209"/>
       <c r="P60" s="209"/>
-      <c r="Q60" s="271"/>
-      <c r="R60" s="271"/>
+      <c r="Q60" s="270"/>
+      <c r="R60" s="270"/>
       <c r="S60" s="222"/>
       <c r="T60" s="222"/>
-      <c r="U60" s="271"/>
+      <c r="U60" s="270"/>
       <c r="V60" s="209"/>
       <c r="W60" s="209"/>
       <c r="X60" s="209"/>
@@ -12266,8 +12306,8 @@
       <c r="AB60" s="62"/>
       <c r="AC60" s="62"/>
       <c r="AD60" s="62"/>
-      <c r="AE60" s="290"/>
-      <c r="AF60" s="290"/>
+      <c r="AE60" s="289"/>
+      <c r="AF60" s="289"/>
       <c r="AG60" s="94"/>
       <c r="AH60" s="71"/>
       <c r="AI60" s="62"/>
@@ -12353,8 +12393,8 @@
       <c r="DK60" s="52"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="300"/>
-      <c r="C61" s="320"/>
+      <c r="B61" s="302"/>
+      <c r="C61" s="307"/>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
       <c r="F61" s="75"/>
@@ -12382,8 +12422,8 @@
       <c r="AB61" s="48"/>
       <c r="AC61" s="48"/>
       <c r="AD61" s="48"/>
-      <c r="AE61" s="289"/>
-      <c r="AF61" s="289"/>
+      <c r="AE61" s="288"/>
+      <c r="AF61" s="288"/>
       <c r="AG61" s="71"/>
       <c r="AH61" s="71"/>
       <c r="AI61" s="48"/>
@@ -12469,8 +12509,8 @@
       <c r="DK61" s="52"/>
     </row>
     <row r="62" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B62" s="309"/>
-      <c r="C62" s="321"/>
+      <c r="B62" s="303"/>
+      <c r="C62" s="309"/>
       <c r="D62" s="17"/>
       <c r="E62" s="13"/>
       <c r="F62" s="79"/>
@@ -12498,8 +12538,8 @@
       <c r="AB62" s="32"/>
       <c r="AC62" s="32"/>
       <c r="AD62" s="32"/>
-      <c r="AE62" s="287"/>
-      <c r="AF62" s="287"/>
+      <c r="AE62" s="286"/>
+      <c r="AF62" s="286"/>
       <c r="AG62" s="69"/>
       <c r="AH62" s="69"/>
       <c r="AI62" s="32"/>
@@ -12585,10 +12625,10 @@
       <c r="DK62" s="36"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="315" t="s">
+      <c r="B63" s="319" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="307" t="s">
+      <c r="C63" s="300" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="5" t="s">
@@ -12612,8 +12652,8 @@
       <c r="P63" s="269"/>
       <c r="Q63" s="269"/>
       <c r="R63" s="269"/>
-      <c r="S63" s="274"/>
-      <c r="T63" s="272"/>
+      <c r="S63" s="273"/>
+      <c r="T63" s="271"/>
       <c r="U63" s="202"/>
       <c r="V63" s="202"/>
       <c r="W63" s="202"/>
@@ -12624,8 +12664,8 @@
       <c r="AB63" s="42"/>
       <c r="AC63" s="42"/>
       <c r="AD63" s="42"/>
-      <c r="AE63" s="288"/>
-      <c r="AF63" s="288"/>
+      <c r="AE63" s="287"/>
+      <c r="AF63" s="287"/>
       <c r="AG63" s="70"/>
       <c r="AH63" s="70"/>
       <c r="AI63" s="42"/>
@@ -12711,8 +12751,8 @@
       <c r="DK63" s="47"/>
     </row>
     <row r="64" spans="2:115">
-      <c r="B64" s="316"/>
-      <c r="C64" s="307"/>
+      <c r="B64" s="320"/>
+      <c r="C64" s="300"/>
       <c r="D64" s="5" t="s">
         <v>41</v>
       </c>
@@ -12746,8 +12786,8 @@
       <c r="AB64" s="48"/>
       <c r="AC64" s="48"/>
       <c r="AD64" s="48"/>
-      <c r="AE64" s="289"/>
-      <c r="AF64" s="289"/>
+      <c r="AE64" s="288"/>
+      <c r="AF64" s="288"/>
       <c r="AG64" s="71"/>
       <c r="AH64" s="71"/>
       <c r="AI64" s="48"/>
@@ -12833,8 +12873,8 @@
       <c r="DK64" s="52"/>
     </row>
     <row r="65" spans="2:115 16384:16384">
-      <c r="B65" s="316"/>
-      <c r="C65" s="307"/>
+      <c r="B65" s="320"/>
+      <c r="C65" s="300"/>
       <c r="D65" s="5" t="s">
         <v>42</v>
       </c>
@@ -12868,8 +12908,8 @@
       <c r="AB65" s="48"/>
       <c r="AC65" s="48"/>
       <c r="AD65" s="48"/>
-      <c r="AE65" s="289"/>
-      <c r="AF65" s="289"/>
+      <c r="AE65" s="288"/>
+      <c r="AF65" s="288"/>
       <c r="AG65" s="71"/>
       <c r="AH65" s="71"/>
       <c r="AI65" s="48"/>
@@ -12955,8 +12995,8 @@
       <c r="DK65" s="52"/>
     </row>
     <row r="66" spans="2:115 16384:16384">
-      <c r="B66" s="316"/>
-      <c r="C66" s="307"/>
+      <c r="B66" s="320"/>
+      <c r="C66" s="300"/>
       <c r="D66" s="5" t="s">
         <v>43</v>
       </c>
@@ -12990,8 +13030,8 @@
       <c r="AB66" s="48"/>
       <c r="AC66" s="48"/>
       <c r="AD66" s="48"/>
-      <c r="AE66" s="289"/>
-      <c r="AF66" s="289"/>
+      <c r="AE66" s="288"/>
+      <c r="AF66" s="288"/>
       <c r="AG66" s="71"/>
       <c r="AH66" s="71"/>
       <c r="AI66" s="48"/>
@@ -13077,8 +13117,8 @@
       <c r="DK66" s="52"/>
     </row>
     <row r="67" spans="2:115 16384:16384">
-      <c r="B67" s="316"/>
-      <c r="C67" s="307"/>
+      <c r="B67" s="320"/>
+      <c r="C67" s="300"/>
       <c r="D67" s="5" t="s">
         <v>45</v>
       </c>
@@ -13108,8 +13148,8 @@
       <c r="AB67" s="48"/>
       <c r="AC67" s="48"/>
       <c r="AD67" s="48"/>
-      <c r="AE67" s="289"/>
-      <c r="AF67" s="289"/>
+      <c r="AE67" s="288"/>
+      <c r="AF67" s="288"/>
       <c r="AG67" s="71"/>
       <c r="AH67" s="71"/>
       <c r="AI67" s="48"/>
@@ -13195,8 +13235,8 @@
       <c r="DK67" s="52"/>
     </row>
     <row r="68" spans="2:115 16384:16384">
-      <c r="B68" s="316"/>
-      <c r="C68" s="307"/>
+      <c r="B68" s="320"/>
+      <c r="C68" s="300"/>
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
       <c r="F68" s="75"/>
@@ -13224,8 +13264,8 @@
       <c r="AB68" s="57"/>
       <c r="AC68" s="57"/>
       <c r="AD68" s="57"/>
-      <c r="AE68" s="291"/>
-      <c r="AF68" s="291"/>
+      <c r="AE68" s="290"/>
+      <c r="AF68" s="290"/>
       <c r="AG68" s="73"/>
       <c r="AH68" s="73"/>
       <c r="AI68" s="57"/>
@@ -13311,8 +13351,8 @@
       <c r="DK68" s="61"/>
     </row>
     <row r="69" spans="2:115 16384:16384">
-      <c r="B69" s="316"/>
-      <c r="C69" s="313" t="s">
+      <c r="B69" s="320"/>
+      <c r="C69" s="299" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="14" t="s">
@@ -13348,8 +13388,8 @@
       <c r="AB69" s="48"/>
       <c r="AC69" s="48"/>
       <c r="AD69" s="48"/>
-      <c r="AE69" s="289"/>
-      <c r="AF69" s="289"/>
+      <c r="AE69" s="288"/>
+      <c r="AF69" s="288"/>
       <c r="AG69" s="71"/>
       <c r="AH69" s="71"/>
       <c r="AI69" s="48"/>
@@ -13435,8 +13475,8 @@
       <c r="DK69" s="52"/>
     </row>
     <row r="70" spans="2:115 16384:16384">
-      <c r="B70" s="316"/>
-      <c r="C70" s="313"/>
+      <c r="B70" s="320"/>
+      <c r="C70" s="299"/>
       <c r="D70" s="5" t="s">
         <v>47</v>
       </c>
@@ -13466,8 +13506,8 @@
       <c r="AB70" s="48"/>
       <c r="AC70" s="48"/>
       <c r="AD70" s="48"/>
-      <c r="AE70" s="289"/>
-      <c r="AF70" s="289"/>
+      <c r="AE70" s="288"/>
+      <c r="AF70" s="288"/>
       <c r="AG70" s="71"/>
       <c r="AH70" s="71"/>
       <c r="AI70" s="48"/>
@@ -13553,8 +13593,8 @@
       <c r="DK70" s="52"/>
     </row>
     <row r="71" spans="2:115 16384:16384">
-      <c r="B71" s="316"/>
-      <c r="C71" s="313"/>
+      <c r="B71" s="320"/>
+      <c r="C71" s="299"/>
       <c r="D71" s="5" t="s">
         <v>28</v>
       </c>
@@ -13584,8 +13624,8 @@
       <c r="AB71" s="48"/>
       <c r="AC71" s="48"/>
       <c r="AD71" s="48"/>
-      <c r="AE71" s="289"/>
-      <c r="AF71" s="289"/>
+      <c r="AE71" s="288"/>
+      <c r="AF71" s="288"/>
       <c r="AG71" s="71"/>
       <c r="AH71" s="71"/>
       <c r="AI71" s="48"/>
@@ -13671,8 +13711,8 @@
       <c r="DK71" s="52"/>
     </row>
     <row r="72" spans="2:115 16384:16384" ht="17.25" thickBot="1">
-      <c r="B72" s="316"/>
-      <c r="C72" s="313"/>
+      <c r="B72" s="320"/>
+      <c r="C72" s="299"/>
       <c r="D72" s="10"/>
       <c r="E72" s="11"/>
       <c r="F72" s="78"/>
@@ -13700,8 +13740,8 @@
       <c r="AB72" s="32"/>
       <c r="AC72" s="32"/>
       <c r="AD72" s="32"/>
-      <c r="AE72" s="287"/>
-      <c r="AF72" s="287"/>
+      <c r="AE72" s="286"/>
+      <c r="AF72" s="286"/>
       <c r="AG72" s="69"/>
       <c r="AH72" s="69"/>
       <c r="AI72" s="32"/>
@@ -13790,11 +13830,11 @@
       <c r="B73" s="301" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="310" t="s">
+      <c r="C73" s="315" t="s">
         <v>37</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E73" s="21" t="s">
         <v>19</v>
@@ -13826,8 +13866,8 @@
       <c r="AB73" s="95"/>
       <c r="AC73" s="95"/>
       <c r="AD73" s="95"/>
-      <c r="AE73" s="294"/>
-      <c r="AF73" s="294"/>
+      <c r="AE73" s="292"/>
+      <c r="AF73" s="292"/>
       <c r="AG73" s="70"/>
       <c r="AH73" s="70"/>
       <c r="AI73" s="56"/>
@@ -13914,8 +13954,8 @@
       <c r="XFD73" s="56"/>
     </row>
     <row r="74" spans="2:115 16384:16384">
-      <c r="B74" s="300"/>
-      <c r="C74" s="311"/>
+      <c r="B74" s="302"/>
+      <c r="C74" s="316"/>
       <c r="D74" s="15"/>
       <c r="E74" s="22"/>
       <c r="F74" s="81"/>
@@ -13943,8 +13983,8 @@
       <c r="AB74" s="56"/>
       <c r="AC74" s="56"/>
       <c r="AD74" s="56"/>
-      <c r="AE74" s="295"/>
-      <c r="AF74" s="295"/>
+      <c r="AE74" s="293"/>
+      <c r="AF74" s="293"/>
       <c r="AG74" s="73"/>
       <c r="AH74" s="73"/>
       <c r="AI74" s="56"/>
@@ -14030,8 +14070,8 @@
       <c r="DK74" s="61"/>
     </row>
     <row r="75" spans="2:115 16384:16384">
-      <c r="B75" s="300"/>
-      <c r="C75" s="311" t="s">
+      <c r="B75" s="302"/>
+      <c r="C75" s="316" t="s">
         <v>48</v>
       </c>
       <c r="D75" s="14" t="s">
@@ -14065,8 +14105,8 @@
       <c r="AB75" s="63"/>
       <c r="AC75" s="63"/>
       <c r="AD75" s="63"/>
-      <c r="AE75" s="296"/>
-      <c r="AF75" s="296"/>
+      <c r="AE75" s="294"/>
+      <c r="AF75" s="294"/>
       <c r="AG75" s="72"/>
       <c r="AH75" s="72"/>
       <c r="AI75" s="95"/>
@@ -14152,8 +14192,8 @@
       <c r="DK75" s="67"/>
     </row>
     <row r="76" spans="2:115 16384:16384">
-      <c r="B76" s="300"/>
-      <c r="C76" s="312"/>
+      <c r="B76" s="302"/>
+      <c r="C76" s="317"/>
       <c r="D76" s="16"/>
       <c r="E76" s="24"/>
       <c r="F76" s="83"/>
@@ -14181,8 +14221,8 @@
       <c r="AB76" s="56"/>
       <c r="AC76" s="56"/>
       <c r="AD76" s="56"/>
-      <c r="AE76" s="295"/>
-      <c r="AF76" s="295"/>
+      <c r="AE76" s="293"/>
+      <c r="AF76" s="293"/>
       <c r="AG76" s="73"/>
       <c r="AH76" s="73"/>
       <c r="AI76" s="56"/>
@@ -14268,8 +14308,8 @@
       <c r="DK76" s="61"/>
     </row>
     <row r="77" spans="2:115 16384:16384">
-      <c r="B77" s="300"/>
-      <c r="C77" s="313"/>
+      <c r="B77" s="302"/>
+      <c r="C77" s="299"/>
       <c r="D77" s="14"/>
       <c r="E77" s="23"/>
       <c r="F77" s="82"/>
@@ -14297,8 +14337,8 @@
       <c r="AB77" s="62"/>
       <c r="AC77" s="62"/>
       <c r="AD77" s="62"/>
-      <c r="AE77" s="290"/>
-      <c r="AF77" s="290"/>
+      <c r="AE77" s="289"/>
+      <c r="AF77" s="289"/>
       <c r="AG77" s="72"/>
       <c r="AH77" s="72"/>
       <c r="AI77" s="62"/>
@@ -14384,8 +14424,8 @@
       <c r="DK77" s="67"/>
     </row>
     <row r="78" spans="2:115 16384:16384" ht="17.25" thickBot="1">
-      <c r="B78" s="309"/>
-      <c r="C78" s="313"/>
+      <c r="B78" s="303"/>
+      <c r="C78" s="299"/>
       <c r="D78" s="15"/>
       <c r="E78" s="22"/>
       <c r="F78" s="81"/>
@@ -14413,8 +14453,8 @@
       <c r="AB78" s="32"/>
       <c r="AC78" s="32"/>
       <c r="AD78" s="32"/>
-      <c r="AE78" s="287"/>
-      <c r="AF78" s="287"/>
+      <c r="AE78" s="286"/>
+      <c r="AF78" s="286"/>
       <c r="AG78" s="69"/>
       <c r="AH78" s="69"/>
       <c r="AI78" s="32"/>
@@ -14503,7 +14543,7 @@
       <c r="B79" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="310" t="s">
+      <c r="C79" s="315" t="s">
         <v>50</v>
       </c>
       <c r="D79" s="20"/>
@@ -14535,8 +14575,8 @@
       <c r="AB79" s="43"/>
       <c r="AC79" s="43"/>
       <c r="AD79" s="43"/>
-      <c r="AE79" s="297"/>
-      <c r="AF79" s="297"/>
+      <c r="AE79" s="295"/>
+      <c r="AF79" s="295"/>
       <c r="AG79" s="70"/>
       <c r="AH79" s="70"/>
       <c r="AI79" s="43"/>
@@ -14622,8 +14662,8 @@
       <c r="DK79" s="47"/>
     </row>
     <row r="80" spans="2:115 16384:16384">
-      <c r="B80" s="300"/>
-      <c r="C80" s="311"/>
+      <c r="B80" s="302"/>
+      <c r="C80" s="316"/>
       <c r="D80" s="15"/>
       <c r="E80" s="22"/>
       <c r="F80" s="81"/>
@@ -14651,8 +14691,8 @@
       <c r="AB80" s="54"/>
       <c r="AC80" s="54"/>
       <c r="AD80" s="54"/>
-      <c r="AE80" s="298"/>
-      <c r="AF80" s="298"/>
+      <c r="AE80" s="296"/>
+      <c r="AF80" s="296"/>
       <c r="AG80" s="71"/>
       <c r="AH80" s="71"/>
       <c r="AI80" s="54"/>
@@ -14738,8 +14778,8 @@
       <c r="DK80" s="52"/>
     </row>
     <row r="81" spans="2:116">
-      <c r="B81" s="300"/>
-      <c r="C81" s="311" t="s">
+      <c r="B81" s="302"/>
+      <c r="C81" s="316" t="s">
         <v>53</v>
       </c>
       <c r="D81" s="14"/>
@@ -14771,8 +14811,8 @@
       <c r="AB81" s="63"/>
       <c r="AC81" s="63"/>
       <c r="AD81" s="63"/>
-      <c r="AE81" s="296"/>
-      <c r="AF81" s="296"/>
+      <c r="AE81" s="294"/>
+      <c r="AF81" s="294"/>
       <c r="AG81" s="72"/>
       <c r="AH81" s="72"/>
       <c r="AI81" s="63"/>
@@ -14858,8 +14898,8 @@
       <c r="DK81" s="67"/>
     </row>
     <row r="82" spans="2:116">
-      <c r="B82" s="300"/>
-      <c r="C82" s="312"/>
+      <c r="B82" s="302"/>
+      <c r="C82" s="317"/>
       <c r="D82" s="16"/>
       <c r="E82" s="24"/>
       <c r="F82" s="83"/>
@@ -14887,8 +14927,8 @@
       <c r="AB82" s="56"/>
       <c r="AC82" s="56"/>
       <c r="AD82" s="56"/>
-      <c r="AE82" s="295"/>
-      <c r="AF82" s="295"/>
+      <c r="AE82" s="293"/>
+      <c r="AF82" s="293"/>
       <c r="AG82" s="73"/>
       <c r="AH82" s="73"/>
       <c r="AI82" s="56"/>
@@ -14974,8 +15014,8 @@
       <c r="DK82" s="61"/>
     </row>
     <row r="83" spans="2:116">
-      <c r="B83" s="300"/>
-      <c r="C83" s="313"/>
+      <c r="B83" s="302"/>
+      <c r="C83" s="299"/>
       <c r="D83" s="14"/>
       <c r="E83" s="23"/>
       <c r="F83" s="82"/>
@@ -15003,8 +15043,8 @@
       <c r="AB83" s="48"/>
       <c r="AC83" s="48"/>
       <c r="AD83" s="48"/>
-      <c r="AE83" s="289"/>
-      <c r="AF83" s="289"/>
+      <c r="AE83" s="288"/>
+      <c r="AF83" s="288"/>
       <c r="AG83" s="71"/>
       <c r="AH83" s="71"/>
       <c r="AI83" s="48"/>
@@ -15090,8 +15130,8 @@
       <c r="DK83" s="52"/>
     </row>
     <row r="84" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B84" s="309"/>
-      <c r="C84" s="314"/>
+      <c r="B84" s="303"/>
+      <c r="C84" s="318"/>
       <c r="D84" s="25"/>
       <c r="E84" s="26"/>
       <c r="F84" s="84"/>
@@ -15119,8 +15159,8 @@
       <c r="AB84" s="32"/>
       <c r="AC84" s="32"/>
       <c r="AD84" s="32"/>
-      <c r="AE84" s="287"/>
-      <c r="AF84" s="287"/>
+      <c r="AE84" s="286"/>
+      <c r="AF84" s="286"/>
       <c r="AG84" s="69"/>
       <c r="AH84" s="69"/>
       <c r="AI84" s="32"/>
@@ -15209,7 +15249,7 @@
       <c r="B85" s="301" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="303" t="s">
+      <c r="C85" s="311" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="3"/>
@@ -15241,8 +15281,8 @@
       <c r="AB85" s="42"/>
       <c r="AC85" s="42"/>
       <c r="AD85" s="42"/>
-      <c r="AE85" s="288"/>
-      <c r="AF85" s="288"/>
+      <c r="AE85" s="287"/>
+      <c r="AF85" s="287"/>
       <c r="AG85" s="70"/>
       <c r="AH85" s="70"/>
       <c r="AI85" s="119"/>
@@ -15328,8 +15368,8 @@
       <c r="DK85" s="47"/>
     </row>
     <row r="86" spans="2:116">
-      <c r="B86" s="300"/>
-      <c r="C86" s="304"/>
+      <c r="B86" s="302"/>
+      <c r="C86" s="312"/>
       <c r="D86" s="5"/>
       <c r="E86" s="6" t="s">
         <v>52</v>
@@ -15359,8 +15399,8 @@
       <c r="AB86" s="48"/>
       <c r="AC86" s="48"/>
       <c r="AD86" s="48"/>
-      <c r="AE86" s="289"/>
-      <c r="AF86" s="289"/>
+      <c r="AE86" s="288"/>
+      <c r="AF86" s="288"/>
       <c r="AG86" s="71"/>
       <c r="AH86" s="71"/>
       <c r="AI86" s="97"/>
@@ -15446,8 +15486,8 @@
       <c r="DK86" s="52"/>
     </row>
     <row r="87" spans="2:116">
-      <c r="B87" s="300"/>
-      <c r="C87" s="304"/>
+      <c r="B87" s="302"/>
+      <c r="C87" s="312"/>
       <c r="D87" s="5"/>
       <c r="E87" s="6"/>
       <c r="F87" s="75"/>
@@ -15475,8 +15515,8 @@
       <c r="AB87" s="48"/>
       <c r="AC87" s="48"/>
       <c r="AD87" s="48"/>
-      <c r="AE87" s="289"/>
-      <c r="AF87" s="289"/>
+      <c r="AE87" s="288"/>
+      <c r="AF87" s="288"/>
       <c r="AG87" s="71"/>
       <c r="AH87" s="71"/>
       <c r="AI87" s="48"/>
@@ -15562,8 +15602,8 @@
       <c r="DK87" s="52"/>
     </row>
     <row r="88" spans="2:116">
-      <c r="B88" s="300"/>
-      <c r="C88" s="304"/>
+      <c r="B88" s="302"/>
+      <c r="C88" s="312"/>
       <c r="D88" s="5"/>
       <c r="E88" s="6"/>
       <c r="F88" s="75"/>
@@ -15591,8 +15631,8 @@
       <c r="AB88" s="48"/>
       <c r="AC88" s="48"/>
       <c r="AD88" s="48"/>
-      <c r="AE88" s="289"/>
-      <c r="AF88" s="289"/>
+      <c r="AE88" s="288"/>
+      <c r="AF88" s="288"/>
       <c r="AG88" s="71"/>
       <c r="AH88" s="71"/>
       <c r="AI88" s="48"/>
@@ -15678,8 +15718,8 @@
       <c r="DK88" s="52"/>
     </row>
     <row r="89" spans="2:116">
-      <c r="B89" s="300"/>
-      <c r="C89" s="304"/>
+      <c r="B89" s="302"/>
+      <c r="C89" s="312"/>
       <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="F89" s="75"/>
@@ -15707,8 +15747,8 @@
       <c r="AB89" s="57"/>
       <c r="AC89" s="57"/>
       <c r="AD89" s="57"/>
-      <c r="AE89" s="291"/>
-      <c r="AF89" s="291"/>
+      <c r="AE89" s="290"/>
+      <c r="AF89" s="290"/>
       <c r="AG89" s="73"/>
       <c r="AH89" s="73"/>
       <c r="AI89" s="57"/>
@@ -15794,8 +15834,8 @@
       <c r="DK89" s="61"/>
     </row>
     <row r="90" spans="2:116">
-      <c r="B90" s="300"/>
-      <c r="C90" s="305"/>
+      <c r="B90" s="302"/>
+      <c r="C90" s="313"/>
       <c r="D90" s="8"/>
       <c r="E90" s="9"/>
       <c r="F90" s="77"/>
@@ -15823,8 +15863,8 @@
       <c r="AB90" s="62"/>
       <c r="AC90" s="62"/>
       <c r="AD90" s="62"/>
-      <c r="AE90" s="290"/>
-      <c r="AF90" s="290"/>
+      <c r="AE90" s="289"/>
+      <c r="AF90" s="289"/>
       <c r="AG90" s="72"/>
       <c r="AH90" s="72"/>
       <c r="AI90" s="62"/>
@@ -15910,8 +15950,8 @@
       <c r="DK90" s="67"/>
     </row>
     <row r="91" spans="2:116">
-      <c r="B91" s="300"/>
-      <c r="C91" s="304"/>
+      <c r="B91" s="302"/>
+      <c r="C91" s="312"/>
       <c r="D91" s="5"/>
       <c r="E91" s="6"/>
       <c r="F91" s="75"/>
@@ -15939,8 +15979,8 @@
       <c r="AB91" s="48"/>
       <c r="AC91" s="48"/>
       <c r="AD91" s="48"/>
-      <c r="AE91" s="289"/>
-      <c r="AF91" s="289"/>
+      <c r="AE91" s="288"/>
+      <c r="AF91" s="288"/>
       <c r="AG91" s="71"/>
       <c r="AH91" s="71"/>
       <c r="AI91" s="48"/>
@@ -16026,8 +16066,8 @@
       <c r="DK91" s="52"/>
     </row>
     <row r="92" spans="2:116">
-      <c r="B92" s="300"/>
-      <c r="C92" s="304"/>
+      <c r="B92" s="302"/>
+      <c r="C92" s="312"/>
       <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="75"/>
@@ -16055,8 +16095,8 @@
       <c r="AB92" s="48"/>
       <c r="AC92" s="48"/>
       <c r="AD92" s="48"/>
-      <c r="AE92" s="289"/>
-      <c r="AF92" s="289"/>
+      <c r="AE92" s="288"/>
+      <c r="AF92" s="288"/>
       <c r="AG92" s="71"/>
       <c r="AH92" s="71"/>
       <c r="AI92" s="48"/>
@@ -16142,8 +16182,8 @@
       <c r="DK92" s="52"/>
     </row>
     <row r="93" spans="2:116">
-      <c r="B93" s="300"/>
-      <c r="C93" s="304"/>
+      <c r="B93" s="302"/>
+      <c r="C93" s="312"/>
       <c r="D93" s="5"/>
       <c r="E93" s="6"/>
       <c r="F93" s="75"/>
@@ -16171,8 +16211,8 @@
       <c r="AB93" s="48"/>
       <c r="AC93" s="48"/>
       <c r="AD93" s="48"/>
-      <c r="AE93" s="289"/>
-      <c r="AF93" s="289"/>
+      <c r="AE93" s="288"/>
+      <c r="AF93" s="288"/>
       <c r="AG93" s="71"/>
       <c r="AH93" s="71"/>
       <c r="AI93" s="48"/>
@@ -16258,8 +16298,8 @@
       <c r="DK93" s="52"/>
     </row>
     <row r="94" spans="2:116">
-      <c r="B94" s="300"/>
-      <c r="C94" s="304"/>
+      <c r="B94" s="302"/>
+      <c r="C94" s="312"/>
       <c r="D94" s="5"/>
       <c r="E94" s="6"/>
       <c r="F94" s="75"/>
@@ -16287,8 +16327,8 @@
       <c r="AB94" s="48"/>
       <c r="AC94" s="48"/>
       <c r="AD94" s="48"/>
-      <c r="AE94" s="289"/>
-      <c r="AF94" s="289"/>
+      <c r="AE94" s="288"/>
+      <c r="AF94" s="288"/>
       <c r="AG94" s="71"/>
       <c r="AH94" s="71"/>
       <c r="AI94" s="48"/>
@@ -16374,8 +16414,8 @@
       <c r="DK94" s="52"/>
     </row>
     <row r="95" spans="2:116">
-      <c r="B95" s="300"/>
-      <c r="C95" s="306"/>
+      <c r="B95" s="302"/>
+      <c r="C95" s="308"/>
       <c r="D95" s="10"/>
       <c r="E95" s="11"/>
       <c r="F95" s="78"/>
@@ -16403,8 +16443,8 @@
       <c r="AB95" s="57"/>
       <c r="AC95" s="57"/>
       <c r="AD95" s="57"/>
-      <c r="AE95" s="291"/>
-      <c r="AF95" s="291"/>
+      <c r="AE95" s="290"/>
+      <c r="AF95" s="290"/>
       <c r="AG95" s="73"/>
       <c r="AH95" s="73"/>
       <c r="AI95" s="57"/>
@@ -16490,8 +16530,8 @@
       <c r="DK95" s="61"/>
     </row>
     <row r="96" spans="2:116">
-      <c r="B96" s="300"/>
-      <c r="C96" s="305"/>
+      <c r="B96" s="302"/>
+      <c r="C96" s="313"/>
       <c r="D96" s="8"/>
       <c r="E96" s="9"/>
       <c r="F96" s="77"/>
@@ -16519,8 +16559,8 @@
       <c r="AB96" s="48"/>
       <c r="AC96" s="48"/>
       <c r="AD96" s="48"/>
-      <c r="AE96" s="289"/>
-      <c r="AF96" s="289"/>
+      <c r="AE96" s="288"/>
+      <c r="AF96" s="288"/>
       <c r="AG96" s="71"/>
       <c r="AH96" s="71"/>
       <c r="AI96" s="48"/>
@@ -16607,8 +16647,8 @@
       <c r="DL96" s="7"/>
     </row>
     <row r="97" spans="2:116">
-      <c r="B97" s="300"/>
-      <c r="C97" s="304"/>
+      <c r="B97" s="302"/>
+      <c r="C97" s="312"/>
       <c r="D97" s="15"/>
       <c r="E97" s="22"/>
       <c r="F97" s="81"/>
@@ -16636,8 +16676,8 @@
       <c r="AB97" s="48"/>
       <c r="AC97" s="48"/>
       <c r="AD97" s="48"/>
-      <c r="AE97" s="289"/>
-      <c r="AF97" s="289"/>
+      <c r="AE97" s="288"/>
+      <c r="AF97" s="288"/>
       <c r="AG97" s="71"/>
       <c r="AH97" s="71"/>
       <c r="AI97" s="48"/>
@@ -16724,8 +16764,8 @@
       <c r="DL97" s="7"/>
     </row>
     <row r="98" spans="2:116">
-      <c r="B98" s="300"/>
-      <c r="C98" s="304"/>
+      <c r="B98" s="302"/>
+      <c r="C98" s="312"/>
       <c r="D98" s="15"/>
       <c r="E98" s="22"/>
       <c r="F98" s="81"/>
@@ -16753,8 +16793,8 @@
       <c r="AB98" s="48"/>
       <c r="AC98" s="48"/>
       <c r="AD98" s="48"/>
-      <c r="AE98" s="289"/>
-      <c r="AF98" s="289"/>
+      <c r="AE98" s="288"/>
+      <c r="AF98" s="288"/>
       <c r="AG98" s="71"/>
       <c r="AH98" s="71"/>
       <c r="AI98" s="48"/>
@@ -16841,8 +16881,8 @@
       <c r="DL98" s="7"/>
     </row>
     <row r="99" spans="2:116">
-      <c r="B99" s="300"/>
-      <c r="C99" s="306"/>
+      <c r="B99" s="302"/>
+      <c r="C99" s="308"/>
       <c r="D99" s="16"/>
       <c r="E99" s="24"/>
       <c r="F99" s="83"/>
@@ -16870,8 +16910,8 @@
       <c r="AB99" s="48"/>
       <c r="AC99" s="48"/>
       <c r="AD99" s="48"/>
-      <c r="AE99" s="289"/>
-      <c r="AF99" s="289"/>
+      <c r="AE99" s="288"/>
+      <c r="AF99" s="288"/>
       <c r="AG99" s="71"/>
       <c r="AH99" s="71"/>
       <c r="AI99" s="48"/>
@@ -16958,8 +16998,8 @@
       <c r="DL99" s="7"/>
     </row>
     <row r="100" spans="2:116">
-      <c r="B100" s="300"/>
-      <c r="C100" s="307"/>
+      <c r="B100" s="302"/>
+      <c r="C100" s="300"/>
       <c r="D100" s="5"/>
       <c r="E100" s="6"/>
       <c r="F100" s="75"/>
@@ -16987,8 +17027,8 @@
       <c r="AB100" s="62"/>
       <c r="AC100" s="62"/>
       <c r="AD100" s="62"/>
-      <c r="AE100" s="290"/>
-      <c r="AF100" s="290"/>
+      <c r="AE100" s="289"/>
+      <c r="AF100" s="289"/>
       <c r="AG100" s="72"/>
       <c r="AH100" s="72"/>
       <c r="AI100" s="62"/>
@@ -17074,8 +17114,8 @@
       <c r="DK100" s="67"/>
     </row>
     <row r="101" spans="2:116">
-      <c r="B101" s="300"/>
-      <c r="C101" s="307"/>
+      <c r="B101" s="302"/>
+      <c r="C101" s="300"/>
       <c r="D101" s="15"/>
       <c r="E101" s="6"/>
       <c r="F101" s="75"/>
@@ -17103,8 +17143,8 @@
       <c r="AB101" s="48"/>
       <c r="AC101" s="48"/>
       <c r="AD101" s="48"/>
-      <c r="AE101" s="289"/>
-      <c r="AF101" s="289"/>
+      <c r="AE101" s="288"/>
+      <c r="AF101" s="288"/>
       <c r="AG101" s="71"/>
       <c r="AH101" s="71"/>
       <c r="AI101" s="48"/>
@@ -17190,8 +17230,8 @@
       <c r="DK101" s="52"/>
     </row>
     <row r="102" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B102" s="302"/>
-      <c r="C102" s="308"/>
+      <c r="B102" s="310"/>
+      <c r="C102" s="314"/>
       <c r="D102" s="27"/>
       <c r="E102" s="28"/>
       <c r="F102" s="85"/>
@@ -17219,8 +17259,8 @@
       <c r="AB102" s="86"/>
       <c r="AC102" s="86"/>
       <c r="AD102" s="86"/>
-      <c r="AE102" s="299"/>
-      <c r="AF102" s="299"/>
+      <c r="AE102" s="297"/>
+      <c r="AF102" s="297"/>
       <c r="AG102" s="87"/>
       <c r="AH102" s="87"/>
       <c r="AI102" s="86"/>
@@ -17308,13 +17348,6 @@
     <row r="103" spans="2:116" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="B20:B62"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C47"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="C60:C62"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B85:B102"/>
     <mergeCell ref="C85:C89"/>
@@ -17331,6 +17364,13 @@
     <mergeCell ref="C75:C76"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="B20:B62"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C47"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="C60:C62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="9405"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
   <si>
     <t>모듈</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -730,22 +730,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">지출 분류 메뉴 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">수입 분류 메뉴 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">자산 분류 메뉴 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>부채 분류 메뉴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>백업/ 복원 메인화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -759,6 +743,18 @@
   </si>
   <si>
     <t>홍용범</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류 class 생성및 기본 화면 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김우석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">지출, 수입, 자산, 부채 분류 기본메뉴 구성 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2706,7 +2702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3574,15 +3570,75 @@
     <xf numFmtId="0" fontId="8" fillId="19" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="115" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="116" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3595,67 +3651,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="115" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="116" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5253,10 +5261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:XFD134"/>
+  <dimension ref="B3:XFD135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D65" workbookViewId="0">
-      <selection activeCell="AX10" sqref="AX10"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="AV112" sqref="AV112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5968,10 +5976,10 @@
       <c r="AK6" s="167">
         <v>14</v>
       </c>
-      <c r="AL6" s="311">
+      <c r="AL6" s="289">
         <v>15</v>
       </c>
-      <c r="AM6" s="312">
+      <c r="AM6" s="290">
         <v>16</v>
       </c>
       <c r="AN6" s="167">
@@ -6243,7 +6251,7 @@
       <c r="AK7" s="168"/>
       <c r="AL7" s="246"/>
       <c r="AM7" s="168"/>
-      <c r="AN7" s="313"/>
+      <c r="AN7" s="291"/>
       <c r="AO7" s="168"/>
       <c r="AP7" s="234"/>
       <c r="AQ7" s="18"/>
@@ -6360,7 +6368,7 @@
       <c r="AK8" s="169"/>
       <c r="AL8" s="245"/>
       <c r="AM8" s="169"/>
-      <c r="AN8" s="314"/>
+      <c r="AN8" s="292"/>
       <c r="AO8" s="169"/>
       <c r="AP8" s="98"/>
       <c r="AQ8" s="98"/>
@@ -6477,7 +6485,7 @@
       <c r="AK9" s="169"/>
       <c r="AL9" s="245"/>
       <c r="AM9" s="169"/>
-      <c r="AN9" s="314"/>
+      <c r="AN9" s="292"/>
       <c r="AO9" s="169"/>
       <c r="AP9" s="98"/>
       <c r="AQ9" s="98"/>
@@ -6594,7 +6602,7 @@
       <c r="AK10" s="168"/>
       <c r="AL10" s="246"/>
       <c r="AM10" s="168"/>
-      <c r="AN10" s="315"/>
+      <c r="AN10" s="293"/>
       <c r="AO10" s="168"/>
       <c r="AP10" s="18"/>
       <c r="AQ10" s="18"/>
@@ -6711,7 +6719,7 @@
       <c r="AK11" s="169"/>
       <c r="AL11" s="245"/>
       <c r="AM11" s="169"/>
-      <c r="AN11" s="314"/>
+      <c r="AN11" s="292"/>
       <c r="AO11" s="169"/>
       <c r="AP11" s="98"/>
       <c r="AQ11" s="98"/>
@@ -6828,7 +6836,7 @@
       <c r="AK12" s="172"/>
       <c r="AL12" s="247"/>
       <c r="AM12" s="172"/>
-      <c r="AN12" s="316"/>
+      <c r="AN12" s="294"/>
       <c r="AO12" s="172"/>
       <c r="AP12" s="119"/>
       <c r="AQ12" s="119"/>
@@ -7270,7 +7278,7 @@
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="290" t="s">
+      <c r="B18" s="296" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="230" t="s">
@@ -7396,7 +7404,7 @@
       <c r="DK18" s="40"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="290"/>
+      <c r="B19" s="296"/>
       <c r="C19" s="235" t="s">
         <v>10</v>
       </c>
@@ -7520,10 +7528,10 @@
       <c r="DK19" s="35"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="289" t="s">
+      <c r="B20" s="295" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="292" t="s">
+      <c r="C20" s="312" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="239" t="s">
@@ -7646,8 +7654,8 @@
       <c r="DK20" s="52"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="290"/>
-      <c r="C21" s="293"/>
+      <c r="B21" s="296"/>
+      <c r="C21" s="313"/>
       <c r="D21" s="239" t="s">
         <v>57</v>
       </c>
@@ -7768,8 +7776,8 @@
       <c r="DK21" s="54"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="290"/>
-      <c r="C22" s="293"/>
+      <c r="B22" s="296"/>
+      <c r="C22" s="313"/>
       <c r="D22" s="239" t="s">
         <v>55</v>
       </c>
@@ -7890,8 +7898,8 @@
       <c r="DK22" s="54"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="290"/>
-      <c r="C23" s="294"/>
+      <c r="B23" s="296"/>
+      <c r="C23" s="314"/>
       <c r="D23" s="239" t="s">
         <v>56</v>
       </c>
@@ -8012,8 +8020,8 @@
       <c r="DK23" s="54"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="290"/>
-      <c r="C24" s="295" t="s">
+      <c r="B24" s="296"/>
+      <c r="C24" s="315" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="284" t="s">
@@ -8136,8 +8144,8 @@
       <c r="DK24" s="66"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="290"/>
-      <c r="C25" s="295"/>
+      <c r="B25" s="296"/>
+      <c r="C25" s="315"/>
       <c r="D25" s="231" t="s">
         <v>72</v>
       </c>
@@ -8258,8 +8266,8 @@
       <c r="DK25" s="51"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="290"/>
-      <c r="C26" s="295"/>
+      <c r="B26" s="296"/>
+      <c r="C26" s="315"/>
       <c r="D26" s="231" t="s">
         <v>73</v>
       </c>
@@ -8380,8 +8388,8 @@
       <c r="DK26" s="51"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="290"/>
-      <c r="C27" s="295"/>
+      <c r="B27" s="296"/>
+      <c r="C27" s="315"/>
       <c r="D27" s="231" t="s">
         <v>74</v>
       </c>
@@ -8502,8 +8510,8 @@
       <c r="DK27" s="51"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="290"/>
-      <c r="C28" s="295"/>
+      <c r="B28" s="296"/>
+      <c r="C28" s="315"/>
       <c r="D28" s="231" t="s">
         <v>75</v>
       </c>
@@ -8624,8 +8632,8 @@
       <c r="DK28" s="51"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="290"/>
-      <c r="C29" s="295"/>
+      <c r="B29" s="296"/>
+      <c r="C29" s="315"/>
       <c r="D29" s="231" t="s">
         <v>76</v>
       </c>
@@ -8746,8 +8754,8 @@
       <c r="DK29" s="51"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="290"/>
-      <c r="C30" s="295"/>
+      <c r="B30" s="296"/>
+      <c r="C30" s="315"/>
       <c r="D30" s="231" t="s">
         <v>77</v>
       </c>
@@ -8868,8 +8876,8 @@
       <c r="DK30" s="51"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="290"/>
-      <c r="C31" s="295"/>
+      <c r="B31" s="296"/>
+      <c r="C31" s="315"/>
       <c r="D31" s="231" t="s">
         <v>78</v>
       </c>
@@ -8990,8 +8998,8 @@
       <c r="DK31" s="51"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="290"/>
-      <c r="C32" s="295"/>
+      <c r="B32" s="296"/>
+      <c r="C32" s="315"/>
       <c r="D32" s="231" t="s">
         <v>79</v>
       </c>
@@ -9112,8 +9120,8 @@
       <c r="DK32" s="51"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="290"/>
-      <c r="C33" s="295"/>
+      <c r="B33" s="296"/>
+      <c r="C33" s="315"/>
       <c r="D33" s="231" t="s">
         <v>80</v>
       </c>
@@ -9234,8 +9242,8 @@
       <c r="DK33" s="51"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="290"/>
-      <c r="C34" s="295"/>
+      <c r="B34" s="296"/>
+      <c r="C34" s="315"/>
       <c r="D34" s="231" t="s">
         <v>81</v>
       </c>
@@ -9356,8 +9364,8 @@
       <c r="DK34" s="51"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="290"/>
-      <c r="C35" s="295"/>
+      <c r="B35" s="296"/>
+      <c r="C35" s="315"/>
       <c r="D35" s="231" t="s">
         <v>82</v>
       </c>
@@ -9478,8 +9486,8 @@
       <c r="DK35" s="51"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="290"/>
-      <c r="C36" s="295"/>
+      <c r="B36" s="296"/>
+      <c r="C36" s="315"/>
       <c r="D36" s="231" t="s">
         <v>83</v>
       </c>
@@ -9600,8 +9608,8 @@
       <c r="DK36" s="51"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="290"/>
-      <c r="C37" s="295"/>
+      <c r="B37" s="296"/>
+      <c r="C37" s="315"/>
       <c r="D37" s="231" t="s">
         <v>84</v>
       </c>
@@ -9722,8 +9730,8 @@
       <c r="DK37" s="51"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="290"/>
-      <c r="C38" s="295"/>
+      <c r="B38" s="296"/>
+      <c r="C38" s="315"/>
       <c r="D38" s="231" t="s">
         <v>85</v>
       </c>
@@ -9844,8 +9852,8 @@
       <c r="DK38" s="51"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="290"/>
-      <c r="C39" s="295"/>
+      <c r="B39" s="296"/>
+      <c r="C39" s="315"/>
       <c r="D39" s="231" t="s">
         <v>86</v>
       </c>
@@ -9966,8 +9974,8 @@
       <c r="DK39" s="51"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="290"/>
-      <c r="C40" s="295"/>
+      <c r="B40" s="296"/>
+      <c r="C40" s="315"/>
       <c r="D40" s="231" t="s">
         <v>87</v>
       </c>
@@ -10088,8 +10096,8 @@
       <c r="DK40" s="51"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="290"/>
-      <c r="C41" s="295"/>
+      <c r="B41" s="296"/>
+      <c r="C41" s="315"/>
       <c r="D41" s="231" t="s">
         <v>88</v>
       </c>
@@ -10210,8 +10218,8 @@
       <c r="DK41" s="51"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="290"/>
-      <c r="C42" s="295"/>
+      <c r="B42" s="296"/>
+      <c r="C42" s="315"/>
       <c r="D42" s="231" t="s">
         <v>89</v>
       </c>
@@ -10332,8 +10340,8 @@
       <c r="DK42" s="51"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="290"/>
-      <c r="C43" s="295"/>
+      <c r="B43" s="296"/>
+      <c r="C43" s="315"/>
       <c r="D43" s="231" t="s">
         <v>90</v>
       </c>
@@ -10454,8 +10462,8 @@
       <c r="DK43" s="51"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="290"/>
-      <c r="C44" s="295"/>
+      <c r="B44" s="296"/>
+      <c r="C44" s="315"/>
       <c r="D44" s="231" t="s">
         <v>91</v>
       </c>
@@ -10576,8 +10584,8 @@
       <c r="DK44" s="51"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="290"/>
-      <c r="C45" s="295"/>
+      <c r="B45" s="296"/>
+      <c r="C45" s="315"/>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="74"/>
@@ -10692,8 +10700,8 @@
       <c r="DK45" s="51"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="290"/>
-      <c r="C46" s="295"/>
+      <c r="B46" s="296"/>
+      <c r="C46" s="315"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="74"/>
@@ -10808,8 +10816,8 @@
       <c r="DK46" s="51"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="290"/>
-      <c r="C47" s="295"/>
+      <c r="B47" s="296"/>
+      <c r="C47" s="315"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="77"/>
@@ -10924,8 +10932,8 @@
       <c r="DK47" s="60"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="290"/>
-      <c r="C48" s="296" t="s">
+      <c r="B48" s="296"/>
+      <c r="C48" s="307" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="284" t="s">
@@ -11048,8 +11056,8 @@
       <c r="DK48" s="66"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="290"/>
-      <c r="C49" s="296"/>
+      <c r="B49" s="296"/>
+      <c r="C49" s="307"/>
       <c r="D49" s="231" t="s">
         <v>59</v>
       </c>
@@ -11170,8 +11178,8 @@
       <c r="DK49" s="51"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="290"/>
-      <c r="C50" s="296"/>
+      <c r="B50" s="296"/>
+      <c r="C50" s="307"/>
       <c r="D50" s="231" t="s">
         <v>61</v>
       </c>
@@ -11292,8 +11300,8 @@
       <c r="DK50" s="51"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="290"/>
-      <c r="C51" s="296"/>
+      <c r="B51" s="296"/>
+      <c r="C51" s="307"/>
       <c r="D51" s="231" t="s">
         <v>62</v>
       </c>
@@ -11414,8 +11422,8 @@
       <c r="DK51" s="51"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="290"/>
-      <c r="C52" s="296"/>
+      <c r="B52" s="296"/>
+      <c r="C52" s="307"/>
       <c r="D52" s="231" t="s">
         <v>65</v>
       </c>
@@ -11536,8 +11544,8 @@
       <c r="DK52" s="51"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="290"/>
-      <c r="C53" s="296"/>
+      <c r="B53" s="296"/>
+      <c r="C53" s="307"/>
       <c r="D53" s="231" t="s">
         <v>66</v>
       </c>
@@ -11658,8 +11666,8 @@
       <c r="DK53" s="51"/>
     </row>
     <row r="54" spans="2:115">
-      <c r="B54" s="290"/>
-      <c r="C54" s="296"/>
+      <c r="B54" s="296"/>
+      <c r="C54" s="307"/>
       <c r="D54" s="231" t="s">
         <v>67</v>
       </c>
@@ -11780,8 +11788,8 @@
       <c r="DK54" s="51"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="290"/>
-      <c r="C55" s="296"/>
+      <c r="B55" s="296"/>
+      <c r="C55" s="307"/>
       <c r="D55" s="231" t="s">
         <v>68</v>
       </c>
@@ -11902,8 +11910,8 @@
       <c r="DK55" s="51"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="290"/>
-      <c r="C56" s="296"/>
+      <c r="B56" s="296"/>
+      <c r="C56" s="307"/>
       <c r="D56" s="10"/>
       <c r="E56" s="11"/>
       <c r="F56" s="77"/>
@@ -12018,8 +12026,8 @@
       <c r="DK56" s="60"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="290"/>
-      <c r="C57" s="309" t="s">
+      <c r="B57" s="296"/>
+      <c r="C57" s="305" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -12142,8 +12150,8 @@
       <c r="DK57" s="66"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="290"/>
-      <c r="C58" s="308"/>
+      <c r="B58" s="296"/>
+      <c r="C58" s="304"/>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
       <c r="F58" s="74"/>
@@ -12258,8 +12266,8 @@
       <c r="DK58" s="51"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="290"/>
-      <c r="C59" s="297"/>
+      <c r="B59" s="296"/>
+      <c r="C59" s="306"/>
       <c r="D59" s="10"/>
       <c r="E59" s="11"/>
       <c r="F59" s="77"/>
@@ -12374,8 +12382,8 @@
       <c r="DK59" s="60"/>
     </row>
     <row r="60" spans="2:115">
-      <c r="B60" s="290"/>
-      <c r="C60" s="297"/>
+      <c r="B60" s="296"/>
+      <c r="C60" s="306"/>
       <c r="D60" s="284" t="s">
         <v>63</v>
       </c>
@@ -12496,8 +12504,8 @@
       <c r="DK60" s="51"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="290"/>
-      <c r="C61" s="295"/>
+      <c r="B61" s="296"/>
+      <c r="C61" s="315"/>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
       <c r="F61" s="74"/>
@@ -12612,8 +12620,8 @@
       <c r="DK61" s="51"/>
     </row>
     <row r="62" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B62" s="291"/>
-      <c r="C62" s="298"/>
+      <c r="B62" s="308"/>
+      <c r="C62" s="316"/>
       <c r="D62" s="17"/>
       <c r="E62" s="13"/>
       <c r="F62" s="78"/>
@@ -12728,10 +12736,10 @@
       <c r="DK62" s="35"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="303" t="s">
+      <c r="B63" s="310" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="296" t="s">
+      <c r="C63" s="307" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="231" t="s">
@@ -12854,8 +12862,8 @@
       <c r="DK63" s="46"/>
     </row>
     <row r="64" spans="2:115">
-      <c r="B64" s="304"/>
-      <c r="C64" s="296"/>
+      <c r="B64" s="311"/>
+      <c r="C64" s="307"/>
       <c r="D64" s="231" t="s">
         <v>41</v>
       </c>
@@ -12976,8 +12984,8 @@
       <c r="DK64" s="51"/>
     </row>
     <row r="65" spans="2:115 16384:16384">
-      <c r="B65" s="304"/>
-      <c r="C65" s="296"/>
+      <c r="B65" s="311"/>
+      <c r="C65" s="307"/>
       <c r="D65" s="231" t="s">
         <v>42</v>
       </c>
@@ -13098,8 +13106,8 @@
       <c r="DK65" s="51"/>
     </row>
     <row r="66" spans="2:115 16384:16384">
-      <c r="B66" s="304"/>
-      <c r="C66" s="296"/>
+      <c r="B66" s="311"/>
+      <c r="C66" s="307"/>
       <c r="D66" s="231" t="s">
         <v>43</v>
       </c>
@@ -13220,8 +13228,8 @@
       <c r="DK66" s="51"/>
     </row>
     <row r="67" spans="2:115 16384:16384">
-      <c r="B67" s="304"/>
-      <c r="C67" s="296"/>
+      <c r="B67" s="311"/>
+      <c r="C67" s="307"/>
       <c r="D67" s="5" t="s">
         <v>45</v>
       </c>
@@ -13338,8 +13346,8 @@
       <c r="DK67" s="51"/>
     </row>
     <row r="68" spans="2:115 16384:16384">
-      <c r="B68" s="304"/>
-      <c r="C68" s="296"/>
+      <c r="B68" s="311"/>
+      <c r="C68" s="307"/>
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
       <c r="F68" s="74"/>
@@ -13454,8 +13462,8 @@
       <c r="DK68" s="60"/>
     </row>
     <row r="69" spans="2:115 16384:16384">
-      <c r="B69" s="304"/>
-      <c r="C69" s="302" t="s">
+      <c r="B69" s="311"/>
+      <c r="C69" s="301" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="14" t="s">
@@ -13578,8 +13586,8 @@
       <c r="DK69" s="51"/>
     </row>
     <row r="70" spans="2:115 16384:16384">
-      <c r="B70" s="304"/>
-      <c r="C70" s="302"/>
+      <c r="B70" s="311"/>
+      <c r="C70" s="301"/>
       <c r="D70" s="5" t="s">
         <v>47</v>
       </c>
@@ -13696,8 +13704,8 @@
       <c r="DK70" s="51"/>
     </row>
     <row r="71" spans="2:115 16384:16384">
-      <c r="B71" s="304"/>
-      <c r="C71" s="302"/>
+      <c r="B71" s="311"/>
+      <c r="C71" s="301"/>
       <c r="D71" s="5" t="s">
         <v>28</v>
       </c>
@@ -13814,8 +13822,8 @@
       <c r="DK71" s="51"/>
     </row>
     <row r="72" spans="2:115 16384:16384" ht="17.25" thickBot="1">
-      <c r="B72" s="304"/>
-      <c r="C72" s="302"/>
+      <c r="B72" s="311"/>
+      <c r="C72" s="301"/>
       <c r="D72" s="10"/>
       <c r="E72" s="11"/>
       <c r="F72" s="77"/>
@@ -13930,10 +13938,10 @@
       <c r="DK72" s="35"/>
     </row>
     <row r="73" spans="2:115 16384:16384">
-      <c r="B73" s="289" t="s">
+      <c r="B73" s="295" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="299" t="s">
+      <c r="C73" s="298" t="s">
         <v>37</v>
       </c>
       <c r="D73" s="20" t="s">
@@ -14057,8 +14065,8 @@
       <c r="XFD73" s="55"/>
     </row>
     <row r="74" spans="2:115 16384:16384">
-      <c r="B74" s="290"/>
-      <c r="C74" s="300"/>
+      <c r="B74" s="296"/>
+      <c r="C74" s="299"/>
       <c r="D74" s="15"/>
       <c r="E74" s="22"/>
       <c r="F74" s="80"/>
@@ -14173,8 +14181,8 @@
       <c r="DK74" s="60"/>
     </row>
     <row r="75" spans="2:115 16384:16384">
-      <c r="B75" s="290"/>
-      <c r="C75" s="300" t="s">
+      <c r="B75" s="296"/>
+      <c r="C75" s="299" t="s">
         <v>48</v>
       </c>
       <c r="D75" s="14" t="s">
@@ -14295,8 +14303,8 @@
       <c r="DK75" s="66"/>
     </row>
     <row r="76" spans="2:115 16384:16384">
-      <c r="B76" s="290"/>
-      <c r="C76" s="301"/>
+      <c r="B76" s="296"/>
+      <c r="C76" s="300"/>
       <c r="D76" s="16"/>
       <c r="E76" s="24"/>
       <c r="F76" s="82"/>
@@ -14411,8 +14419,8 @@
       <c r="DK76" s="60"/>
     </row>
     <row r="77" spans="2:115 16384:16384">
-      <c r="B77" s="290"/>
-      <c r="C77" s="302"/>
+      <c r="B77" s="296"/>
+      <c r="C77" s="301"/>
       <c r="D77" s="14"/>
       <c r="E77" s="23"/>
       <c r="F77" s="81"/>
@@ -14527,8 +14535,8 @@
       <c r="DK77" s="66"/>
     </row>
     <row r="78" spans="2:115 16384:16384" ht="17.25" thickBot="1">
-      <c r="B78" s="291"/>
-      <c r="C78" s="302"/>
+      <c r="B78" s="308"/>
+      <c r="C78" s="301"/>
       <c r="D78" s="15"/>
       <c r="E78" s="22"/>
       <c r="F78" s="80"/>
@@ -14643,10 +14651,10 @@
       <c r="DK78" s="35"/>
     </row>
     <row r="79" spans="2:115 16384:16384">
-      <c r="B79" s="289" t="s">
+      <c r="B79" s="295" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="299" t="s">
+      <c r="C79" s="298" t="s">
         <v>50</v>
       </c>
       <c r="D79" s="20"/>
@@ -14765,8 +14773,8 @@
       <c r="DK79" s="46"/>
     </row>
     <row r="80" spans="2:115 16384:16384">
-      <c r="B80" s="290"/>
-      <c r="C80" s="300"/>
+      <c r="B80" s="296"/>
+      <c r="C80" s="299"/>
       <c r="D80" s="15"/>
       <c r="E80" s="22"/>
       <c r="F80" s="80"/>
@@ -14881,8 +14889,8 @@
       <c r="DK80" s="51"/>
     </row>
     <row r="81" spans="2:115">
-      <c r="B81" s="290"/>
-      <c r="C81" s="300" t="s">
+      <c r="B81" s="296"/>
+      <c r="C81" s="299" t="s">
         <v>52</v>
       </c>
       <c r="D81" s="14"/>
@@ -15001,8 +15009,8 @@
       <c r="DK81" s="66"/>
     </row>
     <row r="82" spans="2:115">
-      <c r="B82" s="290"/>
-      <c r="C82" s="301"/>
+      <c r="B82" s="296"/>
+      <c r="C82" s="300"/>
       <c r="D82" s="16"/>
       <c r="E82" s="24"/>
       <c r="F82" s="82"/>
@@ -15117,8 +15125,8 @@
       <c r="DK82" s="60"/>
     </row>
     <row r="83" spans="2:115">
-      <c r="B83" s="290"/>
-      <c r="C83" s="302"/>
+      <c r="B83" s="296"/>
+      <c r="C83" s="301"/>
       <c r="D83" s="14"/>
       <c r="E83" s="23"/>
       <c r="F83" s="81"/>
@@ -15233,8 +15241,8 @@
       <c r="DK83" s="51"/>
     </row>
     <row r="84" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B84" s="291"/>
-      <c r="C84" s="310"/>
+      <c r="B84" s="308"/>
+      <c r="C84" s="309"/>
       <c r="D84" s="25"/>
       <c r="E84" s="26"/>
       <c r="F84" s="83"/>
@@ -15349,10 +15357,10 @@
       <c r="DK84" s="35"/>
     </row>
     <row r="85" spans="2:115">
-      <c r="B85" s="289" t="s">
+      <c r="B85" s="295" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="307" t="s">
+      <c r="C85" s="303" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -15473,8 +15481,8 @@
       <c r="DK85" s="46"/>
     </row>
     <row r="86" spans="2:115">
-      <c r="B86" s="290"/>
-      <c r="C86" s="308"/>
+      <c r="B86" s="296"/>
+      <c r="C86" s="304"/>
       <c r="D86" s="5" t="s">
         <v>95</v>
       </c>
@@ -15593,8 +15601,8 @@
       <c r="DK86" s="51"/>
     </row>
     <row r="87" spans="2:115">
-      <c r="B87" s="290"/>
-      <c r="C87" s="308"/>
+      <c r="B87" s="296"/>
+      <c r="C87" s="304"/>
       <c r="D87" s="5" t="s">
         <v>96</v>
       </c>
@@ -15713,8 +15721,8 @@
       <c r="DK87" s="51"/>
     </row>
     <row r="88" spans="2:115">
-      <c r="B88" s="290"/>
-      <c r="C88" s="308"/>
+      <c r="B88" s="296"/>
+      <c r="C88" s="304"/>
       <c r="D88" s="5" t="s">
         <v>97</v>
       </c>
@@ -15833,8 +15841,8 @@
       <c r="DK88" s="51"/>
     </row>
     <row r="89" spans="2:115">
-      <c r="B89" s="290"/>
-      <c r="C89" s="308"/>
+      <c r="B89" s="296"/>
+      <c r="C89" s="304"/>
       <c r="D89" s="5" t="s">
         <v>110</v>
       </c>
@@ -15953,8 +15961,8 @@
       <c r="DK89" s="51"/>
     </row>
     <row r="90" spans="2:115">
-      <c r="B90" s="290"/>
-      <c r="C90" s="308"/>
+      <c r="B90" s="296"/>
+      <c r="C90" s="304"/>
       <c r="D90" s="5" t="s">
         <v>92</v>
       </c>
@@ -16073,13 +16081,13 @@
       <c r="DK90" s="51"/>
     </row>
     <row r="91" spans="2:115">
-      <c r="B91" s="290"/>
-      <c r="C91" s="308"/>
+      <c r="B91" s="296"/>
+      <c r="C91" s="304"/>
       <c r="D91" s="5" t="s">
         <v>93</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F91" s="74"/>
       <c r="G91" s="222"/>
@@ -16193,8 +16201,8 @@
       <c r="DK91" s="51"/>
     </row>
     <row r="92" spans="2:115">
-      <c r="B92" s="290"/>
-      <c r="C92" s="308"/>
+      <c r="B92" s="296"/>
+      <c r="C92" s="304"/>
       <c r="D92" s="5" t="s">
         <v>98</v>
       </c>
@@ -16311,8 +16319,8 @@
       <c r="DK92" s="51"/>
     </row>
     <row r="93" spans="2:115">
-      <c r="B93" s="290"/>
-      <c r="C93" s="308"/>
+      <c r="B93" s="296"/>
+      <c r="C93" s="304"/>
       <c r="D93" s="5" t="s">
         <v>99</v>
       </c>
@@ -16429,8 +16437,8 @@
       <c r="DK93" s="51"/>
     </row>
     <row r="94" spans="2:115">
-      <c r="B94" s="290"/>
-      <c r="C94" s="308"/>
+      <c r="B94" s="296"/>
+      <c r="C94" s="304"/>
       <c r="D94" s="5" t="s">
         <v>100</v>
       </c>
@@ -16547,8 +16555,8 @@
       <c r="DK94" s="51"/>
     </row>
     <row r="95" spans="2:115">
-      <c r="B95" s="290"/>
-      <c r="C95" s="308"/>
+      <c r="B95" s="296"/>
+      <c r="C95" s="304"/>
       <c r="D95" s="5" t="s">
         <v>101</v>
       </c>
@@ -16665,8 +16673,8 @@
       <c r="DK95" s="51"/>
     </row>
     <row r="96" spans="2:115">
-      <c r="B96" s="290"/>
-      <c r="C96" s="308"/>
+      <c r="B96" s="296"/>
+      <c r="C96" s="304"/>
       <c r="D96" s="5" t="s">
         <v>102</v>
       </c>
@@ -16783,8 +16791,8 @@
       <c r="DK96" s="51"/>
     </row>
     <row r="97" spans="2:115">
-      <c r="B97" s="290"/>
-      <c r="C97" s="308"/>
+      <c r="B97" s="296"/>
+      <c r="C97" s="304"/>
       <c r="D97" s="5" t="s">
         <v>103</v>
       </c>
@@ -16901,8 +16909,8 @@
       <c r="DK97" s="51"/>
     </row>
     <row r="98" spans="2:115">
-      <c r="B98" s="290"/>
-      <c r="C98" s="308"/>
+      <c r="B98" s="296"/>
+      <c r="C98" s="304"/>
       <c r="D98" s="5" t="s">
         <v>104</v>
       </c>
@@ -17019,8 +17027,8 @@
       <c r="DK98" s="51"/>
     </row>
     <row r="99" spans="2:115">
-      <c r="B99" s="290"/>
-      <c r="C99" s="308"/>
+      <c r="B99" s="296"/>
+      <c r="C99" s="304"/>
       <c r="D99" s="5" t="s">
         <v>105</v>
       </c>
@@ -17137,8 +17145,8 @@
       <c r="DK99" s="51"/>
     </row>
     <row r="100" spans="2:115">
-      <c r="B100" s="290"/>
-      <c r="C100" s="308"/>
+      <c r="B100" s="296"/>
+      <c r="C100" s="304"/>
       <c r="D100" s="5" t="s">
         <v>106</v>
       </c>
@@ -17255,8 +17263,8 @@
       <c r="DK100" s="51"/>
     </row>
     <row r="101" spans="2:115">
-      <c r="B101" s="290"/>
-      <c r="C101" s="308"/>
+      <c r="B101" s="296"/>
+      <c r="C101" s="304"/>
       <c r="D101" s="5" t="s">
         <v>107</v>
       </c>
@@ -17373,8 +17381,8 @@
       <c r="DK101" s="51"/>
     </row>
     <row r="102" spans="2:115">
-      <c r="B102" s="290"/>
-      <c r="C102" s="308"/>
+      <c r="B102" s="296"/>
+      <c r="C102" s="304"/>
       <c r="D102" s="5" t="s">
         <v>108</v>
       </c>
@@ -17491,8 +17499,8 @@
       <c r="DK102" s="51"/>
     </row>
     <row r="103" spans="2:115">
-      <c r="B103" s="290"/>
-      <c r="C103" s="308"/>
+      <c r="B103" s="296"/>
+      <c r="C103" s="304"/>
       <c r="D103" s="5" t="s">
         <v>109</v>
       </c>
@@ -17609,8 +17617,8 @@
       <c r="DK103" s="51"/>
     </row>
     <row r="104" spans="2:115">
-      <c r="B104" s="290"/>
-      <c r="C104" s="308"/>
+      <c r="B104" s="296"/>
+      <c r="C104" s="304"/>
       <c r="D104" s="5" t="s">
         <v>111</v>
       </c>
@@ -17727,8 +17735,8 @@
       <c r="DK104" s="51"/>
     </row>
     <row r="105" spans="2:115">
-      <c r="B105" s="290"/>
-      <c r="C105" s="308"/>
+      <c r="B105" s="296"/>
+      <c r="C105" s="304"/>
       <c r="D105" s="5" t="s">
         <v>112</v>
       </c>
@@ -17845,8 +17853,8 @@
       <c r="DK105" s="51"/>
     </row>
     <row r="106" spans="2:115">
-      <c r="B106" s="290"/>
-      <c r="C106" s="308"/>
+      <c r="B106" s="296"/>
+      <c r="C106" s="304"/>
       <c r="D106" s="5" t="s">
         <v>113</v>
       </c>
@@ -17963,13 +17971,13 @@
       <c r="DK106" s="51"/>
     </row>
     <row r="107" spans="2:115">
-      <c r="B107" s="290"/>
-      <c r="C107" s="308"/>
+      <c r="B107" s="296"/>
+      <c r="C107" s="304"/>
       <c r="D107" s="5" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F107" s="74"/>
       <c r="G107" s="222"/>
@@ -18006,9 +18014,9 @@
       <c r="AL107" s="195"/>
       <c r="AM107" s="195"/>
       <c r="AN107" s="209"/>
-      <c r="AO107" s="209"/>
-      <c r="AP107" s="47"/>
-      <c r="AQ107" s="47"/>
+      <c r="AO107" s="200"/>
+      <c r="AP107" s="320"/>
+      <c r="AQ107" s="319"/>
       <c r="AR107" s="47"/>
       <c r="AS107" s="47"/>
       <c r="AT107" s="133"/>
@@ -18083,13 +18091,13 @@
       <c r="DK107" s="51"/>
     </row>
     <row r="108" spans="2:115">
-      <c r="B108" s="290"/>
-      <c r="C108" s="308"/>
+      <c r="B108" s="296"/>
+      <c r="C108" s="304"/>
       <c r="D108" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F108" s="74"/>
       <c r="G108" s="222"/>
@@ -18127,9 +18135,9 @@
       <c r="AM108" s="195"/>
       <c r="AN108" s="209"/>
       <c r="AO108" s="209"/>
-      <c r="AP108" s="47"/>
-      <c r="AQ108" s="47"/>
-      <c r="AR108" s="47"/>
+      <c r="AP108" s="318"/>
+      <c r="AQ108" s="320"/>
+      <c r="AR108" s="319"/>
       <c r="AS108" s="47"/>
       <c r="AT108" s="133"/>
       <c r="AU108" s="70"/>
@@ -18203,14 +18211,10 @@
       <c r="DK108" s="51"/>
     </row>
     <row r="109" spans="2:115">
-      <c r="B109" s="290"/>
-      <c r="C109" s="308"/>
-      <c r="D109" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="B109" s="296"/>
+      <c r="C109" s="304"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="6"/>
       <c r="F109" s="74"/>
       <c r="G109" s="222"/>
       <c r="H109" s="195"/>
@@ -18248,7 +18252,7 @@
       <c r="AN109" s="209"/>
       <c r="AO109" s="209"/>
       <c r="AP109" s="47"/>
-      <c r="AQ109" s="47"/>
+      <c r="AQ109" s="317"/>
       <c r="AR109" s="47"/>
       <c r="AS109" s="47"/>
       <c r="AT109" s="133"/>
@@ -18323,14 +18327,10 @@
       <c r="DK109" s="51"/>
     </row>
     <row r="110" spans="2:115">
-      <c r="B110" s="290"/>
-      <c r="C110" s="308"/>
-      <c r="D110" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>120</v>
-      </c>
+      <c r="B110" s="296"/>
+      <c r="C110" s="304"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="6"/>
       <c r="F110" s="74"/>
       <c r="G110" s="222"/>
       <c r="H110" s="195"/>
@@ -18368,7 +18368,7 @@
       <c r="AN110" s="209"/>
       <c r="AO110" s="209"/>
       <c r="AP110" s="47"/>
-      <c r="AQ110" s="47"/>
+      <c r="AQ110" s="317"/>
       <c r="AR110" s="47"/>
       <c r="AS110" s="47"/>
       <c r="AT110" s="133"/>
@@ -18443,11 +18443,9 @@
       <c r="DK110" s="51"/>
     </row>
     <row r="111" spans="2:115">
-      <c r="B111" s="290"/>
-      <c r="C111" s="308"/>
-      <c r="D111" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="B111" s="296"/>
+      <c r="C111" s="304"/>
+      <c r="D111" s="5"/>
       <c r="E111" s="6"/>
       <c r="F111" s="74"/>
       <c r="G111" s="222"/>
@@ -18486,7 +18484,7 @@
       <c r="AN111" s="209"/>
       <c r="AO111" s="209"/>
       <c r="AP111" s="47"/>
-      <c r="AQ111" s="47"/>
+      <c r="AQ111" s="317"/>
       <c r="AR111" s="47"/>
       <c r="AS111" s="47"/>
       <c r="AT111" s="133"/>
@@ -18561,10 +18559,10 @@
       <c r="DK111" s="51"/>
     </row>
     <row r="112" spans="2:115">
-      <c r="B112" s="290"/>
-      <c r="C112" s="308"/>
+      <c r="B112" s="296"/>
+      <c r="C112" s="304"/>
       <c r="D112" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="74"/>
@@ -18679,9 +18677,11 @@
       <c r="DK112" s="51"/>
     </row>
     <row r="113" spans="2:116">
-      <c r="B113" s="290"/>
-      <c r="C113" s="308"/>
-      <c r="D113" s="5"/>
+      <c r="B113" s="296"/>
+      <c r="C113" s="304"/>
+      <c r="D113" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="E113" s="6"/>
       <c r="F113" s="74"/>
       <c r="G113" s="222"/>
@@ -18795,356 +18795,356 @@
       <c r="DK113" s="51"/>
     </row>
     <row r="114" spans="2:116">
-      <c r="B114" s="290"/>
-      <c r="C114" s="308"/>
+      <c r="B114" s="296"/>
+      <c r="C114" s="304"/>
       <c r="D114" s="5"/>
       <c r="E114" s="6"/>
       <c r="F114" s="74"/>
-      <c r="G114" s="221"/>
-      <c r="H114" s="211"/>
-      <c r="I114" s="211"/>
-      <c r="J114" s="211"/>
-      <c r="K114" s="211"/>
-      <c r="L114" s="213"/>
-      <c r="M114" s="213"/>
-      <c r="N114" s="211"/>
-      <c r="O114" s="211"/>
-      <c r="P114" s="211"/>
-      <c r="Q114" s="211"/>
-      <c r="R114" s="211"/>
-      <c r="S114" s="213"/>
-      <c r="T114" s="213"/>
-      <c r="U114" s="211"/>
-      <c r="V114" s="211"/>
-      <c r="W114" s="211"/>
-      <c r="X114" s="211"/>
-      <c r="Y114" s="211"/>
-      <c r="Z114" s="213"/>
-      <c r="AA114" s="213"/>
-      <c r="AB114" s="211"/>
-      <c r="AC114" s="211"/>
-      <c r="AD114" s="211"/>
-      <c r="AE114" s="274"/>
-      <c r="AF114" s="274"/>
-      <c r="AG114" s="213"/>
-      <c r="AH114" s="213"/>
-      <c r="AI114" s="211"/>
-      <c r="AJ114" s="211"/>
-      <c r="AK114" s="211"/>
-      <c r="AL114" s="211"/>
-      <c r="AM114" s="211"/>
-      <c r="AN114" s="213"/>
-      <c r="AO114" s="213"/>
-      <c r="AP114" s="56"/>
-      <c r="AQ114" s="56"/>
-      <c r="AR114" s="56"/>
-      <c r="AS114" s="56"/>
-      <c r="AT114" s="135"/>
-      <c r="AU114" s="72"/>
-      <c r="AV114" s="72"/>
-      <c r="AW114" s="56"/>
-      <c r="AX114" s="56"/>
-      <c r="AY114" s="56"/>
-      <c r="AZ114" s="56"/>
-      <c r="BA114" s="135"/>
-      <c r="BB114" s="72"/>
-      <c r="BC114" s="72"/>
-      <c r="BD114" s="56"/>
-      <c r="BE114" s="56"/>
-      <c r="BF114" s="56"/>
-      <c r="BG114" s="56"/>
-      <c r="BH114" s="135"/>
-      <c r="BI114" s="72"/>
-      <c r="BJ114" s="72"/>
-      <c r="BK114" s="56"/>
-      <c r="BL114" s="56"/>
-      <c r="BM114" s="56"/>
-      <c r="BN114" s="56"/>
-      <c r="BO114" s="56"/>
-      <c r="BP114" s="72"/>
-      <c r="BQ114" s="72"/>
-      <c r="BR114" s="56"/>
-      <c r="BS114" s="56"/>
-      <c r="BT114" s="56"/>
-      <c r="BU114" s="56"/>
-      <c r="BV114" s="56"/>
-      <c r="BW114" s="72"/>
-      <c r="BX114" s="72"/>
-      <c r="BY114" s="56"/>
-      <c r="BZ114" s="56"/>
-      <c r="CA114" s="56"/>
-      <c r="CB114" s="56"/>
-      <c r="CC114" s="56"/>
-      <c r="CD114" s="72"/>
-      <c r="CE114" s="72"/>
-      <c r="CF114" s="56"/>
-      <c r="CG114" s="56"/>
-      <c r="CH114" s="56"/>
-      <c r="CI114" s="56"/>
-      <c r="CJ114" s="56"/>
-      <c r="CK114" s="72"/>
-      <c r="CL114" s="72"/>
-      <c r="CM114" s="56"/>
-      <c r="CN114" s="56"/>
-      <c r="CO114" s="56"/>
-      <c r="CP114" s="56"/>
-      <c r="CQ114" s="56"/>
-      <c r="CR114" s="72"/>
-      <c r="CS114" s="72"/>
-      <c r="CT114" s="56"/>
-      <c r="CU114" s="56"/>
-      <c r="CV114" s="56"/>
-      <c r="CW114" s="56"/>
-      <c r="CX114" s="56"/>
-      <c r="CY114" s="72"/>
-      <c r="CZ114" s="72"/>
-      <c r="DA114" s="56"/>
-      <c r="DB114" s="56"/>
-      <c r="DC114" s="56"/>
-      <c r="DD114" s="56"/>
-      <c r="DE114" s="56"/>
-      <c r="DF114" s="72"/>
-      <c r="DG114" s="72"/>
-      <c r="DH114" s="57"/>
-      <c r="DI114" s="58"/>
-      <c r="DJ114" s="59"/>
-      <c r="DK114" s="60"/>
+      <c r="G114" s="222"/>
+      <c r="H114" s="195"/>
+      <c r="I114" s="195"/>
+      <c r="J114" s="195"/>
+      <c r="K114" s="195"/>
+      <c r="L114" s="209"/>
+      <c r="M114" s="209"/>
+      <c r="N114" s="195"/>
+      <c r="O114" s="195"/>
+      <c r="P114" s="195"/>
+      <c r="Q114" s="195"/>
+      <c r="R114" s="195"/>
+      <c r="S114" s="209"/>
+      <c r="T114" s="209"/>
+      <c r="U114" s="195"/>
+      <c r="V114" s="195"/>
+      <c r="W114" s="195"/>
+      <c r="X114" s="195"/>
+      <c r="Y114" s="195"/>
+      <c r="Z114" s="209"/>
+      <c r="AA114" s="209"/>
+      <c r="AB114" s="195"/>
+      <c r="AC114" s="195"/>
+      <c r="AD114" s="195"/>
+      <c r="AE114" s="272"/>
+      <c r="AF114" s="272"/>
+      <c r="AG114" s="209"/>
+      <c r="AH114" s="209"/>
+      <c r="AI114" s="195"/>
+      <c r="AJ114" s="195"/>
+      <c r="AK114" s="195"/>
+      <c r="AL114" s="195"/>
+      <c r="AM114" s="195"/>
+      <c r="AN114" s="209"/>
+      <c r="AO114" s="209"/>
+      <c r="AP114" s="47"/>
+      <c r="AQ114" s="47"/>
+      <c r="AR114" s="47"/>
+      <c r="AS114" s="47"/>
+      <c r="AT114" s="133"/>
+      <c r="AU114" s="70"/>
+      <c r="AV114" s="70"/>
+      <c r="AW114" s="47"/>
+      <c r="AX114" s="47"/>
+      <c r="AY114" s="47"/>
+      <c r="AZ114" s="47"/>
+      <c r="BA114" s="133"/>
+      <c r="BB114" s="70"/>
+      <c r="BC114" s="70"/>
+      <c r="BD114" s="47"/>
+      <c r="BE114" s="47"/>
+      <c r="BF114" s="47"/>
+      <c r="BG114" s="47"/>
+      <c r="BH114" s="133"/>
+      <c r="BI114" s="70"/>
+      <c r="BJ114" s="70"/>
+      <c r="BK114" s="47"/>
+      <c r="BL114" s="47"/>
+      <c r="BM114" s="47"/>
+      <c r="BN114" s="47"/>
+      <c r="BO114" s="47"/>
+      <c r="BP114" s="70"/>
+      <c r="BQ114" s="70"/>
+      <c r="BR114" s="47"/>
+      <c r="BS114" s="47"/>
+      <c r="BT114" s="47"/>
+      <c r="BU114" s="47"/>
+      <c r="BV114" s="47"/>
+      <c r="BW114" s="70"/>
+      <c r="BX114" s="70"/>
+      <c r="BY114" s="47"/>
+      <c r="BZ114" s="47"/>
+      <c r="CA114" s="47"/>
+      <c r="CB114" s="47"/>
+      <c r="CC114" s="47"/>
+      <c r="CD114" s="70"/>
+      <c r="CE114" s="70"/>
+      <c r="CF114" s="47"/>
+      <c r="CG114" s="47"/>
+      <c r="CH114" s="47"/>
+      <c r="CI114" s="47"/>
+      <c r="CJ114" s="47"/>
+      <c r="CK114" s="70"/>
+      <c r="CL114" s="70"/>
+      <c r="CM114" s="47"/>
+      <c r="CN114" s="47"/>
+      <c r="CO114" s="47"/>
+      <c r="CP114" s="47"/>
+      <c r="CQ114" s="47"/>
+      <c r="CR114" s="70"/>
+      <c r="CS114" s="70"/>
+      <c r="CT114" s="47"/>
+      <c r="CU114" s="47"/>
+      <c r="CV114" s="47"/>
+      <c r="CW114" s="47"/>
+      <c r="CX114" s="47"/>
+      <c r="CY114" s="70"/>
+      <c r="CZ114" s="70"/>
+      <c r="DA114" s="47"/>
+      <c r="DB114" s="47"/>
+      <c r="DC114" s="47"/>
+      <c r="DD114" s="47"/>
+      <c r="DE114" s="47"/>
+      <c r="DF114" s="70"/>
+      <c r="DG114" s="70"/>
+      <c r="DH114" s="48"/>
+      <c r="DI114" s="49"/>
+      <c r="DJ114" s="50"/>
+      <c r="DK114" s="51"/>
     </row>
     <row r="115" spans="2:116">
-      <c r="B115" s="290"/>
-      <c r="C115" s="309"/>
-      <c r="D115" s="8"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="76"/>
-      <c r="G115" s="226"/>
-      <c r="H115" s="206"/>
-      <c r="I115" s="206"/>
-      <c r="J115" s="206"/>
-      <c r="K115" s="206"/>
-      <c r="L115" s="208"/>
-      <c r="M115" s="208"/>
-      <c r="N115" s="206"/>
-      <c r="O115" s="206"/>
-      <c r="P115" s="206"/>
-      <c r="Q115" s="206"/>
-      <c r="R115" s="206"/>
-      <c r="S115" s="208"/>
-      <c r="T115" s="208"/>
-      <c r="U115" s="206"/>
-      <c r="V115" s="206"/>
-      <c r="W115" s="206"/>
-      <c r="X115" s="206"/>
-      <c r="Y115" s="206"/>
-      <c r="Z115" s="208"/>
-      <c r="AA115" s="208"/>
-      <c r="AB115" s="206"/>
-      <c r="AC115" s="206"/>
-      <c r="AD115" s="206"/>
-      <c r="AE115" s="273"/>
-      <c r="AF115" s="273"/>
-      <c r="AG115" s="208"/>
-      <c r="AH115" s="208"/>
-      <c r="AI115" s="206"/>
-      <c r="AJ115" s="206"/>
-      <c r="AK115" s="206"/>
-      <c r="AL115" s="206"/>
-      <c r="AM115" s="206"/>
-      <c r="AN115" s="208"/>
-      <c r="AO115" s="208"/>
-      <c r="AP115" s="61"/>
-      <c r="AQ115" s="61"/>
-      <c r="AR115" s="61"/>
-      <c r="AS115" s="61"/>
-      <c r="AT115" s="134"/>
-      <c r="AU115" s="71"/>
-      <c r="AV115" s="71"/>
-      <c r="AW115" s="61"/>
-      <c r="AX115" s="61"/>
-      <c r="AY115" s="61"/>
-      <c r="AZ115" s="61"/>
-      <c r="BA115" s="134"/>
-      <c r="BB115" s="71"/>
-      <c r="BC115" s="71"/>
-      <c r="BD115" s="61"/>
-      <c r="BE115" s="61"/>
-      <c r="BF115" s="61"/>
-      <c r="BG115" s="61"/>
-      <c r="BH115" s="134"/>
-      <c r="BI115" s="71"/>
-      <c r="BJ115" s="71"/>
-      <c r="BK115" s="61"/>
-      <c r="BL115" s="61"/>
-      <c r="BM115" s="61"/>
-      <c r="BN115" s="61"/>
-      <c r="BO115" s="61"/>
-      <c r="BP115" s="71"/>
-      <c r="BQ115" s="71"/>
-      <c r="BR115" s="61"/>
-      <c r="BS115" s="61"/>
-      <c r="BT115" s="61"/>
-      <c r="BU115" s="61"/>
-      <c r="BV115" s="61"/>
-      <c r="BW115" s="71"/>
-      <c r="BX115" s="71"/>
-      <c r="BY115" s="61"/>
-      <c r="BZ115" s="61"/>
-      <c r="CA115" s="61"/>
-      <c r="CB115" s="61"/>
-      <c r="CC115" s="61"/>
-      <c r="CD115" s="71"/>
-      <c r="CE115" s="71"/>
-      <c r="CF115" s="61"/>
-      <c r="CG115" s="61"/>
-      <c r="CH115" s="61"/>
-      <c r="CI115" s="61"/>
-      <c r="CJ115" s="61"/>
-      <c r="CK115" s="71"/>
-      <c r="CL115" s="71"/>
-      <c r="CM115" s="61"/>
-      <c r="CN115" s="61"/>
-      <c r="CO115" s="61"/>
-      <c r="CP115" s="61"/>
-      <c r="CQ115" s="61"/>
-      <c r="CR115" s="71"/>
-      <c r="CS115" s="71"/>
-      <c r="CT115" s="61"/>
-      <c r="CU115" s="61"/>
-      <c r="CV115" s="61"/>
-      <c r="CW115" s="61"/>
-      <c r="CX115" s="61"/>
-      <c r="CY115" s="71"/>
-      <c r="CZ115" s="71"/>
-      <c r="DA115" s="61"/>
-      <c r="DB115" s="61"/>
-      <c r="DC115" s="61"/>
-      <c r="DD115" s="61"/>
-      <c r="DE115" s="61"/>
-      <c r="DF115" s="71"/>
-      <c r="DG115" s="71"/>
-      <c r="DH115" s="63"/>
-      <c r="DI115" s="64"/>
-      <c r="DJ115" s="65"/>
-      <c r="DK115" s="66"/>
+      <c r="B115" s="296"/>
+      <c r="C115" s="304"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="74"/>
+      <c r="G115" s="221"/>
+      <c r="H115" s="211"/>
+      <c r="I115" s="211"/>
+      <c r="J115" s="211"/>
+      <c r="K115" s="211"/>
+      <c r="L115" s="213"/>
+      <c r="M115" s="213"/>
+      <c r="N115" s="211"/>
+      <c r="O115" s="211"/>
+      <c r="P115" s="211"/>
+      <c r="Q115" s="211"/>
+      <c r="R115" s="211"/>
+      <c r="S115" s="213"/>
+      <c r="T115" s="213"/>
+      <c r="U115" s="211"/>
+      <c r="V115" s="211"/>
+      <c r="W115" s="211"/>
+      <c r="X115" s="211"/>
+      <c r="Y115" s="211"/>
+      <c r="Z115" s="213"/>
+      <c r="AA115" s="213"/>
+      <c r="AB115" s="211"/>
+      <c r="AC115" s="211"/>
+      <c r="AD115" s="211"/>
+      <c r="AE115" s="274"/>
+      <c r="AF115" s="274"/>
+      <c r="AG115" s="213"/>
+      <c r="AH115" s="213"/>
+      <c r="AI115" s="211"/>
+      <c r="AJ115" s="211"/>
+      <c r="AK115" s="211"/>
+      <c r="AL115" s="211"/>
+      <c r="AM115" s="211"/>
+      <c r="AN115" s="213"/>
+      <c r="AO115" s="213"/>
+      <c r="AP115" s="56"/>
+      <c r="AQ115" s="56"/>
+      <c r="AR115" s="56"/>
+      <c r="AS115" s="56"/>
+      <c r="AT115" s="135"/>
+      <c r="AU115" s="72"/>
+      <c r="AV115" s="72"/>
+      <c r="AW115" s="56"/>
+      <c r="AX115" s="56"/>
+      <c r="AY115" s="56"/>
+      <c r="AZ115" s="56"/>
+      <c r="BA115" s="135"/>
+      <c r="BB115" s="72"/>
+      <c r="BC115" s="72"/>
+      <c r="BD115" s="56"/>
+      <c r="BE115" s="56"/>
+      <c r="BF115" s="56"/>
+      <c r="BG115" s="56"/>
+      <c r="BH115" s="135"/>
+      <c r="BI115" s="72"/>
+      <c r="BJ115" s="72"/>
+      <c r="BK115" s="56"/>
+      <c r="BL115" s="56"/>
+      <c r="BM115" s="56"/>
+      <c r="BN115" s="56"/>
+      <c r="BO115" s="56"/>
+      <c r="BP115" s="72"/>
+      <c r="BQ115" s="72"/>
+      <c r="BR115" s="56"/>
+      <c r="BS115" s="56"/>
+      <c r="BT115" s="56"/>
+      <c r="BU115" s="56"/>
+      <c r="BV115" s="56"/>
+      <c r="BW115" s="72"/>
+      <c r="BX115" s="72"/>
+      <c r="BY115" s="56"/>
+      <c r="BZ115" s="56"/>
+      <c r="CA115" s="56"/>
+      <c r="CB115" s="56"/>
+      <c r="CC115" s="56"/>
+      <c r="CD115" s="72"/>
+      <c r="CE115" s="72"/>
+      <c r="CF115" s="56"/>
+      <c r="CG115" s="56"/>
+      <c r="CH115" s="56"/>
+      <c r="CI115" s="56"/>
+      <c r="CJ115" s="56"/>
+      <c r="CK115" s="72"/>
+      <c r="CL115" s="72"/>
+      <c r="CM115" s="56"/>
+      <c r="CN115" s="56"/>
+      <c r="CO115" s="56"/>
+      <c r="CP115" s="56"/>
+      <c r="CQ115" s="56"/>
+      <c r="CR115" s="72"/>
+      <c r="CS115" s="72"/>
+      <c r="CT115" s="56"/>
+      <c r="CU115" s="56"/>
+      <c r="CV115" s="56"/>
+      <c r="CW115" s="56"/>
+      <c r="CX115" s="56"/>
+      <c r="CY115" s="72"/>
+      <c r="CZ115" s="72"/>
+      <c r="DA115" s="56"/>
+      <c r="DB115" s="56"/>
+      <c r="DC115" s="56"/>
+      <c r="DD115" s="56"/>
+      <c r="DE115" s="56"/>
+      <c r="DF115" s="72"/>
+      <c r="DG115" s="72"/>
+      <c r="DH115" s="57"/>
+      <c r="DI115" s="58"/>
+      <c r="DJ115" s="59"/>
+      <c r="DK115" s="60"/>
     </row>
     <row r="116" spans="2:116">
-      <c r="B116" s="290"/>
-      <c r="C116" s="308"/>
-      <c r="D116" s="5"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="74"/>
-      <c r="G116" s="222"/>
-      <c r="H116" s="195"/>
-      <c r="I116" s="195"/>
-      <c r="J116" s="195"/>
-      <c r="K116" s="195"/>
-      <c r="L116" s="209"/>
-      <c r="M116" s="209"/>
-      <c r="N116" s="195"/>
-      <c r="O116" s="195"/>
-      <c r="P116" s="195"/>
-      <c r="Q116" s="195"/>
-      <c r="R116" s="195"/>
-      <c r="S116" s="209"/>
-      <c r="T116" s="209"/>
-      <c r="U116" s="195"/>
-      <c r="V116" s="195"/>
-      <c r="W116" s="195"/>
-      <c r="X116" s="195"/>
-      <c r="Y116" s="195"/>
-      <c r="Z116" s="209"/>
-      <c r="AA116" s="209"/>
-      <c r="AB116" s="195"/>
-      <c r="AC116" s="195"/>
-      <c r="AD116" s="195"/>
-      <c r="AE116" s="272"/>
-      <c r="AF116" s="272"/>
-      <c r="AG116" s="209"/>
-      <c r="AH116" s="209"/>
-      <c r="AI116" s="195"/>
-      <c r="AJ116" s="195"/>
-      <c r="AK116" s="195"/>
-      <c r="AL116" s="195"/>
-      <c r="AM116" s="195"/>
-      <c r="AN116" s="209"/>
-      <c r="AO116" s="209"/>
-      <c r="AP116" s="47"/>
-      <c r="AQ116" s="47"/>
-      <c r="AR116" s="47"/>
-      <c r="AS116" s="47"/>
-      <c r="AT116" s="133"/>
-      <c r="AU116" s="70"/>
-      <c r="AV116" s="70"/>
-      <c r="AW116" s="47"/>
-      <c r="AX116" s="47"/>
-      <c r="AY116" s="47"/>
-      <c r="AZ116" s="47"/>
-      <c r="BA116" s="133"/>
-      <c r="BB116" s="70"/>
-      <c r="BC116" s="70"/>
-      <c r="BD116" s="47"/>
-      <c r="BE116" s="47"/>
-      <c r="BF116" s="47"/>
-      <c r="BG116" s="47"/>
-      <c r="BH116" s="133"/>
-      <c r="BI116" s="70"/>
-      <c r="BJ116" s="70"/>
-      <c r="BK116" s="47"/>
-      <c r="BL116" s="47"/>
-      <c r="BM116" s="47"/>
-      <c r="BN116" s="47"/>
-      <c r="BO116" s="47"/>
-      <c r="BP116" s="70"/>
-      <c r="BQ116" s="70"/>
-      <c r="BR116" s="47"/>
-      <c r="BS116" s="47"/>
-      <c r="BT116" s="47"/>
-      <c r="BU116" s="47"/>
-      <c r="BV116" s="47"/>
-      <c r="BW116" s="70"/>
-      <c r="BX116" s="70"/>
-      <c r="BY116" s="47"/>
-      <c r="BZ116" s="47"/>
-      <c r="CA116" s="47"/>
-      <c r="CB116" s="47"/>
-      <c r="CC116" s="47"/>
-      <c r="CD116" s="70"/>
-      <c r="CE116" s="70"/>
-      <c r="CF116" s="47"/>
-      <c r="CG116" s="47"/>
-      <c r="CH116" s="47"/>
-      <c r="CI116" s="47"/>
-      <c r="CJ116" s="47"/>
-      <c r="CK116" s="70"/>
-      <c r="CL116" s="70"/>
-      <c r="CM116" s="47"/>
-      <c r="CN116" s="47"/>
-      <c r="CO116" s="47"/>
-      <c r="CP116" s="47"/>
-      <c r="CQ116" s="47"/>
-      <c r="CR116" s="70"/>
-      <c r="CS116" s="70"/>
-      <c r="CT116" s="47"/>
-      <c r="CU116" s="47"/>
-      <c r="CV116" s="47"/>
-      <c r="CW116" s="47"/>
-      <c r="CX116" s="47"/>
-      <c r="CY116" s="70"/>
-      <c r="CZ116" s="70"/>
-      <c r="DA116" s="47"/>
-      <c r="DB116" s="47"/>
-      <c r="DC116" s="47"/>
-      <c r="DD116" s="47"/>
-      <c r="DE116" s="47"/>
-      <c r="DF116" s="70"/>
-      <c r="DG116" s="70"/>
-      <c r="DH116" s="48"/>
-      <c r="DI116" s="49"/>
-      <c r="DJ116" s="50"/>
-      <c r="DK116" s="51"/>
+      <c r="B116" s="296"/>
+      <c r="C116" s="305"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="76"/>
+      <c r="G116" s="226"/>
+      <c r="H116" s="206"/>
+      <c r="I116" s="206"/>
+      <c r="J116" s="206"/>
+      <c r="K116" s="206"/>
+      <c r="L116" s="208"/>
+      <c r="M116" s="208"/>
+      <c r="N116" s="206"/>
+      <c r="O116" s="206"/>
+      <c r="P116" s="206"/>
+      <c r="Q116" s="206"/>
+      <c r="R116" s="206"/>
+      <c r="S116" s="208"/>
+      <c r="T116" s="208"/>
+      <c r="U116" s="206"/>
+      <c r="V116" s="206"/>
+      <c r="W116" s="206"/>
+      <c r="X116" s="206"/>
+      <c r="Y116" s="206"/>
+      <c r="Z116" s="208"/>
+      <c r="AA116" s="208"/>
+      <c r="AB116" s="206"/>
+      <c r="AC116" s="206"/>
+      <c r="AD116" s="206"/>
+      <c r="AE116" s="273"/>
+      <c r="AF116" s="273"/>
+      <c r="AG116" s="208"/>
+      <c r="AH116" s="208"/>
+      <c r="AI116" s="206"/>
+      <c r="AJ116" s="206"/>
+      <c r="AK116" s="206"/>
+      <c r="AL116" s="206"/>
+      <c r="AM116" s="206"/>
+      <c r="AN116" s="208"/>
+      <c r="AO116" s="208"/>
+      <c r="AP116" s="61"/>
+      <c r="AQ116" s="61"/>
+      <c r="AR116" s="61"/>
+      <c r="AS116" s="61"/>
+      <c r="AT116" s="134"/>
+      <c r="AU116" s="71"/>
+      <c r="AV116" s="71"/>
+      <c r="AW116" s="61"/>
+      <c r="AX116" s="61"/>
+      <c r="AY116" s="61"/>
+      <c r="AZ116" s="61"/>
+      <c r="BA116" s="134"/>
+      <c r="BB116" s="71"/>
+      <c r="BC116" s="71"/>
+      <c r="BD116" s="61"/>
+      <c r="BE116" s="61"/>
+      <c r="BF116" s="61"/>
+      <c r="BG116" s="61"/>
+      <c r="BH116" s="134"/>
+      <c r="BI116" s="71"/>
+      <c r="BJ116" s="71"/>
+      <c r="BK116" s="61"/>
+      <c r="BL116" s="61"/>
+      <c r="BM116" s="61"/>
+      <c r="BN116" s="61"/>
+      <c r="BO116" s="61"/>
+      <c r="BP116" s="71"/>
+      <c r="BQ116" s="71"/>
+      <c r="BR116" s="61"/>
+      <c r="BS116" s="61"/>
+      <c r="BT116" s="61"/>
+      <c r="BU116" s="61"/>
+      <c r="BV116" s="61"/>
+      <c r="BW116" s="71"/>
+      <c r="BX116" s="71"/>
+      <c r="BY116" s="61"/>
+      <c r="BZ116" s="61"/>
+      <c r="CA116" s="61"/>
+      <c r="CB116" s="61"/>
+      <c r="CC116" s="61"/>
+      <c r="CD116" s="71"/>
+      <c r="CE116" s="71"/>
+      <c r="CF116" s="61"/>
+      <c r="CG116" s="61"/>
+      <c r="CH116" s="61"/>
+      <c r="CI116" s="61"/>
+      <c r="CJ116" s="61"/>
+      <c r="CK116" s="71"/>
+      <c r="CL116" s="71"/>
+      <c r="CM116" s="61"/>
+      <c r="CN116" s="61"/>
+      <c r="CO116" s="61"/>
+      <c r="CP116" s="61"/>
+      <c r="CQ116" s="61"/>
+      <c r="CR116" s="71"/>
+      <c r="CS116" s="71"/>
+      <c r="CT116" s="61"/>
+      <c r="CU116" s="61"/>
+      <c r="CV116" s="61"/>
+      <c r="CW116" s="61"/>
+      <c r="CX116" s="61"/>
+      <c r="CY116" s="71"/>
+      <c r="CZ116" s="71"/>
+      <c r="DA116" s="61"/>
+      <c r="DB116" s="61"/>
+      <c r="DC116" s="61"/>
+      <c r="DD116" s="61"/>
+      <c r="DE116" s="61"/>
+      <c r="DF116" s="71"/>
+      <c r="DG116" s="71"/>
+      <c r="DH116" s="63"/>
+      <c r="DI116" s="64"/>
+      <c r="DJ116" s="65"/>
+      <c r="DK116" s="66"/>
     </row>
     <row r="117" spans="2:116">
-      <c r="B117" s="290"/>
-      <c r="C117" s="308"/>
+      <c r="B117" s="296"/>
+      <c r="C117" s="304"/>
       <c r="D117" s="5"/>
       <c r="E117" s="6"/>
       <c r="F117" s="74"/>
@@ -19259,8 +19259,8 @@
       <c r="DK117" s="51"/>
     </row>
     <row r="118" spans="2:116">
-      <c r="B118" s="290"/>
-      <c r="C118" s="308"/>
+      <c r="B118" s="296"/>
+      <c r="C118" s="304"/>
       <c r="D118" s="5"/>
       <c r="E118" s="6"/>
       <c r="F118" s="74"/>
@@ -19375,8 +19375,8 @@
       <c r="DK118" s="51"/>
     </row>
     <row r="119" spans="2:116">
-      <c r="B119" s="290"/>
-      <c r="C119" s="308"/>
+      <c r="B119" s="296"/>
+      <c r="C119" s="304"/>
       <c r="D119" s="5"/>
       <c r="E119" s="6"/>
       <c r="F119" s="74"/>
@@ -19491,244 +19491,243 @@
       <c r="DK119" s="51"/>
     </row>
     <row r="120" spans="2:116">
-      <c r="B120" s="290"/>
-      <c r="C120" s="297"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="77"/>
-      <c r="G120" s="221"/>
-      <c r="H120" s="211"/>
-      <c r="I120" s="211"/>
-      <c r="J120" s="211"/>
-      <c r="K120" s="211"/>
-      <c r="L120" s="213"/>
-      <c r="M120" s="213"/>
-      <c r="N120" s="211"/>
-      <c r="O120" s="211"/>
-      <c r="P120" s="211"/>
-      <c r="Q120" s="211"/>
-      <c r="R120" s="211"/>
-      <c r="S120" s="213"/>
-      <c r="T120" s="213"/>
-      <c r="U120" s="211"/>
-      <c r="V120" s="211"/>
-      <c r="W120" s="211"/>
-      <c r="X120" s="211"/>
-      <c r="Y120" s="211"/>
-      <c r="Z120" s="213"/>
-      <c r="AA120" s="213"/>
-      <c r="AB120" s="211"/>
-      <c r="AC120" s="211"/>
-      <c r="AD120" s="211"/>
-      <c r="AE120" s="274"/>
-      <c r="AF120" s="274"/>
-      <c r="AG120" s="213"/>
-      <c r="AH120" s="213"/>
-      <c r="AI120" s="211"/>
-      <c r="AJ120" s="211"/>
-      <c r="AK120" s="211"/>
-      <c r="AL120" s="211"/>
-      <c r="AM120" s="211"/>
-      <c r="AN120" s="213"/>
-      <c r="AO120" s="213"/>
-      <c r="AP120" s="56"/>
-      <c r="AQ120" s="56"/>
-      <c r="AR120" s="56"/>
-      <c r="AS120" s="56"/>
-      <c r="AT120" s="135"/>
-      <c r="AU120" s="72"/>
-      <c r="AV120" s="72"/>
-      <c r="AW120" s="56"/>
-      <c r="AX120" s="56"/>
-      <c r="AY120" s="56"/>
-      <c r="AZ120" s="56"/>
-      <c r="BA120" s="135"/>
-      <c r="BB120" s="72"/>
-      <c r="BC120" s="72"/>
-      <c r="BD120" s="56"/>
-      <c r="BE120" s="56"/>
-      <c r="BF120" s="56"/>
-      <c r="BG120" s="56"/>
-      <c r="BH120" s="135"/>
-      <c r="BI120" s="72"/>
-      <c r="BJ120" s="72"/>
-      <c r="BK120" s="56"/>
-      <c r="BL120" s="56"/>
-      <c r="BM120" s="56"/>
-      <c r="BN120" s="56"/>
-      <c r="BO120" s="56"/>
-      <c r="BP120" s="72"/>
-      <c r="BQ120" s="72"/>
-      <c r="BR120" s="56"/>
-      <c r="BS120" s="56"/>
-      <c r="BT120" s="56"/>
-      <c r="BU120" s="56"/>
-      <c r="BV120" s="56"/>
-      <c r="BW120" s="72"/>
-      <c r="BX120" s="72"/>
-      <c r="BY120" s="56"/>
-      <c r="BZ120" s="56"/>
-      <c r="CA120" s="56"/>
-      <c r="CB120" s="56"/>
-      <c r="CC120" s="56"/>
-      <c r="CD120" s="72"/>
-      <c r="CE120" s="72"/>
-      <c r="CF120" s="56"/>
-      <c r="CG120" s="56"/>
-      <c r="CH120" s="56"/>
-      <c r="CI120" s="56"/>
-      <c r="CJ120" s="56"/>
-      <c r="CK120" s="72"/>
-      <c r="CL120" s="72"/>
-      <c r="CM120" s="56"/>
-      <c r="CN120" s="56"/>
-      <c r="CO120" s="56"/>
-      <c r="CP120" s="56"/>
-      <c r="CQ120" s="56"/>
-      <c r="CR120" s="72"/>
-      <c r="CS120" s="72"/>
-      <c r="CT120" s="56"/>
-      <c r="CU120" s="56"/>
-      <c r="CV120" s="56"/>
-      <c r="CW120" s="56"/>
-      <c r="CX120" s="56"/>
-      <c r="CY120" s="72"/>
-      <c r="CZ120" s="72"/>
-      <c r="DA120" s="56"/>
-      <c r="DB120" s="56"/>
-      <c r="DC120" s="56"/>
-      <c r="DD120" s="56"/>
-      <c r="DE120" s="56"/>
-      <c r="DF120" s="72"/>
-      <c r="DG120" s="72"/>
-      <c r="DH120" s="57"/>
-      <c r="DI120" s="58"/>
-      <c r="DJ120" s="59"/>
-      <c r="DK120" s="60"/>
+      <c r="B120" s="296"/>
+      <c r="C120" s="304"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="222"/>
+      <c r="H120" s="195"/>
+      <c r="I120" s="195"/>
+      <c r="J120" s="195"/>
+      <c r="K120" s="195"/>
+      <c r="L120" s="209"/>
+      <c r="M120" s="209"/>
+      <c r="N120" s="195"/>
+      <c r="O120" s="195"/>
+      <c r="P120" s="195"/>
+      <c r="Q120" s="195"/>
+      <c r="R120" s="195"/>
+      <c r="S120" s="209"/>
+      <c r="T120" s="209"/>
+      <c r="U120" s="195"/>
+      <c r="V120" s="195"/>
+      <c r="W120" s="195"/>
+      <c r="X120" s="195"/>
+      <c r="Y120" s="195"/>
+      <c r="Z120" s="209"/>
+      <c r="AA120" s="209"/>
+      <c r="AB120" s="195"/>
+      <c r="AC120" s="195"/>
+      <c r="AD120" s="195"/>
+      <c r="AE120" s="272"/>
+      <c r="AF120" s="272"/>
+      <c r="AG120" s="209"/>
+      <c r="AH120" s="209"/>
+      <c r="AI120" s="195"/>
+      <c r="AJ120" s="195"/>
+      <c r="AK120" s="195"/>
+      <c r="AL120" s="195"/>
+      <c r="AM120" s="195"/>
+      <c r="AN120" s="209"/>
+      <c r="AO120" s="209"/>
+      <c r="AP120" s="47"/>
+      <c r="AQ120" s="47"/>
+      <c r="AR120" s="47"/>
+      <c r="AS120" s="47"/>
+      <c r="AT120" s="133"/>
+      <c r="AU120" s="70"/>
+      <c r="AV120" s="70"/>
+      <c r="AW120" s="47"/>
+      <c r="AX120" s="47"/>
+      <c r="AY120" s="47"/>
+      <c r="AZ120" s="47"/>
+      <c r="BA120" s="133"/>
+      <c r="BB120" s="70"/>
+      <c r="BC120" s="70"/>
+      <c r="BD120" s="47"/>
+      <c r="BE120" s="47"/>
+      <c r="BF120" s="47"/>
+      <c r="BG120" s="47"/>
+      <c r="BH120" s="133"/>
+      <c r="BI120" s="70"/>
+      <c r="BJ120" s="70"/>
+      <c r="BK120" s="47"/>
+      <c r="BL120" s="47"/>
+      <c r="BM120" s="47"/>
+      <c r="BN120" s="47"/>
+      <c r="BO120" s="47"/>
+      <c r="BP120" s="70"/>
+      <c r="BQ120" s="70"/>
+      <c r="BR120" s="47"/>
+      <c r="BS120" s="47"/>
+      <c r="BT120" s="47"/>
+      <c r="BU120" s="47"/>
+      <c r="BV120" s="47"/>
+      <c r="BW120" s="70"/>
+      <c r="BX120" s="70"/>
+      <c r="BY120" s="47"/>
+      <c r="BZ120" s="47"/>
+      <c r="CA120" s="47"/>
+      <c r="CB120" s="47"/>
+      <c r="CC120" s="47"/>
+      <c r="CD120" s="70"/>
+      <c r="CE120" s="70"/>
+      <c r="CF120" s="47"/>
+      <c r="CG120" s="47"/>
+      <c r="CH120" s="47"/>
+      <c r="CI120" s="47"/>
+      <c r="CJ120" s="47"/>
+      <c r="CK120" s="70"/>
+      <c r="CL120" s="70"/>
+      <c r="CM120" s="47"/>
+      <c r="CN120" s="47"/>
+      <c r="CO120" s="47"/>
+      <c r="CP120" s="47"/>
+      <c r="CQ120" s="47"/>
+      <c r="CR120" s="70"/>
+      <c r="CS120" s="70"/>
+      <c r="CT120" s="47"/>
+      <c r="CU120" s="47"/>
+      <c r="CV120" s="47"/>
+      <c r="CW120" s="47"/>
+      <c r="CX120" s="47"/>
+      <c r="CY120" s="70"/>
+      <c r="CZ120" s="70"/>
+      <c r="DA120" s="47"/>
+      <c r="DB120" s="47"/>
+      <c r="DC120" s="47"/>
+      <c r="DD120" s="47"/>
+      <c r="DE120" s="47"/>
+      <c r="DF120" s="70"/>
+      <c r="DG120" s="70"/>
+      <c r="DH120" s="48"/>
+      <c r="DI120" s="49"/>
+      <c r="DJ120" s="50"/>
+      <c r="DK120" s="51"/>
     </row>
     <row r="121" spans="2:116">
-      <c r="B121" s="290"/>
-      <c r="C121" s="309"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="76"/>
-      <c r="G121" s="222"/>
-      <c r="H121" s="195"/>
-      <c r="I121" s="195"/>
-      <c r="J121" s="195"/>
-      <c r="K121" s="195"/>
-      <c r="L121" s="209"/>
-      <c r="M121" s="209"/>
-      <c r="N121" s="195"/>
-      <c r="O121" s="195"/>
-      <c r="P121" s="195"/>
-      <c r="Q121" s="195"/>
-      <c r="R121" s="195"/>
-      <c r="S121" s="209"/>
-      <c r="T121" s="209"/>
-      <c r="U121" s="195"/>
-      <c r="V121" s="195"/>
-      <c r="W121" s="195"/>
-      <c r="X121" s="195"/>
-      <c r="Y121" s="195"/>
-      <c r="Z121" s="209"/>
-      <c r="AA121" s="209"/>
-      <c r="AB121" s="195"/>
-      <c r="AC121" s="195"/>
-      <c r="AD121" s="195"/>
-      <c r="AE121" s="272"/>
-      <c r="AF121" s="272"/>
-      <c r="AG121" s="209"/>
-      <c r="AH121" s="209"/>
-      <c r="AI121" s="195"/>
-      <c r="AJ121" s="195"/>
-      <c r="AK121" s="195"/>
-      <c r="AL121" s="195"/>
-      <c r="AM121" s="195"/>
-      <c r="AN121" s="209"/>
-      <c r="AO121" s="209"/>
-      <c r="AP121" s="47"/>
-      <c r="AQ121" s="47"/>
-      <c r="AR121" s="47"/>
-      <c r="AS121" s="47"/>
-      <c r="AT121" s="133"/>
-      <c r="AU121" s="70"/>
-      <c r="AV121" s="70"/>
-      <c r="AW121" s="47"/>
-      <c r="AX121" s="47"/>
-      <c r="AY121" s="47"/>
-      <c r="AZ121" s="47"/>
-      <c r="BA121" s="133"/>
-      <c r="BB121" s="70"/>
-      <c r="BC121" s="70"/>
-      <c r="BD121" s="47"/>
-      <c r="BE121" s="47"/>
-      <c r="BF121" s="47"/>
-      <c r="BG121" s="47"/>
-      <c r="BH121" s="133"/>
-      <c r="BI121" s="70"/>
-      <c r="BJ121" s="70"/>
-      <c r="BK121" s="47"/>
-      <c r="BL121" s="47"/>
-      <c r="BM121" s="47"/>
-      <c r="BN121" s="47"/>
-      <c r="BO121" s="47"/>
-      <c r="BP121" s="70"/>
-      <c r="BQ121" s="70"/>
-      <c r="BR121" s="47"/>
-      <c r="BS121" s="47"/>
-      <c r="BT121" s="47"/>
-      <c r="BU121" s="47"/>
-      <c r="BV121" s="47"/>
-      <c r="BW121" s="70"/>
-      <c r="BX121" s="70"/>
-      <c r="BY121" s="47"/>
-      <c r="BZ121" s="47"/>
-      <c r="CA121" s="47"/>
-      <c r="CB121" s="47"/>
-      <c r="CC121" s="47"/>
-      <c r="CD121" s="70"/>
-      <c r="CE121" s="70"/>
-      <c r="CF121" s="47"/>
-      <c r="CG121" s="47"/>
-      <c r="CH121" s="47"/>
-      <c r="CI121" s="47"/>
-      <c r="CJ121" s="47"/>
-      <c r="CK121" s="70"/>
-      <c r="CL121" s="70"/>
-      <c r="CM121" s="47"/>
-      <c r="CN121" s="47"/>
-      <c r="CO121" s="47"/>
-      <c r="CP121" s="47"/>
-      <c r="CQ121" s="47"/>
-      <c r="CR121" s="70"/>
-      <c r="CS121" s="70"/>
-      <c r="CT121" s="47"/>
-      <c r="CU121" s="47"/>
-      <c r="CV121" s="47"/>
-      <c r="CW121" s="47"/>
-      <c r="CX121" s="47"/>
-      <c r="CY121" s="70"/>
-      <c r="CZ121" s="70"/>
-      <c r="DA121" s="47"/>
-      <c r="DB121" s="47"/>
-      <c r="DC121" s="47"/>
-      <c r="DD121" s="47"/>
-      <c r="DE121" s="47"/>
-      <c r="DF121" s="70"/>
-      <c r="DG121" s="70"/>
-      <c r="DH121" s="48"/>
-      <c r="DI121" s="49"/>
-      <c r="DJ121" s="50"/>
-      <c r="DK121" s="51"/>
-      <c r="DL121" s="7"/>
+      <c r="B121" s="296"/>
+      <c r="C121" s="306"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="77"/>
+      <c r="G121" s="221"/>
+      <c r="H121" s="211"/>
+      <c r="I121" s="211"/>
+      <c r="J121" s="211"/>
+      <c r="K121" s="211"/>
+      <c r="L121" s="213"/>
+      <c r="M121" s="213"/>
+      <c r="N121" s="211"/>
+      <c r="O121" s="211"/>
+      <c r="P121" s="211"/>
+      <c r="Q121" s="211"/>
+      <c r="R121" s="211"/>
+      <c r="S121" s="213"/>
+      <c r="T121" s="213"/>
+      <c r="U121" s="211"/>
+      <c r="V121" s="211"/>
+      <c r="W121" s="211"/>
+      <c r="X121" s="211"/>
+      <c r="Y121" s="211"/>
+      <c r="Z121" s="213"/>
+      <c r="AA121" s="213"/>
+      <c r="AB121" s="211"/>
+      <c r="AC121" s="211"/>
+      <c r="AD121" s="211"/>
+      <c r="AE121" s="274"/>
+      <c r="AF121" s="274"/>
+      <c r="AG121" s="213"/>
+      <c r="AH121" s="213"/>
+      <c r="AI121" s="211"/>
+      <c r="AJ121" s="211"/>
+      <c r="AK121" s="211"/>
+      <c r="AL121" s="211"/>
+      <c r="AM121" s="211"/>
+      <c r="AN121" s="213"/>
+      <c r="AO121" s="213"/>
+      <c r="AP121" s="56"/>
+      <c r="AQ121" s="56"/>
+      <c r="AR121" s="56"/>
+      <c r="AS121" s="56"/>
+      <c r="AT121" s="135"/>
+      <c r="AU121" s="72"/>
+      <c r="AV121" s="72"/>
+      <c r="AW121" s="56"/>
+      <c r="AX121" s="56"/>
+      <c r="AY121" s="56"/>
+      <c r="AZ121" s="56"/>
+      <c r="BA121" s="135"/>
+      <c r="BB121" s="72"/>
+      <c r="BC121" s="72"/>
+      <c r="BD121" s="56"/>
+      <c r="BE121" s="56"/>
+      <c r="BF121" s="56"/>
+      <c r="BG121" s="56"/>
+      <c r="BH121" s="135"/>
+      <c r="BI121" s="72"/>
+      <c r="BJ121" s="72"/>
+      <c r="BK121" s="56"/>
+      <c r="BL121" s="56"/>
+      <c r="BM121" s="56"/>
+      <c r="BN121" s="56"/>
+      <c r="BO121" s="56"/>
+      <c r="BP121" s="72"/>
+      <c r="BQ121" s="72"/>
+      <c r="BR121" s="56"/>
+      <c r="BS121" s="56"/>
+      <c r="BT121" s="56"/>
+      <c r="BU121" s="56"/>
+      <c r="BV121" s="56"/>
+      <c r="BW121" s="72"/>
+      <c r="BX121" s="72"/>
+      <c r="BY121" s="56"/>
+      <c r="BZ121" s="56"/>
+      <c r="CA121" s="56"/>
+      <c r="CB121" s="56"/>
+      <c r="CC121" s="56"/>
+      <c r="CD121" s="72"/>
+      <c r="CE121" s="72"/>
+      <c r="CF121" s="56"/>
+      <c r="CG121" s="56"/>
+      <c r="CH121" s="56"/>
+      <c r="CI121" s="56"/>
+      <c r="CJ121" s="56"/>
+      <c r="CK121" s="72"/>
+      <c r="CL121" s="72"/>
+      <c r="CM121" s="56"/>
+      <c r="CN121" s="56"/>
+      <c r="CO121" s="56"/>
+      <c r="CP121" s="56"/>
+      <c r="CQ121" s="56"/>
+      <c r="CR121" s="72"/>
+      <c r="CS121" s="72"/>
+      <c r="CT121" s="56"/>
+      <c r="CU121" s="56"/>
+      <c r="CV121" s="56"/>
+      <c r="CW121" s="56"/>
+      <c r="CX121" s="56"/>
+      <c r="CY121" s="72"/>
+      <c r="CZ121" s="72"/>
+      <c r="DA121" s="56"/>
+      <c r="DB121" s="56"/>
+      <c r="DC121" s="56"/>
+      <c r="DD121" s="56"/>
+      <c r="DE121" s="56"/>
+      <c r="DF121" s="72"/>
+      <c r="DG121" s="72"/>
+      <c r="DH121" s="57"/>
+      <c r="DI121" s="58"/>
+      <c r="DJ121" s="59"/>
+      <c r="DK121" s="60"/>
     </row>
     <row r="122" spans="2:116">
-      <c r="B122" s="290"/>
-      <c r="C122" s="308"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="80"/>
+      <c r="B122" s="296"/>
+      <c r="C122" s="305"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="76"/>
       <c r="G122" s="222"/>
       <c r="H122" s="195"/>
       <c r="I122" s="195"/>
@@ -19841,8 +19840,8 @@
       <c r="DL122" s="7"/>
     </row>
     <row r="123" spans="2:116">
-      <c r="B123" s="290"/>
-      <c r="C123" s="308"/>
+      <c r="B123" s="296"/>
+      <c r="C123" s="304"/>
       <c r="D123" s="15"/>
       <c r="E123" s="22"/>
       <c r="F123" s="80"/>
@@ -19958,11 +19957,11 @@
       <c r="DL123" s="7"/>
     </row>
     <row r="124" spans="2:116">
-      <c r="B124" s="290"/>
-      <c r="C124" s="297"/>
-      <c r="D124" s="16"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="82"/>
+      <c r="B124" s="296"/>
+      <c r="C124" s="304"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="80"/>
       <c r="G124" s="222"/>
       <c r="H124" s="195"/>
       <c r="I124" s="195"/>
@@ -20075,240 +20074,241 @@
       <c r="DL124" s="7"/>
     </row>
     <row r="125" spans="2:116">
-      <c r="B125" s="290"/>
-      <c r="C125" s="296"/>
-      <c r="D125" s="5"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="226"/>
-      <c r="H125" s="206"/>
-      <c r="I125" s="206"/>
-      <c r="J125" s="206"/>
-      <c r="K125" s="206"/>
-      <c r="L125" s="208"/>
-      <c r="M125" s="208"/>
-      <c r="N125" s="206"/>
-      <c r="O125" s="206"/>
-      <c r="P125" s="206"/>
-      <c r="Q125" s="206"/>
-      <c r="R125" s="206"/>
-      <c r="S125" s="208"/>
-      <c r="T125" s="208"/>
-      <c r="U125" s="206"/>
-      <c r="V125" s="206"/>
-      <c r="W125" s="206"/>
-      <c r="X125" s="206"/>
-      <c r="Y125" s="206"/>
-      <c r="Z125" s="208"/>
-      <c r="AA125" s="208"/>
-      <c r="AB125" s="206"/>
-      <c r="AC125" s="206"/>
-      <c r="AD125" s="206"/>
-      <c r="AE125" s="273"/>
-      <c r="AF125" s="273"/>
-      <c r="AG125" s="208"/>
-      <c r="AH125" s="208"/>
-      <c r="AI125" s="206"/>
-      <c r="AJ125" s="206"/>
-      <c r="AK125" s="206"/>
-      <c r="AL125" s="206"/>
-      <c r="AM125" s="206"/>
-      <c r="AN125" s="208"/>
-      <c r="AO125" s="208"/>
-      <c r="AP125" s="61"/>
-      <c r="AQ125" s="61"/>
-      <c r="AR125" s="61"/>
-      <c r="AS125" s="61"/>
-      <c r="AT125" s="134"/>
-      <c r="AU125" s="71"/>
-      <c r="AV125" s="71"/>
-      <c r="AW125" s="61"/>
-      <c r="AX125" s="61"/>
-      <c r="AY125" s="61"/>
-      <c r="AZ125" s="61"/>
-      <c r="BA125" s="134"/>
-      <c r="BB125" s="71"/>
-      <c r="BC125" s="71"/>
-      <c r="BD125" s="61"/>
-      <c r="BE125" s="61"/>
-      <c r="BF125" s="61"/>
-      <c r="BG125" s="61"/>
-      <c r="BH125" s="134"/>
-      <c r="BI125" s="71"/>
-      <c r="BJ125" s="71"/>
-      <c r="BK125" s="61"/>
-      <c r="BL125" s="61"/>
-      <c r="BM125" s="61"/>
-      <c r="BN125" s="61"/>
-      <c r="BO125" s="61"/>
-      <c r="BP125" s="71"/>
-      <c r="BQ125" s="71"/>
-      <c r="BR125" s="61"/>
-      <c r="BS125" s="61"/>
-      <c r="BT125" s="61"/>
-      <c r="BU125" s="61"/>
-      <c r="BV125" s="61"/>
-      <c r="BW125" s="71"/>
-      <c r="BX125" s="71"/>
-      <c r="BY125" s="61"/>
-      <c r="BZ125" s="61"/>
-      <c r="CA125" s="61"/>
-      <c r="CB125" s="61"/>
-      <c r="CC125" s="61"/>
-      <c r="CD125" s="71"/>
-      <c r="CE125" s="71"/>
-      <c r="CF125" s="61"/>
-      <c r="CG125" s="61"/>
-      <c r="CH125" s="61"/>
-      <c r="CI125" s="61"/>
-      <c r="CJ125" s="61"/>
-      <c r="CK125" s="71"/>
-      <c r="CL125" s="71"/>
-      <c r="CM125" s="61"/>
-      <c r="CN125" s="61"/>
-      <c r="CO125" s="61"/>
-      <c r="CP125" s="61"/>
-      <c r="CQ125" s="61"/>
-      <c r="CR125" s="71"/>
-      <c r="CS125" s="71"/>
-      <c r="CT125" s="61"/>
-      <c r="CU125" s="61"/>
-      <c r="CV125" s="61"/>
-      <c r="CW125" s="61"/>
-      <c r="CX125" s="61"/>
-      <c r="CY125" s="71"/>
-      <c r="CZ125" s="71"/>
-      <c r="DA125" s="61"/>
-      <c r="DB125" s="61"/>
-      <c r="DC125" s="61"/>
-      <c r="DD125" s="61"/>
-      <c r="DE125" s="61"/>
-      <c r="DF125" s="71"/>
-      <c r="DG125" s="71"/>
-      <c r="DH125" s="63"/>
-      <c r="DI125" s="64"/>
-      <c r="DJ125" s="65"/>
-      <c r="DK125" s="66"/>
+      <c r="B125" s="296"/>
+      <c r="C125" s="306"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="222"/>
+      <c r="H125" s="195"/>
+      <c r="I125" s="195"/>
+      <c r="J125" s="195"/>
+      <c r="K125" s="195"/>
+      <c r="L125" s="209"/>
+      <c r="M125" s="209"/>
+      <c r="N125" s="195"/>
+      <c r="O125" s="195"/>
+      <c r="P125" s="195"/>
+      <c r="Q125" s="195"/>
+      <c r="R125" s="195"/>
+      <c r="S125" s="209"/>
+      <c r="T125" s="209"/>
+      <c r="U125" s="195"/>
+      <c r="V125" s="195"/>
+      <c r="W125" s="195"/>
+      <c r="X125" s="195"/>
+      <c r="Y125" s="195"/>
+      <c r="Z125" s="209"/>
+      <c r="AA125" s="209"/>
+      <c r="AB125" s="195"/>
+      <c r="AC125" s="195"/>
+      <c r="AD125" s="195"/>
+      <c r="AE125" s="272"/>
+      <c r="AF125" s="272"/>
+      <c r="AG125" s="209"/>
+      <c r="AH125" s="209"/>
+      <c r="AI125" s="195"/>
+      <c r="AJ125" s="195"/>
+      <c r="AK125" s="195"/>
+      <c r="AL125" s="195"/>
+      <c r="AM125" s="195"/>
+      <c r="AN125" s="209"/>
+      <c r="AO125" s="209"/>
+      <c r="AP125" s="47"/>
+      <c r="AQ125" s="47"/>
+      <c r="AR125" s="47"/>
+      <c r="AS125" s="47"/>
+      <c r="AT125" s="133"/>
+      <c r="AU125" s="70"/>
+      <c r="AV125" s="70"/>
+      <c r="AW125" s="47"/>
+      <c r="AX125" s="47"/>
+      <c r="AY125" s="47"/>
+      <c r="AZ125" s="47"/>
+      <c r="BA125" s="133"/>
+      <c r="BB125" s="70"/>
+      <c r="BC125" s="70"/>
+      <c r="BD125" s="47"/>
+      <c r="BE125" s="47"/>
+      <c r="BF125" s="47"/>
+      <c r="BG125" s="47"/>
+      <c r="BH125" s="133"/>
+      <c r="BI125" s="70"/>
+      <c r="BJ125" s="70"/>
+      <c r="BK125" s="47"/>
+      <c r="BL125" s="47"/>
+      <c r="BM125" s="47"/>
+      <c r="BN125" s="47"/>
+      <c r="BO125" s="47"/>
+      <c r="BP125" s="70"/>
+      <c r="BQ125" s="70"/>
+      <c r="BR125" s="47"/>
+      <c r="BS125" s="47"/>
+      <c r="BT125" s="47"/>
+      <c r="BU125" s="47"/>
+      <c r="BV125" s="47"/>
+      <c r="BW125" s="70"/>
+      <c r="BX125" s="70"/>
+      <c r="BY125" s="47"/>
+      <c r="BZ125" s="47"/>
+      <c r="CA125" s="47"/>
+      <c r="CB125" s="47"/>
+      <c r="CC125" s="47"/>
+      <c r="CD125" s="70"/>
+      <c r="CE125" s="70"/>
+      <c r="CF125" s="47"/>
+      <c r="CG125" s="47"/>
+      <c r="CH125" s="47"/>
+      <c r="CI125" s="47"/>
+      <c r="CJ125" s="47"/>
+      <c r="CK125" s="70"/>
+      <c r="CL125" s="70"/>
+      <c r="CM125" s="47"/>
+      <c r="CN125" s="47"/>
+      <c r="CO125" s="47"/>
+      <c r="CP125" s="47"/>
+      <c r="CQ125" s="47"/>
+      <c r="CR125" s="70"/>
+      <c r="CS125" s="70"/>
+      <c r="CT125" s="47"/>
+      <c r="CU125" s="47"/>
+      <c r="CV125" s="47"/>
+      <c r="CW125" s="47"/>
+      <c r="CX125" s="47"/>
+      <c r="CY125" s="70"/>
+      <c r="CZ125" s="70"/>
+      <c r="DA125" s="47"/>
+      <c r="DB125" s="47"/>
+      <c r="DC125" s="47"/>
+      <c r="DD125" s="47"/>
+      <c r="DE125" s="47"/>
+      <c r="DF125" s="70"/>
+      <c r="DG125" s="70"/>
+      <c r="DH125" s="48"/>
+      <c r="DI125" s="49"/>
+      <c r="DJ125" s="50"/>
+      <c r="DK125" s="51"/>
+      <c r="DL125" s="7"/>
     </row>
     <row r="126" spans="2:116">
-      <c r="B126" s="290"/>
-      <c r="C126" s="296"/>
-      <c r="D126" s="15"/>
+      <c r="B126" s="296"/>
+      <c r="C126" s="307"/>
+      <c r="D126" s="5"/>
       <c r="E126" s="6"/>
       <c r="F126" s="74"/>
-      <c r="G126" s="222"/>
-      <c r="H126" s="195"/>
-      <c r="I126" s="195"/>
-      <c r="J126" s="195"/>
-      <c r="K126" s="195"/>
-      <c r="L126" s="209"/>
-      <c r="M126" s="209"/>
-      <c r="N126" s="195"/>
-      <c r="O126" s="195"/>
-      <c r="P126" s="195"/>
-      <c r="Q126" s="195"/>
-      <c r="R126" s="195"/>
-      <c r="S126" s="209"/>
-      <c r="T126" s="209"/>
-      <c r="U126" s="195"/>
-      <c r="V126" s="195"/>
-      <c r="W126" s="195"/>
-      <c r="X126" s="195"/>
-      <c r="Y126" s="195"/>
-      <c r="Z126" s="209"/>
-      <c r="AA126" s="209"/>
-      <c r="AB126" s="195"/>
-      <c r="AC126" s="195"/>
-      <c r="AD126" s="195"/>
-      <c r="AE126" s="272"/>
-      <c r="AF126" s="272"/>
-      <c r="AG126" s="209"/>
-      <c r="AH126" s="209"/>
-      <c r="AI126" s="195"/>
-      <c r="AJ126" s="195"/>
-      <c r="AK126" s="195"/>
-      <c r="AL126" s="195"/>
-      <c r="AM126" s="195"/>
-      <c r="AN126" s="209"/>
-      <c r="AO126" s="209"/>
-      <c r="AP126" s="47"/>
-      <c r="AQ126" s="47"/>
-      <c r="AR126" s="47"/>
-      <c r="AS126" s="47"/>
-      <c r="AT126" s="133"/>
-      <c r="AU126" s="70"/>
-      <c r="AV126" s="70"/>
-      <c r="AW126" s="47"/>
-      <c r="AX126" s="47"/>
-      <c r="AY126" s="47"/>
-      <c r="AZ126" s="47"/>
-      <c r="BA126" s="133"/>
-      <c r="BB126" s="70"/>
-      <c r="BC126" s="70"/>
-      <c r="BD126" s="47"/>
-      <c r="BE126" s="47"/>
-      <c r="BF126" s="47"/>
-      <c r="BG126" s="47"/>
-      <c r="BH126" s="133"/>
-      <c r="BI126" s="70"/>
-      <c r="BJ126" s="70"/>
-      <c r="BK126" s="47"/>
-      <c r="BL126" s="47"/>
-      <c r="BM126" s="47"/>
-      <c r="BN126" s="47"/>
-      <c r="BO126" s="47"/>
-      <c r="BP126" s="70"/>
-      <c r="BQ126" s="70"/>
-      <c r="BR126" s="47"/>
-      <c r="BS126" s="47"/>
-      <c r="BT126" s="47"/>
-      <c r="BU126" s="47"/>
-      <c r="BV126" s="47"/>
-      <c r="BW126" s="70"/>
-      <c r="BX126" s="70"/>
-      <c r="BY126" s="47"/>
-      <c r="BZ126" s="47"/>
-      <c r="CA126" s="47"/>
-      <c r="CB126" s="47"/>
-      <c r="CC126" s="47"/>
-      <c r="CD126" s="70"/>
-      <c r="CE126" s="70"/>
-      <c r="CF126" s="47"/>
-      <c r="CG126" s="47"/>
-      <c r="CH126" s="47"/>
-      <c r="CI126" s="47"/>
-      <c r="CJ126" s="47"/>
-      <c r="CK126" s="70"/>
-      <c r="CL126" s="70"/>
-      <c r="CM126" s="47"/>
-      <c r="CN126" s="47"/>
-      <c r="CO126" s="47"/>
-      <c r="CP126" s="47"/>
-      <c r="CQ126" s="47"/>
-      <c r="CR126" s="70"/>
-      <c r="CS126" s="70"/>
-      <c r="CT126" s="47"/>
-      <c r="CU126" s="47"/>
-      <c r="CV126" s="47"/>
-      <c r="CW126" s="47"/>
-      <c r="CX126" s="47"/>
-      <c r="CY126" s="70"/>
-      <c r="CZ126" s="70"/>
-      <c r="DA126" s="47"/>
-      <c r="DB126" s="47"/>
-      <c r="DC126" s="47"/>
-      <c r="DD126" s="47"/>
-      <c r="DE126" s="47"/>
-      <c r="DF126" s="70"/>
-      <c r="DG126" s="70"/>
-      <c r="DH126" s="48"/>
-      <c r="DI126" s="49"/>
-      <c r="DJ126" s="50"/>
-      <c r="DK126" s="51"/>
+      <c r="G126" s="226"/>
+      <c r="H126" s="206"/>
+      <c r="I126" s="206"/>
+      <c r="J126" s="206"/>
+      <c r="K126" s="206"/>
+      <c r="L126" s="208"/>
+      <c r="M126" s="208"/>
+      <c r="N126" s="206"/>
+      <c r="O126" s="206"/>
+      <c r="P126" s="206"/>
+      <c r="Q126" s="206"/>
+      <c r="R126" s="206"/>
+      <c r="S126" s="208"/>
+      <c r="T126" s="208"/>
+      <c r="U126" s="206"/>
+      <c r="V126" s="206"/>
+      <c r="W126" s="206"/>
+      <c r="X126" s="206"/>
+      <c r="Y126" s="206"/>
+      <c r="Z126" s="208"/>
+      <c r="AA126" s="208"/>
+      <c r="AB126" s="206"/>
+      <c r="AC126" s="206"/>
+      <c r="AD126" s="206"/>
+      <c r="AE126" s="273"/>
+      <c r="AF126" s="273"/>
+      <c r="AG126" s="208"/>
+      <c r="AH126" s="208"/>
+      <c r="AI126" s="206"/>
+      <c r="AJ126" s="206"/>
+      <c r="AK126" s="206"/>
+      <c r="AL126" s="206"/>
+      <c r="AM126" s="206"/>
+      <c r="AN126" s="208"/>
+      <c r="AO126" s="208"/>
+      <c r="AP126" s="61"/>
+      <c r="AQ126" s="61"/>
+      <c r="AR126" s="61"/>
+      <c r="AS126" s="61"/>
+      <c r="AT126" s="134"/>
+      <c r="AU126" s="71"/>
+      <c r="AV126" s="71"/>
+      <c r="AW126" s="61"/>
+      <c r="AX126" s="61"/>
+      <c r="AY126" s="61"/>
+      <c r="AZ126" s="61"/>
+      <c r="BA126" s="134"/>
+      <c r="BB126" s="71"/>
+      <c r="BC126" s="71"/>
+      <c r="BD126" s="61"/>
+      <c r="BE126" s="61"/>
+      <c r="BF126" s="61"/>
+      <c r="BG126" s="61"/>
+      <c r="BH126" s="134"/>
+      <c r="BI126" s="71"/>
+      <c r="BJ126" s="71"/>
+      <c r="BK126" s="61"/>
+      <c r="BL126" s="61"/>
+      <c r="BM126" s="61"/>
+      <c r="BN126" s="61"/>
+      <c r="BO126" s="61"/>
+      <c r="BP126" s="71"/>
+      <c r="BQ126" s="71"/>
+      <c r="BR126" s="61"/>
+      <c r="BS126" s="61"/>
+      <c r="BT126" s="61"/>
+      <c r="BU126" s="61"/>
+      <c r="BV126" s="61"/>
+      <c r="BW126" s="71"/>
+      <c r="BX126" s="71"/>
+      <c r="BY126" s="61"/>
+      <c r="BZ126" s="61"/>
+      <c r="CA126" s="61"/>
+      <c r="CB126" s="61"/>
+      <c r="CC126" s="61"/>
+      <c r="CD126" s="71"/>
+      <c r="CE126" s="71"/>
+      <c r="CF126" s="61"/>
+      <c r="CG126" s="61"/>
+      <c r="CH126" s="61"/>
+      <c r="CI126" s="61"/>
+      <c r="CJ126" s="61"/>
+      <c r="CK126" s="71"/>
+      <c r="CL126" s="71"/>
+      <c r="CM126" s="61"/>
+      <c r="CN126" s="61"/>
+      <c r="CO126" s="61"/>
+      <c r="CP126" s="61"/>
+      <c r="CQ126" s="61"/>
+      <c r="CR126" s="71"/>
+      <c r="CS126" s="71"/>
+      <c r="CT126" s="61"/>
+      <c r="CU126" s="61"/>
+      <c r="CV126" s="61"/>
+      <c r="CW126" s="61"/>
+      <c r="CX126" s="61"/>
+      <c r="CY126" s="71"/>
+      <c r="CZ126" s="71"/>
+      <c r="DA126" s="61"/>
+      <c r="DB126" s="61"/>
+      <c r="DC126" s="61"/>
+      <c r="DD126" s="61"/>
+      <c r="DE126" s="61"/>
+      <c r="DF126" s="71"/>
+      <c r="DG126" s="71"/>
+      <c r="DH126" s="63"/>
+      <c r="DI126" s="64"/>
+      <c r="DJ126" s="65"/>
+      <c r="DK126" s="66"/>
     </row>
-    <row r="127" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B127" s="290"/>
-      <c r="C127" s="296"/>
+    <row r="127" spans="2:116">
+      <c r="B127" s="296"/>
+      <c r="C127" s="307"/>
       <c r="D127" s="15"/>
       <c r="E127" s="6"/>
       <c r="F127" s="74"/>
@@ -20422,732 +20422,848 @@
       <c r="DJ127" s="50"/>
       <c r="DK127" s="51"/>
     </row>
-    <row r="128" spans="2:116">
-      <c r="B128" s="289"/>
-      <c r="C128" s="299"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="21"/>
-      <c r="F128" s="79"/>
-      <c r="G128" s="225"/>
-      <c r="H128" s="188"/>
-      <c r="I128" s="188"/>
-      <c r="J128" s="188"/>
-      <c r="K128" s="188"/>
-      <c r="L128" s="219"/>
-      <c r="M128" s="219"/>
-      <c r="N128" s="218"/>
-      <c r="O128" s="218"/>
-      <c r="P128" s="218"/>
-      <c r="Q128" s="218"/>
-      <c r="R128" s="218"/>
-      <c r="S128" s="219"/>
-      <c r="T128" s="219"/>
-      <c r="U128" s="218"/>
-      <c r="V128" s="218"/>
-      <c r="W128" s="218"/>
-      <c r="X128" s="218"/>
-      <c r="Y128" s="218"/>
-      <c r="Z128" s="219"/>
-      <c r="AA128" s="219"/>
-      <c r="AB128" s="218"/>
-      <c r="AC128" s="218"/>
-      <c r="AD128" s="218"/>
-      <c r="AE128" s="277"/>
-      <c r="AF128" s="277"/>
-      <c r="AG128" s="219"/>
-      <c r="AH128" s="219"/>
-      <c r="AI128" s="218"/>
-      <c r="AJ128" s="218"/>
-      <c r="AK128" s="218"/>
-      <c r="AL128" s="218"/>
-      <c r="AM128" s="218"/>
-      <c r="AN128" s="219"/>
-      <c r="AO128" s="219"/>
-      <c r="AP128" s="42"/>
-      <c r="AQ128" s="42"/>
-      <c r="AR128" s="42"/>
-      <c r="AS128" s="42"/>
-      <c r="AT128" s="136"/>
-      <c r="AU128" s="69"/>
-      <c r="AV128" s="69"/>
-      <c r="AW128" s="42"/>
-      <c r="AX128" s="42"/>
-      <c r="AY128" s="42"/>
-      <c r="AZ128" s="42"/>
-      <c r="BA128" s="136"/>
-      <c r="BB128" s="69"/>
-      <c r="BC128" s="69"/>
-      <c r="BD128" s="42"/>
-      <c r="BE128" s="42"/>
-      <c r="BF128" s="42"/>
-      <c r="BG128" s="42"/>
-      <c r="BH128" s="136"/>
-      <c r="BI128" s="69"/>
-      <c r="BJ128" s="69"/>
-      <c r="BK128" s="42"/>
-      <c r="BL128" s="42"/>
-      <c r="BM128" s="42"/>
-      <c r="BN128" s="42"/>
-      <c r="BO128" s="42"/>
-      <c r="BP128" s="69"/>
-      <c r="BQ128" s="69"/>
-      <c r="BR128" s="42"/>
-      <c r="BS128" s="42"/>
-      <c r="BT128" s="42"/>
-      <c r="BU128" s="42"/>
-      <c r="BV128" s="42"/>
-      <c r="BW128" s="69"/>
-      <c r="BX128" s="69"/>
-      <c r="BY128" s="42"/>
-      <c r="BZ128" s="42"/>
-      <c r="CA128" s="42"/>
-      <c r="CB128" s="42"/>
-      <c r="CC128" s="42"/>
-      <c r="CD128" s="69"/>
-      <c r="CE128" s="69"/>
-      <c r="CF128" s="42"/>
-      <c r="CG128" s="42"/>
-      <c r="CH128" s="42"/>
-      <c r="CI128" s="42"/>
-      <c r="CJ128" s="42"/>
-      <c r="CK128" s="69"/>
-      <c r="CL128" s="69"/>
-      <c r="CM128" s="42"/>
-      <c r="CN128" s="42"/>
-      <c r="CO128" s="42"/>
-      <c r="CP128" s="42"/>
-      <c r="CQ128" s="42"/>
-      <c r="CR128" s="69"/>
-      <c r="CS128" s="69"/>
-      <c r="CT128" s="42"/>
-      <c r="CU128" s="42"/>
-      <c r="CV128" s="42"/>
-      <c r="CW128" s="42"/>
-      <c r="CX128" s="42"/>
-      <c r="CY128" s="69"/>
-      <c r="CZ128" s="69"/>
-      <c r="DA128" s="42"/>
-      <c r="DB128" s="42"/>
-      <c r="DC128" s="42"/>
-      <c r="DD128" s="42"/>
-      <c r="DE128" s="42"/>
-      <c r="DF128" s="69"/>
-      <c r="DG128" s="69"/>
-      <c r="DH128" s="43"/>
-      <c r="DI128" s="44"/>
-      <c r="DJ128" s="45"/>
-      <c r="DK128" s="46"/>
+    <row r="128" spans="2:116" ht="17.25" thickBot="1">
+      <c r="B128" s="296"/>
+      <c r="C128" s="307"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="74"/>
+      <c r="G128" s="222"/>
+      <c r="H128" s="195"/>
+      <c r="I128" s="195"/>
+      <c r="J128" s="195"/>
+      <c r="K128" s="195"/>
+      <c r="L128" s="209"/>
+      <c r="M128" s="209"/>
+      <c r="N128" s="195"/>
+      <c r="O128" s="195"/>
+      <c r="P128" s="195"/>
+      <c r="Q128" s="195"/>
+      <c r="R128" s="195"/>
+      <c r="S128" s="209"/>
+      <c r="T128" s="209"/>
+      <c r="U128" s="195"/>
+      <c r="V128" s="195"/>
+      <c r="W128" s="195"/>
+      <c r="X128" s="195"/>
+      <c r="Y128" s="195"/>
+      <c r="Z128" s="209"/>
+      <c r="AA128" s="209"/>
+      <c r="AB128" s="195"/>
+      <c r="AC128" s="195"/>
+      <c r="AD128" s="195"/>
+      <c r="AE128" s="272"/>
+      <c r="AF128" s="272"/>
+      <c r="AG128" s="209"/>
+      <c r="AH128" s="209"/>
+      <c r="AI128" s="195"/>
+      <c r="AJ128" s="195"/>
+      <c r="AK128" s="195"/>
+      <c r="AL128" s="195"/>
+      <c r="AM128" s="195"/>
+      <c r="AN128" s="209"/>
+      <c r="AO128" s="209"/>
+      <c r="AP128" s="47"/>
+      <c r="AQ128" s="47"/>
+      <c r="AR128" s="47"/>
+      <c r="AS128" s="47"/>
+      <c r="AT128" s="133"/>
+      <c r="AU128" s="70"/>
+      <c r="AV128" s="70"/>
+      <c r="AW128" s="47"/>
+      <c r="AX128" s="47"/>
+      <c r="AY128" s="47"/>
+      <c r="AZ128" s="47"/>
+      <c r="BA128" s="133"/>
+      <c r="BB128" s="70"/>
+      <c r="BC128" s="70"/>
+      <c r="BD128" s="47"/>
+      <c r="BE128" s="47"/>
+      <c r="BF128" s="47"/>
+      <c r="BG128" s="47"/>
+      <c r="BH128" s="133"/>
+      <c r="BI128" s="70"/>
+      <c r="BJ128" s="70"/>
+      <c r="BK128" s="47"/>
+      <c r="BL128" s="47"/>
+      <c r="BM128" s="47"/>
+      <c r="BN128" s="47"/>
+      <c r="BO128" s="47"/>
+      <c r="BP128" s="70"/>
+      <c r="BQ128" s="70"/>
+      <c r="BR128" s="47"/>
+      <c r="BS128" s="47"/>
+      <c r="BT128" s="47"/>
+      <c r="BU128" s="47"/>
+      <c r="BV128" s="47"/>
+      <c r="BW128" s="70"/>
+      <c r="BX128" s="70"/>
+      <c r="BY128" s="47"/>
+      <c r="BZ128" s="47"/>
+      <c r="CA128" s="47"/>
+      <c r="CB128" s="47"/>
+      <c r="CC128" s="47"/>
+      <c r="CD128" s="70"/>
+      <c r="CE128" s="70"/>
+      <c r="CF128" s="47"/>
+      <c r="CG128" s="47"/>
+      <c r="CH128" s="47"/>
+      <c r="CI128" s="47"/>
+      <c r="CJ128" s="47"/>
+      <c r="CK128" s="70"/>
+      <c r="CL128" s="70"/>
+      <c r="CM128" s="47"/>
+      <c r="CN128" s="47"/>
+      <c r="CO128" s="47"/>
+      <c r="CP128" s="47"/>
+      <c r="CQ128" s="47"/>
+      <c r="CR128" s="70"/>
+      <c r="CS128" s="70"/>
+      <c r="CT128" s="47"/>
+      <c r="CU128" s="47"/>
+      <c r="CV128" s="47"/>
+      <c r="CW128" s="47"/>
+      <c r="CX128" s="47"/>
+      <c r="CY128" s="70"/>
+      <c r="CZ128" s="70"/>
+      <c r="DA128" s="47"/>
+      <c r="DB128" s="47"/>
+      <c r="DC128" s="47"/>
+      <c r="DD128" s="47"/>
+      <c r="DE128" s="47"/>
+      <c r="DF128" s="70"/>
+      <c r="DG128" s="70"/>
+      <c r="DH128" s="48"/>
+      <c r="DI128" s="49"/>
+      <c r="DJ128" s="50"/>
+      <c r="DK128" s="51"/>
     </row>
     <row r="129" spans="2:115">
-      <c r="B129" s="290"/>
-      <c r="C129" s="300"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="80"/>
-      <c r="G129" s="222"/>
-      <c r="H129" s="195"/>
-      <c r="I129" s="195"/>
-      <c r="J129" s="195"/>
-      <c r="K129" s="195"/>
-      <c r="L129" s="209"/>
-      <c r="M129" s="209"/>
-      <c r="N129" s="215"/>
-      <c r="O129" s="215"/>
-      <c r="P129" s="215"/>
-      <c r="Q129" s="215"/>
-      <c r="R129" s="215"/>
-      <c r="S129" s="209"/>
-      <c r="T129" s="209"/>
-      <c r="U129" s="215"/>
-      <c r="V129" s="215"/>
-      <c r="W129" s="215"/>
-      <c r="X129" s="215"/>
-      <c r="Y129" s="215"/>
-      <c r="Z129" s="209"/>
-      <c r="AA129" s="209"/>
-      <c r="AB129" s="215"/>
-      <c r="AC129" s="215"/>
-      <c r="AD129" s="215"/>
-      <c r="AE129" s="278"/>
-      <c r="AF129" s="278"/>
-      <c r="AG129" s="209"/>
-      <c r="AH129" s="209"/>
-      <c r="AI129" s="215"/>
-      <c r="AJ129" s="215"/>
-      <c r="AK129" s="215"/>
-      <c r="AL129" s="215"/>
-      <c r="AM129" s="215"/>
-      <c r="AN129" s="209"/>
-      <c r="AO129" s="209"/>
-      <c r="AP129" s="53"/>
-      <c r="AQ129" s="53"/>
-      <c r="AR129" s="53"/>
-      <c r="AS129" s="53"/>
-      <c r="AT129" s="139"/>
-      <c r="AU129" s="70"/>
-      <c r="AV129" s="70"/>
-      <c r="AW129" s="53"/>
-      <c r="AX129" s="53"/>
-      <c r="AY129" s="53"/>
-      <c r="AZ129" s="53"/>
-      <c r="BA129" s="139"/>
-      <c r="BB129" s="70"/>
-      <c r="BC129" s="70"/>
-      <c r="BD129" s="53"/>
-      <c r="BE129" s="53"/>
-      <c r="BF129" s="53"/>
-      <c r="BG129" s="53"/>
-      <c r="BH129" s="139"/>
-      <c r="BI129" s="70"/>
-      <c r="BJ129" s="70"/>
-      <c r="BK129" s="53"/>
-      <c r="BL129" s="53"/>
-      <c r="BM129" s="53"/>
-      <c r="BN129" s="53"/>
-      <c r="BO129" s="53"/>
-      <c r="BP129" s="70"/>
-      <c r="BQ129" s="70"/>
-      <c r="BR129" s="53"/>
-      <c r="BS129" s="53"/>
-      <c r="BT129" s="53"/>
-      <c r="BU129" s="53"/>
-      <c r="BV129" s="53"/>
-      <c r="BW129" s="70"/>
-      <c r="BX129" s="70"/>
-      <c r="BY129" s="53"/>
-      <c r="BZ129" s="53"/>
-      <c r="CA129" s="53"/>
-      <c r="CB129" s="53"/>
-      <c r="CC129" s="53"/>
-      <c r="CD129" s="70"/>
-      <c r="CE129" s="70"/>
-      <c r="CF129" s="53"/>
-      <c r="CG129" s="53"/>
-      <c r="CH129" s="53"/>
-      <c r="CI129" s="53"/>
-      <c r="CJ129" s="53"/>
-      <c r="CK129" s="70"/>
-      <c r="CL129" s="70"/>
-      <c r="CM129" s="53"/>
-      <c r="CN129" s="53"/>
-      <c r="CO129" s="53"/>
-      <c r="CP129" s="53"/>
-      <c r="CQ129" s="53"/>
-      <c r="CR129" s="70"/>
-      <c r="CS129" s="70"/>
-      <c r="CT129" s="53"/>
-      <c r="CU129" s="53"/>
-      <c r="CV129" s="53"/>
-      <c r="CW129" s="53"/>
-      <c r="CX129" s="53"/>
-      <c r="CY129" s="70"/>
-      <c r="CZ129" s="70"/>
-      <c r="DA129" s="53"/>
-      <c r="DB129" s="53"/>
-      <c r="DC129" s="53"/>
-      <c r="DD129" s="53"/>
-      <c r="DE129" s="53"/>
-      <c r="DF129" s="70"/>
-      <c r="DG129" s="70"/>
-      <c r="DH129" s="48"/>
-      <c r="DI129" s="49"/>
-      <c r="DJ129" s="50"/>
-      <c r="DK129" s="51"/>
+      <c r="B129" s="295"/>
+      <c r="C129" s="298"/>
+      <c r="D129" s="20"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="79"/>
+      <c r="G129" s="225"/>
+      <c r="H129" s="188"/>
+      <c r="I129" s="188"/>
+      <c r="J129" s="188"/>
+      <c r="K129" s="188"/>
+      <c r="L129" s="219"/>
+      <c r="M129" s="219"/>
+      <c r="N129" s="218"/>
+      <c r="O129" s="218"/>
+      <c r="P129" s="218"/>
+      <c r="Q129" s="218"/>
+      <c r="R129" s="218"/>
+      <c r="S129" s="219"/>
+      <c r="T129" s="219"/>
+      <c r="U129" s="218"/>
+      <c r="V129" s="218"/>
+      <c r="W129" s="218"/>
+      <c r="X129" s="218"/>
+      <c r="Y129" s="218"/>
+      <c r="Z129" s="219"/>
+      <c r="AA129" s="219"/>
+      <c r="AB129" s="218"/>
+      <c r="AC129" s="218"/>
+      <c r="AD129" s="218"/>
+      <c r="AE129" s="277"/>
+      <c r="AF129" s="277"/>
+      <c r="AG129" s="219"/>
+      <c r="AH129" s="219"/>
+      <c r="AI129" s="218"/>
+      <c r="AJ129" s="218"/>
+      <c r="AK129" s="218"/>
+      <c r="AL129" s="218"/>
+      <c r="AM129" s="218"/>
+      <c r="AN129" s="219"/>
+      <c r="AO129" s="219"/>
+      <c r="AP129" s="42"/>
+      <c r="AQ129" s="42"/>
+      <c r="AR129" s="42"/>
+      <c r="AS129" s="42"/>
+      <c r="AT129" s="136"/>
+      <c r="AU129" s="69"/>
+      <c r="AV129" s="69"/>
+      <c r="AW129" s="42"/>
+      <c r="AX129" s="42"/>
+      <c r="AY129" s="42"/>
+      <c r="AZ129" s="42"/>
+      <c r="BA129" s="136"/>
+      <c r="BB129" s="69"/>
+      <c r="BC129" s="69"/>
+      <c r="BD129" s="42"/>
+      <c r="BE129" s="42"/>
+      <c r="BF129" s="42"/>
+      <c r="BG129" s="42"/>
+      <c r="BH129" s="136"/>
+      <c r="BI129" s="69"/>
+      <c r="BJ129" s="69"/>
+      <c r="BK129" s="42"/>
+      <c r="BL129" s="42"/>
+      <c r="BM129" s="42"/>
+      <c r="BN129" s="42"/>
+      <c r="BO129" s="42"/>
+      <c r="BP129" s="69"/>
+      <c r="BQ129" s="69"/>
+      <c r="BR129" s="42"/>
+      <c r="BS129" s="42"/>
+      <c r="BT129" s="42"/>
+      <c r="BU129" s="42"/>
+      <c r="BV129" s="42"/>
+      <c r="BW129" s="69"/>
+      <c r="BX129" s="69"/>
+      <c r="BY129" s="42"/>
+      <c r="BZ129" s="42"/>
+      <c r="CA129" s="42"/>
+      <c r="CB129" s="42"/>
+      <c r="CC129" s="42"/>
+      <c r="CD129" s="69"/>
+      <c r="CE129" s="69"/>
+      <c r="CF129" s="42"/>
+      <c r="CG129" s="42"/>
+      <c r="CH129" s="42"/>
+      <c r="CI129" s="42"/>
+      <c r="CJ129" s="42"/>
+      <c r="CK129" s="69"/>
+      <c r="CL129" s="69"/>
+      <c r="CM129" s="42"/>
+      <c r="CN129" s="42"/>
+      <c r="CO129" s="42"/>
+      <c r="CP129" s="42"/>
+      <c r="CQ129" s="42"/>
+      <c r="CR129" s="69"/>
+      <c r="CS129" s="69"/>
+      <c r="CT129" s="42"/>
+      <c r="CU129" s="42"/>
+      <c r="CV129" s="42"/>
+      <c r="CW129" s="42"/>
+      <c r="CX129" s="42"/>
+      <c r="CY129" s="69"/>
+      <c r="CZ129" s="69"/>
+      <c r="DA129" s="42"/>
+      <c r="DB129" s="42"/>
+      <c r="DC129" s="42"/>
+      <c r="DD129" s="42"/>
+      <c r="DE129" s="42"/>
+      <c r="DF129" s="69"/>
+      <c r="DG129" s="69"/>
+      <c r="DH129" s="43"/>
+      <c r="DI129" s="44"/>
+      <c r="DJ129" s="45"/>
+      <c r="DK129" s="46"/>
     </row>
     <row r="130" spans="2:115">
-      <c r="B130" s="290"/>
-      <c r="C130" s="300"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="23"/>
-      <c r="F130" s="81"/>
-      <c r="G130" s="226"/>
-      <c r="H130" s="206"/>
-      <c r="I130" s="206"/>
-      <c r="J130" s="206"/>
-      <c r="K130" s="206"/>
-      <c r="L130" s="208"/>
-      <c r="M130" s="208"/>
-      <c r="N130" s="207"/>
-      <c r="O130" s="207"/>
-      <c r="P130" s="207"/>
-      <c r="Q130" s="207"/>
-      <c r="R130" s="207"/>
-      <c r="S130" s="208"/>
-      <c r="T130" s="208"/>
-      <c r="U130" s="207"/>
-      <c r="V130" s="207"/>
-      <c r="W130" s="207"/>
-      <c r="X130" s="207"/>
-      <c r="Y130" s="207"/>
-      <c r="Z130" s="208"/>
-      <c r="AA130" s="208"/>
-      <c r="AB130" s="207"/>
-      <c r="AC130" s="207"/>
-      <c r="AD130" s="207"/>
-      <c r="AE130" s="276"/>
-      <c r="AF130" s="276"/>
-      <c r="AG130" s="208"/>
-      <c r="AH130" s="208"/>
-      <c r="AI130" s="207"/>
-      <c r="AJ130" s="207"/>
-      <c r="AK130" s="207"/>
-      <c r="AL130" s="207"/>
-      <c r="AM130" s="207"/>
-      <c r="AN130" s="208"/>
-      <c r="AO130" s="208"/>
-      <c r="AP130" s="62"/>
-      <c r="AQ130" s="62"/>
-      <c r="AR130" s="62"/>
-      <c r="AS130" s="62"/>
-      <c r="AT130" s="138"/>
-      <c r="AU130" s="71"/>
-      <c r="AV130" s="71"/>
-      <c r="AW130" s="62"/>
-      <c r="AX130" s="62"/>
-      <c r="AY130" s="62"/>
-      <c r="AZ130" s="62"/>
-      <c r="BA130" s="138"/>
-      <c r="BB130" s="71"/>
-      <c r="BC130" s="71"/>
-      <c r="BD130" s="62"/>
-      <c r="BE130" s="62"/>
-      <c r="BF130" s="62"/>
-      <c r="BG130" s="62"/>
-      <c r="BH130" s="138"/>
-      <c r="BI130" s="71"/>
-      <c r="BJ130" s="71"/>
-      <c r="BK130" s="62"/>
-      <c r="BL130" s="62"/>
-      <c r="BM130" s="62"/>
-      <c r="BN130" s="62"/>
-      <c r="BO130" s="62"/>
-      <c r="BP130" s="71"/>
-      <c r="BQ130" s="71"/>
-      <c r="BR130" s="62"/>
-      <c r="BS130" s="62"/>
-      <c r="BT130" s="62"/>
-      <c r="BU130" s="62"/>
-      <c r="BV130" s="62"/>
-      <c r="BW130" s="71"/>
-      <c r="BX130" s="71"/>
-      <c r="BY130" s="62"/>
-      <c r="BZ130" s="62"/>
-      <c r="CA130" s="62"/>
-      <c r="CB130" s="62"/>
-      <c r="CC130" s="62"/>
-      <c r="CD130" s="71"/>
-      <c r="CE130" s="71"/>
-      <c r="CF130" s="62"/>
-      <c r="CG130" s="62"/>
-      <c r="CH130" s="62"/>
-      <c r="CI130" s="62"/>
-      <c r="CJ130" s="62"/>
-      <c r="CK130" s="71"/>
-      <c r="CL130" s="71"/>
-      <c r="CM130" s="62"/>
-      <c r="CN130" s="62"/>
-      <c r="CO130" s="62"/>
-      <c r="CP130" s="62"/>
-      <c r="CQ130" s="62"/>
-      <c r="CR130" s="71"/>
-      <c r="CS130" s="71"/>
-      <c r="CT130" s="62"/>
-      <c r="CU130" s="62"/>
-      <c r="CV130" s="62"/>
-      <c r="CW130" s="62"/>
-      <c r="CX130" s="62"/>
-      <c r="CY130" s="71"/>
-      <c r="CZ130" s="71"/>
-      <c r="DA130" s="62"/>
-      <c r="DB130" s="62"/>
-      <c r="DC130" s="62"/>
-      <c r="DD130" s="62"/>
-      <c r="DE130" s="62"/>
-      <c r="DF130" s="71"/>
-      <c r="DG130" s="71"/>
-      <c r="DH130" s="63"/>
-      <c r="DI130" s="64"/>
-      <c r="DJ130" s="65"/>
-      <c r="DK130" s="66"/>
+      <c r="B130" s="296"/>
+      <c r="C130" s="299"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="80"/>
+      <c r="G130" s="222"/>
+      <c r="H130" s="195"/>
+      <c r="I130" s="195"/>
+      <c r="J130" s="195"/>
+      <c r="K130" s="195"/>
+      <c r="L130" s="209"/>
+      <c r="M130" s="209"/>
+      <c r="N130" s="215"/>
+      <c r="O130" s="215"/>
+      <c r="P130" s="215"/>
+      <c r="Q130" s="215"/>
+      <c r="R130" s="215"/>
+      <c r="S130" s="209"/>
+      <c r="T130" s="209"/>
+      <c r="U130" s="215"/>
+      <c r="V130" s="215"/>
+      <c r="W130" s="215"/>
+      <c r="X130" s="215"/>
+      <c r="Y130" s="215"/>
+      <c r="Z130" s="209"/>
+      <c r="AA130" s="209"/>
+      <c r="AB130" s="215"/>
+      <c r="AC130" s="215"/>
+      <c r="AD130" s="215"/>
+      <c r="AE130" s="278"/>
+      <c r="AF130" s="278"/>
+      <c r="AG130" s="209"/>
+      <c r="AH130" s="209"/>
+      <c r="AI130" s="215"/>
+      <c r="AJ130" s="215"/>
+      <c r="AK130" s="215"/>
+      <c r="AL130" s="215"/>
+      <c r="AM130" s="215"/>
+      <c r="AN130" s="209"/>
+      <c r="AO130" s="209"/>
+      <c r="AP130" s="53"/>
+      <c r="AQ130" s="53"/>
+      <c r="AR130" s="53"/>
+      <c r="AS130" s="53"/>
+      <c r="AT130" s="139"/>
+      <c r="AU130" s="70"/>
+      <c r="AV130" s="70"/>
+      <c r="AW130" s="53"/>
+      <c r="AX130" s="53"/>
+      <c r="AY130" s="53"/>
+      <c r="AZ130" s="53"/>
+      <c r="BA130" s="139"/>
+      <c r="BB130" s="70"/>
+      <c r="BC130" s="70"/>
+      <c r="BD130" s="53"/>
+      <c r="BE130" s="53"/>
+      <c r="BF130" s="53"/>
+      <c r="BG130" s="53"/>
+      <c r="BH130" s="139"/>
+      <c r="BI130" s="70"/>
+      <c r="BJ130" s="70"/>
+      <c r="BK130" s="53"/>
+      <c r="BL130" s="53"/>
+      <c r="BM130" s="53"/>
+      <c r="BN130" s="53"/>
+      <c r="BO130" s="53"/>
+      <c r="BP130" s="70"/>
+      <c r="BQ130" s="70"/>
+      <c r="BR130" s="53"/>
+      <c r="BS130" s="53"/>
+      <c r="BT130" s="53"/>
+      <c r="BU130" s="53"/>
+      <c r="BV130" s="53"/>
+      <c r="BW130" s="70"/>
+      <c r="BX130" s="70"/>
+      <c r="BY130" s="53"/>
+      <c r="BZ130" s="53"/>
+      <c r="CA130" s="53"/>
+      <c r="CB130" s="53"/>
+      <c r="CC130" s="53"/>
+      <c r="CD130" s="70"/>
+      <c r="CE130" s="70"/>
+      <c r="CF130" s="53"/>
+      <c r="CG130" s="53"/>
+      <c r="CH130" s="53"/>
+      <c r="CI130" s="53"/>
+      <c r="CJ130" s="53"/>
+      <c r="CK130" s="70"/>
+      <c r="CL130" s="70"/>
+      <c r="CM130" s="53"/>
+      <c r="CN130" s="53"/>
+      <c r="CO130" s="53"/>
+      <c r="CP130" s="53"/>
+      <c r="CQ130" s="53"/>
+      <c r="CR130" s="70"/>
+      <c r="CS130" s="70"/>
+      <c r="CT130" s="53"/>
+      <c r="CU130" s="53"/>
+      <c r="CV130" s="53"/>
+      <c r="CW130" s="53"/>
+      <c r="CX130" s="53"/>
+      <c r="CY130" s="70"/>
+      <c r="CZ130" s="70"/>
+      <c r="DA130" s="53"/>
+      <c r="DB130" s="53"/>
+      <c r="DC130" s="53"/>
+      <c r="DD130" s="53"/>
+      <c r="DE130" s="53"/>
+      <c r="DF130" s="70"/>
+      <c r="DG130" s="70"/>
+      <c r="DH130" s="48"/>
+      <c r="DI130" s="49"/>
+      <c r="DJ130" s="50"/>
+      <c r="DK130" s="51"/>
     </row>
     <row r="131" spans="2:115">
-      <c r="B131" s="290"/>
-      <c r="C131" s="301"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="82"/>
-      <c r="G131" s="221"/>
-      <c r="H131" s="211"/>
-      <c r="I131" s="211"/>
-      <c r="J131" s="211"/>
-      <c r="K131" s="211"/>
-      <c r="L131" s="213"/>
-      <c r="M131" s="213"/>
-      <c r="N131" s="212"/>
-      <c r="O131" s="212"/>
-      <c r="P131" s="212"/>
-      <c r="Q131" s="212"/>
-      <c r="R131" s="212"/>
-      <c r="S131" s="213"/>
-      <c r="T131" s="213"/>
-      <c r="U131" s="212"/>
-      <c r="V131" s="212"/>
-      <c r="W131" s="212"/>
-      <c r="X131" s="212"/>
-      <c r="Y131" s="212"/>
-      <c r="Z131" s="213"/>
-      <c r="AA131" s="213"/>
-      <c r="AB131" s="212"/>
-      <c r="AC131" s="212"/>
-      <c r="AD131" s="212"/>
-      <c r="AE131" s="275"/>
-      <c r="AF131" s="275"/>
-      <c r="AG131" s="213"/>
-      <c r="AH131" s="213"/>
-      <c r="AI131" s="212"/>
-      <c r="AJ131" s="212"/>
-      <c r="AK131" s="212"/>
-      <c r="AL131" s="212"/>
-      <c r="AM131" s="212"/>
-      <c r="AN131" s="213"/>
-      <c r="AO131" s="213"/>
-      <c r="AP131" s="55"/>
-      <c r="AQ131" s="55"/>
-      <c r="AR131" s="55"/>
-      <c r="AS131" s="55"/>
-      <c r="AT131" s="137"/>
-      <c r="AU131" s="72"/>
-      <c r="AV131" s="72"/>
-      <c r="AW131" s="55"/>
-      <c r="AX131" s="55"/>
-      <c r="AY131" s="55"/>
-      <c r="AZ131" s="55"/>
-      <c r="BA131" s="137"/>
-      <c r="BB131" s="72"/>
-      <c r="BC131" s="72"/>
-      <c r="BD131" s="55"/>
-      <c r="BE131" s="55"/>
-      <c r="BF131" s="55"/>
-      <c r="BG131" s="55"/>
-      <c r="BH131" s="137"/>
-      <c r="BI131" s="72"/>
-      <c r="BJ131" s="72"/>
-      <c r="BK131" s="55"/>
-      <c r="BL131" s="55"/>
-      <c r="BM131" s="55"/>
-      <c r="BN131" s="55"/>
-      <c r="BO131" s="55"/>
-      <c r="BP131" s="72"/>
-      <c r="BQ131" s="72"/>
-      <c r="BR131" s="55"/>
-      <c r="BS131" s="55"/>
-      <c r="BT131" s="55"/>
-      <c r="BU131" s="55"/>
-      <c r="BV131" s="55"/>
-      <c r="BW131" s="72"/>
-      <c r="BX131" s="72"/>
-      <c r="BY131" s="55"/>
-      <c r="BZ131" s="55"/>
-      <c r="CA131" s="55"/>
-      <c r="CB131" s="55"/>
-      <c r="CC131" s="55"/>
-      <c r="CD131" s="72"/>
-      <c r="CE131" s="72"/>
-      <c r="CF131" s="55"/>
-      <c r="CG131" s="55"/>
-      <c r="CH131" s="55"/>
-      <c r="CI131" s="55"/>
-      <c r="CJ131" s="55"/>
-      <c r="CK131" s="72"/>
-      <c r="CL131" s="72"/>
-      <c r="CM131" s="55"/>
-      <c r="CN131" s="55"/>
-      <c r="CO131" s="55"/>
-      <c r="CP131" s="55"/>
-      <c r="CQ131" s="55"/>
-      <c r="CR131" s="72"/>
-      <c r="CS131" s="72"/>
-      <c r="CT131" s="55"/>
-      <c r="CU131" s="55"/>
-      <c r="CV131" s="55"/>
-      <c r="CW131" s="55"/>
-      <c r="CX131" s="55"/>
-      <c r="CY131" s="72"/>
-      <c r="CZ131" s="72"/>
-      <c r="DA131" s="55"/>
-      <c r="DB131" s="55"/>
-      <c r="DC131" s="55"/>
-      <c r="DD131" s="55"/>
-      <c r="DE131" s="55"/>
-      <c r="DF131" s="72"/>
-      <c r="DG131" s="72"/>
-      <c r="DH131" s="57"/>
-      <c r="DI131" s="58"/>
-      <c r="DJ131" s="59"/>
-      <c r="DK131" s="60"/>
+      <c r="B131" s="296"/>
+      <c r="C131" s="299"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="81"/>
+      <c r="G131" s="226"/>
+      <c r="H131" s="206"/>
+      <c r="I131" s="206"/>
+      <c r="J131" s="206"/>
+      <c r="K131" s="206"/>
+      <c r="L131" s="208"/>
+      <c r="M131" s="208"/>
+      <c r="N131" s="207"/>
+      <c r="O131" s="207"/>
+      <c r="P131" s="207"/>
+      <c r="Q131" s="207"/>
+      <c r="R131" s="207"/>
+      <c r="S131" s="208"/>
+      <c r="T131" s="208"/>
+      <c r="U131" s="207"/>
+      <c r="V131" s="207"/>
+      <c r="W131" s="207"/>
+      <c r="X131" s="207"/>
+      <c r="Y131" s="207"/>
+      <c r="Z131" s="208"/>
+      <c r="AA131" s="208"/>
+      <c r="AB131" s="207"/>
+      <c r="AC131" s="207"/>
+      <c r="AD131" s="207"/>
+      <c r="AE131" s="276"/>
+      <c r="AF131" s="276"/>
+      <c r="AG131" s="208"/>
+      <c r="AH131" s="208"/>
+      <c r="AI131" s="207"/>
+      <c r="AJ131" s="207"/>
+      <c r="AK131" s="207"/>
+      <c r="AL131" s="207"/>
+      <c r="AM131" s="207"/>
+      <c r="AN131" s="208"/>
+      <c r="AO131" s="208"/>
+      <c r="AP131" s="62"/>
+      <c r="AQ131" s="62"/>
+      <c r="AR131" s="62"/>
+      <c r="AS131" s="62"/>
+      <c r="AT131" s="138"/>
+      <c r="AU131" s="71"/>
+      <c r="AV131" s="71"/>
+      <c r="AW131" s="62"/>
+      <c r="AX131" s="62"/>
+      <c r="AY131" s="62"/>
+      <c r="AZ131" s="62"/>
+      <c r="BA131" s="138"/>
+      <c r="BB131" s="71"/>
+      <c r="BC131" s="71"/>
+      <c r="BD131" s="62"/>
+      <c r="BE131" s="62"/>
+      <c r="BF131" s="62"/>
+      <c r="BG131" s="62"/>
+      <c r="BH131" s="138"/>
+      <c r="BI131" s="71"/>
+      <c r="BJ131" s="71"/>
+      <c r="BK131" s="62"/>
+      <c r="BL131" s="62"/>
+      <c r="BM131" s="62"/>
+      <c r="BN131" s="62"/>
+      <c r="BO131" s="62"/>
+      <c r="BP131" s="71"/>
+      <c r="BQ131" s="71"/>
+      <c r="BR131" s="62"/>
+      <c r="BS131" s="62"/>
+      <c r="BT131" s="62"/>
+      <c r="BU131" s="62"/>
+      <c r="BV131" s="62"/>
+      <c r="BW131" s="71"/>
+      <c r="BX131" s="71"/>
+      <c r="BY131" s="62"/>
+      <c r="BZ131" s="62"/>
+      <c r="CA131" s="62"/>
+      <c r="CB131" s="62"/>
+      <c r="CC131" s="62"/>
+      <c r="CD131" s="71"/>
+      <c r="CE131" s="71"/>
+      <c r="CF131" s="62"/>
+      <c r="CG131" s="62"/>
+      <c r="CH131" s="62"/>
+      <c r="CI131" s="62"/>
+      <c r="CJ131" s="62"/>
+      <c r="CK131" s="71"/>
+      <c r="CL131" s="71"/>
+      <c r="CM131" s="62"/>
+      <c r="CN131" s="62"/>
+      <c r="CO131" s="62"/>
+      <c r="CP131" s="62"/>
+      <c r="CQ131" s="62"/>
+      <c r="CR131" s="71"/>
+      <c r="CS131" s="71"/>
+      <c r="CT131" s="62"/>
+      <c r="CU131" s="62"/>
+      <c r="CV131" s="62"/>
+      <c r="CW131" s="62"/>
+      <c r="CX131" s="62"/>
+      <c r="CY131" s="71"/>
+      <c r="CZ131" s="71"/>
+      <c r="DA131" s="62"/>
+      <c r="DB131" s="62"/>
+      <c r="DC131" s="62"/>
+      <c r="DD131" s="62"/>
+      <c r="DE131" s="62"/>
+      <c r="DF131" s="71"/>
+      <c r="DG131" s="71"/>
+      <c r="DH131" s="63"/>
+      <c r="DI131" s="64"/>
+      <c r="DJ131" s="65"/>
+      <c r="DK131" s="66"/>
     </row>
     <row r="132" spans="2:115">
-      <c r="B132" s="290"/>
-      <c r="C132" s="302"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="23"/>
-      <c r="F132" s="81"/>
-      <c r="G132" s="222"/>
-      <c r="H132" s="195"/>
-      <c r="I132" s="195"/>
-      <c r="J132" s="215"/>
-      <c r="K132" s="195"/>
-      <c r="L132" s="209"/>
-      <c r="M132" s="209"/>
-      <c r="N132" s="195"/>
-      <c r="O132" s="195"/>
-      <c r="P132" s="195"/>
-      <c r="Q132" s="195"/>
-      <c r="R132" s="195"/>
-      <c r="S132" s="209"/>
-      <c r="T132" s="209"/>
-      <c r="U132" s="195"/>
-      <c r="V132" s="195"/>
-      <c r="W132" s="195"/>
-      <c r="X132" s="195"/>
-      <c r="Y132" s="195"/>
-      <c r="Z132" s="209"/>
-      <c r="AA132" s="209"/>
-      <c r="AB132" s="195"/>
-      <c r="AC132" s="195"/>
-      <c r="AD132" s="195"/>
-      <c r="AE132" s="272"/>
-      <c r="AF132" s="272"/>
-      <c r="AG132" s="209"/>
-      <c r="AH132" s="209"/>
-      <c r="AI132" s="195"/>
-      <c r="AJ132" s="195"/>
-      <c r="AK132" s="195"/>
-      <c r="AL132" s="195"/>
-      <c r="AM132" s="195"/>
-      <c r="AN132" s="209"/>
-      <c r="AO132" s="209"/>
-      <c r="AP132" s="47"/>
-      <c r="AQ132" s="47"/>
-      <c r="AR132" s="47"/>
-      <c r="AS132" s="47"/>
-      <c r="AT132" s="133"/>
-      <c r="AU132" s="70"/>
-      <c r="AV132" s="70"/>
-      <c r="AW132" s="47"/>
-      <c r="AX132" s="47"/>
-      <c r="AY132" s="47"/>
-      <c r="AZ132" s="47"/>
-      <c r="BA132" s="133"/>
-      <c r="BB132" s="70"/>
-      <c r="BC132" s="70"/>
-      <c r="BD132" s="47"/>
-      <c r="BE132" s="47"/>
-      <c r="BF132" s="47"/>
-      <c r="BG132" s="47"/>
-      <c r="BH132" s="133"/>
-      <c r="BI132" s="70"/>
-      <c r="BJ132" s="70"/>
-      <c r="BK132" s="47"/>
-      <c r="BL132" s="47"/>
-      <c r="BM132" s="47"/>
-      <c r="BN132" s="47"/>
-      <c r="BO132" s="47"/>
-      <c r="BP132" s="70"/>
-      <c r="BQ132" s="70"/>
-      <c r="BR132" s="47"/>
-      <c r="BS132" s="47"/>
-      <c r="BT132" s="47"/>
-      <c r="BU132" s="47"/>
-      <c r="BV132" s="47"/>
-      <c r="BW132" s="70"/>
-      <c r="BX132" s="70"/>
-      <c r="BY132" s="47"/>
-      <c r="BZ132" s="47"/>
-      <c r="CA132" s="47"/>
-      <c r="CB132" s="47"/>
-      <c r="CC132" s="47"/>
-      <c r="CD132" s="70"/>
-      <c r="CE132" s="70"/>
-      <c r="CF132" s="47"/>
-      <c r="CG132" s="47"/>
-      <c r="CH132" s="47"/>
-      <c r="CI132" s="47"/>
-      <c r="CJ132" s="47"/>
-      <c r="CK132" s="70"/>
-      <c r="CL132" s="70"/>
-      <c r="CM132" s="47"/>
-      <c r="CN132" s="47"/>
-      <c r="CO132" s="47"/>
-      <c r="CP132" s="47"/>
-      <c r="CQ132" s="47"/>
-      <c r="CR132" s="70"/>
-      <c r="CS132" s="70"/>
-      <c r="CT132" s="47"/>
-      <c r="CU132" s="47"/>
-      <c r="CV132" s="47"/>
-      <c r="CW132" s="47"/>
-      <c r="CX132" s="47"/>
-      <c r="CY132" s="70"/>
-      <c r="CZ132" s="70"/>
-      <c r="DA132" s="47"/>
-      <c r="DB132" s="47"/>
-      <c r="DC132" s="47"/>
-      <c r="DD132" s="47"/>
-      <c r="DE132" s="47"/>
-      <c r="DF132" s="70"/>
-      <c r="DG132" s="70"/>
-      <c r="DH132" s="48"/>
-      <c r="DI132" s="49"/>
-      <c r="DJ132" s="50"/>
-      <c r="DK132" s="51"/>
+      <c r="B132" s="296"/>
+      <c r="C132" s="300"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="82"/>
+      <c r="G132" s="221"/>
+      <c r="H132" s="211"/>
+      <c r="I132" s="211"/>
+      <c r="J132" s="211"/>
+      <c r="K132" s="211"/>
+      <c r="L132" s="213"/>
+      <c r="M132" s="213"/>
+      <c r="N132" s="212"/>
+      <c r="O132" s="212"/>
+      <c r="P132" s="212"/>
+      <c r="Q132" s="212"/>
+      <c r="R132" s="212"/>
+      <c r="S132" s="213"/>
+      <c r="T132" s="213"/>
+      <c r="U132" s="212"/>
+      <c r="V132" s="212"/>
+      <c r="W132" s="212"/>
+      <c r="X132" s="212"/>
+      <c r="Y132" s="212"/>
+      <c r="Z132" s="213"/>
+      <c r="AA132" s="213"/>
+      <c r="AB132" s="212"/>
+      <c r="AC132" s="212"/>
+      <c r="AD132" s="212"/>
+      <c r="AE132" s="275"/>
+      <c r="AF132" s="275"/>
+      <c r="AG132" s="213"/>
+      <c r="AH132" s="213"/>
+      <c r="AI132" s="212"/>
+      <c r="AJ132" s="212"/>
+      <c r="AK132" s="212"/>
+      <c r="AL132" s="212"/>
+      <c r="AM132" s="212"/>
+      <c r="AN132" s="213"/>
+      <c r="AO132" s="213"/>
+      <c r="AP132" s="55"/>
+      <c r="AQ132" s="55"/>
+      <c r="AR132" s="55"/>
+      <c r="AS132" s="55"/>
+      <c r="AT132" s="137"/>
+      <c r="AU132" s="72"/>
+      <c r="AV132" s="72"/>
+      <c r="AW132" s="55"/>
+      <c r="AX132" s="55"/>
+      <c r="AY132" s="55"/>
+      <c r="AZ132" s="55"/>
+      <c r="BA132" s="137"/>
+      <c r="BB132" s="72"/>
+      <c r="BC132" s="72"/>
+      <c r="BD132" s="55"/>
+      <c r="BE132" s="55"/>
+      <c r="BF132" s="55"/>
+      <c r="BG132" s="55"/>
+      <c r="BH132" s="137"/>
+      <c r="BI132" s="72"/>
+      <c r="BJ132" s="72"/>
+      <c r="BK132" s="55"/>
+      <c r="BL132" s="55"/>
+      <c r="BM132" s="55"/>
+      <c r="BN132" s="55"/>
+      <c r="BO132" s="55"/>
+      <c r="BP132" s="72"/>
+      <c r="BQ132" s="72"/>
+      <c r="BR132" s="55"/>
+      <c r="BS132" s="55"/>
+      <c r="BT132" s="55"/>
+      <c r="BU132" s="55"/>
+      <c r="BV132" s="55"/>
+      <c r="BW132" s="72"/>
+      <c r="BX132" s="72"/>
+      <c r="BY132" s="55"/>
+      <c r="BZ132" s="55"/>
+      <c r="CA132" s="55"/>
+      <c r="CB132" s="55"/>
+      <c r="CC132" s="55"/>
+      <c r="CD132" s="72"/>
+      <c r="CE132" s="72"/>
+      <c r="CF132" s="55"/>
+      <c r="CG132" s="55"/>
+      <c r="CH132" s="55"/>
+      <c r="CI132" s="55"/>
+      <c r="CJ132" s="55"/>
+      <c r="CK132" s="72"/>
+      <c r="CL132" s="72"/>
+      <c r="CM132" s="55"/>
+      <c r="CN132" s="55"/>
+      <c r="CO132" s="55"/>
+      <c r="CP132" s="55"/>
+      <c r="CQ132" s="55"/>
+      <c r="CR132" s="72"/>
+      <c r="CS132" s="72"/>
+      <c r="CT132" s="55"/>
+      <c r="CU132" s="55"/>
+      <c r="CV132" s="55"/>
+      <c r="CW132" s="55"/>
+      <c r="CX132" s="55"/>
+      <c r="CY132" s="72"/>
+      <c r="CZ132" s="72"/>
+      <c r="DA132" s="55"/>
+      <c r="DB132" s="55"/>
+      <c r="DC132" s="55"/>
+      <c r="DD132" s="55"/>
+      <c r="DE132" s="55"/>
+      <c r="DF132" s="72"/>
+      <c r="DG132" s="72"/>
+      <c r="DH132" s="57"/>
+      <c r="DI132" s="58"/>
+      <c r="DJ132" s="59"/>
+      <c r="DK132" s="60"/>
     </row>
-    <row r="133" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B133" s="305"/>
-      <c r="C133" s="306"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="286"/>
-      <c r="F133" s="287"/>
-      <c r="G133" s="227"/>
-      <c r="H133" s="228"/>
-      <c r="I133" s="228"/>
-      <c r="J133" s="288"/>
-      <c r="K133" s="288"/>
-      <c r="L133" s="229"/>
-      <c r="M133" s="229"/>
-      <c r="N133" s="228"/>
-      <c r="O133" s="228"/>
-      <c r="P133" s="228"/>
-      <c r="Q133" s="228"/>
-      <c r="R133" s="228"/>
-      <c r="S133" s="229"/>
-      <c r="T133" s="229"/>
-      <c r="U133" s="228"/>
-      <c r="V133" s="228"/>
-      <c r="W133" s="228"/>
-      <c r="X133" s="228"/>
-      <c r="Y133" s="228"/>
-      <c r="Z133" s="229"/>
-      <c r="AA133" s="229"/>
-      <c r="AB133" s="228"/>
-      <c r="AC133" s="228"/>
-      <c r="AD133" s="228"/>
-      <c r="AE133" s="279"/>
-      <c r="AF133" s="279"/>
-      <c r="AG133" s="229"/>
-      <c r="AH133" s="229"/>
-      <c r="AI133" s="228"/>
-      <c r="AJ133" s="228"/>
-      <c r="AK133" s="228"/>
-      <c r="AL133" s="228"/>
-      <c r="AM133" s="228"/>
-      <c r="AN133" s="229"/>
-      <c r="AO133" s="229"/>
-      <c r="AP133" s="84"/>
-      <c r="AQ133" s="84"/>
-      <c r="AR133" s="84"/>
-      <c r="AS133" s="84"/>
-      <c r="AT133" s="140"/>
-      <c r="AU133" s="85"/>
-      <c r="AV133" s="85"/>
-      <c r="AW133" s="84"/>
-      <c r="AX133" s="84"/>
-      <c r="AY133" s="84"/>
-      <c r="AZ133" s="84"/>
-      <c r="BA133" s="140"/>
-      <c r="BB133" s="85"/>
-      <c r="BC133" s="85"/>
-      <c r="BD133" s="84"/>
-      <c r="BE133" s="84"/>
-      <c r="BF133" s="84"/>
-      <c r="BG133" s="84"/>
-      <c r="BH133" s="140"/>
-      <c r="BI133" s="85"/>
-      <c r="BJ133" s="85"/>
-      <c r="BK133" s="84"/>
-      <c r="BL133" s="84"/>
-      <c r="BM133" s="84"/>
-      <c r="BN133" s="84"/>
-      <c r="BO133" s="84"/>
-      <c r="BP133" s="85"/>
-      <c r="BQ133" s="85"/>
-      <c r="BR133" s="84"/>
-      <c r="BS133" s="84"/>
-      <c r="BT133" s="84"/>
-      <c r="BU133" s="84"/>
-      <c r="BV133" s="84"/>
-      <c r="BW133" s="85"/>
-      <c r="BX133" s="85"/>
-      <c r="BY133" s="84"/>
-      <c r="BZ133" s="84"/>
-      <c r="CA133" s="84"/>
-      <c r="CB133" s="84"/>
-      <c r="CC133" s="84"/>
-      <c r="CD133" s="85"/>
-      <c r="CE133" s="85"/>
-      <c r="CF133" s="84"/>
-      <c r="CG133" s="84"/>
-      <c r="CH133" s="84"/>
-      <c r="CI133" s="84"/>
-      <c r="CJ133" s="84"/>
-      <c r="CK133" s="85"/>
-      <c r="CL133" s="85"/>
-      <c r="CM133" s="84"/>
-      <c r="CN133" s="84"/>
-      <c r="CO133" s="84"/>
-      <c r="CP133" s="84"/>
-      <c r="CQ133" s="84"/>
-      <c r="CR133" s="85"/>
-      <c r="CS133" s="85"/>
-      <c r="CT133" s="84"/>
-      <c r="CU133" s="84"/>
-      <c r="CV133" s="84"/>
-      <c r="CW133" s="84"/>
-      <c r="CX133" s="84"/>
-      <c r="CY133" s="85"/>
-      <c r="CZ133" s="85"/>
-      <c r="DA133" s="84"/>
-      <c r="DB133" s="84"/>
-      <c r="DC133" s="84"/>
-      <c r="DD133" s="84"/>
-      <c r="DE133" s="84"/>
-      <c r="DF133" s="85"/>
-      <c r="DG133" s="85"/>
-      <c r="DH133" s="86"/>
-      <c r="DI133" s="87"/>
-      <c r="DJ133" s="88"/>
-      <c r="DK133" s="89"/>
+    <row r="133" spans="2:115">
+      <c r="B133" s="296"/>
+      <c r="C133" s="301"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="81"/>
+      <c r="G133" s="222"/>
+      <c r="H133" s="195"/>
+      <c r="I133" s="195"/>
+      <c r="J133" s="215"/>
+      <c r="K133" s="195"/>
+      <c r="L133" s="209"/>
+      <c r="M133" s="209"/>
+      <c r="N133" s="195"/>
+      <c r="O133" s="195"/>
+      <c r="P133" s="195"/>
+      <c r="Q133" s="195"/>
+      <c r="R133" s="195"/>
+      <c r="S133" s="209"/>
+      <c r="T133" s="209"/>
+      <c r="U133" s="195"/>
+      <c r="V133" s="195"/>
+      <c r="W133" s="195"/>
+      <c r="X133" s="195"/>
+      <c r="Y133" s="195"/>
+      <c r="Z133" s="209"/>
+      <c r="AA133" s="209"/>
+      <c r="AB133" s="195"/>
+      <c r="AC133" s="195"/>
+      <c r="AD133" s="195"/>
+      <c r="AE133" s="272"/>
+      <c r="AF133" s="272"/>
+      <c r="AG133" s="209"/>
+      <c r="AH133" s="209"/>
+      <c r="AI133" s="195"/>
+      <c r="AJ133" s="195"/>
+      <c r="AK133" s="195"/>
+      <c r="AL133" s="195"/>
+      <c r="AM133" s="195"/>
+      <c r="AN133" s="209"/>
+      <c r="AO133" s="209"/>
+      <c r="AP133" s="47"/>
+      <c r="AQ133" s="47"/>
+      <c r="AR133" s="47"/>
+      <c r="AS133" s="47"/>
+      <c r="AT133" s="133"/>
+      <c r="AU133" s="70"/>
+      <c r="AV133" s="70"/>
+      <c r="AW133" s="47"/>
+      <c r="AX133" s="47"/>
+      <c r="AY133" s="47"/>
+      <c r="AZ133" s="47"/>
+      <c r="BA133" s="133"/>
+      <c r="BB133" s="70"/>
+      <c r="BC133" s="70"/>
+      <c r="BD133" s="47"/>
+      <c r="BE133" s="47"/>
+      <c r="BF133" s="47"/>
+      <c r="BG133" s="47"/>
+      <c r="BH133" s="133"/>
+      <c r="BI133" s="70"/>
+      <c r="BJ133" s="70"/>
+      <c r="BK133" s="47"/>
+      <c r="BL133" s="47"/>
+      <c r="BM133" s="47"/>
+      <c r="BN133" s="47"/>
+      <c r="BO133" s="47"/>
+      <c r="BP133" s="70"/>
+      <c r="BQ133" s="70"/>
+      <c r="BR133" s="47"/>
+      <c r="BS133" s="47"/>
+      <c r="BT133" s="47"/>
+      <c r="BU133" s="47"/>
+      <c r="BV133" s="47"/>
+      <c r="BW133" s="70"/>
+      <c r="BX133" s="70"/>
+      <c r="BY133" s="47"/>
+      <c r="BZ133" s="47"/>
+      <c r="CA133" s="47"/>
+      <c r="CB133" s="47"/>
+      <c r="CC133" s="47"/>
+      <c r="CD133" s="70"/>
+      <c r="CE133" s="70"/>
+      <c r="CF133" s="47"/>
+      <c r="CG133" s="47"/>
+      <c r="CH133" s="47"/>
+      <c r="CI133" s="47"/>
+      <c r="CJ133" s="47"/>
+      <c r="CK133" s="70"/>
+      <c r="CL133" s="70"/>
+      <c r="CM133" s="47"/>
+      <c r="CN133" s="47"/>
+      <c r="CO133" s="47"/>
+      <c r="CP133" s="47"/>
+      <c r="CQ133" s="47"/>
+      <c r="CR133" s="70"/>
+      <c r="CS133" s="70"/>
+      <c r="CT133" s="47"/>
+      <c r="CU133" s="47"/>
+      <c r="CV133" s="47"/>
+      <c r="CW133" s="47"/>
+      <c r="CX133" s="47"/>
+      <c r="CY133" s="70"/>
+      <c r="CZ133" s="70"/>
+      <c r="DA133" s="47"/>
+      <c r="DB133" s="47"/>
+      <c r="DC133" s="47"/>
+      <c r="DD133" s="47"/>
+      <c r="DE133" s="47"/>
+      <c r="DF133" s="70"/>
+      <c r="DG133" s="70"/>
+      <c r="DH133" s="48"/>
+      <c r="DI133" s="49"/>
+      <c r="DJ133" s="50"/>
+      <c r="DK133" s="51"/>
     </row>
-    <row r="134" spans="2:115" ht="17.25" thickTop="1"/>
+    <row r="134" spans="2:115" ht="17.25" thickBot="1">
+      <c r="B134" s="297"/>
+      <c r="C134" s="302"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="286"/>
+      <c r="F134" s="287"/>
+      <c r="G134" s="227"/>
+      <c r="H134" s="228"/>
+      <c r="I134" s="228"/>
+      <c r="J134" s="288"/>
+      <c r="K134" s="288"/>
+      <c r="L134" s="229"/>
+      <c r="M134" s="229"/>
+      <c r="N134" s="228"/>
+      <c r="O134" s="228"/>
+      <c r="P134" s="228"/>
+      <c r="Q134" s="228"/>
+      <c r="R134" s="228"/>
+      <c r="S134" s="229"/>
+      <c r="T134" s="229"/>
+      <c r="U134" s="228"/>
+      <c r="V134" s="228"/>
+      <c r="W134" s="228"/>
+      <c r="X134" s="228"/>
+      <c r="Y134" s="228"/>
+      <c r="Z134" s="229"/>
+      <c r="AA134" s="229"/>
+      <c r="AB134" s="228"/>
+      <c r="AC134" s="228"/>
+      <c r="AD134" s="228"/>
+      <c r="AE134" s="279"/>
+      <c r="AF134" s="279"/>
+      <c r="AG134" s="229"/>
+      <c r="AH134" s="229"/>
+      <c r="AI134" s="228"/>
+      <c r="AJ134" s="228"/>
+      <c r="AK134" s="228"/>
+      <c r="AL134" s="228"/>
+      <c r="AM134" s="228"/>
+      <c r="AN134" s="229"/>
+      <c r="AO134" s="229"/>
+      <c r="AP134" s="84"/>
+      <c r="AQ134" s="84"/>
+      <c r="AR134" s="84"/>
+      <c r="AS134" s="84"/>
+      <c r="AT134" s="140"/>
+      <c r="AU134" s="85"/>
+      <c r="AV134" s="85"/>
+      <c r="AW134" s="84"/>
+      <c r="AX134" s="84"/>
+      <c r="AY134" s="84"/>
+      <c r="AZ134" s="84"/>
+      <c r="BA134" s="140"/>
+      <c r="BB134" s="85"/>
+      <c r="BC134" s="85"/>
+      <c r="BD134" s="84"/>
+      <c r="BE134" s="84"/>
+      <c r="BF134" s="84"/>
+      <c r="BG134" s="84"/>
+      <c r="BH134" s="140"/>
+      <c r="BI134" s="85"/>
+      <c r="BJ134" s="85"/>
+      <c r="BK134" s="84"/>
+      <c r="BL134" s="84"/>
+      <c r="BM134" s="84"/>
+      <c r="BN134" s="84"/>
+      <c r="BO134" s="84"/>
+      <c r="BP134" s="85"/>
+      <c r="BQ134" s="85"/>
+      <c r="BR134" s="84"/>
+      <c r="BS134" s="84"/>
+      <c r="BT134" s="84"/>
+      <c r="BU134" s="84"/>
+      <c r="BV134" s="84"/>
+      <c r="BW134" s="85"/>
+      <c r="BX134" s="85"/>
+      <c r="BY134" s="84"/>
+      <c r="BZ134" s="84"/>
+      <c r="CA134" s="84"/>
+      <c r="CB134" s="84"/>
+      <c r="CC134" s="84"/>
+      <c r="CD134" s="85"/>
+      <c r="CE134" s="85"/>
+      <c r="CF134" s="84"/>
+      <c r="CG134" s="84"/>
+      <c r="CH134" s="84"/>
+      <c r="CI134" s="84"/>
+      <c r="CJ134" s="84"/>
+      <c r="CK134" s="85"/>
+      <c r="CL134" s="85"/>
+      <c r="CM134" s="84"/>
+      <c r="CN134" s="84"/>
+      <c r="CO134" s="84"/>
+      <c r="CP134" s="84"/>
+      <c r="CQ134" s="84"/>
+      <c r="CR134" s="85"/>
+      <c r="CS134" s="85"/>
+      <c r="CT134" s="84"/>
+      <c r="CU134" s="84"/>
+      <c r="CV134" s="84"/>
+      <c r="CW134" s="84"/>
+      <c r="CX134" s="84"/>
+      <c r="CY134" s="85"/>
+      <c r="CZ134" s="85"/>
+      <c r="DA134" s="84"/>
+      <c r="DB134" s="84"/>
+      <c r="DC134" s="84"/>
+      <c r="DD134" s="84"/>
+      <c r="DE134" s="84"/>
+      <c r="DF134" s="85"/>
+      <c r="DG134" s="85"/>
+      <c r="DH134" s="86"/>
+      <c r="DI134" s="87"/>
+      <c r="DJ134" s="88"/>
+      <c r="DK134" s="89"/>
+    </row>
+    <row r="135" spans="2:115" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B128:B133"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="B20:B62"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C47"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B85:B127"/>
-    <mergeCell ref="C85:C114"/>
-    <mergeCell ref="C115:C120"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="B85:B128"/>
+    <mergeCell ref="C85:C115"/>
+    <mergeCell ref="C116:C121"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="C126:C128"/>
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="B79:B84"/>
     <mergeCell ref="C79:C80"/>
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="C83:C84"/>
     <mergeCell ref="B73:B78"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="B20:B62"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C47"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="C60:C62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="9405"/>
@@ -58,6 +58,40 @@
             <charset val="129"/>
           </rPr>
           <t>이해 부족으로 기본적인 책 한권 읽고 시작 예정</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>snoopy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+line chart, Achart </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자료 수집</t>
         </r>
       </text>
     </comment>
@@ -762,7 +796,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -978,8 +1012,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1172,6 +1212,12 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="121">
     <border>
@@ -2702,7 +2748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="322">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3588,27 +3634,69 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="28" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3621,49 +3709,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="43" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5263,8 +5312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:XFD135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="AV112" sqref="AV112"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="AY68" sqref="AY68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7278,7 +7327,7 @@
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="296" t="s">
+      <c r="B18" s="300" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="230" t="s">
@@ -7404,7 +7453,7 @@
       <c r="DK18" s="40"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="296"/>
+      <c r="B19" s="300"/>
       <c r="C19" s="235" t="s">
         <v>10</v>
       </c>
@@ -7528,10 +7577,10 @@
       <c r="DK19" s="35"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="295" t="s">
+      <c r="B20" s="299" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="312" t="s">
+      <c r="C20" s="302" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="239" t="s">
@@ -7654,8 +7703,8 @@
       <c r="DK20" s="52"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="296"/>
-      <c r="C21" s="313"/>
+      <c r="B21" s="300"/>
+      <c r="C21" s="303"/>
       <c r="D21" s="239" t="s">
         <v>57</v>
       </c>
@@ -7776,8 +7825,8 @@
       <c r="DK21" s="54"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="296"/>
-      <c r="C22" s="313"/>
+      <c r="B22" s="300"/>
+      <c r="C22" s="303"/>
       <c r="D22" s="239" t="s">
         <v>55</v>
       </c>
@@ -7898,8 +7947,8 @@
       <c r="DK22" s="54"/>
     </row>
     <row r="23" spans="2:115">
-      <c r="B23" s="296"/>
-      <c r="C23" s="314"/>
+      <c r="B23" s="300"/>
+      <c r="C23" s="304"/>
       <c r="D23" s="239" t="s">
         <v>56</v>
       </c>
@@ -8020,8 +8069,8 @@
       <c r="DK23" s="54"/>
     </row>
     <row r="24" spans="2:115">
-      <c r="B24" s="296"/>
-      <c r="C24" s="315" t="s">
+      <c r="B24" s="300"/>
+      <c r="C24" s="305" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="284" t="s">
@@ -8144,8 +8193,8 @@
       <c r="DK24" s="66"/>
     </row>
     <row r="25" spans="2:115">
-      <c r="B25" s="296"/>
-      <c r="C25" s="315"/>
+      <c r="B25" s="300"/>
+      <c r="C25" s="305"/>
       <c r="D25" s="231" t="s">
         <v>72</v>
       </c>
@@ -8266,8 +8315,8 @@
       <c r="DK25" s="51"/>
     </row>
     <row r="26" spans="2:115">
-      <c r="B26" s="296"/>
-      <c r="C26" s="315"/>
+      <c r="B26" s="300"/>
+      <c r="C26" s="305"/>
       <c r="D26" s="231" t="s">
         <v>73</v>
       </c>
@@ -8388,8 +8437,8 @@
       <c r="DK26" s="51"/>
     </row>
     <row r="27" spans="2:115">
-      <c r="B27" s="296"/>
-      <c r="C27" s="315"/>
+      <c r="B27" s="300"/>
+      <c r="C27" s="305"/>
       <c r="D27" s="231" t="s">
         <v>74</v>
       </c>
@@ -8510,8 +8559,8 @@
       <c r="DK27" s="51"/>
     </row>
     <row r="28" spans="2:115">
-      <c r="B28" s="296"/>
-      <c r="C28" s="315"/>
+      <c r="B28" s="300"/>
+      <c r="C28" s="305"/>
       <c r="D28" s="231" t="s">
         <v>75</v>
       </c>
@@ -8632,8 +8681,8 @@
       <c r="DK28" s="51"/>
     </row>
     <row r="29" spans="2:115">
-      <c r="B29" s="296"/>
-      <c r="C29" s="315"/>
+      <c r="B29" s="300"/>
+      <c r="C29" s="305"/>
       <c r="D29" s="231" t="s">
         <v>76</v>
       </c>
@@ -8754,8 +8803,8 @@
       <c r="DK29" s="51"/>
     </row>
     <row r="30" spans="2:115">
-      <c r="B30" s="296"/>
-      <c r="C30" s="315"/>
+      <c r="B30" s="300"/>
+      <c r="C30" s="305"/>
       <c r="D30" s="231" t="s">
         <v>77</v>
       </c>
@@ -8876,8 +8925,8 @@
       <c r="DK30" s="51"/>
     </row>
     <row r="31" spans="2:115">
-      <c r="B31" s="296"/>
-      <c r="C31" s="315"/>
+      <c r="B31" s="300"/>
+      <c r="C31" s="305"/>
       <c r="D31" s="231" t="s">
         <v>78</v>
       </c>
@@ -8998,8 +9047,8 @@
       <c r="DK31" s="51"/>
     </row>
     <row r="32" spans="2:115">
-      <c r="B32" s="296"/>
-      <c r="C32" s="315"/>
+      <c r="B32" s="300"/>
+      <c r="C32" s="305"/>
       <c r="D32" s="231" t="s">
         <v>79</v>
       </c>
@@ -9120,8 +9169,8 @@
       <c r="DK32" s="51"/>
     </row>
     <row r="33" spans="2:115">
-      <c r="B33" s="296"/>
-      <c r="C33" s="315"/>
+      <c r="B33" s="300"/>
+      <c r="C33" s="305"/>
       <c r="D33" s="231" t="s">
         <v>80</v>
       </c>
@@ -9242,8 +9291,8 @@
       <c r="DK33" s="51"/>
     </row>
     <row r="34" spans="2:115">
-      <c r="B34" s="296"/>
-      <c r="C34" s="315"/>
+      <c r="B34" s="300"/>
+      <c r="C34" s="305"/>
       <c r="D34" s="231" t="s">
         <v>81</v>
       </c>
@@ -9364,8 +9413,8 @@
       <c r="DK34" s="51"/>
     </row>
     <row r="35" spans="2:115">
-      <c r="B35" s="296"/>
-      <c r="C35" s="315"/>
+      <c r="B35" s="300"/>
+      <c r="C35" s="305"/>
       <c r="D35" s="231" t="s">
         <v>82</v>
       </c>
@@ -9486,8 +9535,8 @@
       <c r="DK35" s="51"/>
     </row>
     <row r="36" spans="2:115">
-      <c r="B36" s="296"/>
-      <c r="C36" s="315"/>
+      <c r="B36" s="300"/>
+      <c r="C36" s="305"/>
       <c r="D36" s="231" t="s">
         <v>83</v>
       </c>
@@ -9608,8 +9657,8 @@
       <c r="DK36" s="51"/>
     </row>
     <row r="37" spans="2:115">
-      <c r="B37" s="296"/>
-      <c r="C37" s="315"/>
+      <c r="B37" s="300"/>
+      <c r="C37" s="305"/>
       <c r="D37" s="231" t="s">
         <v>84</v>
       </c>
@@ -9730,8 +9779,8 @@
       <c r="DK37" s="51"/>
     </row>
     <row r="38" spans="2:115">
-      <c r="B38" s="296"/>
-      <c r="C38" s="315"/>
+      <c r="B38" s="300"/>
+      <c r="C38" s="305"/>
       <c r="D38" s="231" t="s">
         <v>85</v>
       </c>
@@ -9852,8 +9901,8 @@
       <c r="DK38" s="51"/>
     </row>
     <row r="39" spans="2:115">
-      <c r="B39" s="296"/>
-      <c r="C39" s="315"/>
+      <c r="B39" s="300"/>
+      <c r="C39" s="305"/>
       <c r="D39" s="231" t="s">
         <v>86</v>
       </c>
@@ -9974,8 +10023,8 @@
       <c r="DK39" s="51"/>
     </row>
     <row r="40" spans="2:115">
-      <c r="B40" s="296"/>
-      <c r="C40" s="315"/>
+      <c r="B40" s="300"/>
+      <c r="C40" s="305"/>
       <c r="D40" s="231" t="s">
         <v>87</v>
       </c>
@@ -10096,8 +10145,8 @@
       <c r="DK40" s="51"/>
     </row>
     <row r="41" spans="2:115">
-      <c r="B41" s="296"/>
-      <c r="C41" s="315"/>
+      <c r="B41" s="300"/>
+      <c r="C41" s="305"/>
       <c r="D41" s="231" t="s">
         <v>88</v>
       </c>
@@ -10218,8 +10267,8 @@
       <c r="DK41" s="51"/>
     </row>
     <row r="42" spans="2:115">
-      <c r="B42" s="296"/>
-      <c r="C42" s="315"/>
+      <c r="B42" s="300"/>
+      <c r="C42" s="305"/>
       <c r="D42" s="231" t="s">
         <v>89</v>
       </c>
@@ -10340,8 +10389,8 @@
       <c r="DK42" s="51"/>
     </row>
     <row r="43" spans="2:115">
-      <c r="B43" s="296"/>
-      <c r="C43" s="315"/>
+      <c r="B43" s="300"/>
+      <c r="C43" s="305"/>
       <c r="D43" s="231" t="s">
         <v>90</v>
       </c>
@@ -10462,8 +10511,8 @@
       <c r="DK43" s="51"/>
     </row>
     <row r="44" spans="2:115">
-      <c r="B44" s="296"/>
-      <c r="C44" s="315"/>
+      <c r="B44" s="300"/>
+      <c r="C44" s="305"/>
       <c r="D44" s="231" t="s">
         <v>91</v>
       </c>
@@ -10584,8 +10633,8 @@
       <c r="DK44" s="51"/>
     </row>
     <row r="45" spans="2:115">
-      <c r="B45" s="296"/>
-      <c r="C45" s="315"/>
+      <c r="B45" s="300"/>
+      <c r="C45" s="305"/>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="74"/>
@@ -10700,8 +10749,8 @@
       <c r="DK45" s="51"/>
     </row>
     <row r="46" spans="2:115">
-      <c r="B46" s="296"/>
-      <c r="C46" s="315"/>
+      <c r="B46" s="300"/>
+      <c r="C46" s="305"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="74"/>
@@ -10816,8 +10865,8 @@
       <c r="DK46" s="51"/>
     </row>
     <row r="47" spans="2:115">
-      <c r="B47" s="296"/>
-      <c r="C47" s="315"/>
+      <c r="B47" s="300"/>
+      <c r="C47" s="305"/>
       <c r="D47" s="10"/>
       <c r="E47" s="11"/>
       <c r="F47" s="77"/>
@@ -10932,8 +10981,8 @@
       <c r="DK47" s="60"/>
     </row>
     <row r="48" spans="2:115">
-      <c r="B48" s="296"/>
-      <c r="C48" s="307" t="s">
+      <c r="B48" s="300"/>
+      <c r="C48" s="306" t="s">
         <v>16</v>
       </c>
       <c r="D48" s="284" t="s">
@@ -11056,8 +11105,8 @@
       <c r="DK48" s="66"/>
     </row>
     <row r="49" spans="2:115">
-      <c r="B49" s="296"/>
-      <c r="C49" s="307"/>
+      <c r="B49" s="300"/>
+      <c r="C49" s="306"/>
       <c r="D49" s="231" t="s">
         <v>59</v>
       </c>
@@ -11178,8 +11227,8 @@
       <c r="DK49" s="51"/>
     </row>
     <row r="50" spans="2:115">
-      <c r="B50" s="296"/>
-      <c r="C50" s="307"/>
+      <c r="B50" s="300"/>
+      <c r="C50" s="306"/>
       <c r="D50" s="231" t="s">
         <v>61</v>
       </c>
@@ -11300,8 +11349,8 @@
       <c r="DK50" s="51"/>
     </row>
     <row r="51" spans="2:115">
-      <c r="B51" s="296"/>
-      <c r="C51" s="307"/>
+      <c r="B51" s="300"/>
+      <c r="C51" s="306"/>
       <c r="D51" s="231" t="s">
         <v>62</v>
       </c>
@@ -11422,8 +11471,8 @@
       <c r="DK51" s="51"/>
     </row>
     <row r="52" spans="2:115">
-      <c r="B52" s="296"/>
-      <c r="C52" s="307"/>
+      <c r="B52" s="300"/>
+      <c r="C52" s="306"/>
       <c r="D52" s="231" t="s">
         <v>65</v>
       </c>
@@ -11544,8 +11593,8 @@
       <c r="DK52" s="51"/>
     </row>
     <row r="53" spans="2:115">
-      <c r="B53" s="296"/>
-      <c r="C53" s="307"/>
+      <c r="B53" s="300"/>
+      <c r="C53" s="306"/>
       <c r="D53" s="231" t="s">
         <v>66</v>
       </c>
@@ -11666,8 +11715,8 @@
       <c r="DK53" s="51"/>
     </row>
     <row r="54" spans="2:115">
-      <c r="B54" s="296"/>
-      <c r="C54" s="307"/>
+      <c r="B54" s="300"/>
+      <c r="C54" s="306"/>
       <c r="D54" s="231" t="s">
         <v>67</v>
       </c>
@@ -11788,8 +11837,8 @@
       <c r="DK54" s="51"/>
     </row>
     <row r="55" spans="2:115">
-      <c r="B55" s="296"/>
-      <c r="C55" s="307"/>
+      <c r="B55" s="300"/>
+      <c r="C55" s="306"/>
       <c r="D55" s="231" t="s">
         <v>68</v>
       </c>
@@ -11910,8 +11959,8 @@
       <c r="DK55" s="51"/>
     </row>
     <row r="56" spans="2:115">
-      <c r="B56" s="296"/>
-      <c r="C56" s="307"/>
+      <c r="B56" s="300"/>
+      <c r="C56" s="306"/>
       <c r="D56" s="10"/>
       <c r="E56" s="11"/>
       <c r="F56" s="77"/>
@@ -12026,8 +12075,8 @@
       <c r="DK56" s="60"/>
     </row>
     <row r="57" spans="2:115">
-      <c r="B57" s="296"/>
-      <c r="C57" s="305" t="s">
+      <c r="B57" s="300"/>
+      <c r="C57" s="319" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -12150,8 +12199,8 @@
       <c r="DK57" s="66"/>
     </row>
     <row r="58" spans="2:115">
-      <c r="B58" s="296"/>
-      <c r="C58" s="304"/>
+      <c r="B58" s="300"/>
+      <c r="C58" s="318"/>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
       <c r="F58" s="74"/>
@@ -12266,8 +12315,8 @@
       <c r="DK58" s="51"/>
     </row>
     <row r="59" spans="2:115">
-      <c r="B59" s="296"/>
-      <c r="C59" s="306"/>
+      <c r="B59" s="300"/>
+      <c r="C59" s="307"/>
       <c r="D59" s="10"/>
       <c r="E59" s="11"/>
       <c r="F59" s="77"/>
@@ -12382,8 +12431,8 @@
       <c r="DK59" s="60"/>
     </row>
     <row r="60" spans="2:115">
-      <c r="B60" s="296"/>
-      <c r="C60" s="306"/>
+      <c r="B60" s="300"/>
+      <c r="C60" s="307"/>
       <c r="D60" s="284" t="s">
         <v>63</v>
       </c>
@@ -12504,8 +12553,8 @@
       <c r="DK60" s="51"/>
     </row>
     <row r="61" spans="2:115">
-      <c r="B61" s="296"/>
-      <c r="C61" s="315"/>
+      <c r="B61" s="300"/>
+      <c r="C61" s="305"/>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
       <c r="F61" s="74"/>
@@ -12620,8 +12669,8 @@
       <c r="DK61" s="51"/>
     </row>
     <row r="62" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B62" s="308"/>
-      <c r="C62" s="316"/>
+      <c r="B62" s="301"/>
+      <c r="C62" s="308"/>
       <c r="D62" s="17"/>
       <c r="E62" s="13"/>
       <c r="F62" s="78"/>
@@ -12736,10 +12785,10 @@
       <c r="DK62" s="35"/>
     </row>
     <row r="63" spans="2:115">
-      <c r="B63" s="310" t="s">
+      <c r="B63" s="313" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="307" t="s">
+      <c r="C63" s="306" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="231" t="s">
@@ -12862,8 +12911,8 @@
       <c r="DK63" s="46"/>
     </row>
     <row r="64" spans="2:115">
-      <c r="B64" s="311"/>
-      <c r="C64" s="307"/>
+      <c r="B64" s="314"/>
+      <c r="C64" s="306"/>
       <c r="D64" s="231" t="s">
         <v>41</v>
       </c>
@@ -12984,8 +13033,8 @@
       <c r="DK64" s="51"/>
     </row>
     <row r="65" spans="2:115 16384:16384">
-      <c r="B65" s="311"/>
-      <c r="C65" s="307"/>
+      <c r="B65" s="314"/>
+      <c r="C65" s="306"/>
       <c r="D65" s="231" t="s">
         <v>42</v>
       </c>
@@ -13106,8 +13155,8 @@
       <c r="DK65" s="51"/>
     </row>
     <row r="66" spans="2:115 16384:16384">
-      <c r="B66" s="311"/>
-      <c r="C66" s="307"/>
+      <c r="B66" s="314"/>
+      <c r="C66" s="306"/>
       <c r="D66" s="231" t="s">
         <v>43</v>
       </c>
@@ -13228,8 +13277,8 @@
       <c r="DK66" s="51"/>
     </row>
     <row r="67" spans="2:115 16384:16384">
-      <c r="B67" s="311"/>
-      <c r="C67" s="307"/>
+      <c r="B67" s="314"/>
+      <c r="C67" s="306"/>
       <c r="D67" s="5" t="s">
         <v>45</v>
       </c>
@@ -13346,8 +13395,8 @@
       <c r="DK67" s="51"/>
     </row>
     <row r="68" spans="2:115 16384:16384">
-      <c r="B68" s="311"/>
-      <c r="C68" s="307"/>
+      <c r="B68" s="314"/>
+      <c r="C68" s="306"/>
       <c r="D68" s="5"/>
       <c r="E68" s="6"/>
       <c r="F68" s="74"/>
@@ -13462,8 +13511,8 @@
       <c r="DK68" s="60"/>
     </row>
     <row r="69" spans="2:115 16384:16384">
-      <c r="B69" s="311"/>
-      <c r="C69" s="301" t="s">
+      <c r="B69" s="314"/>
+      <c r="C69" s="312" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="14" t="s">
@@ -13510,9 +13559,9 @@
       <c r="AM69" s="195"/>
       <c r="AN69" s="209"/>
       <c r="AO69" s="209"/>
-      <c r="AP69" s="47"/>
+      <c r="AP69" s="321"/>
       <c r="AQ69" s="47"/>
-      <c r="AR69" s="47"/>
+      <c r="AR69" s="321"/>
       <c r="AS69" s="47"/>
       <c r="AT69" s="133"/>
       <c r="AU69" s="70"/>
@@ -13586,8 +13635,8 @@
       <c r="DK69" s="51"/>
     </row>
     <row r="70" spans="2:115 16384:16384">
-      <c r="B70" s="311"/>
-      <c r="C70" s="301"/>
+      <c r="B70" s="314"/>
+      <c r="C70" s="312"/>
       <c r="D70" s="5" t="s">
         <v>47</v>
       </c>
@@ -13704,8 +13753,8 @@
       <c r="DK70" s="51"/>
     </row>
     <row r="71" spans="2:115 16384:16384">
-      <c r="B71" s="311"/>
-      <c r="C71" s="301"/>
+      <c r="B71" s="314"/>
+      <c r="C71" s="312"/>
       <c r="D71" s="5" t="s">
         <v>28</v>
       </c>
@@ -13822,8 +13871,8 @@
       <c r="DK71" s="51"/>
     </row>
     <row r="72" spans="2:115 16384:16384" ht="17.25" thickBot="1">
-      <c r="B72" s="311"/>
-      <c r="C72" s="301"/>
+      <c r="B72" s="314"/>
+      <c r="C72" s="312"/>
       <c r="D72" s="10"/>
       <c r="E72" s="11"/>
       <c r="F72" s="77"/>
@@ -13938,10 +13987,10 @@
       <c r="DK72" s="35"/>
     </row>
     <row r="73" spans="2:115 16384:16384">
-      <c r="B73" s="295" t="s">
+      <c r="B73" s="299" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="298" t="s">
+      <c r="C73" s="309" t="s">
         <v>37</v>
       </c>
       <c r="D73" s="20" t="s">
@@ -14065,8 +14114,8 @@
       <c r="XFD73" s="55"/>
     </row>
     <row r="74" spans="2:115 16384:16384">
-      <c r="B74" s="296"/>
-      <c r="C74" s="299"/>
+      <c r="B74" s="300"/>
+      <c r="C74" s="310"/>
       <c r="D74" s="15"/>
       <c r="E74" s="22"/>
       <c r="F74" s="80"/>
@@ -14181,8 +14230,8 @@
       <c r="DK74" s="60"/>
     </row>
     <row r="75" spans="2:115 16384:16384">
-      <c r="B75" s="296"/>
-      <c r="C75" s="299" t="s">
+      <c r="B75" s="300"/>
+      <c r="C75" s="310" t="s">
         <v>48</v>
       </c>
       <c r="D75" s="14" t="s">
@@ -14303,8 +14352,8 @@
       <c r="DK75" s="66"/>
     </row>
     <row r="76" spans="2:115 16384:16384">
-      <c r="B76" s="296"/>
-      <c r="C76" s="300"/>
+      <c r="B76" s="300"/>
+      <c r="C76" s="311"/>
       <c r="D76" s="16"/>
       <c r="E76" s="24"/>
       <c r="F76" s="82"/>
@@ -14419,8 +14468,8 @@
       <c r="DK76" s="60"/>
     </row>
     <row r="77" spans="2:115 16384:16384">
-      <c r="B77" s="296"/>
-      <c r="C77" s="301"/>
+      <c r="B77" s="300"/>
+      <c r="C77" s="312"/>
       <c r="D77" s="14"/>
       <c r="E77" s="23"/>
       <c r="F77" s="81"/>
@@ -14535,8 +14584,8 @@
       <c r="DK77" s="66"/>
     </row>
     <row r="78" spans="2:115 16384:16384" ht="17.25" thickBot="1">
-      <c r="B78" s="308"/>
-      <c r="C78" s="301"/>
+      <c r="B78" s="301"/>
+      <c r="C78" s="312"/>
       <c r="D78" s="15"/>
       <c r="E78" s="22"/>
       <c r="F78" s="80"/>
@@ -14651,10 +14700,10 @@
       <c r="DK78" s="35"/>
     </row>
     <row r="79" spans="2:115 16384:16384">
-      <c r="B79" s="295" t="s">
+      <c r="B79" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="298" t="s">
+      <c r="C79" s="309" t="s">
         <v>50</v>
       </c>
       <c r="D79" s="20"/>
@@ -14773,8 +14822,8 @@
       <c r="DK79" s="46"/>
     </row>
     <row r="80" spans="2:115 16384:16384">
-      <c r="B80" s="296"/>
-      <c r="C80" s="299"/>
+      <c r="B80" s="300"/>
+      <c r="C80" s="310"/>
       <c r="D80" s="15"/>
       <c r="E80" s="22"/>
       <c r="F80" s="80"/>
@@ -14889,8 +14938,8 @@
       <c r="DK80" s="51"/>
     </row>
     <row r="81" spans="2:115">
-      <c r="B81" s="296"/>
-      <c r="C81" s="299" t="s">
+      <c r="B81" s="300"/>
+      <c r="C81" s="310" t="s">
         <v>52</v>
       </c>
       <c r="D81" s="14"/>
@@ -15009,8 +15058,8 @@
       <c r="DK81" s="66"/>
     </row>
     <row r="82" spans="2:115">
-      <c r="B82" s="296"/>
-      <c r="C82" s="300"/>
+      <c r="B82" s="300"/>
+      <c r="C82" s="311"/>
       <c r="D82" s="16"/>
       <c r="E82" s="24"/>
       <c r="F82" s="82"/>
@@ -15125,8 +15174,8 @@
       <c r="DK82" s="60"/>
     </row>
     <row r="83" spans="2:115">
-      <c r="B83" s="296"/>
-      <c r="C83" s="301"/>
+      <c r="B83" s="300"/>
+      <c r="C83" s="312"/>
       <c r="D83" s="14"/>
       <c r="E83" s="23"/>
       <c r="F83" s="81"/>
@@ -15241,8 +15290,8 @@
       <c r="DK83" s="51"/>
     </row>
     <row r="84" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B84" s="308"/>
-      <c r="C84" s="309"/>
+      <c r="B84" s="301"/>
+      <c r="C84" s="320"/>
       <c r="D84" s="25"/>
       <c r="E84" s="26"/>
       <c r="F84" s="83"/>
@@ -15357,10 +15406,10 @@
       <c r="DK84" s="35"/>
     </row>
     <row r="85" spans="2:115">
-      <c r="B85" s="295" t="s">
+      <c r="B85" s="299" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="303" t="s">
+      <c r="C85" s="317" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -15481,8 +15530,8 @@
       <c r="DK85" s="46"/>
     </row>
     <row r="86" spans="2:115">
-      <c r="B86" s="296"/>
-      <c r="C86" s="304"/>
+      <c r="B86" s="300"/>
+      <c r="C86" s="318"/>
       <c r="D86" s="5" t="s">
         <v>95</v>
       </c>
@@ -15601,8 +15650,8 @@
       <c r="DK86" s="51"/>
     </row>
     <row r="87" spans="2:115">
-      <c r="B87" s="296"/>
-      <c r="C87" s="304"/>
+      <c r="B87" s="300"/>
+      <c r="C87" s="318"/>
       <c r="D87" s="5" t="s">
         <v>96</v>
       </c>
@@ -15721,8 +15770,8 @@
       <c r="DK87" s="51"/>
     </row>
     <row r="88" spans="2:115">
-      <c r="B88" s="296"/>
-      <c r="C88" s="304"/>
+      <c r="B88" s="300"/>
+      <c r="C88" s="318"/>
       <c r="D88" s="5" t="s">
         <v>97</v>
       </c>
@@ -15841,8 +15890,8 @@
       <c r="DK88" s="51"/>
     </row>
     <row r="89" spans="2:115">
-      <c r="B89" s="296"/>
-      <c r="C89" s="304"/>
+      <c r="B89" s="300"/>
+      <c r="C89" s="318"/>
       <c r="D89" s="5" t="s">
         <v>110</v>
       </c>
@@ -15961,8 +16010,8 @@
       <c r="DK89" s="51"/>
     </row>
     <row r="90" spans="2:115">
-      <c r="B90" s="296"/>
-      <c r="C90" s="304"/>
+      <c r="B90" s="300"/>
+      <c r="C90" s="318"/>
       <c r="D90" s="5" t="s">
         <v>92</v>
       </c>
@@ -16081,8 +16130,8 @@
       <c r="DK90" s="51"/>
     </row>
     <row r="91" spans="2:115">
-      <c r="B91" s="296"/>
-      <c r="C91" s="304"/>
+      <c r="B91" s="300"/>
+      <c r="C91" s="318"/>
       <c r="D91" s="5" t="s">
         <v>93</v>
       </c>
@@ -16201,8 +16250,8 @@
       <c r="DK91" s="51"/>
     </row>
     <row r="92" spans="2:115">
-      <c r="B92" s="296"/>
-      <c r="C92" s="304"/>
+      <c r="B92" s="300"/>
+      <c r="C92" s="318"/>
       <c r="D92" s="5" t="s">
         <v>98</v>
       </c>
@@ -16319,8 +16368,8 @@
       <c r="DK92" s="51"/>
     </row>
     <row r="93" spans="2:115">
-      <c r="B93" s="296"/>
-      <c r="C93" s="304"/>
+      <c r="B93" s="300"/>
+      <c r="C93" s="318"/>
       <c r="D93" s="5" t="s">
         <v>99</v>
       </c>
@@ -16437,8 +16486,8 @@
       <c r="DK93" s="51"/>
     </row>
     <row r="94" spans="2:115">
-      <c r="B94" s="296"/>
-      <c r="C94" s="304"/>
+      <c r="B94" s="300"/>
+      <c r="C94" s="318"/>
       <c r="D94" s="5" t="s">
         <v>100</v>
       </c>
@@ -16555,8 +16604,8 @@
       <c r="DK94" s="51"/>
     </row>
     <row r="95" spans="2:115">
-      <c r="B95" s="296"/>
-      <c r="C95" s="304"/>
+      <c r="B95" s="300"/>
+      <c r="C95" s="318"/>
       <c r="D95" s="5" t="s">
         <v>101</v>
       </c>
@@ -16673,8 +16722,8 @@
       <c r="DK95" s="51"/>
     </row>
     <row r="96" spans="2:115">
-      <c r="B96" s="296"/>
-      <c r="C96" s="304"/>
+      <c r="B96" s="300"/>
+      <c r="C96" s="318"/>
       <c r="D96" s="5" t="s">
         <v>102</v>
       </c>
@@ -16791,8 +16840,8 @@
       <c r="DK96" s="51"/>
     </row>
     <row r="97" spans="2:115">
-      <c r="B97" s="296"/>
-      <c r="C97" s="304"/>
+      <c r="B97" s="300"/>
+      <c r="C97" s="318"/>
       <c r="D97" s="5" t="s">
         <v>103</v>
       </c>
@@ -16909,8 +16958,8 @@
       <c r="DK97" s="51"/>
     </row>
     <row r="98" spans="2:115">
-      <c r="B98" s="296"/>
-      <c r="C98" s="304"/>
+      <c r="B98" s="300"/>
+      <c r="C98" s="318"/>
       <c r="D98" s="5" t="s">
         <v>104</v>
       </c>
@@ -17027,8 +17076,8 @@
       <c r="DK98" s="51"/>
     </row>
     <row r="99" spans="2:115">
-      <c r="B99" s="296"/>
-      <c r="C99" s="304"/>
+      <c r="B99" s="300"/>
+      <c r="C99" s="318"/>
       <c r="D99" s="5" t="s">
         <v>105</v>
       </c>
@@ -17145,8 +17194,8 @@
       <c r="DK99" s="51"/>
     </row>
     <row r="100" spans="2:115">
-      <c r="B100" s="296"/>
-      <c r="C100" s="304"/>
+      <c r="B100" s="300"/>
+      <c r="C100" s="318"/>
       <c r="D100" s="5" t="s">
         <v>106</v>
       </c>
@@ -17263,8 +17312,8 @@
       <c r="DK100" s="51"/>
     </row>
     <row r="101" spans="2:115">
-      <c r="B101" s="296"/>
-      <c r="C101" s="304"/>
+      <c r="B101" s="300"/>
+      <c r="C101" s="318"/>
       <c r="D101" s="5" t="s">
         <v>107</v>
       </c>
@@ -17381,8 +17430,8 @@
       <c r="DK101" s="51"/>
     </row>
     <row r="102" spans="2:115">
-      <c r="B102" s="296"/>
-      <c r="C102" s="304"/>
+      <c r="B102" s="300"/>
+      <c r="C102" s="318"/>
       <c r="D102" s="5" t="s">
         <v>108</v>
       </c>
@@ -17499,8 +17548,8 @@
       <c r="DK102" s="51"/>
     </row>
     <row r="103" spans="2:115">
-      <c r="B103" s="296"/>
-      <c r="C103" s="304"/>
+      <c r="B103" s="300"/>
+      <c r="C103" s="318"/>
       <c r="D103" s="5" t="s">
         <v>109</v>
       </c>
@@ -17617,8 +17666,8 @@
       <c r="DK103" s="51"/>
     </row>
     <row r="104" spans="2:115">
-      <c r="B104" s="296"/>
-      <c r="C104" s="304"/>
+      <c r="B104" s="300"/>
+      <c r="C104" s="318"/>
       <c r="D104" s="5" t="s">
         <v>111</v>
       </c>
@@ -17735,8 +17784,8 @@
       <c r="DK104" s="51"/>
     </row>
     <row r="105" spans="2:115">
-      <c r="B105" s="296"/>
-      <c r="C105" s="304"/>
+      <c r="B105" s="300"/>
+      <c r="C105" s="318"/>
       <c r="D105" s="5" t="s">
         <v>112</v>
       </c>
@@ -17853,8 +17902,8 @@
       <c r="DK105" s="51"/>
     </row>
     <row r="106" spans="2:115">
-      <c r="B106" s="296"/>
-      <c r="C106" s="304"/>
+      <c r="B106" s="300"/>
+      <c r="C106" s="318"/>
       <c r="D106" s="5" t="s">
         <v>113</v>
       </c>
@@ -17971,8 +18020,8 @@
       <c r="DK106" s="51"/>
     </row>
     <row r="107" spans="2:115">
-      <c r="B107" s="296"/>
-      <c r="C107" s="304"/>
+      <c r="B107" s="300"/>
+      <c r="C107" s="318"/>
       <c r="D107" s="5" t="s">
         <v>118</v>
       </c>
@@ -18015,8 +18064,8 @@
       <c r="AM107" s="195"/>
       <c r="AN107" s="209"/>
       <c r="AO107" s="200"/>
-      <c r="AP107" s="320"/>
-      <c r="AQ107" s="319"/>
+      <c r="AP107" s="298"/>
+      <c r="AQ107" s="297"/>
       <c r="AR107" s="47"/>
       <c r="AS107" s="47"/>
       <c r="AT107" s="133"/>
@@ -18091,8 +18140,8 @@
       <c r="DK107" s="51"/>
     </row>
     <row r="108" spans="2:115">
-      <c r="B108" s="296"/>
-      <c r="C108" s="304"/>
+      <c r="B108" s="300"/>
+      <c r="C108" s="318"/>
       <c r="D108" s="5" t="s">
         <v>120</v>
       </c>
@@ -18135,9 +18184,9 @@
       <c r="AM108" s="195"/>
       <c r="AN108" s="209"/>
       <c r="AO108" s="209"/>
-      <c r="AP108" s="318"/>
-      <c r="AQ108" s="320"/>
-      <c r="AR108" s="319"/>
+      <c r="AP108" s="296"/>
+      <c r="AQ108" s="298"/>
+      <c r="AR108" s="297"/>
       <c r="AS108" s="47"/>
       <c r="AT108" s="133"/>
       <c r="AU108" s="70"/>
@@ -18211,8 +18260,8 @@
       <c r="DK108" s="51"/>
     </row>
     <row r="109" spans="2:115">
-      <c r="B109" s="296"/>
-      <c r="C109" s="304"/>
+      <c r="B109" s="300"/>
+      <c r="C109" s="318"/>
       <c r="D109" s="5"/>
       <c r="E109" s="6"/>
       <c r="F109" s="74"/>
@@ -18252,7 +18301,7 @@
       <c r="AN109" s="209"/>
       <c r="AO109" s="209"/>
       <c r="AP109" s="47"/>
-      <c r="AQ109" s="317"/>
+      <c r="AQ109" s="295"/>
       <c r="AR109" s="47"/>
       <c r="AS109" s="47"/>
       <c r="AT109" s="133"/>
@@ -18327,8 +18376,8 @@
       <c r="DK109" s="51"/>
     </row>
     <row r="110" spans="2:115">
-      <c r="B110" s="296"/>
-      <c r="C110" s="304"/>
+      <c r="B110" s="300"/>
+      <c r="C110" s="318"/>
       <c r="D110" s="5"/>
       <c r="E110" s="6"/>
       <c r="F110" s="74"/>
@@ -18368,7 +18417,7 @@
       <c r="AN110" s="209"/>
       <c r="AO110" s="209"/>
       <c r="AP110" s="47"/>
-      <c r="AQ110" s="317"/>
+      <c r="AQ110" s="295"/>
       <c r="AR110" s="47"/>
       <c r="AS110" s="47"/>
       <c r="AT110" s="133"/>
@@ -18443,8 +18492,8 @@
       <c r="DK110" s="51"/>
     </row>
     <row r="111" spans="2:115">
-      <c r="B111" s="296"/>
-      <c r="C111" s="304"/>
+      <c r="B111" s="300"/>
+      <c r="C111" s="318"/>
       <c r="D111" s="5"/>
       <c r="E111" s="6"/>
       <c r="F111" s="74"/>
@@ -18484,7 +18533,7 @@
       <c r="AN111" s="209"/>
       <c r="AO111" s="209"/>
       <c r="AP111" s="47"/>
-      <c r="AQ111" s="317"/>
+      <c r="AQ111" s="295"/>
       <c r="AR111" s="47"/>
       <c r="AS111" s="47"/>
       <c r="AT111" s="133"/>
@@ -18559,8 +18608,8 @@
       <c r="DK111" s="51"/>
     </row>
     <row r="112" spans="2:115">
-      <c r="B112" s="296"/>
-      <c r="C112" s="304"/>
+      <c r="B112" s="300"/>
+      <c r="C112" s="318"/>
       <c r="D112" s="5" t="s">
         <v>114</v>
       </c>
@@ -18677,8 +18726,8 @@
       <c r="DK112" s="51"/>
     </row>
     <row r="113" spans="2:116">
-      <c r="B113" s="296"/>
-      <c r="C113" s="304"/>
+      <c r="B113" s="300"/>
+      <c r="C113" s="318"/>
       <c r="D113" s="5" t="s">
         <v>115</v>
       </c>
@@ -18795,8 +18844,8 @@
       <c r="DK113" s="51"/>
     </row>
     <row r="114" spans="2:116">
-      <c r="B114" s="296"/>
-      <c r="C114" s="304"/>
+      <c r="B114" s="300"/>
+      <c r="C114" s="318"/>
       <c r="D114" s="5"/>
       <c r="E114" s="6"/>
       <c r="F114" s="74"/>
@@ -18911,8 +18960,8 @@
       <c r="DK114" s="51"/>
     </row>
     <row r="115" spans="2:116">
-      <c r="B115" s="296"/>
-      <c r="C115" s="304"/>
+      <c r="B115" s="300"/>
+      <c r="C115" s="318"/>
       <c r="D115" s="5"/>
       <c r="E115" s="6"/>
       <c r="F115" s="74"/>
@@ -19027,8 +19076,8 @@
       <c r="DK115" s="60"/>
     </row>
     <row r="116" spans="2:116">
-      <c r="B116" s="296"/>
-      <c r="C116" s="305"/>
+      <c r="B116" s="300"/>
+      <c r="C116" s="319"/>
       <c r="D116" s="8"/>
       <c r="E116" s="9"/>
       <c r="F116" s="76"/>
@@ -19143,8 +19192,8 @@
       <c r="DK116" s="66"/>
     </row>
     <row r="117" spans="2:116">
-      <c r="B117" s="296"/>
-      <c r="C117" s="304"/>
+      <c r="B117" s="300"/>
+      <c r="C117" s="318"/>
       <c r="D117" s="5"/>
       <c r="E117" s="6"/>
       <c r="F117" s="74"/>
@@ -19259,8 +19308,8 @@
       <c r="DK117" s="51"/>
     </row>
     <row r="118" spans="2:116">
-      <c r="B118" s="296"/>
-      <c r="C118" s="304"/>
+      <c r="B118" s="300"/>
+      <c r="C118" s="318"/>
       <c r="D118" s="5"/>
       <c r="E118" s="6"/>
       <c r="F118" s="74"/>
@@ -19375,8 +19424,8 @@
       <c r="DK118" s="51"/>
     </row>
     <row r="119" spans="2:116">
-      <c r="B119" s="296"/>
-      <c r="C119" s="304"/>
+      <c r="B119" s="300"/>
+      <c r="C119" s="318"/>
       <c r="D119" s="5"/>
       <c r="E119" s="6"/>
       <c r="F119" s="74"/>
@@ -19491,8 +19540,8 @@
       <c r="DK119" s="51"/>
     </row>
     <row r="120" spans="2:116">
-      <c r="B120" s="296"/>
-      <c r="C120" s="304"/>
+      <c r="B120" s="300"/>
+      <c r="C120" s="318"/>
       <c r="D120" s="5"/>
       <c r="E120" s="6"/>
       <c r="F120" s="74"/>
@@ -19607,8 +19656,8 @@
       <c r="DK120" s="51"/>
     </row>
     <row r="121" spans="2:116">
-      <c r="B121" s="296"/>
-      <c r="C121" s="306"/>
+      <c r="B121" s="300"/>
+      <c r="C121" s="307"/>
       <c r="D121" s="10"/>
       <c r="E121" s="11"/>
       <c r="F121" s="77"/>
@@ -19723,8 +19772,8 @@
       <c r="DK121" s="60"/>
     </row>
     <row r="122" spans="2:116">
-      <c r="B122" s="296"/>
-      <c r="C122" s="305"/>
+      <c r="B122" s="300"/>
+      <c r="C122" s="319"/>
       <c r="D122" s="8"/>
       <c r="E122" s="9"/>
       <c r="F122" s="76"/>
@@ -19840,8 +19889,8 @@
       <c r="DL122" s="7"/>
     </row>
     <row r="123" spans="2:116">
-      <c r="B123" s="296"/>
-      <c r="C123" s="304"/>
+      <c r="B123" s="300"/>
+      <c r="C123" s="318"/>
       <c r="D123" s="15"/>
       <c r="E123" s="22"/>
       <c r="F123" s="80"/>
@@ -19957,8 +20006,8 @@
       <c r="DL123" s="7"/>
     </row>
     <row r="124" spans="2:116">
-      <c r="B124" s="296"/>
-      <c r="C124" s="304"/>
+      <c r="B124" s="300"/>
+      <c r="C124" s="318"/>
       <c r="D124" s="15"/>
       <c r="E124" s="22"/>
       <c r="F124" s="80"/>
@@ -20074,8 +20123,8 @@
       <c r="DL124" s="7"/>
     </row>
     <row r="125" spans="2:116">
-      <c r="B125" s="296"/>
-      <c r="C125" s="306"/>
+      <c r="B125" s="300"/>
+      <c r="C125" s="307"/>
       <c r="D125" s="16"/>
       <c r="E125" s="24"/>
       <c r="F125" s="82"/>
@@ -20191,8 +20240,8 @@
       <c r="DL125" s="7"/>
     </row>
     <row r="126" spans="2:116">
-      <c r="B126" s="296"/>
-      <c r="C126" s="307"/>
+      <c r="B126" s="300"/>
+      <c r="C126" s="306"/>
       <c r="D126" s="5"/>
       <c r="E126" s="6"/>
       <c r="F126" s="74"/>
@@ -20307,8 +20356,8 @@
       <c r="DK126" s="66"/>
     </row>
     <row r="127" spans="2:116">
-      <c r="B127" s="296"/>
-      <c r="C127" s="307"/>
+      <c r="B127" s="300"/>
+      <c r="C127" s="306"/>
       <c r="D127" s="15"/>
       <c r="E127" s="6"/>
       <c r="F127" s="74"/>
@@ -20423,8 +20472,8 @@
       <c r="DK127" s="51"/>
     </row>
     <row r="128" spans="2:116" ht="17.25" thickBot="1">
-      <c r="B128" s="296"/>
-      <c r="C128" s="307"/>
+      <c r="B128" s="300"/>
+      <c r="C128" s="306"/>
       <c r="D128" s="15"/>
       <c r="E128" s="6"/>
       <c r="F128" s="74"/>
@@ -20539,8 +20588,8 @@
       <c r="DK128" s="51"/>
     </row>
     <row r="129" spans="2:115">
-      <c r="B129" s="295"/>
-      <c r="C129" s="298"/>
+      <c r="B129" s="299"/>
+      <c r="C129" s="309"/>
       <c r="D129" s="20"/>
       <c r="E129" s="21"/>
       <c r="F129" s="79"/>
@@ -20655,8 +20704,8 @@
       <c r="DK129" s="46"/>
     </row>
     <row r="130" spans="2:115">
-      <c r="B130" s="296"/>
-      <c r="C130" s="299"/>
+      <c r="B130" s="300"/>
+      <c r="C130" s="310"/>
       <c r="D130" s="15"/>
       <c r="E130" s="22"/>
       <c r="F130" s="80"/>
@@ -20771,8 +20820,8 @@
       <c r="DK130" s="51"/>
     </row>
     <row r="131" spans="2:115">
-      <c r="B131" s="296"/>
-      <c r="C131" s="299"/>
+      <c r="B131" s="300"/>
+      <c r="C131" s="310"/>
       <c r="D131" s="14"/>
       <c r="E131" s="23"/>
       <c r="F131" s="81"/>
@@ -20887,8 +20936,8 @@
       <c r="DK131" s="66"/>
     </row>
     <row r="132" spans="2:115">
-      <c r="B132" s="296"/>
-      <c r="C132" s="300"/>
+      <c r="B132" s="300"/>
+      <c r="C132" s="311"/>
       <c r="D132" s="16"/>
       <c r="E132" s="24"/>
       <c r="F132" s="82"/>
@@ -21003,8 +21052,8 @@
       <c r="DK132" s="60"/>
     </row>
     <row r="133" spans="2:115">
-      <c r="B133" s="296"/>
-      <c r="C133" s="301"/>
+      <c r="B133" s="300"/>
+      <c r="C133" s="312"/>
       <c r="D133" s="14"/>
       <c r="E133" s="23"/>
       <c r="F133" s="81"/>
@@ -21119,8 +21168,8 @@
       <c r="DK133" s="51"/>
     </row>
     <row r="134" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B134" s="297"/>
-      <c r="C134" s="302"/>
+      <c r="B134" s="315"/>
+      <c r="C134" s="316"/>
       <c r="D134" s="27"/>
       <c r="E134" s="286"/>
       <c r="F134" s="287"/>
@@ -21237,17 +21286,6 @@
     <row r="135" spans="2:115" ht="17.25" thickTop="1"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B20:B62"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C47"/>
-    <mergeCell ref="C48:C56"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="C63:C68"/>
     <mergeCell ref="B129:B134"/>
     <mergeCell ref="C129:C130"/>
     <mergeCell ref="C131:C132"/>
@@ -21264,6 +21302,17 @@
     <mergeCell ref="C81:C82"/>
     <mergeCell ref="C83:C84"/>
     <mergeCell ref="B73:B78"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="B20:B62"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C47"/>
+    <mergeCell ref="C48:C56"/>
+    <mergeCell ref="C60:C62"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
+++ b/trunk/DOC/Schedule/안드로이드 개발일정_가계부(가칭)_20100621_v1.0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20475" windowHeight="9405"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="123">
   <si>
     <t>모듈</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -791,6 +791,14 @@
     <t xml:space="preserve">지출, 수입, 자산, 부채 분류 기본메뉴 구성 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>김우석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류별 소분류 메뉴진입</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3646,15 +3654,60 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3667,53 +3720,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="120" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5312,8 +5320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:XFD135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="AY68" sqref="AY68"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7327,7 +7335,7 @@
       </c>
     </row>
     <row r="18" spans="2:115" ht="17.25" thickTop="1">
-      <c r="B18" s="300" t="s">
+      <c r="B18" s="301" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="230" t="s">
@@ -7453,7 +7461,7 @@
       <c r="DK18" s="40"/>
     </row>
     <row r="19" spans="2:115" ht="17.25" thickBot="1">
-      <c r="B19" s="300"/>
+      <c r="B19" s="301"/>
       <c r="C19" s="235" t="s">
         <v>10</v>
       </c>
@@ -7577,10 +7585,10 @@
       <c r="DK19" s="35"/>
     </row>
     <row r="20" spans="2:115">
-      <c r="B20" s="299" t="s">
+      <c r="B20" s="300" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="302" t="s">
+      <c r="C20" s="317" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="239" t="s">
@@ -7703,8 +7711,8 @@
       <c r="DK20" s="52"/>
     </row>
     <row r="21" spans="2:115">
-      <c r="B21" s="300"/>
-      <c r="C21" s="303"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="318"/>
       <c r="D21" s="239" t="s">
         <v>57</v>
       </c>
@@ -7825,8 +7833,8 @@
       <c r="DK21" s="54"/>
     </row>
     <row r="22" spans="2:115">
-      <c r="B22" s="300"/>
-      <c r="C22" s="303"/>
+      <c r="B22" s="301"/>
+      <c r="C22" s="318"/>
       <c r="D22" s="239" t="s">
        